--- a/DSA Sheet.xlsx
+++ b/DSA Sheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Java\dataStructureAndAlgorithm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Java\Java-DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EACF51B4-102D-48F2-AF27-F94F26621915}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E6F8DD8-7180-46CE-AC57-4D26246D1C71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22140" windowHeight="13176" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="475">
   <si>
     <t>Topic:</t>
   </si>
@@ -1444,6 +1444,12 @@
   </si>
   <si>
     <t>YES</t>
+  </si>
+  <si>
+    <t>QS0ARR</t>
+  </si>
+  <si>
+    <t>Write a Program to sort array Using Quick Sort</t>
   </si>
 </sst>
 </file>
@@ -1894,10 +1900,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
-  <dimension ref="A1:D481"/>
+  <dimension ref="A1:D482"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:D7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1962,24 +1968,22 @@
         <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>3</v>
-      </c>
+        <v>474</v>
+      </c>
+      <c r="D8" s="10"/>
     </row>
     <row r="9" spans="1:4" ht="21">
       <c r="A9" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>3</v>
@@ -1990,10 +1994,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>3</v>
@@ -2004,10 +2008,10 @@
         <v>4</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>3</v>
@@ -2018,10 +2022,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>3</v>
@@ -2031,9 +2035,11 @@
       <c r="A13" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="5"/>
+      <c r="B13" s="5" t="s">
+        <v>471</v>
+      </c>
       <c r="C13" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>3</v>
@@ -2045,7 +2051,7 @@
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>3</v>
@@ -2057,7 +2063,7 @@
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>3</v>
@@ -2069,7 +2075,7 @@
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>3</v>
@@ -2081,7 +2087,7 @@
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>3</v>
@@ -2093,7 +2099,7 @@
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>3</v>
@@ -2105,7 +2111,7 @@
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>3</v>
@@ -2117,7 +2123,7 @@
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>3</v>
@@ -2129,7 +2135,7 @@
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>3</v>
@@ -2141,7 +2147,7 @@
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>3</v>
@@ -2153,7 +2159,7 @@
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>3</v>
@@ -2165,7 +2171,7 @@
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>3</v>
@@ -2177,7 +2183,7 @@
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>3</v>
@@ -2189,7 +2195,7 @@
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>3</v>
@@ -2201,7 +2207,7 @@
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>3</v>
@@ -2213,7 +2219,7 @@
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>3</v>
@@ -2225,7 +2231,7 @@
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>3</v>
@@ -2237,7 +2243,7 @@
       </c>
       <c r="B30" s="5"/>
       <c r="C30" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>3</v>
@@ -2249,7 +2255,7 @@
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>3</v>
@@ -2261,7 +2267,7 @@
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>3</v>
@@ -2273,7 +2279,7 @@
       </c>
       <c r="B33" s="5"/>
       <c r="C33" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>3</v>
@@ -2285,7 +2291,7 @@
       </c>
       <c r="B34" s="5"/>
       <c r="C34" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>3</v>
@@ -2297,7 +2303,7 @@
       </c>
       <c r="B35" s="5"/>
       <c r="C35" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>3</v>
@@ -2309,7 +2315,7 @@
       </c>
       <c r="B36" s="5"/>
       <c r="C36" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>3</v>
@@ -2321,7 +2327,7 @@
       </c>
       <c r="B37" s="5"/>
       <c r="C37" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>3</v>
@@ -2333,7 +2339,7 @@
       </c>
       <c r="B38" s="5"/>
       <c r="C38" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>3</v>
@@ -2345,7 +2351,7 @@
       </c>
       <c r="B39" s="5"/>
       <c r="C39" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>3</v>
@@ -2357,7 +2363,7 @@
       </c>
       <c r="B40" s="5"/>
       <c r="C40" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>3</v>
@@ -2369,34 +2375,34 @@
       </c>
       <c r="B41" s="5"/>
       <c r="C41" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="21">
+      <c r="A42" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="5"/>
+      <c r="C42" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D41" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="21">
-      <c r="C42" s="7"/>
       <c r="D42" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="21">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5"/>
       <c r="C43" s="7"/>
       <c r="D43" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="21">
-      <c r="A44" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B44" s="8"/>
-      <c r="C44" s="6" t="s">
-        <v>42</v>
-      </c>
+      <c r="A44" s="5"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="7"/>
       <c r="D44" s="4" t="s">
         <v>3</v>
       </c>
@@ -2407,7 +2413,7 @@
       </c>
       <c r="B45" s="8"/>
       <c r="C45" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>3</v>
@@ -2419,7 +2425,7 @@
       </c>
       <c r="B46" s="8"/>
       <c r="C46" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>3</v>
@@ -2431,7 +2437,7 @@
       </c>
       <c r="B47" s="8"/>
       <c r="C47" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>3</v>
@@ -2443,7 +2449,7 @@
       </c>
       <c r="B48" s="8"/>
       <c r="C48" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>3</v>
@@ -2455,7 +2461,7 @@
       </c>
       <c r="B49" s="8"/>
       <c r="C49" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>3</v>
@@ -2467,7 +2473,7 @@
       </c>
       <c r="B50" s="8"/>
       <c r="C50" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>3</v>
@@ -2479,7 +2485,7 @@
       </c>
       <c r="B51" s="8"/>
       <c r="C51" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>3</v>
@@ -2491,7 +2497,7 @@
       </c>
       <c r="B52" s="8"/>
       <c r="C52" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>3</v>
@@ -2503,29 +2509,29 @@
       </c>
       <c r="B53" s="8"/>
       <c r="C53" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="21">
+      <c r="A54" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B54" s="8"/>
+      <c r="C54" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D53" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="21">
-      <c r="A55" s="5"/>
-      <c r="B55" s="5"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="4"/>
+      <c r="D54" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="56" spans="1:4" ht="21">
-      <c r="A56" s="5" t="s">
-        <v>52</v>
-      </c>
+      <c r="A56" s="5"/>
       <c r="B56" s="5"/>
-      <c r="C56" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="C56" s="7"/>
+      <c r="D56" s="4"/>
     </row>
     <row r="57" spans="1:4" ht="21">
       <c r="A57" s="5" t="s">
@@ -2533,7 +2539,7 @@
       </c>
       <c r="B57" s="5"/>
       <c r="C57" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>3</v>
@@ -2545,7 +2551,7 @@
       </c>
       <c r="B58" s="5"/>
       <c r="C58" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>3</v>
@@ -2556,8 +2562,8 @@
         <v>52</v>
       </c>
       <c r="B59" s="5"/>
-      <c r="C59" s="7" t="s">
-        <v>56</v>
+      <c r="C59" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>3</v>
@@ -2568,8 +2574,8 @@
         <v>52</v>
       </c>
       <c r="B60" s="5"/>
-      <c r="C60" s="6" t="s">
-        <v>57</v>
+      <c r="C60" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>3</v>
@@ -2581,7 +2587,7 @@
       </c>
       <c r="B61" s="5"/>
       <c r="C61" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>3</v>
@@ -2593,7 +2599,7 @@
       </c>
       <c r="B62" s="5"/>
       <c r="C62" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>3</v>
@@ -2605,7 +2611,7 @@
       </c>
       <c r="B63" s="5"/>
       <c r="C63" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>3</v>
@@ -2617,7 +2623,7 @@
       </c>
       <c r="B64" s="5"/>
       <c r="C64" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>3</v>
@@ -2629,7 +2635,7 @@
       </c>
       <c r="B65" s="5"/>
       <c r="C65" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>3</v>
@@ -2641,7 +2647,7 @@
       </c>
       <c r="B66" s="5"/>
       <c r="C66" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>3</v>
@@ -2653,7 +2659,7 @@
       </c>
       <c r="B67" s="5"/>
       <c r="C67" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>3</v>
@@ -2665,7 +2671,7 @@
       </c>
       <c r="B68" s="5"/>
       <c r="C68" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>3</v>
@@ -2677,7 +2683,7 @@
       </c>
       <c r="B69" s="5"/>
       <c r="C69" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>3</v>
@@ -2689,7 +2695,7 @@
       </c>
       <c r="B70" s="5"/>
       <c r="C70" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>3</v>
@@ -2701,7 +2707,7 @@
       </c>
       <c r="B71" s="5"/>
       <c r="C71" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D71" s="4" t="s">
         <v>3</v>
@@ -2713,7 +2719,7 @@
       </c>
       <c r="B72" s="5"/>
       <c r="C72" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>3</v>
@@ -2725,7 +2731,7 @@
       </c>
       <c r="B73" s="5"/>
       <c r="C73" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>3</v>
@@ -2737,7 +2743,7 @@
       </c>
       <c r="B74" s="5"/>
       <c r="C74" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>3</v>
@@ -2749,7 +2755,7 @@
       </c>
       <c r="B75" s="5"/>
       <c r="C75" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>3</v>
@@ -2761,7 +2767,7 @@
       </c>
       <c r="B76" s="5"/>
       <c r="C76" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D76" s="4" t="s">
         <v>3</v>
@@ -2773,7 +2779,7 @@
       </c>
       <c r="B77" s="5"/>
       <c r="C77" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D77" s="4" t="s">
         <v>3</v>
@@ -2785,7 +2791,7 @@
       </c>
       <c r="B78" s="5"/>
       <c r="C78" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D78" s="4" t="s">
         <v>3</v>
@@ -2797,7 +2803,7 @@
       </c>
       <c r="B79" s="5"/>
       <c r="C79" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D79" s="4" t="s">
         <v>3</v>
@@ -2809,7 +2815,7 @@
       </c>
       <c r="B80" s="5"/>
       <c r="C80" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D80" s="4" t="s">
         <v>3</v>
@@ -2821,7 +2827,7 @@
       </c>
       <c r="B81" s="5"/>
       <c r="C81" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D81" s="4" t="s">
         <v>3</v>
@@ -2833,7 +2839,7 @@
       </c>
       <c r="B82" s="5"/>
       <c r="C82" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D82" s="4" t="s">
         <v>3</v>
@@ -2845,7 +2851,7 @@
       </c>
       <c r="B83" s="5"/>
       <c r="C83" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D83" s="4" t="s">
         <v>3</v>
@@ -2857,7 +2863,7 @@
       </c>
       <c r="B84" s="5"/>
       <c r="C84" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D84" s="4" t="s">
         <v>3</v>
@@ -2869,7 +2875,7 @@
       </c>
       <c r="B85" s="5"/>
       <c r="C85" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D85" s="4" t="s">
         <v>3</v>
@@ -2881,7 +2887,7 @@
       </c>
       <c r="B86" s="5"/>
       <c r="C86" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D86" s="4" t="s">
         <v>3</v>
@@ -2893,7 +2899,7 @@
       </c>
       <c r="B87" s="5"/>
       <c r="C87" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D87" s="4" t="s">
         <v>3</v>
@@ -2905,7 +2911,7 @@
       </c>
       <c r="B88" s="5"/>
       <c r="C88" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D88" s="4" t="s">
         <v>3</v>
@@ -2917,7 +2923,7 @@
       </c>
       <c r="B89" s="5"/>
       <c r="C89" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D89" s="4" t="s">
         <v>3</v>
@@ -2929,7 +2935,7 @@
       </c>
       <c r="B90" s="5"/>
       <c r="C90" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D90" s="4" t="s">
         <v>3</v>
@@ -2941,7 +2947,7 @@
       </c>
       <c r="B91" s="5"/>
       <c r="C91" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D91" s="4" t="s">
         <v>3</v>
@@ -2953,7 +2959,7 @@
       </c>
       <c r="B92" s="5"/>
       <c r="C92" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D92" s="4" t="s">
         <v>3</v>
@@ -2965,7 +2971,7 @@
       </c>
       <c r="B93" s="5"/>
       <c r="C93" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D93" s="4" t="s">
         <v>3</v>
@@ -2977,7 +2983,7 @@
       </c>
       <c r="B94" s="5"/>
       <c r="C94" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D94" s="4" t="s">
         <v>3</v>
@@ -2989,7 +2995,7 @@
       </c>
       <c r="B95" s="5"/>
       <c r="C95" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D95" s="4" t="s">
         <v>3</v>
@@ -3001,7 +3007,7 @@
       </c>
       <c r="B96" s="5"/>
       <c r="C96" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D96" s="4" t="s">
         <v>3</v>
@@ -3013,7 +3019,7 @@
       </c>
       <c r="B97" s="5"/>
       <c r="C97" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D97" s="4" t="s">
         <v>3</v>
@@ -3025,29 +3031,29 @@
       </c>
       <c r="B98" s="5"/>
       <c r="C98" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="21">
+      <c r="A99" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B99" s="5"/>
+      <c r="C99" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="D98" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" ht="21">
-      <c r="A100" s="8"/>
-      <c r="B100" s="8"/>
-      <c r="C100" s="7"/>
-      <c r="D100" s="4"/>
+      <c r="D99" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="101" spans="1:4" ht="21">
-      <c r="A101" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B101" s="5"/>
-      <c r="C101" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D101" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="A101" s="8"/>
+      <c r="B101" s="8"/>
+      <c r="C101" s="7"/>
+      <c r="D101" s="4"/>
     </row>
     <row r="102" spans="1:4" ht="21">
       <c r="A102" s="5" t="s">
@@ -3055,7 +3061,7 @@
       </c>
       <c r="B102" s="5"/>
       <c r="C102" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D102" s="4" t="s">
         <v>3</v>
@@ -3067,7 +3073,7 @@
       </c>
       <c r="B103" s="5"/>
       <c r="C103" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D103" s="4" t="s">
         <v>3</v>
@@ -3079,7 +3085,7 @@
       </c>
       <c r="B104" s="5"/>
       <c r="C104" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D104" s="4" t="s">
         <v>3</v>
@@ -3091,7 +3097,7 @@
       </c>
       <c r="B105" s="5"/>
       <c r="C105" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D105" s="4" t="s">
         <v>3</v>
@@ -3103,7 +3109,7 @@
       </c>
       <c r="B106" s="5"/>
       <c r="C106" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D106" s="4" t="s">
         <v>3</v>
@@ -3115,7 +3121,7 @@
       </c>
       <c r="B107" s="5"/>
       <c r="C107" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D107" s="4" t="s">
         <v>3</v>
@@ -3127,7 +3133,7 @@
       </c>
       <c r="B108" s="5"/>
       <c r="C108" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D108" s="4" t="s">
         <v>3</v>
@@ -3139,7 +3145,7 @@
       </c>
       <c r="B109" s="5"/>
       <c r="C109" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D109" s="4" t="s">
         <v>3</v>
@@ -3151,7 +3157,7 @@
       </c>
       <c r="B110" s="5"/>
       <c r="C110" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D110" s="4" t="s">
         <v>3</v>
@@ -3163,7 +3169,7 @@
       </c>
       <c r="B111" s="5"/>
       <c r="C111" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D111" s="4" t="s">
         <v>3</v>
@@ -3175,7 +3181,7 @@
       </c>
       <c r="B112" s="5"/>
       <c r="C112" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D112" s="4" t="s">
         <v>3</v>
@@ -3187,7 +3193,7 @@
       </c>
       <c r="B113" s="5"/>
       <c r="C113" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D113" s="4" t="s">
         <v>3</v>
@@ -3199,7 +3205,7 @@
       </c>
       <c r="B114" s="5"/>
       <c r="C114" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D114" s="4" t="s">
         <v>3</v>
@@ -3211,7 +3217,7 @@
       </c>
       <c r="B115" s="5"/>
       <c r="C115" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D115" s="4" t="s">
         <v>3</v>
@@ -3223,7 +3229,7 @@
       </c>
       <c r="B116" s="5"/>
       <c r="C116" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D116" s="4" t="s">
         <v>3</v>
@@ -3235,7 +3241,7 @@
       </c>
       <c r="B117" s="5"/>
       <c r="C117" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D117" s="4" t="s">
         <v>3</v>
@@ -3247,7 +3253,7 @@
       </c>
       <c r="B118" s="5"/>
       <c r="C118" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D118" s="4" t="s">
         <v>3</v>
@@ -3259,7 +3265,7 @@
       </c>
       <c r="B119" s="5"/>
       <c r="C119" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D119" s="4" t="s">
         <v>3</v>
@@ -3271,7 +3277,7 @@
       </c>
       <c r="B120" s="5"/>
       <c r="C120" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D120" s="4" t="s">
         <v>3</v>
@@ -3283,7 +3289,7 @@
       </c>
       <c r="B121" s="5"/>
       <c r="C121" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D121" s="4" t="s">
         <v>3</v>
@@ -3295,7 +3301,7 @@
       </c>
       <c r="B122" s="5"/>
       <c r="C122" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D122" s="4" t="s">
         <v>3</v>
@@ -3307,7 +3313,7 @@
       </c>
       <c r="B123" s="5"/>
       <c r="C123" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D123" s="4" t="s">
         <v>3</v>
@@ -3319,7 +3325,7 @@
       </c>
       <c r="B124" s="5"/>
       <c r="C124" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D124" s="4" t="s">
         <v>3</v>
@@ -3331,7 +3337,7 @@
       </c>
       <c r="B125" s="5"/>
       <c r="C125" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D125" s="4" t="s">
         <v>3</v>
@@ -3343,7 +3349,7 @@
       </c>
       <c r="B126" s="5"/>
       <c r="C126" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D126" s="4" t="s">
         <v>3</v>
@@ -3355,7 +3361,7 @@
       </c>
       <c r="B127" s="5"/>
       <c r="C127" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D127" s="4" t="s">
         <v>3</v>
@@ -3367,7 +3373,7 @@
       </c>
       <c r="B128" s="5"/>
       <c r="C128" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D128" s="4" t="s">
         <v>3</v>
@@ -3379,7 +3385,7 @@
       </c>
       <c r="B129" s="5"/>
       <c r="C129" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D129" s="4" t="s">
         <v>3</v>
@@ -3391,7 +3397,7 @@
       </c>
       <c r="B130" s="5"/>
       <c r="C130" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D130" s="4" t="s">
         <v>3</v>
@@ -3403,7 +3409,7 @@
       </c>
       <c r="B131" s="5"/>
       <c r="C131" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D131" s="4" t="s">
         <v>3</v>
@@ -3415,7 +3421,7 @@
       </c>
       <c r="B132" s="5"/>
       <c r="C132" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D132" s="4" t="s">
         <v>3</v>
@@ -3427,7 +3433,7 @@
       </c>
       <c r="B133" s="5"/>
       <c r="C133" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D133" s="4" t="s">
         <v>3</v>
@@ -3439,7 +3445,7 @@
       </c>
       <c r="B134" s="5"/>
       <c r="C134" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D134" s="4" t="s">
         <v>3</v>
@@ -3451,7 +3457,7 @@
       </c>
       <c r="B135" s="5"/>
       <c r="C135" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D135" s="4" t="s">
         <v>3</v>
@@ -3463,27 +3469,27 @@
       </c>
       <c r="B136" s="5"/>
       <c r="C136" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="21">
+      <c r="A137" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B137" s="5"/>
+      <c r="C137" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="D136" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" ht="21">
-      <c r="C138" s="7"/>
-      <c r="D138" s="4"/>
+      <c r="D137" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="139" spans="1:4" ht="21">
-      <c r="A139" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B139" s="8"/>
-      <c r="C139" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="D139" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="C139" s="7"/>
+      <c r="D139" s="4"/>
     </row>
     <row r="140" spans="1:4" ht="21">
       <c r="A140" s="8" t="s">
@@ -3491,7 +3497,7 @@
       </c>
       <c r="B140" s="8"/>
       <c r="C140" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D140" s="4" t="s">
         <v>3</v>
@@ -3503,7 +3509,7 @@
       </c>
       <c r="B141" s="8"/>
       <c r="C141" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D141" s="4" t="s">
         <v>3</v>
@@ -3515,7 +3521,7 @@
       </c>
       <c r="B142" s="8"/>
       <c r="C142" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D142" s="4" t="s">
         <v>3</v>
@@ -3527,7 +3533,7 @@
       </c>
       <c r="B143" s="8"/>
       <c r="C143" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D143" s="4" t="s">
         <v>3</v>
@@ -3539,7 +3545,7 @@
       </c>
       <c r="B144" s="8"/>
       <c r="C144" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D144" s="4" t="s">
         <v>3</v>
@@ -3551,7 +3557,7 @@
       </c>
       <c r="B145" s="8"/>
       <c r="C145" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D145" s="4" t="s">
         <v>3</v>
@@ -3563,7 +3569,7 @@
       </c>
       <c r="B146" s="8"/>
       <c r="C146" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D146" s="4" t="s">
         <v>3</v>
@@ -3575,7 +3581,7 @@
       </c>
       <c r="B147" s="8"/>
       <c r="C147" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D147" s="4" t="s">
         <v>3</v>
@@ -3587,7 +3593,7 @@
       </c>
       <c r="B148" s="8"/>
       <c r="C148" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D148" s="4" t="s">
         <v>3</v>
@@ -3599,7 +3605,7 @@
       </c>
       <c r="B149" s="8"/>
       <c r="C149" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D149" s="4" t="s">
         <v>3</v>
@@ -3611,7 +3617,7 @@
       </c>
       <c r="B150" s="8"/>
       <c r="C150" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D150" s="4" t="s">
         <v>3</v>
@@ -3623,7 +3629,7 @@
       </c>
       <c r="B151" s="8"/>
       <c r="C151" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D151" s="4" t="s">
         <v>3</v>
@@ -3635,7 +3641,7 @@
       </c>
       <c r="B152" s="8"/>
       <c r="C152" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D152" s="4" t="s">
         <v>3</v>
@@ -3647,7 +3653,7 @@
       </c>
       <c r="B153" s="8"/>
       <c r="C153" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D153" s="4" t="s">
         <v>3</v>
@@ -3659,7 +3665,7 @@
       </c>
       <c r="B154" s="8"/>
       <c r="C154" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D154" s="4" t="s">
         <v>3</v>
@@ -3671,7 +3677,7 @@
       </c>
       <c r="B155" s="8"/>
       <c r="C155" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D155" s="4" t="s">
         <v>3</v>
@@ -3683,7 +3689,7 @@
       </c>
       <c r="B156" s="8"/>
       <c r="C156" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D156" s="4" t="s">
         <v>3</v>
@@ -3695,7 +3701,7 @@
       </c>
       <c r="B157" s="8"/>
       <c r="C157" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D157" s="4" t="s">
         <v>3</v>
@@ -3707,7 +3713,7 @@
       </c>
       <c r="B158" s="8"/>
       <c r="C158" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D158" s="4" t="s">
         <v>3</v>
@@ -3719,7 +3725,7 @@
       </c>
       <c r="B159" s="8"/>
       <c r="C159" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D159" s="4" t="s">
         <v>3</v>
@@ -3731,7 +3737,7 @@
       </c>
       <c r="B160" s="8"/>
       <c r="C160" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D160" s="4" t="s">
         <v>3</v>
@@ -3743,7 +3749,7 @@
       </c>
       <c r="B161" s="8"/>
       <c r="C161" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D161" s="4" t="s">
         <v>3</v>
@@ -3755,7 +3761,7 @@
       </c>
       <c r="B162" s="8"/>
       <c r="C162" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D162" s="4" t="s">
         <v>3</v>
@@ -3767,7 +3773,7 @@
       </c>
       <c r="B163" s="8"/>
       <c r="C163" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D163" s="4" t="s">
         <v>3</v>
@@ -3778,8 +3784,8 @@
         <v>133</v>
       </c>
       <c r="B164" s="8"/>
-      <c r="C164" s="7" t="s">
-        <v>159</v>
+      <c r="C164" s="6" t="s">
+        <v>158</v>
       </c>
       <c r="D164" s="4" t="s">
         <v>3</v>
@@ -3791,7 +3797,7 @@
       </c>
       <c r="B165" s="8"/>
       <c r="C165" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D165" s="4" t="s">
         <v>3</v>
@@ -3802,8 +3808,8 @@
         <v>133</v>
       </c>
       <c r="B166" s="8"/>
-      <c r="C166" s="6" t="s">
-        <v>161</v>
+      <c r="C166" s="7" t="s">
+        <v>160</v>
       </c>
       <c r="D166" s="4" t="s">
         <v>3</v>
@@ -3815,7 +3821,7 @@
       </c>
       <c r="B167" s="8"/>
       <c r="C167" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D167" s="4" t="s">
         <v>3</v>
@@ -3827,7 +3833,7 @@
       </c>
       <c r="B168" s="8"/>
       <c r="C168" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D168" s="4" t="s">
         <v>3</v>
@@ -3839,7 +3845,7 @@
       </c>
       <c r="B169" s="8"/>
       <c r="C169" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D169" s="4" t="s">
         <v>3</v>
@@ -3851,7 +3857,7 @@
       </c>
       <c r="B170" s="8"/>
       <c r="C170" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D170" s="4" t="s">
         <v>3</v>
@@ -3863,7 +3869,7 @@
       </c>
       <c r="B171" s="8"/>
       <c r="C171" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D171" s="4" t="s">
         <v>3</v>
@@ -3875,7 +3881,7 @@
       </c>
       <c r="B172" s="8"/>
       <c r="C172" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D172" s="4" t="s">
         <v>3</v>
@@ -3887,7 +3893,7 @@
       </c>
       <c r="B173" s="8"/>
       <c r="C173" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D173" s="4" t="s">
         <v>3</v>
@@ -3899,27 +3905,27 @@
       </c>
       <c r="B174" s="8"/>
       <c r="C174" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D174" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" ht="21">
+      <c r="A175" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B175" s="8"/>
+      <c r="C175" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="D174" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" ht="21">
-      <c r="C176" s="7"/>
-      <c r="D176" s="4"/>
+      <c r="D175" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="177" spans="1:4" ht="21">
-      <c r="A177" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="B177" s="5"/>
-      <c r="C177" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="D177" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="C177" s="7"/>
+      <c r="D177" s="4"/>
     </row>
     <row r="178" spans="1:4" ht="21">
       <c r="A178" s="5" t="s">
@@ -3927,7 +3933,7 @@
       </c>
       <c r="B178" s="5"/>
       <c r="C178" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D178" s="4" t="s">
         <v>3</v>
@@ -3939,7 +3945,7 @@
       </c>
       <c r="B179" s="5"/>
       <c r="C179" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D179" s="4" t="s">
         <v>3</v>
@@ -3951,7 +3957,7 @@
       </c>
       <c r="B180" s="5"/>
       <c r="C180" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D180" s="4" t="s">
         <v>3</v>
@@ -3963,7 +3969,7 @@
       </c>
       <c r="B181" s="5"/>
       <c r="C181" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D181" s="4" t="s">
         <v>3</v>
@@ -3975,7 +3981,7 @@
       </c>
       <c r="B182" s="5"/>
       <c r="C182" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D182" s="4" t="s">
         <v>3</v>
@@ -3987,7 +3993,7 @@
       </c>
       <c r="B183" s="5"/>
       <c r="C183" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D183" s="4" t="s">
         <v>3</v>
@@ -3999,7 +4005,7 @@
       </c>
       <c r="B184" s="5"/>
       <c r="C184" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D184" s="4" t="s">
         <v>3</v>
@@ -4011,7 +4017,7 @@
       </c>
       <c r="B185" s="5"/>
       <c r="C185" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D185" s="4" t="s">
         <v>3</v>
@@ -4023,7 +4029,7 @@
       </c>
       <c r="B186" s="5"/>
       <c r="C186" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D186" s="4" t="s">
         <v>3</v>
@@ -4035,7 +4041,7 @@
       </c>
       <c r="B187" s="5"/>
       <c r="C187" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D187" s="4" t="s">
         <v>3</v>
@@ -4047,7 +4053,7 @@
       </c>
       <c r="B188" s="5"/>
       <c r="C188" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D188" s="4" t="s">
         <v>3</v>
@@ -4059,7 +4065,7 @@
       </c>
       <c r="B189" s="5"/>
       <c r="C189" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D189" s="4" t="s">
         <v>3</v>
@@ -4071,7 +4077,7 @@
       </c>
       <c r="B190" s="5"/>
       <c r="C190" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D190" s="4" t="s">
         <v>3</v>
@@ -4083,7 +4089,7 @@
       </c>
       <c r="B191" s="5"/>
       <c r="C191" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D191" s="4" t="s">
         <v>3</v>
@@ -4095,7 +4101,7 @@
       </c>
       <c r="B192" s="5"/>
       <c r="C192" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D192" s="4" t="s">
         <v>3</v>
@@ -4107,7 +4113,7 @@
       </c>
       <c r="B193" s="5"/>
       <c r="C193" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D193" s="4" t="s">
         <v>3</v>
@@ -4119,7 +4125,7 @@
       </c>
       <c r="B194" s="5"/>
       <c r="C194" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D194" s="4" t="s">
         <v>3</v>
@@ -4131,7 +4137,7 @@
       </c>
       <c r="B195" s="5"/>
       <c r="C195" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D195" s="4" t="s">
         <v>3</v>
@@ -4143,7 +4149,7 @@
       </c>
       <c r="B196" s="5"/>
       <c r="C196" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D196" s="4" t="s">
         <v>3</v>
@@ -4155,7 +4161,7 @@
       </c>
       <c r="B197" s="5"/>
       <c r="C197" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D197" s="4" t="s">
         <v>3</v>
@@ -4167,7 +4173,7 @@
       </c>
       <c r="B198" s="5"/>
       <c r="C198" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D198" s="4" t="s">
         <v>3</v>
@@ -4179,7 +4185,7 @@
       </c>
       <c r="B199" s="5"/>
       <c r="C199" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D199" s="4" t="s">
         <v>3</v>
@@ -4191,7 +4197,7 @@
       </c>
       <c r="B200" s="5"/>
       <c r="C200" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D200" s="4" t="s">
         <v>3</v>
@@ -4203,7 +4209,7 @@
       </c>
       <c r="B201" s="5"/>
       <c r="C201" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D201" s="4" t="s">
         <v>3</v>
@@ -4215,7 +4221,7 @@
       </c>
       <c r="B202" s="5"/>
       <c r="C202" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D202" s="4" t="s">
         <v>3</v>
@@ -4227,7 +4233,7 @@
       </c>
       <c r="B203" s="5"/>
       <c r="C203" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D203" s="4" t="s">
         <v>3</v>
@@ -4239,7 +4245,7 @@
       </c>
       <c r="B204" s="5"/>
       <c r="C204" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D204" s="4" t="s">
         <v>3</v>
@@ -4251,7 +4257,7 @@
       </c>
       <c r="B205" s="5"/>
       <c r="C205" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D205" s="4" t="s">
         <v>3</v>
@@ -4263,7 +4269,7 @@
       </c>
       <c r="B206" s="5"/>
       <c r="C206" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D206" s="4" t="s">
         <v>3</v>
@@ -4275,7 +4281,7 @@
       </c>
       <c r="B207" s="5"/>
       <c r="C207" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D207" s="4" t="s">
         <v>3</v>
@@ -4287,7 +4293,7 @@
       </c>
       <c r="B208" s="5"/>
       <c r="C208" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D208" s="4" t="s">
         <v>3</v>
@@ -4299,7 +4305,7 @@
       </c>
       <c r="B209" s="5"/>
       <c r="C209" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D209" s="4" t="s">
         <v>3</v>
@@ -4311,7 +4317,7 @@
       </c>
       <c r="B210" s="5"/>
       <c r="C210" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D210" s="4" t="s">
         <v>3</v>
@@ -4323,17 +4329,23 @@
       </c>
       <c r="B211" s="5"/>
       <c r="C211" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="D211" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" ht="21">
+      <c r="A212" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B212" s="5"/>
+      <c r="C212" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="D211" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" ht="21">
-      <c r="A212" s="8"/>
-      <c r="B212" s="8"/>
-      <c r="C212" s="7"/>
-      <c r="D212" s="4"/>
+      <c r="D212" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="213" spans="1:4" ht="21">
       <c r="A213" s="8"/>
@@ -4342,16 +4354,10 @@
       <c r="D213" s="4"/>
     </row>
     <row r="214" spans="1:4" ht="21">
-      <c r="A214" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="B214" s="5"/>
-      <c r="C214" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="D214" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="A214" s="8"/>
+      <c r="B214" s="8"/>
+      <c r="C214" s="7"/>
+      <c r="D214" s="4"/>
     </row>
     <row r="215" spans="1:4" ht="21">
       <c r="A215" s="5" t="s">
@@ -4359,7 +4365,7 @@
       </c>
       <c r="B215" s="5"/>
       <c r="C215" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D215" s="4" t="s">
         <v>3</v>
@@ -4371,7 +4377,7 @@
       </c>
       <c r="B216" s="5"/>
       <c r="C216" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D216" s="4" t="s">
         <v>3</v>
@@ -4383,7 +4389,7 @@
       </c>
       <c r="B217" s="5"/>
       <c r="C217" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D217" s="4" t="s">
         <v>3</v>
@@ -4395,7 +4401,7 @@
       </c>
       <c r="B218" s="5"/>
       <c r="C218" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D218" s="4" t="s">
         <v>3</v>
@@ -4407,7 +4413,7 @@
       </c>
       <c r="B219" s="5"/>
       <c r="C219" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D219" s="4" t="s">
         <v>3</v>
@@ -4418,8 +4424,8 @@
         <v>206</v>
       </c>
       <c r="B220" s="5"/>
-      <c r="C220" s="9" t="s">
-        <v>213</v>
+      <c r="C220" s="6" t="s">
+        <v>212</v>
       </c>
       <c r="D220" s="4" t="s">
         <v>3</v>
@@ -4430,8 +4436,8 @@
         <v>206</v>
       </c>
       <c r="B221" s="5"/>
-      <c r="C221" s="6" t="s">
-        <v>214</v>
+      <c r="C221" s="9" t="s">
+        <v>213</v>
       </c>
       <c r="D221" s="4" t="s">
         <v>3</v>
@@ -4443,7 +4449,7 @@
       </c>
       <c r="B222" s="5"/>
       <c r="C222" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D222" s="4" t="s">
         <v>3</v>
@@ -4455,7 +4461,7 @@
       </c>
       <c r="B223" s="5"/>
       <c r="C223" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D223" s="4" t="s">
         <v>3</v>
@@ -4467,7 +4473,7 @@
       </c>
       <c r="B224" s="5"/>
       <c r="C224" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D224" s="4" t="s">
         <v>3</v>
@@ -4479,7 +4485,7 @@
       </c>
       <c r="B225" s="5"/>
       <c r="C225" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D225" s="4" t="s">
         <v>3</v>
@@ -4491,7 +4497,7 @@
       </c>
       <c r="B226" s="5"/>
       <c r="C226" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D226" s="4" t="s">
         <v>3</v>
@@ -4503,7 +4509,7 @@
       </c>
       <c r="B227" s="5"/>
       <c r="C227" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D227" s="4" t="s">
         <v>3</v>
@@ -4515,7 +4521,7 @@
       </c>
       <c r="B228" s="5"/>
       <c r="C228" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D228" s="4" t="s">
         <v>3</v>
@@ -4527,7 +4533,7 @@
       </c>
       <c r="B229" s="5"/>
       <c r="C229" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D229" s="4" t="s">
         <v>3</v>
@@ -4539,7 +4545,7 @@
       </c>
       <c r="B230" s="5"/>
       <c r="C230" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D230" s="4" t="s">
         <v>3</v>
@@ -4551,7 +4557,7 @@
       </c>
       <c r="B231" s="5"/>
       <c r="C231" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D231" s="4" t="s">
         <v>3</v>
@@ -4563,7 +4569,7 @@
       </c>
       <c r="B232" s="5"/>
       <c r="C232" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D232" s="4" t="s">
         <v>3</v>
@@ -4575,7 +4581,7 @@
       </c>
       <c r="B233" s="5"/>
       <c r="C233" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D233" s="4" t="s">
         <v>3</v>
@@ -4587,7 +4593,7 @@
       </c>
       <c r="B234" s="5"/>
       <c r="C234" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D234" s="4" t="s">
         <v>3</v>
@@ -4599,31 +4605,31 @@
       </c>
       <c r="B235" s="5"/>
       <c r="C235" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="D235" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" ht="21">
+      <c r="A236" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B236" s="5"/>
+      <c r="C236" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="D235" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" ht="21">
-      <c r="C236" s="7"/>
-      <c r="D236" s="4"/>
+      <c r="D236" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="237" spans="1:4" ht="21">
       <c r="C237" s="7"/>
       <c r="D237" s="4"/>
     </row>
     <row r="238" spans="1:4" ht="21">
-      <c r="A238" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B238" s="5"/>
-      <c r="C238" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="D238" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="C238" s="7"/>
+      <c r="D238" s="4"/>
     </row>
     <row r="239" spans="1:4" ht="21">
       <c r="A239" s="5" t="s">
@@ -4631,7 +4637,7 @@
       </c>
       <c r="B239" s="5"/>
       <c r="C239" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D239" s="4" t="s">
         <v>3</v>
@@ -4643,7 +4649,7 @@
       </c>
       <c r="B240" s="5"/>
       <c r="C240" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D240" s="4" t="s">
         <v>3</v>
@@ -4655,7 +4661,7 @@
       </c>
       <c r="B241" s="5"/>
       <c r="C241" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D241" s="4" t="s">
         <v>3</v>
@@ -4667,7 +4673,7 @@
       </c>
       <c r="B242" s="5"/>
       <c r="C242" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D242" s="4" t="s">
         <v>3</v>
@@ -4679,7 +4685,7 @@
       </c>
       <c r="B243" s="5"/>
       <c r="C243" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D243" s="4" t="s">
         <v>3</v>
@@ -4691,7 +4697,7 @@
       </c>
       <c r="B244" s="5"/>
       <c r="C244" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D244" s="4" t="s">
         <v>3</v>
@@ -4703,7 +4709,7 @@
       </c>
       <c r="B245" s="5"/>
       <c r="C245" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D245" s="4" t="s">
         <v>3</v>
@@ -4715,7 +4721,7 @@
       </c>
       <c r="B246" s="5"/>
       <c r="C246" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D246" s="4" t="s">
         <v>3</v>
@@ -4727,7 +4733,7 @@
       </c>
       <c r="B247" s="5"/>
       <c r="C247" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D247" s="4" t="s">
         <v>3</v>
@@ -4739,7 +4745,7 @@
       </c>
       <c r="B248" s="5"/>
       <c r="C248" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D248" s="4" t="s">
         <v>3</v>
@@ -4751,7 +4757,7 @@
       </c>
       <c r="B249" s="5"/>
       <c r="C249" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D249" s="4" t="s">
         <v>3</v>
@@ -4763,7 +4769,7 @@
       </c>
       <c r="B250" s="5"/>
       <c r="C250" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D250" s="4" t="s">
         <v>3</v>
@@ -4775,7 +4781,7 @@
       </c>
       <c r="B251" s="5"/>
       <c r="C251" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D251" s="4" t="s">
         <v>3</v>
@@ -4787,7 +4793,7 @@
       </c>
       <c r="B252" s="5"/>
       <c r="C252" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D252" s="4" t="s">
         <v>3</v>
@@ -4799,7 +4805,7 @@
       </c>
       <c r="B253" s="5"/>
       <c r="C253" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D253" s="4" t="s">
         <v>3</v>
@@ -4811,7 +4817,7 @@
       </c>
       <c r="B254" s="5"/>
       <c r="C254" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D254" s="4" t="s">
         <v>3</v>
@@ -4823,7 +4829,7 @@
       </c>
       <c r="B255" s="5"/>
       <c r="C255" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D255" s="4" t="s">
         <v>3</v>
@@ -4835,7 +4841,7 @@
       </c>
       <c r="B256" s="5"/>
       <c r="C256" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D256" s="4" t="s">
         <v>3</v>
@@ -4847,7 +4853,7 @@
       </c>
       <c r="B257" s="5"/>
       <c r="C257" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D257" s="4" t="s">
         <v>3</v>
@@ -4859,7 +4865,7 @@
       </c>
       <c r="B258" s="5"/>
       <c r="C258" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D258" s="4" t="s">
         <v>3</v>
@@ -4871,7 +4877,7 @@
       </c>
       <c r="B259" s="5"/>
       <c r="C259" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D259" s="4" t="s">
         <v>3</v>
@@ -4883,7 +4889,7 @@
       </c>
       <c r="B260" s="5"/>
       <c r="C260" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D260" s="4" t="s">
         <v>3</v>
@@ -4895,7 +4901,7 @@
       </c>
       <c r="B261" s="5"/>
       <c r="C261" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D261" s="4" t="s">
         <v>3</v>
@@ -4907,7 +4913,7 @@
       </c>
       <c r="B262" s="5"/>
       <c r="C262" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D262" s="4" t="s">
         <v>3</v>
@@ -4919,7 +4925,7 @@
       </c>
       <c r="B263" s="5"/>
       <c r="C263" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D263" s="4" t="s">
         <v>3</v>
@@ -4931,7 +4937,7 @@
       </c>
       <c r="B264" s="5"/>
       <c r="C264" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D264" s="4" t="s">
         <v>3</v>
@@ -4943,7 +4949,7 @@
       </c>
       <c r="B265" s="5"/>
       <c r="C265" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D265" s="4" t="s">
         <v>3</v>
@@ -4955,7 +4961,7 @@
       </c>
       <c r="B266" s="5"/>
       <c r="C266" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D266" s="4" t="s">
         <v>3</v>
@@ -4967,7 +4973,7 @@
       </c>
       <c r="B267" s="5"/>
       <c r="C267" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D267" s="4" t="s">
         <v>3</v>
@@ -4979,7 +4985,7 @@
       </c>
       <c r="B268" s="5"/>
       <c r="C268" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D268" s="4" t="s">
         <v>3</v>
@@ -4991,7 +4997,7 @@
       </c>
       <c r="B269" s="5"/>
       <c r="C269" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D269" s="4" t="s">
         <v>3</v>
@@ -5003,7 +5009,7 @@
       </c>
       <c r="B270" s="5"/>
       <c r="C270" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D270" s="4" t="s">
         <v>3</v>
@@ -5015,7 +5021,7 @@
       </c>
       <c r="B271" s="5"/>
       <c r="C271" s="6" t="s">
-        <v>86</v>
+        <v>262</v>
       </c>
       <c r="D271" s="4" t="s">
         <v>3</v>
@@ -5027,31 +5033,31 @@
       </c>
       <c r="B272" s="5"/>
       <c r="C272" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D272" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" ht="21">
+      <c r="A273" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B273" s="5"/>
+      <c r="C273" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="D272" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4" ht="21">
-      <c r="C273" s="7"/>
-      <c r="D273" s="4"/>
+      <c r="D273" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="274" spans="1:4" ht="21">
       <c r="C274" s="7"/>
       <c r="D274" s="4"/>
     </row>
     <row r="275" spans="1:4" ht="21">
-      <c r="A275" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="B275" s="5"/>
-      <c r="C275" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="D275" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="C275" s="7"/>
+      <c r="D275" s="4"/>
     </row>
     <row r="276" spans="1:4" ht="21">
       <c r="A276" s="5" t="s">
@@ -5059,7 +5065,7 @@
       </c>
       <c r="B276" s="5"/>
       <c r="C276" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D276" s="4" t="s">
         <v>3</v>
@@ -5071,7 +5077,7 @@
       </c>
       <c r="B277" s="5"/>
       <c r="C277" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D277" s="4" t="s">
         <v>3</v>
@@ -5083,7 +5089,7 @@
       </c>
       <c r="B278" s="5"/>
       <c r="C278" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D278" s="4" t="s">
         <v>3</v>
@@ -5095,7 +5101,7 @@
       </c>
       <c r="B279" s="5"/>
       <c r="C279" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D279" s="4" t="s">
         <v>3</v>
@@ -5107,7 +5113,7 @@
       </c>
       <c r="B280" s="5"/>
       <c r="C280" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D280" s="4" t="s">
         <v>3</v>
@@ -5119,7 +5125,7 @@
       </c>
       <c r="B281" s="5"/>
       <c r="C281" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D281" s="4" t="s">
         <v>3</v>
@@ -5131,7 +5137,7 @@
       </c>
       <c r="B282" s="5"/>
       <c r="C282" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D282" s="4" t="s">
         <v>3</v>
@@ -5143,7 +5149,7 @@
       </c>
       <c r="B283" s="5"/>
       <c r="C283" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D283" s="4" t="s">
         <v>3</v>
@@ -5155,7 +5161,7 @@
       </c>
       <c r="B284" s="5"/>
       <c r="C284" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D284" s="4" t="s">
         <v>3</v>
@@ -5167,7 +5173,7 @@
       </c>
       <c r="B285" s="5"/>
       <c r="C285" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D285" s="4" t="s">
         <v>3</v>
@@ -5179,7 +5185,7 @@
       </c>
       <c r="B286" s="5"/>
       <c r="C286" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D286" s="4" t="s">
         <v>3</v>
@@ -5191,7 +5197,7 @@
       </c>
       <c r="B287" s="5"/>
       <c r="C287" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D287" s="4" t="s">
         <v>3</v>
@@ -5203,7 +5209,7 @@
       </c>
       <c r="B288" s="5"/>
       <c r="C288" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D288" s="4" t="s">
         <v>3</v>
@@ -5215,7 +5221,7 @@
       </c>
       <c r="B289" s="5"/>
       <c r="C289" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D289" s="4" t="s">
         <v>3</v>
@@ -5227,7 +5233,7 @@
       </c>
       <c r="B290" s="5"/>
       <c r="C290" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D290" s="4" t="s">
         <v>3</v>
@@ -5239,7 +5245,7 @@
       </c>
       <c r="B291" s="5"/>
       <c r="C291" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D291" s="4" t="s">
         <v>3</v>
@@ -5251,7 +5257,7 @@
       </c>
       <c r="B292" s="5"/>
       <c r="C292" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D292" s="4" t="s">
         <v>3</v>
@@ -5263,31 +5269,31 @@
       </c>
       <c r="B293" s="5"/>
       <c r="C293" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="D293" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" ht="21">
+      <c r="A294" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B294" s="5"/>
+      <c r="C294" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="D293" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4" ht="21">
-      <c r="C294" s="7"/>
-      <c r="D294" s="4"/>
+      <c r="D294" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="295" spans="1:4" ht="21">
       <c r="C295" s="7"/>
       <c r="D295" s="4"/>
     </row>
     <row r="296" spans="1:4" ht="21">
-      <c r="A296" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="B296" s="5"/>
-      <c r="C296" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="D296" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="C296" s="7"/>
+      <c r="D296" s="4"/>
     </row>
     <row r="297" spans="1:4" ht="21">
       <c r="A297" s="5" t="s">
@@ -5295,7 +5301,7 @@
       </c>
       <c r="B297" s="5"/>
       <c r="C297" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D297" s="4" t="s">
         <v>3</v>
@@ -5307,7 +5313,7 @@
       </c>
       <c r="B298" s="5"/>
       <c r="C298" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D298" s="4" t="s">
         <v>3</v>
@@ -5319,7 +5325,7 @@
       </c>
       <c r="B299" s="5"/>
       <c r="C299" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D299" s="4" t="s">
         <v>3</v>
@@ -5331,7 +5337,7 @@
       </c>
       <c r="B300" s="5"/>
       <c r="C300" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D300" s="4" t="s">
         <v>3</v>
@@ -5343,7 +5349,7 @@
       </c>
       <c r="B301" s="5"/>
       <c r="C301" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D301" s="4" t="s">
         <v>3</v>
@@ -5355,7 +5361,7 @@
       </c>
       <c r="B302" s="5"/>
       <c r="C302" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D302" s="4" t="s">
         <v>3</v>
@@ -5367,7 +5373,7 @@
       </c>
       <c r="B303" s="5"/>
       <c r="C303" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D303" s="4" t="s">
         <v>3</v>
@@ -5379,7 +5385,7 @@
       </c>
       <c r="B304" s="5"/>
       <c r="C304" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D304" s="4" t="s">
         <v>3</v>
@@ -5391,7 +5397,7 @@
       </c>
       <c r="B305" s="5"/>
       <c r="C305" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D305" s="4" t="s">
         <v>3</v>
@@ -5403,7 +5409,7 @@
       </c>
       <c r="B306" s="5"/>
       <c r="C306" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D306" s="4" t="s">
         <v>3</v>
@@ -5415,7 +5421,7 @@
       </c>
       <c r="B307" s="5"/>
       <c r="C307" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D307" s="4" t="s">
         <v>3</v>
@@ -5427,7 +5433,7 @@
       </c>
       <c r="B308" s="5"/>
       <c r="C308" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D308" s="4" t="s">
         <v>3</v>
@@ -5438,8 +5444,8 @@
         <v>284</v>
       </c>
       <c r="B309" s="5"/>
-      <c r="C309" s="9" t="s">
-        <v>298</v>
+      <c r="C309" s="6" t="s">
+        <v>297</v>
       </c>
       <c r="D309" s="4" t="s">
         <v>3</v>
@@ -5450,8 +5456,8 @@
         <v>284</v>
       </c>
       <c r="B310" s="5"/>
-      <c r="C310" s="6" t="s">
-        <v>299</v>
+      <c r="C310" s="9" t="s">
+        <v>298</v>
       </c>
       <c r="D310" s="4" t="s">
         <v>3</v>
@@ -5463,7 +5469,7 @@
       </c>
       <c r="B311" s="5"/>
       <c r="C311" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D311" s="4" t="s">
         <v>3</v>
@@ -5475,7 +5481,7 @@
       </c>
       <c r="B312" s="5"/>
       <c r="C312" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D312" s="4" t="s">
         <v>3</v>
@@ -5487,7 +5493,7 @@
       </c>
       <c r="B313" s="5"/>
       <c r="C313" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D313" s="4" t="s">
         <v>3</v>
@@ -5499,7 +5505,7 @@
       </c>
       <c r="B314" s="5"/>
       <c r="C314" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D314" s="4" t="s">
         <v>3</v>
@@ -5511,7 +5517,7 @@
       </c>
       <c r="B315" s="5"/>
       <c r="C315" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D315" s="4" t="s">
         <v>3</v>
@@ -5523,7 +5529,7 @@
       </c>
       <c r="B316" s="5"/>
       <c r="C316" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D316" s="4" t="s">
         <v>3</v>
@@ -5535,7 +5541,7 @@
       </c>
       <c r="B317" s="5"/>
       <c r="C317" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D317" s="4" t="s">
         <v>3</v>
@@ -5547,7 +5553,7 @@
       </c>
       <c r="B318" s="5"/>
       <c r="C318" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D318" s="4" t="s">
         <v>3</v>
@@ -5559,7 +5565,7 @@
       </c>
       <c r="B319" s="5"/>
       <c r="C319" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D319" s="4" t="s">
         <v>3</v>
@@ -5571,7 +5577,7 @@
       </c>
       <c r="B320" s="5"/>
       <c r="C320" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D320" s="4" t="s">
         <v>3</v>
@@ -5583,7 +5589,7 @@
       </c>
       <c r="B321" s="5"/>
       <c r="C321" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D321" s="4" t="s">
         <v>3</v>
@@ -5595,7 +5601,7 @@
       </c>
       <c r="B322" s="5"/>
       <c r="C322" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D322" s="4" t="s">
         <v>3</v>
@@ -5607,7 +5613,7 @@
       </c>
       <c r="B323" s="5"/>
       <c r="C323" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D323" s="4" t="s">
         <v>3</v>
@@ -5619,7 +5625,7 @@
       </c>
       <c r="B324" s="5"/>
       <c r="C324" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D324" s="4" t="s">
         <v>3</v>
@@ -5631,7 +5637,7 @@
       </c>
       <c r="B325" s="5"/>
       <c r="C325" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D325" s="4" t="s">
         <v>3</v>
@@ -5643,7 +5649,7 @@
       </c>
       <c r="B326" s="5"/>
       <c r="C326" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D326" s="4" t="s">
         <v>3</v>
@@ -5655,7 +5661,7 @@
       </c>
       <c r="B327" s="5"/>
       <c r="C327" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D327" s="4" t="s">
         <v>3</v>
@@ -5667,7 +5673,7 @@
       </c>
       <c r="B328" s="5"/>
       <c r="C328" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D328" s="4" t="s">
         <v>3</v>
@@ -5679,7 +5685,7 @@
       </c>
       <c r="B329" s="5"/>
       <c r="C329" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D329" s="4" t="s">
         <v>3</v>
@@ -5691,7 +5697,7 @@
       </c>
       <c r="B330" s="5"/>
       <c r="C330" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D330" s="4" t="s">
         <v>3</v>
@@ -5703,7 +5709,7 @@
       </c>
       <c r="B331" s="5"/>
       <c r="C331" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D331" s="4" t="s">
         <v>3</v>
@@ -5715,7 +5721,7 @@
       </c>
       <c r="B332" s="5"/>
       <c r="C332" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D332" s="4" t="s">
         <v>3</v>
@@ -5727,31 +5733,31 @@
       </c>
       <c r="B333" s="5"/>
       <c r="C333" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="D333" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" ht="21">
+      <c r="A334" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B334" s="5"/>
+      <c r="C334" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="D333" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="334" spans="1:4" ht="21">
-      <c r="C334" s="7"/>
-      <c r="D334" s="4"/>
+      <c r="D334" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="335" spans="1:4" ht="21">
       <c r="C335" s="7"/>
       <c r="D335" s="4"/>
     </row>
     <row r="336" spans="1:4" ht="21">
-      <c r="A336" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="B336" s="8"/>
-      <c r="C336" s="6" t="s">
-        <v>324</v>
-      </c>
-      <c r="D336" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="C336" s="7"/>
+      <c r="D336" s="4"/>
     </row>
     <row r="337" spans="1:4" ht="21">
       <c r="A337" s="8" t="s">
@@ -5759,7 +5765,7 @@
       </c>
       <c r="B337" s="8"/>
       <c r="C337" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D337" s="4" t="s">
         <v>3</v>
@@ -5771,7 +5777,7 @@
       </c>
       <c r="B338" s="8"/>
       <c r="C338" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D338" s="4" t="s">
         <v>3</v>
@@ -5783,7 +5789,7 @@
       </c>
       <c r="B339" s="8"/>
       <c r="C339" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D339" s="4" t="s">
         <v>3</v>
@@ -5795,7 +5801,7 @@
       </c>
       <c r="B340" s="8"/>
       <c r="C340" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D340" s="4" t="s">
         <v>3</v>
@@ -5807,7 +5813,7 @@
       </c>
       <c r="B341" s="8"/>
       <c r="C341" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D341" s="4" t="s">
         <v>3</v>
@@ -5819,7 +5825,7 @@
       </c>
       <c r="B342" s="8"/>
       <c r="C342" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D342" s="4" t="s">
         <v>3</v>
@@ -5831,7 +5837,7 @@
       </c>
       <c r="B343" s="8"/>
       <c r="C343" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D343" s="4" t="s">
         <v>3</v>
@@ -5842,8 +5848,8 @@
         <v>323</v>
       </c>
       <c r="B344" s="8"/>
-      <c r="C344" s="9" t="s">
-        <v>332</v>
+      <c r="C344" s="6" t="s">
+        <v>331</v>
       </c>
       <c r="D344" s="4" t="s">
         <v>3</v>
@@ -5854,8 +5860,8 @@
         <v>323</v>
       </c>
       <c r="B345" s="8"/>
-      <c r="C345" s="6" t="s">
-        <v>333</v>
+      <c r="C345" s="9" t="s">
+        <v>332</v>
       </c>
       <c r="D345" s="4" t="s">
         <v>3</v>
@@ -5867,7 +5873,7 @@
       </c>
       <c r="B346" s="8"/>
       <c r="C346" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D346" s="4" t="s">
         <v>3</v>
@@ -5879,7 +5885,7 @@
       </c>
       <c r="B347" s="8"/>
       <c r="C347" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D347" s="4" t="s">
         <v>3</v>
@@ -5891,7 +5897,7 @@
       </c>
       <c r="B348" s="8"/>
       <c r="C348" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D348" s="4" t="s">
         <v>3</v>
@@ -5903,7 +5909,7 @@
       </c>
       <c r="B349" s="8"/>
       <c r="C349" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D349" s="4" t="s">
         <v>3</v>
@@ -5915,7 +5921,7 @@
       </c>
       <c r="B350" s="8"/>
       <c r="C350" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D350" s="4" t="s">
         <v>3</v>
@@ -5927,7 +5933,7 @@
       </c>
       <c r="B351" s="8"/>
       <c r="C351" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D351" s="4" t="s">
         <v>3</v>
@@ -5939,7 +5945,7 @@
       </c>
       <c r="B352" s="8"/>
       <c r="C352" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D352" s="4" t="s">
         <v>3</v>
@@ -5951,31 +5957,31 @@
       </c>
       <c r="B353" s="8"/>
       <c r="C353" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="D353" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" ht="21">
+      <c r="A354" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="B354" s="8"/>
+      <c r="C354" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="D353" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="354" spans="1:4" ht="21">
-      <c r="C354" s="7"/>
-      <c r="D354" s="4"/>
+      <c r="D354" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="355" spans="1:4" ht="21">
       <c r="C355" s="7"/>
       <c r="D355" s="4"/>
     </row>
     <row r="356" spans="1:4" ht="21">
-      <c r="A356" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="B356" s="8"/>
-      <c r="C356" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="D356" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="C356" s="7"/>
+      <c r="D356" s="4"/>
     </row>
     <row r="357" spans="1:4" ht="21">
       <c r="A357" s="8" t="s">
@@ -5983,7 +5989,7 @@
       </c>
       <c r="B357" s="8"/>
       <c r="C357" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D357" s="4" t="s">
         <v>3</v>
@@ -5995,7 +6001,7 @@
       </c>
       <c r="B358" s="8"/>
       <c r="C358" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D358" s="4" t="s">
         <v>3</v>
@@ -6007,7 +6013,7 @@
       </c>
       <c r="B359" s="8"/>
       <c r="C359" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D359" s="4" t="s">
         <v>3</v>
@@ -6019,7 +6025,7 @@
       </c>
       <c r="B360" s="8"/>
       <c r="C360" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D360" s="4" t="s">
         <v>3</v>
@@ -6031,7 +6037,7 @@
       </c>
       <c r="B361" s="8"/>
       <c r="C361" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D361" s="4" t="s">
         <v>3</v>
@@ -6043,7 +6049,7 @@
       </c>
       <c r="B362" s="8"/>
       <c r="C362" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D362" s="4" t="s">
         <v>3</v>
@@ -6055,7 +6061,7 @@
       </c>
       <c r="B363" s="8"/>
       <c r="C363" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D363" s="4" t="s">
         <v>3</v>
@@ -6067,7 +6073,7 @@
       </c>
       <c r="B364" s="8"/>
       <c r="C364" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D364" s="4" t="s">
         <v>3</v>
@@ -6079,7 +6085,7 @@
       </c>
       <c r="B365" s="8"/>
       <c r="C365" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D365" s="4" t="s">
         <v>3</v>
@@ -6091,7 +6097,7 @@
       </c>
       <c r="B366" s="8"/>
       <c r="C366" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D366" s="4" t="s">
         <v>3</v>
@@ -6103,7 +6109,7 @@
       </c>
       <c r="B367" s="8"/>
       <c r="C367" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D367" s="4" t="s">
         <v>3</v>
@@ -6115,7 +6121,7 @@
       </c>
       <c r="B368" s="8"/>
       <c r="C368" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D368" s="4" t="s">
         <v>3</v>
@@ -6127,7 +6133,7 @@
       </c>
       <c r="B369" s="8"/>
       <c r="C369" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D369" s="4" t="s">
         <v>3</v>
@@ -6139,7 +6145,7 @@
       </c>
       <c r="B370" s="8"/>
       <c r="C370" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D370" s="4" t="s">
         <v>3</v>
@@ -6151,7 +6157,7 @@
       </c>
       <c r="B371" s="8"/>
       <c r="C371" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D371" s="4" t="s">
         <v>3</v>
@@ -6163,7 +6169,7 @@
       </c>
       <c r="B372" s="8"/>
       <c r="C372" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D372" s="4" t="s">
         <v>3</v>
@@ -6175,7 +6181,7 @@
       </c>
       <c r="B373" s="8"/>
       <c r="C373" s="6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D373" s="4" t="s">
         <v>3</v>
@@ -6187,7 +6193,7 @@
       </c>
       <c r="B374" s="8"/>
       <c r="C374" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D374" s="4" t="s">
         <v>3</v>
@@ -6199,7 +6205,7 @@
       </c>
       <c r="B375" s="8"/>
       <c r="C375" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D375" s="4" t="s">
         <v>3</v>
@@ -6211,7 +6217,7 @@
       </c>
       <c r="B376" s="8"/>
       <c r="C376" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D376" s="4" t="s">
         <v>3</v>
@@ -6223,7 +6229,7 @@
       </c>
       <c r="B377" s="8"/>
       <c r="C377" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D377" s="4" t="s">
         <v>3</v>
@@ -6235,7 +6241,7 @@
       </c>
       <c r="B378" s="8"/>
       <c r="C378" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D378" s="4" t="s">
         <v>3</v>
@@ -6247,7 +6253,7 @@
       </c>
       <c r="B379" s="8"/>
       <c r="C379" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D379" s="4" t="s">
         <v>3</v>
@@ -6259,7 +6265,7 @@
       </c>
       <c r="B380" s="8"/>
       <c r="C380" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D380" s="4" t="s">
         <v>3</v>
@@ -6271,7 +6277,7 @@
       </c>
       <c r="B381" s="8"/>
       <c r="C381" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D381" s="4" t="s">
         <v>3</v>
@@ -6283,7 +6289,7 @@
       </c>
       <c r="B382" s="8"/>
       <c r="C382" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D382" s="4" t="s">
         <v>3</v>
@@ -6295,7 +6301,7 @@
       </c>
       <c r="B383" s="8"/>
       <c r="C383" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D383" s="4" t="s">
         <v>3</v>
@@ -6307,7 +6313,7 @@
       </c>
       <c r="B384" s="8"/>
       <c r="C384" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D384" s="4" t="s">
         <v>3</v>
@@ -6319,7 +6325,7 @@
       </c>
       <c r="B385" s="8"/>
       <c r="C385" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D385" s="4" t="s">
         <v>3</v>
@@ -6331,7 +6337,7 @@
       </c>
       <c r="B386" s="8"/>
       <c r="C386" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D386" s="4" t="s">
         <v>3</v>
@@ -6343,7 +6349,7 @@
       </c>
       <c r="B387" s="8"/>
       <c r="C387" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D387" s="4" t="s">
         <v>3</v>
@@ -6355,7 +6361,7 @@
       </c>
       <c r="B388" s="8"/>
       <c r="C388" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D388" s="4" t="s">
         <v>3</v>
@@ -6367,7 +6373,7 @@
       </c>
       <c r="B389" s="8"/>
       <c r="C389" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D389" s="4" t="s">
         <v>3</v>
@@ -6391,7 +6397,7 @@
       </c>
       <c r="B391" s="8"/>
       <c r="C391" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D391" s="4" t="s">
         <v>3</v>
@@ -6403,7 +6409,7 @@
       </c>
       <c r="B392" s="8"/>
       <c r="C392" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D392" s="4" t="s">
         <v>3</v>
@@ -6415,7 +6421,7 @@
       </c>
       <c r="B393" s="8"/>
       <c r="C393" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D393" s="4" t="s">
         <v>3</v>
@@ -6427,7 +6433,7 @@
       </c>
       <c r="B394" s="8"/>
       <c r="C394" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D394" s="4" t="s">
         <v>3</v>
@@ -6439,7 +6445,7 @@
       </c>
       <c r="B395" s="8"/>
       <c r="C395" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D395" s="4" t="s">
         <v>3</v>
@@ -6451,7 +6457,7 @@
       </c>
       <c r="B396" s="8"/>
       <c r="C396" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D396" s="4" t="s">
         <v>3</v>
@@ -6463,7 +6469,7 @@
       </c>
       <c r="B397" s="8"/>
       <c r="C397" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D397" s="4" t="s">
         <v>3</v>
@@ -6475,7 +6481,7 @@
       </c>
       <c r="B398" s="8"/>
       <c r="C398" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D398" s="4" t="s">
         <v>3</v>
@@ -6487,31 +6493,31 @@
       </c>
       <c r="B399" s="8"/>
       <c r="C399" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="D399" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" ht="21">
+      <c r="A400" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="B400" s="8"/>
+      <c r="C400" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="D399" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="400" spans="1:4" ht="21">
-      <c r="C400" s="7"/>
-      <c r="D400" s="4"/>
+      <c r="D400" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="401" spans="1:4" ht="21">
       <c r="C401" s="7"/>
       <c r="D401" s="4"/>
     </row>
     <row r="402" spans="1:4" ht="21">
-      <c r="A402" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="B402" s="8"/>
-      <c r="C402" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="D402" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="C402" s="7"/>
+      <c r="D402" s="4"/>
     </row>
     <row r="403" spans="1:4" ht="21">
       <c r="A403" s="8" t="s">
@@ -6519,7 +6525,7 @@
       </c>
       <c r="B403" s="8"/>
       <c r="C403" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D403" s="4" t="s">
         <v>3</v>
@@ -6531,7 +6537,7 @@
       </c>
       <c r="B404" s="8"/>
       <c r="C404" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D404" s="4" t="s">
         <v>3</v>
@@ -6543,7 +6549,7 @@
       </c>
       <c r="B405" s="8"/>
       <c r="C405" s="6" t="s">
-        <v>88</v>
+        <v>389</v>
       </c>
       <c r="D405" s="4" t="s">
         <v>3</v>
@@ -6555,7 +6561,7 @@
       </c>
       <c r="B406" s="8"/>
       <c r="C406" s="6" t="s">
-        <v>390</v>
+        <v>88</v>
       </c>
       <c r="D406" s="4" t="s">
         <v>3</v>
@@ -6567,31 +6573,31 @@
       </c>
       <c r="B407" s="8"/>
       <c r="C407" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="D407" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" ht="21">
+      <c r="A408" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="B408" s="8"/>
+      <c r="C408" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="D407" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="408" spans="1:4" ht="21">
-      <c r="C408" s="7"/>
-      <c r="D408" s="4"/>
+      <c r="D408" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="409" spans="1:4" ht="21">
       <c r="C409" s="7"/>
       <c r="D409" s="4"/>
     </row>
     <row r="410" spans="1:4" ht="21">
-      <c r="A410" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="B410" s="5"/>
-      <c r="C410" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="D410" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="C410" s="7"/>
+      <c r="D410" s="4"/>
     </row>
     <row r="411" spans="1:4" ht="21">
       <c r="A411" s="5" t="s">
@@ -6599,7 +6605,7 @@
       </c>
       <c r="B411" s="5"/>
       <c r="C411" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D411" s="4" t="s">
         <v>3</v>
@@ -6611,7 +6617,7 @@
       </c>
       <c r="B412" s="5"/>
       <c r="C412" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D412" s="4" t="s">
         <v>3</v>
@@ -6623,7 +6629,7 @@
       </c>
       <c r="B413" s="5"/>
       <c r="C413" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D413" s="4" t="s">
         <v>3</v>
@@ -6635,7 +6641,7 @@
       </c>
       <c r="B414" s="5"/>
       <c r="C414" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D414" s="4" t="s">
         <v>3</v>
@@ -6647,7 +6653,7 @@
       </c>
       <c r="B415" s="5"/>
       <c r="C415" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D415" s="4" t="s">
         <v>3</v>
@@ -6659,7 +6665,7 @@
       </c>
       <c r="B416" s="5"/>
       <c r="C416" s="6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D416" s="4" t="s">
         <v>3</v>
@@ -6671,7 +6677,7 @@
       </c>
       <c r="B417" s="5"/>
       <c r="C417" s="6" t="s">
-        <v>272</v>
+        <v>399</v>
       </c>
       <c r="D417" s="4" t="s">
         <v>3</v>
@@ -6683,7 +6689,7 @@
       </c>
       <c r="B418" s="5"/>
       <c r="C418" s="6" t="s">
-        <v>400</v>
+        <v>272</v>
       </c>
       <c r="D418" s="4" t="s">
         <v>3</v>
@@ -6695,7 +6701,7 @@
       </c>
       <c r="B419" s="5"/>
       <c r="C419" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D419" s="4" t="s">
         <v>3</v>
@@ -6707,7 +6713,7 @@
       </c>
       <c r="B420" s="5"/>
       <c r="C420" s="6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D420" s="4" t="s">
         <v>3</v>
@@ -6719,7 +6725,7 @@
       </c>
       <c r="B421" s="5"/>
       <c r="C421" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D421" s="4" t="s">
         <v>3</v>
@@ -6731,7 +6737,7 @@
       </c>
       <c r="B422" s="5"/>
       <c r="C422" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D422" s="4" t="s">
         <v>3</v>
@@ -6743,7 +6749,7 @@
       </c>
       <c r="B423" s="5"/>
       <c r="C423" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D423" s="4" t="s">
         <v>3</v>
@@ -6755,7 +6761,7 @@
       </c>
       <c r="B424" s="5"/>
       <c r="C424" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D424" s="4" t="s">
         <v>3</v>
@@ -6767,7 +6773,7 @@
       </c>
       <c r="B425" s="5"/>
       <c r="C425" s="6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D425" s="4" t="s">
         <v>3</v>
@@ -6779,7 +6785,7 @@
       </c>
       <c r="B426" s="5"/>
       <c r="C426" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D426" s="4" t="s">
         <v>3</v>
@@ -6791,7 +6797,7 @@
       </c>
       <c r="B427" s="5"/>
       <c r="C427" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D427" s="4" t="s">
         <v>3</v>
@@ -6803,7 +6809,7 @@
       </c>
       <c r="B428" s="5"/>
       <c r="C428" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D428" s="4" t="s">
         <v>3</v>
@@ -6815,7 +6821,7 @@
       </c>
       <c r="B429" s="5"/>
       <c r="C429" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D429" s="4" t="s">
         <v>3</v>
@@ -6827,7 +6833,7 @@
       </c>
       <c r="B430" s="5"/>
       <c r="C430" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D430" s="4" t="s">
         <v>3</v>
@@ -6839,7 +6845,7 @@
       </c>
       <c r="B431" s="5"/>
       <c r="C431" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D431" s="4" t="s">
         <v>3</v>
@@ -6851,7 +6857,7 @@
       </c>
       <c r="B432" s="5"/>
       <c r="C432" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D432" s="4" t="s">
         <v>3</v>
@@ -6863,7 +6869,7 @@
       </c>
       <c r="B433" s="5"/>
       <c r="C433" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D433" s="4" t="s">
         <v>3</v>
@@ -6875,7 +6881,7 @@
       </c>
       <c r="B434" s="5"/>
       <c r="C434" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D434" s="4" t="s">
         <v>3</v>
@@ -6887,7 +6893,7 @@
       </c>
       <c r="B435" s="5"/>
       <c r="C435" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D435" s="4" t="s">
         <v>3</v>
@@ -6899,7 +6905,7 @@
       </c>
       <c r="B436" s="5"/>
       <c r="C436" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D436" s="4" t="s">
         <v>3</v>
@@ -6911,7 +6917,7 @@
       </c>
       <c r="B437" s="5"/>
       <c r="C437" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D437" s="4" t="s">
         <v>3</v>
@@ -6923,7 +6929,7 @@
       </c>
       <c r="B438" s="5"/>
       <c r="C438" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D438" s="4" t="s">
         <v>3</v>
@@ -6935,7 +6941,7 @@
       </c>
       <c r="B439" s="5"/>
       <c r="C439" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D439" s="4" t="s">
         <v>3</v>
@@ -6947,7 +6953,7 @@
       </c>
       <c r="B440" s="5"/>
       <c r="C440" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D440" s="4" t="s">
         <v>3</v>
@@ -6959,7 +6965,7 @@
       </c>
       <c r="B441" s="5"/>
       <c r="C441" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D441" s="4" t="s">
         <v>3</v>
@@ -6971,7 +6977,7 @@
       </c>
       <c r="B442" s="5"/>
       <c r="C442" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D442" s="4" t="s">
         <v>3</v>
@@ -6983,7 +6989,7 @@
       </c>
       <c r="B443" s="5"/>
       <c r="C443" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D443" s="4" t="s">
         <v>3</v>
@@ -6995,7 +7001,7 @@
       </c>
       <c r="B444" s="5"/>
       <c r="C444" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D444" s="4" t="s">
         <v>3</v>
@@ -7007,7 +7013,7 @@
       </c>
       <c r="B445" s="5"/>
       <c r="C445" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D445" s="4" t="s">
         <v>3</v>
@@ -7019,7 +7025,7 @@
       </c>
       <c r="B446" s="5"/>
       <c r="C446" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D446" s="4" t="s">
         <v>3</v>
@@ -7031,7 +7037,7 @@
       </c>
       <c r="B447" s="5"/>
       <c r="C447" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D447" s="4" t="s">
         <v>3</v>
@@ -7043,7 +7049,7 @@
       </c>
       <c r="B448" s="5"/>
       <c r="C448" s="6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D448" s="4" t="s">
         <v>3</v>
@@ -7055,7 +7061,7 @@
       </c>
       <c r="B449" s="5"/>
       <c r="C449" s="6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D449" s="4" t="s">
         <v>3</v>
@@ -7067,7 +7073,7 @@
       </c>
       <c r="B450" s="5"/>
       <c r="C450" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D450" s="4" t="s">
         <v>3</v>
@@ -7079,7 +7085,7 @@
       </c>
       <c r="B451" s="5"/>
       <c r="C451" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D451" s="4" t="s">
         <v>3</v>
@@ -7091,7 +7097,7 @@
       </c>
       <c r="B452" s="5"/>
       <c r="C452" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D452" s="4" t="s">
         <v>3</v>
@@ -7103,7 +7109,7 @@
       </c>
       <c r="B453" s="5"/>
       <c r="C453" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D453" s="4" t="s">
         <v>3</v>
@@ -7115,7 +7121,7 @@
       </c>
       <c r="B454" s="5"/>
       <c r="C454" s="6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D454" s="4" t="s">
         <v>3</v>
@@ -7127,7 +7133,7 @@
       </c>
       <c r="B455" s="5"/>
       <c r="C455" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D455" s="4" t="s">
         <v>3</v>
@@ -7139,7 +7145,7 @@
       </c>
       <c r="B456" s="5"/>
       <c r="C456" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D456" s="4" t="s">
         <v>3</v>
@@ -7151,7 +7157,7 @@
       </c>
       <c r="B457" s="5"/>
       <c r="C457" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D457" s="4" t="s">
         <v>3</v>
@@ -7163,7 +7169,7 @@
       </c>
       <c r="B458" s="5"/>
       <c r="C458" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D458" s="4" t="s">
         <v>3</v>
@@ -7175,7 +7181,7 @@
       </c>
       <c r="B459" s="5"/>
       <c r="C459" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D459" s="4" t="s">
         <v>3</v>
@@ -7187,7 +7193,7 @@
       </c>
       <c r="B460" s="5"/>
       <c r="C460" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D460" s="4" t="s">
         <v>3</v>
@@ -7199,7 +7205,7 @@
       </c>
       <c r="B461" s="5"/>
       <c r="C461" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D461" s="4" t="s">
         <v>3</v>
@@ -7211,7 +7217,7 @@
       </c>
       <c r="B462" s="5"/>
       <c r="C462" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D462" s="4" t="s">
         <v>3</v>
@@ -7223,7 +7229,7 @@
       </c>
       <c r="B463" s="5"/>
       <c r="C463" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D463" s="4" t="s">
         <v>3</v>
@@ -7235,7 +7241,7 @@
       </c>
       <c r="B464" s="5"/>
       <c r="C464" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D464" s="4" t="s">
         <v>3</v>
@@ -7247,7 +7253,7 @@
       </c>
       <c r="B465" s="5"/>
       <c r="C465" s="6" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D465" s="4" t="s">
         <v>3</v>
@@ -7259,7 +7265,7 @@
       </c>
       <c r="B466" s="5"/>
       <c r="C466" s="6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D466" s="4" t="s">
         <v>3</v>
@@ -7271,7 +7277,7 @@
       </c>
       <c r="B467" s="5"/>
       <c r="C467" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D467" s="4" t="s">
         <v>3</v>
@@ -7283,7 +7289,7 @@
       </c>
       <c r="B468" s="5"/>
       <c r="C468" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D468" s="4" t="s">
         <v>3</v>
@@ -7295,33 +7301,33 @@
       </c>
       <c r="B469" s="5"/>
       <c r="C469" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="D469" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" ht="21">
+      <c r="A470" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B470" s="5"/>
+      <c r="C470" s="6" t="s">
         <v>451</v>
       </c>
-      <c r="D469" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="470" spans="1:4" ht="21">
-      <c r="C470" s="7"/>
-      <c r="D470" s="4"/>
+      <c r="D470" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="471" spans="1:4" ht="21">
-      <c r="A471" s="8"/>
-      <c r="B471" s="8"/>
       <c r="C471" s="7"/>
       <c r="D471" s="4"/>
     </row>
     <row r="472" spans="1:4" ht="21">
-      <c r="A472" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="B472" s="5"/>
-      <c r="C472" s="6" t="s">
-        <v>453</v>
-      </c>
-      <c r="D472" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="A472" s="8"/>
+      <c r="B472" s="8"/>
+      <c r="C472" s="7"/>
+      <c r="D472" s="4"/>
     </row>
     <row r="473" spans="1:4" ht="21">
       <c r="A473" s="5" t="s">
@@ -7329,7 +7335,7 @@
       </c>
       <c r="B473" s="5"/>
       <c r="C473" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D473" s="4" t="s">
         <v>3</v>
@@ -7341,7 +7347,7 @@
       </c>
       <c r="B474" s="5"/>
       <c r="C474" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D474" s="4" t="s">
         <v>3</v>
@@ -7353,7 +7359,7 @@
       </c>
       <c r="B475" s="5"/>
       <c r="C475" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D475" s="4" t="s">
         <v>3</v>
@@ -7365,7 +7371,7 @@
       </c>
       <c r="B476" s="5"/>
       <c r="C476" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D476" s="4" t="s">
         <v>3</v>
@@ -7377,7 +7383,7 @@
       </c>
       <c r="B477" s="5"/>
       <c r="C477" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D477" s="4" t="s">
         <v>3</v>
@@ -7389,7 +7395,7 @@
       </c>
       <c r="B478" s="5"/>
       <c r="C478" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D478" s="4" t="s">
         <v>3</v>
@@ -7401,7 +7407,7 @@
       </c>
       <c r="B479" s="5"/>
       <c r="C479" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D479" s="4" t="s">
         <v>3</v>
@@ -7413,7 +7419,7 @@
       </c>
       <c r="B480" s="5"/>
       <c r="C480" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D480" s="4" t="s">
         <v>3</v>
@@ -7425,9 +7431,21 @@
       </c>
       <c r="B481" s="5"/>
       <c r="C481" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="D481" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" ht="21">
+      <c r="A482" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="B482" s="5"/>
+      <c r="C482" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="D481" s="4" t="s">
+      <c r="D482" s="4" t="s">
         <v>3</v>
       </c>
     </row>
@@ -7435,451 +7453,452 @@
   <hyperlinks>
     <hyperlink ref="C6" r:id="rId1" xr:uid="{9492A4AD-FA44-BA4B-B154-E4DBB1951162}"/>
     <hyperlink ref="C7" r:id="rId2" xr:uid="{2D6F1134-3C08-7445-B19A-9B94A18B55C7}"/>
-    <hyperlink ref="C8" r:id="rId3" xr:uid="{E5A98931-37E8-6B4A-90BE-8DC72405341A}"/>
-    <hyperlink ref="C9" r:id="rId4" xr:uid="{02736918-E09F-7A46-90B3-AFCC33AA559B}"/>
-    <hyperlink ref="C10" r:id="rId5" xr:uid="{6E8DD30A-A9F9-4C44-B26C-C9E236F10798}"/>
-    <hyperlink ref="C11" r:id="rId6" xr:uid="{0D55765B-95A7-154F-96F3-B7E4C581021F}"/>
-    <hyperlink ref="C12" r:id="rId7" xr:uid="{6F687ABA-C04B-AF4F-9F11-A038DCB20FB9}"/>
-    <hyperlink ref="C13" r:id="rId8" xr:uid="{11C9D8CC-9F1E-004E-8EC2-C758DC9C8CAB}"/>
-    <hyperlink ref="C14" r:id="rId9" xr:uid="{56E4962F-CB3D-9E48-A26E-19A1F5C800C9}"/>
-    <hyperlink ref="C15" r:id="rId10" xr:uid="{899DDBD9-9ED6-3A4D-8AFE-8FAA6DA88DBC}"/>
-    <hyperlink ref="C16" r:id="rId11" xr:uid="{76D41EAC-A28A-2845-8515-CA3C70D823B7}"/>
-    <hyperlink ref="C17" r:id="rId12" xr:uid="{828948BE-DD97-DE4A-BAD6-B415E29198F0}"/>
-    <hyperlink ref="C18" r:id="rId13" xr:uid="{E98C86AA-12E7-124C-B7D0-BCDFB246040B}"/>
-    <hyperlink ref="C19" r:id="rId14" xr:uid="{192741A9-FF68-DC4A-99FA-69F9968AB4F2}"/>
-    <hyperlink ref="C20" r:id="rId15" xr:uid="{DBD9BA9C-91C6-B144-A800-DCB3BED33DE7}"/>
-    <hyperlink ref="C21" r:id="rId16" xr:uid="{A285BDE8-00E7-A94C-8E43-A0C4829D42FA}"/>
-    <hyperlink ref="C22" r:id="rId17" xr:uid="{B0C21764-2962-1649-8AFA-10FB9420C5FC}"/>
-    <hyperlink ref="C23" r:id="rId18" xr:uid="{9282CC15-9B38-E54B-B64C-557745C9C00A}"/>
-    <hyperlink ref="C24" r:id="rId19" xr:uid="{3BCCEBE2-AC3B-AC4F-8BA9-439ACEA133D4}"/>
-    <hyperlink ref="C25" r:id="rId20" xr:uid="{74F8D761-6EBF-594A-A6C7-40DE4CE96958}"/>
-    <hyperlink ref="C26" r:id="rId21" xr:uid="{79947FE6-D417-D644-81D8-D058180550A0}"/>
-    <hyperlink ref="C27" r:id="rId22" xr:uid="{2BF3F606-410B-264D-BF60-191C34D616BB}"/>
-    <hyperlink ref="C28" r:id="rId23" xr:uid="{CD98DB26-0F2F-FD40-A989-53FE548D7D34}"/>
-    <hyperlink ref="C29" r:id="rId24" xr:uid="{307032A1-F8EF-1A48-BFE3-EA3283D39BE2}"/>
-    <hyperlink ref="C30" r:id="rId25" xr:uid="{AA329F36-941A-9241-9402-9D220B05E719}"/>
-    <hyperlink ref="C31" r:id="rId26" xr:uid="{9E851DAC-0E30-B340-84F9-721D70B66919}"/>
-    <hyperlink ref="C32" r:id="rId27" xr:uid="{468380BA-4978-A645-ABD0-E74FD3E6BDBB}"/>
-    <hyperlink ref="C33" r:id="rId28" xr:uid="{289E6890-8CCB-D645-9B3F-6138FFC1C249}"/>
-    <hyperlink ref="C34" r:id="rId29" xr:uid="{8EABDC68-858F-784A-A8F1-C603E3B8C1FE}"/>
-    <hyperlink ref="C35" r:id="rId30" xr:uid="{6157E427-1210-3F45-A4DC-6DFD2373B9CF}"/>
-    <hyperlink ref="C36" r:id="rId31" xr:uid="{2D7BA55E-9947-FF4D-BC09-FB4A5ADA07EC}"/>
-    <hyperlink ref="C37" r:id="rId32" xr:uid="{3337C74F-8B73-E64E-A6DA-5D9F7C7B4D32}"/>
-    <hyperlink ref="C38" r:id="rId33" xr:uid="{02370124-E58D-B540-BBCF-98266229556D}"/>
-    <hyperlink ref="C39" r:id="rId34" xr:uid="{F2DE2162-BD02-7549-AC1A-27455F78131F}"/>
-    <hyperlink ref="C40" r:id="rId35" xr:uid="{6FA286B9-3994-624D-B0B8-C01657D110AD}"/>
-    <hyperlink ref="C41" r:id="rId36" xr:uid="{6EFBEDA1-5C10-2547-8FB2-44E977513B28}"/>
-    <hyperlink ref="C44" r:id="rId37" xr:uid="{090EC515-BEBE-514E-BA59-A84E450B4211}"/>
-    <hyperlink ref="C45" r:id="rId38" xr:uid="{0A0557FD-77E5-564B-B100-147D544A38B4}"/>
-    <hyperlink ref="C46" r:id="rId39" xr:uid="{3F82F2E0-AA59-5042-B079-F3B3C6FF2FD7}"/>
-    <hyperlink ref="C47" r:id="rId40" xr:uid="{FFF7D257-1F58-5A4B-AAA2-F5480AED86C7}"/>
-    <hyperlink ref="C48" r:id="rId41" xr:uid="{353E28FA-E36D-7447-9DE8-787DF11C4669}"/>
-    <hyperlink ref="C49" r:id="rId42" xr:uid="{F9B53127-FC98-FE43-B53F-BFDBCE2A4427}"/>
-    <hyperlink ref="C50" r:id="rId43" xr:uid="{40685BBC-CE24-624E-9ABB-98490B7DE0E4}"/>
-    <hyperlink ref="C51" r:id="rId44" xr:uid="{7733D505-2EC7-E346-B3DA-C980C7CE0B27}"/>
-    <hyperlink ref="C52" r:id="rId45" xr:uid="{E8C1FE00-7B4B-5745-8E4B-CD44B6C749E3}"/>
-    <hyperlink ref="C53" r:id="rId46" xr:uid="{FDE181B1-57B0-7C4B-A189-C7C6E4EAEF99}"/>
-    <hyperlink ref="C56" r:id="rId47" xr:uid="{FE85FD72-4FC9-334E-8205-9E8B238954EB}"/>
-    <hyperlink ref="C57" r:id="rId48" xr:uid="{7630AD76-7E6B-8C4A-BA33-A62EBB042215}"/>
-    <hyperlink ref="C58" r:id="rId49" xr:uid="{2A738B70-CBF0-CC40-8B05-A271822B3F1A}"/>
-    <hyperlink ref="C60" r:id="rId50" xr:uid="{B2DE2D9E-8371-CD44-9D0D-4D6DC64AC29B}"/>
-    <hyperlink ref="C61" r:id="rId51" xr:uid="{265DCD11-17A0-654E-BEFE-FABA31210C6E}"/>
-    <hyperlink ref="C62" r:id="rId52" xr:uid="{47F1BB0C-0C5C-0845-8EEC-1560C50D7DA7}"/>
-    <hyperlink ref="C63" r:id="rId53" xr:uid="{8E0BFA2E-CCB4-514F-86CD-78176C6CC98A}"/>
-    <hyperlink ref="C64" r:id="rId54" xr:uid="{E4DEFB4B-749F-8746-97C7-F2B433664A74}"/>
-    <hyperlink ref="C65" r:id="rId55" xr:uid="{8301BDBD-EB7E-7D41-A777-ED99C3F9D67D}"/>
-    <hyperlink ref="C66" r:id="rId56" xr:uid="{927AE532-647F-AF4C-A567-40ADA6FCE534}"/>
-    <hyperlink ref="C67" r:id="rId57" xr:uid="{05489F52-CC92-EC44-9AD3-773DEC3B1D36}"/>
-    <hyperlink ref="C68" r:id="rId58" xr:uid="{13025DF6-C30E-014A-B66C-68C4AAAC1C6E}"/>
-    <hyperlink ref="C69" r:id="rId59" xr:uid="{BEE1F613-C189-B949-A225-0E0C5AFD1532}"/>
-    <hyperlink ref="C70" r:id="rId60" xr:uid="{1DFECD6C-D7CC-0340-B29B-4D56E50711E5}"/>
-    <hyperlink ref="C71" r:id="rId61" xr:uid="{70BED156-B004-E043-BF7D-59EFAA9EADAF}"/>
-    <hyperlink ref="C72" r:id="rId62" xr:uid="{FF9CBAFB-900E-E242-8B33-EDF46F0F40B5}"/>
-    <hyperlink ref="C73" r:id="rId63" xr:uid="{19461114-B3E8-9042-8029-100010946A04}"/>
-    <hyperlink ref="C74" r:id="rId64" xr:uid="{00F71118-E30B-A84E-819E-FFA902C70502}"/>
-    <hyperlink ref="C75" r:id="rId65" xr:uid="{58E70966-BBE0-7743-A250-AE4DD57807DE}"/>
-    <hyperlink ref="C76" r:id="rId66" xr:uid="{09409FE3-9D7E-4F43-BB21-14A1B8D6E480}"/>
-    <hyperlink ref="C77" r:id="rId67" xr:uid="{E199A3DC-3DA1-C648-93C0-DF9CD5331204}"/>
-    <hyperlink ref="C78" r:id="rId68" xr:uid="{85886847-1510-AA46-B10C-F3D80591DD74}"/>
-    <hyperlink ref="C79" r:id="rId69" xr:uid="{F60808FC-F09D-FC44-B2DD-752E55A1C698}"/>
-    <hyperlink ref="C80" r:id="rId70" xr:uid="{16B2725E-1AD5-0441-9B5B-B6B2F458091B}"/>
-    <hyperlink ref="C81" r:id="rId71" xr:uid="{8440D753-5DE9-3243-97C2-C09D195C325F}"/>
-    <hyperlink ref="C82" r:id="rId72" xr:uid="{AC63A963-B6CC-6E4E-B72A-7F472BC4C027}"/>
-    <hyperlink ref="C83" r:id="rId73" xr:uid="{B21B87F1-A0C0-7F4E-B36F-912B871D0EF4}"/>
-    <hyperlink ref="C84" r:id="rId74" xr:uid="{789FFFAC-8B7E-0540-98B8-856430EB56F8}"/>
-    <hyperlink ref="C85" r:id="rId75" xr:uid="{4A0E959E-22F4-6948-A819-76FE76AB9F6D}"/>
-    <hyperlink ref="C86" r:id="rId76" xr:uid="{78B76678-D8EE-9745-98B1-DF7A76EA3B10}"/>
-    <hyperlink ref="C87" r:id="rId77" xr:uid="{62982242-1D19-1544-8653-8E25E9BF4505}"/>
-    <hyperlink ref="C88" r:id="rId78" xr:uid="{8E3D4BDF-9F8F-0542-BFD8-C3CE3BF396E6}"/>
-    <hyperlink ref="C89" r:id="rId79" xr:uid="{A3D51762-65A1-9A44-B619-D1D98A7F403B}"/>
-    <hyperlink ref="C90" r:id="rId80" xr:uid="{ED0F5FC7-0066-EB44-8FCF-460600DADB02}"/>
-    <hyperlink ref="C91" r:id="rId81" xr:uid="{2D956AC4-4774-7446-8473-C4CE00E33C17}"/>
-    <hyperlink ref="C92" r:id="rId82" xr:uid="{C8C607BB-1FEE-FA47-9E3E-6C0BCE978B7F}"/>
-    <hyperlink ref="C93" r:id="rId83" xr:uid="{B9AC5194-6D36-684A-A5C4-BEE11037599F}"/>
-    <hyperlink ref="C94" r:id="rId84" xr:uid="{AB28D9E6-890C-F14A-A5FB-2303BE319968}"/>
-    <hyperlink ref="C95" r:id="rId85" xr:uid="{1F507CBC-4056-AD46-9314-95ECBB9D799D}"/>
-    <hyperlink ref="C96" r:id="rId86" xr:uid="{F152A9AF-5CBA-EC44-A9CF-07AB481435AB}"/>
-    <hyperlink ref="C97" r:id="rId87" xr:uid="{346CA74F-60B7-0A4B-A612-9184D4DCFF62}"/>
-    <hyperlink ref="C98" r:id="rId88" xr:uid="{8C653CB1-4954-754F-8D46-F09141A2FCDB}"/>
-    <hyperlink ref="C101" r:id="rId89" xr:uid="{5989F693-2A61-A346-8395-8674307A4CC2}"/>
-    <hyperlink ref="C102" r:id="rId90" xr:uid="{3AD10C9E-4F6D-DE48-92F3-531A586520C6}"/>
-    <hyperlink ref="C103" r:id="rId91" xr:uid="{4FA217C0-A1F3-904E-8FEA-EA4941273A67}"/>
-    <hyperlink ref="C104" r:id="rId92" xr:uid="{A297BBC0-FA0D-2D46-9C49-3932193EF1D3}"/>
-    <hyperlink ref="C106" r:id="rId93" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance." xr:uid="{DCD751DE-E440-F346-B6FD-CBD072217214}"/>
-    <hyperlink ref="C107" r:id="rId94" xr:uid="{B2FD38B9-1E2B-8140-8291-F45734C98145}"/>
-    <hyperlink ref="C108" r:id="rId95" xr:uid="{C76888B3-18AC-9B48-9E2A-64A7DF0902B7}"/>
-    <hyperlink ref="C109" r:id="rId96" xr:uid="{18A79860-6C9E-A941-8D6C-360B9913E941}"/>
-    <hyperlink ref="C110" r:id="rId97" xr:uid="{C0DDFD68-CBC1-0F4A-AF40-ACF36BBC8453}"/>
-    <hyperlink ref="C111" r:id="rId98" xr:uid="{3E0BF737-E42E-C946-B32C-06882E0BA6FF}"/>
-    <hyperlink ref="C113" r:id="rId99" xr:uid="{862F9782-C57B-2848-A2D9-EB7B52FB7EC7}"/>
-    <hyperlink ref="C114" r:id="rId100" xr:uid="{230D7A6A-D2C5-C140-9A65-B1F407D22062}"/>
-    <hyperlink ref="C115" r:id="rId101" xr:uid="{BDC2BA28-4562-984E-8282-1126BF952EAF}"/>
-    <hyperlink ref="C116" r:id="rId102" xr:uid="{B53A5F28-6DED-3D47-8679-F78D3DDEFF01}"/>
-    <hyperlink ref="C117" r:id="rId103" xr:uid="{C57D0CC7-DA2F-0948-9BCE-F19C20C7D981}"/>
-    <hyperlink ref="C118" r:id="rId104" xr:uid="{117878E5-B8C8-254B-8ED6-014B4B7A8126}"/>
-    <hyperlink ref="C119" r:id="rId105" xr:uid="{B7CC0756-74F2-D54D-BDEE-9DA394DD7168}"/>
-    <hyperlink ref="C120" r:id="rId106" xr:uid="{837EF472-CCC2-CF47-A8A8-238E56F722CE}"/>
-    <hyperlink ref="C121" r:id="rId107" xr:uid="{3608F267-6AA0-624B-B243-7DDD317E9F08}"/>
-    <hyperlink ref="C122" r:id="rId108" xr:uid="{0B6123E6-0472-374B-ACA7-6914CD7918E8}"/>
-    <hyperlink ref="C123" r:id="rId109" xr:uid="{D3971CEB-C53E-B04B-9C32-1803182B5DC5}"/>
-    <hyperlink ref="C124" r:id="rId110" xr:uid="{7CF5013A-643E-1643-93A1-A2F1500D2A23}"/>
-    <hyperlink ref="C125" r:id="rId111" xr:uid="{2A6BE7E5-D818-6843-8C3E-99EA2BFE0FB2}"/>
-    <hyperlink ref="C126" r:id="rId112" xr:uid="{E718F544-96DF-A04E-8DFB-7639DA3EA57C}"/>
-    <hyperlink ref="C127" r:id="rId113" xr:uid="{B0C2F065-424A-7345-A864-346ECD98D749}"/>
-    <hyperlink ref="C128" r:id="rId114" xr:uid="{B4E26955-5C3F-804E-B19A-11260310AFB3}"/>
-    <hyperlink ref="C129" r:id="rId115" xr:uid="{6F299BB5-8E82-0240-A9A3-6829CE3ABCBF}"/>
-    <hyperlink ref="C130" r:id="rId116" xr:uid="{A42CA32F-2196-1840-A53D-E5073237C68D}"/>
-    <hyperlink ref="C131" r:id="rId117" xr:uid="{7ECF6EF4-962E-4642-9B1C-C3B70674793E}"/>
-    <hyperlink ref="C132" r:id="rId118" xr:uid="{2A109178-6B60-164E-9D25-42B3282137E3}"/>
-    <hyperlink ref="C133" r:id="rId119" xr:uid="{B3D38BD0-A6A1-8D41-8405-45E1BEEEEF06}"/>
-    <hyperlink ref="C134" r:id="rId120" xr:uid="{A1C26612-D040-2A41-A6A6-A8F2490C0A43}"/>
-    <hyperlink ref="C135" r:id="rId121" xr:uid="{C476E807-64CB-F44A-A23D-D21EBF6D001D}"/>
-    <hyperlink ref="C136" r:id="rId122" xr:uid="{9A414D55-D4A1-F147-9207-61B597D57136}"/>
-    <hyperlink ref="C105" r:id="rId123" xr:uid="{18B028A7-9B6F-D841-8548-924D70530779}"/>
-    <hyperlink ref="C112" r:id="rId124" xr:uid="{6D3E75EF-733F-7A4B-81C8-AEF6CB6335F0}"/>
-    <hyperlink ref="C139" r:id="rId125" xr:uid="{C9EB2682-BE0B-934B-B0B4-1DD1A1502647}"/>
-    <hyperlink ref="C140" r:id="rId126" xr:uid="{2992FED9-2B78-A342-92AA-E7C0F882FF17}"/>
-    <hyperlink ref="C141" r:id="rId127" xr:uid="{0084DA6F-EC84-BD48-BDA8-EBACA3BB3B3E}"/>
-    <hyperlink ref="C142" r:id="rId128" xr:uid="{30F2D415-4B2C-384C-8EAE-2CC71CB518E2}"/>
-    <hyperlink ref="C143" r:id="rId129" xr:uid="{40734C88-7C5B-9747-86D1-03463D9AD41A}"/>
-    <hyperlink ref="C144" r:id="rId130" xr:uid="{1040D22F-6729-104A-A229-CBDCED93024A}"/>
-    <hyperlink ref="C145" r:id="rId131" xr:uid="{E131FE61-FABF-8E4B-8EF0-F68379D8F836}"/>
-    <hyperlink ref="C146" r:id="rId132" xr:uid="{B2129272-1351-3745-883B-E6A7115450C8}"/>
-    <hyperlink ref="C147" r:id="rId133" xr:uid="{C8B2DEF0-2B69-C84E-8013-0B6F03FFC250}"/>
-    <hyperlink ref="C148" r:id="rId134" xr:uid="{536AC5CF-712F-BF48-94A9-D0E7DC013020}"/>
-    <hyperlink ref="C149" r:id="rId135" xr:uid="{2DABC9C7-43D4-1249-AF9B-5FA4552611CB}"/>
-    <hyperlink ref="C150" r:id="rId136" xr:uid="{DA62E73A-B495-F94A-BECE-D42E4CBF074A}"/>
-    <hyperlink ref="C151" r:id="rId137" xr:uid="{7F5E6966-850D-4F49-B2A5-678365713F28}"/>
-    <hyperlink ref="C152" r:id="rId138" xr:uid="{E9C4286D-8493-9A47-8B8C-09583FA72B70}"/>
-    <hyperlink ref="C153" r:id="rId139" xr:uid="{9EB0123C-84AE-1C4D-BA1A-C28CFB8EFB89}"/>
-    <hyperlink ref="C154" r:id="rId140" xr:uid="{9D11FED4-328F-674E-889D-EC781DD1D791}"/>
-    <hyperlink ref="C155" r:id="rId141" xr:uid="{48AE72DB-397B-464D-88AD-B8058ED29CC1}"/>
-    <hyperlink ref="C156" r:id="rId142" xr:uid="{152D50E9-7448-F542-AC66-05D0AE66664C}"/>
-    <hyperlink ref="C157" r:id="rId143" xr:uid="{34E6AF1B-5FB1-3A4B-8938-1DCF80831DC2}"/>
-    <hyperlink ref="C158" r:id="rId144" xr:uid="{E7F8B7CA-49F4-1946-91EE-E7582BE4E5DA}"/>
-    <hyperlink ref="C159" r:id="rId145" xr:uid="{3590A994-B7A2-C14D-9BF8-7AC8FE9E7F0F}"/>
-    <hyperlink ref="C160" r:id="rId146" xr:uid="{0AAA4B0C-4921-C34D-B41E-D702FA860892}"/>
-    <hyperlink ref="C161" r:id="rId147" xr:uid="{5973FCA4-AE32-5248-A6ED-2694367332F1}"/>
-    <hyperlink ref="C162" r:id="rId148" xr:uid="{4C0F816E-F043-0C47-BF16-1CDAD88D2FF1}"/>
-    <hyperlink ref="C163" r:id="rId149" xr:uid="{A8E4C654-D0BD-8945-9F5C-B09F7BC114BE}"/>
-    <hyperlink ref="C166" r:id="rId150" xr:uid="{E3825C15-10BB-E24F-B229-983F651DA942}"/>
-    <hyperlink ref="C167" r:id="rId151" xr:uid="{46ECFC31-388C-6241-8FFE-DED6F2FC794A}"/>
-    <hyperlink ref="C168" r:id="rId152" xr:uid="{589E024D-3FE1-1048-890C-88289733F233}"/>
-    <hyperlink ref="C169" r:id="rId153" xr:uid="{CDA28F7A-7FC5-F74D-B27E-A6E0161D41D5}"/>
-    <hyperlink ref="C170" r:id="rId154" xr:uid="{DA6A0D92-DCEB-DA4F-8BBA-10FCD092838F}"/>
-    <hyperlink ref="C171" r:id="rId155" xr:uid="{955769DB-3256-254B-90DE-E1E01B272F8A}"/>
-    <hyperlink ref="C172" r:id="rId156" xr:uid="{DED7AC9B-40D7-0545-9D6F-6CD4F5FFE4C6}"/>
-    <hyperlink ref="C173" r:id="rId157" xr:uid="{6947A4E1-B6AA-6D4F-A6D8-8FA74FD02887}"/>
-    <hyperlink ref="C174" r:id="rId158" xr:uid="{EABF2012-5A90-0C4E-86F6-FDB5FA7770BE}"/>
-    <hyperlink ref="C177" r:id="rId159" xr:uid="{7F44CFE0-9ED1-A44D-B9EF-CF87BEB644FC}"/>
-    <hyperlink ref="C178" r:id="rId160" xr:uid="{CF6E0CF6-7A93-D84A-9CE0-5BDD51767416}"/>
-    <hyperlink ref="C179" r:id="rId161" xr:uid="{EFF8F154-60B8-B84B-84CA-32756BD6430F}"/>
-    <hyperlink ref="C180" r:id="rId162" xr:uid="{C8A3094E-E11B-2543-B05E-1D07048B2EBA}"/>
-    <hyperlink ref="C181" r:id="rId163" xr:uid="{9961E5F5-B5C6-0C4D-A1D0-D04D2A5D7DFD}"/>
-    <hyperlink ref="C182" r:id="rId164" xr:uid="{44E289EC-47DD-D94D-88C1-CB2F59C6C16A}"/>
-    <hyperlink ref="C183" r:id="rId165" xr:uid="{4161FC70-DD6D-684B-898A-A4711596B2D5}"/>
-    <hyperlink ref="C184" r:id="rId166" xr:uid="{B9CBE387-8E9A-ED48-8310-CF7D34FA690C}"/>
-    <hyperlink ref="C185" r:id="rId167" xr:uid="{5398097B-24FF-9543-8F02-33CE2860F1F7}"/>
-    <hyperlink ref="C186" r:id="rId168" xr:uid="{3B1FC30B-30C8-7B48-AF94-A81FB513F24F}"/>
-    <hyperlink ref="C187" r:id="rId169" xr:uid="{32B750D0-D7F2-694D-AB9B-25AFAFAFF17F}"/>
-    <hyperlink ref="C188" r:id="rId170" xr:uid="{400689DD-8E95-024E-976B-AACD8ED4E1A6}"/>
-    <hyperlink ref="C189" r:id="rId171" xr:uid="{28753DDE-E047-5D40-A30B-1103BE6DA08F}"/>
-    <hyperlink ref="C190" r:id="rId172" xr:uid="{6C5AA6CB-3D93-0740-AEED-9E6C218CF6CB}"/>
-    <hyperlink ref="C191" r:id="rId173" xr:uid="{03EAA2B9-D8B8-D642-BF24-380596D26B2E}"/>
-    <hyperlink ref="C192" r:id="rId174" xr:uid="{8C1719B4-37CC-484E-BDCE-A4272C07F91B}"/>
-    <hyperlink ref="C193" r:id="rId175" xr:uid="{6C198DA2-BB98-F940-8EF6-2FC8B7AE577A}"/>
-    <hyperlink ref="C194" r:id="rId176" xr:uid="{AB0EA311-A446-D046-A0EC-290B42068328}"/>
-    <hyperlink ref="C195" r:id="rId177" xr:uid="{DB913045-B9F6-6549-AA09-22B0CC5FDD21}"/>
-    <hyperlink ref="C196" r:id="rId178" xr:uid="{806469FD-617A-7445-AAB5-FB2FD2ED24EA}"/>
-    <hyperlink ref="C197" r:id="rId179" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." xr:uid="{1A10544E-58CF-D04D-9FAF-2FEC6DB2B5D4}"/>
-    <hyperlink ref="C198" r:id="rId180" xr:uid="{5A0B6645-89FD-E044-A706-9FB890274C3C}"/>
-    <hyperlink ref="C199" r:id="rId181" xr:uid="{B42A3009-E8EB-EE44-885F-6699C17A0E0B}"/>
-    <hyperlink ref="C200" r:id="rId182" xr:uid="{ED3E48AB-E25B-3744-B024-E97B2A319B46}"/>
-    <hyperlink ref="C201" r:id="rId183" xr:uid="{C75D20A3-CBAE-2649-A3EE-E49177CFA343}"/>
-    <hyperlink ref="C202" r:id="rId184" xr:uid="{3863CA1B-D43E-1144-91A9-17C2DCF52A64}"/>
-    <hyperlink ref="C203" r:id="rId185" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." xr:uid="{E9AF434E-4CAA-5D49-8AD3-889CDE2913D9}"/>
-    <hyperlink ref="C204" r:id="rId186" xr:uid="{1A0568E5-3A11-7F47-8001-82B05D7C2339}"/>
-    <hyperlink ref="C205" r:id="rId187" xr:uid="{F62B8AE4-9C4F-9544-8861-CD733C12F79E}"/>
-    <hyperlink ref="C206" r:id="rId188" xr:uid="{0F6A542C-44C9-5A4C-90BF-BC8C239877D2}"/>
-    <hyperlink ref="C207" r:id="rId189" xr:uid="{3ED28203-B1B5-4E46-AAF3-779EDD4AC03F}"/>
-    <hyperlink ref="C208" r:id="rId190" xr:uid="{4338B305-B52F-5540-9B51-B938FC6803A2}"/>
-    <hyperlink ref="C209" r:id="rId191" xr:uid="{DDEEED0F-A939-1E4F-B2FA-AD391A4A2874}"/>
-    <hyperlink ref="C210" r:id="rId192" xr:uid="{C2F20589-AD81-654C-94E5-E5B6C9FE27F6}"/>
-    <hyperlink ref="C211" r:id="rId193" xr:uid="{BBEB9DAC-E4AE-C04F-AA15-6356AFC57FDE}"/>
-    <hyperlink ref="C214" r:id="rId194" xr:uid="{6316566D-A10A-F849-9F25-B9ED4DA12BC7}"/>
-    <hyperlink ref="C215" r:id="rId195" xr:uid="{9D4DD895-FBA6-C849-A5BF-3B30755BD9C9}"/>
-    <hyperlink ref="C216" r:id="rId196" xr:uid="{475996DA-632A-BE49-AEA1-D4189FD614A1}"/>
-    <hyperlink ref="C217" r:id="rId197" xr:uid="{88E0C858-8468-884F-BB71-F6F176BD5FC2}"/>
-    <hyperlink ref="C218" r:id="rId198" xr:uid="{C1C5C8D0-7A06-3D4A-A85A-AAACC1B418C9}"/>
-    <hyperlink ref="C219" r:id="rId199" xr:uid="{D525D4B1-2857-1543-8CD9-196728321203}"/>
-    <hyperlink ref="C220" r:id="rId200" xr:uid="{51E3AB9B-04B2-C041-A2B3-37E3EB18013A}"/>
-    <hyperlink ref="C221" r:id="rId201" xr:uid="{7F7F0C9A-57B9-314F-959A-B8ACAFA5FD13}"/>
-    <hyperlink ref="C222" r:id="rId202" xr:uid="{3B029785-83B4-6140-8B70-CD892CFC87F6}"/>
-    <hyperlink ref="C223" r:id="rId203" xr:uid="{B0A390E6-D860-9F4E-B021-68949FE712F3}"/>
-    <hyperlink ref="C224" r:id="rId204" xr:uid="{49E9953D-52F6-BF47-8AAA-8E456F55576B}"/>
-    <hyperlink ref="C225" r:id="rId205" xr:uid="{9B812470-F419-A54E-8365-06A9B8864A30}"/>
-    <hyperlink ref="C226" r:id="rId206" xr:uid="{B6FB4107-1933-6D45-9EF4-4474E06CBE9D}"/>
-    <hyperlink ref="C227" r:id="rId207" xr:uid="{0F7C1D92-7BCB-D14D-A658-9599984E04E4}"/>
-    <hyperlink ref="C228" r:id="rId208" xr:uid="{6810428F-0A78-964C-A8C8-E1CD2E7C405D}"/>
-    <hyperlink ref="C229" r:id="rId209" xr:uid="{B40209F2-0D6E-364F-8AF6-F1D182509314}"/>
-    <hyperlink ref="C230" r:id="rId210" xr:uid="{96C53FA9-9FD3-2D4F-B292-3C9DEDFA806E}"/>
-    <hyperlink ref="C231" r:id="rId211" xr:uid="{918B420D-3678-FD46-9463-595E8ACC39E1}"/>
-    <hyperlink ref="C232" r:id="rId212" xr:uid="{851A7153-3B54-0E4A-A0A0-FCEB091AFE70}"/>
-    <hyperlink ref="C233" r:id="rId213" xr:uid="{C03AE9F8-09AE-C640-81A7-033BB06FB6AD}"/>
-    <hyperlink ref="C234" r:id="rId214" xr:uid="{35140DEB-52D2-4342-88D2-22BA061E5B48}"/>
-    <hyperlink ref="C235" r:id="rId215" xr:uid="{9714BC0B-3373-934C-B7A1-599F74F4FB9D}"/>
-    <hyperlink ref="C238" r:id="rId216" xr:uid="{5CB435B2-7FD2-1D44-9872-22B6A1EDC02B}"/>
-    <hyperlink ref="C239" r:id="rId217" xr:uid="{722D1D95-896B-4642-BABD-31DEDD237B49}"/>
-    <hyperlink ref="C240" r:id="rId218" xr:uid="{D686D1DC-13D6-284C-B606-E087FAF47399}"/>
-    <hyperlink ref="C241" r:id="rId219" xr:uid="{D22C2394-C3CB-8F4F-A010-2B13C8C84D1A}"/>
-    <hyperlink ref="C242" r:id="rId220" xr:uid="{3AE2F800-B66F-1A41-893B-978F6875FDC8}"/>
-    <hyperlink ref="C243" r:id="rId221" xr:uid="{2C939BDE-5298-5541-837B-8C59D53A33C1}"/>
-    <hyperlink ref="C244" r:id="rId222" xr:uid="{691C9BD8-69D3-DA4B-AEB6-AF827B4ACA9F}"/>
-    <hyperlink ref="C245" r:id="rId223" xr:uid="{B6891E82-7C4D-424D-9219-3C9FD08E0053}"/>
-    <hyperlink ref="C246" r:id="rId224" xr:uid="{67A1AE98-62D2-644D-AC13-6CD76CF53CC0}"/>
-    <hyperlink ref="C247" r:id="rId225" xr:uid="{B59D4881-2A82-8F4D-B151-1E796C4923C8}"/>
-    <hyperlink ref="C248" r:id="rId226" xr:uid="{B3CBD023-5EFD-6048-9B3F-89F0C65CBBF5}"/>
-    <hyperlink ref="C249" r:id="rId227" xr:uid="{53EC42C4-22F7-0445-A0AC-7275A59A2672}"/>
-    <hyperlink ref="C250" r:id="rId228" xr:uid="{A29575F3-CB24-5B4B-9538-D5212B2DC28B}"/>
-    <hyperlink ref="C251" r:id="rId229" xr:uid="{353A44DD-9E30-8F48-8E2B-8DAA07550470}"/>
-    <hyperlink ref="C252" r:id="rId230" xr:uid="{32AC291D-95A5-BE49-88E0-02677BF39CAC}"/>
-    <hyperlink ref="C253" r:id="rId231" xr:uid="{A84F22FF-AD10-A546-8998-B066C0EB2D5A}"/>
-    <hyperlink ref="C254" r:id="rId232" xr:uid="{4C5CAF84-9B94-FC44-8C6C-B3CC7257C1DB}"/>
-    <hyperlink ref="C255" r:id="rId233" xr:uid="{5DA775E2-C516-3B47-8C82-3CEE7CC0BDF9}"/>
-    <hyperlink ref="C256" r:id="rId234" xr:uid="{00B6AE5C-EF3F-0747-A280-3BF055362B4F}"/>
-    <hyperlink ref="C257" r:id="rId235" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." xr:uid="{BCBD0A7E-F3D0-E840-9375-AFD37C5CD41A}"/>
-    <hyperlink ref="C258" r:id="rId236" xr:uid="{47ABDDDB-F95F-8049-9FB3-1E71A7376DDE}"/>
-    <hyperlink ref="C259" r:id="rId237" xr:uid="{70BADFC9-7399-234D-99F6-4C5F02397C26}"/>
-    <hyperlink ref="C260" r:id="rId238" xr:uid="{63348580-70EF-EC47-BF49-8ECE9560D54E}"/>
-    <hyperlink ref="C261" r:id="rId239" xr:uid="{D5BD96B3-9EAB-1B47-AC87-5C47F6AD7F40}"/>
-    <hyperlink ref="C262" r:id="rId240" xr:uid="{74791141-3FB8-7540-B45B-9541AF0AE371}"/>
-    <hyperlink ref="C263" r:id="rId241" xr:uid="{88D53CD6-262A-7247-8E58-FE9FFF7ECC40}"/>
-    <hyperlink ref="C264" r:id="rId242" xr:uid="{4338A14D-4F7D-B943-A347-7F74EFCA0DB5}"/>
-    <hyperlink ref="C265" r:id="rId243" xr:uid="{6E0EF7A3-7341-284B-A0E3-4539B6EAFAF2}"/>
-    <hyperlink ref="C266" r:id="rId244" xr:uid="{D2D8D64F-E2D3-734E-AD45-3EFB9686555A}"/>
-    <hyperlink ref="C267" r:id="rId245" xr:uid="{04A2904A-73A0-7845-9868-2CCFE359AC68}"/>
-    <hyperlink ref="C268" r:id="rId246" xr:uid="{D3D35835-6BE3-4D41-AF6F-5FE442277A16}"/>
-    <hyperlink ref="C269" r:id="rId247" xr:uid="{F663D0FC-CFF0-BC4F-9D26-48C871A8E9FD}"/>
-    <hyperlink ref="C270" r:id="rId248" xr:uid="{DF544147-DA48-4041-A4E2-4A75106B771A}"/>
-    <hyperlink ref="C271" r:id="rId249" xr:uid="{50E4B716-239E-7946-843D-E8462591D128}"/>
-    <hyperlink ref="C272" r:id="rId250" xr:uid="{D368B3E5-7D12-FD48-AFF7-A4A614108940}"/>
-    <hyperlink ref="C275" r:id="rId251" xr:uid="{D5921FF1-FC1F-CA4B-A24E-AD69E1DEC14C}"/>
-    <hyperlink ref="C276" r:id="rId252" xr:uid="{C931D7E0-E032-7C4B-95F1-735D955FCB51}"/>
-    <hyperlink ref="C277" r:id="rId253" xr:uid="{5FBD4A8F-287C-2C46-9CAB-F7DBA67DEDDA}"/>
-    <hyperlink ref="C278" r:id="rId254" xr:uid="{12966DD6-41DD-A94B-8B2C-0AD7D2AD6FB0}"/>
-    <hyperlink ref="C279" r:id="rId255" xr:uid="{CF720C34-4554-2944-A818-020ABC9BF0F4}"/>
-    <hyperlink ref="C280" r:id="rId256" xr:uid="{75763F2A-16D7-DE43-8189-19623CE26370}"/>
-    <hyperlink ref="C281" r:id="rId257" xr:uid="{9263AA30-472A-0A4D-BADF-96D82BB9BFCC}"/>
-    <hyperlink ref="C282" r:id="rId258" xr:uid="{2EF025C3-75C8-564E-BA8B-708C32B0E602}"/>
-    <hyperlink ref="C283" r:id="rId259" xr:uid="{6BDFDCA9-3421-F24F-8EF2-A72742F0AC21}"/>
-    <hyperlink ref="C284" r:id="rId260" xr:uid="{D8447F99-5FF9-D544-99BB-E9969B4A38D7}"/>
-    <hyperlink ref="C285" r:id="rId261" xr:uid="{1DB7EFDA-6C7D-F546-9EE1-F61ED0F65209}"/>
-    <hyperlink ref="C286" r:id="rId262" xr:uid="{D1505609-27D1-784D-ACF6-AE9D0DA2E1B6}"/>
-    <hyperlink ref="C287" r:id="rId263" xr:uid="{6BFA7B45-17D0-4E49-85DA-23C7255A306D}"/>
-    <hyperlink ref="C288" r:id="rId264" xr:uid="{3324BA4A-30CA-5246-8C3C-6505A6987939}"/>
-    <hyperlink ref="C289" r:id="rId265" xr:uid="{894486AD-2B6D-5740-BCAF-0BA1AFF814B4}"/>
-    <hyperlink ref="C290" r:id="rId266" xr:uid="{C47B203B-8B5A-E740-8C86-0784AD28089E}"/>
-    <hyperlink ref="C291" r:id="rId267" xr:uid="{06DC2E54-7597-AE4D-ACDB-B8883A989A4F}"/>
-    <hyperlink ref="C292" r:id="rId268" xr:uid="{E3384259-7CA7-1C44-A66D-11346EE6742E}"/>
-    <hyperlink ref="C293" r:id="rId269" xr:uid="{A5B77769-38AF-3D47-A76B-311591B57D91}"/>
-    <hyperlink ref="C296" r:id="rId270" xr:uid="{9DB6976A-C646-1341-90E8-3A164521267A}"/>
-    <hyperlink ref="C297" r:id="rId271" xr:uid="{03C291F8-D19A-304B-9EF9-CF71A1F66E49}"/>
-    <hyperlink ref="C298" r:id="rId272" xr:uid="{7536415C-140B-9244-B0B2-23F3ED0B2D80}"/>
-    <hyperlink ref="C299" r:id="rId273" xr:uid="{7DBDA456-8AF6-DD43-9764-17D3959B8E8F}"/>
-    <hyperlink ref="C300" r:id="rId274" xr:uid="{BFC149AB-C15A-B648-9F6A-ECD3890B1918}"/>
-    <hyperlink ref="C301" r:id="rId275" xr:uid="{0482240B-FEE9-F746-8980-52BCB7BBB56E}"/>
-    <hyperlink ref="C302" r:id="rId276" xr:uid="{86D1231A-E7C8-4B45-99ED-2DB0EF71E190}"/>
-    <hyperlink ref="C303" r:id="rId277" xr:uid="{20B7CE89-CB37-0040-989F-C8D1BE2B8782}"/>
-    <hyperlink ref="C304" r:id="rId278" xr:uid="{4C8412C9-A47B-9244-A18B-741516BD1054}"/>
-    <hyperlink ref="C305" r:id="rId279" xr:uid="{511761D9-31CE-0B43-AFFD-C011C27ACC52}"/>
-    <hyperlink ref="C306" r:id="rId280" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." xr:uid="{6905F997-D048-1049-BA27-C48756603D1E}"/>
-    <hyperlink ref="C307" r:id="rId281" xr:uid="{E657AA82-7CFE-DB42-B20F-F63D8C25EAB6}"/>
-    <hyperlink ref="C308" r:id="rId282" xr:uid="{3E505033-58F3-8F4E-AB82-E12DBC226AEA}"/>
-    <hyperlink ref="C309" r:id="rId283" xr:uid="{749599E5-4972-7343-B13B-87E26F837470}"/>
-    <hyperlink ref="C310" r:id="rId284" xr:uid="{12AA88DC-22AB-5A49-B28C-F04C8E35A215}"/>
-    <hyperlink ref="C311" r:id="rId285" xr:uid="{5751F0A7-7D9D-4148-820B-5B9659DFE34F}"/>
-    <hyperlink ref="C312" r:id="rId286" xr:uid="{4CA2DBEE-B161-B84D-B3A9-B8BC1B598AF2}"/>
-    <hyperlink ref="C313" r:id="rId287" xr:uid="{A9C1E578-6594-954C-8785-8902E605FC7A}"/>
-    <hyperlink ref="C314" r:id="rId288" xr:uid="{3D45E9B8-6671-A747-8C18-51CF8883170A}"/>
-    <hyperlink ref="C315" r:id="rId289" xr:uid="{4F5EF748-8CD4-0F47-90CE-3C93755BF63D}"/>
-    <hyperlink ref="C316" r:id="rId290" xr:uid="{44053C08-5050-C84B-B016-069B1EF9A43D}"/>
-    <hyperlink ref="C317" r:id="rId291" xr:uid="{ABF38928-736B-1A49-8B8A-1DCA5AAECB2B}"/>
-    <hyperlink ref="C318" r:id="rId292" xr:uid="{52651FAF-F3DC-E949-8AF8-998B9724B7D1}"/>
-    <hyperlink ref="C319" r:id="rId293" xr:uid="{91C6CCEF-3FF7-2C42-B5A0-8F4A403ED198}"/>
-    <hyperlink ref="C320" r:id="rId294" xr:uid="{15C8AF08-1A79-F949-9BE7-DD240CBD9861}"/>
-    <hyperlink ref="C321" r:id="rId295" xr:uid="{1904F984-5B22-8D46-BC33-3073B390E8F9}"/>
-    <hyperlink ref="C322" r:id="rId296" xr:uid="{A8BFB3A4-426B-E646-BCF0-FE19C8CD07A9}"/>
-    <hyperlink ref="C323" r:id="rId297" xr:uid="{FBBA29BB-885B-744A-A644-58EDCA7B140A}"/>
-    <hyperlink ref="C324" r:id="rId298" xr:uid="{75411687-6884-AC42-8B4A-1348C4837365}"/>
-    <hyperlink ref="C325" r:id="rId299" xr:uid="{A89ED8DF-F678-FE43-808C-C190721379BF}"/>
-    <hyperlink ref="C326" r:id="rId300" xr:uid="{1516834D-F3B2-1743-8811-263E11BBDEF8}"/>
-    <hyperlink ref="C327" r:id="rId301" xr:uid="{1659AB91-08CA-E44D-988D-E9D9A746D406}"/>
-    <hyperlink ref="C328" r:id="rId302" xr:uid="{E844BC1D-9713-9F4D-B0A4-1124A9952D14}"/>
-    <hyperlink ref="C329" r:id="rId303" xr:uid="{DCE2AAEF-8D8E-1843-BFE9-E9B7E13854EB}"/>
-    <hyperlink ref="C330" r:id="rId304" xr:uid="{836B3BF0-7711-7D41-9E72-914C1871397F}"/>
-    <hyperlink ref="C331" r:id="rId305" xr:uid="{F450CF9B-CA59-1443-8163-13F1121DCF12}"/>
-    <hyperlink ref="C332" r:id="rId306" xr:uid="{1539C3E8-4854-3C4F-A7B3-55BF931F1E2A}"/>
-    <hyperlink ref="C333" r:id="rId307" xr:uid="{04F1FC5F-5DA1-0144-962D-B38C1C41F0F4}"/>
-    <hyperlink ref="C336" r:id="rId308" xr:uid="{B21618F4-70E2-C549-80B7-7CF915679E0A}"/>
-    <hyperlink ref="C337" r:id="rId309" xr:uid="{EEDFBF11-C1E4-0847-9D56-94A72D97AEE7}"/>
-    <hyperlink ref="C338" r:id="rId310" xr:uid="{F5C0EDF1-7EAC-8849-8D27-C3389913BFC6}"/>
-    <hyperlink ref="C339" r:id="rId311" xr:uid="{50175B29-124F-4E4E-8E98-961BD3320359}"/>
-    <hyperlink ref="C340" r:id="rId312" xr:uid="{1BE23822-8512-014F-9154-F6EDA4FC8428}"/>
-    <hyperlink ref="C341" r:id="rId313" xr:uid="{38EC228E-ABFF-3542-9CFB-3DDFC628E9D0}"/>
-    <hyperlink ref="C342" r:id="rId314" xr:uid="{73F240F8-C469-454E-BA5C-CFF2F7A7A5F6}"/>
-    <hyperlink ref="C343" r:id="rId315" xr:uid="{3BBD1BAC-68C7-A94A-9063-AF62B5C837FD}"/>
-    <hyperlink ref="C344" r:id="rId316" xr:uid="{F9751D9B-2689-E24B-9FC3-CA32FE888708}"/>
-    <hyperlink ref="C345" r:id="rId317" xr:uid="{73C61D6A-D97C-B944-8B27-BB91564AB0D7}"/>
-    <hyperlink ref="C346" r:id="rId318" xr:uid="{936E077C-C016-A04F-895A-782D6D9D9433}"/>
-    <hyperlink ref="C347" r:id="rId319" xr:uid="{5454A2A1-6607-BE48-9215-CB8965EC3568}"/>
-    <hyperlink ref="C348" r:id="rId320" xr:uid="{FC1EAA10-F7ED-6B42-A79B-3D8B44E2C8B3}"/>
-    <hyperlink ref="C349" r:id="rId321" xr:uid="{FDB7F712-4A42-1048-8929-A1E752B07C6A}"/>
-    <hyperlink ref="C350" r:id="rId322" xr:uid="{AF3ACA60-0B0E-E146-B51F-A2CD05EB6549}"/>
-    <hyperlink ref="C351" r:id="rId323" xr:uid="{BB63E040-7A1A-E046-9BDD-9CBD1DA89DE9}"/>
-    <hyperlink ref="C352" r:id="rId324" xr:uid="{9AF8FD93-CCC9-D540-AE9A-00583F309649}"/>
-    <hyperlink ref="C353" r:id="rId325" xr:uid="{66A746A0-71FE-E546-92B7-D1C3D582E067}"/>
-    <hyperlink ref="C357" r:id="rId326" xr:uid="{BD79CCE1-5315-3944-9F9B-618615EC4583}"/>
-    <hyperlink ref="C358" r:id="rId327" xr:uid="{A5068A51-C961-6847-BB27-40A850B6D393}"/>
-    <hyperlink ref="C359" r:id="rId328" xr:uid="{6B8D36F0-E796-B944-A456-E8A9E2EE0BDB}"/>
-    <hyperlink ref="C360" r:id="rId329" xr:uid="{776652B7-2C11-4641-BF6A-EABEEB9B55AB}"/>
-    <hyperlink ref="C361" r:id="rId330" xr:uid="{95C6B35D-712A-2343-B790-236B55C5EC49}"/>
-    <hyperlink ref="C362" r:id="rId331" xr:uid="{4ED53872-1FE9-F140-AA35-F228F762880B}"/>
-    <hyperlink ref="C363" r:id="rId332" xr:uid="{6D5E6A28-85AA-BF4C-B2BD-9378D6E28EC7}"/>
-    <hyperlink ref="C364" r:id="rId333" xr:uid="{BCAD1ECB-15EE-CF49-878E-AA682DE3AC22}"/>
-    <hyperlink ref="C365" r:id="rId334" xr:uid="{C85468B5-25E9-E446-808E-72CFE911F0C2}"/>
-    <hyperlink ref="C366" r:id="rId335" xr:uid="{9503AECA-1A6A-9640-A04C-4CEAA2304448}"/>
-    <hyperlink ref="C367" r:id="rId336" xr:uid="{74211516-06B0-AA45-845B-52C8202751DA}"/>
-    <hyperlink ref="C368" r:id="rId337" xr:uid="{02C696BC-4B91-9444-900F-9CD68E409ABC}"/>
-    <hyperlink ref="C369" r:id="rId338" xr:uid="{04646C45-4118-374C-839D-94D31D534FAC}"/>
-    <hyperlink ref="C370" r:id="rId339" xr:uid="{F90BCCAE-8596-FC4D-BDD7-774392C596DF}"/>
-    <hyperlink ref="C371" r:id="rId340" xr:uid="{65230925-36EC-8A4B-8E46-6350B9BC0F95}"/>
-    <hyperlink ref="C372" r:id="rId341" xr:uid="{E91B8177-0C7A-1F40-BD34-4CC60F03B84F}"/>
-    <hyperlink ref="C373" r:id="rId342" xr:uid="{E8CBFD60-7335-0B4D-9FF5-99B4A8DC551D}"/>
-    <hyperlink ref="C374" r:id="rId343" xr:uid="{A35F55D4-9B87-C745-94DB-E7D820193C30}"/>
-    <hyperlink ref="C375" r:id="rId344" xr:uid="{6461A29F-D404-334F-B13F-296B4CA5E8A4}"/>
-    <hyperlink ref="C376" r:id="rId345" xr:uid="{FA9B4BE7-85CC-B24F-9461-5E9B42DDD824}"/>
-    <hyperlink ref="C377" r:id="rId346" xr:uid="{A75ACEA2-CDF6-A147-8540-A6DF55B15F45}"/>
-    <hyperlink ref="C378" r:id="rId347" xr:uid="{62FF87E2-E658-AB4D-AC57-7BCF9D49516E}"/>
-    <hyperlink ref="C379" r:id="rId348" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." xr:uid="{269338A6-5145-6944-9F7F-BD2A86DFA308}"/>
-    <hyperlink ref="C380" r:id="rId349" xr:uid="{8F583049-CE8D-CD42-88CD-CF3857942670}"/>
-    <hyperlink ref="C381" r:id="rId350" xr:uid="{EE2348AD-E296-894A-B5AE-5884A3C5E419}"/>
-    <hyperlink ref="C382" r:id="rId351" xr:uid="{6EACB34E-B32E-8F43-8055-2406F7417A7E}"/>
-    <hyperlink ref="C383" r:id="rId352" xr:uid="{2446F10A-B762-B64C-97B2-6131A0BECC1F}"/>
-    <hyperlink ref="C384" r:id="rId353" xr:uid="{6FDFCC53-17A6-7244-88A7-49406D7C9200}"/>
-    <hyperlink ref="C385" r:id="rId354" xr:uid="{3EC43646-EAB1-E443-A2F6-8E6E5FC77083}"/>
-    <hyperlink ref="C386" r:id="rId355" xr:uid="{659D9F20-C862-C947-B422-84143CFE317F}"/>
-    <hyperlink ref="C387" r:id="rId356" xr:uid="{3F5192FE-1C50-C049-88D5-68FA0F5430A0}"/>
-    <hyperlink ref="C388" r:id="rId357" xr:uid="{5EAD7CDA-9545-454B-BE77-9AFEC6AC1083}"/>
-    <hyperlink ref="C389" r:id="rId358" xr:uid="{761E5451-736B-6745-9CF5-4C6EF5D4C099}"/>
-    <hyperlink ref="C390" r:id="rId359" xr:uid="{4C8677A9-D94C-134F-AF31-E424751BF867}"/>
-    <hyperlink ref="C391" r:id="rId360" xr:uid="{CCF7920F-D5CE-004A-86C3-D821FB230970}"/>
-    <hyperlink ref="C392" r:id="rId361" xr:uid="{B4C07A0A-1EDD-7947-9646-3FD603441AD7}"/>
-    <hyperlink ref="C393" r:id="rId362" xr:uid="{49F7BB43-6851-0641-9DC5-27DBC66706F6}"/>
-    <hyperlink ref="C394" r:id="rId363" xr:uid="{77038647-48C7-5547-8E0F-898610362465}"/>
-    <hyperlink ref="C396" r:id="rId364" xr:uid="{EEFFE19C-6571-C64F-A0E1-5A4A700D94D4}"/>
-    <hyperlink ref="C395" r:id="rId365" xr:uid="{A4A2BFC4-6B88-2E4E-B362-17D8EE041C89}"/>
-    <hyperlink ref="C397" r:id="rId366" xr:uid="{DC5B603A-8D65-3648-A08A-E5FFA0FAE879}"/>
-    <hyperlink ref="C398" r:id="rId367" xr:uid="{F8807DD9-F4F2-B147-9C31-DBC93B2E477B}"/>
-    <hyperlink ref="C399" r:id="rId368" xr:uid="{6F7B396C-D7E9-C04E-BAE2-53D2EE07172B}"/>
-    <hyperlink ref="C402" r:id="rId369" xr:uid="{0D4A5941-C669-4A49-BAE3-9B553D03BD0F}"/>
-    <hyperlink ref="C403" r:id="rId370" xr:uid="{54144336-5BCA-D749-962A-E448C2CED3D3}"/>
-    <hyperlink ref="C404" r:id="rId371" xr:uid="{3A41DD21-CACF-1F48-A7C7-F568C6F31F3E}"/>
-    <hyperlink ref="C405" r:id="rId372" xr:uid="{A36160A8-F45E-3443-9645-42C1004B8F8C}"/>
-    <hyperlink ref="C406" r:id="rId373" xr:uid="{8B0A00A3-6AC0-DF46-AD87-A4DA016A2A00}"/>
-    <hyperlink ref="C407" r:id="rId374" xr:uid="{62A81CB4-A961-C543-B31C-92059DB6C105}"/>
-    <hyperlink ref="C410" r:id="rId375" xr:uid="{08030975-009C-C34A-A875-72FE2718F44C}"/>
-    <hyperlink ref="C411" r:id="rId376" xr:uid="{A113C7A9-2359-B643-9C08-E845813439C0}"/>
-    <hyperlink ref="C412" r:id="rId377" xr:uid="{FE300343-4633-AD47-A64D-2086629EB398}"/>
-    <hyperlink ref="C413" r:id="rId378" xr:uid="{4FC9F782-D38F-C642-A863-887B17AD05CD}"/>
-    <hyperlink ref="C414" r:id="rId379" xr:uid="{830C5466-10E3-7A48-B3E7-35C15A1CA4EF}"/>
-    <hyperlink ref="C415" r:id="rId380" xr:uid="{1B987077-E9D3-6F40-89EE-0D4E7180D884}"/>
-    <hyperlink ref="C416" r:id="rId381" xr:uid="{D4843E1F-7226-864E-A4BB-264D5A487B6D}"/>
-    <hyperlink ref="C417" r:id="rId382" xr:uid="{61816592-2D19-9946-8253-47A60218F2EA}"/>
-    <hyperlink ref="C418" r:id="rId383" xr:uid="{736C840F-19A3-0A4B-8863-ECB772B46385}"/>
-    <hyperlink ref="C419" r:id="rId384" xr:uid="{05A238AD-3C5B-C546-94E9-75BBF964711A}"/>
-    <hyperlink ref="C420" r:id="rId385" xr:uid="{7029629C-3F2A-4A49-997B-CFE86EC8B3C2}"/>
-    <hyperlink ref="C421" r:id="rId386" xr:uid="{ADA66B57-2FAC-AB42-BD83-4931708F3AB5}"/>
-    <hyperlink ref="C422" r:id="rId387" xr:uid="{F16BF1F9-755B-B045-B9A8-0B97E3BAC8B0}"/>
-    <hyperlink ref="C423" r:id="rId388" xr:uid="{ECCE930A-B960-234C-81EC-4B8514282AE9}"/>
-    <hyperlink ref="C424" r:id="rId389" xr:uid="{7AA58141-7D24-7C42-A0C1-F852B21CFFD9}"/>
-    <hyperlink ref="C425" r:id="rId390" xr:uid="{B1FCB47D-7921-3446-B2C7-72CBA815D056}"/>
-    <hyperlink ref="C426" r:id="rId391" xr:uid="{8C547719-AA03-3543-B31F-7300674AF4C5}"/>
-    <hyperlink ref="C427" r:id="rId392" xr:uid="{09922668-AFC0-F242-860E-9967E0F0FEF4}"/>
-    <hyperlink ref="C428" r:id="rId393" xr:uid="{0DA963DA-238B-D44E-9E03-6E6BD933B35E}"/>
-    <hyperlink ref="C429" r:id="rId394" xr:uid="{89518AFF-2526-C845-BC9D-95FE77AF416E}"/>
-    <hyperlink ref="C430" r:id="rId395" xr:uid="{FAECBBBE-196C-7A41-A0FB-E0597CB2CF51}"/>
-    <hyperlink ref="C431" r:id="rId396" xr:uid="{8126B039-0B25-B040-A0F6-C3457341A2E9}"/>
-    <hyperlink ref="C432" r:id="rId397" xr:uid="{6CB326E6-E698-EB42-884B-C89FFA33E3BA}"/>
-    <hyperlink ref="C433" r:id="rId398" xr:uid="{8C97EFD1-933F-A44F-A1CF-6386233104A2}"/>
-    <hyperlink ref="C434" r:id="rId399" xr:uid="{8F019F07-8532-E147-8BE1-4EBE833F61CA}"/>
-    <hyperlink ref="C435" r:id="rId400" xr:uid="{00F1A08F-3767-784A-97A3-4603DE38BACC}"/>
-    <hyperlink ref="C436" r:id="rId401" xr:uid="{2A84ADCB-071F-9A48-994D-7A838307EFD8}"/>
-    <hyperlink ref="C437" r:id="rId402" xr:uid="{132F8C6D-D5E8-6440-AC4E-B81EA2100416}"/>
-    <hyperlink ref="C438" r:id="rId403" xr:uid="{2DA6EAC2-1A1D-754F-9613-226CBC7890AF}"/>
-    <hyperlink ref="C439" r:id="rId404" xr:uid="{05BED99A-4562-D14E-8627-D07CF5335A9B}"/>
-    <hyperlink ref="C440" r:id="rId405" xr:uid="{111D902A-3F60-2D4B-89D3-5BCBD8AA38DD}"/>
-    <hyperlink ref="C441" r:id="rId406" xr:uid="{F19236BE-AC32-3542-9214-DFC3BAE04ED0}"/>
-    <hyperlink ref="C442" r:id="rId407" xr:uid="{4D97CD96-EA1B-664E-9380-EFD27077D273}"/>
-    <hyperlink ref="C443" r:id="rId408" xr:uid="{49A46D91-633F-A148-ACFA-49B7D1AA4B33}"/>
-    <hyperlink ref="C444" r:id="rId409" xr:uid="{7C3B7901-67E3-EA4D-BC64-21A78BC03AC6}"/>
-    <hyperlink ref="C445" r:id="rId410" xr:uid="{B27CA8C3-D34F-5E4D-94A5-11D14AFD0F82}"/>
-    <hyperlink ref="C446" r:id="rId411" xr:uid="{8FECE038-9764-5E4A-8C6E-9B3209812651}"/>
-    <hyperlink ref="C447" r:id="rId412" xr:uid="{95696D4B-89CB-5640-BE92-53B3C043F7EB}"/>
-    <hyperlink ref="C448" r:id="rId413" xr:uid="{DA74B737-802A-4944-A93E-0B9C8417630B}"/>
-    <hyperlink ref="C449" r:id="rId414" xr:uid="{B2C4C168-50FA-AF41-8F56-9E70613CF17D}"/>
-    <hyperlink ref="C451" r:id="rId415" xr:uid="{B7090C60-AC27-3F4F-8F0D-42F0791928C6}"/>
-    <hyperlink ref="C450" r:id="rId416" xr:uid="{07400041-66C6-514B-B3E3-427F2947C2B7}"/>
-    <hyperlink ref="C452" r:id="rId417" xr:uid="{B7E78172-8FB8-4E42-87D8-6A4654D79C62}"/>
-    <hyperlink ref="C453" r:id="rId418" xr:uid="{9A5D4670-BC64-334A-88CF-6F8287692C5E}"/>
-    <hyperlink ref="C454" r:id="rId419" xr:uid="{604283B6-53BC-044F-8D9D-E6094E798317}"/>
-    <hyperlink ref="C455" r:id="rId420" xr:uid="{5EB15AC7-3E0E-E44C-A5B9-32F30F234B5A}"/>
-    <hyperlink ref="C456" r:id="rId421" xr:uid="{3076BD5F-4B23-4146-A50A-499C9FF4C3D2}"/>
-    <hyperlink ref="C457" r:id="rId422" xr:uid="{6A29D9C2-1E78-1B43-A251-0AB0A97FA70E}"/>
-    <hyperlink ref="C458" r:id="rId423" xr:uid="{00597D5E-D693-DF4E-84C0-47E58A6ACA8F}"/>
-    <hyperlink ref="C459" r:id="rId424" xr:uid="{48640988-9964-0B4C-A014-83E2CEB3D632}"/>
-    <hyperlink ref="C460" r:id="rId425" xr:uid="{617AADC9-7534-FE45-96B0-EF4C1867B793}"/>
-    <hyperlink ref="C461" r:id="rId426" xr:uid="{7F8CDAA4-5094-8E4E-961B-41CDE5ACC0C0}"/>
-    <hyperlink ref="C462" r:id="rId427" xr:uid="{63F28ABD-12CF-5947-80DA-229E3CA3133E}"/>
-    <hyperlink ref="C469" r:id="rId428" xr:uid="{0A1DB92C-3315-1942-B27D-4B90986A6D9D}"/>
-    <hyperlink ref="C468" r:id="rId429" xr:uid="{11738B67-CADD-5D45-8417-8BE7A03FC79F}"/>
-    <hyperlink ref="C467" r:id="rId430" xr:uid="{B2B23748-D9E4-BE4F-A93E-49ECB4063831}"/>
-    <hyperlink ref="C466" r:id="rId431" xr:uid="{A2FB8A72-37B9-7E4A-B050-FD6CD20BCE73}"/>
-    <hyperlink ref="C465" r:id="rId432" xr:uid="{5A93C9AF-BFEB-EB40-95AC-C309ED09A604}"/>
-    <hyperlink ref="C464" r:id="rId433" xr:uid="{CC203923-2DC2-874B-B846-A8455E3CC2F2}"/>
-    <hyperlink ref="C463" r:id="rId434" xr:uid="{FCB0246E-0179-B447-B3CE-C60CDB388472}"/>
-    <hyperlink ref="C472" r:id="rId435" xr:uid="{F06CEE72-8CA4-C547-862C-39B86CD3226A}"/>
-    <hyperlink ref="C473" r:id="rId436" xr:uid="{CB3045F2-8D63-0F4E-85BC-AF016DB4F247}"/>
-    <hyperlink ref="C474" r:id="rId437" xr:uid="{667D57F5-E5AD-674F-A2F5-AFF4A14E4026}"/>
-    <hyperlink ref="C475" r:id="rId438" xr:uid="{27A13A65-56CE-BF4D-BA0D-EB87D910272D}"/>
-    <hyperlink ref="C476" r:id="rId439" xr:uid="{2C72A52E-6F06-0246-AEB5-93CD0DEA8866}"/>
-    <hyperlink ref="C477" r:id="rId440" xr:uid="{24B29046-B4DD-674B-9EDF-6C94BEC3FDD8}"/>
-    <hyperlink ref="C478" r:id="rId441" xr:uid="{D018EBC3-3FB3-AC4D-9D64-D218345A46C8}"/>
-    <hyperlink ref="C481" r:id="rId442" xr:uid="{1E1D3964-01E0-3145-ACFE-B6A5BF0EECB0}"/>
-    <hyperlink ref="C479" r:id="rId443" xr:uid="{FA0E5061-A7E2-C045-9671-1CD9446D1932}"/>
-    <hyperlink ref="C480" r:id="rId444" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{92704F5B-7B31-2F42-80DD-764B2206D9DB}"/>
-    <hyperlink ref="C356" r:id="rId445" xr:uid="{A48B1A24-83B1-7A4C-8129-CD37804DF849}"/>
+    <hyperlink ref="C9" r:id="rId3" xr:uid="{E5A98931-37E8-6B4A-90BE-8DC72405341A}"/>
+    <hyperlink ref="C10" r:id="rId4" xr:uid="{02736918-E09F-7A46-90B3-AFCC33AA559B}"/>
+    <hyperlink ref="C11" r:id="rId5" xr:uid="{6E8DD30A-A9F9-4C44-B26C-C9E236F10798}"/>
+    <hyperlink ref="C12" r:id="rId6" xr:uid="{0D55765B-95A7-154F-96F3-B7E4C581021F}"/>
+    <hyperlink ref="C13" r:id="rId7" xr:uid="{6F687ABA-C04B-AF4F-9F11-A038DCB20FB9}"/>
+    <hyperlink ref="C14" r:id="rId8" xr:uid="{11C9D8CC-9F1E-004E-8EC2-C758DC9C8CAB}"/>
+    <hyperlink ref="C15" r:id="rId9" xr:uid="{56E4962F-CB3D-9E48-A26E-19A1F5C800C9}"/>
+    <hyperlink ref="C16" r:id="rId10" xr:uid="{899DDBD9-9ED6-3A4D-8AFE-8FAA6DA88DBC}"/>
+    <hyperlink ref="C17" r:id="rId11" xr:uid="{76D41EAC-A28A-2845-8515-CA3C70D823B7}"/>
+    <hyperlink ref="C18" r:id="rId12" xr:uid="{828948BE-DD97-DE4A-BAD6-B415E29198F0}"/>
+    <hyperlink ref="C19" r:id="rId13" xr:uid="{E98C86AA-12E7-124C-B7D0-BCDFB246040B}"/>
+    <hyperlink ref="C20" r:id="rId14" xr:uid="{192741A9-FF68-DC4A-99FA-69F9968AB4F2}"/>
+    <hyperlink ref="C21" r:id="rId15" xr:uid="{DBD9BA9C-91C6-B144-A800-DCB3BED33DE7}"/>
+    <hyperlink ref="C22" r:id="rId16" xr:uid="{A285BDE8-00E7-A94C-8E43-A0C4829D42FA}"/>
+    <hyperlink ref="C23" r:id="rId17" xr:uid="{B0C21764-2962-1649-8AFA-10FB9420C5FC}"/>
+    <hyperlink ref="C24" r:id="rId18" xr:uid="{9282CC15-9B38-E54B-B64C-557745C9C00A}"/>
+    <hyperlink ref="C25" r:id="rId19" xr:uid="{3BCCEBE2-AC3B-AC4F-8BA9-439ACEA133D4}"/>
+    <hyperlink ref="C26" r:id="rId20" xr:uid="{74F8D761-6EBF-594A-A6C7-40DE4CE96958}"/>
+    <hyperlink ref="C27" r:id="rId21" xr:uid="{79947FE6-D417-D644-81D8-D058180550A0}"/>
+    <hyperlink ref="C28" r:id="rId22" xr:uid="{2BF3F606-410B-264D-BF60-191C34D616BB}"/>
+    <hyperlink ref="C29" r:id="rId23" xr:uid="{CD98DB26-0F2F-FD40-A989-53FE548D7D34}"/>
+    <hyperlink ref="C30" r:id="rId24" xr:uid="{307032A1-F8EF-1A48-BFE3-EA3283D39BE2}"/>
+    <hyperlink ref="C31" r:id="rId25" xr:uid="{AA329F36-941A-9241-9402-9D220B05E719}"/>
+    <hyperlink ref="C32" r:id="rId26" xr:uid="{9E851DAC-0E30-B340-84F9-721D70B66919}"/>
+    <hyperlink ref="C33" r:id="rId27" xr:uid="{468380BA-4978-A645-ABD0-E74FD3E6BDBB}"/>
+    <hyperlink ref="C34" r:id="rId28" xr:uid="{289E6890-8CCB-D645-9B3F-6138FFC1C249}"/>
+    <hyperlink ref="C35" r:id="rId29" xr:uid="{8EABDC68-858F-784A-A8F1-C603E3B8C1FE}"/>
+    <hyperlink ref="C36" r:id="rId30" xr:uid="{6157E427-1210-3F45-A4DC-6DFD2373B9CF}"/>
+    <hyperlink ref="C37" r:id="rId31" xr:uid="{2D7BA55E-9947-FF4D-BC09-FB4A5ADA07EC}"/>
+    <hyperlink ref="C38" r:id="rId32" xr:uid="{3337C74F-8B73-E64E-A6DA-5D9F7C7B4D32}"/>
+    <hyperlink ref="C39" r:id="rId33" xr:uid="{02370124-E58D-B540-BBCF-98266229556D}"/>
+    <hyperlink ref="C40" r:id="rId34" xr:uid="{F2DE2162-BD02-7549-AC1A-27455F78131F}"/>
+    <hyperlink ref="C41" r:id="rId35" xr:uid="{6FA286B9-3994-624D-B0B8-C01657D110AD}"/>
+    <hyperlink ref="C42" r:id="rId36" xr:uid="{6EFBEDA1-5C10-2547-8FB2-44E977513B28}"/>
+    <hyperlink ref="C45" r:id="rId37" xr:uid="{090EC515-BEBE-514E-BA59-A84E450B4211}"/>
+    <hyperlink ref="C46" r:id="rId38" xr:uid="{0A0557FD-77E5-564B-B100-147D544A38B4}"/>
+    <hyperlink ref="C47" r:id="rId39" xr:uid="{3F82F2E0-AA59-5042-B079-F3B3C6FF2FD7}"/>
+    <hyperlink ref="C48" r:id="rId40" xr:uid="{FFF7D257-1F58-5A4B-AAA2-F5480AED86C7}"/>
+    <hyperlink ref="C49" r:id="rId41" xr:uid="{353E28FA-E36D-7447-9DE8-787DF11C4669}"/>
+    <hyperlink ref="C50" r:id="rId42" xr:uid="{F9B53127-FC98-FE43-B53F-BFDBCE2A4427}"/>
+    <hyperlink ref="C51" r:id="rId43" xr:uid="{40685BBC-CE24-624E-9ABB-98490B7DE0E4}"/>
+    <hyperlink ref="C52" r:id="rId44" xr:uid="{7733D505-2EC7-E346-B3DA-C980C7CE0B27}"/>
+    <hyperlink ref="C53" r:id="rId45" xr:uid="{E8C1FE00-7B4B-5745-8E4B-CD44B6C749E3}"/>
+    <hyperlink ref="C54" r:id="rId46" xr:uid="{FDE181B1-57B0-7C4B-A189-C7C6E4EAEF99}"/>
+    <hyperlink ref="C57" r:id="rId47" xr:uid="{FE85FD72-4FC9-334E-8205-9E8B238954EB}"/>
+    <hyperlink ref="C58" r:id="rId48" xr:uid="{7630AD76-7E6B-8C4A-BA33-A62EBB042215}"/>
+    <hyperlink ref="C59" r:id="rId49" xr:uid="{2A738B70-CBF0-CC40-8B05-A271822B3F1A}"/>
+    <hyperlink ref="C61" r:id="rId50" xr:uid="{B2DE2D9E-8371-CD44-9D0D-4D6DC64AC29B}"/>
+    <hyperlink ref="C62" r:id="rId51" xr:uid="{265DCD11-17A0-654E-BEFE-FABA31210C6E}"/>
+    <hyperlink ref="C63" r:id="rId52" xr:uid="{47F1BB0C-0C5C-0845-8EEC-1560C50D7DA7}"/>
+    <hyperlink ref="C64" r:id="rId53" xr:uid="{8E0BFA2E-CCB4-514F-86CD-78176C6CC98A}"/>
+    <hyperlink ref="C65" r:id="rId54" xr:uid="{E4DEFB4B-749F-8746-97C7-F2B433664A74}"/>
+    <hyperlink ref="C66" r:id="rId55" xr:uid="{8301BDBD-EB7E-7D41-A777-ED99C3F9D67D}"/>
+    <hyperlink ref="C67" r:id="rId56" xr:uid="{927AE532-647F-AF4C-A567-40ADA6FCE534}"/>
+    <hyperlink ref="C68" r:id="rId57" xr:uid="{05489F52-CC92-EC44-9AD3-773DEC3B1D36}"/>
+    <hyperlink ref="C69" r:id="rId58" xr:uid="{13025DF6-C30E-014A-B66C-68C4AAAC1C6E}"/>
+    <hyperlink ref="C70" r:id="rId59" xr:uid="{BEE1F613-C189-B949-A225-0E0C5AFD1532}"/>
+    <hyperlink ref="C71" r:id="rId60" xr:uid="{1DFECD6C-D7CC-0340-B29B-4D56E50711E5}"/>
+    <hyperlink ref="C72" r:id="rId61" xr:uid="{70BED156-B004-E043-BF7D-59EFAA9EADAF}"/>
+    <hyperlink ref="C73" r:id="rId62" xr:uid="{FF9CBAFB-900E-E242-8B33-EDF46F0F40B5}"/>
+    <hyperlink ref="C74" r:id="rId63" xr:uid="{19461114-B3E8-9042-8029-100010946A04}"/>
+    <hyperlink ref="C75" r:id="rId64" xr:uid="{00F71118-E30B-A84E-819E-FFA902C70502}"/>
+    <hyperlink ref="C76" r:id="rId65" xr:uid="{58E70966-BBE0-7743-A250-AE4DD57807DE}"/>
+    <hyperlink ref="C77" r:id="rId66" xr:uid="{09409FE3-9D7E-4F43-BB21-14A1B8D6E480}"/>
+    <hyperlink ref="C78" r:id="rId67" xr:uid="{E199A3DC-3DA1-C648-93C0-DF9CD5331204}"/>
+    <hyperlink ref="C79" r:id="rId68" xr:uid="{85886847-1510-AA46-B10C-F3D80591DD74}"/>
+    <hyperlink ref="C80" r:id="rId69" xr:uid="{F60808FC-F09D-FC44-B2DD-752E55A1C698}"/>
+    <hyperlink ref="C81" r:id="rId70" xr:uid="{16B2725E-1AD5-0441-9B5B-B6B2F458091B}"/>
+    <hyperlink ref="C82" r:id="rId71" xr:uid="{8440D753-5DE9-3243-97C2-C09D195C325F}"/>
+    <hyperlink ref="C83" r:id="rId72" xr:uid="{AC63A963-B6CC-6E4E-B72A-7F472BC4C027}"/>
+    <hyperlink ref="C84" r:id="rId73" xr:uid="{B21B87F1-A0C0-7F4E-B36F-912B871D0EF4}"/>
+    <hyperlink ref="C85" r:id="rId74" xr:uid="{789FFFAC-8B7E-0540-98B8-856430EB56F8}"/>
+    <hyperlink ref="C86" r:id="rId75" xr:uid="{4A0E959E-22F4-6948-A819-76FE76AB9F6D}"/>
+    <hyperlink ref="C87" r:id="rId76" xr:uid="{78B76678-D8EE-9745-98B1-DF7A76EA3B10}"/>
+    <hyperlink ref="C88" r:id="rId77" xr:uid="{62982242-1D19-1544-8653-8E25E9BF4505}"/>
+    <hyperlink ref="C89" r:id="rId78" xr:uid="{8E3D4BDF-9F8F-0542-BFD8-C3CE3BF396E6}"/>
+    <hyperlink ref="C90" r:id="rId79" xr:uid="{A3D51762-65A1-9A44-B619-D1D98A7F403B}"/>
+    <hyperlink ref="C91" r:id="rId80" xr:uid="{ED0F5FC7-0066-EB44-8FCF-460600DADB02}"/>
+    <hyperlink ref="C92" r:id="rId81" xr:uid="{2D956AC4-4774-7446-8473-C4CE00E33C17}"/>
+    <hyperlink ref="C93" r:id="rId82" xr:uid="{C8C607BB-1FEE-FA47-9E3E-6C0BCE978B7F}"/>
+    <hyperlink ref="C94" r:id="rId83" xr:uid="{B9AC5194-6D36-684A-A5C4-BEE11037599F}"/>
+    <hyperlink ref="C95" r:id="rId84" xr:uid="{AB28D9E6-890C-F14A-A5FB-2303BE319968}"/>
+    <hyperlink ref="C96" r:id="rId85" xr:uid="{1F507CBC-4056-AD46-9314-95ECBB9D799D}"/>
+    <hyperlink ref="C97" r:id="rId86" xr:uid="{F152A9AF-5CBA-EC44-A9CF-07AB481435AB}"/>
+    <hyperlink ref="C98" r:id="rId87" xr:uid="{346CA74F-60B7-0A4B-A612-9184D4DCFF62}"/>
+    <hyperlink ref="C99" r:id="rId88" xr:uid="{8C653CB1-4954-754F-8D46-F09141A2FCDB}"/>
+    <hyperlink ref="C102" r:id="rId89" xr:uid="{5989F693-2A61-A346-8395-8674307A4CC2}"/>
+    <hyperlink ref="C103" r:id="rId90" xr:uid="{3AD10C9E-4F6D-DE48-92F3-531A586520C6}"/>
+    <hyperlink ref="C104" r:id="rId91" xr:uid="{4FA217C0-A1F3-904E-8FEA-EA4941273A67}"/>
+    <hyperlink ref="C105" r:id="rId92" xr:uid="{A297BBC0-FA0D-2D46-9C49-3932193EF1D3}"/>
+    <hyperlink ref="C107" r:id="rId93" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance." xr:uid="{DCD751DE-E440-F346-B6FD-CBD072217214}"/>
+    <hyperlink ref="C108" r:id="rId94" xr:uid="{B2FD38B9-1E2B-8140-8291-F45734C98145}"/>
+    <hyperlink ref="C109" r:id="rId95" xr:uid="{C76888B3-18AC-9B48-9E2A-64A7DF0902B7}"/>
+    <hyperlink ref="C110" r:id="rId96" xr:uid="{18A79860-6C9E-A941-8D6C-360B9913E941}"/>
+    <hyperlink ref="C111" r:id="rId97" xr:uid="{C0DDFD68-CBC1-0F4A-AF40-ACF36BBC8453}"/>
+    <hyperlink ref="C112" r:id="rId98" xr:uid="{3E0BF737-E42E-C946-B32C-06882E0BA6FF}"/>
+    <hyperlink ref="C114" r:id="rId99" xr:uid="{862F9782-C57B-2848-A2D9-EB7B52FB7EC7}"/>
+    <hyperlink ref="C115" r:id="rId100" xr:uid="{230D7A6A-D2C5-C140-9A65-B1F407D22062}"/>
+    <hyperlink ref="C116" r:id="rId101" xr:uid="{BDC2BA28-4562-984E-8282-1126BF952EAF}"/>
+    <hyperlink ref="C117" r:id="rId102" xr:uid="{B53A5F28-6DED-3D47-8679-F78D3DDEFF01}"/>
+    <hyperlink ref="C118" r:id="rId103" xr:uid="{C57D0CC7-DA2F-0948-9BCE-F19C20C7D981}"/>
+    <hyperlink ref="C119" r:id="rId104" xr:uid="{117878E5-B8C8-254B-8ED6-014B4B7A8126}"/>
+    <hyperlink ref="C120" r:id="rId105" xr:uid="{B7CC0756-74F2-D54D-BDEE-9DA394DD7168}"/>
+    <hyperlink ref="C121" r:id="rId106" xr:uid="{837EF472-CCC2-CF47-A8A8-238E56F722CE}"/>
+    <hyperlink ref="C122" r:id="rId107" xr:uid="{3608F267-6AA0-624B-B243-7DDD317E9F08}"/>
+    <hyperlink ref="C123" r:id="rId108" xr:uid="{0B6123E6-0472-374B-ACA7-6914CD7918E8}"/>
+    <hyperlink ref="C124" r:id="rId109" xr:uid="{D3971CEB-C53E-B04B-9C32-1803182B5DC5}"/>
+    <hyperlink ref="C125" r:id="rId110" xr:uid="{7CF5013A-643E-1643-93A1-A2F1500D2A23}"/>
+    <hyperlink ref="C126" r:id="rId111" xr:uid="{2A6BE7E5-D818-6843-8C3E-99EA2BFE0FB2}"/>
+    <hyperlink ref="C127" r:id="rId112" xr:uid="{E718F544-96DF-A04E-8DFB-7639DA3EA57C}"/>
+    <hyperlink ref="C128" r:id="rId113" xr:uid="{B0C2F065-424A-7345-A864-346ECD98D749}"/>
+    <hyperlink ref="C129" r:id="rId114" xr:uid="{B4E26955-5C3F-804E-B19A-11260310AFB3}"/>
+    <hyperlink ref="C130" r:id="rId115" xr:uid="{6F299BB5-8E82-0240-A9A3-6829CE3ABCBF}"/>
+    <hyperlink ref="C131" r:id="rId116" xr:uid="{A42CA32F-2196-1840-A53D-E5073237C68D}"/>
+    <hyperlink ref="C132" r:id="rId117" xr:uid="{7ECF6EF4-962E-4642-9B1C-C3B70674793E}"/>
+    <hyperlink ref="C133" r:id="rId118" xr:uid="{2A109178-6B60-164E-9D25-42B3282137E3}"/>
+    <hyperlink ref="C134" r:id="rId119" xr:uid="{B3D38BD0-A6A1-8D41-8405-45E1BEEEEF06}"/>
+    <hyperlink ref="C135" r:id="rId120" xr:uid="{A1C26612-D040-2A41-A6A6-A8F2490C0A43}"/>
+    <hyperlink ref="C136" r:id="rId121" xr:uid="{C476E807-64CB-F44A-A23D-D21EBF6D001D}"/>
+    <hyperlink ref="C137" r:id="rId122" xr:uid="{9A414D55-D4A1-F147-9207-61B597D57136}"/>
+    <hyperlink ref="C106" r:id="rId123" xr:uid="{18B028A7-9B6F-D841-8548-924D70530779}"/>
+    <hyperlink ref="C113" r:id="rId124" xr:uid="{6D3E75EF-733F-7A4B-81C8-AEF6CB6335F0}"/>
+    <hyperlink ref="C140" r:id="rId125" xr:uid="{C9EB2682-BE0B-934B-B0B4-1DD1A1502647}"/>
+    <hyperlink ref="C141" r:id="rId126" xr:uid="{2992FED9-2B78-A342-92AA-E7C0F882FF17}"/>
+    <hyperlink ref="C142" r:id="rId127" xr:uid="{0084DA6F-EC84-BD48-BDA8-EBACA3BB3B3E}"/>
+    <hyperlink ref="C143" r:id="rId128" xr:uid="{30F2D415-4B2C-384C-8EAE-2CC71CB518E2}"/>
+    <hyperlink ref="C144" r:id="rId129" xr:uid="{40734C88-7C5B-9747-86D1-03463D9AD41A}"/>
+    <hyperlink ref="C145" r:id="rId130" xr:uid="{1040D22F-6729-104A-A229-CBDCED93024A}"/>
+    <hyperlink ref="C146" r:id="rId131" xr:uid="{E131FE61-FABF-8E4B-8EF0-F68379D8F836}"/>
+    <hyperlink ref="C147" r:id="rId132" xr:uid="{B2129272-1351-3745-883B-E6A7115450C8}"/>
+    <hyperlink ref="C148" r:id="rId133" xr:uid="{C8B2DEF0-2B69-C84E-8013-0B6F03FFC250}"/>
+    <hyperlink ref="C149" r:id="rId134" xr:uid="{536AC5CF-712F-BF48-94A9-D0E7DC013020}"/>
+    <hyperlink ref="C150" r:id="rId135" xr:uid="{2DABC9C7-43D4-1249-AF9B-5FA4552611CB}"/>
+    <hyperlink ref="C151" r:id="rId136" xr:uid="{DA62E73A-B495-F94A-BECE-D42E4CBF074A}"/>
+    <hyperlink ref="C152" r:id="rId137" xr:uid="{7F5E6966-850D-4F49-B2A5-678365713F28}"/>
+    <hyperlink ref="C153" r:id="rId138" xr:uid="{E9C4286D-8493-9A47-8B8C-09583FA72B70}"/>
+    <hyperlink ref="C154" r:id="rId139" xr:uid="{9EB0123C-84AE-1C4D-BA1A-C28CFB8EFB89}"/>
+    <hyperlink ref="C155" r:id="rId140" xr:uid="{9D11FED4-328F-674E-889D-EC781DD1D791}"/>
+    <hyperlink ref="C156" r:id="rId141" xr:uid="{48AE72DB-397B-464D-88AD-B8058ED29CC1}"/>
+    <hyperlink ref="C157" r:id="rId142" xr:uid="{152D50E9-7448-F542-AC66-05D0AE66664C}"/>
+    <hyperlink ref="C158" r:id="rId143" xr:uid="{34E6AF1B-5FB1-3A4B-8938-1DCF80831DC2}"/>
+    <hyperlink ref="C159" r:id="rId144" xr:uid="{E7F8B7CA-49F4-1946-91EE-E7582BE4E5DA}"/>
+    <hyperlink ref="C160" r:id="rId145" xr:uid="{3590A994-B7A2-C14D-9BF8-7AC8FE9E7F0F}"/>
+    <hyperlink ref="C161" r:id="rId146" xr:uid="{0AAA4B0C-4921-C34D-B41E-D702FA860892}"/>
+    <hyperlink ref="C162" r:id="rId147" xr:uid="{5973FCA4-AE32-5248-A6ED-2694367332F1}"/>
+    <hyperlink ref="C163" r:id="rId148" xr:uid="{4C0F816E-F043-0C47-BF16-1CDAD88D2FF1}"/>
+    <hyperlink ref="C164" r:id="rId149" xr:uid="{A8E4C654-D0BD-8945-9F5C-B09F7BC114BE}"/>
+    <hyperlink ref="C167" r:id="rId150" xr:uid="{E3825C15-10BB-E24F-B229-983F651DA942}"/>
+    <hyperlink ref="C168" r:id="rId151" xr:uid="{46ECFC31-388C-6241-8FFE-DED6F2FC794A}"/>
+    <hyperlink ref="C169" r:id="rId152" xr:uid="{589E024D-3FE1-1048-890C-88289733F233}"/>
+    <hyperlink ref="C170" r:id="rId153" xr:uid="{CDA28F7A-7FC5-F74D-B27E-A6E0161D41D5}"/>
+    <hyperlink ref="C171" r:id="rId154" xr:uid="{DA6A0D92-DCEB-DA4F-8BBA-10FCD092838F}"/>
+    <hyperlink ref="C172" r:id="rId155" xr:uid="{955769DB-3256-254B-90DE-E1E01B272F8A}"/>
+    <hyperlink ref="C173" r:id="rId156" xr:uid="{DED7AC9B-40D7-0545-9D6F-6CD4F5FFE4C6}"/>
+    <hyperlink ref="C174" r:id="rId157" xr:uid="{6947A4E1-B6AA-6D4F-A6D8-8FA74FD02887}"/>
+    <hyperlink ref="C175" r:id="rId158" xr:uid="{EABF2012-5A90-0C4E-86F6-FDB5FA7770BE}"/>
+    <hyperlink ref="C178" r:id="rId159" xr:uid="{7F44CFE0-9ED1-A44D-B9EF-CF87BEB644FC}"/>
+    <hyperlink ref="C179" r:id="rId160" xr:uid="{CF6E0CF6-7A93-D84A-9CE0-5BDD51767416}"/>
+    <hyperlink ref="C180" r:id="rId161" xr:uid="{EFF8F154-60B8-B84B-84CA-32756BD6430F}"/>
+    <hyperlink ref="C181" r:id="rId162" xr:uid="{C8A3094E-E11B-2543-B05E-1D07048B2EBA}"/>
+    <hyperlink ref="C182" r:id="rId163" xr:uid="{9961E5F5-B5C6-0C4D-A1D0-D04D2A5D7DFD}"/>
+    <hyperlink ref="C183" r:id="rId164" xr:uid="{44E289EC-47DD-D94D-88C1-CB2F59C6C16A}"/>
+    <hyperlink ref="C184" r:id="rId165" xr:uid="{4161FC70-DD6D-684B-898A-A4711596B2D5}"/>
+    <hyperlink ref="C185" r:id="rId166" xr:uid="{B9CBE387-8E9A-ED48-8310-CF7D34FA690C}"/>
+    <hyperlink ref="C186" r:id="rId167" xr:uid="{5398097B-24FF-9543-8F02-33CE2860F1F7}"/>
+    <hyperlink ref="C187" r:id="rId168" xr:uid="{3B1FC30B-30C8-7B48-AF94-A81FB513F24F}"/>
+    <hyperlink ref="C188" r:id="rId169" xr:uid="{32B750D0-D7F2-694D-AB9B-25AFAFAFF17F}"/>
+    <hyperlink ref="C189" r:id="rId170" xr:uid="{400689DD-8E95-024E-976B-AACD8ED4E1A6}"/>
+    <hyperlink ref="C190" r:id="rId171" xr:uid="{28753DDE-E047-5D40-A30B-1103BE6DA08F}"/>
+    <hyperlink ref="C191" r:id="rId172" xr:uid="{6C5AA6CB-3D93-0740-AEED-9E6C218CF6CB}"/>
+    <hyperlink ref="C192" r:id="rId173" xr:uid="{03EAA2B9-D8B8-D642-BF24-380596D26B2E}"/>
+    <hyperlink ref="C193" r:id="rId174" xr:uid="{8C1719B4-37CC-484E-BDCE-A4272C07F91B}"/>
+    <hyperlink ref="C194" r:id="rId175" xr:uid="{6C198DA2-BB98-F940-8EF6-2FC8B7AE577A}"/>
+    <hyperlink ref="C195" r:id="rId176" xr:uid="{AB0EA311-A446-D046-A0EC-290B42068328}"/>
+    <hyperlink ref="C196" r:id="rId177" xr:uid="{DB913045-B9F6-6549-AA09-22B0CC5FDD21}"/>
+    <hyperlink ref="C197" r:id="rId178" xr:uid="{806469FD-617A-7445-AAB5-FB2FD2ED24EA}"/>
+    <hyperlink ref="C198" r:id="rId179" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." xr:uid="{1A10544E-58CF-D04D-9FAF-2FEC6DB2B5D4}"/>
+    <hyperlink ref="C199" r:id="rId180" xr:uid="{5A0B6645-89FD-E044-A706-9FB890274C3C}"/>
+    <hyperlink ref="C200" r:id="rId181" xr:uid="{B42A3009-E8EB-EE44-885F-6699C17A0E0B}"/>
+    <hyperlink ref="C201" r:id="rId182" xr:uid="{ED3E48AB-E25B-3744-B024-E97B2A319B46}"/>
+    <hyperlink ref="C202" r:id="rId183" xr:uid="{C75D20A3-CBAE-2649-A3EE-E49177CFA343}"/>
+    <hyperlink ref="C203" r:id="rId184" xr:uid="{3863CA1B-D43E-1144-91A9-17C2DCF52A64}"/>
+    <hyperlink ref="C204" r:id="rId185" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." xr:uid="{E9AF434E-4CAA-5D49-8AD3-889CDE2913D9}"/>
+    <hyperlink ref="C205" r:id="rId186" xr:uid="{1A0568E5-3A11-7F47-8001-82B05D7C2339}"/>
+    <hyperlink ref="C206" r:id="rId187" xr:uid="{F62B8AE4-9C4F-9544-8861-CD733C12F79E}"/>
+    <hyperlink ref="C207" r:id="rId188" xr:uid="{0F6A542C-44C9-5A4C-90BF-BC8C239877D2}"/>
+    <hyperlink ref="C208" r:id="rId189" xr:uid="{3ED28203-B1B5-4E46-AAF3-779EDD4AC03F}"/>
+    <hyperlink ref="C209" r:id="rId190" xr:uid="{4338B305-B52F-5540-9B51-B938FC6803A2}"/>
+    <hyperlink ref="C210" r:id="rId191" xr:uid="{DDEEED0F-A939-1E4F-B2FA-AD391A4A2874}"/>
+    <hyperlink ref="C211" r:id="rId192" xr:uid="{C2F20589-AD81-654C-94E5-E5B6C9FE27F6}"/>
+    <hyperlink ref="C212" r:id="rId193" xr:uid="{BBEB9DAC-E4AE-C04F-AA15-6356AFC57FDE}"/>
+    <hyperlink ref="C215" r:id="rId194" xr:uid="{6316566D-A10A-F849-9F25-B9ED4DA12BC7}"/>
+    <hyperlink ref="C216" r:id="rId195" xr:uid="{9D4DD895-FBA6-C849-A5BF-3B30755BD9C9}"/>
+    <hyperlink ref="C217" r:id="rId196" xr:uid="{475996DA-632A-BE49-AEA1-D4189FD614A1}"/>
+    <hyperlink ref="C218" r:id="rId197" xr:uid="{88E0C858-8468-884F-BB71-F6F176BD5FC2}"/>
+    <hyperlink ref="C219" r:id="rId198" xr:uid="{C1C5C8D0-7A06-3D4A-A85A-AAACC1B418C9}"/>
+    <hyperlink ref="C220" r:id="rId199" xr:uid="{D525D4B1-2857-1543-8CD9-196728321203}"/>
+    <hyperlink ref="C221" r:id="rId200" xr:uid="{51E3AB9B-04B2-C041-A2B3-37E3EB18013A}"/>
+    <hyperlink ref="C222" r:id="rId201" xr:uid="{7F7F0C9A-57B9-314F-959A-B8ACAFA5FD13}"/>
+    <hyperlink ref="C223" r:id="rId202" xr:uid="{3B029785-83B4-6140-8B70-CD892CFC87F6}"/>
+    <hyperlink ref="C224" r:id="rId203" xr:uid="{B0A390E6-D860-9F4E-B021-68949FE712F3}"/>
+    <hyperlink ref="C225" r:id="rId204" xr:uid="{49E9953D-52F6-BF47-8AAA-8E456F55576B}"/>
+    <hyperlink ref="C226" r:id="rId205" xr:uid="{9B812470-F419-A54E-8365-06A9B8864A30}"/>
+    <hyperlink ref="C227" r:id="rId206" xr:uid="{B6FB4107-1933-6D45-9EF4-4474E06CBE9D}"/>
+    <hyperlink ref="C228" r:id="rId207" xr:uid="{0F7C1D92-7BCB-D14D-A658-9599984E04E4}"/>
+    <hyperlink ref="C229" r:id="rId208" xr:uid="{6810428F-0A78-964C-A8C8-E1CD2E7C405D}"/>
+    <hyperlink ref="C230" r:id="rId209" xr:uid="{B40209F2-0D6E-364F-8AF6-F1D182509314}"/>
+    <hyperlink ref="C231" r:id="rId210" xr:uid="{96C53FA9-9FD3-2D4F-B292-3C9DEDFA806E}"/>
+    <hyperlink ref="C232" r:id="rId211" xr:uid="{918B420D-3678-FD46-9463-595E8ACC39E1}"/>
+    <hyperlink ref="C233" r:id="rId212" xr:uid="{851A7153-3B54-0E4A-A0A0-FCEB091AFE70}"/>
+    <hyperlink ref="C234" r:id="rId213" xr:uid="{C03AE9F8-09AE-C640-81A7-033BB06FB6AD}"/>
+    <hyperlink ref="C235" r:id="rId214" xr:uid="{35140DEB-52D2-4342-88D2-22BA061E5B48}"/>
+    <hyperlink ref="C236" r:id="rId215" xr:uid="{9714BC0B-3373-934C-B7A1-599F74F4FB9D}"/>
+    <hyperlink ref="C239" r:id="rId216" xr:uid="{5CB435B2-7FD2-1D44-9872-22B6A1EDC02B}"/>
+    <hyperlink ref="C240" r:id="rId217" xr:uid="{722D1D95-896B-4642-BABD-31DEDD237B49}"/>
+    <hyperlink ref="C241" r:id="rId218" xr:uid="{D686D1DC-13D6-284C-B606-E087FAF47399}"/>
+    <hyperlink ref="C242" r:id="rId219" xr:uid="{D22C2394-C3CB-8F4F-A010-2B13C8C84D1A}"/>
+    <hyperlink ref="C243" r:id="rId220" xr:uid="{3AE2F800-B66F-1A41-893B-978F6875FDC8}"/>
+    <hyperlink ref="C244" r:id="rId221" xr:uid="{2C939BDE-5298-5541-837B-8C59D53A33C1}"/>
+    <hyperlink ref="C245" r:id="rId222" xr:uid="{691C9BD8-69D3-DA4B-AEB6-AF827B4ACA9F}"/>
+    <hyperlink ref="C246" r:id="rId223" xr:uid="{B6891E82-7C4D-424D-9219-3C9FD08E0053}"/>
+    <hyperlink ref="C247" r:id="rId224" xr:uid="{67A1AE98-62D2-644D-AC13-6CD76CF53CC0}"/>
+    <hyperlink ref="C248" r:id="rId225" xr:uid="{B59D4881-2A82-8F4D-B151-1E796C4923C8}"/>
+    <hyperlink ref="C249" r:id="rId226" xr:uid="{B3CBD023-5EFD-6048-9B3F-89F0C65CBBF5}"/>
+    <hyperlink ref="C250" r:id="rId227" xr:uid="{53EC42C4-22F7-0445-A0AC-7275A59A2672}"/>
+    <hyperlink ref="C251" r:id="rId228" xr:uid="{A29575F3-CB24-5B4B-9538-D5212B2DC28B}"/>
+    <hyperlink ref="C252" r:id="rId229" xr:uid="{353A44DD-9E30-8F48-8E2B-8DAA07550470}"/>
+    <hyperlink ref="C253" r:id="rId230" xr:uid="{32AC291D-95A5-BE49-88E0-02677BF39CAC}"/>
+    <hyperlink ref="C254" r:id="rId231" xr:uid="{A84F22FF-AD10-A546-8998-B066C0EB2D5A}"/>
+    <hyperlink ref="C255" r:id="rId232" xr:uid="{4C5CAF84-9B94-FC44-8C6C-B3CC7257C1DB}"/>
+    <hyperlink ref="C256" r:id="rId233" xr:uid="{5DA775E2-C516-3B47-8C82-3CEE7CC0BDF9}"/>
+    <hyperlink ref="C257" r:id="rId234" xr:uid="{00B6AE5C-EF3F-0747-A280-3BF055362B4F}"/>
+    <hyperlink ref="C258" r:id="rId235" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." xr:uid="{BCBD0A7E-F3D0-E840-9375-AFD37C5CD41A}"/>
+    <hyperlink ref="C259" r:id="rId236" xr:uid="{47ABDDDB-F95F-8049-9FB3-1E71A7376DDE}"/>
+    <hyperlink ref="C260" r:id="rId237" xr:uid="{70BADFC9-7399-234D-99F6-4C5F02397C26}"/>
+    <hyperlink ref="C261" r:id="rId238" xr:uid="{63348580-70EF-EC47-BF49-8ECE9560D54E}"/>
+    <hyperlink ref="C262" r:id="rId239" xr:uid="{D5BD96B3-9EAB-1B47-AC87-5C47F6AD7F40}"/>
+    <hyperlink ref="C263" r:id="rId240" xr:uid="{74791141-3FB8-7540-B45B-9541AF0AE371}"/>
+    <hyperlink ref="C264" r:id="rId241" xr:uid="{88D53CD6-262A-7247-8E58-FE9FFF7ECC40}"/>
+    <hyperlink ref="C265" r:id="rId242" xr:uid="{4338A14D-4F7D-B943-A347-7F74EFCA0DB5}"/>
+    <hyperlink ref="C266" r:id="rId243" xr:uid="{6E0EF7A3-7341-284B-A0E3-4539B6EAFAF2}"/>
+    <hyperlink ref="C267" r:id="rId244" xr:uid="{D2D8D64F-E2D3-734E-AD45-3EFB9686555A}"/>
+    <hyperlink ref="C268" r:id="rId245" xr:uid="{04A2904A-73A0-7845-9868-2CCFE359AC68}"/>
+    <hyperlink ref="C269" r:id="rId246" xr:uid="{D3D35835-6BE3-4D41-AF6F-5FE442277A16}"/>
+    <hyperlink ref="C270" r:id="rId247" xr:uid="{F663D0FC-CFF0-BC4F-9D26-48C871A8E9FD}"/>
+    <hyperlink ref="C271" r:id="rId248" xr:uid="{DF544147-DA48-4041-A4E2-4A75106B771A}"/>
+    <hyperlink ref="C272" r:id="rId249" xr:uid="{50E4B716-239E-7946-843D-E8462591D128}"/>
+    <hyperlink ref="C273" r:id="rId250" xr:uid="{D368B3E5-7D12-FD48-AFF7-A4A614108940}"/>
+    <hyperlink ref="C276" r:id="rId251" xr:uid="{D5921FF1-FC1F-CA4B-A24E-AD69E1DEC14C}"/>
+    <hyperlink ref="C277" r:id="rId252" xr:uid="{C931D7E0-E032-7C4B-95F1-735D955FCB51}"/>
+    <hyperlink ref="C278" r:id="rId253" xr:uid="{5FBD4A8F-287C-2C46-9CAB-F7DBA67DEDDA}"/>
+    <hyperlink ref="C279" r:id="rId254" xr:uid="{12966DD6-41DD-A94B-8B2C-0AD7D2AD6FB0}"/>
+    <hyperlink ref="C280" r:id="rId255" xr:uid="{CF720C34-4554-2944-A818-020ABC9BF0F4}"/>
+    <hyperlink ref="C281" r:id="rId256" xr:uid="{75763F2A-16D7-DE43-8189-19623CE26370}"/>
+    <hyperlink ref="C282" r:id="rId257" xr:uid="{9263AA30-472A-0A4D-BADF-96D82BB9BFCC}"/>
+    <hyperlink ref="C283" r:id="rId258" xr:uid="{2EF025C3-75C8-564E-BA8B-708C32B0E602}"/>
+    <hyperlink ref="C284" r:id="rId259" xr:uid="{6BDFDCA9-3421-F24F-8EF2-A72742F0AC21}"/>
+    <hyperlink ref="C285" r:id="rId260" xr:uid="{D8447F99-5FF9-D544-99BB-E9969B4A38D7}"/>
+    <hyperlink ref="C286" r:id="rId261" xr:uid="{1DB7EFDA-6C7D-F546-9EE1-F61ED0F65209}"/>
+    <hyperlink ref="C287" r:id="rId262" xr:uid="{D1505609-27D1-784D-ACF6-AE9D0DA2E1B6}"/>
+    <hyperlink ref="C288" r:id="rId263" xr:uid="{6BFA7B45-17D0-4E49-85DA-23C7255A306D}"/>
+    <hyperlink ref="C289" r:id="rId264" xr:uid="{3324BA4A-30CA-5246-8C3C-6505A6987939}"/>
+    <hyperlink ref="C290" r:id="rId265" xr:uid="{894486AD-2B6D-5740-BCAF-0BA1AFF814B4}"/>
+    <hyperlink ref="C291" r:id="rId266" xr:uid="{C47B203B-8B5A-E740-8C86-0784AD28089E}"/>
+    <hyperlink ref="C292" r:id="rId267" xr:uid="{06DC2E54-7597-AE4D-ACDB-B8883A989A4F}"/>
+    <hyperlink ref="C293" r:id="rId268" xr:uid="{E3384259-7CA7-1C44-A66D-11346EE6742E}"/>
+    <hyperlink ref="C294" r:id="rId269" xr:uid="{A5B77769-38AF-3D47-A76B-311591B57D91}"/>
+    <hyperlink ref="C297" r:id="rId270" xr:uid="{9DB6976A-C646-1341-90E8-3A164521267A}"/>
+    <hyperlink ref="C298" r:id="rId271" xr:uid="{03C291F8-D19A-304B-9EF9-CF71A1F66E49}"/>
+    <hyperlink ref="C299" r:id="rId272" xr:uid="{7536415C-140B-9244-B0B2-23F3ED0B2D80}"/>
+    <hyperlink ref="C300" r:id="rId273" xr:uid="{7DBDA456-8AF6-DD43-9764-17D3959B8E8F}"/>
+    <hyperlink ref="C301" r:id="rId274" xr:uid="{BFC149AB-C15A-B648-9F6A-ECD3890B1918}"/>
+    <hyperlink ref="C302" r:id="rId275" xr:uid="{0482240B-FEE9-F746-8980-52BCB7BBB56E}"/>
+    <hyperlink ref="C303" r:id="rId276" xr:uid="{86D1231A-E7C8-4B45-99ED-2DB0EF71E190}"/>
+    <hyperlink ref="C304" r:id="rId277" xr:uid="{20B7CE89-CB37-0040-989F-C8D1BE2B8782}"/>
+    <hyperlink ref="C305" r:id="rId278" xr:uid="{4C8412C9-A47B-9244-A18B-741516BD1054}"/>
+    <hyperlink ref="C306" r:id="rId279" xr:uid="{511761D9-31CE-0B43-AFFD-C011C27ACC52}"/>
+    <hyperlink ref="C307" r:id="rId280" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." xr:uid="{6905F997-D048-1049-BA27-C48756603D1E}"/>
+    <hyperlink ref="C308" r:id="rId281" xr:uid="{E657AA82-7CFE-DB42-B20F-F63D8C25EAB6}"/>
+    <hyperlink ref="C309" r:id="rId282" xr:uid="{3E505033-58F3-8F4E-AB82-E12DBC226AEA}"/>
+    <hyperlink ref="C310" r:id="rId283" xr:uid="{749599E5-4972-7343-B13B-87E26F837470}"/>
+    <hyperlink ref="C311" r:id="rId284" xr:uid="{12AA88DC-22AB-5A49-B28C-F04C8E35A215}"/>
+    <hyperlink ref="C312" r:id="rId285" xr:uid="{5751F0A7-7D9D-4148-820B-5B9659DFE34F}"/>
+    <hyperlink ref="C313" r:id="rId286" xr:uid="{4CA2DBEE-B161-B84D-B3A9-B8BC1B598AF2}"/>
+    <hyperlink ref="C314" r:id="rId287" xr:uid="{A9C1E578-6594-954C-8785-8902E605FC7A}"/>
+    <hyperlink ref="C315" r:id="rId288" xr:uid="{3D45E9B8-6671-A747-8C18-51CF8883170A}"/>
+    <hyperlink ref="C316" r:id="rId289" xr:uid="{4F5EF748-8CD4-0F47-90CE-3C93755BF63D}"/>
+    <hyperlink ref="C317" r:id="rId290" xr:uid="{44053C08-5050-C84B-B016-069B1EF9A43D}"/>
+    <hyperlink ref="C318" r:id="rId291" xr:uid="{ABF38928-736B-1A49-8B8A-1DCA5AAECB2B}"/>
+    <hyperlink ref="C319" r:id="rId292" xr:uid="{52651FAF-F3DC-E949-8AF8-998B9724B7D1}"/>
+    <hyperlink ref="C320" r:id="rId293" xr:uid="{91C6CCEF-3FF7-2C42-B5A0-8F4A403ED198}"/>
+    <hyperlink ref="C321" r:id="rId294" xr:uid="{15C8AF08-1A79-F949-9BE7-DD240CBD9861}"/>
+    <hyperlink ref="C322" r:id="rId295" xr:uid="{1904F984-5B22-8D46-BC33-3073B390E8F9}"/>
+    <hyperlink ref="C323" r:id="rId296" xr:uid="{A8BFB3A4-426B-E646-BCF0-FE19C8CD07A9}"/>
+    <hyperlink ref="C324" r:id="rId297" xr:uid="{FBBA29BB-885B-744A-A644-58EDCA7B140A}"/>
+    <hyperlink ref="C325" r:id="rId298" xr:uid="{75411687-6884-AC42-8B4A-1348C4837365}"/>
+    <hyperlink ref="C326" r:id="rId299" xr:uid="{A89ED8DF-F678-FE43-808C-C190721379BF}"/>
+    <hyperlink ref="C327" r:id="rId300" xr:uid="{1516834D-F3B2-1743-8811-263E11BBDEF8}"/>
+    <hyperlink ref="C328" r:id="rId301" xr:uid="{1659AB91-08CA-E44D-988D-E9D9A746D406}"/>
+    <hyperlink ref="C329" r:id="rId302" xr:uid="{E844BC1D-9713-9F4D-B0A4-1124A9952D14}"/>
+    <hyperlink ref="C330" r:id="rId303" xr:uid="{DCE2AAEF-8D8E-1843-BFE9-E9B7E13854EB}"/>
+    <hyperlink ref="C331" r:id="rId304" xr:uid="{836B3BF0-7711-7D41-9E72-914C1871397F}"/>
+    <hyperlink ref="C332" r:id="rId305" xr:uid="{F450CF9B-CA59-1443-8163-13F1121DCF12}"/>
+    <hyperlink ref="C333" r:id="rId306" xr:uid="{1539C3E8-4854-3C4F-A7B3-55BF931F1E2A}"/>
+    <hyperlink ref="C334" r:id="rId307" xr:uid="{04F1FC5F-5DA1-0144-962D-B38C1C41F0F4}"/>
+    <hyperlink ref="C337" r:id="rId308" xr:uid="{B21618F4-70E2-C549-80B7-7CF915679E0A}"/>
+    <hyperlink ref="C338" r:id="rId309" xr:uid="{EEDFBF11-C1E4-0847-9D56-94A72D97AEE7}"/>
+    <hyperlink ref="C339" r:id="rId310" xr:uid="{F5C0EDF1-7EAC-8849-8D27-C3389913BFC6}"/>
+    <hyperlink ref="C340" r:id="rId311" xr:uid="{50175B29-124F-4E4E-8E98-961BD3320359}"/>
+    <hyperlink ref="C341" r:id="rId312" xr:uid="{1BE23822-8512-014F-9154-F6EDA4FC8428}"/>
+    <hyperlink ref="C342" r:id="rId313" xr:uid="{38EC228E-ABFF-3542-9CFB-3DDFC628E9D0}"/>
+    <hyperlink ref="C343" r:id="rId314" xr:uid="{73F240F8-C469-454E-BA5C-CFF2F7A7A5F6}"/>
+    <hyperlink ref="C344" r:id="rId315" xr:uid="{3BBD1BAC-68C7-A94A-9063-AF62B5C837FD}"/>
+    <hyperlink ref="C345" r:id="rId316" xr:uid="{F9751D9B-2689-E24B-9FC3-CA32FE888708}"/>
+    <hyperlink ref="C346" r:id="rId317" xr:uid="{73C61D6A-D97C-B944-8B27-BB91564AB0D7}"/>
+    <hyperlink ref="C347" r:id="rId318" xr:uid="{936E077C-C016-A04F-895A-782D6D9D9433}"/>
+    <hyperlink ref="C348" r:id="rId319" xr:uid="{5454A2A1-6607-BE48-9215-CB8965EC3568}"/>
+    <hyperlink ref="C349" r:id="rId320" xr:uid="{FC1EAA10-F7ED-6B42-A79B-3D8B44E2C8B3}"/>
+    <hyperlink ref="C350" r:id="rId321" xr:uid="{FDB7F712-4A42-1048-8929-A1E752B07C6A}"/>
+    <hyperlink ref="C351" r:id="rId322" xr:uid="{AF3ACA60-0B0E-E146-B51F-A2CD05EB6549}"/>
+    <hyperlink ref="C352" r:id="rId323" xr:uid="{BB63E040-7A1A-E046-9BDD-9CBD1DA89DE9}"/>
+    <hyperlink ref="C353" r:id="rId324" xr:uid="{9AF8FD93-CCC9-D540-AE9A-00583F309649}"/>
+    <hyperlink ref="C354" r:id="rId325" xr:uid="{66A746A0-71FE-E546-92B7-D1C3D582E067}"/>
+    <hyperlink ref="C358" r:id="rId326" xr:uid="{BD79CCE1-5315-3944-9F9B-618615EC4583}"/>
+    <hyperlink ref="C359" r:id="rId327" xr:uid="{A5068A51-C961-6847-BB27-40A850B6D393}"/>
+    <hyperlink ref="C360" r:id="rId328" xr:uid="{6B8D36F0-E796-B944-A456-E8A9E2EE0BDB}"/>
+    <hyperlink ref="C361" r:id="rId329" xr:uid="{776652B7-2C11-4641-BF6A-EABEEB9B55AB}"/>
+    <hyperlink ref="C362" r:id="rId330" xr:uid="{95C6B35D-712A-2343-B790-236B55C5EC49}"/>
+    <hyperlink ref="C363" r:id="rId331" xr:uid="{4ED53872-1FE9-F140-AA35-F228F762880B}"/>
+    <hyperlink ref="C364" r:id="rId332" xr:uid="{6D5E6A28-85AA-BF4C-B2BD-9378D6E28EC7}"/>
+    <hyperlink ref="C365" r:id="rId333" xr:uid="{BCAD1ECB-15EE-CF49-878E-AA682DE3AC22}"/>
+    <hyperlink ref="C366" r:id="rId334" xr:uid="{C85468B5-25E9-E446-808E-72CFE911F0C2}"/>
+    <hyperlink ref="C367" r:id="rId335" xr:uid="{9503AECA-1A6A-9640-A04C-4CEAA2304448}"/>
+    <hyperlink ref="C368" r:id="rId336" xr:uid="{74211516-06B0-AA45-845B-52C8202751DA}"/>
+    <hyperlink ref="C369" r:id="rId337" xr:uid="{02C696BC-4B91-9444-900F-9CD68E409ABC}"/>
+    <hyperlink ref="C370" r:id="rId338" xr:uid="{04646C45-4118-374C-839D-94D31D534FAC}"/>
+    <hyperlink ref="C371" r:id="rId339" xr:uid="{F90BCCAE-8596-FC4D-BDD7-774392C596DF}"/>
+    <hyperlink ref="C372" r:id="rId340" xr:uid="{65230925-36EC-8A4B-8E46-6350B9BC0F95}"/>
+    <hyperlink ref="C373" r:id="rId341" xr:uid="{E91B8177-0C7A-1F40-BD34-4CC60F03B84F}"/>
+    <hyperlink ref="C374" r:id="rId342" xr:uid="{E8CBFD60-7335-0B4D-9FF5-99B4A8DC551D}"/>
+    <hyperlink ref="C375" r:id="rId343" xr:uid="{A35F55D4-9B87-C745-94DB-E7D820193C30}"/>
+    <hyperlink ref="C376" r:id="rId344" xr:uid="{6461A29F-D404-334F-B13F-296B4CA5E8A4}"/>
+    <hyperlink ref="C377" r:id="rId345" xr:uid="{FA9B4BE7-85CC-B24F-9461-5E9B42DDD824}"/>
+    <hyperlink ref="C378" r:id="rId346" xr:uid="{A75ACEA2-CDF6-A147-8540-A6DF55B15F45}"/>
+    <hyperlink ref="C379" r:id="rId347" xr:uid="{62FF87E2-E658-AB4D-AC57-7BCF9D49516E}"/>
+    <hyperlink ref="C380" r:id="rId348" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." xr:uid="{269338A6-5145-6944-9F7F-BD2A86DFA308}"/>
+    <hyperlink ref="C381" r:id="rId349" xr:uid="{8F583049-CE8D-CD42-88CD-CF3857942670}"/>
+    <hyperlink ref="C382" r:id="rId350" xr:uid="{EE2348AD-E296-894A-B5AE-5884A3C5E419}"/>
+    <hyperlink ref="C383" r:id="rId351" xr:uid="{6EACB34E-B32E-8F43-8055-2406F7417A7E}"/>
+    <hyperlink ref="C384" r:id="rId352" xr:uid="{2446F10A-B762-B64C-97B2-6131A0BECC1F}"/>
+    <hyperlink ref="C385" r:id="rId353" xr:uid="{6FDFCC53-17A6-7244-88A7-49406D7C9200}"/>
+    <hyperlink ref="C386" r:id="rId354" xr:uid="{3EC43646-EAB1-E443-A2F6-8E6E5FC77083}"/>
+    <hyperlink ref="C387" r:id="rId355" xr:uid="{659D9F20-C862-C947-B422-84143CFE317F}"/>
+    <hyperlink ref="C388" r:id="rId356" xr:uid="{3F5192FE-1C50-C049-88D5-68FA0F5430A0}"/>
+    <hyperlink ref="C389" r:id="rId357" xr:uid="{5EAD7CDA-9545-454B-BE77-9AFEC6AC1083}"/>
+    <hyperlink ref="C390" r:id="rId358" xr:uid="{761E5451-736B-6745-9CF5-4C6EF5D4C099}"/>
+    <hyperlink ref="C391" r:id="rId359" xr:uid="{4C8677A9-D94C-134F-AF31-E424751BF867}"/>
+    <hyperlink ref="C392" r:id="rId360" xr:uid="{CCF7920F-D5CE-004A-86C3-D821FB230970}"/>
+    <hyperlink ref="C393" r:id="rId361" xr:uid="{B4C07A0A-1EDD-7947-9646-3FD603441AD7}"/>
+    <hyperlink ref="C394" r:id="rId362" xr:uid="{49F7BB43-6851-0641-9DC5-27DBC66706F6}"/>
+    <hyperlink ref="C395" r:id="rId363" xr:uid="{77038647-48C7-5547-8E0F-898610362465}"/>
+    <hyperlink ref="C397" r:id="rId364" xr:uid="{EEFFE19C-6571-C64F-A0E1-5A4A700D94D4}"/>
+    <hyperlink ref="C396" r:id="rId365" xr:uid="{A4A2BFC4-6B88-2E4E-B362-17D8EE041C89}"/>
+    <hyperlink ref="C398" r:id="rId366" xr:uid="{DC5B603A-8D65-3648-A08A-E5FFA0FAE879}"/>
+    <hyperlink ref="C399" r:id="rId367" xr:uid="{F8807DD9-F4F2-B147-9C31-DBC93B2E477B}"/>
+    <hyperlink ref="C400" r:id="rId368" xr:uid="{6F7B396C-D7E9-C04E-BAE2-53D2EE07172B}"/>
+    <hyperlink ref="C403" r:id="rId369" xr:uid="{0D4A5941-C669-4A49-BAE3-9B553D03BD0F}"/>
+    <hyperlink ref="C404" r:id="rId370" xr:uid="{54144336-5BCA-D749-962A-E448C2CED3D3}"/>
+    <hyperlink ref="C405" r:id="rId371" xr:uid="{3A41DD21-CACF-1F48-A7C7-F568C6F31F3E}"/>
+    <hyperlink ref="C406" r:id="rId372" xr:uid="{A36160A8-F45E-3443-9645-42C1004B8F8C}"/>
+    <hyperlink ref="C407" r:id="rId373" xr:uid="{8B0A00A3-6AC0-DF46-AD87-A4DA016A2A00}"/>
+    <hyperlink ref="C408" r:id="rId374" xr:uid="{62A81CB4-A961-C543-B31C-92059DB6C105}"/>
+    <hyperlink ref="C411" r:id="rId375" xr:uid="{08030975-009C-C34A-A875-72FE2718F44C}"/>
+    <hyperlink ref="C412" r:id="rId376" xr:uid="{A113C7A9-2359-B643-9C08-E845813439C0}"/>
+    <hyperlink ref="C413" r:id="rId377" xr:uid="{FE300343-4633-AD47-A64D-2086629EB398}"/>
+    <hyperlink ref="C414" r:id="rId378" xr:uid="{4FC9F782-D38F-C642-A863-887B17AD05CD}"/>
+    <hyperlink ref="C415" r:id="rId379" xr:uid="{830C5466-10E3-7A48-B3E7-35C15A1CA4EF}"/>
+    <hyperlink ref="C416" r:id="rId380" xr:uid="{1B987077-E9D3-6F40-89EE-0D4E7180D884}"/>
+    <hyperlink ref="C417" r:id="rId381" xr:uid="{D4843E1F-7226-864E-A4BB-264D5A487B6D}"/>
+    <hyperlink ref="C418" r:id="rId382" xr:uid="{61816592-2D19-9946-8253-47A60218F2EA}"/>
+    <hyperlink ref="C419" r:id="rId383" xr:uid="{736C840F-19A3-0A4B-8863-ECB772B46385}"/>
+    <hyperlink ref="C420" r:id="rId384" xr:uid="{05A238AD-3C5B-C546-94E9-75BBF964711A}"/>
+    <hyperlink ref="C421" r:id="rId385" xr:uid="{7029629C-3F2A-4A49-997B-CFE86EC8B3C2}"/>
+    <hyperlink ref="C422" r:id="rId386" xr:uid="{ADA66B57-2FAC-AB42-BD83-4931708F3AB5}"/>
+    <hyperlink ref="C423" r:id="rId387" xr:uid="{F16BF1F9-755B-B045-B9A8-0B97E3BAC8B0}"/>
+    <hyperlink ref="C424" r:id="rId388" xr:uid="{ECCE930A-B960-234C-81EC-4B8514282AE9}"/>
+    <hyperlink ref="C425" r:id="rId389" xr:uid="{7AA58141-7D24-7C42-A0C1-F852B21CFFD9}"/>
+    <hyperlink ref="C426" r:id="rId390" xr:uid="{B1FCB47D-7921-3446-B2C7-72CBA815D056}"/>
+    <hyperlink ref="C427" r:id="rId391" xr:uid="{8C547719-AA03-3543-B31F-7300674AF4C5}"/>
+    <hyperlink ref="C428" r:id="rId392" xr:uid="{09922668-AFC0-F242-860E-9967E0F0FEF4}"/>
+    <hyperlink ref="C429" r:id="rId393" xr:uid="{0DA963DA-238B-D44E-9E03-6E6BD933B35E}"/>
+    <hyperlink ref="C430" r:id="rId394" xr:uid="{89518AFF-2526-C845-BC9D-95FE77AF416E}"/>
+    <hyperlink ref="C431" r:id="rId395" xr:uid="{FAECBBBE-196C-7A41-A0FB-E0597CB2CF51}"/>
+    <hyperlink ref="C432" r:id="rId396" xr:uid="{8126B039-0B25-B040-A0F6-C3457341A2E9}"/>
+    <hyperlink ref="C433" r:id="rId397" xr:uid="{6CB326E6-E698-EB42-884B-C89FFA33E3BA}"/>
+    <hyperlink ref="C434" r:id="rId398" xr:uid="{8C97EFD1-933F-A44F-A1CF-6386233104A2}"/>
+    <hyperlink ref="C435" r:id="rId399" xr:uid="{8F019F07-8532-E147-8BE1-4EBE833F61CA}"/>
+    <hyperlink ref="C436" r:id="rId400" xr:uid="{00F1A08F-3767-784A-97A3-4603DE38BACC}"/>
+    <hyperlink ref="C437" r:id="rId401" xr:uid="{2A84ADCB-071F-9A48-994D-7A838307EFD8}"/>
+    <hyperlink ref="C438" r:id="rId402" xr:uid="{132F8C6D-D5E8-6440-AC4E-B81EA2100416}"/>
+    <hyperlink ref="C439" r:id="rId403" xr:uid="{2DA6EAC2-1A1D-754F-9613-226CBC7890AF}"/>
+    <hyperlink ref="C440" r:id="rId404" xr:uid="{05BED99A-4562-D14E-8627-D07CF5335A9B}"/>
+    <hyperlink ref="C441" r:id="rId405" xr:uid="{111D902A-3F60-2D4B-89D3-5BCBD8AA38DD}"/>
+    <hyperlink ref="C442" r:id="rId406" xr:uid="{F19236BE-AC32-3542-9214-DFC3BAE04ED0}"/>
+    <hyperlink ref="C443" r:id="rId407" xr:uid="{4D97CD96-EA1B-664E-9380-EFD27077D273}"/>
+    <hyperlink ref="C444" r:id="rId408" xr:uid="{49A46D91-633F-A148-ACFA-49B7D1AA4B33}"/>
+    <hyperlink ref="C445" r:id="rId409" xr:uid="{7C3B7901-67E3-EA4D-BC64-21A78BC03AC6}"/>
+    <hyperlink ref="C446" r:id="rId410" xr:uid="{B27CA8C3-D34F-5E4D-94A5-11D14AFD0F82}"/>
+    <hyperlink ref="C447" r:id="rId411" xr:uid="{8FECE038-9764-5E4A-8C6E-9B3209812651}"/>
+    <hyperlink ref="C448" r:id="rId412" xr:uid="{95696D4B-89CB-5640-BE92-53B3C043F7EB}"/>
+    <hyperlink ref="C449" r:id="rId413" xr:uid="{DA74B737-802A-4944-A93E-0B9C8417630B}"/>
+    <hyperlink ref="C450" r:id="rId414" xr:uid="{B2C4C168-50FA-AF41-8F56-9E70613CF17D}"/>
+    <hyperlink ref="C452" r:id="rId415" xr:uid="{B7090C60-AC27-3F4F-8F0D-42F0791928C6}"/>
+    <hyperlink ref="C451" r:id="rId416" xr:uid="{07400041-66C6-514B-B3E3-427F2947C2B7}"/>
+    <hyperlink ref="C453" r:id="rId417" xr:uid="{B7E78172-8FB8-4E42-87D8-6A4654D79C62}"/>
+    <hyperlink ref="C454" r:id="rId418" xr:uid="{9A5D4670-BC64-334A-88CF-6F8287692C5E}"/>
+    <hyperlink ref="C455" r:id="rId419" xr:uid="{604283B6-53BC-044F-8D9D-E6094E798317}"/>
+    <hyperlink ref="C456" r:id="rId420" xr:uid="{5EB15AC7-3E0E-E44C-A5B9-32F30F234B5A}"/>
+    <hyperlink ref="C457" r:id="rId421" xr:uid="{3076BD5F-4B23-4146-A50A-499C9FF4C3D2}"/>
+    <hyperlink ref="C458" r:id="rId422" xr:uid="{6A29D9C2-1E78-1B43-A251-0AB0A97FA70E}"/>
+    <hyperlink ref="C459" r:id="rId423" xr:uid="{00597D5E-D693-DF4E-84C0-47E58A6ACA8F}"/>
+    <hyperlink ref="C460" r:id="rId424" xr:uid="{48640988-9964-0B4C-A014-83E2CEB3D632}"/>
+    <hyperlink ref="C461" r:id="rId425" xr:uid="{617AADC9-7534-FE45-96B0-EF4C1867B793}"/>
+    <hyperlink ref="C462" r:id="rId426" xr:uid="{7F8CDAA4-5094-8E4E-961B-41CDE5ACC0C0}"/>
+    <hyperlink ref="C463" r:id="rId427" xr:uid="{63F28ABD-12CF-5947-80DA-229E3CA3133E}"/>
+    <hyperlink ref="C470" r:id="rId428" xr:uid="{0A1DB92C-3315-1942-B27D-4B90986A6D9D}"/>
+    <hyperlink ref="C469" r:id="rId429" xr:uid="{11738B67-CADD-5D45-8417-8BE7A03FC79F}"/>
+    <hyperlink ref="C468" r:id="rId430" xr:uid="{B2B23748-D9E4-BE4F-A93E-49ECB4063831}"/>
+    <hyperlink ref="C467" r:id="rId431" xr:uid="{A2FB8A72-37B9-7E4A-B050-FD6CD20BCE73}"/>
+    <hyperlink ref="C466" r:id="rId432" xr:uid="{5A93C9AF-BFEB-EB40-95AC-C309ED09A604}"/>
+    <hyperlink ref="C465" r:id="rId433" xr:uid="{CC203923-2DC2-874B-B846-A8455E3CC2F2}"/>
+    <hyperlink ref="C464" r:id="rId434" xr:uid="{FCB0246E-0179-B447-B3CE-C60CDB388472}"/>
+    <hyperlink ref="C473" r:id="rId435" xr:uid="{F06CEE72-8CA4-C547-862C-39B86CD3226A}"/>
+    <hyperlink ref="C474" r:id="rId436" xr:uid="{CB3045F2-8D63-0F4E-85BC-AF016DB4F247}"/>
+    <hyperlink ref="C475" r:id="rId437" xr:uid="{667D57F5-E5AD-674F-A2F5-AFF4A14E4026}"/>
+    <hyperlink ref="C476" r:id="rId438" xr:uid="{27A13A65-56CE-BF4D-BA0D-EB87D910272D}"/>
+    <hyperlink ref="C477" r:id="rId439" xr:uid="{2C72A52E-6F06-0246-AEB5-93CD0DEA8866}"/>
+    <hyperlink ref="C478" r:id="rId440" xr:uid="{24B29046-B4DD-674B-9EDF-6C94BEC3FDD8}"/>
+    <hyperlink ref="C479" r:id="rId441" xr:uid="{D018EBC3-3FB3-AC4D-9D64-D218345A46C8}"/>
+    <hyperlink ref="C482" r:id="rId442" xr:uid="{1E1D3964-01E0-3145-ACFE-B6A5BF0EECB0}"/>
+    <hyperlink ref="C480" r:id="rId443" xr:uid="{FA0E5061-A7E2-C045-9671-1CD9446D1932}"/>
+    <hyperlink ref="C481" r:id="rId444" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{92704F5B-7B31-2F42-80DD-764B2206D9DB}"/>
+    <hyperlink ref="C357" r:id="rId445" xr:uid="{A48B1A24-83B1-7A4C-8129-CD37804DF849}"/>
+    <hyperlink ref="C8" r:id="rId446" display="Write a Program to sort array Using Quick Sort_files" xr:uid="{F0DDC999-C321-4AB4-BA9D-7538150E84D3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId446"/>
+  <pageSetup orientation="portrait" r:id="rId447"/>
 </worksheet>
 </file>
--- a/DSA Sheet.xlsx
+++ b/DSA Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Java\Java-DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E6F8DD8-7180-46CE-AC57-4D26246D1C71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE414D16-2CC4-40CB-90D9-267ECD8DA947}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22140" windowHeight="13176" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1386" uniqueCount="494">
   <si>
     <t>Topic:</t>
   </si>
@@ -1450,13 +1450,70 @@
   </si>
   <si>
     <t>Write a Program to sort array Using Quick Sort</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Mathematics</t>
+  </si>
+  <si>
+    <t>Write a Program To count number of digits in a given Number</t>
+  </si>
+  <si>
+    <t>CD0MATH</t>
+  </si>
+  <si>
+    <t>Write a Program To check whether a Given Number is Pallindrome or Not without any extra space</t>
+  </si>
+  <si>
+    <t>PN0MATH</t>
+  </si>
+  <si>
+    <t>Write a Program to Find Factorial of a Given Number</t>
+  </si>
+  <si>
+    <t>Methods</t>
+  </si>
+  <si>
+    <t>numberSizeString</t>
+  </si>
+  <si>
+    <t>numberSizeLog</t>
+  </si>
+  <si>
+    <t>numberSize</t>
+  </si>
+  <si>
+    <t>pallindromeNumber</t>
+  </si>
+  <si>
+    <t>FNOMATH</t>
+  </si>
+  <si>
+    <t>TFN0MATH</t>
+  </si>
+  <si>
+    <t>FBN0MATH</t>
+  </si>
+  <si>
+    <t>Write a Program to Find trailing Number of Zeros in Factorial of a Number</t>
+  </si>
+  <si>
+    <t>Write a Program to Find Factorial of Large Number</t>
+  </si>
+  <si>
+    <t>iterativeFactorial</t>
+  </si>
+  <si>
+    <t>recursiveFactorial</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1526,8 +1583,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="16"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1537,6 +1619,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1554,7 +1642,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1578,6 +1666,22 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1900,10 +2004,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
-  <dimension ref="A1:D482"/>
+  <dimension ref="A1:G491"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1911,14 +2015,17 @@
     <col min="1" max="2" width="28.5" customWidth="1"/>
     <col min="3" max="3" width="123" customWidth="1"/>
     <col min="4" max="4" width="27.5" customWidth="1"/>
+    <col min="5" max="5" width="24.796875" customWidth="1"/>
+    <col min="6" max="6" width="28.8984375" customWidth="1"/>
+    <col min="7" max="7" width="24.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="24.6">
+    <row r="1" spans="1:7" ht="24.6">
       <c r="C1" s="1" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="21">
+    <row r="4" spans="1:7" ht="21">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1931,586 +2038,708 @@
       <c r="D4" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="D5" s="4"/>
-    </row>
-    <row r="6" spans="1:4" ht="21">
-      <c r="A6" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>465</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>5</v>
+      <c r="E4" s="16" t="s">
+        <v>482</v>
+      </c>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+    </row>
+    <row r="5" spans="1:7" ht="21">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" ht="21">
+      <c r="A6" s="12" t="s">
+        <v>476</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>477</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="21">
-      <c r="A7" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>466</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>6</v>
+      <c r="E6" s="14" t="s">
+        <v>483</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>484</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="21">
+      <c r="A7" s="12" t="s">
+        <v>476</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>479</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="21">
-      <c r="A8" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>473</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>474</v>
-      </c>
-      <c r="D8" s="10"/>
-    </row>
-    <row r="9" spans="1:4" ht="21">
-      <c r="A9" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>467</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="21">
-      <c r="A10" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>468</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="21">
-      <c r="A11" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>469</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="21">
-      <c r="A12" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>470</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="21">
-      <c r="A13" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="21">
-      <c r="A14" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="21">
+      <c r="E7" s="14" t="s">
+        <v>486</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+    </row>
+    <row r="8" spans="1:7" ht="21">
+      <c r="A8" s="12" t="s">
+        <v>476</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>481</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>492</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>493</v>
+      </c>
+      <c r="G8" s="14"/>
+    </row>
+    <row r="9" spans="1:7" ht="21">
+      <c r="A9" s="12"/>
+      <c r="B9" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>490</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+    </row>
+    <row r="10" spans="1:7" ht="21">
+      <c r="A10" s="12"/>
+      <c r="B10" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>491</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+    </row>
+    <row r="11" spans="1:7" ht="21">
+      <c r="A11" s="12"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+    </row>
+    <row r="12" spans="1:7" ht="21">
+      <c r="A12" s="12"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+    </row>
+    <row r="13" spans="1:7" ht="21">
+      <c r="A13" s="12"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+    </row>
+    <row r="14" spans="1:7" ht="21">
+      <c r="D14" s="4"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+    </row>
+    <row r="15" spans="1:7" ht="21">
       <c r="A15" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="5"/>
+      <c r="B15" s="5" t="s">
+        <v>465</v>
+      </c>
       <c r="C15" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="21">
+        <v>5</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+    </row>
+    <row r="16" spans="1:7" ht="21">
       <c r="A16" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="5"/>
+      <c r="B16" s="5" t="s">
+        <v>466</v>
+      </c>
       <c r="C16" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="21">
+        <v>6</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+    </row>
+    <row r="17" spans="1:7" ht="21">
       <c r="A17" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="5"/>
+      <c r="B17" s="5" t="s">
+        <v>473</v>
+      </c>
       <c r="C17" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="21">
+        <v>474</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+    </row>
+    <row r="18" spans="1:7" ht="21">
       <c r="A18" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="5"/>
+      <c r="B18" s="5" t="s">
+        <v>467</v>
+      </c>
       <c r="C18" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="21">
+        <v>7</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>475</v>
+      </c>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+    </row>
+    <row r="19" spans="1:7" ht="21">
       <c r="A19" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="5"/>
+      <c r="B19" s="5" t="s">
+        <v>468</v>
+      </c>
       <c r="C19" s="6" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="21">
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+    </row>
+    <row r="20" spans="1:7" ht="21">
       <c r="A20" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="5"/>
+      <c r="B20" s="5" t="s">
+        <v>469</v>
+      </c>
       <c r="C20" s="6" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="21">
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+    </row>
+    <row r="21" spans="1:7" ht="21">
       <c r="A21" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="5"/>
+      <c r="B21" s="5" t="s">
+        <v>470</v>
+      </c>
       <c r="C21" s="6" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="21">
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+    </row>
+    <row r="22" spans="1:7" ht="21">
       <c r="A22" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="5"/>
+      <c r="B22" s="5" t="s">
+        <v>471</v>
+      </c>
       <c r="C22" s="6" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="21">
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+    </row>
+    <row r="23" spans="1:7" ht="21">
       <c r="A23" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="6" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="21">
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+    </row>
+    <row r="24" spans="1:7" ht="21">
       <c r="A24" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="6" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="21">
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+    </row>
+    <row r="25" spans="1:7" ht="21">
       <c r="A25" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="6" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="21">
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+    </row>
+    <row r="26" spans="1:7" ht="21">
       <c r="A26" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="6" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="21">
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+    </row>
+    <row r="27" spans="1:7" ht="21">
       <c r="A27" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="6" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" ht="21">
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+    </row>
+    <row r="28" spans="1:7" ht="21">
       <c r="A28" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="6" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="21">
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+    </row>
+    <row r="29" spans="1:7" ht="21">
       <c r="A29" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="6" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" ht="21">
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+    </row>
+    <row r="30" spans="1:7" ht="21">
       <c r="A30" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B30" s="5"/>
       <c r="C30" s="6" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" ht="21">
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+    </row>
+    <row r="31" spans="1:7" ht="21">
       <c r="A31" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="6" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" ht="21">
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+    </row>
+    <row r="32" spans="1:7" ht="21">
       <c r="A32" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" ht="21">
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+    </row>
+    <row r="33" spans="1:7" ht="21">
       <c r="A33" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B33" s="5"/>
       <c r="C33" s="6" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" ht="21">
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+    </row>
+    <row r="34" spans="1:7" ht="21">
       <c r="A34" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B34" s="5"/>
       <c r="C34" s="6" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" ht="21">
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+    </row>
+    <row r="35" spans="1:7" ht="21">
       <c r="A35" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B35" s="5"/>
       <c r="C35" s="6" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" ht="21">
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+    </row>
+    <row r="36" spans="1:7" ht="21">
       <c r="A36" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B36" s="5"/>
       <c r="C36" s="6" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" ht="21">
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+    </row>
+    <row r="37" spans="1:7" ht="21">
       <c r="A37" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B37" s="5"/>
       <c r="C37" s="6" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" ht="21">
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+    </row>
+    <row r="38" spans="1:7" ht="21">
       <c r="A38" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B38" s="5"/>
       <c r="C38" s="6" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" ht="21">
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+    </row>
+    <row r="39" spans="1:7" ht="21">
       <c r="A39" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B39" s="5"/>
       <c r="C39" s="6" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" ht="21">
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+    </row>
+    <row r="40" spans="1:7" ht="21">
       <c r="A40" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B40" s="5"/>
       <c r="C40" s="6" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" ht="21">
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+    </row>
+    <row r="41" spans="1:7" ht="21">
       <c r="A41" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B41" s="5"/>
       <c r="C41" s="6" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" ht="21">
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+    </row>
+    <row r="42" spans="1:7" ht="21">
       <c r="A42" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B42" s="5"/>
       <c r="C42" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+    </row>
+    <row r="43" spans="1:7" ht="21">
+      <c r="A43" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" s="5"/>
+      <c r="C43" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+    </row>
+    <row r="44" spans="1:7" ht="21">
+      <c r="A44" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" s="5"/>
+      <c r="C44" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
+    </row>
+    <row r="45" spans="1:7" ht="21">
+      <c r="A45" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" s="5"/>
+      <c r="C45" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+    </row>
+    <row r="46" spans="1:7" ht="21">
+      <c r="A46" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" s="5"/>
+      <c r="C46" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+    </row>
+    <row r="47" spans="1:7" ht="21">
+      <c r="A47" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" s="5"/>
+      <c r="C47" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="21">
+      <c r="A48" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48" s="5"/>
+      <c r="C48" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="21">
+      <c r="A49" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" s="5"/>
+      <c r="C49" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="21">
+      <c r="A50" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" s="5"/>
+      <c r="C50" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="21">
+      <c r="A51" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" s="5"/>
+      <c r="C51" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D42" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="21">
-      <c r="C43" s="7"/>
-      <c r="D43" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="21">
-      <c r="A44" s="5"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="21">
-      <c r="A45" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B45" s="8"/>
-      <c r="C45" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="21">
-      <c r="A46" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B46" s="8"/>
-      <c r="C46" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="21">
-      <c r="A47" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B47" s="8"/>
-      <c r="C47" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="21">
-      <c r="A48" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B48" s="8"/>
-      <c r="C48" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="21">
-      <c r="A49" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B49" s="8"/>
-      <c r="C49" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="21">
-      <c r="A50" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B50" s="8"/>
-      <c r="C50" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="21">
-      <c r="A51" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B51" s="8"/>
-      <c r="C51" s="6" t="s">
-        <v>48</v>
-      </c>
       <c r="D51" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="21">
-      <c r="A52" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B52" s="8"/>
-      <c r="C52" s="6" t="s">
-        <v>49</v>
-      </c>
+      <c r="C52" s="7"/>
       <c r="D52" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="21">
-      <c r="A53" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B53" s="8"/>
-      <c r="C53" s="6" t="s">
-        <v>50</v>
-      </c>
+      <c r="A53" s="5"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="7"/>
       <c r="D53" s="4" t="s">
         <v>3</v>
       </c>
@@ -2521,125 +2750,125 @@
       </c>
       <c r="B54" s="8"/>
       <c r="C54" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="21">
+      <c r="A55" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B55" s="8"/>
+      <c r="C55" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="21">
+      <c r="A56" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B56" s="8"/>
+      <c r="C56" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="21">
+      <c r="A57" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B57" s="8"/>
+      <c r="C57" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="21">
+      <c r="A58" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B58" s="8"/>
+      <c r="C58" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="21">
+      <c r="A59" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B59" s="8"/>
+      <c r="C59" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="21">
+      <c r="A60" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B60" s="8"/>
+      <c r="C60" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="21">
+      <c r="A61" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B61" s="8"/>
+      <c r="C61" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="21">
+      <c r="A62" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B62" s="8"/>
+      <c r="C62" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="21">
+      <c r="A63" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B63" s="8"/>
+      <c r="C63" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D54" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="21">
-      <c r="A56" s="5"/>
-      <c r="B56" s="5"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="4"/>
-    </row>
-    <row r="57" spans="1:4" ht="21">
-      <c r="A57" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B57" s="5"/>
-      <c r="C57" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="21">
-      <c r="A58" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B58" s="5"/>
-      <c r="C58" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="21">
-      <c r="A59" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B59" s="5"/>
-      <c r="C59" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="21">
-      <c r="A60" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B60" s="5"/>
-      <c r="C60" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="21">
-      <c r="A61" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B61" s="5"/>
-      <c r="C61" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="21">
-      <c r="A62" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B62" s="5"/>
-      <c r="C62" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="21">
-      <c r="A63" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B63" s="5"/>
-      <c r="C63" s="6" t="s">
-        <v>59</v>
-      </c>
       <c r="D63" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="21">
-      <c r="A64" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B64" s="5"/>
-      <c r="C64" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
     <row r="65" spans="1:4" ht="21">
-      <c r="A65" s="5" t="s">
-        <v>52</v>
-      </c>
+      <c r="A65" s="5"/>
       <c r="B65" s="5"/>
-      <c r="C65" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="C65" s="7"/>
+      <c r="D65" s="4"/>
     </row>
     <row r="66" spans="1:4" ht="21">
       <c r="A66" s="5" t="s">
@@ -2647,7 +2876,7 @@
       </c>
       <c r="B66" s="5"/>
       <c r="C66" s="6" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>3</v>
@@ -2659,7 +2888,7 @@
       </c>
       <c r="B67" s="5"/>
       <c r="C67" s="6" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>3</v>
@@ -2671,7 +2900,7 @@
       </c>
       <c r="B68" s="5"/>
       <c r="C68" s="6" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>3</v>
@@ -2682,8 +2911,8 @@
         <v>52</v>
       </c>
       <c r="B69" s="5"/>
-      <c r="C69" s="6" t="s">
-        <v>65</v>
+      <c r="C69" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>3</v>
@@ -2695,7 +2924,7 @@
       </c>
       <c r="B70" s="5"/>
       <c r="C70" s="6" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>3</v>
@@ -2707,7 +2936,7 @@
       </c>
       <c r="B71" s="5"/>
       <c r="C71" s="6" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D71" s="4" t="s">
         <v>3</v>
@@ -2719,7 +2948,7 @@
       </c>
       <c r="B72" s="5"/>
       <c r="C72" s="6" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>3</v>
@@ -2731,7 +2960,7 @@
       </c>
       <c r="B73" s="5"/>
       <c r="C73" s="6" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>3</v>
@@ -2743,7 +2972,7 @@
       </c>
       <c r="B74" s="5"/>
       <c r="C74" s="6" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>3</v>
@@ -2755,7 +2984,7 @@
       </c>
       <c r="B75" s="5"/>
       <c r="C75" s="6" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>3</v>
@@ -2767,7 +2996,7 @@
       </c>
       <c r="B76" s="5"/>
       <c r="C76" s="6" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="D76" s="4" t="s">
         <v>3</v>
@@ -2779,7 +3008,7 @@
       </c>
       <c r="B77" s="5"/>
       <c r="C77" s="6" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="D77" s="4" t="s">
         <v>3</v>
@@ -2791,7 +3020,7 @@
       </c>
       <c r="B78" s="5"/>
       <c r="C78" s="6" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="D78" s="4" t="s">
         <v>3</v>
@@ -2803,7 +3032,7 @@
       </c>
       <c r="B79" s="5"/>
       <c r="C79" s="6" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="D79" s="4" t="s">
         <v>3</v>
@@ -2815,7 +3044,7 @@
       </c>
       <c r="B80" s="5"/>
       <c r="C80" s="6" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D80" s="4" t="s">
         <v>3</v>
@@ -2827,7 +3056,7 @@
       </c>
       <c r="B81" s="5"/>
       <c r="C81" s="6" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="D81" s="4" t="s">
         <v>3</v>
@@ -2839,7 +3068,7 @@
       </c>
       <c r="B82" s="5"/>
       <c r="C82" s="6" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D82" s="4" t="s">
         <v>3</v>
@@ -2851,7 +3080,7 @@
       </c>
       <c r="B83" s="5"/>
       <c r="C83" s="6" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D83" s="4" t="s">
         <v>3</v>
@@ -2863,7 +3092,7 @@
       </c>
       <c r="B84" s="5"/>
       <c r="C84" s="6" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D84" s="4" t="s">
         <v>3</v>
@@ -2875,7 +3104,7 @@
       </c>
       <c r="B85" s="5"/>
       <c r="C85" s="6" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="D85" s="4" t="s">
         <v>3</v>
@@ -2887,7 +3116,7 @@
       </c>
       <c r="B86" s="5"/>
       <c r="C86" s="6" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D86" s="4" t="s">
         <v>3</v>
@@ -2899,7 +3128,7 @@
       </c>
       <c r="B87" s="5"/>
       <c r="C87" s="6" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="D87" s="4" t="s">
         <v>3</v>
@@ -2911,7 +3140,7 @@
       </c>
       <c r="B88" s="5"/>
       <c r="C88" s="6" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D88" s="4" t="s">
         <v>3</v>
@@ -2923,7 +3152,7 @@
       </c>
       <c r="B89" s="5"/>
       <c r="C89" s="6" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="D89" s="4" t="s">
         <v>3</v>
@@ -2935,7 +3164,7 @@
       </c>
       <c r="B90" s="5"/>
       <c r="C90" s="6" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="D90" s="4" t="s">
         <v>3</v>
@@ -2947,7 +3176,7 @@
       </c>
       <c r="B91" s="5"/>
       <c r="C91" s="6" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D91" s="4" t="s">
         <v>3</v>
@@ -2959,7 +3188,7 @@
       </c>
       <c r="B92" s="5"/>
       <c r="C92" s="6" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="D92" s="4" t="s">
         <v>3</v>
@@ -2971,7 +3200,7 @@
       </c>
       <c r="B93" s="5"/>
       <c r="C93" s="6" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="D93" s="4" t="s">
         <v>3</v>
@@ -2983,7 +3212,7 @@
       </c>
       <c r="B94" s="5"/>
       <c r="C94" s="6" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D94" s="4" t="s">
         <v>3</v>
@@ -2995,7 +3224,7 @@
       </c>
       <c r="B95" s="5"/>
       <c r="C95" s="6" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="D95" s="4" t="s">
         <v>3</v>
@@ -3007,7 +3236,7 @@
       </c>
       <c r="B96" s="5"/>
       <c r="C96" s="6" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="D96" s="4" t="s">
         <v>3</v>
@@ -3019,7 +3248,7 @@
       </c>
       <c r="B97" s="5"/>
       <c r="C97" s="6" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D97" s="4" t="s">
         <v>3</v>
@@ -3031,7 +3260,7 @@
       </c>
       <c r="B98" s="5"/>
       <c r="C98" s="6" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D98" s="4" t="s">
         <v>3</v>
@@ -3043,25 +3272,43 @@
       </c>
       <c r="B99" s="5"/>
       <c r="C99" s="6" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="D99" s="4" t="s">
         <v>3</v>
       </c>
     </row>
+    <row r="100" spans="1:4" ht="21">
+      <c r="A100" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B100" s="5"/>
+      <c r="C100" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
     <row r="101" spans="1:4" ht="21">
-      <c r="A101" s="8"/>
-      <c r="B101" s="8"/>
-      <c r="C101" s="7"/>
-      <c r="D101" s="4"/>
+      <c r="A101" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B101" s="5"/>
+      <c r="C101" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="102" spans="1:4" ht="21">
       <c r="A102" s="5" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="B102" s="5"/>
       <c r="C102" s="6" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="D102" s="4" t="s">
         <v>3</v>
@@ -3069,11 +3316,11 @@
     </row>
     <row r="103" spans="1:4" ht="21">
       <c r="A103" s="5" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="B103" s="5"/>
       <c r="C103" s="6" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D103" s="4" t="s">
         <v>3</v>
@@ -3081,11 +3328,11 @@
     </row>
     <row r="104" spans="1:4" ht="21">
       <c r="A104" s="5" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="B104" s="5"/>
       <c r="C104" s="6" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="D104" s="4" t="s">
         <v>3</v>
@@ -3093,11 +3340,11 @@
     </row>
     <row r="105" spans="1:4" ht="21">
       <c r="A105" s="5" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="B105" s="5"/>
       <c r="C105" s="6" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D105" s="4" t="s">
         <v>3</v>
@@ -3105,11 +3352,11 @@
     </row>
     <row r="106" spans="1:4" ht="21">
       <c r="A106" s="5" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="B106" s="5"/>
       <c r="C106" s="6" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="D106" s="4" t="s">
         <v>3</v>
@@ -3117,11 +3364,11 @@
     </row>
     <row r="107" spans="1:4" ht="21">
       <c r="A107" s="5" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="B107" s="5"/>
       <c r="C107" s="6" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="D107" s="4" t="s">
         <v>3</v>
@@ -3129,39 +3376,21 @@
     </row>
     <row r="108" spans="1:4" ht="21">
       <c r="A108" s="5" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="B108" s="5"/>
       <c r="C108" s="6" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D108" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="21">
-      <c r="A109" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B109" s="5"/>
-      <c r="C109" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="D109" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
     <row r="110" spans="1:4" ht="21">
-      <c r="A110" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B110" s="5"/>
-      <c r="C110" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D110" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="A110" s="8"/>
+      <c r="B110" s="8"/>
+      <c r="C110" s="7"/>
+      <c r="D110" s="4"/>
     </row>
     <row r="111" spans="1:4" ht="21">
       <c r="A111" s="5" t="s">
@@ -3169,7 +3398,7 @@
       </c>
       <c r="B111" s="5"/>
       <c r="C111" s="6" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D111" s="4" t="s">
         <v>3</v>
@@ -3181,7 +3410,7 @@
       </c>
       <c r="B112" s="5"/>
       <c r="C112" s="6" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="D112" s="4" t="s">
         <v>3</v>
@@ -3193,7 +3422,7 @@
       </c>
       <c r="B113" s="5"/>
       <c r="C113" s="6" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D113" s="4" t="s">
         <v>3</v>
@@ -3205,7 +3434,7 @@
       </c>
       <c r="B114" s="5"/>
       <c r="C114" s="6" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D114" s="4" t="s">
         <v>3</v>
@@ -3217,7 +3446,7 @@
       </c>
       <c r="B115" s="5"/>
       <c r="C115" s="6" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="D115" s="4" t="s">
         <v>3</v>
@@ -3229,7 +3458,7 @@
       </c>
       <c r="B116" s="5"/>
       <c r="C116" s="6" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="D116" s="4" t="s">
         <v>3</v>
@@ -3241,7 +3470,7 @@
       </c>
       <c r="B117" s="5"/>
       <c r="C117" s="6" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="D117" s="4" t="s">
         <v>3</v>
@@ -3253,7 +3482,7 @@
       </c>
       <c r="B118" s="5"/>
       <c r="C118" s="6" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="D118" s="4" t="s">
         <v>3</v>
@@ -3265,7 +3494,7 @@
       </c>
       <c r="B119" s="5"/>
       <c r="C119" s="6" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D119" s="4" t="s">
         <v>3</v>
@@ -3277,7 +3506,7 @@
       </c>
       <c r="B120" s="5"/>
       <c r="C120" s="6" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="D120" s="4" t="s">
         <v>3</v>
@@ -3289,7 +3518,7 @@
       </c>
       <c r="B121" s="5"/>
       <c r="C121" s="6" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="D121" s="4" t="s">
         <v>3</v>
@@ -3301,7 +3530,7 @@
       </c>
       <c r="B122" s="5"/>
       <c r="C122" s="6" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="D122" s="4" t="s">
         <v>3</v>
@@ -3313,7 +3542,7 @@
       </c>
       <c r="B123" s="5"/>
       <c r="C123" s="6" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D123" s="4" t="s">
         <v>3</v>
@@ -3325,7 +3554,7 @@
       </c>
       <c r="B124" s="5"/>
       <c r="C124" s="6" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="D124" s="4" t="s">
         <v>3</v>
@@ -3337,7 +3566,7 @@
       </c>
       <c r="B125" s="5"/>
       <c r="C125" s="6" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="D125" s="4" t="s">
         <v>3</v>
@@ -3349,7 +3578,7 @@
       </c>
       <c r="B126" s="5"/>
       <c r="C126" s="6" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="D126" s="4" t="s">
         <v>3</v>
@@ -3361,7 +3590,7 @@
       </c>
       <c r="B127" s="5"/>
       <c r="C127" s="6" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="D127" s="4" t="s">
         <v>3</v>
@@ -3373,7 +3602,7 @@
       </c>
       <c r="B128" s="5"/>
       <c r="C128" s="6" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D128" s="4" t="s">
         <v>3</v>
@@ -3385,7 +3614,7 @@
       </c>
       <c r="B129" s="5"/>
       <c r="C129" s="6" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="D129" s="4" t="s">
         <v>3</v>
@@ -3397,7 +3626,7 @@
       </c>
       <c r="B130" s="5"/>
       <c r="C130" s="6" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="D130" s="4" t="s">
         <v>3</v>
@@ -3409,7 +3638,7 @@
       </c>
       <c r="B131" s="5"/>
       <c r="C131" s="6" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="D131" s="4" t="s">
         <v>3</v>
@@ -3421,7 +3650,7 @@
       </c>
       <c r="B132" s="5"/>
       <c r="C132" s="6" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="D132" s="4" t="s">
         <v>3</v>
@@ -3433,7 +3662,7 @@
       </c>
       <c r="B133" s="5"/>
       <c r="C133" s="6" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="D133" s="4" t="s">
         <v>3</v>
@@ -3445,7 +3674,7 @@
       </c>
       <c r="B134" s="5"/>
       <c r="C134" s="6" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="D134" s="4" t="s">
         <v>3</v>
@@ -3457,7 +3686,7 @@
       </c>
       <c r="B135" s="5"/>
       <c r="C135" s="6" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D135" s="4" t="s">
         <v>3</v>
@@ -3469,7 +3698,7 @@
       </c>
       <c r="B136" s="5"/>
       <c r="C136" s="6" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="D136" s="4" t="s">
         <v>3</v>
@@ -3481,123 +3710,123 @@
       </c>
       <c r="B137" s="5"/>
       <c r="C137" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="21">
+      <c r="A138" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B138" s="5"/>
+      <c r="C138" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D138" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="21">
+      <c r="A139" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B139" s="5"/>
+      <c r="C139" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="21">
+      <c r="A140" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B140" s="5"/>
+      <c r="C140" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D140" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="21">
+      <c r="A141" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B141" s="5"/>
+      <c r="C141" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D141" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="21">
+      <c r="A142" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B142" s="5"/>
+      <c r="C142" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D142" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="21">
+      <c r="A143" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B143" s="5"/>
+      <c r="C143" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D143" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="21">
+      <c r="A144" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B144" s="5"/>
+      <c r="C144" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D144" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="21">
+      <c r="A145" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B145" s="5"/>
+      <c r="C145" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D145" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="21">
+      <c r="A146" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B146" s="5"/>
+      <c r="C146" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="D137" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" ht="21">
-      <c r="C139" s="7"/>
-      <c r="D139" s="4"/>
-    </row>
-    <row r="140" spans="1:4" ht="21">
-      <c r="A140" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B140" s="8"/>
-      <c r="C140" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="D140" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" ht="21">
-      <c r="A141" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B141" s="8"/>
-      <c r="C141" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="D141" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" ht="21">
-      <c r="A142" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B142" s="8"/>
-      <c r="C142" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="D142" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" ht="21">
-      <c r="A143" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B143" s="8"/>
-      <c r="C143" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="D143" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" ht="21">
-      <c r="A144" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B144" s="8"/>
-      <c r="C144" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="D144" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" ht="21">
-      <c r="A145" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B145" s="8"/>
-      <c r="C145" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="D145" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" ht="21">
-      <c r="A146" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B146" s="8"/>
-      <c r="C146" s="6" t="s">
-        <v>140</v>
-      </c>
       <c r="D146" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="21">
-      <c r="A147" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B147" s="8"/>
-      <c r="C147" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="D147" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
     <row r="148" spans="1:4" ht="21">
-      <c r="A148" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B148" s="8"/>
-      <c r="C148" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="D148" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="C148" s="7"/>
+      <c r="D148" s="4"/>
     </row>
     <row r="149" spans="1:4" ht="21">
       <c r="A149" s="8" t="s">
@@ -3605,7 +3834,7 @@
       </c>
       <c r="B149" s="8"/>
       <c r="C149" s="6" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="D149" s="4" t="s">
         <v>3</v>
@@ -3617,7 +3846,7 @@
       </c>
       <c r="B150" s="8"/>
       <c r="C150" s="6" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D150" s="4" t="s">
         <v>3</v>
@@ -3629,7 +3858,7 @@
       </c>
       <c r="B151" s="8"/>
       <c r="C151" s="6" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="D151" s="4" t="s">
         <v>3</v>
@@ -3641,7 +3870,7 @@
       </c>
       <c r="B152" s="8"/>
       <c r="C152" s="6" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="D152" s="4" t="s">
         <v>3</v>
@@ -3653,7 +3882,7 @@
       </c>
       <c r="B153" s="8"/>
       <c r="C153" s="6" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D153" s="4" t="s">
         <v>3</v>
@@ -3665,7 +3894,7 @@
       </c>
       <c r="B154" s="8"/>
       <c r="C154" s="6" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="D154" s="4" t="s">
         <v>3</v>
@@ -3677,7 +3906,7 @@
       </c>
       <c r="B155" s="8"/>
       <c r="C155" s="6" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D155" s="4" t="s">
         <v>3</v>
@@ -3689,7 +3918,7 @@
       </c>
       <c r="B156" s="8"/>
       <c r="C156" s="6" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="D156" s="4" t="s">
         <v>3</v>
@@ -3701,7 +3930,7 @@
       </c>
       <c r="B157" s="8"/>
       <c r="C157" s="6" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="D157" s="4" t="s">
         <v>3</v>
@@ -3713,7 +3942,7 @@
       </c>
       <c r="B158" s="8"/>
       <c r="C158" s="6" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="D158" s="4" t="s">
         <v>3</v>
@@ -3725,7 +3954,7 @@
       </c>
       <c r="B159" s="8"/>
       <c r="C159" s="6" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="D159" s="4" t="s">
         <v>3</v>
@@ -3737,7 +3966,7 @@
       </c>
       <c r="B160" s="8"/>
       <c r="C160" s="6" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="D160" s="4" t="s">
         <v>3</v>
@@ -3749,7 +3978,7 @@
       </c>
       <c r="B161" s="8"/>
       <c r="C161" s="6" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D161" s="4" t="s">
         <v>3</v>
@@ -3761,7 +3990,7 @@
       </c>
       <c r="B162" s="8"/>
       <c r="C162" s="6" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="D162" s="4" t="s">
         <v>3</v>
@@ -3773,7 +4002,7 @@
       </c>
       <c r="B163" s="8"/>
       <c r="C163" s="6" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="D163" s="4" t="s">
         <v>3</v>
@@ -3785,7 +4014,7 @@
       </c>
       <c r="B164" s="8"/>
       <c r="C164" s="6" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="D164" s="4" t="s">
         <v>3</v>
@@ -3796,8 +4025,8 @@
         <v>133</v>
       </c>
       <c r="B165" s="8"/>
-      <c r="C165" s="7" t="s">
-        <v>159</v>
+      <c r="C165" s="6" t="s">
+        <v>150</v>
       </c>
       <c r="D165" s="4" t="s">
         <v>3</v>
@@ -3808,8 +4037,8 @@
         <v>133</v>
       </c>
       <c r="B166" s="8"/>
-      <c r="C166" s="7" t="s">
-        <v>160</v>
+      <c r="C166" s="6" t="s">
+        <v>151</v>
       </c>
       <c r="D166" s="4" t="s">
         <v>3</v>
@@ -3821,7 +4050,7 @@
       </c>
       <c r="B167" s="8"/>
       <c r="C167" s="6" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="D167" s="4" t="s">
         <v>3</v>
@@ -3833,7 +4062,7 @@
       </c>
       <c r="B168" s="8"/>
       <c r="C168" s="6" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="D168" s="4" t="s">
         <v>3</v>
@@ -3845,7 +4074,7 @@
       </c>
       <c r="B169" s="8"/>
       <c r="C169" s="6" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="D169" s="4" t="s">
         <v>3</v>
@@ -3857,7 +4086,7 @@
       </c>
       <c r="B170" s="8"/>
       <c r="C170" s="6" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="D170" s="4" t="s">
         <v>3</v>
@@ -3869,7 +4098,7 @@
       </c>
       <c r="B171" s="8"/>
       <c r="C171" s="6" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="D171" s="4" t="s">
         <v>3</v>
@@ -3881,7 +4110,7 @@
       </c>
       <c r="B172" s="8"/>
       <c r="C172" s="6" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="D172" s="4" t="s">
         <v>3</v>
@@ -3893,7 +4122,7 @@
       </c>
       <c r="B173" s="8"/>
       <c r="C173" s="6" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="D173" s="4" t="s">
         <v>3</v>
@@ -3904,8 +4133,8 @@
         <v>133</v>
       </c>
       <c r="B174" s="8"/>
-      <c r="C174" s="6" t="s">
-        <v>168</v>
+      <c r="C174" s="7" t="s">
+        <v>159</v>
       </c>
       <c r="D174" s="4" t="s">
         <v>3</v>
@@ -3916,124 +4145,124 @@
         <v>133</v>
       </c>
       <c r="B175" s="8"/>
-      <c r="C175" s="6" t="s">
+      <c r="C175" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="D175" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" ht="21">
+      <c r="A176" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B176" s="8"/>
+      <c r="C176" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D176" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" ht="21">
+      <c r="A177" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B177" s="8"/>
+      <c r="C177" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D177" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" ht="21">
+      <c r="A178" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B178" s="8"/>
+      <c r="C178" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D178" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" ht="21">
+      <c r="A179" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B179" s="8"/>
+      <c r="C179" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D179" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" ht="21">
+      <c r="A180" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B180" s="8"/>
+      <c r="C180" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D180" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" ht="21">
+      <c r="A181" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B181" s="8"/>
+      <c r="C181" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="D181" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" ht="21">
+      <c r="A182" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B182" s="8"/>
+      <c r="C182" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D182" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" ht="21">
+      <c r="A183" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B183" s="8"/>
+      <c r="C183" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D183" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" ht="21">
+      <c r="A184" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B184" s="8"/>
+      <c r="C184" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="D175" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" ht="21">
-      <c r="C177" s="7"/>
-      <c r="D177" s="4"/>
-    </row>
-    <row r="178" spans="1:4" ht="21">
-      <c r="A178" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="B178" s="5"/>
-      <c r="C178" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="D178" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" ht="21">
-      <c r="A179" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="B179" s="5"/>
-      <c r="C179" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="D179" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" ht="21">
-      <c r="A180" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="B180" s="5"/>
-      <c r="C180" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="D180" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" ht="21">
-      <c r="A181" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="B181" s="5"/>
-      <c r="C181" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D181" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" ht="21">
-      <c r="A182" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="B182" s="5"/>
-      <c r="C182" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="D182" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" ht="21">
-      <c r="A183" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="B183" s="5"/>
-      <c r="C183" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="D183" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" ht="21">
-      <c r="A184" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="B184" s="5"/>
-      <c r="C184" s="6" t="s">
-        <v>177</v>
-      </c>
       <c r="D184" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="21">
-      <c r="A185" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="B185" s="5"/>
-      <c r="C185" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="D185" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
     <row r="186" spans="1:4" ht="21">
-      <c r="A186" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="B186" s="5"/>
-      <c r="C186" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="D186" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="C186" s="7"/>
+      <c r="D186" s="4"/>
     </row>
     <row r="187" spans="1:4" ht="21">
       <c r="A187" s="5" t="s">
@@ -4041,7 +4270,7 @@
       </c>
       <c r="B187" s="5"/>
       <c r="C187" s="6" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="D187" s="4" t="s">
         <v>3</v>
@@ -4053,7 +4282,7 @@
       </c>
       <c r="B188" s="5"/>
       <c r="C188" s="6" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="D188" s="4" t="s">
         <v>3</v>
@@ -4065,7 +4294,7 @@
       </c>
       <c r="B189" s="5"/>
       <c r="C189" s="6" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="D189" s="4" t="s">
         <v>3</v>
@@ -4077,7 +4306,7 @@
       </c>
       <c r="B190" s="5"/>
       <c r="C190" s="6" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="D190" s="4" t="s">
         <v>3</v>
@@ -4089,7 +4318,7 @@
       </c>
       <c r="B191" s="5"/>
       <c r="C191" s="6" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="D191" s="4" t="s">
         <v>3</v>
@@ -4101,7 +4330,7 @@
       </c>
       <c r="B192" s="5"/>
       <c r="C192" s="6" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="D192" s="4" t="s">
         <v>3</v>
@@ -4113,7 +4342,7 @@
       </c>
       <c r="B193" s="5"/>
       <c r="C193" s="6" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="D193" s="4" t="s">
         <v>3</v>
@@ -4125,7 +4354,7 @@
       </c>
       <c r="B194" s="5"/>
       <c r="C194" s="6" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="D194" s="4" t="s">
         <v>3</v>
@@ -4137,7 +4366,7 @@
       </c>
       <c r="B195" s="5"/>
       <c r="C195" s="6" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="D195" s="4" t="s">
         <v>3</v>
@@ -4149,7 +4378,7 @@
       </c>
       <c r="B196" s="5"/>
       <c r="C196" s="6" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="D196" s="4" t="s">
         <v>3</v>
@@ -4161,7 +4390,7 @@
       </c>
       <c r="B197" s="5"/>
       <c r="C197" s="6" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="D197" s="4" t="s">
         <v>3</v>
@@ -4173,7 +4402,7 @@
       </c>
       <c r="B198" s="5"/>
       <c r="C198" s="6" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="D198" s="4" t="s">
         <v>3</v>
@@ -4185,7 +4414,7 @@
       </c>
       <c r="B199" s="5"/>
       <c r="C199" s="6" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="D199" s="4" t="s">
         <v>3</v>
@@ -4197,7 +4426,7 @@
       </c>
       <c r="B200" s="5"/>
       <c r="C200" s="6" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="D200" s="4" t="s">
         <v>3</v>
@@ -4209,7 +4438,7 @@
       </c>
       <c r="B201" s="5"/>
       <c r="C201" s="6" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="D201" s="4" t="s">
         <v>3</v>
@@ -4221,7 +4450,7 @@
       </c>
       <c r="B202" s="5"/>
       <c r="C202" s="6" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="D202" s="4" t="s">
         <v>3</v>
@@ -4233,7 +4462,7 @@
       </c>
       <c r="B203" s="5"/>
       <c r="C203" s="6" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="D203" s="4" t="s">
         <v>3</v>
@@ -4245,7 +4474,7 @@
       </c>
       <c r="B204" s="5"/>
       <c r="C204" s="6" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="D204" s="4" t="s">
         <v>3</v>
@@ -4257,7 +4486,7 @@
       </c>
       <c r="B205" s="5"/>
       <c r="C205" s="6" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="D205" s="4" t="s">
         <v>3</v>
@@ -4269,7 +4498,7 @@
       </c>
       <c r="B206" s="5"/>
       <c r="C206" s="6" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="D206" s="4" t="s">
         <v>3</v>
@@ -4281,7 +4510,7 @@
       </c>
       <c r="B207" s="5"/>
       <c r="C207" s="6" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="D207" s="4" t="s">
         <v>3</v>
@@ -4293,7 +4522,7 @@
       </c>
       <c r="B208" s="5"/>
       <c r="C208" s="6" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="D208" s="4" t="s">
         <v>3</v>
@@ -4305,7 +4534,7 @@
       </c>
       <c r="B209" s="5"/>
       <c r="C209" s="6" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="D209" s="4" t="s">
         <v>3</v>
@@ -4317,7 +4546,7 @@
       </c>
       <c r="B210" s="5"/>
       <c r="C210" s="6" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="D210" s="4" t="s">
         <v>3</v>
@@ -4329,7 +4558,7 @@
       </c>
       <c r="B211" s="5"/>
       <c r="C211" s="6" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="D211" s="4" t="s">
         <v>3</v>
@@ -4341,31 +4570,43 @@
       </c>
       <c r="B212" s="5"/>
       <c r="C212" s="6" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="D212" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="213" spans="1:4" ht="21">
-      <c r="A213" s="8"/>
-      <c r="B213" s="8"/>
-      <c r="C213" s="7"/>
-      <c r="D213" s="4"/>
+      <c r="A213" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B213" s="5"/>
+      <c r="C213" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="D213" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="214" spans="1:4" ht="21">
-      <c r="A214" s="8"/>
-      <c r="B214" s="8"/>
-      <c r="C214" s="7"/>
-      <c r="D214" s="4"/>
+      <c r="A214" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B214" s="5"/>
+      <c r="C214" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="D214" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="215" spans="1:4" ht="21">
       <c r="A215" s="5" t="s">
-        <v>206</v>
+        <v>170</v>
       </c>
       <c r="B215" s="5"/>
       <c r="C215" s="6" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="D215" s="4" t="s">
         <v>3</v>
@@ -4373,11 +4614,11 @@
     </row>
     <row r="216" spans="1:4" ht="21">
       <c r="A216" s="5" t="s">
-        <v>206</v>
+        <v>170</v>
       </c>
       <c r="B216" s="5"/>
       <c r="C216" s="6" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="D216" s="4" t="s">
         <v>3</v>
@@ -4385,11 +4626,11 @@
     </row>
     <row r="217" spans="1:4" ht="21">
       <c r="A217" s="5" t="s">
-        <v>206</v>
+        <v>170</v>
       </c>
       <c r="B217" s="5"/>
       <c r="C217" s="6" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="D217" s="4" t="s">
         <v>3</v>
@@ -4397,11 +4638,11 @@
     </row>
     <row r="218" spans="1:4" ht="21">
       <c r="A218" s="5" t="s">
-        <v>206</v>
+        <v>170</v>
       </c>
       <c r="B218" s="5"/>
       <c r="C218" s="6" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D218" s="4" t="s">
         <v>3</v>
@@ -4409,11 +4650,11 @@
     </row>
     <row r="219" spans="1:4" ht="21">
       <c r="A219" s="5" t="s">
-        <v>206</v>
+        <v>170</v>
       </c>
       <c r="B219" s="5"/>
       <c r="C219" s="6" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="D219" s="4" t="s">
         <v>3</v>
@@ -4421,11 +4662,11 @@
     </row>
     <row r="220" spans="1:4" ht="21">
       <c r="A220" s="5" t="s">
-        <v>206</v>
+        <v>170</v>
       </c>
       <c r="B220" s="5"/>
       <c r="C220" s="6" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="D220" s="4" t="s">
         <v>3</v>
@@ -4433,39 +4674,27 @@
     </row>
     <row r="221" spans="1:4" ht="21">
       <c r="A221" s="5" t="s">
-        <v>206</v>
+        <v>170</v>
       </c>
       <c r="B221" s="5"/>
-      <c r="C221" s="9" t="s">
-        <v>213</v>
+      <c r="C221" s="6" t="s">
+        <v>205</v>
       </c>
       <c r="D221" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="222" spans="1:4" ht="21">
-      <c r="A222" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="B222" s="5"/>
-      <c r="C222" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="D222" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="A222" s="8"/>
+      <c r="B222" s="8"/>
+      <c r="C222" s="7"/>
+      <c r="D222" s="4"/>
     </row>
     <row r="223" spans="1:4" ht="21">
-      <c r="A223" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="B223" s="5"/>
-      <c r="C223" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="D223" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="A223" s="8"/>
+      <c r="B223" s="8"/>
+      <c r="C223" s="7"/>
+      <c r="D223" s="4"/>
     </row>
     <row r="224" spans="1:4" ht="21">
       <c r="A224" s="5" t="s">
@@ -4473,7 +4702,7 @@
       </c>
       <c r="B224" s="5"/>
       <c r="C224" s="6" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="D224" s="4" t="s">
         <v>3</v>
@@ -4485,7 +4714,7 @@
       </c>
       <c r="B225" s="5"/>
       <c r="C225" s="6" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="D225" s="4" t="s">
         <v>3</v>
@@ -4497,7 +4726,7 @@
       </c>
       <c r="B226" s="5"/>
       <c r="C226" s="6" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="D226" s="4" t="s">
         <v>3</v>
@@ -4509,7 +4738,7 @@
       </c>
       <c r="B227" s="5"/>
       <c r="C227" s="6" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="D227" s="4" t="s">
         <v>3</v>
@@ -4521,7 +4750,7 @@
       </c>
       <c r="B228" s="5"/>
       <c r="C228" s="6" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="D228" s="4" t="s">
         <v>3</v>
@@ -4533,7 +4762,7 @@
       </c>
       <c r="B229" s="5"/>
       <c r="C229" s="6" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="D229" s="4" t="s">
         <v>3</v>
@@ -4544,8 +4773,8 @@
         <v>206</v>
       </c>
       <c r="B230" s="5"/>
-      <c r="C230" s="6" t="s">
-        <v>222</v>
+      <c r="C230" s="9" t="s">
+        <v>213</v>
       </c>
       <c r="D230" s="4" t="s">
         <v>3</v>
@@ -4557,7 +4786,7 @@
       </c>
       <c r="B231" s="5"/>
       <c r="C231" s="6" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="D231" s="4" t="s">
         <v>3</v>
@@ -4569,7 +4798,7 @@
       </c>
       <c r="B232" s="5"/>
       <c r="C232" s="6" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="D232" s="4" t="s">
         <v>3</v>
@@ -4581,7 +4810,7 @@
       </c>
       <c r="B233" s="5"/>
       <c r="C233" s="6" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="D233" s="4" t="s">
         <v>3</v>
@@ -4593,7 +4822,7 @@
       </c>
       <c r="B234" s="5"/>
       <c r="C234" s="6" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="D234" s="4" t="s">
         <v>3</v>
@@ -4605,7 +4834,7 @@
       </c>
       <c r="B235" s="5"/>
       <c r="C235" s="6" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="D235" s="4" t="s">
         <v>3</v>
@@ -4617,27 +4846,43 @@
       </c>
       <c r="B236" s="5"/>
       <c r="C236" s="6" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="D236" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="237" spans="1:4" ht="21">
-      <c r="C237" s="7"/>
-      <c r="D237" s="4"/>
+      <c r="A237" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B237" s="5"/>
+      <c r="C237" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="D237" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="238" spans="1:4" ht="21">
-      <c r="C238" s="7"/>
-      <c r="D238" s="4"/>
+      <c r="A238" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B238" s="5"/>
+      <c r="C238" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="D238" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="239" spans="1:4" ht="21">
       <c r="A239" s="5" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
       <c r="B239" s="5"/>
       <c r="C239" s="6" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="D239" s="4" t="s">
         <v>3</v>
@@ -4645,11 +4890,11 @@
     </row>
     <row r="240" spans="1:4" ht="21">
       <c r="A240" s="5" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
       <c r="B240" s="5"/>
       <c r="C240" s="6" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="D240" s="4" t="s">
         <v>3</v>
@@ -4657,11 +4902,11 @@
     </row>
     <row r="241" spans="1:4" ht="21">
       <c r="A241" s="5" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
       <c r="B241" s="5"/>
       <c r="C241" s="6" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="D241" s="4" t="s">
         <v>3</v>
@@ -4669,11 +4914,11 @@
     </row>
     <row r="242" spans="1:4" ht="21">
       <c r="A242" s="5" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
       <c r="B242" s="5"/>
       <c r="C242" s="6" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D242" s="4" t="s">
         <v>3</v>
@@ -4681,11 +4926,11 @@
     </row>
     <row r="243" spans="1:4" ht="21">
       <c r="A243" s="5" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
       <c r="B243" s="5"/>
       <c r="C243" s="6" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="D243" s="4" t="s">
         <v>3</v>
@@ -4693,11 +4938,11 @@
     </row>
     <row r="244" spans="1:4" ht="21">
       <c r="A244" s="5" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
       <c r="B244" s="5"/>
       <c r="C244" s="6" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="D244" s="4" t="s">
         <v>3</v>
@@ -4705,39 +4950,23 @@
     </row>
     <row r="245" spans="1:4" ht="21">
       <c r="A245" s="5" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
       <c r="B245" s="5"/>
       <c r="C245" s="6" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="D245" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="246" spans="1:4" ht="21">
-      <c r="A246" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B246" s="5"/>
-      <c r="C246" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="D246" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="C246" s="7"/>
+      <c r="D246" s="4"/>
     </row>
     <row r="247" spans="1:4" ht="21">
-      <c r="A247" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B247" s="5"/>
-      <c r="C247" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="D247" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="C247" s="7"/>
+      <c r="D247" s="4"/>
     </row>
     <row r="248" spans="1:4" ht="21">
       <c r="A248" s="5" t="s">
@@ -4745,7 +4974,7 @@
       </c>
       <c r="B248" s="5"/>
       <c r="C248" s="6" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="D248" s="4" t="s">
         <v>3</v>
@@ -4757,7 +4986,7 @@
       </c>
       <c r="B249" s="5"/>
       <c r="C249" s="6" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="D249" s="4" t="s">
         <v>3</v>
@@ -4769,7 +4998,7 @@
       </c>
       <c r="B250" s="5"/>
       <c r="C250" s="6" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="D250" s="4" t="s">
         <v>3</v>
@@ -4781,7 +5010,7 @@
       </c>
       <c r="B251" s="5"/>
       <c r="C251" s="6" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="D251" s="4" t="s">
         <v>3</v>
@@ -4793,7 +5022,7 @@
       </c>
       <c r="B252" s="5"/>
       <c r="C252" s="6" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="D252" s="4" t="s">
         <v>3</v>
@@ -4805,7 +5034,7 @@
       </c>
       <c r="B253" s="5"/>
       <c r="C253" s="6" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="D253" s="4" t="s">
         <v>3</v>
@@ -4817,7 +5046,7 @@
       </c>
       <c r="B254" s="5"/>
       <c r="C254" s="6" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="D254" s="4" t="s">
         <v>3</v>
@@ -4829,7 +5058,7 @@
       </c>
       <c r="B255" s="5"/>
       <c r="C255" s="6" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="D255" s="4" t="s">
         <v>3</v>
@@ -4841,7 +5070,7 @@
       </c>
       <c r="B256" s="5"/>
       <c r="C256" s="6" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="D256" s="4" t="s">
         <v>3</v>
@@ -4853,7 +5082,7 @@
       </c>
       <c r="B257" s="5"/>
       <c r="C257" s="6" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="D257" s="4" t="s">
         <v>3</v>
@@ -4865,7 +5094,7 @@
       </c>
       <c r="B258" s="5"/>
       <c r="C258" s="6" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="D258" s="4" t="s">
         <v>3</v>
@@ -4877,7 +5106,7 @@
       </c>
       <c r="B259" s="5"/>
       <c r="C259" s="6" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="D259" s="4" t="s">
         <v>3</v>
@@ -4889,7 +5118,7 @@
       </c>
       <c r="B260" s="5"/>
       <c r="C260" s="6" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="D260" s="4" t="s">
         <v>3</v>
@@ -4901,7 +5130,7 @@
       </c>
       <c r="B261" s="5"/>
       <c r="C261" s="6" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="D261" s="4" t="s">
         <v>3</v>
@@ -4913,7 +5142,7 @@
       </c>
       <c r="B262" s="5"/>
       <c r="C262" s="6" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="D262" s="4" t="s">
         <v>3</v>
@@ -4925,7 +5154,7 @@
       </c>
       <c r="B263" s="5"/>
       <c r="C263" s="6" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="D263" s="4" t="s">
         <v>3</v>
@@ -4937,7 +5166,7 @@
       </c>
       <c r="B264" s="5"/>
       <c r="C264" s="6" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="D264" s="4" t="s">
         <v>3</v>
@@ -4949,7 +5178,7 @@
       </c>
       <c r="B265" s="5"/>
       <c r="C265" s="6" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="D265" s="4" t="s">
         <v>3</v>
@@ -4961,7 +5190,7 @@
       </c>
       <c r="B266" s="5"/>
       <c r="C266" s="6" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="D266" s="4" t="s">
         <v>3</v>
@@ -4973,7 +5202,7 @@
       </c>
       <c r="B267" s="5"/>
       <c r="C267" s="6" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="D267" s="4" t="s">
         <v>3</v>
@@ -4985,7 +5214,7 @@
       </c>
       <c r="B268" s="5"/>
       <c r="C268" s="6" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="D268" s="4" t="s">
         <v>3</v>
@@ -4997,7 +5226,7 @@
       </c>
       <c r="B269" s="5"/>
       <c r="C269" s="6" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="D269" s="4" t="s">
         <v>3</v>
@@ -5009,7 +5238,7 @@
       </c>
       <c r="B270" s="5"/>
       <c r="C270" s="6" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="D270" s="4" t="s">
         <v>3</v>
@@ -5021,7 +5250,7 @@
       </c>
       <c r="B271" s="5"/>
       <c r="C271" s="6" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="D271" s="4" t="s">
         <v>3</v>
@@ -5033,7 +5262,7 @@
       </c>
       <c r="B272" s="5"/>
       <c r="C272" s="6" t="s">
-        <v>86</v>
+        <v>254</v>
       </c>
       <c r="D272" s="4" t="s">
         <v>3</v>
@@ -5045,27 +5274,43 @@
       </c>
       <c r="B273" s="5"/>
       <c r="C273" s="6" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="D273" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="274" spans="1:4" ht="21">
-      <c r="C274" s="7"/>
-      <c r="D274" s="4"/>
+      <c r="A274" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B274" s="5"/>
+      <c r="C274" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="D274" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="275" spans="1:4" ht="21">
-      <c r="C275" s="7"/>
-      <c r="D275" s="4"/>
+      <c r="A275" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B275" s="5"/>
+      <c r="C275" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="D275" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="276" spans="1:4" ht="21">
       <c r="A276" s="5" t="s">
-        <v>264</v>
+        <v>229</v>
       </c>
       <c r="B276" s="5"/>
       <c r="C276" s="6" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="D276" s="4" t="s">
         <v>3</v>
@@ -5073,11 +5318,11 @@
     </row>
     <row r="277" spans="1:4" ht="21">
       <c r="A277" s="5" t="s">
-        <v>264</v>
+        <v>229</v>
       </c>
       <c r="B277" s="5"/>
       <c r="C277" s="6" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="D277" s="4" t="s">
         <v>3</v>
@@ -5085,11 +5330,11 @@
     </row>
     <row r="278" spans="1:4" ht="21">
       <c r="A278" s="5" t="s">
-        <v>264</v>
+        <v>229</v>
       </c>
       <c r="B278" s="5"/>
       <c r="C278" s="6" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="D278" s="4" t="s">
         <v>3</v>
@@ -5097,11 +5342,11 @@
     </row>
     <row r="279" spans="1:4" ht="21">
       <c r="A279" s="5" t="s">
-        <v>264</v>
+        <v>229</v>
       </c>
       <c r="B279" s="5"/>
       <c r="C279" s="6" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="D279" s="4" t="s">
         <v>3</v>
@@ -5109,11 +5354,11 @@
     </row>
     <row r="280" spans="1:4" ht="21">
       <c r="A280" s="5" t="s">
-        <v>264</v>
+        <v>229</v>
       </c>
       <c r="B280" s="5"/>
       <c r="C280" s="6" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="D280" s="4" t="s">
         <v>3</v>
@@ -5121,11 +5366,11 @@
     </row>
     <row r="281" spans="1:4" ht="21">
       <c r="A281" s="5" t="s">
-        <v>264</v>
+        <v>229</v>
       </c>
       <c r="B281" s="5"/>
       <c r="C281" s="6" t="s">
-        <v>270</v>
+        <v>86</v>
       </c>
       <c r="D281" s="4" t="s">
         <v>3</v>
@@ -5133,39 +5378,23 @@
     </row>
     <row r="282" spans="1:4" ht="21">
       <c r="A282" s="5" t="s">
-        <v>264</v>
+        <v>229</v>
       </c>
       <c r="B282" s="5"/>
       <c r="C282" s="6" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="D282" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="283" spans="1:4" ht="21">
-      <c r="A283" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="B283" s="5"/>
-      <c r="C283" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="D283" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="C283" s="7"/>
+      <c r="D283" s="4"/>
     </row>
     <row r="284" spans="1:4" ht="21">
-      <c r="A284" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="B284" s="5"/>
-      <c r="C284" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="D284" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="C284" s="7"/>
+      <c r="D284" s="4"/>
     </row>
     <row r="285" spans="1:4" ht="21">
       <c r="A285" s="5" t="s">
@@ -5173,7 +5402,7 @@
       </c>
       <c r="B285" s="5"/>
       <c r="C285" s="6" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="D285" s="4" t="s">
         <v>3</v>
@@ -5185,7 +5414,7 @@
       </c>
       <c r="B286" s="5"/>
       <c r="C286" s="6" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="D286" s="4" t="s">
         <v>3</v>
@@ -5197,7 +5426,7 @@
       </c>
       <c r="B287" s="5"/>
       <c r="C287" s="6" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="D287" s="4" t="s">
         <v>3</v>
@@ -5209,7 +5438,7 @@
       </c>
       <c r="B288" s="5"/>
       <c r="C288" s="6" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="D288" s="4" t="s">
         <v>3</v>
@@ -5221,7 +5450,7 @@
       </c>
       <c r="B289" s="5"/>
       <c r="C289" s="6" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="D289" s="4" t="s">
         <v>3</v>
@@ -5233,7 +5462,7 @@
       </c>
       <c r="B290" s="5"/>
       <c r="C290" s="6" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="D290" s="4" t="s">
         <v>3</v>
@@ -5245,7 +5474,7 @@
       </c>
       <c r="B291" s="5"/>
       <c r="C291" s="6" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D291" s="4" t="s">
         <v>3</v>
@@ -5257,7 +5486,7 @@
       </c>
       <c r="B292" s="5"/>
       <c r="C292" s="6" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="D292" s="4" t="s">
         <v>3</v>
@@ -5269,7 +5498,7 @@
       </c>
       <c r="B293" s="5"/>
       <c r="C293" s="6" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="D293" s="4" t="s">
         <v>3</v>
@@ -5281,27 +5510,43 @@
       </c>
       <c r="B294" s="5"/>
       <c r="C294" s="6" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="D294" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="295" spans="1:4" ht="21">
-      <c r="C295" s="7"/>
-      <c r="D295" s="4"/>
+      <c r="A295" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B295" s="5"/>
+      <c r="C295" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="D295" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="296" spans="1:4" ht="21">
-      <c r="C296" s="7"/>
-      <c r="D296" s="4"/>
+      <c r="A296" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B296" s="5"/>
+      <c r="C296" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="D296" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="297" spans="1:4" ht="21">
       <c r="A297" s="5" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="B297" s="5"/>
       <c r="C297" s="6" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="D297" s="4" t="s">
         <v>3</v>
@@ -5309,11 +5554,11 @@
     </row>
     <row r="298" spans="1:4" ht="21">
       <c r="A298" s="5" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="B298" s="5"/>
       <c r="C298" s="6" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="D298" s="4" t="s">
         <v>3</v>
@@ -5321,11 +5566,11 @@
     </row>
     <row r="299" spans="1:4" ht="21">
       <c r="A299" s="5" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="B299" s="5"/>
       <c r="C299" s="6" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="D299" s="4" t="s">
         <v>3</v>
@@ -5333,11 +5578,11 @@
     </row>
     <row r="300" spans="1:4" ht="21">
       <c r="A300" s="5" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="B300" s="5"/>
       <c r="C300" s="6" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="D300" s="4" t="s">
         <v>3</v>
@@ -5345,11 +5590,11 @@
     </row>
     <row r="301" spans="1:4" ht="21">
       <c r="A301" s="5" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="B301" s="5"/>
       <c r="C301" s="6" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="D301" s="4" t="s">
         <v>3</v>
@@ -5357,11 +5602,11 @@
     </row>
     <row r="302" spans="1:4" ht="21">
       <c r="A302" s="5" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="B302" s="5"/>
       <c r="C302" s="6" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="D302" s="4" t="s">
         <v>3</v>
@@ -5369,39 +5614,23 @@
     </row>
     <row r="303" spans="1:4" ht="21">
       <c r="A303" s="5" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="B303" s="5"/>
       <c r="C303" s="6" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="D303" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="304" spans="1:4" ht="21">
-      <c r="A304" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="B304" s="5"/>
-      <c r="C304" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="D304" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="C304" s="7"/>
+      <c r="D304" s="4"/>
     </row>
     <row r="305" spans="1:4" ht="21">
-      <c r="A305" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="B305" s="5"/>
-      <c r="C305" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="D305" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="C305" s="7"/>
+      <c r="D305" s="4"/>
     </row>
     <row r="306" spans="1:4" ht="21">
       <c r="A306" s="5" t="s">
@@ -5409,7 +5638,7 @@
       </c>
       <c r="B306" s="5"/>
       <c r="C306" s="6" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="D306" s="4" t="s">
         <v>3</v>
@@ -5421,7 +5650,7 @@
       </c>
       <c r="B307" s="5"/>
       <c r="C307" s="6" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="D307" s="4" t="s">
         <v>3</v>
@@ -5433,7 +5662,7 @@
       </c>
       <c r="B308" s="5"/>
       <c r="C308" s="6" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="D308" s="4" t="s">
         <v>3</v>
@@ -5445,7 +5674,7 @@
       </c>
       <c r="B309" s="5"/>
       <c r="C309" s="6" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="D309" s="4" t="s">
         <v>3</v>
@@ -5456,8 +5685,8 @@
         <v>284</v>
       </c>
       <c r="B310" s="5"/>
-      <c r="C310" s="9" t="s">
-        <v>298</v>
+      <c r="C310" s="6" t="s">
+        <v>289</v>
       </c>
       <c r="D310" s="4" t="s">
         <v>3</v>
@@ -5469,7 +5698,7 @@
       </c>
       <c r="B311" s="5"/>
       <c r="C311" s="6" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="D311" s="4" t="s">
         <v>3</v>
@@ -5481,7 +5710,7 @@
       </c>
       <c r="B312" s="5"/>
       <c r="C312" s="6" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="D312" s="4" t="s">
         <v>3</v>
@@ -5493,7 +5722,7 @@
       </c>
       <c r="B313" s="5"/>
       <c r="C313" s="6" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="D313" s="4" t="s">
         <v>3</v>
@@ -5505,7 +5734,7 @@
       </c>
       <c r="B314" s="5"/>
       <c r="C314" s="6" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="D314" s="4" t="s">
         <v>3</v>
@@ -5517,7 +5746,7 @@
       </c>
       <c r="B315" s="5"/>
       <c r="C315" s="6" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="D315" s="4" t="s">
         <v>3</v>
@@ -5529,7 +5758,7 @@
       </c>
       <c r="B316" s="5"/>
       <c r="C316" s="6" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="D316" s="4" t="s">
         <v>3</v>
@@ -5541,7 +5770,7 @@
       </c>
       <c r="B317" s="5"/>
       <c r="C317" s="6" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="D317" s="4" t="s">
         <v>3</v>
@@ -5553,7 +5782,7 @@
       </c>
       <c r="B318" s="5"/>
       <c r="C318" s="6" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="D318" s="4" t="s">
         <v>3</v>
@@ -5564,8 +5793,8 @@
         <v>284</v>
       </c>
       <c r="B319" s="5"/>
-      <c r="C319" s="6" t="s">
-        <v>307</v>
+      <c r="C319" s="9" t="s">
+        <v>298</v>
       </c>
       <c r="D319" s="4" t="s">
         <v>3</v>
@@ -5577,7 +5806,7 @@
       </c>
       <c r="B320" s="5"/>
       <c r="C320" s="6" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="D320" s="4" t="s">
         <v>3</v>
@@ -5589,7 +5818,7 @@
       </c>
       <c r="B321" s="5"/>
       <c r="C321" s="6" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="D321" s="4" t="s">
         <v>3</v>
@@ -5601,7 +5830,7 @@
       </c>
       <c r="B322" s="5"/>
       <c r="C322" s="6" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="D322" s="4" t="s">
         <v>3</v>
@@ -5613,7 +5842,7 @@
       </c>
       <c r="B323" s="5"/>
       <c r="C323" s="6" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="D323" s="4" t="s">
         <v>3</v>
@@ -5625,7 +5854,7 @@
       </c>
       <c r="B324" s="5"/>
       <c r="C324" s="6" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="D324" s="4" t="s">
         <v>3</v>
@@ -5637,7 +5866,7 @@
       </c>
       <c r="B325" s="5"/>
       <c r="C325" s="6" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="D325" s="4" t="s">
         <v>3</v>
@@ -5649,7 +5878,7 @@
       </c>
       <c r="B326" s="5"/>
       <c r="C326" s="6" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="D326" s="4" t="s">
         <v>3</v>
@@ -5661,7 +5890,7 @@
       </c>
       <c r="B327" s="5"/>
       <c r="C327" s="6" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="D327" s="4" t="s">
         <v>3</v>
@@ -5673,7 +5902,7 @@
       </c>
       <c r="B328" s="5"/>
       <c r="C328" s="6" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="D328" s="4" t="s">
         <v>3</v>
@@ -5685,7 +5914,7 @@
       </c>
       <c r="B329" s="5"/>
       <c r="C329" s="6" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="D329" s="4" t="s">
         <v>3</v>
@@ -5697,7 +5926,7 @@
       </c>
       <c r="B330" s="5"/>
       <c r="C330" s="6" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="D330" s="4" t="s">
         <v>3</v>
@@ -5709,7 +5938,7 @@
       </c>
       <c r="B331" s="5"/>
       <c r="C331" s="6" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="D331" s="4" t="s">
         <v>3</v>
@@ -5721,7 +5950,7 @@
       </c>
       <c r="B332" s="5"/>
       <c r="C332" s="6" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="D332" s="4" t="s">
         <v>3</v>
@@ -5733,7 +5962,7 @@
       </c>
       <c r="B333" s="5"/>
       <c r="C333" s="6" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="D333" s="4" t="s">
         <v>3</v>
@@ -5745,127 +5974,127 @@
       </c>
       <c r="B334" s="5"/>
       <c r="C334" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="D334" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" ht="21">
+      <c r="A335" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B335" s="5"/>
+      <c r="C335" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="D335" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" ht="21">
+      <c r="A336" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B336" s="5"/>
+      <c r="C336" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="D336" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" ht="21">
+      <c r="A337" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B337" s="5"/>
+      <c r="C337" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="D337" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" ht="21">
+      <c r="A338" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B338" s="5"/>
+      <c r="C338" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="D338" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" ht="21">
+      <c r="A339" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B339" s="5"/>
+      <c r="C339" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="D339" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" ht="21">
+      <c r="A340" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B340" s="5"/>
+      <c r="C340" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="D340" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" ht="21">
+      <c r="A341" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B341" s="5"/>
+      <c r="C341" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="D341" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" ht="21">
+      <c r="A342" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B342" s="5"/>
+      <c r="C342" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="D342" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" ht="21">
+      <c r="A343" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B343" s="5"/>
+      <c r="C343" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="D334" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="335" spans="1:4" ht="21">
-      <c r="C335" s="7"/>
-      <c r="D335" s="4"/>
-    </row>
-    <row r="336" spans="1:4" ht="21">
-      <c r="C336" s="7"/>
-      <c r="D336" s="4"/>
-    </row>
-    <row r="337" spans="1:4" ht="21">
-      <c r="A337" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="B337" s="8"/>
-      <c r="C337" s="6" t="s">
-        <v>324</v>
-      </c>
-      <c r="D337" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="338" spans="1:4" ht="21">
-      <c r="A338" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="B338" s="8"/>
-      <c r="C338" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="D338" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="339" spans="1:4" ht="21">
-      <c r="A339" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="B339" s="8"/>
-      <c r="C339" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="D339" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="340" spans="1:4" ht="21">
-      <c r="A340" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="B340" s="8"/>
-      <c r="C340" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="D340" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="341" spans="1:4" ht="21">
-      <c r="A341" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="B341" s="8"/>
-      <c r="C341" s="6" t="s">
-        <v>328</v>
-      </c>
-      <c r="D341" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="342" spans="1:4" ht="21">
-      <c r="A342" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="B342" s="8"/>
-      <c r="C342" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="D342" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="343" spans="1:4" ht="21">
-      <c r="A343" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="B343" s="8"/>
-      <c r="C343" s="6" t="s">
-        <v>330</v>
-      </c>
       <c r="D343" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="344" spans="1:4" ht="21">
-      <c r="A344" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="B344" s="8"/>
-      <c r="C344" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="D344" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="C344" s="7"/>
+      <c r="D344" s="4"/>
     </row>
     <row r="345" spans="1:4" ht="21">
-      <c r="A345" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="B345" s="8"/>
-      <c r="C345" s="9" t="s">
-        <v>332</v>
-      </c>
-      <c r="D345" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="C345" s="7"/>
+      <c r="D345" s="4"/>
     </row>
     <row r="346" spans="1:4" ht="21">
       <c r="A346" s="8" t="s">
@@ -5873,7 +6102,7 @@
       </c>
       <c r="B346" s="8"/>
       <c r="C346" s="6" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="D346" s="4" t="s">
         <v>3</v>
@@ -5885,7 +6114,7 @@
       </c>
       <c r="B347" s="8"/>
       <c r="C347" s="6" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="D347" s="4" t="s">
         <v>3</v>
@@ -5897,7 +6126,7 @@
       </c>
       <c r="B348" s="8"/>
       <c r="C348" s="6" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="D348" s="4" t="s">
         <v>3</v>
@@ -5909,7 +6138,7 @@
       </c>
       <c r="B349" s="8"/>
       <c r="C349" s="6" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="D349" s="4" t="s">
         <v>3</v>
@@ -5921,7 +6150,7 @@
       </c>
       <c r="B350" s="8"/>
       <c r="C350" s="6" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="D350" s="4" t="s">
         <v>3</v>
@@ -5933,7 +6162,7 @@
       </c>
       <c r="B351" s="8"/>
       <c r="C351" s="6" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="D351" s="4" t="s">
         <v>3</v>
@@ -5945,7 +6174,7 @@
       </c>
       <c r="B352" s="8"/>
       <c r="C352" s="6" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="D352" s="4" t="s">
         <v>3</v>
@@ -5957,7 +6186,7 @@
       </c>
       <c r="B353" s="8"/>
       <c r="C353" s="6" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="D353" s="4" t="s">
         <v>3</v>
@@ -5968,28 +6197,44 @@
         <v>323</v>
       </c>
       <c r="B354" s="8"/>
-      <c r="C354" s="6" t="s">
-        <v>341</v>
+      <c r="C354" s="9" t="s">
+        <v>332</v>
       </c>
       <c r="D354" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="355" spans="1:4" ht="21">
-      <c r="C355" s="7"/>
-      <c r="D355" s="4"/>
+      <c r="A355" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="B355" s="8"/>
+      <c r="C355" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="D355" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="356" spans="1:4" ht="21">
-      <c r="C356" s="7"/>
-      <c r="D356" s="4"/>
+      <c r="A356" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="B356" s="8"/>
+      <c r="C356" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="D356" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="357" spans="1:4" ht="21">
       <c r="A357" s="8" t="s">
-        <v>342</v>
+        <v>323</v>
       </c>
       <c r="B357" s="8"/>
       <c r="C357" s="6" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="D357" s="4" t="s">
         <v>3</v>
@@ -5997,11 +6242,11 @@
     </row>
     <row r="358" spans="1:4" ht="21">
       <c r="A358" s="8" t="s">
-        <v>342</v>
+        <v>323</v>
       </c>
       <c r="B358" s="8"/>
       <c r="C358" s="6" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="D358" s="4" t="s">
         <v>3</v>
@@ -6009,11 +6254,11 @@
     </row>
     <row r="359" spans="1:4" ht="21">
       <c r="A359" s="8" t="s">
-        <v>342</v>
+        <v>323</v>
       </c>
       <c r="B359" s="8"/>
       <c r="C359" s="6" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="D359" s="4" t="s">
         <v>3</v>
@@ -6021,11 +6266,11 @@
     </row>
     <row r="360" spans="1:4" ht="21">
       <c r="A360" s="8" t="s">
-        <v>342</v>
+        <v>323</v>
       </c>
       <c r="B360" s="8"/>
       <c r="C360" s="6" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="D360" s="4" t="s">
         <v>3</v>
@@ -6033,11 +6278,11 @@
     </row>
     <row r="361" spans="1:4" ht="21">
       <c r="A361" s="8" t="s">
-        <v>342</v>
+        <v>323</v>
       </c>
       <c r="B361" s="8"/>
       <c r="C361" s="6" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="D361" s="4" t="s">
         <v>3</v>
@@ -6045,11 +6290,11 @@
     </row>
     <row r="362" spans="1:4" ht="21">
       <c r="A362" s="8" t="s">
-        <v>342</v>
+        <v>323</v>
       </c>
       <c r="B362" s="8"/>
       <c r="C362" s="6" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="D362" s="4" t="s">
         <v>3</v>
@@ -6057,39 +6302,23 @@
     </row>
     <row r="363" spans="1:4" ht="21">
       <c r="A363" s="8" t="s">
-        <v>342</v>
+        <v>323</v>
       </c>
       <c r="B363" s="8"/>
       <c r="C363" s="6" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="D363" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="364" spans="1:4" ht="21">
-      <c r="A364" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="B364" s="8"/>
-      <c r="C364" s="6" t="s">
-        <v>350</v>
-      </c>
-      <c r="D364" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="C364" s="7"/>
+      <c r="D364" s="4"/>
     </row>
     <row r="365" spans="1:4" ht="21">
-      <c r="A365" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="B365" s="8"/>
-      <c r="C365" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="D365" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="C365" s="7"/>
+      <c r="D365" s="4"/>
     </row>
     <row r="366" spans="1:4" ht="21">
       <c r="A366" s="8" t="s">
@@ -6097,7 +6326,7 @@
       </c>
       <c r="B366" s="8"/>
       <c r="C366" s="6" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="D366" s="4" t="s">
         <v>3</v>
@@ -6109,7 +6338,7 @@
       </c>
       <c r="B367" s="8"/>
       <c r="C367" s="6" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="D367" s="4" t="s">
         <v>3</v>
@@ -6121,7 +6350,7 @@
       </c>
       <c r="B368" s="8"/>
       <c r="C368" s="6" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="D368" s="4" t="s">
         <v>3</v>
@@ -6133,7 +6362,7 @@
       </c>
       <c r="B369" s="8"/>
       <c r="C369" s="6" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="D369" s="4" t="s">
         <v>3</v>
@@ -6145,7 +6374,7 @@
       </c>
       <c r="B370" s="8"/>
       <c r="C370" s="6" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="D370" s="4" t="s">
         <v>3</v>
@@ -6157,7 +6386,7 @@
       </c>
       <c r="B371" s="8"/>
       <c r="C371" s="6" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="D371" s="4" t="s">
         <v>3</v>
@@ -6169,7 +6398,7 @@
       </c>
       <c r="B372" s="8"/>
       <c r="C372" s="6" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="D372" s="4" t="s">
         <v>3</v>
@@ -6181,7 +6410,7 @@
       </c>
       <c r="B373" s="8"/>
       <c r="C373" s="6" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="D373" s="4" t="s">
         <v>3</v>
@@ -6193,7 +6422,7 @@
       </c>
       <c r="B374" s="8"/>
       <c r="C374" s="6" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="D374" s="4" t="s">
         <v>3</v>
@@ -6205,7 +6434,7 @@
       </c>
       <c r="B375" s="8"/>
       <c r="C375" s="6" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="D375" s="4" t="s">
         <v>3</v>
@@ -6217,7 +6446,7 @@
       </c>
       <c r="B376" s="8"/>
       <c r="C376" s="6" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="D376" s="4" t="s">
         <v>3</v>
@@ -6229,7 +6458,7 @@
       </c>
       <c r="B377" s="8"/>
       <c r="C377" s="6" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="D377" s="4" t="s">
         <v>3</v>
@@ -6241,7 +6470,7 @@
       </c>
       <c r="B378" s="8"/>
       <c r="C378" s="6" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="D378" s="4" t="s">
         <v>3</v>
@@ -6253,7 +6482,7 @@
       </c>
       <c r="B379" s="8"/>
       <c r="C379" s="6" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="D379" s="4" t="s">
         <v>3</v>
@@ -6265,7 +6494,7 @@
       </c>
       <c r="B380" s="8"/>
       <c r="C380" s="6" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="D380" s="4" t="s">
         <v>3</v>
@@ -6277,7 +6506,7 @@
       </c>
       <c r="B381" s="8"/>
       <c r="C381" s="6" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="D381" s="4" t="s">
         <v>3</v>
@@ -6289,7 +6518,7 @@
       </c>
       <c r="B382" s="8"/>
       <c r="C382" s="6" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="D382" s="4" t="s">
         <v>3</v>
@@ -6301,7 +6530,7 @@
       </c>
       <c r="B383" s="8"/>
       <c r="C383" s="6" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="D383" s="4" t="s">
         <v>3</v>
@@ -6313,7 +6542,7 @@
       </c>
       <c r="B384" s="8"/>
       <c r="C384" s="6" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="D384" s="4" t="s">
         <v>3</v>
@@ -6325,7 +6554,7 @@
       </c>
       <c r="B385" s="8"/>
       <c r="C385" s="6" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="D385" s="4" t="s">
         <v>3</v>
@@ -6337,7 +6566,7 @@
       </c>
       <c r="B386" s="8"/>
       <c r="C386" s="6" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="D386" s="4" t="s">
         <v>3</v>
@@ -6349,7 +6578,7 @@
       </c>
       <c r="B387" s="8"/>
       <c r="C387" s="6" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="D387" s="4" t="s">
         <v>3</v>
@@ -6361,7 +6590,7 @@
       </c>
       <c r="B388" s="8"/>
       <c r="C388" s="6" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="D388" s="4" t="s">
         <v>3</v>
@@ -6373,7 +6602,7 @@
       </c>
       <c r="B389" s="8"/>
       <c r="C389" s="6" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="D389" s="4" t="s">
         <v>3</v>
@@ -6385,7 +6614,7 @@
       </c>
       <c r="B390" s="8"/>
       <c r="C390" s="6" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="D390" s="4" t="s">
         <v>3</v>
@@ -6397,7 +6626,7 @@
       </c>
       <c r="B391" s="8"/>
       <c r="C391" s="6" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="D391" s="4" t="s">
         <v>3</v>
@@ -6409,7 +6638,7 @@
       </c>
       <c r="B392" s="8"/>
       <c r="C392" s="6" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="D392" s="4" t="s">
         <v>3</v>
@@ -6421,7 +6650,7 @@
       </c>
       <c r="B393" s="8"/>
       <c r="C393" s="6" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="D393" s="4" t="s">
         <v>3</v>
@@ -6433,7 +6662,7 @@
       </c>
       <c r="B394" s="8"/>
       <c r="C394" s="6" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="D394" s="4" t="s">
         <v>3</v>
@@ -6445,7 +6674,7 @@
       </c>
       <c r="B395" s="8"/>
       <c r="C395" s="6" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="D395" s="4" t="s">
         <v>3</v>
@@ -6457,7 +6686,7 @@
       </c>
       <c r="B396" s="8"/>
       <c r="C396" s="6" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="D396" s="4" t="s">
         <v>3</v>
@@ -6469,7 +6698,7 @@
       </c>
       <c r="B397" s="8"/>
       <c r="C397" s="6" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="D397" s="4" t="s">
         <v>3</v>
@@ -6481,7 +6710,7 @@
       </c>
       <c r="B398" s="8"/>
       <c r="C398" s="6" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="D398" s="4" t="s">
         <v>3</v>
@@ -6493,7 +6722,7 @@
       </c>
       <c r="B399" s="8"/>
       <c r="C399" s="6" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="D399" s="4" t="s">
         <v>3</v>
@@ -6505,27 +6734,43 @@
       </c>
       <c r="B400" s="8"/>
       <c r="C400" s="6" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="D400" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="401" spans="1:4" ht="21">
-      <c r="C401" s="7"/>
-      <c r="D401" s="4"/>
+      <c r="A401" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="B401" s="8"/>
+      <c r="C401" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="D401" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="402" spans="1:4" ht="21">
-      <c r="C402" s="7"/>
-      <c r="D402" s="4"/>
+      <c r="A402" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="B402" s="8"/>
+      <c r="C402" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="D402" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="403" spans="1:4" ht="21">
       <c r="A403" s="8" t="s">
-        <v>386</v>
+        <v>342</v>
       </c>
       <c r="B403" s="8"/>
       <c r="C403" s="6" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D403" s="4" t="s">
         <v>3</v>
@@ -6533,11 +6778,11 @@
     </row>
     <row r="404" spans="1:4" ht="21">
       <c r="A404" s="8" t="s">
-        <v>386</v>
+        <v>342</v>
       </c>
       <c r="B404" s="8"/>
       <c r="C404" s="6" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="D404" s="4" t="s">
         <v>3</v>
@@ -6545,11 +6790,11 @@
     </row>
     <row r="405" spans="1:4" ht="21">
       <c r="A405" s="8" t="s">
-        <v>386</v>
+        <v>342</v>
       </c>
       <c r="B405" s="8"/>
       <c r="C405" s="6" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="D405" s="4" t="s">
         <v>3</v>
@@ -6557,11 +6802,11 @@
     </row>
     <row r="406" spans="1:4" ht="21">
       <c r="A406" s="8" t="s">
-        <v>386</v>
+        <v>342</v>
       </c>
       <c r="B406" s="8"/>
       <c r="C406" s="6" t="s">
-        <v>88</v>
+        <v>382</v>
       </c>
       <c r="D406" s="4" t="s">
         <v>3</v>
@@ -6569,11 +6814,11 @@
     </row>
     <row r="407" spans="1:4" ht="21">
       <c r="A407" s="8" t="s">
-        <v>386</v>
+        <v>342</v>
       </c>
       <c r="B407" s="8"/>
       <c r="C407" s="6" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="D407" s="4" t="s">
         <v>3</v>
@@ -6581,131 +6826,115 @@
     </row>
     <row r="408" spans="1:4" ht="21">
       <c r="A408" s="8" t="s">
-        <v>386</v>
+        <v>342</v>
       </c>
       <c r="B408" s="8"/>
       <c r="C408" s="6" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="D408" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="409" spans="1:4" ht="21">
-      <c r="C409" s="7"/>
-      <c r="D409" s="4"/>
+      <c r="A409" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="B409" s="8"/>
+      <c r="C409" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="D409" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="410" spans="1:4" ht="21">
       <c r="C410" s="7"/>
       <c r="D410" s="4"/>
     </row>
     <row r="411" spans="1:4" ht="21">
-      <c r="A411" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="B411" s="5"/>
-      <c r="C411" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="D411" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="C411" s="7"/>
+      <c r="D411" s="4"/>
     </row>
     <row r="412" spans="1:4" ht="21">
-      <c r="A412" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="B412" s="5"/>
+      <c r="A412" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="B412" s="8"/>
       <c r="C412" s="6" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="D412" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="413" spans="1:4" ht="21">
-      <c r="A413" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="B413" s="5"/>
+      <c r="A413" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="B413" s="8"/>
       <c r="C413" s="6" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="D413" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="414" spans="1:4" ht="21">
-      <c r="A414" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="B414" s="5"/>
+      <c r="A414" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="B414" s="8"/>
       <c r="C414" s="6" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="D414" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="415" spans="1:4" ht="21">
-      <c r="A415" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="B415" s="5"/>
+      <c r="A415" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="B415" s="8"/>
       <c r="C415" s="6" t="s">
-        <v>397</v>
+        <v>88</v>
       </c>
       <c r="D415" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="416" spans="1:4" ht="21">
-      <c r="A416" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="B416" s="5"/>
+      <c r="A416" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="B416" s="8"/>
       <c r="C416" s="6" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="D416" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="417" spans="1:4" ht="21">
-      <c r="A417" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="B417" s="5"/>
+      <c r="A417" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="B417" s="8"/>
       <c r="C417" s="6" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="D417" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="418" spans="1:4" ht="21">
-      <c r="A418" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="B418" s="5"/>
-      <c r="C418" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="D418" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="C418" s="7"/>
+      <c r="D418" s="4"/>
     </row>
     <row r="419" spans="1:4" ht="21">
-      <c r="A419" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="B419" s="5"/>
-      <c r="C419" s="6" t="s">
-        <v>400</v>
-      </c>
-      <c r="D419" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="C419" s="7"/>
+      <c r="D419" s="4"/>
     </row>
     <row r="420" spans="1:4" ht="21">
       <c r="A420" s="5" t="s">
@@ -6713,7 +6942,7 @@
       </c>
       <c r="B420" s="5"/>
       <c r="C420" s="6" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="D420" s="4" t="s">
         <v>3</v>
@@ -6725,7 +6954,7 @@
       </c>
       <c r="B421" s="5"/>
       <c r="C421" s="6" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="D421" s="4" t="s">
         <v>3</v>
@@ -6737,7 +6966,7 @@
       </c>
       <c r="B422" s="5"/>
       <c r="C422" s="6" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="D422" s="4" t="s">
         <v>3</v>
@@ -6749,7 +6978,7 @@
       </c>
       <c r="B423" s="5"/>
       <c r="C423" s="6" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="D423" s="4" t="s">
         <v>3</v>
@@ -6761,7 +6990,7 @@
       </c>
       <c r="B424" s="5"/>
       <c r="C424" s="6" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="D424" s="4" t="s">
         <v>3</v>
@@ -6773,7 +7002,7 @@
       </c>
       <c r="B425" s="5"/>
       <c r="C425" s="6" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="D425" s="4" t="s">
         <v>3</v>
@@ -6785,7 +7014,7 @@
       </c>
       <c r="B426" s="5"/>
       <c r="C426" s="6" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="D426" s="4" t="s">
         <v>3</v>
@@ -6797,7 +7026,7 @@
       </c>
       <c r="B427" s="5"/>
       <c r="C427" s="6" t="s">
-        <v>408</v>
+        <v>272</v>
       </c>
       <c r="D427" s="4" t="s">
         <v>3</v>
@@ -6809,7 +7038,7 @@
       </c>
       <c r="B428" s="5"/>
       <c r="C428" s="6" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="D428" s="4" t="s">
         <v>3</v>
@@ -6821,7 +7050,7 @@
       </c>
       <c r="B429" s="5"/>
       <c r="C429" s="6" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="D429" s="4" t="s">
         <v>3</v>
@@ -6833,7 +7062,7 @@
       </c>
       <c r="B430" s="5"/>
       <c r="C430" s="6" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="D430" s="4" t="s">
         <v>3</v>
@@ -6845,7 +7074,7 @@
       </c>
       <c r="B431" s="5"/>
       <c r="C431" s="6" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="D431" s="4" t="s">
         <v>3</v>
@@ -6857,7 +7086,7 @@
       </c>
       <c r="B432" s="5"/>
       <c r="C432" s="6" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="D432" s="4" t="s">
         <v>3</v>
@@ -6869,7 +7098,7 @@
       </c>
       <c r="B433" s="5"/>
       <c r="C433" s="6" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="D433" s="4" t="s">
         <v>3</v>
@@ -6881,7 +7110,7 @@
       </c>
       <c r="B434" s="5"/>
       <c r="C434" s="6" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="D434" s="4" t="s">
         <v>3</v>
@@ -6893,7 +7122,7 @@
       </c>
       <c r="B435" s="5"/>
       <c r="C435" s="6" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="D435" s="4" t="s">
         <v>3</v>
@@ -6905,7 +7134,7 @@
       </c>
       <c r="B436" s="5"/>
       <c r="C436" s="6" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="D436" s="4" t="s">
         <v>3</v>
@@ -6917,7 +7146,7 @@
       </c>
       <c r="B437" s="5"/>
       <c r="C437" s="6" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="D437" s="4" t="s">
         <v>3</v>
@@ -6929,7 +7158,7 @@
       </c>
       <c r="B438" s="5"/>
       <c r="C438" s="6" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="D438" s="4" t="s">
         <v>3</v>
@@ -6941,7 +7170,7 @@
       </c>
       <c r="B439" s="5"/>
       <c r="C439" s="6" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="D439" s="4" t="s">
         <v>3</v>
@@ -6953,7 +7182,7 @@
       </c>
       <c r="B440" s="5"/>
       <c r="C440" s="6" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="D440" s="4" t="s">
         <v>3</v>
@@ -6965,7 +7194,7 @@
       </c>
       <c r="B441" s="5"/>
       <c r="C441" s="6" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="D441" s="4" t="s">
         <v>3</v>
@@ -6977,7 +7206,7 @@
       </c>
       <c r="B442" s="5"/>
       <c r="C442" s="6" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="D442" s="4" t="s">
         <v>3</v>
@@ -6989,7 +7218,7 @@
       </c>
       <c r="B443" s="5"/>
       <c r="C443" s="6" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="D443" s="4" t="s">
         <v>3</v>
@@ -7001,7 +7230,7 @@
       </c>
       <c r="B444" s="5"/>
       <c r="C444" s="6" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="D444" s="4" t="s">
         <v>3</v>
@@ -7013,7 +7242,7 @@
       </c>
       <c r="B445" s="5"/>
       <c r="C445" s="6" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="D445" s="4" t="s">
         <v>3</v>
@@ -7025,7 +7254,7 @@
       </c>
       <c r="B446" s="5"/>
       <c r="C446" s="6" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="D446" s="4" t="s">
         <v>3</v>
@@ -7037,7 +7266,7 @@
       </c>
       <c r="B447" s="5"/>
       <c r="C447" s="6" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="D447" s="4" t="s">
         <v>3</v>
@@ -7049,7 +7278,7 @@
       </c>
       <c r="B448" s="5"/>
       <c r="C448" s="6" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="D448" s="4" t="s">
         <v>3</v>
@@ -7061,7 +7290,7 @@
       </c>
       <c r="B449" s="5"/>
       <c r="C449" s="6" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="D449" s="4" t="s">
         <v>3</v>
@@ -7073,7 +7302,7 @@
       </c>
       <c r="B450" s="5"/>
       <c r="C450" s="6" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="D450" s="4" t="s">
         <v>3</v>
@@ -7085,7 +7314,7 @@
       </c>
       <c r="B451" s="5"/>
       <c r="C451" s="6" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="D451" s="4" t="s">
         <v>3</v>
@@ -7097,7 +7326,7 @@
       </c>
       <c r="B452" s="5"/>
       <c r="C452" s="6" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="D452" s="4" t="s">
         <v>3</v>
@@ -7109,7 +7338,7 @@
       </c>
       <c r="B453" s="5"/>
       <c r="C453" s="6" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="D453" s="4" t="s">
         <v>3</v>
@@ -7121,7 +7350,7 @@
       </c>
       <c r="B454" s="5"/>
       <c r="C454" s="6" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="D454" s="4" t="s">
         <v>3</v>
@@ -7133,7 +7362,7 @@
       </c>
       <c r="B455" s="5"/>
       <c r="C455" s="6" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="D455" s="4" t="s">
         <v>3</v>
@@ -7145,7 +7374,7 @@
       </c>
       <c r="B456" s="5"/>
       <c r="C456" s="6" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="D456" s="4" t="s">
         <v>3</v>
@@ -7157,7 +7386,7 @@
       </c>
       <c r="B457" s="5"/>
       <c r="C457" s="6" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="D457" s="4" t="s">
         <v>3</v>
@@ -7169,7 +7398,7 @@
       </c>
       <c r="B458" s="5"/>
       <c r="C458" s="6" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="D458" s="4" t="s">
         <v>3</v>
@@ -7181,7 +7410,7 @@
       </c>
       <c r="B459" s="5"/>
       <c r="C459" s="6" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="D459" s="4" t="s">
         <v>3</v>
@@ -7193,7 +7422,7 @@
       </c>
       <c r="B460" s="5"/>
       <c r="C460" s="6" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="D460" s="4" t="s">
         <v>3</v>
@@ -7205,7 +7434,7 @@
       </c>
       <c r="B461" s="5"/>
       <c r="C461" s="6" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="D461" s="4" t="s">
         <v>3</v>
@@ -7217,7 +7446,7 @@
       </c>
       <c r="B462" s="5"/>
       <c r="C462" s="6" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="D462" s="4" t="s">
         <v>3</v>
@@ -7229,7 +7458,7 @@
       </c>
       <c r="B463" s="5"/>
       <c r="C463" s="6" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="D463" s="4" t="s">
         <v>3</v>
@@ -7241,7 +7470,7 @@
       </c>
       <c r="B464" s="5"/>
       <c r="C464" s="6" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="D464" s="4" t="s">
         <v>3</v>
@@ -7253,7 +7482,7 @@
       </c>
       <c r="B465" s="5"/>
       <c r="C465" s="6" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="D465" s="4" t="s">
         <v>3</v>
@@ -7265,7 +7494,7 @@
       </c>
       <c r="B466" s="5"/>
       <c r="C466" s="6" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="D466" s="4" t="s">
         <v>3</v>
@@ -7277,7 +7506,7 @@
       </c>
       <c r="B467" s="5"/>
       <c r="C467" s="6" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="D467" s="4" t="s">
         <v>3</v>
@@ -7289,7 +7518,7 @@
       </c>
       <c r="B468" s="5"/>
       <c r="C468" s="6" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="D468" s="4" t="s">
         <v>3</v>
@@ -7301,7 +7530,7 @@
       </c>
       <c r="B469" s="5"/>
       <c r="C469" s="6" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="D469" s="4" t="s">
         <v>3</v>
@@ -7313,29 +7542,43 @@
       </c>
       <c r="B470" s="5"/>
       <c r="C470" s="6" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="D470" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="471" spans="1:4" ht="21">
-      <c r="C471" s="7"/>
-      <c r="D471" s="4"/>
+      <c r="A471" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B471" s="5"/>
+      <c r="C471" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="D471" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="472" spans="1:4" ht="21">
-      <c r="A472" s="8"/>
-      <c r="B472" s="8"/>
-      <c r="C472" s="7"/>
-      <c r="D472" s="4"/>
+      <c r="A472" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B472" s="5"/>
+      <c r="C472" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="D472" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="473" spans="1:4" ht="21">
       <c r="A473" s="5" t="s">
-        <v>452</v>
+        <v>392</v>
       </c>
       <c r="B473" s="5"/>
       <c r="C473" s="6" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="D473" s="4" t="s">
         <v>3</v>
@@ -7343,11 +7586,11 @@
     </row>
     <row r="474" spans="1:4" ht="21">
       <c r="A474" s="5" t="s">
-        <v>452</v>
+        <v>392</v>
       </c>
       <c r="B474" s="5"/>
       <c r="C474" s="6" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="D474" s="4" t="s">
         <v>3</v>
@@ -7355,11 +7598,11 @@
     </row>
     <row r="475" spans="1:4" ht="21">
       <c r="A475" s="5" t="s">
-        <v>452</v>
+        <v>392</v>
       </c>
       <c r="B475" s="5"/>
       <c r="C475" s="6" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="D475" s="4" t="s">
         <v>3</v>
@@ -7367,11 +7610,11 @@
     </row>
     <row r="476" spans="1:4" ht="21">
       <c r="A476" s="5" t="s">
-        <v>452</v>
+        <v>392</v>
       </c>
       <c r="B476" s="5"/>
       <c r="C476" s="6" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="D476" s="4" t="s">
         <v>3</v>
@@ -7379,11 +7622,11 @@
     </row>
     <row r="477" spans="1:4" ht="21">
       <c r="A477" s="5" t="s">
-        <v>452</v>
+        <v>392</v>
       </c>
       <c r="B477" s="5"/>
       <c r="C477" s="6" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="D477" s="4" t="s">
         <v>3</v>
@@ -7391,11 +7634,11 @@
     </row>
     <row r="478" spans="1:4" ht="21">
       <c r="A478" s="5" t="s">
-        <v>452</v>
+        <v>392</v>
       </c>
       <c r="B478" s="5"/>
       <c r="C478" s="6" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="D478" s="4" t="s">
         <v>3</v>
@@ -7403,39 +7646,25 @@
     </row>
     <row r="479" spans="1:4" ht="21">
       <c r="A479" s="5" t="s">
-        <v>452</v>
+        <v>392</v>
       </c>
       <c r="B479" s="5"/>
       <c r="C479" s="6" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="D479" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="480" spans="1:4" ht="21">
-      <c r="A480" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="B480" s="5"/>
-      <c r="C480" s="6" t="s">
-        <v>460</v>
-      </c>
-      <c r="D480" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="C480" s="7"/>
+      <c r="D480" s="4"/>
     </row>
     <row r="481" spans="1:4" ht="21">
-      <c r="A481" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="B481" s="5"/>
-      <c r="C481" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="D481" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="A481" s="8"/>
+      <c r="B481" s="8"/>
+      <c r="C481" s="7"/>
+      <c r="D481" s="4"/>
     </row>
     <row r="482" spans="1:4" ht="21">
       <c r="A482" s="5" t="s">
@@ -7443,462 +7672,578 @@
       </c>
       <c r="B482" s="5"/>
       <c r="C482" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="D482" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" ht="21">
+      <c r="A483" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="B483" s="5"/>
+      <c r="C483" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="D483" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" ht="21">
+      <c r="A484" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="B484" s="5"/>
+      <c r="C484" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="D484" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" ht="21">
+      <c r="A485" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="B485" s="5"/>
+      <c r="C485" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="D485" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" ht="21">
+      <c r="A486" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="B486" s="5"/>
+      <c r="C486" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="D486" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" ht="21">
+      <c r="A487" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="B487" s="5"/>
+      <c r="C487" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="D487" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" ht="21">
+      <c r="A488" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="B488" s="5"/>
+      <c r="C488" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="D488" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" ht="21">
+      <c r="A489" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="B489" s="5"/>
+      <c r="C489" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="D489" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" ht="21">
+      <c r="A490" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="B490" s="5"/>
+      <c r="C490" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="D490" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" ht="21">
+      <c r="A491" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="B491" s="5"/>
+      <c r="C491" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="D482" s="4" t="s">
+      <c r="D491" s="4" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E4:G4"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C6" r:id="rId1" xr:uid="{9492A4AD-FA44-BA4B-B154-E4DBB1951162}"/>
-    <hyperlink ref="C7" r:id="rId2" xr:uid="{2D6F1134-3C08-7445-B19A-9B94A18B55C7}"/>
-    <hyperlink ref="C9" r:id="rId3" xr:uid="{E5A98931-37E8-6B4A-90BE-8DC72405341A}"/>
-    <hyperlink ref="C10" r:id="rId4" xr:uid="{02736918-E09F-7A46-90B3-AFCC33AA559B}"/>
-    <hyperlink ref="C11" r:id="rId5" xr:uid="{6E8DD30A-A9F9-4C44-B26C-C9E236F10798}"/>
-    <hyperlink ref="C12" r:id="rId6" xr:uid="{0D55765B-95A7-154F-96F3-B7E4C581021F}"/>
-    <hyperlink ref="C13" r:id="rId7" xr:uid="{6F687ABA-C04B-AF4F-9F11-A038DCB20FB9}"/>
-    <hyperlink ref="C14" r:id="rId8" xr:uid="{11C9D8CC-9F1E-004E-8EC2-C758DC9C8CAB}"/>
-    <hyperlink ref="C15" r:id="rId9" xr:uid="{56E4962F-CB3D-9E48-A26E-19A1F5C800C9}"/>
-    <hyperlink ref="C16" r:id="rId10" xr:uid="{899DDBD9-9ED6-3A4D-8AFE-8FAA6DA88DBC}"/>
-    <hyperlink ref="C17" r:id="rId11" xr:uid="{76D41EAC-A28A-2845-8515-CA3C70D823B7}"/>
-    <hyperlink ref="C18" r:id="rId12" xr:uid="{828948BE-DD97-DE4A-BAD6-B415E29198F0}"/>
-    <hyperlink ref="C19" r:id="rId13" xr:uid="{E98C86AA-12E7-124C-B7D0-BCDFB246040B}"/>
-    <hyperlink ref="C20" r:id="rId14" xr:uid="{192741A9-FF68-DC4A-99FA-69F9968AB4F2}"/>
-    <hyperlink ref="C21" r:id="rId15" xr:uid="{DBD9BA9C-91C6-B144-A800-DCB3BED33DE7}"/>
-    <hyperlink ref="C22" r:id="rId16" xr:uid="{A285BDE8-00E7-A94C-8E43-A0C4829D42FA}"/>
-    <hyperlink ref="C23" r:id="rId17" xr:uid="{B0C21764-2962-1649-8AFA-10FB9420C5FC}"/>
-    <hyperlink ref="C24" r:id="rId18" xr:uid="{9282CC15-9B38-E54B-B64C-557745C9C00A}"/>
-    <hyperlink ref="C25" r:id="rId19" xr:uid="{3BCCEBE2-AC3B-AC4F-8BA9-439ACEA133D4}"/>
-    <hyperlink ref="C26" r:id="rId20" xr:uid="{74F8D761-6EBF-594A-A6C7-40DE4CE96958}"/>
-    <hyperlink ref="C27" r:id="rId21" xr:uid="{79947FE6-D417-D644-81D8-D058180550A0}"/>
-    <hyperlink ref="C28" r:id="rId22" xr:uid="{2BF3F606-410B-264D-BF60-191C34D616BB}"/>
-    <hyperlink ref="C29" r:id="rId23" xr:uid="{CD98DB26-0F2F-FD40-A989-53FE548D7D34}"/>
-    <hyperlink ref="C30" r:id="rId24" xr:uid="{307032A1-F8EF-1A48-BFE3-EA3283D39BE2}"/>
-    <hyperlink ref="C31" r:id="rId25" xr:uid="{AA329F36-941A-9241-9402-9D220B05E719}"/>
-    <hyperlink ref="C32" r:id="rId26" xr:uid="{9E851DAC-0E30-B340-84F9-721D70B66919}"/>
-    <hyperlink ref="C33" r:id="rId27" xr:uid="{468380BA-4978-A645-ABD0-E74FD3E6BDBB}"/>
-    <hyperlink ref="C34" r:id="rId28" xr:uid="{289E6890-8CCB-D645-9B3F-6138FFC1C249}"/>
-    <hyperlink ref="C35" r:id="rId29" xr:uid="{8EABDC68-858F-784A-A8F1-C603E3B8C1FE}"/>
-    <hyperlink ref="C36" r:id="rId30" xr:uid="{6157E427-1210-3F45-A4DC-6DFD2373B9CF}"/>
-    <hyperlink ref="C37" r:id="rId31" xr:uid="{2D7BA55E-9947-FF4D-BC09-FB4A5ADA07EC}"/>
-    <hyperlink ref="C38" r:id="rId32" xr:uid="{3337C74F-8B73-E64E-A6DA-5D9F7C7B4D32}"/>
-    <hyperlink ref="C39" r:id="rId33" xr:uid="{02370124-E58D-B540-BBCF-98266229556D}"/>
-    <hyperlink ref="C40" r:id="rId34" xr:uid="{F2DE2162-BD02-7549-AC1A-27455F78131F}"/>
-    <hyperlink ref="C41" r:id="rId35" xr:uid="{6FA286B9-3994-624D-B0B8-C01657D110AD}"/>
-    <hyperlink ref="C42" r:id="rId36" xr:uid="{6EFBEDA1-5C10-2547-8FB2-44E977513B28}"/>
-    <hyperlink ref="C45" r:id="rId37" xr:uid="{090EC515-BEBE-514E-BA59-A84E450B4211}"/>
-    <hyperlink ref="C46" r:id="rId38" xr:uid="{0A0557FD-77E5-564B-B100-147D544A38B4}"/>
-    <hyperlink ref="C47" r:id="rId39" xr:uid="{3F82F2E0-AA59-5042-B079-F3B3C6FF2FD7}"/>
-    <hyperlink ref="C48" r:id="rId40" xr:uid="{FFF7D257-1F58-5A4B-AAA2-F5480AED86C7}"/>
-    <hyperlink ref="C49" r:id="rId41" xr:uid="{353E28FA-E36D-7447-9DE8-787DF11C4669}"/>
-    <hyperlink ref="C50" r:id="rId42" xr:uid="{F9B53127-FC98-FE43-B53F-BFDBCE2A4427}"/>
-    <hyperlink ref="C51" r:id="rId43" xr:uid="{40685BBC-CE24-624E-9ABB-98490B7DE0E4}"/>
-    <hyperlink ref="C52" r:id="rId44" xr:uid="{7733D505-2EC7-E346-B3DA-C980C7CE0B27}"/>
-    <hyperlink ref="C53" r:id="rId45" xr:uid="{E8C1FE00-7B4B-5745-8E4B-CD44B6C749E3}"/>
-    <hyperlink ref="C54" r:id="rId46" xr:uid="{FDE181B1-57B0-7C4B-A189-C7C6E4EAEF99}"/>
-    <hyperlink ref="C57" r:id="rId47" xr:uid="{FE85FD72-4FC9-334E-8205-9E8B238954EB}"/>
-    <hyperlink ref="C58" r:id="rId48" xr:uid="{7630AD76-7E6B-8C4A-BA33-A62EBB042215}"/>
-    <hyperlink ref="C59" r:id="rId49" xr:uid="{2A738B70-CBF0-CC40-8B05-A271822B3F1A}"/>
-    <hyperlink ref="C61" r:id="rId50" xr:uid="{B2DE2D9E-8371-CD44-9D0D-4D6DC64AC29B}"/>
-    <hyperlink ref="C62" r:id="rId51" xr:uid="{265DCD11-17A0-654E-BEFE-FABA31210C6E}"/>
-    <hyperlink ref="C63" r:id="rId52" xr:uid="{47F1BB0C-0C5C-0845-8EEC-1560C50D7DA7}"/>
-    <hyperlink ref="C64" r:id="rId53" xr:uid="{8E0BFA2E-CCB4-514F-86CD-78176C6CC98A}"/>
-    <hyperlink ref="C65" r:id="rId54" xr:uid="{E4DEFB4B-749F-8746-97C7-F2B433664A74}"/>
-    <hyperlink ref="C66" r:id="rId55" xr:uid="{8301BDBD-EB7E-7D41-A777-ED99C3F9D67D}"/>
-    <hyperlink ref="C67" r:id="rId56" xr:uid="{927AE532-647F-AF4C-A567-40ADA6FCE534}"/>
-    <hyperlink ref="C68" r:id="rId57" xr:uid="{05489F52-CC92-EC44-9AD3-773DEC3B1D36}"/>
-    <hyperlink ref="C69" r:id="rId58" xr:uid="{13025DF6-C30E-014A-B66C-68C4AAAC1C6E}"/>
-    <hyperlink ref="C70" r:id="rId59" xr:uid="{BEE1F613-C189-B949-A225-0E0C5AFD1532}"/>
-    <hyperlink ref="C71" r:id="rId60" xr:uid="{1DFECD6C-D7CC-0340-B29B-4D56E50711E5}"/>
-    <hyperlink ref="C72" r:id="rId61" xr:uid="{70BED156-B004-E043-BF7D-59EFAA9EADAF}"/>
-    <hyperlink ref="C73" r:id="rId62" xr:uid="{FF9CBAFB-900E-E242-8B33-EDF46F0F40B5}"/>
-    <hyperlink ref="C74" r:id="rId63" xr:uid="{19461114-B3E8-9042-8029-100010946A04}"/>
-    <hyperlink ref="C75" r:id="rId64" xr:uid="{00F71118-E30B-A84E-819E-FFA902C70502}"/>
-    <hyperlink ref="C76" r:id="rId65" xr:uid="{58E70966-BBE0-7743-A250-AE4DD57807DE}"/>
-    <hyperlink ref="C77" r:id="rId66" xr:uid="{09409FE3-9D7E-4F43-BB21-14A1B8D6E480}"/>
-    <hyperlink ref="C78" r:id="rId67" xr:uid="{E199A3DC-3DA1-C648-93C0-DF9CD5331204}"/>
-    <hyperlink ref="C79" r:id="rId68" xr:uid="{85886847-1510-AA46-B10C-F3D80591DD74}"/>
-    <hyperlink ref="C80" r:id="rId69" xr:uid="{F60808FC-F09D-FC44-B2DD-752E55A1C698}"/>
-    <hyperlink ref="C81" r:id="rId70" xr:uid="{16B2725E-1AD5-0441-9B5B-B6B2F458091B}"/>
-    <hyperlink ref="C82" r:id="rId71" xr:uid="{8440D753-5DE9-3243-97C2-C09D195C325F}"/>
-    <hyperlink ref="C83" r:id="rId72" xr:uid="{AC63A963-B6CC-6E4E-B72A-7F472BC4C027}"/>
-    <hyperlink ref="C84" r:id="rId73" xr:uid="{B21B87F1-A0C0-7F4E-B36F-912B871D0EF4}"/>
-    <hyperlink ref="C85" r:id="rId74" xr:uid="{789FFFAC-8B7E-0540-98B8-856430EB56F8}"/>
-    <hyperlink ref="C86" r:id="rId75" xr:uid="{4A0E959E-22F4-6948-A819-76FE76AB9F6D}"/>
-    <hyperlink ref="C87" r:id="rId76" xr:uid="{78B76678-D8EE-9745-98B1-DF7A76EA3B10}"/>
-    <hyperlink ref="C88" r:id="rId77" xr:uid="{62982242-1D19-1544-8653-8E25E9BF4505}"/>
-    <hyperlink ref="C89" r:id="rId78" xr:uid="{8E3D4BDF-9F8F-0542-BFD8-C3CE3BF396E6}"/>
-    <hyperlink ref="C90" r:id="rId79" xr:uid="{A3D51762-65A1-9A44-B619-D1D98A7F403B}"/>
-    <hyperlink ref="C91" r:id="rId80" xr:uid="{ED0F5FC7-0066-EB44-8FCF-460600DADB02}"/>
-    <hyperlink ref="C92" r:id="rId81" xr:uid="{2D956AC4-4774-7446-8473-C4CE00E33C17}"/>
-    <hyperlink ref="C93" r:id="rId82" xr:uid="{C8C607BB-1FEE-FA47-9E3E-6C0BCE978B7F}"/>
-    <hyperlink ref="C94" r:id="rId83" xr:uid="{B9AC5194-6D36-684A-A5C4-BEE11037599F}"/>
-    <hyperlink ref="C95" r:id="rId84" xr:uid="{AB28D9E6-890C-F14A-A5FB-2303BE319968}"/>
-    <hyperlink ref="C96" r:id="rId85" xr:uid="{1F507CBC-4056-AD46-9314-95ECBB9D799D}"/>
-    <hyperlink ref="C97" r:id="rId86" xr:uid="{F152A9AF-5CBA-EC44-A9CF-07AB481435AB}"/>
-    <hyperlink ref="C98" r:id="rId87" xr:uid="{346CA74F-60B7-0A4B-A612-9184D4DCFF62}"/>
-    <hyperlink ref="C99" r:id="rId88" xr:uid="{8C653CB1-4954-754F-8D46-F09141A2FCDB}"/>
-    <hyperlink ref="C102" r:id="rId89" xr:uid="{5989F693-2A61-A346-8395-8674307A4CC2}"/>
-    <hyperlink ref="C103" r:id="rId90" xr:uid="{3AD10C9E-4F6D-DE48-92F3-531A586520C6}"/>
-    <hyperlink ref="C104" r:id="rId91" xr:uid="{4FA217C0-A1F3-904E-8FEA-EA4941273A67}"/>
-    <hyperlink ref="C105" r:id="rId92" xr:uid="{A297BBC0-FA0D-2D46-9C49-3932193EF1D3}"/>
-    <hyperlink ref="C107" r:id="rId93" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance." xr:uid="{DCD751DE-E440-F346-B6FD-CBD072217214}"/>
-    <hyperlink ref="C108" r:id="rId94" xr:uid="{B2FD38B9-1E2B-8140-8291-F45734C98145}"/>
-    <hyperlink ref="C109" r:id="rId95" xr:uid="{C76888B3-18AC-9B48-9E2A-64A7DF0902B7}"/>
-    <hyperlink ref="C110" r:id="rId96" xr:uid="{18A79860-6C9E-A941-8D6C-360B9913E941}"/>
-    <hyperlink ref="C111" r:id="rId97" xr:uid="{C0DDFD68-CBC1-0F4A-AF40-ACF36BBC8453}"/>
-    <hyperlink ref="C112" r:id="rId98" xr:uid="{3E0BF737-E42E-C946-B32C-06882E0BA6FF}"/>
-    <hyperlink ref="C114" r:id="rId99" xr:uid="{862F9782-C57B-2848-A2D9-EB7B52FB7EC7}"/>
-    <hyperlink ref="C115" r:id="rId100" xr:uid="{230D7A6A-D2C5-C140-9A65-B1F407D22062}"/>
-    <hyperlink ref="C116" r:id="rId101" xr:uid="{BDC2BA28-4562-984E-8282-1126BF952EAF}"/>
-    <hyperlink ref="C117" r:id="rId102" xr:uid="{B53A5F28-6DED-3D47-8679-F78D3DDEFF01}"/>
-    <hyperlink ref="C118" r:id="rId103" xr:uid="{C57D0CC7-DA2F-0948-9BCE-F19C20C7D981}"/>
-    <hyperlink ref="C119" r:id="rId104" xr:uid="{117878E5-B8C8-254B-8ED6-014B4B7A8126}"/>
-    <hyperlink ref="C120" r:id="rId105" xr:uid="{B7CC0756-74F2-D54D-BDEE-9DA394DD7168}"/>
-    <hyperlink ref="C121" r:id="rId106" xr:uid="{837EF472-CCC2-CF47-A8A8-238E56F722CE}"/>
-    <hyperlink ref="C122" r:id="rId107" xr:uid="{3608F267-6AA0-624B-B243-7DDD317E9F08}"/>
-    <hyperlink ref="C123" r:id="rId108" xr:uid="{0B6123E6-0472-374B-ACA7-6914CD7918E8}"/>
-    <hyperlink ref="C124" r:id="rId109" xr:uid="{D3971CEB-C53E-B04B-9C32-1803182B5DC5}"/>
-    <hyperlink ref="C125" r:id="rId110" xr:uid="{7CF5013A-643E-1643-93A1-A2F1500D2A23}"/>
-    <hyperlink ref="C126" r:id="rId111" xr:uid="{2A6BE7E5-D818-6843-8C3E-99EA2BFE0FB2}"/>
-    <hyperlink ref="C127" r:id="rId112" xr:uid="{E718F544-96DF-A04E-8DFB-7639DA3EA57C}"/>
-    <hyperlink ref="C128" r:id="rId113" xr:uid="{B0C2F065-424A-7345-A864-346ECD98D749}"/>
-    <hyperlink ref="C129" r:id="rId114" xr:uid="{B4E26955-5C3F-804E-B19A-11260310AFB3}"/>
-    <hyperlink ref="C130" r:id="rId115" xr:uid="{6F299BB5-8E82-0240-A9A3-6829CE3ABCBF}"/>
-    <hyperlink ref="C131" r:id="rId116" xr:uid="{A42CA32F-2196-1840-A53D-E5073237C68D}"/>
-    <hyperlink ref="C132" r:id="rId117" xr:uid="{7ECF6EF4-962E-4642-9B1C-C3B70674793E}"/>
-    <hyperlink ref="C133" r:id="rId118" xr:uid="{2A109178-6B60-164E-9D25-42B3282137E3}"/>
-    <hyperlink ref="C134" r:id="rId119" xr:uid="{B3D38BD0-A6A1-8D41-8405-45E1BEEEEF06}"/>
-    <hyperlink ref="C135" r:id="rId120" xr:uid="{A1C26612-D040-2A41-A6A6-A8F2490C0A43}"/>
-    <hyperlink ref="C136" r:id="rId121" xr:uid="{C476E807-64CB-F44A-A23D-D21EBF6D001D}"/>
-    <hyperlink ref="C137" r:id="rId122" xr:uid="{9A414D55-D4A1-F147-9207-61B597D57136}"/>
-    <hyperlink ref="C106" r:id="rId123" xr:uid="{18B028A7-9B6F-D841-8548-924D70530779}"/>
-    <hyperlink ref="C113" r:id="rId124" xr:uid="{6D3E75EF-733F-7A4B-81C8-AEF6CB6335F0}"/>
-    <hyperlink ref="C140" r:id="rId125" xr:uid="{C9EB2682-BE0B-934B-B0B4-1DD1A1502647}"/>
-    <hyperlink ref="C141" r:id="rId126" xr:uid="{2992FED9-2B78-A342-92AA-E7C0F882FF17}"/>
-    <hyperlink ref="C142" r:id="rId127" xr:uid="{0084DA6F-EC84-BD48-BDA8-EBACA3BB3B3E}"/>
-    <hyperlink ref="C143" r:id="rId128" xr:uid="{30F2D415-4B2C-384C-8EAE-2CC71CB518E2}"/>
-    <hyperlink ref="C144" r:id="rId129" xr:uid="{40734C88-7C5B-9747-86D1-03463D9AD41A}"/>
-    <hyperlink ref="C145" r:id="rId130" xr:uid="{1040D22F-6729-104A-A229-CBDCED93024A}"/>
-    <hyperlink ref="C146" r:id="rId131" xr:uid="{E131FE61-FABF-8E4B-8EF0-F68379D8F836}"/>
-    <hyperlink ref="C147" r:id="rId132" xr:uid="{B2129272-1351-3745-883B-E6A7115450C8}"/>
-    <hyperlink ref="C148" r:id="rId133" xr:uid="{C8B2DEF0-2B69-C84E-8013-0B6F03FFC250}"/>
-    <hyperlink ref="C149" r:id="rId134" xr:uid="{536AC5CF-712F-BF48-94A9-D0E7DC013020}"/>
-    <hyperlink ref="C150" r:id="rId135" xr:uid="{2DABC9C7-43D4-1249-AF9B-5FA4552611CB}"/>
-    <hyperlink ref="C151" r:id="rId136" xr:uid="{DA62E73A-B495-F94A-BECE-D42E4CBF074A}"/>
-    <hyperlink ref="C152" r:id="rId137" xr:uid="{7F5E6966-850D-4F49-B2A5-678365713F28}"/>
-    <hyperlink ref="C153" r:id="rId138" xr:uid="{E9C4286D-8493-9A47-8B8C-09583FA72B70}"/>
-    <hyperlink ref="C154" r:id="rId139" xr:uid="{9EB0123C-84AE-1C4D-BA1A-C28CFB8EFB89}"/>
-    <hyperlink ref="C155" r:id="rId140" xr:uid="{9D11FED4-328F-674E-889D-EC781DD1D791}"/>
-    <hyperlink ref="C156" r:id="rId141" xr:uid="{48AE72DB-397B-464D-88AD-B8058ED29CC1}"/>
-    <hyperlink ref="C157" r:id="rId142" xr:uid="{152D50E9-7448-F542-AC66-05D0AE66664C}"/>
-    <hyperlink ref="C158" r:id="rId143" xr:uid="{34E6AF1B-5FB1-3A4B-8938-1DCF80831DC2}"/>
-    <hyperlink ref="C159" r:id="rId144" xr:uid="{E7F8B7CA-49F4-1946-91EE-E7582BE4E5DA}"/>
-    <hyperlink ref="C160" r:id="rId145" xr:uid="{3590A994-B7A2-C14D-9BF8-7AC8FE9E7F0F}"/>
-    <hyperlink ref="C161" r:id="rId146" xr:uid="{0AAA4B0C-4921-C34D-B41E-D702FA860892}"/>
-    <hyperlink ref="C162" r:id="rId147" xr:uid="{5973FCA4-AE32-5248-A6ED-2694367332F1}"/>
-    <hyperlink ref="C163" r:id="rId148" xr:uid="{4C0F816E-F043-0C47-BF16-1CDAD88D2FF1}"/>
-    <hyperlink ref="C164" r:id="rId149" xr:uid="{A8E4C654-D0BD-8945-9F5C-B09F7BC114BE}"/>
-    <hyperlink ref="C167" r:id="rId150" xr:uid="{E3825C15-10BB-E24F-B229-983F651DA942}"/>
-    <hyperlink ref="C168" r:id="rId151" xr:uid="{46ECFC31-388C-6241-8FFE-DED6F2FC794A}"/>
-    <hyperlink ref="C169" r:id="rId152" xr:uid="{589E024D-3FE1-1048-890C-88289733F233}"/>
-    <hyperlink ref="C170" r:id="rId153" xr:uid="{CDA28F7A-7FC5-F74D-B27E-A6E0161D41D5}"/>
-    <hyperlink ref="C171" r:id="rId154" xr:uid="{DA6A0D92-DCEB-DA4F-8BBA-10FCD092838F}"/>
-    <hyperlink ref="C172" r:id="rId155" xr:uid="{955769DB-3256-254B-90DE-E1E01B272F8A}"/>
-    <hyperlink ref="C173" r:id="rId156" xr:uid="{DED7AC9B-40D7-0545-9D6F-6CD4F5FFE4C6}"/>
-    <hyperlink ref="C174" r:id="rId157" xr:uid="{6947A4E1-B6AA-6D4F-A6D8-8FA74FD02887}"/>
-    <hyperlink ref="C175" r:id="rId158" xr:uid="{EABF2012-5A90-0C4E-86F6-FDB5FA7770BE}"/>
-    <hyperlink ref="C178" r:id="rId159" xr:uid="{7F44CFE0-9ED1-A44D-B9EF-CF87BEB644FC}"/>
-    <hyperlink ref="C179" r:id="rId160" xr:uid="{CF6E0CF6-7A93-D84A-9CE0-5BDD51767416}"/>
-    <hyperlink ref="C180" r:id="rId161" xr:uid="{EFF8F154-60B8-B84B-84CA-32756BD6430F}"/>
-    <hyperlink ref="C181" r:id="rId162" xr:uid="{C8A3094E-E11B-2543-B05E-1D07048B2EBA}"/>
-    <hyperlink ref="C182" r:id="rId163" xr:uid="{9961E5F5-B5C6-0C4D-A1D0-D04D2A5D7DFD}"/>
-    <hyperlink ref="C183" r:id="rId164" xr:uid="{44E289EC-47DD-D94D-88C1-CB2F59C6C16A}"/>
-    <hyperlink ref="C184" r:id="rId165" xr:uid="{4161FC70-DD6D-684B-898A-A4711596B2D5}"/>
-    <hyperlink ref="C185" r:id="rId166" xr:uid="{B9CBE387-8E9A-ED48-8310-CF7D34FA690C}"/>
-    <hyperlink ref="C186" r:id="rId167" xr:uid="{5398097B-24FF-9543-8F02-33CE2860F1F7}"/>
-    <hyperlink ref="C187" r:id="rId168" xr:uid="{3B1FC30B-30C8-7B48-AF94-A81FB513F24F}"/>
-    <hyperlink ref="C188" r:id="rId169" xr:uid="{32B750D0-D7F2-694D-AB9B-25AFAFAFF17F}"/>
-    <hyperlink ref="C189" r:id="rId170" xr:uid="{400689DD-8E95-024E-976B-AACD8ED4E1A6}"/>
-    <hyperlink ref="C190" r:id="rId171" xr:uid="{28753DDE-E047-5D40-A30B-1103BE6DA08F}"/>
-    <hyperlink ref="C191" r:id="rId172" xr:uid="{6C5AA6CB-3D93-0740-AEED-9E6C218CF6CB}"/>
-    <hyperlink ref="C192" r:id="rId173" xr:uid="{03EAA2B9-D8B8-D642-BF24-380596D26B2E}"/>
-    <hyperlink ref="C193" r:id="rId174" xr:uid="{8C1719B4-37CC-484E-BDCE-A4272C07F91B}"/>
-    <hyperlink ref="C194" r:id="rId175" xr:uid="{6C198DA2-BB98-F940-8EF6-2FC8B7AE577A}"/>
-    <hyperlink ref="C195" r:id="rId176" xr:uid="{AB0EA311-A446-D046-A0EC-290B42068328}"/>
-    <hyperlink ref="C196" r:id="rId177" xr:uid="{DB913045-B9F6-6549-AA09-22B0CC5FDD21}"/>
-    <hyperlink ref="C197" r:id="rId178" xr:uid="{806469FD-617A-7445-AAB5-FB2FD2ED24EA}"/>
-    <hyperlink ref="C198" r:id="rId179" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." xr:uid="{1A10544E-58CF-D04D-9FAF-2FEC6DB2B5D4}"/>
-    <hyperlink ref="C199" r:id="rId180" xr:uid="{5A0B6645-89FD-E044-A706-9FB890274C3C}"/>
-    <hyperlink ref="C200" r:id="rId181" xr:uid="{B42A3009-E8EB-EE44-885F-6699C17A0E0B}"/>
-    <hyperlink ref="C201" r:id="rId182" xr:uid="{ED3E48AB-E25B-3744-B024-E97B2A319B46}"/>
-    <hyperlink ref="C202" r:id="rId183" xr:uid="{C75D20A3-CBAE-2649-A3EE-E49177CFA343}"/>
-    <hyperlink ref="C203" r:id="rId184" xr:uid="{3863CA1B-D43E-1144-91A9-17C2DCF52A64}"/>
-    <hyperlink ref="C204" r:id="rId185" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." xr:uid="{E9AF434E-4CAA-5D49-8AD3-889CDE2913D9}"/>
-    <hyperlink ref="C205" r:id="rId186" xr:uid="{1A0568E5-3A11-7F47-8001-82B05D7C2339}"/>
-    <hyperlink ref="C206" r:id="rId187" xr:uid="{F62B8AE4-9C4F-9544-8861-CD733C12F79E}"/>
-    <hyperlink ref="C207" r:id="rId188" xr:uid="{0F6A542C-44C9-5A4C-90BF-BC8C239877D2}"/>
-    <hyperlink ref="C208" r:id="rId189" xr:uid="{3ED28203-B1B5-4E46-AAF3-779EDD4AC03F}"/>
-    <hyperlink ref="C209" r:id="rId190" xr:uid="{4338B305-B52F-5540-9B51-B938FC6803A2}"/>
-    <hyperlink ref="C210" r:id="rId191" xr:uid="{DDEEED0F-A939-1E4F-B2FA-AD391A4A2874}"/>
-    <hyperlink ref="C211" r:id="rId192" xr:uid="{C2F20589-AD81-654C-94E5-E5B6C9FE27F6}"/>
-    <hyperlink ref="C212" r:id="rId193" xr:uid="{BBEB9DAC-E4AE-C04F-AA15-6356AFC57FDE}"/>
-    <hyperlink ref="C215" r:id="rId194" xr:uid="{6316566D-A10A-F849-9F25-B9ED4DA12BC7}"/>
-    <hyperlink ref="C216" r:id="rId195" xr:uid="{9D4DD895-FBA6-C849-A5BF-3B30755BD9C9}"/>
-    <hyperlink ref="C217" r:id="rId196" xr:uid="{475996DA-632A-BE49-AEA1-D4189FD614A1}"/>
-    <hyperlink ref="C218" r:id="rId197" xr:uid="{88E0C858-8468-884F-BB71-F6F176BD5FC2}"/>
-    <hyperlink ref="C219" r:id="rId198" xr:uid="{C1C5C8D0-7A06-3D4A-A85A-AAACC1B418C9}"/>
-    <hyperlink ref="C220" r:id="rId199" xr:uid="{D525D4B1-2857-1543-8CD9-196728321203}"/>
-    <hyperlink ref="C221" r:id="rId200" xr:uid="{51E3AB9B-04B2-C041-A2B3-37E3EB18013A}"/>
-    <hyperlink ref="C222" r:id="rId201" xr:uid="{7F7F0C9A-57B9-314F-959A-B8ACAFA5FD13}"/>
-    <hyperlink ref="C223" r:id="rId202" xr:uid="{3B029785-83B4-6140-8B70-CD892CFC87F6}"/>
-    <hyperlink ref="C224" r:id="rId203" xr:uid="{B0A390E6-D860-9F4E-B021-68949FE712F3}"/>
-    <hyperlink ref="C225" r:id="rId204" xr:uid="{49E9953D-52F6-BF47-8AAA-8E456F55576B}"/>
-    <hyperlink ref="C226" r:id="rId205" xr:uid="{9B812470-F419-A54E-8365-06A9B8864A30}"/>
-    <hyperlink ref="C227" r:id="rId206" xr:uid="{B6FB4107-1933-6D45-9EF4-4474E06CBE9D}"/>
-    <hyperlink ref="C228" r:id="rId207" xr:uid="{0F7C1D92-7BCB-D14D-A658-9599984E04E4}"/>
-    <hyperlink ref="C229" r:id="rId208" xr:uid="{6810428F-0A78-964C-A8C8-E1CD2E7C405D}"/>
-    <hyperlink ref="C230" r:id="rId209" xr:uid="{B40209F2-0D6E-364F-8AF6-F1D182509314}"/>
-    <hyperlink ref="C231" r:id="rId210" xr:uid="{96C53FA9-9FD3-2D4F-B292-3C9DEDFA806E}"/>
-    <hyperlink ref="C232" r:id="rId211" xr:uid="{918B420D-3678-FD46-9463-595E8ACC39E1}"/>
-    <hyperlink ref="C233" r:id="rId212" xr:uid="{851A7153-3B54-0E4A-A0A0-FCEB091AFE70}"/>
-    <hyperlink ref="C234" r:id="rId213" xr:uid="{C03AE9F8-09AE-C640-81A7-033BB06FB6AD}"/>
-    <hyperlink ref="C235" r:id="rId214" xr:uid="{35140DEB-52D2-4342-88D2-22BA061E5B48}"/>
-    <hyperlink ref="C236" r:id="rId215" xr:uid="{9714BC0B-3373-934C-B7A1-599F74F4FB9D}"/>
-    <hyperlink ref="C239" r:id="rId216" xr:uid="{5CB435B2-7FD2-1D44-9872-22B6A1EDC02B}"/>
-    <hyperlink ref="C240" r:id="rId217" xr:uid="{722D1D95-896B-4642-BABD-31DEDD237B49}"/>
-    <hyperlink ref="C241" r:id="rId218" xr:uid="{D686D1DC-13D6-284C-B606-E087FAF47399}"/>
-    <hyperlink ref="C242" r:id="rId219" xr:uid="{D22C2394-C3CB-8F4F-A010-2B13C8C84D1A}"/>
-    <hyperlink ref="C243" r:id="rId220" xr:uid="{3AE2F800-B66F-1A41-893B-978F6875FDC8}"/>
-    <hyperlink ref="C244" r:id="rId221" xr:uid="{2C939BDE-5298-5541-837B-8C59D53A33C1}"/>
-    <hyperlink ref="C245" r:id="rId222" xr:uid="{691C9BD8-69D3-DA4B-AEB6-AF827B4ACA9F}"/>
-    <hyperlink ref="C246" r:id="rId223" xr:uid="{B6891E82-7C4D-424D-9219-3C9FD08E0053}"/>
-    <hyperlink ref="C247" r:id="rId224" xr:uid="{67A1AE98-62D2-644D-AC13-6CD76CF53CC0}"/>
-    <hyperlink ref="C248" r:id="rId225" xr:uid="{B59D4881-2A82-8F4D-B151-1E796C4923C8}"/>
-    <hyperlink ref="C249" r:id="rId226" xr:uid="{B3CBD023-5EFD-6048-9B3F-89F0C65CBBF5}"/>
-    <hyperlink ref="C250" r:id="rId227" xr:uid="{53EC42C4-22F7-0445-A0AC-7275A59A2672}"/>
-    <hyperlink ref="C251" r:id="rId228" xr:uid="{A29575F3-CB24-5B4B-9538-D5212B2DC28B}"/>
-    <hyperlink ref="C252" r:id="rId229" xr:uid="{353A44DD-9E30-8F48-8E2B-8DAA07550470}"/>
-    <hyperlink ref="C253" r:id="rId230" xr:uid="{32AC291D-95A5-BE49-88E0-02677BF39CAC}"/>
-    <hyperlink ref="C254" r:id="rId231" xr:uid="{A84F22FF-AD10-A546-8998-B066C0EB2D5A}"/>
-    <hyperlink ref="C255" r:id="rId232" xr:uid="{4C5CAF84-9B94-FC44-8C6C-B3CC7257C1DB}"/>
-    <hyperlink ref="C256" r:id="rId233" xr:uid="{5DA775E2-C516-3B47-8C82-3CEE7CC0BDF9}"/>
-    <hyperlink ref="C257" r:id="rId234" xr:uid="{00B6AE5C-EF3F-0747-A280-3BF055362B4F}"/>
-    <hyperlink ref="C258" r:id="rId235" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." xr:uid="{BCBD0A7E-F3D0-E840-9375-AFD37C5CD41A}"/>
-    <hyperlink ref="C259" r:id="rId236" xr:uid="{47ABDDDB-F95F-8049-9FB3-1E71A7376DDE}"/>
-    <hyperlink ref="C260" r:id="rId237" xr:uid="{70BADFC9-7399-234D-99F6-4C5F02397C26}"/>
-    <hyperlink ref="C261" r:id="rId238" xr:uid="{63348580-70EF-EC47-BF49-8ECE9560D54E}"/>
-    <hyperlink ref="C262" r:id="rId239" xr:uid="{D5BD96B3-9EAB-1B47-AC87-5C47F6AD7F40}"/>
-    <hyperlink ref="C263" r:id="rId240" xr:uid="{74791141-3FB8-7540-B45B-9541AF0AE371}"/>
-    <hyperlink ref="C264" r:id="rId241" xr:uid="{88D53CD6-262A-7247-8E58-FE9FFF7ECC40}"/>
-    <hyperlink ref="C265" r:id="rId242" xr:uid="{4338A14D-4F7D-B943-A347-7F74EFCA0DB5}"/>
-    <hyperlink ref="C266" r:id="rId243" xr:uid="{6E0EF7A3-7341-284B-A0E3-4539B6EAFAF2}"/>
-    <hyperlink ref="C267" r:id="rId244" xr:uid="{D2D8D64F-E2D3-734E-AD45-3EFB9686555A}"/>
-    <hyperlink ref="C268" r:id="rId245" xr:uid="{04A2904A-73A0-7845-9868-2CCFE359AC68}"/>
-    <hyperlink ref="C269" r:id="rId246" xr:uid="{D3D35835-6BE3-4D41-AF6F-5FE442277A16}"/>
-    <hyperlink ref="C270" r:id="rId247" xr:uid="{F663D0FC-CFF0-BC4F-9D26-48C871A8E9FD}"/>
-    <hyperlink ref="C271" r:id="rId248" xr:uid="{DF544147-DA48-4041-A4E2-4A75106B771A}"/>
-    <hyperlink ref="C272" r:id="rId249" xr:uid="{50E4B716-239E-7946-843D-E8462591D128}"/>
-    <hyperlink ref="C273" r:id="rId250" xr:uid="{D368B3E5-7D12-FD48-AFF7-A4A614108940}"/>
-    <hyperlink ref="C276" r:id="rId251" xr:uid="{D5921FF1-FC1F-CA4B-A24E-AD69E1DEC14C}"/>
-    <hyperlink ref="C277" r:id="rId252" xr:uid="{C931D7E0-E032-7C4B-95F1-735D955FCB51}"/>
-    <hyperlink ref="C278" r:id="rId253" xr:uid="{5FBD4A8F-287C-2C46-9CAB-F7DBA67DEDDA}"/>
-    <hyperlink ref="C279" r:id="rId254" xr:uid="{12966DD6-41DD-A94B-8B2C-0AD7D2AD6FB0}"/>
-    <hyperlink ref="C280" r:id="rId255" xr:uid="{CF720C34-4554-2944-A818-020ABC9BF0F4}"/>
-    <hyperlink ref="C281" r:id="rId256" xr:uid="{75763F2A-16D7-DE43-8189-19623CE26370}"/>
-    <hyperlink ref="C282" r:id="rId257" xr:uid="{9263AA30-472A-0A4D-BADF-96D82BB9BFCC}"/>
-    <hyperlink ref="C283" r:id="rId258" xr:uid="{2EF025C3-75C8-564E-BA8B-708C32B0E602}"/>
-    <hyperlink ref="C284" r:id="rId259" xr:uid="{6BDFDCA9-3421-F24F-8EF2-A72742F0AC21}"/>
-    <hyperlink ref="C285" r:id="rId260" xr:uid="{D8447F99-5FF9-D544-99BB-E9969B4A38D7}"/>
-    <hyperlink ref="C286" r:id="rId261" xr:uid="{1DB7EFDA-6C7D-F546-9EE1-F61ED0F65209}"/>
-    <hyperlink ref="C287" r:id="rId262" xr:uid="{D1505609-27D1-784D-ACF6-AE9D0DA2E1B6}"/>
-    <hyperlink ref="C288" r:id="rId263" xr:uid="{6BFA7B45-17D0-4E49-85DA-23C7255A306D}"/>
-    <hyperlink ref="C289" r:id="rId264" xr:uid="{3324BA4A-30CA-5246-8C3C-6505A6987939}"/>
-    <hyperlink ref="C290" r:id="rId265" xr:uid="{894486AD-2B6D-5740-BCAF-0BA1AFF814B4}"/>
-    <hyperlink ref="C291" r:id="rId266" xr:uid="{C47B203B-8B5A-E740-8C86-0784AD28089E}"/>
-    <hyperlink ref="C292" r:id="rId267" xr:uid="{06DC2E54-7597-AE4D-ACDB-B8883A989A4F}"/>
-    <hyperlink ref="C293" r:id="rId268" xr:uid="{E3384259-7CA7-1C44-A66D-11346EE6742E}"/>
-    <hyperlink ref="C294" r:id="rId269" xr:uid="{A5B77769-38AF-3D47-A76B-311591B57D91}"/>
-    <hyperlink ref="C297" r:id="rId270" xr:uid="{9DB6976A-C646-1341-90E8-3A164521267A}"/>
-    <hyperlink ref="C298" r:id="rId271" xr:uid="{03C291F8-D19A-304B-9EF9-CF71A1F66E49}"/>
-    <hyperlink ref="C299" r:id="rId272" xr:uid="{7536415C-140B-9244-B0B2-23F3ED0B2D80}"/>
-    <hyperlink ref="C300" r:id="rId273" xr:uid="{7DBDA456-8AF6-DD43-9764-17D3959B8E8F}"/>
-    <hyperlink ref="C301" r:id="rId274" xr:uid="{BFC149AB-C15A-B648-9F6A-ECD3890B1918}"/>
-    <hyperlink ref="C302" r:id="rId275" xr:uid="{0482240B-FEE9-F746-8980-52BCB7BBB56E}"/>
-    <hyperlink ref="C303" r:id="rId276" xr:uid="{86D1231A-E7C8-4B45-99ED-2DB0EF71E190}"/>
-    <hyperlink ref="C304" r:id="rId277" xr:uid="{20B7CE89-CB37-0040-989F-C8D1BE2B8782}"/>
-    <hyperlink ref="C305" r:id="rId278" xr:uid="{4C8412C9-A47B-9244-A18B-741516BD1054}"/>
-    <hyperlink ref="C306" r:id="rId279" xr:uid="{511761D9-31CE-0B43-AFFD-C011C27ACC52}"/>
-    <hyperlink ref="C307" r:id="rId280" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." xr:uid="{6905F997-D048-1049-BA27-C48756603D1E}"/>
-    <hyperlink ref="C308" r:id="rId281" xr:uid="{E657AA82-7CFE-DB42-B20F-F63D8C25EAB6}"/>
-    <hyperlink ref="C309" r:id="rId282" xr:uid="{3E505033-58F3-8F4E-AB82-E12DBC226AEA}"/>
-    <hyperlink ref="C310" r:id="rId283" xr:uid="{749599E5-4972-7343-B13B-87E26F837470}"/>
-    <hyperlink ref="C311" r:id="rId284" xr:uid="{12AA88DC-22AB-5A49-B28C-F04C8E35A215}"/>
-    <hyperlink ref="C312" r:id="rId285" xr:uid="{5751F0A7-7D9D-4148-820B-5B9659DFE34F}"/>
-    <hyperlink ref="C313" r:id="rId286" xr:uid="{4CA2DBEE-B161-B84D-B3A9-B8BC1B598AF2}"/>
-    <hyperlink ref="C314" r:id="rId287" xr:uid="{A9C1E578-6594-954C-8785-8902E605FC7A}"/>
-    <hyperlink ref="C315" r:id="rId288" xr:uid="{3D45E9B8-6671-A747-8C18-51CF8883170A}"/>
-    <hyperlink ref="C316" r:id="rId289" xr:uid="{4F5EF748-8CD4-0F47-90CE-3C93755BF63D}"/>
-    <hyperlink ref="C317" r:id="rId290" xr:uid="{44053C08-5050-C84B-B016-069B1EF9A43D}"/>
-    <hyperlink ref="C318" r:id="rId291" xr:uid="{ABF38928-736B-1A49-8B8A-1DCA5AAECB2B}"/>
-    <hyperlink ref="C319" r:id="rId292" xr:uid="{52651FAF-F3DC-E949-8AF8-998B9724B7D1}"/>
-    <hyperlink ref="C320" r:id="rId293" xr:uid="{91C6CCEF-3FF7-2C42-B5A0-8F4A403ED198}"/>
-    <hyperlink ref="C321" r:id="rId294" xr:uid="{15C8AF08-1A79-F949-9BE7-DD240CBD9861}"/>
-    <hyperlink ref="C322" r:id="rId295" xr:uid="{1904F984-5B22-8D46-BC33-3073B390E8F9}"/>
-    <hyperlink ref="C323" r:id="rId296" xr:uid="{A8BFB3A4-426B-E646-BCF0-FE19C8CD07A9}"/>
-    <hyperlink ref="C324" r:id="rId297" xr:uid="{FBBA29BB-885B-744A-A644-58EDCA7B140A}"/>
-    <hyperlink ref="C325" r:id="rId298" xr:uid="{75411687-6884-AC42-8B4A-1348C4837365}"/>
-    <hyperlink ref="C326" r:id="rId299" xr:uid="{A89ED8DF-F678-FE43-808C-C190721379BF}"/>
-    <hyperlink ref="C327" r:id="rId300" xr:uid="{1516834D-F3B2-1743-8811-263E11BBDEF8}"/>
-    <hyperlink ref="C328" r:id="rId301" xr:uid="{1659AB91-08CA-E44D-988D-E9D9A746D406}"/>
-    <hyperlink ref="C329" r:id="rId302" xr:uid="{E844BC1D-9713-9F4D-B0A4-1124A9952D14}"/>
-    <hyperlink ref="C330" r:id="rId303" xr:uid="{DCE2AAEF-8D8E-1843-BFE9-E9B7E13854EB}"/>
-    <hyperlink ref="C331" r:id="rId304" xr:uid="{836B3BF0-7711-7D41-9E72-914C1871397F}"/>
-    <hyperlink ref="C332" r:id="rId305" xr:uid="{F450CF9B-CA59-1443-8163-13F1121DCF12}"/>
-    <hyperlink ref="C333" r:id="rId306" xr:uid="{1539C3E8-4854-3C4F-A7B3-55BF931F1E2A}"/>
-    <hyperlink ref="C334" r:id="rId307" xr:uid="{04F1FC5F-5DA1-0144-962D-B38C1C41F0F4}"/>
-    <hyperlink ref="C337" r:id="rId308" xr:uid="{B21618F4-70E2-C549-80B7-7CF915679E0A}"/>
-    <hyperlink ref="C338" r:id="rId309" xr:uid="{EEDFBF11-C1E4-0847-9D56-94A72D97AEE7}"/>
-    <hyperlink ref="C339" r:id="rId310" xr:uid="{F5C0EDF1-7EAC-8849-8D27-C3389913BFC6}"/>
-    <hyperlink ref="C340" r:id="rId311" xr:uid="{50175B29-124F-4E4E-8E98-961BD3320359}"/>
-    <hyperlink ref="C341" r:id="rId312" xr:uid="{1BE23822-8512-014F-9154-F6EDA4FC8428}"/>
-    <hyperlink ref="C342" r:id="rId313" xr:uid="{38EC228E-ABFF-3542-9CFB-3DDFC628E9D0}"/>
-    <hyperlink ref="C343" r:id="rId314" xr:uid="{73F240F8-C469-454E-BA5C-CFF2F7A7A5F6}"/>
-    <hyperlink ref="C344" r:id="rId315" xr:uid="{3BBD1BAC-68C7-A94A-9063-AF62B5C837FD}"/>
-    <hyperlink ref="C345" r:id="rId316" xr:uid="{F9751D9B-2689-E24B-9FC3-CA32FE888708}"/>
-    <hyperlink ref="C346" r:id="rId317" xr:uid="{73C61D6A-D97C-B944-8B27-BB91564AB0D7}"/>
-    <hyperlink ref="C347" r:id="rId318" xr:uid="{936E077C-C016-A04F-895A-782D6D9D9433}"/>
-    <hyperlink ref="C348" r:id="rId319" xr:uid="{5454A2A1-6607-BE48-9215-CB8965EC3568}"/>
-    <hyperlink ref="C349" r:id="rId320" xr:uid="{FC1EAA10-F7ED-6B42-A79B-3D8B44E2C8B3}"/>
-    <hyperlink ref="C350" r:id="rId321" xr:uid="{FDB7F712-4A42-1048-8929-A1E752B07C6A}"/>
-    <hyperlink ref="C351" r:id="rId322" xr:uid="{AF3ACA60-0B0E-E146-B51F-A2CD05EB6549}"/>
-    <hyperlink ref="C352" r:id="rId323" xr:uid="{BB63E040-7A1A-E046-9BDD-9CBD1DA89DE9}"/>
-    <hyperlink ref="C353" r:id="rId324" xr:uid="{9AF8FD93-CCC9-D540-AE9A-00583F309649}"/>
-    <hyperlink ref="C354" r:id="rId325" xr:uid="{66A746A0-71FE-E546-92B7-D1C3D582E067}"/>
-    <hyperlink ref="C358" r:id="rId326" xr:uid="{BD79CCE1-5315-3944-9F9B-618615EC4583}"/>
-    <hyperlink ref="C359" r:id="rId327" xr:uid="{A5068A51-C961-6847-BB27-40A850B6D393}"/>
-    <hyperlink ref="C360" r:id="rId328" xr:uid="{6B8D36F0-E796-B944-A456-E8A9E2EE0BDB}"/>
-    <hyperlink ref="C361" r:id="rId329" xr:uid="{776652B7-2C11-4641-BF6A-EABEEB9B55AB}"/>
-    <hyperlink ref="C362" r:id="rId330" xr:uid="{95C6B35D-712A-2343-B790-236B55C5EC49}"/>
-    <hyperlink ref="C363" r:id="rId331" xr:uid="{4ED53872-1FE9-F140-AA35-F228F762880B}"/>
-    <hyperlink ref="C364" r:id="rId332" xr:uid="{6D5E6A28-85AA-BF4C-B2BD-9378D6E28EC7}"/>
-    <hyperlink ref="C365" r:id="rId333" xr:uid="{BCAD1ECB-15EE-CF49-878E-AA682DE3AC22}"/>
-    <hyperlink ref="C366" r:id="rId334" xr:uid="{C85468B5-25E9-E446-808E-72CFE911F0C2}"/>
-    <hyperlink ref="C367" r:id="rId335" xr:uid="{9503AECA-1A6A-9640-A04C-4CEAA2304448}"/>
-    <hyperlink ref="C368" r:id="rId336" xr:uid="{74211516-06B0-AA45-845B-52C8202751DA}"/>
-    <hyperlink ref="C369" r:id="rId337" xr:uid="{02C696BC-4B91-9444-900F-9CD68E409ABC}"/>
-    <hyperlink ref="C370" r:id="rId338" xr:uid="{04646C45-4118-374C-839D-94D31D534FAC}"/>
-    <hyperlink ref="C371" r:id="rId339" xr:uid="{F90BCCAE-8596-FC4D-BDD7-774392C596DF}"/>
-    <hyperlink ref="C372" r:id="rId340" xr:uid="{65230925-36EC-8A4B-8E46-6350B9BC0F95}"/>
-    <hyperlink ref="C373" r:id="rId341" xr:uid="{E91B8177-0C7A-1F40-BD34-4CC60F03B84F}"/>
-    <hyperlink ref="C374" r:id="rId342" xr:uid="{E8CBFD60-7335-0B4D-9FF5-99B4A8DC551D}"/>
-    <hyperlink ref="C375" r:id="rId343" xr:uid="{A35F55D4-9B87-C745-94DB-E7D820193C30}"/>
-    <hyperlink ref="C376" r:id="rId344" xr:uid="{6461A29F-D404-334F-B13F-296B4CA5E8A4}"/>
-    <hyperlink ref="C377" r:id="rId345" xr:uid="{FA9B4BE7-85CC-B24F-9461-5E9B42DDD824}"/>
-    <hyperlink ref="C378" r:id="rId346" xr:uid="{A75ACEA2-CDF6-A147-8540-A6DF55B15F45}"/>
-    <hyperlink ref="C379" r:id="rId347" xr:uid="{62FF87E2-E658-AB4D-AC57-7BCF9D49516E}"/>
-    <hyperlink ref="C380" r:id="rId348" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." xr:uid="{269338A6-5145-6944-9F7F-BD2A86DFA308}"/>
-    <hyperlink ref="C381" r:id="rId349" xr:uid="{8F583049-CE8D-CD42-88CD-CF3857942670}"/>
-    <hyperlink ref="C382" r:id="rId350" xr:uid="{EE2348AD-E296-894A-B5AE-5884A3C5E419}"/>
-    <hyperlink ref="C383" r:id="rId351" xr:uid="{6EACB34E-B32E-8F43-8055-2406F7417A7E}"/>
-    <hyperlink ref="C384" r:id="rId352" xr:uid="{2446F10A-B762-B64C-97B2-6131A0BECC1F}"/>
-    <hyperlink ref="C385" r:id="rId353" xr:uid="{6FDFCC53-17A6-7244-88A7-49406D7C9200}"/>
-    <hyperlink ref="C386" r:id="rId354" xr:uid="{3EC43646-EAB1-E443-A2F6-8E6E5FC77083}"/>
-    <hyperlink ref="C387" r:id="rId355" xr:uid="{659D9F20-C862-C947-B422-84143CFE317F}"/>
-    <hyperlink ref="C388" r:id="rId356" xr:uid="{3F5192FE-1C50-C049-88D5-68FA0F5430A0}"/>
-    <hyperlink ref="C389" r:id="rId357" xr:uid="{5EAD7CDA-9545-454B-BE77-9AFEC6AC1083}"/>
-    <hyperlink ref="C390" r:id="rId358" xr:uid="{761E5451-736B-6745-9CF5-4C6EF5D4C099}"/>
-    <hyperlink ref="C391" r:id="rId359" xr:uid="{4C8677A9-D94C-134F-AF31-E424751BF867}"/>
-    <hyperlink ref="C392" r:id="rId360" xr:uid="{CCF7920F-D5CE-004A-86C3-D821FB230970}"/>
-    <hyperlink ref="C393" r:id="rId361" xr:uid="{B4C07A0A-1EDD-7947-9646-3FD603441AD7}"/>
-    <hyperlink ref="C394" r:id="rId362" xr:uid="{49F7BB43-6851-0641-9DC5-27DBC66706F6}"/>
-    <hyperlink ref="C395" r:id="rId363" xr:uid="{77038647-48C7-5547-8E0F-898610362465}"/>
-    <hyperlink ref="C397" r:id="rId364" xr:uid="{EEFFE19C-6571-C64F-A0E1-5A4A700D94D4}"/>
-    <hyperlink ref="C396" r:id="rId365" xr:uid="{A4A2BFC4-6B88-2E4E-B362-17D8EE041C89}"/>
-    <hyperlink ref="C398" r:id="rId366" xr:uid="{DC5B603A-8D65-3648-A08A-E5FFA0FAE879}"/>
-    <hyperlink ref="C399" r:id="rId367" xr:uid="{F8807DD9-F4F2-B147-9C31-DBC93B2E477B}"/>
-    <hyperlink ref="C400" r:id="rId368" xr:uid="{6F7B396C-D7E9-C04E-BAE2-53D2EE07172B}"/>
-    <hyperlink ref="C403" r:id="rId369" xr:uid="{0D4A5941-C669-4A49-BAE3-9B553D03BD0F}"/>
-    <hyperlink ref="C404" r:id="rId370" xr:uid="{54144336-5BCA-D749-962A-E448C2CED3D3}"/>
-    <hyperlink ref="C405" r:id="rId371" xr:uid="{3A41DD21-CACF-1F48-A7C7-F568C6F31F3E}"/>
-    <hyperlink ref="C406" r:id="rId372" xr:uid="{A36160A8-F45E-3443-9645-42C1004B8F8C}"/>
-    <hyperlink ref="C407" r:id="rId373" xr:uid="{8B0A00A3-6AC0-DF46-AD87-A4DA016A2A00}"/>
-    <hyperlink ref="C408" r:id="rId374" xr:uid="{62A81CB4-A961-C543-B31C-92059DB6C105}"/>
-    <hyperlink ref="C411" r:id="rId375" xr:uid="{08030975-009C-C34A-A875-72FE2718F44C}"/>
-    <hyperlink ref="C412" r:id="rId376" xr:uid="{A113C7A9-2359-B643-9C08-E845813439C0}"/>
-    <hyperlink ref="C413" r:id="rId377" xr:uid="{FE300343-4633-AD47-A64D-2086629EB398}"/>
-    <hyperlink ref="C414" r:id="rId378" xr:uid="{4FC9F782-D38F-C642-A863-887B17AD05CD}"/>
-    <hyperlink ref="C415" r:id="rId379" xr:uid="{830C5466-10E3-7A48-B3E7-35C15A1CA4EF}"/>
-    <hyperlink ref="C416" r:id="rId380" xr:uid="{1B987077-E9D3-6F40-89EE-0D4E7180D884}"/>
-    <hyperlink ref="C417" r:id="rId381" xr:uid="{D4843E1F-7226-864E-A4BB-264D5A487B6D}"/>
-    <hyperlink ref="C418" r:id="rId382" xr:uid="{61816592-2D19-9946-8253-47A60218F2EA}"/>
-    <hyperlink ref="C419" r:id="rId383" xr:uid="{736C840F-19A3-0A4B-8863-ECB772B46385}"/>
-    <hyperlink ref="C420" r:id="rId384" xr:uid="{05A238AD-3C5B-C546-94E9-75BBF964711A}"/>
-    <hyperlink ref="C421" r:id="rId385" xr:uid="{7029629C-3F2A-4A49-997B-CFE86EC8B3C2}"/>
-    <hyperlink ref="C422" r:id="rId386" xr:uid="{ADA66B57-2FAC-AB42-BD83-4931708F3AB5}"/>
-    <hyperlink ref="C423" r:id="rId387" xr:uid="{F16BF1F9-755B-B045-B9A8-0B97E3BAC8B0}"/>
-    <hyperlink ref="C424" r:id="rId388" xr:uid="{ECCE930A-B960-234C-81EC-4B8514282AE9}"/>
-    <hyperlink ref="C425" r:id="rId389" xr:uid="{7AA58141-7D24-7C42-A0C1-F852B21CFFD9}"/>
-    <hyperlink ref="C426" r:id="rId390" xr:uid="{B1FCB47D-7921-3446-B2C7-72CBA815D056}"/>
-    <hyperlink ref="C427" r:id="rId391" xr:uid="{8C547719-AA03-3543-B31F-7300674AF4C5}"/>
-    <hyperlink ref="C428" r:id="rId392" xr:uid="{09922668-AFC0-F242-860E-9967E0F0FEF4}"/>
-    <hyperlink ref="C429" r:id="rId393" xr:uid="{0DA963DA-238B-D44E-9E03-6E6BD933B35E}"/>
-    <hyperlink ref="C430" r:id="rId394" xr:uid="{89518AFF-2526-C845-BC9D-95FE77AF416E}"/>
-    <hyperlink ref="C431" r:id="rId395" xr:uid="{FAECBBBE-196C-7A41-A0FB-E0597CB2CF51}"/>
-    <hyperlink ref="C432" r:id="rId396" xr:uid="{8126B039-0B25-B040-A0F6-C3457341A2E9}"/>
-    <hyperlink ref="C433" r:id="rId397" xr:uid="{6CB326E6-E698-EB42-884B-C89FFA33E3BA}"/>
-    <hyperlink ref="C434" r:id="rId398" xr:uid="{8C97EFD1-933F-A44F-A1CF-6386233104A2}"/>
-    <hyperlink ref="C435" r:id="rId399" xr:uid="{8F019F07-8532-E147-8BE1-4EBE833F61CA}"/>
-    <hyperlink ref="C436" r:id="rId400" xr:uid="{00F1A08F-3767-784A-97A3-4603DE38BACC}"/>
-    <hyperlink ref="C437" r:id="rId401" xr:uid="{2A84ADCB-071F-9A48-994D-7A838307EFD8}"/>
-    <hyperlink ref="C438" r:id="rId402" xr:uid="{132F8C6D-D5E8-6440-AC4E-B81EA2100416}"/>
-    <hyperlink ref="C439" r:id="rId403" xr:uid="{2DA6EAC2-1A1D-754F-9613-226CBC7890AF}"/>
-    <hyperlink ref="C440" r:id="rId404" xr:uid="{05BED99A-4562-D14E-8627-D07CF5335A9B}"/>
-    <hyperlink ref="C441" r:id="rId405" xr:uid="{111D902A-3F60-2D4B-89D3-5BCBD8AA38DD}"/>
-    <hyperlink ref="C442" r:id="rId406" xr:uid="{F19236BE-AC32-3542-9214-DFC3BAE04ED0}"/>
-    <hyperlink ref="C443" r:id="rId407" xr:uid="{4D97CD96-EA1B-664E-9380-EFD27077D273}"/>
-    <hyperlink ref="C444" r:id="rId408" xr:uid="{49A46D91-633F-A148-ACFA-49B7D1AA4B33}"/>
-    <hyperlink ref="C445" r:id="rId409" xr:uid="{7C3B7901-67E3-EA4D-BC64-21A78BC03AC6}"/>
-    <hyperlink ref="C446" r:id="rId410" xr:uid="{B27CA8C3-D34F-5E4D-94A5-11D14AFD0F82}"/>
-    <hyperlink ref="C447" r:id="rId411" xr:uid="{8FECE038-9764-5E4A-8C6E-9B3209812651}"/>
-    <hyperlink ref="C448" r:id="rId412" xr:uid="{95696D4B-89CB-5640-BE92-53B3C043F7EB}"/>
-    <hyperlink ref="C449" r:id="rId413" xr:uid="{DA74B737-802A-4944-A93E-0B9C8417630B}"/>
-    <hyperlink ref="C450" r:id="rId414" xr:uid="{B2C4C168-50FA-AF41-8F56-9E70613CF17D}"/>
-    <hyperlink ref="C452" r:id="rId415" xr:uid="{B7090C60-AC27-3F4F-8F0D-42F0791928C6}"/>
-    <hyperlink ref="C451" r:id="rId416" xr:uid="{07400041-66C6-514B-B3E3-427F2947C2B7}"/>
-    <hyperlink ref="C453" r:id="rId417" xr:uid="{B7E78172-8FB8-4E42-87D8-6A4654D79C62}"/>
-    <hyperlink ref="C454" r:id="rId418" xr:uid="{9A5D4670-BC64-334A-88CF-6F8287692C5E}"/>
-    <hyperlink ref="C455" r:id="rId419" xr:uid="{604283B6-53BC-044F-8D9D-E6094E798317}"/>
-    <hyperlink ref="C456" r:id="rId420" xr:uid="{5EB15AC7-3E0E-E44C-A5B9-32F30F234B5A}"/>
-    <hyperlink ref="C457" r:id="rId421" xr:uid="{3076BD5F-4B23-4146-A50A-499C9FF4C3D2}"/>
-    <hyperlink ref="C458" r:id="rId422" xr:uid="{6A29D9C2-1E78-1B43-A251-0AB0A97FA70E}"/>
-    <hyperlink ref="C459" r:id="rId423" xr:uid="{00597D5E-D693-DF4E-84C0-47E58A6ACA8F}"/>
-    <hyperlink ref="C460" r:id="rId424" xr:uid="{48640988-9964-0B4C-A014-83E2CEB3D632}"/>
-    <hyperlink ref="C461" r:id="rId425" xr:uid="{617AADC9-7534-FE45-96B0-EF4C1867B793}"/>
-    <hyperlink ref="C462" r:id="rId426" xr:uid="{7F8CDAA4-5094-8E4E-961B-41CDE5ACC0C0}"/>
-    <hyperlink ref="C463" r:id="rId427" xr:uid="{63F28ABD-12CF-5947-80DA-229E3CA3133E}"/>
-    <hyperlink ref="C470" r:id="rId428" xr:uid="{0A1DB92C-3315-1942-B27D-4B90986A6D9D}"/>
-    <hyperlink ref="C469" r:id="rId429" xr:uid="{11738B67-CADD-5D45-8417-8BE7A03FC79F}"/>
-    <hyperlink ref="C468" r:id="rId430" xr:uid="{B2B23748-D9E4-BE4F-A93E-49ECB4063831}"/>
-    <hyperlink ref="C467" r:id="rId431" xr:uid="{A2FB8A72-37B9-7E4A-B050-FD6CD20BCE73}"/>
-    <hyperlink ref="C466" r:id="rId432" xr:uid="{5A93C9AF-BFEB-EB40-95AC-C309ED09A604}"/>
-    <hyperlink ref="C465" r:id="rId433" xr:uid="{CC203923-2DC2-874B-B846-A8455E3CC2F2}"/>
-    <hyperlink ref="C464" r:id="rId434" xr:uid="{FCB0246E-0179-B447-B3CE-C60CDB388472}"/>
-    <hyperlink ref="C473" r:id="rId435" xr:uid="{F06CEE72-8CA4-C547-862C-39B86CD3226A}"/>
-    <hyperlink ref="C474" r:id="rId436" xr:uid="{CB3045F2-8D63-0F4E-85BC-AF016DB4F247}"/>
-    <hyperlink ref="C475" r:id="rId437" xr:uid="{667D57F5-E5AD-674F-A2F5-AFF4A14E4026}"/>
-    <hyperlink ref="C476" r:id="rId438" xr:uid="{27A13A65-56CE-BF4D-BA0D-EB87D910272D}"/>
-    <hyperlink ref="C477" r:id="rId439" xr:uid="{2C72A52E-6F06-0246-AEB5-93CD0DEA8866}"/>
-    <hyperlink ref="C478" r:id="rId440" xr:uid="{24B29046-B4DD-674B-9EDF-6C94BEC3FDD8}"/>
-    <hyperlink ref="C479" r:id="rId441" xr:uid="{D018EBC3-3FB3-AC4D-9D64-D218345A46C8}"/>
-    <hyperlink ref="C482" r:id="rId442" xr:uid="{1E1D3964-01E0-3145-ACFE-B6A5BF0EECB0}"/>
-    <hyperlink ref="C480" r:id="rId443" xr:uid="{FA0E5061-A7E2-C045-9671-1CD9446D1932}"/>
-    <hyperlink ref="C481" r:id="rId444" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{92704F5B-7B31-2F42-80DD-764B2206D9DB}"/>
-    <hyperlink ref="C357" r:id="rId445" xr:uid="{A48B1A24-83B1-7A4C-8129-CD37804DF849}"/>
-    <hyperlink ref="C8" r:id="rId446" display="Write a Program to sort array Using Quick Sort_files" xr:uid="{F0DDC999-C321-4AB4-BA9D-7538150E84D3}"/>
+    <hyperlink ref="C15" r:id="rId1" xr:uid="{9492A4AD-FA44-BA4B-B154-E4DBB1951162}"/>
+    <hyperlink ref="C16" r:id="rId2" xr:uid="{2D6F1134-3C08-7445-B19A-9B94A18B55C7}"/>
+    <hyperlink ref="C18" r:id="rId3" xr:uid="{E5A98931-37E8-6B4A-90BE-8DC72405341A}"/>
+    <hyperlink ref="C19" r:id="rId4" xr:uid="{02736918-E09F-7A46-90B3-AFCC33AA559B}"/>
+    <hyperlink ref="C20" r:id="rId5" xr:uid="{6E8DD30A-A9F9-4C44-B26C-C9E236F10798}"/>
+    <hyperlink ref="C21" r:id="rId6" xr:uid="{0D55765B-95A7-154F-96F3-B7E4C581021F}"/>
+    <hyperlink ref="C22" r:id="rId7" xr:uid="{6F687ABA-C04B-AF4F-9F11-A038DCB20FB9}"/>
+    <hyperlink ref="C23" r:id="rId8" xr:uid="{11C9D8CC-9F1E-004E-8EC2-C758DC9C8CAB}"/>
+    <hyperlink ref="C24" r:id="rId9" xr:uid="{56E4962F-CB3D-9E48-A26E-19A1F5C800C9}"/>
+    <hyperlink ref="C25" r:id="rId10" xr:uid="{899DDBD9-9ED6-3A4D-8AFE-8FAA6DA88DBC}"/>
+    <hyperlink ref="C26" r:id="rId11" xr:uid="{76D41EAC-A28A-2845-8515-CA3C70D823B7}"/>
+    <hyperlink ref="C27" r:id="rId12" xr:uid="{828948BE-DD97-DE4A-BAD6-B415E29198F0}"/>
+    <hyperlink ref="C28" r:id="rId13" xr:uid="{E98C86AA-12E7-124C-B7D0-BCDFB246040B}"/>
+    <hyperlink ref="C29" r:id="rId14" xr:uid="{192741A9-FF68-DC4A-99FA-69F9968AB4F2}"/>
+    <hyperlink ref="C30" r:id="rId15" xr:uid="{DBD9BA9C-91C6-B144-A800-DCB3BED33DE7}"/>
+    <hyperlink ref="C31" r:id="rId16" xr:uid="{A285BDE8-00E7-A94C-8E43-A0C4829D42FA}"/>
+    <hyperlink ref="C32" r:id="rId17" xr:uid="{B0C21764-2962-1649-8AFA-10FB9420C5FC}"/>
+    <hyperlink ref="C33" r:id="rId18" xr:uid="{9282CC15-9B38-E54B-B64C-557745C9C00A}"/>
+    <hyperlink ref="C34" r:id="rId19" xr:uid="{3BCCEBE2-AC3B-AC4F-8BA9-439ACEA133D4}"/>
+    <hyperlink ref="C35" r:id="rId20" xr:uid="{74F8D761-6EBF-594A-A6C7-40DE4CE96958}"/>
+    <hyperlink ref="C36" r:id="rId21" xr:uid="{79947FE6-D417-D644-81D8-D058180550A0}"/>
+    <hyperlink ref="C37" r:id="rId22" xr:uid="{2BF3F606-410B-264D-BF60-191C34D616BB}"/>
+    <hyperlink ref="C38" r:id="rId23" xr:uid="{CD98DB26-0F2F-FD40-A989-53FE548D7D34}"/>
+    <hyperlink ref="C39" r:id="rId24" xr:uid="{307032A1-F8EF-1A48-BFE3-EA3283D39BE2}"/>
+    <hyperlink ref="C40" r:id="rId25" xr:uid="{AA329F36-941A-9241-9402-9D220B05E719}"/>
+    <hyperlink ref="C41" r:id="rId26" xr:uid="{9E851DAC-0E30-B340-84F9-721D70B66919}"/>
+    <hyperlink ref="C42" r:id="rId27" xr:uid="{468380BA-4978-A645-ABD0-E74FD3E6BDBB}"/>
+    <hyperlink ref="C43" r:id="rId28" xr:uid="{289E6890-8CCB-D645-9B3F-6138FFC1C249}"/>
+    <hyperlink ref="C44" r:id="rId29" xr:uid="{8EABDC68-858F-784A-A8F1-C603E3B8C1FE}"/>
+    <hyperlink ref="C45" r:id="rId30" xr:uid="{6157E427-1210-3F45-A4DC-6DFD2373B9CF}"/>
+    <hyperlink ref="C46" r:id="rId31" xr:uid="{2D7BA55E-9947-FF4D-BC09-FB4A5ADA07EC}"/>
+    <hyperlink ref="C47" r:id="rId32" xr:uid="{3337C74F-8B73-E64E-A6DA-5D9F7C7B4D32}"/>
+    <hyperlink ref="C48" r:id="rId33" xr:uid="{02370124-E58D-B540-BBCF-98266229556D}"/>
+    <hyperlink ref="C49" r:id="rId34" xr:uid="{F2DE2162-BD02-7549-AC1A-27455F78131F}"/>
+    <hyperlink ref="C50" r:id="rId35" xr:uid="{6FA286B9-3994-624D-B0B8-C01657D110AD}"/>
+    <hyperlink ref="C51" r:id="rId36" xr:uid="{6EFBEDA1-5C10-2547-8FB2-44E977513B28}"/>
+    <hyperlink ref="C54" r:id="rId37" xr:uid="{090EC515-BEBE-514E-BA59-A84E450B4211}"/>
+    <hyperlink ref="C55" r:id="rId38" xr:uid="{0A0557FD-77E5-564B-B100-147D544A38B4}"/>
+    <hyperlink ref="C56" r:id="rId39" xr:uid="{3F82F2E0-AA59-5042-B079-F3B3C6FF2FD7}"/>
+    <hyperlink ref="C57" r:id="rId40" xr:uid="{FFF7D257-1F58-5A4B-AAA2-F5480AED86C7}"/>
+    <hyperlink ref="C58" r:id="rId41" xr:uid="{353E28FA-E36D-7447-9DE8-787DF11C4669}"/>
+    <hyperlink ref="C59" r:id="rId42" xr:uid="{F9B53127-FC98-FE43-B53F-BFDBCE2A4427}"/>
+    <hyperlink ref="C60" r:id="rId43" xr:uid="{40685BBC-CE24-624E-9ABB-98490B7DE0E4}"/>
+    <hyperlink ref="C61" r:id="rId44" xr:uid="{7733D505-2EC7-E346-B3DA-C980C7CE0B27}"/>
+    <hyperlink ref="C62" r:id="rId45" xr:uid="{E8C1FE00-7B4B-5745-8E4B-CD44B6C749E3}"/>
+    <hyperlink ref="C63" r:id="rId46" xr:uid="{FDE181B1-57B0-7C4B-A189-C7C6E4EAEF99}"/>
+    <hyperlink ref="C66" r:id="rId47" xr:uid="{FE85FD72-4FC9-334E-8205-9E8B238954EB}"/>
+    <hyperlink ref="C67" r:id="rId48" xr:uid="{7630AD76-7E6B-8C4A-BA33-A62EBB042215}"/>
+    <hyperlink ref="C68" r:id="rId49" xr:uid="{2A738B70-CBF0-CC40-8B05-A271822B3F1A}"/>
+    <hyperlink ref="C70" r:id="rId50" xr:uid="{B2DE2D9E-8371-CD44-9D0D-4D6DC64AC29B}"/>
+    <hyperlink ref="C71" r:id="rId51" xr:uid="{265DCD11-17A0-654E-BEFE-FABA31210C6E}"/>
+    <hyperlink ref="C72" r:id="rId52" xr:uid="{47F1BB0C-0C5C-0845-8EEC-1560C50D7DA7}"/>
+    <hyperlink ref="C73" r:id="rId53" xr:uid="{8E0BFA2E-CCB4-514F-86CD-78176C6CC98A}"/>
+    <hyperlink ref="C74" r:id="rId54" xr:uid="{E4DEFB4B-749F-8746-97C7-F2B433664A74}"/>
+    <hyperlink ref="C75" r:id="rId55" xr:uid="{8301BDBD-EB7E-7D41-A777-ED99C3F9D67D}"/>
+    <hyperlink ref="C76" r:id="rId56" xr:uid="{927AE532-647F-AF4C-A567-40ADA6FCE534}"/>
+    <hyperlink ref="C77" r:id="rId57" xr:uid="{05489F52-CC92-EC44-9AD3-773DEC3B1D36}"/>
+    <hyperlink ref="C78" r:id="rId58" xr:uid="{13025DF6-C30E-014A-B66C-68C4AAAC1C6E}"/>
+    <hyperlink ref="C79" r:id="rId59" xr:uid="{BEE1F613-C189-B949-A225-0E0C5AFD1532}"/>
+    <hyperlink ref="C80" r:id="rId60" xr:uid="{1DFECD6C-D7CC-0340-B29B-4D56E50711E5}"/>
+    <hyperlink ref="C81" r:id="rId61" xr:uid="{70BED156-B004-E043-BF7D-59EFAA9EADAF}"/>
+    <hyperlink ref="C82" r:id="rId62" xr:uid="{FF9CBAFB-900E-E242-8B33-EDF46F0F40B5}"/>
+    <hyperlink ref="C83" r:id="rId63" xr:uid="{19461114-B3E8-9042-8029-100010946A04}"/>
+    <hyperlink ref="C84" r:id="rId64" xr:uid="{00F71118-E30B-A84E-819E-FFA902C70502}"/>
+    <hyperlink ref="C85" r:id="rId65" xr:uid="{58E70966-BBE0-7743-A250-AE4DD57807DE}"/>
+    <hyperlink ref="C86" r:id="rId66" xr:uid="{09409FE3-9D7E-4F43-BB21-14A1B8D6E480}"/>
+    <hyperlink ref="C87" r:id="rId67" xr:uid="{E199A3DC-3DA1-C648-93C0-DF9CD5331204}"/>
+    <hyperlink ref="C88" r:id="rId68" xr:uid="{85886847-1510-AA46-B10C-F3D80591DD74}"/>
+    <hyperlink ref="C89" r:id="rId69" xr:uid="{F60808FC-F09D-FC44-B2DD-752E55A1C698}"/>
+    <hyperlink ref="C90" r:id="rId70" xr:uid="{16B2725E-1AD5-0441-9B5B-B6B2F458091B}"/>
+    <hyperlink ref="C91" r:id="rId71" xr:uid="{8440D753-5DE9-3243-97C2-C09D195C325F}"/>
+    <hyperlink ref="C92" r:id="rId72" xr:uid="{AC63A963-B6CC-6E4E-B72A-7F472BC4C027}"/>
+    <hyperlink ref="C93" r:id="rId73" xr:uid="{B21B87F1-A0C0-7F4E-B36F-912B871D0EF4}"/>
+    <hyperlink ref="C94" r:id="rId74" xr:uid="{789FFFAC-8B7E-0540-98B8-856430EB56F8}"/>
+    <hyperlink ref="C95" r:id="rId75" xr:uid="{4A0E959E-22F4-6948-A819-76FE76AB9F6D}"/>
+    <hyperlink ref="C96" r:id="rId76" xr:uid="{78B76678-D8EE-9745-98B1-DF7A76EA3B10}"/>
+    <hyperlink ref="C97" r:id="rId77" xr:uid="{62982242-1D19-1544-8653-8E25E9BF4505}"/>
+    <hyperlink ref="C98" r:id="rId78" xr:uid="{8E3D4BDF-9F8F-0542-BFD8-C3CE3BF396E6}"/>
+    <hyperlink ref="C99" r:id="rId79" xr:uid="{A3D51762-65A1-9A44-B619-D1D98A7F403B}"/>
+    <hyperlink ref="C100" r:id="rId80" xr:uid="{ED0F5FC7-0066-EB44-8FCF-460600DADB02}"/>
+    <hyperlink ref="C101" r:id="rId81" xr:uid="{2D956AC4-4774-7446-8473-C4CE00E33C17}"/>
+    <hyperlink ref="C102" r:id="rId82" xr:uid="{C8C607BB-1FEE-FA47-9E3E-6C0BCE978B7F}"/>
+    <hyperlink ref="C103" r:id="rId83" xr:uid="{B9AC5194-6D36-684A-A5C4-BEE11037599F}"/>
+    <hyperlink ref="C104" r:id="rId84" xr:uid="{AB28D9E6-890C-F14A-A5FB-2303BE319968}"/>
+    <hyperlink ref="C105" r:id="rId85" xr:uid="{1F507CBC-4056-AD46-9314-95ECBB9D799D}"/>
+    <hyperlink ref="C106" r:id="rId86" xr:uid="{F152A9AF-5CBA-EC44-A9CF-07AB481435AB}"/>
+    <hyperlink ref="C107" r:id="rId87" xr:uid="{346CA74F-60B7-0A4B-A612-9184D4DCFF62}"/>
+    <hyperlink ref="C108" r:id="rId88" xr:uid="{8C653CB1-4954-754F-8D46-F09141A2FCDB}"/>
+    <hyperlink ref="C111" r:id="rId89" xr:uid="{5989F693-2A61-A346-8395-8674307A4CC2}"/>
+    <hyperlink ref="C112" r:id="rId90" xr:uid="{3AD10C9E-4F6D-DE48-92F3-531A586520C6}"/>
+    <hyperlink ref="C113" r:id="rId91" xr:uid="{4FA217C0-A1F3-904E-8FEA-EA4941273A67}"/>
+    <hyperlink ref="C114" r:id="rId92" xr:uid="{A297BBC0-FA0D-2D46-9C49-3932193EF1D3}"/>
+    <hyperlink ref="C116" r:id="rId93" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance." xr:uid="{DCD751DE-E440-F346-B6FD-CBD072217214}"/>
+    <hyperlink ref="C117" r:id="rId94" xr:uid="{B2FD38B9-1E2B-8140-8291-F45734C98145}"/>
+    <hyperlink ref="C118" r:id="rId95" xr:uid="{C76888B3-18AC-9B48-9E2A-64A7DF0902B7}"/>
+    <hyperlink ref="C119" r:id="rId96" xr:uid="{18A79860-6C9E-A941-8D6C-360B9913E941}"/>
+    <hyperlink ref="C120" r:id="rId97" xr:uid="{C0DDFD68-CBC1-0F4A-AF40-ACF36BBC8453}"/>
+    <hyperlink ref="C121" r:id="rId98" xr:uid="{3E0BF737-E42E-C946-B32C-06882E0BA6FF}"/>
+    <hyperlink ref="C123" r:id="rId99" xr:uid="{862F9782-C57B-2848-A2D9-EB7B52FB7EC7}"/>
+    <hyperlink ref="C124" r:id="rId100" xr:uid="{230D7A6A-D2C5-C140-9A65-B1F407D22062}"/>
+    <hyperlink ref="C125" r:id="rId101" xr:uid="{BDC2BA28-4562-984E-8282-1126BF952EAF}"/>
+    <hyperlink ref="C126" r:id="rId102" xr:uid="{B53A5F28-6DED-3D47-8679-F78D3DDEFF01}"/>
+    <hyperlink ref="C127" r:id="rId103" xr:uid="{C57D0CC7-DA2F-0948-9BCE-F19C20C7D981}"/>
+    <hyperlink ref="C128" r:id="rId104" xr:uid="{117878E5-B8C8-254B-8ED6-014B4B7A8126}"/>
+    <hyperlink ref="C129" r:id="rId105" xr:uid="{B7CC0756-74F2-D54D-BDEE-9DA394DD7168}"/>
+    <hyperlink ref="C130" r:id="rId106" xr:uid="{837EF472-CCC2-CF47-A8A8-238E56F722CE}"/>
+    <hyperlink ref="C131" r:id="rId107" xr:uid="{3608F267-6AA0-624B-B243-7DDD317E9F08}"/>
+    <hyperlink ref="C132" r:id="rId108" xr:uid="{0B6123E6-0472-374B-ACA7-6914CD7918E8}"/>
+    <hyperlink ref="C133" r:id="rId109" xr:uid="{D3971CEB-C53E-B04B-9C32-1803182B5DC5}"/>
+    <hyperlink ref="C134" r:id="rId110" xr:uid="{7CF5013A-643E-1643-93A1-A2F1500D2A23}"/>
+    <hyperlink ref="C135" r:id="rId111" xr:uid="{2A6BE7E5-D818-6843-8C3E-99EA2BFE0FB2}"/>
+    <hyperlink ref="C136" r:id="rId112" xr:uid="{E718F544-96DF-A04E-8DFB-7639DA3EA57C}"/>
+    <hyperlink ref="C137" r:id="rId113" xr:uid="{B0C2F065-424A-7345-A864-346ECD98D749}"/>
+    <hyperlink ref="C138" r:id="rId114" xr:uid="{B4E26955-5C3F-804E-B19A-11260310AFB3}"/>
+    <hyperlink ref="C139" r:id="rId115" xr:uid="{6F299BB5-8E82-0240-A9A3-6829CE3ABCBF}"/>
+    <hyperlink ref="C140" r:id="rId116" xr:uid="{A42CA32F-2196-1840-A53D-E5073237C68D}"/>
+    <hyperlink ref="C141" r:id="rId117" xr:uid="{7ECF6EF4-962E-4642-9B1C-C3B70674793E}"/>
+    <hyperlink ref="C142" r:id="rId118" xr:uid="{2A109178-6B60-164E-9D25-42B3282137E3}"/>
+    <hyperlink ref="C143" r:id="rId119" xr:uid="{B3D38BD0-A6A1-8D41-8405-45E1BEEEEF06}"/>
+    <hyperlink ref="C144" r:id="rId120" xr:uid="{A1C26612-D040-2A41-A6A6-A8F2490C0A43}"/>
+    <hyperlink ref="C145" r:id="rId121" xr:uid="{C476E807-64CB-F44A-A23D-D21EBF6D001D}"/>
+    <hyperlink ref="C146" r:id="rId122" xr:uid="{9A414D55-D4A1-F147-9207-61B597D57136}"/>
+    <hyperlink ref="C115" r:id="rId123" xr:uid="{18B028A7-9B6F-D841-8548-924D70530779}"/>
+    <hyperlink ref="C122" r:id="rId124" xr:uid="{6D3E75EF-733F-7A4B-81C8-AEF6CB6335F0}"/>
+    <hyperlink ref="C149" r:id="rId125" xr:uid="{C9EB2682-BE0B-934B-B0B4-1DD1A1502647}"/>
+    <hyperlink ref="C150" r:id="rId126" xr:uid="{2992FED9-2B78-A342-92AA-E7C0F882FF17}"/>
+    <hyperlink ref="C151" r:id="rId127" xr:uid="{0084DA6F-EC84-BD48-BDA8-EBACA3BB3B3E}"/>
+    <hyperlink ref="C152" r:id="rId128" xr:uid="{30F2D415-4B2C-384C-8EAE-2CC71CB518E2}"/>
+    <hyperlink ref="C153" r:id="rId129" xr:uid="{40734C88-7C5B-9747-86D1-03463D9AD41A}"/>
+    <hyperlink ref="C154" r:id="rId130" xr:uid="{1040D22F-6729-104A-A229-CBDCED93024A}"/>
+    <hyperlink ref="C155" r:id="rId131" xr:uid="{E131FE61-FABF-8E4B-8EF0-F68379D8F836}"/>
+    <hyperlink ref="C156" r:id="rId132" xr:uid="{B2129272-1351-3745-883B-E6A7115450C8}"/>
+    <hyperlink ref="C157" r:id="rId133" xr:uid="{C8B2DEF0-2B69-C84E-8013-0B6F03FFC250}"/>
+    <hyperlink ref="C158" r:id="rId134" xr:uid="{536AC5CF-712F-BF48-94A9-D0E7DC013020}"/>
+    <hyperlink ref="C159" r:id="rId135" xr:uid="{2DABC9C7-43D4-1249-AF9B-5FA4552611CB}"/>
+    <hyperlink ref="C160" r:id="rId136" xr:uid="{DA62E73A-B495-F94A-BECE-D42E4CBF074A}"/>
+    <hyperlink ref="C161" r:id="rId137" xr:uid="{7F5E6966-850D-4F49-B2A5-678365713F28}"/>
+    <hyperlink ref="C162" r:id="rId138" xr:uid="{E9C4286D-8493-9A47-8B8C-09583FA72B70}"/>
+    <hyperlink ref="C163" r:id="rId139" xr:uid="{9EB0123C-84AE-1C4D-BA1A-C28CFB8EFB89}"/>
+    <hyperlink ref="C164" r:id="rId140" xr:uid="{9D11FED4-328F-674E-889D-EC781DD1D791}"/>
+    <hyperlink ref="C165" r:id="rId141" xr:uid="{48AE72DB-397B-464D-88AD-B8058ED29CC1}"/>
+    <hyperlink ref="C166" r:id="rId142" xr:uid="{152D50E9-7448-F542-AC66-05D0AE66664C}"/>
+    <hyperlink ref="C167" r:id="rId143" xr:uid="{34E6AF1B-5FB1-3A4B-8938-1DCF80831DC2}"/>
+    <hyperlink ref="C168" r:id="rId144" xr:uid="{E7F8B7CA-49F4-1946-91EE-E7582BE4E5DA}"/>
+    <hyperlink ref="C169" r:id="rId145" xr:uid="{3590A994-B7A2-C14D-9BF8-7AC8FE9E7F0F}"/>
+    <hyperlink ref="C170" r:id="rId146" xr:uid="{0AAA4B0C-4921-C34D-B41E-D702FA860892}"/>
+    <hyperlink ref="C171" r:id="rId147" xr:uid="{5973FCA4-AE32-5248-A6ED-2694367332F1}"/>
+    <hyperlink ref="C172" r:id="rId148" xr:uid="{4C0F816E-F043-0C47-BF16-1CDAD88D2FF1}"/>
+    <hyperlink ref="C173" r:id="rId149" xr:uid="{A8E4C654-D0BD-8945-9F5C-B09F7BC114BE}"/>
+    <hyperlink ref="C176" r:id="rId150" xr:uid="{E3825C15-10BB-E24F-B229-983F651DA942}"/>
+    <hyperlink ref="C177" r:id="rId151" xr:uid="{46ECFC31-388C-6241-8FFE-DED6F2FC794A}"/>
+    <hyperlink ref="C178" r:id="rId152" xr:uid="{589E024D-3FE1-1048-890C-88289733F233}"/>
+    <hyperlink ref="C179" r:id="rId153" xr:uid="{CDA28F7A-7FC5-F74D-B27E-A6E0161D41D5}"/>
+    <hyperlink ref="C180" r:id="rId154" xr:uid="{DA6A0D92-DCEB-DA4F-8BBA-10FCD092838F}"/>
+    <hyperlink ref="C181" r:id="rId155" xr:uid="{955769DB-3256-254B-90DE-E1E01B272F8A}"/>
+    <hyperlink ref="C182" r:id="rId156" xr:uid="{DED7AC9B-40D7-0545-9D6F-6CD4F5FFE4C6}"/>
+    <hyperlink ref="C183" r:id="rId157" xr:uid="{6947A4E1-B6AA-6D4F-A6D8-8FA74FD02887}"/>
+    <hyperlink ref="C184" r:id="rId158" xr:uid="{EABF2012-5A90-0C4E-86F6-FDB5FA7770BE}"/>
+    <hyperlink ref="C187" r:id="rId159" xr:uid="{7F44CFE0-9ED1-A44D-B9EF-CF87BEB644FC}"/>
+    <hyperlink ref="C188" r:id="rId160" xr:uid="{CF6E0CF6-7A93-D84A-9CE0-5BDD51767416}"/>
+    <hyperlink ref="C189" r:id="rId161" xr:uid="{EFF8F154-60B8-B84B-84CA-32756BD6430F}"/>
+    <hyperlink ref="C190" r:id="rId162" xr:uid="{C8A3094E-E11B-2543-B05E-1D07048B2EBA}"/>
+    <hyperlink ref="C191" r:id="rId163" xr:uid="{9961E5F5-B5C6-0C4D-A1D0-D04D2A5D7DFD}"/>
+    <hyperlink ref="C192" r:id="rId164" xr:uid="{44E289EC-47DD-D94D-88C1-CB2F59C6C16A}"/>
+    <hyperlink ref="C193" r:id="rId165" xr:uid="{4161FC70-DD6D-684B-898A-A4711596B2D5}"/>
+    <hyperlink ref="C194" r:id="rId166" xr:uid="{B9CBE387-8E9A-ED48-8310-CF7D34FA690C}"/>
+    <hyperlink ref="C195" r:id="rId167" xr:uid="{5398097B-24FF-9543-8F02-33CE2860F1F7}"/>
+    <hyperlink ref="C196" r:id="rId168" xr:uid="{3B1FC30B-30C8-7B48-AF94-A81FB513F24F}"/>
+    <hyperlink ref="C197" r:id="rId169" xr:uid="{32B750D0-D7F2-694D-AB9B-25AFAFAFF17F}"/>
+    <hyperlink ref="C198" r:id="rId170" xr:uid="{400689DD-8E95-024E-976B-AACD8ED4E1A6}"/>
+    <hyperlink ref="C199" r:id="rId171" xr:uid="{28753DDE-E047-5D40-A30B-1103BE6DA08F}"/>
+    <hyperlink ref="C200" r:id="rId172" xr:uid="{6C5AA6CB-3D93-0740-AEED-9E6C218CF6CB}"/>
+    <hyperlink ref="C201" r:id="rId173" xr:uid="{03EAA2B9-D8B8-D642-BF24-380596D26B2E}"/>
+    <hyperlink ref="C202" r:id="rId174" xr:uid="{8C1719B4-37CC-484E-BDCE-A4272C07F91B}"/>
+    <hyperlink ref="C203" r:id="rId175" xr:uid="{6C198DA2-BB98-F940-8EF6-2FC8B7AE577A}"/>
+    <hyperlink ref="C204" r:id="rId176" xr:uid="{AB0EA311-A446-D046-A0EC-290B42068328}"/>
+    <hyperlink ref="C205" r:id="rId177" xr:uid="{DB913045-B9F6-6549-AA09-22B0CC5FDD21}"/>
+    <hyperlink ref="C206" r:id="rId178" xr:uid="{806469FD-617A-7445-AAB5-FB2FD2ED24EA}"/>
+    <hyperlink ref="C207" r:id="rId179" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." xr:uid="{1A10544E-58CF-D04D-9FAF-2FEC6DB2B5D4}"/>
+    <hyperlink ref="C208" r:id="rId180" xr:uid="{5A0B6645-89FD-E044-A706-9FB890274C3C}"/>
+    <hyperlink ref="C209" r:id="rId181" xr:uid="{B42A3009-E8EB-EE44-885F-6699C17A0E0B}"/>
+    <hyperlink ref="C210" r:id="rId182" xr:uid="{ED3E48AB-E25B-3744-B024-E97B2A319B46}"/>
+    <hyperlink ref="C211" r:id="rId183" xr:uid="{C75D20A3-CBAE-2649-A3EE-E49177CFA343}"/>
+    <hyperlink ref="C212" r:id="rId184" xr:uid="{3863CA1B-D43E-1144-91A9-17C2DCF52A64}"/>
+    <hyperlink ref="C213" r:id="rId185" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." xr:uid="{E9AF434E-4CAA-5D49-8AD3-889CDE2913D9}"/>
+    <hyperlink ref="C214" r:id="rId186" xr:uid="{1A0568E5-3A11-7F47-8001-82B05D7C2339}"/>
+    <hyperlink ref="C215" r:id="rId187" xr:uid="{F62B8AE4-9C4F-9544-8861-CD733C12F79E}"/>
+    <hyperlink ref="C216" r:id="rId188" xr:uid="{0F6A542C-44C9-5A4C-90BF-BC8C239877D2}"/>
+    <hyperlink ref="C217" r:id="rId189" xr:uid="{3ED28203-B1B5-4E46-AAF3-779EDD4AC03F}"/>
+    <hyperlink ref="C218" r:id="rId190" xr:uid="{4338B305-B52F-5540-9B51-B938FC6803A2}"/>
+    <hyperlink ref="C219" r:id="rId191" xr:uid="{DDEEED0F-A939-1E4F-B2FA-AD391A4A2874}"/>
+    <hyperlink ref="C220" r:id="rId192" xr:uid="{C2F20589-AD81-654C-94E5-E5B6C9FE27F6}"/>
+    <hyperlink ref="C221" r:id="rId193" xr:uid="{BBEB9DAC-E4AE-C04F-AA15-6356AFC57FDE}"/>
+    <hyperlink ref="C224" r:id="rId194" xr:uid="{6316566D-A10A-F849-9F25-B9ED4DA12BC7}"/>
+    <hyperlink ref="C225" r:id="rId195" xr:uid="{9D4DD895-FBA6-C849-A5BF-3B30755BD9C9}"/>
+    <hyperlink ref="C226" r:id="rId196" xr:uid="{475996DA-632A-BE49-AEA1-D4189FD614A1}"/>
+    <hyperlink ref="C227" r:id="rId197" xr:uid="{88E0C858-8468-884F-BB71-F6F176BD5FC2}"/>
+    <hyperlink ref="C228" r:id="rId198" xr:uid="{C1C5C8D0-7A06-3D4A-A85A-AAACC1B418C9}"/>
+    <hyperlink ref="C229" r:id="rId199" xr:uid="{D525D4B1-2857-1543-8CD9-196728321203}"/>
+    <hyperlink ref="C230" r:id="rId200" xr:uid="{51E3AB9B-04B2-C041-A2B3-37E3EB18013A}"/>
+    <hyperlink ref="C231" r:id="rId201" xr:uid="{7F7F0C9A-57B9-314F-959A-B8ACAFA5FD13}"/>
+    <hyperlink ref="C232" r:id="rId202" xr:uid="{3B029785-83B4-6140-8B70-CD892CFC87F6}"/>
+    <hyperlink ref="C233" r:id="rId203" xr:uid="{B0A390E6-D860-9F4E-B021-68949FE712F3}"/>
+    <hyperlink ref="C234" r:id="rId204" xr:uid="{49E9953D-52F6-BF47-8AAA-8E456F55576B}"/>
+    <hyperlink ref="C235" r:id="rId205" xr:uid="{9B812470-F419-A54E-8365-06A9B8864A30}"/>
+    <hyperlink ref="C236" r:id="rId206" xr:uid="{B6FB4107-1933-6D45-9EF4-4474E06CBE9D}"/>
+    <hyperlink ref="C237" r:id="rId207" xr:uid="{0F7C1D92-7BCB-D14D-A658-9599984E04E4}"/>
+    <hyperlink ref="C238" r:id="rId208" xr:uid="{6810428F-0A78-964C-A8C8-E1CD2E7C405D}"/>
+    <hyperlink ref="C239" r:id="rId209" xr:uid="{B40209F2-0D6E-364F-8AF6-F1D182509314}"/>
+    <hyperlink ref="C240" r:id="rId210" xr:uid="{96C53FA9-9FD3-2D4F-B292-3C9DEDFA806E}"/>
+    <hyperlink ref="C241" r:id="rId211" xr:uid="{918B420D-3678-FD46-9463-595E8ACC39E1}"/>
+    <hyperlink ref="C242" r:id="rId212" xr:uid="{851A7153-3B54-0E4A-A0A0-FCEB091AFE70}"/>
+    <hyperlink ref="C243" r:id="rId213" xr:uid="{C03AE9F8-09AE-C640-81A7-033BB06FB6AD}"/>
+    <hyperlink ref="C244" r:id="rId214" xr:uid="{35140DEB-52D2-4342-88D2-22BA061E5B48}"/>
+    <hyperlink ref="C245" r:id="rId215" xr:uid="{9714BC0B-3373-934C-B7A1-599F74F4FB9D}"/>
+    <hyperlink ref="C248" r:id="rId216" xr:uid="{5CB435B2-7FD2-1D44-9872-22B6A1EDC02B}"/>
+    <hyperlink ref="C249" r:id="rId217" xr:uid="{722D1D95-896B-4642-BABD-31DEDD237B49}"/>
+    <hyperlink ref="C250" r:id="rId218" xr:uid="{D686D1DC-13D6-284C-B606-E087FAF47399}"/>
+    <hyperlink ref="C251" r:id="rId219" xr:uid="{D22C2394-C3CB-8F4F-A010-2B13C8C84D1A}"/>
+    <hyperlink ref="C252" r:id="rId220" xr:uid="{3AE2F800-B66F-1A41-893B-978F6875FDC8}"/>
+    <hyperlink ref="C253" r:id="rId221" xr:uid="{2C939BDE-5298-5541-837B-8C59D53A33C1}"/>
+    <hyperlink ref="C254" r:id="rId222" xr:uid="{691C9BD8-69D3-DA4B-AEB6-AF827B4ACA9F}"/>
+    <hyperlink ref="C255" r:id="rId223" xr:uid="{B6891E82-7C4D-424D-9219-3C9FD08E0053}"/>
+    <hyperlink ref="C256" r:id="rId224" xr:uid="{67A1AE98-62D2-644D-AC13-6CD76CF53CC0}"/>
+    <hyperlink ref="C257" r:id="rId225" xr:uid="{B59D4881-2A82-8F4D-B151-1E796C4923C8}"/>
+    <hyperlink ref="C258" r:id="rId226" xr:uid="{B3CBD023-5EFD-6048-9B3F-89F0C65CBBF5}"/>
+    <hyperlink ref="C259" r:id="rId227" xr:uid="{53EC42C4-22F7-0445-A0AC-7275A59A2672}"/>
+    <hyperlink ref="C260" r:id="rId228" xr:uid="{A29575F3-CB24-5B4B-9538-D5212B2DC28B}"/>
+    <hyperlink ref="C261" r:id="rId229" xr:uid="{353A44DD-9E30-8F48-8E2B-8DAA07550470}"/>
+    <hyperlink ref="C262" r:id="rId230" xr:uid="{32AC291D-95A5-BE49-88E0-02677BF39CAC}"/>
+    <hyperlink ref="C263" r:id="rId231" xr:uid="{A84F22FF-AD10-A546-8998-B066C0EB2D5A}"/>
+    <hyperlink ref="C264" r:id="rId232" xr:uid="{4C5CAF84-9B94-FC44-8C6C-B3CC7257C1DB}"/>
+    <hyperlink ref="C265" r:id="rId233" xr:uid="{5DA775E2-C516-3B47-8C82-3CEE7CC0BDF9}"/>
+    <hyperlink ref="C266" r:id="rId234" xr:uid="{00B6AE5C-EF3F-0747-A280-3BF055362B4F}"/>
+    <hyperlink ref="C267" r:id="rId235" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." xr:uid="{BCBD0A7E-F3D0-E840-9375-AFD37C5CD41A}"/>
+    <hyperlink ref="C268" r:id="rId236" xr:uid="{47ABDDDB-F95F-8049-9FB3-1E71A7376DDE}"/>
+    <hyperlink ref="C269" r:id="rId237" xr:uid="{70BADFC9-7399-234D-99F6-4C5F02397C26}"/>
+    <hyperlink ref="C270" r:id="rId238" xr:uid="{63348580-70EF-EC47-BF49-8ECE9560D54E}"/>
+    <hyperlink ref="C271" r:id="rId239" xr:uid="{D5BD96B3-9EAB-1B47-AC87-5C47F6AD7F40}"/>
+    <hyperlink ref="C272" r:id="rId240" xr:uid="{74791141-3FB8-7540-B45B-9541AF0AE371}"/>
+    <hyperlink ref="C273" r:id="rId241" xr:uid="{88D53CD6-262A-7247-8E58-FE9FFF7ECC40}"/>
+    <hyperlink ref="C274" r:id="rId242" xr:uid="{4338A14D-4F7D-B943-A347-7F74EFCA0DB5}"/>
+    <hyperlink ref="C275" r:id="rId243" xr:uid="{6E0EF7A3-7341-284B-A0E3-4539B6EAFAF2}"/>
+    <hyperlink ref="C276" r:id="rId244" xr:uid="{D2D8D64F-E2D3-734E-AD45-3EFB9686555A}"/>
+    <hyperlink ref="C277" r:id="rId245" xr:uid="{04A2904A-73A0-7845-9868-2CCFE359AC68}"/>
+    <hyperlink ref="C278" r:id="rId246" xr:uid="{D3D35835-6BE3-4D41-AF6F-5FE442277A16}"/>
+    <hyperlink ref="C279" r:id="rId247" xr:uid="{F663D0FC-CFF0-BC4F-9D26-48C871A8E9FD}"/>
+    <hyperlink ref="C280" r:id="rId248" xr:uid="{DF544147-DA48-4041-A4E2-4A75106B771A}"/>
+    <hyperlink ref="C281" r:id="rId249" xr:uid="{50E4B716-239E-7946-843D-E8462591D128}"/>
+    <hyperlink ref="C282" r:id="rId250" xr:uid="{D368B3E5-7D12-FD48-AFF7-A4A614108940}"/>
+    <hyperlink ref="C285" r:id="rId251" xr:uid="{D5921FF1-FC1F-CA4B-A24E-AD69E1DEC14C}"/>
+    <hyperlink ref="C286" r:id="rId252" xr:uid="{C931D7E0-E032-7C4B-95F1-735D955FCB51}"/>
+    <hyperlink ref="C287" r:id="rId253" xr:uid="{5FBD4A8F-287C-2C46-9CAB-F7DBA67DEDDA}"/>
+    <hyperlink ref="C288" r:id="rId254" xr:uid="{12966DD6-41DD-A94B-8B2C-0AD7D2AD6FB0}"/>
+    <hyperlink ref="C289" r:id="rId255" xr:uid="{CF720C34-4554-2944-A818-020ABC9BF0F4}"/>
+    <hyperlink ref="C290" r:id="rId256" xr:uid="{75763F2A-16D7-DE43-8189-19623CE26370}"/>
+    <hyperlink ref="C291" r:id="rId257" xr:uid="{9263AA30-472A-0A4D-BADF-96D82BB9BFCC}"/>
+    <hyperlink ref="C292" r:id="rId258" xr:uid="{2EF025C3-75C8-564E-BA8B-708C32B0E602}"/>
+    <hyperlink ref="C293" r:id="rId259" xr:uid="{6BDFDCA9-3421-F24F-8EF2-A72742F0AC21}"/>
+    <hyperlink ref="C294" r:id="rId260" xr:uid="{D8447F99-5FF9-D544-99BB-E9969B4A38D7}"/>
+    <hyperlink ref="C295" r:id="rId261" xr:uid="{1DB7EFDA-6C7D-F546-9EE1-F61ED0F65209}"/>
+    <hyperlink ref="C296" r:id="rId262" xr:uid="{D1505609-27D1-784D-ACF6-AE9D0DA2E1B6}"/>
+    <hyperlink ref="C297" r:id="rId263" xr:uid="{6BFA7B45-17D0-4E49-85DA-23C7255A306D}"/>
+    <hyperlink ref="C298" r:id="rId264" xr:uid="{3324BA4A-30CA-5246-8C3C-6505A6987939}"/>
+    <hyperlink ref="C299" r:id="rId265" xr:uid="{894486AD-2B6D-5740-BCAF-0BA1AFF814B4}"/>
+    <hyperlink ref="C300" r:id="rId266" xr:uid="{C47B203B-8B5A-E740-8C86-0784AD28089E}"/>
+    <hyperlink ref="C301" r:id="rId267" xr:uid="{06DC2E54-7597-AE4D-ACDB-B8883A989A4F}"/>
+    <hyperlink ref="C302" r:id="rId268" xr:uid="{E3384259-7CA7-1C44-A66D-11346EE6742E}"/>
+    <hyperlink ref="C303" r:id="rId269" xr:uid="{A5B77769-38AF-3D47-A76B-311591B57D91}"/>
+    <hyperlink ref="C306" r:id="rId270" xr:uid="{9DB6976A-C646-1341-90E8-3A164521267A}"/>
+    <hyperlink ref="C307" r:id="rId271" xr:uid="{03C291F8-D19A-304B-9EF9-CF71A1F66E49}"/>
+    <hyperlink ref="C308" r:id="rId272" xr:uid="{7536415C-140B-9244-B0B2-23F3ED0B2D80}"/>
+    <hyperlink ref="C309" r:id="rId273" xr:uid="{7DBDA456-8AF6-DD43-9764-17D3959B8E8F}"/>
+    <hyperlink ref="C310" r:id="rId274" xr:uid="{BFC149AB-C15A-B648-9F6A-ECD3890B1918}"/>
+    <hyperlink ref="C311" r:id="rId275" xr:uid="{0482240B-FEE9-F746-8980-52BCB7BBB56E}"/>
+    <hyperlink ref="C312" r:id="rId276" xr:uid="{86D1231A-E7C8-4B45-99ED-2DB0EF71E190}"/>
+    <hyperlink ref="C313" r:id="rId277" xr:uid="{20B7CE89-CB37-0040-989F-C8D1BE2B8782}"/>
+    <hyperlink ref="C314" r:id="rId278" xr:uid="{4C8412C9-A47B-9244-A18B-741516BD1054}"/>
+    <hyperlink ref="C315" r:id="rId279" xr:uid="{511761D9-31CE-0B43-AFFD-C011C27ACC52}"/>
+    <hyperlink ref="C316" r:id="rId280" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." xr:uid="{6905F997-D048-1049-BA27-C48756603D1E}"/>
+    <hyperlink ref="C317" r:id="rId281" xr:uid="{E657AA82-7CFE-DB42-B20F-F63D8C25EAB6}"/>
+    <hyperlink ref="C318" r:id="rId282" xr:uid="{3E505033-58F3-8F4E-AB82-E12DBC226AEA}"/>
+    <hyperlink ref="C319" r:id="rId283" xr:uid="{749599E5-4972-7343-B13B-87E26F837470}"/>
+    <hyperlink ref="C320" r:id="rId284" xr:uid="{12AA88DC-22AB-5A49-B28C-F04C8E35A215}"/>
+    <hyperlink ref="C321" r:id="rId285" xr:uid="{5751F0A7-7D9D-4148-820B-5B9659DFE34F}"/>
+    <hyperlink ref="C322" r:id="rId286" xr:uid="{4CA2DBEE-B161-B84D-B3A9-B8BC1B598AF2}"/>
+    <hyperlink ref="C323" r:id="rId287" xr:uid="{A9C1E578-6594-954C-8785-8902E605FC7A}"/>
+    <hyperlink ref="C324" r:id="rId288" xr:uid="{3D45E9B8-6671-A747-8C18-51CF8883170A}"/>
+    <hyperlink ref="C325" r:id="rId289" xr:uid="{4F5EF748-8CD4-0F47-90CE-3C93755BF63D}"/>
+    <hyperlink ref="C326" r:id="rId290" xr:uid="{44053C08-5050-C84B-B016-069B1EF9A43D}"/>
+    <hyperlink ref="C327" r:id="rId291" xr:uid="{ABF38928-736B-1A49-8B8A-1DCA5AAECB2B}"/>
+    <hyperlink ref="C328" r:id="rId292" xr:uid="{52651FAF-F3DC-E949-8AF8-998B9724B7D1}"/>
+    <hyperlink ref="C329" r:id="rId293" xr:uid="{91C6CCEF-3FF7-2C42-B5A0-8F4A403ED198}"/>
+    <hyperlink ref="C330" r:id="rId294" xr:uid="{15C8AF08-1A79-F949-9BE7-DD240CBD9861}"/>
+    <hyperlink ref="C331" r:id="rId295" xr:uid="{1904F984-5B22-8D46-BC33-3073B390E8F9}"/>
+    <hyperlink ref="C332" r:id="rId296" xr:uid="{A8BFB3A4-426B-E646-BCF0-FE19C8CD07A9}"/>
+    <hyperlink ref="C333" r:id="rId297" xr:uid="{FBBA29BB-885B-744A-A644-58EDCA7B140A}"/>
+    <hyperlink ref="C334" r:id="rId298" xr:uid="{75411687-6884-AC42-8B4A-1348C4837365}"/>
+    <hyperlink ref="C335" r:id="rId299" xr:uid="{A89ED8DF-F678-FE43-808C-C190721379BF}"/>
+    <hyperlink ref="C336" r:id="rId300" xr:uid="{1516834D-F3B2-1743-8811-263E11BBDEF8}"/>
+    <hyperlink ref="C337" r:id="rId301" xr:uid="{1659AB91-08CA-E44D-988D-E9D9A746D406}"/>
+    <hyperlink ref="C338" r:id="rId302" xr:uid="{E844BC1D-9713-9F4D-B0A4-1124A9952D14}"/>
+    <hyperlink ref="C339" r:id="rId303" xr:uid="{DCE2AAEF-8D8E-1843-BFE9-E9B7E13854EB}"/>
+    <hyperlink ref="C340" r:id="rId304" xr:uid="{836B3BF0-7711-7D41-9E72-914C1871397F}"/>
+    <hyperlink ref="C341" r:id="rId305" xr:uid="{F450CF9B-CA59-1443-8163-13F1121DCF12}"/>
+    <hyperlink ref="C342" r:id="rId306" xr:uid="{1539C3E8-4854-3C4F-A7B3-55BF931F1E2A}"/>
+    <hyperlink ref="C343" r:id="rId307" xr:uid="{04F1FC5F-5DA1-0144-962D-B38C1C41F0F4}"/>
+    <hyperlink ref="C346" r:id="rId308" xr:uid="{B21618F4-70E2-C549-80B7-7CF915679E0A}"/>
+    <hyperlink ref="C347" r:id="rId309" xr:uid="{EEDFBF11-C1E4-0847-9D56-94A72D97AEE7}"/>
+    <hyperlink ref="C348" r:id="rId310" xr:uid="{F5C0EDF1-7EAC-8849-8D27-C3389913BFC6}"/>
+    <hyperlink ref="C349" r:id="rId311" xr:uid="{50175B29-124F-4E4E-8E98-961BD3320359}"/>
+    <hyperlink ref="C350" r:id="rId312" xr:uid="{1BE23822-8512-014F-9154-F6EDA4FC8428}"/>
+    <hyperlink ref="C351" r:id="rId313" xr:uid="{38EC228E-ABFF-3542-9CFB-3DDFC628E9D0}"/>
+    <hyperlink ref="C352" r:id="rId314" xr:uid="{73F240F8-C469-454E-BA5C-CFF2F7A7A5F6}"/>
+    <hyperlink ref="C353" r:id="rId315" xr:uid="{3BBD1BAC-68C7-A94A-9063-AF62B5C837FD}"/>
+    <hyperlink ref="C354" r:id="rId316" xr:uid="{F9751D9B-2689-E24B-9FC3-CA32FE888708}"/>
+    <hyperlink ref="C355" r:id="rId317" xr:uid="{73C61D6A-D97C-B944-8B27-BB91564AB0D7}"/>
+    <hyperlink ref="C356" r:id="rId318" xr:uid="{936E077C-C016-A04F-895A-782D6D9D9433}"/>
+    <hyperlink ref="C357" r:id="rId319" xr:uid="{5454A2A1-6607-BE48-9215-CB8965EC3568}"/>
+    <hyperlink ref="C358" r:id="rId320" xr:uid="{FC1EAA10-F7ED-6B42-A79B-3D8B44E2C8B3}"/>
+    <hyperlink ref="C359" r:id="rId321" xr:uid="{FDB7F712-4A42-1048-8929-A1E752B07C6A}"/>
+    <hyperlink ref="C360" r:id="rId322" xr:uid="{AF3ACA60-0B0E-E146-B51F-A2CD05EB6549}"/>
+    <hyperlink ref="C361" r:id="rId323" xr:uid="{BB63E040-7A1A-E046-9BDD-9CBD1DA89DE9}"/>
+    <hyperlink ref="C362" r:id="rId324" xr:uid="{9AF8FD93-CCC9-D540-AE9A-00583F309649}"/>
+    <hyperlink ref="C363" r:id="rId325" xr:uid="{66A746A0-71FE-E546-92B7-D1C3D582E067}"/>
+    <hyperlink ref="C367" r:id="rId326" xr:uid="{BD79CCE1-5315-3944-9F9B-618615EC4583}"/>
+    <hyperlink ref="C368" r:id="rId327" xr:uid="{A5068A51-C961-6847-BB27-40A850B6D393}"/>
+    <hyperlink ref="C369" r:id="rId328" xr:uid="{6B8D36F0-E796-B944-A456-E8A9E2EE0BDB}"/>
+    <hyperlink ref="C370" r:id="rId329" xr:uid="{776652B7-2C11-4641-BF6A-EABEEB9B55AB}"/>
+    <hyperlink ref="C371" r:id="rId330" xr:uid="{95C6B35D-712A-2343-B790-236B55C5EC49}"/>
+    <hyperlink ref="C372" r:id="rId331" xr:uid="{4ED53872-1FE9-F140-AA35-F228F762880B}"/>
+    <hyperlink ref="C373" r:id="rId332" xr:uid="{6D5E6A28-85AA-BF4C-B2BD-9378D6E28EC7}"/>
+    <hyperlink ref="C374" r:id="rId333" xr:uid="{BCAD1ECB-15EE-CF49-878E-AA682DE3AC22}"/>
+    <hyperlink ref="C375" r:id="rId334" xr:uid="{C85468B5-25E9-E446-808E-72CFE911F0C2}"/>
+    <hyperlink ref="C376" r:id="rId335" xr:uid="{9503AECA-1A6A-9640-A04C-4CEAA2304448}"/>
+    <hyperlink ref="C377" r:id="rId336" xr:uid="{74211516-06B0-AA45-845B-52C8202751DA}"/>
+    <hyperlink ref="C378" r:id="rId337" xr:uid="{02C696BC-4B91-9444-900F-9CD68E409ABC}"/>
+    <hyperlink ref="C379" r:id="rId338" xr:uid="{04646C45-4118-374C-839D-94D31D534FAC}"/>
+    <hyperlink ref="C380" r:id="rId339" xr:uid="{F90BCCAE-8596-FC4D-BDD7-774392C596DF}"/>
+    <hyperlink ref="C381" r:id="rId340" xr:uid="{65230925-36EC-8A4B-8E46-6350B9BC0F95}"/>
+    <hyperlink ref="C382" r:id="rId341" xr:uid="{E91B8177-0C7A-1F40-BD34-4CC60F03B84F}"/>
+    <hyperlink ref="C383" r:id="rId342" xr:uid="{E8CBFD60-7335-0B4D-9FF5-99B4A8DC551D}"/>
+    <hyperlink ref="C384" r:id="rId343" xr:uid="{A35F55D4-9B87-C745-94DB-E7D820193C30}"/>
+    <hyperlink ref="C385" r:id="rId344" xr:uid="{6461A29F-D404-334F-B13F-296B4CA5E8A4}"/>
+    <hyperlink ref="C386" r:id="rId345" xr:uid="{FA9B4BE7-85CC-B24F-9461-5E9B42DDD824}"/>
+    <hyperlink ref="C387" r:id="rId346" xr:uid="{A75ACEA2-CDF6-A147-8540-A6DF55B15F45}"/>
+    <hyperlink ref="C388" r:id="rId347" xr:uid="{62FF87E2-E658-AB4D-AC57-7BCF9D49516E}"/>
+    <hyperlink ref="C389" r:id="rId348" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." xr:uid="{269338A6-5145-6944-9F7F-BD2A86DFA308}"/>
+    <hyperlink ref="C390" r:id="rId349" xr:uid="{8F583049-CE8D-CD42-88CD-CF3857942670}"/>
+    <hyperlink ref="C391" r:id="rId350" xr:uid="{EE2348AD-E296-894A-B5AE-5884A3C5E419}"/>
+    <hyperlink ref="C392" r:id="rId351" xr:uid="{6EACB34E-B32E-8F43-8055-2406F7417A7E}"/>
+    <hyperlink ref="C393" r:id="rId352" xr:uid="{2446F10A-B762-B64C-97B2-6131A0BECC1F}"/>
+    <hyperlink ref="C394" r:id="rId353" xr:uid="{6FDFCC53-17A6-7244-88A7-49406D7C9200}"/>
+    <hyperlink ref="C395" r:id="rId354" xr:uid="{3EC43646-EAB1-E443-A2F6-8E6E5FC77083}"/>
+    <hyperlink ref="C396" r:id="rId355" xr:uid="{659D9F20-C862-C947-B422-84143CFE317F}"/>
+    <hyperlink ref="C397" r:id="rId356" xr:uid="{3F5192FE-1C50-C049-88D5-68FA0F5430A0}"/>
+    <hyperlink ref="C398" r:id="rId357" xr:uid="{5EAD7CDA-9545-454B-BE77-9AFEC6AC1083}"/>
+    <hyperlink ref="C399" r:id="rId358" xr:uid="{761E5451-736B-6745-9CF5-4C6EF5D4C099}"/>
+    <hyperlink ref="C400" r:id="rId359" xr:uid="{4C8677A9-D94C-134F-AF31-E424751BF867}"/>
+    <hyperlink ref="C401" r:id="rId360" xr:uid="{CCF7920F-D5CE-004A-86C3-D821FB230970}"/>
+    <hyperlink ref="C402" r:id="rId361" xr:uid="{B4C07A0A-1EDD-7947-9646-3FD603441AD7}"/>
+    <hyperlink ref="C403" r:id="rId362" xr:uid="{49F7BB43-6851-0641-9DC5-27DBC66706F6}"/>
+    <hyperlink ref="C404" r:id="rId363" xr:uid="{77038647-48C7-5547-8E0F-898610362465}"/>
+    <hyperlink ref="C406" r:id="rId364" xr:uid="{EEFFE19C-6571-C64F-A0E1-5A4A700D94D4}"/>
+    <hyperlink ref="C405" r:id="rId365" xr:uid="{A4A2BFC4-6B88-2E4E-B362-17D8EE041C89}"/>
+    <hyperlink ref="C407" r:id="rId366" xr:uid="{DC5B603A-8D65-3648-A08A-E5FFA0FAE879}"/>
+    <hyperlink ref="C408" r:id="rId367" xr:uid="{F8807DD9-F4F2-B147-9C31-DBC93B2E477B}"/>
+    <hyperlink ref="C409" r:id="rId368" xr:uid="{6F7B396C-D7E9-C04E-BAE2-53D2EE07172B}"/>
+    <hyperlink ref="C412" r:id="rId369" xr:uid="{0D4A5941-C669-4A49-BAE3-9B553D03BD0F}"/>
+    <hyperlink ref="C413" r:id="rId370" xr:uid="{54144336-5BCA-D749-962A-E448C2CED3D3}"/>
+    <hyperlink ref="C414" r:id="rId371" xr:uid="{3A41DD21-CACF-1F48-A7C7-F568C6F31F3E}"/>
+    <hyperlink ref="C415" r:id="rId372" xr:uid="{A36160A8-F45E-3443-9645-42C1004B8F8C}"/>
+    <hyperlink ref="C416" r:id="rId373" xr:uid="{8B0A00A3-6AC0-DF46-AD87-A4DA016A2A00}"/>
+    <hyperlink ref="C417" r:id="rId374" xr:uid="{62A81CB4-A961-C543-B31C-92059DB6C105}"/>
+    <hyperlink ref="C420" r:id="rId375" xr:uid="{08030975-009C-C34A-A875-72FE2718F44C}"/>
+    <hyperlink ref="C421" r:id="rId376" xr:uid="{A113C7A9-2359-B643-9C08-E845813439C0}"/>
+    <hyperlink ref="C422" r:id="rId377" xr:uid="{FE300343-4633-AD47-A64D-2086629EB398}"/>
+    <hyperlink ref="C423" r:id="rId378" xr:uid="{4FC9F782-D38F-C642-A863-887B17AD05CD}"/>
+    <hyperlink ref="C424" r:id="rId379" xr:uid="{830C5466-10E3-7A48-B3E7-35C15A1CA4EF}"/>
+    <hyperlink ref="C425" r:id="rId380" xr:uid="{1B987077-E9D3-6F40-89EE-0D4E7180D884}"/>
+    <hyperlink ref="C426" r:id="rId381" xr:uid="{D4843E1F-7226-864E-A4BB-264D5A487B6D}"/>
+    <hyperlink ref="C427" r:id="rId382" xr:uid="{61816592-2D19-9946-8253-47A60218F2EA}"/>
+    <hyperlink ref="C428" r:id="rId383" xr:uid="{736C840F-19A3-0A4B-8863-ECB772B46385}"/>
+    <hyperlink ref="C429" r:id="rId384" xr:uid="{05A238AD-3C5B-C546-94E9-75BBF964711A}"/>
+    <hyperlink ref="C430" r:id="rId385" xr:uid="{7029629C-3F2A-4A49-997B-CFE86EC8B3C2}"/>
+    <hyperlink ref="C431" r:id="rId386" xr:uid="{ADA66B57-2FAC-AB42-BD83-4931708F3AB5}"/>
+    <hyperlink ref="C432" r:id="rId387" xr:uid="{F16BF1F9-755B-B045-B9A8-0B97E3BAC8B0}"/>
+    <hyperlink ref="C433" r:id="rId388" xr:uid="{ECCE930A-B960-234C-81EC-4B8514282AE9}"/>
+    <hyperlink ref="C434" r:id="rId389" xr:uid="{7AA58141-7D24-7C42-A0C1-F852B21CFFD9}"/>
+    <hyperlink ref="C435" r:id="rId390" xr:uid="{B1FCB47D-7921-3446-B2C7-72CBA815D056}"/>
+    <hyperlink ref="C436" r:id="rId391" xr:uid="{8C547719-AA03-3543-B31F-7300674AF4C5}"/>
+    <hyperlink ref="C437" r:id="rId392" xr:uid="{09922668-AFC0-F242-860E-9967E0F0FEF4}"/>
+    <hyperlink ref="C438" r:id="rId393" xr:uid="{0DA963DA-238B-D44E-9E03-6E6BD933B35E}"/>
+    <hyperlink ref="C439" r:id="rId394" xr:uid="{89518AFF-2526-C845-BC9D-95FE77AF416E}"/>
+    <hyperlink ref="C440" r:id="rId395" xr:uid="{FAECBBBE-196C-7A41-A0FB-E0597CB2CF51}"/>
+    <hyperlink ref="C441" r:id="rId396" xr:uid="{8126B039-0B25-B040-A0F6-C3457341A2E9}"/>
+    <hyperlink ref="C442" r:id="rId397" xr:uid="{6CB326E6-E698-EB42-884B-C89FFA33E3BA}"/>
+    <hyperlink ref="C443" r:id="rId398" xr:uid="{8C97EFD1-933F-A44F-A1CF-6386233104A2}"/>
+    <hyperlink ref="C444" r:id="rId399" xr:uid="{8F019F07-8532-E147-8BE1-4EBE833F61CA}"/>
+    <hyperlink ref="C445" r:id="rId400" xr:uid="{00F1A08F-3767-784A-97A3-4603DE38BACC}"/>
+    <hyperlink ref="C446" r:id="rId401" xr:uid="{2A84ADCB-071F-9A48-994D-7A838307EFD8}"/>
+    <hyperlink ref="C447" r:id="rId402" xr:uid="{132F8C6D-D5E8-6440-AC4E-B81EA2100416}"/>
+    <hyperlink ref="C448" r:id="rId403" xr:uid="{2DA6EAC2-1A1D-754F-9613-226CBC7890AF}"/>
+    <hyperlink ref="C449" r:id="rId404" xr:uid="{05BED99A-4562-D14E-8627-D07CF5335A9B}"/>
+    <hyperlink ref="C450" r:id="rId405" xr:uid="{111D902A-3F60-2D4B-89D3-5BCBD8AA38DD}"/>
+    <hyperlink ref="C451" r:id="rId406" xr:uid="{F19236BE-AC32-3542-9214-DFC3BAE04ED0}"/>
+    <hyperlink ref="C452" r:id="rId407" xr:uid="{4D97CD96-EA1B-664E-9380-EFD27077D273}"/>
+    <hyperlink ref="C453" r:id="rId408" xr:uid="{49A46D91-633F-A148-ACFA-49B7D1AA4B33}"/>
+    <hyperlink ref="C454" r:id="rId409" xr:uid="{7C3B7901-67E3-EA4D-BC64-21A78BC03AC6}"/>
+    <hyperlink ref="C455" r:id="rId410" xr:uid="{B27CA8C3-D34F-5E4D-94A5-11D14AFD0F82}"/>
+    <hyperlink ref="C456" r:id="rId411" xr:uid="{8FECE038-9764-5E4A-8C6E-9B3209812651}"/>
+    <hyperlink ref="C457" r:id="rId412" xr:uid="{95696D4B-89CB-5640-BE92-53B3C043F7EB}"/>
+    <hyperlink ref="C458" r:id="rId413" xr:uid="{DA74B737-802A-4944-A93E-0B9C8417630B}"/>
+    <hyperlink ref="C459" r:id="rId414" xr:uid="{B2C4C168-50FA-AF41-8F56-9E70613CF17D}"/>
+    <hyperlink ref="C461" r:id="rId415" xr:uid="{B7090C60-AC27-3F4F-8F0D-42F0791928C6}"/>
+    <hyperlink ref="C460" r:id="rId416" xr:uid="{07400041-66C6-514B-B3E3-427F2947C2B7}"/>
+    <hyperlink ref="C462" r:id="rId417" xr:uid="{B7E78172-8FB8-4E42-87D8-6A4654D79C62}"/>
+    <hyperlink ref="C463" r:id="rId418" xr:uid="{9A5D4670-BC64-334A-88CF-6F8287692C5E}"/>
+    <hyperlink ref="C464" r:id="rId419" xr:uid="{604283B6-53BC-044F-8D9D-E6094E798317}"/>
+    <hyperlink ref="C465" r:id="rId420" xr:uid="{5EB15AC7-3E0E-E44C-A5B9-32F30F234B5A}"/>
+    <hyperlink ref="C466" r:id="rId421" xr:uid="{3076BD5F-4B23-4146-A50A-499C9FF4C3D2}"/>
+    <hyperlink ref="C467" r:id="rId422" xr:uid="{6A29D9C2-1E78-1B43-A251-0AB0A97FA70E}"/>
+    <hyperlink ref="C468" r:id="rId423" xr:uid="{00597D5E-D693-DF4E-84C0-47E58A6ACA8F}"/>
+    <hyperlink ref="C469" r:id="rId424" xr:uid="{48640988-9964-0B4C-A014-83E2CEB3D632}"/>
+    <hyperlink ref="C470" r:id="rId425" xr:uid="{617AADC9-7534-FE45-96B0-EF4C1867B793}"/>
+    <hyperlink ref="C471" r:id="rId426" xr:uid="{7F8CDAA4-5094-8E4E-961B-41CDE5ACC0C0}"/>
+    <hyperlink ref="C472" r:id="rId427" xr:uid="{63F28ABD-12CF-5947-80DA-229E3CA3133E}"/>
+    <hyperlink ref="C479" r:id="rId428" xr:uid="{0A1DB92C-3315-1942-B27D-4B90986A6D9D}"/>
+    <hyperlink ref="C478" r:id="rId429" xr:uid="{11738B67-CADD-5D45-8417-8BE7A03FC79F}"/>
+    <hyperlink ref="C477" r:id="rId430" xr:uid="{B2B23748-D9E4-BE4F-A93E-49ECB4063831}"/>
+    <hyperlink ref="C476" r:id="rId431" xr:uid="{A2FB8A72-37B9-7E4A-B050-FD6CD20BCE73}"/>
+    <hyperlink ref="C475" r:id="rId432" xr:uid="{5A93C9AF-BFEB-EB40-95AC-C309ED09A604}"/>
+    <hyperlink ref="C474" r:id="rId433" xr:uid="{CC203923-2DC2-874B-B846-A8455E3CC2F2}"/>
+    <hyperlink ref="C473" r:id="rId434" xr:uid="{FCB0246E-0179-B447-B3CE-C60CDB388472}"/>
+    <hyperlink ref="C482" r:id="rId435" xr:uid="{F06CEE72-8CA4-C547-862C-39B86CD3226A}"/>
+    <hyperlink ref="C483" r:id="rId436" xr:uid="{CB3045F2-8D63-0F4E-85BC-AF016DB4F247}"/>
+    <hyperlink ref="C484" r:id="rId437" xr:uid="{667D57F5-E5AD-674F-A2F5-AFF4A14E4026}"/>
+    <hyperlink ref="C485" r:id="rId438" xr:uid="{27A13A65-56CE-BF4D-BA0D-EB87D910272D}"/>
+    <hyperlink ref="C486" r:id="rId439" xr:uid="{2C72A52E-6F06-0246-AEB5-93CD0DEA8866}"/>
+    <hyperlink ref="C487" r:id="rId440" xr:uid="{24B29046-B4DD-674B-9EDF-6C94BEC3FDD8}"/>
+    <hyperlink ref="C488" r:id="rId441" xr:uid="{D018EBC3-3FB3-AC4D-9D64-D218345A46C8}"/>
+    <hyperlink ref="C491" r:id="rId442" xr:uid="{1E1D3964-01E0-3145-ACFE-B6A5BF0EECB0}"/>
+    <hyperlink ref="C489" r:id="rId443" xr:uid="{FA0E5061-A7E2-C045-9671-1CD9446D1932}"/>
+    <hyperlink ref="C490" r:id="rId444" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{92704F5B-7B31-2F42-80DD-764B2206D9DB}"/>
+    <hyperlink ref="C366" r:id="rId445" xr:uid="{A48B1A24-83B1-7A4C-8129-CD37804DF849}"/>
+    <hyperlink ref="C17" r:id="rId446" display="Write a Program to sort array Using Quick Sort_files" xr:uid="{F0DDC999-C321-4AB4-BA9D-7538150E84D3}"/>
+    <hyperlink ref="C7" r:id="rId447" xr:uid="{310D755F-0FAF-4086-8950-B58917F7CAF8}"/>
+    <hyperlink ref="C6" r:id="rId448" xr:uid="{6913685B-862A-49D7-AB28-593B13669931}"/>
+    <hyperlink ref="C8" r:id="rId449" xr:uid="{E2555AFC-8C22-4A69-A028-B6C7E7796509}"/>
+    <hyperlink ref="C9" r:id="rId450" display="Wrute a Program to Find trailing Number of Zeros in Factorial of a Number" xr:uid="{4399CE2A-7FD8-4B12-B4C8-C7E9B23BBC9F}"/>
+    <hyperlink ref="C10" r:id="rId451" xr:uid="{6EFA894A-D33E-4C0B-BE93-0E75656CC712}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId447"/>
+  <pageSetup orientation="portrait" r:id="rId452"/>
 </worksheet>
 </file>
--- a/DSA Sheet.xlsx
+++ b/DSA Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Java\Java-DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D9B15E-4737-427C-A2A8-30E6C1331AE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E47843-09D0-4DD5-A843-A14E5E75C236}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22140" windowHeight="13176" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1407" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="519">
   <si>
     <t>Topic:</t>
   </si>
@@ -1540,6 +1540,48 @@
   </si>
   <si>
     <t>Write a program to find LCM of two numbers</t>
+  </si>
+  <si>
+    <t>LCMusingGCD</t>
+  </si>
+  <si>
+    <t>eucledianGCD</t>
+  </si>
+  <si>
+    <t>naiveGCD</t>
+  </si>
+  <si>
+    <t>iterativeBigNumberFactorial</t>
+  </si>
+  <si>
+    <t>trailingZeroFactorial</t>
+  </si>
+  <si>
+    <t>Write a Program to Check whether given number is prime or not</t>
+  </si>
+  <si>
+    <t>Write a program to find out all the prime factors of a given number</t>
+  </si>
+  <si>
+    <t>Write a program to find out all the divisors of a given number</t>
+  </si>
+  <si>
+    <t>Write a program to calculate pow(x,n)</t>
+  </si>
+  <si>
+    <t>Write an iterative O(Log y) function for pow(x, y)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write a program to Count digits in a factorial </t>
+  </si>
+  <si>
+    <t>CDF0MATH</t>
+  </si>
+  <si>
+    <t>Write a Program To print all primes smaller than or equal to n.</t>
+  </si>
+  <si>
+    <t>Time Complexity</t>
   </si>
 </sst>
 </file>
@@ -1666,7 +1708,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1702,6 +1744,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2023,61 +2071,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
-  <dimension ref="A1:H496"/>
+  <dimension ref="A1:K502"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="2" width="28.5" style="6" customWidth="1"/>
-    <col min="3" max="3" width="123" style="6" customWidth="1"/>
-    <col min="4" max="5" width="27.5" style="6" customWidth="1"/>
-    <col min="6" max="6" width="24.796875" style="6" customWidth="1"/>
-    <col min="7" max="7" width="28.8984375" style="6" customWidth="1"/>
-    <col min="8" max="8" width="24.19921875" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="11.19921875" style="6"/>
+    <col min="1" max="1" width="23.09765625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="20.69921875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="109.8984375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="19.8984375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="13.796875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="33.69921875" style="6" customWidth="1"/>
+    <col min="7" max="7" width="21.19921875" style="6" customWidth="1"/>
+    <col min="8" max="8" width="21.3984375" style="6" customWidth="1"/>
+    <col min="9" max="9" width="19.796875" style="6" customWidth="1"/>
+    <col min="10" max="10" width="16.59765625" style="6" customWidth="1"/>
+    <col min="11" max="11" width="16.5" style="6" customWidth="1"/>
+    <col min="12" max="16384" width="11.19921875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:11">
       <c r="C1" s="11" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:11">
       <c r="C2" s="11"/>
       <c r="D2" s="8" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:11">
       <c r="D3" s="8" t="s">
         <v>497</v>
       </c>
       <c r="E3" s="14"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:11">
       <c r="D4" s="8" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:11">
       <c r="D5" s="8" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:11">
       <c r="D6" s="8" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:11">
       <c r="D7" s="8" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -2093,20 +2146,31 @@
       <c r="E9" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="16" t="s">
         <v>482</v>
       </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="G10" s="15" t="s">
+        <v>518</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>518</v>
+      </c>
+      <c r="K10" s="15" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="8" t="s">
         <v>476</v>
       </c>
@@ -2123,14 +2187,14 @@
       <c r="F11" s="6" t="s">
         <v>483</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="H11" s="6" t="s">
         <v>484</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="J11" s="6" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:11">
       <c r="A12" s="8" t="s">
         <v>476</v>
       </c>
@@ -2148,7 +2212,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:11">
       <c r="A13" s="8" t="s">
         <v>476</v>
       </c>
@@ -2165,11 +2229,11 @@
       <c r="F13" s="6" t="s">
         <v>492</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="H13" s="6" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:11">
       <c r="A14" s="8" t="s">
         <v>476</v>
       </c>
@@ -2185,33 +2249,36 @@
       <c r="E14" s="10" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="8" t="s">
+      <c r="F14" s="6" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="9" t="s">
         <v>476</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>489</v>
+        <v>516</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>491</v>
+        <v>515</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>472</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="8" t="s">
         <v>476</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>472</v>
@@ -2219,225 +2286,237 @@
       <c r="E16" s="10" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16" s="6" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="8" t="s">
         <v>476</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>504</v>
-      </c>
-      <c r="D17" s="2"/>
+        <v>495</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>472</v>
+      </c>
       <c r="E17" s="10" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="8"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="D19" s="8"/>
+      <c r="F17" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="D19" s="3"/>
       <c r="E19" s="10"/>
     </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>465</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>472</v>
-      </c>
+    <row r="20" spans="1:8">
+      <c r="A20" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="D20" s="3"/>
       <c r="E20" s="10"/>
     </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>466</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>472</v>
-      </c>
+    <row r="21" spans="1:8">
+      <c r="A21" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="D21" s="3"/>
       <c r="E21" s="10"/>
     </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>473</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>474</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>472</v>
-      </c>
+    <row r="22" spans="1:8">
+      <c r="A22" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="D22" s="3"/>
       <c r="E22" s="10"/>
     </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>467</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>475</v>
-      </c>
+    <row r="23" spans="1:8">
+      <c r="A23" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="D23" s="3"/>
       <c r="E23" s="10"/>
     </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>468</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E24" s="10"/>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>469</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>3</v>
-      </c>
+    <row r="24" spans="1:8">
+      <c r="A24" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="D25" s="8"/>
       <c r="E25" s="10"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:8">
       <c r="A26" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>472</v>
       </c>
       <c r="E26" s="10"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:8">
       <c r="A27" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E27" s="8"/>
-    </row>
-    <row r="28" spans="1:5">
+        <v>6</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="E27" s="10"/>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="12"/>
+      <c r="B28" s="12" t="s">
+        <v>473</v>
+      </c>
       <c r="C28" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E28" s="8"/>
-    </row>
-    <row r="29" spans="1:5">
+        <v>474</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="E28" s="10"/>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="12"/>
+      <c r="B29" s="12" t="s">
+        <v>467</v>
+      </c>
       <c r="C29" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E29" s="8"/>
-    </row>
-    <row r="30" spans="1:5">
+        <v>7</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="E29" s="10"/>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B30" s="12"/>
+      <c r="B30" s="12" t="s">
+        <v>468</v>
+      </c>
       <c r="C30" s="13" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E30" s="8"/>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="E30" s="10"/>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B31" s="12"/>
+      <c r="B31" s="12" t="s">
+        <v>469</v>
+      </c>
       <c r="C31" s="13" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="8"/>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="E31" s="10"/>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B32" s="12"/>
+      <c r="B32" s="12" t="s">
+        <v>470</v>
+      </c>
       <c r="C32" s="13" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="8"/>
+      <c r="E32" s="10"/>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="12"/>
+      <c r="B33" s="12" t="s">
+        <v>471</v>
+      </c>
       <c r="C33" s="13" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>3</v>
@@ -2450,7 +2529,7 @@
       </c>
       <c r="B34" s="12"/>
       <c r="C34" s="13" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>3</v>
@@ -2463,7 +2542,7 @@
       </c>
       <c r="B35" s="12"/>
       <c r="C35" s="13" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>3</v>
@@ -2476,7 +2555,7 @@
       </c>
       <c r="B36" s="12"/>
       <c r="C36" s="13" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>3</v>
@@ -2489,7 +2568,7 @@
       </c>
       <c r="B37" s="12"/>
       <c r="C37" s="13" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>3</v>
@@ -2502,7 +2581,7 @@
       </c>
       <c r="B38" s="12"/>
       <c r="C38" s="13" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>3</v>
@@ -2515,7 +2594,7 @@
       </c>
       <c r="B39" s="12"/>
       <c r="C39" s="13" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>3</v>
@@ -2528,7 +2607,7 @@
       </c>
       <c r="B40" s="12"/>
       <c r="C40" s="13" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>3</v>
@@ -2541,7 +2620,7 @@
       </c>
       <c r="B41" s="12"/>
       <c r="C41" s="13" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>3</v>
@@ -2554,7 +2633,7 @@
       </c>
       <c r="B42" s="12"/>
       <c r="C42" s="13" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>3</v>
@@ -2567,7 +2646,7 @@
       </c>
       <c r="B43" s="12"/>
       <c r="C43" s="13" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D43" s="8" t="s">
         <v>3</v>
@@ -2580,7 +2659,7 @@
       </c>
       <c r="B44" s="12"/>
       <c r="C44" s="13" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D44" s="8" t="s">
         <v>3</v>
@@ -2593,7 +2672,7 @@
       </c>
       <c r="B45" s="12"/>
       <c r="C45" s="13" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D45" s="8" t="s">
         <v>3</v>
@@ -2606,7 +2685,7 @@
       </c>
       <c r="B46" s="12"/>
       <c r="C46" s="13" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D46" s="8" t="s">
         <v>3</v>
@@ -2619,7 +2698,7 @@
       </c>
       <c r="B47" s="12"/>
       <c r="C47" s="13" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D47" s="8" t="s">
         <v>3</v>
@@ -2632,7 +2711,7 @@
       </c>
       <c r="B48" s="12"/>
       <c r="C48" s="13" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D48" s="8" t="s">
         <v>3</v>
@@ -2645,7 +2724,7 @@
       </c>
       <c r="B49" s="12"/>
       <c r="C49" s="13" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D49" s="8" t="s">
         <v>3</v>
@@ -2658,7 +2737,7 @@
       </c>
       <c r="B50" s="12"/>
       <c r="C50" s="13" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D50" s="8" t="s">
         <v>3</v>
@@ -2671,7 +2750,7 @@
       </c>
       <c r="B51" s="12"/>
       <c r="C51" s="13" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D51" s="8" t="s">
         <v>3</v>
@@ -2684,7 +2763,7 @@
       </c>
       <c r="B52" s="12"/>
       <c r="C52" s="13" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D52" s="8" t="s">
         <v>3</v>
@@ -2697,7 +2776,7 @@
       </c>
       <c r="B53" s="12"/>
       <c r="C53" s="13" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>3</v>
@@ -2710,7 +2789,7 @@
       </c>
       <c r="B54" s="12"/>
       <c r="C54" s="13" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D54" s="8" t="s">
         <v>3</v>
@@ -2723,7 +2802,7 @@
       </c>
       <c r="B55" s="12"/>
       <c r="C55" s="13" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D55" s="8" t="s">
         <v>3</v>
@@ -2736,100 +2815,100 @@
       </c>
       <c r="B56" s="12"/>
       <c r="C56" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E56" s="8"/>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B57" s="12"/>
+      <c r="C57" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E57" s="8"/>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58" s="12"/>
+      <c r="C58" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E58" s="8"/>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B59" s="12"/>
+      <c r="C59" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E59" s="8"/>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B60" s="12"/>
+      <c r="C60" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E60" s="8"/>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B61" s="12"/>
+      <c r="C61" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E61" s="8"/>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B62" s="12"/>
+      <c r="C62" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D56" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E56" s="8"/>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="D57" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E57" s="8"/>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="12"/>
-      <c r="B58" s="12"/>
-      <c r="D58" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E58" s="8"/>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B59" s="8"/>
-      <c r="C59" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D59" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E59" s="8"/>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B60" s="8"/>
-      <c r="C60" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D60" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E60" s="8"/>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B61" s="8"/>
-      <c r="C61" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D61" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E61" s="8"/>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B62" s="8"/>
-      <c r="C62" s="13" t="s">
-        <v>45</v>
-      </c>
       <c r="D62" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E62" s="8"/>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B63" s="8"/>
-      <c r="C63" s="13" t="s">
-        <v>46</v>
-      </c>
       <c r="D63" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E63" s="8"/>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B64" s="8"/>
-      <c r="C64" s="13" t="s">
-        <v>47</v>
-      </c>
+      <c r="A64" s="12"/>
+      <c r="B64" s="12"/>
       <c r="D64" s="8" t="s">
         <v>3</v>
       </c>
@@ -2841,7 +2920,7 @@
       </c>
       <c r="B65" s="8"/>
       <c r="C65" s="13" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D65" s="8" t="s">
         <v>3</v>
@@ -2854,7 +2933,7 @@
       </c>
       <c r="B66" s="8"/>
       <c r="C66" s="13" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D66" s="8" t="s">
         <v>3</v>
@@ -2867,7 +2946,7 @@
       </c>
       <c r="B67" s="8"/>
       <c r="C67" s="13" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D67" s="8" t="s">
         <v>3</v>
@@ -2880,95 +2959,95 @@
       </c>
       <c r="B68" s="8"/>
       <c r="C68" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E68" s="8"/>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B69" s="8"/>
+      <c r="C69" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E69" s="8"/>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B70" s="8"/>
+      <c r="C70" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E70" s="8"/>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B71" s="8"/>
+      <c r="C71" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E71" s="8"/>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B72" s="8"/>
+      <c r="C72" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E72" s="8"/>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B73" s="8"/>
+      <c r="C73" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E73" s="8"/>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B74" s="8"/>
+      <c r="C74" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="D68" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E68" s="8"/>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" s="12"/>
-      <c r="B70" s="12"/>
-      <c r="D70" s="8"/>
-      <c r="E70" s="8"/>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B71" s="12"/>
-      <c r="C71" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D71" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E71" s="8"/>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B72" s="12"/>
-      <c r="C72" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D72" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E72" s="8"/>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B73" s="12"/>
-      <c r="C73" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D73" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E73" s="8"/>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B74" s="12"/>
-      <c r="C74" s="6" t="s">
-        <v>56</v>
-      </c>
       <c r="D74" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E74" s="8"/>
     </row>
-    <row r="75" spans="1:5">
-      <c r="A75" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B75" s="12"/>
-      <c r="C75" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D75" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E75" s="8"/>
-    </row>
     <row r="76" spans="1:5">
-      <c r="A76" s="12" t="s">
-        <v>52</v>
-      </c>
+      <c r="A76" s="12"/>
       <c r="B76" s="12"/>
-      <c r="C76" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="D76" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="D76" s="8"/>
       <c r="E76" s="8"/>
     </row>
     <row r="77" spans="1:5">
@@ -2977,7 +3056,7 @@
       </c>
       <c r="B77" s="12"/>
       <c r="C77" s="13" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D77" s="8" t="s">
         <v>3</v>
@@ -2990,7 +3069,7 @@
       </c>
       <c r="B78" s="12"/>
       <c r="C78" s="13" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D78" s="8" t="s">
         <v>3</v>
@@ -3003,7 +3082,7 @@
       </c>
       <c r="B79" s="12"/>
       <c r="C79" s="13" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D79" s="8" t="s">
         <v>3</v>
@@ -3015,8 +3094,8 @@
         <v>52</v>
       </c>
       <c r="B80" s="12"/>
-      <c r="C80" s="13" t="s">
-        <v>62</v>
+      <c r="C80" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="D80" s="8" t="s">
         <v>3</v>
@@ -3029,7 +3108,7 @@
       </c>
       <c r="B81" s="12"/>
       <c r="C81" s="13" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D81" s="8" t="s">
         <v>3</v>
@@ -3042,7 +3121,7 @@
       </c>
       <c r="B82" s="12"/>
       <c r="C82" s="13" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D82" s="8" t="s">
         <v>3</v>
@@ -3055,7 +3134,7 @@
       </c>
       <c r="B83" s="12"/>
       <c r="C83" s="13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D83" s="8" t="s">
         <v>3</v>
@@ -3068,7 +3147,7 @@
       </c>
       <c r="B84" s="12"/>
       <c r="C84" s="13" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D84" s="8" t="s">
         <v>3</v>
@@ -3081,7 +3160,7 @@
       </c>
       <c r="B85" s="12"/>
       <c r="C85" s="13" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D85" s="8" t="s">
         <v>3</v>
@@ -3094,7 +3173,7 @@
       </c>
       <c r="B86" s="12"/>
       <c r="C86" s="13" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D86" s="8" t="s">
         <v>3</v>
@@ -3107,7 +3186,7 @@
       </c>
       <c r="B87" s="12"/>
       <c r="C87" s="13" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D87" s="8" t="s">
         <v>3</v>
@@ -3120,7 +3199,7 @@
       </c>
       <c r="B88" s="12"/>
       <c r="C88" s="13" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D88" s="8" t="s">
         <v>3</v>
@@ -3133,7 +3212,7 @@
       </c>
       <c r="B89" s="12"/>
       <c r="C89" s="13" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D89" s="8" t="s">
         <v>3</v>
@@ -3146,7 +3225,7 @@
       </c>
       <c r="B90" s="12"/>
       <c r="C90" s="13" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D90" s="8" t="s">
         <v>3</v>
@@ -3159,7 +3238,7 @@
       </c>
       <c r="B91" s="12"/>
       <c r="C91" s="13" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D91" s="8" t="s">
         <v>3</v>
@@ -3172,7 +3251,7 @@
       </c>
       <c r="B92" s="12"/>
       <c r="C92" s="13" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D92" s="8" t="s">
         <v>3</v>
@@ -3185,7 +3264,7 @@
       </c>
       <c r="B93" s="12"/>
       <c r="C93" s="13" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D93" s="8" t="s">
         <v>3</v>
@@ -3198,7 +3277,7 @@
       </c>
       <c r="B94" s="12"/>
       <c r="C94" s="13" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D94" s="8" t="s">
         <v>3</v>
@@ -3211,7 +3290,7 @@
       </c>
       <c r="B95" s="12"/>
       <c r="C95" s="13" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D95" s="8" t="s">
         <v>3</v>
@@ -3224,7 +3303,7 @@
       </c>
       <c r="B96" s="12"/>
       <c r="C96" s="13" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D96" s="8" t="s">
         <v>3</v>
@@ -3237,7 +3316,7 @@
       </c>
       <c r="B97" s="12"/>
       <c r="C97" s="13" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D97" s="8" t="s">
         <v>3</v>
@@ -3250,7 +3329,7 @@
       </c>
       <c r="B98" s="12"/>
       <c r="C98" s="13" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D98" s="8" t="s">
         <v>3</v>
@@ -3263,7 +3342,7 @@
       </c>
       <c r="B99" s="12"/>
       <c r="C99" s="13" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D99" s="8" t="s">
         <v>3</v>
@@ -3276,7 +3355,7 @@
       </c>
       <c r="B100" s="12"/>
       <c r="C100" s="13" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D100" s="8" t="s">
         <v>3</v>
@@ -3289,7 +3368,7 @@
       </c>
       <c r="B101" s="12"/>
       <c r="C101" s="13" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D101" s="8" t="s">
         <v>3</v>
@@ -3302,7 +3381,7 @@
       </c>
       <c r="B102" s="12"/>
       <c r="C102" s="13" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D102" s="8" t="s">
         <v>3</v>
@@ -3315,7 +3394,7 @@
       </c>
       <c r="B103" s="12"/>
       <c r="C103" s="13" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D103" s="8" t="s">
         <v>3</v>
@@ -3328,7 +3407,7 @@
       </c>
       <c r="B104" s="12"/>
       <c r="C104" s="13" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D104" s="8" t="s">
         <v>3</v>
@@ -3341,7 +3420,7 @@
       </c>
       <c r="B105" s="12"/>
       <c r="C105" s="13" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D105" s="8" t="s">
         <v>3</v>
@@ -3354,7 +3433,7 @@
       </c>
       <c r="B106" s="12"/>
       <c r="C106" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D106" s="8" t="s">
         <v>3</v>
@@ -3367,7 +3446,7 @@
       </c>
       <c r="B107" s="12"/>
       <c r="C107" s="13" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D107" s="8" t="s">
         <v>3</v>
@@ -3380,7 +3459,7 @@
       </c>
       <c r="B108" s="12"/>
       <c r="C108" s="13" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D108" s="8" t="s">
         <v>3</v>
@@ -3393,7 +3472,7 @@
       </c>
       <c r="B109" s="12"/>
       <c r="C109" s="13" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D109" s="8" t="s">
         <v>3</v>
@@ -3406,7 +3485,7 @@
       </c>
       <c r="B110" s="12"/>
       <c r="C110" s="13" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D110" s="8" t="s">
         <v>3</v>
@@ -3419,7 +3498,7 @@
       </c>
       <c r="B111" s="12"/>
       <c r="C111" s="13" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D111" s="8" t="s">
         <v>3</v>
@@ -3432,7 +3511,7 @@
       </c>
       <c r="B112" s="12"/>
       <c r="C112" s="13" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D112" s="8" t="s">
         <v>3</v>
@@ -3445,26 +3524,46 @@
       </c>
       <c r="B113" s="12"/>
       <c r="C113" s="13" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D113" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E113" s="8"/>
     </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B114" s="12"/>
+      <c r="C114" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D114" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E114" s="8"/>
+    </row>
     <row r="115" spans="1:5">
-      <c r="A115" s="8"/>
-      <c r="B115" s="8"/>
-      <c r="D115" s="8"/>
+      <c r="A115" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B115" s="12"/>
+      <c r="C115" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D115" s="8" t="s">
+        <v>3</v>
+      </c>
       <c r="E115" s="8"/>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="12" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="B116" s="12"/>
       <c r="C116" s="13" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D116" s="8" t="s">
         <v>3</v>
@@ -3473,11 +3572,11 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="12" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="B117" s="12"/>
       <c r="C117" s="13" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D117" s="8" t="s">
         <v>3</v>
@@ -3486,11 +3585,11 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="12" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="B118" s="12"/>
       <c r="C118" s="13" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D118" s="8" t="s">
         <v>3</v>
@@ -3499,41 +3598,21 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="12" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="B119" s="12"/>
       <c r="C119" s="13" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D119" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E119" s="8"/>
     </row>
-    <row r="120" spans="1:5">
-      <c r="A120" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="B120" s="12"/>
-      <c r="C120" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="D120" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E120" s="8"/>
-    </row>
     <row r="121" spans="1:5">
-      <c r="A121" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="B121" s="12"/>
-      <c r="C121" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="D121" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="A121" s="8"/>
+      <c r="B121" s="8"/>
+      <c r="D121" s="8"/>
       <c r="E121" s="8"/>
     </row>
     <row r="122" spans="1:5">
@@ -3542,7 +3621,7 @@
       </c>
       <c r="B122" s="12"/>
       <c r="C122" s="13" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D122" s="8" t="s">
         <v>3</v>
@@ -3555,7 +3634,7 @@
       </c>
       <c r="B123" s="12"/>
       <c r="C123" s="13" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D123" s="8" t="s">
         <v>3</v>
@@ -3568,7 +3647,7 @@
       </c>
       <c r="B124" s="12"/>
       <c r="C124" s="13" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D124" s="8" t="s">
         <v>3</v>
@@ -3581,7 +3660,7 @@
       </c>
       <c r="B125" s="12"/>
       <c r="C125" s="13" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D125" s="8" t="s">
         <v>3</v>
@@ -3594,7 +3673,7 @@
       </c>
       <c r="B126" s="12"/>
       <c r="C126" s="13" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D126" s="8" t="s">
         <v>3</v>
@@ -3607,7 +3686,7 @@
       </c>
       <c r="B127" s="12"/>
       <c r="C127" s="13" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D127" s="8" t="s">
         <v>3</v>
@@ -3620,7 +3699,7 @@
       </c>
       <c r="B128" s="12"/>
       <c r="C128" s="13" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D128" s="8" t="s">
         <v>3</v>
@@ -3633,7 +3712,7 @@
       </c>
       <c r="B129" s="12"/>
       <c r="C129" s="13" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D129" s="8" t="s">
         <v>3</v>
@@ -3646,7 +3725,7 @@
       </c>
       <c r="B130" s="12"/>
       <c r="C130" s="13" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D130" s="8" t="s">
         <v>3</v>
@@ -3659,7 +3738,7 @@
       </c>
       <c r="B131" s="12"/>
       <c r="C131" s="13" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D131" s="8" t="s">
         <v>3</v>
@@ -3672,7 +3751,7 @@
       </c>
       <c r="B132" s="12"/>
       <c r="C132" s="13" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D132" s="8" t="s">
         <v>3</v>
@@ -3685,7 +3764,7 @@
       </c>
       <c r="B133" s="12"/>
       <c r="C133" s="13" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D133" s="8" t="s">
         <v>3</v>
@@ -3698,7 +3777,7 @@
       </c>
       <c r="B134" s="12"/>
       <c r="C134" s="13" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D134" s="8" t="s">
         <v>3</v>
@@ -3711,7 +3790,7 @@
       </c>
       <c r="B135" s="12"/>
       <c r="C135" s="13" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D135" s="8" t="s">
         <v>3</v>
@@ -3724,7 +3803,7 @@
       </c>
       <c r="B136" s="12"/>
       <c r="C136" s="13" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D136" s="8" t="s">
         <v>3</v>
@@ -3737,7 +3816,7 @@
       </c>
       <c r="B137" s="12"/>
       <c r="C137" s="13" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D137" s="8" t="s">
         <v>3</v>
@@ -3750,7 +3829,7 @@
       </c>
       <c r="B138" s="12"/>
       <c r="C138" s="13" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D138" s="8" t="s">
         <v>3</v>
@@ -3763,7 +3842,7 @@
       </c>
       <c r="B139" s="12"/>
       <c r="C139" s="13" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D139" s="8" t="s">
         <v>3</v>
@@ -3776,7 +3855,7 @@
       </c>
       <c r="B140" s="12"/>
       <c r="C140" s="13" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D140" s="8" t="s">
         <v>3</v>
@@ -3789,7 +3868,7 @@
       </c>
       <c r="B141" s="12"/>
       <c r="C141" s="13" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D141" s="8" t="s">
         <v>3</v>
@@ -3802,7 +3881,7 @@
       </c>
       <c r="B142" s="12"/>
       <c r="C142" s="13" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D142" s="8" t="s">
         <v>3</v>
@@ -3815,7 +3894,7 @@
       </c>
       <c r="B143" s="12"/>
       <c r="C143" s="13" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D143" s="8" t="s">
         <v>3</v>
@@ -3828,7 +3907,7 @@
       </c>
       <c r="B144" s="12"/>
       <c r="C144" s="13" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D144" s="8" t="s">
         <v>3</v>
@@ -3841,7 +3920,7 @@
       </c>
       <c r="B145" s="12"/>
       <c r="C145" s="13" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D145" s="8" t="s">
         <v>3</v>
@@ -3854,7 +3933,7 @@
       </c>
       <c r="B146" s="12"/>
       <c r="C146" s="13" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D146" s="8" t="s">
         <v>3</v>
@@ -3867,7 +3946,7 @@
       </c>
       <c r="B147" s="12"/>
       <c r="C147" s="13" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D147" s="8" t="s">
         <v>3</v>
@@ -3880,7 +3959,7 @@
       </c>
       <c r="B148" s="12"/>
       <c r="C148" s="13" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D148" s="8" t="s">
         <v>3</v>
@@ -3893,7 +3972,7 @@
       </c>
       <c r="B149" s="12"/>
       <c r="C149" s="13" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D149" s="8" t="s">
         <v>3</v>
@@ -3906,7 +3985,7 @@
       </c>
       <c r="B150" s="12"/>
       <c r="C150" s="13" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D150" s="8" t="s">
         <v>3</v>
@@ -3919,93 +3998,93 @@
       </c>
       <c r="B151" s="12"/>
       <c r="C151" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="D151" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E151" s="8"/>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B152" s="12"/>
+      <c r="C152" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="D152" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E152" s="8"/>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B153" s="12"/>
+      <c r="C153" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="D153" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E153" s="8"/>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B154" s="12"/>
+      <c r="C154" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="D154" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E154" s="8"/>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B155" s="12"/>
+      <c r="C155" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="D155" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E155" s="8"/>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B156" s="12"/>
+      <c r="C156" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="D156" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E156" s="8"/>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B157" s="12"/>
+      <c r="C157" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="D151" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E151" s="8"/>
-    </row>
-    <row r="153" spans="1:5">
-      <c r="D153" s="8"/>
-      <c r="E153" s="8"/>
-    </row>
-    <row r="154" spans="1:5">
-      <c r="A154" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B154" s="8"/>
-      <c r="C154" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="D154" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E154" s="8"/>
-    </row>
-    <row r="155" spans="1:5">
-      <c r="A155" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B155" s="8"/>
-      <c r="C155" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="D155" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E155" s="8"/>
-    </row>
-    <row r="156" spans="1:5">
-      <c r="A156" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B156" s="8"/>
-      <c r="C156" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="D156" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E156" s="8"/>
-    </row>
-    <row r="157" spans="1:5">
-      <c r="A157" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B157" s="8"/>
-      <c r="C157" s="13" t="s">
-        <v>137</v>
-      </c>
       <c r="D157" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E157" s="8"/>
     </row>
-    <row r="158" spans="1:5">
-      <c r="A158" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B158" s="8"/>
-      <c r="C158" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="D158" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E158" s="8"/>
-    </row>
     <row r="159" spans="1:5">
-      <c r="A159" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B159" s="8"/>
-      <c r="C159" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="D159" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="D159" s="8"/>
       <c r="E159" s="8"/>
     </row>
     <row r="160" spans="1:5">
@@ -4014,7 +4093,7 @@
       </c>
       <c r="B160" s="8"/>
       <c r="C160" s="13" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D160" s="8" t="s">
         <v>3</v>
@@ -4027,7 +4106,7 @@
       </c>
       <c r="B161" s="8"/>
       <c r="C161" s="13" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D161" s="8" t="s">
         <v>3</v>
@@ -4040,7 +4119,7 @@
       </c>
       <c r="B162" s="8"/>
       <c r="C162" s="13" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D162" s="8" t="s">
         <v>3</v>
@@ -4053,7 +4132,7 @@
       </c>
       <c r="B163" s="8"/>
       <c r="C163" s="13" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D163" s="8" t="s">
         <v>3</v>
@@ -4066,7 +4145,7 @@
       </c>
       <c r="B164" s="8"/>
       <c r="C164" s="13" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D164" s="8" t="s">
         <v>3</v>
@@ -4079,7 +4158,7 @@
       </c>
       <c r="B165" s="8"/>
       <c r="C165" s="13" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D165" s="8" t="s">
         <v>3</v>
@@ -4092,7 +4171,7 @@
       </c>
       <c r="B166" s="8"/>
       <c r="C166" s="13" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D166" s="8" t="s">
         <v>3</v>
@@ -4105,7 +4184,7 @@
       </c>
       <c r="B167" s="8"/>
       <c r="C167" s="13" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D167" s="8" t="s">
         <v>3</v>
@@ -4118,7 +4197,7 @@
       </c>
       <c r="B168" s="8"/>
       <c r="C168" s="13" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D168" s="8" t="s">
         <v>3</v>
@@ -4131,7 +4210,7 @@
       </c>
       <c r="B169" s="8"/>
       <c r="C169" s="13" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D169" s="8" t="s">
         <v>3</v>
@@ -4144,7 +4223,7 @@
       </c>
       <c r="B170" s="8"/>
       <c r="C170" s="13" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D170" s="8" t="s">
         <v>3</v>
@@ -4157,7 +4236,7 @@
       </c>
       <c r="B171" s="8"/>
       <c r="C171" s="13" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D171" s="8" t="s">
         <v>3</v>
@@ -4170,7 +4249,7 @@
       </c>
       <c r="B172" s="8"/>
       <c r="C172" s="13" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D172" s="8" t="s">
         <v>3</v>
@@ -4183,7 +4262,7 @@
       </c>
       <c r="B173" s="8"/>
       <c r="C173" s="13" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D173" s="8" t="s">
         <v>3</v>
@@ -4196,7 +4275,7 @@
       </c>
       <c r="B174" s="8"/>
       <c r="C174" s="13" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D174" s="8" t="s">
         <v>3</v>
@@ -4209,7 +4288,7 @@
       </c>
       <c r="B175" s="8"/>
       <c r="C175" s="13" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D175" s="8" t="s">
         <v>3</v>
@@ -4222,7 +4301,7 @@
       </c>
       <c r="B176" s="8"/>
       <c r="C176" s="13" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D176" s="8" t="s">
         <v>3</v>
@@ -4235,7 +4314,7 @@
       </c>
       <c r="B177" s="8"/>
       <c r="C177" s="13" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D177" s="8" t="s">
         <v>3</v>
@@ -4248,7 +4327,7 @@
       </c>
       <c r="B178" s="8"/>
       <c r="C178" s="13" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D178" s="8" t="s">
         <v>3</v>
@@ -4260,8 +4339,8 @@
         <v>133</v>
       </c>
       <c r="B179" s="8"/>
-      <c r="C179" s="6" t="s">
-        <v>159</v>
+      <c r="C179" s="13" t="s">
+        <v>153</v>
       </c>
       <c r="D179" s="8" t="s">
         <v>3</v>
@@ -4273,8 +4352,8 @@
         <v>133</v>
       </c>
       <c r="B180" s="8"/>
-      <c r="C180" s="6" t="s">
-        <v>160</v>
+      <c r="C180" s="13" t="s">
+        <v>154</v>
       </c>
       <c r="D180" s="8" t="s">
         <v>3</v>
@@ -4287,7 +4366,7 @@
       </c>
       <c r="B181" s="8"/>
       <c r="C181" s="13" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D181" s="8" t="s">
         <v>3</v>
@@ -4300,7 +4379,7 @@
       </c>
       <c r="B182" s="8"/>
       <c r="C182" s="13" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D182" s="8" t="s">
         <v>3</v>
@@ -4313,7 +4392,7 @@
       </c>
       <c r="B183" s="8"/>
       <c r="C183" s="13" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D183" s="8" t="s">
         <v>3</v>
@@ -4326,7 +4405,7 @@
       </c>
       <c r="B184" s="8"/>
       <c r="C184" s="13" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D184" s="8" t="s">
         <v>3</v>
@@ -4338,8 +4417,8 @@
         <v>133</v>
       </c>
       <c r="B185" s="8"/>
-      <c r="C185" s="13" t="s">
-        <v>165</v>
+      <c r="C185" s="6" t="s">
+        <v>159</v>
       </c>
       <c r="D185" s="8" t="s">
         <v>3</v>
@@ -4351,8 +4430,8 @@
         <v>133</v>
       </c>
       <c r="B186" s="8"/>
-      <c r="C186" s="13" t="s">
-        <v>166</v>
+      <c r="C186" s="6" t="s">
+        <v>160</v>
       </c>
       <c r="D186" s="8" t="s">
         <v>3</v>
@@ -4365,7 +4444,7 @@
       </c>
       <c r="B187" s="8"/>
       <c r="C187" s="13" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D187" s="8" t="s">
         <v>3</v>
@@ -4378,7 +4457,7 @@
       </c>
       <c r="B188" s="8"/>
       <c r="C188" s="13" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D188" s="8" t="s">
         <v>3</v>
@@ -4391,93 +4470,93 @@
       </c>
       <c r="B189" s="8"/>
       <c r="C189" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="D189" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E189" s="8"/>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B190" s="8"/>
+      <c r="C190" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="D190" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E190" s="8"/>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B191" s="8"/>
+      <c r="C191" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="D191" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E191" s="8"/>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B192" s="8"/>
+      <c r="C192" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="D192" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E192" s="8"/>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B193" s="8"/>
+      <c r="C193" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="D193" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E193" s="8"/>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B194" s="8"/>
+      <c r="C194" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D194" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E194" s="8"/>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B195" s="8"/>
+      <c r="C195" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="D189" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E189" s="8"/>
-    </row>
-    <row r="191" spans="1:5">
-      <c r="D191" s="8"/>
-      <c r="E191" s="8"/>
-    </row>
-    <row r="192" spans="1:5">
-      <c r="A192" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="B192" s="12"/>
-      <c r="C192" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="D192" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E192" s="8"/>
-    </row>
-    <row r="193" spans="1:5">
-      <c r="A193" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="B193" s="12"/>
-      <c r="C193" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="D193" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E193" s="8"/>
-    </row>
-    <row r="194" spans="1:5">
-      <c r="A194" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="B194" s="12"/>
-      <c r="C194" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="D194" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E194" s="8"/>
-    </row>
-    <row r="195" spans="1:5">
-      <c r="A195" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="B195" s="12"/>
-      <c r="C195" s="13" t="s">
-        <v>174</v>
-      </c>
       <c r="D195" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E195" s="8"/>
     </row>
-    <row r="196" spans="1:5">
-      <c r="A196" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="B196" s="12"/>
-      <c r="C196" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="D196" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E196" s="8"/>
-    </row>
     <row r="197" spans="1:5">
-      <c r="A197" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="B197" s="12"/>
-      <c r="C197" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="D197" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="D197" s="8"/>
       <c r="E197" s="8"/>
     </row>
     <row r="198" spans="1:5">
@@ -4486,7 +4565,7 @@
       </c>
       <c r="B198" s="12"/>
       <c r="C198" s="13" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D198" s="8" t="s">
         <v>3</v>
@@ -4499,7 +4578,7 @@
       </c>
       <c r="B199" s="12"/>
       <c r="C199" s="13" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D199" s="8" t="s">
         <v>3</v>
@@ -4512,7 +4591,7 @@
       </c>
       <c r="B200" s="12"/>
       <c r="C200" s="13" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D200" s="8" t="s">
         <v>3</v>
@@ -4525,7 +4604,7 @@
       </c>
       <c r="B201" s="12"/>
       <c r="C201" s="13" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D201" s="8" t="s">
         <v>3</v>
@@ -4538,7 +4617,7 @@
       </c>
       <c r="B202" s="12"/>
       <c r="C202" s="13" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D202" s="8" t="s">
         <v>3</v>
@@ -4551,7 +4630,7 @@
       </c>
       <c r="B203" s="12"/>
       <c r="C203" s="13" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D203" s="8" t="s">
         <v>3</v>
@@ -4564,7 +4643,7 @@
       </c>
       <c r="B204" s="12"/>
       <c r="C204" s="13" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D204" s="8" t="s">
         <v>3</v>
@@ -4577,7 +4656,7 @@
       </c>
       <c r="B205" s="12"/>
       <c r="C205" s="13" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D205" s="8" t="s">
         <v>3</v>
@@ -4590,7 +4669,7 @@
       </c>
       <c r="B206" s="12"/>
       <c r="C206" s="13" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D206" s="8" t="s">
         <v>3</v>
@@ -4603,7 +4682,7 @@
       </c>
       <c r="B207" s="12"/>
       <c r="C207" s="13" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D207" s="8" t="s">
         <v>3</v>
@@ -4616,7 +4695,7 @@
       </c>
       <c r="B208" s="12"/>
       <c r="C208" s="13" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D208" s="8" t="s">
         <v>3</v>
@@ -4629,7 +4708,7 @@
       </c>
       <c r="B209" s="12"/>
       <c r="C209" s="13" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D209" s="8" t="s">
         <v>3</v>
@@ -4642,7 +4721,7 @@
       </c>
       <c r="B210" s="12"/>
       <c r="C210" s="13" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D210" s="8" t="s">
         <v>3</v>
@@ -4655,7 +4734,7 @@
       </c>
       <c r="B211" s="12"/>
       <c r="C211" s="13" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D211" s="8" t="s">
         <v>3</v>
@@ -4668,7 +4747,7 @@
       </c>
       <c r="B212" s="12"/>
       <c r="C212" s="13" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D212" s="8" t="s">
         <v>3</v>
@@ -4681,7 +4760,7 @@
       </c>
       <c r="B213" s="12"/>
       <c r="C213" s="13" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D213" s="8" t="s">
         <v>3</v>
@@ -4694,7 +4773,7 @@
       </c>
       <c r="B214" s="12"/>
       <c r="C214" s="13" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D214" s="8" t="s">
         <v>3</v>
@@ -4707,7 +4786,7 @@
       </c>
       <c r="B215" s="12"/>
       <c r="C215" s="13" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D215" s="8" t="s">
         <v>3</v>
@@ -4720,7 +4799,7 @@
       </c>
       <c r="B216" s="12"/>
       <c r="C216" s="13" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D216" s="8" t="s">
         <v>3</v>
@@ -4733,7 +4812,7 @@
       </c>
       <c r="B217" s="12"/>
       <c r="C217" s="13" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D217" s="8" t="s">
         <v>3</v>
@@ -4746,7 +4825,7 @@
       </c>
       <c r="B218" s="12"/>
       <c r="C218" s="13" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D218" s="8" t="s">
         <v>3</v>
@@ -4759,7 +4838,7 @@
       </c>
       <c r="B219" s="12"/>
       <c r="C219" s="13" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D219" s="8" t="s">
         <v>3</v>
@@ -4772,7 +4851,7 @@
       </c>
       <c r="B220" s="12"/>
       <c r="C220" s="13" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D220" s="8" t="s">
         <v>3</v>
@@ -4785,7 +4864,7 @@
       </c>
       <c r="B221" s="12"/>
       <c r="C221" s="13" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="D221" s="8" t="s">
         <v>3</v>
@@ -4798,7 +4877,7 @@
       </c>
       <c r="B222" s="12"/>
       <c r="C222" s="13" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D222" s="8" t="s">
         <v>3</v>
@@ -4811,7 +4890,7 @@
       </c>
       <c r="B223" s="12"/>
       <c r="C223" s="13" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D223" s="8" t="s">
         <v>3</v>
@@ -4824,7 +4903,7 @@
       </c>
       <c r="B224" s="12"/>
       <c r="C224" s="13" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D224" s="8" t="s">
         <v>3</v>
@@ -4837,7 +4916,7 @@
       </c>
       <c r="B225" s="12"/>
       <c r="C225" s="13" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D225" s="8" t="s">
         <v>3</v>
@@ -4850,7 +4929,7 @@
       </c>
       <c r="B226" s="12"/>
       <c r="C226" s="13" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D226" s="8" t="s">
         <v>3</v>
@@ -4858,24 +4937,38 @@
       <c r="E226" s="8"/>
     </row>
     <row r="227" spans="1:5">
-      <c r="A227" s="8"/>
-      <c r="B227" s="8"/>
-      <c r="D227" s="8"/>
+      <c r="A227" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="B227" s="12"/>
+      <c r="C227" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="D227" s="8" t="s">
+        <v>3</v>
+      </c>
       <c r="E227" s="8"/>
     </row>
     <row r="228" spans="1:5">
-      <c r="A228" s="8"/>
-      <c r="B228" s="8"/>
-      <c r="D228" s="8"/>
+      <c r="A228" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="B228" s="12"/>
+      <c r="C228" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="D228" s="8" t="s">
+        <v>3</v>
+      </c>
       <c r="E228" s="8"/>
     </row>
     <row r="229" spans="1:5">
       <c r="A229" s="12" t="s">
-        <v>206</v>
+        <v>170</v>
       </c>
       <c r="B229" s="12"/>
       <c r="C229" s="13" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D229" s="8" t="s">
         <v>3</v>
@@ -4884,11 +4977,11 @@
     </row>
     <row r="230" spans="1:5">
       <c r="A230" s="12" t="s">
-        <v>206</v>
+        <v>170</v>
       </c>
       <c r="B230" s="12"/>
       <c r="C230" s="13" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D230" s="8" t="s">
         <v>3</v>
@@ -4897,11 +4990,11 @@
     </row>
     <row r="231" spans="1:5">
       <c r="A231" s="12" t="s">
-        <v>206</v>
+        <v>170</v>
       </c>
       <c r="B231" s="12"/>
       <c r="C231" s="13" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D231" s="8" t="s">
         <v>3</v>
@@ -4910,11 +5003,11 @@
     </row>
     <row r="232" spans="1:5">
       <c r="A232" s="12" t="s">
-        <v>206</v>
+        <v>170</v>
       </c>
       <c r="B232" s="12"/>
       <c r="C232" s="13" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D232" s="8" t="s">
         <v>3</v>
@@ -4922,29 +5015,15 @@
       <c r="E232" s="8"/>
     </row>
     <row r="233" spans="1:5">
-      <c r="A233" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="B233" s="12"/>
-      <c r="C233" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="D233" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="A233" s="8"/>
+      <c r="B233" s="8"/>
+      <c r="D233" s="8"/>
       <c r="E233" s="8"/>
     </row>
     <row r="234" spans="1:5">
-      <c r="A234" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="B234" s="12"/>
-      <c r="C234" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="D234" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="A234" s="8"/>
+      <c r="B234" s="8"/>
+      <c r="D234" s="8"/>
       <c r="E234" s="8"/>
     </row>
     <row r="235" spans="1:5">
@@ -4952,8 +5031,8 @@
         <v>206</v>
       </c>
       <c r="B235" s="12"/>
-      <c r="C235" s="5" t="s">
-        <v>213</v>
+      <c r="C235" s="13" t="s">
+        <v>207</v>
       </c>
       <c r="D235" s="8" t="s">
         <v>3</v>
@@ -4966,7 +5045,7 @@
       </c>
       <c r="B236" s="12"/>
       <c r="C236" s="13" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D236" s="8" t="s">
         <v>3</v>
@@ -4979,7 +5058,7 @@
       </c>
       <c r="B237" s="12"/>
       <c r="C237" s="13" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D237" s="8" t="s">
         <v>3</v>
@@ -4992,7 +5071,7 @@
       </c>
       <c r="B238" s="12"/>
       <c r="C238" s="13" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D238" s="8" t="s">
         <v>3</v>
@@ -5005,7 +5084,7 @@
       </c>
       <c r="B239" s="12"/>
       <c r="C239" s="13" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D239" s="8" t="s">
         <v>3</v>
@@ -5018,7 +5097,7 @@
       </c>
       <c r="B240" s="12"/>
       <c r="C240" s="13" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D240" s="8" t="s">
         <v>3</v>
@@ -5030,8 +5109,8 @@
         <v>206</v>
       </c>
       <c r="B241" s="12"/>
-      <c r="C241" s="13" t="s">
-        <v>219</v>
+      <c r="C241" s="5" t="s">
+        <v>213</v>
       </c>
       <c r="D241" s="8" t="s">
         <v>3</v>
@@ -5044,7 +5123,7 @@
       </c>
       <c r="B242" s="12"/>
       <c r="C242" s="13" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D242" s="8" t="s">
         <v>3</v>
@@ -5057,7 +5136,7 @@
       </c>
       <c r="B243" s="12"/>
       <c r="C243" s="13" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D243" s="8" t="s">
         <v>3</v>
@@ -5070,7 +5149,7 @@
       </c>
       <c r="B244" s="12"/>
       <c r="C244" s="13" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D244" s="8" t="s">
         <v>3</v>
@@ -5083,7 +5162,7 @@
       </c>
       <c r="B245" s="12"/>
       <c r="C245" s="13" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D245" s="8" t="s">
         <v>3</v>
@@ -5096,7 +5175,7 @@
       </c>
       <c r="B246" s="12"/>
       <c r="C246" s="13" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="D246" s="8" t="s">
         <v>3</v>
@@ -5109,7 +5188,7 @@
       </c>
       <c r="B247" s="12"/>
       <c r="C247" s="13" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="D247" s="8" t="s">
         <v>3</v>
@@ -5122,7 +5201,7 @@
       </c>
       <c r="B248" s="12"/>
       <c r="C248" s="13" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="D248" s="8" t="s">
         <v>3</v>
@@ -5135,7 +5214,7 @@
       </c>
       <c r="B249" s="12"/>
       <c r="C249" s="13" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D249" s="8" t="s">
         <v>3</v>
@@ -5148,7 +5227,7 @@
       </c>
       <c r="B250" s="12"/>
       <c r="C250" s="13" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="D250" s="8" t="s">
         <v>3</v>
@@ -5156,20 +5235,38 @@
       <c r="E250" s="8"/>
     </row>
     <row r="251" spans="1:5">
-      <c r="D251" s="8"/>
+      <c r="A251" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="B251" s="12"/>
+      <c r="C251" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="D251" s="8" t="s">
+        <v>3</v>
+      </c>
       <c r="E251" s="8"/>
     </row>
     <row r="252" spans="1:5">
-      <c r="D252" s="8"/>
+      <c r="A252" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="B252" s="12"/>
+      <c r="C252" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="D252" s="8" t="s">
+        <v>3</v>
+      </c>
       <c r="E252" s="8"/>
     </row>
     <row r="253" spans="1:5">
       <c r="A253" s="12" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
       <c r="B253" s="12"/>
       <c r="C253" s="13" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D253" s="8" t="s">
         <v>3</v>
@@ -5178,11 +5275,11 @@
     </row>
     <row r="254" spans="1:5">
       <c r="A254" s="12" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
       <c r="B254" s="12"/>
       <c r="C254" s="13" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D254" s="8" t="s">
         <v>3</v>
@@ -5191,11 +5288,11 @@
     </row>
     <row r="255" spans="1:5">
       <c r="A255" s="12" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
       <c r="B255" s="12"/>
       <c r="C255" s="13" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="D255" s="8" t="s">
         <v>3</v>
@@ -5204,11 +5301,11 @@
     </row>
     <row r="256" spans="1:5">
       <c r="A256" s="12" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
       <c r="B256" s="12"/>
       <c r="C256" s="13" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D256" s="8" t="s">
         <v>3</v>
@@ -5216,29 +5313,11 @@
       <c r="E256" s="8"/>
     </row>
     <row r="257" spans="1:5">
-      <c r="A257" s="12" t="s">
-        <v>229</v>
-      </c>
-      <c r="B257" s="12"/>
-      <c r="C257" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="D257" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="D257" s="8"/>
       <c r="E257" s="8"/>
     </row>
     <row r="258" spans="1:5">
-      <c r="A258" s="12" t="s">
-        <v>229</v>
-      </c>
-      <c r="B258" s="12"/>
-      <c r="C258" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="D258" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="D258" s="8"/>
       <c r="E258" s="8"/>
     </row>
     <row r="259" spans="1:5">
@@ -5247,7 +5326,7 @@
       </c>
       <c r="B259" s="12"/>
       <c r="C259" s="13" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="D259" s="8" t="s">
         <v>3</v>
@@ -5260,7 +5339,7 @@
       </c>
       <c r="B260" s="12"/>
       <c r="C260" s="13" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D260" s="8" t="s">
         <v>3</v>
@@ -5273,7 +5352,7 @@
       </c>
       <c r="B261" s="12"/>
       <c r="C261" s="13" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D261" s="8" t="s">
         <v>3</v>
@@ -5286,7 +5365,7 @@
       </c>
       <c r="B262" s="12"/>
       <c r="C262" s="13" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D262" s="8" t="s">
         <v>3</v>
@@ -5299,7 +5378,7 @@
       </c>
       <c r="B263" s="12"/>
       <c r="C263" s="13" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D263" s="8" t="s">
         <v>3</v>
@@ -5312,7 +5391,7 @@
       </c>
       <c r="B264" s="12"/>
       <c r="C264" s="13" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="D264" s="8" t="s">
         <v>3</v>
@@ -5325,7 +5404,7 @@
       </c>
       <c r="B265" s="12"/>
       <c r="C265" s="13" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="D265" s="8" t="s">
         <v>3</v>
@@ -5338,7 +5417,7 @@
       </c>
       <c r="B266" s="12"/>
       <c r="C266" s="13" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D266" s="8" t="s">
         <v>3</v>
@@ -5351,7 +5430,7 @@
       </c>
       <c r="B267" s="12"/>
       <c r="C267" s="13" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="D267" s="8" t="s">
         <v>3</v>
@@ -5364,7 +5443,7 @@
       </c>
       <c r="B268" s="12"/>
       <c r="C268" s="13" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="D268" s="8" t="s">
         <v>3</v>
@@ -5377,7 +5456,7 @@
       </c>
       <c r="B269" s="12"/>
       <c r="C269" s="13" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="D269" s="8" t="s">
         <v>3</v>
@@ -5390,7 +5469,7 @@
       </c>
       <c r="B270" s="12"/>
       <c r="C270" s="13" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D270" s="8" t="s">
         <v>3</v>
@@ -5403,7 +5482,7 @@
       </c>
       <c r="B271" s="12"/>
       <c r="C271" s="13" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="D271" s="8" t="s">
         <v>3</v>
@@ -5416,7 +5495,7 @@
       </c>
       <c r="B272" s="12"/>
       <c r="C272" s="13" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="D272" s="8" t="s">
         <v>3</v>
@@ -5429,7 +5508,7 @@
       </c>
       <c r="B273" s="12"/>
       <c r="C273" s="13" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D273" s="8" t="s">
         <v>3</v>
@@ -5442,7 +5521,7 @@
       </c>
       <c r="B274" s="12"/>
       <c r="C274" s="13" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="D274" s="8" t="s">
         <v>3</v>
@@ -5455,7 +5534,7 @@
       </c>
       <c r="B275" s="12"/>
       <c r="C275" s="13" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D275" s="8" t="s">
         <v>3</v>
@@ -5468,7 +5547,7 @@
       </c>
       <c r="B276" s="12"/>
       <c r="C276" s="13" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="D276" s="8" t="s">
         <v>3</v>
@@ -5481,7 +5560,7 @@
       </c>
       <c r="B277" s="12"/>
       <c r="C277" s="13" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D277" s="8" t="s">
         <v>3</v>
@@ -5494,7 +5573,7 @@
       </c>
       <c r="B278" s="12"/>
       <c r="C278" s="13" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="D278" s="8" t="s">
         <v>3</v>
@@ -5507,7 +5586,7 @@
       </c>
       <c r="B279" s="12"/>
       <c r="C279" s="13" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="D279" s="8" t="s">
         <v>3</v>
@@ -5520,7 +5599,7 @@
       </c>
       <c r="B280" s="12"/>
       <c r="C280" s="13" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="D280" s="8" t="s">
         <v>3</v>
@@ -5533,7 +5612,7 @@
       </c>
       <c r="B281" s="12"/>
       <c r="C281" s="13" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D281" s="8" t="s">
         <v>3</v>
@@ -5546,7 +5625,7 @@
       </c>
       <c r="B282" s="12"/>
       <c r="C282" s="13" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="D282" s="8" t="s">
         <v>3</v>
@@ -5559,7 +5638,7 @@
       </c>
       <c r="B283" s="12"/>
       <c r="C283" s="13" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="D283" s="8" t="s">
         <v>3</v>
@@ -5572,7 +5651,7 @@
       </c>
       <c r="B284" s="12"/>
       <c r="C284" s="13" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="D284" s="8" t="s">
         <v>3</v>
@@ -5585,7 +5664,7 @@
       </c>
       <c r="B285" s="12"/>
       <c r="C285" s="13" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="D285" s="8" t="s">
         <v>3</v>
@@ -5598,7 +5677,7 @@
       </c>
       <c r="B286" s="12"/>
       <c r="C286" s="13" t="s">
-        <v>86</v>
+        <v>257</v>
       </c>
       <c r="D286" s="8" t="s">
         <v>3</v>
@@ -5611,7 +5690,7 @@
       </c>
       <c r="B287" s="12"/>
       <c r="C287" s="13" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D287" s="8" t="s">
         <v>3</v>
@@ -5619,20 +5698,38 @@
       <c r="E287" s="8"/>
     </row>
     <row r="288" spans="1:5">
-      <c r="D288" s="8"/>
+      <c r="A288" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="B288" s="12"/>
+      <c r="C288" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="D288" s="8" t="s">
+        <v>3</v>
+      </c>
       <c r="E288" s="8"/>
     </row>
     <row r="289" spans="1:5">
-      <c r="D289" s="8"/>
+      <c r="A289" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="B289" s="12"/>
+      <c r="C289" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="D289" s="8" t="s">
+        <v>3</v>
+      </c>
       <c r="E289" s="8"/>
     </row>
     <row r="290" spans="1:5">
       <c r="A290" s="12" t="s">
-        <v>264</v>
+        <v>229</v>
       </c>
       <c r="B290" s="12"/>
       <c r="C290" s="13" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D290" s="8" t="s">
         <v>3</v>
@@ -5641,11 +5738,11 @@
     </row>
     <row r="291" spans="1:5">
       <c r="A291" s="12" t="s">
-        <v>264</v>
+        <v>229</v>
       </c>
       <c r="B291" s="12"/>
       <c r="C291" s="13" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D291" s="8" t="s">
         <v>3</v>
@@ -5654,11 +5751,11 @@
     </row>
     <row r="292" spans="1:5">
       <c r="A292" s="12" t="s">
-        <v>264</v>
+        <v>229</v>
       </c>
       <c r="B292" s="12"/>
       <c r="C292" s="13" t="s">
-        <v>267</v>
+        <v>86</v>
       </c>
       <c r="D292" s="8" t="s">
         <v>3</v>
@@ -5667,11 +5764,11 @@
     </row>
     <row r="293" spans="1:5">
       <c r="A293" s="12" t="s">
-        <v>264</v>
+        <v>229</v>
       </c>
       <c r="B293" s="12"/>
       <c r="C293" s="13" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D293" s="8" t="s">
         <v>3</v>
@@ -5679,29 +5776,11 @@
       <c r="E293" s="8"/>
     </row>
     <row r="294" spans="1:5">
-      <c r="A294" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="B294" s="12"/>
-      <c r="C294" s="13" t="s">
-        <v>269</v>
-      </c>
-      <c r="D294" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="D294" s="8"/>
       <c r="E294" s="8"/>
     </row>
     <row r="295" spans="1:5">
-      <c r="A295" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="B295" s="12"/>
-      <c r="C295" s="13" t="s">
-        <v>270</v>
-      </c>
-      <c r="D295" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="D295" s="8"/>
       <c r="E295" s="8"/>
     </row>
     <row r="296" spans="1:5">
@@ -5710,7 +5789,7 @@
       </c>
       <c r="B296" s="12"/>
       <c r="C296" s="13" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="D296" s="8" t="s">
         <v>3</v>
@@ -5723,7 +5802,7 @@
       </c>
       <c r="B297" s="12"/>
       <c r="C297" s="13" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="D297" s="8" t="s">
         <v>3</v>
@@ -5736,7 +5815,7 @@
       </c>
       <c r="B298" s="12"/>
       <c r="C298" s="13" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="D298" s="8" t="s">
         <v>3</v>
@@ -5749,7 +5828,7 @@
       </c>
       <c r="B299" s="12"/>
       <c r="C299" s="13" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="D299" s="8" t="s">
         <v>3</v>
@@ -5762,7 +5841,7 @@
       </c>
       <c r="B300" s="12"/>
       <c r="C300" s="13" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="D300" s="8" t="s">
         <v>3</v>
@@ -5775,7 +5854,7 @@
       </c>
       <c r="B301" s="12"/>
       <c r="C301" s="13" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="D301" s="8" t="s">
         <v>3</v>
@@ -5788,7 +5867,7 @@
       </c>
       <c r="B302" s="12"/>
       <c r="C302" s="13" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="D302" s="8" t="s">
         <v>3</v>
@@ -5801,7 +5880,7 @@
       </c>
       <c r="B303" s="12"/>
       <c r="C303" s="13" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="D303" s="8" t="s">
         <v>3</v>
@@ -5814,7 +5893,7 @@
       </c>
       <c r="B304" s="12"/>
       <c r="C304" s="13" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="D304" s="8" t="s">
         <v>3</v>
@@ -5827,7 +5906,7 @@
       </c>
       <c r="B305" s="12"/>
       <c r="C305" s="13" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D305" s="8" t="s">
         <v>3</v>
@@ -5840,7 +5919,7 @@
       </c>
       <c r="B306" s="12"/>
       <c r="C306" s="13" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="D306" s="8" t="s">
         <v>3</v>
@@ -5853,7 +5932,7 @@
       </c>
       <c r="B307" s="12"/>
       <c r="C307" s="13" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="D307" s="8" t="s">
         <v>3</v>
@@ -5866,7 +5945,7 @@
       </c>
       <c r="B308" s="12"/>
       <c r="C308" s="13" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="D308" s="8" t="s">
         <v>3</v>
@@ -5874,20 +5953,38 @@
       <c r="E308" s="8"/>
     </row>
     <row r="309" spans="1:5">
-      <c r="D309" s="8"/>
+      <c r="A309" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="B309" s="12"/>
+      <c r="C309" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="D309" s="8" t="s">
+        <v>3</v>
+      </c>
       <c r="E309" s="8"/>
     </row>
     <row r="310" spans="1:5">
-      <c r="D310" s="8"/>
+      <c r="A310" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="B310" s="12"/>
+      <c r="C310" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="D310" s="8" t="s">
+        <v>3</v>
+      </c>
       <c r="E310" s="8"/>
     </row>
     <row r="311" spans="1:5">
       <c r="A311" s="12" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="B311" s="12"/>
       <c r="C311" s="13" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D311" s="8" t="s">
         <v>3</v>
@@ -5896,11 +5993,11 @@
     </row>
     <row r="312" spans="1:5">
       <c r="A312" s="12" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="B312" s="12"/>
       <c r="C312" s="13" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="D312" s="8" t="s">
         <v>3</v>
@@ -5909,11 +6006,11 @@
     </row>
     <row r="313" spans="1:5">
       <c r="A313" s="12" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="B313" s="12"/>
       <c r="C313" s="13" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="D313" s="8" t="s">
         <v>3</v>
@@ -5922,11 +6019,11 @@
     </row>
     <row r="314" spans="1:5">
       <c r="A314" s="12" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="B314" s="12"/>
       <c r="C314" s="13" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="D314" s="8" t="s">
         <v>3</v>
@@ -5934,29 +6031,11 @@
       <c r="E314" s="8"/>
     </row>
     <row r="315" spans="1:5">
-      <c r="A315" s="12" t="s">
-        <v>284</v>
-      </c>
-      <c r="B315" s="12"/>
-      <c r="C315" s="13" t="s">
-        <v>289</v>
-      </c>
-      <c r="D315" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="D315" s="8"/>
       <c r="E315" s="8"/>
     </row>
     <row r="316" spans="1:5">
-      <c r="A316" s="12" t="s">
-        <v>284</v>
-      </c>
-      <c r="B316" s="12"/>
-      <c r="C316" s="13" t="s">
-        <v>290</v>
-      </c>
-      <c r="D316" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="D316" s="8"/>
       <c r="E316" s="8"/>
     </row>
     <row r="317" spans="1:5">
@@ -5965,7 +6044,7 @@
       </c>
       <c r="B317" s="12"/>
       <c r="C317" s="13" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="D317" s="8" t="s">
         <v>3</v>
@@ -5978,7 +6057,7 @@
       </c>
       <c r="B318" s="12"/>
       <c r="C318" s="13" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D318" s="8" t="s">
         <v>3</v>
@@ -5991,7 +6070,7 @@
       </c>
       <c r="B319" s="12"/>
       <c r="C319" s="13" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="D319" s="8" t="s">
         <v>3</v>
@@ -6004,7 +6083,7 @@
       </c>
       <c r="B320" s="12"/>
       <c r="C320" s="13" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="D320" s="8" t="s">
         <v>3</v>
@@ -6017,7 +6096,7 @@
       </c>
       <c r="B321" s="12"/>
       <c r="C321" s="13" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="D321" s="8" t="s">
         <v>3</v>
@@ -6030,7 +6109,7 @@
       </c>
       <c r="B322" s="12"/>
       <c r="C322" s="13" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="D322" s="8" t="s">
         <v>3</v>
@@ -6043,7 +6122,7 @@
       </c>
       <c r="B323" s="12"/>
       <c r="C323" s="13" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="D323" s="8" t="s">
         <v>3</v>
@@ -6055,8 +6134,8 @@
         <v>284</v>
       </c>
       <c r="B324" s="12"/>
-      <c r="C324" s="5" t="s">
-        <v>298</v>
+      <c r="C324" s="13" t="s">
+        <v>292</v>
       </c>
       <c r="D324" s="8" t="s">
         <v>3</v>
@@ -6069,7 +6148,7 @@
       </c>
       <c r="B325" s="12"/>
       <c r="C325" s="13" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="D325" s="8" t="s">
         <v>3</v>
@@ -6082,7 +6161,7 @@
       </c>
       <c r="B326" s="12"/>
       <c r="C326" s="13" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="D326" s="8" t="s">
         <v>3</v>
@@ -6095,7 +6174,7 @@
       </c>
       <c r="B327" s="12"/>
       <c r="C327" s="13" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="D327" s="8" t="s">
         <v>3</v>
@@ -6108,7 +6187,7 @@
       </c>
       <c r="B328" s="12"/>
       <c r="C328" s="13" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="D328" s="8" t="s">
         <v>3</v>
@@ -6121,7 +6200,7 @@
       </c>
       <c r="B329" s="12"/>
       <c r="C329" s="13" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D329" s="8" t="s">
         <v>3</v>
@@ -6133,8 +6212,8 @@
         <v>284</v>
       </c>
       <c r="B330" s="12"/>
-      <c r="C330" s="13" t="s">
-        <v>304</v>
+      <c r="C330" s="5" t="s">
+        <v>298</v>
       </c>
       <c r="D330" s="8" t="s">
         <v>3</v>
@@ -6147,7 +6226,7 @@
       </c>
       <c r="B331" s="12"/>
       <c r="C331" s="13" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="D331" s="8" t="s">
         <v>3</v>
@@ -6160,7 +6239,7 @@
       </c>
       <c r="B332" s="12"/>
       <c r="C332" s="13" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="D332" s="8" t="s">
         <v>3</v>
@@ -6173,7 +6252,7 @@
       </c>
       <c r="B333" s="12"/>
       <c r="C333" s="13" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="D333" s="8" t="s">
         <v>3</v>
@@ -6186,7 +6265,7 @@
       </c>
       <c r="B334" s="12"/>
       <c r="C334" s="13" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="D334" s="8" t="s">
         <v>3</v>
@@ -6199,7 +6278,7 @@
       </c>
       <c r="B335" s="12"/>
       <c r="C335" s="13" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D335" s="8" t="s">
         <v>3</v>
@@ -6212,7 +6291,7 @@
       </c>
       <c r="B336" s="12"/>
       <c r="C336" s="13" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="D336" s="8" t="s">
         <v>3</v>
@@ -6225,7 +6304,7 @@
       </c>
       <c r="B337" s="12"/>
       <c r="C337" s="13" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="D337" s="8" t="s">
         <v>3</v>
@@ -6238,7 +6317,7 @@
       </c>
       <c r="B338" s="12"/>
       <c r="C338" s="13" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="D338" s="8" t="s">
         <v>3</v>
@@ -6251,7 +6330,7 @@
       </c>
       <c r="B339" s="12"/>
       <c r="C339" s="13" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="D339" s="8" t="s">
         <v>3</v>
@@ -6264,7 +6343,7 @@
       </c>
       <c r="B340" s="12"/>
       <c r="C340" s="13" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="D340" s="8" t="s">
         <v>3</v>
@@ -6277,7 +6356,7 @@
       </c>
       <c r="B341" s="12"/>
       <c r="C341" s="13" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="D341" s="8" t="s">
         <v>3</v>
@@ -6290,7 +6369,7 @@
       </c>
       <c r="B342" s="12"/>
       <c r="C342" s="13" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="D342" s="8" t="s">
         <v>3</v>
@@ -6303,7 +6382,7 @@
       </c>
       <c r="B343" s="12"/>
       <c r="C343" s="13" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="D343" s="8" t="s">
         <v>3</v>
@@ -6316,7 +6395,7 @@
       </c>
       <c r="B344" s="12"/>
       <c r="C344" s="13" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="D344" s="8" t="s">
         <v>3</v>
@@ -6329,7 +6408,7 @@
       </c>
       <c r="B345" s="12"/>
       <c r="C345" s="13" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="D345" s="8" t="s">
         <v>3</v>
@@ -6342,7 +6421,7 @@
       </c>
       <c r="B346" s="12"/>
       <c r="C346" s="13" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="D346" s="8" t="s">
         <v>3</v>
@@ -6355,7 +6434,7 @@
       </c>
       <c r="B347" s="12"/>
       <c r="C347" s="13" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="D347" s="8" t="s">
         <v>3</v>
@@ -6368,97 +6447,97 @@
       </c>
       <c r="B348" s="12"/>
       <c r="C348" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="D348" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E348" s="8"/>
+    </row>
+    <row r="349" spans="1:5">
+      <c r="A349" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="B349" s="12"/>
+      <c r="C349" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="D349" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E349" s="8"/>
+    </row>
+    <row r="350" spans="1:5">
+      <c r="A350" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="B350" s="12"/>
+      <c r="C350" s="13" t="s">
+        <v>318</v>
+      </c>
+      <c r="D350" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E350" s="8"/>
+    </row>
+    <row r="351" spans="1:5">
+      <c r="A351" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="B351" s="12"/>
+      <c r="C351" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="D351" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E351" s="8"/>
+    </row>
+    <row r="352" spans="1:5">
+      <c r="A352" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="B352" s="12"/>
+      <c r="C352" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="D352" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E352" s="8"/>
+    </row>
+    <row r="353" spans="1:5">
+      <c r="A353" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="B353" s="12"/>
+      <c r="C353" s="13" t="s">
+        <v>321</v>
+      </c>
+      <c r="D353" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E353" s="8"/>
+    </row>
+    <row r="354" spans="1:5">
+      <c r="A354" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="B354" s="12"/>
+      <c r="C354" s="13" t="s">
         <v>322</v>
       </c>
-      <c r="D348" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E348" s="8"/>
-    </row>
-    <row r="349" spans="1:5">
-      <c r="D349" s="8"/>
-      <c r="E349" s="8"/>
-    </row>
-    <row r="350" spans="1:5">
-      <c r="D350" s="8"/>
-      <c r="E350" s="8"/>
-    </row>
-    <row r="351" spans="1:5">
-      <c r="A351" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="B351" s="8"/>
-      <c r="C351" s="13" t="s">
-        <v>324</v>
-      </c>
-      <c r="D351" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E351" s="8"/>
-    </row>
-    <row r="352" spans="1:5">
-      <c r="A352" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="B352" s="8"/>
-      <c r="C352" s="13" t="s">
-        <v>325</v>
-      </c>
-      <c r="D352" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E352" s="8"/>
-    </row>
-    <row r="353" spans="1:5">
-      <c r="A353" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="B353" s="8"/>
-      <c r="C353" s="13" t="s">
-        <v>326</v>
-      </c>
-      <c r="D353" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E353" s="8"/>
-    </row>
-    <row r="354" spans="1:5">
-      <c r="A354" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="B354" s="8"/>
-      <c r="C354" s="13" t="s">
-        <v>327</v>
-      </c>
       <c r="D354" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E354" s="8"/>
     </row>
     <row r="355" spans="1:5">
-      <c r="A355" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="B355" s="8"/>
-      <c r="C355" s="13" t="s">
-        <v>328</v>
-      </c>
-      <c r="D355" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="D355" s="8"/>
       <c r="E355" s="8"/>
     </row>
     <row r="356" spans="1:5">
-      <c r="A356" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="B356" s="8"/>
-      <c r="C356" s="13" t="s">
-        <v>329</v>
-      </c>
-      <c r="D356" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="D356" s="8"/>
       <c r="E356" s="8"/>
     </row>
     <row r="357" spans="1:5">
@@ -6467,7 +6546,7 @@
       </c>
       <c r="B357" s="8"/>
       <c r="C357" s="13" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="D357" s="8" t="s">
         <v>3</v>
@@ -6480,7 +6559,7 @@
       </c>
       <c r="B358" s="8"/>
       <c r="C358" s="13" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="D358" s="8" t="s">
         <v>3</v>
@@ -6492,8 +6571,8 @@
         <v>323</v>
       </c>
       <c r="B359" s="8"/>
-      <c r="C359" s="5" t="s">
-        <v>332</v>
+      <c r="C359" s="13" t="s">
+        <v>326</v>
       </c>
       <c r="D359" s="8" t="s">
         <v>3</v>
@@ -6506,7 +6585,7 @@
       </c>
       <c r="B360" s="8"/>
       <c r="C360" s="13" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="D360" s="8" t="s">
         <v>3</v>
@@ -6519,7 +6598,7 @@
       </c>
       <c r="B361" s="8"/>
       <c r="C361" s="13" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="D361" s="8" t="s">
         <v>3</v>
@@ -6532,7 +6611,7 @@
       </c>
       <c r="B362" s="8"/>
       <c r="C362" s="13" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D362" s="8" t="s">
         <v>3</v>
@@ -6545,7 +6624,7 @@
       </c>
       <c r="B363" s="8"/>
       <c r="C363" s="13" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="D363" s="8" t="s">
         <v>3</v>
@@ -6558,7 +6637,7 @@
       </c>
       <c r="B364" s="8"/>
       <c r="C364" s="13" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="D364" s="8" t="s">
         <v>3</v>
@@ -6570,8 +6649,8 @@
         <v>323</v>
       </c>
       <c r="B365" s="8"/>
-      <c r="C365" s="13" t="s">
-        <v>338</v>
+      <c r="C365" s="5" t="s">
+        <v>332</v>
       </c>
       <c r="D365" s="8" t="s">
         <v>3</v>
@@ -6584,7 +6663,7 @@
       </c>
       <c r="B366" s="8"/>
       <c r="C366" s="13" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="D366" s="8" t="s">
         <v>3</v>
@@ -6597,7 +6676,7 @@
       </c>
       <c r="B367" s="8"/>
       <c r="C367" s="13" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="D367" s="8" t="s">
         <v>3</v>
@@ -6610,7 +6689,7 @@
       </c>
       <c r="B368" s="8"/>
       <c r="C368" s="13" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="D368" s="8" t="s">
         <v>3</v>
@@ -6618,20 +6697,38 @@
       <c r="E368" s="8"/>
     </row>
     <row r="369" spans="1:5">
-      <c r="D369" s="8"/>
+      <c r="A369" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="B369" s="8"/>
+      <c r="C369" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="D369" s="8" t="s">
+        <v>3</v>
+      </c>
       <c r="E369" s="8"/>
     </row>
     <row r="370" spans="1:5">
-      <c r="D370" s="8"/>
+      <c r="A370" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="B370" s="8"/>
+      <c r="C370" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="D370" s="8" t="s">
+        <v>3</v>
+      </c>
       <c r="E370" s="8"/>
     </row>
     <row r="371" spans="1:5">
       <c r="A371" s="8" t="s">
-        <v>342</v>
+        <v>323</v>
       </c>
       <c r="B371" s="8"/>
       <c r="C371" s="13" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="D371" s="8" t="s">
         <v>3</v>
@@ -6640,11 +6737,11 @@
     </row>
     <row r="372" spans="1:5">
       <c r="A372" s="8" t="s">
-        <v>342</v>
+        <v>323</v>
       </c>
       <c r="B372" s="8"/>
       <c r="C372" s="13" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="D372" s="8" t="s">
         <v>3</v>
@@ -6653,11 +6750,11 @@
     </row>
     <row r="373" spans="1:5">
       <c r="A373" s="8" t="s">
-        <v>342</v>
+        <v>323</v>
       </c>
       <c r="B373" s="8"/>
       <c r="C373" s="13" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="D373" s="8" t="s">
         <v>3</v>
@@ -6666,11 +6763,11 @@
     </row>
     <row r="374" spans="1:5">
       <c r="A374" s="8" t="s">
-        <v>342</v>
+        <v>323</v>
       </c>
       <c r="B374" s="8"/>
       <c r="C374" s="13" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="D374" s="8" t="s">
         <v>3</v>
@@ -6678,29 +6775,11 @@
       <c r="E374" s="8"/>
     </row>
     <row r="375" spans="1:5">
-      <c r="A375" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="B375" s="8"/>
-      <c r="C375" s="13" t="s">
-        <v>347</v>
-      </c>
-      <c r="D375" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="D375" s="8"/>
       <c r="E375" s="8"/>
     </row>
     <row r="376" spans="1:5">
-      <c r="A376" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="B376" s="8"/>
-      <c r="C376" s="13" t="s">
-        <v>348</v>
-      </c>
-      <c r="D376" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="D376" s="8"/>
       <c r="E376" s="8"/>
     </row>
     <row r="377" spans="1:5">
@@ -6709,7 +6788,7 @@
       </c>
       <c r="B377" s="8"/>
       <c r="C377" s="13" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="D377" s="8" t="s">
         <v>3</v>
@@ -6722,7 +6801,7 @@
       </c>
       <c r="B378" s="8"/>
       <c r="C378" s="13" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="D378" s="8" t="s">
         <v>3</v>
@@ -6735,7 +6814,7 @@
       </c>
       <c r="B379" s="8"/>
       <c r="C379" s="13" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="D379" s="8" t="s">
         <v>3</v>
@@ -6748,7 +6827,7 @@
       </c>
       <c r="B380" s="8"/>
       <c r="C380" s="13" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="D380" s="8" t="s">
         <v>3</v>
@@ -6761,7 +6840,7 @@
       </c>
       <c r="B381" s="8"/>
       <c r="C381" s="13" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="D381" s="8" t="s">
         <v>3</v>
@@ -6774,7 +6853,7 @@
       </c>
       <c r="B382" s="8"/>
       <c r="C382" s="13" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="D382" s="8" t="s">
         <v>3</v>
@@ -6787,7 +6866,7 @@
       </c>
       <c r="B383" s="8"/>
       <c r="C383" s="13" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="D383" s="8" t="s">
         <v>3</v>
@@ -6800,7 +6879,7 @@
       </c>
       <c r="B384" s="8"/>
       <c r="C384" s="13" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="D384" s="8" t="s">
         <v>3</v>
@@ -6813,7 +6892,7 @@
       </c>
       <c r="B385" s="8"/>
       <c r="C385" s="13" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="D385" s="8" t="s">
         <v>3</v>
@@ -6826,7 +6905,7 @@
       </c>
       <c r="B386" s="8"/>
       <c r="C386" s="13" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="D386" s="8" t="s">
         <v>3</v>
@@ -6839,7 +6918,7 @@
       </c>
       <c r="B387" s="8"/>
       <c r="C387" s="13" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="D387" s="8" t="s">
         <v>3</v>
@@ -6852,7 +6931,7 @@
       </c>
       <c r="B388" s="8"/>
       <c r="C388" s="13" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="D388" s="8" t="s">
         <v>3</v>
@@ -6865,7 +6944,7 @@
       </c>
       <c r="B389" s="8"/>
       <c r="C389" s="13" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="D389" s="8" t="s">
         <v>3</v>
@@ -6878,7 +6957,7 @@
       </c>
       <c r="B390" s="8"/>
       <c r="C390" s="13" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="D390" s="8" t="s">
         <v>3</v>
@@ -6891,7 +6970,7 @@
       </c>
       <c r="B391" s="8"/>
       <c r="C391" s="13" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="D391" s="8" t="s">
         <v>3</v>
@@ -6904,7 +6983,7 @@
       </c>
       <c r="B392" s="8"/>
       <c r="C392" s="13" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="D392" s="8" t="s">
         <v>3</v>
@@ -6917,7 +6996,7 @@
       </c>
       <c r="B393" s="8"/>
       <c r="C393" s="13" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="D393" s="8" t="s">
         <v>3</v>
@@ -6930,7 +7009,7 @@
       </c>
       <c r="B394" s="8"/>
       <c r="C394" s="13" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="D394" s="8" t="s">
         <v>3</v>
@@ -6943,7 +7022,7 @@
       </c>
       <c r="B395" s="8"/>
       <c r="C395" s="13" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="D395" s="8" t="s">
         <v>3</v>
@@ -6956,7 +7035,7 @@
       </c>
       <c r="B396" s="8"/>
       <c r="C396" s="13" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="D396" s="8" t="s">
         <v>3</v>
@@ -6969,7 +7048,7 @@
       </c>
       <c r="B397" s="8"/>
       <c r="C397" s="13" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="D397" s="8" t="s">
         <v>3</v>
@@ -6982,7 +7061,7 @@
       </c>
       <c r="B398" s="8"/>
       <c r="C398" s="13" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="D398" s="8" t="s">
         <v>3</v>
@@ -6995,7 +7074,7 @@
       </c>
       <c r="B399" s="8"/>
       <c r="C399" s="13" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="D399" s="8" t="s">
         <v>3</v>
@@ -7008,7 +7087,7 @@
       </c>
       <c r="B400" s="8"/>
       <c r="C400" s="13" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="D400" s="8" t="s">
         <v>3</v>
@@ -7021,7 +7100,7 @@
       </c>
       <c r="B401" s="8"/>
       <c r="C401" s="13" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="D401" s="8" t="s">
         <v>3</v>
@@ -7034,7 +7113,7 @@
       </c>
       <c r="B402" s="8"/>
       <c r="C402" s="13" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="D402" s="8" t="s">
         <v>3</v>
@@ -7047,7 +7126,7 @@
       </c>
       <c r="B403" s="8"/>
       <c r="C403" s="13" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="D403" s="8" t="s">
         <v>3</v>
@@ -7060,7 +7139,7 @@
       </c>
       <c r="B404" s="8"/>
       <c r="C404" s="13" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="D404" s="8" t="s">
         <v>3</v>
@@ -7073,7 +7152,7 @@
       </c>
       <c r="B405" s="8"/>
       <c r="C405" s="13" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="D405" s="8" t="s">
         <v>3</v>
@@ -7086,7 +7165,7 @@
       </c>
       <c r="B406" s="8"/>
       <c r="C406" s="13" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="D406" s="8" t="s">
         <v>3</v>
@@ -7099,7 +7178,7 @@
       </c>
       <c r="B407" s="8"/>
       <c r="C407" s="13" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="D407" s="8" t="s">
         <v>3</v>
@@ -7112,7 +7191,7 @@
       </c>
       <c r="B408" s="8"/>
       <c r="C408" s="13" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="D408" s="8" t="s">
         <v>3</v>
@@ -7125,7 +7204,7 @@
       </c>
       <c r="B409" s="8"/>
       <c r="C409" s="13" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="D409" s="8" t="s">
         <v>3</v>
@@ -7138,7 +7217,7 @@
       </c>
       <c r="B410" s="8"/>
       <c r="C410" s="13" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="D410" s="8" t="s">
         <v>3</v>
@@ -7151,7 +7230,7 @@
       </c>
       <c r="B411" s="8"/>
       <c r="C411" s="13" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="D411" s="8" t="s">
         <v>3</v>
@@ -7164,7 +7243,7 @@
       </c>
       <c r="B412" s="8"/>
       <c r="C412" s="13" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="D412" s="8" t="s">
         <v>3</v>
@@ -7177,7 +7256,7 @@
       </c>
       <c r="B413" s="8"/>
       <c r="C413" s="13" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="D413" s="8" t="s">
         <v>3</v>
@@ -7190,7 +7269,7 @@
       </c>
       <c r="B414" s="8"/>
       <c r="C414" s="13" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="D414" s="8" t="s">
         <v>3</v>
@@ -7198,20 +7277,38 @@
       <c r="E414" s="8"/>
     </row>
     <row r="415" spans="1:5">
-      <c r="D415" s="8"/>
+      <c r="A415" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="B415" s="8"/>
+      <c r="C415" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="D415" s="8" t="s">
+        <v>3</v>
+      </c>
       <c r="E415" s="8"/>
     </row>
     <row r="416" spans="1:5">
-      <c r="D416" s="8"/>
+      <c r="A416" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="B416" s="8"/>
+      <c r="C416" s="13" t="s">
+        <v>381</v>
+      </c>
+      <c r="D416" s="8" t="s">
+        <v>3</v>
+      </c>
       <c r="E416" s="8"/>
     </row>
     <row r="417" spans="1:5">
       <c r="A417" s="8" t="s">
-        <v>386</v>
+        <v>342</v>
       </c>
       <c r="B417" s="8"/>
       <c r="C417" s="13" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D417" s="8" t="s">
         <v>3</v>
@@ -7220,11 +7317,11 @@
     </row>
     <row r="418" spans="1:5">
       <c r="A418" s="8" t="s">
-        <v>386</v>
+        <v>342</v>
       </c>
       <c r="B418" s="8"/>
       <c r="C418" s="13" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="D418" s="8" t="s">
         <v>3</v>
@@ -7233,11 +7330,11 @@
     </row>
     <row r="419" spans="1:5">
       <c r="A419" s="8" t="s">
-        <v>386</v>
+        <v>342</v>
       </c>
       <c r="B419" s="8"/>
       <c r="C419" s="13" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="D419" s="8" t="s">
         <v>3</v>
@@ -7246,127 +7343,109 @@
     </row>
     <row r="420" spans="1:5">
       <c r="A420" s="8" t="s">
-        <v>386</v>
+        <v>342</v>
       </c>
       <c r="B420" s="8"/>
       <c r="C420" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="D420" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E420" s="8"/>
+    </row>
+    <row r="421" spans="1:5">
+      <c r="D421" s="8"/>
+      <c r="E421" s="8"/>
+    </row>
+    <row r="422" spans="1:5">
+      <c r="D422" s="8"/>
+      <c r="E422" s="8"/>
+    </row>
+    <row r="423" spans="1:5">
+      <c r="A423" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="B423" s="8"/>
+      <c r="C423" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="D423" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E423" s="8"/>
+    </row>
+    <row r="424" spans="1:5">
+      <c r="A424" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="B424" s="8"/>
+      <c r="C424" s="13" t="s">
+        <v>388</v>
+      </c>
+      <c r="D424" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E424" s="8"/>
+    </row>
+    <row r="425" spans="1:5">
+      <c r="A425" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="B425" s="8"/>
+      <c r="C425" s="13" t="s">
+        <v>389</v>
+      </c>
+      <c r="D425" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E425" s="8"/>
+    </row>
+    <row r="426" spans="1:5">
+      <c r="A426" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="B426" s="8"/>
+      <c r="C426" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="D420" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E420" s="8"/>
-    </row>
-    <row r="421" spans="1:5">
-      <c r="A421" s="8" t="s">
+      <c r="D426" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E426" s="8"/>
+    </row>
+    <row r="427" spans="1:5">
+      <c r="A427" s="8" t="s">
         <v>386</v>
       </c>
-      <c r="B421" s="8"/>
-      <c r="C421" s="13" t="s">
+      <c r="B427" s="8"/>
+      <c r="C427" s="13" t="s">
         <v>390</v>
       </c>
-      <c r="D421" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E421" s="8"/>
-    </row>
-    <row r="422" spans="1:5">
-      <c r="A422" s="8" t="s">
+      <c r="D427" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E427" s="8"/>
+    </row>
+    <row r="428" spans="1:5">
+      <c r="A428" s="8" t="s">
         <v>386</v>
       </c>
-      <c r="B422" s="8"/>
-      <c r="C422" s="13" t="s">
+      <c r="B428" s="8"/>
+      <c r="C428" s="13" t="s">
         <v>391</v>
       </c>
-      <c r="D422" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E422" s="8"/>
-    </row>
-    <row r="423" spans="1:5">
-      <c r="D423" s="8"/>
-      <c r="E423" s="8"/>
-    </row>
-    <row r="424" spans="1:5">
-      <c r="D424" s="8"/>
-      <c r="E424" s="8"/>
-    </row>
-    <row r="425" spans="1:5">
-      <c r="A425" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="B425" s="12"/>
-      <c r="C425" s="13" t="s">
-        <v>393</v>
-      </c>
-      <c r="D425" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E425" s="8"/>
-    </row>
-    <row r="426" spans="1:5">
-      <c r="A426" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="B426" s="12"/>
-      <c r="C426" s="13" t="s">
-        <v>394</v>
-      </c>
-      <c r="D426" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E426" s="8"/>
-    </row>
-    <row r="427" spans="1:5">
-      <c r="A427" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="B427" s="12"/>
-      <c r="C427" s="13" t="s">
-        <v>395</v>
-      </c>
-      <c r="D427" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E427" s="8"/>
-    </row>
-    <row r="428" spans="1:5">
-      <c r="A428" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="B428" s="12"/>
-      <c r="C428" s="13" t="s">
-        <v>396</v>
-      </c>
       <c r="D428" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E428" s="8"/>
     </row>
     <row r="429" spans="1:5">
-      <c r="A429" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="B429" s="12"/>
-      <c r="C429" s="13" t="s">
-        <v>397</v>
-      </c>
-      <c r="D429" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="D429" s="8"/>
       <c r="E429" s="8"/>
     </row>
     <row r="430" spans="1:5">
-      <c r="A430" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="B430" s="12"/>
-      <c r="C430" s="13" t="s">
-        <v>398</v>
-      </c>
-      <c r="D430" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="D430" s="8"/>
       <c r="E430" s="8"/>
     </row>
     <row r="431" spans="1:5">
@@ -7375,7 +7454,7 @@
       </c>
       <c r="B431" s="12"/>
       <c r="C431" s="13" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="D431" s="8" t="s">
         <v>3</v>
@@ -7388,7 +7467,7 @@
       </c>
       <c r="B432" s="12"/>
       <c r="C432" s="13" t="s">
-        <v>272</v>
+        <v>394</v>
       </c>
       <c r="D432" s="8" t="s">
         <v>3</v>
@@ -7401,7 +7480,7 @@
       </c>
       <c r="B433" s="12"/>
       <c r="C433" s="13" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="D433" s="8" t="s">
         <v>3</v>
@@ -7414,7 +7493,7 @@
       </c>
       <c r="B434" s="12"/>
       <c r="C434" s="13" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="D434" s="8" t="s">
         <v>3</v>
@@ -7427,7 +7506,7 @@
       </c>
       <c r="B435" s="12"/>
       <c r="C435" s="13" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="D435" s="8" t="s">
         <v>3</v>
@@ -7440,7 +7519,7 @@
       </c>
       <c r="B436" s="12"/>
       <c r="C436" s="13" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="D436" s="8" t="s">
         <v>3</v>
@@ -7453,7 +7532,7 @@
       </c>
       <c r="B437" s="12"/>
       <c r="C437" s="13" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="D437" s="8" t="s">
         <v>3</v>
@@ -7466,7 +7545,7 @@
       </c>
       <c r="B438" s="12"/>
       <c r="C438" s="13" t="s">
-        <v>405</v>
+        <v>272</v>
       </c>
       <c r="D438" s="8" t="s">
         <v>3</v>
@@ -7479,7 +7558,7 @@
       </c>
       <c r="B439" s="12"/>
       <c r="C439" s="13" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="D439" s="8" t="s">
         <v>3</v>
@@ -7492,7 +7571,7 @@
       </c>
       <c r="B440" s="12"/>
       <c r="C440" s="13" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="D440" s="8" t="s">
         <v>3</v>
@@ -7505,7 +7584,7 @@
       </c>
       <c r="B441" s="12"/>
       <c r="C441" s="13" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="D441" s="8" t="s">
         <v>3</v>
@@ -7518,7 +7597,7 @@
       </c>
       <c r="B442" s="12"/>
       <c r="C442" s="13" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="D442" s="8" t="s">
         <v>3</v>
@@ -7531,7 +7610,7 @@
       </c>
       <c r="B443" s="12"/>
       <c r="C443" s="13" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="D443" s="8" t="s">
         <v>3</v>
@@ -7544,7 +7623,7 @@
       </c>
       <c r="B444" s="12"/>
       <c r="C444" s="13" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="D444" s="8" t="s">
         <v>3</v>
@@ -7557,7 +7636,7 @@
       </c>
       <c r="B445" s="12"/>
       <c r="C445" s="13" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="D445" s="8" t="s">
         <v>3</v>
@@ -7570,7 +7649,7 @@
       </c>
       <c r="B446" s="12"/>
       <c r="C446" s="13" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="D446" s="8" t="s">
         <v>3</v>
@@ -7583,7 +7662,7 @@
       </c>
       <c r="B447" s="12"/>
       <c r="C447" s="13" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="D447" s="8" t="s">
         <v>3</v>
@@ -7596,7 +7675,7 @@
       </c>
       <c r="B448" s="12"/>
       <c r="C448" s="13" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="D448" s="8" t="s">
         <v>3</v>
@@ -7609,7 +7688,7 @@
       </c>
       <c r="B449" s="12"/>
       <c r="C449" s="13" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="D449" s="8" t="s">
         <v>3</v>
@@ -7622,7 +7701,7 @@
       </c>
       <c r="B450" s="12"/>
       <c r="C450" s="13" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="D450" s="8" t="s">
         <v>3</v>
@@ -7635,7 +7714,7 @@
       </c>
       <c r="B451" s="12"/>
       <c r="C451" s="13" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="D451" s="8" t="s">
         <v>3</v>
@@ -7648,7 +7727,7 @@
       </c>
       <c r="B452" s="12"/>
       <c r="C452" s="13" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="D452" s="8" t="s">
         <v>3</v>
@@ -7661,7 +7740,7 @@
       </c>
       <c r="B453" s="12"/>
       <c r="C453" s="13" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="D453" s="8" t="s">
         <v>3</v>
@@ -7674,7 +7753,7 @@
       </c>
       <c r="B454" s="12"/>
       <c r="C454" s="13" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="D454" s="8" t="s">
         <v>3</v>
@@ -7687,7 +7766,7 @@
       </c>
       <c r="B455" s="12"/>
       <c r="C455" s="13" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="D455" s="8" t="s">
         <v>3</v>
@@ -7700,7 +7779,7 @@
       </c>
       <c r="B456" s="12"/>
       <c r="C456" s="13" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="D456" s="8" t="s">
         <v>3</v>
@@ -7713,7 +7792,7 @@
       </c>
       <c r="B457" s="12"/>
       <c r="C457" s="13" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="D457" s="8" t="s">
         <v>3</v>
@@ -7726,7 +7805,7 @@
       </c>
       <c r="B458" s="12"/>
       <c r="C458" s="13" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="D458" s="8" t="s">
         <v>3</v>
@@ -7739,7 +7818,7 @@
       </c>
       <c r="B459" s="12"/>
       <c r="C459" s="13" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="D459" s="8" t="s">
         <v>3</v>
@@ -7752,7 +7831,7 @@
       </c>
       <c r="B460" s="12"/>
       <c r="C460" s="13" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="D460" s="8" t="s">
         <v>3</v>
@@ -7765,7 +7844,7 @@
       </c>
       <c r="B461" s="12"/>
       <c r="C461" s="13" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="D461" s="8" t="s">
         <v>3</v>
@@ -7778,7 +7857,7 @@
       </c>
       <c r="B462" s="12"/>
       <c r="C462" s="13" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="D462" s="8" t="s">
         <v>3</v>
@@ -7791,7 +7870,7 @@
       </c>
       <c r="B463" s="12"/>
       <c r="C463" s="13" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="D463" s="8" t="s">
         <v>3</v>
@@ -7804,7 +7883,7 @@
       </c>
       <c r="B464" s="12"/>
       <c r="C464" s="13" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="D464" s="8" t="s">
         <v>3</v>
@@ -7817,7 +7896,7 @@
       </c>
       <c r="B465" s="12"/>
       <c r="C465" s="13" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="D465" s="8" t="s">
         <v>3</v>
@@ -7830,7 +7909,7 @@
       </c>
       <c r="B466" s="12"/>
       <c r="C466" s="13" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="D466" s="8" t="s">
         <v>3</v>
@@ -7843,7 +7922,7 @@
       </c>
       <c r="B467" s="12"/>
       <c r="C467" s="13" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="D467" s="8" t="s">
         <v>3</v>
@@ -7856,7 +7935,7 @@
       </c>
       <c r="B468" s="12"/>
       <c r="C468" s="13" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="D468" s="8" t="s">
         <v>3</v>
@@ -7869,7 +7948,7 @@
       </c>
       <c r="B469" s="12"/>
       <c r="C469" s="13" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="D469" s="8" t="s">
         <v>3</v>
@@ -7882,7 +7961,7 @@
       </c>
       <c r="B470" s="12"/>
       <c r="C470" s="13" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="D470" s="8" t="s">
         <v>3</v>
@@ -7895,7 +7974,7 @@
       </c>
       <c r="B471" s="12"/>
       <c r="C471" s="13" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="D471" s="8" t="s">
         <v>3</v>
@@ -7908,7 +7987,7 @@
       </c>
       <c r="B472" s="12"/>
       <c r="C472" s="13" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="D472" s="8" t="s">
         <v>3</v>
@@ -7921,7 +8000,7 @@
       </c>
       <c r="B473" s="12"/>
       <c r="C473" s="13" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="D473" s="8" t="s">
         <v>3</v>
@@ -7934,7 +8013,7 @@
       </c>
       <c r="B474" s="12"/>
       <c r="C474" s="13" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="D474" s="8" t="s">
         <v>3</v>
@@ -7947,7 +8026,7 @@
       </c>
       <c r="B475" s="12"/>
       <c r="C475" s="13" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="D475" s="8" t="s">
         <v>3</v>
@@ -7960,7 +8039,7 @@
       </c>
       <c r="B476" s="12"/>
       <c r="C476" s="13" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="D476" s="8" t="s">
         <v>3</v>
@@ -7973,7 +8052,7 @@
       </c>
       <c r="B477" s="12"/>
       <c r="C477" s="13" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="D477" s="8" t="s">
         <v>3</v>
@@ -7986,7 +8065,7 @@
       </c>
       <c r="B478" s="12"/>
       <c r="C478" s="13" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="D478" s="8" t="s">
         <v>3</v>
@@ -7999,7 +8078,7 @@
       </c>
       <c r="B479" s="12"/>
       <c r="C479" s="13" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="D479" s="8" t="s">
         <v>3</v>
@@ -8012,7 +8091,7 @@
       </c>
       <c r="B480" s="12"/>
       <c r="C480" s="13" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="D480" s="8" t="s">
         <v>3</v>
@@ -8025,7 +8104,7 @@
       </c>
       <c r="B481" s="12"/>
       <c r="C481" s="13" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="D481" s="8" t="s">
         <v>3</v>
@@ -8038,7 +8117,7 @@
       </c>
       <c r="B482" s="12"/>
       <c r="C482" s="13" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="D482" s="8" t="s">
         <v>3</v>
@@ -8051,7 +8130,7 @@
       </c>
       <c r="B483" s="12"/>
       <c r="C483" s="13" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="D483" s="8" t="s">
         <v>3</v>
@@ -8064,7 +8143,7 @@
       </c>
       <c r="B484" s="12"/>
       <c r="C484" s="13" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="D484" s="8" t="s">
         <v>3</v>
@@ -8072,22 +8151,38 @@
       <c r="E484" s="8"/>
     </row>
     <row r="485" spans="1:5">
-      <c r="D485" s="8"/>
+      <c r="A485" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="B485" s="12"/>
+      <c r="C485" s="13" t="s">
+        <v>446</v>
+      </c>
+      <c r="D485" s="8" t="s">
+        <v>3</v>
+      </c>
       <c r="E485" s="8"/>
     </row>
     <row r="486" spans="1:5">
-      <c r="A486" s="8"/>
-      <c r="B486" s="8"/>
-      <c r="D486" s="8"/>
+      <c r="A486" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="B486" s="12"/>
+      <c r="C486" s="13" t="s">
+        <v>447</v>
+      </c>
+      <c r="D486" s="8" t="s">
+        <v>3</v>
+      </c>
       <c r="E486" s="8"/>
     </row>
     <row r="487" spans="1:5">
       <c r="A487" s="12" t="s">
-        <v>452</v>
+        <v>392</v>
       </c>
       <c r="B487" s="12"/>
       <c r="C487" s="13" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="D487" s="8" t="s">
         <v>3</v>
@@ -8096,11 +8191,11 @@
     </row>
     <row r="488" spans="1:5">
       <c r="A488" s="12" t="s">
-        <v>452</v>
+        <v>392</v>
       </c>
       <c r="B488" s="12"/>
       <c r="C488" s="13" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="D488" s="8" t="s">
         <v>3</v>
@@ -8109,11 +8204,11 @@
     </row>
     <row r="489" spans="1:5">
       <c r="A489" s="12" t="s">
-        <v>452</v>
+        <v>392</v>
       </c>
       <c r="B489" s="12"/>
       <c r="C489" s="13" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="D489" s="8" t="s">
         <v>3</v>
@@ -8122,11 +8217,11 @@
     </row>
     <row r="490" spans="1:5">
       <c r="A490" s="12" t="s">
-        <v>452</v>
+        <v>392</v>
       </c>
       <c r="B490" s="12"/>
       <c r="C490" s="13" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="D490" s="8" t="s">
         <v>3</v>
@@ -8134,29 +8229,13 @@
       <c r="E490" s="8"/>
     </row>
     <row r="491" spans="1:5">
-      <c r="A491" s="12" t="s">
-        <v>452</v>
-      </c>
-      <c r="B491" s="12"/>
-      <c r="C491" s="13" t="s">
-        <v>457</v>
-      </c>
-      <c r="D491" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="D491" s="8"/>
       <c r="E491" s="8"/>
     </row>
     <row r="492" spans="1:5">
-      <c r="A492" s="12" t="s">
-        <v>452</v>
-      </c>
-      <c r="B492" s="12"/>
-      <c r="C492" s="13" t="s">
-        <v>458</v>
-      </c>
-      <c r="D492" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="A492" s="8"/>
+      <c r="B492" s="8"/>
+      <c r="D492" s="8"/>
       <c r="E492" s="8"/>
     </row>
     <row r="493" spans="1:5">
@@ -8165,7 +8244,7 @@
       </c>
       <c r="B493" s="12"/>
       <c r="C493" s="13" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="D493" s="8" t="s">
         <v>3</v>
@@ -8178,7 +8257,7 @@
       </c>
       <c r="B494" s="12"/>
       <c r="C494" s="13" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="D494" s="8" t="s">
         <v>3</v>
@@ -8191,7 +8270,7 @@
       </c>
       <c r="B495" s="12"/>
       <c r="C495" s="13" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="D495" s="8" t="s">
         <v>3</v>
@@ -8204,474 +8283,559 @@
       </c>
       <c r="B496" s="12"/>
       <c r="C496" s="13" t="s">
+        <v>456</v>
+      </c>
+      <c r="D496" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E496" s="8"/>
+    </row>
+    <row r="497" spans="1:5">
+      <c r="A497" s="12" t="s">
+        <v>452</v>
+      </c>
+      <c r="B497" s="12"/>
+      <c r="C497" s="13" t="s">
+        <v>457</v>
+      </c>
+      <c r="D497" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E497" s="8"/>
+    </row>
+    <row r="498" spans="1:5">
+      <c r="A498" s="12" t="s">
+        <v>452</v>
+      </c>
+      <c r="B498" s="12"/>
+      <c r="C498" s="13" t="s">
+        <v>458</v>
+      </c>
+      <c r="D498" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E498" s="8"/>
+    </row>
+    <row r="499" spans="1:5">
+      <c r="A499" s="12" t="s">
+        <v>452</v>
+      </c>
+      <c r="B499" s="12"/>
+      <c r="C499" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="D499" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E499" s="8"/>
+    </row>
+    <row r="500" spans="1:5">
+      <c r="A500" s="12" t="s">
+        <v>452</v>
+      </c>
+      <c r="B500" s="12"/>
+      <c r="C500" s="13" t="s">
+        <v>460</v>
+      </c>
+      <c r="D500" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E500" s="8"/>
+    </row>
+    <row r="501" spans="1:5">
+      <c r="A501" s="12" t="s">
+        <v>452</v>
+      </c>
+      <c r="B501" s="12"/>
+      <c r="C501" s="13" t="s">
+        <v>461</v>
+      </c>
+      <c r="D501" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E501" s="8"/>
+    </row>
+    <row r="502" spans="1:5">
+      <c r="A502" s="12" t="s">
+        <v>452</v>
+      </c>
+      <c r="B502" s="12"/>
+      <c r="C502" s="13" t="s">
         <v>462</v>
       </c>
-      <c r="D496" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E496" s="8"/>
+      <c r="D502" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E502" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="F9:J9"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C20" r:id="rId1" xr:uid="{9492A4AD-FA44-BA4B-B154-E4DBB1951162}"/>
-    <hyperlink ref="C21" r:id="rId2" xr:uid="{2D6F1134-3C08-7445-B19A-9B94A18B55C7}"/>
-    <hyperlink ref="C23" r:id="rId3" xr:uid="{E5A98931-37E8-6B4A-90BE-8DC72405341A}"/>
-    <hyperlink ref="C24" r:id="rId4" xr:uid="{02736918-E09F-7A46-90B3-AFCC33AA559B}"/>
-    <hyperlink ref="C25" r:id="rId5" xr:uid="{6E8DD30A-A9F9-4C44-B26C-C9E236F10798}"/>
-    <hyperlink ref="C26" r:id="rId6" xr:uid="{0D55765B-95A7-154F-96F3-B7E4C581021F}"/>
-    <hyperlink ref="C27" r:id="rId7" xr:uid="{6F687ABA-C04B-AF4F-9F11-A038DCB20FB9}"/>
-    <hyperlink ref="C28" r:id="rId8" xr:uid="{11C9D8CC-9F1E-004E-8EC2-C758DC9C8CAB}"/>
-    <hyperlink ref="C29" r:id="rId9" xr:uid="{56E4962F-CB3D-9E48-A26E-19A1F5C800C9}"/>
-    <hyperlink ref="C30" r:id="rId10" xr:uid="{899DDBD9-9ED6-3A4D-8AFE-8FAA6DA88DBC}"/>
-    <hyperlink ref="C31" r:id="rId11" xr:uid="{76D41EAC-A28A-2845-8515-CA3C70D823B7}"/>
-    <hyperlink ref="C32" r:id="rId12" xr:uid="{828948BE-DD97-DE4A-BAD6-B415E29198F0}"/>
-    <hyperlink ref="C33" r:id="rId13" xr:uid="{E98C86AA-12E7-124C-B7D0-BCDFB246040B}"/>
-    <hyperlink ref="C34" r:id="rId14" xr:uid="{192741A9-FF68-DC4A-99FA-69F9968AB4F2}"/>
-    <hyperlink ref="C35" r:id="rId15" xr:uid="{DBD9BA9C-91C6-B144-A800-DCB3BED33DE7}"/>
-    <hyperlink ref="C36" r:id="rId16" xr:uid="{A285BDE8-00E7-A94C-8E43-A0C4829D42FA}"/>
-    <hyperlink ref="C37" r:id="rId17" xr:uid="{B0C21764-2962-1649-8AFA-10FB9420C5FC}"/>
-    <hyperlink ref="C38" r:id="rId18" xr:uid="{9282CC15-9B38-E54B-B64C-557745C9C00A}"/>
-    <hyperlink ref="C39" r:id="rId19" xr:uid="{3BCCEBE2-AC3B-AC4F-8BA9-439ACEA133D4}"/>
-    <hyperlink ref="C40" r:id="rId20" xr:uid="{74F8D761-6EBF-594A-A6C7-40DE4CE96958}"/>
-    <hyperlink ref="C41" r:id="rId21" xr:uid="{79947FE6-D417-D644-81D8-D058180550A0}"/>
-    <hyperlink ref="C42" r:id="rId22" xr:uid="{2BF3F606-410B-264D-BF60-191C34D616BB}"/>
-    <hyperlink ref="C43" r:id="rId23" xr:uid="{CD98DB26-0F2F-FD40-A989-53FE548D7D34}"/>
-    <hyperlink ref="C44" r:id="rId24" xr:uid="{307032A1-F8EF-1A48-BFE3-EA3283D39BE2}"/>
-    <hyperlink ref="C45" r:id="rId25" xr:uid="{AA329F36-941A-9241-9402-9D220B05E719}"/>
-    <hyperlink ref="C46" r:id="rId26" xr:uid="{9E851DAC-0E30-B340-84F9-721D70B66919}"/>
-    <hyperlink ref="C47" r:id="rId27" xr:uid="{468380BA-4978-A645-ABD0-E74FD3E6BDBB}"/>
-    <hyperlink ref="C48" r:id="rId28" xr:uid="{289E6890-8CCB-D645-9B3F-6138FFC1C249}"/>
-    <hyperlink ref="C49" r:id="rId29" xr:uid="{8EABDC68-858F-784A-A8F1-C603E3B8C1FE}"/>
-    <hyperlink ref="C50" r:id="rId30" xr:uid="{6157E427-1210-3F45-A4DC-6DFD2373B9CF}"/>
-    <hyperlink ref="C51" r:id="rId31" xr:uid="{2D7BA55E-9947-FF4D-BC09-FB4A5ADA07EC}"/>
-    <hyperlink ref="C52" r:id="rId32" xr:uid="{3337C74F-8B73-E64E-A6DA-5D9F7C7B4D32}"/>
-    <hyperlink ref="C53" r:id="rId33" xr:uid="{02370124-E58D-B540-BBCF-98266229556D}"/>
-    <hyperlink ref="C54" r:id="rId34" xr:uid="{F2DE2162-BD02-7549-AC1A-27455F78131F}"/>
-    <hyperlink ref="C55" r:id="rId35" xr:uid="{6FA286B9-3994-624D-B0B8-C01657D110AD}"/>
-    <hyperlink ref="C56" r:id="rId36" xr:uid="{6EFBEDA1-5C10-2547-8FB2-44E977513B28}"/>
-    <hyperlink ref="C59" r:id="rId37" xr:uid="{090EC515-BEBE-514E-BA59-A84E450B4211}"/>
-    <hyperlink ref="C60" r:id="rId38" xr:uid="{0A0557FD-77E5-564B-B100-147D544A38B4}"/>
-    <hyperlink ref="C61" r:id="rId39" xr:uid="{3F82F2E0-AA59-5042-B079-F3B3C6FF2FD7}"/>
-    <hyperlink ref="C62" r:id="rId40" xr:uid="{FFF7D257-1F58-5A4B-AAA2-F5480AED86C7}"/>
-    <hyperlink ref="C63" r:id="rId41" xr:uid="{353E28FA-E36D-7447-9DE8-787DF11C4669}"/>
-    <hyperlink ref="C64" r:id="rId42" xr:uid="{F9B53127-FC98-FE43-B53F-BFDBCE2A4427}"/>
-    <hyperlink ref="C65" r:id="rId43" xr:uid="{40685BBC-CE24-624E-9ABB-98490B7DE0E4}"/>
-    <hyperlink ref="C66" r:id="rId44" xr:uid="{7733D505-2EC7-E346-B3DA-C980C7CE0B27}"/>
-    <hyperlink ref="C67" r:id="rId45" xr:uid="{E8C1FE00-7B4B-5745-8E4B-CD44B6C749E3}"/>
-    <hyperlink ref="C68" r:id="rId46" xr:uid="{FDE181B1-57B0-7C4B-A189-C7C6E4EAEF99}"/>
-    <hyperlink ref="C71" r:id="rId47" xr:uid="{FE85FD72-4FC9-334E-8205-9E8B238954EB}"/>
-    <hyperlink ref="C72" r:id="rId48" xr:uid="{7630AD76-7E6B-8C4A-BA33-A62EBB042215}"/>
-    <hyperlink ref="C73" r:id="rId49" xr:uid="{2A738B70-CBF0-CC40-8B05-A271822B3F1A}"/>
-    <hyperlink ref="C75" r:id="rId50" xr:uid="{B2DE2D9E-8371-CD44-9D0D-4D6DC64AC29B}"/>
-    <hyperlink ref="C76" r:id="rId51" xr:uid="{265DCD11-17A0-654E-BEFE-FABA31210C6E}"/>
-    <hyperlink ref="C77" r:id="rId52" xr:uid="{47F1BB0C-0C5C-0845-8EEC-1560C50D7DA7}"/>
-    <hyperlink ref="C78" r:id="rId53" xr:uid="{8E0BFA2E-CCB4-514F-86CD-78176C6CC98A}"/>
-    <hyperlink ref="C79" r:id="rId54" xr:uid="{E4DEFB4B-749F-8746-97C7-F2B433664A74}"/>
-    <hyperlink ref="C80" r:id="rId55" xr:uid="{8301BDBD-EB7E-7D41-A777-ED99C3F9D67D}"/>
-    <hyperlink ref="C81" r:id="rId56" xr:uid="{927AE532-647F-AF4C-A567-40ADA6FCE534}"/>
-    <hyperlink ref="C82" r:id="rId57" xr:uid="{05489F52-CC92-EC44-9AD3-773DEC3B1D36}"/>
-    <hyperlink ref="C83" r:id="rId58" xr:uid="{13025DF6-C30E-014A-B66C-68C4AAAC1C6E}"/>
-    <hyperlink ref="C84" r:id="rId59" xr:uid="{BEE1F613-C189-B949-A225-0E0C5AFD1532}"/>
-    <hyperlink ref="C85" r:id="rId60" xr:uid="{1DFECD6C-D7CC-0340-B29B-4D56E50711E5}"/>
-    <hyperlink ref="C86" r:id="rId61" xr:uid="{70BED156-B004-E043-BF7D-59EFAA9EADAF}"/>
-    <hyperlink ref="C87" r:id="rId62" xr:uid="{FF9CBAFB-900E-E242-8B33-EDF46F0F40B5}"/>
-    <hyperlink ref="C88" r:id="rId63" xr:uid="{19461114-B3E8-9042-8029-100010946A04}"/>
-    <hyperlink ref="C89" r:id="rId64" xr:uid="{00F71118-E30B-A84E-819E-FFA902C70502}"/>
-    <hyperlink ref="C90" r:id="rId65" xr:uid="{58E70966-BBE0-7743-A250-AE4DD57807DE}"/>
-    <hyperlink ref="C91" r:id="rId66" xr:uid="{09409FE3-9D7E-4F43-BB21-14A1B8D6E480}"/>
-    <hyperlink ref="C92" r:id="rId67" xr:uid="{E199A3DC-3DA1-C648-93C0-DF9CD5331204}"/>
-    <hyperlink ref="C93" r:id="rId68" xr:uid="{85886847-1510-AA46-B10C-F3D80591DD74}"/>
-    <hyperlink ref="C94" r:id="rId69" xr:uid="{F60808FC-F09D-FC44-B2DD-752E55A1C698}"/>
-    <hyperlink ref="C95" r:id="rId70" xr:uid="{16B2725E-1AD5-0441-9B5B-B6B2F458091B}"/>
-    <hyperlink ref="C96" r:id="rId71" xr:uid="{8440D753-5DE9-3243-97C2-C09D195C325F}"/>
-    <hyperlink ref="C97" r:id="rId72" xr:uid="{AC63A963-B6CC-6E4E-B72A-7F472BC4C027}"/>
-    <hyperlink ref="C98" r:id="rId73" xr:uid="{B21B87F1-A0C0-7F4E-B36F-912B871D0EF4}"/>
-    <hyperlink ref="C99" r:id="rId74" xr:uid="{789FFFAC-8B7E-0540-98B8-856430EB56F8}"/>
-    <hyperlink ref="C100" r:id="rId75" xr:uid="{4A0E959E-22F4-6948-A819-76FE76AB9F6D}"/>
-    <hyperlink ref="C101" r:id="rId76" xr:uid="{78B76678-D8EE-9745-98B1-DF7A76EA3B10}"/>
-    <hyperlink ref="C102" r:id="rId77" xr:uid="{62982242-1D19-1544-8653-8E25E9BF4505}"/>
-    <hyperlink ref="C103" r:id="rId78" xr:uid="{8E3D4BDF-9F8F-0542-BFD8-C3CE3BF396E6}"/>
-    <hyperlink ref="C104" r:id="rId79" xr:uid="{A3D51762-65A1-9A44-B619-D1D98A7F403B}"/>
-    <hyperlink ref="C105" r:id="rId80" xr:uid="{ED0F5FC7-0066-EB44-8FCF-460600DADB02}"/>
-    <hyperlink ref="C106" r:id="rId81" xr:uid="{2D956AC4-4774-7446-8473-C4CE00E33C17}"/>
-    <hyperlink ref="C107" r:id="rId82" xr:uid="{C8C607BB-1FEE-FA47-9E3E-6C0BCE978B7F}"/>
-    <hyperlink ref="C108" r:id="rId83" xr:uid="{B9AC5194-6D36-684A-A5C4-BEE11037599F}"/>
-    <hyperlink ref="C109" r:id="rId84" xr:uid="{AB28D9E6-890C-F14A-A5FB-2303BE319968}"/>
-    <hyperlink ref="C110" r:id="rId85" xr:uid="{1F507CBC-4056-AD46-9314-95ECBB9D799D}"/>
-    <hyperlink ref="C111" r:id="rId86" xr:uid="{F152A9AF-5CBA-EC44-A9CF-07AB481435AB}"/>
-    <hyperlink ref="C112" r:id="rId87" xr:uid="{346CA74F-60B7-0A4B-A612-9184D4DCFF62}"/>
-    <hyperlink ref="C113" r:id="rId88" xr:uid="{8C653CB1-4954-754F-8D46-F09141A2FCDB}"/>
-    <hyperlink ref="C116" r:id="rId89" xr:uid="{5989F693-2A61-A346-8395-8674307A4CC2}"/>
-    <hyperlink ref="C117" r:id="rId90" xr:uid="{3AD10C9E-4F6D-DE48-92F3-531A586520C6}"/>
-    <hyperlink ref="C118" r:id="rId91" xr:uid="{4FA217C0-A1F3-904E-8FEA-EA4941273A67}"/>
-    <hyperlink ref="C119" r:id="rId92" xr:uid="{A297BBC0-FA0D-2D46-9C49-3932193EF1D3}"/>
-    <hyperlink ref="C121" r:id="rId93" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance." xr:uid="{DCD751DE-E440-F346-B6FD-CBD072217214}"/>
-    <hyperlink ref="C122" r:id="rId94" xr:uid="{B2FD38B9-1E2B-8140-8291-F45734C98145}"/>
-    <hyperlink ref="C123" r:id="rId95" xr:uid="{C76888B3-18AC-9B48-9E2A-64A7DF0902B7}"/>
-    <hyperlink ref="C124" r:id="rId96" xr:uid="{18A79860-6C9E-A941-8D6C-360B9913E941}"/>
-    <hyperlink ref="C125" r:id="rId97" xr:uid="{C0DDFD68-CBC1-0F4A-AF40-ACF36BBC8453}"/>
-    <hyperlink ref="C126" r:id="rId98" xr:uid="{3E0BF737-E42E-C946-B32C-06882E0BA6FF}"/>
-    <hyperlink ref="C128" r:id="rId99" xr:uid="{862F9782-C57B-2848-A2D9-EB7B52FB7EC7}"/>
-    <hyperlink ref="C129" r:id="rId100" xr:uid="{230D7A6A-D2C5-C140-9A65-B1F407D22062}"/>
-    <hyperlink ref="C130" r:id="rId101" xr:uid="{BDC2BA28-4562-984E-8282-1126BF952EAF}"/>
-    <hyperlink ref="C131" r:id="rId102" xr:uid="{B53A5F28-6DED-3D47-8679-F78D3DDEFF01}"/>
-    <hyperlink ref="C132" r:id="rId103" xr:uid="{C57D0CC7-DA2F-0948-9BCE-F19C20C7D981}"/>
-    <hyperlink ref="C133" r:id="rId104" xr:uid="{117878E5-B8C8-254B-8ED6-014B4B7A8126}"/>
-    <hyperlink ref="C134" r:id="rId105" xr:uid="{B7CC0756-74F2-D54D-BDEE-9DA394DD7168}"/>
-    <hyperlink ref="C135" r:id="rId106" xr:uid="{837EF472-CCC2-CF47-A8A8-238E56F722CE}"/>
-    <hyperlink ref="C136" r:id="rId107" xr:uid="{3608F267-6AA0-624B-B243-7DDD317E9F08}"/>
-    <hyperlink ref="C137" r:id="rId108" xr:uid="{0B6123E6-0472-374B-ACA7-6914CD7918E8}"/>
-    <hyperlink ref="C138" r:id="rId109" xr:uid="{D3971CEB-C53E-B04B-9C32-1803182B5DC5}"/>
-    <hyperlink ref="C139" r:id="rId110" xr:uid="{7CF5013A-643E-1643-93A1-A2F1500D2A23}"/>
-    <hyperlink ref="C140" r:id="rId111" xr:uid="{2A6BE7E5-D818-6843-8C3E-99EA2BFE0FB2}"/>
-    <hyperlink ref="C141" r:id="rId112" xr:uid="{E718F544-96DF-A04E-8DFB-7639DA3EA57C}"/>
-    <hyperlink ref="C142" r:id="rId113" xr:uid="{B0C2F065-424A-7345-A864-346ECD98D749}"/>
-    <hyperlink ref="C143" r:id="rId114" xr:uid="{B4E26955-5C3F-804E-B19A-11260310AFB3}"/>
-    <hyperlink ref="C144" r:id="rId115" xr:uid="{6F299BB5-8E82-0240-A9A3-6829CE3ABCBF}"/>
-    <hyperlink ref="C145" r:id="rId116" xr:uid="{A42CA32F-2196-1840-A53D-E5073237C68D}"/>
-    <hyperlink ref="C146" r:id="rId117" xr:uid="{7ECF6EF4-962E-4642-9B1C-C3B70674793E}"/>
-    <hyperlink ref="C147" r:id="rId118" xr:uid="{2A109178-6B60-164E-9D25-42B3282137E3}"/>
-    <hyperlink ref="C148" r:id="rId119" xr:uid="{B3D38BD0-A6A1-8D41-8405-45E1BEEEEF06}"/>
-    <hyperlink ref="C149" r:id="rId120" xr:uid="{A1C26612-D040-2A41-A6A6-A8F2490C0A43}"/>
-    <hyperlink ref="C150" r:id="rId121" xr:uid="{C476E807-64CB-F44A-A23D-D21EBF6D001D}"/>
-    <hyperlink ref="C151" r:id="rId122" xr:uid="{9A414D55-D4A1-F147-9207-61B597D57136}"/>
-    <hyperlink ref="C120" r:id="rId123" xr:uid="{18B028A7-9B6F-D841-8548-924D70530779}"/>
-    <hyperlink ref="C127" r:id="rId124" xr:uid="{6D3E75EF-733F-7A4B-81C8-AEF6CB6335F0}"/>
-    <hyperlink ref="C154" r:id="rId125" xr:uid="{C9EB2682-BE0B-934B-B0B4-1DD1A1502647}"/>
-    <hyperlink ref="C155" r:id="rId126" xr:uid="{2992FED9-2B78-A342-92AA-E7C0F882FF17}"/>
-    <hyperlink ref="C156" r:id="rId127" xr:uid="{0084DA6F-EC84-BD48-BDA8-EBACA3BB3B3E}"/>
-    <hyperlink ref="C157" r:id="rId128" xr:uid="{30F2D415-4B2C-384C-8EAE-2CC71CB518E2}"/>
-    <hyperlink ref="C158" r:id="rId129" xr:uid="{40734C88-7C5B-9747-86D1-03463D9AD41A}"/>
-    <hyperlink ref="C159" r:id="rId130" xr:uid="{1040D22F-6729-104A-A229-CBDCED93024A}"/>
-    <hyperlink ref="C160" r:id="rId131" xr:uid="{E131FE61-FABF-8E4B-8EF0-F68379D8F836}"/>
-    <hyperlink ref="C161" r:id="rId132" xr:uid="{B2129272-1351-3745-883B-E6A7115450C8}"/>
-    <hyperlink ref="C162" r:id="rId133" xr:uid="{C8B2DEF0-2B69-C84E-8013-0B6F03FFC250}"/>
-    <hyperlink ref="C163" r:id="rId134" xr:uid="{536AC5CF-712F-BF48-94A9-D0E7DC013020}"/>
-    <hyperlink ref="C164" r:id="rId135" xr:uid="{2DABC9C7-43D4-1249-AF9B-5FA4552611CB}"/>
-    <hyperlink ref="C165" r:id="rId136" xr:uid="{DA62E73A-B495-F94A-BECE-D42E4CBF074A}"/>
-    <hyperlink ref="C166" r:id="rId137" xr:uid="{7F5E6966-850D-4F49-B2A5-678365713F28}"/>
-    <hyperlink ref="C167" r:id="rId138" xr:uid="{E9C4286D-8493-9A47-8B8C-09583FA72B70}"/>
-    <hyperlink ref="C168" r:id="rId139" xr:uid="{9EB0123C-84AE-1C4D-BA1A-C28CFB8EFB89}"/>
-    <hyperlink ref="C169" r:id="rId140" xr:uid="{9D11FED4-328F-674E-889D-EC781DD1D791}"/>
-    <hyperlink ref="C170" r:id="rId141" xr:uid="{48AE72DB-397B-464D-88AD-B8058ED29CC1}"/>
-    <hyperlink ref="C171" r:id="rId142" xr:uid="{152D50E9-7448-F542-AC66-05D0AE66664C}"/>
-    <hyperlink ref="C172" r:id="rId143" xr:uid="{34E6AF1B-5FB1-3A4B-8938-1DCF80831DC2}"/>
-    <hyperlink ref="C173" r:id="rId144" xr:uid="{E7F8B7CA-49F4-1946-91EE-E7582BE4E5DA}"/>
-    <hyperlink ref="C174" r:id="rId145" xr:uid="{3590A994-B7A2-C14D-9BF8-7AC8FE9E7F0F}"/>
-    <hyperlink ref="C175" r:id="rId146" xr:uid="{0AAA4B0C-4921-C34D-B41E-D702FA860892}"/>
-    <hyperlink ref="C176" r:id="rId147" xr:uid="{5973FCA4-AE32-5248-A6ED-2694367332F1}"/>
-    <hyperlink ref="C177" r:id="rId148" xr:uid="{4C0F816E-F043-0C47-BF16-1CDAD88D2FF1}"/>
-    <hyperlink ref="C178" r:id="rId149" xr:uid="{A8E4C654-D0BD-8945-9F5C-B09F7BC114BE}"/>
-    <hyperlink ref="C181" r:id="rId150" xr:uid="{E3825C15-10BB-E24F-B229-983F651DA942}"/>
-    <hyperlink ref="C182" r:id="rId151" xr:uid="{46ECFC31-388C-6241-8FFE-DED6F2FC794A}"/>
-    <hyperlink ref="C183" r:id="rId152" xr:uid="{589E024D-3FE1-1048-890C-88289733F233}"/>
-    <hyperlink ref="C184" r:id="rId153" xr:uid="{CDA28F7A-7FC5-F74D-B27E-A6E0161D41D5}"/>
-    <hyperlink ref="C185" r:id="rId154" xr:uid="{DA6A0D92-DCEB-DA4F-8BBA-10FCD092838F}"/>
-    <hyperlink ref="C186" r:id="rId155" xr:uid="{955769DB-3256-254B-90DE-E1E01B272F8A}"/>
-    <hyperlink ref="C187" r:id="rId156" xr:uid="{DED7AC9B-40D7-0545-9D6F-6CD4F5FFE4C6}"/>
-    <hyperlink ref="C188" r:id="rId157" xr:uid="{6947A4E1-B6AA-6D4F-A6D8-8FA74FD02887}"/>
-    <hyperlink ref="C189" r:id="rId158" xr:uid="{EABF2012-5A90-0C4E-86F6-FDB5FA7770BE}"/>
-    <hyperlink ref="C192" r:id="rId159" xr:uid="{7F44CFE0-9ED1-A44D-B9EF-CF87BEB644FC}"/>
-    <hyperlink ref="C193" r:id="rId160" xr:uid="{CF6E0CF6-7A93-D84A-9CE0-5BDD51767416}"/>
-    <hyperlink ref="C194" r:id="rId161" xr:uid="{EFF8F154-60B8-B84B-84CA-32756BD6430F}"/>
-    <hyperlink ref="C195" r:id="rId162" xr:uid="{C8A3094E-E11B-2543-B05E-1D07048B2EBA}"/>
-    <hyperlink ref="C196" r:id="rId163" xr:uid="{9961E5F5-B5C6-0C4D-A1D0-D04D2A5D7DFD}"/>
-    <hyperlink ref="C197" r:id="rId164" xr:uid="{44E289EC-47DD-D94D-88C1-CB2F59C6C16A}"/>
-    <hyperlink ref="C198" r:id="rId165" xr:uid="{4161FC70-DD6D-684B-898A-A4711596B2D5}"/>
-    <hyperlink ref="C199" r:id="rId166" xr:uid="{B9CBE387-8E9A-ED48-8310-CF7D34FA690C}"/>
-    <hyperlink ref="C200" r:id="rId167" xr:uid="{5398097B-24FF-9543-8F02-33CE2860F1F7}"/>
-    <hyperlink ref="C201" r:id="rId168" xr:uid="{3B1FC30B-30C8-7B48-AF94-A81FB513F24F}"/>
-    <hyperlink ref="C202" r:id="rId169" xr:uid="{32B750D0-D7F2-694D-AB9B-25AFAFAFF17F}"/>
-    <hyperlink ref="C203" r:id="rId170" xr:uid="{400689DD-8E95-024E-976B-AACD8ED4E1A6}"/>
-    <hyperlink ref="C204" r:id="rId171" xr:uid="{28753DDE-E047-5D40-A30B-1103BE6DA08F}"/>
-    <hyperlink ref="C205" r:id="rId172" xr:uid="{6C5AA6CB-3D93-0740-AEED-9E6C218CF6CB}"/>
-    <hyperlink ref="C206" r:id="rId173" xr:uid="{03EAA2B9-D8B8-D642-BF24-380596D26B2E}"/>
-    <hyperlink ref="C207" r:id="rId174" xr:uid="{8C1719B4-37CC-484E-BDCE-A4272C07F91B}"/>
-    <hyperlink ref="C208" r:id="rId175" xr:uid="{6C198DA2-BB98-F940-8EF6-2FC8B7AE577A}"/>
-    <hyperlink ref="C209" r:id="rId176" xr:uid="{AB0EA311-A446-D046-A0EC-290B42068328}"/>
-    <hyperlink ref="C210" r:id="rId177" xr:uid="{DB913045-B9F6-6549-AA09-22B0CC5FDD21}"/>
-    <hyperlink ref="C211" r:id="rId178" xr:uid="{806469FD-617A-7445-AAB5-FB2FD2ED24EA}"/>
-    <hyperlink ref="C212" r:id="rId179" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." xr:uid="{1A10544E-58CF-D04D-9FAF-2FEC6DB2B5D4}"/>
-    <hyperlink ref="C213" r:id="rId180" xr:uid="{5A0B6645-89FD-E044-A706-9FB890274C3C}"/>
-    <hyperlink ref="C214" r:id="rId181" xr:uid="{B42A3009-E8EB-EE44-885F-6699C17A0E0B}"/>
-    <hyperlink ref="C215" r:id="rId182" xr:uid="{ED3E48AB-E25B-3744-B024-E97B2A319B46}"/>
-    <hyperlink ref="C216" r:id="rId183" xr:uid="{C75D20A3-CBAE-2649-A3EE-E49177CFA343}"/>
-    <hyperlink ref="C217" r:id="rId184" xr:uid="{3863CA1B-D43E-1144-91A9-17C2DCF52A64}"/>
-    <hyperlink ref="C218" r:id="rId185" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." xr:uid="{E9AF434E-4CAA-5D49-8AD3-889CDE2913D9}"/>
-    <hyperlink ref="C219" r:id="rId186" xr:uid="{1A0568E5-3A11-7F47-8001-82B05D7C2339}"/>
-    <hyperlink ref="C220" r:id="rId187" xr:uid="{F62B8AE4-9C4F-9544-8861-CD733C12F79E}"/>
-    <hyperlink ref="C221" r:id="rId188" xr:uid="{0F6A542C-44C9-5A4C-90BF-BC8C239877D2}"/>
-    <hyperlink ref="C222" r:id="rId189" xr:uid="{3ED28203-B1B5-4E46-AAF3-779EDD4AC03F}"/>
-    <hyperlink ref="C223" r:id="rId190" xr:uid="{4338B305-B52F-5540-9B51-B938FC6803A2}"/>
-    <hyperlink ref="C224" r:id="rId191" xr:uid="{DDEEED0F-A939-1E4F-B2FA-AD391A4A2874}"/>
-    <hyperlink ref="C225" r:id="rId192" xr:uid="{C2F20589-AD81-654C-94E5-E5B6C9FE27F6}"/>
-    <hyperlink ref="C226" r:id="rId193" xr:uid="{BBEB9DAC-E4AE-C04F-AA15-6356AFC57FDE}"/>
-    <hyperlink ref="C229" r:id="rId194" xr:uid="{6316566D-A10A-F849-9F25-B9ED4DA12BC7}"/>
-    <hyperlink ref="C230" r:id="rId195" xr:uid="{9D4DD895-FBA6-C849-A5BF-3B30755BD9C9}"/>
-    <hyperlink ref="C231" r:id="rId196" xr:uid="{475996DA-632A-BE49-AEA1-D4189FD614A1}"/>
-    <hyperlink ref="C232" r:id="rId197" xr:uid="{88E0C858-8468-884F-BB71-F6F176BD5FC2}"/>
-    <hyperlink ref="C233" r:id="rId198" xr:uid="{C1C5C8D0-7A06-3D4A-A85A-AAACC1B418C9}"/>
-    <hyperlink ref="C234" r:id="rId199" xr:uid="{D525D4B1-2857-1543-8CD9-196728321203}"/>
-    <hyperlink ref="C235" r:id="rId200" xr:uid="{51E3AB9B-04B2-C041-A2B3-37E3EB18013A}"/>
-    <hyperlink ref="C236" r:id="rId201" xr:uid="{7F7F0C9A-57B9-314F-959A-B8ACAFA5FD13}"/>
-    <hyperlink ref="C237" r:id="rId202" xr:uid="{3B029785-83B4-6140-8B70-CD892CFC87F6}"/>
-    <hyperlink ref="C238" r:id="rId203" xr:uid="{B0A390E6-D860-9F4E-B021-68949FE712F3}"/>
-    <hyperlink ref="C239" r:id="rId204" xr:uid="{49E9953D-52F6-BF47-8AAA-8E456F55576B}"/>
-    <hyperlink ref="C240" r:id="rId205" xr:uid="{9B812470-F419-A54E-8365-06A9B8864A30}"/>
-    <hyperlink ref="C241" r:id="rId206" xr:uid="{B6FB4107-1933-6D45-9EF4-4474E06CBE9D}"/>
-    <hyperlink ref="C242" r:id="rId207" xr:uid="{0F7C1D92-7BCB-D14D-A658-9599984E04E4}"/>
-    <hyperlink ref="C243" r:id="rId208" xr:uid="{6810428F-0A78-964C-A8C8-E1CD2E7C405D}"/>
-    <hyperlink ref="C244" r:id="rId209" xr:uid="{B40209F2-0D6E-364F-8AF6-F1D182509314}"/>
-    <hyperlink ref="C245" r:id="rId210" xr:uid="{96C53FA9-9FD3-2D4F-B292-3C9DEDFA806E}"/>
-    <hyperlink ref="C246" r:id="rId211" xr:uid="{918B420D-3678-FD46-9463-595E8ACC39E1}"/>
-    <hyperlink ref="C247" r:id="rId212" xr:uid="{851A7153-3B54-0E4A-A0A0-FCEB091AFE70}"/>
-    <hyperlink ref="C248" r:id="rId213" xr:uid="{C03AE9F8-09AE-C640-81A7-033BB06FB6AD}"/>
-    <hyperlink ref="C249" r:id="rId214" xr:uid="{35140DEB-52D2-4342-88D2-22BA061E5B48}"/>
-    <hyperlink ref="C250" r:id="rId215" xr:uid="{9714BC0B-3373-934C-B7A1-599F74F4FB9D}"/>
-    <hyperlink ref="C253" r:id="rId216" xr:uid="{5CB435B2-7FD2-1D44-9872-22B6A1EDC02B}"/>
-    <hyperlink ref="C254" r:id="rId217" xr:uid="{722D1D95-896B-4642-BABD-31DEDD237B49}"/>
-    <hyperlink ref="C255" r:id="rId218" xr:uid="{D686D1DC-13D6-284C-B606-E087FAF47399}"/>
-    <hyperlink ref="C256" r:id="rId219" xr:uid="{D22C2394-C3CB-8F4F-A010-2B13C8C84D1A}"/>
-    <hyperlink ref="C257" r:id="rId220" xr:uid="{3AE2F800-B66F-1A41-893B-978F6875FDC8}"/>
-    <hyperlink ref="C258" r:id="rId221" xr:uid="{2C939BDE-5298-5541-837B-8C59D53A33C1}"/>
-    <hyperlink ref="C259" r:id="rId222" xr:uid="{691C9BD8-69D3-DA4B-AEB6-AF827B4ACA9F}"/>
-    <hyperlink ref="C260" r:id="rId223" xr:uid="{B6891E82-7C4D-424D-9219-3C9FD08E0053}"/>
-    <hyperlink ref="C261" r:id="rId224" xr:uid="{67A1AE98-62D2-644D-AC13-6CD76CF53CC0}"/>
-    <hyperlink ref="C262" r:id="rId225" xr:uid="{B59D4881-2A82-8F4D-B151-1E796C4923C8}"/>
-    <hyperlink ref="C263" r:id="rId226" xr:uid="{B3CBD023-5EFD-6048-9B3F-89F0C65CBBF5}"/>
-    <hyperlink ref="C264" r:id="rId227" xr:uid="{53EC42C4-22F7-0445-A0AC-7275A59A2672}"/>
-    <hyperlink ref="C265" r:id="rId228" xr:uid="{A29575F3-CB24-5B4B-9538-D5212B2DC28B}"/>
-    <hyperlink ref="C266" r:id="rId229" xr:uid="{353A44DD-9E30-8F48-8E2B-8DAA07550470}"/>
-    <hyperlink ref="C267" r:id="rId230" xr:uid="{32AC291D-95A5-BE49-88E0-02677BF39CAC}"/>
-    <hyperlink ref="C268" r:id="rId231" xr:uid="{A84F22FF-AD10-A546-8998-B066C0EB2D5A}"/>
-    <hyperlink ref="C269" r:id="rId232" xr:uid="{4C5CAF84-9B94-FC44-8C6C-B3CC7257C1DB}"/>
-    <hyperlink ref="C270" r:id="rId233" xr:uid="{5DA775E2-C516-3B47-8C82-3CEE7CC0BDF9}"/>
-    <hyperlink ref="C271" r:id="rId234" xr:uid="{00B6AE5C-EF3F-0747-A280-3BF055362B4F}"/>
-    <hyperlink ref="C272" r:id="rId235" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." xr:uid="{BCBD0A7E-F3D0-E840-9375-AFD37C5CD41A}"/>
-    <hyperlink ref="C273" r:id="rId236" xr:uid="{47ABDDDB-F95F-8049-9FB3-1E71A7376DDE}"/>
-    <hyperlink ref="C274" r:id="rId237" xr:uid="{70BADFC9-7399-234D-99F6-4C5F02397C26}"/>
-    <hyperlink ref="C275" r:id="rId238" xr:uid="{63348580-70EF-EC47-BF49-8ECE9560D54E}"/>
-    <hyperlink ref="C276" r:id="rId239" xr:uid="{D5BD96B3-9EAB-1B47-AC87-5C47F6AD7F40}"/>
-    <hyperlink ref="C277" r:id="rId240" xr:uid="{74791141-3FB8-7540-B45B-9541AF0AE371}"/>
-    <hyperlink ref="C278" r:id="rId241" xr:uid="{88D53CD6-262A-7247-8E58-FE9FFF7ECC40}"/>
-    <hyperlink ref="C279" r:id="rId242" xr:uid="{4338A14D-4F7D-B943-A347-7F74EFCA0DB5}"/>
-    <hyperlink ref="C280" r:id="rId243" xr:uid="{6E0EF7A3-7341-284B-A0E3-4539B6EAFAF2}"/>
-    <hyperlink ref="C281" r:id="rId244" xr:uid="{D2D8D64F-E2D3-734E-AD45-3EFB9686555A}"/>
-    <hyperlink ref="C282" r:id="rId245" xr:uid="{04A2904A-73A0-7845-9868-2CCFE359AC68}"/>
-    <hyperlink ref="C283" r:id="rId246" xr:uid="{D3D35835-6BE3-4D41-AF6F-5FE442277A16}"/>
-    <hyperlink ref="C284" r:id="rId247" xr:uid="{F663D0FC-CFF0-BC4F-9D26-48C871A8E9FD}"/>
-    <hyperlink ref="C285" r:id="rId248" xr:uid="{DF544147-DA48-4041-A4E2-4A75106B771A}"/>
-    <hyperlink ref="C286" r:id="rId249" xr:uid="{50E4B716-239E-7946-843D-E8462591D128}"/>
-    <hyperlink ref="C287" r:id="rId250" xr:uid="{D368B3E5-7D12-FD48-AFF7-A4A614108940}"/>
-    <hyperlink ref="C290" r:id="rId251" xr:uid="{D5921FF1-FC1F-CA4B-A24E-AD69E1DEC14C}"/>
-    <hyperlink ref="C291" r:id="rId252" xr:uid="{C931D7E0-E032-7C4B-95F1-735D955FCB51}"/>
-    <hyperlink ref="C292" r:id="rId253" xr:uid="{5FBD4A8F-287C-2C46-9CAB-F7DBA67DEDDA}"/>
-    <hyperlink ref="C293" r:id="rId254" xr:uid="{12966DD6-41DD-A94B-8B2C-0AD7D2AD6FB0}"/>
-    <hyperlink ref="C294" r:id="rId255" xr:uid="{CF720C34-4554-2944-A818-020ABC9BF0F4}"/>
-    <hyperlink ref="C295" r:id="rId256" xr:uid="{75763F2A-16D7-DE43-8189-19623CE26370}"/>
-    <hyperlink ref="C296" r:id="rId257" xr:uid="{9263AA30-472A-0A4D-BADF-96D82BB9BFCC}"/>
-    <hyperlink ref="C297" r:id="rId258" xr:uid="{2EF025C3-75C8-564E-BA8B-708C32B0E602}"/>
-    <hyperlink ref="C298" r:id="rId259" xr:uid="{6BDFDCA9-3421-F24F-8EF2-A72742F0AC21}"/>
-    <hyperlink ref="C299" r:id="rId260" xr:uid="{D8447F99-5FF9-D544-99BB-E9969B4A38D7}"/>
-    <hyperlink ref="C300" r:id="rId261" xr:uid="{1DB7EFDA-6C7D-F546-9EE1-F61ED0F65209}"/>
-    <hyperlink ref="C301" r:id="rId262" xr:uid="{D1505609-27D1-784D-ACF6-AE9D0DA2E1B6}"/>
-    <hyperlink ref="C302" r:id="rId263" xr:uid="{6BFA7B45-17D0-4E49-85DA-23C7255A306D}"/>
-    <hyperlink ref="C303" r:id="rId264" xr:uid="{3324BA4A-30CA-5246-8C3C-6505A6987939}"/>
-    <hyperlink ref="C304" r:id="rId265" xr:uid="{894486AD-2B6D-5740-BCAF-0BA1AFF814B4}"/>
-    <hyperlink ref="C305" r:id="rId266" xr:uid="{C47B203B-8B5A-E740-8C86-0784AD28089E}"/>
-    <hyperlink ref="C306" r:id="rId267" xr:uid="{06DC2E54-7597-AE4D-ACDB-B8883A989A4F}"/>
-    <hyperlink ref="C307" r:id="rId268" xr:uid="{E3384259-7CA7-1C44-A66D-11346EE6742E}"/>
-    <hyperlink ref="C308" r:id="rId269" xr:uid="{A5B77769-38AF-3D47-A76B-311591B57D91}"/>
-    <hyperlink ref="C311" r:id="rId270" xr:uid="{9DB6976A-C646-1341-90E8-3A164521267A}"/>
-    <hyperlink ref="C312" r:id="rId271" xr:uid="{03C291F8-D19A-304B-9EF9-CF71A1F66E49}"/>
-    <hyperlink ref="C313" r:id="rId272" xr:uid="{7536415C-140B-9244-B0B2-23F3ED0B2D80}"/>
-    <hyperlink ref="C314" r:id="rId273" xr:uid="{7DBDA456-8AF6-DD43-9764-17D3959B8E8F}"/>
-    <hyperlink ref="C315" r:id="rId274" xr:uid="{BFC149AB-C15A-B648-9F6A-ECD3890B1918}"/>
-    <hyperlink ref="C316" r:id="rId275" xr:uid="{0482240B-FEE9-F746-8980-52BCB7BBB56E}"/>
-    <hyperlink ref="C317" r:id="rId276" xr:uid="{86D1231A-E7C8-4B45-99ED-2DB0EF71E190}"/>
-    <hyperlink ref="C318" r:id="rId277" xr:uid="{20B7CE89-CB37-0040-989F-C8D1BE2B8782}"/>
-    <hyperlink ref="C319" r:id="rId278" xr:uid="{4C8412C9-A47B-9244-A18B-741516BD1054}"/>
-    <hyperlink ref="C320" r:id="rId279" xr:uid="{511761D9-31CE-0B43-AFFD-C011C27ACC52}"/>
-    <hyperlink ref="C321" r:id="rId280" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." xr:uid="{6905F997-D048-1049-BA27-C48756603D1E}"/>
-    <hyperlink ref="C322" r:id="rId281" xr:uid="{E657AA82-7CFE-DB42-B20F-F63D8C25EAB6}"/>
-    <hyperlink ref="C323" r:id="rId282" xr:uid="{3E505033-58F3-8F4E-AB82-E12DBC226AEA}"/>
-    <hyperlink ref="C324" r:id="rId283" xr:uid="{749599E5-4972-7343-B13B-87E26F837470}"/>
-    <hyperlink ref="C325" r:id="rId284" xr:uid="{12AA88DC-22AB-5A49-B28C-F04C8E35A215}"/>
-    <hyperlink ref="C326" r:id="rId285" xr:uid="{5751F0A7-7D9D-4148-820B-5B9659DFE34F}"/>
-    <hyperlink ref="C327" r:id="rId286" xr:uid="{4CA2DBEE-B161-B84D-B3A9-B8BC1B598AF2}"/>
-    <hyperlink ref="C328" r:id="rId287" xr:uid="{A9C1E578-6594-954C-8785-8902E605FC7A}"/>
-    <hyperlink ref="C329" r:id="rId288" xr:uid="{3D45E9B8-6671-A747-8C18-51CF8883170A}"/>
-    <hyperlink ref="C330" r:id="rId289" xr:uid="{4F5EF748-8CD4-0F47-90CE-3C93755BF63D}"/>
-    <hyperlink ref="C331" r:id="rId290" xr:uid="{44053C08-5050-C84B-B016-069B1EF9A43D}"/>
-    <hyperlink ref="C332" r:id="rId291" xr:uid="{ABF38928-736B-1A49-8B8A-1DCA5AAECB2B}"/>
-    <hyperlink ref="C333" r:id="rId292" xr:uid="{52651FAF-F3DC-E949-8AF8-998B9724B7D1}"/>
-    <hyperlink ref="C334" r:id="rId293" xr:uid="{91C6CCEF-3FF7-2C42-B5A0-8F4A403ED198}"/>
-    <hyperlink ref="C335" r:id="rId294" xr:uid="{15C8AF08-1A79-F949-9BE7-DD240CBD9861}"/>
-    <hyperlink ref="C336" r:id="rId295" xr:uid="{1904F984-5B22-8D46-BC33-3073B390E8F9}"/>
-    <hyperlink ref="C337" r:id="rId296" xr:uid="{A8BFB3A4-426B-E646-BCF0-FE19C8CD07A9}"/>
-    <hyperlink ref="C338" r:id="rId297" xr:uid="{FBBA29BB-885B-744A-A644-58EDCA7B140A}"/>
-    <hyperlink ref="C339" r:id="rId298" xr:uid="{75411687-6884-AC42-8B4A-1348C4837365}"/>
-    <hyperlink ref="C340" r:id="rId299" xr:uid="{A89ED8DF-F678-FE43-808C-C190721379BF}"/>
-    <hyperlink ref="C341" r:id="rId300" xr:uid="{1516834D-F3B2-1743-8811-263E11BBDEF8}"/>
-    <hyperlink ref="C342" r:id="rId301" xr:uid="{1659AB91-08CA-E44D-988D-E9D9A746D406}"/>
-    <hyperlink ref="C343" r:id="rId302" xr:uid="{E844BC1D-9713-9F4D-B0A4-1124A9952D14}"/>
-    <hyperlink ref="C344" r:id="rId303" xr:uid="{DCE2AAEF-8D8E-1843-BFE9-E9B7E13854EB}"/>
-    <hyperlink ref="C345" r:id="rId304" xr:uid="{836B3BF0-7711-7D41-9E72-914C1871397F}"/>
-    <hyperlink ref="C346" r:id="rId305" xr:uid="{F450CF9B-CA59-1443-8163-13F1121DCF12}"/>
-    <hyperlink ref="C347" r:id="rId306" xr:uid="{1539C3E8-4854-3C4F-A7B3-55BF931F1E2A}"/>
-    <hyperlink ref="C348" r:id="rId307" xr:uid="{04F1FC5F-5DA1-0144-962D-B38C1C41F0F4}"/>
-    <hyperlink ref="C351" r:id="rId308" xr:uid="{B21618F4-70E2-C549-80B7-7CF915679E0A}"/>
-    <hyperlink ref="C352" r:id="rId309" xr:uid="{EEDFBF11-C1E4-0847-9D56-94A72D97AEE7}"/>
-    <hyperlink ref="C353" r:id="rId310" xr:uid="{F5C0EDF1-7EAC-8849-8D27-C3389913BFC6}"/>
-    <hyperlink ref="C354" r:id="rId311" xr:uid="{50175B29-124F-4E4E-8E98-961BD3320359}"/>
-    <hyperlink ref="C355" r:id="rId312" xr:uid="{1BE23822-8512-014F-9154-F6EDA4FC8428}"/>
-    <hyperlink ref="C356" r:id="rId313" xr:uid="{38EC228E-ABFF-3542-9CFB-3DDFC628E9D0}"/>
-    <hyperlink ref="C357" r:id="rId314" xr:uid="{73F240F8-C469-454E-BA5C-CFF2F7A7A5F6}"/>
-    <hyperlink ref="C358" r:id="rId315" xr:uid="{3BBD1BAC-68C7-A94A-9063-AF62B5C837FD}"/>
-    <hyperlink ref="C359" r:id="rId316" xr:uid="{F9751D9B-2689-E24B-9FC3-CA32FE888708}"/>
-    <hyperlink ref="C360" r:id="rId317" xr:uid="{73C61D6A-D97C-B944-8B27-BB91564AB0D7}"/>
-    <hyperlink ref="C361" r:id="rId318" xr:uid="{936E077C-C016-A04F-895A-782D6D9D9433}"/>
-    <hyperlink ref="C362" r:id="rId319" xr:uid="{5454A2A1-6607-BE48-9215-CB8965EC3568}"/>
-    <hyperlink ref="C363" r:id="rId320" xr:uid="{FC1EAA10-F7ED-6B42-A79B-3D8B44E2C8B3}"/>
-    <hyperlink ref="C364" r:id="rId321" xr:uid="{FDB7F712-4A42-1048-8929-A1E752B07C6A}"/>
-    <hyperlink ref="C365" r:id="rId322" xr:uid="{AF3ACA60-0B0E-E146-B51F-A2CD05EB6549}"/>
-    <hyperlink ref="C366" r:id="rId323" xr:uid="{BB63E040-7A1A-E046-9BDD-9CBD1DA89DE9}"/>
-    <hyperlink ref="C367" r:id="rId324" xr:uid="{9AF8FD93-CCC9-D540-AE9A-00583F309649}"/>
-    <hyperlink ref="C368" r:id="rId325" xr:uid="{66A746A0-71FE-E546-92B7-D1C3D582E067}"/>
-    <hyperlink ref="C372" r:id="rId326" xr:uid="{BD79CCE1-5315-3944-9F9B-618615EC4583}"/>
-    <hyperlink ref="C373" r:id="rId327" xr:uid="{A5068A51-C961-6847-BB27-40A850B6D393}"/>
-    <hyperlink ref="C374" r:id="rId328" xr:uid="{6B8D36F0-E796-B944-A456-E8A9E2EE0BDB}"/>
-    <hyperlink ref="C375" r:id="rId329" xr:uid="{776652B7-2C11-4641-BF6A-EABEEB9B55AB}"/>
-    <hyperlink ref="C376" r:id="rId330" xr:uid="{95C6B35D-712A-2343-B790-236B55C5EC49}"/>
-    <hyperlink ref="C377" r:id="rId331" xr:uid="{4ED53872-1FE9-F140-AA35-F228F762880B}"/>
-    <hyperlink ref="C378" r:id="rId332" xr:uid="{6D5E6A28-85AA-BF4C-B2BD-9378D6E28EC7}"/>
-    <hyperlink ref="C379" r:id="rId333" xr:uid="{BCAD1ECB-15EE-CF49-878E-AA682DE3AC22}"/>
-    <hyperlink ref="C380" r:id="rId334" xr:uid="{C85468B5-25E9-E446-808E-72CFE911F0C2}"/>
-    <hyperlink ref="C381" r:id="rId335" xr:uid="{9503AECA-1A6A-9640-A04C-4CEAA2304448}"/>
-    <hyperlink ref="C382" r:id="rId336" xr:uid="{74211516-06B0-AA45-845B-52C8202751DA}"/>
-    <hyperlink ref="C383" r:id="rId337" xr:uid="{02C696BC-4B91-9444-900F-9CD68E409ABC}"/>
-    <hyperlink ref="C384" r:id="rId338" xr:uid="{04646C45-4118-374C-839D-94D31D534FAC}"/>
-    <hyperlink ref="C385" r:id="rId339" xr:uid="{F90BCCAE-8596-FC4D-BDD7-774392C596DF}"/>
-    <hyperlink ref="C386" r:id="rId340" xr:uid="{65230925-36EC-8A4B-8E46-6350B9BC0F95}"/>
-    <hyperlink ref="C387" r:id="rId341" xr:uid="{E91B8177-0C7A-1F40-BD34-4CC60F03B84F}"/>
-    <hyperlink ref="C388" r:id="rId342" xr:uid="{E8CBFD60-7335-0B4D-9FF5-99B4A8DC551D}"/>
-    <hyperlink ref="C389" r:id="rId343" xr:uid="{A35F55D4-9B87-C745-94DB-E7D820193C30}"/>
-    <hyperlink ref="C390" r:id="rId344" xr:uid="{6461A29F-D404-334F-B13F-296B4CA5E8A4}"/>
-    <hyperlink ref="C391" r:id="rId345" xr:uid="{FA9B4BE7-85CC-B24F-9461-5E9B42DDD824}"/>
-    <hyperlink ref="C392" r:id="rId346" xr:uid="{A75ACEA2-CDF6-A147-8540-A6DF55B15F45}"/>
-    <hyperlink ref="C393" r:id="rId347" xr:uid="{62FF87E2-E658-AB4D-AC57-7BCF9D49516E}"/>
-    <hyperlink ref="C394" r:id="rId348" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." xr:uid="{269338A6-5145-6944-9F7F-BD2A86DFA308}"/>
-    <hyperlink ref="C395" r:id="rId349" xr:uid="{8F583049-CE8D-CD42-88CD-CF3857942670}"/>
-    <hyperlink ref="C396" r:id="rId350" xr:uid="{EE2348AD-E296-894A-B5AE-5884A3C5E419}"/>
-    <hyperlink ref="C397" r:id="rId351" xr:uid="{6EACB34E-B32E-8F43-8055-2406F7417A7E}"/>
-    <hyperlink ref="C398" r:id="rId352" xr:uid="{2446F10A-B762-B64C-97B2-6131A0BECC1F}"/>
-    <hyperlink ref="C399" r:id="rId353" xr:uid="{6FDFCC53-17A6-7244-88A7-49406D7C9200}"/>
-    <hyperlink ref="C400" r:id="rId354" xr:uid="{3EC43646-EAB1-E443-A2F6-8E6E5FC77083}"/>
-    <hyperlink ref="C401" r:id="rId355" xr:uid="{659D9F20-C862-C947-B422-84143CFE317F}"/>
-    <hyperlink ref="C402" r:id="rId356" xr:uid="{3F5192FE-1C50-C049-88D5-68FA0F5430A0}"/>
-    <hyperlink ref="C403" r:id="rId357" xr:uid="{5EAD7CDA-9545-454B-BE77-9AFEC6AC1083}"/>
-    <hyperlink ref="C404" r:id="rId358" xr:uid="{761E5451-736B-6745-9CF5-4C6EF5D4C099}"/>
-    <hyperlink ref="C405" r:id="rId359" xr:uid="{4C8677A9-D94C-134F-AF31-E424751BF867}"/>
-    <hyperlink ref="C406" r:id="rId360" xr:uid="{CCF7920F-D5CE-004A-86C3-D821FB230970}"/>
-    <hyperlink ref="C407" r:id="rId361" xr:uid="{B4C07A0A-1EDD-7947-9646-3FD603441AD7}"/>
-    <hyperlink ref="C408" r:id="rId362" xr:uid="{49F7BB43-6851-0641-9DC5-27DBC66706F6}"/>
-    <hyperlink ref="C409" r:id="rId363" xr:uid="{77038647-48C7-5547-8E0F-898610362465}"/>
-    <hyperlink ref="C411" r:id="rId364" xr:uid="{EEFFE19C-6571-C64F-A0E1-5A4A700D94D4}"/>
-    <hyperlink ref="C410" r:id="rId365" xr:uid="{A4A2BFC4-6B88-2E4E-B362-17D8EE041C89}"/>
-    <hyperlink ref="C412" r:id="rId366" xr:uid="{DC5B603A-8D65-3648-A08A-E5FFA0FAE879}"/>
-    <hyperlink ref="C413" r:id="rId367" xr:uid="{F8807DD9-F4F2-B147-9C31-DBC93B2E477B}"/>
-    <hyperlink ref="C414" r:id="rId368" xr:uid="{6F7B396C-D7E9-C04E-BAE2-53D2EE07172B}"/>
-    <hyperlink ref="C417" r:id="rId369" xr:uid="{0D4A5941-C669-4A49-BAE3-9B553D03BD0F}"/>
-    <hyperlink ref="C418" r:id="rId370" xr:uid="{54144336-5BCA-D749-962A-E448C2CED3D3}"/>
-    <hyperlink ref="C419" r:id="rId371" xr:uid="{3A41DD21-CACF-1F48-A7C7-F568C6F31F3E}"/>
-    <hyperlink ref="C420" r:id="rId372" xr:uid="{A36160A8-F45E-3443-9645-42C1004B8F8C}"/>
-    <hyperlink ref="C421" r:id="rId373" xr:uid="{8B0A00A3-6AC0-DF46-AD87-A4DA016A2A00}"/>
-    <hyperlink ref="C422" r:id="rId374" xr:uid="{62A81CB4-A961-C543-B31C-92059DB6C105}"/>
-    <hyperlink ref="C425" r:id="rId375" xr:uid="{08030975-009C-C34A-A875-72FE2718F44C}"/>
-    <hyperlink ref="C426" r:id="rId376" xr:uid="{A113C7A9-2359-B643-9C08-E845813439C0}"/>
-    <hyperlink ref="C427" r:id="rId377" xr:uid="{FE300343-4633-AD47-A64D-2086629EB398}"/>
-    <hyperlink ref="C428" r:id="rId378" xr:uid="{4FC9F782-D38F-C642-A863-887B17AD05CD}"/>
-    <hyperlink ref="C429" r:id="rId379" xr:uid="{830C5466-10E3-7A48-B3E7-35C15A1CA4EF}"/>
-    <hyperlink ref="C430" r:id="rId380" xr:uid="{1B987077-E9D3-6F40-89EE-0D4E7180D884}"/>
-    <hyperlink ref="C431" r:id="rId381" xr:uid="{D4843E1F-7226-864E-A4BB-264D5A487B6D}"/>
-    <hyperlink ref="C432" r:id="rId382" xr:uid="{61816592-2D19-9946-8253-47A60218F2EA}"/>
-    <hyperlink ref="C433" r:id="rId383" xr:uid="{736C840F-19A3-0A4B-8863-ECB772B46385}"/>
-    <hyperlink ref="C434" r:id="rId384" xr:uid="{05A238AD-3C5B-C546-94E9-75BBF964711A}"/>
-    <hyperlink ref="C435" r:id="rId385" xr:uid="{7029629C-3F2A-4A49-997B-CFE86EC8B3C2}"/>
-    <hyperlink ref="C436" r:id="rId386" xr:uid="{ADA66B57-2FAC-AB42-BD83-4931708F3AB5}"/>
-    <hyperlink ref="C437" r:id="rId387" xr:uid="{F16BF1F9-755B-B045-B9A8-0B97E3BAC8B0}"/>
-    <hyperlink ref="C438" r:id="rId388" xr:uid="{ECCE930A-B960-234C-81EC-4B8514282AE9}"/>
-    <hyperlink ref="C439" r:id="rId389" xr:uid="{7AA58141-7D24-7C42-A0C1-F852B21CFFD9}"/>
-    <hyperlink ref="C440" r:id="rId390" xr:uid="{B1FCB47D-7921-3446-B2C7-72CBA815D056}"/>
-    <hyperlink ref="C441" r:id="rId391" xr:uid="{8C547719-AA03-3543-B31F-7300674AF4C5}"/>
-    <hyperlink ref="C442" r:id="rId392" xr:uid="{09922668-AFC0-F242-860E-9967E0F0FEF4}"/>
-    <hyperlink ref="C443" r:id="rId393" xr:uid="{0DA963DA-238B-D44E-9E03-6E6BD933B35E}"/>
-    <hyperlink ref="C444" r:id="rId394" xr:uid="{89518AFF-2526-C845-BC9D-95FE77AF416E}"/>
-    <hyperlink ref="C445" r:id="rId395" xr:uid="{FAECBBBE-196C-7A41-A0FB-E0597CB2CF51}"/>
-    <hyperlink ref="C446" r:id="rId396" xr:uid="{8126B039-0B25-B040-A0F6-C3457341A2E9}"/>
-    <hyperlink ref="C447" r:id="rId397" xr:uid="{6CB326E6-E698-EB42-884B-C89FFA33E3BA}"/>
-    <hyperlink ref="C448" r:id="rId398" xr:uid="{8C97EFD1-933F-A44F-A1CF-6386233104A2}"/>
-    <hyperlink ref="C449" r:id="rId399" xr:uid="{8F019F07-8532-E147-8BE1-4EBE833F61CA}"/>
-    <hyperlink ref="C450" r:id="rId400" xr:uid="{00F1A08F-3767-784A-97A3-4603DE38BACC}"/>
-    <hyperlink ref="C451" r:id="rId401" xr:uid="{2A84ADCB-071F-9A48-994D-7A838307EFD8}"/>
-    <hyperlink ref="C452" r:id="rId402" xr:uid="{132F8C6D-D5E8-6440-AC4E-B81EA2100416}"/>
-    <hyperlink ref="C453" r:id="rId403" xr:uid="{2DA6EAC2-1A1D-754F-9613-226CBC7890AF}"/>
-    <hyperlink ref="C454" r:id="rId404" xr:uid="{05BED99A-4562-D14E-8627-D07CF5335A9B}"/>
-    <hyperlink ref="C455" r:id="rId405" xr:uid="{111D902A-3F60-2D4B-89D3-5BCBD8AA38DD}"/>
-    <hyperlink ref="C456" r:id="rId406" xr:uid="{F19236BE-AC32-3542-9214-DFC3BAE04ED0}"/>
-    <hyperlink ref="C457" r:id="rId407" xr:uid="{4D97CD96-EA1B-664E-9380-EFD27077D273}"/>
-    <hyperlink ref="C458" r:id="rId408" xr:uid="{49A46D91-633F-A148-ACFA-49B7D1AA4B33}"/>
-    <hyperlink ref="C459" r:id="rId409" xr:uid="{7C3B7901-67E3-EA4D-BC64-21A78BC03AC6}"/>
-    <hyperlink ref="C460" r:id="rId410" xr:uid="{B27CA8C3-D34F-5E4D-94A5-11D14AFD0F82}"/>
-    <hyperlink ref="C461" r:id="rId411" xr:uid="{8FECE038-9764-5E4A-8C6E-9B3209812651}"/>
-    <hyperlink ref="C462" r:id="rId412" xr:uid="{95696D4B-89CB-5640-BE92-53B3C043F7EB}"/>
-    <hyperlink ref="C463" r:id="rId413" xr:uid="{DA74B737-802A-4944-A93E-0B9C8417630B}"/>
-    <hyperlink ref="C464" r:id="rId414" xr:uid="{B2C4C168-50FA-AF41-8F56-9E70613CF17D}"/>
-    <hyperlink ref="C466" r:id="rId415" xr:uid="{B7090C60-AC27-3F4F-8F0D-42F0791928C6}"/>
-    <hyperlink ref="C465" r:id="rId416" xr:uid="{07400041-66C6-514B-B3E3-427F2947C2B7}"/>
-    <hyperlink ref="C467" r:id="rId417" xr:uid="{B7E78172-8FB8-4E42-87D8-6A4654D79C62}"/>
-    <hyperlink ref="C468" r:id="rId418" xr:uid="{9A5D4670-BC64-334A-88CF-6F8287692C5E}"/>
-    <hyperlink ref="C469" r:id="rId419" xr:uid="{604283B6-53BC-044F-8D9D-E6094E798317}"/>
-    <hyperlink ref="C470" r:id="rId420" xr:uid="{5EB15AC7-3E0E-E44C-A5B9-32F30F234B5A}"/>
-    <hyperlink ref="C471" r:id="rId421" xr:uid="{3076BD5F-4B23-4146-A50A-499C9FF4C3D2}"/>
-    <hyperlink ref="C472" r:id="rId422" xr:uid="{6A29D9C2-1E78-1B43-A251-0AB0A97FA70E}"/>
-    <hyperlink ref="C473" r:id="rId423" xr:uid="{00597D5E-D693-DF4E-84C0-47E58A6ACA8F}"/>
-    <hyperlink ref="C474" r:id="rId424" xr:uid="{48640988-9964-0B4C-A014-83E2CEB3D632}"/>
-    <hyperlink ref="C475" r:id="rId425" xr:uid="{617AADC9-7534-FE45-96B0-EF4C1867B793}"/>
-    <hyperlink ref="C476" r:id="rId426" xr:uid="{7F8CDAA4-5094-8E4E-961B-41CDE5ACC0C0}"/>
-    <hyperlink ref="C477" r:id="rId427" xr:uid="{63F28ABD-12CF-5947-80DA-229E3CA3133E}"/>
-    <hyperlink ref="C484" r:id="rId428" xr:uid="{0A1DB92C-3315-1942-B27D-4B90986A6D9D}"/>
-    <hyperlink ref="C483" r:id="rId429" xr:uid="{11738B67-CADD-5D45-8417-8BE7A03FC79F}"/>
-    <hyperlink ref="C482" r:id="rId430" xr:uid="{B2B23748-D9E4-BE4F-A93E-49ECB4063831}"/>
-    <hyperlink ref="C481" r:id="rId431" xr:uid="{A2FB8A72-37B9-7E4A-B050-FD6CD20BCE73}"/>
-    <hyperlink ref="C480" r:id="rId432" xr:uid="{5A93C9AF-BFEB-EB40-95AC-C309ED09A604}"/>
-    <hyperlink ref="C479" r:id="rId433" xr:uid="{CC203923-2DC2-874B-B846-A8455E3CC2F2}"/>
-    <hyperlink ref="C478" r:id="rId434" xr:uid="{FCB0246E-0179-B447-B3CE-C60CDB388472}"/>
-    <hyperlink ref="C487" r:id="rId435" xr:uid="{F06CEE72-8CA4-C547-862C-39B86CD3226A}"/>
-    <hyperlink ref="C488" r:id="rId436" xr:uid="{CB3045F2-8D63-0F4E-85BC-AF016DB4F247}"/>
-    <hyperlink ref="C489" r:id="rId437" xr:uid="{667D57F5-E5AD-674F-A2F5-AFF4A14E4026}"/>
-    <hyperlink ref="C490" r:id="rId438" xr:uid="{27A13A65-56CE-BF4D-BA0D-EB87D910272D}"/>
-    <hyperlink ref="C491" r:id="rId439" xr:uid="{2C72A52E-6F06-0246-AEB5-93CD0DEA8866}"/>
-    <hyperlink ref="C492" r:id="rId440" xr:uid="{24B29046-B4DD-674B-9EDF-6C94BEC3FDD8}"/>
-    <hyperlink ref="C493" r:id="rId441" xr:uid="{D018EBC3-3FB3-AC4D-9D64-D218345A46C8}"/>
-    <hyperlink ref="C496" r:id="rId442" xr:uid="{1E1D3964-01E0-3145-ACFE-B6A5BF0EECB0}"/>
-    <hyperlink ref="C494" r:id="rId443" xr:uid="{FA0E5061-A7E2-C045-9671-1CD9446D1932}"/>
-    <hyperlink ref="C495" r:id="rId444" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{92704F5B-7B31-2F42-80DD-764B2206D9DB}"/>
-    <hyperlink ref="C371" r:id="rId445" xr:uid="{A48B1A24-83B1-7A4C-8129-CD37804DF849}"/>
-    <hyperlink ref="C22" r:id="rId446" display="Write a Program to sort array Using Quick Sort_files" xr:uid="{F0DDC999-C321-4AB4-BA9D-7538150E84D3}"/>
+    <hyperlink ref="C26" r:id="rId1" xr:uid="{9492A4AD-FA44-BA4B-B154-E4DBB1951162}"/>
+    <hyperlink ref="C27" r:id="rId2" xr:uid="{2D6F1134-3C08-7445-B19A-9B94A18B55C7}"/>
+    <hyperlink ref="C29" r:id="rId3" xr:uid="{E5A98931-37E8-6B4A-90BE-8DC72405341A}"/>
+    <hyperlink ref="C30" r:id="rId4" xr:uid="{02736918-E09F-7A46-90B3-AFCC33AA559B}"/>
+    <hyperlink ref="C31" r:id="rId5" xr:uid="{6E8DD30A-A9F9-4C44-B26C-C9E236F10798}"/>
+    <hyperlink ref="C32" r:id="rId6" xr:uid="{0D55765B-95A7-154F-96F3-B7E4C581021F}"/>
+    <hyperlink ref="C33" r:id="rId7" xr:uid="{6F687ABA-C04B-AF4F-9F11-A038DCB20FB9}"/>
+    <hyperlink ref="C34" r:id="rId8" xr:uid="{11C9D8CC-9F1E-004E-8EC2-C758DC9C8CAB}"/>
+    <hyperlink ref="C35" r:id="rId9" xr:uid="{56E4962F-CB3D-9E48-A26E-19A1F5C800C9}"/>
+    <hyperlink ref="C36" r:id="rId10" xr:uid="{899DDBD9-9ED6-3A4D-8AFE-8FAA6DA88DBC}"/>
+    <hyperlink ref="C37" r:id="rId11" xr:uid="{76D41EAC-A28A-2845-8515-CA3C70D823B7}"/>
+    <hyperlink ref="C38" r:id="rId12" xr:uid="{828948BE-DD97-DE4A-BAD6-B415E29198F0}"/>
+    <hyperlink ref="C39" r:id="rId13" xr:uid="{E98C86AA-12E7-124C-B7D0-BCDFB246040B}"/>
+    <hyperlink ref="C40" r:id="rId14" xr:uid="{192741A9-FF68-DC4A-99FA-69F9968AB4F2}"/>
+    <hyperlink ref="C41" r:id="rId15" xr:uid="{DBD9BA9C-91C6-B144-A800-DCB3BED33DE7}"/>
+    <hyperlink ref="C42" r:id="rId16" xr:uid="{A285BDE8-00E7-A94C-8E43-A0C4829D42FA}"/>
+    <hyperlink ref="C43" r:id="rId17" xr:uid="{B0C21764-2962-1649-8AFA-10FB9420C5FC}"/>
+    <hyperlink ref="C44" r:id="rId18" xr:uid="{9282CC15-9B38-E54B-B64C-557745C9C00A}"/>
+    <hyperlink ref="C45" r:id="rId19" xr:uid="{3BCCEBE2-AC3B-AC4F-8BA9-439ACEA133D4}"/>
+    <hyperlink ref="C46" r:id="rId20" xr:uid="{74F8D761-6EBF-594A-A6C7-40DE4CE96958}"/>
+    <hyperlink ref="C47" r:id="rId21" xr:uid="{79947FE6-D417-D644-81D8-D058180550A0}"/>
+    <hyperlink ref="C48" r:id="rId22" xr:uid="{2BF3F606-410B-264D-BF60-191C34D616BB}"/>
+    <hyperlink ref="C49" r:id="rId23" xr:uid="{CD98DB26-0F2F-FD40-A989-53FE548D7D34}"/>
+    <hyperlink ref="C50" r:id="rId24" xr:uid="{307032A1-F8EF-1A48-BFE3-EA3283D39BE2}"/>
+    <hyperlink ref="C51" r:id="rId25" xr:uid="{AA329F36-941A-9241-9402-9D220B05E719}"/>
+    <hyperlink ref="C52" r:id="rId26" xr:uid="{9E851DAC-0E30-B340-84F9-721D70B66919}"/>
+    <hyperlink ref="C53" r:id="rId27" xr:uid="{468380BA-4978-A645-ABD0-E74FD3E6BDBB}"/>
+    <hyperlink ref="C54" r:id="rId28" xr:uid="{289E6890-8CCB-D645-9B3F-6138FFC1C249}"/>
+    <hyperlink ref="C55" r:id="rId29" xr:uid="{8EABDC68-858F-784A-A8F1-C603E3B8C1FE}"/>
+    <hyperlink ref="C56" r:id="rId30" xr:uid="{6157E427-1210-3F45-A4DC-6DFD2373B9CF}"/>
+    <hyperlink ref="C57" r:id="rId31" xr:uid="{2D7BA55E-9947-FF4D-BC09-FB4A5ADA07EC}"/>
+    <hyperlink ref="C58" r:id="rId32" xr:uid="{3337C74F-8B73-E64E-A6DA-5D9F7C7B4D32}"/>
+    <hyperlink ref="C59" r:id="rId33" xr:uid="{02370124-E58D-B540-BBCF-98266229556D}"/>
+    <hyperlink ref="C60" r:id="rId34" xr:uid="{F2DE2162-BD02-7549-AC1A-27455F78131F}"/>
+    <hyperlink ref="C61" r:id="rId35" xr:uid="{6FA286B9-3994-624D-B0B8-C01657D110AD}"/>
+    <hyperlink ref="C62" r:id="rId36" xr:uid="{6EFBEDA1-5C10-2547-8FB2-44E977513B28}"/>
+    <hyperlink ref="C65" r:id="rId37" xr:uid="{090EC515-BEBE-514E-BA59-A84E450B4211}"/>
+    <hyperlink ref="C66" r:id="rId38" xr:uid="{0A0557FD-77E5-564B-B100-147D544A38B4}"/>
+    <hyperlink ref="C67" r:id="rId39" xr:uid="{3F82F2E0-AA59-5042-B079-F3B3C6FF2FD7}"/>
+    <hyperlink ref="C68" r:id="rId40" xr:uid="{FFF7D257-1F58-5A4B-AAA2-F5480AED86C7}"/>
+    <hyperlink ref="C69" r:id="rId41" xr:uid="{353E28FA-E36D-7447-9DE8-787DF11C4669}"/>
+    <hyperlink ref="C70" r:id="rId42" xr:uid="{F9B53127-FC98-FE43-B53F-BFDBCE2A4427}"/>
+    <hyperlink ref="C71" r:id="rId43" xr:uid="{40685BBC-CE24-624E-9ABB-98490B7DE0E4}"/>
+    <hyperlink ref="C72" r:id="rId44" xr:uid="{7733D505-2EC7-E346-B3DA-C980C7CE0B27}"/>
+    <hyperlink ref="C73" r:id="rId45" xr:uid="{E8C1FE00-7B4B-5745-8E4B-CD44B6C749E3}"/>
+    <hyperlink ref="C74" r:id="rId46" xr:uid="{FDE181B1-57B0-7C4B-A189-C7C6E4EAEF99}"/>
+    <hyperlink ref="C77" r:id="rId47" xr:uid="{FE85FD72-4FC9-334E-8205-9E8B238954EB}"/>
+    <hyperlink ref="C78" r:id="rId48" xr:uid="{7630AD76-7E6B-8C4A-BA33-A62EBB042215}"/>
+    <hyperlink ref="C79" r:id="rId49" xr:uid="{2A738B70-CBF0-CC40-8B05-A271822B3F1A}"/>
+    <hyperlink ref="C81" r:id="rId50" xr:uid="{B2DE2D9E-8371-CD44-9D0D-4D6DC64AC29B}"/>
+    <hyperlink ref="C82" r:id="rId51" xr:uid="{265DCD11-17A0-654E-BEFE-FABA31210C6E}"/>
+    <hyperlink ref="C83" r:id="rId52" xr:uid="{47F1BB0C-0C5C-0845-8EEC-1560C50D7DA7}"/>
+    <hyperlink ref="C84" r:id="rId53" xr:uid="{8E0BFA2E-CCB4-514F-86CD-78176C6CC98A}"/>
+    <hyperlink ref="C85" r:id="rId54" xr:uid="{E4DEFB4B-749F-8746-97C7-F2B433664A74}"/>
+    <hyperlink ref="C86" r:id="rId55" xr:uid="{8301BDBD-EB7E-7D41-A777-ED99C3F9D67D}"/>
+    <hyperlink ref="C87" r:id="rId56" xr:uid="{927AE532-647F-AF4C-A567-40ADA6FCE534}"/>
+    <hyperlink ref="C88" r:id="rId57" xr:uid="{05489F52-CC92-EC44-9AD3-773DEC3B1D36}"/>
+    <hyperlink ref="C89" r:id="rId58" xr:uid="{13025DF6-C30E-014A-B66C-68C4AAAC1C6E}"/>
+    <hyperlink ref="C90" r:id="rId59" xr:uid="{BEE1F613-C189-B949-A225-0E0C5AFD1532}"/>
+    <hyperlink ref="C91" r:id="rId60" xr:uid="{1DFECD6C-D7CC-0340-B29B-4D56E50711E5}"/>
+    <hyperlink ref="C92" r:id="rId61" xr:uid="{70BED156-B004-E043-BF7D-59EFAA9EADAF}"/>
+    <hyperlink ref="C93" r:id="rId62" xr:uid="{FF9CBAFB-900E-E242-8B33-EDF46F0F40B5}"/>
+    <hyperlink ref="C94" r:id="rId63" xr:uid="{19461114-B3E8-9042-8029-100010946A04}"/>
+    <hyperlink ref="C95" r:id="rId64" xr:uid="{00F71118-E30B-A84E-819E-FFA902C70502}"/>
+    <hyperlink ref="C96" r:id="rId65" xr:uid="{58E70966-BBE0-7743-A250-AE4DD57807DE}"/>
+    <hyperlink ref="C97" r:id="rId66" xr:uid="{09409FE3-9D7E-4F43-BB21-14A1B8D6E480}"/>
+    <hyperlink ref="C98" r:id="rId67" xr:uid="{E199A3DC-3DA1-C648-93C0-DF9CD5331204}"/>
+    <hyperlink ref="C99" r:id="rId68" xr:uid="{85886847-1510-AA46-B10C-F3D80591DD74}"/>
+    <hyperlink ref="C100" r:id="rId69" xr:uid="{F60808FC-F09D-FC44-B2DD-752E55A1C698}"/>
+    <hyperlink ref="C101" r:id="rId70" xr:uid="{16B2725E-1AD5-0441-9B5B-B6B2F458091B}"/>
+    <hyperlink ref="C102" r:id="rId71" xr:uid="{8440D753-5DE9-3243-97C2-C09D195C325F}"/>
+    <hyperlink ref="C103" r:id="rId72" xr:uid="{AC63A963-B6CC-6E4E-B72A-7F472BC4C027}"/>
+    <hyperlink ref="C104" r:id="rId73" xr:uid="{B21B87F1-A0C0-7F4E-B36F-912B871D0EF4}"/>
+    <hyperlink ref="C105" r:id="rId74" xr:uid="{789FFFAC-8B7E-0540-98B8-856430EB56F8}"/>
+    <hyperlink ref="C106" r:id="rId75" xr:uid="{4A0E959E-22F4-6948-A819-76FE76AB9F6D}"/>
+    <hyperlink ref="C107" r:id="rId76" xr:uid="{78B76678-D8EE-9745-98B1-DF7A76EA3B10}"/>
+    <hyperlink ref="C108" r:id="rId77" xr:uid="{62982242-1D19-1544-8653-8E25E9BF4505}"/>
+    <hyperlink ref="C109" r:id="rId78" xr:uid="{8E3D4BDF-9F8F-0542-BFD8-C3CE3BF396E6}"/>
+    <hyperlink ref="C110" r:id="rId79" xr:uid="{A3D51762-65A1-9A44-B619-D1D98A7F403B}"/>
+    <hyperlink ref="C111" r:id="rId80" xr:uid="{ED0F5FC7-0066-EB44-8FCF-460600DADB02}"/>
+    <hyperlink ref="C112" r:id="rId81" xr:uid="{2D956AC4-4774-7446-8473-C4CE00E33C17}"/>
+    <hyperlink ref="C113" r:id="rId82" xr:uid="{C8C607BB-1FEE-FA47-9E3E-6C0BCE978B7F}"/>
+    <hyperlink ref="C114" r:id="rId83" xr:uid="{B9AC5194-6D36-684A-A5C4-BEE11037599F}"/>
+    <hyperlink ref="C115" r:id="rId84" xr:uid="{AB28D9E6-890C-F14A-A5FB-2303BE319968}"/>
+    <hyperlink ref="C116" r:id="rId85" xr:uid="{1F507CBC-4056-AD46-9314-95ECBB9D799D}"/>
+    <hyperlink ref="C117" r:id="rId86" xr:uid="{F152A9AF-5CBA-EC44-A9CF-07AB481435AB}"/>
+    <hyperlink ref="C118" r:id="rId87" xr:uid="{346CA74F-60B7-0A4B-A612-9184D4DCFF62}"/>
+    <hyperlink ref="C119" r:id="rId88" xr:uid="{8C653CB1-4954-754F-8D46-F09141A2FCDB}"/>
+    <hyperlink ref="C122" r:id="rId89" xr:uid="{5989F693-2A61-A346-8395-8674307A4CC2}"/>
+    <hyperlink ref="C123" r:id="rId90" xr:uid="{3AD10C9E-4F6D-DE48-92F3-531A586520C6}"/>
+    <hyperlink ref="C124" r:id="rId91" xr:uid="{4FA217C0-A1F3-904E-8FEA-EA4941273A67}"/>
+    <hyperlink ref="C125" r:id="rId92" xr:uid="{A297BBC0-FA0D-2D46-9C49-3932193EF1D3}"/>
+    <hyperlink ref="C127" r:id="rId93" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance." xr:uid="{DCD751DE-E440-F346-B6FD-CBD072217214}"/>
+    <hyperlink ref="C128" r:id="rId94" xr:uid="{B2FD38B9-1E2B-8140-8291-F45734C98145}"/>
+    <hyperlink ref="C129" r:id="rId95" xr:uid="{C76888B3-18AC-9B48-9E2A-64A7DF0902B7}"/>
+    <hyperlink ref="C130" r:id="rId96" xr:uid="{18A79860-6C9E-A941-8D6C-360B9913E941}"/>
+    <hyperlink ref="C131" r:id="rId97" xr:uid="{C0DDFD68-CBC1-0F4A-AF40-ACF36BBC8453}"/>
+    <hyperlink ref="C132" r:id="rId98" xr:uid="{3E0BF737-E42E-C946-B32C-06882E0BA6FF}"/>
+    <hyperlink ref="C134" r:id="rId99" xr:uid="{862F9782-C57B-2848-A2D9-EB7B52FB7EC7}"/>
+    <hyperlink ref="C135" r:id="rId100" xr:uid="{230D7A6A-D2C5-C140-9A65-B1F407D22062}"/>
+    <hyperlink ref="C136" r:id="rId101" xr:uid="{BDC2BA28-4562-984E-8282-1126BF952EAF}"/>
+    <hyperlink ref="C137" r:id="rId102" xr:uid="{B53A5F28-6DED-3D47-8679-F78D3DDEFF01}"/>
+    <hyperlink ref="C138" r:id="rId103" xr:uid="{C57D0CC7-DA2F-0948-9BCE-F19C20C7D981}"/>
+    <hyperlink ref="C139" r:id="rId104" xr:uid="{117878E5-B8C8-254B-8ED6-014B4B7A8126}"/>
+    <hyperlink ref="C140" r:id="rId105" xr:uid="{B7CC0756-74F2-D54D-BDEE-9DA394DD7168}"/>
+    <hyperlink ref="C141" r:id="rId106" xr:uid="{837EF472-CCC2-CF47-A8A8-238E56F722CE}"/>
+    <hyperlink ref="C142" r:id="rId107" xr:uid="{3608F267-6AA0-624B-B243-7DDD317E9F08}"/>
+    <hyperlink ref="C143" r:id="rId108" xr:uid="{0B6123E6-0472-374B-ACA7-6914CD7918E8}"/>
+    <hyperlink ref="C144" r:id="rId109" xr:uid="{D3971CEB-C53E-B04B-9C32-1803182B5DC5}"/>
+    <hyperlink ref="C145" r:id="rId110" xr:uid="{7CF5013A-643E-1643-93A1-A2F1500D2A23}"/>
+    <hyperlink ref="C146" r:id="rId111" xr:uid="{2A6BE7E5-D818-6843-8C3E-99EA2BFE0FB2}"/>
+    <hyperlink ref="C147" r:id="rId112" xr:uid="{E718F544-96DF-A04E-8DFB-7639DA3EA57C}"/>
+    <hyperlink ref="C148" r:id="rId113" xr:uid="{B0C2F065-424A-7345-A864-346ECD98D749}"/>
+    <hyperlink ref="C149" r:id="rId114" xr:uid="{B4E26955-5C3F-804E-B19A-11260310AFB3}"/>
+    <hyperlink ref="C150" r:id="rId115" xr:uid="{6F299BB5-8E82-0240-A9A3-6829CE3ABCBF}"/>
+    <hyperlink ref="C151" r:id="rId116" xr:uid="{A42CA32F-2196-1840-A53D-E5073237C68D}"/>
+    <hyperlink ref="C152" r:id="rId117" xr:uid="{7ECF6EF4-962E-4642-9B1C-C3B70674793E}"/>
+    <hyperlink ref="C153" r:id="rId118" xr:uid="{2A109178-6B60-164E-9D25-42B3282137E3}"/>
+    <hyperlink ref="C154" r:id="rId119" xr:uid="{B3D38BD0-A6A1-8D41-8405-45E1BEEEEF06}"/>
+    <hyperlink ref="C155" r:id="rId120" xr:uid="{A1C26612-D040-2A41-A6A6-A8F2490C0A43}"/>
+    <hyperlink ref="C156" r:id="rId121" xr:uid="{C476E807-64CB-F44A-A23D-D21EBF6D001D}"/>
+    <hyperlink ref="C157" r:id="rId122" xr:uid="{9A414D55-D4A1-F147-9207-61B597D57136}"/>
+    <hyperlink ref="C126" r:id="rId123" xr:uid="{18B028A7-9B6F-D841-8548-924D70530779}"/>
+    <hyperlink ref="C133" r:id="rId124" xr:uid="{6D3E75EF-733F-7A4B-81C8-AEF6CB6335F0}"/>
+    <hyperlink ref="C160" r:id="rId125" xr:uid="{C9EB2682-BE0B-934B-B0B4-1DD1A1502647}"/>
+    <hyperlink ref="C161" r:id="rId126" xr:uid="{2992FED9-2B78-A342-92AA-E7C0F882FF17}"/>
+    <hyperlink ref="C162" r:id="rId127" xr:uid="{0084DA6F-EC84-BD48-BDA8-EBACA3BB3B3E}"/>
+    <hyperlink ref="C163" r:id="rId128" xr:uid="{30F2D415-4B2C-384C-8EAE-2CC71CB518E2}"/>
+    <hyperlink ref="C164" r:id="rId129" xr:uid="{40734C88-7C5B-9747-86D1-03463D9AD41A}"/>
+    <hyperlink ref="C165" r:id="rId130" xr:uid="{1040D22F-6729-104A-A229-CBDCED93024A}"/>
+    <hyperlink ref="C166" r:id="rId131" xr:uid="{E131FE61-FABF-8E4B-8EF0-F68379D8F836}"/>
+    <hyperlink ref="C167" r:id="rId132" xr:uid="{B2129272-1351-3745-883B-E6A7115450C8}"/>
+    <hyperlink ref="C168" r:id="rId133" xr:uid="{C8B2DEF0-2B69-C84E-8013-0B6F03FFC250}"/>
+    <hyperlink ref="C169" r:id="rId134" xr:uid="{536AC5CF-712F-BF48-94A9-D0E7DC013020}"/>
+    <hyperlink ref="C170" r:id="rId135" xr:uid="{2DABC9C7-43D4-1249-AF9B-5FA4552611CB}"/>
+    <hyperlink ref="C171" r:id="rId136" xr:uid="{DA62E73A-B495-F94A-BECE-D42E4CBF074A}"/>
+    <hyperlink ref="C172" r:id="rId137" xr:uid="{7F5E6966-850D-4F49-B2A5-678365713F28}"/>
+    <hyperlink ref="C173" r:id="rId138" xr:uid="{E9C4286D-8493-9A47-8B8C-09583FA72B70}"/>
+    <hyperlink ref="C174" r:id="rId139" xr:uid="{9EB0123C-84AE-1C4D-BA1A-C28CFB8EFB89}"/>
+    <hyperlink ref="C175" r:id="rId140" xr:uid="{9D11FED4-328F-674E-889D-EC781DD1D791}"/>
+    <hyperlink ref="C176" r:id="rId141" xr:uid="{48AE72DB-397B-464D-88AD-B8058ED29CC1}"/>
+    <hyperlink ref="C177" r:id="rId142" xr:uid="{152D50E9-7448-F542-AC66-05D0AE66664C}"/>
+    <hyperlink ref="C178" r:id="rId143" xr:uid="{34E6AF1B-5FB1-3A4B-8938-1DCF80831DC2}"/>
+    <hyperlink ref="C179" r:id="rId144" xr:uid="{E7F8B7CA-49F4-1946-91EE-E7582BE4E5DA}"/>
+    <hyperlink ref="C180" r:id="rId145" xr:uid="{3590A994-B7A2-C14D-9BF8-7AC8FE9E7F0F}"/>
+    <hyperlink ref="C181" r:id="rId146" xr:uid="{0AAA4B0C-4921-C34D-B41E-D702FA860892}"/>
+    <hyperlink ref="C182" r:id="rId147" xr:uid="{5973FCA4-AE32-5248-A6ED-2694367332F1}"/>
+    <hyperlink ref="C183" r:id="rId148" xr:uid="{4C0F816E-F043-0C47-BF16-1CDAD88D2FF1}"/>
+    <hyperlink ref="C184" r:id="rId149" xr:uid="{A8E4C654-D0BD-8945-9F5C-B09F7BC114BE}"/>
+    <hyperlink ref="C187" r:id="rId150" xr:uid="{E3825C15-10BB-E24F-B229-983F651DA942}"/>
+    <hyperlink ref="C188" r:id="rId151" xr:uid="{46ECFC31-388C-6241-8FFE-DED6F2FC794A}"/>
+    <hyperlink ref="C189" r:id="rId152" xr:uid="{589E024D-3FE1-1048-890C-88289733F233}"/>
+    <hyperlink ref="C190" r:id="rId153" xr:uid="{CDA28F7A-7FC5-F74D-B27E-A6E0161D41D5}"/>
+    <hyperlink ref="C191" r:id="rId154" xr:uid="{DA6A0D92-DCEB-DA4F-8BBA-10FCD092838F}"/>
+    <hyperlink ref="C192" r:id="rId155" xr:uid="{955769DB-3256-254B-90DE-E1E01B272F8A}"/>
+    <hyperlink ref="C193" r:id="rId156" xr:uid="{DED7AC9B-40D7-0545-9D6F-6CD4F5FFE4C6}"/>
+    <hyperlink ref="C194" r:id="rId157" xr:uid="{6947A4E1-B6AA-6D4F-A6D8-8FA74FD02887}"/>
+    <hyperlink ref="C195" r:id="rId158" xr:uid="{EABF2012-5A90-0C4E-86F6-FDB5FA7770BE}"/>
+    <hyperlink ref="C198" r:id="rId159" xr:uid="{7F44CFE0-9ED1-A44D-B9EF-CF87BEB644FC}"/>
+    <hyperlink ref="C199" r:id="rId160" xr:uid="{CF6E0CF6-7A93-D84A-9CE0-5BDD51767416}"/>
+    <hyperlink ref="C200" r:id="rId161" xr:uid="{EFF8F154-60B8-B84B-84CA-32756BD6430F}"/>
+    <hyperlink ref="C201" r:id="rId162" xr:uid="{C8A3094E-E11B-2543-B05E-1D07048B2EBA}"/>
+    <hyperlink ref="C202" r:id="rId163" xr:uid="{9961E5F5-B5C6-0C4D-A1D0-D04D2A5D7DFD}"/>
+    <hyperlink ref="C203" r:id="rId164" xr:uid="{44E289EC-47DD-D94D-88C1-CB2F59C6C16A}"/>
+    <hyperlink ref="C204" r:id="rId165" xr:uid="{4161FC70-DD6D-684B-898A-A4711596B2D5}"/>
+    <hyperlink ref="C205" r:id="rId166" xr:uid="{B9CBE387-8E9A-ED48-8310-CF7D34FA690C}"/>
+    <hyperlink ref="C206" r:id="rId167" xr:uid="{5398097B-24FF-9543-8F02-33CE2860F1F7}"/>
+    <hyperlink ref="C207" r:id="rId168" xr:uid="{3B1FC30B-30C8-7B48-AF94-A81FB513F24F}"/>
+    <hyperlink ref="C208" r:id="rId169" xr:uid="{32B750D0-D7F2-694D-AB9B-25AFAFAFF17F}"/>
+    <hyperlink ref="C209" r:id="rId170" xr:uid="{400689DD-8E95-024E-976B-AACD8ED4E1A6}"/>
+    <hyperlink ref="C210" r:id="rId171" xr:uid="{28753DDE-E047-5D40-A30B-1103BE6DA08F}"/>
+    <hyperlink ref="C211" r:id="rId172" xr:uid="{6C5AA6CB-3D93-0740-AEED-9E6C218CF6CB}"/>
+    <hyperlink ref="C212" r:id="rId173" xr:uid="{03EAA2B9-D8B8-D642-BF24-380596D26B2E}"/>
+    <hyperlink ref="C213" r:id="rId174" xr:uid="{8C1719B4-37CC-484E-BDCE-A4272C07F91B}"/>
+    <hyperlink ref="C214" r:id="rId175" xr:uid="{6C198DA2-BB98-F940-8EF6-2FC8B7AE577A}"/>
+    <hyperlink ref="C215" r:id="rId176" xr:uid="{AB0EA311-A446-D046-A0EC-290B42068328}"/>
+    <hyperlink ref="C216" r:id="rId177" xr:uid="{DB913045-B9F6-6549-AA09-22B0CC5FDD21}"/>
+    <hyperlink ref="C217" r:id="rId178" xr:uid="{806469FD-617A-7445-AAB5-FB2FD2ED24EA}"/>
+    <hyperlink ref="C218" r:id="rId179" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." xr:uid="{1A10544E-58CF-D04D-9FAF-2FEC6DB2B5D4}"/>
+    <hyperlink ref="C219" r:id="rId180" xr:uid="{5A0B6645-89FD-E044-A706-9FB890274C3C}"/>
+    <hyperlink ref="C220" r:id="rId181" xr:uid="{B42A3009-E8EB-EE44-885F-6699C17A0E0B}"/>
+    <hyperlink ref="C221" r:id="rId182" xr:uid="{ED3E48AB-E25B-3744-B024-E97B2A319B46}"/>
+    <hyperlink ref="C222" r:id="rId183" xr:uid="{C75D20A3-CBAE-2649-A3EE-E49177CFA343}"/>
+    <hyperlink ref="C223" r:id="rId184" xr:uid="{3863CA1B-D43E-1144-91A9-17C2DCF52A64}"/>
+    <hyperlink ref="C224" r:id="rId185" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." xr:uid="{E9AF434E-4CAA-5D49-8AD3-889CDE2913D9}"/>
+    <hyperlink ref="C225" r:id="rId186" xr:uid="{1A0568E5-3A11-7F47-8001-82B05D7C2339}"/>
+    <hyperlink ref="C226" r:id="rId187" xr:uid="{F62B8AE4-9C4F-9544-8861-CD733C12F79E}"/>
+    <hyperlink ref="C227" r:id="rId188" xr:uid="{0F6A542C-44C9-5A4C-90BF-BC8C239877D2}"/>
+    <hyperlink ref="C228" r:id="rId189" xr:uid="{3ED28203-B1B5-4E46-AAF3-779EDD4AC03F}"/>
+    <hyperlink ref="C229" r:id="rId190" xr:uid="{4338B305-B52F-5540-9B51-B938FC6803A2}"/>
+    <hyperlink ref="C230" r:id="rId191" xr:uid="{DDEEED0F-A939-1E4F-B2FA-AD391A4A2874}"/>
+    <hyperlink ref="C231" r:id="rId192" xr:uid="{C2F20589-AD81-654C-94E5-E5B6C9FE27F6}"/>
+    <hyperlink ref="C232" r:id="rId193" xr:uid="{BBEB9DAC-E4AE-C04F-AA15-6356AFC57FDE}"/>
+    <hyperlink ref="C235" r:id="rId194" xr:uid="{6316566D-A10A-F849-9F25-B9ED4DA12BC7}"/>
+    <hyperlink ref="C236" r:id="rId195" xr:uid="{9D4DD895-FBA6-C849-A5BF-3B30755BD9C9}"/>
+    <hyperlink ref="C237" r:id="rId196" xr:uid="{475996DA-632A-BE49-AEA1-D4189FD614A1}"/>
+    <hyperlink ref="C238" r:id="rId197" xr:uid="{88E0C858-8468-884F-BB71-F6F176BD5FC2}"/>
+    <hyperlink ref="C239" r:id="rId198" xr:uid="{C1C5C8D0-7A06-3D4A-A85A-AAACC1B418C9}"/>
+    <hyperlink ref="C240" r:id="rId199" xr:uid="{D525D4B1-2857-1543-8CD9-196728321203}"/>
+    <hyperlink ref="C241" r:id="rId200" xr:uid="{51E3AB9B-04B2-C041-A2B3-37E3EB18013A}"/>
+    <hyperlink ref="C242" r:id="rId201" xr:uid="{7F7F0C9A-57B9-314F-959A-B8ACAFA5FD13}"/>
+    <hyperlink ref="C243" r:id="rId202" xr:uid="{3B029785-83B4-6140-8B70-CD892CFC87F6}"/>
+    <hyperlink ref="C244" r:id="rId203" xr:uid="{B0A390E6-D860-9F4E-B021-68949FE712F3}"/>
+    <hyperlink ref="C245" r:id="rId204" xr:uid="{49E9953D-52F6-BF47-8AAA-8E456F55576B}"/>
+    <hyperlink ref="C246" r:id="rId205" xr:uid="{9B812470-F419-A54E-8365-06A9B8864A30}"/>
+    <hyperlink ref="C247" r:id="rId206" xr:uid="{B6FB4107-1933-6D45-9EF4-4474E06CBE9D}"/>
+    <hyperlink ref="C248" r:id="rId207" xr:uid="{0F7C1D92-7BCB-D14D-A658-9599984E04E4}"/>
+    <hyperlink ref="C249" r:id="rId208" xr:uid="{6810428F-0A78-964C-A8C8-E1CD2E7C405D}"/>
+    <hyperlink ref="C250" r:id="rId209" xr:uid="{B40209F2-0D6E-364F-8AF6-F1D182509314}"/>
+    <hyperlink ref="C251" r:id="rId210" xr:uid="{96C53FA9-9FD3-2D4F-B292-3C9DEDFA806E}"/>
+    <hyperlink ref="C252" r:id="rId211" xr:uid="{918B420D-3678-FD46-9463-595E8ACC39E1}"/>
+    <hyperlink ref="C253" r:id="rId212" xr:uid="{851A7153-3B54-0E4A-A0A0-FCEB091AFE70}"/>
+    <hyperlink ref="C254" r:id="rId213" xr:uid="{C03AE9F8-09AE-C640-81A7-033BB06FB6AD}"/>
+    <hyperlink ref="C255" r:id="rId214" xr:uid="{35140DEB-52D2-4342-88D2-22BA061E5B48}"/>
+    <hyperlink ref="C256" r:id="rId215" xr:uid="{9714BC0B-3373-934C-B7A1-599F74F4FB9D}"/>
+    <hyperlink ref="C259" r:id="rId216" xr:uid="{5CB435B2-7FD2-1D44-9872-22B6A1EDC02B}"/>
+    <hyperlink ref="C260" r:id="rId217" xr:uid="{722D1D95-896B-4642-BABD-31DEDD237B49}"/>
+    <hyperlink ref="C261" r:id="rId218" xr:uid="{D686D1DC-13D6-284C-B606-E087FAF47399}"/>
+    <hyperlink ref="C262" r:id="rId219" xr:uid="{D22C2394-C3CB-8F4F-A010-2B13C8C84D1A}"/>
+    <hyperlink ref="C263" r:id="rId220" xr:uid="{3AE2F800-B66F-1A41-893B-978F6875FDC8}"/>
+    <hyperlink ref="C264" r:id="rId221" xr:uid="{2C939BDE-5298-5541-837B-8C59D53A33C1}"/>
+    <hyperlink ref="C265" r:id="rId222" xr:uid="{691C9BD8-69D3-DA4B-AEB6-AF827B4ACA9F}"/>
+    <hyperlink ref="C266" r:id="rId223" xr:uid="{B6891E82-7C4D-424D-9219-3C9FD08E0053}"/>
+    <hyperlink ref="C267" r:id="rId224" xr:uid="{67A1AE98-62D2-644D-AC13-6CD76CF53CC0}"/>
+    <hyperlink ref="C268" r:id="rId225" xr:uid="{B59D4881-2A82-8F4D-B151-1E796C4923C8}"/>
+    <hyperlink ref="C269" r:id="rId226" xr:uid="{B3CBD023-5EFD-6048-9B3F-89F0C65CBBF5}"/>
+    <hyperlink ref="C270" r:id="rId227" xr:uid="{53EC42C4-22F7-0445-A0AC-7275A59A2672}"/>
+    <hyperlink ref="C271" r:id="rId228" xr:uid="{A29575F3-CB24-5B4B-9538-D5212B2DC28B}"/>
+    <hyperlink ref="C272" r:id="rId229" xr:uid="{353A44DD-9E30-8F48-8E2B-8DAA07550470}"/>
+    <hyperlink ref="C273" r:id="rId230" xr:uid="{32AC291D-95A5-BE49-88E0-02677BF39CAC}"/>
+    <hyperlink ref="C274" r:id="rId231" xr:uid="{A84F22FF-AD10-A546-8998-B066C0EB2D5A}"/>
+    <hyperlink ref="C275" r:id="rId232" xr:uid="{4C5CAF84-9B94-FC44-8C6C-B3CC7257C1DB}"/>
+    <hyperlink ref="C276" r:id="rId233" xr:uid="{5DA775E2-C516-3B47-8C82-3CEE7CC0BDF9}"/>
+    <hyperlink ref="C277" r:id="rId234" xr:uid="{00B6AE5C-EF3F-0747-A280-3BF055362B4F}"/>
+    <hyperlink ref="C278" r:id="rId235" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." xr:uid="{BCBD0A7E-F3D0-E840-9375-AFD37C5CD41A}"/>
+    <hyperlink ref="C279" r:id="rId236" xr:uid="{47ABDDDB-F95F-8049-9FB3-1E71A7376DDE}"/>
+    <hyperlink ref="C280" r:id="rId237" xr:uid="{70BADFC9-7399-234D-99F6-4C5F02397C26}"/>
+    <hyperlink ref="C281" r:id="rId238" xr:uid="{63348580-70EF-EC47-BF49-8ECE9560D54E}"/>
+    <hyperlink ref="C282" r:id="rId239" xr:uid="{D5BD96B3-9EAB-1B47-AC87-5C47F6AD7F40}"/>
+    <hyperlink ref="C283" r:id="rId240" xr:uid="{74791141-3FB8-7540-B45B-9541AF0AE371}"/>
+    <hyperlink ref="C284" r:id="rId241" xr:uid="{88D53CD6-262A-7247-8E58-FE9FFF7ECC40}"/>
+    <hyperlink ref="C285" r:id="rId242" xr:uid="{4338A14D-4F7D-B943-A347-7F74EFCA0DB5}"/>
+    <hyperlink ref="C286" r:id="rId243" xr:uid="{6E0EF7A3-7341-284B-A0E3-4539B6EAFAF2}"/>
+    <hyperlink ref="C287" r:id="rId244" xr:uid="{D2D8D64F-E2D3-734E-AD45-3EFB9686555A}"/>
+    <hyperlink ref="C288" r:id="rId245" xr:uid="{04A2904A-73A0-7845-9868-2CCFE359AC68}"/>
+    <hyperlink ref="C289" r:id="rId246" xr:uid="{D3D35835-6BE3-4D41-AF6F-5FE442277A16}"/>
+    <hyperlink ref="C290" r:id="rId247" xr:uid="{F663D0FC-CFF0-BC4F-9D26-48C871A8E9FD}"/>
+    <hyperlink ref="C291" r:id="rId248" xr:uid="{DF544147-DA48-4041-A4E2-4A75106B771A}"/>
+    <hyperlink ref="C292" r:id="rId249" xr:uid="{50E4B716-239E-7946-843D-E8462591D128}"/>
+    <hyperlink ref="C293" r:id="rId250" xr:uid="{D368B3E5-7D12-FD48-AFF7-A4A614108940}"/>
+    <hyperlink ref="C296" r:id="rId251" xr:uid="{D5921FF1-FC1F-CA4B-A24E-AD69E1DEC14C}"/>
+    <hyperlink ref="C297" r:id="rId252" xr:uid="{C931D7E0-E032-7C4B-95F1-735D955FCB51}"/>
+    <hyperlink ref="C298" r:id="rId253" xr:uid="{5FBD4A8F-287C-2C46-9CAB-F7DBA67DEDDA}"/>
+    <hyperlink ref="C299" r:id="rId254" xr:uid="{12966DD6-41DD-A94B-8B2C-0AD7D2AD6FB0}"/>
+    <hyperlink ref="C300" r:id="rId255" xr:uid="{CF720C34-4554-2944-A818-020ABC9BF0F4}"/>
+    <hyperlink ref="C301" r:id="rId256" xr:uid="{75763F2A-16D7-DE43-8189-19623CE26370}"/>
+    <hyperlink ref="C302" r:id="rId257" xr:uid="{9263AA30-472A-0A4D-BADF-96D82BB9BFCC}"/>
+    <hyperlink ref="C303" r:id="rId258" xr:uid="{2EF025C3-75C8-564E-BA8B-708C32B0E602}"/>
+    <hyperlink ref="C304" r:id="rId259" xr:uid="{6BDFDCA9-3421-F24F-8EF2-A72742F0AC21}"/>
+    <hyperlink ref="C305" r:id="rId260" xr:uid="{D8447F99-5FF9-D544-99BB-E9969B4A38D7}"/>
+    <hyperlink ref="C306" r:id="rId261" xr:uid="{1DB7EFDA-6C7D-F546-9EE1-F61ED0F65209}"/>
+    <hyperlink ref="C307" r:id="rId262" xr:uid="{D1505609-27D1-784D-ACF6-AE9D0DA2E1B6}"/>
+    <hyperlink ref="C308" r:id="rId263" xr:uid="{6BFA7B45-17D0-4E49-85DA-23C7255A306D}"/>
+    <hyperlink ref="C309" r:id="rId264" xr:uid="{3324BA4A-30CA-5246-8C3C-6505A6987939}"/>
+    <hyperlink ref="C310" r:id="rId265" xr:uid="{894486AD-2B6D-5740-BCAF-0BA1AFF814B4}"/>
+    <hyperlink ref="C311" r:id="rId266" xr:uid="{C47B203B-8B5A-E740-8C86-0784AD28089E}"/>
+    <hyperlink ref="C312" r:id="rId267" xr:uid="{06DC2E54-7597-AE4D-ACDB-B8883A989A4F}"/>
+    <hyperlink ref="C313" r:id="rId268" xr:uid="{E3384259-7CA7-1C44-A66D-11346EE6742E}"/>
+    <hyperlink ref="C314" r:id="rId269" xr:uid="{A5B77769-38AF-3D47-A76B-311591B57D91}"/>
+    <hyperlink ref="C317" r:id="rId270" xr:uid="{9DB6976A-C646-1341-90E8-3A164521267A}"/>
+    <hyperlink ref="C318" r:id="rId271" xr:uid="{03C291F8-D19A-304B-9EF9-CF71A1F66E49}"/>
+    <hyperlink ref="C319" r:id="rId272" xr:uid="{7536415C-140B-9244-B0B2-23F3ED0B2D80}"/>
+    <hyperlink ref="C320" r:id="rId273" xr:uid="{7DBDA456-8AF6-DD43-9764-17D3959B8E8F}"/>
+    <hyperlink ref="C321" r:id="rId274" xr:uid="{BFC149AB-C15A-B648-9F6A-ECD3890B1918}"/>
+    <hyperlink ref="C322" r:id="rId275" xr:uid="{0482240B-FEE9-F746-8980-52BCB7BBB56E}"/>
+    <hyperlink ref="C323" r:id="rId276" xr:uid="{86D1231A-E7C8-4B45-99ED-2DB0EF71E190}"/>
+    <hyperlink ref="C324" r:id="rId277" xr:uid="{20B7CE89-CB37-0040-989F-C8D1BE2B8782}"/>
+    <hyperlink ref="C325" r:id="rId278" xr:uid="{4C8412C9-A47B-9244-A18B-741516BD1054}"/>
+    <hyperlink ref="C326" r:id="rId279" xr:uid="{511761D9-31CE-0B43-AFFD-C011C27ACC52}"/>
+    <hyperlink ref="C327" r:id="rId280" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." xr:uid="{6905F997-D048-1049-BA27-C48756603D1E}"/>
+    <hyperlink ref="C328" r:id="rId281" xr:uid="{E657AA82-7CFE-DB42-B20F-F63D8C25EAB6}"/>
+    <hyperlink ref="C329" r:id="rId282" xr:uid="{3E505033-58F3-8F4E-AB82-E12DBC226AEA}"/>
+    <hyperlink ref="C330" r:id="rId283" xr:uid="{749599E5-4972-7343-B13B-87E26F837470}"/>
+    <hyperlink ref="C331" r:id="rId284" xr:uid="{12AA88DC-22AB-5A49-B28C-F04C8E35A215}"/>
+    <hyperlink ref="C332" r:id="rId285" xr:uid="{5751F0A7-7D9D-4148-820B-5B9659DFE34F}"/>
+    <hyperlink ref="C333" r:id="rId286" xr:uid="{4CA2DBEE-B161-B84D-B3A9-B8BC1B598AF2}"/>
+    <hyperlink ref="C334" r:id="rId287" xr:uid="{A9C1E578-6594-954C-8785-8902E605FC7A}"/>
+    <hyperlink ref="C335" r:id="rId288" xr:uid="{3D45E9B8-6671-A747-8C18-51CF8883170A}"/>
+    <hyperlink ref="C336" r:id="rId289" xr:uid="{4F5EF748-8CD4-0F47-90CE-3C93755BF63D}"/>
+    <hyperlink ref="C337" r:id="rId290" xr:uid="{44053C08-5050-C84B-B016-069B1EF9A43D}"/>
+    <hyperlink ref="C338" r:id="rId291" xr:uid="{ABF38928-736B-1A49-8B8A-1DCA5AAECB2B}"/>
+    <hyperlink ref="C339" r:id="rId292" xr:uid="{52651FAF-F3DC-E949-8AF8-998B9724B7D1}"/>
+    <hyperlink ref="C340" r:id="rId293" xr:uid="{91C6CCEF-3FF7-2C42-B5A0-8F4A403ED198}"/>
+    <hyperlink ref="C341" r:id="rId294" xr:uid="{15C8AF08-1A79-F949-9BE7-DD240CBD9861}"/>
+    <hyperlink ref="C342" r:id="rId295" xr:uid="{1904F984-5B22-8D46-BC33-3073B390E8F9}"/>
+    <hyperlink ref="C343" r:id="rId296" xr:uid="{A8BFB3A4-426B-E646-BCF0-FE19C8CD07A9}"/>
+    <hyperlink ref="C344" r:id="rId297" xr:uid="{FBBA29BB-885B-744A-A644-58EDCA7B140A}"/>
+    <hyperlink ref="C345" r:id="rId298" xr:uid="{75411687-6884-AC42-8B4A-1348C4837365}"/>
+    <hyperlink ref="C346" r:id="rId299" xr:uid="{A89ED8DF-F678-FE43-808C-C190721379BF}"/>
+    <hyperlink ref="C347" r:id="rId300" xr:uid="{1516834D-F3B2-1743-8811-263E11BBDEF8}"/>
+    <hyperlink ref="C348" r:id="rId301" xr:uid="{1659AB91-08CA-E44D-988D-E9D9A746D406}"/>
+    <hyperlink ref="C349" r:id="rId302" xr:uid="{E844BC1D-9713-9F4D-B0A4-1124A9952D14}"/>
+    <hyperlink ref="C350" r:id="rId303" xr:uid="{DCE2AAEF-8D8E-1843-BFE9-E9B7E13854EB}"/>
+    <hyperlink ref="C351" r:id="rId304" xr:uid="{836B3BF0-7711-7D41-9E72-914C1871397F}"/>
+    <hyperlink ref="C352" r:id="rId305" xr:uid="{F450CF9B-CA59-1443-8163-13F1121DCF12}"/>
+    <hyperlink ref="C353" r:id="rId306" xr:uid="{1539C3E8-4854-3C4F-A7B3-55BF931F1E2A}"/>
+    <hyperlink ref="C354" r:id="rId307" xr:uid="{04F1FC5F-5DA1-0144-962D-B38C1C41F0F4}"/>
+    <hyperlink ref="C357" r:id="rId308" xr:uid="{B21618F4-70E2-C549-80B7-7CF915679E0A}"/>
+    <hyperlink ref="C358" r:id="rId309" xr:uid="{EEDFBF11-C1E4-0847-9D56-94A72D97AEE7}"/>
+    <hyperlink ref="C359" r:id="rId310" xr:uid="{F5C0EDF1-7EAC-8849-8D27-C3389913BFC6}"/>
+    <hyperlink ref="C360" r:id="rId311" xr:uid="{50175B29-124F-4E4E-8E98-961BD3320359}"/>
+    <hyperlink ref="C361" r:id="rId312" xr:uid="{1BE23822-8512-014F-9154-F6EDA4FC8428}"/>
+    <hyperlink ref="C362" r:id="rId313" xr:uid="{38EC228E-ABFF-3542-9CFB-3DDFC628E9D0}"/>
+    <hyperlink ref="C363" r:id="rId314" xr:uid="{73F240F8-C469-454E-BA5C-CFF2F7A7A5F6}"/>
+    <hyperlink ref="C364" r:id="rId315" xr:uid="{3BBD1BAC-68C7-A94A-9063-AF62B5C837FD}"/>
+    <hyperlink ref="C365" r:id="rId316" xr:uid="{F9751D9B-2689-E24B-9FC3-CA32FE888708}"/>
+    <hyperlink ref="C366" r:id="rId317" xr:uid="{73C61D6A-D97C-B944-8B27-BB91564AB0D7}"/>
+    <hyperlink ref="C367" r:id="rId318" xr:uid="{936E077C-C016-A04F-895A-782D6D9D9433}"/>
+    <hyperlink ref="C368" r:id="rId319" xr:uid="{5454A2A1-6607-BE48-9215-CB8965EC3568}"/>
+    <hyperlink ref="C369" r:id="rId320" xr:uid="{FC1EAA10-F7ED-6B42-A79B-3D8B44E2C8B3}"/>
+    <hyperlink ref="C370" r:id="rId321" xr:uid="{FDB7F712-4A42-1048-8929-A1E752B07C6A}"/>
+    <hyperlink ref="C371" r:id="rId322" xr:uid="{AF3ACA60-0B0E-E146-B51F-A2CD05EB6549}"/>
+    <hyperlink ref="C372" r:id="rId323" xr:uid="{BB63E040-7A1A-E046-9BDD-9CBD1DA89DE9}"/>
+    <hyperlink ref="C373" r:id="rId324" xr:uid="{9AF8FD93-CCC9-D540-AE9A-00583F309649}"/>
+    <hyperlink ref="C374" r:id="rId325" xr:uid="{66A746A0-71FE-E546-92B7-D1C3D582E067}"/>
+    <hyperlink ref="C378" r:id="rId326" xr:uid="{BD79CCE1-5315-3944-9F9B-618615EC4583}"/>
+    <hyperlink ref="C379" r:id="rId327" xr:uid="{A5068A51-C961-6847-BB27-40A850B6D393}"/>
+    <hyperlink ref="C380" r:id="rId328" xr:uid="{6B8D36F0-E796-B944-A456-E8A9E2EE0BDB}"/>
+    <hyperlink ref="C381" r:id="rId329" xr:uid="{776652B7-2C11-4641-BF6A-EABEEB9B55AB}"/>
+    <hyperlink ref="C382" r:id="rId330" xr:uid="{95C6B35D-712A-2343-B790-236B55C5EC49}"/>
+    <hyperlink ref="C383" r:id="rId331" xr:uid="{4ED53872-1FE9-F140-AA35-F228F762880B}"/>
+    <hyperlink ref="C384" r:id="rId332" xr:uid="{6D5E6A28-85AA-BF4C-B2BD-9378D6E28EC7}"/>
+    <hyperlink ref="C385" r:id="rId333" xr:uid="{BCAD1ECB-15EE-CF49-878E-AA682DE3AC22}"/>
+    <hyperlink ref="C386" r:id="rId334" xr:uid="{C85468B5-25E9-E446-808E-72CFE911F0C2}"/>
+    <hyperlink ref="C387" r:id="rId335" xr:uid="{9503AECA-1A6A-9640-A04C-4CEAA2304448}"/>
+    <hyperlink ref="C388" r:id="rId336" xr:uid="{74211516-06B0-AA45-845B-52C8202751DA}"/>
+    <hyperlink ref="C389" r:id="rId337" xr:uid="{02C696BC-4B91-9444-900F-9CD68E409ABC}"/>
+    <hyperlink ref="C390" r:id="rId338" xr:uid="{04646C45-4118-374C-839D-94D31D534FAC}"/>
+    <hyperlink ref="C391" r:id="rId339" xr:uid="{F90BCCAE-8596-FC4D-BDD7-774392C596DF}"/>
+    <hyperlink ref="C392" r:id="rId340" xr:uid="{65230925-36EC-8A4B-8E46-6350B9BC0F95}"/>
+    <hyperlink ref="C393" r:id="rId341" xr:uid="{E91B8177-0C7A-1F40-BD34-4CC60F03B84F}"/>
+    <hyperlink ref="C394" r:id="rId342" xr:uid="{E8CBFD60-7335-0B4D-9FF5-99B4A8DC551D}"/>
+    <hyperlink ref="C395" r:id="rId343" xr:uid="{A35F55D4-9B87-C745-94DB-E7D820193C30}"/>
+    <hyperlink ref="C396" r:id="rId344" xr:uid="{6461A29F-D404-334F-B13F-296B4CA5E8A4}"/>
+    <hyperlink ref="C397" r:id="rId345" xr:uid="{FA9B4BE7-85CC-B24F-9461-5E9B42DDD824}"/>
+    <hyperlink ref="C398" r:id="rId346" xr:uid="{A75ACEA2-CDF6-A147-8540-A6DF55B15F45}"/>
+    <hyperlink ref="C399" r:id="rId347" xr:uid="{62FF87E2-E658-AB4D-AC57-7BCF9D49516E}"/>
+    <hyperlink ref="C400" r:id="rId348" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." xr:uid="{269338A6-5145-6944-9F7F-BD2A86DFA308}"/>
+    <hyperlink ref="C401" r:id="rId349" xr:uid="{8F583049-CE8D-CD42-88CD-CF3857942670}"/>
+    <hyperlink ref="C402" r:id="rId350" xr:uid="{EE2348AD-E296-894A-B5AE-5884A3C5E419}"/>
+    <hyperlink ref="C403" r:id="rId351" xr:uid="{6EACB34E-B32E-8F43-8055-2406F7417A7E}"/>
+    <hyperlink ref="C404" r:id="rId352" xr:uid="{2446F10A-B762-B64C-97B2-6131A0BECC1F}"/>
+    <hyperlink ref="C405" r:id="rId353" xr:uid="{6FDFCC53-17A6-7244-88A7-49406D7C9200}"/>
+    <hyperlink ref="C406" r:id="rId354" xr:uid="{3EC43646-EAB1-E443-A2F6-8E6E5FC77083}"/>
+    <hyperlink ref="C407" r:id="rId355" xr:uid="{659D9F20-C862-C947-B422-84143CFE317F}"/>
+    <hyperlink ref="C408" r:id="rId356" xr:uid="{3F5192FE-1C50-C049-88D5-68FA0F5430A0}"/>
+    <hyperlink ref="C409" r:id="rId357" xr:uid="{5EAD7CDA-9545-454B-BE77-9AFEC6AC1083}"/>
+    <hyperlink ref="C410" r:id="rId358" xr:uid="{761E5451-736B-6745-9CF5-4C6EF5D4C099}"/>
+    <hyperlink ref="C411" r:id="rId359" xr:uid="{4C8677A9-D94C-134F-AF31-E424751BF867}"/>
+    <hyperlink ref="C412" r:id="rId360" xr:uid="{CCF7920F-D5CE-004A-86C3-D821FB230970}"/>
+    <hyperlink ref="C413" r:id="rId361" xr:uid="{B4C07A0A-1EDD-7947-9646-3FD603441AD7}"/>
+    <hyperlink ref="C414" r:id="rId362" xr:uid="{49F7BB43-6851-0641-9DC5-27DBC66706F6}"/>
+    <hyperlink ref="C415" r:id="rId363" xr:uid="{77038647-48C7-5547-8E0F-898610362465}"/>
+    <hyperlink ref="C417" r:id="rId364" xr:uid="{EEFFE19C-6571-C64F-A0E1-5A4A700D94D4}"/>
+    <hyperlink ref="C416" r:id="rId365" xr:uid="{A4A2BFC4-6B88-2E4E-B362-17D8EE041C89}"/>
+    <hyperlink ref="C418" r:id="rId366" xr:uid="{DC5B603A-8D65-3648-A08A-E5FFA0FAE879}"/>
+    <hyperlink ref="C419" r:id="rId367" xr:uid="{F8807DD9-F4F2-B147-9C31-DBC93B2E477B}"/>
+    <hyperlink ref="C420" r:id="rId368" xr:uid="{6F7B396C-D7E9-C04E-BAE2-53D2EE07172B}"/>
+    <hyperlink ref="C423" r:id="rId369" xr:uid="{0D4A5941-C669-4A49-BAE3-9B553D03BD0F}"/>
+    <hyperlink ref="C424" r:id="rId370" xr:uid="{54144336-5BCA-D749-962A-E448C2CED3D3}"/>
+    <hyperlink ref="C425" r:id="rId371" xr:uid="{3A41DD21-CACF-1F48-A7C7-F568C6F31F3E}"/>
+    <hyperlink ref="C426" r:id="rId372" xr:uid="{A36160A8-F45E-3443-9645-42C1004B8F8C}"/>
+    <hyperlink ref="C427" r:id="rId373" xr:uid="{8B0A00A3-6AC0-DF46-AD87-A4DA016A2A00}"/>
+    <hyperlink ref="C428" r:id="rId374" xr:uid="{62A81CB4-A961-C543-B31C-92059DB6C105}"/>
+    <hyperlink ref="C431" r:id="rId375" xr:uid="{08030975-009C-C34A-A875-72FE2718F44C}"/>
+    <hyperlink ref="C432" r:id="rId376" xr:uid="{A113C7A9-2359-B643-9C08-E845813439C0}"/>
+    <hyperlink ref="C433" r:id="rId377" xr:uid="{FE300343-4633-AD47-A64D-2086629EB398}"/>
+    <hyperlink ref="C434" r:id="rId378" xr:uid="{4FC9F782-D38F-C642-A863-887B17AD05CD}"/>
+    <hyperlink ref="C435" r:id="rId379" xr:uid="{830C5466-10E3-7A48-B3E7-35C15A1CA4EF}"/>
+    <hyperlink ref="C436" r:id="rId380" xr:uid="{1B987077-E9D3-6F40-89EE-0D4E7180D884}"/>
+    <hyperlink ref="C437" r:id="rId381" xr:uid="{D4843E1F-7226-864E-A4BB-264D5A487B6D}"/>
+    <hyperlink ref="C438" r:id="rId382" xr:uid="{61816592-2D19-9946-8253-47A60218F2EA}"/>
+    <hyperlink ref="C439" r:id="rId383" xr:uid="{736C840F-19A3-0A4B-8863-ECB772B46385}"/>
+    <hyperlink ref="C440" r:id="rId384" xr:uid="{05A238AD-3C5B-C546-94E9-75BBF964711A}"/>
+    <hyperlink ref="C441" r:id="rId385" xr:uid="{7029629C-3F2A-4A49-997B-CFE86EC8B3C2}"/>
+    <hyperlink ref="C442" r:id="rId386" xr:uid="{ADA66B57-2FAC-AB42-BD83-4931708F3AB5}"/>
+    <hyperlink ref="C443" r:id="rId387" xr:uid="{F16BF1F9-755B-B045-B9A8-0B97E3BAC8B0}"/>
+    <hyperlink ref="C444" r:id="rId388" xr:uid="{ECCE930A-B960-234C-81EC-4B8514282AE9}"/>
+    <hyperlink ref="C445" r:id="rId389" xr:uid="{7AA58141-7D24-7C42-A0C1-F852B21CFFD9}"/>
+    <hyperlink ref="C446" r:id="rId390" xr:uid="{B1FCB47D-7921-3446-B2C7-72CBA815D056}"/>
+    <hyperlink ref="C447" r:id="rId391" xr:uid="{8C547719-AA03-3543-B31F-7300674AF4C5}"/>
+    <hyperlink ref="C448" r:id="rId392" xr:uid="{09922668-AFC0-F242-860E-9967E0F0FEF4}"/>
+    <hyperlink ref="C449" r:id="rId393" xr:uid="{0DA963DA-238B-D44E-9E03-6E6BD933B35E}"/>
+    <hyperlink ref="C450" r:id="rId394" xr:uid="{89518AFF-2526-C845-BC9D-95FE77AF416E}"/>
+    <hyperlink ref="C451" r:id="rId395" xr:uid="{FAECBBBE-196C-7A41-A0FB-E0597CB2CF51}"/>
+    <hyperlink ref="C452" r:id="rId396" xr:uid="{8126B039-0B25-B040-A0F6-C3457341A2E9}"/>
+    <hyperlink ref="C453" r:id="rId397" xr:uid="{6CB326E6-E698-EB42-884B-C89FFA33E3BA}"/>
+    <hyperlink ref="C454" r:id="rId398" xr:uid="{8C97EFD1-933F-A44F-A1CF-6386233104A2}"/>
+    <hyperlink ref="C455" r:id="rId399" xr:uid="{8F019F07-8532-E147-8BE1-4EBE833F61CA}"/>
+    <hyperlink ref="C456" r:id="rId400" xr:uid="{00F1A08F-3767-784A-97A3-4603DE38BACC}"/>
+    <hyperlink ref="C457" r:id="rId401" xr:uid="{2A84ADCB-071F-9A48-994D-7A838307EFD8}"/>
+    <hyperlink ref="C458" r:id="rId402" xr:uid="{132F8C6D-D5E8-6440-AC4E-B81EA2100416}"/>
+    <hyperlink ref="C459" r:id="rId403" xr:uid="{2DA6EAC2-1A1D-754F-9613-226CBC7890AF}"/>
+    <hyperlink ref="C460" r:id="rId404" xr:uid="{05BED99A-4562-D14E-8627-D07CF5335A9B}"/>
+    <hyperlink ref="C461" r:id="rId405" xr:uid="{111D902A-3F60-2D4B-89D3-5BCBD8AA38DD}"/>
+    <hyperlink ref="C462" r:id="rId406" xr:uid="{F19236BE-AC32-3542-9214-DFC3BAE04ED0}"/>
+    <hyperlink ref="C463" r:id="rId407" xr:uid="{4D97CD96-EA1B-664E-9380-EFD27077D273}"/>
+    <hyperlink ref="C464" r:id="rId408" xr:uid="{49A46D91-633F-A148-ACFA-49B7D1AA4B33}"/>
+    <hyperlink ref="C465" r:id="rId409" xr:uid="{7C3B7901-67E3-EA4D-BC64-21A78BC03AC6}"/>
+    <hyperlink ref="C466" r:id="rId410" xr:uid="{B27CA8C3-D34F-5E4D-94A5-11D14AFD0F82}"/>
+    <hyperlink ref="C467" r:id="rId411" xr:uid="{8FECE038-9764-5E4A-8C6E-9B3209812651}"/>
+    <hyperlink ref="C468" r:id="rId412" xr:uid="{95696D4B-89CB-5640-BE92-53B3C043F7EB}"/>
+    <hyperlink ref="C469" r:id="rId413" xr:uid="{DA74B737-802A-4944-A93E-0B9C8417630B}"/>
+    <hyperlink ref="C470" r:id="rId414" xr:uid="{B2C4C168-50FA-AF41-8F56-9E70613CF17D}"/>
+    <hyperlink ref="C472" r:id="rId415" xr:uid="{B7090C60-AC27-3F4F-8F0D-42F0791928C6}"/>
+    <hyperlink ref="C471" r:id="rId416" xr:uid="{07400041-66C6-514B-B3E3-427F2947C2B7}"/>
+    <hyperlink ref="C473" r:id="rId417" xr:uid="{B7E78172-8FB8-4E42-87D8-6A4654D79C62}"/>
+    <hyperlink ref="C474" r:id="rId418" xr:uid="{9A5D4670-BC64-334A-88CF-6F8287692C5E}"/>
+    <hyperlink ref="C475" r:id="rId419" xr:uid="{604283B6-53BC-044F-8D9D-E6094E798317}"/>
+    <hyperlink ref="C476" r:id="rId420" xr:uid="{5EB15AC7-3E0E-E44C-A5B9-32F30F234B5A}"/>
+    <hyperlink ref="C477" r:id="rId421" xr:uid="{3076BD5F-4B23-4146-A50A-499C9FF4C3D2}"/>
+    <hyperlink ref="C478" r:id="rId422" xr:uid="{6A29D9C2-1E78-1B43-A251-0AB0A97FA70E}"/>
+    <hyperlink ref="C479" r:id="rId423" xr:uid="{00597D5E-D693-DF4E-84C0-47E58A6ACA8F}"/>
+    <hyperlink ref="C480" r:id="rId424" xr:uid="{48640988-9964-0B4C-A014-83E2CEB3D632}"/>
+    <hyperlink ref="C481" r:id="rId425" xr:uid="{617AADC9-7534-FE45-96B0-EF4C1867B793}"/>
+    <hyperlink ref="C482" r:id="rId426" xr:uid="{7F8CDAA4-5094-8E4E-961B-41CDE5ACC0C0}"/>
+    <hyperlink ref="C483" r:id="rId427" xr:uid="{63F28ABD-12CF-5947-80DA-229E3CA3133E}"/>
+    <hyperlink ref="C490" r:id="rId428" xr:uid="{0A1DB92C-3315-1942-B27D-4B90986A6D9D}"/>
+    <hyperlink ref="C489" r:id="rId429" xr:uid="{11738B67-CADD-5D45-8417-8BE7A03FC79F}"/>
+    <hyperlink ref="C488" r:id="rId430" xr:uid="{B2B23748-D9E4-BE4F-A93E-49ECB4063831}"/>
+    <hyperlink ref="C487" r:id="rId431" xr:uid="{A2FB8A72-37B9-7E4A-B050-FD6CD20BCE73}"/>
+    <hyperlink ref="C486" r:id="rId432" xr:uid="{5A93C9AF-BFEB-EB40-95AC-C309ED09A604}"/>
+    <hyperlink ref="C485" r:id="rId433" xr:uid="{CC203923-2DC2-874B-B846-A8455E3CC2F2}"/>
+    <hyperlink ref="C484" r:id="rId434" xr:uid="{FCB0246E-0179-B447-B3CE-C60CDB388472}"/>
+    <hyperlink ref="C493" r:id="rId435" xr:uid="{F06CEE72-8CA4-C547-862C-39B86CD3226A}"/>
+    <hyperlink ref="C494" r:id="rId436" xr:uid="{CB3045F2-8D63-0F4E-85BC-AF016DB4F247}"/>
+    <hyperlink ref="C495" r:id="rId437" xr:uid="{667D57F5-E5AD-674F-A2F5-AFF4A14E4026}"/>
+    <hyperlink ref="C496" r:id="rId438" xr:uid="{27A13A65-56CE-BF4D-BA0D-EB87D910272D}"/>
+    <hyperlink ref="C497" r:id="rId439" xr:uid="{2C72A52E-6F06-0246-AEB5-93CD0DEA8866}"/>
+    <hyperlink ref="C498" r:id="rId440" xr:uid="{24B29046-B4DD-674B-9EDF-6C94BEC3FDD8}"/>
+    <hyperlink ref="C499" r:id="rId441" xr:uid="{D018EBC3-3FB3-AC4D-9D64-D218345A46C8}"/>
+    <hyperlink ref="C502" r:id="rId442" xr:uid="{1E1D3964-01E0-3145-ACFE-B6A5BF0EECB0}"/>
+    <hyperlink ref="C500" r:id="rId443" xr:uid="{FA0E5061-A7E2-C045-9671-1CD9446D1932}"/>
+    <hyperlink ref="C501" r:id="rId444" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{92704F5B-7B31-2F42-80DD-764B2206D9DB}"/>
+    <hyperlink ref="C377" r:id="rId445" xr:uid="{A48B1A24-83B1-7A4C-8129-CD37804DF849}"/>
+    <hyperlink ref="C28" r:id="rId446" display="Write a Program to sort array Using Quick Sort_files" xr:uid="{F0DDC999-C321-4AB4-BA9D-7538150E84D3}"/>
     <hyperlink ref="C12" r:id="rId447" xr:uid="{310D755F-0FAF-4086-8950-B58917F7CAF8}"/>
     <hyperlink ref="C11" r:id="rId448" xr:uid="{6913685B-862A-49D7-AB28-593B13669931}"/>
     <hyperlink ref="C13" r:id="rId449" xr:uid="{E2555AFC-8C22-4A69-A028-B6C7E7796509}"/>
     <hyperlink ref="C14" r:id="rId450" display="Wrute a Program to Find trailing Number of Zeros in Factorial of a Number" xr:uid="{4399CE2A-7FD8-4B12-B4C8-C7E9B23BBC9F}"/>
-    <hyperlink ref="C15" r:id="rId451" xr:uid="{6EFA894A-D33E-4C0B-BE93-0E75656CC712}"/>
-    <hyperlink ref="C16" r:id="rId452" xr:uid="{10515421-DC78-49D9-8A73-CC3D6D10A7C9}"/>
-    <hyperlink ref="C17" r:id="rId453" xr:uid="{C5C55CCE-6CD7-4A50-85E4-47BB53BE165C}"/>
+    <hyperlink ref="C16" r:id="rId451" xr:uid="{6EFA894A-D33E-4C0B-BE93-0E75656CC712}"/>
+    <hyperlink ref="C17" r:id="rId452" xr:uid="{10515421-DC78-49D9-8A73-CC3D6D10A7C9}"/>
+    <hyperlink ref="C18" r:id="rId453" xr:uid="{C5C55CCE-6CD7-4A50-85E4-47BB53BE165C}"/>
+    <hyperlink ref="C19" r:id="rId454" xr:uid="{14814E78-7861-4C6A-81CF-8953C1484276}"/>
+    <hyperlink ref="C20" r:id="rId455" xr:uid="{87943FC1-A069-4989-8B78-B463D290AF94}"/>
+    <hyperlink ref="C21" r:id="rId456" xr:uid="{D825528B-18AF-463A-AA31-760F76F78A15}"/>
+    <hyperlink ref="C15" r:id="rId457" xr:uid="{027E7E1D-0C53-4A77-9662-F495CEC3BAC4}"/>
+    <hyperlink ref="C24" r:id="rId458" xr:uid="{394D268B-F042-4D5E-8945-7C021567FDBC}"/>
+    <hyperlink ref="C23" r:id="rId459" xr:uid="{A00A42BF-18C8-47DB-A23E-C835CF3A1B72}"/>
+    <hyperlink ref="C22" r:id="rId460" xr:uid="{B7A6DAE3-6E86-4612-A1FF-539F5C6D3E1D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId454"/>
+  <pageSetup orientation="portrait" r:id="rId461"/>
 </worksheet>
 </file>
--- a/DSA Sheet.xlsx
+++ b/DSA Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Java\Java-DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49FE52F6-52B8-4F95-912E-ED756A62EB9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C50870B3-F418-4049-ACB2-F263CAD8CDA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22140" windowHeight="13176" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1410" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418" uniqueCount="503">
   <si>
     <t>Topic:</t>
   </si>
@@ -1461,9 +1461,6 @@
     <t>Write a Program To check whether a Given Number is Pallindrome or Not without any extra space</t>
   </si>
   <si>
-    <t>PN0MATH</t>
-  </si>
-  <si>
     <t>Write a Program to Find Factorial of a Given Number</t>
   </si>
   <si>
@@ -1528,6 +1525,15 @@
   </si>
   <si>
     <t>Write a Program to sort array Using Quick Sort Lomudo Method</t>
+  </si>
+  <si>
+    <t>PP</t>
+  </si>
+  <si>
+    <t>PD0MATH</t>
+  </si>
+  <si>
+    <t>Revision</t>
   </si>
 </sst>
 </file>
@@ -2005,10 +2011,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
-  <dimension ref="A1:F503"/>
+  <dimension ref="A1:F500"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="21"/>
@@ -2042,72 +2048,103 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1"/>
-      <c r="D5" s="8"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="8" t="s">
-        <v>474</v>
-      </c>
-      <c r="D6" s="8"/>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>502</v>
+      </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="8" t="s">
-        <v>474</v>
-      </c>
-      <c r="D7" s="8"/>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="2"/>
+      <c r="F7" s="13"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="8" t="s">
         <v>474</v>
       </c>
+      <c r="B8" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>472</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="8" t="s">
         <v>474</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="14"/>
+        <v>501</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>472</v>
+      </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>474</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
-      <c r="F10" s="13"/>
+      <c r="B10" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>472</v>
+      </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="8" t="s">
         <v>474</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="9" t="s">
         <v>474</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>478</v>
+        <v>494</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>477</v>
+        <v>493</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>472</v>
@@ -2118,38 +2155,38 @@
         <v>474</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>479</v>
+        <v>481</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>483</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="8" t="s">
         <v>474</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="8" t="s">
         <v>474</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>472</v>
@@ -2160,10 +2197,10 @@
         <v>474</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>482</v>
+        <v>500</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>472</v>
@@ -2173,102 +2210,110 @@
       <c r="A17" s="9" t="s">
         <v>474</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>485</v>
-      </c>
+      <c r="B17" s="1"/>
       <c r="C17" s="5" t="s">
-        <v>486</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>472</v>
-      </c>
+        <v>489</v>
+      </c>
+      <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="9" t="s">
         <v>474</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>487</v>
-      </c>
+      <c r="B18" s="1"/>
       <c r="C18" s="5" t="s">
-        <v>488</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>472</v>
-      </c>
+        <v>490</v>
+      </c>
+      <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="9" t="s">
         <v>474</v>
       </c>
-      <c r="B19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>500</v>
+      </c>
       <c r="C19" s="5" t="s">
-        <v>489</v>
-      </c>
-      <c r="D19" s="3"/>
+        <v>495</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>472</v>
+      </c>
     </row>
     <row r="20" spans="1:4">
+      <c r="A20" s="9" t="s">
+        <v>474</v>
+      </c>
       <c r="B20" s="1"/>
       <c r="C20" s="5" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="11" t="s">
-        <v>4</v>
+      <c r="A21" s="9" t="s">
+        <v>474</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="5" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="5" t="s">
-        <v>496</v>
-      </c>
-      <c r="D22" s="3"/>
+      <c r="D22" s="8"/>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="5" t="s">
-        <v>492</v>
-      </c>
-      <c r="D23" s="3"/>
+      <c r="B23" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>472</v>
+      </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="5" t="s">
-        <v>493</v>
-      </c>
-      <c r="D24" s="3"/>
+      <c r="B24" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>472</v>
+      </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D25" s="8"/>
+      <c r="B25" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>499</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>472</v>
+      </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>465</v>
+        <v>496</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>5</v>
+        <v>498</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>472</v>
@@ -2279,13 +2324,13 @@
         <v>4</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>472</v>
+        <v>7</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2293,13 +2338,13 @@
         <v>4</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>498</v>
+        <v>468</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>500</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>472</v>
+        <v>8</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2307,13 +2352,13 @@
         <v>4</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>497</v>
+        <v>469</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>499</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>472</v>
+        <v>9</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2321,13 +2366,13 @@
         <v>4</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>473</v>
+        <v>10</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2335,10 +2380,10 @@
         <v>4</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>3</v>
@@ -2348,11 +2393,9 @@
       <c r="A32" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B32" s="11" t="s">
-        <v>469</v>
-      </c>
+      <c r="B32" s="11"/>
       <c r="C32" s="12" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>3</v>
@@ -2362,11 +2405,9 @@
       <c r="A33" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="11" t="s">
-        <v>470</v>
-      </c>
+      <c r="B33" s="11"/>
       <c r="C33" s="12" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>3</v>
@@ -2376,11 +2417,9 @@
       <c r="A34" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B34" s="11" t="s">
-        <v>471</v>
-      </c>
+      <c r="B34" s="11"/>
       <c r="C34" s="12" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>3</v>
@@ -2392,7 +2431,7 @@
       </c>
       <c r="B35" s="11"/>
       <c r="C35" s="12" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>3</v>
@@ -2404,7 +2443,7 @@
       </c>
       <c r="B36" s="11"/>
       <c r="C36" s="12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>3</v>
@@ -2416,7 +2455,7 @@
       </c>
       <c r="B37" s="11"/>
       <c r="C37" s="12" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>3</v>
@@ -2428,7 +2467,7 @@
       </c>
       <c r="B38" s="11"/>
       <c r="C38" s="12" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>3</v>
@@ -2440,7 +2479,7 @@
       </c>
       <c r="B39" s="11"/>
       <c r="C39" s="12" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>3</v>
@@ -2452,7 +2491,7 @@
       </c>
       <c r="B40" s="11"/>
       <c r="C40" s="12" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>3</v>
@@ -2464,7 +2503,7 @@
       </c>
       <c r="B41" s="11"/>
       <c r="C41" s="12" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>3</v>
@@ -2476,7 +2515,7 @@
       </c>
       <c r="B42" s="11"/>
       <c r="C42" s="12" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>3</v>
@@ -2488,7 +2527,7 @@
       </c>
       <c r="B43" s="11"/>
       <c r="C43" s="12" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D43" s="8" t="s">
         <v>3</v>
@@ -2500,7 +2539,7 @@
       </c>
       <c r="B44" s="11"/>
       <c r="C44" s="12" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D44" s="8" t="s">
         <v>3</v>
@@ -2512,7 +2551,7 @@
       </c>
       <c r="B45" s="11"/>
       <c r="C45" s="12" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D45" s="8" t="s">
         <v>3</v>
@@ -2524,7 +2563,7 @@
       </c>
       <c r="B46" s="11"/>
       <c r="C46" s="12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D46" s="8" t="s">
         <v>3</v>
@@ -2536,7 +2575,7 @@
       </c>
       <c r="B47" s="11"/>
       <c r="C47" s="12" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D47" s="8" t="s">
         <v>3</v>
@@ -2548,7 +2587,7 @@
       </c>
       <c r="B48" s="11"/>
       <c r="C48" s="12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D48" s="8" t="s">
         <v>3</v>
@@ -2560,7 +2599,7 @@
       </c>
       <c r="B49" s="11"/>
       <c r="C49" s="12" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D49" s="8" t="s">
         <v>3</v>
@@ -2572,7 +2611,7 @@
       </c>
       <c r="B50" s="11"/>
       <c r="C50" s="12" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D50" s="8" t="s">
         <v>3</v>
@@ -2584,7 +2623,7 @@
       </c>
       <c r="B51" s="11"/>
       <c r="C51" s="12" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D51" s="8" t="s">
         <v>3</v>
@@ -2596,7 +2635,7 @@
       </c>
       <c r="B52" s="11"/>
       <c r="C52" s="12" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D52" s="8" t="s">
         <v>3</v>
@@ -2608,7 +2647,7 @@
       </c>
       <c r="B53" s="11"/>
       <c r="C53" s="12" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>3</v>
@@ -2620,7 +2659,7 @@
       </c>
       <c r="B54" s="11"/>
       <c r="C54" s="12" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D54" s="8" t="s">
         <v>3</v>
@@ -2632,7 +2671,7 @@
       </c>
       <c r="B55" s="11"/>
       <c r="C55" s="12" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D55" s="8" t="s">
         <v>3</v>
@@ -2644,7 +2683,7 @@
       </c>
       <c r="B56" s="11"/>
       <c r="C56" s="12" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D56" s="8" t="s">
         <v>3</v>
@@ -2656,7 +2695,7 @@
       </c>
       <c r="B57" s="11"/>
       <c r="C57" s="12" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D57" s="8" t="s">
         <v>3</v>
@@ -2668,51 +2707,44 @@
       </c>
       <c r="B58" s="11"/>
       <c r="C58" s="12" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D58" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:4">
+      <c r="A59" s="11" t="s">
+        <v>4</v>
+      </c>
       <c r="B59" s="11"/>
       <c r="C59" s="12" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D59" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="11"/>
+      <c r="A60" s="11" t="s">
+        <v>4</v>
+      </c>
       <c r="B60" s="11"/>
       <c r="C60" s="12" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D60" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B61" s="11"/>
-      <c r="C61" s="12" t="s">
-        <v>38</v>
-      </c>
       <c r="D61" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="8" t="s">
-        <v>41</v>
-      </c>
+      <c r="A62" s="11"/>
       <c r="B62" s="11"/>
-      <c r="C62" s="12" t="s">
-        <v>39</v>
-      </c>
       <c r="D62" s="8" t="s">
         <v>3</v>
       </c>
@@ -2721,9 +2753,9 @@
       <c r="A63" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B63" s="11"/>
+      <c r="B63" s="8"/>
       <c r="C63" s="12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D63" s="8" t="s">
         <v>3</v>
@@ -2733,6 +2765,10 @@
       <c r="A64" s="8" t="s">
         <v>41</v>
       </c>
+      <c r="B64" s="8"/>
+      <c r="C64" s="12" t="s">
+        <v>43</v>
+      </c>
       <c r="D64" s="8" t="s">
         <v>3</v>
       </c>
@@ -2741,7 +2777,10 @@
       <c r="A65" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B65" s="11"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="12" t="s">
+        <v>44</v>
+      </c>
       <c r="D65" s="8" t="s">
         <v>3</v>
       </c>
@@ -2752,7 +2791,7 @@
       </c>
       <c r="B66" s="8"/>
       <c r="C66" s="12" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D66" s="8" t="s">
         <v>3</v>
@@ -2764,7 +2803,7 @@
       </c>
       <c r="B67" s="8"/>
       <c r="C67" s="12" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D67" s="8" t="s">
         <v>3</v>
@@ -2776,7 +2815,7 @@
       </c>
       <c r="B68" s="8"/>
       <c r="C68" s="12" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D68" s="8" t="s">
         <v>3</v>
@@ -2788,7 +2827,7 @@
       </c>
       <c r="B69" s="8"/>
       <c r="C69" s="12" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D69" s="8" t="s">
         <v>3</v>
@@ -2800,62 +2839,48 @@
       </c>
       <c r="B70" s="8"/>
       <c r="C70" s="12" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D70" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:4">
+      <c r="A71" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="B71" s="8"/>
       <c r="C71" s="12" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D71" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="11"/>
+      <c r="A72" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="B72" s="8"/>
       <c r="C72" s="12" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D72" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="B73" s="8"/>
-      <c r="C73" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="D73" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="B74" s="8"/>
-      <c r="C74" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D74" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="A74" s="11"/>
+      <c r="B74" s="11"/>
+      <c r="D74" s="8"/>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B75" s="8"/>
+      <c r="B75" s="11"/>
       <c r="C75" s="12" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D75" s="8" t="s">
         <v>3</v>
@@ -2865,21 +2890,33 @@
       <c r="A76" s="11" t="s">
         <v>52</v>
       </c>
+      <c r="B76" s="11"/>
+      <c r="C76" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="11" t="s">
         <v>52</v>
       </c>
       <c r="B77" s="11"/>
-      <c r="D77" s="8"/>
+      <c r="C77" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D77" s="8" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="11" t="s">
         <v>52</v>
       </c>
       <c r="B78" s="11"/>
-      <c r="C78" s="12" t="s">
-        <v>53</v>
+      <c r="C78" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="D78" s="8" t="s">
         <v>3</v>
@@ -2891,7 +2928,7 @@
       </c>
       <c r="B79" s="11"/>
       <c r="C79" s="12" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D79" s="8" t="s">
         <v>3</v>
@@ -2903,7 +2940,7 @@
       </c>
       <c r="B80" s="11"/>
       <c r="C80" s="12" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D80" s="8" t="s">
         <v>3</v>
@@ -2914,8 +2951,8 @@
         <v>52</v>
       </c>
       <c r="B81" s="11"/>
-      <c r="C81" s="6" t="s">
-        <v>56</v>
+      <c r="C81" s="12" t="s">
+        <v>59</v>
       </c>
       <c r="D81" s="8" t="s">
         <v>3</v>
@@ -2927,7 +2964,7 @@
       </c>
       <c r="B82" s="11"/>
       <c r="C82" s="12" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D82" s="8" t="s">
         <v>3</v>
@@ -2939,7 +2976,7 @@
       </c>
       <c r="B83" s="11"/>
       <c r="C83" s="12" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D83" s="8" t="s">
         <v>3</v>
@@ -2951,7 +2988,7 @@
       </c>
       <c r="B84" s="11"/>
       <c r="C84" s="12" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D84" s="8" t="s">
         <v>3</v>
@@ -2963,7 +3000,7 @@
       </c>
       <c r="B85" s="11"/>
       <c r="C85" s="12" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D85" s="8" t="s">
         <v>3</v>
@@ -2975,7 +3012,7 @@
       </c>
       <c r="B86" s="11"/>
       <c r="C86" s="12" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D86" s="8" t="s">
         <v>3</v>
@@ -2987,7 +3024,7 @@
       </c>
       <c r="B87" s="11"/>
       <c r="C87" s="12" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D87" s="8" t="s">
         <v>3</v>
@@ -2999,7 +3036,7 @@
       </c>
       <c r="B88" s="11"/>
       <c r="C88" s="12" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D88" s="8" t="s">
         <v>3</v>
@@ -3011,7 +3048,7 @@
       </c>
       <c r="B89" s="11"/>
       <c r="C89" s="12" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D89" s="8" t="s">
         <v>3</v>
@@ -3023,7 +3060,7 @@
       </c>
       <c r="B90" s="11"/>
       <c r="C90" s="12" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D90" s="8" t="s">
         <v>3</v>
@@ -3035,7 +3072,7 @@
       </c>
       <c r="B91" s="11"/>
       <c r="C91" s="12" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D91" s="8" t="s">
         <v>3</v>
@@ -3047,7 +3084,7 @@
       </c>
       <c r="B92" s="11"/>
       <c r="C92" s="12" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D92" s="8" t="s">
         <v>3</v>
@@ -3059,7 +3096,7 @@
       </c>
       <c r="B93" s="11"/>
       <c r="C93" s="12" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D93" s="8" t="s">
         <v>3</v>
@@ -3071,7 +3108,7 @@
       </c>
       <c r="B94" s="11"/>
       <c r="C94" s="12" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D94" s="8" t="s">
         <v>3</v>
@@ -3083,7 +3120,7 @@
       </c>
       <c r="B95" s="11"/>
       <c r="C95" s="12" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D95" s="8" t="s">
         <v>3</v>
@@ -3095,7 +3132,7 @@
       </c>
       <c r="B96" s="11"/>
       <c r="C96" s="12" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D96" s="8" t="s">
         <v>3</v>
@@ -3107,7 +3144,7 @@
       </c>
       <c r="B97" s="11"/>
       <c r="C97" s="12" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D97" s="8" t="s">
         <v>3</v>
@@ -3119,7 +3156,7 @@
       </c>
       <c r="B98" s="11"/>
       <c r="C98" s="12" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D98" s="8" t="s">
         <v>3</v>
@@ -3131,7 +3168,7 @@
       </c>
       <c r="B99" s="11"/>
       <c r="C99" s="12" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D99" s="8" t="s">
         <v>3</v>
@@ -3143,7 +3180,7 @@
       </c>
       <c r="B100" s="11"/>
       <c r="C100" s="12" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D100" s="8" t="s">
         <v>3</v>
@@ -3155,7 +3192,7 @@
       </c>
       <c r="B101" s="11"/>
       <c r="C101" s="12" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D101" s="8" t="s">
         <v>3</v>
@@ -3167,7 +3204,7 @@
       </c>
       <c r="B102" s="11"/>
       <c r="C102" s="12" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D102" s="8" t="s">
         <v>3</v>
@@ -3179,7 +3216,7 @@
       </c>
       <c r="B103" s="11"/>
       <c r="C103" s="12" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D103" s="8" t="s">
         <v>3</v>
@@ -3191,7 +3228,7 @@
       </c>
       <c r="B104" s="11"/>
       <c r="C104" s="12" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D104" s="8" t="s">
         <v>3</v>
@@ -3203,7 +3240,7 @@
       </c>
       <c r="B105" s="11"/>
       <c r="C105" s="12" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D105" s="8" t="s">
         <v>3</v>
@@ -3215,7 +3252,7 @@
       </c>
       <c r="B106" s="11"/>
       <c r="C106" s="12" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D106" s="8" t="s">
         <v>3</v>
@@ -3227,7 +3264,7 @@
       </c>
       <c r="B107" s="11"/>
       <c r="C107" s="12" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D107" s="8" t="s">
         <v>3</v>
@@ -3239,7 +3276,7 @@
       </c>
       <c r="B108" s="11"/>
       <c r="C108" s="12" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D108" s="8" t="s">
         <v>3</v>
@@ -3251,7 +3288,7 @@
       </c>
       <c r="B109" s="11"/>
       <c r="C109" s="12" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D109" s="8" t="s">
         <v>3</v>
@@ -3263,7 +3300,7 @@
       </c>
       <c r="B110" s="11"/>
       <c r="C110" s="12" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D110" s="8" t="s">
         <v>3</v>
@@ -3275,7 +3312,7 @@
       </c>
       <c r="B111" s="11"/>
       <c r="C111" s="12" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D111" s="8" t="s">
         <v>3</v>
@@ -3287,7 +3324,7 @@
       </c>
       <c r="B112" s="11"/>
       <c r="C112" s="12" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D112" s="8" t="s">
         <v>3</v>
@@ -3299,7 +3336,7 @@
       </c>
       <c r="B113" s="11"/>
       <c r="C113" s="12" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D113" s="8" t="s">
         <v>3</v>
@@ -3311,7 +3348,7 @@
       </c>
       <c r="B114" s="11"/>
       <c r="C114" s="12" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D114" s="8" t="s">
         <v>3</v>
@@ -3323,54 +3360,40 @@
       </c>
       <c r="B115" s="11"/>
       <c r="C115" s="12" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D115" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="116" spans="1:4">
+      <c r="A116" s="11" t="s">
+        <v>52</v>
+      </c>
       <c r="B116" s="11"/>
       <c r="C116" s="12" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D116" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="117" spans="1:4">
-      <c r="A117" s="8"/>
+      <c r="A117" s="11" t="s">
+        <v>52</v>
+      </c>
       <c r="B117" s="11"/>
       <c r="C117" s="12" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D117" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
-      <c r="A118" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="B118" s="11"/>
-      <c r="C118" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="D118" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
     <row r="119" spans="1:4">
-      <c r="A119" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="B119" s="11"/>
-      <c r="C119" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="D119" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="A119" s="8"/>
+      <c r="B119" s="8"/>
+      <c r="D119" s="8"/>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="11" t="s">
@@ -3378,7 +3401,7 @@
       </c>
       <c r="B120" s="11"/>
       <c r="C120" s="12" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D120" s="8" t="s">
         <v>3</v>
@@ -3388,13 +3411,25 @@
       <c r="A121" s="11" t="s">
         <v>96</v>
       </c>
+      <c r="B121" s="11"/>
+      <c r="C121" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D121" s="8" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="B122" s="8"/>
-      <c r="D122" s="8"/>
+      <c r="B122" s="11"/>
+      <c r="C122" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D122" s="8" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="11" t="s">
@@ -3402,7 +3437,7 @@
       </c>
       <c r="B123" s="11"/>
       <c r="C123" s="12" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D123" s="8" t="s">
         <v>3</v>
@@ -3414,7 +3449,7 @@
       </c>
       <c r="B124" s="11"/>
       <c r="C124" s="12" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D124" s="8" t="s">
         <v>3</v>
@@ -3426,7 +3461,7 @@
       </c>
       <c r="B125" s="11"/>
       <c r="C125" s="12" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D125" s="8" t="s">
         <v>3</v>
@@ -3438,7 +3473,7 @@
       </c>
       <c r="B126" s="11"/>
       <c r="C126" s="12" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D126" s="8" t="s">
         <v>3</v>
@@ -3450,7 +3485,7 @@
       </c>
       <c r="B127" s="11"/>
       <c r="C127" s="12" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D127" s="8" t="s">
         <v>3</v>
@@ -3462,7 +3497,7 @@
       </c>
       <c r="B128" s="11"/>
       <c r="C128" s="12" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D128" s="8" t="s">
         <v>3</v>
@@ -3474,7 +3509,7 @@
       </c>
       <c r="B129" s="11"/>
       <c r="C129" s="12" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D129" s="8" t="s">
         <v>3</v>
@@ -3486,7 +3521,7 @@
       </c>
       <c r="B130" s="11"/>
       <c r="C130" s="12" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D130" s="8" t="s">
         <v>3</v>
@@ -3498,7 +3533,7 @@
       </c>
       <c r="B131" s="11"/>
       <c r="C131" s="12" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D131" s="8" t="s">
         <v>3</v>
@@ -3510,7 +3545,7 @@
       </c>
       <c r="B132" s="11"/>
       <c r="C132" s="12" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D132" s="8" t="s">
         <v>3</v>
@@ -3522,7 +3557,7 @@
       </c>
       <c r="B133" s="11"/>
       <c r="C133" s="12" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D133" s="8" t="s">
         <v>3</v>
@@ -3534,7 +3569,7 @@
       </c>
       <c r="B134" s="11"/>
       <c r="C134" s="12" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D134" s="8" t="s">
         <v>3</v>
@@ -3546,7 +3581,7 @@
       </c>
       <c r="B135" s="11"/>
       <c r="C135" s="12" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D135" s="8" t="s">
         <v>3</v>
@@ -3558,7 +3593,7 @@
       </c>
       <c r="B136" s="11"/>
       <c r="C136" s="12" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D136" s="8" t="s">
         <v>3</v>
@@ -3570,7 +3605,7 @@
       </c>
       <c r="B137" s="11"/>
       <c r="C137" s="12" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D137" s="8" t="s">
         <v>3</v>
@@ -3582,7 +3617,7 @@
       </c>
       <c r="B138" s="11"/>
       <c r="C138" s="12" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D138" s="8" t="s">
         <v>3</v>
@@ -3594,7 +3629,7 @@
       </c>
       <c r="B139" s="11"/>
       <c r="C139" s="12" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D139" s="8" t="s">
         <v>3</v>
@@ -3606,7 +3641,7 @@
       </c>
       <c r="B140" s="11"/>
       <c r="C140" s="12" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D140" s="8" t="s">
         <v>3</v>
@@ -3618,7 +3653,7 @@
       </c>
       <c r="B141" s="11"/>
       <c r="C141" s="12" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D141" s="8" t="s">
         <v>3</v>
@@ -3630,7 +3665,7 @@
       </c>
       <c r="B142" s="11"/>
       <c r="C142" s="12" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D142" s="8" t="s">
         <v>3</v>
@@ -3642,7 +3677,7 @@
       </c>
       <c r="B143" s="11"/>
       <c r="C143" s="12" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D143" s="8" t="s">
         <v>3</v>
@@ -3654,7 +3689,7 @@
       </c>
       <c r="B144" s="11"/>
       <c r="C144" s="12" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D144" s="8" t="s">
         <v>3</v>
@@ -3666,7 +3701,7 @@
       </c>
       <c r="B145" s="11"/>
       <c r="C145" s="12" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D145" s="8" t="s">
         <v>3</v>
@@ -3678,7 +3713,7 @@
       </c>
       <c r="B146" s="11"/>
       <c r="C146" s="12" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D146" s="8" t="s">
         <v>3</v>
@@ -3690,7 +3725,7 @@
       </c>
       <c r="B147" s="11"/>
       <c r="C147" s="12" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D147" s="8" t="s">
         <v>3</v>
@@ -3702,7 +3737,7 @@
       </c>
       <c r="B148" s="11"/>
       <c r="C148" s="12" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D148" s="8" t="s">
         <v>3</v>
@@ -3714,7 +3749,7 @@
       </c>
       <c r="B149" s="11"/>
       <c r="C149" s="12" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D149" s="8" t="s">
         <v>3</v>
@@ -3726,7 +3761,7 @@
       </c>
       <c r="B150" s="11"/>
       <c r="C150" s="12" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D150" s="8" t="s">
         <v>3</v>
@@ -3738,7 +3773,7 @@
       </c>
       <c r="B151" s="11"/>
       <c r="C151" s="12" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D151" s="8" t="s">
         <v>3</v>
@@ -3750,7 +3785,7 @@
       </c>
       <c r="B152" s="11"/>
       <c r="C152" s="12" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D152" s="8" t="s">
         <v>3</v>
@@ -3762,61 +3797,46 @@
       </c>
       <c r="B153" s="11"/>
       <c r="C153" s="12" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D153" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="154" spans="1:4">
+      <c r="A154" s="11" t="s">
+        <v>96</v>
+      </c>
       <c r="B154" s="11"/>
       <c r="C154" s="12" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D154" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="155" spans="1:4">
+      <c r="A155" s="11" t="s">
+        <v>96</v>
+      </c>
       <c r="B155" s="11"/>
       <c r="C155" s="12" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D155" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="156" spans="1:4">
-      <c r="A156" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B156" s="11"/>
-      <c r="C156" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="D156" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
     <row r="157" spans="1:4">
-      <c r="A157" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B157" s="11"/>
-      <c r="C157" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="D157" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="D157" s="8"/>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B158" s="11"/>
+      <c r="B158" s="8"/>
       <c r="C158" s="12" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D158" s="8" t="s">
         <v>3</v>
@@ -3826,12 +3846,25 @@
       <c r="A159" s="8" t="s">
         <v>133</v>
       </c>
+      <c r="B159" s="8"/>
+      <c r="C159" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D159" s="8" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="D160" s="8"/>
+      <c r="B160" s="8"/>
+      <c r="C160" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="D160" s="8" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="8" t="s">
@@ -3839,7 +3872,7 @@
       </c>
       <c r="B161" s="8"/>
       <c r="C161" s="12" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D161" s="8" t="s">
         <v>3</v>
@@ -3851,7 +3884,7 @@
       </c>
       <c r="B162" s="8"/>
       <c r="C162" s="12" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D162" s="8" t="s">
         <v>3</v>
@@ -3863,7 +3896,7 @@
       </c>
       <c r="B163" s="8"/>
       <c r="C163" s="12" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D163" s="8" t="s">
         <v>3</v>
@@ -3875,7 +3908,7 @@
       </c>
       <c r="B164" s="8"/>
       <c r="C164" s="12" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D164" s="8" t="s">
         <v>3</v>
@@ -3887,7 +3920,7 @@
       </c>
       <c r="B165" s="8"/>
       <c r="C165" s="12" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D165" s="8" t="s">
         <v>3</v>
@@ -3899,7 +3932,7 @@
       </c>
       <c r="B166" s="8"/>
       <c r="C166" s="12" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D166" s="8" t="s">
         <v>3</v>
@@ -3911,7 +3944,7 @@
       </c>
       <c r="B167" s="8"/>
       <c r="C167" s="12" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D167" s="8" t="s">
         <v>3</v>
@@ -3923,7 +3956,7 @@
       </c>
       <c r="B168" s="8"/>
       <c r="C168" s="12" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D168" s="8" t="s">
         <v>3</v>
@@ -3935,7 +3968,7 @@
       </c>
       <c r="B169" s="8"/>
       <c r="C169" s="12" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D169" s="8" t="s">
         <v>3</v>
@@ -3947,7 +3980,7 @@
       </c>
       <c r="B170" s="8"/>
       <c r="C170" s="12" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D170" s="8" t="s">
         <v>3</v>
@@ -3959,7 +3992,7 @@
       </c>
       <c r="B171" s="8"/>
       <c r="C171" s="12" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D171" s="8" t="s">
         <v>3</v>
@@ -3971,7 +4004,7 @@
       </c>
       <c r="B172" s="8"/>
       <c r="C172" s="12" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D172" s="8" t="s">
         <v>3</v>
@@ -3983,7 +4016,7 @@
       </c>
       <c r="B173" s="8"/>
       <c r="C173" s="12" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D173" s="8" t="s">
         <v>3</v>
@@ -3995,7 +4028,7 @@
       </c>
       <c r="B174" s="8"/>
       <c r="C174" s="12" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D174" s="8" t="s">
         <v>3</v>
@@ -4007,7 +4040,7 @@
       </c>
       <c r="B175" s="8"/>
       <c r="C175" s="12" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D175" s="8" t="s">
         <v>3</v>
@@ -4019,7 +4052,7 @@
       </c>
       <c r="B176" s="8"/>
       <c r="C176" s="12" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D176" s="8" t="s">
         <v>3</v>
@@ -4031,7 +4064,7 @@
       </c>
       <c r="B177" s="8"/>
       <c r="C177" s="12" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D177" s="8" t="s">
         <v>3</v>
@@ -4043,7 +4076,7 @@
       </c>
       <c r="B178" s="8"/>
       <c r="C178" s="12" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D178" s="8" t="s">
         <v>3</v>
@@ -4055,7 +4088,7 @@
       </c>
       <c r="B179" s="8"/>
       <c r="C179" s="12" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D179" s="8" t="s">
         <v>3</v>
@@ -4067,7 +4100,7 @@
       </c>
       <c r="B180" s="8"/>
       <c r="C180" s="12" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D180" s="8" t="s">
         <v>3</v>
@@ -4079,7 +4112,7 @@
       </c>
       <c r="B181" s="8"/>
       <c r="C181" s="12" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D181" s="8" t="s">
         <v>3</v>
@@ -4091,7 +4124,7 @@
       </c>
       <c r="B182" s="8"/>
       <c r="C182" s="12" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D182" s="8" t="s">
         <v>3</v>
@@ -4102,8 +4135,8 @@
         <v>133</v>
       </c>
       <c r="B183" s="8"/>
-      <c r="C183" s="12" t="s">
-        <v>156</v>
+      <c r="C183" s="6" t="s">
+        <v>159</v>
       </c>
       <c r="D183" s="8" t="s">
         <v>3</v>
@@ -4114,8 +4147,8 @@
         <v>133</v>
       </c>
       <c r="B184" s="8"/>
-      <c r="C184" s="12" t="s">
-        <v>157</v>
+      <c r="C184" s="6" t="s">
+        <v>160</v>
       </c>
       <c r="D184" s="8" t="s">
         <v>3</v>
@@ -4127,7 +4160,7 @@
       </c>
       <c r="B185" s="8"/>
       <c r="C185" s="12" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D185" s="8" t="s">
         <v>3</v>
@@ -4138,8 +4171,8 @@
         <v>133</v>
       </c>
       <c r="B186" s="8"/>
-      <c r="C186" s="6" t="s">
-        <v>159</v>
+      <c r="C186" s="12" t="s">
+        <v>162</v>
       </c>
       <c r="D186" s="8" t="s">
         <v>3</v>
@@ -4150,8 +4183,8 @@
         <v>133</v>
       </c>
       <c r="B187" s="8"/>
-      <c r="C187" s="6" t="s">
-        <v>160</v>
+      <c r="C187" s="12" t="s">
+        <v>163</v>
       </c>
       <c r="D187" s="8" t="s">
         <v>3</v>
@@ -4163,7 +4196,7 @@
       </c>
       <c r="B188" s="8"/>
       <c r="C188" s="12" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D188" s="8" t="s">
         <v>3</v>
@@ -4175,7 +4208,7 @@
       </c>
       <c r="B189" s="8"/>
       <c r="C189" s="12" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D189" s="8" t="s">
         <v>3</v>
@@ -4187,7 +4220,7 @@
       </c>
       <c r="B190" s="8"/>
       <c r="C190" s="12" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D190" s="8" t="s">
         <v>3</v>
@@ -4199,61 +4232,46 @@
       </c>
       <c r="B191" s="8"/>
       <c r="C191" s="12" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D191" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="192" spans="1:4">
+      <c r="A192" s="8" t="s">
+        <v>133</v>
+      </c>
       <c r="B192" s="8"/>
       <c r="C192" s="12" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D192" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="193" spans="1:4">
+      <c r="A193" s="8" t="s">
+        <v>133</v>
+      </c>
       <c r="B193" s="8"/>
       <c r="C193" s="12" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D193" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="194" spans="1:4">
-      <c r="A194" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="B194" s="8"/>
-      <c r="C194" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="D194" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
     <row r="195" spans="1:4">
-      <c r="A195" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="B195" s="8"/>
-      <c r="C195" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="D195" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="D195" s="8"/>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="B196" s="8"/>
+      <c r="B196" s="11"/>
       <c r="C196" s="12" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D196" s="8" t="s">
         <v>3</v>
@@ -4263,12 +4281,25 @@
       <c r="A197" s="11" t="s">
         <v>170</v>
       </c>
+      <c r="B197" s="11"/>
+      <c r="C197" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="D197" s="8" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="D198" s="8"/>
+      <c r="B198" s="11"/>
+      <c r="C198" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="D198" s="8" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" s="11" t="s">
@@ -4276,7 +4307,7 @@
       </c>
       <c r="B199" s="11"/>
       <c r="C199" s="12" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D199" s="8" t="s">
         <v>3</v>
@@ -4288,7 +4319,7 @@
       </c>
       <c r="B200" s="11"/>
       <c r="C200" s="12" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D200" s="8" t="s">
         <v>3</v>
@@ -4300,7 +4331,7 @@
       </c>
       <c r="B201" s="11"/>
       <c r="C201" s="12" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D201" s="8" t="s">
         <v>3</v>
@@ -4312,7 +4343,7 @@
       </c>
       <c r="B202" s="11"/>
       <c r="C202" s="12" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D202" s="8" t="s">
         <v>3</v>
@@ -4324,7 +4355,7 @@
       </c>
       <c r="B203" s="11"/>
       <c r="C203" s="12" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D203" s="8" t="s">
         <v>3</v>
@@ -4336,7 +4367,7 @@
       </c>
       <c r="B204" s="11"/>
       <c r="C204" s="12" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D204" s="8" t="s">
         <v>3</v>
@@ -4348,7 +4379,7 @@
       </c>
       <c r="B205" s="11"/>
       <c r="C205" s="12" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D205" s="8" t="s">
         <v>3</v>
@@ -4360,7 +4391,7 @@
       </c>
       <c r="B206" s="11"/>
       <c r="C206" s="12" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D206" s="8" t="s">
         <v>3</v>
@@ -4372,7 +4403,7 @@
       </c>
       <c r="B207" s="11"/>
       <c r="C207" s="12" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D207" s="8" t="s">
         <v>3</v>
@@ -4384,7 +4415,7 @@
       </c>
       <c r="B208" s="11"/>
       <c r="C208" s="12" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D208" s="8" t="s">
         <v>3</v>
@@ -4396,7 +4427,7 @@
       </c>
       <c r="B209" s="11"/>
       <c r="C209" s="12" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D209" s="8" t="s">
         <v>3</v>
@@ -4408,7 +4439,7 @@
       </c>
       <c r="B210" s="11"/>
       <c r="C210" s="12" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D210" s="8" t="s">
         <v>3</v>
@@ -4420,7 +4451,7 @@
       </c>
       <c r="B211" s="11"/>
       <c r="C211" s="12" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D211" s="8" t="s">
         <v>3</v>
@@ -4432,7 +4463,7 @@
       </c>
       <c r="B212" s="11"/>
       <c r="C212" s="12" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D212" s="8" t="s">
         <v>3</v>
@@ -4444,7 +4475,7 @@
       </c>
       <c r="B213" s="11"/>
       <c r="C213" s="12" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D213" s="8" t="s">
         <v>3</v>
@@ -4456,7 +4487,7 @@
       </c>
       <c r="B214" s="11"/>
       <c r="C214" s="12" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D214" s="8" t="s">
         <v>3</v>
@@ -4468,7 +4499,7 @@
       </c>
       <c r="B215" s="11"/>
       <c r="C215" s="12" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D215" s="8" t="s">
         <v>3</v>
@@ -4480,7 +4511,7 @@
       </c>
       <c r="B216" s="11"/>
       <c r="C216" s="12" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D216" s="8" t="s">
         <v>3</v>
@@ -4492,7 +4523,7 @@
       </c>
       <c r="B217" s="11"/>
       <c r="C217" s="12" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D217" s="8" t="s">
         <v>3</v>
@@ -4504,7 +4535,7 @@
       </c>
       <c r="B218" s="11"/>
       <c r="C218" s="12" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D218" s="8" t="s">
         <v>3</v>
@@ -4516,7 +4547,7 @@
       </c>
       <c r="B219" s="11"/>
       <c r="C219" s="12" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D219" s="8" t="s">
         <v>3</v>
@@ -4528,7 +4559,7 @@
       </c>
       <c r="B220" s="11"/>
       <c r="C220" s="12" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D220" s="8" t="s">
         <v>3</v>
@@ -4540,7 +4571,7 @@
       </c>
       <c r="B221" s="11"/>
       <c r="C221" s="12" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D221" s="8" t="s">
         <v>3</v>
@@ -4552,7 +4583,7 @@
       </c>
       <c r="B222" s="11"/>
       <c r="C222" s="12" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D222" s="8" t="s">
         <v>3</v>
@@ -4564,7 +4595,7 @@
       </c>
       <c r="B223" s="11"/>
       <c r="C223" s="12" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D223" s="8" t="s">
         <v>3</v>
@@ -4576,7 +4607,7 @@
       </c>
       <c r="B224" s="11"/>
       <c r="C224" s="12" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D224" s="8" t="s">
         <v>3</v>
@@ -4588,7 +4619,7 @@
       </c>
       <c r="B225" s="11"/>
       <c r="C225" s="12" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D225" s="8" t="s">
         <v>3</v>
@@ -4600,7 +4631,7 @@
       </c>
       <c r="B226" s="11"/>
       <c r="C226" s="12" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D226" s="8" t="s">
         <v>3</v>
@@ -4612,7 +4643,7 @@
       </c>
       <c r="B227" s="11"/>
       <c r="C227" s="12" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D227" s="8" t="s">
         <v>3</v>
@@ -4624,55 +4655,45 @@
       </c>
       <c r="B228" s="11"/>
       <c r="C228" s="12" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D228" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="229" spans="1:4">
-      <c r="A229" s="8"/>
+      <c r="A229" s="11" t="s">
+        <v>170</v>
+      </c>
       <c r="B229" s="11"/>
       <c r="C229" s="12" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D229" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="230" spans="1:4">
-      <c r="A230" s="8"/>
+      <c r="A230" s="11" t="s">
+        <v>170</v>
+      </c>
       <c r="B230" s="11"/>
       <c r="C230" s="12" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D230" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="231" spans="1:4">
-      <c r="A231" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="B231" s="11"/>
-      <c r="C231" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="D231" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="A231" s="8"/>
+      <c r="B231" s="8"/>
+      <c r="D231" s="8"/>
     </row>
     <row r="232" spans="1:4">
-      <c r="A232" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="B232" s="11"/>
-      <c r="C232" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="D232" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="A232" s="8"/>
+      <c r="B232" s="8"/>
+      <c r="D232" s="8"/>
     </row>
     <row r="233" spans="1:4">
       <c r="A233" s="11" t="s">
@@ -4680,7 +4701,7 @@
       </c>
       <c r="B233" s="11"/>
       <c r="C233" s="12" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D233" s="8" t="s">
         <v>3</v>
@@ -4690,15 +4711,25 @@
       <c r="A234" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="B234" s="8"/>
-      <c r="D234" s="8"/>
+      <c r="B234" s="11"/>
+      <c r="C234" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="D234" s="8" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="235" spans="1:4">
       <c r="A235" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="B235" s="8"/>
-      <c r="D235" s="8"/>
+      <c r="B235" s="11"/>
+      <c r="C235" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="D235" s="8" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236" s="11" t="s">
@@ -4706,7 +4737,7 @@
       </c>
       <c r="B236" s="11"/>
       <c r="C236" s="12" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D236" s="8" t="s">
         <v>3</v>
@@ -4718,7 +4749,7 @@
       </c>
       <c r="B237" s="11"/>
       <c r="C237" s="12" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D237" s="8" t="s">
         <v>3</v>
@@ -4730,7 +4761,7 @@
       </c>
       <c r="B238" s="11"/>
       <c r="C238" s="12" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D238" s="8" t="s">
         <v>3</v>
@@ -4741,8 +4772,8 @@
         <v>206</v>
       </c>
       <c r="B239" s="11"/>
-      <c r="C239" s="12" t="s">
-        <v>210</v>
+      <c r="C239" s="5" t="s">
+        <v>213</v>
       </c>
       <c r="D239" s="8" t="s">
         <v>3</v>
@@ -4754,7 +4785,7 @@
       </c>
       <c r="B240" s="11"/>
       <c r="C240" s="12" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D240" s="8" t="s">
         <v>3</v>
@@ -4766,7 +4797,7 @@
       </c>
       <c r="B241" s="11"/>
       <c r="C241" s="12" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D241" s="8" t="s">
         <v>3</v>
@@ -4777,8 +4808,8 @@
         <v>206</v>
       </c>
       <c r="B242" s="11"/>
-      <c r="C242" s="5" t="s">
-        <v>213</v>
+      <c r="C242" s="12" t="s">
+        <v>216</v>
       </c>
       <c r="D242" s="8" t="s">
         <v>3</v>
@@ -4790,7 +4821,7 @@
       </c>
       <c r="B243" s="11"/>
       <c r="C243" s="12" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D243" s="8" t="s">
         <v>3</v>
@@ -4802,7 +4833,7 @@
       </c>
       <c r="B244" s="11"/>
       <c r="C244" s="12" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D244" s="8" t="s">
         <v>3</v>
@@ -4814,7 +4845,7 @@
       </c>
       <c r="B245" s="11"/>
       <c r="C245" s="12" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D245" s="8" t="s">
         <v>3</v>
@@ -4826,7 +4857,7 @@
       </c>
       <c r="B246" s="11"/>
       <c r="C246" s="12" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D246" s="8" t="s">
         <v>3</v>
@@ -4838,7 +4869,7 @@
       </c>
       <c r="B247" s="11"/>
       <c r="C247" s="12" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D247" s="8" t="s">
         <v>3</v>
@@ -4850,7 +4881,7 @@
       </c>
       <c r="B248" s="11"/>
       <c r="C248" s="12" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D248" s="8" t="s">
         <v>3</v>
@@ -4862,7 +4893,7 @@
       </c>
       <c r="B249" s="11"/>
       <c r="C249" s="12" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D249" s="8" t="s">
         <v>3</v>
@@ -4874,7 +4905,7 @@
       </c>
       <c r="B250" s="11"/>
       <c r="C250" s="12" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D250" s="8" t="s">
         <v>3</v>
@@ -4886,7 +4917,7 @@
       </c>
       <c r="B251" s="11"/>
       <c r="C251" s="12" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D251" s="8" t="s">
         <v>3</v>
@@ -4898,53 +4929,41 @@
       </c>
       <c r="B252" s="11"/>
       <c r="C252" s="12" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D252" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="253" spans="1:4">
+      <c r="A253" s="11" t="s">
+        <v>206</v>
+      </c>
       <c r="B253" s="11"/>
       <c r="C253" s="12" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D253" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="254" spans="1:4">
+      <c r="A254" s="11" t="s">
+        <v>206</v>
+      </c>
       <c r="B254" s="11"/>
       <c r="C254" s="12" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D254" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="255" spans="1:4">
-      <c r="A255" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="B255" s="11"/>
-      <c r="C255" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="D255" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="D255" s="8"/>
     </row>
     <row r="256" spans="1:4">
-      <c r="A256" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="B256" s="11"/>
-      <c r="C256" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="D256" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="D256" s="8"/>
     </row>
     <row r="257" spans="1:4">
       <c r="A257" s="11" t="s">
@@ -4952,7 +4971,7 @@
       </c>
       <c r="B257" s="11"/>
       <c r="C257" s="12" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D257" s="8" t="s">
         <v>3</v>
@@ -4962,13 +4981,25 @@
       <c r="A258" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="D258" s="8"/>
+      <c r="B258" s="11"/>
+      <c r="C258" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="D258" s="8" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="259" spans="1:4">
       <c r="A259" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="D259" s="8"/>
+      <c r="B259" s="11"/>
+      <c r="C259" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="D259" s="8" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="260" spans="1:4">
       <c r="A260" s="11" t="s">
@@ -4976,7 +5007,7 @@
       </c>
       <c r="B260" s="11"/>
       <c r="C260" s="12" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D260" s="8" t="s">
         <v>3</v>
@@ -4988,7 +5019,7 @@
       </c>
       <c r="B261" s="11"/>
       <c r="C261" s="12" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D261" s="8" t="s">
         <v>3</v>
@@ -5000,7 +5031,7 @@
       </c>
       <c r="B262" s="11"/>
       <c r="C262" s="12" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D262" s="8" t="s">
         <v>3</v>
@@ -5012,7 +5043,7 @@
       </c>
       <c r="B263" s="11"/>
       <c r="C263" s="12" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D263" s="8" t="s">
         <v>3</v>
@@ -5024,7 +5055,7 @@
       </c>
       <c r="B264" s="11"/>
       <c r="C264" s="12" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D264" s="8" t="s">
         <v>3</v>
@@ -5036,7 +5067,7 @@
       </c>
       <c r="B265" s="11"/>
       <c r="C265" s="12" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D265" s="8" t="s">
         <v>3</v>
@@ -5048,7 +5079,7 @@
       </c>
       <c r="B266" s="11"/>
       <c r="C266" s="12" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D266" s="8" t="s">
         <v>3</v>
@@ -5060,7 +5091,7 @@
       </c>
       <c r="B267" s="11"/>
       <c r="C267" s="12" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D267" s="8" t="s">
         <v>3</v>
@@ -5072,7 +5103,7 @@
       </c>
       <c r="B268" s="11"/>
       <c r="C268" s="12" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D268" s="8" t="s">
         <v>3</v>
@@ -5084,7 +5115,7 @@
       </c>
       <c r="B269" s="11"/>
       <c r="C269" s="12" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D269" s="8" t="s">
         <v>3</v>
@@ -5096,7 +5127,7 @@
       </c>
       <c r="B270" s="11"/>
       <c r="C270" s="12" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D270" s="8" t="s">
         <v>3</v>
@@ -5108,7 +5139,7 @@
       </c>
       <c r="B271" s="11"/>
       <c r="C271" s="12" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D271" s="8" t="s">
         <v>3</v>
@@ -5120,7 +5151,7 @@
       </c>
       <c r="B272" s="11"/>
       <c r="C272" s="12" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D272" s="8" t="s">
         <v>3</v>
@@ -5132,7 +5163,7 @@
       </c>
       <c r="B273" s="11"/>
       <c r="C273" s="12" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D273" s="8" t="s">
         <v>3</v>
@@ -5144,7 +5175,7 @@
       </c>
       <c r="B274" s="11"/>
       <c r="C274" s="12" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D274" s="8" t="s">
         <v>3</v>
@@ -5156,7 +5187,7 @@
       </c>
       <c r="B275" s="11"/>
       <c r="C275" s="12" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D275" s="8" t="s">
         <v>3</v>
@@ -5168,7 +5199,7 @@
       </c>
       <c r="B276" s="11"/>
       <c r="C276" s="12" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="D276" s="8" t="s">
         <v>3</v>
@@ -5180,7 +5211,7 @@
       </c>
       <c r="B277" s="11"/>
       <c r="C277" s="12" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D277" s="8" t="s">
         <v>3</v>
@@ -5192,7 +5223,7 @@
       </c>
       <c r="B278" s="11"/>
       <c r="C278" s="12" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D278" s="8" t="s">
         <v>3</v>
@@ -5204,7 +5235,7 @@
       </c>
       <c r="B279" s="11"/>
       <c r="C279" s="12" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D279" s="8" t="s">
         <v>3</v>
@@ -5216,7 +5247,7 @@
       </c>
       <c r="B280" s="11"/>
       <c r="C280" s="12" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D280" s="8" t="s">
         <v>3</v>
@@ -5228,7 +5259,7 @@
       </c>
       <c r="B281" s="11"/>
       <c r="C281" s="12" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D281" s="8" t="s">
         <v>3</v>
@@ -5240,7 +5271,7 @@
       </c>
       <c r="B282" s="11"/>
       <c r="C282" s="12" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D282" s="8" t="s">
         <v>3</v>
@@ -5252,7 +5283,7 @@
       </c>
       <c r="B283" s="11"/>
       <c r="C283" s="12" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D283" s="8" t="s">
         <v>3</v>
@@ -5264,7 +5295,7 @@
       </c>
       <c r="B284" s="11"/>
       <c r="C284" s="12" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D284" s="8" t="s">
         <v>3</v>
@@ -5276,7 +5307,7 @@
       </c>
       <c r="B285" s="11"/>
       <c r="C285" s="12" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="D285" s="8" t="s">
         <v>3</v>
@@ -5288,7 +5319,7 @@
       </c>
       <c r="B286" s="11"/>
       <c r="C286" s="12" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D286" s="8" t="s">
         <v>3</v>
@@ -5300,7 +5331,7 @@
       </c>
       <c r="B287" s="11"/>
       <c r="C287" s="12" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="D287" s="8" t="s">
         <v>3</v>
@@ -5312,7 +5343,7 @@
       </c>
       <c r="B288" s="11"/>
       <c r="C288" s="12" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D288" s="8" t="s">
         <v>3</v>
@@ -5324,53 +5355,41 @@
       </c>
       <c r="B289" s="11"/>
       <c r="C289" s="12" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D289" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="290" spans="1:4">
+      <c r="A290" s="11" t="s">
+        <v>229</v>
+      </c>
       <c r="B290" s="11"/>
       <c r="C290" s="12" t="s">
-        <v>260</v>
+        <v>86</v>
       </c>
       <c r="D290" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="291" spans="1:4">
+      <c r="A291" s="11" t="s">
+        <v>229</v>
+      </c>
       <c r="B291" s="11"/>
       <c r="C291" s="12" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D291" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="292" spans="1:4">
-      <c r="A292" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="B292" s="11"/>
-      <c r="C292" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="D292" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="D292" s="8"/>
     </row>
     <row r="293" spans="1:4">
-      <c r="A293" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="B293" s="11"/>
-      <c r="C293" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="D293" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="D293" s="8"/>
     </row>
     <row r="294" spans="1:4">
       <c r="A294" s="11" t="s">
@@ -5378,7 +5397,7 @@
       </c>
       <c r="B294" s="11"/>
       <c r="C294" s="12" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D294" s="8" t="s">
         <v>3</v>
@@ -5388,13 +5407,25 @@
       <c r="A295" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="D295" s="8"/>
+      <c r="B295" s="11"/>
+      <c r="C295" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="D295" s="8" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="296" spans="1:4">
       <c r="A296" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="D296" s="8"/>
+      <c r="B296" s="11"/>
+      <c r="C296" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="D296" s="8" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="297" spans="1:4">
       <c r="A297" s="11" t="s">
@@ -5402,7 +5433,7 @@
       </c>
       <c r="B297" s="11"/>
       <c r="C297" s="12" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D297" s="8" t="s">
         <v>3</v>
@@ -5414,7 +5445,7 @@
       </c>
       <c r="B298" s="11"/>
       <c r="C298" s="12" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D298" s="8" t="s">
         <v>3</v>
@@ -5426,7 +5457,7 @@
       </c>
       <c r="B299" s="11"/>
       <c r="C299" s="12" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D299" s="8" t="s">
         <v>3</v>
@@ -5438,7 +5469,7 @@
       </c>
       <c r="B300" s="11"/>
       <c r="C300" s="12" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D300" s="8" t="s">
         <v>3</v>
@@ -5450,7 +5481,7 @@
       </c>
       <c r="B301" s="11"/>
       <c r="C301" s="12" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D301" s="8" t="s">
         <v>3</v>
@@ -5462,7 +5493,7 @@
       </c>
       <c r="B302" s="11"/>
       <c r="C302" s="12" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D302" s="8" t="s">
         <v>3</v>
@@ -5474,7 +5505,7 @@
       </c>
       <c r="B303" s="11"/>
       <c r="C303" s="12" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D303" s="8" t="s">
         <v>3</v>
@@ -5486,7 +5517,7 @@
       </c>
       <c r="B304" s="11"/>
       <c r="C304" s="12" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="D304" s="8" t="s">
         <v>3</v>
@@ -5498,7 +5529,7 @@
       </c>
       <c r="B305" s="11"/>
       <c r="C305" s="12" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="D305" s="8" t="s">
         <v>3</v>
@@ -5510,7 +5541,7 @@
       </c>
       <c r="B306" s="11"/>
       <c r="C306" s="12" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="D306" s="8" t="s">
         <v>3</v>
@@ -5522,7 +5553,7 @@
       </c>
       <c r="B307" s="11"/>
       <c r="C307" s="12" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D307" s="8" t="s">
         <v>3</v>
@@ -5534,7 +5565,7 @@
       </c>
       <c r="B308" s="11"/>
       <c r="C308" s="12" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="D308" s="8" t="s">
         <v>3</v>
@@ -5546,7 +5577,7 @@
       </c>
       <c r="B309" s="11"/>
       <c r="C309" s="12" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="D309" s="8" t="s">
         <v>3</v>
@@ -5558,53 +5589,41 @@
       </c>
       <c r="B310" s="11"/>
       <c r="C310" s="12" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="D310" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="311" spans="1:4">
+      <c r="A311" s="11" t="s">
+        <v>264</v>
+      </c>
       <c r="B311" s="11"/>
       <c r="C311" s="12" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D311" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="312" spans="1:4">
+      <c r="A312" s="11" t="s">
+        <v>264</v>
+      </c>
       <c r="B312" s="11"/>
       <c r="C312" s="12" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D312" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="313" spans="1:4">
-      <c r="A313" s="11" t="s">
-        <v>284</v>
-      </c>
-      <c r="B313" s="11"/>
-      <c r="C313" s="12" t="s">
-        <v>281</v>
-      </c>
-      <c r="D313" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="D313" s="8"/>
     </row>
     <row r="314" spans="1:4">
-      <c r="A314" s="11" t="s">
-        <v>284</v>
-      </c>
-      <c r="B314" s="11"/>
-      <c r="C314" s="12" t="s">
-        <v>282</v>
-      </c>
-      <c r="D314" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="D314" s="8"/>
     </row>
     <row r="315" spans="1:4">
       <c r="A315" s="11" t="s">
@@ -5612,7 +5631,7 @@
       </c>
       <c r="B315" s="11"/>
       <c r="C315" s="12" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D315" s="8" t="s">
         <v>3</v>
@@ -5622,13 +5641,25 @@
       <c r="A316" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="D316" s="8"/>
+      <c r="B316" s="11"/>
+      <c r="C316" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="D316" s="8" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="317" spans="1:4">
       <c r="A317" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="D317" s="8"/>
+      <c r="B317" s="11"/>
+      <c r="C317" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="D317" s="8" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="318" spans="1:4">
       <c r="A318" s="11" t="s">
@@ -5636,7 +5667,7 @@
       </c>
       <c r="B318" s="11"/>
       <c r="C318" s="12" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D318" s="8" t="s">
         <v>3</v>
@@ -5648,7 +5679,7 @@
       </c>
       <c r="B319" s="11"/>
       <c r="C319" s="12" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D319" s="8" t="s">
         <v>3</v>
@@ -5660,7 +5691,7 @@
       </c>
       <c r="B320" s="11"/>
       <c r="C320" s="12" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="D320" s="8" t="s">
         <v>3</v>
@@ -5672,7 +5703,7 @@
       </c>
       <c r="B321" s="11"/>
       <c r="C321" s="12" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="D321" s="8" t="s">
         <v>3</v>
@@ -5684,7 +5715,7 @@
       </c>
       <c r="B322" s="11"/>
       <c r="C322" s="12" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D322" s="8" t="s">
         <v>3</v>
@@ -5696,7 +5727,7 @@
       </c>
       <c r="B323" s="11"/>
       <c r="C323" s="12" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="D323" s="8" t="s">
         <v>3</v>
@@ -5708,7 +5739,7 @@
       </c>
       <c r="B324" s="11"/>
       <c r="C324" s="12" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="D324" s="8" t="s">
         <v>3</v>
@@ -5720,7 +5751,7 @@
       </c>
       <c r="B325" s="11"/>
       <c r="C325" s="12" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="D325" s="8" t="s">
         <v>3</v>
@@ -5732,7 +5763,7 @@
       </c>
       <c r="B326" s="11"/>
       <c r="C326" s="12" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="D326" s="8" t="s">
         <v>3</v>
@@ -5744,7 +5775,7 @@
       </c>
       <c r="B327" s="11"/>
       <c r="C327" s="12" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="D327" s="8" t="s">
         <v>3</v>
@@ -5755,8 +5786,8 @@
         <v>284</v>
       </c>
       <c r="B328" s="11"/>
-      <c r="C328" s="12" t="s">
-        <v>295</v>
+      <c r="C328" s="5" t="s">
+        <v>298</v>
       </c>
       <c r="D328" s="8" t="s">
         <v>3</v>
@@ -5768,7 +5799,7 @@
       </c>
       <c r="B329" s="11"/>
       <c r="C329" s="12" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="D329" s="8" t="s">
         <v>3</v>
@@ -5780,7 +5811,7 @@
       </c>
       <c r="B330" s="11"/>
       <c r="C330" s="12" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="D330" s="8" t="s">
         <v>3</v>
@@ -5791,8 +5822,8 @@
         <v>284</v>
       </c>
       <c r="B331" s="11"/>
-      <c r="C331" s="5" t="s">
-        <v>298</v>
+      <c r="C331" s="12" t="s">
+        <v>301</v>
       </c>
       <c r="D331" s="8" t="s">
         <v>3</v>
@@ -5804,7 +5835,7 @@
       </c>
       <c r="B332" s="11"/>
       <c r="C332" s="12" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="D332" s="8" t="s">
         <v>3</v>
@@ -5816,7 +5847,7 @@
       </c>
       <c r="B333" s="11"/>
       <c r="C333" s="12" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="D333" s="8" t="s">
         <v>3</v>
@@ -5828,7 +5859,7 @@
       </c>
       <c r="B334" s="11"/>
       <c r="C334" s="12" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="D334" s="8" t="s">
         <v>3</v>
@@ -5840,7 +5871,7 @@
       </c>
       <c r="B335" s="11"/>
       <c r="C335" s="12" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="D335" s="8" t="s">
         <v>3</v>
@@ -5852,7 +5883,7 @@
       </c>
       <c r="B336" s="11"/>
       <c r="C336" s="12" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="D336" s="8" t="s">
         <v>3</v>
@@ -5864,7 +5895,7 @@
       </c>
       <c r="B337" s="11"/>
       <c r="C337" s="12" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="D337" s="8" t="s">
         <v>3</v>
@@ -5876,7 +5907,7 @@
       </c>
       <c r="B338" s="11"/>
       <c r="C338" s="12" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="D338" s="8" t="s">
         <v>3</v>
@@ -5888,7 +5919,7 @@
       </c>
       <c r="B339" s="11"/>
       <c r="C339" s="12" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="D339" s="8" t="s">
         <v>3</v>
@@ -5900,7 +5931,7 @@
       </c>
       <c r="B340" s="11"/>
       <c r="C340" s="12" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D340" s="8" t="s">
         <v>3</v>
@@ -5912,7 +5943,7 @@
       </c>
       <c r="B341" s="11"/>
       <c r="C341" s="12" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="D341" s="8" t="s">
         <v>3</v>
@@ -5924,7 +5955,7 @@
       </c>
       <c r="B342" s="11"/>
       <c r="C342" s="12" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D342" s="8" t="s">
         <v>3</v>
@@ -5936,7 +5967,7 @@
       </c>
       <c r="B343" s="11"/>
       <c r="C343" s="12" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="D343" s="8" t="s">
         <v>3</v>
@@ -5948,7 +5979,7 @@
       </c>
       <c r="B344" s="11"/>
       <c r="C344" s="12" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="D344" s="8" t="s">
         <v>3</v>
@@ -5960,7 +5991,7 @@
       </c>
       <c r="B345" s="11"/>
       <c r="C345" s="12" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="D345" s="8" t="s">
         <v>3</v>
@@ -5972,7 +6003,7 @@
       </c>
       <c r="B346" s="11"/>
       <c r="C346" s="12" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D346" s="8" t="s">
         <v>3</v>
@@ -5984,7 +6015,7 @@
       </c>
       <c r="B347" s="11"/>
       <c r="C347" s="12" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D347" s="8" t="s">
         <v>3</v>
@@ -5996,7 +6027,7 @@
       </c>
       <c r="B348" s="11"/>
       <c r="C348" s="12" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="D348" s="8" t="s">
         <v>3</v>
@@ -6008,7 +6039,7 @@
       </c>
       <c r="B349" s="11"/>
       <c r="C349" s="12" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="D349" s="8" t="s">
         <v>3</v>
@@ -6020,61 +6051,49 @@
       </c>
       <c r="B350" s="11"/>
       <c r="C350" s="12" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D350" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="351" spans="1:4">
+      <c r="A351" s="11" t="s">
+        <v>284</v>
+      </c>
       <c r="B351" s="11"/>
       <c r="C351" s="12" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="D351" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="352" spans="1:4">
+      <c r="A352" s="11" t="s">
+        <v>284</v>
+      </c>
       <c r="B352" s="11"/>
       <c r="C352" s="12" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="D352" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="353" spans="1:4">
-      <c r="A353" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="B353" s="11"/>
-      <c r="C353" s="12" t="s">
-        <v>320</v>
-      </c>
-      <c r="D353" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="D353" s="8"/>
     </row>
     <row r="354" spans="1:4">
-      <c r="A354" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="B354" s="11"/>
-      <c r="C354" s="12" t="s">
-        <v>321</v>
-      </c>
-      <c r="D354" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="D354" s="8"/>
     </row>
     <row r="355" spans="1:4">
       <c r="A355" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="B355" s="11"/>
+      <c r="B355" s="8"/>
       <c r="C355" s="12" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D355" s="8" t="s">
         <v>3</v>
@@ -6084,13 +6103,25 @@
       <c r="A356" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="D356" s="8"/>
+      <c r="B356" s="8"/>
+      <c r="C356" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="D356" s="8" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="357" spans="1:4">
       <c r="A357" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="D357" s="8"/>
+      <c r="B357" s="8"/>
+      <c r="C357" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="D357" s="8" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="358" spans="1:4">
       <c r="A358" s="8" t="s">
@@ -6098,7 +6129,7 @@
       </c>
       <c r="B358" s="8"/>
       <c r="C358" s="12" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="D358" s="8" t="s">
         <v>3</v>
@@ -6110,7 +6141,7 @@
       </c>
       <c r="B359" s="8"/>
       <c r="C359" s="12" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="D359" s="8" t="s">
         <v>3</v>
@@ -6122,7 +6153,7 @@
       </c>
       <c r="B360" s="8"/>
       <c r="C360" s="12" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="D360" s="8" t="s">
         <v>3</v>
@@ -6134,7 +6165,7 @@
       </c>
       <c r="B361" s="8"/>
       <c r="C361" s="12" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="D361" s="8" t="s">
         <v>3</v>
@@ -6146,7 +6177,7 @@
       </c>
       <c r="B362" s="8"/>
       <c r="C362" s="12" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="D362" s="8" t="s">
         <v>3</v>
@@ -6157,8 +6188,8 @@
         <v>323</v>
       </c>
       <c r="B363" s="8"/>
-      <c r="C363" s="12" t="s">
-        <v>329</v>
+      <c r="C363" s="5" t="s">
+        <v>332</v>
       </c>
       <c r="D363" s="8" t="s">
         <v>3</v>
@@ -6170,7 +6201,7 @@
       </c>
       <c r="B364" s="8"/>
       <c r="C364" s="12" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="D364" s="8" t="s">
         <v>3</v>
@@ -6182,7 +6213,7 @@
       </c>
       <c r="B365" s="8"/>
       <c r="C365" s="12" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="D365" s="8" t="s">
         <v>3</v>
@@ -6193,8 +6224,8 @@
         <v>323</v>
       </c>
       <c r="B366" s="8"/>
-      <c r="C366" s="5" t="s">
-        <v>332</v>
+      <c r="C366" s="12" t="s">
+        <v>335</v>
       </c>
       <c r="D366" s="8" t="s">
         <v>3</v>
@@ -6206,7 +6237,7 @@
       </c>
       <c r="B367" s="8"/>
       <c r="C367" s="12" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="D367" s="8" t="s">
         <v>3</v>
@@ -6218,7 +6249,7 @@
       </c>
       <c r="B368" s="8"/>
       <c r="C368" s="12" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="D368" s="8" t="s">
         <v>3</v>
@@ -6230,7 +6261,7 @@
       </c>
       <c r="B369" s="8"/>
       <c r="C369" s="12" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D369" s="8" t="s">
         <v>3</v>
@@ -6242,53 +6273,41 @@
       </c>
       <c r="B370" s="8"/>
       <c r="C370" s="12" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D370" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="371" spans="1:4">
+      <c r="A371" s="8" t="s">
+        <v>323</v>
+      </c>
       <c r="B371" s="8"/>
       <c r="C371" s="12" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="D371" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="372" spans="1:4">
+      <c r="A372" s="8" t="s">
+        <v>323</v>
+      </c>
       <c r="B372" s="8"/>
       <c r="C372" s="12" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="D372" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="373" spans="1:4">
-      <c r="A373" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="B373" s="8"/>
-      <c r="C373" s="12" t="s">
-        <v>339</v>
-      </c>
-      <c r="D373" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="D373" s="8"/>
     </row>
     <row r="374" spans="1:4">
-      <c r="A374" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="B374" s="8"/>
-      <c r="C374" s="12" t="s">
-        <v>340</v>
-      </c>
-      <c r="D374" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="D374" s="8"/>
     </row>
     <row r="375" spans="1:4">
       <c r="A375" s="8" t="s">
@@ -6296,7 +6315,7 @@
       </c>
       <c r="B375" s="8"/>
       <c r="C375" s="12" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D375" s="8" t="s">
         <v>3</v>
@@ -6306,13 +6325,25 @@
       <c r="A376" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="D376" s="8"/>
+      <c r="B376" s="8"/>
+      <c r="C376" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="D376" s="8" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="377" spans="1:4">
       <c r="A377" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="D377" s="8"/>
+      <c r="B377" s="8"/>
+      <c r="C377" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="D377" s="8" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="378" spans="1:4">
       <c r="A378" s="8" t="s">
@@ -6320,7 +6351,7 @@
       </c>
       <c r="B378" s="8"/>
       <c r="C378" s="12" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="D378" s="8" t="s">
         <v>3</v>
@@ -6332,7 +6363,7 @@
       </c>
       <c r="B379" s="8"/>
       <c r="C379" s="12" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="D379" s="8" t="s">
         <v>3</v>
@@ -6344,7 +6375,7 @@
       </c>
       <c r="B380" s="8"/>
       <c r="C380" s="12" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="D380" s="8" t="s">
         <v>3</v>
@@ -6356,7 +6387,7 @@
       </c>
       <c r="B381" s="8"/>
       <c r="C381" s="12" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="D381" s="8" t="s">
         <v>3</v>
@@ -6368,7 +6399,7 @@
       </c>
       <c r="B382" s="8"/>
       <c r="C382" s="12" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="D382" s="8" t="s">
         <v>3</v>
@@ -6380,7 +6411,7 @@
       </c>
       <c r="B383" s="8"/>
       <c r="C383" s="12" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="D383" s="8" t="s">
         <v>3</v>
@@ -6392,7 +6423,7 @@
       </c>
       <c r="B384" s="8"/>
       <c r="C384" s="12" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="D384" s="8" t="s">
         <v>3</v>
@@ -6404,7 +6435,7 @@
       </c>
       <c r="B385" s="8"/>
       <c r="C385" s="12" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="D385" s="8" t="s">
         <v>3</v>
@@ -6416,7 +6447,7 @@
       </c>
       <c r="B386" s="8"/>
       <c r="C386" s="12" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="D386" s="8" t="s">
         <v>3</v>
@@ -6428,7 +6459,7 @@
       </c>
       <c r="B387" s="8"/>
       <c r="C387" s="12" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="D387" s="8" t="s">
         <v>3</v>
@@ -6440,7 +6471,7 @@
       </c>
       <c r="B388" s="8"/>
       <c r="C388" s="12" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="D388" s="8" t="s">
         <v>3</v>
@@ -6452,7 +6483,7 @@
       </c>
       <c r="B389" s="8"/>
       <c r="C389" s="12" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D389" s="8" t="s">
         <v>3</v>
@@ -6464,7 +6495,7 @@
       </c>
       <c r="B390" s="8"/>
       <c r="C390" s="12" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D390" s="8" t="s">
         <v>3</v>
@@ -6476,7 +6507,7 @@
       </c>
       <c r="B391" s="8"/>
       <c r="C391" s="12" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="D391" s="8" t="s">
         <v>3</v>
@@ -6488,7 +6519,7 @@
       </c>
       <c r="B392" s="8"/>
       <c r="C392" s="12" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="D392" s="8" t="s">
         <v>3</v>
@@ -6500,7 +6531,7 @@
       </c>
       <c r="B393" s="8"/>
       <c r="C393" s="12" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="D393" s="8" t="s">
         <v>3</v>
@@ -6512,7 +6543,7 @@
       </c>
       <c r="B394" s="8"/>
       <c r="C394" s="12" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="D394" s="8" t="s">
         <v>3</v>
@@ -6524,7 +6555,7 @@
       </c>
       <c r="B395" s="8"/>
       <c r="C395" s="12" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="D395" s="8" t="s">
         <v>3</v>
@@ -6536,7 +6567,7 @@
       </c>
       <c r="B396" s="8"/>
       <c r="C396" s="12" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="D396" s="8" t="s">
         <v>3</v>
@@ -6548,7 +6579,7 @@
       </c>
       <c r="B397" s="8"/>
       <c r="C397" s="12" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="D397" s="8" t="s">
         <v>3</v>
@@ -6560,7 +6591,7 @@
       </c>
       <c r="B398" s="8"/>
       <c r="C398" s="12" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="D398" s="8" t="s">
         <v>3</v>
@@ -6572,7 +6603,7 @@
       </c>
       <c r="B399" s="8"/>
       <c r="C399" s="12" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="D399" s="8" t="s">
         <v>3</v>
@@ -6584,7 +6615,7 @@
       </c>
       <c r="B400" s="8"/>
       <c r="C400" s="12" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="D400" s="8" t="s">
         <v>3</v>
@@ -6596,7 +6627,7 @@
       </c>
       <c r="B401" s="8"/>
       <c r="C401" s="12" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="D401" s="8" t="s">
         <v>3</v>
@@ -6608,7 +6639,7 @@
       </c>
       <c r="B402" s="8"/>
       <c r="C402" s="12" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="D402" s="8" t="s">
         <v>3</v>
@@ -6620,7 +6651,7 @@
       </c>
       <c r="B403" s="8"/>
       <c r="C403" s="12" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="D403" s="8" t="s">
         <v>3</v>
@@ -6632,7 +6663,7 @@
       </c>
       <c r="B404" s="8"/>
       <c r="C404" s="12" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="D404" s="8" t="s">
         <v>3</v>
@@ -6644,7 +6675,7 @@
       </c>
       <c r="B405" s="8"/>
       <c r="C405" s="12" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="D405" s="8" t="s">
         <v>3</v>
@@ -6656,7 +6687,7 @@
       </c>
       <c r="B406" s="8"/>
       <c r="C406" s="12" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="D406" s="8" t="s">
         <v>3</v>
@@ -6668,7 +6699,7 @@
       </c>
       <c r="B407" s="8"/>
       <c r="C407" s="12" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="D407" s="8" t="s">
         <v>3</v>
@@ -6680,7 +6711,7 @@
       </c>
       <c r="B408" s="8"/>
       <c r="C408" s="12" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="D408" s="8" t="s">
         <v>3</v>
@@ -6692,7 +6723,7 @@
       </c>
       <c r="B409" s="8"/>
       <c r="C409" s="12" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D409" s="8" t="s">
         <v>3</v>
@@ -6704,7 +6735,7 @@
       </c>
       <c r="B410" s="8"/>
       <c r="C410" s="12" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D410" s="8" t="s">
         <v>3</v>
@@ -6716,7 +6747,7 @@
       </c>
       <c r="B411" s="8"/>
       <c r="C411" s="12" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D411" s="8" t="s">
         <v>3</v>
@@ -6728,7 +6759,7 @@
       </c>
       <c r="B412" s="8"/>
       <c r="C412" s="12" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="D412" s="8" t="s">
         <v>3</v>
@@ -6740,7 +6771,7 @@
       </c>
       <c r="B413" s="8"/>
       <c r="C413" s="12" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="D413" s="8" t="s">
         <v>3</v>
@@ -6752,7 +6783,7 @@
       </c>
       <c r="B414" s="8"/>
       <c r="C414" s="12" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="D414" s="8" t="s">
         <v>3</v>
@@ -6764,7 +6795,7 @@
       </c>
       <c r="B415" s="8"/>
       <c r="C415" s="12" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="D415" s="8" t="s">
         <v>3</v>
@@ -6776,53 +6807,41 @@
       </c>
       <c r="B416" s="8"/>
       <c r="C416" s="12" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="D416" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="417" spans="1:4">
+      <c r="A417" s="8" t="s">
+        <v>342</v>
+      </c>
       <c r="B417" s="8"/>
       <c r="C417" s="12" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="D417" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="418" spans="1:4">
+      <c r="A418" s="8" t="s">
+        <v>342</v>
+      </c>
       <c r="B418" s="8"/>
       <c r="C418" s="12" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D418" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="419" spans="1:4">
-      <c r="A419" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="B419" s="8"/>
-      <c r="C419" s="12" t="s">
-        <v>383</v>
-      </c>
-      <c r="D419" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="D419" s="8"/>
     </row>
     <row r="420" spans="1:4">
-      <c r="A420" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="B420" s="8"/>
-      <c r="C420" s="12" t="s">
-        <v>384</v>
-      </c>
-      <c r="D420" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="D420" s="8"/>
     </row>
     <row r="421" spans="1:4">
       <c r="A421" s="8" t="s">
@@ -6830,7 +6849,7 @@
       </c>
       <c r="B421" s="8"/>
       <c r="C421" s="12" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D421" s="8" t="s">
         <v>3</v>
@@ -6840,13 +6859,25 @@
       <c r="A422" s="8" t="s">
         <v>386</v>
       </c>
-      <c r="D422" s="8"/>
+      <c r="B422" s="8"/>
+      <c r="C422" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="D422" s="8" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="423" spans="1:4">
       <c r="A423" s="8" t="s">
         <v>386</v>
       </c>
-      <c r="D423" s="8"/>
+      <c r="B423" s="8"/>
+      <c r="C423" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="D423" s="8" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="424" spans="1:4">
       <c r="A424" s="8" t="s">
@@ -6854,61 +6885,49 @@
       </c>
       <c r="B424" s="8"/>
       <c r="C424" s="12" t="s">
-        <v>387</v>
+        <v>88</v>
       </c>
       <c r="D424" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="425" spans="1:4">
+      <c r="A425" s="8" t="s">
+        <v>386</v>
+      </c>
       <c r="B425" s="8"/>
       <c r="C425" s="12" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D425" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="426" spans="1:4">
+      <c r="A426" s="8" t="s">
+        <v>386</v>
+      </c>
       <c r="B426" s="8"/>
       <c r="C426" s="12" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="D426" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="427" spans="1:4">
-      <c r="A427" s="11" t="s">
-        <v>392</v>
-      </c>
-      <c r="B427" s="8"/>
-      <c r="C427" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D427" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="D427" s="8"/>
     </row>
     <row r="428" spans="1:4">
-      <c r="A428" s="11" t="s">
-        <v>392</v>
-      </c>
-      <c r="B428" s="8"/>
-      <c r="C428" s="12" t="s">
-        <v>390</v>
-      </c>
-      <c r="D428" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="D428" s="8"/>
     </row>
     <row r="429" spans="1:4">
       <c r="A429" s="11" t="s">
         <v>392</v>
       </c>
-      <c r="B429" s="8"/>
+      <c r="B429" s="11"/>
       <c r="C429" s="12" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D429" s="8" t="s">
         <v>3</v>
@@ -6918,13 +6937,25 @@
       <c r="A430" s="11" t="s">
         <v>392</v>
       </c>
-      <c r="D430" s="8"/>
+      <c r="B430" s="11"/>
+      <c r="C430" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="D430" s="8" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="431" spans="1:4">
       <c r="A431" s="11" t="s">
         <v>392</v>
       </c>
-      <c r="D431" s="8"/>
+      <c r="B431" s="11"/>
+      <c r="C431" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="D431" s="8" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="432" spans="1:4">
       <c r="A432" s="11" t="s">
@@ -6932,7 +6963,7 @@
       </c>
       <c r="B432" s="11"/>
       <c r="C432" s="12" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="D432" s="8" t="s">
         <v>3</v>
@@ -6944,7 +6975,7 @@
       </c>
       <c r="B433" s="11"/>
       <c r="C433" s="12" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="D433" s="8" t="s">
         <v>3</v>
@@ -6956,7 +6987,7 @@
       </c>
       <c r="B434" s="11"/>
       <c r="C434" s="12" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="D434" s="8" t="s">
         <v>3</v>
@@ -6968,7 +6999,7 @@
       </c>
       <c r="B435" s="11"/>
       <c r="C435" s="12" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D435" s="8" t="s">
         <v>3</v>
@@ -6980,7 +7011,7 @@
       </c>
       <c r="B436" s="11"/>
       <c r="C436" s="12" t="s">
-        <v>397</v>
+        <v>272</v>
       </c>
       <c r="D436" s="8" t="s">
         <v>3</v>
@@ -6992,7 +7023,7 @@
       </c>
       <c r="B437" s="11"/>
       <c r="C437" s="12" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D437" s="8" t="s">
         <v>3</v>
@@ -7004,7 +7035,7 @@
       </c>
       <c r="B438" s="11"/>
       <c r="C438" s="12" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D438" s="8" t="s">
         <v>3</v>
@@ -7016,7 +7047,7 @@
       </c>
       <c r="B439" s="11"/>
       <c r="C439" s="12" t="s">
-        <v>272</v>
+        <v>402</v>
       </c>
       <c r="D439" s="8" t="s">
         <v>3</v>
@@ -7028,7 +7059,7 @@
       </c>
       <c r="B440" s="11"/>
       <c r="C440" s="12" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="D440" s="8" t="s">
         <v>3</v>
@@ -7040,7 +7071,7 @@
       </c>
       <c r="B441" s="11"/>
       <c r="C441" s="12" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="D441" s="8" t="s">
         <v>3</v>
@@ -7052,7 +7083,7 @@
       </c>
       <c r="B442" s="11"/>
       <c r="C442" s="12" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="D442" s="8" t="s">
         <v>3</v>
@@ -7064,7 +7095,7 @@
       </c>
       <c r="B443" s="11"/>
       <c r="C443" s="12" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="D443" s="8" t="s">
         <v>3</v>
@@ -7076,7 +7107,7 @@
       </c>
       <c r="B444" s="11"/>
       <c r="C444" s="12" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="D444" s="8" t="s">
         <v>3</v>
@@ -7088,7 +7119,7 @@
       </c>
       <c r="B445" s="11"/>
       <c r="C445" s="12" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="D445" s="8" t="s">
         <v>3</v>
@@ -7100,7 +7131,7 @@
       </c>
       <c r="B446" s="11"/>
       <c r="C446" s="12" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="D446" s="8" t="s">
         <v>3</v>
@@ -7112,7 +7143,7 @@
       </c>
       <c r="B447" s="11"/>
       <c r="C447" s="12" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="D447" s="8" t="s">
         <v>3</v>
@@ -7124,7 +7155,7 @@
       </c>
       <c r="B448" s="11"/>
       <c r="C448" s="12" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="D448" s="8" t="s">
         <v>3</v>
@@ -7136,7 +7167,7 @@
       </c>
       <c r="B449" s="11"/>
       <c r="C449" s="12" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="D449" s="8" t="s">
         <v>3</v>
@@ -7148,7 +7179,7 @@
       </c>
       <c r="B450" s="11"/>
       <c r="C450" s="12" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="D450" s="8" t="s">
         <v>3</v>
@@ -7160,7 +7191,7 @@
       </c>
       <c r="B451" s="11"/>
       <c r="C451" s="12" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="D451" s="8" t="s">
         <v>3</v>
@@ -7172,7 +7203,7 @@
       </c>
       <c r="B452" s="11"/>
       <c r="C452" s="12" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="D452" s="8" t="s">
         <v>3</v>
@@ -7184,7 +7215,7 @@
       </c>
       <c r="B453" s="11"/>
       <c r="C453" s="12" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="D453" s="8" t="s">
         <v>3</v>
@@ -7196,7 +7227,7 @@
       </c>
       <c r="B454" s="11"/>
       <c r="C454" s="12" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="D454" s="8" t="s">
         <v>3</v>
@@ -7208,7 +7239,7 @@
       </c>
       <c r="B455" s="11"/>
       <c r="C455" s="12" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="D455" s="8" t="s">
         <v>3</v>
@@ -7220,7 +7251,7 @@
       </c>
       <c r="B456" s="11"/>
       <c r="C456" s="12" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="D456" s="8" t="s">
         <v>3</v>
@@ -7232,7 +7263,7 @@
       </c>
       <c r="B457" s="11"/>
       <c r="C457" s="12" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="D457" s="8" t="s">
         <v>3</v>
@@ -7244,7 +7275,7 @@
       </c>
       <c r="B458" s="11"/>
       <c r="C458" s="12" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="D458" s="8" t="s">
         <v>3</v>
@@ -7256,7 +7287,7 @@
       </c>
       <c r="B459" s="11"/>
       <c r="C459" s="12" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="D459" s="8" t="s">
         <v>3</v>
@@ -7268,7 +7299,7 @@
       </c>
       <c r="B460" s="11"/>
       <c r="C460" s="12" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="D460" s="8" t="s">
         <v>3</v>
@@ -7280,7 +7311,7 @@
       </c>
       <c r="B461" s="11"/>
       <c r="C461" s="12" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="D461" s="8" t="s">
         <v>3</v>
@@ -7292,7 +7323,7 @@
       </c>
       <c r="B462" s="11"/>
       <c r="C462" s="12" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="D462" s="8" t="s">
         <v>3</v>
@@ -7304,7 +7335,7 @@
       </c>
       <c r="B463" s="11"/>
       <c r="C463" s="12" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="D463" s="8" t="s">
         <v>3</v>
@@ -7316,7 +7347,7 @@
       </c>
       <c r="B464" s="11"/>
       <c r="C464" s="12" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="D464" s="8" t="s">
         <v>3</v>
@@ -7328,7 +7359,7 @@
       </c>
       <c r="B465" s="11"/>
       <c r="C465" s="12" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="D465" s="8" t="s">
         <v>3</v>
@@ -7340,7 +7371,7 @@
       </c>
       <c r="B466" s="11"/>
       <c r="C466" s="12" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="D466" s="8" t="s">
         <v>3</v>
@@ -7352,7 +7383,7 @@
       </c>
       <c r="B467" s="11"/>
       <c r="C467" s="12" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="D467" s="8" t="s">
         <v>3</v>
@@ -7364,7 +7395,7 @@
       </c>
       <c r="B468" s="11"/>
       <c r="C468" s="12" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="D468" s="8" t="s">
         <v>3</v>
@@ -7376,7 +7407,7 @@
       </c>
       <c r="B469" s="11"/>
       <c r="C469" s="12" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="D469" s="8" t="s">
         <v>3</v>
@@ -7388,7 +7419,7 @@
       </c>
       <c r="B470" s="11"/>
       <c r="C470" s="12" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="D470" s="8" t="s">
         <v>3</v>
@@ -7400,7 +7431,7 @@
       </c>
       <c r="B471" s="11"/>
       <c r="C471" s="12" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="D471" s="8" t="s">
         <v>3</v>
@@ -7412,7 +7443,7 @@
       </c>
       <c r="B472" s="11"/>
       <c r="C472" s="12" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="D472" s="8" t="s">
         <v>3</v>
@@ -7424,7 +7455,7 @@
       </c>
       <c r="B473" s="11"/>
       <c r="C473" s="12" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="D473" s="8" t="s">
         <v>3</v>
@@ -7436,7 +7467,7 @@
       </c>
       <c r="B474" s="11"/>
       <c r="C474" s="12" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="D474" s="8" t="s">
         <v>3</v>
@@ -7448,7 +7479,7 @@
       </c>
       <c r="B475" s="11"/>
       <c r="C475" s="12" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="D475" s="8" t="s">
         <v>3</v>
@@ -7460,7 +7491,7 @@
       </c>
       <c r="B476" s="11"/>
       <c r="C476" s="12" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="D476" s="8" t="s">
         <v>3</v>
@@ -7472,7 +7503,7 @@
       </c>
       <c r="B477" s="11"/>
       <c r="C477" s="12" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="D477" s="8" t="s">
         <v>3</v>
@@ -7484,7 +7515,7 @@
       </c>
       <c r="B478" s="11"/>
       <c r="C478" s="12" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="D478" s="8" t="s">
         <v>3</v>
@@ -7496,7 +7527,7 @@
       </c>
       <c r="B479" s="11"/>
       <c r="C479" s="12" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="D479" s="8" t="s">
         <v>3</v>
@@ -7508,7 +7539,7 @@
       </c>
       <c r="B480" s="11"/>
       <c r="C480" s="12" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="D480" s="8" t="s">
         <v>3</v>
@@ -7520,7 +7551,7 @@
       </c>
       <c r="B481" s="11"/>
       <c r="C481" s="12" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="D481" s="8" t="s">
         <v>3</v>
@@ -7532,7 +7563,7 @@
       </c>
       <c r="B482" s="11"/>
       <c r="C482" s="12" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="D482" s="8" t="s">
         <v>3</v>
@@ -7544,7 +7575,7 @@
       </c>
       <c r="B483" s="11"/>
       <c r="C483" s="12" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="D483" s="8" t="s">
         <v>3</v>
@@ -7556,7 +7587,7 @@
       </c>
       <c r="B484" s="11"/>
       <c r="C484" s="12" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="D484" s="8" t="s">
         <v>3</v>
@@ -7568,7 +7599,7 @@
       </c>
       <c r="B485" s="11"/>
       <c r="C485" s="12" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="D485" s="8" t="s">
         <v>3</v>
@@ -7580,54 +7611,43 @@
       </c>
       <c r="B486" s="11"/>
       <c r="C486" s="12" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="D486" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="487" spans="1:4">
+      <c r="A487" s="11" t="s">
+        <v>392</v>
+      </c>
       <c r="B487" s="11"/>
       <c r="C487" s="12" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="D487" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="488" spans="1:4">
-      <c r="A488" s="8"/>
+      <c r="A488" s="11" t="s">
+        <v>392</v>
+      </c>
       <c r="B488" s="11"/>
       <c r="C488" s="12" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="D488" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="489" spans="1:4">
-      <c r="A489" s="11" t="s">
-        <v>452</v>
-      </c>
-      <c r="B489" s="11"/>
-      <c r="C489" s="12" t="s">
-        <v>449</v>
-      </c>
-      <c r="D489" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="D489" s="8"/>
     </row>
     <row r="490" spans="1:4">
-      <c r="A490" s="11" t="s">
-        <v>452</v>
-      </c>
-      <c r="B490" s="11"/>
-      <c r="C490" s="12" t="s">
-        <v>450</v>
-      </c>
-      <c r="D490" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="A490" s="8"/>
+      <c r="B490" s="8"/>
+      <c r="D490" s="8"/>
     </row>
     <row r="491" spans="1:4">
       <c r="A491" s="11" t="s">
@@ -7635,7 +7655,7 @@
       </c>
       <c r="B491" s="11"/>
       <c r="C491" s="12" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="D491" s="8" t="s">
         <v>3</v>
@@ -7645,14 +7665,25 @@
       <c r="A492" s="11" t="s">
         <v>452</v>
       </c>
-      <c r="D492" s="8"/>
+      <c r="B492" s="11"/>
+      <c r="C492" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="D492" s="8" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="493" spans="1:4">
       <c r="A493" s="11" t="s">
         <v>452</v>
       </c>
-      <c r="B493" s="8"/>
-      <c r="D493" s="8"/>
+      <c r="B493" s="11"/>
+      <c r="C493" s="12" t="s">
+        <v>455</v>
+      </c>
+      <c r="D493" s="8" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="494" spans="1:4">
       <c r="A494" s="11" t="s">
@@ -7660,7 +7691,7 @@
       </c>
       <c r="B494" s="11"/>
       <c r="C494" s="12" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="D494" s="8" t="s">
         <v>3</v>
@@ -7672,7 +7703,7 @@
       </c>
       <c r="B495" s="11"/>
       <c r="C495" s="12" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="D495" s="8" t="s">
         <v>3</v>
@@ -7684,7 +7715,7 @@
       </c>
       <c r="B496" s="11"/>
       <c r="C496" s="12" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="D496" s="8" t="s">
         <v>3</v>
@@ -7696,7 +7727,7 @@
       </c>
       <c r="B497" s="11"/>
       <c r="C497" s="12" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="D497" s="8" t="s">
         <v>3</v>
@@ -7708,521 +7739,500 @@
       </c>
       <c r="B498" s="11"/>
       <c r="C498" s="12" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="D498" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="499" spans="1:4">
+      <c r="A499" s="11" t="s">
+        <v>452</v>
+      </c>
       <c r="B499" s="11"/>
       <c r="C499" s="12" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="D499" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="500" spans="1:4">
+      <c r="A500" s="11" t="s">
+        <v>452</v>
+      </c>
       <c r="B500" s="11"/>
       <c r="C500" s="12" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="D500" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="501" spans="1:4">
-      <c r="B501" s="11"/>
-      <c r="C501" s="12" t="s">
-        <v>460</v>
-      </c>
-      <c r="D501" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="502" spans="1:4">
-      <c r="B502" s="11"/>
-      <c r="C502" s="12" t="s">
-        <v>461</v>
-      </c>
-      <c r="D502" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="503" spans="1:4">
-      <c r="B503" s="11"/>
-      <c r="C503" s="12" t="s">
-        <v>462</v>
-      </c>
-      <c r="D503" s="8" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C26" r:id="rId1" xr:uid="{9492A4AD-FA44-BA4B-B154-E4DBB1951162}"/>
-    <hyperlink ref="C27" r:id="rId2" xr:uid="{2D6F1134-3C08-7445-B19A-9B94A18B55C7}"/>
-    <hyperlink ref="C30" r:id="rId3" xr:uid="{E5A98931-37E8-6B4A-90BE-8DC72405341A}"/>
-    <hyperlink ref="C31" r:id="rId4" xr:uid="{02736918-E09F-7A46-90B3-AFCC33AA559B}"/>
-    <hyperlink ref="C32" r:id="rId5" xr:uid="{6E8DD30A-A9F9-4C44-B26C-C9E236F10798}"/>
-    <hyperlink ref="C33" r:id="rId6" xr:uid="{0D55765B-95A7-154F-96F3-B7E4C581021F}"/>
-    <hyperlink ref="C34" r:id="rId7" xr:uid="{6F687ABA-C04B-AF4F-9F11-A038DCB20FB9}"/>
-    <hyperlink ref="C35" r:id="rId8" xr:uid="{11C9D8CC-9F1E-004E-8EC2-C758DC9C8CAB}"/>
-    <hyperlink ref="C36" r:id="rId9" xr:uid="{56E4962F-CB3D-9E48-A26E-19A1F5C800C9}"/>
-    <hyperlink ref="C37" r:id="rId10" xr:uid="{899DDBD9-9ED6-3A4D-8AFE-8FAA6DA88DBC}"/>
-    <hyperlink ref="C38" r:id="rId11" xr:uid="{76D41EAC-A28A-2845-8515-CA3C70D823B7}"/>
-    <hyperlink ref="C39" r:id="rId12" xr:uid="{828948BE-DD97-DE4A-BAD6-B415E29198F0}"/>
-    <hyperlink ref="C40" r:id="rId13" xr:uid="{E98C86AA-12E7-124C-B7D0-BCDFB246040B}"/>
-    <hyperlink ref="C41" r:id="rId14" xr:uid="{192741A9-FF68-DC4A-99FA-69F9968AB4F2}"/>
-    <hyperlink ref="C42" r:id="rId15" xr:uid="{DBD9BA9C-91C6-B144-A800-DCB3BED33DE7}"/>
-    <hyperlink ref="C43" r:id="rId16" xr:uid="{A285BDE8-00E7-A94C-8E43-A0C4829D42FA}"/>
-    <hyperlink ref="C44" r:id="rId17" xr:uid="{B0C21764-2962-1649-8AFA-10FB9420C5FC}"/>
-    <hyperlink ref="C45" r:id="rId18" xr:uid="{9282CC15-9B38-E54B-B64C-557745C9C00A}"/>
-    <hyperlink ref="C46" r:id="rId19" xr:uid="{3BCCEBE2-AC3B-AC4F-8BA9-439ACEA133D4}"/>
-    <hyperlink ref="C47" r:id="rId20" xr:uid="{74F8D761-6EBF-594A-A6C7-40DE4CE96958}"/>
-    <hyperlink ref="C48" r:id="rId21" xr:uid="{79947FE6-D417-D644-81D8-D058180550A0}"/>
-    <hyperlink ref="C49" r:id="rId22" xr:uid="{2BF3F606-410B-264D-BF60-191C34D616BB}"/>
-    <hyperlink ref="C50" r:id="rId23" xr:uid="{CD98DB26-0F2F-FD40-A989-53FE548D7D34}"/>
-    <hyperlink ref="C51" r:id="rId24" xr:uid="{307032A1-F8EF-1A48-BFE3-EA3283D39BE2}"/>
-    <hyperlink ref="C52" r:id="rId25" xr:uid="{AA329F36-941A-9241-9402-9D220B05E719}"/>
-    <hyperlink ref="C53" r:id="rId26" xr:uid="{9E851DAC-0E30-B340-84F9-721D70B66919}"/>
-    <hyperlink ref="C54" r:id="rId27" xr:uid="{468380BA-4978-A645-ABD0-E74FD3E6BDBB}"/>
-    <hyperlink ref="C55" r:id="rId28" xr:uid="{289E6890-8CCB-D645-9B3F-6138FFC1C249}"/>
-    <hyperlink ref="C56" r:id="rId29" xr:uid="{8EABDC68-858F-784A-A8F1-C603E3B8C1FE}"/>
-    <hyperlink ref="C57" r:id="rId30" xr:uid="{6157E427-1210-3F45-A4DC-6DFD2373B9CF}"/>
-    <hyperlink ref="C58" r:id="rId31" xr:uid="{2D7BA55E-9947-FF4D-BC09-FB4A5ADA07EC}"/>
-    <hyperlink ref="C59" r:id="rId32" xr:uid="{3337C74F-8B73-E64E-A6DA-5D9F7C7B4D32}"/>
-    <hyperlink ref="C60" r:id="rId33" xr:uid="{02370124-E58D-B540-BBCF-98266229556D}"/>
-    <hyperlink ref="C61" r:id="rId34" xr:uid="{F2DE2162-BD02-7549-AC1A-27455F78131F}"/>
-    <hyperlink ref="C62" r:id="rId35" xr:uid="{6FA286B9-3994-624D-B0B8-C01657D110AD}"/>
-    <hyperlink ref="C63" r:id="rId36" xr:uid="{6EFBEDA1-5C10-2547-8FB2-44E977513B28}"/>
-    <hyperlink ref="C66" r:id="rId37" xr:uid="{090EC515-BEBE-514E-BA59-A84E450B4211}"/>
-    <hyperlink ref="C67" r:id="rId38" xr:uid="{0A0557FD-77E5-564B-B100-147D544A38B4}"/>
-    <hyperlink ref="C68" r:id="rId39" xr:uid="{3F82F2E0-AA59-5042-B079-F3B3C6FF2FD7}"/>
-    <hyperlink ref="C69" r:id="rId40" xr:uid="{FFF7D257-1F58-5A4B-AAA2-F5480AED86C7}"/>
-    <hyperlink ref="C70" r:id="rId41" xr:uid="{353E28FA-E36D-7447-9DE8-787DF11C4669}"/>
-    <hyperlink ref="C71" r:id="rId42" xr:uid="{F9B53127-FC98-FE43-B53F-BFDBCE2A4427}"/>
-    <hyperlink ref="C72" r:id="rId43" xr:uid="{40685BBC-CE24-624E-9ABB-98490B7DE0E4}"/>
-    <hyperlink ref="C73" r:id="rId44" xr:uid="{7733D505-2EC7-E346-B3DA-C980C7CE0B27}"/>
-    <hyperlink ref="C74" r:id="rId45" xr:uid="{E8C1FE00-7B4B-5745-8E4B-CD44B6C749E3}"/>
-    <hyperlink ref="C75" r:id="rId46" xr:uid="{FDE181B1-57B0-7C4B-A189-C7C6E4EAEF99}"/>
-    <hyperlink ref="C78" r:id="rId47" xr:uid="{FE85FD72-4FC9-334E-8205-9E8B238954EB}"/>
-    <hyperlink ref="C79" r:id="rId48" xr:uid="{7630AD76-7E6B-8C4A-BA33-A62EBB042215}"/>
-    <hyperlink ref="C80" r:id="rId49" xr:uid="{2A738B70-CBF0-CC40-8B05-A271822B3F1A}"/>
-    <hyperlink ref="C82" r:id="rId50" xr:uid="{B2DE2D9E-8371-CD44-9D0D-4D6DC64AC29B}"/>
-    <hyperlink ref="C83" r:id="rId51" xr:uid="{265DCD11-17A0-654E-BEFE-FABA31210C6E}"/>
-    <hyperlink ref="C84" r:id="rId52" xr:uid="{47F1BB0C-0C5C-0845-8EEC-1560C50D7DA7}"/>
-    <hyperlink ref="C85" r:id="rId53" xr:uid="{8E0BFA2E-CCB4-514F-86CD-78176C6CC98A}"/>
-    <hyperlink ref="C86" r:id="rId54" xr:uid="{E4DEFB4B-749F-8746-97C7-F2B433664A74}"/>
-    <hyperlink ref="C87" r:id="rId55" xr:uid="{8301BDBD-EB7E-7D41-A777-ED99C3F9D67D}"/>
-    <hyperlink ref="C88" r:id="rId56" xr:uid="{927AE532-647F-AF4C-A567-40ADA6FCE534}"/>
-    <hyperlink ref="C89" r:id="rId57" xr:uid="{05489F52-CC92-EC44-9AD3-773DEC3B1D36}"/>
-    <hyperlink ref="C90" r:id="rId58" xr:uid="{13025DF6-C30E-014A-B66C-68C4AAAC1C6E}"/>
-    <hyperlink ref="C91" r:id="rId59" xr:uid="{BEE1F613-C189-B949-A225-0E0C5AFD1532}"/>
-    <hyperlink ref="C92" r:id="rId60" xr:uid="{1DFECD6C-D7CC-0340-B29B-4D56E50711E5}"/>
-    <hyperlink ref="C93" r:id="rId61" xr:uid="{70BED156-B004-E043-BF7D-59EFAA9EADAF}"/>
-    <hyperlink ref="C94" r:id="rId62" xr:uid="{FF9CBAFB-900E-E242-8B33-EDF46F0F40B5}"/>
-    <hyperlink ref="C95" r:id="rId63" xr:uid="{19461114-B3E8-9042-8029-100010946A04}"/>
-    <hyperlink ref="C96" r:id="rId64" xr:uid="{00F71118-E30B-A84E-819E-FFA902C70502}"/>
-    <hyperlink ref="C97" r:id="rId65" xr:uid="{58E70966-BBE0-7743-A250-AE4DD57807DE}"/>
-    <hyperlink ref="C98" r:id="rId66" xr:uid="{09409FE3-9D7E-4F43-BB21-14A1B8D6E480}"/>
-    <hyperlink ref="C99" r:id="rId67" xr:uid="{E199A3DC-3DA1-C648-93C0-DF9CD5331204}"/>
-    <hyperlink ref="C100" r:id="rId68" xr:uid="{85886847-1510-AA46-B10C-F3D80591DD74}"/>
-    <hyperlink ref="C101" r:id="rId69" xr:uid="{F60808FC-F09D-FC44-B2DD-752E55A1C698}"/>
-    <hyperlink ref="C102" r:id="rId70" xr:uid="{16B2725E-1AD5-0441-9B5B-B6B2F458091B}"/>
-    <hyperlink ref="C103" r:id="rId71" xr:uid="{8440D753-5DE9-3243-97C2-C09D195C325F}"/>
-    <hyperlink ref="C104" r:id="rId72" xr:uid="{AC63A963-B6CC-6E4E-B72A-7F472BC4C027}"/>
-    <hyperlink ref="C105" r:id="rId73" xr:uid="{B21B87F1-A0C0-7F4E-B36F-912B871D0EF4}"/>
-    <hyperlink ref="C106" r:id="rId74" xr:uid="{789FFFAC-8B7E-0540-98B8-856430EB56F8}"/>
-    <hyperlink ref="C107" r:id="rId75" xr:uid="{4A0E959E-22F4-6948-A819-76FE76AB9F6D}"/>
-    <hyperlink ref="C108" r:id="rId76" xr:uid="{78B76678-D8EE-9745-98B1-DF7A76EA3B10}"/>
-    <hyperlink ref="C109" r:id="rId77" xr:uid="{62982242-1D19-1544-8653-8E25E9BF4505}"/>
-    <hyperlink ref="C110" r:id="rId78" xr:uid="{8E3D4BDF-9F8F-0542-BFD8-C3CE3BF396E6}"/>
-    <hyperlink ref="C111" r:id="rId79" xr:uid="{A3D51762-65A1-9A44-B619-D1D98A7F403B}"/>
-    <hyperlink ref="C112" r:id="rId80" xr:uid="{ED0F5FC7-0066-EB44-8FCF-460600DADB02}"/>
-    <hyperlink ref="C113" r:id="rId81" xr:uid="{2D956AC4-4774-7446-8473-C4CE00E33C17}"/>
-    <hyperlink ref="C114" r:id="rId82" xr:uid="{C8C607BB-1FEE-FA47-9E3E-6C0BCE978B7F}"/>
-    <hyperlink ref="C115" r:id="rId83" xr:uid="{B9AC5194-6D36-684A-A5C4-BEE11037599F}"/>
-    <hyperlink ref="C116" r:id="rId84" xr:uid="{AB28D9E6-890C-F14A-A5FB-2303BE319968}"/>
-    <hyperlink ref="C117" r:id="rId85" xr:uid="{1F507CBC-4056-AD46-9314-95ECBB9D799D}"/>
-    <hyperlink ref="C118" r:id="rId86" xr:uid="{F152A9AF-5CBA-EC44-A9CF-07AB481435AB}"/>
-    <hyperlink ref="C119" r:id="rId87" xr:uid="{346CA74F-60B7-0A4B-A612-9184D4DCFF62}"/>
-    <hyperlink ref="C120" r:id="rId88" xr:uid="{8C653CB1-4954-754F-8D46-F09141A2FCDB}"/>
-    <hyperlink ref="C123" r:id="rId89" xr:uid="{5989F693-2A61-A346-8395-8674307A4CC2}"/>
-    <hyperlink ref="C124" r:id="rId90" xr:uid="{3AD10C9E-4F6D-DE48-92F3-531A586520C6}"/>
-    <hyperlink ref="C125" r:id="rId91" xr:uid="{4FA217C0-A1F3-904E-8FEA-EA4941273A67}"/>
-    <hyperlink ref="C126" r:id="rId92" xr:uid="{A297BBC0-FA0D-2D46-9C49-3932193EF1D3}"/>
-    <hyperlink ref="C128" r:id="rId93" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance." xr:uid="{DCD751DE-E440-F346-B6FD-CBD072217214}"/>
-    <hyperlink ref="C129" r:id="rId94" xr:uid="{B2FD38B9-1E2B-8140-8291-F45734C98145}"/>
-    <hyperlink ref="C130" r:id="rId95" xr:uid="{C76888B3-18AC-9B48-9E2A-64A7DF0902B7}"/>
-    <hyperlink ref="C131" r:id="rId96" xr:uid="{18A79860-6C9E-A941-8D6C-360B9913E941}"/>
-    <hyperlink ref="C132" r:id="rId97" xr:uid="{C0DDFD68-CBC1-0F4A-AF40-ACF36BBC8453}"/>
-    <hyperlink ref="C133" r:id="rId98" xr:uid="{3E0BF737-E42E-C946-B32C-06882E0BA6FF}"/>
-    <hyperlink ref="C135" r:id="rId99" xr:uid="{862F9782-C57B-2848-A2D9-EB7B52FB7EC7}"/>
-    <hyperlink ref="C136" r:id="rId100" xr:uid="{230D7A6A-D2C5-C140-9A65-B1F407D22062}"/>
-    <hyperlink ref="C137" r:id="rId101" xr:uid="{BDC2BA28-4562-984E-8282-1126BF952EAF}"/>
-    <hyperlink ref="C138" r:id="rId102" xr:uid="{B53A5F28-6DED-3D47-8679-F78D3DDEFF01}"/>
-    <hyperlink ref="C139" r:id="rId103" xr:uid="{C57D0CC7-DA2F-0948-9BCE-F19C20C7D981}"/>
-    <hyperlink ref="C140" r:id="rId104" xr:uid="{117878E5-B8C8-254B-8ED6-014B4B7A8126}"/>
-    <hyperlink ref="C141" r:id="rId105" xr:uid="{B7CC0756-74F2-D54D-BDEE-9DA394DD7168}"/>
-    <hyperlink ref="C142" r:id="rId106" xr:uid="{837EF472-CCC2-CF47-A8A8-238E56F722CE}"/>
-    <hyperlink ref="C143" r:id="rId107" xr:uid="{3608F267-6AA0-624B-B243-7DDD317E9F08}"/>
-    <hyperlink ref="C144" r:id="rId108" xr:uid="{0B6123E6-0472-374B-ACA7-6914CD7918E8}"/>
-    <hyperlink ref="C145" r:id="rId109" xr:uid="{D3971CEB-C53E-B04B-9C32-1803182B5DC5}"/>
-    <hyperlink ref="C146" r:id="rId110" xr:uid="{7CF5013A-643E-1643-93A1-A2F1500D2A23}"/>
-    <hyperlink ref="C147" r:id="rId111" xr:uid="{2A6BE7E5-D818-6843-8C3E-99EA2BFE0FB2}"/>
-    <hyperlink ref="C148" r:id="rId112" xr:uid="{E718F544-96DF-A04E-8DFB-7639DA3EA57C}"/>
-    <hyperlink ref="C149" r:id="rId113" xr:uid="{B0C2F065-424A-7345-A864-346ECD98D749}"/>
-    <hyperlink ref="C150" r:id="rId114" xr:uid="{B4E26955-5C3F-804E-B19A-11260310AFB3}"/>
-    <hyperlink ref="C151" r:id="rId115" xr:uid="{6F299BB5-8E82-0240-A9A3-6829CE3ABCBF}"/>
-    <hyperlink ref="C152" r:id="rId116" xr:uid="{A42CA32F-2196-1840-A53D-E5073237C68D}"/>
-    <hyperlink ref="C153" r:id="rId117" xr:uid="{7ECF6EF4-962E-4642-9B1C-C3B70674793E}"/>
-    <hyperlink ref="C154" r:id="rId118" xr:uid="{2A109178-6B60-164E-9D25-42B3282137E3}"/>
-    <hyperlink ref="C155" r:id="rId119" xr:uid="{B3D38BD0-A6A1-8D41-8405-45E1BEEEEF06}"/>
-    <hyperlink ref="C156" r:id="rId120" xr:uid="{A1C26612-D040-2A41-A6A6-A8F2490C0A43}"/>
-    <hyperlink ref="C157" r:id="rId121" xr:uid="{C476E807-64CB-F44A-A23D-D21EBF6D001D}"/>
-    <hyperlink ref="C158" r:id="rId122" xr:uid="{9A414D55-D4A1-F147-9207-61B597D57136}"/>
-    <hyperlink ref="C127" r:id="rId123" xr:uid="{18B028A7-9B6F-D841-8548-924D70530779}"/>
-    <hyperlink ref="C134" r:id="rId124" xr:uid="{6D3E75EF-733F-7A4B-81C8-AEF6CB6335F0}"/>
-    <hyperlink ref="C161" r:id="rId125" xr:uid="{C9EB2682-BE0B-934B-B0B4-1DD1A1502647}"/>
-    <hyperlink ref="C162" r:id="rId126" xr:uid="{2992FED9-2B78-A342-92AA-E7C0F882FF17}"/>
-    <hyperlink ref="C163" r:id="rId127" xr:uid="{0084DA6F-EC84-BD48-BDA8-EBACA3BB3B3E}"/>
-    <hyperlink ref="C164" r:id="rId128" xr:uid="{30F2D415-4B2C-384C-8EAE-2CC71CB518E2}"/>
-    <hyperlink ref="C165" r:id="rId129" xr:uid="{40734C88-7C5B-9747-86D1-03463D9AD41A}"/>
-    <hyperlink ref="C166" r:id="rId130" xr:uid="{1040D22F-6729-104A-A229-CBDCED93024A}"/>
-    <hyperlink ref="C167" r:id="rId131" xr:uid="{E131FE61-FABF-8E4B-8EF0-F68379D8F836}"/>
-    <hyperlink ref="C168" r:id="rId132" xr:uid="{B2129272-1351-3745-883B-E6A7115450C8}"/>
-    <hyperlink ref="C169" r:id="rId133" xr:uid="{C8B2DEF0-2B69-C84E-8013-0B6F03FFC250}"/>
-    <hyperlink ref="C170" r:id="rId134" xr:uid="{536AC5CF-712F-BF48-94A9-D0E7DC013020}"/>
-    <hyperlink ref="C171" r:id="rId135" xr:uid="{2DABC9C7-43D4-1249-AF9B-5FA4552611CB}"/>
-    <hyperlink ref="C172" r:id="rId136" xr:uid="{DA62E73A-B495-F94A-BECE-D42E4CBF074A}"/>
-    <hyperlink ref="C173" r:id="rId137" xr:uid="{7F5E6966-850D-4F49-B2A5-678365713F28}"/>
-    <hyperlink ref="C174" r:id="rId138" xr:uid="{E9C4286D-8493-9A47-8B8C-09583FA72B70}"/>
-    <hyperlink ref="C175" r:id="rId139" xr:uid="{9EB0123C-84AE-1C4D-BA1A-C28CFB8EFB89}"/>
-    <hyperlink ref="C176" r:id="rId140" xr:uid="{9D11FED4-328F-674E-889D-EC781DD1D791}"/>
-    <hyperlink ref="C177" r:id="rId141" xr:uid="{48AE72DB-397B-464D-88AD-B8058ED29CC1}"/>
-    <hyperlink ref="C178" r:id="rId142" xr:uid="{152D50E9-7448-F542-AC66-05D0AE66664C}"/>
-    <hyperlink ref="C179" r:id="rId143" xr:uid="{34E6AF1B-5FB1-3A4B-8938-1DCF80831DC2}"/>
-    <hyperlink ref="C180" r:id="rId144" xr:uid="{E7F8B7CA-49F4-1946-91EE-E7582BE4E5DA}"/>
-    <hyperlink ref="C181" r:id="rId145" xr:uid="{3590A994-B7A2-C14D-9BF8-7AC8FE9E7F0F}"/>
-    <hyperlink ref="C182" r:id="rId146" xr:uid="{0AAA4B0C-4921-C34D-B41E-D702FA860892}"/>
-    <hyperlink ref="C183" r:id="rId147" xr:uid="{5973FCA4-AE32-5248-A6ED-2694367332F1}"/>
-    <hyperlink ref="C184" r:id="rId148" xr:uid="{4C0F816E-F043-0C47-BF16-1CDAD88D2FF1}"/>
-    <hyperlink ref="C185" r:id="rId149" xr:uid="{A8E4C654-D0BD-8945-9F5C-B09F7BC114BE}"/>
-    <hyperlink ref="C188" r:id="rId150" xr:uid="{E3825C15-10BB-E24F-B229-983F651DA942}"/>
-    <hyperlink ref="C189" r:id="rId151" xr:uid="{46ECFC31-388C-6241-8FFE-DED6F2FC794A}"/>
-    <hyperlink ref="C190" r:id="rId152" xr:uid="{589E024D-3FE1-1048-890C-88289733F233}"/>
-    <hyperlink ref="C191" r:id="rId153" xr:uid="{CDA28F7A-7FC5-F74D-B27E-A6E0161D41D5}"/>
-    <hyperlink ref="C192" r:id="rId154" xr:uid="{DA6A0D92-DCEB-DA4F-8BBA-10FCD092838F}"/>
-    <hyperlink ref="C193" r:id="rId155" xr:uid="{955769DB-3256-254B-90DE-E1E01B272F8A}"/>
-    <hyperlink ref="C194" r:id="rId156" xr:uid="{DED7AC9B-40D7-0545-9D6F-6CD4F5FFE4C6}"/>
-    <hyperlink ref="C195" r:id="rId157" xr:uid="{6947A4E1-B6AA-6D4F-A6D8-8FA74FD02887}"/>
-    <hyperlink ref="C196" r:id="rId158" xr:uid="{EABF2012-5A90-0C4E-86F6-FDB5FA7770BE}"/>
-    <hyperlink ref="C199" r:id="rId159" xr:uid="{7F44CFE0-9ED1-A44D-B9EF-CF87BEB644FC}"/>
-    <hyperlink ref="C200" r:id="rId160" xr:uid="{CF6E0CF6-7A93-D84A-9CE0-5BDD51767416}"/>
-    <hyperlink ref="C201" r:id="rId161" xr:uid="{EFF8F154-60B8-B84B-84CA-32756BD6430F}"/>
-    <hyperlink ref="C202" r:id="rId162" xr:uid="{C8A3094E-E11B-2543-B05E-1D07048B2EBA}"/>
-    <hyperlink ref="C203" r:id="rId163" xr:uid="{9961E5F5-B5C6-0C4D-A1D0-D04D2A5D7DFD}"/>
-    <hyperlink ref="C204" r:id="rId164" xr:uid="{44E289EC-47DD-D94D-88C1-CB2F59C6C16A}"/>
-    <hyperlink ref="C205" r:id="rId165" xr:uid="{4161FC70-DD6D-684B-898A-A4711596B2D5}"/>
-    <hyperlink ref="C206" r:id="rId166" xr:uid="{B9CBE387-8E9A-ED48-8310-CF7D34FA690C}"/>
-    <hyperlink ref="C207" r:id="rId167" xr:uid="{5398097B-24FF-9543-8F02-33CE2860F1F7}"/>
-    <hyperlink ref="C208" r:id="rId168" xr:uid="{3B1FC30B-30C8-7B48-AF94-A81FB513F24F}"/>
-    <hyperlink ref="C209" r:id="rId169" xr:uid="{32B750D0-D7F2-694D-AB9B-25AFAFAFF17F}"/>
-    <hyperlink ref="C210" r:id="rId170" xr:uid="{400689DD-8E95-024E-976B-AACD8ED4E1A6}"/>
-    <hyperlink ref="C211" r:id="rId171" xr:uid="{28753DDE-E047-5D40-A30B-1103BE6DA08F}"/>
-    <hyperlink ref="C212" r:id="rId172" xr:uid="{6C5AA6CB-3D93-0740-AEED-9E6C218CF6CB}"/>
-    <hyperlink ref="C213" r:id="rId173" xr:uid="{03EAA2B9-D8B8-D642-BF24-380596D26B2E}"/>
-    <hyperlink ref="C214" r:id="rId174" xr:uid="{8C1719B4-37CC-484E-BDCE-A4272C07F91B}"/>
-    <hyperlink ref="C215" r:id="rId175" xr:uid="{6C198DA2-BB98-F940-8EF6-2FC8B7AE577A}"/>
-    <hyperlink ref="C216" r:id="rId176" xr:uid="{AB0EA311-A446-D046-A0EC-290B42068328}"/>
-    <hyperlink ref="C217" r:id="rId177" xr:uid="{DB913045-B9F6-6549-AA09-22B0CC5FDD21}"/>
-    <hyperlink ref="C218" r:id="rId178" xr:uid="{806469FD-617A-7445-AAB5-FB2FD2ED24EA}"/>
-    <hyperlink ref="C219" r:id="rId179" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." xr:uid="{1A10544E-58CF-D04D-9FAF-2FEC6DB2B5D4}"/>
-    <hyperlink ref="C220" r:id="rId180" xr:uid="{5A0B6645-89FD-E044-A706-9FB890274C3C}"/>
-    <hyperlink ref="C221" r:id="rId181" xr:uid="{B42A3009-E8EB-EE44-885F-6699C17A0E0B}"/>
-    <hyperlink ref="C222" r:id="rId182" xr:uid="{ED3E48AB-E25B-3744-B024-E97B2A319B46}"/>
-    <hyperlink ref="C223" r:id="rId183" xr:uid="{C75D20A3-CBAE-2649-A3EE-E49177CFA343}"/>
-    <hyperlink ref="C224" r:id="rId184" xr:uid="{3863CA1B-D43E-1144-91A9-17C2DCF52A64}"/>
-    <hyperlink ref="C225" r:id="rId185" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." xr:uid="{E9AF434E-4CAA-5D49-8AD3-889CDE2913D9}"/>
-    <hyperlink ref="C226" r:id="rId186" xr:uid="{1A0568E5-3A11-7F47-8001-82B05D7C2339}"/>
-    <hyperlink ref="C227" r:id="rId187" xr:uid="{F62B8AE4-9C4F-9544-8861-CD733C12F79E}"/>
-    <hyperlink ref="C228" r:id="rId188" xr:uid="{0F6A542C-44C9-5A4C-90BF-BC8C239877D2}"/>
-    <hyperlink ref="C229" r:id="rId189" xr:uid="{3ED28203-B1B5-4E46-AAF3-779EDD4AC03F}"/>
-    <hyperlink ref="C230" r:id="rId190" xr:uid="{4338B305-B52F-5540-9B51-B938FC6803A2}"/>
-    <hyperlink ref="C231" r:id="rId191" xr:uid="{DDEEED0F-A939-1E4F-B2FA-AD391A4A2874}"/>
-    <hyperlink ref="C232" r:id="rId192" xr:uid="{C2F20589-AD81-654C-94E5-E5B6C9FE27F6}"/>
-    <hyperlink ref="C233" r:id="rId193" xr:uid="{BBEB9DAC-E4AE-C04F-AA15-6356AFC57FDE}"/>
-    <hyperlink ref="C236" r:id="rId194" xr:uid="{6316566D-A10A-F849-9F25-B9ED4DA12BC7}"/>
-    <hyperlink ref="C237" r:id="rId195" xr:uid="{9D4DD895-FBA6-C849-A5BF-3B30755BD9C9}"/>
-    <hyperlink ref="C238" r:id="rId196" xr:uid="{475996DA-632A-BE49-AEA1-D4189FD614A1}"/>
-    <hyperlink ref="C239" r:id="rId197" xr:uid="{88E0C858-8468-884F-BB71-F6F176BD5FC2}"/>
-    <hyperlink ref="C240" r:id="rId198" xr:uid="{C1C5C8D0-7A06-3D4A-A85A-AAACC1B418C9}"/>
-    <hyperlink ref="C241" r:id="rId199" xr:uid="{D525D4B1-2857-1543-8CD9-196728321203}"/>
-    <hyperlink ref="C242" r:id="rId200" xr:uid="{51E3AB9B-04B2-C041-A2B3-37E3EB18013A}"/>
-    <hyperlink ref="C243" r:id="rId201" xr:uid="{7F7F0C9A-57B9-314F-959A-B8ACAFA5FD13}"/>
-    <hyperlink ref="C244" r:id="rId202" xr:uid="{3B029785-83B4-6140-8B70-CD892CFC87F6}"/>
-    <hyperlink ref="C245" r:id="rId203" xr:uid="{B0A390E6-D860-9F4E-B021-68949FE712F3}"/>
-    <hyperlink ref="C246" r:id="rId204" xr:uid="{49E9953D-52F6-BF47-8AAA-8E456F55576B}"/>
-    <hyperlink ref="C247" r:id="rId205" xr:uid="{9B812470-F419-A54E-8365-06A9B8864A30}"/>
-    <hyperlink ref="C248" r:id="rId206" xr:uid="{B6FB4107-1933-6D45-9EF4-4474E06CBE9D}"/>
-    <hyperlink ref="C249" r:id="rId207" xr:uid="{0F7C1D92-7BCB-D14D-A658-9599984E04E4}"/>
-    <hyperlink ref="C250" r:id="rId208" xr:uid="{6810428F-0A78-964C-A8C8-E1CD2E7C405D}"/>
-    <hyperlink ref="C251" r:id="rId209" xr:uid="{B40209F2-0D6E-364F-8AF6-F1D182509314}"/>
-    <hyperlink ref="C252" r:id="rId210" xr:uid="{96C53FA9-9FD3-2D4F-B292-3C9DEDFA806E}"/>
-    <hyperlink ref="C253" r:id="rId211" xr:uid="{918B420D-3678-FD46-9463-595E8ACC39E1}"/>
-    <hyperlink ref="C254" r:id="rId212" xr:uid="{851A7153-3B54-0E4A-A0A0-FCEB091AFE70}"/>
-    <hyperlink ref="C255" r:id="rId213" xr:uid="{C03AE9F8-09AE-C640-81A7-033BB06FB6AD}"/>
-    <hyperlink ref="C256" r:id="rId214" xr:uid="{35140DEB-52D2-4342-88D2-22BA061E5B48}"/>
-    <hyperlink ref="C257" r:id="rId215" xr:uid="{9714BC0B-3373-934C-B7A1-599F74F4FB9D}"/>
-    <hyperlink ref="C260" r:id="rId216" xr:uid="{5CB435B2-7FD2-1D44-9872-22B6A1EDC02B}"/>
-    <hyperlink ref="C261" r:id="rId217" xr:uid="{722D1D95-896B-4642-BABD-31DEDD237B49}"/>
-    <hyperlink ref="C262" r:id="rId218" xr:uid="{D686D1DC-13D6-284C-B606-E087FAF47399}"/>
-    <hyperlink ref="C263" r:id="rId219" xr:uid="{D22C2394-C3CB-8F4F-A010-2B13C8C84D1A}"/>
-    <hyperlink ref="C264" r:id="rId220" xr:uid="{3AE2F800-B66F-1A41-893B-978F6875FDC8}"/>
-    <hyperlink ref="C265" r:id="rId221" xr:uid="{2C939BDE-5298-5541-837B-8C59D53A33C1}"/>
-    <hyperlink ref="C266" r:id="rId222" xr:uid="{691C9BD8-69D3-DA4B-AEB6-AF827B4ACA9F}"/>
-    <hyperlink ref="C267" r:id="rId223" xr:uid="{B6891E82-7C4D-424D-9219-3C9FD08E0053}"/>
-    <hyperlink ref="C268" r:id="rId224" xr:uid="{67A1AE98-62D2-644D-AC13-6CD76CF53CC0}"/>
-    <hyperlink ref="C269" r:id="rId225" xr:uid="{B59D4881-2A82-8F4D-B151-1E796C4923C8}"/>
-    <hyperlink ref="C270" r:id="rId226" xr:uid="{B3CBD023-5EFD-6048-9B3F-89F0C65CBBF5}"/>
-    <hyperlink ref="C271" r:id="rId227" xr:uid="{53EC42C4-22F7-0445-A0AC-7275A59A2672}"/>
-    <hyperlink ref="C272" r:id="rId228" xr:uid="{A29575F3-CB24-5B4B-9538-D5212B2DC28B}"/>
-    <hyperlink ref="C273" r:id="rId229" xr:uid="{353A44DD-9E30-8F48-8E2B-8DAA07550470}"/>
-    <hyperlink ref="C274" r:id="rId230" xr:uid="{32AC291D-95A5-BE49-88E0-02677BF39CAC}"/>
-    <hyperlink ref="C275" r:id="rId231" xr:uid="{A84F22FF-AD10-A546-8998-B066C0EB2D5A}"/>
-    <hyperlink ref="C276" r:id="rId232" xr:uid="{4C5CAF84-9B94-FC44-8C6C-B3CC7257C1DB}"/>
-    <hyperlink ref="C277" r:id="rId233" xr:uid="{5DA775E2-C516-3B47-8C82-3CEE7CC0BDF9}"/>
-    <hyperlink ref="C278" r:id="rId234" xr:uid="{00B6AE5C-EF3F-0747-A280-3BF055362B4F}"/>
-    <hyperlink ref="C279" r:id="rId235" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." xr:uid="{BCBD0A7E-F3D0-E840-9375-AFD37C5CD41A}"/>
-    <hyperlink ref="C280" r:id="rId236" xr:uid="{47ABDDDB-F95F-8049-9FB3-1E71A7376DDE}"/>
-    <hyperlink ref="C281" r:id="rId237" xr:uid="{70BADFC9-7399-234D-99F6-4C5F02397C26}"/>
-    <hyperlink ref="C282" r:id="rId238" xr:uid="{63348580-70EF-EC47-BF49-8ECE9560D54E}"/>
-    <hyperlink ref="C283" r:id="rId239" xr:uid="{D5BD96B3-9EAB-1B47-AC87-5C47F6AD7F40}"/>
-    <hyperlink ref="C284" r:id="rId240" xr:uid="{74791141-3FB8-7540-B45B-9541AF0AE371}"/>
-    <hyperlink ref="C285" r:id="rId241" xr:uid="{88D53CD6-262A-7247-8E58-FE9FFF7ECC40}"/>
-    <hyperlink ref="C286" r:id="rId242" xr:uid="{4338A14D-4F7D-B943-A347-7F74EFCA0DB5}"/>
-    <hyperlink ref="C287" r:id="rId243" xr:uid="{6E0EF7A3-7341-284B-A0E3-4539B6EAFAF2}"/>
-    <hyperlink ref="C288" r:id="rId244" xr:uid="{D2D8D64F-E2D3-734E-AD45-3EFB9686555A}"/>
-    <hyperlink ref="C289" r:id="rId245" xr:uid="{04A2904A-73A0-7845-9868-2CCFE359AC68}"/>
-    <hyperlink ref="C290" r:id="rId246" xr:uid="{D3D35835-6BE3-4D41-AF6F-5FE442277A16}"/>
-    <hyperlink ref="C291" r:id="rId247" xr:uid="{F663D0FC-CFF0-BC4F-9D26-48C871A8E9FD}"/>
-    <hyperlink ref="C292" r:id="rId248" xr:uid="{DF544147-DA48-4041-A4E2-4A75106B771A}"/>
-    <hyperlink ref="C293" r:id="rId249" xr:uid="{50E4B716-239E-7946-843D-E8462591D128}"/>
-    <hyperlink ref="C294" r:id="rId250" xr:uid="{D368B3E5-7D12-FD48-AFF7-A4A614108940}"/>
-    <hyperlink ref="C297" r:id="rId251" xr:uid="{D5921FF1-FC1F-CA4B-A24E-AD69E1DEC14C}"/>
-    <hyperlink ref="C298" r:id="rId252" xr:uid="{C931D7E0-E032-7C4B-95F1-735D955FCB51}"/>
-    <hyperlink ref="C299" r:id="rId253" xr:uid="{5FBD4A8F-287C-2C46-9CAB-F7DBA67DEDDA}"/>
-    <hyperlink ref="C300" r:id="rId254" xr:uid="{12966DD6-41DD-A94B-8B2C-0AD7D2AD6FB0}"/>
-    <hyperlink ref="C301" r:id="rId255" xr:uid="{CF720C34-4554-2944-A818-020ABC9BF0F4}"/>
-    <hyperlink ref="C302" r:id="rId256" xr:uid="{75763F2A-16D7-DE43-8189-19623CE26370}"/>
-    <hyperlink ref="C303" r:id="rId257" xr:uid="{9263AA30-472A-0A4D-BADF-96D82BB9BFCC}"/>
-    <hyperlink ref="C304" r:id="rId258" xr:uid="{2EF025C3-75C8-564E-BA8B-708C32B0E602}"/>
-    <hyperlink ref="C305" r:id="rId259" xr:uid="{6BDFDCA9-3421-F24F-8EF2-A72742F0AC21}"/>
-    <hyperlink ref="C306" r:id="rId260" xr:uid="{D8447F99-5FF9-D544-99BB-E9969B4A38D7}"/>
-    <hyperlink ref="C307" r:id="rId261" xr:uid="{1DB7EFDA-6C7D-F546-9EE1-F61ED0F65209}"/>
-    <hyperlink ref="C308" r:id="rId262" xr:uid="{D1505609-27D1-784D-ACF6-AE9D0DA2E1B6}"/>
-    <hyperlink ref="C309" r:id="rId263" xr:uid="{6BFA7B45-17D0-4E49-85DA-23C7255A306D}"/>
-    <hyperlink ref="C310" r:id="rId264" xr:uid="{3324BA4A-30CA-5246-8C3C-6505A6987939}"/>
-    <hyperlink ref="C311" r:id="rId265" xr:uid="{894486AD-2B6D-5740-BCAF-0BA1AFF814B4}"/>
-    <hyperlink ref="C312" r:id="rId266" xr:uid="{C47B203B-8B5A-E740-8C86-0784AD28089E}"/>
-    <hyperlink ref="C313" r:id="rId267" xr:uid="{06DC2E54-7597-AE4D-ACDB-B8883A989A4F}"/>
-    <hyperlink ref="C314" r:id="rId268" xr:uid="{E3384259-7CA7-1C44-A66D-11346EE6742E}"/>
-    <hyperlink ref="C315" r:id="rId269" xr:uid="{A5B77769-38AF-3D47-A76B-311591B57D91}"/>
-    <hyperlink ref="C318" r:id="rId270" xr:uid="{9DB6976A-C646-1341-90E8-3A164521267A}"/>
-    <hyperlink ref="C319" r:id="rId271" xr:uid="{03C291F8-D19A-304B-9EF9-CF71A1F66E49}"/>
-    <hyperlink ref="C320" r:id="rId272" xr:uid="{7536415C-140B-9244-B0B2-23F3ED0B2D80}"/>
-    <hyperlink ref="C321" r:id="rId273" xr:uid="{7DBDA456-8AF6-DD43-9764-17D3959B8E8F}"/>
-    <hyperlink ref="C322" r:id="rId274" xr:uid="{BFC149AB-C15A-B648-9F6A-ECD3890B1918}"/>
-    <hyperlink ref="C323" r:id="rId275" xr:uid="{0482240B-FEE9-F746-8980-52BCB7BBB56E}"/>
-    <hyperlink ref="C324" r:id="rId276" xr:uid="{86D1231A-E7C8-4B45-99ED-2DB0EF71E190}"/>
-    <hyperlink ref="C325" r:id="rId277" xr:uid="{20B7CE89-CB37-0040-989F-C8D1BE2B8782}"/>
-    <hyperlink ref="C326" r:id="rId278" xr:uid="{4C8412C9-A47B-9244-A18B-741516BD1054}"/>
-    <hyperlink ref="C327" r:id="rId279" xr:uid="{511761D9-31CE-0B43-AFFD-C011C27ACC52}"/>
-    <hyperlink ref="C328" r:id="rId280" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." xr:uid="{6905F997-D048-1049-BA27-C48756603D1E}"/>
-    <hyperlink ref="C329" r:id="rId281" xr:uid="{E657AA82-7CFE-DB42-B20F-F63D8C25EAB6}"/>
-    <hyperlink ref="C330" r:id="rId282" xr:uid="{3E505033-58F3-8F4E-AB82-E12DBC226AEA}"/>
-    <hyperlink ref="C331" r:id="rId283" xr:uid="{749599E5-4972-7343-B13B-87E26F837470}"/>
-    <hyperlink ref="C332" r:id="rId284" xr:uid="{12AA88DC-22AB-5A49-B28C-F04C8E35A215}"/>
-    <hyperlink ref="C333" r:id="rId285" xr:uid="{5751F0A7-7D9D-4148-820B-5B9659DFE34F}"/>
-    <hyperlink ref="C334" r:id="rId286" xr:uid="{4CA2DBEE-B161-B84D-B3A9-B8BC1B598AF2}"/>
-    <hyperlink ref="C335" r:id="rId287" xr:uid="{A9C1E578-6594-954C-8785-8902E605FC7A}"/>
-    <hyperlink ref="C336" r:id="rId288" xr:uid="{3D45E9B8-6671-A747-8C18-51CF8883170A}"/>
-    <hyperlink ref="C337" r:id="rId289" xr:uid="{4F5EF748-8CD4-0F47-90CE-3C93755BF63D}"/>
-    <hyperlink ref="C338" r:id="rId290" xr:uid="{44053C08-5050-C84B-B016-069B1EF9A43D}"/>
-    <hyperlink ref="C339" r:id="rId291" xr:uid="{ABF38928-736B-1A49-8B8A-1DCA5AAECB2B}"/>
-    <hyperlink ref="C340" r:id="rId292" xr:uid="{52651FAF-F3DC-E949-8AF8-998B9724B7D1}"/>
-    <hyperlink ref="C341" r:id="rId293" xr:uid="{91C6CCEF-3FF7-2C42-B5A0-8F4A403ED198}"/>
-    <hyperlink ref="C342" r:id="rId294" xr:uid="{15C8AF08-1A79-F949-9BE7-DD240CBD9861}"/>
-    <hyperlink ref="C343" r:id="rId295" xr:uid="{1904F984-5B22-8D46-BC33-3073B390E8F9}"/>
-    <hyperlink ref="C344" r:id="rId296" xr:uid="{A8BFB3A4-426B-E646-BCF0-FE19C8CD07A9}"/>
-    <hyperlink ref="C345" r:id="rId297" xr:uid="{FBBA29BB-885B-744A-A644-58EDCA7B140A}"/>
-    <hyperlink ref="C346" r:id="rId298" xr:uid="{75411687-6884-AC42-8B4A-1348C4837365}"/>
-    <hyperlink ref="C347" r:id="rId299" xr:uid="{A89ED8DF-F678-FE43-808C-C190721379BF}"/>
-    <hyperlink ref="C348" r:id="rId300" xr:uid="{1516834D-F3B2-1743-8811-263E11BBDEF8}"/>
-    <hyperlink ref="C349" r:id="rId301" xr:uid="{1659AB91-08CA-E44D-988D-E9D9A746D406}"/>
-    <hyperlink ref="C350" r:id="rId302" xr:uid="{E844BC1D-9713-9F4D-B0A4-1124A9952D14}"/>
-    <hyperlink ref="C351" r:id="rId303" xr:uid="{DCE2AAEF-8D8E-1843-BFE9-E9B7E13854EB}"/>
-    <hyperlink ref="C352" r:id="rId304" xr:uid="{836B3BF0-7711-7D41-9E72-914C1871397F}"/>
-    <hyperlink ref="C353" r:id="rId305" xr:uid="{F450CF9B-CA59-1443-8163-13F1121DCF12}"/>
-    <hyperlink ref="C354" r:id="rId306" xr:uid="{1539C3E8-4854-3C4F-A7B3-55BF931F1E2A}"/>
-    <hyperlink ref="C355" r:id="rId307" xr:uid="{04F1FC5F-5DA1-0144-962D-B38C1C41F0F4}"/>
-    <hyperlink ref="C358" r:id="rId308" xr:uid="{B21618F4-70E2-C549-80B7-7CF915679E0A}"/>
-    <hyperlink ref="C359" r:id="rId309" xr:uid="{EEDFBF11-C1E4-0847-9D56-94A72D97AEE7}"/>
-    <hyperlink ref="C360" r:id="rId310" xr:uid="{F5C0EDF1-7EAC-8849-8D27-C3389913BFC6}"/>
-    <hyperlink ref="C361" r:id="rId311" xr:uid="{50175B29-124F-4E4E-8E98-961BD3320359}"/>
-    <hyperlink ref="C362" r:id="rId312" xr:uid="{1BE23822-8512-014F-9154-F6EDA4FC8428}"/>
-    <hyperlink ref="C363" r:id="rId313" xr:uid="{38EC228E-ABFF-3542-9CFB-3DDFC628E9D0}"/>
-    <hyperlink ref="C364" r:id="rId314" xr:uid="{73F240F8-C469-454E-BA5C-CFF2F7A7A5F6}"/>
-    <hyperlink ref="C365" r:id="rId315" xr:uid="{3BBD1BAC-68C7-A94A-9063-AF62B5C837FD}"/>
-    <hyperlink ref="C366" r:id="rId316" xr:uid="{F9751D9B-2689-E24B-9FC3-CA32FE888708}"/>
-    <hyperlink ref="C367" r:id="rId317" xr:uid="{73C61D6A-D97C-B944-8B27-BB91564AB0D7}"/>
-    <hyperlink ref="C368" r:id="rId318" xr:uid="{936E077C-C016-A04F-895A-782D6D9D9433}"/>
-    <hyperlink ref="C369" r:id="rId319" xr:uid="{5454A2A1-6607-BE48-9215-CB8965EC3568}"/>
-    <hyperlink ref="C370" r:id="rId320" xr:uid="{FC1EAA10-F7ED-6B42-A79B-3D8B44E2C8B3}"/>
-    <hyperlink ref="C371" r:id="rId321" xr:uid="{FDB7F712-4A42-1048-8929-A1E752B07C6A}"/>
-    <hyperlink ref="C372" r:id="rId322" xr:uid="{AF3ACA60-0B0E-E146-B51F-A2CD05EB6549}"/>
-    <hyperlink ref="C373" r:id="rId323" xr:uid="{BB63E040-7A1A-E046-9BDD-9CBD1DA89DE9}"/>
-    <hyperlink ref="C374" r:id="rId324" xr:uid="{9AF8FD93-CCC9-D540-AE9A-00583F309649}"/>
-    <hyperlink ref="C375" r:id="rId325" xr:uid="{66A746A0-71FE-E546-92B7-D1C3D582E067}"/>
-    <hyperlink ref="C379" r:id="rId326" xr:uid="{BD79CCE1-5315-3944-9F9B-618615EC4583}"/>
-    <hyperlink ref="C380" r:id="rId327" xr:uid="{A5068A51-C961-6847-BB27-40A850B6D393}"/>
-    <hyperlink ref="C381" r:id="rId328" xr:uid="{6B8D36F0-E796-B944-A456-E8A9E2EE0BDB}"/>
-    <hyperlink ref="C382" r:id="rId329" xr:uid="{776652B7-2C11-4641-BF6A-EABEEB9B55AB}"/>
-    <hyperlink ref="C383" r:id="rId330" xr:uid="{95C6B35D-712A-2343-B790-236B55C5EC49}"/>
-    <hyperlink ref="C384" r:id="rId331" xr:uid="{4ED53872-1FE9-F140-AA35-F228F762880B}"/>
-    <hyperlink ref="C385" r:id="rId332" xr:uid="{6D5E6A28-85AA-BF4C-B2BD-9378D6E28EC7}"/>
-    <hyperlink ref="C386" r:id="rId333" xr:uid="{BCAD1ECB-15EE-CF49-878E-AA682DE3AC22}"/>
-    <hyperlink ref="C387" r:id="rId334" xr:uid="{C85468B5-25E9-E446-808E-72CFE911F0C2}"/>
-    <hyperlink ref="C388" r:id="rId335" xr:uid="{9503AECA-1A6A-9640-A04C-4CEAA2304448}"/>
-    <hyperlink ref="C389" r:id="rId336" xr:uid="{74211516-06B0-AA45-845B-52C8202751DA}"/>
-    <hyperlink ref="C390" r:id="rId337" xr:uid="{02C696BC-4B91-9444-900F-9CD68E409ABC}"/>
-    <hyperlink ref="C391" r:id="rId338" xr:uid="{04646C45-4118-374C-839D-94D31D534FAC}"/>
-    <hyperlink ref="C392" r:id="rId339" xr:uid="{F90BCCAE-8596-FC4D-BDD7-774392C596DF}"/>
-    <hyperlink ref="C393" r:id="rId340" xr:uid="{65230925-36EC-8A4B-8E46-6350B9BC0F95}"/>
-    <hyperlink ref="C394" r:id="rId341" xr:uid="{E91B8177-0C7A-1F40-BD34-4CC60F03B84F}"/>
-    <hyperlink ref="C395" r:id="rId342" xr:uid="{E8CBFD60-7335-0B4D-9FF5-99B4A8DC551D}"/>
-    <hyperlink ref="C396" r:id="rId343" xr:uid="{A35F55D4-9B87-C745-94DB-E7D820193C30}"/>
-    <hyperlink ref="C397" r:id="rId344" xr:uid="{6461A29F-D404-334F-B13F-296B4CA5E8A4}"/>
-    <hyperlink ref="C398" r:id="rId345" xr:uid="{FA9B4BE7-85CC-B24F-9461-5E9B42DDD824}"/>
-    <hyperlink ref="C399" r:id="rId346" xr:uid="{A75ACEA2-CDF6-A147-8540-A6DF55B15F45}"/>
-    <hyperlink ref="C400" r:id="rId347" xr:uid="{62FF87E2-E658-AB4D-AC57-7BCF9D49516E}"/>
-    <hyperlink ref="C401" r:id="rId348" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." xr:uid="{269338A6-5145-6944-9F7F-BD2A86DFA308}"/>
-    <hyperlink ref="C402" r:id="rId349" xr:uid="{8F583049-CE8D-CD42-88CD-CF3857942670}"/>
-    <hyperlink ref="C403" r:id="rId350" xr:uid="{EE2348AD-E296-894A-B5AE-5884A3C5E419}"/>
-    <hyperlink ref="C404" r:id="rId351" xr:uid="{6EACB34E-B32E-8F43-8055-2406F7417A7E}"/>
-    <hyperlink ref="C405" r:id="rId352" xr:uid="{2446F10A-B762-B64C-97B2-6131A0BECC1F}"/>
-    <hyperlink ref="C406" r:id="rId353" xr:uid="{6FDFCC53-17A6-7244-88A7-49406D7C9200}"/>
-    <hyperlink ref="C407" r:id="rId354" xr:uid="{3EC43646-EAB1-E443-A2F6-8E6E5FC77083}"/>
-    <hyperlink ref="C408" r:id="rId355" xr:uid="{659D9F20-C862-C947-B422-84143CFE317F}"/>
-    <hyperlink ref="C409" r:id="rId356" xr:uid="{3F5192FE-1C50-C049-88D5-68FA0F5430A0}"/>
-    <hyperlink ref="C410" r:id="rId357" xr:uid="{5EAD7CDA-9545-454B-BE77-9AFEC6AC1083}"/>
-    <hyperlink ref="C411" r:id="rId358" xr:uid="{761E5451-736B-6745-9CF5-4C6EF5D4C099}"/>
-    <hyperlink ref="C412" r:id="rId359" xr:uid="{4C8677A9-D94C-134F-AF31-E424751BF867}"/>
-    <hyperlink ref="C413" r:id="rId360" xr:uid="{CCF7920F-D5CE-004A-86C3-D821FB230970}"/>
-    <hyperlink ref="C414" r:id="rId361" xr:uid="{B4C07A0A-1EDD-7947-9646-3FD603441AD7}"/>
-    <hyperlink ref="C415" r:id="rId362" xr:uid="{49F7BB43-6851-0641-9DC5-27DBC66706F6}"/>
-    <hyperlink ref="C416" r:id="rId363" xr:uid="{77038647-48C7-5547-8E0F-898610362465}"/>
-    <hyperlink ref="C418" r:id="rId364" xr:uid="{EEFFE19C-6571-C64F-A0E1-5A4A700D94D4}"/>
-    <hyperlink ref="C417" r:id="rId365" xr:uid="{A4A2BFC4-6B88-2E4E-B362-17D8EE041C89}"/>
-    <hyperlink ref="C419" r:id="rId366" xr:uid="{DC5B603A-8D65-3648-A08A-E5FFA0FAE879}"/>
-    <hyperlink ref="C420" r:id="rId367" xr:uid="{F8807DD9-F4F2-B147-9C31-DBC93B2E477B}"/>
-    <hyperlink ref="C421" r:id="rId368" xr:uid="{6F7B396C-D7E9-C04E-BAE2-53D2EE07172B}"/>
-    <hyperlink ref="C424" r:id="rId369" xr:uid="{0D4A5941-C669-4A49-BAE3-9B553D03BD0F}"/>
-    <hyperlink ref="C425" r:id="rId370" xr:uid="{54144336-5BCA-D749-962A-E448C2CED3D3}"/>
-    <hyperlink ref="C426" r:id="rId371" xr:uid="{3A41DD21-CACF-1F48-A7C7-F568C6F31F3E}"/>
-    <hyperlink ref="C427" r:id="rId372" xr:uid="{A36160A8-F45E-3443-9645-42C1004B8F8C}"/>
-    <hyperlink ref="C428" r:id="rId373" xr:uid="{8B0A00A3-6AC0-DF46-AD87-A4DA016A2A00}"/>
-    <hyperlink ref="C429" r:id="rId374" xr:uid="{62A81CB4-A961-C543-B31C-92059DB6C105}"/>
-    <hyperlink ref="C432" r:id="rId375" xr:uid="{08030975-009C-C34A-A875-72FE2718F44C}"/>
-    <hyperlink ref="C433" r:id="rId376" xr:uid="{A113C7A9-2359-B643-9C08-E845813439C0}"/>
-    <hyperlink ref="C434" r:id="rId377" xr:uid="{FE300343-4633-AD47-A64D-2086629EB398}"/>
-    <hyperlink ref="C435" r:id="rId378" xr:uid="{4FC9F782-D38F-C642-A863-887B17AD05CD}"/>
-    <hyperlink ref="C436" r:id="rId379" xr:uid="{830C5466-10E3-7A48-B3E7-35C15A1CA4EF}"/>
-    <hyperlink ref="C437" r:id="rId380" xr:uid="{1B987077-E9D3-6F40-89EE-0D4E7180D884}"/>
-    <hyperlink ref="C438" r:id="rId381" xr:uid="{D4843E1F-7226-864E-A4BB-264D5A487B6D}"/>
-    <hyperlink ref="C439" r:id="rId382" xr:uid="{61816592-2D19-9946-8253-47A60218F2EA}"/>
-    <hyperlink ref="C440" r:id="rId383" xr:uid="{736C840F-19A3-0A4B-8863-ECB772B46385}"/>
-    <hyperlink ref="C441" r:id="rId384" xr:uid="{05A238AD-3C5B-C546-94E9-75BBF964711A}"/>
-    <hyperlink ref="C442" r:id="rId385" xr:uid="{7029629C-3F2A-4A49-997B-CFE86EC8B3C2}"/>
-    <hyperlink ref="C443" r:id="rId386" xr:uid="{ADA66B57-2FAC-AB42-BD83-4931708F3AB5}"/>
-    <hyperlink ref="C444" r:id="rId387" xr:uid="{F16BF1F9-755B-B045-B9A8-0B97E3BAC8B0}"/>
-    <hyperlink ref="C445" r:id="rId388" xr:uid="{ECCE930A-B960-234C-81EC-4B8514282AE9}"/>
-    <hyperlink ref="C446" r:id="rId389" xr:uid="{7AA58141-7D24-7C42-A0C1-F852B21CFFD9}"/>
-    <hyperlink ref="C447" r:id="rId390" xr:uid="{B1FCB47D-7921-3446-B2C7-72CBA815D056}"/>
-    <hyperlink ref="C448" r:id="rId391" xr:uid="{8C547719-AA03-3543-B31F-7300674AF4C5}"/>
-    <hyperlink ref="C449" r:id="rId392" xr:uid="{09922668-AFC0-F242-860E-9967E0F0FEF4}"/>
-    <hyperlink ref="C450" r:id="rId393" xr:uid="{0DA963DA-238B-D44E-9E03-6E6BD933B35E}"/>
-    <hyperlink ref="C451" r:id="rId394" xr:uid="{89518AFF-2526-C845-BC9D-95FE77AF416E}"/>
-    <hyperlink ref="C452" r:id="rId395" xr:uid="{FAECBBBE-196C-7A41-A0FB-E0597CB2CF51}"/>
-    <hyperlink ref="C453" r:id="rId396" xr:uid="{8126B039-0B25-B040-A0F6-C3457341A2E9}"/>
-    <hyperlink ref="C454" r:id="rId397" xr:uid="{6CB326E6-E698-EB42-884B-C89FFA33E3BA}"/>
-    <hyperlink ref="C455" r:id="rId398" xr:uid="{8C97EFD1-933F-A44F-A1CF-6386233104A2}"/>
-    <hyperlink ref="C456" r:id="rId399" xr:uid="{8F019F07-8532-E147-8BE1-4EBE833F61CA}"/>
-    <hyperlink ref="C457" r:id="rId400" xr:uid="{00F1A08F-3767-784A-97A3-4603DE38BACC}"/>
-    <hyperlink ref="C458" r:id="rId401" xr:uid="{2A84ADCB-071F-9A48-994D-7A838307EFD8}"/>
-    <hyperlink ref="C459" r:id="rId402" xr:uid="{132F8C6D-D5E8-6440-AC4E-B81EA2100416}"/>
-    <hyperlink ref="C460" r:id="rId403" xr:uid="{2DA6EAC2-1A1D-754F-9613-226CBC7890AF}"/>
-    <hyperlink ref="C461" r:id="rId404" xr:uid="{05BED99A-4562-D14E-8627-D07CF5335A9B}"/>
-    <hyperlink ref="C462" r:id="rId405" xr:uid="{111D902A-3F60-2D4B-89D3-5BCBD8AA38DD}"/>
-    <hyperlink ref="C463" r:id="rId406" xr:uid="{F19236BE-AC32-3542-9214-DFC3BAE04ED0}"/>
-    <hyperlink ref="C464" r:id="rId407" xr:uid="{4D97CD96-EA1B-664E-9380-EFD27077D273}"/>
-    <hyperlink ref="C465" r:id="rId408" xr:uid="{49A46D91-633F-A148-ACFA-49B7D1AA4B33}"/>
-    <hyperlink ref="C466" r:id="rId409" xr:uid="{7C3B7901-67E3-EA4D-BC64-21A78BC03AC6}"/>
-    <hyperlink ref="C467" r:id="rId410" xr:uid="{B27CA8C3-D34F-5E4D-94A5-11D14AFD0F82}"/>
-    <hyperlink ref="C468" r:id="rId411" xr:uid="{8FECE038-9764-5E4A-8C6E-9B3209812651}"/>
-    <hyperlink ref="C469" r:id="rId412" xr:uid="{95696D4B-89CB-5640-BE92-53B3C043F7EB}"/>
-    <hyperlink ref="C470" r:id="rId413" xr:uid="{DA74B737-802A-4944-A93E-0B9C8417630B}"/>
-    <hyperlink ref="C471" r:id="rId414" xr:uid="{B2C4C168-50FA-AF41-8F56-9E70613CF17D}"/>
-    <hyperlink ref="C473" r:id="rId415" xr:uid="{B7090C60-AC27-3F4F-8F0D-42F0791928C6}"/>
-    <hyperlink ref="C472" r:id="rId416" xr:uid="{07400041-66C6-514B-B3E3-427F2947C2B7}"/>
-    <hyperlink ref="C474" r:id="rId417" xr:uid="{B7E78172-8FB8-4E42-87D8-6A4654D79C62}"/>
-    <hyperlink ref="C475" r:id="rId418" xr:uid="{9A5D4670-BC64-334A-88CF-6F8287692C5E}"/>
-    <hyperlink ref="C476" r:id="rId419" xr:uid="{604283B6-53BC-044F-8D9D-E6094E798317}"/>
-    <hyperlink ref="C477" r:id="rId420" xr:uid="{5EB15AC7-3E0E-E44C-A5B9-32F30F234B5A}"/>
-    <hyperlink ref="C478" r:id="rId421" xr:uid="{3076BD5F-4B23-4146-A50A-499C9FF4C3D2}"/>
-    <hyperlink ref="C479" r:id="rId422" xr:uid="{6A29D9C2-1E78-1B43-A251-0AB0A97FA70E}"/>
-    <hyperlink ref="C480" r:id="rId423" xr:uid="{00597D5E-D693-DF4E-84C0-47E58A6ACA8F}"/>
-    <hyperlink ref="C481" r:id="rId424" xr:uid="{48640988-9964-0B4C-A014-83E2CEB3D632}"/>
-    <hyperlink ref="C482" r:id="rId425" xr:uid="{617AADC9-7534-FE45-96B0-EF4C1867B793}"/>
-    <hyperlink ref="C483" r:id="rId426" xr:uid="{7F8CDAA4-5094-8E4E-961B-41CDE5ACC0C0}"/>
-    <hyperlink ref="C484" r:id="rId427" xr:uid="{63F28ABD-12CF-5947-80DA-229E3CA3133E}"/>
-    <hyperlink ref="C491" r:id="rId428" xr:uid="{0A1DB92C-3315-1942-B27D-4B90986A6D9D}"/>
-    <hyperlink ref="C490" r:id="rId429" xr:uid="{11738B67-CADD-5D45-8417-8BE7A03FC79F}"/>
-    <hyperlink ref="C489" r:id="rId430" xr:uid="{B2B23748-D9E4-BE4F-A93E-49ECB4063831}"/>
-    <hyperlink ref="C488" r:id="rId431" xr:uid="{A2FB8A72-37B9-7E4A-B050-FD6CD20BCE73}"/>
-    <hyperlink ref="C487" r:id="rId432" xr:uid="{5A93C9AF-BFEB-EB40-95AC-C309ED09A604}"/>
-    <hyperlink ref="C486" r:id="rId433" xr:uid="{CC203923-2DC2-874B-B846-A8455E3CC2F2}"/>
-    <hyperlink ref="C485" r:id="rId434" xr:uid="{FCB0246E-0179-B447-B3CE-C60CDB388472}"/>
-    <hyperlink ref="C494" r:id="rId435" xr:uid="{F06CEE72-8CA4-C547-862C-39B86CD3226A}"/>
-    <hyperlink ref="C495" r:id="rId436" xr:uid="{CB3045F2-8D63-0F4E-85BC-AF016DB4F247}"/>
-    <hyperlink ref="C496" r:id="rId437" xr:uid="{667D57F5-E5AD-674F-A2F5-AFF4A14E4026}"/>
-    <hyperlink ref="C497" r:id="rId438" xr:uid="{27A13A65-56CE-BF4D-BA0D-EB87D910272D}"/>
-    <hyperlink ref="C498" r:id="rId439" xr:uid="{2C72A52E-6F06-0246-AEB5-93CD0DEA8866}"/>
-    <hyperlink ref="C499" r:id="rId440" xr:uid="{24B29046-B4DD-674B-9EDF-6C94BEC3FDD8}"/>
-    <hyperlink ref="C500" r:id="rId441" xr:uid="{D018EBC3-3FB3-AC4D-9D64-D218345A46C8}"/>
-    <hyperlink ref="C503" r:id="rId442" xr:uid="{1E1D3964-01E0-3145-ACFE-B6A5BF0EECB0}"/>
-    <hyperlink ref="C501" r:id="rId443" xr:uid="{FA0E5061-A7E2-C045-9671-1CD9446D1932}"/>
-    <hyperlink ref="C502" r:id="rId444" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{92704F5B-7B31-2F42-80DD-764B2206D9DB}"/>
-    <hyperlink ref="C378" r:id="rId445" xr:uid="{A48B1A24-83B1-7A4C-8129-CD37804DF849}"/>
-    <hyperlink ref="C29" r:id="rId446" xr:uid="{F0DDC999-C321-4AB4-BA9D-7538150E84D3}"/>
-    <hyperlink ref="C12" r:id="rId447" xr:uid="{310D755F-0FAF-4086-8950-B58917F7CAF8}"/>
-    <hyperlink ref="C11" r:id="rId448" xr:uid="{6913685B-862A-49D7-AB28-593B13669931}"/>
-    <hyperlink ref="C13" r:id="rId449" xr:uid="{E2555AFC-8C22-4A69-A028-B6C7E7796509}"/>
-    <hyperlink ref="C14" r:id="rId450" display="Wrute a Program to Find trailing Number of Zeros in Factorial of a Number" xr:uid="{4399CE2A-7FD8-4B12-B4C8-C7E9B23BBC9F}"/>
-    <hyperlink ref="C16" r:id="rId451" xr:uid="{6EFA894A-D33E-4C0B-BE93-0E75656CC712}"/>
-    <hyperlink ref="C17" r:id="rId452" xr:uid="{10515421-DC78-49D9-8A73-CC3D6D10A7C9}"/>
-    <hyperlink ref="C18" r:id="rId453" xr:uid="{C5C55CCE-6CD7-4A50-85E4-47BB53BE165C}"/>
-    <hyperlink ref="C19" r:id="rId454" xr:uid="{14814E78-7861-4C6A-81CF-8953C1484276}"/>
-    <hyperlink ref="C20" r:id="rId455" xr:uid="{87943FC1-A069-4989-8B78-B463D290AF94}"/>
-    <hyperlink ref="C21" r:id="rId456" xr:uid="{D825528B-18AF-463A-AA31-760F76F78A15}"/>
-    <hyperlink ref="C15" r:id="rId457" xr:uid="{027E7E1D-0C53-4A77-9662-F495CEC3BAC4}"/>
-    <hyperlink ref="C24" r:id="rId458" xr:uid="{394D268B-F042-4D5E-8945-7C021567FDBC}"/>
-    <hyperlink ref="C23" r:id="rId459" xr:uid="{A00A42BF-18C8-47DB-A23E-C835CF3A1B72}"/>
-    <hyperlink ref="C22" r:id="rId460" xr:uid="{B7A6DAE3-6E86-4612-A1FF-539F5C6D3E1D}"/>
-    <hyperlink ref="C28" r:id="rId461" xr:uid="{5221452B-37E3-4315-91B2-6A38CEBB1898}"/>
+    <hyperlink ref="C23" r:id="rId1" xr:uid="{9492A4AD-FA44-BA4B-B154-E4DBB1951162}"/>
+    <hyperlink ref="C24" r:id="rId2" xr:uid="{2D6F1134-3C08-7445-B19A-9B94A18B55C7}"/>
+    <hyperlink ref="C27" r:id="rId3" xr:uid="{E5A98931-37E8-6B4A-90BE-8DC72405341A}"/>
+    <hyperlink ref="C28" r:id="rId4" xr:uid="{02736918-E09F-7A46-90B3-AFCC33AA559B}"/>
+    <hyperlink ref="C29" r:id="rId5" xr:uid="{6E8DD30A-A9F9-4C44-B26C-C9E236F10798}"/>
+    <hyperlink ref="C30" r:id="rId6" xr:uid="{0D55765B-95A7-154F-96F3-B7E4C581021F}"/>
+    <hyperlink ref="C31" r:id="rId7" xr:uid="{6F687ABA-C04B-AF4F-9F11-A038DCB20FB9}"/>
+    <hyperlink ref="C32" r:id="rId8" xr:uid="{11C9D8CC-9F1E-004E-8EC2-C758DC9C8CAB}"/>
+    <hyperlink ref="C33" r:id="rId9" xr:uid="{56E4962F-CB3D-9E48-A26E-19A1F5C800C9}"/>
+    <hyperlink ref="C34" r:id="rId10" xr:uid="{899DDBD9-9ED6-3A4D-8AFE-8FAA6DA88DBC}"/>
+    <hyperlink ref="C35" r:id="rId11" xr:uid="{76D41EAC-A28A-2845-8515-CA3C70D823B7}"/>
+    <hyperlink ref="C36" r:id="rId12" xr:uid="{828948BE-DD97-DE4A-BAD6-B415E29198F0}"/>
+    <hyperlink ref="C37" r:id="rId13" xr:uid="{E98C86AA-12E7-124C-B7D0-BCDFB246040B}"/>
+    <hyperlink ref="C38" r:id="rId14" xr:uid="{192741A9-FF68-DC4A-99FA-69F9968AB4F2}"/>
+    <hyperlink ref="C39" r:id="rId15" xr:uid="{DBD9BA9C-91C6-B144-A800-DCB3BED33DE7}"/>
+    <hyperlink ref="C40" r:id="rId16" xr:uid="{A285BDE8-00E7-A94C-8E43-A0C4829D42FA}"/>
+    <hyperlink ref="C41" r:id="rId17" xr:uid="{B0C21764-2962-1649-8AFA-10FB9420C5FC}"/>
+    <hyperlink ref="C42" r:id="rId18" xr:uid="{9282CC15-9B38-E54B-B64C-557745C9C00A}"/>
+    <hyperlink ref="C43" r:id="rId19" xr:uid="{3BCCEBE2-AC3B-AC4F-8BA9-439ACEA133D4}"/>
+    <hyperlink ref="C44" r:id="rId20" xr:uid="{74F8D761-6EBF-594A-A6C7-40DE4CE96958}"/>
+    <hyperlink ref="C45" r:id="rId21" xr:uid="{79947FE6-D417-D644-81D8-D058180550A0}"/>
+    <hyperlink ref="C46" r:id="rId22" xr:uid="{2BF3F606-410B-264D-BF60-191C34D616BB}"/>
+    <hyperlink ref="C47" r:id="rId23" xr:uid="{CD98DB26-0F2F-FD40-A989-53FE548D7D34}"/>
+    <hyperlink ref="C48" r:id="rId24" xr:uid="{307032A1-F8EF-1A48-BFE3-EA3283D39BE2}"/>
+    <hyperlink ref="C49" r:id="rId25" xr:uid="{AA329F36-941A-9241-9402-9D220B05E719}"/>
+    <hyperlink ref="C50" r:id="rId26" xr:uid="{9E851DAC-0E30-B340-84F9-721D70B66919}"/>
+    <hyperlink ref="C51" r:id="rId27" xr:uid="{468380BA-4978-A645-ABD0-E74FD3E6BDBB}"/>
+    <hyperlink ref="C52" r:id="rId28" xr:uid="{289E6890-8CCB-D645-9B3F-6138FFC1C249}"/>
+    <hyperlink ref="C53" r:id="rId29" xr:uid="{8EABDC68-858F-784A-A8F1-C603E3B8C1FE}"/>
+    <hyperlink ref="C54" r:id="rId30" xr:uid="{6157E427-1210-3F45-A4DC-6DFD2373B9CF}"/>
+    <hyperlink ref="C55" r:id="rId31" xr:uid="{2D7BA55E-9947-FF4D-BC09-FB4A5ADA07EC}"/>
+    <hyperlink ref="C56" r:id="rId32" xr:uid="{3337C74F-8B73-E64E-A6DA-5D9F7C7B4D32}"/>
+    <hyperlink ref="C57" r:id="rId33" xr:uid="{02370124-E58D-B540-BBCF-98266229556D}"/>
+    <hyperlink ref="C58" r:id="rId34" xr:uid="{F2DE2162-BD02-7549-AC1A-27455F78131F}"/>
+    <hyperlink ref="C59" r:id="rId35" xr:uid="{6FA286B9-3994-624D-B0B8-C01657D110AD}"/>
+    <hyperlink ref="C60" r:id="rId36" xr:uid="{6EFBEDA1-5C10-2547-8FB2-44E977513B28}"/>
+    <hyperlink ref="C63" r:id="rId37" xr:uid="{090EC515-BEBE-514E-BA59-A84E450B4211}"/>
+    <hyperlink ref="C64" r:id="rId38" xr:uid="{0A0557FD-77E5-564B-B100-147D544A38B4}"/>
+    <hyperlink ref="C65" r:id="rId39" xr:uid="{3F82F2E0-AA59-5042-B079-F3B3C6FF2FD7}"/>
+    <hyperlink ref="C66" r:id="rId40" xr:uid="{FFF7D257-1F58-5A4B-AAA2-F5480AED86C7}"/>
+    <hyperlink ref="C67" r:id="rId41" xr:uid="{353E28FA-E36D-7447-9DE8-787DF11C4669}"/>
+    <hyperlink ref="C68" r:id="rId42" xr:uid="{F9B53127-FC98-FE43-B53F-BFDBCE2A4427}"/>
+    <hyperlink ref="C69" r:id="rId43" xr:uid="{40685BBC-CE24-624E-9ABB-98490B7DE0E4}"/>
+    <hyperlink ref="C70" r:id="rId44" xr:uid="{7733D505-2EC7-E346-B3DA-C980C7CE0B27}"/>
+    <hyperlink ref="C71" r:id="rId45" xr:uid="{E8C1FE00-7B4B-5745-8E4B-CD44B6C749E3}"/>
+    <hyperlink ref="C72" r:id="rId46" xr:uid="{FDE181B1-57B0-7C4B-A189-C7C6E4EAEF99}"/>
+    <hyperlink ref="C75" r:id="rId47" xr:uid="{FE85FD72-4FC9-334E-8205-9E8B238954EB}"/>
+    <hyperlink ref="C76" r:id="rId48" xr:uid="{7630AD76-7E6B-8C4A-BA33-A62EBB042215}"/>
+    <hyperlink ref="C77" r:id="rId49" xr:uid="{2A738B70-CBF0-CC40-8B05-A271822B3F1A}"/>
+    <hyperlink ref="C79" r:id="rId50" xr:uid="{B2DE2D9E-8371-CD44-9D0D-4D6DC64AC29B}"/>
+    <hyperlink ref="C80" r:id="rId51" xr:uid="{265DCD11-17A0-654E-BEFE-FABA31210C6E}"/>
+    <hyperlink ref="C81" r:id="rId52" xr:uid="{47F1BB0C-0C5C-0845-8EEC-1560C50D7DA7}"/>
+    <hyperlink ref="C82" r:id="rId53" xr:uid="{8E0BFA2E-CCB4-514F-86CD-78176C6CC98A}"/>
+    <hyperlink ref="C83" r:id="rId54" xr:uid="{E4DEFB4B-749F-8746-97C7-F2B433664A74}"/>
+    <hyperlink ref="C84" r:id="rId55" xr:uid="{8301BDBD-EB7E-7D41-A777-ED99C3F9D67D}"/>
+    <hyperlink ref="C85" r:id="rId56" xr:uid="{927AE532-647F-AF4C-A567-40ADA6FCE534}"/>
+    <hyperlink ref="C86" r:id="rId57" xr:uid="{05489F52-CC92-EC44-9AD3-773DEC3B1D36}"/>
+    <hyperlink ref="C87" r:id="rId58" xr:uid="{13025DF6-C30E-014A-B66C-68C4AAAC1C6E}"/>
+    <hyperlink ref="C88" r:id="rId59" xr:uid="{BEE1F613-C189-B949-A225-0E0C5AFD1532}"/>
+    <hyperlink ref="C89" r:id="rId60" xr:uid="{1DFECD6C-D7CC-0340-B29B-4D56E50711E5}"/>
+    <hyperlink ref="C90" r:id="rId61" xr:uid="{70BED156-B004-E043-BF7D-59EFAA9EADAF}"/>
+    <hyperlink ref="C91" r:id="rId62" xr:uid="{FF9CBAFB-900E-E242-8B33-EDF46F0F40B5}"/>
+    <hyperlink ref="C92" r:id="rId63" xr:uid="{19461114-B3E8-9042-8029-100010946A04}"/>
+    <hyperlink ref="C93" r:id="rId64" xr:uid="{00F71118-E30B-A84E-819E-FFA902C70502}"/>
+    <hyperlink ref="C94" r:id="rId65" xr:uid="{58E70966-BBE0-7743-A250-AE4DD57807DE}"/>
+    <hyperlink ref="C95" r:id="rId66" xr:uid="{09409FE3-9D7E-4F43-BB21-14A1B8D6E480}"/>
+    <hyperlink ref="C96" r:id="rId67" xr:uid="{E199A3DC-3DA1-C648-93C0-DF9CD5331204}"/>
+    <hyperlink ref="C97" r:id="rId68" xr:uid="{85886847-1510-AA46-B10C-F3D80591DD74}"/>
+    <hyperlink ref="C98" r:id="rId69" xr:uid="{F60808FC-F09D-FC44-B2DD-752E55A1C698}"/>
+    <hyperlink ref="C99" r:id="rId70" xr:uid="{16B2725E-1AD5-0441-9B5B-B6B2F458091B}"/>
+    <hyperlink ref="C100" r:id="rId71" xr:uid="{8440D753-5DE9-3243-97C2-C09D195C325F}"/>
+    <hyperlink ref="C101" r:id="rId72" xr:uid="{AC63A963-B6CC-6E4E-B72A-7F472BC4C027}"/>
+    <hyperlink ref="C102" r:id="rId73" xr:uid="{B21B87F1-A0C0-7F4E-B36F-912B871D0EF4}"/>
+    <hyperlink ref="C103" r:id="rId74" xr:uid="{789FFFAC-8B7E-0540-98B8-856430EB56F8}"/>
+    <hyperlink ref="C104" r:id="rId75" xr:uid="{4A0E959E-22F4-6948-A819-76FE76AB9F6D}"/>
+    <hyperlink ref="C105" r:id="rId76" xr:uid="{78B76678-D8EE-9745-98B1-DF7A76EA3B10}"/>
+    <hyperlink ref="C106" r:id="rId77" xr:uid="{62982242-1D19-1544-8653-8E25E9BF4505}"/>
+    <hyperlink ref="C107" r:id="rId78" xr:uid="{8E3D4BDF-9F8F-0542-BFD8-C3CE3BF396E6}"/>
+    <hyperlink ref="C108" r:id="rId79" xr:uid="{A3D51762-65A1-9A44-B619-D1D98A7F403B}"/>
+    <hyperlink ref="C109" r:id="rId80" xr:uid="{ED0F5FC7-0066-EB44-8FCF-460600DADB02}"/>
+    <hyperlink ref="C110" r:id="rId81" xr:uid="{2D956AC4-4774-7446-8473-C4CE00E33C17}"/>
+    <hyperlink ref="C111" r:id="rId82" xr:uid="{C8C607BB-1FEE-FA47-9E3E-6C0BCE978B7F}"/>
+    <hyperlink ref="C112" r:id="rId83" xr:uid="{B9AC5194-6D36-684A-A5C4-BEE11037599F}"/>
+    <hyperlink ref="C113" r:id="rId84" xr:uid="{AB28D9E6-890C-F14A-A5FB-2303BE319968}"/>
+    <hyperlink ref="C114" r:id="rId85" xr:uid="{1F507CBC-4056-AD46-9314-95ECBB9D799D}"/>
+    <hyperlink ref="C115" r:id="rId86" xr:uid="{F152A9AF-5CBA-EC44-A9CF-07AB481435AB}"/>
+    <hyperlink ref="C116" r:id="rId87" xr:uid="{346CA74F-60B7-0A4B-A612-9184D4DCFF62}"/>
+    <hyperlink ref="C117" r:id="rId88" xr:uid="{8C653CB1-4954-754F-8D46-F09141A2FCDB}"/>
+    <hyperlink ref="C120" r:id="rId89" xr:uid="{5989F693-2A61-A346-8395-8674307A4CC2}"/>
+    <hyperlink ref="C121" r:id="rId90" xr:uid="{3AD10C9E-4F6D-DE48-92F3-531A586520C6}"/>
+    <hyperlink ref="C122" r:id="rId91" xr:uid="{4FA217C0-A1F3-904E-8FEA-EA4941273A67}"/>
+    <hyperlink ref="C123" r:id="rId92" xr:uid="{A297BBC0-FA0D-2D46-9C49-3932193EF1D3}"/>
+    <hyperlink ref="C125" r:id="rId93" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance." xr:uid="{DCD751DE-E440-F346-B6FD-CBD072217214}"/>
+    <hyperlink ref="C126" r:id="rId94" xr:uid="{B2FD38B9-1E2B-8140-8291-F45734C98145}"/>
+    <hyperlink ref="C127" r:id="rId95" xr:uid="{C76888B3-18AC-9B48-9E2A-64A7DF0902B7}"/>
+    <hyperlink ref="C128" r:id="rId96" xr:uid="{18A79860-6C9E-A941-8D6C-360B9913E941}"/>
+    <hyperlink ref="C129" r:id="rId97" xr:uid="{C0DDFD68-CBC1-0F4A-AF40-ACF36BBC8453}"/>
+    <hyperlink ref="C130" r:id="rId98" xr:uid="{3E0BF737-E42E-C946-B32C-06882E0BA6FF}"/>
+    <hyperlink ref="C132" r:id="rId99" xr:uid="{862F9782-C57B-2848-A2D9-EB7B52FB7EC7}"/>
+    <hyperlink ref="C133" r:id="rId100" xr:uid="{230D7A6A-D2C5-C140-9A65-B1F407D22062}"/>
+    <hyperlink ref="C134" r:id="rId101" xr:uid="{BDC2BA28-4562-984E-8282-1126BF952EAF}"/>
+    <hyperlink ref="C135" r:id="rId102" xr:uid="{B53A5F28-6DED-3D47-8679-F78D3DDEFF01}"/>
+    <hyperlink ref="C136" r:id="rId103" xr:uid="{C57D0CC7-DA2F-0948-9BCE-F19C20C7D981}"/>
+    <hyperlink ref="C137" r:id="rId104" xr:uid="{117878E5-B8C8-254B-8ED6-014B4B7A8126}"/>
+    <hyperlink ref="C138" r:id="rId105" xr:uid="{B7CC0756-74F2-D54D-BDEE-9DA394DD7168}"/>
+    <hyperlink ref="C139" r:id="rId106" xr:uid="{837EF472-CCC2-CF47-A8A8-238E56F722CE}"/>
+    <hyperlink ref="C140" r:id="rId107" xr:uid="{3608F267-6AA0-624B-B243-7DDD317E9F08}"/>
+    <hyperlink ref="C141" r:id="rId108" xr:uid="{0B6123E6-0472-374B-ACA7-6914CD7918E8}"/>
+    <hyperlink ref="C142" r:id="rId109" xr:uid="{D3971CEB-C53E-B04B-9C32-1803182B5DC5}"/>
+    <hyperlink ref="C143" r:id="rId110" xr:uid="{7CF5013A-643E-1643-93A1-A2F1500D2A23}"/>
+    <hyperlink ref="C144" r:id="rId111" xr:uid="{2A6BE7E5-D818-6843-8C3E-99EA2BFE0FB2}"/>
+    <hyperlink ref="C145" r:id="rId112" xr:uid="{E718F544-96DF-A04E-8DFB-7639DA3EA57C}"/>
+    <hyperlink ref="C146" r:id="rId113" xr:uid="{B0C2F065-424A-7345-A864-346ECD98D749}"/>
+    <hyperlink ref="C147" r:id="rId114" xr:uid="{B4E26955-5C3F-804E-B19A-11260310AFB3}"/>
+    <hyperlink ref="C148" r:id="rId115" xr:uid="{6F299BB5-8E82-0240-A9A3-6829CE3ABCBF}"/>
+    <hyperlink ref="C149" r:id="rId116" xr:uid="{A42CA32F-2196-1840-A53D-E5073237C68D}"/>
+    <hyperlink ref="C150" r:id="rId117" xr:uid="{7ECF6EF4-962E-4642-9B1C-C3B70674793E}"/>
+    <hyperlink ref="C151" r:id="rId118" xr:uid="{2A109178-6B60-164E-9D25-42B3282137E3}"/>
+    <hyperlink ref="C152" r:id="rId119" xr:uid="{B3D38BD0-A6A1-8D41-8405-45E1BEEEEF06}"/>
+    <hyperlink ref="C153" r:id="rId120" xr:uid="{A1C26612-D040-2A41-A6A6-A8F2490C0A43}"/>
+    <hyperlink ref="C154" r:id="rId121" xr:uid="{C476E807-64CB-F44A-A23D-D21EBF6D001D}"/>
+    <hyperlink ref="C155" r:id="rId122" xr:uid="{9A414D55-D4A1-F147-9207-61B597D57136}"/>
+    <hyperlink ref="C124" r:id="rId123" xr:uid="{18B028A7-9B6F-D841-8548-924D70530779}"/>
+    <hyperlink ref="C131" r:id="rId124" xr:uid="{6D3E75EF-733F-7A4B-81C8-AEF6CB6335F0}"/>
+    <hyperlink ref="C158" r:id="rId125" xr:uid="{C9EB2682-BE0B-934B-B0B4-1DD1A1502647}"/>
+    <hyperlink ref="C159" r:id="rId126" xr:uid="{2992FED9-2B78-A342-92AA-E7C0F882FF17}"/>
+    <hyperlink ref="C160" r:id="rId127" xr:uid="{0084DA6F-EC84-BD48-BDA8-EBACA3BB3B3E}"/>
+    <hyperlink ref="C161" r:id="rId128" xr:uid="{30F2D415-4B2C-384C-8EAE-2CC71CB518E2}"/>
+    <hyperlink ref="C162" r:id="rId129" xr:uid="{40734C88-7C5B-9747-86D1-03463D9AD41A}"/>
+    <hyperlink ref="C163" r:id="rId130" xr:uid="{1040D22F-6729-104A-A229-CBDCED93024A}"/>
+    <hyperlink ref="C164" r:id="rId131" xr:uid="{E131FE61-FABF-8E4B-8EF0-F68379D8F836}"/>
+    <hyperlink ref="C165" r:id="rId132" xr:uid="{B2129272-1351-3745-883B-E6A7115450C8}"/>
+    <hyperlink ref="C166" r:id="rId133" xr:uid="{C8B2DEF0-2B69-C84E-8013-0B6F03FFC250}"/>
+    <hyperlink ref="C167" r:id="rId134" xr:uid="{536AC5CF-712F-BF48-94A9-D0E7DC013020}"/>
+    <hyperlink ref="C168" r:id="rId135" xr:uid="{2DABC9C7-43D4-1249-AF9B-5FA4552611CB}"/>
+    <hyperlink ref="C169" r:id="rId136" xr:uid="{DA62E73A-B495-F94A-BECE-D42E4CBF074A}"/>
+    <hyperlink ref="C170" r:id="rId137" xr:uid="{7F5E6966-850D-4F49-B2A5-678365713F28}"/>
+    <hyperlink ref="C171" r:id="rId138" xr:uid="{E9C4286D-8493-9A47-8B8C-09583FA72B70}"/>
+    <hyperlink ref="C172" r:id="rId139" xr:uid="{9EB0123C-84AE-1C4D-BA1A-C28CFB8EFB89}"/>
+    <hyperlink ref="C173" r:id="rId140" xr:uid="{9D11FED4-328F-674E-889D-EC781DD1D791}"/>
+    <hyperlink ref="C174" r:id="rId141" xr:uid="{48AE72DB-397B-464D-88AD-B8058ED29CC1}"/>
+    <hyperlink ref="C175" r:id="rId142" xr:uid="{152D50E9-7448-F542-AC66-05D0AE66664C}"/>
+    <hyperlink ref="C176" r:id="rId143" xr:uid="{34E6AF1B-5FB1-3A4B-8938-1DCF80831DC2}"/>
+    <hyperlink ref="C177" r:id="rId144" xr:uid="{E7F8B7CA-49F4-1946-91EE-E7582BE4E5DA}"/>
+    <hyperlink ref="C178" r:id="rId145" xr:uid="{3590A994-B7A2-C14D-9BF8-7AC8FE9E7F0F}"/>
+    <hyperlink ref="C179" r:id="rId146" xr:uid="{0AAA4B0C-4921-C34D-B41E-D702FA860892}"/>
+    <hyperlink ref="C180" r:id="rId147" xr:uid="{5973FCA4-AE32-5248-A6ED-2694367332F1}"/>
+    <hyperlink ref="C181" r:id="rId148" xr:uid="{4C0F816E-F043-0C47-BF16-1CDAD88D2FF1}"/>
+    <hyperlink ref="C182" r:id="rId149" xr:uid="{A8E4C654-D0BD-8945-9F5C-B09F7BC114BE}"/>
+    <hyperlink ref="C185" r:id="rId150" xr:uid="{E3825C15-10BB-E24F-B229-983F651DA942}"/>
+    <hyperlink ref="C186" r:id="rId151" xr:uid="{46ECFC31-388C-6241-8FFE-DED6F2FC794A}"/>
+    <hyperlink ref="C187" r:id="rId152" xr:uid="{589E024D-3FE1-1048-890C-88289733F233}"/>
+    <hyperlink ref="C188" r:id="rId153" xr:uid="{CDA28F7A-7FC5-F74D-B27E-A6E0161D41D5}"/>
+    <hyperlink ref="C189" r:id="rId154" xr:uid="{DA6A0D92-DCEB-DA4F-8BBA-10FCD092838F}"/>
+    <hyperlink ref="C190" r:id="rId155" xr:uid="{955769DB-3256-254B-90DE-E1E01B272F8A}"/>
+    <hyperlink ref="C191" r:id="rId156" xr:uid="{DED7AC9B-40D7-0545-9D6F-6CD4F5FFE4C6}"/>
+    <hyperlink ref="C192" r:id="rId157" xr:uid="{6947A4E1-B6AA-6D4F-A6D8-8FA74FD02887}"/>
+    <hyperlink ref="C193" r:id="rId158" xr:uid="{EABF2012-5A90-0C4E-86F6-FDB5FA7770BE}"/>
+    <hyperlink ref="C196" r:id="rId159" xr:uid="{7F44CFE0-9ED1-A44D-B9EF-CF87BEB644FC}"/>
+    <hyperlink ref="C197" r:id="rId160" xr:uid="{CF6E0CF6-7A93-D84A-9CE0-5BDD51767416}"/>
+    <hyperlink ref="C198" r:id="rId161" xr:uid="{EFF8F154-60B8-B84B-84CA-32756BD6430F}"/>
+    <hyperlink ref="C199" r:id="rId162" xr:uid="{C8A3094E-E11B-2543-B05E-1D07048B2EBA}"/>
+    <hyperlink ref="C200" r:id="rId163" xr:uid="{9961E5F5-B5C6-0C4D-A1D0-D04D2A5D7DFD}"/>
+    <hyperlink ref="C201" r:id="rId164" xr:uid="{44E289EC-47DD-D94D-88C1-CB2F59C6C16A}"/>
+    <hyperlink ref="C202" r:id="rId165" xr:uid="{4161FC70-DD6D-684B-898A-A4711596B2D5}"/>
+    <hyperlink ref="C203" r:id="rId166" xr:uid="{B9CBE387-8E9A-ED48-8310-CF7D34FA690C}"/>
+    <hyperlink ref="C204" r:id="rId167" xr:uid="{5398097B-24FF-9543-8F02-33CE2860F1F7}"/>
+    <hyperlink ref="C205" r:id="rId168" xr:uid="{3B1FC30B-30C8-7B48-AF94-A81FB513F24F}"/>
+    <hyperlink ref="C206" r:id="rId169" xr:uid="{32B750D0-D7F2-694D-AB9B-25AFAFAFF17F}"/>
+    <hyperlink ref="C207" r:id="rId170" xr:uid="{400689DD-8E95-024E-976B-AACD8ED4E1A6}"/>
+    <hyperlink ref="C208" r:id="rId171" xr:uid="{28753DDE-E047-5D40-A30B-1103BE6DA08F}"/>
+    <hyperlink ref="C209" r:id="rId172" xr:uid="{6C5AA6CB-3D93-0740-AEED-9E6C218CF6CB}"/>
+    <hyperlink ref="C210" r:id="rId173" xr:uid="{03EAA2B9-D8B8-D642-BF24-380596D26B2E}"/>
+    <hyperlink ref="C211" r:id="rId174" xr:uid="{8C1719B4-37CC-484E-BDCE-A4272C07F91B}"/>
+    <hyperlink ref="C212" r:id="rId175" xr:uid="{6C198DA2-BB98-F940-8EF6-2FC8B7AE577A}"/>
+    <hyperlink ref="C213" r:id="rId176" xr:uid="{AB0EA311-A446-D046-A0EC-290B42068328}"/>
+    <hyperlink ref="C214" r:id="rId177" xr:uid="{DB913045-B9F6-6549-AA09-22B0CC5FDD21}"/>
+    <hyperlink ref="C215" r:id="rId178" xr:uid="{806469FD-617A-7445-AAB5-FB2FD2ED24EA}"/>
+    <hyperlink ref="C216" r:id="rId179" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." xr:uid="{1A10544E-58CF-D04D-9FAF-2FEC6DB2B5D4}"/>
+    <hyperlink ref="C217" r:id="rId180" xr:uid="{5A0B6645-89FD-E044-A706-9FB890274C3C}"/>
+    <hyperlink ref="C218" r:id="rId181" xr:uid="{B42A3009-E8EB-EE44-885F-6699C17A0E0B}"/>
+    <hyperlink ref="C219" r:id="rId182" xr:uid="{ED3E48AB-E25B-3744-B024-E97B2A319B46}"/>
+    <hyperlink ref="C220" r:id="rId183" xr:uid="{C75D20A3-CBAE-2649-A3EE-E49177CFA343}"/>
+    <hyperlink ref="C221" r:id="rId184" xr:uid="{3863CA1B-D43E-1144-91A9-17C2DCF52A64}"/>
+    <hyperlink ref="C222" r:id="rId185" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." xr:uid="{E9AF434E-4CAA-5D49-8AD3-889CDE2913D9}"/>
+    <hyperlink ref="C223" r:id="rId186" xr:uid="{1A0568E5-3A11-7F47-8001-82B05D7C2339}"/>
+    <hyperlink ref="C224" r:id="rId187" xr:uid="{F62B8AE4-9C4F-9544-8861-CD733C12F79E}"/>
+    <hyperlink ref="C225" r:id="rId188" xr:uid="{0F6A542C-44C9-5A4C-90BF-BC8C239877D2}"/>
+    <hyperlink ref="C226" r:id="rId189" xr:uid="{3ED28203-B1B5-4E46-AAF3-779EDD4AC03F}"/>
+    <hyperlink ref="C227" r:id="rId190" xr:uid="{4338B305-B52F-5540-9B51-B938FC6803A2}"/>
+    <hyperlink ref="C228" r:id="rId191" xr:uid="{DDEEED0F-A939-1E4F-B2FA-AD391A4A2874}"/>
+    <hyperlink ref="C229" r:id="rId192" xr:uid="{C2F20589-AD81-654C-94E5-E5B6C9FE27F6}"/>
+    <hyperlink ref="C230" r:id="rId193" xr:uid="{BBEB9DAC-E4AE-C04F-AA15-6356AFC57FDE}"/>
+    <hyperlink ref="C233" r:id="rId194" xr:uid="{6316566D-A10A-F849-9F25-B9ED4DA12BC7}"/>
+    <hyperlink ref="C234" r:id="rId195" xr:uid="{9D4DD895-FBA6-C849-A5BF-3B30755BD9C9}"/>
+    <hyperlink ref="C235" r:id="rId196" xr:uid="{475996DA-632A-BE49-AEA1-D4189FD614A1}"/>
+    <hyperlink ref="C236" r:id="rId197" xr:uid="{88E0C858-8468-884F-BB71-F6F176BD5FC2}"/>
+    <hyperlink ref="C237" r:id="rId198" xr:uid="{C1C5C8D0-7A06-3D4A-A85A-AAACC1B418C9}"/>
+    <hyperlink ref="C238" r:id="rId199" xr:uid="{D525D4B1-2857-1543-8CD9-196728321203}"/>
+    <hyperlink ref="C239" r:id="rId200" xr:uid="{51E3AB9B-04B2-C041-A2B3-37E3EB18013A}"/>
+    <hyperlink ref="C240" r:id="rId201" xr:uid="{7F7F0C9A-57B9-314F-959A-B8ACAFA5FD13}"/>
+    <hyperlink ref="C241" r:id="rId202" xr:uid="{3B029785-83B4-6140-8B70-CD892CFC87F6}"/>
+    <hyperlink ref="C242" r:id="rId203" xr:uid="{B0A390E6-D860-9F4E-B021-68949FE712F3}"/>
+    <hyperlink ref="C243" r:id="rId204" xr:uid="{49E9953D-52F6-BF47-8AAA-8E456F55576B}"/>
+    <hyperlink ref="C244" r:id="rId205" xr:uid="{9B812470-F419-A54E-8365-06A9B8864A30}"/>
+    <hyperlink ref="C245" r:id="rId206" xr:uid="{B6FB4107-1933-6D45-9EF4-4474E06CBE9D}"/>
+    <hyperlink ref="C246" r:id="rId207" xr:uid="{0F7C1D92-7BCB-D14D-A658-9599984E04E4}"/>
+    <hyperlink ref="C247" r:id="rId208" xr:uid="{6810428F-0A78-964C-A8C8-E1CD2E7C405D}"/>
+    <hyperlink ref="C248" r:id="rId209" xr:uid="{B40209F2-0D6E-364F-8AF6-F1D182509314}"/>
+    <hyperlink ref="C249" r:id="rId210" xr:uid="{96C53FA9-9FD3-2D4F-B292-3C9DEDFA806E}"/>
+    <hyperlink ref="C250" r:id="rId211" xr:uid="{918B420D-3678-FD46-9463-595E8ACC39E1}"/>
+    <hyperlink ref="C251" r:id="rId212" xr:uid="{851A7153-3B54-0E4A-A0A0-FCEB091AFE70}"/>
+    <hyperlink ref="C252" r:id="rId213" xr:uid="{C03AE9F8-09AE-C640-81A7-033BB06FB6AD}"/>
+    <hyperlink ref="C253" r:id="rId214" xr:uid="{35140DEB-52D2-4342-88D2-22BA061E5B48}"/>
+    <hyperlink ref="C254" r:id="rId215" xr:uid="{9714BC0B-3373-934C-B7A1-599F74F4FB9D}"/>
+    <hyperlink ref="C257" r:id="rId216" xr:uid="{5CB435B2-7FD2-1D44-9872-22B6A1EDC02B}"/>
+    <hyperlink ref="C258" r:id="rId217" xr:uid="{722D1D95-896B-4642-BABD-31DEDD237B49}"/>
+    <hyperlink ref="C259" r:id="rId218" xr:uid="{D686D1DC-13D6-284C-B606-E087FAF47399}"/>
+    <hyperlink ref="C260" r:id="rId219" xr:uid="{D22C2394-C3CB-8F4F-A010-2B13C8C84D1A}"/>
+    <hyperlink ref="C261" r:id="rId220" xr:uid="{3AE2F800-B66F-1A41-893B-978F6875FDC8}"/>
+    <hyperlink ref="C262" r:id="rId221" xr:uid="{2C939BDE-5298-5541-837B-8C59D53A33C1}"/>
+    <hyperlink ref="C263" r:id="rId222" xr:uid="{691C9BD8-69D3-DA4B-AEB6-AF827B4ACA9F}"/>
+    <hyperlink ref="C264" r:id="rId223" xr:uid="{B6891E82-7C4D-424D-9219-3C9FD08E0053}"/>
+    <hyperlink ref="C265" r:id="rId224" xr:uid="{67A1AE98-62D2-644D-AC13-6CD76CF53CC0}"/>
+    <hyperlink ref="C266" r:id="rId225" xr:uid="{B59D4881-2A82-8F4D-B151-1E796C4923C8}"/>
+    <hyperlink ref="C267" r:id="rId226" xr:uid="{B3CBD023-5EFD-6048-9B3F-89F0C65CBBF5}"/>
+    <hyperlink ref="C268" r:id="rId227" xr:uid="{53EC42C4-22F7-0445-A0AC-7275A59A2672}"/>
+    <hyperlink ref="C269" r:id="rId228" xr:uid="{A29575F3-CB24-5B4B-9538-D5212B2DC28B}"/>
+    <hyperlink ref="C270" r:id="rId229" xr:uid="{353A44DD-9E30-8F48-8E2B-8DAA07550470}"/>
+    <hyperlink ref="C271" r:id="rId230" xr:uid="{32AC291D-95A5-BE49-88E0-02677BF39CAC}"/>
+    <hyperlink ref="C272" r:id="rId231" xr:uid="{A84F22FF-AD10-A546-8998-B066C0EB2D5A}"/>
+    <hyperlink ref="C273" r:id="rId232" xr:uid="{4C5CAF84-9B94-FC44-8C6C-B3CC7257C1DB}"/>
+    <hyperlink ref="C274" r:id="rId233" xr:uid="{5DA775E2-C516-3B47-8C82-3CEE7CC0BDF9}"/>
+    <hyperlink ref="C275" r:id="rId234" xr:uid="{00B6AE5C-EF3F-0747-A280-3BF055362B4F}"/>
+    <hyperlink ref="C276" r:id="rId235" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." xr:uid="{BCBD0A7E-F3D0-E840-9375-AFD37C5CD41A}"/>
+    <hyperlink ref="C277" r:id="rId236" xr:uid="{47ABDDDB-F95F-8049-9FB3-1E71A7376DDE}"/>
+    <hyperlink ref="C278" r:id="rId237" xr:uid="{70BADFC9-7399-234D-99F6-4C5F02397C26}"/>
+    <hyperlink ref="C279" r:id="rId238" xr:uid="{63348580-70EF-EC47-BF49-8ECE9560D54E}"/>
+    <hyperlink ref="C280" r:id="rId239" xr:uid="{D5BD96B3-9EAB-1B47-AC87-5C47F6AD7F40}"/>
+    <hyperlink ref="C281" r:id="rId240" xr:uid="{74791141-3FB8-7540-B45B-9541AF0AE371}"/>
+    <hyperlink ref="C282" r:id="rId241" xr:uid="{88D53CD6-262A-7247-8E58-FE9FFF7ECC40}"/>
+    <hyperlink ref="C283" r:id="rId242" xr:uid="{4338A14D-4F7D-B943-A347-7F74EFCA0DB5}"/>
+    <hyperlink ref="C284" r:id="rId243" xr:uid="{6E0EF7A3-7341-284B-A0E3-4539B6EAFAF2}"/>
+    <hyperlink ref="C285" r:id="rId244" xr:uid="{D2D8D64F-E2D3-734E-AD45-3EFB9686555A}"/>
+    <hyperlink ref="C286" r:id="rId245" xr:uid="{04A2904A-73A0-7845-9868-2CCFE359AC68}"/>
+    <hyperlink ref="C287" r:id="rId246" xr:uid="{D3D35835-6BE3-4D41-AF6F-5FE442277A16}"/>
+    <hyperlink ref="C288" r:id="rId247" xr:uid="{F663D0FC-CFF0-BC4F-9D26-48C871A8E9FD}"/>
+    <hyperlink ref="C289" r:id="rId248" xr:uid="{DF544147-DA48-4041-A4E2-4A75106B771A}"/>
+    <hyperlink ref="C290" r:id="rId249" xr:uid="{50E4B716-239E-7946-843D-E8462591D128}"/>
+    <hyperlink ref="C291" r:id="rId250" xr:uid="{D368B3E5-7D12-FD48-AFF7-A4A614108940}"/>
+    <hyperlink ref="C294" r:id="rId251" xr:uid="{D5921FF1-FC1F-CA4B-A24E-AD69E1DEC14C}"/>
+    <hyperlink ref="C295" r:id="rId252" xr:uid="{C931D7E0-E032-7C4B-95F1-735D955FCB51}"/>
+    <hyperlink ref="C296" r:id="rId253" xr:uid="{5FBD4A8F-287C-2C46-9CAB-F7DBA67DEDDA}"/>
+    <hyperlink ref="C297" r:id="rId254" xr:uid="{12966DD6-41DD-A94B-8B2C-0AD7D2AD6FB0}"/>
+    <hyperlink ref="C298" r:id="rId255" xr:uid="{CF720C34-4554-2944-A818-020ABC9BF0F4}"/>
+    <hyperlink ref="C299" r:id="rId256" xr:uid="{75763F2A-16D7-DE43-8189-19623CE26370}"/>
+    <hyperlink ref="C300" r:id="rId257" xr:uid="{9263AA30-472A-0A4D-BADF-96D82BB9BFCC}"/>
+    <hyperlink ref="C301" r:id="rId258" xr:uid="{2EF025C3-75C8-564E-BA8B-708C32B0E602}"/>
+    <hyperlink ref="C302" r:id="rId259" xr:uid="{6BDFDCA9-3421-F24F-8EF2-A72742F0AC21}"/>
+    <hyperlink ref="C303" r:id="rId260" xr:uid="{D8447F99-5FF9-D544-99BB-E9969B4A38D7}"/>
+    <hyperlink ref="C304" r:id="rId261" xr:uid="{1DB7EFDA-6C7D-F546-9EE1-F61ED0F65209}"/>
+    <hyperlink ref="C305" r:id="rId262" xr:uid="{D1505609-27D1-784D-ACF6-AE9D0DA2E1B6}"/>
+    <hyperlink ref="C306" r:id="rId263" xr:uid="{6BFA7B45-17D0-4E49-85DA-23C7255A306D}"/>
+    <hyperlink ref="C307" r:id="rId264" xr:uid="{3324BA4A-30CA-5246-8C3C-6505A6987939}"/>
+    <hyperlink ref="C308" r:id="rId265" xr:uid="{894486AD-2B6D-5740-BCAF-0BA1AFF814B4}"/>
+    <hyperlink ref="C309" r:id="rId266" xr:uid="{C47B203B-8B5A-E740-8C86-0784AD28089E}"/>
+    <hyperlink ref="C310" r:id="rId267" xr:uid="{06DC2E54-7597-AE4D-ACDB-B8883A989A4F}"/>
+    <hyperlink ref="C311" r:id="rId268" xr:uid="{E3384259-7CA7-1C44-A66D-11346EE6742E}"/>
+    <hyperlink ref="C312" r:id="rId269" xr:uid="{A5B77769-38AF-3D47-A76B-311591B57D91}"/>
+    <hyperlink ref="C315" r:id="rId270" xr:uid="{9DB6976A-C646-1341-90E8-3A164521267A}"/>
+    <hyperlink ref="C316" r:id="rId271" xr:uid="{03C291F8-D19A-304B-9EF9-CF71A1F66E49}"/>
+    <hyperlink ref="C317" r:id="rId272" xr:uid="{7536415C-140B-9244-B0B2-23F3ED0B2D80}"/>
+    <hyperlink ref="C318" r:id="rId273" xr:uid="{7DBDA456-8AF6-DD43-9764-17D3959B8E8F}"/>
+    <hyperlink ref="C319" r:id="rId274" xr:uid="{BFC149AB-C15A-B648-9F6A-ECD3890B1918}"/>
+    <hyperlink ref="C320" r:id="rId275" xr:uid="{0482240B-FEE9-F746-8980-52BCB7BBB56E}"/>
+    <hyperlink ref="C321" r:id="rId276" xr:uid="{86D1231A-E7C8-4B45-99ED-2DB0EF71E190}"/>
+    <hyperlink ref="C322" r:id="rId277" xr:uid="{20B7CE89-CB37-0040-989F-C8D1BE2B8782}"/>
+    <hyperlink ref="C323" r:id="rId278" xr:uid="{4C8412C9-A47B-9244-A18B-741516BD1054}"/>
+    <hyperlink ref="C324" r:id="rId279" xr:uid="{511761D9-31CE-0B43-AFFD-C011C27ACC52}"/>
+    <hyperlink ref="C325" r:id="rId280" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." xr:uid="{6905F997-D048-1049-BA27-C48756603D1E}"/>
+    <hyperlink ref="C326" r:id="rId281" xr:uid="{E657AA82-7CFE-DB42-B20F-F63D8C25EAB6}"/>
+    <hyperlink ref="C327" r:id="rId282" xr:uid="{3E505033-58F3-8F4E-AB82-E12DBC226AEA}"/>
+    <hyperlink ref="C328" r:id="rId283" xr:uid="{749599E5-4972-7343-B13B-87E26F837470}"/>
+    <hyperlink ref="C329" r:id="rId284" xr:uid="{12AA88DC-22AB-5A49-B28C-F04C8E35A215}"/>
+    <hyperlink ref="C330" r:id="rId285" xr:uid="{5751F0A7-7D9D-4148-820B-5B9659DFE34F}"/>
+    <hyperlink ref="C331" r:id="rId286" xr:uid="{4CA2DBEE-B161-B84D-B3A9-B8BC1B598AF2}"/>
+    <hyperlink ref="C332" r:id="rId287" xr:uid="{A9C1E578-6594-954C-8785-8902E605FC7A}"/>
+    <hyperlink ref="C333" r:id="rId288" xr:uid="{3D45E9B8-6671-A747-8C18-51CF8883170A}"/>
+    <hyperlink ref="C334" r:id="rId289" xr:uid="{4F5EF748-8CD4-0F47-90CE-3C93755BF63D}"/>
+    <hyperlink ref="C335" r:id="rId290" xr:uid="{44053C08-5050-C84B-B016-069B1EF9A43D}"/>
+    <hyperlink ref="C336" r:id="rId291" xr:uid="{ABF38928-736B-1A49-8B8A-1DCA5AAECB2B}"/>
+    <hyperlink ref="C337" r:id="rId292" xr:uid="{52651FAF-F3DC-E949-8AF8-998B9724B7D1}"/>
+    <hyperlink ref="C338" r:id="rId293" xr:uid="{91C6CCEF-3FF7-2C42-B5A0-8F4A403ED198}"/>
+    <hyperlink ref="C339" r:id="rId294" xr:uid="{15C8AF08-1A79-F949-9BE7-DD240CBD9861}"/>
+    <hyperlink ref="C340" r:id="rId295" xr:uid="{1904F984-5B22-8D46-BC33-3073B390E8F9}"/>
+    <hyperlink ref="C341" r:id="rId296" xr:uid="{A8BFB3A4-426B-E646-BCF0-FE19C8CD07A9}"/>
+    <hyperlink ref="C342" r:id="rId297" xr:uid="{FBBA29BB-885B-744A-A644-58EDCA7B140A}"/>
+    <hyperlink ref="C343" r:id="rId298" xr:uid="{75411687-6884-AC42-8B4A-1348C4837365}"/>
+    <hyperlink ref="C344" r:id="rId299" xr:uid="{A89ED8DF-F678-FE43-808C-C190721379BF}"/>
+    <hyperlink ref="C345" r:id="rId300" xr:uid="{1516834D-F3B2-1743-8811-263E11BBDEF8}"/>
+    <hyperlink ref="C346" r:id="rId301" xr:uid="{1659AB91-08CA-E44D-988D-E9D9A746D406}"/>
+    <hyperlink ref="C347" r:id="rId302" xr:uid="{E844BC1D-9713-9F4D-B0A4-1124A9952D14}"/>
+    <hyperlink ref="C348" r:id="rId303" xr:uid="{DCE2AAEF-8D8E-1843-BFE9-E9B7E13854EB}"/>
+    <hyperlink ref="C349" r:id="rId304" xr:uid="{836B3BF0-7711-7D41-9E72-914C1871397F}"/>
+    <hyperlink ref="C350" r:id="rId305" xr:uid="{F450CF9B-CA59-1443-8163-13F1121DCF12}"/>
+    <hyperlink ref="C351" r:id="rId306" xr:uid="{1539C3E8-4854-3C4F-A7B3-55BF931F1E2A}"/>
+    <hyperlink ref="C352" r:id="rId307" xr:uid="{04F1FC5F-5DA1-0144-962D-B38C1C41F0F4}"/>
+    <hyperlink ref="C355" r:id="rId308" xr:uid="{B21618F4-70E2-C549-80B7-7CF915679E0A}"/>
+    <hyperlink ref="C356" r:id="rId309" xr:uid="{EEDFBF11-C1E4-0847-9D56-94A72D97AEE7}"/>
+    <hyperlink ref="C357" r:id="rId310" xr:uid="{F5C0EDF1-7EAC-8849-8D27-C3389913BFC6}"/>
+    <hyperlink ref="C358" r:id="rId311" xr:uid="{50175B29-124F-4E4E-8E98-961BD3320359}"/>
+    <hyperlink ref="C359" r:id="rId312" xr:uid="{1BE23822-8512-014F-9154-F6EDA4FC8428}"/>
+    <hyperlink ref="C360" r:id="rId313" xr:uid="{38EC228E-ABFF-3542-9CFB-3DDFC628E9D0}"/>
+    <hyperlink ref="C361" r:id="rId314" xr:uid="{73F240F8-C469-454E-BA5C-CFF2F7A7A5F6}"/>
+    <hyperlink ref="C362" r:id="rId315" xr:uid="{3BBD1BAC-68C7-A94A-9063-AF62B5C837FD}"/>
+    <hyperlink ref="C363" r:id="rId316" xr:uid="{F9751D9B-2689-E24B-9FC3-CA32FE888708}"/>
+    <hyperlink ref="C364" r:id="rId317" xr:uid="{73C61D6A-D97C-B944-8B27-BB91564AB0D7}"/>
+    <hyperlink ref="C365" r:id="rId318" xr:uid="{936E077C-C016-A04F-895A-782D6D9D9433}"/>
+    <hyperlink ref="C366" r:id="rId319" xr:uid="{5454A2A1-6607-BE48-9215-CB8965EC3568}"/>
+    <hyperlink ref="C367" r:id="rId320" xr:uid="{FC1EAA10-F7ED-6B42-A79B-3D8B44E2C8B3}"/>
+    <hyperlink ref="C368" r:id="rId321" xr:uid="{FDB7F712-4A42-1048-8929-A1E752B07C6A}"/>
+    <hyperlink ref="C369" r:id="rId322" xr:uid="{AF3ACA60-0B0E-E146-B51F-A2CD05EB6549}"/>
+    <hyperlink ref="C370" r:id="rId323" xr:uid="{BB63E040-7A1A-E046-9BDD-9CBD1DA89DE9}"/>
+    <hyperlink ref="C371" r:id="rId324" xr:uid="{9AF8FD93-CCC9-D540-AE9A-00583F309649}"/>
+    <hyperlink ref="C372" r:id="rId325" xr:uid="{66A746A0-71FE-E546-92B7-D1C3D582E067}"/>
+    <hyperlink ref="C376" r:id="rId326" xr:uid="{BD79CCE1-5315-3944-9F9B-618615EC4583}"/>
+    <hyperlink ref="C377" r:id="rId327" xr:uid="{A5068A51-C961-6847-BB27-40A850B6D393}"/>
+    <hyperlink ref="C378" r:id="rId328" xr:uid="{6B8D36F0-E796-B944-A456-E8A9E2EE0BDB}"/>
+    <hyperlink ref="C379" r:id="rId329" xr:uid="{776652B7-2C11-4641-BF6A-EABEEB9B55AB}"/>
+    <hyperlink ref="C380" r:id="rId330" xr:uid="{95C6B35D-712A-2343-B790-236B55C5EC49}"/>
+    <hyperlink ref="C381" r:id="rId331" xr:uid="{4ED53872-1FE9-F140-AA35-F228F762880B}"/>
+    <hyperlink ref="C382" r:id="rId332" xr:uid="{6D5E6A28-85AA-BF4C-B2BD-9378D6E28EC7}"/>
+    <hyperlink ref="C383" r:id="rId333" xr:uid="{BCAD1ECB-15EE-CF49-878E-AA682DE3AC22}"/>
+    <hyperlink ref="C384" r:id="rId334" xr:uid="{C85468B5-25E9-E446-808E-72CFE911F0C2}"/>
+    <hyperlink ref="C385" r:id="rId335" xr:uid="{9503AECA-1A6A-9640-A04C-4CEAA2304448}"/>
+    <hyperlink ref="C386" r:id="rId336" xr:uid="{74211516-06B0-AA45-845B-52C8202751DA}"/>
+    <hyperlink ref="C387" r:id="rId337" xr:uid="{02C696BC-4B91-9444-900F-9CD68E409ABC}"/>
+    <hyperlink ref="C388" r:id="rId338" xr:uid="{04646C45-4118-374C-839D-94D31D534FAC}"/>
+    <hyperlink ref="C389" r:id="rId339" xr:uid="{F90BCCAE-8596-FC4D-BDD7-774392C596DF}"/>
+    <hyperlink ref="C390" r:id="rId340" xr:uid="{65230925-36EC-8A4B-8E46-6350B9BC0F95}"/>
+    <hyperlink ref="C391" r:id="rId341" xr:uid="{E91B8177-0C7A-1F40-BD34-4CC60F03B84F}"/>
+    <hyperlink ref="C392" r:id="rId342" xr:uid="{E8CBFD60-7335-0B4D-9FF5-99B4A8DC551D}"/>
+    <hyperlink ref="C393" r:id="rId343" xr:uid="{A35F55D4-9B87-C745-94DB-E7D820193C30}"/>
+    <hyperlink ref="C394" r:id="rId344" xr:uid="{6461A29F-D404-334F-B13F-296B4CA5E8A4}"/>
+    <hyperlink ref="C395" r:id="rId345" xr:uid="{FA9B4BE7-85CC-B24F-9461-5E9B42DDD824}"/>
+    <hyperlink ref="C396" r:id="rId346" xr:uid="{A75ACEA2-CDF6-A147-8540-A6DF55B15F45}"/>
+    <hyperlink ref="C397" r:id="rId347" xr:uid="{62FF87E2-E658-AB4D-AC57-7BCF9D49516E}"/>
+    <hyperlink ref="C398" r:id="rId348" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." xr:uid="{269338A6-5145-6944-9F7F-BD2A86DFA308}"/>
+    <hyperlink ref="C399" r:id="rId349" xr:uid="{8F583049-CE8D-CD42-88CD-CF3857942670}"/>
+    <hyperlink ref="C400" r:id="rId350" xr:uid="{EE2348AD-E296-894A-B5AE-5884A3C5E419}"/>
+    <hyperlink ref="C401" r:id="rId351" xr:uid="{6EACB34E-B32E-8F43-8055-2406F7417A7E}"/>
+    <hyperlink ref="C402" r:id="rId352" xr:uid="{2446F10A-B762-B64C-97B2-6131A0BECC1F}"/>
+    <hyperlink ref="C403" r:id="rId353" xr:uid="{6FDFCC53-17A6-7244-88A7-49406D7C9200}"/>
+    <hyperlink ref="C404" r:id="rId354" xr:uid="{3EC43646-EAB1-E443-A2F6-8E6E5FC77083}"/>
+    <hyperlink ref="C405" r:id="rId355" xr:uid="{659D9F20-C862-C947-B422-84143CFE317F}"/>
+    <hyperlink ref="C406" r:id="rId356" xr:uid="{3F5192FE-1C50-C049-88D5-68FA0F5430A0}"/>
+    <hyperlink ref="C407" r:id="rId357" xr:uid="{5EAD7CDA-9545-454B-BE77-9AFEC6AC1083}"/>
+    <hyperlink ref="C408" r:id="rId358" xr:uid="{761E5451-736B-6745-9CF5-4C6EF5D4C099}"/>
+    <hyperlink ref="C409" r:id="rId359" xr:uid="{4C8677A9-D94C-134F-AF31-E424751BF867}"/>
+    <hyperlink ref="C410" r:id="rId360" xr:uid="{CCF7920F-D5CE-004A-86C3-D821FB230970}"/>
+    <hyperlink ref="C411" r:id="rId361" xr:uid="{B4C07A0A-1EDD-7947-9646-3FD603441AD7}"/>
+    <hyperlink ref="C412" r:id="rId362" xr:uid="{49F7BB43-6851-0641-9DC5-27DBC66706F6}"/>
+    <hyperlink ref="C413" r:id="rId363" xr:uid="{77038647-48C7-5547-8E0F-898610362465}"/>
+    <hyperlink ref="C415" r:id="rId364" xr:uid="{EEFFE19C-6571-C64F-A0E1-5A4A700D94D4}"/>
+    <hyperlink ref="C414" r:id="rId365" xr:uid="{A4A2BFC4-6B88-2E4E-B362-17D8EE041C89}"/>
+    <hyperlink ref="C416" r:id="rId366" xr:uid="{DC5B603A-8D65-3648-A08A-E5FFA0FAE879}"/>
+    <hyperlink ref="C417" r:id="rId367" xr:uid="{F8807DD9-F4F2-B147-9C31-DBC93B2E477B}"/>
+    <hyperlink ref="C418" r:id="rId368" xr:uid="{6F7B396C-D7E9-C04E-BAE2-53D2EE07172B}"/>
+    <hyperlink ref="C421" r:id="rId369" xr:uid="{0D4A5941-C669-4A49-BAE3-9B553D03BD0F}"/>
+    <hyperlink ref="C422" r:id="rId370" xr:uid="{54144336-5BCA-D749-962A-E448C2CED3D3}"/>
+    <hyperlink ref="C423" r:id="rId371" xr:uid="{3A41DD21-CACF-1F48-A7C7-F568C6F31F3E}"/>
+    <hyperlink ref="C424" r:id="rId372" xr:uid="{A36160A8-F45E-3443-9645-42C1004B8F8C}"/>
+    <hyperlink ref="C425" r:id="rId373" xr:uid="{8B0A00A3-6AC0-DF46-AD87-A4DA016A2A00}"/>
+    <hyperlink ref="C426" r:id="rId374" xr:uid="{62A81CB4-A961-C543-B31C-92059DB6C105}"/>
+    <hyperlink ref="C429" r:id="rId375" xr:uid="{08030975-009C-C34A-A875-72FE2718F44C}"/>
+    <hyperlink ref="C430" r:id="rId376" xr:uid="{A113C7A9-2359-B643-9C08-E845813439C0}"/>
+    <hyperlink ref="C431" r:id="rId377" xr:uid="{FE300343-4633-AD47-A64D-2086629EB398}"/>
+    <hyperlink ref="C432" r:id="rId378" xr:uid="{4FC9F782-D38F-C642-A863-887B17AD05CD}"/>
+    <hyperlink ref="C433" r:id="rId379" xr:uid="{830C5466-10E3-7A48-B3E7-35C15A1CA4EF}"/>
+    <hyperlink ref="C434" r:id="rId380" xr:uid="{1B987077-E9D3-6F40-89EE-0D4E7180D884}"/>
+    <hyperlink ref="C435" r:id="rId381" xr:uid="{D4843E1F-7226-864E-A4BB-264D5A487B6D}"/>
+    <hyperlink ref="C436" r:id="rId382" xr:uid="{61816592-2D19-9946-8253-47A60218F2EA}"/>
+    <hyperlink ref="C437" r:id="rId383" xr:uid="{736C840F-19A3-0A4B-8863-ECB772B46385}"/>
+    <hyperlink ref="C438" r:id="rId384" xr:uid="{05A238AD-3C5B-C546-94E9-75BBF964711A}"/>
+    <hyperlink ref="C439" r:id="rId385" xr:uid="{7029629C-3F2A-4A49-997B-CFE86EC8B3C2}"/>
+    <hyperlink ref="C440" r:id="rId386" xr:uid="{ADA66B57-2FAC-AB42-BD83-4931708F3AB5}"/>
+    <hyperlink ref="C441" r:id="rId387" xr:uid="{F16BF1F9-755B-B045-B9A8-0B97E3BAC8B0}"/>
+    <hyperlink ref="C442" r:id="rId388" xr:uid="{ECCE930A-B960-234C-81EC-4B8514282AE9}"/>
+    <hyperlink ref="C443" r:id="rId389" xr:uid="{7AA58141-7D24-7C42-A0C1-F852B21CFFD9}"/>
+    <hyperlink ref="C444" r:id="rId390" xr:uid="{B1FCB47D-7921-3446-B2C7-72CBA815D056}"/>
+    <hyperlink ref="C445" r:id="rId391" xr:uid="{8C547719-AA03-3543-B31F-7300674AF4C5}"/>
+    <hyperlink ref="C446" r:id="rId392" xr:uid="{09922668-AFC0-F242-860E-9967E0F0FEF4}"/>
+    <hyperlink ref="C447" r:id="rId393" xr:uid="{0DA963DA-238B-D44E-9E03-6E6BD933B35E}"/>
+    <hyperlink ref="C448" r:id="rId394" xr:uid="{89518AFF-2526-C845-BC9D-95FE77AF416E}"/>
+    <hyperlink ref="C449" r:id="rId395" xr:uid="{FAECBBBE-196C-7A41-A0FB-E0597CB2CF51}"/>
+    <hyperlink ref="C450" r:id="rId396" xr:uid="{8126B039-0B25-B040-A0F6-C3457341A2E9}"/>
+    <hyperlink ref="C451" r:id="rId397" xr:uid="{6CB326E6-E698-EB42-884B-C89FFA33E3BA}"/>
+    <hyperlink ref="C452" r:id="rId398" xr:uid="{8C97EFD1-933F-A44F-A1CF-6386233104A2}"/>
+    <hyperlink ref="C453" r:id="rId399" xr:uid="{8F019F07-8532-E147-8BE1-4EBE833F61CA}"/>
+    <hyperlink ref="C454" r:id="rId400" xr:uid="{00F1A08F-3767-784A-97A3-4603DE38BACC}"/>
+    <hyperlink ref="C455" r:id="rId401" xr:uid="{2A84ADCB-071F-9A48-994D-7A838307EFD8}"/>
+    <hyperlink ref="C456" r:id="rId402" xr:uid="{132F8C6D-D5E8-6440-AC4E-B81EA2100416}"/>
+    <hyperlink ref="C457" r:id="rId403" xr:uid="{2DA6EAC2-1A1D-754F-9613-226CBC7890AF}"/>
+    <hyperlink ref="C458" r:id="rId404" xr:uid="{05BED99A-4562-D14E-8627-D07CF5335A9B}"/>
+    <hyperlink ref="C459" r:id="rId405" xr:uid="{111D902A-3F60-2D4B-89D3-5BCBD8AA38DD}"/>
+    <hyperlink ref="C460" r:id="rId406" xr:uid="{F19236BE-AC32-3542-9214-DFC3BAE04ED0}"/>
+    <hyperlink ref="C461" r:id="rId407" xr:uid="{4D97CD96-EA1B-664E-9380-EFD27077D273}"/>
+    <hyperlink ref="C462" r:id="rId408" xr:uid="{49A46D91-633F-A148-ACFA-49B7D1AA4B33}"/>
+    <hyperlink ref="C463" r:id="rId409" xr:uid="{7C3B7901-67E3-EA4D-BC64-21A78BC03AC6}"/>
+    <hyperlink ref="C464" r:id="rId410" xr:uid="{B27CA8C3-D34F-5E4D-94A5-11D14AFD0F82}"/>
+    <hyperlink ref="C465" r:id="rId411" xr:uid="{8FECE038-9764-5E4A-8C6E-9B3209812651}"/>
+    <hyperlink ref="C466" r:id="rId412" xr:uid="{95696D4B-89CB-5640-BE92-53B3C043F7EB}"/>
+    <hyperlink ref="C467" r:id="rId413" xr:uid="{DA74B737-802A-4944-A93E-0B9C8417630B}"/>
+    <hyperlink ref="C468" r:id="rId414" xr:uid="{B2C4C168-50FA-AF41-8F56-9E70613CF17D}"/>
+    <hyperlink ref="C470" r:id="rId415" xr:uid="{B7090C60-AC27-3F4F-8F0D-42F0791928C6}"/>
+    <hyperlink ref="C469" r:id="rId416" xr:uid="{07400041-66C6-514B-B3E3-427F2947C2B7}"/>
+    <hyperlink ref="C471" r:id="rId417" xr:uid="{B7E78172-8FB8-4E42-87D8-6A4654D79C62}"/>
+    <hyperlink ref="C472" r:id="rId418" xr:uid="{9A5D4670-BC64-334A-88CF-6F8287692C5E}"/>
+    <hyperlink ref="C473" r:id="rId419" xr:uid="{604283B6-53BC-044F-8D9D-E6094E798317}"/>
+    <hyperlink ref="C474" r:id="rId420" xr:uid="{5EB15AC7-3E0E-E44C-A5B9-32F30F234B5A}"/>
+    <hyperlink ref="C475" r:id="rId421" xr:uid="{3076BD5F-4B23-4146-A50A-499C9FF4C3D2}"/>
+    <hyperlink ref="C476" r:id="rId422" xr:uid="{6A29D9C2-1E78-1B43-A251-0AB0A97FA70E}"/>
+    <hyperlink ref="C477" r:id="rId423" xr:uid="{00597D5E-D693-DF4E-84C0-47E58A6ACA8F}"/>
+    <hyperlink ref="C478" r:id="rId424" xr:uid="{48640988-9964-0B4C-A014-83E2CEB3D632}"/>
+    <hyperlink ref="C479" r:id="rId425" xr:uid="{617AADC9-7534-FE45-96B0-EF4C1867B793}"/>
+    <hyperlink ref="C480" r:id="rId426" xr:uid="{7F8CDAA4-5094-8E4E-961B-41CDE5ACC0C0}"/>
+    <hyperlink ref="C481" r:id="rId427" xr:uid="{63F28ABD-12CF-5947-80DA-229E3CA3133E}"/>
+    <hyperlink ref="C488" r:id="rId428" xr:uid="{0A1DB92C-3315-1942-B27D-4B90986A6D9D}"/>
+    <hyperlink ref="C487" r:id="rId429" xr:uid="{11738B67-CADD-5D45-8417-8BE7A03FC79F}"/>
+    <hyperlink ref="C486" r:id="rId430" xr:uid="{B2B23748-D9E4-BE4F-A93E-49ECB4063831}"/>
+    <hyperlink ref="C485" r:id="rId431" xr:uid="{A2FB8A72-37B9-7E4A-B050-FD6CD20BCE73}"/>
+    <hyperlink ref="C484" r:id="rId432" xr:uid="{5A93C9AF-BFEB-EB40-95AC-C309ED09A604}"/>
+    <hyperlink ref="C483" r:id="rId433" xr:uid="{CC203923-2DC2-874B-B846-A8455E3CC2F2}"/>
+    <hyperlink ref="C482" r:id="rId434" xr:uid="{FCB0246E-0179-B447-B3CE-C60CDB388472}"/>
+    <hyperlink ref="C491" r:id="rId435" xr:uid="{F06CEE72-8CA4-C547-862C-39B86CD3226A}"/>
+    <hyperlink ref="C492" r:id="rId436" xr:uid="{CB3045F2-8D63-0F4E-85BC-AF016DB4F247}"/>
+    <hyperlink ref="C493" r:id="rId437" xr:uid="{667D57F5-E5AD-674F-A2F5-AFF4A14E4026}"/>
+    <hyperlink ref="C494" r:id="rId438" xr:uid="{27A13A65-56CE-BF4D-BA0D-EB87D910272D}"/>
+    <hyperlink ref="C495" r:id="rId439" xr:uid="{2C72A52E-6F06-0246-AEB5-93CD0DEA8866}"/>
+    <hyperlink ref="C496" r:id="rId440" xr:uid="{24B29046-B4DD-674B-9EDF-6C94BEC3FDD8}"/>
+    <hyperlink ref="C497" r:id="rId441" xr:uid="{D018EBC3-3FB3-AC4D-9D64-D218345A46C8}"/>
+    <hyperlink ref="C500" r:id="rId442" xr:uid="{1E1D3964-01E0-3145-ACFE-B6A5BF0EECB0}"/>
+    <hyperlink ref="C498" r:id="rId443" xr:uid="{FA0E5061-A7E2-C045-9671-1CD9446D1932}"/>
+    <hyperlink ref="C499" r:id="rId444" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{92704F5B-7B31-2F42-80DD-764B2206D9DB}"/>
+    <hyperlink ref="C375" r:id="rId445" xr:uid="{A48B1A24-83B1-7A4C-8129-CD37804DF849}"/>
+    <hyperlink ref="C26" r:id="rId446" xr:uid="{F0DDC999-C321-4AB4-BA9D-7538150E84D3}"/>
+    <hyperlink ref="C9" r:id="rId447" xr:uid="{310D755F-0FAF-4086-8950-B58917F7CAF8}"/>
+    <hyperlink ref="C8" r:id="rId448" xr:uid="{6913685B-862A-49D7-AB28-593B13669931}"/>
+    <hyperlink ref="C10" r:id="rId449" xr:uid="{E2555AFC-8C22-4A69-A028-B6C7E7796509}"/>
+    <hyperlink ref="C11" r:id="rId450" display="Wrute a Program to Find trailing Number of Zeros in Factorial of a Number" xr:uid="{4399CE2A-7FD8-4B12-B4C8-C7E9B23BBC9F}"/>
+    <hyperlink ref="C13" r:id="rId451" xr:uid="{6EFA894A-D33E-4C0B-BE93-0E75656CC712}"/>
+    <hyperlink ref="C14" r:id="rId452" xr:uid="{10515421-DC78-49D9-8A73-CC3D6D10A7C9}"/>
+    <hyperlink ref="C15" r:id="rId453" xr:uid="{C5C55CCE-6CD7-4A50-85E4-47BB53BE165C}"/>
+    <hyperlink ref="C16" r:id="rId454" xr:uid="{14814E78-7861-4C6A-81CF-8953C1484276}"/>
+    <hyperlink ref="C17" r:id="rId455" xr:uid="{87943FC1-A069-4989-8B78-B463D290AF94}"/>
+    <hyperlink ref="C18" r:id="rId456" xr:uid="{D825528B-18AF-463A-AA31-760F76F78A15}"/>
+    <hyperlink ref="C12" r:id="rId457" xr:uid="{027E7E1D-0C53-4A77-9662-F495CEC3BAC4}"/>
+    <hyperlink ref="C21" r:id="rId458" xr:uid="{394D268B-F042-4D5E-8945-7C021567FDBC}"/>
+    <hyperlink ref="C20" r:id="rId459" xr:uid="{A00A42BF-18C8-47DB-A23E-C835CF3A1B72}"/>
+    <hyperlink ref="C19" r:id="rId460" xr:uid="{B7A6DAE3-6E86-4612-A1FF-539F5C6D3E1D}"/>
+    <hyperlink ref="C25" r:id="rId461" xr:uid="{5221452B-37E3-4315-91B2-6A38CEBB1898}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId462"/>

--- a/DSA Sheet.xlsx
+++ b/DSA Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Java\Java-DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C50870B3-F418-4049-ACB2-F263CAD8CDA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{519DF654-7717-4163-8D55-725822207383}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22140" windowHeight="13176" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="508">
   <si>
     <t>Topic:</t>
   </si>
@@ -1534,13 +1534,28 @@
   </si>
   <si>
     <t>Revision</t>
+  </si>
+  <si>
+    <t>Find pair with maximum GCD in an array</t>
+  </si>
+  <si>
+    <t>VDO</t>
+  </si>
+  <si>
+    <t>PP=Practice in GFG Questions</t>
+  </si>
+  <si>
+    <t>VDO=Video Seen Not Implemented</t>
+  </si>
+  <si>
+    <t>DGN0MATH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1607,12 +1622,6 @@
     <font>
       <b/>
       <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri (Body)"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1652,7 +1661,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1678,9 +1687,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -2011,13 +2017,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
-  <dimension ref="A1:F500"/>
+  <dimension ref="A1:F501"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="21"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="23.09765625" style="6" customWidth="1"/>
     <col min="2" max="2" width="20.69921875" style="6" customWidth="1"/>
@@ -2028,29 +2034,34 @@
     <col min="7" max="16384" width="11.19921875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="C1" s="10" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C1" s="13" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="C2" s="10"/>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C2" s="13" t="s">
+        <v>505</v>
+      </c>
       <c r="D2" s="8"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C3" s="13" t="s">
+        <v>506</v>
+      </c>
       <c r="D3" s="8"/>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4" s="1"/>
+      <c r="D4" s="8"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="8"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>464</v>
       </c>
@@ -2060,18 +2071,18 @@
       <c r="D6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="13" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="2"/>
-      <c r="F7" s="13"/>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="F7" s="12"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="8" t="s">
         <v>474</v>
       </c>
@@ -2088,7 +2099,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" s="8" t="s">
         <v>474</v>
       </c>
@@ -2105,7 +2116,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" s="8" t="s">
         <v>474</v>
       </c>
@@ -2122,7 +2133,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" s="8" t="s">
         <v>474</v>
       </c>
@@ -2135,8 +2146,11 @@
       <c r="D11" s="3" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="E11" s="3" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" s="9" t="s">
         <v>474</v>
       </c>
@@ -2149,8 +2163,11 @@
       <c r="D12" s="3" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="E12" s="3" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" s="8" t="s">
         <v>474</v>
       </c>
@@ -2163,8 +2180,11 @@
       <c r="D13" s="3" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="E13" s="3" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" s="8" t="s">
         <v>474</v>
       </c>
@@ -2177,8 +2197,11 @@
       <c r="D14" s="3" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="E14" s="3" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" s="8" t="s">
         <v>474</v>
       </c>
@@ -2191,8 +2214,11 @@
       <c r="D15" s="3" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="E15" s="3" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" s="9" t="s">
         <v>474</v>
       </c>
@@ -2205,28 +2231,39 @@
       <c r="D16" s="3" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" s="3" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" s="9" t="s">
         <v>474</v>
       </c>
-      <c r="B17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>504</v>
+      </c>
       <c r="C17" s="5" t="s">
         <v>489</v>
       </c>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="D17" s="3" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" s="9" t="s">
         <v>474</v>
       </c>
-      <c r="B18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>507</v>
+      </c>
       <c r="C18" s="5" t="s">
         <v>490</v>
       </c>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="D18" s="3" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" s="9" t="s">
         <v>474</v>
       </c>
@@ -2240,7 +2277,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" s="9" t="s">
         <v>474</v>
       </c>
@@ -2250,7 +2287,7 @@
       </c>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" s="9" t="s">
         <v>474</v>
       </c>
@@ -2260,5964 +2297,5974 @@
       </c>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:4">
-      <c r="D22" s="8"/>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="11" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A22" s="13" t="s">
+        <v>474</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D23" s="8"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A24" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B24" s="10" t="s">
         <v>465</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C24" s="11" t="s">
         <v>5</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>466</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>6</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="11" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A25" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="11" t="s">
-        <v>497</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>499</v>
+      <c r="B25" s="10" t="s">
+        <v>466</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>6</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="11" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A26" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="11" t="s">
-        <v>496</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>498</v>
+      <c r="B26" s="10" t="s">
+        <v>497</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>499</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="11" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A27" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="10" t="s">
+        <v>496</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>498</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A28" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="10" t="s">
         <v>467</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C28" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D28" s="4" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="11" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A29" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B29" s="10" t="s">
         <v>468</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C29" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="11" t="s">
+      <c r="D29" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A30" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B30" s="10" t="s">
         <v>469</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C30" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D29" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="11" t="s">
+      <c r="D30" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A31" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B31" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C31" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D30" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="11" t="s">
+      <c r="D31" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A32" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B32" s="10" t="s">
         <v>471</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C32" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D31" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="11" t="s">
+      <c r="D32" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A33" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B32" s="11"/>
-      <c r="C32" s="12" t="s">
+      <c r="B33" s="10"/>
+      <c r="C33" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D32" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="11" t="s">
+      <c r="D33" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A34" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="11"/>
-      <c r="C33" s="12" t="s">
+      <c r="B34" s="10"/>
+      <c r="C34" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="11" t="s">
+      <c r="D34" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A35" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B34" s="11"/>
-      <c r="C34" s="12" t="s">
+      <c r="B35" s="10"/>
+      <c r="C35" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D34" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="11" t="s">
+      <c r="D35" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A36" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B35" s="11"/>
-      <c r="C35" s="12" t="s">
+      <c r="B36" s="10"/>
+      <c r="C36" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D35" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="11" t="s">
+      <c r="D36" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A37" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B36" s="11"/>
-      <c r="C36" s="12" t="s">
+      <c r="B37" s="10"/>
+      <c r="C37" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D36" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="11" t="s">
+      <c r="D37" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A38" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B37" s="11"/>
-      <c r="C37" s="12" t="s">
+      <c r="B38" s="10"/>
+      <c r="C38" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D37" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="11" t="s">
+      <c r="D38" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A39" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B38" s="11"/>
-      <c r="C38" s="12" t="s">
+      <c r="B39" s="10"/>
+      <c r="C39" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D38" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="11" t="s">
+      <c r="D39" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A40" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B39" s="11"/>
-      <c r="C39" s="12" t="s">
+      <c r="B40" s="10"/>
+      <c r="C40" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D39" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="11" t="s">
+      <c r="D40" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A41" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B40" s="11"/>
-      <c r="C40" s="12" t="s">
+      <c r="B41" s="10"/>
+      <c r="C41" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D40" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="11" t="s">
+      <c r="D41" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A42" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B41" s="11"/>
-      <c r="C41" s="12" t="s">
+      <c r="B42" s="10"/>
+      <c r="C42" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D41" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="11" t="s">
+      <c r="D42" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A43" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B42" s="11"/>
-      <c r="C42" s="12" t="s">
+      <c r="B43" s="10"/>
+      <c r="C43" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D42" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="11" t="s">
+      <c r="D43" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A44" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B43" s="11"/>
-      <c r="C43" s="12" t="s">
+      <c r="B44" s="10"/>
+      <c r="C44" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D43" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="11" t="s">
+      <c r="D44" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A45" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B44" s="11"/>
-      <c r="C44" s="12" t="s">
+      <c r="B45" s="10"/>
+      <c r="C45" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D44" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="11" t="s">
+      <c r="D45" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A46" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B45" s="11"/>
-      <c r="C45" s="12" t="s">
+      <c r="B46" s="10"/>
+      <c r="C46" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D45" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="11" t="s">
+      <c r="D46" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A47" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B46" s="11"/>
-      <c r="C46" s="12" t="s">
+      <c r="B47" s="10"/>
+      <c r="C47" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D46" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="11" t="s">
+      <c r="D47" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A48" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B47" s="11"/>
-      <c r="C47" s="12" t="s">
+      <c r="B48" s="10"/>
+      <c r="C48" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D47" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="11" t="s">
+      <c r="D48" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A49" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B48" s="11"/>
-      <c r="C48" s="12" t="s">
+      <c r="B49" s="10"/>
+      <c r="C49" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D48" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="11" t="s">
+      <c r="D49" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A50" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B49" s="11"/>
-      <c r="C49" s="12" t="s">
+      <c r="B50" s="10"/>
+      <c r="C50" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D49" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="11" t="s">
+      <c r="D50" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A51" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B50" s="11"/>
-      <c r="C50" s="12" t="s">
+      <c r="B51" s="10"/>
+      <c r="C51" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D50" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="11" t="s">
+      <c r="D51" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A52" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B51" s="11"/>
-      <c r="C51" s="12" t="s">
+      <c r="B52" s="10"/>
+      <c r="C52" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D51" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="11" t="s">
+      <c r="D52" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A53" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B52" s="11"/>
-      <c r="C52" s="12" t="s">
+      <c r="B53" s="10"/>
+      <c r="C53" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D52" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="11" t="s">
+      <c r="D53" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A54" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B53" s="11"/>
-      <c r="C53" s="12" t="s">
+      <c r="B54" s="10"/>
+      <c r="C54" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D53" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="11" t="s">
+      <c r="D54" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A55" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B54" s="11"/>
-      <c r="C54" s="12" t="s">
+      <c r="B55" s="10"/>
+      <c r="C55" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D54" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="11" t="s">
+      <c r="D55" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A56" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B55" s="11"/>
-      <c r="C55" s="12" t="s">
+      <c r="B56" s="10"/>
+      <c r="C56" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D55" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="11" t="s">
+      <c r="D56" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A57" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B56" s="11"/>
-      <c r="C56" s="12" t="s">
+      <c r="B57" s="10"/>
+      <c r="C57" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D56" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="11" t="s">
+      <c r="D57" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A58" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B57" s="11"/>
-      <c r="C57" s="12" t="s">
+      <c r="B58" s="10"/>
+      <c r="C58" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D57" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="11" t="s">
+      <c r="D58" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A59" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B58" s="11"/>
-      <c r="C58" s="12" t="s">
+      <c r="B59" s="10"/>
+      <c r="C59" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D58" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="11" t="s">
+      <c r="D59" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A60" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B59" s="11"/>
-      <c r="C59" s="12" t="s">
+      <c r="B60" s="10"/>
+      <c r="C60" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D59" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="11" t="s">
+      <c r="D60" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A61" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B60" s="11"/>
-      <c r="C60" s="12" t="s">
+      <c r="B61" s="10"/>
+      <c r="C61" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D60" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
       <c r="D61" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="11"/>
-      <c r="B62" s="11"/>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D62" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B63" s="8"/>
-      <c r="C63" s="12" t="s">
-        <v>42</v>
-      </c>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A63" s="10"/>
+      <c r="B63" s="10"/>
       <c r="D63" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A64" s="8" t="s">
         <v>41</v>
       </c>
       <c r="B64" s="8"/>
-      <c r="C64" s="12" t="s">
-        <v>43</v>
+      <c r="C64" s="11" t="s">
+        <v>42</v>
       </c>
       <c r="D64" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A65" s="8" t="s">
         <v>41</v>
       </c>
       <c r="B65" s="8"/>
-      <c r="C65" s="12" t="s">
-        <v>44</v>
+      <c r="C65" s="11" t="s">
+        <v>43</v>
       </c>
       <c r="D65" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A66" s="8" t="s">
         <v>41</v>
       </c>
       <c r="B66" s="8"/>
-      <c r="C66" s="12" t="s">
-        <v>45</v>
+      <c r="C66" s="11" t="s">
+        <v>44</v>
       </c>
       <c r="D66" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A67" s="8" t="s">
         <v>41</v>
       </c>
       <c r="B67" s="8"/>
-      <c r="C67" s="12" t="s">
-        <v>46</v>
+      <c r="C67" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="D67" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A68" s="8" t="s">
         <v>41</v>
       </c>
       <c r="B68" s="8"/>
-      <c r="C68" s="12" t="s">
-        <v>47</v>
+      <c r="C68" s="11" t="s">
+        <v>46</v>
       </c>
       <c r="D68" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A69" s="8" t="s">
         <v>41</v>
       </c>
       <c r="B69" s="8"/>
-      <c r="C69" s="12" t="s">
-        <v>48</v>
+      <c r="C69" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="D69" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A70" s="8" t="s">
         <v>41</v>
       </c>
       <c r="B70" s="8"/>
-      <c r="C70" s="12" t="s">
-        <v>49</v>
+      <c r="C70" s="11" t="s">
+        <v>48</v>
       </c>
       <c r="D70" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A71" s="8" t="s">
         <v>41</v>
       </c>
       <c r="B71" s="8"/>
-      <c r="C71" s="12" t="s">
-        <v>50</v>
+      <c r="C71" s="11" t="s">
+        <v>49</v>
       </c>
       <c r="D71" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A72" s="8" t="s">
         <v>41</v>
       </c>
       <c r="B72" s="8"/>
-      <c r="C72" s="12" t="s">
+      <c r="C72" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A73" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B73" s="8"/>
+      <c r="C73" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D72" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74" s="11"/>
-      <c r="B74" s="11"/>
-      <c r="D74" s="8"/>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="A75" s="11" t="s">
+      <c r="D73" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A75" s="10"/>
+      <c r="B75" s="10"/>
+      <c r="D75" s="8"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A76" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B75" s="11"/>
-      <c r="C75" s="12" t="s">
+      <c r="B76" s="10"/>
+      <c r="C76" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="D75" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="A76" s="11" t="s">
+      <c r="D76" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A77" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B76" s="11"/>
-      <c r="C76" s="12" t="s">
+      <c r="B77" s="10"/>
+      <c r="C77" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D76" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77" s="11" t="s">
+      <c r="D77" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A78" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B77" s="11"/>
-      <c r="C77" s="12" t="s">
+      <c r="B78" s="10"/>
+      <c r="C78" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D77" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78" s="11" t="s">
+      <c r="D78" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A79" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B78" s="11"/>
-      <c r="C78" s="6" t="s">
+      <c r="B79" s="10"/>
+      <c r="C79" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D78" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="A79" s="11" t="s">
+      <c r="D79" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A80" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B79" s="11"/>
-      <c r="C79" s="12" t="s">
+      <c r="B80" s="10"/>
+      <c r="C80" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="D79" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="A80" s="11" t="s">
+      <c r="D80" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A81" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B80" s="11"/>
-      <c r="C80" s="12" t="s">
+      <c r="B81" s="10"/>
+      <c r="C81" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D80" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81" s="11" t="s">
+      <c r="D81" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A82" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B81" s="11"/>
-      <c r="C81" s="12" t="s">
+      <c r="B82" s="10"/>
+      <c r="C82" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D81" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
-      <c r="A82" s="11" t="s">
+      <c r="D82" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A83" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B82" s="11"/>
-      <c r="C82" s="12" t="s">
+      <c r="B83" s="10"/>
+      <c r="C83" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D82" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="A83" s="11" t="s">
+      <c r="D83" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A84" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B83" s="11"/>
-      <c r="C83" s="12" t="s">
+      <c r="B84" s="10"/>
+      <c r="C84" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D83" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
-      <c r="A84" s="11" t="s">
+      <c r="D84" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A85" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B84" s="11"/>
-      <c r="C84" s="12" t="s">
+      <c r="B85" s="10"/>
+      <c r="C85" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D84" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
-      <c r="A85" s="11" t="s">
+      <c r="D85" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A86" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B85" s="11"/>
-      <c r="C85" s="12" t="s">
+      <c r="B86" s="10"/>
+      <c r="C86" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D85" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86" s="11" t="s">
+      <c r="D86" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A87" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B86" s="11"/>
-      <c r="C86" s="12" t="s">
+      <c r="B87" s="10"/>
+      <c r="C87" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D86" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
-      <c r="A87" s="11" t="s">
+      <c r="D87" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A88" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B87" s="11"/>
-      <c r="C87" s="12" t="s">
+      <c r="B88" s="10"/>
+      <c r="C88" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="D87" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
-      <c r="A88" s="11" t="s">
+      <c r="D88" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A89" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B88" s="11"/>
-      <c r="C88" s="12" t="s">
+      <c r="B89" s="10"/>
+      <c r="C89" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="D88" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
-      <c r="A89" s="11" t="s">
+      <c r="D89" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A90" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B89" s="11"/>
-      <c r="C89" s="12" t="s">
+      <c r="B90" s="10"/>
+      <c r="C90" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D89" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
-      <c r="A90" s="11" t="s">
+      <c r="D90" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A91" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B90" s="11"/>
-      <c r="C90" s="12" t="s">
+      <c r="B91" s="10"/>
+      <c r="C91" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D90" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
-      <c r="A91" s="11" t="s">
+      <c r="D91" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A92" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B91" s="11"/>
-      <c r="C91" s="12" t="s">
+      <c r="B92" s="10"/>
+      <c r="C92" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="D91" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
-      <c r="A92" s="11" t="s">
+      <c r="D92" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A93" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B92" s="11"/>
-      <c r="C92" s="12" t="s">
+      <c r="B93" s="10"/>
+      <c r="C93" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="D92" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
-      <c r="A93" s="11" t="s">
+      <c r="D93" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A94" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B93" s="11"/>
-      <c r="C93" s="12" t="s">
+      <c r="B94" s="10"/>
+      <c r="C94" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D93" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
-      <c r="A94" s="11" t="s">
+      <c r="D94" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A95" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B94" s="11"/>
-      <c r="C94" s="12" t="s">
+      <c r="B95" s="10"/>
+      <c r="C95" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D94" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
-      <c r="A95" s="11" t="s">
+      <c r="D95" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A96" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B95" s="11"/>
-      <c r="C95" s="12" t="s">
+      <c r="B96" s="10"/>
+      <c r="C96" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="D95" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
-      <c r="A96" s="11" t="s">
+      <c r="D96" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A97" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B96" s="11"/>
-      <c r="C96" s="12" t="s">
+      <c r="B97" s="10"/>
+      <c r="C97" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="D96" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
-      <c r="A97" s="11" t="s">
+      <c r="D97" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A98" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B97" s="11"/>
-      <c r="C97" s="12" t="s">
+      <c r="B98" s="10"/>
+      <c r="C98" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="D97" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
-      <c r="A98" s="11" t="s">
+      <c r="D98" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A99" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B98" s="11"/>
-      <c r="C98" s="12" t="s">
+      <c r="B99" s="10"/>
+      <c r="C99" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="D98" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
-      <c r="A99" s="11" t="s">
+      <c r="D99" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A100" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B99" s="11"/>
-      <c r="C99" s="12" t="s">
+      <c r="B100" s="10"/>
+      <c r="C100" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="D99" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
-      <c r="A100" s="11" t="s">
+      <c r="D100" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A101" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B100" s="11"/>
-      <c r="C100" s="12" t="s">
+      <c r="B101" s="10"/>
+      <c r="C101" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="D100" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
-      <c r="A101" s="11" t="s">
+      <c r="D101" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A102" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B101" s="11"/>
-      <c r="C101" s="12" t="s">
+      <c r="B102" s="10"/>
+      <c r="C102" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="D101" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
-      <c r="A102" s="11" t="s">
+      <c r="D102" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A103" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B102" s="11"/>
-      <c r="C102" s="12" t="s">
+      <c r="B103" s="10"/>
+      <c r="C103" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="D102" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
-      <c r="A103" s="11" t="s">
+      <c r="D103" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A104" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B103" s="11"/>
-      <c r="C103" s="12" t="s">
+      <c r="B104" s="10"/>
+      <c r="C104" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="D103" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4">
-      <c r="A104" s="11" t="s">
+      <c r="D104" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A105" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B104" s="11"/>
-      <c r="C104" s="12" t="s">
+      <c r="B105" s="10"/>
+      <c r="C105" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="D104" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4">
-      <c r="A105" s="11" t="s">
+      <c r="D105" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A106" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B105" s="11"/>
-      <c r="C105" s="12" t="s">
+      <c r="B106" s="10"/>
+      <c r="C106" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="D105" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4">
-      <c r="A106" s="11" t="s">
+      <c r="D106" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A107" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B106" s="11"/>
-      <c r="C106" s="12" t="s">
+      <c r="B107" s="10"/>
+      <c r="C107" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="D106" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4">
-      <c r="A107" s="11" t="s">
+      <c r="D107" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A108" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B107" s="11"/>
-      <c r="C107" s="12" t="s">
+      <c r="B108" s="10"/>
+      <c r="C108" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="D107" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4">
-      <c r="A108" s="11" t="s">
+      <c r="D108" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A109" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B108" s="11"/>
-      <c r="C108" s="12" t="s">
+      <c r="B109" s="10"/>
+      <c r="C109" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D108" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4">
-      <c r="A109" s="11" t="s">
+      <c r="D109" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A110" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B109" s="11"/>
-      <c r="C109" s="12" t="s">
+      <c r="B110" s="10"/>
+      <c r="C110" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D109" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4">
-      <c r="A110" s="11" t="s">
+      <c r="D110" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A111" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B110" s="11"/>
-      <c r="C110" s="12" t="s">
+      <c r="B111" s="10"/>
+      <c r="C111" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="D110" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4">
-      <c r="A111" s="11" t="s">
+      <c r="D111" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A112" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B111" s="11"/>
-      <c r="C111" s="12" t="s">
+      <c r="B112" s="10"/>
+      <c r="C112" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="D111" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4">
-      <c r="A112" s="11" t="s">
+      <c r="D112" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A113" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B112" s="11"/>
-      <c r="C112" s="12" t="s">
+      <c r="B113" s="10"/>
+      <c r="C113" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="D112" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4">
-      <c r="A113" s="11" t="s">
+      <c r="D113" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A114" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B113" s="11"/>
-      <c r="C113" s="12" t="s">
+      <c r="B114" s="10"/>
+      <c r="C114" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="D113" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4">
-      <c r="A114" s="11" t="s">
+      <c r="D114" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A115" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B114" s="11"/>
-      <c r="C114" s="12" t="s">
+      <c r="B115" s="10"/>
+      <c r="C115" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="D114" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4">
-      <c r="A115" s="11" t="s">
+      <c r="D115" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A116" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B115" s="11"/>
-      <c r="C115" s="12" t="s">
+      <c r="B116" s="10"/>
+      <c r="C116" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="D115" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4">
-      <c r="A116" s="11" t="s">
+      <c r="D116" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A117" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B116" s="11"/>
-      <c r="C116" s="12" t="s">
+      <c r="B117" s="10"/>
+      <c r="C117" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="D116" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4">
-      <c r="A117" s="11" t="s">
+      <c r="D117" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A118" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B117" s="11"/>
-      <c r="C117" s="12" t="s">
+      <c r="B118" s="10"/>
+      <c r="C118" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="D117" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4">
-      <c r="A119" s="8"/>
-      <c r="B119" s="8"/>
-      <c r="D119" s="8"/>
-    </row>
-    <row r="120" spans="1:4">
-      <c r="A120" s="11" t="s">
+      <c r="D118" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A120" s="8"/>
+      <c r="B120" s="8"/>
+      <c r="D120" s="8"/>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A121" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B120" s="11"/>
-      <c r="C120" s="12" t="s">
+      <c r="B121" s="10"/>
+      <c r="C121" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="D120" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4">
-      <c r="A121" s="11" t="s">
+      <c r="D121" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A122" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B121" s="11"/>
-      <c r="C121" s="12" t="s">
+      <c r="B122" s="10"/>
+      <c r="C122" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="D121" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4">
-      <c r="A122" s="11" t="s">
+      <c r="D122" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A123" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B122" s="11"/>
-      <c r="C122" s="12" t="s">
+      <c r="B123" s="10"/>
+      <c r="C123" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="D122" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4">
-      <c r="A123" s="11" t="s">
+      <c r="D123" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A124" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B123" s="11"/>
-      <c r="C123" s="12" t="s">
+      <c r="B124" s="10"/>
+      <c r="C124" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="D123" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4">
-      <c r="A124" s="11" t="s">
+      <c r="D124" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A125" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B124" s="11"/>
-      <c r="C124" s="12" t="s">
+      <c r="B125" s="10"/>
+      <c r="C125" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="D124" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4">
-      <c r="A125" s="11" t="s">
+      <c r="D125" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A126" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B125" s="11"/>
-      <c r="C125" s="12" t="s">
+      <c r="B126" s="10"/>
+      <c r="C126" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="D125" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4">
-      <c r="A126" s="11" t="s">
+      <c r="D126" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A127" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B126" s="11"/>
-      <c r="C126" s="12" t="s">
+      <c r="B127" s="10"/>
+      <c r="C127" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D126" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4">
-      <c r="A127" s="11" t="s">
+      <c r="D127" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A128" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B127" s="11"/>
-      <c r="C127" s="12" t="s">
+      <c r="B128" s="10"/>
+      <c r="C128" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="D127" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4">
-      <c r="A128" s="11" t="s">
+      <c r="D128" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A129" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B128" s="11"/>
-      <c r="C128" s="12" t="s">
+      <c r="B129" s="10"/>
+      <c r="C129" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="D128" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4">
-      <c r="A129" s="11" t="s">
+      <c r="D129" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A130" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B129" s="11"/>
-      <c r="C129" s="12" t="s">
+      <c r="B130" s="10"/>
+      <c r="C130" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="D129" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4">
-      <c r="A130" s="11" t="s">
+      <c r="D130" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A131" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B130" s="11"/>
-      <c r="C130" s="12" t="s">
+      <c r="B131" s="10"/>
+      <c r="C131" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="D130" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4">
-      <c r="A131" s="11" t="s">
+      <c r="D131" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A132" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B131" s="11"/>
-      <c r="C131" s="12" t="s">
+      <c r="B132" s="10"/>
+      <c r="C132" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="D131" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4">
-      <c r="A132" s="11" t="s">
+      <c r="D132" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A133" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B132" s="11"/>
-      <c r="C132" s="12" t="s">
+      <c r="B133" s="10"/>
+      <c r="C133" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="D132" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4">
-      <c r="A133" s="11" t="s">
+      <c r="D133" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A134" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B133" s="11"/>
-      <c r="C133" s="12" t="s">
+      <c r="B134" s="10"/>
+      <c r="C134" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="D133" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4">
-      <c r="A134" s="11" t="s">
+      <c r="D134" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A135" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B134" s="11"/>
-      <c r="C134" s="12" t="s">
+      <c r="B135" s="10"/>
+      <c r="C135" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="D134" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4">
-      <c r="A135" s="11" t="s">
+      <c r="D135" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A136" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B135" s="11"/>
-      <c r="C135" s="12" t="s">
+      <c r="B136" s="10"/>
+      <c r="C136" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="D135" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4">
-      <c r="A136" s="11" t="s">
+      <c r="D136" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A137" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B136" s="11"/>
-      <c r="C136" s="12" t="s">
+      <c r="B137" s="10"/>
+      <c r="C137" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="D136" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4">
-      <c r="A137" s="11" t="s">
+      <c r="D137" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A138" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B137" s="11"/>
-      <c r="C137" s="12" t="s">
+      <c r="B138" s="10"/>
+      <c r="C138" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="D137" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4">
-      <c r="A138" s="11" t="s">
+      <c r="D138" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A139" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B138" s="11"/>
-      <c r="C138" s="12" t="s">
+      <c r="B139" s="10"/>
+      <c r="C139" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="D138" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4">
-      <c r="A139" s="11" t="s">
+      <c r="D139" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A140" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B139" s="11"/>
-      <c r="C139" s="12" t="s">
+      <c r="B140" s="10"/>
+      <c r="C140" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="D139" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4">
-      <c r="A140" s="11" t="s">
+      <c r="D140" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A141" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B140" s="11"/>
-      <c r="C140" s="12" t="s">
+      <c r="B141" s="10"/>
+      <c r="C141" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="D140" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4">
-      <c r="A141" s="11" t="s">
+      <c r="D141" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A142" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B141" s="11"/>
-      <c r="C141" s="12" t="s">
+      <c r="B142" s="10"/>
+      <c r="C142" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="D141" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4">
-      <c r="A142" s="11" t="s">
+      <c r="D142" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A143" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B142" s="11"/>
-      <c r="C142" s="12" t="s">
+      <c r="B143" s="10"/>
+      <c r="C143" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="D142" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4">
-      <c r="A143" s="11" t="s">
+      <c r="D143" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A144" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B143" s="11"/>
-      <c r="C143" s="12" t="s">
+      <c r="B144" s="10"/>
+      <c r="C144" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="D143" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4">
-      <c r="A144" s="11" t="s">
+      <c r="D144" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A145" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B144" s="11"/>
-      <c r="C144" s="12" t="s">
+      <c r="B145" s="10"/>
+      <c r="C145" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="D144" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4">
-      <c r="A145" s="11" t="s">
+      <c r="D145" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A146" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B145" s="11"/>
-      <c r="C145" s="12" t="s">
+      <c r="B146" s="10"/>
+      <c r="C146" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="D145" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4">
-      <c r="A146" s="11" t="s">
+      <c r="D146" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A147" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B146" s="11"/>
-      <c r="C146" s="12" t="s">
+      <c r="B147" s="10"/>
+      <c r="C147" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="D146" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4">
-      <c r="A147" s="11" t="s">
+      <c r="D147" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A148" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B147" s="11"/>
-      <c r="C147" s="12" t="s">
+      <c r="B148" s="10"/>
+      <c r="C148" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="D147" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4">
-      <c r="A148" s="11" t="s">
+      <c r="D148" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A149" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B148" s="11"/>
-      <c r="C148" s="12" t="s">
+      <c r="B149" s="10"/>
+      <c r="C149" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="D148" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4">
-      <c r="A149" s="11" t="s">
+      <c r="D149" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A150" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B149" s="11"/>
-      <c r="C149" s="12" t="s">
+      <c r="B150" s="10"/>
+      <c r="C150" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="D149" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4">
-      <c r="A150" s="11" t="s">
+      <c r="D150" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A151" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B150" s="11"/>
-      <c r="C150" s="12" t="s">
+      <c r="B151" s="10"/>
+      <c r="C151" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="D150" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4">
-      <c r="A151" s="11" t="s">
+      <c r="D151" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A152" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B151" s="11"/>
-      <c r="C151" s="12" t="s">
+      <c r="B152" s="10"/>
+      <c r="C152" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="D151" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4">
-      <c r="A152" s="11" t="s">
+      <c r="D152" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A153" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B152" s="11"/>
-      <c r="C152" s="12" t="s">
+      <c r="B153" s="10"/>
+      <c r="C153" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="D152" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4">
-      <c r="A153" s="11" t="s">
+      <c r="D153" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A154" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B153" s="11"/>
-      <c r="C153" s="12" t="s">
+      <c r="B154" s="10"/>
+      <c r="C154" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="D153" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4">
-      <c r="A154" s="11" t="s">
+      <c r="D154" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A155" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B154" s="11"/>
-      <c r="C154" s="12" t="s">
+      <c r="B155" s="10"/>
+      <c r="C155" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="D154" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4">
-      <c r="A155" s="11" t="s">
+      <c r="D155" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A156" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B155" s="11"/>
-      <c r="C155" s="12" t="s">
+      <c r="B156" s="10"/>
+      <c r="C156" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="D155" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4">
-      <c r="D157" s="8"/>
-    </row>
-    <row r="158" spans="1:4">
-      <c r="A158" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B158" s="8"/>
-      <c r="C158" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="D158" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4">
+      <c r="D156" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D158" s="8"/>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A159" s="8" t="s">
         <v>133</v>
       </c>
       <c r="B159" s="8"/>
-      <c r="C159" s="12" t="s">
-        <v>135</v>
+      <c r="C159" s="11" t="s">
+        <v>134</v>
       </c>
       <c r="D159" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="160" spans="1:4">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A160" s="8" t="s">
         <v>133</v>
       </c>
       <c r="B160" s="8"/>
-      <c r="C160" s="12" t="s">
-        <v>136</v>
+      <c r="C160" s="11" t="s">
+        <v>135</v>
       </c>
       <c r="D160" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="161" spans="1:4">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A161" s="8" t="s">
         <v>133</v>
       </c>
       <c r="B161" s="8"/>
-      <c r="C161" s="12" t="s">
-        <v>137</v>
+      <c r="C161" s="11" t="s">
+        <v>136</v>
       </c>
       <c r="D161" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="162" spans="1:4">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A162" s="8" t="s">
         <v>133</v>
       </c>
       <c r="B162" s="8"/>
-      <c r="C162" s="12" t="s">
-        <v>138</v>
+      <c r="C162" s="11" t="s">
+        <v>137</v>
       </c>
       <c r="D162" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="1:4">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A163" s="8" t="s">
         <v>133</v>
       </c>
       <c r="B163" s="8"/>
-      <c r="C163" s="12" t="s">
-        <v>139</v>
+      <c r="C163" s="11" t="s">
+        <v>138</v>
       </c>
       <c r="D163" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="164" spans="1:4">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A164" s="8" t="s">
         <v>133</v>
       </c>
       <c r="B164" s="8"/>
-      <c r="C164" s="12" t="s">
-        <v>140</v>
+      <c r="C164" s="11" t="s">
+        <v>139</v>
       </c>
       <c r="D164" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="165" spans="1:4">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A165" s="8" t="s">
         <v>133</v>
       </c>
       <c r="B165" s="8"/>
-      <c r="C165" s="12" t="s">
-        <v>141</v>
+      <c r="C165" s="11" t="s">
+        <v>140</v>
       </c>
       <c r="D165" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="166" spans="1:4">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A166" s="8" t="s">
         <v>133</v>
       </c>
       <c r="B166" s="8"/>
-      <c r="C166" s="12" t="s">
-        <v>142</v>
+      <c r="C166" s="11" t="s">
+        <v>141</v>
       </c>
       <c r="D166" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="167" spans="1:4">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A167" s="8" t="s">
         <v>133</v>
       </c>
       <c r="B167" s="8"/>
-      <c r="C167" s="12" t="s">
-        <v>143</v>
+      <c r="C167" s="11" t="s">
+        <v>142</v>
       </c>
       <c r="D167" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="168" spans="1:4">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A168" s="8" t="s">
         <v>133</v>
       </c>
       <c r="B168" s="8"/>
-      <c r="C168" s="12" t="s">
-        <v>144</v>
+      <c r="C168" s="11" t="s">
+        <v>143</v>
       </c>
       <c r="D168" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="169" spans="1:4">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A169" s="8" t="s">
         <v>133</v>
       </c>
       <c r="B169" s="8"/>
-      <c r="C169" s="12" t="s">
-        <v>145</v>
+      <c r="C169" s="11" t="s">
+        <v>144</v>
       </c>
       <c r="D169" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="1:4">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A170" s="8" t="s">
         <v>133</v>
       </c>
       <c r="B170" s="8"/>
-      <c r="C170" s="12" t="s">
-        <v>146</v>
+      <c r="C170" s="11" t="s">
+        <v>145</v>
       </c>
       <c r="D170" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="1:4">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A171" s="8" t="s">
         <v>133</v>
       </c>
       <c r="B171" s="8"/>
-      <c r="C171" s="12" t="s">
-        <v>147</v>
+      <c r="C171" s="11" t="s">
+        <v>146</v>
       </c>
       <c r="D171" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="172" spans="1:4">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A172" s="8" t="s">
         <v>133</v>
       </c>
       <c r="B172" s="8"/>
-      <c r="C172" s="12" t="s">
-        <v>148</v>
+      <c r="C172" s="11" t="s">
+        <v>147</v>
       </c>
       <c r="D172" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="173" spans="1:4">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A173" s="8" t="s">
         <v>133</v>
       </c>
       <c r="B173" s="8"/>
-      <c r="C173" s="12" t="s">
-        <v>149</v>
+      <c r="C173" s="11" t="s">
+        <v>148</v>
       </c>
       <c r="D173" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="174" spans="1:4">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A174" s="8" t="s">
         <v>133</v>
       </c>
       <c r="B174" s="8"/>
-      <c r="C174" s="12" t="s">
-        <v>150</v>
+      <c r="C174" s="11" t="s">
+        <v>149</v>
       </c>
       <c r="D174" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="1:4">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A175" s="8" t="s">
         <v>133</v>
       </c>
       <c r="B175" s="8"/>
-      <c r="C175" s="12" t="s">
-        <v>151</v>
+      <c r="C175" s="11" t="s">
+        <v>150</v>
       </c>
       <c r="D175" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="176" spans="1:4">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A176" s="8" t="s">
         <v>133</v>
       </c>
       <c r="B176" s="8"/>
-      <c r="C176" s="12" t="s">
-        <v>152</v>
+      <c r="C176" s="11" t="s">
+        <v>151</v>
       </c>
       <c r="D176" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="177" spans="1:4">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A177" s="8" t="s">
         <v>133</v>
       </c>
       <c r="B177" s="8"/>
-      <c r="C177" s="12" t="s">
-        <v>153</v>
+      <c r="C177" s="11" t="s">
+        <v>152</v>
       </c>
       <c r="D177" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="178" spans="1:4">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A178" s="8" t="s">
         <v>133</v>
       </c>
       <c r="B178" s="8"/>
-      <c r="C178" s="12" t="s">
-        <v>154</v>
+      <c r="C178" s="11" t="s">
+        <v>153</v>
       </c>
       <c r="D178" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="179" spans="1:4">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A179" s="8" t="s">
         <v>133</v>
       </c>
       <c r="B179" s="8"/>
-      <c r="C179" s="12" t="s">
-        <v>155</v>
+      <c r="C179" s="11" t="s">
+        <v>154</v>
       </c>
       <c r="D179" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="180" spans="1:4">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A180" s="8" t="s">
         <v>133</v>
       </c>
       <c r="B180" s="8"/>
-      <c r="C180" s="12" t="s">
-        <v>156</v>
+      <c r="C180" s="11" t="s">
+        <v>155</v>
       </c>
       <c r="D180" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="181" spans="1:4">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A181" s="8" t="s">
         <v>133</v>
       </c>
       <c r="B181" s="8"/>
-      <c r="C181" s="12" t="s">
-        <v>157</v>
+      <c r="C181" s="11" t="s">
+        <v>156</v>
       </c>
       <c r="D181" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="182" spans="1:4">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A182" s="8" t="s">
         <v>133</v>
       </c>
       <c r="B182" s="8"/>
-      <c r="C182" s="12" t="s">
-        <v>158</v>
+      <c r="C182" s="11" t="s">
+        <v>157</v>
       </c>
       <c r="D182" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="183" spans="1:4">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A183" s="8" t="s">
         <v>133</v>
       </c>
       <c r="B183" s="8"/>
-      <c r="C183" s="6" t="s">
-        <v>159</v>
+      <c r="C183" s="11" t="s">
+        <v>158</v>
       </c>
       <c r="D183" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="184" spans="1:4">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A184" s="8" t="s">
         <v>133</v>
       </c>
       <c r="B184" s="8"/>
       <c r="C184" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D184" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="185" spans="1:4">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A185" s="8" t="s">
         <v>133</v>
       </c>
       <c r="B185" s="8"/>
-      <c r="C185" s="12" t="s">
-        <v>161</v>
+      <c r="C185" s="6" t="s">
+        <v>160</v>
       </c>
       <c r="D185" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="186" spans="1:4">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A186" s="8" t="s">
         <v>133</v>
       </c>
       <c r="B186" s="8"/>
-      <c r="C186" s="12" t="s">
-        <v>162</v>
+      <c r="C186" s="11" t="s">
+        <v>161</v>
       </c>
       <c r="D186" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="187" spans="1:4">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A187" s="8" t="s">
         <v>133</v>
       </c>
       <c r="B187" s="8"/>
-      <c r="C187" s="12" t="s">
-        <v>163</v>
+      <c r="C187" s="11" t="s">
+        <v>162</v>
       </c>
       <c r="D187" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="188" spans="1:4">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A188" s="8" t="s">
         <v>133</v>
       </c>
       <c r="B188" s="8"/>
-      <c r="C188" s="12" t="s">
-        <v>164</v>
+      <c r="C188" s="11" t="s">
+        <v>163</v>
       </c>
       <c r="D188" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="189" spans="1:4">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A189" s="8" t="s">
         <v>133</v>
       </c>
       <c r="B189" s="8"/>
-      <c r="C189" s="12" t="s">
-        <v>165</v>
+      <c r="C189" s="11" t="s">
+        <v>164</v>
       </c>
       <c r="D189" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="190" spans="1:4">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A190" s="8" t="s">
         <v>133</v>
       </c>
       <c r="B190" s="8"/>
-      <c r="C190" s="12" t="s">
-        <v>166</v>
+      <c r="C190" s="11" t="s">
+        <v>165</v>
       </c>
       <c r="D190" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="191" spans="1:4">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A191" s="8" t="s">
         <v>133</v>
       </c>
       <c r="B191" s="8"/>
-      <c r="C191" s="12" t="s">
-        <v>167</v>
+      <c r="C191" s="11" t="s">
+        <v>166</v>
       </c>
       <c r="D191" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="192" spans="1:4">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A192" s="8" t="s">
         <v>133</v>
       </c>
       <c r="B192" s="8"/>
-      <c r="C192" s="12" t="s">
-        <v>168</v>
+      <c r="C192" s="11" t="s">
+        <v>167</v>
       </c>
       <c r="D192" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="193" spans="1:4">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A193" s="8" t="s">
         <v>133</v>
       </c>
       <c r="B193" s="8"/>
-      <c r="C193" s="12" t="s">
+      <c r="C193" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="D193" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A194" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B194" s="8"/>
+      <c r="C194" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="D193" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4">
-      <c r="D195" s="8"/>
-    </row>
-    <row r="196" spans="1:4">
-      <c r="A196" s="11" t="s">
+      <c r="D194" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D196" s="8"/>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A197" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="B196" s="11"/>
-      <c r="C196" s="12" t="s">
+      <c r="B197" s="10"/>
+      <c r="C197" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="D196" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4">
-      <c r="A197" s="11" t="s">
+      <c r="D197" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A198" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="B197" s="11"/>
-      <c r="C197" s="12" t="s">
+      <c r="B198" s="10"/>
+      <c r="C198" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="D197" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4">
-      <c r="A198" s="11" t="s">
+      <c r="D198" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A199" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="B198" s="11"/>
-      <c r="C198" s="12" t="s">
+      <c r="B199" s="10"/>
+      <c r="C199" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="D198" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4">
-      <c r="A199" s="11" t="s">
+      <c r="D199" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A200" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="B199" s="11"/>
-      <c r="C199" s="12" t="s">
+      <c r="B200" s="10"/>
+      <c r="C200" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="D199" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4">
-      <c r="A200" s="11" t="s">
+      <c r="D200" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A201" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="B200" s="11"/>
-      <c r="C200" s="12" t="s">
+      <c r="B201" s="10"/>
+      <c r="C201" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="D200" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4">
-      <c r="A201" s="11" t="s">
+      <c r="D201" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A202" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="B201" s="11"/>
-      <c r="C201" s="12" t="s">
+      <c r="B202" s="10"/>
+      <c r="C202" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="D201" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4">
-      <c r="A202" s="11" t="s">
+      <c r="D202" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A203" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="B202" s="11"/>
-      <c r="C202" s="12" t="s">
+      <c r="B203" s="10"/>
+      <c r="C203" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="D202" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4">
-      <c r="A203" s="11" t="s">
+      <c r="D203" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A204" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="B203" s="11"/>
-      <c r="C203" s="12" t="s">
+      <c r="B204" s="10"/>
+      <c r="C204" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="D203" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4">
-      <c r="A204" s="11" t="s">
+      <c r="D204" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A205" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="B204" s="11"/>
-      <c r="C204" s="12" t="s">
+      <c r="B205" s="10"/>
+      <c r="C205" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="D204" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4">
-      <c r="A205" s="11" t="s">
+      <c r="D205" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A206" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="B205" s="11"/>
-      <c r="C205" s="12" t="s">
+      <c r="B206" s="10"/>
+      <c r="C206" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="D205" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4">
-      <c r="A206" s="11" t="s">
+      <c r="D206" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A207" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="B206" s="11"/>
-      <c r="C206" s="12" t="s">
+      <c r="B207" s="10"/>
+      <c r="C207" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="D206" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4">
-      <c r="A207" s="11" t="s">
+      <c r="D207" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A208" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="B207" s="11"/>
-      <c r="C207" s="12" t="s">
+      <c r="B208" s="10"/>
+      <c r="C208" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="D207" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4">
-      <c r="A208" s="11" t="s">
+      <c r="D208" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A209" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="B208" s="11"/>
-      <c r="C208" s="12" t="s">
+      <c r="B209" s="10"/>
+      <c r="C209" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="D208" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4">
-      <c r="A209" s="11" t="s">
+      <c r="D209" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A210" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="B209" s="11"/>
-      <c r="C209" s="12" t="s">
+      <c r="B210" s="10"/>
+      <c r="C210" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="D209" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4">
-      <c r="A210" s="11" t="s">
+      <c r="D210" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A211" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="B210" s="11"/>
-      <c r="C210" s="12" t="s">
+      <c r="B211" s="10"/>
+      <c r="C211" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="D210" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4">
-      <c r="A211" s="11" t="s">
+      <c r="D211" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A212" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="B211" s="11"/>
-      <c r="C211" s="12" t="s">
+      <c r="B212" s="10"/>
+      <c r="C212" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="D211" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4">
-      <c r="A212" s="11" t="s">
+      <c r="D212" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A213" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="B212" s="11"/>
-      <c r="C212" s="12" t="s">
+      <c r="B213" s="10"/>
+      <c r="C213" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="D212" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4">
-      <c r="A213" s="11" t="s">
+      <c r="D213" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A214" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="B213" s="11"/>
-      <c r="C213" s="12" t="s">
+      <c r="B214" s="10"/>
+      <c r="C214" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="D213" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4">
-      <c r="A214" s="11" t="s">
+      <c r="D214" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A215" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="B214" s="11"/>
-      <c r="C214" s="12" t="s">
+      <c r="B215" s="10"/>
+      <c r="C215" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="D214" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4">
-      <c r="A215" s="11" t="s">
+      <c r="D215" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A216" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="B215" s="11"/>
-      <c r="C215" s="12" t="s">
+      <c r="B216" s="10"/>
+      <c r="C216" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="D215" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4">
-      <c r="A216" s="11" t="s">
+      <c r="D216" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A217" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="B216" s="11"/>
-      <c r="C216" s="12" t="s">
+      <c r="B217" s="10"/>
+      <c r="C217" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="D216" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4">
-      <c r="A217" s="11" t="s">
+      <c r="D217" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A218" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="B217" s="11"/>
-      <c r="C217" s="12" t="s">
+      <c r="B218" s="10"/>
+      <c r="C218" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="D217" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4">
-      <c r="A218" s="11" t="s">
+      <c r="D218" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A219" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="B218" s="11"/>
-      <c r="C218" s="12" t="s">
+      <c r="B219" s="10"/>
+      <c r="C219" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="D218" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4">
-      <c r="A219" s="11" t="s">
+      <c r="D219" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A220" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="B219" s="11"/>
-      <c r="C219" s="12" t="s">
+      <c r="B220" s="10"/>
+      <c r="C220" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="D219" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4">
-      <c r="A220" s="11" t="s">
+      <c r="D220" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A221" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="B220" s="11"/>
-      <c r="C220" s="12" t="s">
+      <c r="B221" s="10"/>
+      <c r="C221" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="D220" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4">
-      <c r="A221" s="11" t="s">
+      <c r="D221" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A222" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="B221" s="11"/>
-      <c r="C221" s="12" t="s">
+      <c r="B222" s="10"/>
+      <c r="C222" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="D221" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4">
-      <c r="A222" s="11" t="s">
+      <c r="D222" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A223" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="B222" s="11"/>
-      <c r="C222" s="12" t="s">
+      <c r="B223" s="10"/>
+      <c r="C223" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="D222" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4">
-      <c r="A223" s="11" t="s">
+      <c r="D223" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A224" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="B223" s="11"/>
-      <c r="C223" s="12" t="s">
+      <c r="B224" s="10"/>
+      <c r="C224" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="D223" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4">
-      <c r="A224" s="11" t="s">
+      <c r="D224" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A225" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="B224" s="11"/>
-      <c r="C224" s="12" t="s">
+      <c r="B225" s="10"/>
+      <c r="C225" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="D224" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4">
-      <c r="A225" s="11" t="s">
+      <c r="D225" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A226" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="B225" s="11"/>
-      <c r="C225" s="12" t="s">
+      <c r="B226" s="10"/>
+      <c r="C226" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="D225" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4">
-      <c r="A226" s="11" t="s">
+      <c r="D226" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A227" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="B226" s="11"/>
-      <c r="C226" s="12" t="s">
+      <c r="B227" s="10"/>
+      <c r="C227" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="D226" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4">
-      <c r="A227" s="11" t="s">
+      <c r="D227" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A228" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="B227" s="11"/>
-      <c r="C227" s="12" t="s">
+      <c r="B228" s="10"/>
+      <c r="C228" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="D227" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4">
-      <c r="A228" s="11" t="s">
+      <c r="D228" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A229" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="B228" s="11"/>
-      <c r="C228" s="12" t="s">
+      <c r="B229" s="10"/>
+      <c r="C229" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="D228" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4">
-      <c r="A229" s="11" t="s">
+      <c r="D229" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A230" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="B229" s="11"/>
-      <c r="C229" s="12" t="s">
+      <c r="B230" s="10"/>
+      <c r="C230" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="D229" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4">
-      <c r="A230" s="11" t="s">
+      <c r="D230" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A231" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="B230" s="11"/>
-      <c r="C230" s="12" t="s">
+      <c r="B231" s="10"/>
+      <c r="C231" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="D230" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4">
-      <c r="A231" s="8"/>
-      <c r="B231" s="8"/>
-      <c r="D231" s="8"/>
-    </row>
-    <row r="232" spans="1:4">
+      <c r="D231" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A232" s="8"/>
       <c r="B232" s="8"/>
       <c r="D232" s="8"/>
     </row>
-    <row r="233" spans="1:4">
-      <c r="A233" s="11" t="s">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A233" s="8"/>
+      <c r="B233" s="8"/>
+      <c r="D233" s="8"/>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A234" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="B233" s="11"/>
-      <c r="C233" s="12" t="s">
+      <c r="B234" s="10"/>
+      <c r="C234" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="D233" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4">
-      <c r="A234" s="11" t="s">
+      <c r="D234" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A235" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="B234" s="11"/>
-      <c r="C234" s="12" t="s">
+      <c r="B235" s="10"/>
+      <c r="C235" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="D234" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4">
-      <c r="A235" s="11" t="s">
+      <c r="D235" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A236" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="B235" s="11"/>
-      <c r="C235" s="12" t="s">
+      <c r="B236" s="10"/>
+      <c r="C236" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="D235" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4">
-      <c r="A236" s="11" t="s">
+      <c r="D236" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A237" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="B236" s="11"/>
-      <c r="C236" s="12" t="s">
+      <c r="B237" s="10"/>
+      <c r="C237" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="D236" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4">
-      <c r="A237" s="11" t="s">
+      <c r="D237" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A238" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="B237" s="11"/>
-      <c r="C237" s="12" t="s">
+      <c r="B238" s="10"/>
+      <c r="C238" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="D237" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4">
-      <c r="A238" s="11" t="s">
+      <c r="D238" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A239" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="B238" s="11"/>
-      <c r="C238" s="12" t="s">
+      <c r="B239" s="10"/>
+      <c r="C239" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="D238" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4">
-      <c r="A239" s="11" t="s">
+      <c r="D239" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A240" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="B239" s="11"/>
-      <c r="C239" s="5" t="s">
+      <c r="B240" s="10"/>
+      <c r="C240" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="D239" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4">
-      <c r="A240" s="11" t="s">
+      <c r="D240" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A241" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="B240" s="11"/>
-      <c r="C240" s="12" t="s">
+      <c r="B241" s="10"/>
+      <c r="C241" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="D240" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4">
-      <c r="A241" s="11" t="s">
+      <c r="D241" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A242" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="B241" s="11"/>
-      <c r="C241" s="12" t="s">
+      <c r="B242" s="10"/>
+      <c r="C242" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="D241" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4">
-      <c r="A242" s="11" t="s">
+      <c r="D242" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A243" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="B242" s="11"/>
-      <c r="C242" s="12" t="s">
+      <c r="B243" s="10"/>
+      <c r="C243" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="D242" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4">
-      <c r="A243" s="11" t="s">
+      <c r="D243" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A244" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="B243" s="11"/>
-      <c r="C243" s="12" t="s">
+      <c r="B244" s="10"/>
+      <c r="C244" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="D243" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4">
-      <c r="A244" s="11" t="s">
+      <c r="D244" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A245" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="B244" s="11"/>
-      <c r="C244" s="12" t="s">
+      <c r="B245" s="10"/>
+      <c r="C245" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="D244" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4">
-      <c r="A245" s="11" t="s">
+      <c r="D245" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A246" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="B245" s="11"/>
-      <c r="C245" s="12" t="s">
+      <c r="B246" s="10"/>
+      <c r="C246" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="D245" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4">
-      <c r="A246" s="11" t="s">
+      <c r="D246" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A247" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="B246" s="11"/>
-      <c r="C246" s="12" t="s">
+      <c r="B247" s="10"/>
+      <c r="C247" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="D246" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4">
-      <c r="A247" s="11" t="s">
+      <c r="D247" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A248" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="B247" s="11"/>
-      <c r="C247" s="12" t="s">
+      <c r="B248" s="10"/>
+      <c r="C248" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="D247" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4">
-      <c r="A248" s="11" t="s">
+      <c r="D248" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A249" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="B248" s="11"/>
-      <c r="C248" s="12" t="s">
+      <c r="B249" s="10"/>
+      <c r="C249" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="D248" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4">
-      <c r="A249" s="11" t="s">
+      <c r="D249" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A250" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="B249" s="11"/>
-      <c r="C249" s="12" t="s">
+      <c r="B250" s="10"/>
+      <c r="C250" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="D249" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4">
-      <c r="A250" s="11" t="s">
+      <c r="D250" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A251" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="B250" s="11"/>
-      <c r="C250" s="12" t="s">
+      <c r="B251" s="10"/>
+      <c r="C251" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="D250" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4">
-      <c r="A251" s="11" t="s">
+      <c r="D251" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A252" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="B251" s="11"/>
-      <c r="C251" s="12" t="s">
+      <c r="B252" s="10"/>
+      <c r="C252" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="D251" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4">
-      <c r="A252" s="11" t="s">
+      <c r="D252" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A253" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="B252" s="11"/>
-      <c r="C252" s="12" t="s">
+      <c r="B253" s="10"/>
+      <c r="C253" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="D252" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4">
-      <c r="A253" s="11" t="s">
+      <c r="D253" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A254" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="B253" s="11"/>
-      <c r="C253" s="12" t="s">
+      <c r="B254" s="10"/>
+      <c r="C254" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="D253" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4">
-      <c r="A254" s="11" t="s">
+      <c r="D254" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A255" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="B254" s="11"/>
-      <c r="C254" s="12" t="s">
+      <c r="B255" s="10"/>
+      <c r="C255" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="D254" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4">
-      <c r="D255" s="8"/>
-    </row>
-    <row r="256" spans="1:4">
+      <c r="D255" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D256" s="8"/>
     </row>
-    <row r="257" spans="1:4">
-      <c r="A257" s="11" t="s">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D257" s="8"/>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A258" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="B257" s="11"/>
-      <c r="C257" s="12" t="s">
+      <c r="B258" s="10"/>
+      <c r="C258" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="D257" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4">
-      <c r="A258" s="11" t="s">
+      <c r="D258" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A259" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="B258" s="11"/>
-      <c r="C258" s="12" t="s">
+      <c r="B259" s="10"/>
+      <c r="C259" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="D258" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4">
-      <c r="A259" s="11" t="s">
+      <c r="D259" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A260" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="B259" s="11"/>
-      <c r="C259" s="12" t="s">
+      <c r="B260" s="10"/>
+      <c r="C260" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="D259" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4">
-      <c r="A260" s="11" t="s">
+      <c r="D260" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A261" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="B260" s="11"/>
-      <c r="C260" s="12" t="s">
+      <c r="B261" s="10"/>
+      <c r="C261" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="D260" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4">
-      <c r="A261" s="11" t="s">
+      <c r="D261" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A262" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="B261" s="11"/>
-      <c r="C261" s="12" t="s">
+      <c r="B262" s="10"/>
+      <c r="C262" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="D261" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4">
-      <c r="A262" s="11" t="s">
+      <c r="D262" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A263" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="B262" s="11"/>
-      <c r="C262" s="12" t="s">
+      <c r="B263" s="10"/>
+      <c r="C263" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="D262" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4">
-      <c r="A263" s="11" t="s">
+      <c r="D263" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A264" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="B263" s="11"/>
-      <c r="C263" s="12" t="s">
+      <c r="B264" s="10"/>
+      <c r="C264" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="D263" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4">
-      <c r="A264" s="11" t="s">
+      <c r="D264" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A265" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="B264" s="11"/>
-      <c r="C264" s="12" t="s">
+      <c r="B265" s="10"/>
+      <c r="C265" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="D264" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4">
-      <c r="A265" s="11" t="s">
+      <c r="D265" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A266" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="B265" s="11"/>
-      <c r="C265" s="12" t="s">
+      <c r="B266" s="10"/>
+      <c r="C266" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="D265" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4">
-      <c r="A266" s="11" t="s">
+      <c r="D266" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A267" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="B266" s="11"/>
-      <c r="C266" s="12" t="s">
+      <c r="B267" s="10"/>
+      <c r="C267" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="D266" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4">
-      <c r="A267" s="11" t="s">
+      <c r="D267" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A268" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="B267" s="11"/>
-      <c r="C267" s="12" t="s">
+      <c r="B268" s="10"/>
+      <c r="C268" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="D267" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4">
-      <c r="A268" s="11" t="s">
+      <c r="D268" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A269" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="B268" s="11"/>
-      <c r="C268" s="12" t="s">
+      <c r="B269" s="10"/>
+      <c r="C269" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="D268" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4">
-      <c r="A269" s="11" t="s">
+      <c r="D269" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A270" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="B269" s="11"/>
-      <c r="C269" s="12" t="s">
+      <c r="B270" s="10"/>
+      <c r="C270" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="D269" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4">
-      <c r="A270" s="11" t="s">
+      <c r="D270" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A271" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="B270" s="11"/>
-      <c r="C270" s="12" t="s">
+      <c r="B271" s="10"/>
+      <c r="C271" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="D270" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4">
-      <c r="A271" s="11" t="s">
+      <c r="D271" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A272" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="B271" s="11"/>
-      <c r="C271" s="12" t="s">
+      <c r="B272" s="10"/>
+      <c r="C272" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="D271" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4">
-      <c r="A272" s="11" t="s">
+      <c r="D272" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A273" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="B272" s="11"/>
-      <c r="C272" s="12" t="s">
+      <c r="B273" s="10"/>
+      <c r="C273" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="D272" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4">
-      <c r="A273" s="11" t="s">
+      <c r="D273" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A274" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="B273" s="11"/>
-      <c r="C273" s="12" t="s">
+      <c r="B274" s="10"/>
+      <c r="C274" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="D273" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="274" spans="1:4">
-      <c r="A274" s="11" t="s">
+      <c r="D274" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A275" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="B274" s="11"/>
-      <c r="C274" s="12" t="s">
+      <c r="B275" s="10"/>
+      <c r="C275" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="D274" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4">
-      <c r="A275" s="11" t="s">
+      <c r="D275" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A276" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="B275" s="11"/>
-      <c r="C275" s="12" t="s">
+      <c r="B276" s="10"/>
+      <c r="C276" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="D275" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4">
-      <c r="A276" s="11" t="s">
+      <c r="D276" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A277" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="B276" s="11"/>
-      <c r="C276" s="12" t="s">
+      <c r="B277" s="10"/>
+      <c r="C277" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="D276" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4">
-      <c r="A277" s="11" t="s">
+      <c r="D277" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A278" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="B277" s="11"/>
-      <c r="C277" s="12" t="s">
+      <c r="B278" s="10"/>
+      <c r="C278" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="D277" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4">
-      <c r="A278" s="11" t="s">
+      <c r="D278" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A279" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="B278" s="11"/>
-      <c r="C278" s="12" t="s">
+      <c r="B279" s="10"/>
+      <c r="C279" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="D278" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4">
-      <c r="A279" s="11" t="s">
+      <c r="D279" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A280" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="B279" s="11"/>
-      <c r="C279" s="12" t="s">
+      <c r="B280" s="10"/>
+      <c r="C280" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="D279" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4">
-      <c r="A280" s="11" t="s">
+      <c r="D280" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A281" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="B280" s="11"/>
-      <c r="C280" s="12" t="s">
+      <c r="B281" s="10"/>
+      <c r="C281" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="D280" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4">
-      <c r="A281" s="11" t="s">
+      <c r="D281" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A282" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="B281" s="11"/>
-      <c r="C281" s="12" t="s">
+      <c r="B282" s="10"/>
+      <c r="C282" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="D281" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4">
-      <c r="A282" s="11" t="s">
+      <c r="D282" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A283" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="B282" s="11"/>
-      <c r="C282" s="12" t="s">
+      <c r="B283" s="10"/>
+      <c r="C283" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="D282" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4">
-      <c r="A283" s="11" t="s">
+      <c r="D283" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A284" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="B283" s="11"/>
-      <c r="C283" s="12" t="s">
+      <c r="B284" s="10"/>
+      <c r="C284" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="D283" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4">
-      <c r="A284" s="11" t="s">
+      <c r="D284" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A285" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="B284" s="11"/>
-      <c r="C284" s="12" t="s">
+      <c r="B285" s="10"/>
+      <c r="C285" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="D284" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="285" spans="1:4">
-      <c r="A285" s="11" t="s">
+      <c r="D285" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A286" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="B285" s="11"/>
-      <c r="C285" s="12" t="s">
+      <c r="B286" s="10"/>
+      <c r="C286" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="D285" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4">
-      <c r="A286" s="11" t="s">
+      <c r="D286" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A287" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="B286" s="11"/>
-      <c r="C286" s="12" t="s">
+      <c r="B287" s="10"/>
+      <c r="C287" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="D286" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4">
-      <c r="A287" s="11" t="s">
+      <c r="D287" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A288" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="B287" s="11"/>
-      <c r="C287" s="12" t="s">
+      <c r="B288" s="10"/>
+      <c r="C288" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="D287" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="288" spans="1:4">
-      <c r="A288" s="11" t="s">
+      <c r="D288" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A289" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="B288" s="11"/>
-      <c r="C288" s="12" t="s">
+      <c r="B289" s="10"/>
+      <c r="C289" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="D288" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4">
-      <c r="A289" s="11" t="s">
+      <c r="D289" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A290" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="B289" s="11"/>
-      <c r="C289" s="12" t="s">
+      <c r="B290" s="10"/>
+      <c r="C290" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="D289" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4">
-      <c r="A290" s="11" t="s">
+      <c r="D290" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A291" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="B290" s="11"/>
-      <c r="C290" s="12" t="s">
+      <c r="B291" s="10"/>
+      <c r="C291" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D290" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4">
-      <c r="A291" s="11" t="s">
+      <c r="D291" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A292" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="B291" s="11"/>
-      <c r="C291" s="12" t="s">
+      <c r="B292" s="10"/>
+      <c r="C292" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="D291" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4">
-      <c r="D292" s="8"/>
-    </row>
-    <row r="293" spans="1:4">
+      <c r="D292" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D293" s="8"/>
     </row>
-    <row r="294" spans="1:4">
-      <c r="A294" s="11" t="s">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D294" s="8"/>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A295" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="B294" s="11"/>
-      <c r="C294" s="12" t="s">
+      <c r="B295" s="10"/>
+      <c r="C295" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="D294" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4">
-      <c r="A295" s="11" t="s">
+      <c r="D295" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A296" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="B295" s="11"/>
-      <c r="C295" s="12" t="s">
+      <c r="B296" s="10"/>
+      <c r="C296" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="D295" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4">
-      <c r="A296" s="11" t="s">
+      <c r="D296" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A297" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="B296" s="11"/>
-      <c r="C296" s="12" t="s">
+      <c r="B297" s="10"/>
+      <c r="C297" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="D296" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4">
-      <c r="A297" s="11" t="s">
+      <c r="D297" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A298" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="B297" s="11"/>
-      <c r="C297" s="12" t="s">
+      <c r="B298" s="10"/>
+      <c r="C298" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="D297" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4">
-      <c r="A298" s="11" t="s">
+      <c r="D298" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A299" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="B298" s="11"/>
-      <c r="C298" s="12" t="s">
+      <c r="B299" s="10"/>
+      <c r="C299" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="D298" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="299" spans="1:4">
-      <c r="A299" s="11" t="s">
+      <c r="D299" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A300" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="B299" s="11"/>
-      <c r="C299" s="12" t="s">
+      <c r="B300" s="10"/>
+      <c r="C300" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="D299" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4">
-      <c r="A300" s="11" t="s">
+      <c r="D300" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A301" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="B300" s="11"/>
-      <c r="C300" s="12" t="s">
+      <c r="B301" s="10"/>
+      <c r="C301" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="D300" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="301" spans="1:4">
-      <c r="A301" s="11" t="s">
+      <c r="D301" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A302" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="B301" s="11"/>
-      <c r="C301" s="12" t="s">
+      <c r="B302" s="10"/>
+      <c r="C302" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="D301" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="302" spans="1:4">
-      <c r="A302" s="11" t="s">
+      <c r="D302" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A303" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="B302" s="11"/>
-      <c r="C302" s="12" t="s">
+      <c r="B303" s="10"/>
+      <c r="C303" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="D302" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="303" spans="1:4">
-      <c r="A303" s="11" t="s">
+      <c r="D303" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A304" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="B303" s="11"/>
-      <c r="C303" s="12" t="s">
+      <c r="B304" s="10"/>
+      <c r="C304" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="D303" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="304" spans="1:4">
-      <c r="A304" s="11" t="s">
+      <c r="D304" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A305" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="B304" s="11"/>
-      <c r="C304" s="12" t="s">
+      <c r="B305" s="10"/>
+      <c r="C305" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="D304" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="305" spans="1:4">
-      <c r="A305" s="11" t="s">
+      <c r="D305" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A306" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="B305" s="11"/>
-      <c r="C305" s="12" t="s">
+      <c r="B306" s="10"/>
+      <c r="C306" s="11" t="s">
         <v>276</v>
       </c>
-      <c r="D305" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="306" spans="1:4">
-      <c r="A306" s="11" t="s">
+      <c r="D306" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A307" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="B306" s="11"/>
-      <c r="C306" s="12" t="s">
+      <c r="B307" s="10"/>
+      <c r="C307" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="D306" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="307" spans="1:4">
-      <c r="A307" s="11" t="s">
+      <c r="D307" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A308" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="B307" s="11"/>
-      <c r="C307" s="12" t="s">
+      <c r="B308" s="10"/>
+      <c r="C308" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="D307" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="308" spans="1:4">
-      <c r="A308" s="11" t="s">
+      <c r="D308" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A309" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="B308" s="11"/>
-      <c r="C308" s="12" t="s">
+      <c r="B309" s="10"/>
+      <c r="C309" s="11" t="s">
         <v>279</v>
       </c>
-      <c r="D308" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="309" spans="1:4">
-      <c r="A309" s="11" t="s">
+      <c r="D309" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A310" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="B309" s="11"/>
-      <c r="C309" s="12" t="s">
+      <c r="B310" s="10"/>
+      <c r="C310" s="11" t="s">
         <v>280</v>
       </c>
-      <c r="D309" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="310" spans="1:4">
-      <c r="A310" s="11" t="s">
+      <c r="D310" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A311" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="B310" s="11"/>
-      <c r="C310" s="12" t="s">
+      <c r="B311" s="10"/>
+      <c r="C311" s="11" t="s">
         <v>281</v>
       </c>
-      <c r="D310" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="311" spans="1:4">
-      <c r="A311" s="11" t="s">
+      <c r="D311" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A312" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="B311" s="11"/>
-      <c r="C311" s="12" t="s">
+      <c r="B312" s="10"/>
+      <c r="C312" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="D311" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="312" spans="1:4">
-      <c r="A312" s="11" t="s">
+      <c r="D312" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A313" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="B312" s="11"/>
-      <c r="C312" s="12" t="s">
+      <c r="B313" s="10"/>
+      <c r="C313" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="D312" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="313" spans="1:4">
-      <c r="D313" s="8"/>
-    </row>
-    <row r="314" spans="1:4">
+      <c r="D313" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D314" s="8"/>
     </row>
-    <row r="315" spans="1:4">
-      <c r="A315" s="11" t="s">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D315" s="8"/>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A316" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="B315" s="11"/>
-      <c r="C315" s="12" t="s">
+      <c r="B316" s="10"/>
+      <c r="C316" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="D315" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="316" spans="1:4">
-      <c r="A316" s="11" t="s">
+      <c r="D316" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A317" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="B316" s="11"/>
-      <c r="C316" s="12" t="s">
+      <c r="B317" s="10"/>
+      <c r="C317" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="D316" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="317" spans="1:4">
-      <c r="A317" s="11" t="s">
+      <c r="D317" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A318" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="B317" s="11"/>
-      <c r="C317" s="12" t="s">
+      <c r="B318" s="10"/>
+      <c r="C318" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="D317" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="318" spans="1:4">
-      <c r="A318" s="11" t="s">
+      <c r="D318" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A319" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="B318" s="11"/>
-      <c r="C318" s="12" t="s">
+      <c r="B319" s="10"/>
+      <c r="C319" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="D318" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="319" spans="1:4">
-      <c r="A319" s="11" t="s">
+      <c r="D319" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A320" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="B319" s="11"/>
-      <c r="C319" s="12" t="s">
+      <c r="B320" s="10"/>
+      <c r="C320" s="11" t="s">
         <v>289</v>
       </c>
-      <c r="D319" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="320" spans="1:4">
-      <c r="A320" s="11" t="s">
+      <c r="D320" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A321" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="B320" s="11"/>
-      <c r="C320" s="12" t="s">
+      <c r="B321" s="10"/>
+      <c r="C321" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="D320" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="321" spans="1:4">
-      <c r="A321" s="11" t="s">
+      <c r="D321" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A322" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="B321" s="11"/>
-      <c r="C321" s="12" t="s">
+      <c r="B322" s="10"/>
+      <c r="C322" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="D321" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="322" spans="1:4">
-      <c r="A322" s="11" t="s">
+      <c r="D322" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A323" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="B322" s="11"/>
-      <c r="C322" s="12" t="s">
+      <c r="B323" s="10"/>
+      <c r="C323" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="D322" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="323" spans="1:4">
-      <c r="A323" s="11" t="s">
+      <c r="D323" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A324" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="B323" s="11"/>
-      <c r="C323" s="12" t="s">
+      <c r="B324" s="10"/>
+      <c r="C324" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="D323" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="324" spans="1:4">
-      <c r="A324" s="11" t="s">
+      <c r="D324" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A325" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="B324" s="11"/>
-      <c r="C324" s="12" t="s">
+      <c r="B325" s="10"/>
+      <c r="C325" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="D324" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="325" spans="1:4">
-      <c r="A325" s="11" t="s">
+      <c r="D325" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A326" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="B325" s="11"/>
-      <c r="C325" s="12" t="s">
+      <c r="B326" s="10"/>
+      <c r="C326" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="D325" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="326" spans="1:4">
-      <c r="A326" s="11" t="s">
+      <c r="D326" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A327" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="B326" s="11"/>
-      <c r="C326" s="12" t="s">
+      <c r="B327" s="10"/>
+      <c r="C327" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="D326" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="327" spans="1:4">
-      <c r="A327" s="11" t="s">
+      <c r="D327" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A328" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="B327" s="11"/>
-      <c r="C327" s="12" t="s">
+      <c r="B328" s="10"/>
+      <c r="C328" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="D327" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="328" spans="1:4">
-      <c r="A328" s="11" t="s">
+      <c r="D328" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A329" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="B328" s="11"/>
-      <c r="C328" s="5" t="s">
+      <c r="B329" s="10"/>
+      <c r="C329" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="D328" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="329" spans="1:4">
-      <c r="A329" s="11" t="s">
+      <c r="D329" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A330" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="B329" s="11"/>
-      <c r="C329" s="12" t="s">
+      <c r="B330" s="10"/>
+      <c r="C330" s="11" t="s">
         <v>299</v>
       </c>
-      <c r="D329" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="330" spans="1:4">
-      <c r="A330" s="11" t="s">
+      <c r="D330" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A331" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="B330" s="11"/>
-      <c r="C330" s="12" t="s">
+      <c r="B331" s="10"/>
+      <c r="C331" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="D330" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="331" spans="1:4">
-      <c r="A331" s="11" t="s">
+      <c r="D331" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A332" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="B331" s="11"/>
-      <c r="C331" s="12" t="s">
+      <c r="B332" s="10"/>
+      <c r="C332" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="D331" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="332" spans="1:4">
-      <c r="A332" s="11" t="s">
+      <c r="D332" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A333" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="B332" s="11"/>
-      <c r="C332" s="12" t="s">
+      <c r="B333" s="10"/>
+      <c r="C333" s="11" t="s">
         <v>302</v>
       </c>
-      <c r="D332" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="333" spans="1:4">
-      <c r="A333" s="11" t="s">
+      <c r="D333" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A334" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="B333" s="11"/>
-      <c r="C333" s="12" t="s">
+      <c r="B334" s="10"/>
+      <c r="C334" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="D333" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="334" spans="1:4">
-      <c r="A334" s="11" t="s">
+      <c r="D334" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A335" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="B334" s="11"/>
-      <c r="C334" s="12" t="s">
+      <c r="B335" s="10"/>
+      <c r="C335" s="11" t="s">
         <v>304</v>
       </c>
-      <c r="D334" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="335" spans="1:4">
-      <c r="A335" s="11" t="s">
+      <c r="D335" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A336" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="B335" s="11"/>
-      <c r="C335" s="12" t="s">
+      <c r="B336" s="10"/>
+      <c r="C336" s="11" t="s">
         <v>305</v>
       </c>
-      <c r="D335" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="336" spans="1:4">
-      <c r="A336" s="11" t="s">
+      <c r="D336" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A337" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="B336" s="11"/>
-      <c r="C336" s="12" t="s">
+      <c r="B337" s="10"/>
+      <c r="C337" s="11" t="s">
         <v>306</v>
       </c>
-      <c r="D336" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="337" spans="1:4">
-      <c r="A337" s="11" t="s">
+      <c r="D337" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A338" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="B337" s="11"/>
-      <c r="C337" s="12" t="s">
+      <c r="B338" s="10"/>
+      <c r="C338" s="11" t="s">
         <v>307</v>
       </c>
-      <c r="D337" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="338" spans="1:4">
-      <c r="A338" s="11" t="s">
+      <c r="D338" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A339" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="B338" s="11"/>
-      <c r="C338" s="12" t="s">
+      <c r="B339" s="10"/>
+      <c r="C339" s="11" t="s">
         <v>308</v>
       </c>
-      <c r="D338" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="339" spans="1:4">
-      <c r="A339" s="11" t="s">
+      <c r="D339" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A340" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="B339" s="11"/>
-      <c r="C339" s="12" t="s">
+      <c r="B340" s="10"/>
+      <c r="C340" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="D339" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="340" spans="1:4">
-      <c r="A340" s="11" t="s">
+      <c r="D340" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A341" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="B340" s="11"/>
-      <c r="C340" s="12" t="s">
+      <c r="B341" s="10"/>
+      <c r="C341" s="11" t="s">
         <v>310</v>
       </c>
-      <c r="D340" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="341" spans="1:4">
-      <c r="A341" s="11" t="s">
+      <c r="D341" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A342" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="B341" s="11"/>
-      <c r="C341" s="12" t="s">
+      <c r="B342" s="10"/>
+      <c r="C342" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="D341" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="342" spans="1:4">
-      <c r="A342" s="11" t="s">
+      <c r="D342" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A343" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="B342" s="11"/>
-      <c r="C342" s="12" t="s">
+      <c r="B343" s="10"/>
+      <c r="C343" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="D342" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="343" spans="1:4">
-      <c r="A343" s="11" t="s">
+      <c r="D343" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A344" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="B343" s="11"/>
-      <c r="C343" s="12" t="s">
+      <c r="B344" s="10"/>
+      <c r="C344" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="D343" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="344" spans="1:4">
-      <c r="A344" s="11" t="s">
+      <c r="D344" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A345" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="B344" s="11"/>
-      <c r="C344" s="12" t="s">
+      <c r="B345" s="10"/>
+      <c r="C345" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="D344" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="345" spans="1:4">
-      <c r="A345" s="11" t="s">
+      <c r="D345" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A346" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="B345" s="11"/>
-      <c r="C345" s="12" t="s">
+      <c r="B346" s="10"/>
+      <c r="C346" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="D345" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="346" spans="1:4">
-      <c r="A346" s="11" t="s">
+      <c r="D346" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A347" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="B346" s="11"/>
-      <c r="C346" s="12" t="s">
+      <c r="B347" s="10"/>
+      <c r="C347" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="D346" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="347" spans="1:4">
-      <c r="A347" s="11" t="s">
+      <c r="D347" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A348" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="B347" s="11"/>
-      <c r="C347" s="12" t="s">
+      <c r="B348" s="10"/>
+      <c r="C348" s="11" t="s">
         <v>317</v>
       </c>
-      <c r="D347" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="348" spans="1:4">
-      <c r="A348" s="11" t="s">
+      <c r="D348" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A349" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="B348" s="11"/>
-      <c r="C348" s="12" t="s">
+      <c r="B349" s="10"/>
+      <c r="C349" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="D348" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="349" spans="1:4">
-      <c r="A349" s="11" t="s">
+      <c r="D349" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A350" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="B349" s="11"/>
-      <c r="C349" s="12" t="s">
+      <c r="B350" s="10"/>
+      <c r="C350" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="D349" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="350" spans="1:4">
-      <c r="A350" s="11" t="s">
+      <c r="D350" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A351" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="B350" s="11"/>
-      <c r="C350" s="12" t="s">
+      <c r="B351" s="10"/>
+      <c r="C351" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="D350" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="351" spans="1:4">
-      <c r="A351" s="11" t="s">
+      <c r="D351" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A352" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="B351" s="11"/>
-      <c r="C351" s="12" t="s">
+      <c r="B352" s="10"/>
+      <c r="C352" s="11" t="s">
         <v>321</v>
       </c>
-      <c r="D351" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="352" spans="1:4">
-      <c r="A352" s="11" t="s">
+      <c r="D352" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A353" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="B352" s="11"/>
-      <c r="C352" s="12" t="s">
+      <c r="B353" s="10"/>
+      <c r="C353" s="11" t="s">
         <v>322</v>
       </c>
-      <c r="D352" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="353" spans="1:4">
-      <c r="D353" s="8"/>
-    </row>
-    <row r="354" spans="1:4">
+      <c r="D353" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D354" s="8"/>
     </row>
-    <row r="355" spans="1:4">
-      <c r="A355" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="B355" s="8"/>
-      <c r="C355" s="12" t="s">
-        <v>324</v>
-      </c>
-      <c r="D355" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="356" spans="1:4">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D355" s="8"/>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A356" s="8" t="s">
         <v>323</v>
       </c>
       <c r="B356" s="8"/>
-      <c r="C356" s="12" t="s">
-        <v>325</v>
+      <c r="C356" s="11" t="s">
+        <v>324</v>
       </c>
       <c r="D356" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="357" spans="1:4">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A357" s="8" t="s">
         <v>323</v>
       </c>
       <c r="B357" s="8"/>
-      <c r="C357" s="12" t="s">
-        <v>326</v>
+      <c r="C357" s="11" t="s">
+        <v>325</v>
       </c>
       <c r="D357" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="358" spans="1:4">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A358" s="8" t="s">
         <v>323</v>
       </c>
       <c r="B358" s="8"/>
-      <c r="C358" s="12" t="s">
-        <v>327</v>
+      <c r="C358" s="11" t="s">
+        <v>326</v>
       </c>
       <c r="D358" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="359" spans="1:4">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A359" s="8" t="s">
         <v>323</v>
       </c>
       <c r="B359" s="8"/>
-      <c r="C359" s="12" t="s">
-        <v>328</v>
+      <c r="C359" s="11" t="s">
+        <v>327</v>
       </c>
       <c r="D359" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="360" spans="1:4">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A360" s="8" t="s">
         <v>323</v>
       </c>
       <c r="B360" s="8"/>
-      <c r="C360" s="12" t="s">
-        <v>329</v>
+      <c r="C360" s="11" t="s">
+        <v>328</v>
       </c>
       <c r="D360" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="361" spans="1:4">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A361" s="8" t="s">
         <v>323</v>
       </c>
       <c r="B361" s="8"/>
-      <c r="C361" s="12" t="s">
-        <v>330</v>
+      <c r="C361" s="11" t="s">
+        <v>329</v>
       </c>
       <c r="D361" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="362" spans="1:4">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A362" s="8" t="s">
         <v>323</v>
       </c>
       <c r="B362" s="8"/>
-      <c r="C362" s="12" t="s">
-        <v>331</v>
+      <c r="C362" s="11" t="s">
+        <v>330</v>
       </c>
       <c r="D362" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="363" spans="1:4">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A363" s="8" t="s">
         <v>323</v>
       </c>
       <c r="B363" s="8"/>
-      <c r="C363" s="5" t="s">
-        <v>332</v>
+      <c r="C363" s="11" t="s">
+        <v>331</v>
       </c>
       <c r="D363" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="364" spans="1:4">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A364" s="8" t="s">
         <v>323</v>
       </c>
       <c r="B364" s="8"/>
-      <c r="C364" s="12" t="s">
-        <v>333</v>
+      <c r="C364" s="5" t="s">
+        <v>332</v>
       </c>
       <c r="D364" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="365" spans="1:4">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A365" s="8" t="s">
         <v>323</v>
       </c>
       <c r="B365" s="8"/>
-      <c r="C365" s="12" t="s">
-        <v>334</v>
+      <c r="C365" s="11" t="s">
+        <v>333</v>
       </c>
       <c r="D365" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="366" spans="1:4">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A366" s="8" t="s">
         <v>323</v>
       </c>
       <c r="B366" s="8"/>
-      <c r="C366" s="12" t="s">
-        <v>335</v>
+      <c r="C366" s="11" t="s">
+        <v>334</v>
       </c>
       <c r="D366" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="367" spans="1:4">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A367" s="8" t="s">
         <v>323</v>
       </c>
       <c r="B367" s="8"/>
-      <c r="C367" s="12" t="s">
-        <v>336</v>
+      <c r="C367" s="11" t="s">
+        <v>335</v>
       </c>
       <c r="D367" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="368" spans="1:4">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A368" s="8" t="s">
         <v>323</v>
       </c>
       <c r="B368" s="8"/>
-      <c r="C368" s="12" t="s">
-        <v>337</v>
+      <c r="C368" s="11" t="s">
+        <v>336</v>
       </c>
       <c r="D368" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="369" spans="1:4">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A369" s="8" t="s">
         <v>323</v>
       </c>
       <c r="B369" s="8"/>
-      <c r="C369" s="12" t="s">
-        <v>338</v>
+      <c r="C369" s="11" t="s">
+        <v>337</v>
       </c>
       <c r="D369" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="370" spans="1:4">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A370" s="8" t="s">
         <v>323</v>
       </c>
       <c r="B370" s="8"/>
-      <c r="C370" s="12" t="s">
-        <v>339</v>
+      <c r="C370" s="11" t="s">
+        <v>338</v>
       </c>
       <c r="D370" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="371" spans="1:4">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A371" s="8" t="s">
         <v>323</v>
       </c>
       <c r="B371" s="8"/>
-      <c r="C371" s="12" t="s">
-        <v>340</v>
+      <c r="C371" s="11" t="s">
+        <v>339</v>
       </c>
       <c r="D371" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="372" spans="1:4">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A372" s="8" t="s">
         <v>323</v>
       </c>
       <c r="B372" s="8"/>
-      <c r="C372" s="12" t="s">
+      <c r="C372" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="D372" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A373" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="B373" s="8"/>
+      <c r="C373" s="11" t="s">
         <v>341</v>
       </c>
-      <c r="D372" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="373" spans="1:4">
-      <c r="D373" s="8"/>
-    </row>
-    <row r="374" spans="1:4">
+      <c r="D373" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D374" s="8"/>
     </row>
-    <row r="375" spans="1:4">
-      <c r="A375" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="B375" s="8"/>
-      <c r="C375" s="12" t="s">
-        <v>343</v>
-      </c>
-      <c r="D375" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="376" spans="1:4">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D375" s="8"/>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A376" s="8" t="s">
         <v>342</v>
       </c>
       <c r="B376" s="8"/>
-      <c r="C376" s="12" t="s">
-        <v>344</v>
+      <c r="C376" s="11" t="s">
+        <v>343</v>
       </c>
       <c r="D376" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="377" spans="1:4">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A377" s="8" t="s">
         <v>342</v>
       </c>
       <c r="B377" s="8"/>
-      <c r="C377" s="12" t="s">
-        <v>345</v>
+      <c r="C377" s="11" t="s">
+        <v>344</v>
       </c>
       <c r="D377" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="378" spans="1:4">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A378" s="8" t="s">
         <v>342</v>
       </c>
       <c r="B378" s="8"/>
-      <c r="C378" s="12" t="s">
-        <v>346</v>
+      <c r="C378" s="11" t="s">
+        <v>345</v>
       </c>
       <c r="D378" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="379" spans="1:4">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A379" s="8" t="s">
         <v>342</v>
       </c>
       <c r="B379" s="8"/>
-      <c r="C379" s="12" t="s">
-        <v>347</v>
+      <c r="C379" s="11" t="s">
+        <v>346</v>
       </c>
       <c r="D379" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="380" spans="1:4">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A380" s="8" t="s">
         <v>342</v>
       </c>
       <c r="B380" s="8"/>
-      <c r="C380" s="12" t="s">
-        <v>348</v>
+      <c r="C380" s="11" t="s">
+        <v>347</v>
       </c>
       <c r="D380" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="381" spans="1:4">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A381" s="8" t="s">
         <v>342</v>
       </c>
       <c r="B381" s="8"/>
-      <c r="C381" s="12" t="s">
-        <v>349</v>
+      <c r="C381" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="D381" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="382" spans="1:4">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A382" s="8" t="s">
         <v>342</v>
       </c>
       <c r="B382" s="8"/>
-      <c r="C382" s="12" t="s">
-        <v>350</v>
+      <c r="C382" s="11" t="s">
+        <v>349</v>
       </c>
       <c r="D382" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="383" spans="1:4">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A383" s="8" t="s">
         <v>342</v>
       </c>
       <c r="B383" s="8"/>
-      <c r="C383" s="12" t="s">
-        <v>351</v>
+      <c r="C383" s="11" t="s">
+        <v>350</v>
       </c>
       <c r="D383" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="384" spans="1:4">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A384" s="8" t="s">
         <v>342</v>
       </c>
       <c r="B384" s="8"/>
-      <c r="C384" s="12" t="s">
-        <v>352</v>
+      <c r="C384" s="11" t="s">
+        <v>351</v>
       </c>
       <c r="D384" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="385" spans="1:4">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A385" s="8" t="s">
         <v>342</v>
       </c>
       <c r="B385" s="8"/>
-      <c r="C385" s="12" t="s">
-        <v>353</v>
+      <c r="C385" s="11" t="s">
+        <v>352</v>
       </c>
       <c r="D385" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="386" spans="1:4">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A386" s="8" t="s">
         <v>342</v>
       </c>
       <c r="B386" s="8"/>
-      <c r="C386" s="12" t="s">
-        <v>354</v>
+      <c r="C386" s="11" t="s">
+        <v>353</v>
       </c>
       <c r="D386" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="387" spans="1:4">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A387" s="8" t="s">
         <v>342</v>
       </c>
       <c r="B387" s="8"/>
-      <c r="C387" s="12" t="s">
-        <v>355</v>
+      <c r="C387" s="11" t="s">
+        <v>354</v>
       </c>
       <c r="D387" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="388" spans="1:4">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A388" s="8" t="s">
         <v>342</v>
       </c>
       <c r="B388" s="8"/>
-      <c r="C388" s="12" t="s">
-        <v>356</v>
+      <c r="C388" s="11" t="s">
+        <v>355</v>
       </c>
       <c r="D388" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="389" spans="1:4">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A389" s="8" t="s">
         <v>342</v>
       </c>
       <c r="B389" s="8"/>
-      <c r="C389" s="12" t="s">
-        <v>357</v>
+      <c r="C389" s="11" t="s">
+        <v>356</v>
       </c>
       <c r="D389" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="390" spans="1:4">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A390" s="8" t="s">
         <v>342</v>
       </c>
       <c r="B390" s="8"/>
-      <c r="C390" s="12" t="s">
-        <v>358</v>
+      <c r="C390" s="11" t="s">
+        <v>357</v>
       </c>
       <c r="D390" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="391" spans="1:4">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A391" s="8" t="s">
         <v>342</v>
       </c>
       <c r="B391" s="8"/>
-      <c r="C391" s="12" t="s">
-        <v>359</v>
+      <c r="C391" s="11" t="s">
+        <v>358</v>
       </c>
       <c r="D391" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="392" spans="1:4">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A392" s="8" t="s">
         <v>342</v>
       </c>
       <c r="B392" s="8"/>
-      <c r="C392" s="12" t="s">
-        <v>360</v>
+      <c r="C392" s="11" t="s">
+        <v>359</v>
       </c>
       <c r="D392" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="393" spans="1:4">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A393" s="8" t="s">
         <v>342</v>
       </c>
       <c r="B393" s="8"/>
-      <c r="C393" s="12" t="s">
-        <v>361</v>
+      <c r="C393" s="11" t="s">
+        <v>360</v>
       </c>
       <c r="D393" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="394" spans="1:4">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A394" s="8" t="s">
         <v>342</v>
       </c>
       <c r="B394" s="8"/>
-      <c r="C394" s="12" t="s">
-        <v>362</v>
+      <c r="C394" s="11" t="s">
+        <v>361</v>
       </c>
       <c r="D394" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="395" spans="1:4">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A395" s="8" t="s">
         <v>342</v>
       </c>
       <c r="B395" s="8"/>
-      <c r="C395" s="12" t="s">
-        <v>363</v>
+      <c r="C395" s="11" t="s">
+        <v>362</v>
       </c>
       <c r="D395" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="396" spans="1:4">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A396" s="8" t="s">
         <v>342</v>
       </c>
       <c r="B396" s="8"/>
-      <c r="C396" s="12" t="s">
-        <v>364</v>
+      <c r="C396" s="11" t="s">
+        <v>363</v>
       </c>
       <c r="D396" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="397" spans="1:4">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A397" s="8" t="s">
         <v>342</v>
       </c>
       <c r="B397" s="8"/>
-      <c r="C397" s="12" t="s">
-        <v>365</v>
+      <c r="C397" s="11" t="s">
+        <v>364</v>
       </c>
       <c r="D397" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="398" spans="1:4">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A398" s="8" t="s">
         <v>342</v>
       </c>
       <c r="B398" s="8"/>
-      <c r="C398" s="12" t="s">
-        <v>366</v>
+      <c r="C398" s="11" t="s">
+        <v>365</v>
       </c>
       <c r="D398" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="399" spans="1:4">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A399" s="8" t="s">
         <v>342</v>
       </c>
       <c r="B399" s="8"/>
-      <c r="C399" s="12" t="s">
-        <v>367</v>
+      <c r="C399" s="11" t="s">
+        <v>366</v>
       </c>
       <c r="D399" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="400" spans="1:4">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A400" s="8" t="s">
         <v>342</v>
       </c>
       <c r="B400" s="8"/>
-      <c r="C400" s="12" t="s">
-        <v>368</v>
+      <c r="C400" s="11" t="s">
+        <v>367</v>
       </c>
       <c r="D400" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="401" spans="1:4">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A401" s="8" t="s">
         <v>342</v>
       </c>
       <c r="B401" s="8"/>
-      <c r="C401" s="12" t="s">
-        <v>369</v>
+      <c r="C401" s="11" t="s">
+        <v>368</v>
       </c>
       <c r="D401" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="402" spans="1:4">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A402" s="8" t="s">
         <v>342</v>
       </c>
       <c r="B402" s="8"/>
-      <c r="C402" s="12" t="s">
-        <v>370</v>
+      <c r="C402" s="11" t="s">
+        <v>369</v>
       </c>
       <c r="D402" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="403" spans="1:4">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A403" s="8" t="s">
         <v>342</v>
       </c>
       <c r="B403" s="8"/>
-      <c r="C403" s="12" t="s">
-        <v>371</v>
+      <c r="C403" s="11" t="s">
+        <v>370</v>
       </c>
       <c r="D403" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="404" spans="1:4">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A404" s="8" t="s">
         <v>342</v>
       </c>
       <c r="B404" s="8"/>
-      <c r="C404" s="12" t="s">
-        <v>372</v>
+      <c r="C404" s="11" t="s">
+        <v>371</v>
       </c>
       <c r="D404" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="405" spans="1:4">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A405" s="8" t="s">
         <v>342</v>
       </c>
       <c r="B405" s="8"/>
-      <c r="C405" s="12" t="s">
-        <v>373</v>
+      <c r="C405" s="11" t="s">
+        <v>372</v>
       </c>
       <c r="D405" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="406" spans="1:4">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A406" s="8" t="s">
         <v>342</v>
       </c>
       <c r="B406" s="8"/>
-      <c r="C406" s="12" t="s">
-        <v>374</v>
+      <c r="C406" s="11" t="s">
+        <v>373</v>
       </c>
       <c r="D406" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="407" spans="1:4">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A407" s="8" t="s">
         <v>342</v>
       </c>
       <c r="B407" s="8"/>
-      <c r="C407" s="12" t="s">
-        <v>375</v>
+      <c r="C407" s="11" t="s">
+        <v>374</v>
       </c>
       <c r="D407" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="408" spans="1:4">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A408" s="8" t="s">
         <v>342</v>
       </c>
       <c r="B408" s="8"/>
-      <c r="C408" s="12" t="s">
-        <v>376</v>
+      <c r="C408" s="11" t="s">
+        <v>375</v>
       </c>
       <c r="D408" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="409" spans="1:4">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A409" s="8" t="s">
         <v>342</v>
       </c>
       <c r="B409" s="8"/>
-      <c r="C409" s="12" t="s">
+      <c r="C409" s="11" t="s">
         <v>376</v>
       </c>
       <c r="D409" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="410" spans="1:4">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A410" s="8" t="s">
         <v>342</v>
       </c>
       <c r="B410" s="8"/>
-      <c r="C410" s="12" t="s">
-        <v>377</v>
+      <c r="C410" s="11" t="s">
+        <v>376</v>
       </c>
       <c r="D410" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="411" spans="1:4">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A411" s="8" t="s">
         <v>342</v>
       </c>
       <c r="B411" s="8"/>
-      <c r="C411" s="12" t="s">
-        <v>378</v>
+      <c r="C411" s="11" t="s">
+        <v>377</v>
       </c>
       <c r="D411" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="412" spans="1:4">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A412" s="8" t="s">
         <v>342</v>
       </c>
       <c r="B412" s="8"/>
-      <c r="C412" s="12" t="s">
-        <v>379</v>
+      <c r="C412" s="11" t="s">
+        <v>378</v>
       </c>
       <c r="D412" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="413" spans="1:4">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A413" s="8" t="s">
         <v>342</v>
       </c>
       <c r="B413" s="8"/>
-      <c r="C413" s="12" t="s">
-        <v>380</v>
+      <c r="C413" s="11" t="s">
+        <v>379</v>
       </c>
       <c r="D413" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="414" spans="1:4">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A414" s="8" t="s">
         <v>342</v>
       </c>
       <c r="B414" s="8"/>
-      <c r="C414" s="12" t="s">
-        <v>381</v>
+      <c r="C414" s="11" t="s">
+        <v>380</v>
       </c>
       <c r="D414" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="415" spans="1:4">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A415" s="8" t="s">
         <v>342</v>
       </c>
       <c r="B415" s="8"/>
-      <c r="C415" s="12" t="s">
-        <v>382</v>
+      <c r="C415" s="11" t="s">
+        <v>381</v>
       </c>
       <c r="D415" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="416" spans="1:4">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A416" s="8" t="s">
         <v>342</v>
       </c>
       <c r="B416" s="8"/>
-      <c r="C416" s="12" t="s">
-        <v>383</v>
+      <c r="C416" s="11" t="s">
+        <v>382</v>
       </c>
       <c r="D416" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="417" spans="1:4">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A417" s="8" t="s">
         <v>342</v>
       </c>
       <c r="B417" s="8"/>
-      <c r="C417" s="12" t="s">
-        <v>384</v>
+      <c r="C417" s="11" t="s">
+        <v>383</v>
       </c>
       <c r="D417" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="418" spans="1:4">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A418" s="8" t="s">
         <v>342</v>
       </c>
       <c r="B418" s="8"/>
-      <c r="C418" s="12" t="s">
+      <c r="C418" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="D418" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A419" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="B419" s="8"/>
+      <c r="C419" s="11" t="s">
         <v>385</v>
       </c>
-      <c r="D418" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="419" spans="1:4">
-      <c r="D419" s="8"/>
-    </row>
-    <row r="420" spans="1:4">
+      <c r="D419" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D420" s="8"/>
     </row>
-    <row r="421" spans="1:4">
-      <c r="A421" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="B421" s="8"/>
-      <c r="C421" s="12" t="s">
-        <v>387</v>
-      </c>
-      <c r="D421" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="422" spans="1:4">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D421" s="8"/>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A422" s="8" t="s">
         <v>386</v>
       </c>
       <c r="B422" s="8"/>
-      <c r="C422" s="12" t="s">
-        <v>388</v>
+      <c r="C422" s="11" t="s">
+        <v>387</v>
       </c>
       <c r="D422" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="423" spans="1:4">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A423" s="8" t="s">
         <v>386</v>
       </c>
       <c r="B423" s="8"/>
-      <c r="C423" s="12" t="s">
-        <v>389</v>
+      <c r="C423" s="11" t="s">
+        <v>388</v>
       </c>
       <c r="D423" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="424" spans="1:4">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A424" s="8" t="s">
         <v>386</v>
       </c>
       <c r="B424" s="8"/>
-      <c r="C424" s="12" t="s">
-        <v>88</v>
+      <c r="C424" s="11" t="s">
+        <v>389</v>
       </c>
       <c r="D424" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="425" spans="1:4">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A425" s="8" t="s">
         <v>386</v>
       </c>
       <c r="B425" s="8"/>
-      <c r="C425" s="12" t="s">
-        <v>390</v>
+      <c r="C425" s="11" t="s">
+        <v>88</v>
       </c>
       <c r="D425" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="426" spans="1:4">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A426" s="8" t="s">
         <v>386</v>
       </c>
       <c r="B426" s="8"/>
-      <c r="C426" s="12" t="s">
+      <c r="C426" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="D426" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A427" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="B427" s="8"/>
+      <c r="C427" s="11" t="s">
         <v>391</v>
       </c>
-      <c r="D426" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="427" spans="1:4">
-      <c r="D427" s="8"/>
-    </row>
-    <row r="428" spans="1:4">
+      <c r="D427" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D428" s="8"/>
     </row>
-    <row r="429" spans="1:4">
-      <c r="A429" s="11" t="s">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D429" s="8"/>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A430" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="B429" s="11"/>
-      <c r="C429" s="12" t="s">
+      <c r="B430" s="10"/>
+      <c r="C430" s="11" t="s">
         <v>393</v>
       </c>
-      <c r="D429" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="430" spans="1:4">
-      <c r="A430" s="11" t="s">
+      <c r="D430" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A431" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="B430" s="11"/>
-      <c r="C430" s="12" t="s">
+      <c r="B431" s="10"/>
+      <c r="C431" s="11" t="s">
         <v>394</v>
       </c>
-      <c r="D430" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="431" spans="1:4">
-      <c r="A431" s="11" t="s">
+      <c r="D431" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A432" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="B431" s="11"/>
-      <c r="C431" s="12" t="s">
+      <c r="B432" s="10"/>
+      <c r="C432" s="11" t="s">
         <v>395</v>
       </c>
-      <c r="D431" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="432" spans="1:4">
-      <c r="A432" s="11" t="s">
+      <c r="D432" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A433" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="B432" s="11"/>
-      <c r="C432" s="12" t="s">
+      <c r="B433" s="10"/>
+      <c r="C433" s="11" t="s">
         <v>396</v>
       </c>
-      <c r="D432" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="433" spans="1:4">
-      <c r="A433" s="11" t="s">
+      <c r="D433" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A434" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="B433" s="11"/>
-      <c r="C433" s="12" t="s">
+      <c r="B434" s="10"/>
+      <c r="C434" s="11" t="s">
         <v>397</v>
       </c>
-      <c r="D433" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="434" spans="1:4">
-      <c r="A434" s="11" t="s">
+      <c r="D434" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A435" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="B434" s="11"/>
-      <c r="C434" s="12" t="s">
+      <c r="B435" s="10"/>
+      <c r="C435" s="11" t="s">
         <v>398</v>
       </c>
-      <c r="D434" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="435" spans="1:4">
-      <c r="A435" s="11" t="s">
+      <c r="D435" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A436" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="B435" s="11"/>
-      <c r="C435" s="12" t="s">
+      <c r="B436" s="10"/>
+      <c r="C436" s="11" t="s">
         <v>399</v>
       </c>
-      <c r="D435" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="436" spans="1:4">
-      <c r="A436" s="11" t="s">
+      <c r="D436" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A437" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="B436" s="11"/>
-      <c r="C436" s="12" t="s">
+      <c r="B437" s="10"/>
+      <c r="C437" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="D436" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="437" spans="1:4">
-      <c r="A437" s="11" t="s">
+      <c r="D437" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A438" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="B437" s="11"/>
-      <c r="C437" s="12" t="s">
+      <c r="B438" s="10"/>
+      <c r="C438" s="11" t="s">
         <v>400</v>
       </c>
-      <c r="D437" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="438" spans="1:4">
-      <c r="A438" s="11" t="s">
+      <c r="D438" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A439" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="B438" s="11"/>
-      <c r="C438" s="12" t="s">
+      <c r="B439" s="10"/>
+      <c r="C439" s="11" t="s">
         <v>401</v>
       </c>
-      <c r="D438" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="439" spans="1:4">
-      <c r="A439" s="11" t="s">
+      <c r="D439" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A440" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="B439" s="11"/>
-      <c r="C439" s="12" t="s">
+      <c r="B440" s="10"/>
+      <c r="C440" s="11" t="s">
         <v>402</v>
       </c>
-      <c r="D439" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="440" spans="1:4">
-      <c r="A440" s="11" t="s">
+      <c r="D440" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A441" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="B440" s="11"/>
-      <c r="C440" s="12" t="s">
+      <c r="B441" s="10"/>
+      <c r="C441" s="11" t="s">
         <v>403</v>
       </c>
-      <c r="D440" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="441" spans="1:4">
-      <c r="A441" s="11" t="s">
+      <c r="D441" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A442" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="B441" s="11"/>
-      <c r="C441" s="12" t="s">
+      <c r="B442" s="10"/>
+      <c r="C442" s="11" t="s">
         <v>404</v>
       </c>
-      <c r="D441" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="442" spans="1:4">
-      <c r="A442" s="11" t="s">
+      <c r="D442" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A443" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="B442" s="11"/>
-      <c r="C442" s="12" t="s">
+      <c r="B443" s="10"/>
+      <c r="C443" s="11" t="s">
         <v>405</v>
       </c>
-      <c r="D442" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="443" spans="1:4">
-      <c r="A443" s="11" t="s">
+      <c r="D443" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A444" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="B443" s="11"/>
-      <c r="C443" s="12" t="s">
+      <c r="B444" s="10"/>
+      <c r="C444" s="11" t="s">
         <v>406</v>
       </c>
-      <c r="D443" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="444" spans="1:4">
-      <c r="A444" s="11" t="s">
+      <c r="D444" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A445" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="B444" s="11"/>
-      <c r="C444" s="12" t="s">
+      <c r="B445" s="10"/>
+      <c r="C445" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="D444" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="445" spans="1:4">
-      <c r="A445" s="11" t="s">
+      <c r="D445" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A446" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="B445" s="11"/>
-      <c r="C445" s="12" t="s">
+      <c r="B446" s="10"/>
+      <c r="C446" s="11" t="s">
         <v>408</v>
       </c>
-      <c r="D445" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="446" spans="1:4">
-      <c r="A446" s="11" t="s">
+      <c r="D446" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A447" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="B446" s="11"/>
-      <c r="C446" s="12" t="s">
+      <c r="B447" s="10"/>
+      <c r="C447" s="11" t="s">
         <v>409</v>
       </c>
-      <c r="D446" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="447" spans="1:4">
-      <c r="A447" s="11" t="s">
+      <c r="D447" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A448" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="B447" s="11"/>
-      <c r="C447" s="12" t="s">
+      <c r="B448" s="10"/>
+      <c r="C448" s="11" t="s">
         <v>410</v>
       </c>
-      <c r="D447" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="448" spans="1:4">
-      <c r="A448" s="11" t="s">
+      <c r="D448" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A449" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="B448" s="11"/>
-      <c r="C448" s="12" t="s">
+      <c r="B449" s="10"/>
+      <c r="C449" s="11" t="s">
         <v>411</v>
       </c>
-      <c r="D448" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="449" spans="1:4">
-      <c r="A449" s="11" t="s">
+      <c r="D449" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A450" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="B449" s="11"/>
-      <c r="C449" s="12" t="s">
+      <c r="B450" s="10"/>
+      <c r="C450" s="11" t="s">
         <v>412</v>
       </c>
-      <c r="D449" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="450" spans="1:4">
-      <c r="A450" s="11" t="s">
+      <c r="D450" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A451" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="B450" s="11"/>
-      <c r="C450" s="12" t="s">
+      <c r="B451" s="10"/>
+      <c r="C451" s="11" t="s">
         <v>413</v>
       </c>
-      <c r="D450" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="451" spans="1:4">
-      <c r="A451" s="11" t="s">
+      <c r="D451" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A452" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="B451" s="11"/>
-      <c r="C451" s="12" t="s">
+      <c r="B452" s="10"/>
+      <c r="C452" s="11" t="s">
         <v>414</v>
       </c>
-      <c r="D451" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="452" spans="1:4">
-      <c r="A452" s="11" t="s">
+      <c r="D452" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A453" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="B452" s="11"/>
-      <c r="C452" s="12" t="s">
+      <c r="B453" s="10"/>
+      <c r="C453" s="11" t="s">
         <v>415</v>
       </c>
-      <c r="D452" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="453" spans="1:4">
-      <c r="A453" s="11" t="s">
+      <c r="D453" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A454" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="B453" s="11"/>
-      <c r="C453" s="12" t="s">
+      <c r="B454" s="10"/>
+      <c r="C454" s="11" t="s">
         <v>416</v>
       </c>
-      <c r="D453" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="454" spans="1:4">
-      <c r="A454" s="11" t="s">
+      <c r="D454" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A455" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="B454" s="11"/>
-      <c r="C454" s="12" t="s">
+      <c r="B455" s="10"/>
+      <c r="C455" s="11" t="s">
         <v>417</v>
       </c>
-      <c r="D454" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="455" spans="1:4">
-      <c r="A455" s="11" t="s">
+      <c r="D455" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A456" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="B455" s="11"/>
-      <c r="C455" s="12" t="s">
+      <c r="B456" s="10"/>
+      <c r="C456" s="11" t="s">
         <v>418</v>
       </c>
-      <c r="D455" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="456" spans="1:4">
-      <c r="A456" s="11" t="s">
+      <c r="D456" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A457" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="B456" s="11"/>
-      <c r="C456" s="12" t="s">
+      <c r="B457" s="10"/>
+      <c r="C457" s="11" t="s">
         <v>419</v>
       </c>
-      <c r="D456" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="457" spans="1:4">
-      <c r="A457" s="11" t="s">
+      <c r="D457" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A458" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="B457" s="11"/>
-      <c r="C457" s="12" t="s">
+      <c r="B458" s="10"/>
+      <c r="C458" s="11" t="s">
         <v>420</v>
       </c>
-      <c r="D457" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="458" spans="1:4">
-      <c r="A458" s="11" t="s">
+      <c r="D458" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A459" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="B458" s="11"/>
-      <c r="C458" s="12" t="s">
+      <c r="B459" s="10"/>
+      <c r="C459" s="11" t="s">
         <v>421</v>
       </c>
-      <c r="D458" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="459" spans="1:4">
-      <c r="A459" s="11" t="s">
+      <c r="D459" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A460" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="B459" s="11"/>
-      <c r="C459" s="12" t="s">
+      <c r="B460" s="10"/>
+      <c r="C460" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="D459" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="460" spans="1:4">
-      <c r="A460" s="11" t="s">
+      <c r="D460" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A461" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="B460" s="11"/>
-      <c r="C460" s="12" t="s">
+      <c r="B461" s="10"/>
+      <c r="C461" s="11" t="s">
         <v>423</v>
       </c>
-      <c r="D460" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="461" spans="1:4">
-      <c r="A461" s="11" t="s">
+      <c r="D461" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A462" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="B461" s="11"/>
-      <c r="C461" s="12" t="s">
+      <c r="B462" s="10"/>
+      <c r="C462" s="11" t="s">
         <v>424</v>
       </c>
-      <c r="D461" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="462" spans="1:4">
-      <c r="A462" s="11" t="s">
+      <c r="D462" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A463" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="B462" s="11"/>
-      <c r="C462" s="12" t="s">
+      <c r="B463" s="10"/>
+      <c r="C463" s="11" t="s">
         <v>425</v>
       </c>
-      <c r="D462" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="463" spans="1:4">
-      <c r="A463" s="11" t="s">
+      <c r="D463" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A464" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="B463" s="11"/>
-      <c r="C463" s="12" t="s">
+      <c r="B464" s="10"/>
+      <c r="C464" s="11" t="s">
         <v>426</v>
       </c>
-      <c r="D463" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="464" spans="1:4">
-      <c r="A464" s="11" t="s">
+      <c r="D464" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A465" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="B464" s="11"/>
-      <c r="C464" s="12" t="s">
+      <c r="B465" s="10"/>
+      <c r="C465" s="11" t="s">
         <v>427</v>
       </c>
-      <c r="D464" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="465" spans="1:4">
-      <c r="A465" s="11" t="s">
+      <c r="D465" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A466" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="B465" s="11"/>
-      <c r="C465" s="12" t="s">
+      <c r="B466" s="10"/>
+      <c r="C466" s="11" t="s">
         <v>428</v>
       </c>
-      <c r="D465" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="466" spans="1:4">
-      <c r="A466" s="11" t="s">
+      <c r="D466" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A467" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="B466" s="11"/>
-      <c r="C466" s="12" t="s">
+      <c r="B467" s="10"/>
+      <c r="C467" s="11" t="s">
         <v>429</v>
       </c>
-      <c r="D466" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="467" spans="1:4">
-      <c r="A467" s="11" t="s">
+      <c r="D467" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A468" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="B467" s="11"/>
-      <c r="C467" s="12" t="s">
+      <c r="B468" s="10"/>
+      <c r="C468" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="D467" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="468" spans="1:4">
-      <c r="A468" s="11" t="s">
+      <c r="D468" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A469" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="B468" s="11"/>
-      <c r="C468" s="12" t="s">
+      <c r="B469" s="10"/>
+      <c r="C469" s="11" t="s">
         <v>431</v>
       </c>
-      <c r="D468" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="469" spans="1:4">
-      <c r="A469" s="11" t="s">
+      <c r="D469" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A470" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="B469" s="11"/>
-      <c r="C469" s="12" t="s">
+      <c r="B470" s="10"/>
+      <c r="C470" s="11" t="s">
         <v>432</v>
       </c>
-      <c r="D469" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="470" spans="1:4">
-      <c r="A470" s="11" t="s">
+      <c r="D470" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A471" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="B470" s="11"/>
-      <c r="C470" s="12" t="s">
+      <c r="B471" s="10"/>
+      <c r="C471" s="11" t="s">
         <v>433</v>
       </c>
-      <c r="D470" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="471" spans="1:4">
-      <c r="A471" s="11" t="s">
+      <c r="D471" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A472" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="B471" s="11"/>
-      <c r="C471" s="12" t="s">
+      <c r="B472" s="10"/>
+      <c r="C472" s="11" t="s">
         <v>434</v>
       </c>
-      <c r="D471" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="472" spans="1:4">
-      <c r="A472" s="11" t="s">
+      <c r="D472" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A473" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="B472" s="11"/>
-      <c r="C472" s="12" t="s">
+      <c r="B473" s="10"/>
+      <c r="C473" s="11" t="s">
         <v>435</v>
       </c>
-      <c r="D472" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="473" spans="1:4">
-      <c r="A473" s="11" t="s">
+      <c r="D473" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A474" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="B473" s="11"/>
-      <c r="C473" s="12" t="s">
+      <c r="B474" s="10"/>
+      <c r="C474" s="11" t="s">
         <v>436</v>
       </c>
-      <c r="D473" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="474" spans="1:4">
-      <c r="A474" s="11" t="s">
+      <c r="D474" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A475" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="B474" s="11"/>
-      <c r="C474" s="12" t="s">
+      <c r="B475" s="10"/>
+      <c r="C475" s="11" t="s">
         <v>437</v>
       </c>
-      <c r="D474" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="475" spans="1:4">
-      <c r="A475" s="11" t="s">
+      <c r="D475" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A476" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="B475" s="11"/>
-      <c r="C475" s="12" t="s">
+      <c r="B476" s="10"/>
+      <c r="C476" s="11" t="s">
         <v>438</v>
       </c>
-      <c r="D475" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="476" spans="1:4">
-      <c r="A476" s="11" t="s">
+      <c r="D476" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A477" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="B476" s="11"/>
-      <c r="C476" s="12" t="s">
+      <c r="B477" s="10"/>
+      <c r="C477" s="11" t="s">
         <v>439</v>
       </c>
-      <c r="D476" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="477" spans="1:4">
-      <c r="A477" s="11" t="s">
+      <c r="D477" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A478" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="B477" s="11"/>
-      <c r="C477" s="12" t="s">
+      <c r="B478" s="10"/>
+      <c r="C478" s="11" t="s">
         <v>440</v>
       </c>
-      <c r="D477" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="478" spans="1:4">
-      <c r="A478" s="11" t="s">
+      <c r="D478" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A479" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="B478" s="11"/>
-      <c r="C478" s="12" t="s">
+      <c r="B479" s="10"/>
+      <c r="C479" s="11" t="s">
         <v>441</v>
       </c>
-      <c r="D478" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="479" spans="1:4">
-      <c r="A479" s="11" t="s">
+      <c r="D479" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A480" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="B479" s="11"/>
-      <c r="C479" s="12" t="s">
+      <c r="B480" s="10"/>
+      <c r="C480" s="11" t="s">
         <v>442</v>
       </c>
-      <c r="D479" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="480" spans="1:4">
-      <c r="A480" s="11" t="s">
+      <c r="D480" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A481" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="B480" s="11"/>
-      <c r="C480" s="12" t="s">
+      <c r="B481" s="10"/>
+      <c r="C481" s="11" t="s">
         <v>443</v>
       </c>
-      <c r="D480" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="481" spans="1:4">
-      <c r="A481" s="11" t="s">
+      <c r="D481" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A482" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="B481" s="11"/>
-      <c r="C481" s="12" t="s">
+      <c r="B482" s="10"/>
+      <c r="C482" s="11" t="s">
         <v>444</v>
       </c>
-      <c r="D481" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="482" spans="1:4">
-      <c r="A482" s="11" t="s">
+      <c r="D482" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A483" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="B482" s="11"/>
-      <c r="C482" s="12" t="s">
+      <c r="B483" s="10"/>
+      <c r="C483" s="11" t="s">
         <v>445</v>
       </c>
-      <c r="D482" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="483" spans="1:4">
-      <c r="A483" s="11" t="s">
+      <c r="D483" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A484" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="B483" s="11"/>
-      <c r="C483" s="12" t="s">
+      <c r="B484" s="10"/>
+      <c r="C484" s="11" t="s">
         <v>446</v>
       </c>
-      <c r="D483" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="484" spans="1:4">
-      <c r="A484" s="11" t="s">
+      <c r="D484" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A485" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="B484" s="11"/>
-      <c r="C484" s="12" t="s">
+      <c r="B485" s="10"/>
+      <c r="C485" s="11" t="s">
         <v>447</v>
       </c>
-      <c r="D484" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="485" spans="1:4">
-      <c r="A485" s="11" t="s">
+      <c r="D485" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A486" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="B485" s="11"/>
-      <c r="C485" s="12" t="s">
+      <c r="B486" s="10"/>
+      <c r="C486" s="11" t="s">
         <v>448</v>
       </c>
-      <c r="D485" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="486" spans="1:4">
-      <c r="A486" s="11" t="s">
+      <c r="D486" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A487" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="B486" s="11"/>
-      <c r="C486" s="12" t="s">
+      <c r="B487" s="10"/>
+      <c r="C487" s="11" t="s">
         <v>449</v>
       </c>
-      <c r="D486" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="487" spans="1:4">
-      <c r="A487" s="11" t="s">
+      <c r="D487" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A488" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="B487" s="11"/>
-      <c r="C487" s="12" t="s">
+      <c r="B488" s="10"/>
+      <c r="C488" s="11" t="s">
         <v>450</v>
       </c>
-      <c r="D487" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="488" spans="1:4">
-      <c r="A488" s="11" t="s">
+      <c r="D488" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A489" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="B488" s="11"/>
-      <c r="C488" s="12" t="s">
+      <c r="B489" s="10"/>
+      <c r="C489" s="11" t="s">
         <v>451</v>
       </c>
-      <c r="D488" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="489" spans="1:4">
-      <c r="D489" s="8"/>
-    </row>
-    <row r="490" spans="1:4">
-      <c r="A490" s="8"/>
-      <c r="B490" s="8"/>
+      <c r="D489" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D490" s="8"/>
     </row>
-    <row r="491" spans="1:4">
-      <c r="A491" s="11" t="s">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A491" s="8"/>
+      <c r="B491" s="8"/>
+      <c r="D491" s="8"/>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A492" s="10" t="s">
         <v>452</v>
       </c>
-      <c r="B491" s="11"/>
-      <c r="C491" s="12" t="s">
+      <c r="B492" s="10"/>
+      <c r="C492" s="11" t="s">
         <v>453</v>
       </c>
-      <c r="D491" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="492" spans="1:4">
-      <c r="A492" s="11" t="s">
+      <c r="D492" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A493" s="10" t="s">
         <v>452</v>
       </c>
-      <c r="B492" s="11"/>
-      <c r="C492" s="12" t="s">
+      <c r="B493" s="10"/>
+      <c r="C493" s="11" t="s">
         <v>454</v>
       </c>
-      <c r="D492" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="493" spans="1:4">
-      <c r="A493" s="11" t="s">
+      <c r="D493" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A494" s="10" t="s">
         <v>452</v>
       </c>
-      <c r="B493" s="11"/>
-      <c r="C493" s="12" t="s">
+      <c r="B494" s="10"/>
+      <c r="C494" s="11" t="s">
         <v>455</v>
       </c>
-      <c r="D493" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="494" spans="1:4">
-      <c r="A494" s="11" t="s">
+      <c r="D494" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A495" s="10" t="s">
         <v>452</v>
       </c>
-      <c r="B494" s="11"/>
-      <c r="C494" s="12" t="s">
+      <c r="B495" s="10"/>
+      <c r="C495" s="11" t="s">
         <v>456</v>
       </c>
-      <c r="D494" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="495" spans="1:4">
-      <c r="A495" s="11" t="s">
+      <c r="D495" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A496" s="10" t="s">
         <v>452</v>
       </c>
-      <c r="B495" s="11"/>
-      <c r="C495" s="12" t="s">
+      <c r="B496" s="10"/>
+      <c r="C496" s="11" t="s">
         <v>457</v>
       </c>
-      <c r="D495" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="496" spans="1:4">
-      <c r="A496" s="11" t="s">
+      <c r="D496" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A497" s="10" t="s">
         <v>452</v>
       </c>
-      <c r="B496" s="11"/>
-      <c r="C496" s="12" t="s">
+      <c r="B497" s="10"/>
+      <c r="C497" s="11" t="s">
         <v>458</v>
       </c>
-      <c r="D496" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="497" spans="1:4">
-      <c r="A497" s="11" t="s">
+      <c r="D497" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A498" s="10" t="s">
         <v>452</v>
       </c>
-      <c r="B497" s="11"/>
-      <c r="C497" s="12" t="s">
+      <c r="B498" s="10"/>
+      <c r="C498" s="11" t="s">
         <v>459</v>
       </c>
-      <c r="D497" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="498" spans="1:4">
-      <c r="A498" s="11" t="s">
+      <c r="D498" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A499" s="10" t="s">
         <v>452</v>
       </c>
-      <c r="B498" s="11"/>
-      <c r="C498" s="12" t="s">
+      <c r="B499" s="10"/>
+      <c r="C499" s="11" t="s">
         <v>460</v>
       </c>
-      <c r="D498" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="499" spans="1:4">
-      <c r="A499" s="11" t="s">
+      <c r="D499" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A500" s="10" t="s">
         <v>452</v>
       </c>
-      <c r="B499" s="11"/>
-      <c r="C499" s="12" t="s">
+      <c r="B500" s="10"/>
+      <c r="C500" s="11" t="s">
         <v>461</v>
       </c>
-      <c r="D499" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="500" spans="1:4">
-      <c r="A500" s="11" t="s">
+      <c r="D500" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A501" s="10" t="s">
         <v>452</v>
       </c>
-      <c r="B500" s="11"/>
-      <c r="C500" s="12" t="s">
+      <c r="B501" s="10"/>
+      <c r="C501" s="11" t="s">
         <v>462</v>
       </c>
-      <c r="D500" s="8" t="s">
+      <c r="D501" s="8" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C23" r:id="rId1" xr:uid="{9492A4AD-FA44-BA4B-B154-E4DBB1951162}"/>
-    <hyperlink ref="C24" r:id="rId2" xr:uid="{2D6F1134-3C08-7445-B19A-9B94A18B55C7}"/>
-    <hyperlink ref="C27" r:id="rId3" xr:uid="{E5A98931-37E8-6B4A-90BE-8DC72405341A}"/>
-    <hyperlink ref="C28" r:id="rId4" xr:uid="{02736918-E09F-7A46-90B3-AFCC33AA559B}"/>
-    <hyperlink ref="C29" r:id="rId5" xr:uid="{6E8DD30A-A9F9-4C44-B26C-C9E236F10798}"/>
-    <hyperlink ref="C30" r:id="rId6" xr:uid="{0D55765B-95A7-154F-96F3-B7E4C581021F}"/>
-    <hyperlink ref="C31" r:id="rId7" xr:uid="{6F687ABA-C04B-AF4F-9F11-A038DCB20FB9}"/>
-    <hyperlink ref="C32" r:id="rId8" xr:uid="{11C9D8CC-9F1E-004E-8EC2-C758DC9C8CAB}"/>
-    <hyperlink ref="C33" r:id="rId9" xr:uid="{56E4962F-CB3D-9E48-A26E-19A1F5C800C9}"/>
-    <hyperlink ref="C34" r:id="rId10" xr:uid="{899DDBD9-9ED6-3A4D-8AFE-8FAA6DA88DBC}"/>
-    <hyperlink ref="C35" r:id="rId11" xr:uid="{76D41EAC-A28A-2845-8515-CA3C70D823B7}"/>
-    <hyperlink ref="C36" r:id="rId12" xr:uid="{828948BE-DD97-DE4A-BAD6-B415E29198F0}"/>
-    <hyperlink ref="C37" r:id="rId13" xr:uid="{E98C86AA-12E7-124C-B7D0-BCDFB246040B}"/>
-    <hyperlink ref="C38" r:id="rId14" xr:uid="{192741A9-FF68-DC4A-99FA-69F9968AB4F2}"/>
-    <hyperlink ref="C39" r:id="rId15" xr:uid="{DBD9BA9C-91C6-B144-A800-DCB3BED33DE7}"/>
-    <hyperlink ref="C40" r:id="rId16" xr:uid="{A285BDE8-00E7-A94C-8E43-A0C4829D42FA}"/>
-    <hyperlink ref="C41" r:id="rId17" xr:uid="{B0C21764-2962-1649-8AFA-10FB9420C5FC}"/>
-    <hyperlink ref="C42" r:id="rId18" xr:uid="{9282CC15-9B38-E54B-B64C-557745C9C00A}"/>
-    <hyperlink ref="C43" r:id="rId19" xr:uid="{3BCCEBE2-AC3B-AC4F-8BA9-439ACEA133D4}"/>
-    <hyperlink ref="C44" r:id="rId20" xr:uid="{74F8D761-6EBF-594A-A6C7-40DE4CE96958}"/>
-    <hyperlink ref="C45" r:id="rId21" xr:uid="{79947FE6-D417-D644-81D8-D058180550A0}"/>
-    <hyperlink ref="C46" r:id="rId22" xr:uid="{2BF3F606-410B-264D-BF60-191C34D616BB}"/>
-    <hyperlink ref="C47" r:id="rId23" xr:uid="{CD98DB26-0F2F-FD40-A989-53FE548D7D34}"/>
-    <hyperlink ref="C48" r:id="rId24" xr:uid="{307032A1-F8EF-1A48-BFE3-EA3283D39BE2}"/>
-    <hyperlink ref="C49" r:id="rId25" xr:uid="{AA329F36-941A-9241-9402-9D220B05E719}"/>
-    <hyperlink ref="C50" r:id="rId26" xr:uid="{9E851DAC-0E30-B340-84F9-721D70B66919}"/>
-    <hyperlink ref="C51" r:id="rId27" xr:uid="{468380BA-4978-A645-ABD0-E74FD3E6BDBB}"/>
-    <hyperlink ref="C52" r:id="rId28" xr:uid="{289E6890-8CCB-D645-9B3F-6138FFC1C249}"/>
-    <hyperlink ref="C53" r:id="rId29" xr:uid="{8EABDC68-858F-784A-A8F1-C603E3B8C1FE}"/>
-    <hyperlink ref="C54" r:id="rId30" xr:uid="{6157E427-1210-3F45-A4DC-6DFD2373B9CF}"/>
-    <hyperlink ref="C55" r:id="rId31" xr:uid="{2D7BA55E-9947-FF4D-BC09-FB4A5ADA07EC}"/>
-    <hyperlink ref="C56" r:id="rId32" xr:uid="{3337C74F-8B73-E64E-A6DA-5D9F7C7B4D32}"/>
-    <hyperlink ref="C57" r:id="rId33" xr:uid="{02370124-E58D-B540-BBCF-98266229556D}"/>
-    <hyperlink ref="C58" r:id="rId34" xr:uid="{F2DE2162-BD02-7549-AC1A-27455F78131F}"/>
-    <hyperlink ref="C59" r:id="rId35" xr:uid="{6FA286B9-3994-624D-B0B8-C01657D110AD}"/>
-    <hyperlink ref="C60" r:id="rId36" xr:uid="{6EFBEDA1-5C10-2547-8FB2-44E977513B28}"/>
-    <hyperlink ref="C63" r:id="rId37" xr:uid="{090EC515-BEBE-514E-BA59-A84E450B4211}"/>
-    <hyperlink ref="C64" r:id="rId38" xr:uid="{0A0557FD-77E5-564B-B100-147D544A38B4}"/>
-    <hyperlink ref="C65" r:id="rId39" xr:uid="{3F82F2E0-AA59-5042-B079-F3B3C6FF2FD7}"/>
-    <hyperlink ref="C66" r:id="rId40" xr:uid="{FFF7D257-1F58-5A4B-AAA2-F5480AED86C7}"/>
-    <hyperlink ref="C67" r:id="rId41" xr:uid="{353E28FA-E36D-7447-9DE8-787DF11C4669}"/>
-    <hyperlink ref="C68" r:id="rId42" xr:uid="{F9B53127-FC98-FE43-B53F-BFDBCE2A4427}"/>
-    <hyperlink ref="C69" r:id="rId43" xr:uid="{40685BBC-CE24-624E-9ABB-98490B7DE0E4}"/>
-    <hyperlink ref="C70" r:id="rId44" xr:uid="{7733D505-2EC7-E346-B3DA-C980C7CE0B27}"/>
-    <hyperlink ref="C71" r:id="rId45" xr:uid="{E8C1FE00-7B4B-5745-8E4B-CD44B6C749E3}"/>
-    <hyperlink ref="C72" r:id="rId46" xr:uid="{FDE181B1-57B0-7C4B-A189-C7C6E4EAEF99}"/>
-    <hyperlink ref="C75" r:id="rId47" xr:uid="{FE85FD72-4FC9-334E-8205-9E8B238954EB}"/>
-    <hyperlink ref="C76" r:id="rId48" xr:uid="{7630AD76-7E6B-8C4A-BA33-A62EBB042215}"/>
-    <hyperlink ref="C77" r:id="rId49" xr:uid="{2A738B70-CBF0-CC40-8B05-A271822B3F1A}"/>
-    <hyperlink ref="C79" r:id="rId50" xr:uid="{B2DE2D9E-8371-CD44-9D0D-4D6DC64AC29B}"/>
-    <hyperlink ref="C80" r:id="rId51" xr:uid="{265DCD11-17A0-654E-BEFE-FABA31210C6E}"/>
-    <hyperlink ref="C81" r:id="rId52" xr:uid="{47F1BB0C-0C5C-0845-8EEC-1560C50D7DA7}"/>
-    <hyperlink ref="C82" r:id="rId53" xr:uid="{8E0BFA2E-CCB4-514F-86CD-78176C6CC98A}"/>
-    <hyperlink ref="C83" r:id="rId54" xr:uid="{E4DEFB4B-749F-8746-97C7-F2B433664A74}"/>
-    <hyperlink ref="C84" r:id="rId55" xr:uid="{8301BDBD-EB7E-7D41-A777-ED99C3F9D67D}"/>
-    <hyperlink ref="C85" r:id="rId56" xr:uid="{927AE532-647F-AF4C-A567-40ADA6FCE534}"/>
-    <hyperlink ref="C86" r:id="rId57" xr:uid="{05489F52-CC92-EC44-9AD3-773DEC3B1D36}"/>
-    <hyperlink ref="C87" r:id="rId58" xr:uid="{13025DF6-C30E-014A-B66C-68C4AAAC1C6E}"/>
-    <hyperlink ref="C88" r:id="rId59" xr:uid="{BEE1F613-C189-B949-A225-0E0C5AFD1532}"/>
-    <hyperlink ref="C89" r:id="rId60" xr:uid="{1DFECD6C-D7CC-0340-B29B-4D56E50711E5}"/>
-    <hyperlink ref="C90" r:id="rId61" xr:uid="{70BED156-B004-E043-BF7D-59EFAA9EADAF}"/>
-    <hyperlink ref="C91" r:id="rId62" xr:uid="{FF9CBAFB-900E-E242-8B33-EDF46F0F40B5}"/>
-    <hyperlink ref="C92" r:id="rId63" xr:uid="{19461114-B3E8-9042-8029-100010946A04}"/>
-    <hyperlink ref="C93" r:id="rId64" xr:uid="{00F71118-E30B-A84E-819E-FFA902C70502}"/>
-    <hyperlink ref="C94" r:id="rId65" xr:uid="{58E70966-BBE0-7743-A250-AE4DD57807DE}"/>
-    <hyperlink ref="C95" r:id="rId66" xr:uid="{09409FE3-9D7E-4F43-BB21-14A1B8D6E480}"/>
-    <hyperlink ref="C96" r:id="rId67" xr:uid="{E199A3DC-3DA1-C648-93C0-DF9CD5331204}"/>
-    <hyperlink ref="C97" r:id="rId68" xr:uid="{85886847-1510-AA46-B10C-F3D80591DD74}"/>
-    <hyperlink ref="C98" r:id="rId69" xr:uid="{F60808FC-F09D-FC44-B2DD-752E55A1C698}"/>
-    <hyperlink ref="C99" r:id="rId70" xr:uid="{16B2725E-1AD5-0441-9B5B-B6B2F458091B}"/>
-    <hyperlink ref="C100" r:id="rId71" xr:uid="{8440D753-5DE9-3243-97C2-C09D195C325F}"/>
-    <hyperlink ref="C101" r:id="rId72" xr:uid="{AC63A963-B6CC-6E4E-B72A-7F472BC4C027}"/>
-    <hyperlink ref="C102" r:id="rId73" xr:uid="{B21B87F1-A0C0-7F4E-B36F-912B871D0EF4}"/>
-    <hyperlink ref="C103" r:id="rId74" xr:uid="{789FFFAC-8B7E-0540-98B8-856430EB56F8}"/>
-    <hyperlink ref="C104" r:id="rId75" xr:uid="{4A0E959E-22F4-6948-A819-76FE76AB9F6D}"/>
-    <hyperlink ref="C105" r:id="rId76" xr:uid="{78B76678-D8EE-9745-98B1-DF7A76EA3B10}"/>
-    <hyperlink ref="C106" r:id="rId77" xr:uid="{62982242-1D19-1544-8653-8E25E9BF4505}"/>
-    <hyperlink ref="C107" r:id="rId78" xr:uid="{8E3D4BDF-9F8F-0542-BFD8-C3CE3BF396E6}"/>
-    <hyperlink ref="C108" r:id="rId79" xr:uid="{A3D51762-65A1-9A44-B619-D1D98A7F403B}"/>
-    <hyperlink ref="C109" r:id="rId80" xr:uid="{ED0F5FC7-0066-EB44-8FCF-460600DADB02}"/>
-    <hyperlink ref="C110" r:id="rId81" xr:uid="{2D956AC4-4774-7446-8473-C4CE00E33C17}"/>
-    <hyperlink ref="C111" r:id="rId82" xr:uid="{C8C607BB-1FEE-FA47-9E3E-6C0BCE978B7F}"/>
-    <hyperlink ref="C112" r:id="rId83" xr:uid="{B9AC5194-6D36-684A-A5C4-BEE11037599F}"/>
-    <hyperlink ref="C113" r:id="rId84" xr:uid="{AB28D9E6-890C-F14A-A5FB-2303BE319968}"/>
-    <hyperlink ref="C114" r:id="rId85" xr:uid="{1F507CBC-4056-AD46-9314-95ECBB9D799D}"/>
-    <hyperlink ref="C115" r:id="rId86" xr:uid="{F152A9AF-5CBA-EC44-A9CF-07AB481435AB}"/>
-    <hyperlink ref="C116" r:id="rId87" xr:uid="{346CA74F-60B7-0A4B-A612-9184D4DCFF62}"/>
-    <hyperlink ref="C117" r:id="rId88" xr:uid="{8C653CB1-4954-754F-8D46-F09141A2FCDB}"/>
-    <hyperlink ref="C120" r:id="rId89" xr:uid="{5989F693-2A61-A346-8395-8674307A4CC2}"/>
-    <hyperlink ref="C121" r:id="rId90" xr:uid="{3AD10C9E-4F6D-DE48-92F3-531A586520C6}"/>
-    <hyperlink ref="C122" r:id="rId91" xr:uid="{4FA217C0-A1F3-904E-8FEA-EA4941273A67}"/>
-    <hyperlink ref="C123" r:id="rId92" xr:uid="{A297BBC0-FA0D-2D46-9C49-3932193EF1D3}"/>
-    <hyperlink ref="C125" r:id="rId93" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance." xr:uid="{DCD751DE-E440-F346-B6FD-CBD072217214}"/>
-    <hyperlink ref="C126" r:id="rId94" xr:uid="{B2FD38B9-1E2B-8140-8291-F45734C98145}"/>
-    <hyperlink ref="C127" r:id="rId95" xr:uid="{C76888B3-18AC-9B48-9E2A-64A7DF0902B7}"/>
-    <hyperlink ref="C128" r:id="rId96" xr:uid="{18A79860-6C9E-A941-8D6C-360B9913E941}"/>
-    <hyperlink ref="C129" r:id="rId97" xr:uid="{C0DDFD68-CBC1-0F4A-AF40-ACF36BBC8453}"/>
-    <hyperlink ref="C130" r:id="rId98" xr:uid="{3E0BF737-E42E-C946-B32C-06882E0BA6FF}"/>
-    <hyperlink ref="C132" r:id="rId99" xr:uid="{862F9782-C57B-2848-A2D9-EB7B52FB7EC7}"/>
-    <hyperlink ref="C133" r:id="rId100" xr:uid="{230D7A6A-D2C5-C140-9A65-B1F407D22062}"/>
-    <hyperlink ref="C134" r:id="rId101" xr:uid="{BDC2BA28-4562-984E-8282-1126BF952EAF}"/>
-    <hyperlink ref="C135" r:id="rId102" xr:uid="{B53A5F28-6DED-3D47-8679-F78D3DDEFF01}"/>
-    <hyperlink ref="C136" r:id="rId103" xr:uid="{C57D0CC7-DA2F-0948-9BCE-F19C20C7D981}"/>
-    <hyperlink ref="C137" r:id="rId104" xr:uid="{117878E5-B8C8-254B-8ED6-014B4B7A8126}"/>
-    <hyperlink ref="C138" r:id="rId105" xr:uid="{B7CC0756-74F2-D54D-BDEE-9DA394DD7168}"/>
-    <hyperlink ref="C139" r:id="rId106" xr:uid="{837EF472-CCC2-CF47-A8A8-238E56F722CE}"/>
-    <hyperlink ref="C140" r:id="rId107" xr:uid="{3608F267-6AA0-624B-B243-7DDD317E9F08}"/>
-    <hyperlink ref="C141" r:id="rId108" xr:uid="{0B6123E6-0472-374B-ACA7-6914CD7918E8}"/>
-    <hyperlink ref="C142" r:id="rId109" xr:uid="{D3971CEB-C53E-B04B-9C32-1803182B5DC5}"/>
-    <hyperlink ref="C143" r:id="rId110" xr:uid="{7CF5013A-643E-1643-93A1-A2F1500D2A23}"/>
-    <hyperlink ref="C144" r:id="rId111" xr:uid="{2A6BE7E5-D818-6843-8C3E-99EA2BFE0FB2}"/>
-    <hyperlink ref="C145" r:id="rId112" xr:uid="{E718F544-96DF-A04E-8DFB-7639DA3EA57C}"/>
-    <hyperlink ref="C146" r:id="rId113" xr:uid="{B0C2F065-424A-7345-A864-346ECD98D749}"/>
-    <hyperlink ref="C147" r:id="rId114" xr:uid="{B4E26955-5C3F-804E-B19A-11260310AFB3}"/>
-    <hyperlink ref="C148" r:id="rId115" xr:uid="{6F299BB5-8E82-0240-A9A3-6829CE3ABCBF}"/>
-    <hyperlink ref="C149" r:id="rId116" xr:uid="{A42CA32F-2196-1840-A53D-E5073237C68D}"/>
-    <hyperlink ref="C150" r:id="rId117" xr:uid="{7ECF6EF4-962E-4642-9B1C-C3B70674793E}"/>
-    <hyperlink ref="C151" r:id="rId118" xr:uid="{2A109178-6B60-164E-9D25-42B3282137E3}"/>
-    <hyperlink ref="C152" r:id="rId119" xr:uid="{B3D38BD0-A6A1-8D41-8405-45E1BEEEEF06}"/>
-    <hyperlink ref="C153" r:id="rId120" xr:uid="{A1C26612-D040-2A41-A6A6-A8F2490C0A43}"/>
-    <hyperlink ref="C154" r:id="rId121" xr:uid="{C476E807-64CB-F44A-A23D-D21EBF6D001D}"/>
-    <hyperlink ref="C155" r:id="rId122" xr:uid="{9A414D55-D4A1-F147-9207-61B597D57136}"/>
-    <hyperlink ref="C124" r:id="rId123" xr:uid="{18B028A7-9B6F-D841-8548-924D70530779}"/>
-    <hyperlink ref="C131" r:id="rId124" xr:uid="{6D3E75EF-733F-7A4B-81C8-AEF6CB6335F0}"/>
-    <hyperlink ref="C158" r:id="rId125" xr:uid="{C9EB2682-BE0B-934B-B0B4-1DD1A1502647}"/>
-    <hyperlink ref="C159" r:id="rId126" xr:uid="{2992FED9-2B78-A342-92AA-E7C0F882FF17}"/>
-    <hyperlink ref="C160" r:id="rId127" xr:uid="{0084DA6F-EC84-BD48-BDA8-EBACA3BB3B3E}"/>
-    <hyperlink ref="C161" r:id="rId128" xr:uid="{30F2D415-4B2C-384C-8EAE-2CC71CB518E2}"/>
-    <hyperlink ref="C162" r:id="rId129" xr:uid="{40734C88-7C5B-9747-86D1-03463D9AD41A}"/>
-    <hyperlink ref="C163" r:id="rId130" xr:uid="{1040D22F-6729-104A-A229-CBDCED93024A}"/>
-    <hyperlink ref="C164" r:id="rId131" xr:uid="{E131FE61-FABF-8E4B-8EF0-F68379D8F836}"/>
-    <hyperlink ref="C165" r:id="rId132" xr:uid="{B2129272-1351-3745-883B-E6A7115450C8}"/>
-    <hyperlink ref="C166" r:id="rId133" xr:uid="{C8B2DEF0-2B69-C84E-8013-0B6F03FFC250}"/>
-    <hyperlink ref="C167" r:id="rId134" xr:uid="{536AC5CF-712F-BF48-94A9-D0E7DC013020}"/>
-    <hyperlink ref="C168" r:id="rId135" xr:uid="{2DABC9C7-43D4-1249-AF9B-5FA4552611CB}"/>
-    <hyperlink ref="C169" r:id="rId136" xr:uid="{DA62E73A-B495-F94A-BECE-D42E4CBF074A}"/>
-    <hyperlink ref="C170" r:id="rId137" xr:uid="{7F5E6966-850D-4F49-B2A5-678365713F28}"/>
-    <hyperlink ref="C171" r:id="rId138" xr:uid="{E9C4286D-8493-9A47-8B8C-09583FA72B70}"/>
-    <hyperlink ref="C172" r:id="rId139" xr:uid="{9EB0123C-84AE-1C4D-BA1A-C28CFB8EFB89}"/>
-    <hyperlink ref="C173" r:id="rId140" xr:uid="{9D11FED4-328F-674E-889D-EC781DD1D791}"/>
-    <hyperlink ref="C174" r:id="rId141" xr:uid="{48AE72DB-397B-464D-88AD-B8058ED29CC1}"/>
-    <hyperlink ref="C175" r:id="rId142" xr:uid="{152D50E9-7448-F542-AC66-05D0AE66664C}"/>
-    <hyperlink ref="C176" r:id="rId143" xr:uid="{34E6AF1B-5FB1-3A4B-8938-1DCF80831DC2}"/>
-    <hyperlink ref="C177" r:id="rId144" xr:uid="{E7F8B7CA-49F4-1946-91EE-E7582BE4E5DA}"/>
-    <hyperlink ref="C178" r:id="rId145" xr:uid="{3590A994-B7A2-C14D-9BF8-7AC8FE9E7F0F}"/>
-    <hyperlink ref="C179" r:id="rId146" xr:uid="{0AAA4B0C-4921-C34D-B41E-D702FA860892}"/>
-    <hyperlink ref="C180" r:id="rId147" xr:uid="{5973FCA4-AE32-5248-A6ED-2694367332F1}"/>
-    <hyperlink ref="C181" r:id="rId148" xr:uid="{4C0F816E-F043-0C47-BF16-1CDAD88D2FF1}"/>
-    <hyperlink ref="C182" r:id="rId149" xr:uid="{A8E4C654-D0BD-8945-9F5C-B09F7BC114BE}"/>
-    <hyperlink ref="C185" r:id="rId150" xr:uid="{E3825C15-10BB-E24F-B229-983F651DA942}"/>
-    <hyperlink ref="C186" r:id="rId151" xr:uid="{46ECFC31-388C-6241-8FFE-DED6F2FC794A}"/>
-    <hyperlink ref="C187" r:id="rId152" xr:uid="{589E024D-3FE1-1048-890C-88289733F233}"/>
-    <hyperlink ref="C188" r:id="rId153" xr:uid="{CDA28F7A-7FC5-F74D-B27E-A6E0161D41D5}"/>
-    <hyperlink ref="C189" r:id="rId154" xr:uid="{DA6A0D92-DCEB-DA4F-8BBA-10FCD092838F}"/>
-    <hyperlink ref="C190" r:id="rId155" xr:uid="{955769DB-3256-254B-90DE-E1E01B272F8A}"/>
-    <hyperlink ref="C191" r:id="rId156" xr:uid="{DED7AC9B-40D7-0545-9D6F-6CD4F5FFE4C6}"/>
-    <hyperlink ref="C192" r:id="rId157" xr:uid="{6947A4E1-B6AA-6D4F-A6D8-8FA74FD02887}"/>
-    <hyperlink ref="C193" r:id="rId158" xr:uid="{EABF2012-5A90-0C4E-86F6-FDB5FA7770BE}"/>
-    <hyperlink ref="C196" r:id="rId159" xr:uid="{7F44CFE0-9ED1-A44D-B9EF-CF87BEB644FC}"/>
-    <hyperlink ref="C197" r:id="rId160" xr:uid="{CF6E0CF6-7A93-D84A-9CE0-5BDD51767416}"/>
-    <hyperlink ref="C198" r:id="rId161" xr:uid="{EFF8F154-60B8-B84B-84CA-32756BD6430F}"/>
-    <hyperlink ref="C199" r:id="rId162" xr:uid="{C8A3094E-E11B-2543-B05E-1D07048B2EBA}"/>
-    <hyperlink ref="C200" r:id="rId163" xr:uid="{9961E5F5-B5C6-0C4D-A1D0-D04D2A5D7DFD}"/>
-    <hyperlink ref="C201" r:id="rId164" xr:uid="{44E289EC-47DD-D94D-88C1-CB2F59C6C16A}"/>
-    <hyperlink ref="C202" r:id="rId165" xr:uid="{4161FC70-DD6D-684B-898A-A4711596B2D5}"/>
-    <hyperlink ref="C203" r:id="rId166" xr:uid="{B9CBE387-8E9A-ED48-8310-CF7D34FA690C}"/>
-    <hyperlink ref="C204" r:id="rId167" xr:uid="{5398097B-24FF-9543-8F02-33CE2860F1F7}"/>
-    <hyperlink ref="C205" r:id="rId168" xr:uid="{3B1FC30B-30C8-7B48-AF94-A81FB513F24F}"/>
-    <hyperlink ref="C206" r:id="rId169" xr:uid="{32B750D0-D7F2-694D-AB9B-25AFAFAFF17F}"/>
-    <hyperlink ref="C207" r:id="rId170" xr:uid="{400689DD-8E95-024E-976B-AACD8ED4E1A6}"/>
-    <hyperlink ref="C208" r:id="rId171" xr:uid="{28753DDE-E047-5D40-A30B-1103BE6DA08F}"/>
-    <hyperlink ref="C209" r:id="rId172" xr:uid="{6C5AA6CB-3D93-0740-AEED-9E6C218CF6CB}"/>
-    <hyperlink ref="C210" r:id="rId173" xr:uid="{03EAA2B9-D8B8-D642-BF24-380596D26B2E}"/>
-    <hyperlink ref="C211" r:id="rId174" xr:uid="{8C1719B4-37CC-484E-BDCE-A4272C07F91B}"/>
-    <hyperlink ref="C212" r:id="rId175" xr:uid="{6C198DA2-BB98-F940-8EF6-2FC8B7AE577A}"/>
-    <hyperlink ref="C213" r:id="rId176" xr:uid="{AB0EA311-A446-D046-A0EC-290B42068328}"/>
-    <hyperlink ref="C214" r:id="rId177" xr:uid="{DB913045-B9F6-6549-AA09-22B0CC5FDD21}"/>
-    <hyperlink ref="C215" r:id="rId178" xr:uid="{806469FD-617A-7445-AAB5-FB2FD2ED24EA}"/>
-    <hyperlink ref="C216" r:id="rId179" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." xr:uid="{1A10544E-58CF-D04D-9FAF-2FEC6DB2B5D4}"/>
-    <hyperlink ref="C217" r:id="rId180" xr:uid="{5A0B6645-89FD-E044-A706-9FB890274C3C}"/>
-    <hyperlink ref="C218" r:id="rId181" xr:uid="{B42A3009-E8EB-EE44-885F-6699C17A0E0B}"/>
-    <hyperlink ref="C219" r:id="rId182" xr:uid="{ED3E48AB-E25B-3744-B024-E97B2A319B46}"/>
-    <hyperlink ref="C220" r:id="rId183" xr:uid="{C75D20A3-CBAE-2649-A3EE-E49177CFA343}"/>
-    <hyperlink ref="C221" r:id="rId184" xr:uid="{3863CA1B-D43E-1144-91A9-17C2DCF52A64}"/>
-    <hyperlink ref="C222" r:id="rId185" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." xr:uid="{E9AF434E-4CAA-5D49-8AD3-889CDE2913D9}"/>
-    <hyperlink ref="C223" r:id="rId186" xr:uid="{1A0568E5-3A11-7F47-8001-82B05D7C2339}"/>
-    <hyperlink ref="C224" r:id="rId187" xr:uid="{F62B8AE4-9C4F-9544-8861-CD733C12F79E}"/>
-    <hyperlink ref="C225" r:id="rId188" xr:uid="{0F6A542C-44C9-5A4C-90BF-BC8C239877D2}"/>
-    <hyperlink ref="C226" r:id="rId189" xr:uid="{3ED28203-B1B5-4E46-AAF3-779EDD4AC03F}"/>
-    <hyperlink ref="C227" r:id="rId190" xr:uid="{4338B305-B52F-5540-9B51-B938FC6803A2}"/>
-    <hyperlink ref="C228" r:id="rId191" xr:uid="{DDEEED0F-A939-1E4F-B2FA-AD391A4A2874}"/>
-    <hyperlink ref="C229" r:id="rId192" xr:uid="{C2F20589-AD81-654C-94E5-E5B6C9FE27F6}"/>
-    <hyperlink ref="C230" r:id="rId193" xr:uid="{BBEB9DAC-E4AE-C04F-AA15-6356AFC57FDE}"/>
-    <hyperlink ref="C233" r:id="rId194" xr:uid="{6316566D-A10A-F849-9F25-B9ED4DA12BC7}"/>
-    <hyperlink ref="C234" r:id="rId195" xr:uid="{9D4DD895-FBA6-C849-A5BF-3B30755BD9C9}"/>
-    <hyperlink ref="C235" r:id="rId196" xr:uid="{475996DA-632A-BE49-AEA1-D4189FD614A1}"/>
-    <hyperlink ref="C236" r:id="rId197" xr:uid="{88E0C858-8468-884F-BB71-F6F176BD5FC2}"/>
-    <hyperlink ref="C237" r:id="rId198" xr:uid="{C1C5C8D0-7A06-3D4A-A85A-AAACC1B418C9}"/>
-    <hyperlink ref="C238" r:id="rId199" xr:uid="{D525D4B1-2857-1543-8CD9-196728321203}"/>
-    <hyperlink ref="C239" r:id="rId200" xr:uid="{51E3AB9B-04B2-C041-A2B3-37E3EB18013A}"/>
-    <hyperlink ref="C240" r:id="rId201" xr:uid="{7F7F0C9A-57B9-314F-959A-B8ACAFA5FD13}"/>
-    <hyperlink ref="C241" r:id="rId202" xr:uid="{3B029785-83B4-6140-8B70-CD892CFC87F6}"/>
-    <hyperlink ref="C242" r:id="rId203" xr:uid="{B0A390E6-D860-9F4E-B021-68949FE712F3}"/>
-    <hyperlink ref="C243" r:id="rId204" xr:uid="{49E9953D-52F6-BF47-8AAA-8E456F55576B}"/>
-    <hyperlink ref="C244" r:id="rId205" xr:uid="{9B812470-F419-A54E-8365-06A9B8864A30}"/>
-    <hyperlink ref="C245" r:id="rId206" xr:uid="{B6FB4107-1933-6D45-9EF4-4474E06CBE9D}"/>
-    <hyperlink ref="C246" r:id="rId207" xr:uid="{0F7C1D92-7BCB-D14D-A658-9599984E04E4}"/>
-    <hyperlink ref="C247" r:id="rId208" xr:uid="{6810428F-0A78-964C-A8C8-E1CD2E7C405D}"/>
-    <hyperlink ref="C248" r:id="rId209" xr:uid="{B40209F2-0D6E-364F-8AF6-F1D182509314}"/>
-    <hyperlink ref="C249" r:id="rId210" xr:uid="{96C53FA9-9FD3-2D4F-B292-3C9DEDFA806E}"/>
-    <hyperlink ref="C250" r:id="rId211" xr:uid="{918B420D-3678-FD46-9463-595E8ACC39E1}"/>
-    <hyperlink ref="C251" r:id="rId212" xr:uid="{851A7153-3B54-0E4A-A0A0-FCEB091AFE70}"/>
-    <hyperlink ref="C252" r:id="rId213" xr:uid="{C03AE9F8-09AE-C640-81A7-033BB06FB6AD}"/>
-    <hyperlink ref="C253" r:id="rId214" xr:uid="{35140DEB-52D2-4342-88D2-22BA061E5B48}"/>
-    <hyperlink ref="C254" r:id="rId215" xr:uid="{9714BC0B-3373-934C-B7A1-599F74F4FB9D}"/>
-    <hyperlink ref="C257" r:id="rId216" xr:uid="{5CB435B2-7FD2-1D44-9872-22B6A1EDC02B}"/>
-    <hyperlink ref="C258" r:id="rId217" xr:uid="{722D1D95-896B-4642-BABD-31DEDD237B49}"/>
-    <hyperlink ref="C259" r:id="rId218" xr:uid="{D686D1DC-13D6-284C-B606-E087FAF47399}"/>
-    <hyperlink ref="C260" r:id="rId219" xr:uid="{D22C2394-C3CB-8F4F-A010-2B13C8C84D1A}"/>
-    <hyperlink ref="C261" r:id="rId220" xr:uid="{3AE2F800-B66F-1A41-893B-978F6875FDC8}"/>
-    <hyperlink ref="C262" r:id="rId221" xr:uid="{2C939BDE-5298-5541-837B-8C59D53A33C1}"/>
-    <hyperlink ref="C263" r:id="rId222" xr:uid="{691C9BD8-69D3-DA4B-AEB6-AF827B4ACA9F}"/>
-    <hyperlink ref="C264" r:id="rId223" xr:uid="{B6891E82-7C4D-424D-9219-3C9FD08E0053}"/>
-    <hyperlink ref="C265" r:id="rId224" xr:uid="{67A1AE98-62D2-644D-AC13-6CD76CF53CC0}"/>
-    <hyperlink ref="C266" r:id="rId225" xr:uid="{B59D4881-2A82-8F4D-B151-1E796C4923C8}"/>
-    <hyperlink ref="C267" r:id="rId226" xr:uid="{B3CBD023-5EFD-6048-9B3F-89F0C65CBBF5}"/>
-    <hyperlink ref="C268" r:id="rId227" xr:uid="{53EC42C4-22F7-0445-A0AC-7275A59A2672}"/>
-    <hyperlink ref="C269" r:id="rId228" xr:uid="{A29575F3-CB24-5B4B-9538-D5212B2DC28B}"/>
-    <hyperlink ref="C270" r:id="rId229" xr:uid="{353A44DD-9E30-8F48-8E2B-8DAA07550470}"/>
-    <hyperlink ref="C271" r:id="rId230" xr:uid="{32AC291D-95A5-BE49-88E0-02677BF39CAC}"/>
-    <hyperlink ref="C272" r:id="rId231" xr:uid="{A84F22FF-AD10-A546-8998-B066C0EB2D5A}"/>
-    <hyperlink ref="C273" r:id="rId232" xr:uid="{4C5CAF84-9B94-FC44-8C6C-B3CC7257C1DB}"/>
-    <hyperlink ref="C274" r:id="rId233" xr:uid="{5DA775E2-C516-3B47-8C82-3CEE7CC0BDF9}"/>
-    <hyperlink ref="C275" r:id="rId234" xr:uid="{00B6AE5C-EF3F-0747-A280-3BF055362B4F}"/>
-    <hyperlink ref="C276" r:id="rId235" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." xr:uid="{BCBD0A7E-F3D0-E840-9375-AFD37C5CD41A}"/>
-    <hyperlink ref="C277" r:id="rId236" xr:uid="{47ABDDDB-F95F-8049-9FB3-1E71A7376DDE}"/>
-    <hyperlink ref="C278" r:id="rId237" xr:uid="{70BADFC9-7399-234D-99F6-4C5F02397C26}"/>
-    <hyperlink ref="C279" r:id="rId238" xr:uid="{63348580-70EF-EC47-BF49-8ECE9560D54E}"/>
-    <hyperlink ref="C280" r:id="rId239" xr:uid="{D5BD96B3-9EAB-1B47-AC87-5C47F6AD7F40}"/>
-    <hyperlink ref="C281" r:id="rId240" xr:uid="{74791141-3FB8-7540-B45B-9541AF0AE371}"/>
-    <hyperlink ref="C282" r:id="rId241" xr:uid="{88D53CD6-262A-7247-8E58-FE9FFF7ECC40}"/>
-    <hyperlink ref="C283" r:id="rId242" xr:uid="{4338A14D-4F7D-B943-A347-7F74EFCA0DB5}"/>
-    <hyperlink ref="C284" r:id="rId243" xr:uid="{6E0EF7A3-7341-284B-A0E3-4539B6EAFAF2}"/>
-    <hyperlink ref="C285" r:id="rId244" xr:uid="{D2D8D64F-E2D3-734E-AD45-3EFB9686555A}"/>
-    <hyperlink ref="C286" r:id="rId245" xr:uid="{04A2904A-73A0-7845-9868-2CCFE359AC68}"/>
-    <hyperlink ref="C287" r:id="rId246" xr:uid="{D3D35835-6BE3-4D41-AF6F-5FE442277A16}"/>
-    <hyperlink ref="C288" r:id="rId247" xr:uid="{F663D0FC-CFF0-BC4F-9D26-48C871A8E9FD}"/>
-    <hyperlink ref="C289" r:id="rId248" xr:uid="{DF544147-DA48-4041-A4E2-4A75106B771A}"/>
-    <hyperlink ref="C290" r:id="rId249" xr:uid="{50E4B716-239E-7946-843D-E8462591D128}"/>
-    <hyperlink ref="C291" r:id="rId250" xr:uid="{D368B3E5-7D12-FD48-AFF7-A4A614108940}"/>
-    <hyperlink ref="C294" r:id="rId251" xr:uid="{D5921FF1-FC1F-CA4B-A24E-AD69E1DEC14C}"/>
-    <hyperlink ref="C295" r:id="rId252" xr:uid="{C931D7E0-E032-7C4B-95F1-735D955FCB51}"/>
-    <hyperlink ref="C296" r:id="rId253" xr:uid="{5FBD4A8F-287C-2C46-9CAB-F7DBA67DEDDA}"/>
-    <hyperlink ref="C297" r:id="rId254" xr:uid="{12966DD6-41DD-A94B-8B2C-0AD7D2AD6FB0}"/>
-    <hyperlink ref="C298" r:id="rId255" xr:uid="{CF720C34-4554-2944-A818-020ABC9BF0F4}"/>
-    <hyperlink ref="C299" r:id="rId256" xr:uid="{75763F2A-16D7-DE43-8189-19623CE26370}"/>
-    <hyperlink ref="C300" r:id="rId257" xr:uid="{9263AA30-472A-0A4D-BADF-96D82BB9BFCC}"/>
-    <hyperlink ref="C301" r:id="rId258" xr:uid="{2EF025C3-75C8-564E-BA8B-708C32B0E602}"/>
-    <hyperlink ref="C302" r:id="rId259" xr:uid="{6BDFDCA9-3421-F24F-8EF2-A72742F0AC21}"/>
-    <hyperlink ref="C303" r:id="rId260" xr:uid="{D8447F99-5FF9-D544-99BB-E9969B4A38D7}"/>
-    <hyperlink ref="C304" r:id="rId261" xr:uid="{1DB7EFDA-6C7D-F546-9EE1-F61ED0F65209}"/>
-    <hyperlink ref="C305" r:id="rId262" xr:uid="{D1505609-27D1-784D-ACF6-AE9D0DA2E1B6}"/>
-    <hyperlink ref="C306" r:id="rId263" xr:uid="{6BFA7B45-17D0-4E49-85DA-23C7255A306D}"/>
-    <hyperlink ref="C307" r:id="rId264" xr:uid="{3324BA4A-30CA-5246-8C3C-6505A6987939}"/>
-    <hyperlink ref="C308" r:id="rId265" xr:uid="{894486AD-2B6D-5740-BCAF-0BA1AFF814B4}"/>
-    <hyperlink ref="C309" r:id="rId266" xr:uid="{C47B203B-8B5A-E740-8C86-0784AD28089E}"/>
-    <hyperlink ref="C310" r:id="rId267" xr:uid="{06DC2E54-7597-AE4D-ACDB-B8883A989A4F}"/>
-    <hyperlink ref="C311" r:id="rId268" xr:uid="{E3384259-7CA7-1C44-A66D-11346EE6742E}"/>
-    <hyperlink ref="C312" r:id="rId269" xr:uid="{A5B77769-38AF-3D47-A76B-311591B57D91}"/>
-    <hyperlink ref="C315" r:id="rId270" xr:uid="{9DB6976A-C646-1341-90E8-3A164521267A}"/>
-    <hyperlink ref="C316" r:id="rId271" xr:uid="{03C291F8-D19A-304B-9EF9-CF71A1F66E49}"/>
-    <hyperlink ref="C317" r:id="rId272" xr:uid="{7536415C-140B-9244-B0B2-23F3ED0B2D80}"/>
-    <hyperlink ref="C318" r:id="rId273" xr:uid="{7DBDA456-8AF6-DD43-9764-17D3959B8E8F}"/>
-    <hyperlink ref="C319" r:id="rId274" xr:uid="{BFC149AB-C15A-B648-9F6A-ECD3890B1918}"/>
-    <hyperlink ref="C320" r:id="rId275" xr:uid="{0482240B-FEE9-F746-8980-52BCB7BBB56E}"/>
-    <hyperlink ref="C321" r:id="rId276" xr:uid="{86D1231A-E7C8-4B45-99ED-2DB0EF71E190}"/>
-    <hyperlink ref="C322" r:id="rId277" xr:uid="{20B7CE89-CB37-0040-989F-C8D1BE2B8782}"/>
-    <hyperlink ref="C323" r:id="rId278" xr:uid="{4C8412C9-A47B-9244-A18B-741516BD1054}"/>
-    <hyperlink ref="C324" r:id="rId279" xr:uid="{511761D9-31CE-0B43-AFFD-C011C27ACC52}"/>
-    <hyperlink ref="C325" r:id="rId280" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." xr:uid="{6905F997-D048-1049-BA27-C48756603D1E}"/>
-    <hyperlink ref="C326" r:id="rId281" xr:uid="{E657AA82-7CFE-DB42-B20F-F63D8C25EAB6}"/>
-    <hyperlink ref="C327" r:id="rId282" xr:uid="{3E505033-58F3-8F4E-AB82-E12DBC226AEA}"/>
-    <hyperlink ref="C328" r:id="rId283" xr:uid="{749599E5-4972-7343-B13B-87E26F837470}"/>
-    <hyperlink ref="C329" r:id="rId284" xr:uid="{12AA88DC-22AB-5A49-B28C-F04C8E35A215}"/>
-    <hyperlink ref="C330" r:id="rId285" xr:uid="{5751F0A7-7D9D-4148-820B-5B9659DFE34F}"/>
-    <hyperlink ref="C331" r:id="rId286" xr:uid="{4CA2DBEE-B161-B84D-B3A9-B8BC1B598AF2}"/>
-    <hyperlink ref="C332" r:id="rId287" xr:uid="{A9C1E578-6594-954C-8785-8902E605FC7A}"/>
-    <hyperlink ref="C333" r:id="rId288" xr:uid="{3D45E9B8-6671-A747-8C18-51CF8883170A}"/>
-    <hyperlink ref="C334" r:id="rId289" xr:uid="{4F5EF748-8CD4-0F47-90CE-3C93755BF63D}"/>
-    <hyperlink ref="C335" r:id="rId290" xr:uid="{44053C08-5050-C84B-B016-069B1EF9A43D}"/>
-    <hyperlink ref="C336" r:id="rId291" xr:uid="{ABF38928-736B-1A49-8B8A-1DCA5AAECB2B}"/>
-    <hyperlink ref="C337" r:id="rId292" xr:uid="{52651FAF-F3DC-E949-8AF8-998B9724B7D1}"/>
-    <hyperlink ref="C338" r:id="rId293" xr:uid="{91C6CCEF-3FF7-2C42-B5A0-8F4A403ED198}"/>
-    <hyperlink ref="C339" r:id="rId294" xr:uid="{15C8AF08-1A79-F949-9BE7-DD240CBD9861}"/>
-    <hyperlink ref="C340" r:id="rId295" xr:uid="{1904F984-5B22-8D46-BC33-3073B390E8F9}"/>
-    <hyperlink ref="C341" r:id="rId296" xr:uid="{A8BFB3A4-426B-E646-BCF0-FE19C8CD07A9}"/>
-    <hyperlink ref="C342" r:id="rId297" xr:uid="{FBBA29BB-885B-744A-A644-58EDCA7B140A}"/>
-    <hyperlink ref="C343" r:id="rId298" xr:uid="{75411687-6884-AC42-8B4A-1348C4837365}"/>
-    <hyperlink ref="C344" r:id="rId299" xr:uid="{A89ED8DF-F678-FE43-808C-C190721379BF}"/>
-    <hyperlink ref="C345" r:id="rId300" xr:uid="{1516834D-F3B2-1743-8811-263E11BBDEF8}"/>
-    <hyperlink ref="C346" r:id="rId301" xr:uid="{1659AB91-08CA-E44D-988D-E9D9A746D406}"/>
-    <hyperlink ref="C347" r:id="rId302" xr:uid="{E844BC1D-9713-9F4D-B0A4-1124A9952D14}"/>
-    <hyperlink ref="C348" r:id="rId303" xr:uid="{DCE2AAEF-8D8E-1843-BFE9-E9B7E13854EB}"/>
-    <hyperlink ref="C349" r:id="rId304" xr:uid="{836B3BF0-7711-7D41-9E72-914C1871397F}"/>
-    <hyperlink ref="C350" r:id="rId305" xr:uid="{F450CF9B-CA59-1443-8163-13F1121DCF12}"/>
-    <hyperlink ref="C351" r:id="rId306" xr:uid="{1539C3E8-4854-3C4F-A7B3-55BF931F1E2A}"/>
-    <hyperlink ref="C352" r:id="rId307" xr:uid="{04F1FC5F-5DA1-0144-962D-B38C1C41F0F4}"/>
-    <hyperlink ref="C355" r:id="rId308" xr:uid="{B21618F4-70E2-C549-80B7-7CF915679E0A}"/>
-    <hyperlink ref="C356" r:id="rId309" xr:uid="{EEDFBF11-C1E4-0847-9D56-94A72D97AEE7}"/>
-    <hyperlink ref="C357" r:id="rId310" xr:uid="{F5C0EDF1-7EAC-8849-8D27-C3389913BFC6}"/>
-    <hyperlink ref="C358" r:id="rId311" xr:uid="{50175B29-124F-4E4E-8E98-961BD3320359}"/>
-    <hyperlink ref="C359" r:id="rId312" xr:uid="{1BE23822-8512-014F-9154-F6EDA4FC8428}"/>
-    <hyperlink ref="C360" r:id="rId313" xr:uid="{38EC228E-ABFF-3542-9CFB-3DDFC628E9D0}"/>
-    <hyperlink ref="C361" r:id="rId314" xr:uid="{73F240F8-C469-454E-BA5C-CFF2F7A7A5F6}"/>
-    <hyperlink ref="C362" r:id="rId315" xr:uid="{3BBD1BAC-68C7-A94A-9063-AF62B5C837FD}"/>
-    <hyperlink ref="C363" r:id="rId316" xr:uid="{F9751D9B-2689-E24B-9FC3-CA32FE888708}"/>
-    <hyperlink ref="C364" r:id="rId317" xr:uid="{73C61D6A-D97C-B944-8B27-BB91564AB0D7}"/>
-    <hyperlink ref="C365" r:id="rId318" xr:uid="{936E077C-C016-A04F-895A-782D6D9D9433}"/>
-    <hyperlink ref="C366" r:id="rId319" xr:uid="{5454A2A1-6607-BE48-9215-CB8965EC3568}"/>
-    <hyperlink ref="C367" r:id="rId320" xr:uid="{FC1EAA10-F7ED-6B42-A79B-3D8B44E2C8B3}"/>
-    <hyperlink ref="C368" r:id="rId321" xr:uid="{FDB7F712-4A42-1048-8929-A1E752B07C6A}"/>
-    <hyperlink ref="C369" r:id="rId322" xr:uid="{AF3ACA60-0B0E-E146-B51F-A2CD05EB6549}"/>
-    <hyperlink ref="C370" r:id="rId323" xr:uid="{BB63E040-7A1A-E046-9BDD-9CBD1DA89DE9}"/>
-    <hyperlink ref="C371" r:id="rId324" xr:uid="{9AF8FD93-CCC9-D540-AE9A-00583F309649}"/>
-    <hyperlink ref="C372" r:id="rId325" xr:uid="{66A746A0-71FE-E546-92B7-D1C3D582E067}"/>
-    <hyperlink ref="C376" r:id="rId326" xr:uid="{BD79CCE1-5315-3944-9F9B-618615EC4583}"/>
-    <hyperlink ref="C377" r:id="rId327" xr:uid="{A5068A51-C961-6847-BB27-40A850B6D393}"/>
-    <hyperlink ref="C378" r:id="rId328" xr:uid="{6B8D36F0-E796-B944-A456-E8A9E2EE0BDB}"/>
-    <hyperlink ref="C379" r:id="rId329" xr:uid="{776652B7-2C11-4641-BF6A-EABEEB9B55AB}"/>
-    <hyperlink ref="C380" r:id="rId330" xr:uid="{95C6B35D-712A-2343-B790-236B55C5EC49}"/>
-    <hyperlink ref="C381" r:id="rId331" xr:uid="{4ED53872-1FE9-F140-AA35-F228F762880B}"/>
-    <hyperlink ref="C382" r:id="rId332" xr:uid="{6D5E6A28-85AA-BF4C-B2BD-9378D6E28EC7}"/>
-    <hyperlink ref="C383" r:id="rId333" xr:uid="{BCAD1ECB-15EE-CF49-878E-AA682DE3AC22}"/>
-    <hyperlink ref="C384" r:id="rId334" xr:uid="{C85468B5-25E9-E446-808E-72CFE911F0C2}"/>
-    <hyperlink ref="C385" r:id="rId335" xr:uid="{9503AECA-1A6A-9640-A04C-4CEAA2304448}"/>
-    <hyperlink ref="C386" r:id="rId336" xr:uid="{74211516-06B0-AA45-845B-52C8202751DA}"/>
-    <hyperlink ref="C387" r:id="rId337" xr:uid="{02C696BC-4B91-9444-900F-9CD68E409ABC}"/>
-    <hyperlink ref="C388" r:id="rId338" xr:uid="{04646C45-4118-374C-839D-94D31D534FAC}"/>
-    <hyperlink ref="C389" r:id="rId339" xr:uid="{F90BCCAE-8596-FC4D-BDD7-774392C596DF}"/>
-    <hyperlink ref="C390" r:id="rId340" xr:uid="{65230925-36EC-8A4B-8E46-6350B9BC0F95}"/>
-    <hyperlink ref="C391" r:id="rId341" xr:uid="{E91B8177-0C7A-1F40-BD34-4CC60F03B84F}"/>
-    <hyperlink ref="C392" r:id="rId342" xr:uid="{E8CBFD60-7335-0B4D-9FF5-99B4A8DC551D}"/>
-    <hyperlink ref="C393" r:id="rId343" xr:uid="{A35F55D4-9B87-C745-94DB-E7D820193C30}"/>
-    <hyperlink ref="C394" r:id="rId344" xr:uid="{6461A29F-D404-334F-B13F-296B4CA5E8A4}"/>
-    <hyperlink ref="C395" r:id="rId345" xr:uid="{FA9B4BE7-85CC-B24F-9461-5E9B42DDD824}"/>
-    <hyperlink ref="C396" r:id="rId346" xr:uid="{A75ACEA2-CDF6-A147-8540-A6DF55B15F45}"/>
-    <hyperlink ref="C397" r:id="rId347" xr:uid="{62FF87E2-E658-AB4D-AC57-7BCF9D49516E}"/>
-    <hyperlink ref="C398" r:id="rId348" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." xr:uid="{269338A6-5145-6944-9F7F-BD2A86DFA308}"/>
-    <hyperlink ref="C399" r:id="rId349" xr:uid="{8F583049-CE8D-CD42-88CD-CF3857942670}"/>
-    <hyperlink ref="C400" r:id="rId350" xr:uid="{EE2348AD-E296-894A-B5AE-5884A3C5E419}"/>
-    <hyperlink ref="C401" r:id="rId351" xr:uid="{6EACB34E-B32E-8F43-8055-2406F7417A7E}"/>
-    <hyperlink ref="C402" r:id="rId352" xr:uid="{2446F10A-B762-B64C-97B2-6131A0BECC1F}"/>
-    <hyperlink ref="C403" r:id="rId353" xr:uid="{6FDFCC53-17A6-7244-88A7-49406D7C9200}"/>
-    <hyperlink ref="C404" r:id="rId354" xr:uid="{3EC43646-EAB1-E443-A2F6-8E6E5FC77083}"/>
-    <hyperlink ref="C405" r:id="rId355" xr:uid="{659D9F20-C862-C947-B422-84143CFE317F}"/>
-    <hyperlink ref="C406" r:id="rId356" xr:uid="{3F5192FE-1C50-C049-88D5-68FA0F5430A0}"/>
-    <hyperlink ref="C407" r:id="rId357" xr:uid="{5EAD7CDA-9545-454B-BE77-9AFEC6AC1083}"/>
-    <hyperlink ref="C408" r:id="rId358" xr:uid="{761E5451-736B-6745-9CF5-4C6EF5D4C099}"/>
-    <hyperlink ref="C409" r:id="rId359" xr:uid="{4C8677A9-D94C-134F-AF31-E424751BF867}"/>
-    <hyperlink ref="C410" r:id="rId360" xr:uid="{CCF7920F-D5CE-004A-86C3-D821FB230970}"/>
-    <hyperlink ref="C411" r:id="rId361" xr:uid="{B4C07A0A-1EDD-7947-9646-3FD603441AD7}"/>
-    <hyperlink ref="C412" r:id="rId362" xr:uid="{49F7BB43-6851-0641-9DC5-27DBC66706F6}"/>
-    <hyperlink ref="C413" r:id="rId363" xr:uid="{77038647-48C7-5547-8E0F-898610362465}"/>
-    <hyperlink ref="C415" r:id="rId364" xr:uid="{EEFFE19C-6571-C64F-A0E1-5A4A700D94D4}"/>
-    <hyperlink ref="C414" r:id="rId365" xr:uid="{A4A2BFC4-6B88-2E4E-B362-17D8EE041C89}"/>
-    <hyperlink ref="C416" r:id="rId366" xr:uid="{DC5B603A-8D65-3648-A08A-E5FFA0FAE879}"/>
-    <hyperlink ref="C417" r:id="rId367" xr:uid="{F8807DD9-F4F2-B147-9C31-DBC93B2E477B}"/>
-    <hyperlink ref="C418" r:id="rId368" xr:uid="{6F7B396C-D7E9-C04E-BAE2-53D2EE07172B}"/>
-    <hyperlink ref="C421" r:id="rId369" xr:uid="{0D4A5941-C669-4A49-BAE3-9B553D03BD0F}"/>
-    <hyperlink ref="C422" r:id="rId370" xr:uid="{54144336-5BCA-D749-962A-E448C2CED3D3}"/>
-    <hyperlink ref="C423" r:id="rId371" xr:uid="{3A41DD21-CACF-1F48-A7C7-F568C6F31F3E}"/>
-    <hyperlink ref="C424" r:id="rId372" xr:uid="{A36160A8-F45E-3443-9645-42C1004B8F8C}"/>
-    <hyperlink ref="C425" r:id="rId373" xr:uid="{8B0A00A3-6AC0-DF46-AD87-A4DA016A2A00}"/>
-    <hyperlink ref="C426" r:id="rId374" xr:uid="{62A81CB4-A961-C543-B31C-92059DB6C105}"/>
-    <hyperlink ref="C429" r:id="rId375" xr:uid="{08030975-009C-C34A-A875-72FE2718F44C}"/>
-    <hyperlink ref="C430" r:id="rId376" xr:uid="{A113C7A9-2359-B643-9C08-E845813439C0}"/>
-    <hyperlink ref="C431" r:id="rId377" xr:uid="{FE300343-4633-AD47-A64D-2086629EB398}"/>
-    <hyperlink ref="C432" r:id="rId378" xr:uid="{4FC9F782-D38F-C642-A863-887B17AD05CD}"/>
-    <hyperlink ref="C433" r:id="rId379" xr:uid="{830C5466-10E3-7A48-B3E7-35C15A1CA4EF}"/>
-    <hyperlink ref="C434" r:id="rId380" xr:uid="{1B987077-E9D3-6F40-89EE-0D4E7180D884}"/>
-    <hyperlink ref="C435" r:id="rId381" xr:uid="{D4843E1F-7226-864E-A4BB-264D5A487B6D}"/>
-    <hyperlink ref="C436" r:id="rId382" xr:uid="{61816592-2D19-9946-8253-47A60218F2EA}"/>
-    <hyperlink ref="C437" r:id="rId383" xr:uid="{736C840F-19A3-0A4B-8863-ECB772B46385}"/>
-    <hyperlink ref="C438" r:id="rId384" xr:uid="{05A238AD-3C5B-C546-94E9-75BBF964711A}"/>
-    <hyperlink ref="C439" r:id="rId385" xr:uid="{7029629C-3F2A-4A49-997B-CFE86EC8B3C2}"/>
-    <hyperlink ref="C440" r:id="rId386" xr:uid="{ADA66B57-2FAC-AB42-BD83-4931708F3AB5}"/>
-    <hyperlink ref="C441" r:id="rId387" xr:uid="{F16BF1F9-755B-B045-B9A8-0B97E3BAC8B0}"/>
-    <hyperlink ref="C442" r:id="rId388" xr:uid="{ECCE930A-B960-234C-81EC-4B8514282AE9}"/>
-    <hyperlink ref="C443" r:id="rId389" xr:uid="{7AA58141-7D24-7C42-A0C1-F852B21CFFD9}"/>
-    <hyperlink ref="C444" r:id="rId390" xr:uid="{B1FCB47D-7921-3446-B2C7-72CBA815D056}"/>
-    <hyperlink ref="C445" r:id="rId391" xr:uid="{8C547719-AA03-3543-B31F-7300674AF4C5}"/>
-    <hyperlink ref="C446" r:id="rId392" xr:uid="{09922668-AFC0-F242-860E-9967E0F0FEF4}"/>
-    <hyperlink ref="C447" r:id="rId393" xr:uid="{0DA963DA-238B-D44E-9E03-6E6BD933B35E}"/>
-    <hyperlink ref="C448" r:id="rId394" xr:uid="{89518AFF-2526-C845-BC9D-95FE77AF416E}"/>
-    <hyperlink ref="C449" r:id="rId395" xr:uid="{FAECBBBE-196C-7A41-A0FB-E0597CB2CF51}"/>
-    <hyperlink ref="C450" r:id="rId396" xr:uid="{8126B039-0B25-B040-A0F6-C3457341A2E9}"/>
-    <hyperlink ref="C451" r:id="rId397" xr:uid="{6CB326E6-E698-EB42-884B-C89FFA33E3BA}"/>
-    <hyperlink ref="C452" r:id="rId398" xr:uid="{8C97EFD1-933F-A44F-A1CF-6386233104A2}"/>
-    <hyperlink ref="C453" r:id="rId399" xr:uid="{8F019F07-8532-E147-8BE1-4EBE833F61CA}"/>
-    <hyperlink ref="C454" r:id="rId400" xr:uid="{00F1A08F-3767-784A-97A3-4603DE38BACC}"/>
-    <hyperlink ref="C455" r:id="rId401" xr:uid="{2A84ADCB-071F-9A48-994D-7A838307EFD8}"/>
-    <hyperlink ref="C456" r:id="rId402" xr:uid="{132F8C6D-D5E8-6440-AC4E-B81EA2100416}"/>
-    <hyperlink ref="C457" r:id="rId403" xr:uid="{2DA6EAC2-1A1D-754F-9613-226CBC7890AF}"/>
-    <hyperlink ref="C458" r:id="rId404" xr:uid="{05BED99A-4562-D14E-8627-D07CF5335A9B}"/>
-    <hyperlink ref="C459" r:id="rId405" xr:uid="{111D902A-3F60-2D4B-89D3-5BCBD8AA38DD}"/>
-    <hyperlink ref="C460" r:id="rId406" xr:uid="{F19236BE-AC32-3542-9214-DFC3BAE04ED0}"/>
-    <hyperlink ref="C461" r:id="rId407" xr:uid="{4D97CD96-EA1B-664E-9380-EFD27077D273}"/>
-    <hyperlink ref="C462" r:id="rId408" xr:uid="{49A46D91-633F-A148-ACFA-49B7D1AA4B33}"/>
-    <hyperlink ref="C463" r:id="rId409" xr:uid="{7C3B7901-67E3-EA4D-BC64-21A78BC03AC6}"/>
-    <hyperlink ref="C464" r:id="rId410" xr:uid="{B27CA8C3-D34F-5E4D-94A5-11D14AFD0F82}"/>
-    <hyperlink ref="C465" r:id="rId411" xr:uid="{8FECE038-9764-5E4A-8C6E-9B3209812651}"/>
-    <hyperlink ref="C466" r:id="rId412" xr:uid="{95696D4B-89CB-5640-BE92-53B3C043F7EB}"/>
-    <hyperlink ref="C467" r:id="rId413" xr:uid="{DA74B737-802A-4944-A93E-0B9C8417630B}"/>
-    <hyperlink ref="C468" r:id="rId414" xr:uid="{B2C4C168-50FA-AF41-8F56-9E70613CF17D}"/>
-    <hyperlink ref="C470" r:id="rId415" xr:uid="{B7090C60-AC27-3F4F-8F0D-42F0791928C6}"/>
-    <hyperlink ref="C469" r:id="rId416" xr:uid="{07400041-66C6-514B-B3E3-427F2947C2B7}"/>
-    <hyperlink ref="C471" r:id="rId417" xr:uid="{B7E78172-8FB8-4E42-87D8-6A4654D79C62}"/>
-    <hyperlink ref="C472" r:id="rId418" xr:uid="{9A5D4670-BC64-334A-88CF-6F8287692C5E}"/>
-    <hyperlink ref="C473" r:id="rId419" xr:uid="{604283B6-53BC-044F-8D9D-E6094E798317}"/>
-    <hyperlink ref="C474" r:id="rId420" xr:uid="{5EB15AC7-3E0E-E44C-A5B9-32F30F234B5A}"/>
-    <hyperlink ref="C475" r:id="rId421" xr:uid="{3076BD5F-4B23-4146-A50A-499C9FF4C3D2}"/>
-    <hyperlink ref="C476" r:id="rId422" xr:uid="{6A29D9C2-1E78-1B43-A251-0AB0A97FA70E}"/>
-    <hyperlink ref="C477" r:id="rId423" xr:uid="{00597D5E-D693-DF4E-84C0-47E58A6ACA8F}"/>
-    <hyperlink ref="C478" r:id="rId424" xr:uid="{48640988-9964-0B4C-A014-83E2CEB3D632}"/>
-    <hyperlink ref="C479" r:id="rId425" xr:uid="{617AADC9-7534-FE45-96B0-EF4C1867B793}"/>
-    <hyperlink ref="C480" r:id="rId426" xr:uid="{7F8CDAA4-5094-8E4E-961B-41CDE5ACC0C0}"/>
-    <hyperlink ref="C481" r:id="rId427" xr:uid="{63F28ABD-12CF-5947-80DA-229E3CA3133E}"/>
-    <hyperlink ref="C488" r:id="rId428" xr:uid="{0A1DB92C-3315-1942-B27D-4B90986A6D9D}"/>
-    <hyperlink ref="C487" r:id="rId429" xr:uid="{11738B67-CADD-5D45-8417-8BE7A03FC79F}"/>
-    <hyperlink ref="C486" r:id="rId430" xr:uid="{B2B23748-D9E4-BE4F-A93E-49ECB4063831}"/>
-    <hyperlink ref="C485" r:id="rId431" xr:uid="{A2FB8A72-37B9-7E4A-B050-FD6CD20BCE73}"/>
-    <hyperlink ref="C484" r:id="rId432" xr:uid="{5A93C9AF-BFEB-EB40-95AC-C309ED09A604}"/>
-    <hyperlink ref="C483" r:id="rId433" xr:uid="{CC203923-2DC2-874B-B846-A8455E3CC2F2}"/>
-    <hyperlink ref="C482" r:id="rId434" xr:uid="{FCB0246E-0179-B447-B3CE-C60CDB388472}"/>
-    <hyperlink ref="C491" r:id="rId435" xr:uid="{F06CEE72-8CA4-C547-862C-39B86CD3226A}"/>
-    <hyperlink ref="C492" r:id="rId436" xr:uid="{CB3045F2-8D63-0F4E-85BC-AF016DB4F247}"/>
-    <hyperlink ref="C493" r:id="rId437" xr:uid="{667D57F5-E5AD-674F-A2F5-AFF4A14E4026}"/>
-    <hyperlink ref="C494" r:id="rId438" xr:uid="{27A13A65-56CE-BF4D-BA0D-EB87D910272D}"/>
-    <hyperlink ref="C495" r:id="rId439" xr:uid="{2C72A52E-6F06-0246-AEB5-93CD0DEA8866}"/>
-    <hyperlink ref="C496" r:id="rId440" xr:uid="{24B29046-B4DD-674B-9EDF-6C94BEC3FDD8}"/>
-    <hyperlink ref="C497" r:id="rId441" xr:uid="{D018EBC3-3FB3-AC4D-9D64-D218345A46C8}"/>
-    <hyperlink ref="C500" r:id="rId442" xr:uid="{1E1D3964-01E0-3145-ACFE-B6A5BF0EECB0}"/>
-    <hyperlink ref="C498" r:id="rId443" xr:uid="{FA0E5061-A7E2-C045-9671-1CD9446D1932}"/>
-    <hyperlink ref="C499" r:id="rId444" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{92704F5B-7B31-2F42-80DD-764B2206D9DB}"/>
-    <hyperlink ref="C375" r:id="rId445" xr:uid="{A48B1A24-83B1-7A4C-8129-CD37804DF849}"/>
-    <hyperlink ref="C26" r:id="rId446" xr:uid="{F0DDC999-C321-4AB4-BA9D-7538150E84D3}"/>
+    <hyperlink ref="C24" r:id="rId1" xr:uid="{9492A4AD-FA44-BA4B-B154-E4DBB1951162}"/>
+    <hyperlink ref="C25" r:id="rId2" xr:uid="{2D6F1134-3C08-7445-B19A-9B94A18B55C7}"/>
+    <hyperlink ref="C28" r:id="rId3" xr:uid="{E5A98931-37E8-6B4A-90BE-8DC72405341A}"/>
+    <hyperlink ref="C29" r:id="rId4" xr:uid="{02736918-E09F-7A46-90B3-AFCC33AA559B}"/>
+    <hyperlink ref="C30" r:id="rId5" xr:uid="{6E8DD30A-A9F9-4C44-B26C-C9E236F10798}"/>
+    <hyperlink ref="C31" r:id="rId6" xr:uid="{0D55765B-95A7-154F-96F3-B7E4C581021F}"/>
+    <hyperlink ref="C32" r:id="rId7" xr:uid="{6F687ABA-C04B-AF4F-9F11-A038DCB20FB9}"/>
+    <hyperlink ref="C33" r:id="rId8" xr:uid="{11C9D8CC-9F1E-004E-8EC2-C758DC9C8CAB}"/>
+    <hyperlink ref="C34" r:id="rId9" xr:uid="{56E4962F-CB3D-9E48-A26E-19A1F5C800C9}"/>
+    <hyperlink ref="C35" r:id="rId10" xr:uid="{899DDBD9-9ED6-3A4D-8AFE-8FAA6DA88DBC}"/>
+    <hyperlink ref="C36" r:id="rId11" xr:uid="{76D41EAC-A28A-2845-8515-CA3C70D823B7}"/>
+    <hyperlink ref="C37" r:id="rId12" xr:uid="{828948BE-DD97-DE4A-BAD6-B415E29198F0}"/>
+    <hyperlink ref="C38" r:id="rId13" xr:uid="{E98C86AA-12E7-124C-B7D0-BCDFB246040B}"/>
+    <hyperlink ref="C39" r:id="rId14" xr:uid="{192741A9-FF68-DC4A-99FA-69F9968AB4F2}"/>
+    <hyperlink ref="C40" r:id="rId15" xr:uid="{DBD9BA9C-91C6-B144-A800-DCB3BED33DE7}"/>
+    <hyperlink ref="C41" r:id="rId16" xr:uid="{A285BDE8-00E7-A94C-8E43-A0C4829D42FA}"/>
+    <hyperlink ref="C42" r:id="rId17" xr:uid="{B0C21764-2962-1649-8AFA-10FB9420C5FC}"/>
+    <hyperlink ref="C43" r:id="rId18" xr:uid="{9282CC15-9B38-E54B-B64C-557745C9C00A}"/>
+    <hyperlink ref="C44" r:id="rId19" xr:uid="{3BCCEBE2-AC3B-AC4F-8BA9-439ACEA133D4}"/>
+    <hyperlink ref="C45" r:id="rId20" xr:uid="{74F8D761-6EBF-594A-A6C7-40DE4CE96958}"/>
+    <hyperlink ref="C46" r:id="rId21" xr:uid="{79947FE6-D417-D644-81D8-D058180550A0}"/>
+    <hyperlink ref="C47" r:id="rId22" xr:uid="{2BF3F606-410B-264D-BF60-191C34D616BB}"/>
+    <hyperlink ref="C48" r:id="rId23" xr:uid="{CD98DB26-0F2F-FD40-A989-53FE548D7D34}"/>
+    <hyperlink ref="C49" r:id="rId24" xr:uid="{307032A1-F8EF-1A48-BFE3-EA3283D39BE2}"/>
+    <hyperlink ref="C50" r:id="rId25" xr:uid="{AA329F36-941A-9241-9402-9D220B05E719}"/>
+    <hyperlink ref="C51" r:id="rId26" xr:uid="{9E851DAC-0E30-B340-84F9-721D70B66919}"/>
+    <hyperlink ref="C52" r:id="rId27" xr:uid="{468380BA-4978-A645-ABD0-E74FD3E6BDBB}"/>
+    <hyperlink ref="C53" r:id="rId28" xr:uid="{289E6890-8CCB-D645-9B3F-6138FFC1C249}"/>
+    <hyperlink ref="C54" r:id="rId29" xr:uid="{8EABDC68-858F-784A-A8F1-C603E3B8C1FE}"/>
+    <hyperlink ref="C55" r:id="rId30" xr:uid="{6157E427-1210-3F45-A4DC-6DFD2373B9CF}"/>
+    <hyperlink ref="C56" r:id="rId31" xr:uid="{2D7BA55E-9947-FF4D-BC09-FB4A5ADA07EC}"/>
+    <hyperlink ref="C57" r:id="rId32" xr:uid="{3337C74F-8B73-E64E-A6DA-5D9F7C7B4D32}"/>
+    <hyperlink ref="C58" r:id="rId33" xr:uid="{02370124-E58D-B540-BBCF-98266229556D}"/>
+    <hyperlink ref="C59" r:id="rId34" xr:uid="{F2DE2162-BD02-7549-AC1A-27455F78131F}"/>
+    <hyperlink ref="C60" r:id="rId35" xr:uid="{6FA286B9-3994-624D-B0B8-C01657D110AD}"/>
+    <hyperlink ref="C61" r:id="rId36" xr:uid="{6EFBEDA1-5C10-2547-8FB2-44E977513B28}"/>
+    <hyperlink ref="C64" r:id="rId37" xr:uid="{090EC515-BEBE-514E-BA59-A84E450B4211}"/>
+    <hyperlink ref="C65" r:id="rId38" xr:uid="{0A0557FD-77E5-564B-B100-147D544A38B4}"/>
+    <hyperlink ref="C66" r:id="rId39" xr:uid="{3F82F2E0-AA59-5042-B079-F3B3C6FF2FD7}"/>
+    <hyperlink ref="C67" r:id="rId40" xr:uid="{FFF7D257-1F58-5A4B-AAA2-F5480AED86C7}"/>
+    <hyperlink ref="C68" r:id="rId41" xr:uid="{353E28FA-E36D-7447-9DE8-787DF11C4669}"/>
+    <hyperlink ref="C69" r:id="rId42" xr:uid="{F9B53127-FC98-FE43-B53F-BFDBCE2A4427}"/>
+    <hyperlink ref="C70" r:id="rId43" xr:uid="{40685BBC-CE24-624E-9ABB-98490B7DE0E4}"/>
+    <hyperlink ref="C71" r:id="rId44" xr:uid="{7733D505-2EC7-E346-B3DA-C980C7CE0B27}"/>
+    <hyperlink ref="C72" r:id="rId45" xr:uid="{E8C1FE00-7B4B-5745-8E4B-CD44B6C749E3}"/>
+    <hyperlink ref="C73" r:id="rId46" xr:uid="{FDE181B1-57B0-7C4B-A189-C7C6E4EAEF99}"/>
+    <hyperlink ref="C76" r:id="rId47" xr:uid="{FE85FD72-4FC9-334E-8205-9E8B238954EB}"/>
+    <hyperlink ref="C77" r:id="rId48" xr:uid="{7630AD76-7E6B-8C4A-BA33-A62EBB042215}"/>
+    <hyperlink ref="C78" r:id="rId49" xr:uid="{2A738B70-CBF0-CC40-8B05-A271822B3F1A}"/>
+    <hyperlink ref="C80" r:id="rId50" xr:uid="{B2DE2D9E-8371-CD44-9D0D-4D6DC64AC29B}"/>
+    <hyperlink ref="C81" r:id="rId51" xr:uid="{265DCD11-17A0-654E-BEFE-FABA31210C6E}"/>
+    <hyperlink ref="C82" r:id="rId52" xr:uid="{47F1BB0C-0C5C-0845-8EEC-1560C50D7DA7}"/>
+    <hyperlink ref="C83" r:id="rId53" xr:uid="{8E0BFA2E-CCB4-514F-86CD-78176C6CC98A}"/>
+    <hyperlink ref="C84" r:id="rId54" xr:uid="{E4DEFB4B-749F-8746-97C7-F2B433664A74}"/>
+    <hyperlink ref="C85" r:id="rId55" xr:uid="{8301BDBD-EB7E-7D41-A777-ED99C3F9D67D}"/>
+    <hyperlink ref="C86" r:id="rId56" xr:uid="{927AE532-647F-AF4C-A567-40ADA6FCE534}"/>
+    <hyperlink ref="C87" r:id="rId57" xr:uid="{05489F52-CC92-EC44-9AD3-773DEC3B1D36}"/>
+    <hyperlink ref="C88" r:id="rId58" xr:uid="{13025DF6-C30E-014A-B66C-68C4AAAC1C6E}"/>
+    <hyperlink ref="C89" r:id="rId59" xr:uid="{BEE1F613-C189-B949-A225-0E0C5AFD1532}"/>
+    <hyperlink ref="C90" r:id="rId60" xr:uid="{1DFECD6C-D7CC-0340-B29B-4D56E50711E5}"/>
+    <hyperlink ref="C91" r:id="rId61" xr:uid="{70BED156-B004-E043-BF7D-59EFAA9EADAF}"/>
+    <hyperlink ref="C92" r:id="rId62" xr:uid="{FF9CBAFB-900E-E242-8B33-EDF46F0F40B5}"/>
+    <hyperlink ref="C93" r:id="rId63" xr:uid="{19461114-B3E8-9042-8029-100010946A04}"/>
+    <hyperlink ref="C94" r:id="rId64" xr:uid="{00F71118-E30B-A84E-819E-FFA902C70502}"/>
+    <hyperlink ref="C95" r:id="rId65" xr:uid="{58E70966-BBE0-7743-A250-AE4DD57807DE}"/>
+    <hyperlink ref="C96" r:id="rId66" xr:uid="{09409FE3-9D7E-4F43-BB21-14A1B8D6E480}"/>
+    <hyperlink ref="C97" r:id="rId67" xr:uid="{E199A3DC-3DA1-C648-93C0-DF9CD5331204}"/>
+    <hyperlink ref="C98" r:id="rId68" xr:uid="{85886847-1510-AA46-B10C-F3D80591DD74}"/>
+    <hyperlink ref="C99" r:id="rId69" xr:uid="{F60808FC-F09D-FC44-B2DD-752E55A1C698}"/>
+    <hyperlink ref="C100" r:id="rId70" xr:uid="{16B2725E-1AD5-0441-9B5B-B6B2F458091B}"/>
+    <hyperlink ref="C101" r:id="rId71" xr:uid="{8440D753-5DE9-3243-97C2-C09D195C325F}"/>
+    <hyperlink ref="C102" r:id="rId72" xr:uid="{AC63A963-B6CC-6E4E-B72A-7F472BC4C027}"/>
+    <hyperlink ref="C103" r:id="rId73" xr:uid="{B21B87F1-A0C0-7F4E-B36F-912B871D0EF4}"/>
+    <hyperlink ref="C104" r:id="rId74" xr:uid="{789FFFAC-8B7E-0540-98B8-856430EB56F8}"/>
+    <hyperlink ref="C105" r:id="rId75" xr:uid="{4A0E959E-22F4-6948-A819-76FE76AB9F6D}"/>
+    <hyperlink ref="C106" r:id="rId76" xr:uid="{78B76678-D8EE-9745-98B1-DF7A76EA3B10}"/>
+    <hyperlink ref="C107" r:id="rId77" xr:uid="{62982242-1D19-1544-8653-8E25E9BF4505}"/>
+    <hyperlink ref="C108" r:id="rId78" xr:uid="{8E3D4BDF-9F8F-0542-BFD8-C3CE3BF396E6}"/>
+    <hyperlink ref="C109" r:id="rId79" xr:uid="{A3D51762-65A1-9A44-B619-D1D98A7F403B}"/>
+    <hyperlink ref="C110" r:id="rId80" xr:uid="{ED0F5FC7-0066-EB44-8FCF-460600DADB02}"/>
+    <hyperlink ref="C111" r:id="rId81" xr:uid="{2D956AC4-4774-7446-8473-C4CE00E33C17}"/>
+    <hyperlink ref="C112" r:id="rId82" xr:uid="{C8C607BB-1FEE-FA47-9E3E-6C0BCE978B7F}"/>
+    <hyperlink ref="C113" r:id="rId83" xr:uid="{B9AC5194-6D36-684A-A5C4-BEE11037599F}"/>
+    <hyperlink ref="C114" r:id="rId84" xr:uid="{AB28D9E6-890C-F14A-A5FB-2303BE319968}"/>
+    <hyperlink ref="C115" r:id="rId85" xr:uid="{1F507CBC-4056-AD46-9314-95ECBB9D799D}"/>
+    <hyperlink ref="C116" r:id="rId86" xr:uid="{F152A9AF-5CBA-EC44-A9CF-07AB481435AB}"/>
+    <hyperlink ref="C117" r:id="rId87" xr:uid="{346CA74F-60B7-0A4B-A612-9184D4DCFF62}"/>
+    <hyperlink ref="C118" r:id="rId88" xr:uid="{8C653CB1-4954-754F-8D46-F09141A2FCDB}"/>
+    <hyperlink ref="C121" r:id="rId89" xr:uid="{5989F693-2A61-A346-8395-8674307A4CC2}"/>
+    <hyperlink ref="C122" r:id="rId90" xr:uid="{3AD10C9E-4F6D-DE48-92F3-531A586520C6}"/>
+    <hyperlink ref="C123" r:id="rId91" xr:uid="{4FA217C0-A1F3-904E-8FEA-EA4941273A67}"/>
+    <hyperlink ref="C124" r:id="rId92" xr:uid="{A297BBC0-FA0D-2D46-9C49-3932193EF1D3}"/>
+    <hyperlink ref="C126" r:id="rId93" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance." xr:uid="{DCD751DE-E440-F346-B6FD-CBD072217214}"/>
+    <hyperlink ref="C127" r:id="rId94" xr:uid="{B2FD38B9-1E2B-8140-8291-F45734C98145}"/>
+    <hyperlink ref="C128" r:id="rId95" xr:uid="{C76888B3-18AC-9B48-9E2A-64A7DF0902B7}"/>
+    <hyperlink ref="C129" r:id="rId96" xr:uid="{18A79860-6C9E-A941-8D6C-360B9913E941}"/>
+    <hyperlink ref="C130" r:id="rId97" xr:uid="{C0DDFD68-CBC1-0F4A-AF40-ACF36BBC8453}"/>
+    <hyperlink ref="C131" r:id="rId98" xr:uid="{3E0BF737-E42E-C946-B32C-06882E0BA6FF}"/>
+    <hyperlink ref="C133" r:id="rId99" xr:uid="{862F9782-C57B-2848-A2D9-EB7B52FB7EC7}"/>
+    <hyperlink ref="C134" r:id="rId100" xr:uid="{230D7A6A-D2C5-C140-9A65-B1F407D22062}"/>
+    <hyperlink ref="C135" r:id="rId101" xr:uid="{BDC2BA28-4562-984E-8282-1126BF952EAF}"/>
+    <hyperlink ref="C136" r:id="rId102" xr:uid="{B53A5F28-6DED-3D47-8679-F78D3DDEFF01}"/>
+    <hyperlink ref="C137" r:id="rId103" xr:uid="{C57D0CC7-DA2F-0948-9BCE-F19C20C7D981}"/>
+    <hyperlink ref="C138" r:id="rId104" xr:uid="{117878E5-B8C8-254B-8ED6-014B4B7A8126}"/>
+    <hyperlink ref="C139" r:id="rId105" xr:uid="{B7CC0756-74F2-D54D-BDEE-9DA394DD7168}"/>
+    <hyperlink ref="C140" r:id="rId106" xr:uid="{837EF472-CCC2-CF47-A8A8-238E56F722CE}"/>
+    <hyperlink ref="C141" r:id="rId107" xr:uid="{3608F267-6AA0-624B-B243-7DDD317E9F08}"/>
+    <hyperlink ref="C142" r:id="rId108" xr:uid="{0B6123E6-0472-374B-ACA7-6914CD7918E8}"/>
+    <hyperlink ref="C143" r:id="rId109" xr:uid="{D3971CEB-C53E-B04B-9C32-1803182B5DC5}"/>
+    <hyperlink ref="C144" r:id="rId110" xr:uid="{7CF5013A-643E-1643-93A1-A2F1500D2A23}"/>
+    <hyperlink ref="C145" r:id="rId111" xr:uid="{2A6BE7E5-D818-6843-8C3E-99EA2BFE0FB2}"/>
+    <hyperlink ref="C146" r:id="rId112" xr:uid="{E718F544-96DF-A04E-8DFB-7639DA3EA57C}"/>
+    <hyperlink ref="C147" r:id="rId113" xr:uid="{B0C2F065-424A-7345-A864-346ECD98D749}"/>
+    <hyperlink ref="C148" r:id="rId114" xr:uid="{B4E26955-5C3F-804E-B19A-11260310AFB3}"/>
+    <hyperlink ref="C149" r:id="rId115" xr:uid="{6F299BB5-8E82-0240-A9A3-6829CE3ABCBF}"/>
+    <hyperlink ref="C150" r:id="rId116" xr:uid="{A42CA32F-2196-1840-A53D-E5073237C68D}"/>
+    <hyperlink ref="C151" r:id="rId117" xr:uid="{7ECF6EF4-962E-4642-9B1C-C3B70674793E}"/>
+    <hyperlink ref="C152" r:id="rId118" xr:uid="{2A109178-6B60-164E-9D25-42B3282137E3}"/>
+    <hyperlink ref="C153" r:id="rId119" xr:uid="{B3D38BD0-A6A1-8D41-8405-45E1BEEEEF06}"/>
+    <hyperlink ref="C154" r:id="rId120" xr:uid="{A1C26612-D040-2A41-A6A6-A8F2490C0A43}"/>
+    <hyperlink ref="C155" r:id="rId121" xr:uid="{C476E807-64CB-F44A-A23D-D21EBF6D001D}"/>
+    <hyperlink ref="C156" r:id="rId122" xr:uid="{9A414D55-D4A1-F147-9207-61B597D57136}"/>
+    <hyperlink ref="C125" r:id="rId123" xr:uid="{18B028A7-9B6F-D841-8548-924D70530779}"/>
+    <hyperlink ref="C132" r:id="rId124" xr:uid="{6D3E75EF-733F-7A4B-81C8-AEF6CB6335F0}"/>
+    <hyperlink ref="C159" r:id="rId125" xr:uid="{C9EB2682-BE0B-934B-B0B4-1DD1A1502647}"/>
+    <hyperlink ref="C160" r:id="rId126" xr:uid="{2992FED9-2B78-A342-92AA-E7C0F882FF17}"/>
+    <hyperlink ref="C161" r:id="rId127" xr:uid="{0084DA6F-EC84-BD48-BDA8-EBACA3BB3B3E}"/>
+    <hyperlink ref="C162" r:id="rId128" xr:uid="{30F2D415-4B2C-384C-8EAE-2CC71CB518E2}"/>
+    <hyperlink ref="C163" r:id="rId129" xr:uid="{40734C88-7C5B-9747-86D1-03463D9AD41A}"/>
+    <hyperlink ref="C164" r:id="rId130" xr:uid="{1040D22F-6729-104A-A229-CBDCED93024A}"/>
+    <hyperlink ref="C165" r:id="rId131" xr:uid="{E131FE61-FABF-8E4B-8EF0-F68379D8F836}"/>
+    <hyperlink ref="C166" r:id="rId132" xr:uid="{B2129272-1351-3745-883B-E6A7115450C8}"/>
+    <hyperlink ref="C167" r:id="rId133" xr:uid="{C8B2DEF0-2B69-C84E-8013-0B6F03FFC250}"/>
+    <hyperlink ref="C168" r:id="rId134" xr:uid="{536AC5CF-712F-BF48-94A9-D0E7DC013020}"/>
+    <hyperlink ref="C169" r:id="rId135" xr:uid="{2DABC9C7-43D4-1249-AF9B-5FA4552611CB}"/>
+    <hyperlink ref="C170" r:id="rId136" xr:uid="{DA62E73A-B495-F94A-BECE-D42E4CBF074A}"/>
+    <hyperlink ref="C171" r:id="rId137" xr:uid="{7F5E6966-850D-4F49-B2A5-678365713F28}"/>
+    <hyperlink ref="C172" r:id="rId138" xr:uid="{E9C4286D-8493-9A47-8B8C-09583FA72B70}"/>
+    <hyperlink ref="C173" r:id="rId139" xr:uid="{9EB0123C-84AE-1C4D-BA1A-C28CFB8EFB89}"/>
+    <hyperlink ref="C174" r:id="rId140" xr:uid="{9D11FED4-328F-674E-889D-EC781DD1D791}"/>
+    <hyperlink ref="C175" r:id="rId141" xr:uid="{48AE72DB-397B-464D-88AD-B8058ED29CC1}"/>
+    <hyperlink ref="C176" r:id="rId142" xr:uid="{152D50E9-7448-F542-AC66-05D0AE66664C}"/>
+    <hyperlink ref="C177" r:id="rId143" xr:uid="{34E6AF1B-5FB1-3A4B-8938-1DCF80831DC2}"/>
+    <hyperlink ref="C178" r:id="rId144" xr:uid="{E7F8B7CA-49F4-1946-91EE-E7582BE4E5DA}"/>
+    <hyperlink ref="C179" r:id="rId145" xr:uid="{3590A994-B7A2-C14D-9BF8-7AC8FE9E7F0F}"/>
+    <hyperlink ref="C180" r:id="rId146" xr:uid="{0AAA4B0C-4921-C34D-B41E-D702FA860892}"/>
+    <hyperlink ref="C181" r:id="rId147" xr:uid="{5973FCA4-AE32-5248-A6ED-2694367332F1}"/>
+    <hyperlink ref="C182" r:id="rId148" xr:uid="{4C0F816E-F043-0C47-BF16-1CDAD88D2FF1}"/>
+    <hyperlink ref="C183" r:id="rId149" xr:uid="{A8E4C654-D0BD-8945-9F5C-B09F7BC114BE}"/>
+    <hyperlink ref="C186" r:id="rId150" xr:uid="{E3825C15-10BB-E24F-B229-983F651DA942}"/>
+    <hyperlink ref="C187" r:id="rId151" xr:uid="{46ECFC31-388C-6241-8FFE-DED6F2FC794A}"/>
+    <hyperlink ref="C188" r:id="rId152" xr:uid="{589E024D-3FE1-1048-890C-88289733F233}"/>
+    <hyperlink ref="C189" r:id="rId153" xr:uid="{CDA28F7A-7FC5-F74D-B27E-A6E0161D41D5}"/>
+    <hyperlink ref="C190" r:id="rId154" xr:uid="{DA6A0D92-DCEB-DA4F-8BBA-10FCD092838F}"/>
+    <hyperlink ref="C191" r:id="rId155" xr:uid="{955769DB-3256-254B-90DE-E1E01B272F8A}"/>
+    <hyperlink ref="C192" r:id="rId156" xr:uid="{DED7AC9B-40D7-0545-9D6F-6CD4F5FFE4C6}"/>
+    <hyperlink ref="C193" r:id="rId157" xr:uid="{6947A4E1-B6AA-6D4F-A6D8-8FA74FD02887}"/>
+    <hyperlink ref="C194" r:id="rId158" xr:uid="{EABF2012-5A90-0C4E-86F6-FDB5FA7770BE}"/>
+    <hyperlink ref="C197" r:id="rId159" xr:uid="{7F44CFE0-9ED1-A44D-B9EF-CF87BEB644FC}"/>
+    <hyperlink ref="C198" r:id="rId160" xr:uid="{CF6E0CF6-7A93-D84A-9CE0-5BDD51767416}"/>
+    <hyperlink ref="C199" r:id="rId161" xr:uid="{EFF8F154-60B8-B84B-84CA-32756BD6430F}"/>
+    <hyperlink ref="C200" r:id="rId162" xr:uid="{C8A3094E-E11B-2543-B05E-1D07048B2EBA}"/>
+    <hyperlink ref="C201" r:id="rId163" xr:uid="{9961E5F5-B5C6-0C4D-A1D0-D04D2A5D7DFD}"/>
+    <hyperlink ref="C202" r:id="rId164" xr:uid="{44E289EC-47DD-D94D-88C1-CB2F59C6C16A}"/>
+    <hyperlink ref="C203" r:id="rId165" xr:uid="{4161FC70-DD6D-684B-898A-A4711596B2D5}"/>
+    <hyperlink ref="C204" r:id="rId166" xr:uid="{B9CBE387-8E9A-ED48-8310-CF7D34FA690C}"/>
+    <hyperlink ref="C205" r:id="rId167" xr:uid="{5398097B-24FF-9543-8F02-33CE2860F1F7}"/>
+    <hyperlink ref="C206" r:id="rId168" xr:uid="{3B1FC30B-30C8-7B48-AF94-A81FB513F24F}"/>
+    <hyperlink ref="C207" r:id="rId169" xr:uid="{32B750D0-D7F2-694D-AB9B-25AFAFAFF17F}"/>
+    <hyperlink ref="C208" r:id="rId170" xr:uid="{400689DD-8E95-024E-976B-AACD8ED4E1A6}"/>
+    <hyperlink ref="C209" r:id="rId171" xr:uid="{28753DDE-E047-5D40-A30B-1103BE6DA08F}"/>
+    <hyperlink ref="C210" r:id="rId172" xr:uid="{6C5AA6CB-3D93-0740-AEED-9E6C218CF6CB}"/>
+    <hyperlink ref="C211" r:id="rId173" xr:uid="{03EAA2B9-D8B8-D642-BF24-380596D26B2E}"/>
+    <hyperlink ref="C212" r:id="rId174" xr:uid="{8C1719B4-37CC-484E-BDCE-A4272C07F91B}"/>
+    <hyperlink ref="C213" r:id="rId175" xr:uid="{6C198DA2-BB98-F940-8EF6-2FC8B7AE577A}"/>
+    <hyperlink ref="C214" r:id="rId176" xr:uid="{AB0EA311-A446-D046-A0EC-290B42068328}"/>
+    <hyperlink ref="C215" r:id="rId177" xr:uid="{DB913045-B9F6-6549-AA09-22B0CC5FDD21}"/>
+    <hyperlink ref="C216" r:id="rId178" xr:uid="{806469FD-617A-7445-AAB5-FB2FD2ED24EA}"/>
+    <hyperlink ref="C217" r:id="rId179" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." xr:uid="{1A10544E-58CF-D04D-9FAF-2FEC6DB2B5D4}"/>
+    <hyperlink ref="C218" r:id="rId180" xr:uid="{5A0B6645-89FD-E044-A706-9FB890274C3C}"/>
+    <hyperlink ref="C219" r:id="rId181" xr:uid="{B42A3009-E8EB-EE44-885F-6699C17A0E0B}"/>
+    <hyperlink ref="C220" r:id="rId182" xr:uid="{ED3E48AB-E25B-3744-B024-E97B2A319B46}"/>
+    <hyperlink ref="C221" r:id="rId183" xr:uid="{C75D20A3-CBAE-2649-A3EE-E49177CFA343}"/>
+    <hyperlink ref="C222" r:id="rId184" xr:uid="{3863CA1B-D43E-1144-91A9-17C2DCF52A64}"/>
+    <hyperlink ref="C223" r:id="rId185" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." xr:uid="{E9AF434E-4CAA-5D49-8AD3-889CDE2913D9}"/>
+    <hyperlink ref="C224" r:id="rId186" xr:uid="{1A0568E5-3A11-7F47-8001-82B05D7C2339}"/>
+    <hyperlink ref="C225" r:id="rId187" xr:uid="{F62B8AE4-9C4F-9544-8861-CD733C12F79E}"/>
+    <hyperlink ref="C226" r:id="rId188" xr:uid="{0F6A542C-44C9-5A4C-90BF-BC8C239877D2}"/>
+    <hyperlink ref="C227" r:id="rId189" xr:uid="{3ED28203-B1B5-4E46-AAF3-779EDD4AC03F}"/>
+    <hyperlink ref="C228" r:id="rId190" xr:uid="{4338B305-B52F-5540-9B51-B938FC6803A2}"/>
+    <hyperlink ref="C229" r:id="rId191" xr:uid="{DDEEED0F-A939-1E4F-B2FA-AD391A4A2874}"/>
+    <hyperlink ref="C230" r:id="rId192" xr:uid="{C2F20589-AD81-654C-94E5-E5B6C9FE27F6}"/>
+    <hyperlink ref="C231" r:id="rId193" xr:uid="{BBEB9DAC-E4AE-C04F-AA15-6356AFC57FDE}"/>
+    <hyperlink ref="C234" r:id="rId194" xr:uid="{6316566D-A10A-F849-9F25-B9ED4DA12BC7}"/>
+    <hyperlink ref="C235" r:id="rId195" xr:uid="{9D4DD895-FBA6-C849-A5BF-3B30755BD9C9}"/>
+    <hyperlink ref="C236" r:id="rId196" xr:uid="{475996DA-632A-BE49-AEA1-D4189FD614A1}"/>
+    <hyperlink ref="C237" r:id="rId197" xr:uid="{88E0C858-8468-884F-BB71-F6F176BD5FC2}"/>
+    <hyperlink ref="C238" r:id="rId198" xr:uid="{C1C5C8D0-7A06-3D4A-A85A-AAACC1B418C9}"/>
+    <hyperlink ref="C239" r:id="rId199" xr:uid="{D525D4B1-2857-1543-8CD9-196728321203}"/>
+    <hyperlink ref="C240" r:id="rId200" xr:uid="{51E3AB9B-04B2-C041-A2B3-37E3EB18013A}"/>
+    <hyperlink ref="C241" r:id="rId201" xr:uid="{7F7F0C9A-57B9-314F-959A-B8ACAFA5FD13}"/>
+    <hyperlink ref="C242" r:id="rId202" xr:uid="{3B029785-83B4-6140-8B70-CD892CFC87F6}"/>
+    <hyperlink ref="C243" r:id="rId203" xr:uid="{B0A390E6-D860-9F4E-B021-68949FE712F3}"/>
+    <hyperlink ref="C244" r:id="rId204" xr:uid="{49E9953D-52F6-BF47-8AAA-8E456F55576B}"/>
+    <hyperlink ref="C245" r:id="rId205" xr:uid="{9B812470-F419-A54E-8365-06A9B8864A30}"/>
+    <hyperlink ref="C246" r:id="rId206" xr:uid="{B6FB4107-1933-6D45-9EF4-4474E06CBE9D}"/>
+    <hyperlink ref="C247" r:id="rId207" xr:uid="{0F7C1D92-7BCB-D14D-A658-9599984E04E4}"/>
+    <hyperlink ref="C248" r:id="rId208" xr:uid="{6810428F-0A78-964C-A8C8-E1CD2E7C405D}"/>
+    <hyperlink ref="C249" r:id="rId209" xr:uid="{B40209F2-0D6E-364F-8AF6-F1D182509314}"/>
+    <hyperlink ref="C250" r:id="rId210" xr:uid="{96C53FA9-9FD3-2D4F-B292-3C9DEDFA806E}"/>
+    <hyperlink ref="C251" r:id="rId211" xr:uid="{918B420D-3678-FD46-9463-595E8ACC39E1}"/>
+    <hyperlink ref="C252" r:id="rId212" xr:uid="{851A7153-3B54-0E4A-A0A0-FCEB091AFE70}"/>
+    <hyperlink ref="C253" r:id="rId213" xr:uid="{C03AE9F8-09AE-C640-81A7-033BB06FB6AD}"/>
+    <hyperlink ref="C254" r:id="rId214" xr:uid="{35140DEB-52D2-4342-88D2-22BA061E5B48}"/>
+    <hyperlink ref="C255" r:id="rId215" xr:uid="{9714BC0B-3373-934C-B7A1-599F74F4FB9D}"/>
+    <hyperlink ref="C258" r:id="rId216" xr:uid="{5CB435B2-7FD2-1D44-9872-22B6A1EDC02B}"/>
+    <hyperlink ref="C259" r:id="rId217" xr:uid="{722D1D95-896B-4642-BABD-31DEDD237B49}"/>
+    <hyperlink ref="C260" r:id="rId218" xr:uid="{D686D1DC-13D6-284C-B606-E087FAF47399}"/>
+    <hyperlink ref="C261" r:id="rId219" xr:uid="{D22C2394-C3CB-8F4F-A010-2B13C8C84D1A}"/>
+    <hyperlink ref="C262" r:id="rId220" xr:uid="{3AE2F800-B66F-1A41-893B-978F6875FDC8}"/>
+    <hyperlink ref="C263" r:id="rId221" xr:uid="{2C939BDE-5298-5541-837B-8C59D53A33C1}"/>
+    <hyperlink ref="C264" r:id="rId222" xr:uid="{691C9BD8-69D3-DA4B-AEB6-AF827B4ACA9F}"/>
+    <hyperlink ref="C265" r:id="rId223" xr:uid="{B6891E82-7C4D-424D-9219-3C9FD08E0053}"/>
+    <hyperlink ref="C266" r:id="rId224" xr:uid="{67A1AE98-62D2-644D-AC13-6CD76CF53CC0}"/>
+    <hyperlink ref="C267" r:id="rId225" xr:uid="{B59D4881-2A82-8F4D-B151-1E796C4923C8}"/>
+    <hyperlink ref="C268" r:id="rId226" xr:uid="{B3CBD023-5EFD-6048-9B3F-89F0C65CBBF5}"/>
+    <hyperlink ref="C269" r:id="rId227" xr:uid="{53EC42C4-22F7-0445-A0AC-7275A59A2672}"/>
+    <hyperlink ref="C270" r:id="rId228" xr:uid="{A29575F3-CB24-5B4B-9538-D5212B2DC28B}"/>
+    <hyperlink ref="C271" r:id="rId229" xr:uid="{353A44DD-9E30-8F48-8E2B-8DAA07550470}"/>
+    <hyperlink ref="C272" r:id="rId230" xr:uid="{32AC291D-95A5-BE49-88E0-02677BF39CAC}"/>
+    <hyperlink ref="C273" r:id="rId231" xr:uid="{A84F22FF-AD10-A546-8998-B066C0EB2D5A}"/>
+    <hyperlink ref="C274" r:id="rId232" xr:uid="{4C5CAF84-9B94-FC44-8C6C-B3CC7257C1DB}"/>
+    <hyperlink ref="C275" r:id="rId233" xr:uid="{5DA775E2-C516-3B47-8C82-3CEE7CC0BDF9}"/>
+    <hyperlink ref="C276" r:id="rId234" xr:uid="{00B6AE5C-EF3F-0747-A280-3BF055362B4F}"/>
+    <hyperlink ref="C277" r:id="rId235" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." xr:uid="{BCBD0A7E-F3D0-E840-9375-AFD37C5CD41A}"/>
+    <hyperlink ref="C278" r:id="rId236" xr:uid="{47ABDDDB-F95F-8049-9FB3-1E71A7376DDE}"/>
+    <hyperlink ref="C279" r:id="rId237" xr:uid="{70BADFC9-7399-234D-99F6-4C5F02397C26}"/>
+    <hyperlink ref="C280" r:id="rId238" xr:uid="{63348580-70EF-EC47-BF49-8ECE9560D54E}"/>
+    <hyperlink ref="C281" r:id="rId239" xr:uid="{D5BD96B3-9EAB-1B47-AC87-5C47F6AD7F40}"/>
+    <hyperlink ref="C282" r:id="rId240" xr:uid="{74791141-3FB8-7540-B45B-9541AF0AE371}"/>
+    <hyperlink ref="C283" r:id="rId241" xr:uid="{88D53CD6-262A-7247-8E58-FE9FFF7ECC40}"/>
+    <hyperlink ref="C284" r:id="rId242" xr:uid="{4338A14D-4F7D-B943-A347-7F74EFCA0DB5}"/>
+    <hyperlink ref="C285" r:id="rId243" xr:uid="{6E0EF7A3-7341-284B-A0E3-4539B6EAFAF2}"/>
+    <hyperlink ref="C286" r:id="rId244" xr:uid="{D2D8D64F-E2D3-734E-AD45-3EFB9686555A}"/>
+    <hyperlink ref="C287" r:id="rId245" xr:uid="{04A2904A-73A0-7845-9868-2CCFE359AC68}"/>
+    <hyperlink ref="C288" r:id="rId246" xr:uid="{D3D35835-6BE3-4D41-AF6F-5FE442277A16}"/>
+    <hyperlink ref="C289" r:id="rId247" xr:uid="{F663D0FC-CFF0-BC4F-9D26-48C871A8E9FD}"/>
+    <hyperlink ref="C290" r:id="rId248" xr:uid="{DF544147-DA48-4041-A4E2-4A75106B771A}"/>
+    <hyperlink ref="C291" r:id="rId249" xr:uid="{50E4B716-239E-7946-843D-E8462591D128}"/>
+    <hyperlink ref="C292" r:id="rId250" xr:uid="{D368B3E5-7D12-FD48-AFF7-A4A614108940}"/>
+    <hyperlink ref="C295" r:id="rId251" xr:uid="{D5921FF1-FC1F-CA4B-A24E-AD69E1DEC14C}"/>
+    <hyperlink ref="C296" r:id="rId252" xr:uid="{C931D7E0-E032-7C4B-95F1-735D955FCB51}"/>
+    <hyperlink ref="C297" r:id="rId253" xr:uid="{5FBD4A8F-287C-2C46-9CAB-F7DBA67DEDDA}"/>
+    <hyperlink ref="C298" r:id="rId254" xr:uid="{12966DD6-41DD-A94B-8B2C-0AD7D2AD6FB0}"/>
+    <hyperlink ref="C299" r:id="rId255" xr:uid="{CF720C34-4554-2944-A818-020ABC9BF0F4}"/>
+    <hyperlink ref="C300" r:id="rId256" xr:uid="{75763F2A-16D7-DE43-8189-19623CE26370}"/>
+    <hyperlink ref="C301" r:id="rId257" xr:uid="{9263AA30-472A-0A4D-BADF-96D82BB9BFCC}"/>
+    <hyperlink ref="C302" r:id="rId258" xr:uid="{2EF025C3-75C8-564E-BA8B-708C32B0E602}"/>
+    <hyperlink ref="C303" r:id="rId259" xr:uid="{6BDFDCA9-3421-F24F-8EF2-A72742F0AC21}"/>
+    <hyperlink ref="C304" r:id="rId260" xr:uid="{D8447F99-5FF9-D544-99BB-E9969B4A38D7}"/>
+    <hyperlink ref="C305" r:id="rId261" xr:uid="{1DB7EFDA-6C7D-F546-9EE1-F61ED0F65209}"/>
+    <hyperlink ref="C306" r:id="rId262" xr:uid="{D1505609-27D1-784D-ACF6-AE9D0DA2E1B6}"/>
+    <hyperlink ref="C307" r:id="rId263" xr:uid="{6BFA7B45-17D0-4E49-85DA-23C7255A306D}"/>
+    <hyperlink ref="C308" r:id="rId264" xr:uid="{3324BA4A-30CA-5246-8C3C-6505A6987939}"/>
+    <hyperlink ref="C309" r:id="rId265" xr:uid="{894486AD-2B6D-5740-BCAF-0BA1AFF814B4}"/>
+    <hyperlink ref="C310" r:id="rId266" xr:uid="{C47B203B-8B5A-E740-8C86-0784AD28089E}"/>
+    <hyperlink ref="C311" r:id="rId267" xr:uid="{06DC2E54-7597-AE4D-ACDB-B8883A989A4F}"/>
+    <hyperlink ref="C312" r:id="rId268" xr:uid="{E3384259-7CA7-1C44-A66D-11346EE6742E}"/>
+    <hyperlink ref="C313" r:id="rId269" xr:uid="{A5B77769-38AF-3D47-A76B-311591B57D91}"/>
+    <hyperlink ref="C316" r:id="rId270" xr:uid="{9DB6976A-C646-1341-90E8-3A164521267A}"/>
+    <hyperlink ref="C317" r:id="rId271" xr:uid="{03C291F8-D19A-304B-9EF9-CF71A1F66E49}"/>
+    <hyperlink ref="C318" r:id="rId272" xr:uid="{7536415C-140B-9244-B0B2-23F3ED0B2D80}"/>
+    <hyperlink ref="C319" r:id="rId273" xr:uid="{7DBDA456-8AF6-DD43-9764-17D3959B8E8F}"/>
+    <hyperlink ref="C320" r:id="rId274" xr:uid="{BFC149AB-C15A-B648-9F6A-ECD3890B1918}"/>
+    <hyperlink ref="C321" r:id="rId275" xr:uid="{0482240B-FEE9-F746-8980-52BCB7BBB56E}"/>
+    <hyperlink ref="C322" r:id="rId276" xr:uid="{86D1231A-E7C8-4B45-99ED-2DB0EF71E190}"/>
+    <hyperlink ref="C323" r:id="rId277" xr:uid="{20B7CE89-CB37-0040-989F-C8D1BE2B8782}"/>
+    <hyperlink ref="C324" r:id="rId278" xr:uid="{4C8412C9-A47B-9244-A18B-741516BD1054}"/>
+    <hyperlink ref="C325" r:id="rId279" xr:uid="{511761D9-31CE-0B43-AFFD-C011C27ACC52}"/>
+    <hyperlink ref="C326" r:id="rId280" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." xr:uid="{6905F997-D048-1049-BA27-C48756603D1E}"/>
+    <hyperlink ref="C327" r:id="rId281" xr:uid="{E657AA82-7CFE-DB42-B20F-F63D8C25EAB6}"/>
+    <hyperlink ref="C328" r:id="rId282" xr:uid="{3E505033-58F3-8F4E-AB82-E12DBC226AEA}"/>
+    <hyperlink ref="C329" r:id="rId283" xr:uid="{749599E5-4972-7343-B13B-87E26F837470}"/>
+    <hyperlink ref="C330" r:id="rId284" xr:uid="{12AA88DC-22AB-5A49-B28C-F04C8E35A215}"/>
+    <hyperlink ref="C331" r:id="rId285" xr:uid="{5751F0A7-7D9D-4148-820B-5B9659DFE34F}"/>
+    <hyperlink ref="C332" r:id="rId286" xr:uid="{4CA2DBEE-B161-B84D-B3A9-B8BC1B598AF2}"/>
+    <hyperlink ref="C333" r:id="rId287" xr:uid="{A9C1E578-6594-954C-8785-8902E605FC7A}"/>
+    <hyperlink ref="C334" r:id="rId288" xr:uid="{3D45E9B8-6671-A747-8C18-51CF8883170A}"/>
+    <hyperlink ref="C335" r:id="rId289" xr:uid="{4F5EF748-8CD4-0F47-90CE-3C93755BF63D}"/>
+    <hyperlink ref="C336" r:id="rId290" xr:uid="{44053C08-5050-C84B-B016-069B1EF9A43D}"/>
+    <hyperlink ref="C337" r:id="rId291" xr:uid="{ABF38928-736B-1A49-8B8A-1DCA5AAECB2B}"/>
+    <hyperlink ref="C338" r:id="rId292" xr:uid="{52651FAF-F3DC-E949-8AF8-998B9724B7D1}"/>
+    <hyperlink ref="C339" r:id="rId293" xr:uid="{91C6CCEF-3FF7-2C42-B5A0-8F4A403ED198}"/>
+    <hyperlink ref="C340" r:id="rId294" xr:uid="{15C8AF08-1A79-F949-9BE7-DD240CBD9861}"/>
+    <hyperlink ref="C341" r:id="rId295" xr:uid="{1904F984-5B22-8D46-BC33-3073B390E8F9}"/>
+    <hyperlink ref="C342" r:id="rId296" xr:uid="{A8BFB3A4-426B-E646-BCF0-FE19C8CD07A9}"/>
+    <hyperlink ref="C343" r:id="rId297" xr:uid="{FBBA29BB-885B-744A-A644-58EDCA7B140A}"/>
+    <hyperlink ref="C344" r:id="rId298" xr:uid="{75411687-6884-AC42-8B4A-1348C4837365}"/>
+    <hyperlink ref="C345" r:id="rId299" xr:uid="{A89ED8DF-F678-FE43-808C-C190721379BF}"/>
+    <hyperlink ref="C346" r:id="rId300" xr:uid="{1516834D-F3B2-1743-8811-263E11BBDEF8}"/>
+    <hyperlink ref="C347" r:id="rId301" xr:uid="{1659AB91-08CA-E44D-988D-E9D9A746D406}"/>
+    <hyperlink ref="C348" r:id="rId302" xr:uid="{E844BC1D-9713-9F4D-B0A4-1124A9952D14}"/>
+    <hyperlink ref="C349" r:id="rId303" xr:uid="{DCE2AAEF-8D8E-1843-BFE9-E9B7E13854EB}"/>
+    <hyperlink ref="C350" r:id="rId304" xr:uid="{836B3BF0-7711-7D41-9E72-914C1871397F}"/>
+    <hyperlink ref="C351" r:id="rId305" xr:uid="{F450CF9B-CA59-1443-8163-13F1121DCF12}"/>
+    <hyperlink ref="C352" r:id="rId306" xr:uid="{1539C3E8-4854-3C4F-A7B3-55BF931F1E2A}"/>
+    <hyperlink ref="C353" r:id="rId307" xr:uid="{04F1FC5F-5DA1-0144-962D-B38C1C41F0F4}"/>
+    <hyperlink ref="C356" r:id="rId308" xr:uid="{B21618F4-70E2-C549-80B7-7CF915679E0A}"/>
+    <hyperlink ref="C357" r:id="rId309" xr:uid="{EEDFBF11-C1E4-0847-9D56-94A72D97AEE7}"/>
+    <hyperlink ref="C358" r:id="rId310" xr:uid="{F5C0EDF1-7EAC-8849-8D27-C3389913BFC6}"/>
+    <hyperlink ref="C359" r:id="rId311" xr:uid="{50175B29-124F-4E4E-8E98-961BD3320359}"/>
+    <hyperlink ref="C360" r:id="rId312" xr:uid="{1BE23822-8512-014F-9154-F6EDA4FC8428}"/>
+    <hyperlink ref="C361" r:id="rId313" xr:uid="{38EC228E-ABFF-3542-9CFB-3DDFC628E9D0}"/>
+    <hyperlink ref="C362" r:id="rId314" xr:uid="{73F240F8-C469-454E-BA5C-CFF2F7A7A5F6}"/>
+    <hyperlink ref="C363" r:id="rId315" xr:uid="{3BBD1BAC-68C7-A94A-9063-AF62B5C837FD}"/>
+    <hyperlink ref="C364" r:id="rId316" xr:uid="{F9751D9B-2689-E24B-9FC3-CA32FE888708}"/>
+    <hyperlink ref="C365" r:id="rId317" xr:uid="{73C61D6A-D97C-B944-8B27-BB91564AB0D7}"/>
+    <hyperlink ref="C366" r:id="rId318" xr:uid="{936E077C-C016-A04F-895A-782D6D9D9433}"/>
+    <hyperlink ref="C367" r:id="rId319" xr:uid="{5454A2A1-6607-BE48-9215-CB8965EC3568}"/>
+    <hyperlink ref="C368" r:id="rId320" xr:uid="{FC1EAA10-F7ED-6B42-A79B-3D8B44E2C8B3}"/>
+    <hyperlink ref="C369" r:id="rId321" xr:uid="{FDB7F712-4A42-1048-8929-A1E752B07C6A}"/>
+    <hyperlink ref="C370" r:id="rId322" xr:uid="{AF3ACA60-0B0E-E146-B51F-A2CD05EB6549}"/>
+    <hyperlink ref="C371" r:id="rId323" xr:uid="{BB63E040-7A1A-E046-9BDD-9CBD1DA89DE9}"/>
+    <hyperlink ref="C372" r:id="rId324" xr:uid="{9AF8FD93-CCC9-D540-AE9A-00583F309649}"/>
+    <hyperlink ref="C373" r:id="rId325" xr:uid="{66A746A0-71FE-E546-92B7-D1C3D582E067}"/>
+    <hyperlink ref="C377" r:id="rId326" xr:uid="{BD79CCE1-5315-3944-9F9B-618615EC4583}"/>
+    <hyperlink ref="C378" r:id="rId327" xr:uid="{A5068A51-C961-6847-BB27-40A850B6D393}"/>
+    <hyperlink ref="C379" r:id="rId328" xr:uid="{6B8D36F0-E796-B944-A456-E8A9E2EE0BDB}"/>
+    <hyperlink ref="C380" r:id="rId329" xr:uid="{776652B7-2C11-4641-BF6A-EABEEB9B55AB}"/>
+    <hyperlink ref="C381" r:id="rId330" xr:uid="{95C6B35D-712A-2343-B790-236B55C5EC49}"/>
+    <hyperlink ref="C382" r:id="rId331" xr:uid="{4ED53872-1FE9-F140-AA35-F228F762880B}"/>
+    <hyperlink ref="C383" r:id="rId332" xr:uid="{6D5E6A28-85AA-BF4C-B2BD-9378D6E28EC7}"/>
+    <hyperlink ref="C384" r:id="rId333" xr:uid="{BCAD1ECB-15EE-CF49-878E-AA682DE3AC22}"/>
+    <hyperlink ref="C385" r:id="rId334" xr:uid="{C85468B5-25E9-E446-808E-72CFE911F0C2}"/>
+    <hyperlink ref="C386" r:id="rId335" xr:uid="{9503AECA-1A6A-9640-A04C-4CEAA2304448}"/>
+    <hyperlink ref="C387" r:id="rId336" xr:uid="{74211516-06B0-AA45-845B-52C8202751DA}"/>
+    <hyperlink ref="C388" r:id="rId337" xr:uid="{02C696BC-4B91-9444-900F-9CD68E409ABC}"/>
+    <hyperlink ref="C389" r:id="rId338" xr:uid="{04646C45-4118-374C-839D-94D31D534FAC}"/>
+    <hyperlink ref="C390" r:id="rId339" xr:uid="{F90BCCAE-8596-FC4D-BDD7-774392C596DF}"/>
+    <hyperlink ref="C391" r:id="rId340" xr:uid="{65230925-36EC-8A4B-8E46-6350B9BC0F95}"/>
+    <hyperlink ref="C392" r:id="rId341" xr:uid="{E91B8177-0C7A-1F40-BD34-4CC60F03B84F}"/>
+    <hyperlink ref="C393" r:id="rId342" xr:uid="{E8CBFD60-7335-0B4D-9FF5-99B4A8DC551D}"/>
+    <hyperlink ref="C394" r:id="rId343" xr:uid="{A35F55D4-9B87-C745-94DB-E7D820193C30}"/>
+    <hyperlink ref="C395" r:id="rId344" xr:uid="{6461A29F-D404-334F-B13F-296B4CA5E8A4}"/>
+    <hyperlink ref="C396" r:id="rId345" xr:uid="{FA9B4BE7-85CC-B24F-9461-5E9B42DDD824}"/>
+    <hyperlink ref="C397" r:id="rId346" xr:uid="{A75ACEA2-CDF6-A147-8540-A6DF55B15F45}"/>
+    <hyperlink ref="C398" r:id="rId347" xr:uid="{62FF87E2-E658-AB4D-AC57-7BCF9D49516E}"/>
+    <hyperlink ref="C399" r:id="rId348" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." xr:uid="{269338A6-5145-6944-9F7F-BD2A86DFA308}"/>
+    <hyperlink ref="C400" r:id="rId349" xr:uid="{8F583049-CE8D-CD42-88CD-CF3857942670}"/>
+    <hyperlink ref="C401" r:id="rId350" xr:uid="{EE2348AD-E296-894A-B5AE-5884A3C5E419}"/>
+    <hyperlink ref="C402" r:id="rId351" xr:uid="{6EACB34E-B32E-8F43-8055-2406F7417A7E}"/>
+    <hyperlink ref="C403" r:id="rId352" xr:uid="{2446F10A-B762-B64C-97B2-6131A0BECC1F}"/>
+    <hyperlink ref="C404" r:id="rId353" xr:uid="{6FDFCC53-17A6-7244-88A7-49406D7C9200}"/>
+    <hyperlink ref="C405" r:id="rId354" xr:uid="{3EC43646-EAB1-E443-A2F6-8E6E5FC77083}"/>
+    <hyperlink ref="C406" r:id="rId355" xr:uid="{659D9F20-C862-C947-B422-84143CFE317F}"/>
+    <hyperlink ref="C407" r:id="rId356" xr:uid="{3F5192FE-1C50-C049-88D5-68FA0F5430A0}"/>
+    <hyperlink ref="C408" r:id="rId357" xr:uid="{5EAD7CDA-9545-454B-BE77-9AFEC6AC1083}"/>
+    <hyperlink ref="C409" r:id="rId358" xr:uid="{761E5451-736B-6745-9CF5-4C6EF5D4C099}"/>
+    <hyperlink ref="C410" r:id="rId359" xr:uid="{4C8677A9-D94C-134F-AF31-E424751BF867}"/>
+    <hyperlink ref="C411" r:id="rId360" xr:uid="{CCF7920F-D5CE-004A-86C3-D821FB230970}"/>
+    <hyperlink ref="C412" r:id="rId361" xr:uid="{B4C07A0A-1EDD-7947-9646-3FD603441AD7}"/>
+    <hyperlink ref="C413" r:id="rId362" xr:uid="{49F7BB43-6851-0641-9DC5-27DBC66706F6}"/>
+    <hyperlink ref="C414" r:id="rId363" xr:uid="{77038647-48C7-5547-8E0F-898610362465}"/>
+    <hyperlink ref="C416" r:id="rId364" xr:uid="{EEFFE19C-6571-C64F-A0E1-5A4A700D94D4}"/>
+    <hyperlink ref="C415" r:id="rId365" xr:uid="{A4A2BFC4-6B88-2E4E-B362-17D8EE041C89}"/>
+    <hyperlink ref="C417" r:id="rId366" xr:uid="{DC5B603A-8D65-3648-A08A-E5FFA0FAE879}"/>
+    <hyperlink ref="C418" r:id="rId367" xr:uid="{F8807DD9-F4F2-B147-9C31-DBC93B2E477B}"/>
+    <hyperlink ref="C419" r:id="rId368" xr:uid="{6F7B396C-D7E9-C04E-BAE2-53D2EE07172B}"/>
+    <hyperlink ref="C422" r:id="rId369" xr:uid="{0D4A5941-C669-4A49-BAE3-9B553D03BD0F}"/>
+    <hyperlink ref="C423" r:id="rId370" xr:uid="{54144336-5BCA-D749-962A-E448C2CED3D3}"/>
+    <hyperlink ref="C424" r:id="rId371" xr:uid="{3A41DD21-CACF-1F48-A7C7-F568C6F31F3E}"/>
+    <hyperlink ref="C425" r:id="rId372" xr:uid="{A36160A8-F45E-3443-9645-42C1004B8F8C}"/>
+    <hyperlink ref="C426" r:id="rId373" xr:uid="{8B0A00A3-6AC0-DF46-AD87-A4DA016A2A00}"/>
+    <hyperlink ref="C427" r:id="rId374" xr:uid="{62A81CB4-A961-C543-B31C-92059DB6C105}"/>
+    <hyperlink ref="C430" r:id="rId375" xr:uid="{08030975-009C-C34A-A875-72FE2718F44C}"/>
+    <hyperlink ref="C431" r:id="rId376" xr:uid="{A113C7A9-2359-B643-9C08-E845813439C0}"/>
+    <hyperlink ref="C432" r:id="rId377" xr:uid="{FE300343-4633-AD47-A64D-2086629EB398}"/>
+    <hyperlink ref="C433" r:id="rId378" xr:uid="{4FC9F782-D38F-C642-A863-887B17AD05CD}"/>
+    <hyperlink ref="C434" r:id="rId379" xr:uid="{830C5466-10E3-7A48-B3E7-35C15A1CA4EF}"/>
+    <hyperlink ref="C435" r:id="rId380" xr:uid="{1B987077-E9D3-6F40-89EE-0D4E7180D884}"/>
+    <hyperlink ref="C436" r:id="rId381" xr:uid="{D4843E1F-7226-864E-A4BB-264D5A487B6D}"/>
+    <hyperlink ref="C437" r:id="rId382" xr:uid="{61816592-2D19-9946-8253-47A60218F2EA}"/>
+    <hyperlink ref="C438" r:id="rId383" xr:uid="{736C840F-19A3-0A4B-8863-ECB772B46385}"/>
+    <hyperlink ref="C439" r:id="rId384" xr:uid="{05A238AD-3C5B-C546-94E9-75BBF964711A}"/>
+    <hyperlink ref="C440" r:id="rId385" xr:uid="{7029629C-3F2A-4A49-997B-CFE86EC8B3C2}"/>
+    <hyperlink ref="C441" r:id="rId386" xr:uid="{ADA66B57-2FAC-AB42-BD83-4931708F3AB5}"/>
+    <hyperlink ref="C442" r:id="rId387" xr:uid="{F16BF1F9-755B-B045-B9A8-0B97E3BAC8B0}"/>
+    <hyperlink ref="C443" r:id="rId388" xr:uid="{ECCE930A-B960-234C-81EC-4B8514282AE9}"/>
+    <hyperlink ref="C444" r:id="rId389" xr:uid="{7AA58141-7D24-7C42-A0C1-F852B21CFFD9}"/>
+    <hyperlink ref="C445" r:id="rId390" xr:uid="{B1FCB47D-7921-3446-B2C7-72CBA815D056}"/>
+    <hyperlink ref="C446" r:id="rId391" xr:uid="{8C547719-AA03-3543-B31F-7300674AF4C5}"/>
+    <hyperlink ref="C447" r:id="rId392" xr:uid="{09922668-AFC0-F242-860E-9967E0F0FEF4}"/>
+    <hyperlink ref="C448" r:id="rId393" xr:uid="{0DA963DA-238B-D44E-9E03-6E6BD933B35E}"/>
+    <hyperlink ref="C449" r:id="rId394" xr:uid="{89518AFF-2526-C845-BC9D-95FE77AF416E}"/>
+    <hyperlink ref="C450" r:id="rId395" xr:uid="{FAECBBBE-196C-7A41-A0FB-E0597CB2CF51}"/>
+    <hyperlink ref="C451" r:id="rId396" xr:uid="{8126B039-0B25-B040-A0F6-C3457341A2E9}"/>
+    <hyperlink ref="C452" r:id="rId397" xr:uid="{6CB326E6-E698-EB42-884B-C89FFA33E3BA}"/>
+    <hyperlink ref="C453" r:id="rId398" xr:uid="{8C97EFD1-933F-A44F-A1CF-6386233104A2}"/>
+    <hyperlink ref="C454" r:id="rId399" xr:uid="{8F019F07-8532-E147-8BE1-4EBE833F61CA}"/>
+    <hyperlink ref="C455" r:id="rId400" xr:uid="{00F1A08F-3767-784A-97A3-4603DE38BACC}"/>
+    <hyperlink ref="C456" r:id="rId401" xr:uid="{2A84ADCB-071F-9A48-994D-7A838307EFD8}"/>
+    <hyperlink ref="C457" r:id="rId402" xr:uid="{132F8C6D-D5E8-6440-AC4E-B81EA2100416}"/>
+    <hyperlink ref="C458" r:id="rId403" xr:uid="{2DA6EAC2-1A1D-754F-9613-226CBC7890AF}"/>
+    <hyperlink ref="C459" r:id="rId404" xr:uid="{05BED99A-4562-D14E-8627-D07CF5335A9B}"/>
+    <hyperlink ref="C460" r:id="rId405" xr:uid="{111D902A-3F60-2D4B-89D3-5BCBD8AA38DD}"/>
+    <hyperlink ref="C461" r:id="rId406" xr:uid="{F19236BE-AC32-3542-9214-DFC3BAE04ED0}"/>
+    <hyperlink ref="C462" r:id="rId407" xr:uid="{4D97CD96-EA1B-664E-9380-EFD27077D273}"/>
+    <hyperlink ref="C463" r:id="rId408" xr:uid="{49A46D91-633F-A148-ACFA-49B7D1AA4B33}"/>
+    <hyperlink ref="C464" r:id="rId409" xr:uid="{7C3B7901-67E3-EA4D-BC64-21A78BC03AC6}"/>
+    <hyperlink ref="C465" r:id="rId410" xr:uid="{B27CA8C3-D34F-5E4D-94A5-11D14AFD0F82}"/>
+    <hyperlink ref="C466" r:id="rId411" xr:uid="{8FECE038-9764-5E4A-8C6E-9B3209812651}"/>
+    <hyperlink ref="C467" r:id="rId412" xr:uid="{95696D4B-89CB-5640-BE92-53B3C043F7EB}"/>
+    <hyperlink ref="C468" r:id="rId413" xr:uid="{DA74B737-802A-4944-A93E-0B9C8417630B}"/>
+    <hyperlink ref="C469" r:id="rId414" xr:uid="{B2C4C168-50FA-AF41-8F56-9E70613CF17D}"/>
+    <hyperlink ref="C471" r:id="rId415" xr:uid="{B7090C60-AC27-3F4F-8F0D-42F0791928C6}"/>
+    <hyperlink ref="C470" r:id="rId416" xr:uid="{07400041-66C6-514B-B3E3-427F2947C2B7}"/>
+    <hyperlink ref="C472" r:id="rId417" xr:uid="{B7E78172-8FB8-4E42-87D8-6A4654D79C62}"/>
+    <hyperlink ref="C473" r:id="rId418" xr:uid="{9A5D4670-BC64-334A-88CF-6F8287692C5E}"/>
+    <hyperlink ref="C474" r:id="rId419" xr:uid="{604283B6-53BC-044F-8D9D-E6094E798317}"/>
+    <hyperlink ref="C475" r:id="rId420" xr:uid="{5EB15AC7-3E0E-E44C-A5B9-32F30F234B5A}"/>
+    <hyperlink ref="C476" r:id="rId421" xr:uid="{3076BD5F-4B23-4146-A50A-499C9FF4C3D2}"/>
+    <hyperlink ref="C477" r:id="rId422" xr:uid="{6A29D9C2-1E78-1B43-A251-0AB0A97FA70E}"/>
+    <hyperlink ref="C478" r:id="rId423" xr:uid="{00597D5E-D693-DF4E-84C0-47E58A6ACA8F}"/>
+    <hyperlink ref="C479" r:id="rId424" xr:uid="{48640988-9964-0B4C-A014-83E2CEB3D632}"/>
+    <hyperlink ref="C480" r:id="rId425" xr:uid="{617AADC9-7534-FE45-96B0-EF4C1867B793}"/>
+    <hyperlink ref="C481" r:id="rId426" xr:uid="{7F8CDAA4-5094-8E4E-961B-41CDE5ACC0C0}"/>
+    <hyperlink ref="C482" r:id="rId427" xr:uid="{63F28ABD-12CF-5947-80DA-229E3CA3133E}"/>
+    <hyperlink ref="C489" r:id="rId428" xr:uid="{0A1DB92C-3315-1942-B27D-4B90986A6D9D}"/>
+    <hyperlink ref="C488" r:id="rId429" xr:uid="{11738B67-CADD-5D45-8417-8BE7A03FC79F}"/>
+    <hyperlink ref="C487" r:id="rId430" xr:uid="{B2B23748-D9E4-BE4F-A93E-49ECB4063831}"/>
+    <hyperlink ref="C486" r:id="rId431" xr:uid="{A2FB8A72-37B9-7E4A-B050-FD6CD20BCE73}"/>
+    <hyperlink ref="C485" r:id="rId432" xr:uid="{5A93C9AF-BFEB-EB40-95AC-C309ED09A604}"/>
+    <hyperlink ref="C484" r:id="rId433" xr:uid="{CC203923-2DC2-874B-B846-A8455E3CC2F2}"/>
+    <hyperlink ref="C483" r:id="rId434" xr:uid="{FCB0246E-0179-B447-B3CE-C60CDB388472}"/>
+    <hyperlink ref="C492" r:id="rId435" xr:uid="{F06CEE72-8CA4-C547-862C-39B86CD3226A}"/>
+    <hyperlink ref="C493" r:id="rId436" xr:uid="{CB3045F2-8D63-0F4E-85BC-AF016DB4F247}"/>
+    <hyperlink ref="C494" r:id="rId437" xr:uid="{667D57F5-E5AD-674F-A2F5-AFF4A14E4026}"/>
+    <hyperlink ref="C495" r:id="rId438" xr:uid="{27A13A65-56CE-BF4D-BA0D-EB87D910272D}"/>
+    <hyperlink ref="C496" r:id="rId439" xr:uid="{2C72A52E-6F06-0246-AEB5-93CD0DEA8866}"/>
+    <hyperlink ref="C497" r:id="rId440" xr:uid="{24B29046-B4DD-674B-9EDF-6C94BEC3FDD8}"/>
+    <hyperlink ref="C498" r:id="rId441" xr:uid="{D018EBC3-3FB3-AC4D-9D64-D218345A46C8}"/>
+    <hyperlink ref="C501" r:id="rId442" xr:uid="{1E1D3964-01E0-3145-ACFE-B6A5BF0EECB0}"/>
+    <hyperlink ref="C499" r:id="rId443" xr:uid="{FA0E5061-A7E2-C045-9671-1CD9446D1932}"/>
+    <hyperlink ref="C500" r:id="rId444" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{92704F5B-7B31-2F42-80DD-764B2206D9DB}"/>
+    <hyperlink ref="C376" r:id="rId445" xr:uid="{A48B1A24-83B1-7A4C-8129-CD37804DF849}"/>
+    <hyperlink ref="C27" r:id="rId446" xr:uid="{F0DDC999-C321-4AB4-BA9D-7538150E84D3}"/>
     <hyperlink ref="C9" r:id="rId447" xr:uid="{310D755F-0FAF-4086-8950-B58917F7CAF8}"/>
     <hyperlink ref="C8" r:id="rId448" xr:uid="{6913685B-862A-49D7-AB28-593B13669931}"/>
     <hyperlink ref="C10" r:id="rId449" xr:uid="{E2555AFC-8C22-4A69-A028-B6C7E7796509}"/>
@@ -8232,9 +8279,10 @@
     <hyperlink ref="C21" r:id="rId458" xr:uid="{394D268B-F042-4D5E-8945-7C021567FDBC}"/>
     <hyperlink ref="C20" r:id="rId459" xr:uid="{A00A42BF-18C8-47DB-A23E-C835CF3A1B72}"/>
     <hyperlink ref="C19" r:id="rId460" xr:uid="{B7A6DAE3-6E86-4612-A1FF-539F5C6D3E1D}"/>
-    <hyperlink ref="C25" r:id="rId461" xr:uid="{5221452B-37E3-4315-91B2-6A38CEBB1898}"/>
+    <hyperlink ref="C26" r:id="rId461" xr:uid="{5221452B-37E3-4315-91B2-6A38CEBB1898}"/>
+    <hyperlink ref="C22" r:id="rId462" xr:uid="{5999B149-8599-449A-921E-18EC440B534F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId462"/>
+  <pageSetup orientation="portrait" r:id="rId463"/>
 </worksheet>
 </file>
--- a/DSA Sheet.xlsx
+++ b/DSA Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Java\Java-DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{519DF654-7717-4163-8D55-725822207383}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B215F87-CCBB-427A-8723-39DCF5163E03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22140" windowHeight="13176" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1431" uniqueCount="509">
   <si>
     <t>Topic:</t>
   </si>
@@ -1549,6 +1549,9 @@
   </si>
   <si>
     <t>DGN0MATH</t>
+  </si>
+  <si>
+    <t>PAPN0MATH</t>
   </si>
 </sst>
 </file>
@@ -2020,7 +2023,7 @@
   <dimension ref="A1:F501"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
@@ -2268,14 +2271,12 @@
         <v>474</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>472</v>
-      </c>
+      <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" s="9" t="s">

--- a/DSA Sheet.xlsx
+++ b/DSA Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Java\Java-DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B215F87-CCBB-427A-8723-39DCF5163E03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC0FC137-768A-44EE-9E7F-03462B584564}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22140" windowHeight="13176" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1431" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="511">
   <si>
     <t>Topic:</t>
   </si>
@@ -1422,27 +1422,6 @@
     <t>CodeName</t>
   </si>
   <si>
-    <t>RA0ARR</t>
-  </si>
-  <si>
-    <t>MAM0ARR</t>
-  </si>
-  <si>
-    <t>KMAM0ARR</t>
-  </si>
-  <si>
-    <t>0120ARR</t>
-  </si>
-  <si>
-    <t>NE0ARR</t>
-  </si>
-  <si>
-    <t>U&amp;I0ARR</t>
-  </si>
-  <si>
-    <t>CR0ARR</t>
-  </si>
-  <si>
     <t>YES</t>
   </si>
   <si>
@@ -1500,12 +1479,6 @@
     <t>Write a program to find out all the divisors of a given number</t>
   </si>
   <si>
-    <t>Write a program to calculate pow(x,n)</t>
-  </si>
-  <si>
-    <t>Write an iterative O(Log y) function for pow(x, y)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Write a program to Count digits in a factorial </t>
   </si>
   <si>
@@ -1536,9 +1509,6 @@
     <t>Revision</t>
   </si>
   <si>
-    <t>Find pair with maximum GCD in an array</t>
-  </si>
-  <si>
     <t>VDO</t>
   </si>
   <si>
@@ -1552,6 +1522,42 @@
   </si>
   <si>
     <t>PAPN0MATH</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>Sieve Of Erasthothenus</t>
+  </si>
+  <si>
+    <t>Eucledian Algorithm</t>
+  </si>
+  <si>
+    <t>Find second largest element in array</t>
+  </si>
+  <si>
+    <t>SLE1ARR</t>
+  </si>
+  <si>
+    <t>MAM1ARR</t>
+  </si>
+  <si>
+    <t>RA1ARR</t>
+  </si>
+  <si>
+    <t>KMAM1ARR</t>
+  </si>
+  <si>
+    <t>0121ARR</t>
+  </si>
+  <si>
+    <t>NE1ARR</t>
+  </si>
+  <si>
+    <t>U&amp;I1ARR</t>
+  </si>
+  <si>
+    <t>CR1ARR</t>
   </si>
 </sst>
 </file>
@@ -1664,7 +1670,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1697,6 +1703,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2020,10 +2029,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
-  <dimension ref="A1:F501"/>
+  <dimension ref="A1:F500"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
@@ -2044,13 +2053,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C2" s="13" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="D2" s="8"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C3" s="13" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="D3" s="8"/>
     </row>
@@ -2075,7 +2084,10 @@
         <v>2</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>502</v>
+        <v>493</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
@@ -2087,351 +2099,351 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="8" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" s="8" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" s="8" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" s="8" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" s="9" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" s="8" t="s">
+        <v>467</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>481</v>
-      </c>
       <c r="C13" s="5" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" s="8" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>472</v>
+        <v>465</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" s="8" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" s="9" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A17" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A18" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A19" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="F19" s="6" t="s">
         <v>500</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>488</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>472</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A17" s="9" t="s">
-        <v>474</v>
-      </c>
-      <c r="B17" s="1" t="s">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A20" s="13"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="14"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D21" s="8"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A22" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A23" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="10" t="s">
         <v>504</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>489</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A18" s="9" t="s">
-        <v>474</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>490</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A19" s="9" t="s">
-        <v>474</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>495</v>
-      </c>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A20" s="9" t="s">
-        <v>474</v>
-      </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="5" t="s">
-        <v>491</v>
-      </c>
-      <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A21" s="9" t="s">
-        <v>474</v>
-      </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="5" t="s">
-        <v>492</v>
-      </c>
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A22" s="13" t="s">
-        <v>474</v>
-      </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="5" t="s">
-        <v>503</v>
-      </c>
-      <c r="D22" s="3"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="D23" s="8"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C23" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>465</v>
+        <v>503</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+        <v>502</v>
+      </c>
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="10" t="s">
-        <v>466</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B25" s="10"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>499</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+        <v>7</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>496</v>
+        <v>507</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>498</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+        <v>8</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A28" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>467</v>
+        <v>508</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+        <v>9</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A29" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>468</v>
+        <v>509</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A30" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>469</v>
+        <v>510</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A31" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B31" s="10" t="s">
-        <v>470</v>
-      </c>
+      <c r="B31" s="10"/>
       <c r="C31" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A32" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B32" s="10" t="s">
-        <v>471</v>
-      </c>
+      <c r="B32" s="10"/>
       <c r="C32" s="11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>3</v>
@@ -2443,7 +2455,7 @@
       </c>
       <c r="B33" s="10"/>
       <c r="C33" s="11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>3</v>
@@ -2455,7 +2467,7 @@
       </c>
       <c r="B34" s="10"/>
       <c r="C34" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>3</v>
@@ -2467,7 +2479,7 @@
       </c>
       <c r="B35" s="10"/>
       <c r="C35" s="11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>3</v>
@@ -2479,7 +2491,7 @@
       </c>
       <c r="B36" s="10"/>
       <c r="C36" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>3</v>
@@ -2491,7 +2503,7 @@
       </c>
       <c r="B37" s="10"/>
       <c r="C37" s="11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>3</v>
@@ -2503,7 +2515,7 @@
       </c>
       <c r="B38" s="10"/>
       <c r="C38" s="11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>3</v>
@@ -2515,7 +2527,7 @@
       </c>
       <c r="B39" s="10"/>
       <c r="C39" s="11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>3</v>
@@ -2527,7 +2539,7 @@
       </c>
       <c r="B40" s="10"/>
       <c r="C40" s="11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>3</v>
@@ -2539,7 +2551,7 @@
       </c>
       <c r="B41" s="10"/>
       <c r="C41" s="11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>3</v>
@@ -2551,7 +2563,7 @@
       </c>
       <c r="B42" s="10"/>
       <c r="C42" s="11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>3</v>
@@ -2563,7 +2575,7 @@
       </c>
       <c r="B43" s="10"/>
       <c r="C43" s="11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D43" s="8" t="s">
         <v>3</v>
@@ -2575,7 +2587,7 @@
       </c>
       <c r="B44" s="10"/>
       <c r="C44" s="11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D44" s="8" t="s">
         <v>3</v>
@@ -2587,7 +2599,7 @@
       </c>
       <c r="B45" s="10"/>
       <c r="C45" s="11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D45" s="8" t="s">
         <v>3</v>
@@ -2599,7 +2611,7 @@
       </c>
       <c r="B46" s="10"/>
       <c r="C46" s="11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D46" s="8" t="s">
         <v>3</v>
@@ -2611,7 +2623,7 @@
       </c>
       <c r="B47" s="10"/>
       <c r="C47" s="11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D47" s="8" t="s">
         <v>3</v>
@@ -2623,7 +2635,7 @@
       </c>
       <c r="B48" s="10"/>
       <c r="C48" s="11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D48" s="8" t="s">
         <v>3</v>
@@ -2635,7 +2647,7 @@
       </c>
       <c r="B49" s="10"/>
       <c r="C49" s="11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D49" s="8" t="s">
         <v>3</v>
@@ -2647,7 +2659,7 @@
       </c>
       <c r="B50" s="10"/>
       <c r="C50" s="11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D50" s="8" t="s">
         <v>3</v>
@@ -2659,7 +2671,7 @@
       </c>
       <c r="B51" s="10"/>
       <c r="C51" s="11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D51" s="8" t="s">
         <v>3</v>
@@ -2671,7 +2683,7 @@
       </c>
       <c r="B52" s="10"/>
       <c r="C52" s="11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D52" s="8" t="s">
         <v>3</v>
@@ -2683,7 +2695,7 @@
       </c>
       <c r="B53" s="10"/>
       <c r="C53" s="11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>3</v>
@@ -2695,7 +2707,7 @@
       </c>
       <c r="B54" s="10"/>
       <c r="C54" s="11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D54" s="8" t="s">
         <v>3</v>
@@ -2707,7 +2719,7 @@
       </c>
       <c r="B55" s="10"/>
       <c r="C55" s="11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D55" s="8" t="s">
         <v>3</v>
@@ -2719,7 +2731,7 @@
       </c>
       <c r="B56" s="10"/>
       <c r="C56" s="11" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D56" s="8" t="s">
         <v>3</v>
@@ -2731,7 +2743,7 @@
       </c>
       <c r="B57" s="10"/>
       <c r="C57" s="11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D57" s="8" t="s">
         <v>3</v>
@@ -2743,7 +2755,7 @@
       </c>
       <c r="B58" s="10"/>
       <c r="C58" s="11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D58" s="8" t="s">
         <v>3</v>
@@ -2755,44 +2767,44 @@
       </c>
       <c r="B59" s="10"/>
       <c r="C59" s="11" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D59" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A60" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B60" s="10"/>
-      <c r="C60" s="11" t="s">
-        <v>39</v>
-      </c>
       <c r="D60" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A61" s="10" t="s">
-        <v>4</v>
-      </c>
+      <c r="A61" s="10"/>
       <c r="B61" s="10"/>
-      <c r="C61" s="11" t="s">
-        <v>40</v>
-      </c>
       <c r="D61" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A62" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B62" s="8"/>
+      <c r="C62" s="11" t="s">
+        <v>42</v>
+      </c>
       <c r="D62" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A63" s="10"/>
-      <c r="B63" s="10"/>
+      <c r="A63" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B63" s="8"/>
+      <c r="C63" s="11" t="s">
+        <v>43</v>
+      </c>
       <c r="D63" s="8" t="s">
         <v>3</v>
       </c>
@@ -2803,7 +2815,7 @@
       </c>
       <c r="B64" s="8"/>
       <c r="C64" s="11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D64" s="8" t="s">
         <v>3</v>
@@ -2815,7 +2827,7 @@
       </c>
       <c r="B65" s="8"/>
       <c r="C65" s="11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D65" s="8" t="s">
         <v>3</v>
@@ -2827,7 +2839,7 @@
       </c>
       <c r="B66" s="8"/>
       <c r="C66" s="11" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D66" s="8" t="s">
         <v>3</v>
@@ -2839,7 +2851,7 @@
       </c>
       <c r="B67" s="8"/>
       <c r="C67" s="11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D67" s="8" t="s">
         <v>3</v>
@@ -2851,7 +2863,7 @@
       </c>
       <c r="B68" s="8"/>
       <c r="C68" s="11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D68" s="8" t="s">
         <v>3</v>
@@ -2863,7 +2875,7 @@
       </c>
       <c r="B69" s="8"/>
       <c r="C69" s="11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D69" s="8" t="s">
         <v>3</v>
@@ -2875,7 +2887,7 @@
       </c>
       <c r="B70" s="8"/>
       <c r="C70" s="11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D70" s="8" t="s">
         <v>3</v>
@@ -2887,40 +2899,40 @@
       </c>
       <c r="B71" s="8"/>
       <c r="C71" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D71" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A72" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B72" s="8"/>
-      <c r="C72" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D72" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A73" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B73" s="8"/>
-      <c r="C73" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D73" s="8" t="s">
+      <c r="A73" s="10"/>
+      <c r="B73" s="10"/>
+      <c r="D73" s="8"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A74" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B74" s="10"/>
+      <c r="C74" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D74" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A75" s="10"/>
+      <c r="A75" s="10" t="s">
+        <v>52</v>
+      </c>
       <c r="B75" s="10"/>
-      <c r="D75" s="8"/>
+      <c r="C75" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A76" s="10" t="s">
@@ -2928,7 +2940,7 @@
       </c>
       <c r="B76" s="10"/>
       <c r="C76" s="11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D76" s="8" t="s">
         <v>3</v>
@@ -2939,8 +2951,8 @@
         <v>52</v>
       </c>
       <c r="B77" s="10"/>
-      <c r="C77" s="11" t="s">
-        <v>54</v>
+      <c r="C77" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="D77" s="8" t="s">
         <v>3</v>
@@ -2952,7 +2964,7 @@
       </c>
       <c r="B78" s="10"/>
       <c r="C78" s="11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D78" s="8" t="s">
         <v>3</v>
@@ -2963,8 +2975,8 @@
         <v>52</v>
       </c>
       <c r="B79" s="10"/>
-      <c r="C79" s="6" t="s">
-        <v>56</v>
+      <c r="C79" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="D79" s="8" t="s">
         <v>3</v>
@@ -2976,7 +2988,7 @@
       </c>
       <c r="B80" s="10"/>
       <c r="C80" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D80" s="8" t="s">
         <v>3</v>
@@ -2988,7 +3000,7 @@
       </c>
       <c r="B81" s="10"/>
       <c r="C81" s="11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D81" s="8" t="s">
         <v>3</v>
@@ -3000,7 +3012,7 @@
       </c>
       <c r="B82" s="10"/>
       <c r="C82" s="11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D82" s="8" t="s">
         <v>3</v>
@@ -3012,7 +3024,7 @@
       </c>
       <c r="B83" s="10"/>
       <c r="C83" s="11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D83" s="8" t="s">
         <v>3</v>
@@ -3024,7 +3036,7 @@
       </c>
       <c r="B84" s="10"/>
       <c r="C84" s="11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D84" s="8" t="s">
         <v>3</v>
@@ -3036,7 +3048,7 @@
       </c>
       <c r="B85" s="10"/>
       <c r="C85" s="11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D85" s="8" t="s">
         <v>3</v>
@@ -3048,7 +3060,7 @@
       </c>
       <c r="B86" s="10"/>
       <c r="C86" s="11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D86" s="8" t="s">
         <v>3</v>
@@ -3060,7 +3072,7 @@
       </c>
       <c r="B87" s="10"/>
       <c r="C87" s="11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D87" s="8" t="s">
         <v>3</v>
@@ -3072,7 +3084,7 @@
       </c>
       <c r="B88" s="10"/>
       <c r="C88" s="11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D88" s="8" t="s">
         <v>3</v>
@@ -3084,7 +3096,7 @@
       </c>
       <c r="B89" s="10"/>
       <c r="C89" s="11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D89" s="8" t="s">
         <v>3</v>
@@ -3096,7 +3108,7 @@
       </c>
       <c r="B90" s="10"/>
       <c r="C90" s="11" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D90" s="8" t="s">
         <v>3</v>
@@ -3108,7 +3120,7 @@
       </c>
       <c r="B91" s="10"/>
       <c r="C91" s="11" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D91" s="8" t="s">
         <v>3</v>
@@ -3120,7 +3132,7 @@
       </c>
       <c r="B92" s="10"/>
       <c r="C92" s="11" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D92" s="8" t="s">
         <v>3</v>
@@ -3132,7 +3144,7 @@
       </c>
       <c r="B93" s="10"/>
       <c r="C93" s="11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D93" s="8" t="s">
         <v>3</v>
@@ -3144,7 +3156,7 @@
       </c>
       <c r="B94" s="10"/>
       <c r="C94" s="11" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D94" s="8" t="s">
         <v>3</v>
@@ -3156,7 +3168,7 @@
       </c>
       <c r="B95" s="10"/>
       <c r="C95" s="11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D95" s="8" t="s">
         <v>3</v>
@@ -3168,7 +3180,7 @@
       </c>
       <c r="B96" s="10"/>
       <c r="C96" s="11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D96" s="8" t="s">
         <v>3</v>
@@ -3180,7 +3192,7 @@
       </c>
       <c r="B97" s="10"/>
       <c r="C97" s="11" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D97" s="8" t="s">
         <v>3</v>
@@ -3192,7 +3204,7 @@
       </c>
       <c r="B98" s="10"/>
       <c r="C98" s="11" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D98" s="8" t="s">
         <v>3</v>
@@ -3204,7 +3216,7 @@
       </c>
       <c r="B99" s="10"/>
       <c r="C99" s="11" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D99" s="8" t="s">
         <v>3</v>
@@ -3216,7 +3228,7 @@
       </c>
       <c r="B100" s="10"/>
       <c r="C100" s="11" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D100" s="8" t="s">
         <v>3</v>
@@ -3228,7 +3240,7 @@
       </c>
       <c r="B101" s="10"/>
       <c r="C101" s="11" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D101" s="8" t="s">
         <v>3</v>
@@ -3240,7 +3252,7 @@
       </c>
       <c r="B102" s="10"/>
       <c r="C102" s="11" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D102" s="8" t="s">
         <v>3</v>
@@ -3252,7 +3264,7 @@
       </c>
       <c r="B103" s="10"/>
       <c r="C103" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D103" s="8" t="s">
         <v>3</v>
@@ -3264,7 +3276,7 @@
       </c>
       <c r="B104" s="10"/>
       <c r="C104" s="11" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D104" s="8" t="s">
         <v>3</v>
@@ -3276,7 +3288,7 @@
       </c>
       <c r="B105" s="10"/>
       <c r="C105" s="11" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D105" s="8" t="s">
         <v>3</v>
@@ -3288,7 +3300,7 @@
       </c>
       <c r="B106" s="10"/>
       <c r="C106" s="11" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D106" s="8" t="s">
         <v>3</v>
@@ -3300,7 +3312,7 @@
       </c>
       <c r="B107" s="10"/>
       <c r="C107" s="11" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D107" s="8" t="s">
         <v>3</v>
@@ -3312,7 +3324,7 @@
       </c>
       <c r="B108" s="10"/>
       <c r="C108" s="11" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D108" s="8" t="s">
         <v>3</v>
@@ -3324,7 +3336,7 @@
       </c>
       <c r="B109" s="10"/>
       <c r="C109" s="11" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D109" s="8" t="s">
         <v>3</v>
@@ -3336,7 +3348,7 @@
       </c>
       <c r="B110" s="10"/>
       <c r="C110" s="11" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D110" s="8" t="s">
         <v>3</v>
@@ -3348,7 +3360,7 @@
       </c>
       <c r="B111" s="10"/>
       <c r="C111" s="11" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D111" s="8" t="s">
         <v>3</v>
@@ -3360,7 +3372,7 @@
       </c>
       <c r="B112" s="10"/>
       <c r="C112" s="11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D112" s="8" t="s">
         <v>3</v>
@@ -3372,7 +3384,7 @@
       </c>
       <c r="B113" s="10"/>
       <c r="C113" s="11" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D113" s="8" t="s">
         <v>3</v>
@@ -3384,7 +3396,7 @@
       </c>
       <c r="B114" s="10"/>
       <c r="C114" s="11" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D114" s="8" t="s">
         <v>3</v>
@@ -3396,7 +3408,7 @@
       </c>
       <c r="B115" s="10"/>
       <c r="C115" s="11" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D115" s="8" t="s">
         <v>3</v>
@@ -3408,40 +3420,40 @@
       </c>
       <c r="B116" s="10"/>
       <c r="C116" s="11" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D116" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A117" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B117" s="10"/>
-      <c r="C117" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="D117" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A118" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B118" s="10"/>
-      <c r="C118" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="D118" s="8" t="s">
+      <c r="A118" s="8"/>
+      <c r="B118" s="8"/>
+      <c r="D118" s="8"/>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A119" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B119" s="10"/>
+      <c r="C119" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D119" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A120" s="8"/>
-      <c r="B120" s="8"/>
-      <c r="D120" s="8"/>
+      <c r="A120" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B120" s="10"/>
+      <c r="C120" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D120" s="8" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A121" s="10" t="s">
@@ -3449,7 +3461,7 @@
       </c>
       <c r="B121" s="10"/>
       <c r="C121" s="11" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D121" s="8" t="s">
         <v>3</v>
@@ -3461,7 +3473,7 @@
       </c>
       <c r="B122" s="10"/>
       <c r="C122" s="11" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D122" s="8" t="s">
         <v>3</v>
@@ -3473,7 +3485,7 @@
       </c>
       <c r="B123" s="10"/>
       <c r="C123" s="11" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D123" s="8" t="s">
         <v>3</v>
@@ -3485,7 +3497,7 @@
       </c>
       <c r="B124" s="10"/>
       <c r="C124" s="11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D124" s="8" t="s">
         <v>3</v>
@@ -3497,7 +3509,7 @@
       </c>
       <c r="B125" s="10"/>
       <c r="C125" s="11" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D125" s="8" t="s">
         <v>3</v>
@@ -3509,7 +3521,7 @@
       </c>
       <c r="B126" s="10"/>
       <c r="C126" s="11" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D126" s="8" t="s">
         <v>3</v>
@@ -3521,7 +3533,7 @@
       </c>
       <c r="B127" s="10"/>
       <c r="C127" s="11" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D127" s="8" t="s">
         <v>3</v>
@@ -3533,7 +3545,7 @@
       </c>
       <c r="B128" s="10"/>
       <c r="C128" s="11" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D128" s="8" t="s">
         <v>3</v>
@@ -3545,7 +3557,7 @@
       </c>
       <c r="B129" s="10"/>
       <c r="C129" s="11" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D129" s="8" t="s">
         <v>3</v>
@@ -3557,7 +3569,7 @@
       </c>
       <c r="B130" s="10"/>
       <c r="C130" s="11" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D130" s="8" t="s">
         <v>3</v>
@@ -3569,7 +3581,7 @@
       </c>
       <c r="B131" s="10"/>
       <c r="C131" s="11" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D131" s="8" t="s">
         <v>3</v>
@@ -3581,7 +3593,7 @@
       </c>
       <c r="B132" s="10"/>
       <c r="C132" s="11" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D132" s="8" t="s">
         <v>3</v>
@@ -3593,7 +3605,7 @@
       </c>
       <c r="B133" s="10"/>
       <c r="C133" s="11" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D133" s="8" t="s">
         <v>3</v>
@@ -3605,7 +3617,7 @@
       </c>
       <c r="B134" s="10"/>
       <c r="C134" s="11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D134" s="8" t="s">
         <v>3</v>
@@ -3617,7 +3629,7 @@
       </c>
       <c r="B135" s="10"/>
       <c r="C135" s="11" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D135" s="8" t="s">
         <v>3</v>
@@ -3629,7 +3641,7 @@
       </c>
       <c r="B136" s="10"/>
       <c r="C136" s="11" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D136" s="8" t="s">
         <v>3</v>
@@ -3641,7 +3653,7 @@
       </c>
       <c r="B137" s="10"/>
       <c r="C137" s="11" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D137" s="8" t="s">
         <v>3</v>
@@ -3653,7 +3665,7 @@
       </c>
       <c r="B138" s="10"/>
       <c r="C138" s="11" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D138" s="8" t="s">
         <v>3</v>
@@ -3665,7 +3677,7 @@
       </c>
       <c r="B139" s="10"/>
       <c r="C139" s="11" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D139" s="8" t="s">
         <v>3</v>
@@ -3677,7 +3689,7 @@
       </c>
       <c r="B140" s="10"/>
       <c r="C140" s="11" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D140" s="8" t="s">
         <v>3</v>
@@ -3689,7 +3701,7 @@
       </c>
       <c r="B141" s="10"/>
       <c r="C141" s="11" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D141" s="8" t="s">
         <v>3</v>
@@ -3701,7 +3713,7 @@
       </c>
       <c r="B142" s="10"/>
       <c r="C142" s="11" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D142" s="8" t="s">
         <v>3</v>
@@ -3713,7 +3725,7 @@
       </c>
       <c r="B143" s="10"/>
       <c r="C143" s="11" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D143" s="8" t="s">
         <v>3</v>
@@ -3725,7 +3737,7 @@
       </c>
       <c r="B144" s="10"/>
       <c r="C144" s="11" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D144" s="8" t="s">
         <v>3</v>
@@ -3737,7 +3749,7 @@
       </c>
       <c r="B145" s="10"/>
       <c r="C145" s="11" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D145" s="8" t="s">
         <v>3</v>
@@ -3749,7 +3761,7 @@
       </c>
       <c r="B146" s="10"/>
       <c r="C146" s="11" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D146" s="8" t="s">
         <v>3</v>
@@ -3761,7 +3773,7 @@
       </c>
       <c r="B147" s="10"/>
       <c r="C147" s="11" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D147" s="8" t="s">
         <v>3</v>
@@ -3773,7 +3785,7 @@
       </c>
       <c r="B148" s="10"/>
       <c r="C148" s="11" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D148" s="8" t="s">
         <v>3</v>
@@ -3785,7 +3797,7 @@
       </c>
       <c r="B149" s="10"/>
       <c r="C149" s="11" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D149" s="8" t="s">
         <v>3</v>
@@ -3797,7 +3809,7 @@
       </c>
       <c r="B150" s="10"/>
       <c r="C150" s="11" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D150" s="8" t="s">
         <v>3</v>
@@ -3809,7 +3821,7 @@
       </c>
       <c r="B151" s="10"/>
       <c r="C151" s="11" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D151" s="8" t="s">
         <v>3</v>
@@ -3821,7 +3833,7 @@
       </c>
       <c r="B152" s="10"/>
       <c r="C152" s="11" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D152" s="8" t="s">
         <v>3</v>
@@ -3833,7 +3845,7 @@
       </c>
       <c r="B153" s="10"/>
       <c r="C153" s="11" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D153" s="8" t="s">
         <v>3</v>
@@ -3845,7 +3857,7 @@
       </c>
       <c r="B154" s="10"/>
       <c r="C154" s="11" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D154" s="8" t="s">
         <v>3</v>
@@ -3855,28 +3867,47 @@
       <c r="A155" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B155" s="10"/>
+      <c r="B155" s="10" t="s">
+        <v>488</v>
+      </c>
       <c r="C155" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="D155" s="8" t="s">
-        <v>3</v>
+        <v>490</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A156" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B156" s="10"/>
+      <c r="B156" s="10" t="s">
+        <v>487</v>
+      </c>
       <c r="C156" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="D156" s="8" t="s">
-        <v>3</v>
-      </c>
+        <v>489</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A157" s="10"/>
+      <c r="B157" s="10"/>
+      <c r="C157" s="11"/>
+      <c r="D157" s="14"/>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="D158" s="8"/>
+      <c r="A158" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B158" s="8"/>
+      <c r="C158" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="D158" s="8" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A159" s="8" t="s">
@@ -3884,7 +3915,7 @@
       </c>
       <c r="B159" s="8"/>
       <c r="C159" s="11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D159" s="8" t="s">
         <v>3</v>
@@ -3896,7 +3927,7 @@
       </c>
       <c r="B160" s="8"/>
       <c r="C160" s="11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D160" s="8" t="s">
         <v>3</v>
@@ -3908,7 +3939,7 @@
       </c>
       <c r="B161" s="8"/>
       <c r="C161" s="11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D161" s="8" t="s">
         <v>3</v>
@@ -3920,7 +3951,7 @@
       </c>
       <c r="B162" s="8"/>
       <c r="C162" s="11" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D162" s="8" t="s">
         <v>3</v>
@@ -3932,7 +3963,7 @@
       </c>
       <c r="B163" s="8"/>
       <c r="C163" s="11" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D163" s="8" t="s">
         <v>3</v>
@@ -3944,7 +3975,7 @@
       </c>
       <c r="B164" s="8"/>
       <c r="C164" s="11" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D164" s="8" t="s">
         <v>3</v>
@@ -3956,7 +3987,7 @@
       </c>
       <c r="B165" s="8"/>
       <c r="C165" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D165" s="8" t="s">
         <v>3</v>
@@ -3968,7 +3999,7 @@
       </c>
       <c r="B166" s="8"/>
       <c r="C166" s="11" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D166" s="8" t="s">
         <v>3</v>
@@ -3980,7 +4011,7 @@
       </c>
       <c r="B167" s="8"/>
       <c r="C167" s="11" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D167" s="8" t="s">
         <v>3</v>
@@ -3992,7 +4023,7 @@
       </c>
       <c r="B168" s="8"/>
       <c r="C168" s="11" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D168" s="8" t="s">
         <v>3</v>
@@ -4004,7 +4035,7 @@
       </c>
       <c r="B169" s="8"/>
       <c r="C169" s="11" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D169" s="8" t="s">
         <v>3</v>
@@ -4016,7 +4047,7 @@
       </c>
       <c r="B170" s="8"/>
       <c r="C170" s="11" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D170" s="8" t="s">
         <v>3</v>
@@ -4028,7 +4059,7 @@
       </c>
       <c r="B171" s="8"/>
       <c r="C171" s="11" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D171" s="8" t="s">
         <v>3</v>
@@ -4040,7 +4071,7 @@
       </c>
       <c r="B172" s="8"/>
       <c r="C172" s="11" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D172" s="8" t="s">
         <v>3</v>
@@ -4052,7 +4083,7 @@
       </c>
       <c r="B173" s="8"/>
       <c r="C173" s="11" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D173" s="8" t="s">
         <v>3</v>
@@ -4064,7 +4095,7 @@
       </c>
       <c r="B174" s="8"/>
       <c r="C174" s="11" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D174" s="8" t="s">
         <v>3</v>
@@ -4076,7 +4107,7 @@
       </c>
       <c r="B175" s="8"/>
       <c r="C175" s="11" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D175" s="8" t="s">
         <v>3</v>
@@ -4088,7 +4119,7 @@
       </c>
       <c r="B176" s="8"/>
       <c r="C176" s="11" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D176" s="8" t="s">
         <v>3</v>
@@ -4100,7 +4131,7 @@
       </c>
       <c r="B177" s="8"/>
       <c r="C177" s="11" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D177" s="8" t="s">
         <v>3</v>
@@ -4112,7 +4143,7 @@
       </c>
       <c r="B178" s="8"/>
       <c r="C178" s="11" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D178" s="8" t="s">
         <v>3</v>
@@ -4124,7 +4155,7 @@
       </c>
       <c r="B179" s="8"/>
       <c r="C179" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D179" s="8" t="s">
         <v>3</v>
@@ -4136,7 +4167,7 @@
       </c>
       <c r="B180" s="8"/>
       <c r="C180" s="11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D180" s="8" t="s">
         <v>3</v>
@@ -4148,7 +4179,7 @@
       </c>
       <c r="B181" s="8"/>
       <c r="C181" s="11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D181" s="8" t="s">
         <v>3</v>
@@ -4160,7 +4191,7 @@
       </c>
       <c r="B182" s="8"/>
       <c r="C182" s="11" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D182" s="8" t="s">
         <v>3</v>
@@ -4171,8 +4202,8 @@
         <v>133</v>
       </c>
       <c r="B183" s="8"/>
-      <c r="C183" s="11" t="s">
-        <v>158</v>
+      <c r="C183" s="6" t="s">
+        <v>159</v>
       </c>
       <c r="D183" s="8" t="s">
         <v>3</v>
@@ -4184,7 +4215,7 @@
       </c>
       <c r="B184" s="8"/>
       <c r="C184" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D184" s="8" t="s">
         <v>3</v>
@@ -4195,8 +4226,8 @@
         <v>133</v>
       </c>
       <c r="B185" s="8"/>
-      <c r="C185" s="6" t="s">
-        <v>160</v>
+      <c r="C185" s="11" t="s">
+        <v>161</v>
       </c>
       <c r="D185" s="8" t="s">
         <v>3</v>
@@ -4208,7 +4239,7 @@
       </c>
       <c r="B186" s="8"/>
       <c r="C186" s="11" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D186" s="8" t="s">
         <v>3</v>
@@ -4220,7 +4251,7 @@
       </c>
       <c r="B187" s="8"/>
       <c r="C187" s="11" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D187" s="8" t="s">
         <v>3</v>
@@ -4232,7 +4263,7 @@
       </c>
       <c r="B188" s="8"/>
       <c r="C188" s="11" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D188" s="8" t="s">
         <v>3</v>
@@ -4244,7 +4275,7 @@
       </c>
       <c r="B189" s="8"/>
       <c r="C189" s="11" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D189" s="8" t="s">
         <v>3</v>
@@ -4256,7 +4287,7 @@
       </c>
       <c r="B190" s="8"/>
       <c r="C190" s="11" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D190" s="8" t="s">
         <v>3</v>
@@ -4268,7 +4299,7 @@
       </c>
       <c r="B191" s="8"/>
       <c r="C191" s="11" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D191" s="8" t="s">
         <v>3</v>
@@ -4280,7 +4311,7 @@
       </c>
       <c r="B192" s="8"/>
       <c r="C192" s="11" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D192" s="8" t="s">
         <v>3</v>
@@ -4292,26 +4323,26 @@
       </c>
       <c r="B193" s="8"/>
       <c r="C193" s="11" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D193" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A194" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B194" s="8"/>
-      <c r="C194" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="D194" s="8" t="s">
-        <v>3</v>
-      </c>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D195" s="8"/>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="D196" s="8"/>
+      <c r="A196" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="B196" s="10"/>
+      <c r="C196" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="D196" s="8" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A197" s="10" t="s">
@@ -4319,7 +4350,7 @@
       </c>
       <c r="B197" s="10"/>
       <c r="C197" s="11" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D197" s="8" t="s">
         <v>3</v>
@@ -4331,7 +4362,7 @@
       </c>
       <c r="B198" s="10"/>
       <c r="C198" s="11" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D198" s="8" t="s">
         <v>3</v>
@@ -4343,7 +4374,7 @@
       </c>
       <c r="B199" s="10"/>
       <c r="C199" s="11" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D199" s="8" t="s">
         <v>3</v>
@@ -4355,7 +4386,7 @@
       </c>
       <c r="B200" s="10"/>
       <c r="C200" s="11" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D200" s="8" t="s">
         <v>3</v>
@@ -4367,7 +4398,7 @@
       </c>
       <c r="B201" s="10"/>
       <c r="C201" s="11" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D201" s="8" t="s">
         <v>3</v>
@@ -4379,7 +4410,7 @@
       </c>
       <c r="B202" s="10"/>
       <c r="C202" s="11" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D202" s="8" t="s">
         <v>3</v>
@@ -4391,7 +4422,7 @@
       </c>
       <c r="B203" s="10"/>
       <c r="C203" s="11" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D203" s="8" t="s">
         <v>3</v>
@@ -4403,7 +4434,7 @@
       </c>
       <c r="B204" s="10"/>
       <c r="C204" s="11" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D204" s="8" t="s">
         <v>3</v>
@@ -4415,7 +4446,7 @@
       </c>
       <c r="B205" s="10"/>
       <c r="C205" s="11" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D205" s="8" t="s">
         <v>3</v>
@@ -4427,7 +4458,7 @@
       </c>
       <c r="B206" s="10"/>
       <c r="C206" s="11" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D206" s="8" t="s">
         <v>3</v>
@@ -4439,7 +4470,7 @@
       </c>
       <c r="B207" s="10"/>
       <c r="C207" s="11" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D207" s="8" t="s">
         <v>3</v>
@@ -4451,7 +4482,7 @@
       </c>
       <c r="B208" s="10"/>
       <c r="C208" s="11" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D208" s="8" t="s">
         <v>3</v>
@@ -4463,7 +4494,7 @@
       </c>
       <c r="B209" s="10"/>
       <c r="C209" s="11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D209" s="8" t="s">
         <v>3</v>
@@ -4475,7 +4506,7 @@
       </c>
       <c r="B210" s="10"/>
       <c r="C210" s="11" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D210" s="8" t="s">
         <v>3</v>
@@ -4487,7 +4518,7 @@
       </c>
       <c r="B211" s="10"/>
       <c r="C211" s="11" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D211" s="8" t="s">
         <v>3</v>
@@ -4499,7 +4530,7 @@
       </c>
       <c r="B212" s="10"/>
       <c r="C212" s="11" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D212" s="8" t="s">
         <v>3</v>
@@ -4511,7 +4542,7 @@
       </c>
       <c r="B213" s="10"/>
       <c r="C213" s="11" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D213" s="8" t="s">
         <v>3</v>
@@ -4523,7 +4554,7 @@
       </c>
       <c r="B214" s="10"/>
       <c r="C214" s="11" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D214" s="8" t="s">
         <v>3</v>
@@ -4535,7 +4566,7 @@
       </c>
       <c r="B215" s="10"/>
       <c r="C215" s="11" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D215" s="8" t="s">
         <v>3</v>
@@ -4547,7 +4578,7 @@
       </c>
       <c r="B216" s="10"/>
       <c r="C216" s="11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D216" s="8" t="s">
         <v>3</v>
@@ -4559,7 +4590,7 @@
       </c>
       <c r="B217" s="10"/>
       <c r="C217" s="11" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D217" s="8" t="s">
         <v>3</v>
@@ -4571,7 +4602,7 @@
       </c>
       <c r="B218" s="10"/>
       <c r="C218" s="11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D218" s="8" t="s">
         <v>3</v>
@@ -4583,7 +4614,7 @@
       </c>
       <c r="B219" s="10"/>
       <c r="C219" s="11" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D219" s="8" t="s">
         <v>3</v>
@@ -4595,7 +4626,7 @@
       </c>
       <c r="B220" s="10"/>
       <c r="C220" s="11" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D220" s="8" t="s">
         <v>3</v>
@@ -4607,7 +4638,7 @@
       </c>
       <c r="B221" s="10"/>
       <c r="C221" s="11" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D221" s="8" t="s">
         <v>3</v>
@@ -4619,7 +4650,7 @@
       </c>
       <c r="B222" s="10"/>
       <c r="C222" s="11" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D222" s="8" t="s">
         <v>3</v>
@@ -4631,7 +4662,7 @@
       </c>
       <c r="B223" s="10"/>
       <c r="C223" s="11" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D223" s="8" t="s">
         <v>3</v>
@@ -4643,7 +4674,7 @@
       </c>
       <c r="B224" s="10"/>
       <c r="C224" s="11" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D224" s="8" t="s">
         <v>3</v>
@@ -4655,7 +4686,7 @@
       </c>
       <c r="B225" s="10"/>
       <c r="C225" s="11" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D225" s="8" t="s">
         <v>3</v>
@@ -4667,7 +4698,7 @@
       </c>
       <c r="B226" s="10"/>
       <c r="C226" s="11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D226" s="8" t="s">
         <v>3</v>
@@ -4679,7 +4710,7 @@
       </c>
       <c r="B227" s="10"/>
       <c r="C227" s="11" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D227" s="8" t="s">
         <v>3</v>
@@ -4691,7 +4722,7 @@
       </c>
       <c r="B228" s="10"/>
       <c r="C228" s="11" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D228" s="8" t="s">
         <v>3</v>
@@ -4703,7 +4734,7 @@
       </c>
       <c r="B229" s="10"/>
       <c r="C229" s="11" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D229" s="8" t="s">
         <v>3</v>
@@ -4715,23 +4746,16 @@
       </c>
       <c r="B230" s="10"/>
       <c r="C230" s="11" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D230" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A231" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="B231" s="10"/>
-      <c r="C231" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="D231" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="A231" s="8"/>
+      <c r="B231" s="8"/>
+      <c r="D231" s="8"/>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A232" s="8"/>
@@ -4739,9 +4763,16 @@
       <c r="D232" s="8"/>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A233" s="8"/>
-      <c r="B233" s="8"/>
-      <c r="D233" s="8"/>
+      <c r="A233" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="B233" s="10"/>
+      <c r="C233" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="D233" s="8" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A234" s="10" t="s">
@@ -4749,7 +4780,7 @@
       </c>
       <c r="B234" s="10"/>
       <c r="C234" s="11" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D234" s="8" t="s">
         <v>3</v>
@@ -4761,7 +4792,7 @@
       </c>
       <c r="B235" s="10"/>
       <c r="C235" s="11" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D235" s="8" t="s">
         <v>3</v>
@@ -4773,7 +4804,7 @@
       </c>
       <c r="B236" s="10"/>
       <c r="C236" s="11" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D236" s="8" t="s">
         <v>3</v>
@@ -4785,7 +4816,7 @@
       </c>
       <c r="B237" s="10"/>
       <c r="C237" s="11" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D237" s="8" t="s">
         <v>3</v>
@@ -4797,7 +4828,7 @@
       </c>
       <c r="B238" s="10"/>
       <c r="C238" s="11" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D238" s="8" t="s">
         <v>3</v>
@@ -4808,8 +4839,8 @@
         <v>206</v>
       </c>
       <c r="B239" s="10"/>
-      <c r="C239" s="11" t="s">
-        <v>212</v>
+      <c r="C239" s="5" t="s">
+        <v>213</v>
       </c>
       <c r="D239" s="8" t="s">
         <v>3</v>
@@ -4820,8 +4851,8 @@
         <v>206</v>
       </c>
       <c r="B240" s="10"/>
-      <c r="C240" s="5" t="s">
-        <v>213</v>
+      <c r="C240" s="11" t="s">
+        <v>214</v>
       </c>
       <c r="D240" s="8" t="s">
         <v>3</v>
@@ -4833,7 +4864,7 @@
       </c>
       <c r="B241" s="10"/>
       <c r="C241" s="11" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D241" s="8" t="s">
         <v>3</v>
@@ -4845,7 +4876,7 @@
       </c>
       <c r="B242" s="10"/>
       <c r="C242" s="11" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D242" s="8" t="s">
         <v>3</v>
@@ -4857,7 +4888,7 @@
       </c>
       <c r="B243" s="10"/>
       <c r="C243" s="11" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D243" s="8" t="s">
         <v>3</v>
@@ -4869,7 +4900,7 @@
       </c>
       <c r="B244" s="10"/>
       <c r="C244" s="11" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D244" s="8" t="s">
         <v>3</v>
@@ -4881,7 +4912,7 @@
       </c>
       <c r="B245" s="10"/>
       <c r="C245" s="11" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D245" s="8" t="s">
         <v>3</v>
@@ -4893,7 +4924,7 @@
       </c>
       <c r="B246" s="10"/>
       <c r="C246" s="11" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D246" s="8" t="s">
         <v>3</v>
@@ -4905,7 +4936,7 @@
       </c>
       <c r="B247" s="10"/>
       <c r="C247" s="11" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D247" s="8" t="s">
         <v>3</v>
@@ -4917,7 +4948,7 @@
       </c>
       <c r="B248" s="10"/>
       <c r="C248" s="11" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D248" s="8" t="s">
         <v>3</v>
@@ -4929,7 +4960,7 @@
       </c>
       <c r="B249" s="10"/>
       <c r="C249" s="11" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D249" s="8" t="s">
         <v>3</v>
@@ -4941,7 +4972,7 @@
       </c>
       <c r="B250" s="10"/>
       <c r="C250" s="11" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D250" s="8" t="s">
         <v>3</v>
@@ -4953,7 +4984,7 @@
       </c>
       <c r="B251" s="10"/>
       <c r="C251" s="11" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D251" s="8" t="s">
         <v>3</v>
@@ -4965,7 +4996,7 @@
       </c>
       <c r="B252" s="10"/>
       <c r="C252" s="11" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D252" s="8" t="s">
         <v>3</v>
@@ -4977,7 +5008,7 @@
       </c>
       <c r="B253" s="10"/>
       <c r="C253" s="11" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D253" s="8" t="s">
         <v>3</v>
@@ -4989,29 +5020,29 @@
       </c>
       <c r="B254" s="10"/>
       <c r="C254" s="11" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D254" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A255" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="B255" s="10"/>
-      <c r="C255" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="D255" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="D255" s="8"/>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D256" s="8"/>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="D257" s="8"/>
+      <c r="A257" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="B257" s="10"/>
+      <c r="C257" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="D257" s="8" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A258" s="10" t="s">
@@ -5019,7 +5050,7 @@
       </c>
       <c r="B258" s="10"/>
       <c r="C258" s="11" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D258" s="8" t="s">
         <v>3</v>
@@ -5031,7 +5062,7 @@
       </c>
       <c r="B259" s="10"/>
       <c r="C259" s="11" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D259" s="8" t="s">
         <v>3</v>
@@ -5043,7 +5074,7 @@
       </c>
       <c r="B260" s="10"/>
       <c r="C260" s="11" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D260" s="8" t="s">
         <v>3</v>
@@ -5055,7 +5086,7 @@
       </c>
       <c r="B261" s="10"/>
       <c r="C261" s="11" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D261" s="8" t="s">
         <v>3</v>
@@ -5067,7 +5098,7 @@
       </c>
       <c r="B262" s="10"/>
       <c r="C262" s="11" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D262" s="8" t="s">
         <v>3</v>
@@ -5079,7 +5110,7 @@
       </c>
       <c r="B263" s="10"/>
       <c r="C263" s="11" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D263" s="8" t="s">
         <v>3</v>
@@ -5091,7 +5122,7 @@
       </c>
       <c r="B264" s="10"/>
       <c r="C264" s="11" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D264" s="8" t="s">
         <v>3</v>
@@ -5103,7 +5134,7 @@
       </c>
       <c r="B265" s="10"/>
       <c r="C265" s="11" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D265" s="8" t="s">
         <v>3</v>
@@ -5115,7 +5146,7 @@
       </c>
       <c r="B266" s="10"/>
       <c r="C266" s="11" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D266" s="8" t="s">
         <v>3</v>
@@ -5127,7 +5158,7 @@
       </c>
       <c r="B267" s="10"/>
       <c r="C267" s="11" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D267" s="8" t="s">
         <v>3</v>
@@ -5139,7 +5170,7 @@
       </c>
       <c r="B268" s="10"/>
       <c r="C268" s="11" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D268" s="8" t="s">
         <v>3</v>
@@ -5151,7 +5182,7 @@
       </c>
       <c r="B269" s="10"/>
       <c r="C269" s="11" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D269" s="8" t="s">
         <v>3</v>
@@ -5163,7 +5194,7 @@
       </c>
       <c r="B270" s="10"/>
       <c r="C270" s="11" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D270" s="8" t="s">
         <v>3</v>
@@ -5175,7 +5206,7 @@
       </c>
       <c r="B271" s="10"/>
       <c r="C271" s="11" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D271" s="8" t="s">
         <v>3</v>
@@ -5187,7 +5218,7 @@
       </c>
       <c r="B272" s="10"/>
       <c r="C272" s="11" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D272" s="8" t="s">
         <v>3</v>
@@ -5199,7 +5230,7 @@
       </c>
       <c r="B273" s="10"/>
       <c r="C273" s="11" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D273" s="8" t="s">
         <v>3</v>
@@ -5211,7 +5242,7 @@
       </c>
       <c r="B274" s="10"/>
       <c r="C274" s="11" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D274" s="8" t="s">
         <v>3</v>
@@ -5223,7 +5254,7 @@
       </c>
       <c r="B275" s="10"/>
       <c r="C275" s="11" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D275" s="8" t="s">
         <v>3</v>
@@ -5235,7 +5266,7 @@
       </c>
       <c r="B276" s="10"/>
       <c r="C276" s="11" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D276" s="8" t="s">
         <v>3</v>
@@ -5247,7 +5278,7 @@
       </c>
       <c r="B277" s="10"/>
       <c r="C277" s="11" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D277" s="8" t="s">
         <v>3</v>
@@ -5259,7 +5290,7 @@
       </c>
       <c r="B278" s="10"/>
       <c r="C278" s="11" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D278" s="8" t="s">
         <v>3</v>
@@ -5271,7 +5302,7 @@
       </c>
       <c r="B279" s="10"/>
       <c r="C279" s="11" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D279" s="8" t="s">
         <v>3</v>
@@ -5283,7 +5314,7 @@
       </c>
       <c r="B280" s="10"/>
       <c r="C280" s="11" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D280" s="8" t="s">
         <v>3</v>
@@ -5295,7 +5326,7 @@
       </c>
       <c r="B281" s="10"/>
       <c r="C281" s="11" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D281" s="8" t="s">
         <v>3</v>
@@ -5307,7 +5338,7 @@
       </c>
       <c r="B282" s="10"/>
       <c r="C282" s="11" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D282" s="8" t="s">
         <v>3</v>
@@ -5319,7 +5350,7 @@
       </c>
       <c r="B283" s="10"/>
       <c r="C283" s="11" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D283" s="8" t="s">
         <v>3</v>
@@ -5331,7 +5362,7 @@
       </c>
       <c r="B284" s="10"/>
       <c r="C284" s="11" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D284" s="8" t="s">
         <v>3</v>
@@ -5343,7 +5374,7 @@
       </c>
       <c r="B285" s="10"/>
       <c r="C285" s="11" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D285" s="8" t="s">
         <v>3</v>
@@ -5355,7 +5386,7 @@
       </c>
       <c r="B286" s="10"/>
       <c r="C286" s="11" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D286" s="8" t="s">
         <v>3</v>
@@ -5367,7 +5398,7 @@
       </c>
       <c r="B287" s="10"/>
       <c r="C287" s="11" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D287" s="8" t="s">
         <v>3</v>
@@ -5379,7 +5410,7 @@
       </c>
       <c r="B288" s="10"/>
       <c r="C288" s="11" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D288" s="8" t="s">
         <v>3</v>
@@ -5391,7 +5422,7 @@
       </c>
       <c r="B289" s="10"/>
       <c r="C289" s="11" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D289" s="8" t="s">
         <v>3</v>
@@ -5403,7 +5434,7 @@
       </c>
       <c r="B290" s="10"/>
       <c r="C290" s="11" t="s">
-        <v>262</v>
+        <v>86</v>
       </c>
       <c r="D290" s="8" t="s">
         <v>3</v>
@@ -5415,29 +5446,29 @@
       </c>
       <c r="B291" s="10"/>
       <c r="C291" s="11" t="s">
-        <v>86</v>
+        <v>263</v>
       </c>
       <c r="D291" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A292" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="B292" s="10"/>
-      <c r="C292" s="11" t="s">
-        <v>263</v>
-      </c>
-      <c r="D292" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="D292" s="8"/>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D293" s="8"/>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="D294" s="8"/>
+      <c r="A294" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="B294" s="10"/>
+      <c r="C294" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="D294" s="8" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A295" s="10" t="s">
@@ -5445,7 +5476,7 @@
       </c>
       <c r="B295" s="10"/>
       <c r="C295" s="11" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D295" s="8" t="s">
         <v>3</v>
@@ -5457,7 +5488,7 @@
       </c>
       <c r="B296" s="10"/>
       <c r="C296" s="11" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D296" s="8" t="s">
         <v>3</v>
@@ -5469,7 +5500,7 @@
       </c>
       <c r="B297" s="10"/>
       <c r="C297" s="11" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D297" s="8" t="s">
         <v>3</v>
@@ -5481,7 +5512,7 @@
       </c>
       <c r="B298" s="10"/>
       <c r="C298" s="11" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D298" s="8" t="s">
         <v>3</v>
@@ -5493,7 +5524,7 @@
       </c>
       <c r="B299" s="10"/>
       <c r="C299" s="11" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D299" s="8" t="s">
         <v>3</v>
@@ -5505,7 +5536,7 @@
       </c>
       <c r="B300" s="10"/>
       <c r="C300" s="11" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D300" s="8" t="s">
         <v>3</v>
@@ -5517,7 +5548,7 @@
       </c>
       <c r="B301" s="10"/>
       <c r="C301" s="11" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D301" s="8" t="s">
         <v>3</v>
@@ -5529,7 +5560,7 @@
       </c>
       <c r="B302" s="10"/>
       <c r="C302" s="11" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D302" s="8" t="s">
         <v>3</v>
@@ -5541,7 +5572,7 @@
       </c>
       <c r="B303" s="10"/>
       <c r="C303" s="11" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D303" s="8" t="s">
         <v>3</v>
@@ -5553,7 +5584,7 @@
       </c>
       <c r="B304" s="10"/>
       <c r="C304" s="11" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D304" s="8" t="s">
         <v>3</v>
@@ -5565,7 +5596,7 @@
       </c>
       <c r="B305" s="10"/>
       <c r="C305" s="11" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D305" s="8" t="s">
         <v>3</v>
@@ -5577,7 +5608,7 @@
       </c>
       <c r="B306" s="10"/>
       <c r="C306" s="11" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D306" s="8" t="s">
         <v>3</v>
@@ -5589,7 +5620,7 @@
       </c>
       <c r="B307" s="10"/>
       <c r="C307" s="11" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D307" s="8" t="s">
         <v>3</v>
@@ -5601,7 +5632,7 @@
       </c>
       <c r="B308" s="10"/>
       <c r="C308" s="11" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D308" s="8" t="s">
         <v>3</v>
@@ -5613,7 +5644,7 @@
       </c>
       <c r="B309" s="10"/>
       <c r="C309" s="11" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D309" s="8" t="s">
         <v>3</v>
@@ -5625,7 +5656,7 @@
       </c>
       <c r="B310" s="10"/>
       <c r="C310" s="11" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D310" s="8" t="s">
         <v>3</v>
@@ -5637,7 +5668,7 @@
       </c>
       <c r="B311" s="10"/>
       <c r="C311" s="11" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D311" s="8" t="s">
         <v>3</v>
@@ -5649,29 +5680,29 @@
       </c>
       <c r="B312" s="10"/>
       <c r="C312" s="11" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D312" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A313" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="B313" s="10"/>
-      <c r="C313" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="D313" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="D313" s="8"/>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D314" s="8"/>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="D315" s="8"/>
+      <c r="A315" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="B315" s="10"/>
+      <c r="C315" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="D315" s="8" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A316" s="10" t="s">
@@ -5679,7 +5710,7 @@
       </c>
       <c r="B316" s="10"/>
       <c r="C316" s="11" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D316" s="8" t="s">
         <v>3</v>
@@ -5691,7 +5722,7 @@
       </c>
       <c r="B317" s="10"/>
       <c r="C317" s="11" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D317" s="8" t="s">
         <v>3</v>
@@ -5703,7 +5734,7 @@
       </c>
       <c r="B318" s="10"/>
       <c r="C318" s="11" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D318" s="8" t="s">
         <v>3</v>
@@ -5715,7 +5746,7 @@
       </c>
       <c r="B319" s="10"/>
       <c r="C319" s="11" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D319" s="8" t="s">
         <v>3</v>
@@ -5727,7 +5758,7 @@
       </c>
       <c r="B320" s="10"/>
       <c r="C320" s="11" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D320" s="8" t="s">
         <v>3</v>
@@ -5739,7 +5770,7 @@
       </c>
       <c r="B321" s="10"/>
       <c r="C321" s="11" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D321" s="8" t="s">
         <v>3</v>
@@ -5751,7 +5782,7 @@
       </c>
       <c r="B322" s="10"/>
       <c r="C322" s="11" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D322" s="8" t="s">
         <v>3</v>
@@ -5763,7 +5794,7 @@
       </c>
       <c r="B323" s="10"/>
       <c r="C323" s="11" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D323" s="8" t="s">
         <v>3</v>
@@ -5775,7 +5806,7 @@
       </c>
       <c r="B324" s="10"/>
       <c r="C324" s="11" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D324" s="8" t="s">
         <v>3</v>
@@ -5787,7 +5818,7 @@
       </c>
       <c r="B325" s="10"/>
       <c r="C325" s="11" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D325" s="8" t="s">
         <v>3</v>
@@ -5799,7 +5830,7 @@
       </c>
       <c r="B326" s="10"/>
       <c r="C326" s="11" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D326" s="8" t="s">
         <v>3</v>
@@ -5811,7 +5842,7 @@
       </c>
       <c r="B327" s="10"/>
       <c r="C327" s="11" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D327" s="8" t="s">
         <v>3</v>
@@ -5822,8 +5853,8 @@
         <v>284</v>
       </c>
       <c r="B328" s="10"/>
-      <c r="C328" s="11" t="s">
-        <v>297</v>
+      <c r="C328" s="5" t="s">
+        <v>298</v>
       </c>
       <c r="D328" s="8" t="s">
         <v>3</v>
@@ -5834,8 +5865,8 @@
         <v>284</v>
       </c>
       <c r="B329" s="10"/>
-      <c r="C329" s="5" t="s">
-        <v>298</v>
+      <c r="C329" s="11" t="s">
+        <v>299</v>
       </c>
       <c r="D329" s="8" t="s">
         <v>3</v>
@@ -5847,7 +5878,7 @@
       </c>
       <c r="B330" s="10"/>
       <c r="C330" s="11" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D330" s="8" t="s">
         <v>3</v>
@@ -5859,7 +5890,7 @@
       </c>
       <c r="B331" s="10"/>
       <c r="C331" s="11" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D331" s="8" t="s">
         <v>3</v>
@@ -5871,7 +5902,7 @@
       </c>
       <c r="B332" s="10"/>
       <c r="C332" s="11" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D332" s="8" t="s">
         <v>3</v>
@@ -5883,7 +5914,7 @@
       </c>
       <c r="B333" s="10"/>
       <c r="C333" s="11" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D333" s="8" t="s">
         <v>3</v>
@@ -5895,7 +5926,7 @@
       </c>
       <c r="B334" s="10"/>
       <c r="C334" s="11" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D334" s="8" t="s">
         <v>3</v>
@@ -5907,7 +5938,7 @@
       </c>
       <c r="B335" s="10"/>
       <c r="C335" s="11" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D335" s="8" t="s">
         <v>3</v>
@@ -5919,7 +5950,7 @@
       </c>
       <c r="B336" s="10"/>
       <c r="C336" s="11" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D336" s="8" t="s">
         <v>3</v>
@@ -5931,7 +5962,7 @@
       </c>
       <c r="B337" s="10"/>
       <c r="C337" s="11" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D337" s="8" t="s">
         <v>3</v>
@@ -5943,7 +5974,7 @@
       </c>
       <c r="B338" s="10"/>
       <c r="C338" s="11" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D338" s="8" t="s">
         <v>3</v>
@@ -5955,7 +5986,7 @@
       </c>
       <c r="B339" s="10"/>
       <c r="C339" s="11" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D339" s="8" t="s">
         <v>3</v>
@@ -5967,7 +5998,7 @@
       </c>
       <c r="B340" s="10"/>
       <c r="C340" s="11" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D340" s="8" t="s">
         <v>3</v>
@@ -5979,7 +6010,7 @@
       </c>
       <c r="B341" s="10"/>
       <c r="C341" s="11" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D341" s="8" t="s">
         <v>3</v>
@@ -5991,7 +6022,7 @@
       </c>
       <c r="B342" s="10"/>
       <c r="C342" s="11" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D342" s="8" t="s">
         <v>3</v>
@@ -6003,7 +6034,7 @@
       </c>
       <c r="B343" s="10"/>
       <c r="C343" s="11" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D343" s="8" t="s">
         <v>3</v>
@@ -6015,7 +6046,7 @@
       </c>
       <c r="B344" s="10"/>
       <c r="C344" s="11" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D344" s="8" t="s">
         <v>3</v>
@@ -6027,7 +6058,7 @@
       </c>
       <c r="B345" s="10"/>
       <c r="C345" s="11" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D345" s="8" t="s">
         <v>3</v>
@@ -6039,7 +6070,7 @@
       </c>
       <c r="B346" s="10"/>
       <c r="C346" s="11" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D346" s="8" t="s">
         <v>3</v>
@@ -6051,7 +6082,7 @@
       </c>
       <c r="B347" s="10"/>
       <c r="C347" s="11" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D347" s="8" t="s">
         <v>3</v>
@@ -6063,7 +6094,7 @@
       </c>
       <c r="B348" s="10"/>
       <c r="C348" s="11" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D348" s="8" t="s">
         <v>3</v>
@@ -6075,7 +6106,7 @@
       </c>
       <c r="B349" s="10"/>
       <c r="C349" s="11" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D349" s="8" t="s">
         <v>3</v>
@@ -6087,7 +6118,7 @@
       </c>
       <c r="B350" s="10"/>
       <c r="C350" s="11" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D350" s="8" t="s">
         <v>3</v>
@@ -6099,7 +6130,7 @@
       </c>
       <c r="B351" s="10"/>
       <c r="C351" s="11" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D351" s="8" t="s">
         <v>3</v>
@@ -6111,29 +6142,29 @@
       </c>
       <c r="B352" s="10"/>
       <c r="C352" s="11" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D352" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A353" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="B353" s="10"/>
-      <c r="C353" s="11" t="s">
-        <v>322</v>
-      </c>
-      <c r="D353" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="D353" s="8"/>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D354" s="8"/>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="D355" s="8"/>
+      <c r="A355" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="B355" s="8"/>
+      <c r="C355" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="D355" s="8" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A356" s="8" t="s">
@@ -6141,7 +6172,7 @@
       </c>
       <c r="B356" s="8"/>
       <c r="C356" s="11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D356" s="8" t="s">
         <v>3</v>
@@ -6153,7 +6184,7 @@
       </c>
       <c r="B357" s="8"/>
       <c r="C357" s="11" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D357" s="8" t="s">
         <v>3</v>
@@ -6165,7 +6196,7 @@
       </c>
       <c r="B358" s="8"/>
       <c r="C358" s="11" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D358" s="8" t="s">
         <v>3</v>
@@ -6177,7 +6208,7 @@
       </c>
       <c r="B359" s="8"/>
       <c r="C359" s="11" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D359" s="8" t="s">
         <v>3</v>
@@ -6189,7 +6220,7 @@
       </c>
       <c r="B360" s="8"/>
       <c r="C360" s="11" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D360" s="8" t="s">
         <v>3</v>
@@ -6201,7 +6232,7 @@
       </c>
       <c r="B361" s="8"/>
       <c r="C361" s="11" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D361" s="8" t="s">
         <v>3</v>
@@ -6213,7 +6244,7 @@
       </c>
       <c r="B362" s="8"/>
       <c r="C362" s="11" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D362" s="8" t="s">
         <v>3</v>
@@ -6224,8 +6255,8 @@
         <v>323</v>
       </c>
       <c r="B363" s="8"/>
-      <c r="C363" s="11" t="s">
-        <v>331</v>
+      <c r="C363" s="5" t="s">
+        <v>332</v>
       </c>
       <c r="D363" s="8" t="s">
         <v>3</v>
@@ -6236,8 +6267,8 @@
         <v>323</v>
       </c>
       <c r="B364" s="8"/>
-      <c r="C364" s="5" t="s">
-        <v>332</v>
+      <c r="C364" s="11" t="s">
+        <v>333</v>
       </c>
       <c r="D364" s="8" t="s">
         <v>3</v>
@@ -6249,7 +6280,7 @@
       </c>
       <c r="B365" s="8"/>
       <c r="C365" s="11" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D365" s="8" t="s">
         <v>3</v>
@@ -6261,7 +6292,7 @@
       </c>
       <c r="B366" s="8"/>
       <c r="C366" s="11" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D366" s="8" t="s">
         <v>3</v>
@@ -6273,7 +6304,7 @@
       </c>
       <c r="B367" s="8"/>
       <c r="C367" s="11" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D367" s="8" t="s">
         <v>3</v>
@@ -6285,7 +6316,7 @@
       </c>
       <c r="B368" s="8"/>
       <c r="C368" s="11" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D368" s="8" t="s">
         <v>3</v>
@@ -6297,7 +6328,7 @@
       </c>
       <c r="B369" s="8"/>
       <c r="C369" s="11" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D369" s="8" t="s">
         <v>3</v>
@@ -6309,7 +6340,7 @@
       </c>
       <c r="B370" s="8"/>
       <c r="C370" s="11" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D370" s="8" t="s">
         <v>3</v>
@@ -6321,7 +6352,7 @@
       </c>
       <c r="B371" s="8"/>
       <c r="C371" s="11" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D371" s="8" t="s">
         <v>3</v>
@@ -6333,29 +6364,29 @@
       </c>
       <c r="B372" s="8"/>
       <c r="C372" s="11" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D372" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A373" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="B373" s="8"/>
-      <c r="C373" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="D373" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="D373" s="8"/>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D374" s="8"/>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="D375" s="8"/>
+      <c r="A375" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="B375" s="8"/>
+      <c r="C375" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="D375" s="8" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A376" s="8" t="s">
@@ -6363,7 +6394,7 @@
       </c>
       <c r="B376" s="8"/>
       <c r="C376" s="11" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D376" s="8" t="s">
         <v>3</v>
@@ -6375,7 +6406,7 @@
       </c>
       <c r="B377" s="8"/>
       <c r="C377" s="11" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D377" s="8" t="s">
         <v>3</v>
@@ -6387,7 +6418,7 @@
       </c>
       <c r="B378" s="8"/>
       <c r="C378" s="11" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D378" s="8" t="s">
         <v>3</v>
@@ -6399,7 +6430,7 @@
       </c>
       <c r="B379" s="8"/>
       <c r="C379" s="11" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D379" s="8" t="s">
         <v>3</v>
@@ -6411,7 +6442,7 @@
       </c>
       <c r="B380" s="8"/>
       <c r="C380" s="11" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D380" s="8" t="s">
         <v>3</v>
@@ -6423,7 +6454,7 @@
       </c>
       <c r="B381" s="8"/>
       <c r="C381" s="11" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D381" s="8" t="s">
         <v>3</v>
@@ -6435,7 +6466,7 @@
       </c>
       <c r="B382" s="8"/>
       <c r="C382" s="11" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D382" s="8" t="s">
         <v>3</v>
@@ -6447,7 +6478,7 @@
       </c>
       <c r="B383" s="8"/>
       <c r="C383" s="11" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D383" s="8" t="s">
         <v>3</v>
@@ -6459,7 +6490,7 @@
       </c>
       <c r="B384" s="8"/>
       <c r="C384" s="11" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D384" s="8" t="s">
         <v>3</v>
@@ -6471,7 +6502,7 @@
       </c>
       <c r="B385" s="8"/>
       <c r="C385" s="11" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D385" s="8" t="s">
         <v>3</v>
@@ -6483,7 +6514,7 @@
       </c>
       <c r="B386" s="8"/>
       <c r="C386" s="11" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D386" s="8" t="s">
         <v>3</v>
@@ -6495,7 +6526,7 @@
       </c>
       <c r="B387" s="8"/>
       <c r="C387" s="11" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D387" s="8" t="s">
         <v>3</v>
@@ -6507,7 +6538,7 @@
       </c>
       <c r="B388" s="8"/>
       <c r="C388" s="11" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D388" s="8" t="s">
         <v>3</v>
@@ -6519,7 +6550,7 @@
       </c>
       <c r="B389" s="8"/>
       <c r="C389" s="11" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D389" s="8" t="s">
         <v>3</v>
@@ -6531,7 +6562,7 @@
       </c>
       <c r="B390" s="8"/>
       <c r="C390" s="11" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D390" s="8" t="s">
         <v>3</v>
@@ -6543,7 +6574,7 @@
       </c>
       <c r="B391" s="8"/>
       <c r="C391" s="11" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D391" s="8" t="s">
         <v>3</v>
@@ -6555,7 +6586,7 @@
       </c>
       <c r="B392" s="8"/>
       <c r="C392" s="11" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D392" s="8" t="s">
         <v>3</v>
@@ -6567,7 +6598,7 @@
       </c>
       <c r="B393" s="8"/>
       <c r="C393" s="11" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D393" s="8" t="s">
         <v>3</v>
@@ -6579,7 +6610,7 @@
       </c>
       <c r="B394" s="8"/>
       <c r="C394" s="11" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D394" s="8" t="s">
         <v>3</v>
@@ -6591,7 +6622,7 @@
       </c>
       <c r="B395" s="8"/>
       <c r="C395" s="11" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D395" s="8" t="s">
         <v>3</v>
@@ -6603,7 +6634,7 @@
       </c>
       <c r="B396" s="8"/>
       <c r="C396" s="11" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D396" s="8" t="s">
         <v>3</v>
@@ -6615,7 +6646,7 @@
       </c>
       <c r="B397" s="8"/>
       <c r="C397" s="11" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D397" s="8" t="s">
         <v>3</v>
@@ -6627,7 +6658,7 @@
       </c>
       <c r="B398" s="8"/>
       <c r="C398" s="11" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D398" s="8" t="s">
         <v>3</v>
@@ -6639,7 +6670,7 @@
       </c>
       <c r="B399" s="8"/>
       <c r="C399" s="11" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D399" s="8" t="s">
         <v>3</v>
@@ -6651,7 +6682,7 @@
       </c>
       <c r="B400" s="8"/>
       <c r="C400" s="11" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D400" s="8" t="s">
         <v>3</v>
@@ -6663,7 +6694,7 @@
       </c>
       <c r="B401" s="8"/>
       <c r="C401" s="11" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D401" s="8" t="s">
         <v>3</v>
@@ -6675,7 +6706,7 @@
       </c>
       <c r="B402" s="8"/>
       <c r="C402" s="11" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D402" s="8" t="s">
         <v>3</v>
@@ -6687,7 +6718,7 @@
       </c>
       <c r="B403" s="8"/>
       <c r="C403" s="11" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D403" s="8" t="s">
         <v>3</v>
@@ -6699,7 +6730,7 @@
       </c>
       <c r="B404" s="8"/>
       <c r="C404" s="11" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D404" s="8" t="s">
         <v>3</v>
@@ -6711,7 +6742,7 @@
       </c>
       <c r="B405" s="8"/>
       <c r="C405" s="11" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D405" s="8" t="s">
         <v>3</v>
@@ -6723,7 +6754,7 @@
       </c>
       <c r="B406" s="8"/>
       <c r="C406" s="11" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D406" s="8" t="s">
         <v>3</v>
@@ -6735,7 +6766,7 @@
       </c>
       <c r="B407" s="8"/>
       <c r="C407" s="11" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D407" s="8" t="s">
         <v>3</v>
@@ -6747,7 +6778,7 @@
       </c>
       <c r="B408" s="8"/>
       <c r="C408" s="11" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D408" s="8" t="s">
         <v>3</v>
@@ -6771,7 +6802,7 @@
       </c>
       <c r="B410" s="8"/>
       <c r="C410" s="11" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D410" s="8" t="s">
         <v>3</v>
@@ -6783,7 +6814,7 @@
       </c>
       <c r="B411" s="8"/>
       <c r="C411" s="11" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D411" s="8" t="s">
         <v>3</v>
@@ -6795,7 +6826,7 @@
       </c>
       <c r="B412" s="8"/>
       <c r="C412" s="11" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D412" s="8" t="s">
         <v>3</v>
@@ -6807,7 +6838,7 @@
       </c>
       <c r="B413" s="8"/>
       <c r="C413" s="11" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D413" s="8" t="s">
         <v>3</v>
@@ -6819,7 +6850,7 @@
       </c>
       <c r="B414" s="8"/>
       <c r="C414" s="11" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D414" s="8" t="s">
         <v>3</v>
@@ -6831,7 +6862,7 @@
       </c>
       <c r="B415" s="8"/>
       <c r="C415" s="11" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D415" s="8" t="s">
         <v>3</v>
@@ -6843,7 +6874,7 @@
       </c>
       <c r="B416" s="8"/>
       <c r="C416" s="11" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D416" s="8" t="s">
         <v>3</v>
@@ -6855,7 +6886,7 @@
       </c>
       <c r="B417" s="8"/>
       <c r="C417" s="11" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D417" s="8" t="s">
         <v>3</v>
@@ -6867,29 +6898,29 @@
       </c>
       <c r="B418" s="8"/>
       <c r="C418" s="11" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D418" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A419" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="B419" s="8"/>
-      <c r="C419" s="11" t="s">
-        <v>385</v>
-      </c>
-      <c r="D419" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="D419" s="8"/>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D420" s="8"/>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="D421" s="8"/>
+      <c r="A421" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="B421" s="8"/>
+      <c r="C421" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="D421" s="8" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A422" s="8" t="s">
@@ -6897,7 +6928,7 @@
       </c>
       <c r="B422" s="8"/>
       <c r="C422" s="11" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D422" s="8" t="s">
         <v>3</v>
@@ -6909,7 +6940,7 @@
       </c>
       <c r="B423" s="8"/>
       <c r="C423" s="11" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D423" s="8" t="s">
         <v>3</v>
@@ -6921,7 +6952,7 @@
       </c>
       <c r="B424" s="8"/>
       <c r="C424" s="11" t="s">
-        <v>389</v>
+        <v>88</v>
       </c>
       <c r="D424" s="8" t="s">
         <v>3</v>
@@ -6933,7 +6964,7 @@
       </c>
       <c r="B425" s="8"/>
       <c r="C425" s="11" t="s">
-        <v>88</v>
+        <v>390</v>
       </c>
       <c r="D425" s="8" t="s">
         <v>3</v>
@@ -6945,29 +6976,29 @@
       </c>
       <c r="B426" s="8"/>
       <c r="C426" s="11" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D426" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A427" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="B427" s="8"/>
-      <c r="C427" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="D427" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="D427" s="8"/>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D428" s="8"/>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="D429" s="8"/>
+      <c r="A429" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="B429" s="10"/>
+      <c r="C429" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="D429" s="8" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A430" s="10" t="s">
@@ -6975,7 +7006,7 @@
       </c>
       <c r="B430" s="10"/>
       <c r="C430" s="11" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D430" s="8" t="s">
         <v>3</v>
@@ -6987,7 +7018,7 @@
       </c>
       <c r="B431" s="10"/>
       <c r="C431" s="11" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D431" s="8" t="s">
         <v>3</v>
@@ -6999,7 +7030,7 @@
       </c>
       <c r="B432" s="10"/>
       <c r="C432" s="11" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D432" s="8" t="s">
         <v>3</v>
@@ -7011,7 +7042,7 @@
       </c>
       <c r="B433" s="10"/>
       <c r="C433" s="11" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D433" s="8" t="s">
         <v>3</v>
@@ -7023,7 +7054,7 @@
       </c>
       <c r="B434" s="10"/>
       <c r="C434" s="11" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D434" s="8" t="s">
         <v>3</v>
@@ -7035,7 +7066,7 @@
       </c>
       <c r="B435" s="10"/>
       <c r="C435" s="11" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D435" s="8" t="s">
         <v>3</v>
@@ -7047,7 +7078,7 @@
       </c>
       <c r="B436" s="10"/>
       <c r="C436" s="11" t="s">
-        <v>399</v>
+        <v>272</v>
       </c>
       <c r="D436" s="8" t="s">
         <v>3</v>
@@ -7059,7 +7090,7 @@
       </c>
       <c r="B437" s="10"/>
       <c r="C437" s="11" t="s">
-        <v>272</v>
+        <v>400</v>
       </c>
       <c r="D437" s="8" t="s">
         <v>3</v>
@@ -7071,7 +7102,7 @@
       </c>
       <c r="B438" s="10"/>
       <c r="C438" s="11" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D438" s="8" t="s">
         <v>3</v>
@@ -7083,7 +7114,7 @@
       </c>
       <c r="B439" s="10"/>
       <c r="C439" s="11" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D439" s="8" t="s">
         <v>3</v>
@@ -7095,7 +7126,7 @@
       </c>
       <c r="B440" s="10"/>
       <c r="C440" s="11" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D440" s="8" t="s">
         <v>3</v>
@@ -7107,7 +7138,7 @@
       </c>
       <c r="B441" s="10"/>
       <c r="C441" s="11" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D441" s="8" t="s">
         <v>3</v>
@@ -7119,7 +7150,7 @@
       </c>
       <c r="B442" s="10"/>
       <c r="C442" s="11" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D442" s="8" t="s">
         <v>3</v>
@@ -7131,7 +7162,7 @@
       </c>
       <c r="B443" s="10"/>
       <c r="C443" s="11" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D443" s="8" t="s">
         <v>3</v>
@@ -7143,7 +7174,7 @@
       </c>
       <c r="B444" s="10"/>
       <c r="C444" s="11" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D444" s="8" t="s">
         <v>3</v>
@@ -7155,7 +7186,7 @@
       </c>
       <c r="B445" s="10"/>
       <c r="C445" s="11" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D445" s="8" t="s">
         <v>3</v>
@@ -7167,7 +7198,7 @@
       </c>
       <c r="B446" s="10"/>
       <c r="C446" s="11" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D446" s="8" t="s">
         <v>3</v>
@@ -7179,7 +7210,7 @@
       </c>
       <c r="B447" s="10"/>
       <c r="C447" s="11" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D447" s="8" t="s">
         <v>3</v>
@@ -7191,7 +7222,7 @@
       </c>
       <c r="B448" s="10"/>
       <c r="C448" s="11" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D448" s="8" t="s">
         <v>3</v>
@@ -7203,7 +7234,7 @@
       </c>
       <c r="B449" s="10"/>
       <c r="C449" s="11" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D449" s="8" t="s">
         <v>3</v>
@@ -7215,7 +7246,7 @@
       </c>
       <c r="B450" s="10"/>
       <c r="C450" s="11" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D450" s="8" t="s">
         <v>3</v>
@@ -7227,7 +7258,7 @@
       </c>
       <c r="B451" s="10"/>
       <c r="C451" s="11" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D451" s="8" t="s">
         <v>3</v>
@@ -7239,7 +7270,7 @@
       </c>
       <c r="B452" s="10"/>
       <c r="C452" s="11" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D452" s="8" t="s">
         <v>3</v>
@@ -7251,7 +7282,7 @@
       </c>
       <c r="B453" s="10"/>
       <c r="C453" s="11" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D453" s="8" t="s">
         <v>3</v>
@@ -7263,7 +7294,7 @@
       </c>
       <c r="B454" s="10"/>
       <c r="C454" s="11" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D454" s="8" t="s">
         <v>3</v>
@@ -7275,7 +7306,7 @@
       </c>
       <c r="B455" s="10"/>
       <c r="C455" s="11" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D455" s="8" t="s">
         <v>3</v>
@@ -7287,7 +7318,7 @@
       </c>
       <c r="B456" s="10"/>
       <c r="C456" s="11" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D456" s="8" t="s">
         <v>3</v>
@@ -7299,7 +7330,7 @@
       </c>
       <c r="B457" s="10"/>
       <c r="C457" s="11" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D457" s="8" t="s">
         <v>3</v>
@@ -7311,7 +7342,7 @@
       </c>
       <c r="B458" s="10"/>
       <c r="C458" s="11" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D458" s="8" t="s">
         <v>3</v>
@@ -7323,7 +7354,7 @@
       </c>
       <c r="B459" s="10"/>
       <c r="C459" s="11" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D459" s="8" t="s">
         <v>3</v>
@@ -7335,7 +7366,7 @@
       </c>
       <c r="B460" s="10"/>
       <c r="C460" s="11" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D460" s="8" t="s">
         <v>3</v>
@@ -7347,7 +7378,7 @@
       </c>
       <c r="B461" s="10"/>
       <c r="C461" s="11" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D461" s="8" t="s">
         <v>3</v>
@@ -7359,7 +7390,7 @@
       </c>
       <c r="B462" s="10"/>
       <c r="C462" s="11" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D462" s="8" t="s">
         <v>3</v>
@@ -7371,7 +7402,7 @@
       </c>
       <c r="B463" s="10"/>
       <c r="C463" s="11" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D463" s="8" t="s">
         <v>3</v>
@@ -7383,7 +7414,7 @@
       </c>
       <c r="B464" s="10"/>
       <c r="C464" s="11" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D464" s="8" t="s">
         <v>3</v>
@@ -7395,7 +7426,7 @@
       </c>
       <c r="B465" s="10"/>
       <c r="C465" s="11" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D465" s="8" t="s">
         <v>3</v>
@@ -7407,7 +7438,7 @@
       </c>
       <c r="B466" s="10"/>
       <c r="C466" s="11" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D466" s="8" t="s">
         <v>3</v>
@@ -7419,7 +7450,7 @@
       </c>
       <c r="B467" s="10"/>
       <c r="C467" s="11" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D467" s="8" t="s">
         <v>3</v>
@@ -7431,7 +7462,7 @@
       </c>
       <c r="B468" s="10"/>
       <c r="C468" s="11" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D468" s="8" t="s">
         <v>3</v>
@@ -7443,7 +7474,7 @@
       </c>
       <c r="B469" s="10"/>
       <c r="C469" s="11" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D469" s="8" t="s">
         <v>3</v>
@@ -7455,7 +7486,7 @@
       </c>
       <c r="B470" s="10"/>
       <c r="C470" s="11" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D470" s="8" t="s">
         <v>3</v>
@@ -7467,7 +7498,7 @@
       </c>
       <c r="B471" s="10"/>
       <c r="C471" s="11" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D471" s="8" t="s">
         <v>3</v>
@@ -7479,7 +7510,7 @@
       </c>
       <c r="B472" s="10"/>
       <c r="C472" s="11" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D472" s="8" t="s">
         <v>3</v>
@@ -7491,7 +7522,7 @@
       </c>
       <c r="B473" s="10"/>
       <c r="C473" s="11" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D473" s="8" t="s">
         <v>3</v>
@@ -7503,7 +7534,7 @@
       </c>
       <c r="B474" s="10"/>
       <c r="C474" s="11" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D474" s="8" t="s">
         <v>3</v>
@@ -7515,7 +7546,7 @@
       </c>
       <c r="B475" s="10"/>
       <c r="C475" s="11" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D475" s="8" t="s">
         <v>3</v>
@@ -7527,7 +7558,7 @@
       </c>
       <c r="B476" s="10"/>
       <c r="C476" s="11" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D476" s="8" t="s">
         <v>3</v>
@@ -7539,7 +7570,7 @@
       </c>
       <c r="B477" s="10"/>
       <c r="C477" s="11" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D477" s="8" t="s">
         <v>3</v>
@@ -7551,7 +7582,7 @@
       </c>
       <c r="B478" s="10"/>
       <c r="C478" s="11" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D478" s="8" t="s">
         <v>3</v>
@@ -7563,7 +7594,7 @@
       </c>
       <c r="B479" s="10"/>
       <c r="C479" s="11" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D479" s="8" t="s">
         <v>3</v>
@@ -7575,7 +7606,7 @@
       </c>
       <c r="B480" s="10"/>
       <c r="C480" s="11" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D480" s="8" t="s">
         <v>3</v>
@@ -7587,7 +7618,7 @@
       </c>
       <c r="B481" s="10"/>
       <c r="C481" s="11" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D481" s="8" t="s">
         <v>3</v>
@@ -7599,7 +7630,7 @@
       </c>
       <c r="B482" s="10"/>
       <c r="C482" s="11" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D482" s="8" t="s">
         <v>3</v>
@@ -7611,7 +7642,7 @@
       </c>
       <c r="B483" s="10"/>
       <c r="C483" s="11" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D483" s="8" t="s">
         <v>3</v>
@@ -7623,7 +7654,7 @@
       </c>
       <c r="B484" s="10"/>
       <c r="C484" s="11" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D484" s="8" t="s">
         <v>3</v>
@@ -7635,7 +7666,7 @@
       </c>
       <c r="B485" s="10"/>
       <c r="C485" s="11" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D485" s="8" t="s">
         <v>3</v>
@@ -7647,7 +7678,7 @@
       </c>
       <c r="B486" s="10"/>
       <c r="C486" s="11" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D486" s="8" t="s">
         <v>3</v>
@@ -7659,7 +7690,7 @@
       </c>
       <c r="B487" s="10"/>
       <c r="C487" s="11" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D487" s="8" t="s">
         <v>3</v>
@@ -7671,31 +7702,31 @@
       </c>
       <c r="B488" s="10"/>
       <c r="C488" s="11" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D488" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A489" s="10" t="s">
-        <v>392</v>
-      </c>
-      <c r="B489" s="10"/>
-      <c r="C489" s="11" t="s">
-        <v>451</v>
-      </c>
-      <c r="D489" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="D489" s="8"/>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A490" s="8"/>
+      <c r="B490" s="8"/>
       <c r="D490" s="8"/>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A491" s="8"/>
-      <c r="B491" s="8"/>
-      <c r="D491" s="8"/>
+      <c r="A491" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="B491" s="10"/>
+      <c r="C491" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="D491" s="8" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A492" s="10" t="s">
@@ -7703,7 +7734,7 @@
       </c>
       <c r="B492" s="10"/>
       <c r="C492" s="11" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D492" s="8" t="s">
         <v>3</v>
@@ -7715,7 +7746,7 @@
       </c>
       <c r="B493" s="10"/>
       <c r="C493" s="11" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D493" s="8" t="s">
         <v>3</v>
@@ -7727,7 +7758,7 @@
       </c>
       <c r="B494" s="10"/>
       <c r="C494" s="11" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D494" s="8" t="s">
         <v>3</v>
@@ -7739,7 +7770,7 @@
       </c>
       <c r="B495" s="10"/>
       <c r="C495" s="11" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D495" s="8" t="s">
         <v>3</v>
@@ -7751,7 +7782,7 @@
       </c>
       <c r="B496" s="10"/>
       <c r="C496" s="11" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D496" s="8" t="s">
         <v>3</v>
@@ -7763,7 +7794,7 @@
       </c>
       <c r="B497" s="10"/>
       <c r="C497" s="11" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D497" s="8" t="s">
         <v>3</v>
@@ -7775,7 +7806,7 @@
       </c>
       <c r="B498" s="10"/>
       <c r="C498" s="11" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D498" s="8" t="s">
         <v>3</v>
@@ -7787,7 +7818,7 @@
       </c>
       <c r="B499" s="10"/>
       <c r="C499" s="11" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D499" s="8" t="s">
         <v>3</v>
@@ -7799,473 +7830,461 @@
       </c>
       <c r="B500" s="10"/>
       <c r="C500" s="11" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D500" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A501" s="10" t="s">
-        <v>452</v>
-      </c>
-      <c r="B501" s="10"/>
-      <c r="C501" s="11" t="s">
-        <v>462</v>
-      </c>
-      <c r="D501" s="8" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C24" r:id="rId1" xr:uid="{9492A4AD-FA44-BA4B-B154-E4DBB1951162}"/>
-    <hyperlink ref="C25" r:id="rId2" xr:uid="{2D6F1134-3C08-7445-B19A-9B94A18B55C7}"/>
-    <hyperlink ref="C28" r:id="rId3" xr:uid="{E5A98931-37E8-6B4A-90BE-8DC72405341A}"/>
-    <hyperlink ref="C29" r:id="rId4" xr:uid="{02736918-E09F-7A46-90B3-AFCC33AA559B}"/>
-    <hyperlink ref="C30" r:id="rId5" xr:uid="{6E8DD30A-A9F9-4C44-B26C-C9E236F10798}"/>
-    <hyperlink ref="C31" r:id="rId6" xr:uid="{0D55765B-95A7-154F-96F3-B7E4C581021F}"/>
-    <hyperlink ref="C32" r:id="rId7" xr:uid="{6F687ABA-C04B-AF4F-9F11-A038DCB20FB9}"/>
-    <hyperlink ref="C33" r:id="rId8" xr:uid="{11C9D8CC-9F1E-004E-8EC2-C758DC9C8CAB}"/>
-    <hyperlink ref="C34" r:id="rId9" xr:uid="{56E4962F-CB3D-9E48-A26E-19A1F5C800C9}"/>
-    <hyperlink ref="C35" r:id="rId10" xr:uid="{899DDBD9-9ED6-3A4D-8AFE-8FAA6DA88DBC}"/>
-    <hyperlink ref="C36" r:id="rId11" xr:uid="{76D41EAC-A28A-2845-8515-CA3C70D823B7}"/>
-    <hyperlink ref="C37" r:id="rId12" xr:uid="{828948BE-DD97-DE4A-BAD6-B415E29198F0}"/>
-    <hyperlink ref="C38" r:id="rId13" xr:uid="{E98C86AA-12E7-124C-B7D0-BCDFB246040B}"/>
-    <hyperlink ref="C39" r:id="rId14" xr:uid="{192741A9-FF68-DC4A-99FA-69F9968AB4F2}"/>
-    <hyperlink ref="C40" r:id="rId15" xr:uid="{DBD9BA9C-91C6-B144-A800-DCB3BED33DE7}"/>
-    <hyperlink ref="C41" r:id="rId16" xr:uid="{A285BDE8-00E7-A94C-8E43-A0C4829D42FA}"/>
-    <hyperlink ref="C42" r:id="rId17" xr:uid="{B0C21764-2962-1649-8AFA-10FB9420C5FC}"/>
-    <hyperlink ref="C43" r:id="rId18" xr:uid="{9282CC15-9B38-E54B-B64C-557745C9C00A}"/>
-    <hyperlink ref="C44" r:id="rId19" xr:uid="{3BCCEBE2-AC3B-AC4F-8BA9-439ACEA133D4}"/>
-    <hyperlink ref="C45" r:id="rId20" xr:uid="{74F8D761-6EBF-594A-A6C7-40DE4CE96958}"/>
-    <hyperlink ref="C46" r:id="rId21" xr:uid="{79947FE6-D417-D644-81D8-D058180550A0}"/>
-    <hyperlink ref="C47" r:id="rId22" xr:uid="{2BF3F606-410B-264D-BF60-191C34D616BB}"/>
-    <hyperlink ref="C48" r:id="rId23" xr:uid="{CD98DB26-0F2F-FD40-A989-53FE548D7D34}"/>
-    <hyperlink ref="C49" r:id="rId24" xr:uid="{307032A1-F8EF-1A48-BFE3-EA3283D39BE2}"/>
-    <hyperlink ref="C50" r:id="rId25" xr:uid="{AA329F36-941A-9241-9402-9D220B05E719}"/>
-    <hyperlink ref="C51" r:id="rId26" xr:uid="{9E851DAC-0E30-B340-84F9-721D70B66919}"/>
-    <hyperlink ref="C52" r:id="rId27" xr:uid="{468380BA-4978-A645-ABD0-E74FD3E6BDBB}"/>
-    <hyperlink ref="C53" r:id="rId28" xr:uid="{289E6890-8CCB-D645-9B3F-6138FFC1C249}"/>
-    <hyperlink ref="C54" r:id="rId29" xr:uid="{8EABDC68-858F-784A-A8F1-C603E3B8C1FE}"/>
-    <hyperlink ref="C55" r:id="rId30" xr:uid="{6157E427-1210-3F45-A4DC-6DFD2373B9CF}"/>
-    <hyperlink ref="C56" r:id="rId31" xr:uid="{2D7BA55E-9947-FF4D-BC09-FB4A5ADA07EC}"/>
-    <hyperlink ref="C57" r:id="rId32" xr:uid="{3337C74F-8B73-E64E-A6DA-5D9F7C7B4D32}"/>
-    <hyperlink ref="C58" r:id="rId33" xr:uid="{02370124-E58D-B540-BBCF-98266229556D}"/>
-    <hyperlink ref="C59" r:id="rId34" xr:uid="{F2DE2162-BD02-7549-AC1A-27455F78131F}"/>
-    <hyperlink ref="C60" r:id="rId35" xr:uid="{6FA286B9-3994-624D-B0B8-C01657D110AD}"/>
-    <hyperlink ref="C61" r:id="rId36" xr:uid="{6EFBEDA1-5C10-2547-8FB2-44E977513B28}"/>
-    <hyperlink ref="C64" r:id="rId37" xr:uid="{090EC515-BEBE-514E-BA59-A84E450B4211}"/>
-    <hyperlink ref="C65" r:id="rId38" xr:uid="{0A0557FD-77E5-564B-B100-147D544A38B4}"/>
-    <hyperlink ref="C66" r:id="rId39" xr:uid="{3F82F2E0-AA59-5042-B079-F3B3C6FF2FD7}"/>
-    <hyperlink ref="C67" r:id="rId40" xr:uid="{FFF7D257-1F58-5A4B-AAA2-F5480AED86C7}"/>
-    <hyperlink ref="C68" r:id="rId41" xr:uid="{353E28FA-E36D-7447-9DE8-787DF11C4669}"/>
-    <hyperlink ref="C69" r:id="rId42" xr:uid="{F9B53127-FC98-FE43-B53F-BFDBCE2A4427}"/>
-    <hyperlink ref="C70" r:id="rId43" xr:uid="{40685BBC-CE24-624E-9ABB-98490B7DE0E4}"/>
-    <hyperlink ref="C71" r:id="rId44" xr:uid="{7733D505-2EC7-E346-B3DA-C980C7CE0B27}"/>
-    <hyperlink ref="C72" r:id="rId45" xr:uid="{E8C1FE00-7B4B-5745-8E4B-CD44B6C749E3}"/>
-    <hyperlink ref="C73" r:id="rId46" xr:uid="{FDE181B1-57B0-7C4B-A189-C7C6E4EAEF99}"/>
-    <hyperlink ref="C76" r:id="rId47" xr:uid="{FE85FD72-4FC9-334E-8205-9E8B238954EB}"/>
-    <hyperlink ref="C77" r:id="rId48" xr:uid="{7630AD76-7E6B-8C4A-BA33-A62EBB042215}"/>
-    <hyperlink ref="C78" r:id="rId49" xr:uid="{2A738B70-CBF0-CC40-8B05-A271822B3F1A}"/>
-    <hyperlink ref="C80" r:id="rId50" xr:uid="{B2DE2D9E-8371-CD44-9D0D-4D6DC64AC29B}"/>
-    <hyperlink ref="C81" r:id="rId51" xr:uid="{265DCD11-17A0-654E-BEFE-FABA31210C6E}"/>
-    <hyperlink ref="C82" r:id="rId52" xr:uid="{47F1BB0C-0C5C-0845-8EEC-1560C50D7DA7}"/>
-    <hyperlink ref="C83" r:id="rId53" xr:uid="{8E0BFA2E-CCB4-514F-86CD-78176C6CC98A}"/>
-    <hyperlink ref="C84" r:id="rId54" xr:uid="{E4DEFB4B-749F-8746-97C7-F2B433664A74}"/>
-    <hyperlink ref="C85" r:id="rId55" xr:uid="{8301BDBD-EB7E-7D41-A777-ED99C3F9D67D}"/>
-    <hyperlink ref="C86" r:id="rId56" xr:uid="{927AE532-647F-AF4C-A567-40ADA6FCE534}"/>
-    <hyperlink ref="C87" r:id="rId57" xr:uid="{05489F52-CC92-EC44-9AD3-773DEC3B1D36}"/>
-    <hyperlink ref="C88" r:id="rId58" xr:uid="{13025DF6-C30E-014A-B66C-68C4AAAC1C6E}"/>
-    <hyperlink ref="C89" r:id="rId59" xr:uid="{BEE1F613-C189-B949-A225-0E0C5AFD1532}"/>
-    <hyperlink ref="C90" r:id="rId60" xr:uid="{1DFECD6C-D7CC-0340-B29B-4D56E50711E5}"/>
-    <hyperlink ref="C91" r:id="rId61" xr:uid="{70BED156-B004-E043-BF7D-59EFAA9EADAF}"/>
-    <hyperlink ref="C92" r:id="rId62" xr:uid="{FF9CBAFB-900E-E242-8B33-EDF46F0F40B5}"/>
-    <hyperlink ref="C93" r:id="rId63" xr:uid="{19461114-B3E8-9042-8029-100010946A04}"/>
-    <hyperlink ref="C94" r:id="rId64" xr:uid="{00F71118-E30B-A84E-819E-FFA902C70502}"/>
-    <hyperlink ref="C95" r:id="rId65" xr:uid="{58E70966-BBE0-7743-A250-AE4DD57807DE}"/>
-    <hyperlink ref="C96" r:id="rId66" xr:uid="{09409FE3-9D7E-4F43-BB21-14A1B8D6E480}"/>
-    <hyperlink ref="C97" r:id="rId67" xr:uid="{E199A3DC-3DA1-C648-93C0-DF9CD5331204}"/>
-    <hyperlink ref="C98" r:id="rId68" xr:uid="{85886847-1510-AA46-B10C-F3D80591DD74}"/>
-    <hyperlink ref="C99" r:id="rId69" xr:uid="{F60808FC-F09D-FC44-B2DD-752E55A1C698}"/>
-    <hyperlink ref="C100" r:id="rId70" xr:uid="{16B2725E-1AD5-0441-9B5B-B6B2F458091B}"/>
-    <hyperlink ref="C101" r:id="rId71" xr:uid="{8440D753-5DE9-3243-97C2-C09D195C325F}"/>
-    <hyperlink ref="C102" r:id="rId72" xr:uid="{AC63A963-B6CC-6E4E-B72A-7F472BC4C027}"/>
-    <hyperlink ref="C103" r:id="rId73" xr:uid="{B21B87F1-A0C0-7F4E-B36F-912B871D0EF4}"/>
-    <hyperlink ref="C104" r:id="rId74" xr:uid="{789FFFAC-8B7E-0540-98B8-856430EB56F8}"/>
-    <hyperlink ref="C105" r:id="rId75" xr:uid="{4A0E959E-22F4-6948-A819-76FE76AB9F6D}"/>
-    <hyperlink ref="C106" r:id="rId76" xr:uid="{78B76678-D8EE-9745-98B1-DF7A76EA3B10}"/>
-    <hyperlink ref="C107" r:id="rId77" xr:uid="{62982242-1D19-1544-8653-8E25E9BF4505}"/>
-    <hyperlink ref="C108" r:id="rId78" xr:uid="{8E3D4BDF-9F8F-0542-BFD8-C3CE3BF396E6}"/>
-    <hyperlink ref="C109" r:id="rId79" xr:uid="{A3D51762-65A1-9A44-B619-D1D98A7F403B}"/>
-    <hyperlink ref="C110" r:id="rId80" xr:uid="{ED0F5FC7-0066-EB44-8FCF-460600DADB02}"/>
-    <hyperlink ref="C111" r:id="rId81" xr:uid="{2D956AC4-4774-7446-8473-C4CE00E33C17}"/>
-    <hyperlink ref="C112" r:id="rId82" xr:uid="{C8C607BB-1FEE-FA47-9E3E-6C0BCE978B7F}"/>
-    <hyperlink ref="C113" r:id="rId83" xr:uid="{B9AC5194-6D36-684A-A5C4-BEE11037599F}"/>
-    <hyperlink ref="C114" r:id="rId84" xr:uid="{AB28D9E6-890C-F14A-A5FB-2303BE319968}"/>
-    <hyperlink ref="C115" r:id="rId85" xr:uid="{1F507CBC-4056-AD46-9314-95ECBB9D799D}"/>
-    <hyperlink ref="C116" r:id="rId86" xr:uid="{F152A9AF-5CBA-EC44-A9CF-07AB481435AB}"/>
-    <hyperlink ref="C117" r:id="rId87" xr:uid="{346CA74F-60B7-0A4B-A612-9184D4DCFF62}"/>
-    <hyperlink ref="C118" r:id="rId88" xr:uid="{8C653CB1-4954-754F-8D46-F09141A2FCDB}"/>
-    <hyperlink ref="C121" r:id="rId89" xr:uid="{5989F693-2A61-A346-8395-8674307A4CC2}"/>
-    <hyperlink ref="C122" r:id="rId90" xr:uid="{3AD10C9E-4F6D-DE48-92F3-531A586520C6}"/>
-    <hyperlink ref="C123" r:id="rId91" xr:uid="{4FA217C0-A1F3-904E-8FEA-EA4941273A67}"/>
-    <hyperlink ref="C124" r:id="rId92" xr:uid="{A297BBC0-FA0D-2D46-9C49-3932193EF1D3}"/>
-    <hyperlink ref="C126" r:id="rId93" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance." xr:uid="{DCD751DE-E440-F346-B6FD-CBD072217214}"/>
-    <hyperlink ref="C127" r:id="rId94" xr:uid="{B2FD38B9-1E2B-8140-8291-F45734C98145}"/>
-    <hyperlink ref="C128" r:id="rId95" xr:uid="{C76888B3-18AC-9B48-9E2A-64A7DF0902B7}"/>
-    <hyperlink ref="C129" r:id="rId96" xr:uid="{18A79860-6C9E-A941-8D6C-360B9913E941}"/>
-    <hyperlink ref="C130" r:id="rId97" xr:uid="{C0DDFD68-CBC1-0F4A-AF40-ACF36BBC8453}"/>
-    <hyperlink ref="C131" r:id="rId98" xr:uid="{3E0BF737-E42E-C946-B32C-06882E0BA6FF}"/>
-    <hyperlink ref="C133" r:id="rId99" xr:uid="{862F9782-C57B-2848-A2D9-EB7B52FB7EC7}"/>
-    <hyperlink ref="C134" r:id="rId100" xr:uid="{230D7A6A-D2C5-C140-9A65-B1F407D22062}"/>
-    <hyperlink ref="C135" r:id="rId101" xr:uid="{BDC2BA28-4562-984E-8282-1126BF952EAF}"/>
-    <hyperlink ref="C136" r:id="rId102" xr:uid="{B53A5F28-6DED-3D47-8679-F78D3DDEFF01}"/>
-    <hyperlink ref="C137" r:id="rId103" xr:uid="{C57D0CC7-DA2F-0948-9BCE-F19C20C7D981}"/>
-    <hyperlink ref="C138" r:id="rId104" xr:uid="{117878E5-B8C8-254B-8ED6-014B4B7A8126}"/>
-    <hyperlink ref="C139" r:id="rId105" xr:uid="{B7CC0756-74F2-D54D-BDEE-9DA394DD7168}"/>
-    <hyperlink ref="C140" r:id="rId106" xr:uid="{837EF472-CCC2-CF47-A8A8-238E56F722CE}"/>
-    <hyperlink ref="C141" r:id="rId107" xr:uid="{3608F267-6AA0-624B-B243-7DDD317E9F08}"/>
-    <hyperlink ref="C142" r:id="rId108" xr:uid="{0B6123E6-0472-374B-ACA7-6914CD7918E8}"/>
-    <hyperlink ref="C143" r:id="rId109" xr:uid="{D3971CEB-C53E-B04B-9C32-1803182B5DC5}"/>
-    <hyperlink ref="C144" r:id="rId110" xr:uid="{7CF5013A-643E-1643-93A1-A2F1500D2A23}"/>
-    <hyperlink ref="C145" r:id="rId111" xr:uid="{2A6BE7E5-D818-6843-8C3E-99EA2BFE0FB2}"/>
-    <hyperlink ref="C146" r:id="rId112" xr:uid="{E718F544-96DF-A04E-8DFB-7639DA3EA57C}"/>
-    <hyperlink ref="C147" r:id="rId113" xr:uid="{B0C2F065-424A-7345-A864-346ECD98D749}"/>
-    <hyperlink ref="C148" r:id="rId114" xr:uid="{B4E26955-5C3F-804E-B19A-11260310AFB3}"/>
-    <hyperlink ref="C149" r:id="rId115" xr:uid="{6F299BB5-8E82-0240-A9A3-6829CE3ABCBF}"/>
-    <hyperlink ref="C150" r:id="rId116" xr:uid="{A42CA32F-2196-1840-A53D-E5073237C68D}"/>
-    <hyperlink ref="C151" r:id="rId117" xr:uid="{7ECF6EF4-962E-4642-9B1C-C3B70674793E}"/>
-    <hyperlink ref="C152" r:id="rId118" xr:uid="{2A109178-6B60-164E-9D25-42B3282137E3}"/>
-    <hyperlink ref="C153" r:id="rId119" xr:uid="{B3D38BD0-A6A1-8D41-8405-45E1BEEEEF06}"/>
-    <hyperlink ref="C154" r:id="rId120" xr:uid="{A1C26612-D040-2A41-A6A6-A8F2490C0A43}"/>
-    <hyperlink ref="C155" r:id="rId121" xr:uid="{C476E807-64CB-F44A-A23D-D21EBF6D001D}"/>
-    <hyperlink ref="C156" r:id="rId122" xr:uid="{9A414D55-D4A1-F147-9207-61B597D57136}"/>
-    <hyperlink ref="C125" r:id="rId123" xr:uid="{18B028A7-9B6F-D841-8548-924D70530779}"/>
-    <hyperlink ref="C132" r:id="rId124" xr:uid="{6D3E75EF-733F-7A4B-81C8-AEF6CB6335F0}"/>
-    <hyperlink ref="C159" r:id="rId125" xr:uid="{C9EB2682-BE0B-934B-B0B4-1DD1A1502647}"/>
-    <hyperlink ref="C160" r:id="rId126" xr:uid="{2992FED9-2B78-A342-92AA-E7C0F882FF17}"/>
-    <hyperlink ref="C161" r:id="rId127" xr:uid="{0084DA6F-EC84-BD48-BDA8-EBACA3BB3B3E}"/>
-    <hyperlink ref="C162" r:id="rId128" xr:uid="{30F2D415-4B2C-384C-8EAE-2CC71CB518E2}"/>
-    <hyperlink ref="C163" r:id="rId129" xr:uid="{40734C88-7C5B-9747-86D1-03463D9AD41A}"/>
-    <hyperlink ref="C164" r:id="rId130" xr:uid="{1040D22F-6729-104A-A229-CBDCED93024A}"/>
-    <hyperlink ref="C165" r:id="rId131" xr:uid="{E131FE61-FABF-8E4B-8EF0-F68379D8F836}"/>
-    <hyperlink ref="C166" r:id="rId132" xr:uid="{B2129272-1351-3745-883B-E6A7115450C8}"/>
-    <hyperlink ref="C167" r:id="rId133" xr:uid="{C8B2DEF0-2B69-C84E-8013-0B6F03FFC250}"/>
-    <hyperlink ref="C168" r:id="rId134" xr:uid="{536AC5CF-712F-BF48-94A9-D0E7DC013020}"/>
-    <hyperlink ref="C169" r:id="rId135" xr:uid="{2DABC9C7-43D4-1249-AF9B-5FA4552611CB}"/>
-    <hyperlink ref="C170" r:id="rId136" xr:uid="{DA62E73A-B495-F94A-BECE-D42E4CBF074A}"/>
-    <hyperlink ref="C171" r:id="rId137" xr:uid="{7F5E6966-850D-4F49-B2A5-678365713F28}"/>
-    <hyperlink ref="C172" r:id="rId138" xr:uid="{E9C4286D-8493-9A47-8B8C-09583FA72B70}"/>
-    <hyperlink ref="C173" r:id="rId139" xr:uid="{9EB0123C-84AE-1C4D-BA1A-C28CFB8EFB89}"/>
-    <hyperlink ref="C174" r:id="rId140" xr:uid="{9D11FED4-328F-674E-889D-EC781DD1D791}"/>
-    <hyperlink ref="C175" r:id="rId141" xr:uid="{48AE72DB-397B-464D-88AD-B8058ED29CC1}"/>
-    <hyperlink ref="C176" r:id="rId142" xr:uid="{152D50E9-7448-F542-AC66-05D0AE66664C}"/>
-    <hyperlink ref="C177" r:id="rId143" xr:uid="{34E6AF1B-5FB1-3A4B-8938-1DCF80831DC2}"/>
-    <hyperlink ref="C178" r:id="rId144" xr:uid="{E7F8B7CA-49F4-1946-91EE-E7582BE4E5DA}"/>
-    <hyperlink ref="C179" r:id="rId145" xr:uid="{3590A994-B7A2-C14D-9BF8-7AC8FE9E7F0F}"/>
-    <hyperlink ref="C180" r:id="rId146" xr:uid="{0AAA4B0C-4921-C34D-B41E-D702FA860892}"/>
-    <hyperlink ref="C181" r:id="rId147" xr:uid="{5973FCA4-AE32-5248-A6ED-2694367332F1}"/>
-    <hyperlink ref="C182" r:id="rId148" xr:uid="{4C0F816E-F043-0C47-BF16-1CDAD88D2FF1}"/>
-    <hyperlink ref="C183" r:id="rId149" xr:uid="{A8E4C654-D0BD-8945-9F5C-B09F7BC114BE}"/>
-    <hyperlink ref="C186" r:id="rId150" xr:uid="{E3825C15-10BB-E24F-B229-983F651DA942}"/>
-    <hyperlink ref="C187" r:id="rId151" xr:uid="{46ECFC31-388C-6241-8FFE-DED6F2FC794A}"/>
-    <hyperlink ref="C188" r:id="rId152" xr:uid="{589E024D-3FE1-1048-890C-88289733F233}"/>
-    <hyperlink ref="C189" r:id="rId153" xr:uid="{CDA28F7A-7FC5-F74D-B27E-A6E0161D41D5}"/>
-    <hyperlink ref="C190" r:id="rId154" xr:uid="{DA6A0D92-DCEB-DA4F-8BBA-10FCD092838F}"/>
-    <hyperlink ref="C191" r:id="rId155" xr:uid="{955769DB-3256-254B-90DE-E1E01B272F8A}"/>
-    <hyperlink ref="C192" r:id="rId156" xr:uid="{DED7AC9B-40D7-0545-9D6F-6CD4F5FFE4C6}"/>
-    <hyperlink ref="C193" r:id="rId157" xr:uid="{6947A4E1-B6AA-6D4F-A6D8-8FA74FD02887}"/>
-    <hyperlink ref="C194" r:id="rId158" xr:uid="{EABF2012-5A90-0C4E-86F6-FDB5FA7770BE}"/>
-    <hyperlink ref="C197" r:id="rId159" xr:uid="{7F44CFE0-9ED1-A44D-B9EF-CF87BEB644FC}"/>
-    <hyperlink ref="C198" r:id="rId160" xr:uid="{CF6E0CF6-7A93-D84A-9CE0-5BDD51767416}"/>
-    <hyperlink ref="C199" r:id="rId161" xr:uid="{EFF8F154-60B8-B84B-84CA-32756BD6430F}"/>
-    <hyperlink ref="C200" r:id="rId162" xr:uid="{C8A3094E-E11B-2543-B05E-1D07048B2EBA}"/>
-    <hyperlink ref="C201" r:id="rId163" xr:uid="{9961E5F5-B5C6-0C4D-A1D0-D04D2A5D7DFD}"/>
-    <hyperlink ref="C202" r:id="rId164" xr:uid="{44E289EC-47DD-D94D-88C1-CB2F59C6C16A}"/>
-    <hyperlink ref="C203" r:id="rId165" xr:uid="{4161FC70-DD6D-684B-898A-A4711596B2D5}"/>
-    <hyperlink ref="C204" r:id="rId166" xr:uid="{B9CBE387-8E9A-ED48-8310-CF7D34FA690C}"/>
-    <hyperlink ref="C205" r:id="rId167" xr:uid="{5398097B-24FF-9543-8F02-33CE2860F1F7}"/>
-    <hyperlink ref="C206" r:id="rId168" xr:uid="{3B1FC30B-30C8-7B48-AF94-A81FB513F24F}"/>
-    <hyperlink ref="C207" r:id="rId169" xr:uid="{32B750D0-D7F2-694D-AB9B-25AFAFAFF17F}"/>
-    <hyperlink ref="C208" r:id="rId170" xr:uid="{400689DD-8E95-024E-976B-AACD8ED4E1A6}"/>
-    <hyperlink ref="C209" r:id="rId171" xr:uid="{28753DDE-E047-5D40-A30B-1103BE6DA08F}"/>
-    <hyperlink ref="C210" r:id="rId172" xr:uid="{6C5AA6CB-3D93-0740-AEED-9E6C218CF6CB}"/>
-    <hyperlink ref="C211" r:id="rId173" xr:uid="{03EAA2B9-D8B8-D642-BF24-380596D26B2E}"/>
-    <hyperlink ref="C212" r:id="rId174" xr:uid="{8C1719B4-37CC-484E-BDCE-A4272C07F91B}"/>
-    <hyperlink ref="C213" r:id="rId175" xr:uid="{6C198DA2-BB98-F940-8EF6-2FC8B7AE577A}"/>
-    <hyperlink ref="C214" r:id="rId176" xr:uid="{AB0EA311-A446-D046-A0EC-290B42068328}"/>
-    <hyperlink ref="C215" r:id="rId177" xr:uid="{DB913045-B9F6-6549-AA09-22B0CC5FDD21}"/>
-    <hyperlink ref="C216" r:id="rId178" xr:uid="{806469FD-617A-7445-AAB5-FB2FD2ED24EA}"/>
-    <hyperlink ref="C217" r:id="rId179" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." xr:uid="{1A10544E-58CF-D04D-9FAF-2FEC6DB2B5D4}"/>
-    <hyperlink ref="C218" r:id="rId180" xr:uid="{5A0B6645-89FD-E044-A706-9FB890274C3C}"/>
-    <hyperlink ref="C219" r:id="rId181" xr:uid="{B42A3009-E8EB-EE44-885F-6699C17A0E0B}"/>
-    <hyperlink ref="C220" r:id="rId182" xr:uid="{ED3E48AB-E25B-3744-B024-E97B2A319B46}"/>
-    <hyperlink ref="C221" r:id="rId183" xr:uid="{C75D20A3-CBAE-2649-A3EE-E49177CFA343}"/>
-    <hyperlink ref="C222" r:id="rId184" xr:uid="{3863CA1B-D43E-1144-91A9-17C2DCF52A64}"/>
-    <hyperlink ref="C223" r:id="rId185" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." xr:uid="{E9AF434E-4CAA-5D49-8AD3-889CDE2913D9}"/>
-    <hyperlink ref="C224" r:id="rId186" xr:uid="{1A0568E5-3A11-7F47-8001-82B05D7C2339}"/>
-    <hyperlink ref="C225" r:id="rId187" xr:uid="{F62B8AE4-9C4F-9544-8861-CD733C12F79E}"/>
-    <hyperlink ref="C226" r:id="rId188" xr:uid="{0F6A542C-44C9-5A4C-90BF-BC8C239877D2}"/>
-    <hyperlink ref="C227" r:id="rId189" xr:uid="{3ED28203-B1B5-4E46-AAF3-779EDD4AC03F}"/>
-    <hyperlink ref="C228" r:id="rId190" xr:uid="{4338B305-B52F-5540-9B51-B938FC6803A2}"/>
-    <hyperlink ref="C229" r:id="rId191" xr:uid="{DDEEED0F-A939-1E4F-B2FA-AD391A4A2874}"/>
-    <hyperlink ref="C230" r:id="rId192" xr:uid="{C2F20589-AD81-654C-94E5-E5B6C9FE27F6}"/>
-    <hyperlink ref="C231" r:id="rId193" xr:uid="{BBEB9DAC-E4AE-C04F-AA15-6356AFC57FDE}"/>
-    <hyperlink ref="C234" r:id="rId194" xr:uid="{6316566D-A10A-F849-9F25-B9ED4DA12BC7}"/>
-    <hyperlink ref="C235" r:id="rId195" xr:uid="{9D4DD895-FBA6-C849-A5BF-3B30755BD9C9}"/>
-    <hyperlink ref="C236" r:id="rId196" xr:uid="{475996DA-632A-BE49-AEA1-D4189FD614A1}"/>
-    <hyperlink ref="C237" r:id="rId197" xr:uid="{88E0C858-8468-884F-BB71-F6F176BD5FC2}"/>
-    <hyperlink ref="C238" r:id="rId198" xr:uid="{C1C5C8D0-7A06-3D4A-A85A-AAACC1B418C9}"/>
-    <hyperlink ref="C239" r:id="rId199" xr:uid="{D525D4B1-2857-1543-8CD9-196728321203}"/>
-    <hyperlink ref="C240" r:id="rId200" xr:uid="{51E3AB9B-04B2-C041-A2B3-37E3EB18013A}"/>
-    <hyperlink ref="C241" r:id="rId201" xr:uid="{7F7F0C9A-57B9-314F-959A-B8ACAFA5FD13}"/>
-    <hyperlink ref="C242" r:id="rId202" xr:uid="{3B029785-83B4-6140-8B70-CD892CFC87F6}"/>
-    <hyperlink ref="C243" r:id="rId203" xr:uid="{B0A390E6-D860-9F4E-B021-68949FE712F3}"/>
-    <hyperlink ref="C244" r:id="rId204" xr:uid="{49E9953D-52F6-BF47-8AAA-8E456F55576B}"/>
-    <hyperlink ref="C245" r:id="rId205" xr:uid="{9B812470-F419-A54E-8365-06A9B8864A30}"/>
-    <hyperlink ref="C246" r:id="rId206" xr:uid="{B6FB4107-1933-6D45-9EF4-4474E06CBE9D}"/>
-    <hyperlink ref="C247" r:id="rId207" xr:uid="{0F7C1D92-7BCB-D14D-A658-9599984E04E4}"/>
-    <hyperlink ref="C248" r:id="rId208" xr:uid="{6810428F-0A78-964C-A8C8-E1CD2E7C405D}"/>
-    <hyperlink ref="C249" r:id="rId209" xr:uid="{B40209F2-0D6E-364F-8AF6-F1D182509314}"/>
-    <hyperlink ref="C250" r:id="rId210" xr:uid="{96C53FA9-9FD3-2D4F-B292-3C9DEDFA806E}"/>
-    <hyperlink ref="C251" r:id="rId211" xr:uid="{918B420D-3678-FD46-9463-595E8ACC39E1}"/>
-    <hyperlink ref="C252" r:id="rId212" xr:uid="{851A7153-3B54-0E4A-A0A0-FCEB091AFE70}"/>
-    <hyperlink ref="C253" r:id="rId213" xr:uid="{C03AE9F8-09AE-C640-81A7-033BB06FB6AD}"/>
-    <hyperlink ref="C254" r:id="rId214" xr:uid="{35140DEB-52D2-4342-88D2-22BA061E5B48}"/>
-    <hyperlink ref="C255" r:id="rId215" xr:uid="{9714BC0B-3373-934C-B7A1-599F74F4FB9D}"/>
-    <hyperlink ref="C258" r:id="rId216" xr:uid="{5CB435B2-7FD2-1D44-9872-22B6A1EDC02B}"/>
-    <hyperlink ref="C259" r:id="rId217" xr:uid="{722D1D95-896B-4642-BABD-31DEDD237B49}"/>
-    <hyperlink ref="C260" r:id="rId218" xr:uid="{D686D1DC-13D6-284C-B606-E087FAF47399}"/>
-    <hyperlink ref="C261" r:id="rId219" xr:uid="{D22C2394-C3CB-8F4F-A010-2B13C8C84D1A}"/>
-    <hyperlink ref="C262" r:id="rId220" xr:uid="{3AE2F800-B66F-1A41-893B-978F6875FDC8}"/>
-    <hyperlink ref="C263" r:id="rId221" xr:uid="{2C939BDE-5298-5541-837B-8C59D53A33C1}"/>
-    <hyperlink ref="C264" r:id="rId222" xr:uid="{691C9BD8-69D3-DA4B-AEB6-AF827B4ACA9F}"/>
-    <hyperlink ref="C265" r:id="rId223" xr:uid="{B6891E82-7C4D-424D-9219-3C9FD08E0053}"/>
-    <hyperlink ref="C266" r:id="rId224" xr:uid="{67A1AE98-62D2-644D-AC13-6CD76CF53CC0}"/>
-    <hyperlink ref="C267" r:id="rId225" xr:uid="{B59D4881-2A82-8F4D-B151-1E796C4923C8}"/>
-    <hyperlink ref="C268" r:id="rId226" xr:uid="{B3CBD023-5EFD-6048-9B3F-89F0C65CBBF5}"/>
-    <hyperlink ref="C269" r:id="rId227" xr:uid="{53EC42C4-22F7-0445-A0AC-7275A59A2672}"/>
-    <hyperlink ref="C270" r:id="rId228" xr:uid="{A29575F3-CB24-5B4B-9538-D5212B2DC28B}"/>
-    <hyperlink ref="C271" r:id="rId229" xr:uid="{353A44DD-9E30-8F48-8E2B-8DAA07550470}"/>
-    <hyperlink ref="C272" r:id="rId230" xr:uid="{32AC291D-95A5-BE49-88E0-02677BF39CAC}"/>
-    <hyperlink ref="C273" r:id="rId231" xr:uid="{A84F22FF-AD10-A546-8998-B066C0EB2D5A}"/>
-    <hyperlink ref="C274" r:id="rId232" xr:uid="{4C5CAF84-9B94-FC44-8C6C-B3CC7257C1DB}"/>
-    <hyperlink ref="C275" r:id="rId233" xr:uid="{5DA775E2-C516-3B47-8C82-3CEE7CC0BDF9}"/>
-    <hyperlink ref="C276" r:id="rId234" xr:uid="{00B6AE5C-EF3F-0747-A280-3BF055362B4F}"/>
-    <hyperlink ref="C277" r:id="rId235" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." xr:uid="{BCBD0A7E-F3D0-E840-9375-AFD37C5CD41A}"/>
-    <hyperlink ref="C278" r:id="rId236" xr:uid="{47ABDDDB-F95F-8049-9FB3-1E71A7376DDE}"/>
-    <hyperlink ref="C279" r:id="rId237" xr:uid="{70BADFC9-7399-234D-99F6-4C5F02397C26}"/>
-    <hyperlink ref="C280" r:id="rId238" xr:uid="{63348580-70EF-EC47-BF49-8ECE9560D54E}"/>
-    <hyperlink ref="C281" r:id="rId239" xr:uid="{D5BD96B3-9EAB-1B47-AC87-5C47F6AD7F40}"/>
-    <hyperlink ref="C282" r:id="rId240" xr:uid="{74791141-3FB8-7540-B45B-9541AF0AE371}"/>
-    <hyperlink ref="C283" r:id="rId241" xr:uid="{88D53CD6-262A-7247-8E58-FE9FFF7ECC40}"/>
-    <hyperlink ref="C284" r:id="rId242" xr:uid="{4338A14D-4F7D-B943-A347-7F74EFCA0DB5}"/>
-    <hyperlink ref="C285" r:id="rId243" xr:uid="{6E0EF7A3-7341-284B-A0E3-4539B6EAFAF2}"/>
-    <hyperlink ref="C286" r:id="rId244" xr:uid="{D2D8D64F-E2D3-734E-AD45-3EFB9686555A}"/>
-    <hyperlink ref="C287" r:id="rId245" xr:uid="{04A2904A-73A0-7845-9868-2CCFE359AC68}"/>
-    <hyperlink ref="C288" r:id="rId246" xr:uid="{D3D35835-6BE3-4D41-AF6F-5FE442277A16}"/>
-    <hyperlink ref="C289" r:id="rId247" xr:uid="{F663D0FC-CFF0-BC4F-9D26-48C871A8E9FD}"/>
-    <hyperlink ref="C290" r:id="rId248" xr:uid="{DF544147-DA48-4041-A4E2-4A75106B771A}"/>
-    <hyperlink ref="C291" r:id="rId249" xr:uid="{50E4B716-239E-7946-843D-E8462591D128}"/>
-    <hyperlink ref="C292" r:id="rId250" xr:uid="{D368B3E5-7D12-FD48-AFF7-A4A614108940}"/>
-    <hyperlink ref="C295" r:id="rId251" xr:uid="{D5921FF1-FC1F-CA4B-A24E-AD69E1DEC14C}"/>
-    <hyperlink ref="C296" r:id="rId252" xr:uid="{C931D7E0-E032-7C4B-95F1-735D955FCB51}"/>
-    <hyperlink ref="C297" r:id="rId253" xr:uid="{5FBD4A8F-287C-2C46-9CAB-F7DBA67DEDDA}"/>
-    <hyperlink ref="C298" r:id="rId254" xr:uid="{12966DD6-41DD-A94B-8B2C-0AD7D2AD6FB0}"/>
-    <hyperlink ref="C299" r:id="rId255" xr:uid="{CF720C34-4554-2944-A818-020ABC9BF0F4}"/>
-    <hyperlink ref="C300" r:id="rId256" xr:uid="{75763F2A-16D7-DE43-8189-19623CE26370}"/>
-    <hyperlink ref="C301" r:id="rId257" xr:uid="{9263AA30-472A-0A4D-BADF-96D82BB9BFCC}"/>
-    <hyperlink ref="C302" r:id="rId258" xr:uid="{2EF025C3-75C8-564E-BA8B-708C32B0E602}"/>
-    <hyperlink ref="C303" r:id="rId259" xr:uid="{6BDFDCA9-3421-F24F-8EF2-A72742F0AC21}"/>
-    <hyperlink ref="C304" r:id="rId260" xr:uid="{D8447F99-5FF9-D544-99BB-E9969B4A38D7}"/>
-    <hyperlink ref="C305" r:id="rId261" xr:uid="{1DB7EFDA-6C7D-F546-9EE1-F61ED0F65209}"/>
-    <hyperlink ref="C306" r:id="rId262" xr:uid="{D1505609-27D1-784D-ACF6-AE9D0DA2E1B6}"/>
-    <hyperlink ref="C307" r:id="rId263" xr:uid="{6BFA7B45-17D0-4E49-85DA-23C7255A306D}"/>
-    <hyperlink ref="C308" r:id="rId264" xr:uid="{3324BA4A-30CA-5246-8C3C-6505A6987939}"/>
-    <hyperlink ref="C309" r:id="rId265" xr:uid="{894486AD-2B6D-5740-BCAF-0BA1AFF814B4}"/>
-    <hyperlink ref="C310" r:id="rId266" xr:uid="{C47B203B-8B5A-E740-8C86-0784AD28089E}"/>
-    <hyperlink ref="C311" r:id="rId267" xr:uid="{06DC2E54-7597-AE4D-ACDB-B8883A989A4F}"/>
-    <hyperlink ref="C312" r:id="rId268" xr:uid="{E3384259-7CA7-1C44-A66D-11346EE6742E}"/>
-    <hyperlink ref="C313" r:id="rId269" xr:uid="{A5B77769-38AF-3D47-A76B-311591B57D91}"/>
-    <hyperlink ref="C316" r:id="rId270" xr:uid="{9DB6976A-C646-1341-90E8-3A164521267A}"/>
-    <hyperlink ref="C317" r:id="rId271" xr:uid="{03C291F8-D19A-304B-9EF9-CF71A1F66E49}"/>
-    <hyperlink ref="C318" r:id="rId272" xr:uid="{7536415C-140B-9244-B0B2-23F3ED0B2D80}"/>
-    <hyperlink ref="C319" r:id="rId273" xr:uid="{7DBDA456-8AF6-DD43-9764-17D3959B8E8F}"/>
-    <hyperlink ref="C320" r:id="rId274" xr:uid="{BFC149AB-C15A-B648-9F6A-ECD3890B1918}"/>
-    <hyperlink ref="C321" r:id="rId275" xr:uid="{0482240B-FEE9-F746-8980-52BCB7BBB56E}"/>
-    <hyperlink ref="C322" r:id="rId276" xr:uid="{86D1231A-E7C8-4B45-99ED-2DB0EF71E190}"/>
-    <hyperlink ref="C323" r:id="rId277" xr:uid="{20B7CE89-CB37-0040-989F-C8D1BE2B8782}"/>
-    <hyperlink ref="C324" r:id="rId278" xr:uid="{4C8412C9-A47B-9244-A18B-741516BD1054}"/>
-    <hyperlink ref="C325" r:id="rId279" xr:uid="{511761D9-31CE-0B43-AFFD-C011C27ACC52}"/>
-    <hyperlink ref="C326" r:id="rId280" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." xr:uid="{6905F997-D048-1049-BA27-C48756603D1E}"/>
-    <hyperlink ref="C327" r:id="rId281" xr:uid="{E657AA82-7CFE-DB42-B20F-F63D8C25EAB6}"/>
-    <hyperlink ref="C328" r:id="rId282" xr:uid="{3E505033-58F3-8F4E-AB82-E12DBC226AEA}"/>
-    <hyperlink ref="C329" r:id="rId283" xr:uid="{749599E5-4972-7343-B13B-87E26F837470}"/>
-    <hyperlink ref="C330" r:id="rId284" xr:uid="{12AA88DC-22AB-5A49-B28C-F04C8E35A215}"/>
-    <hyperlink ref="C331" r:id="rId285" xr:uid="{5751F0A7-7D9D-4148-820B-5B9659DFE34F}"/>
-    <hyperlink ref="C332" r:id="rId286" xr:uid="{4CA2DBEE-B161-B84D-B3A9-B8BC1B598AF2}"/>
-    <hyperlink ref="C333" r:id="rId287" xr:uid="{A9C1E578-6594-954C-8785-8902E605FC7A}"/>
-    <hyperlink ref="C334" r:id="rId288" xr:uid="{3D45E9B8-6671-A747-8C18-51CF8883170A}"/>
-    <hyperlink ref="C335" r:id="rId289" xr:uid="{4F5EF748-8CD4-0F47-90CE-3C93755BF63D}"/>
-    <hyperlink ref="C336" r:id="rId290" xr:uid="{44053C08-5050-C84B-B016-069B1EF9A43D}"/>
-    <hyperlink ref="C337" r:id="rId291" xr:uid="{ABF38928-736B-1A49-8B8A-1DCA5AAECB2B}"/>
-    <hyperlink ref="C338" r:id="rId292" xr:uid="{52651FAF-F3DC-E949-8AF8-998B9724B7D1}"/>
-    <hyperlink ref="C339" r:id="rId293" xr:uid="{91C6CCEF-3FF7-2C42-B5A0-8F4A403ED198}"/>
-    <hyperlink ref="C340" r:id="rId294" xr:uid="{15C8AF08-1A79-F949-9BE7-DD240CBD9861}"/>
-    <hyperlink ref="C341" r:id="rId295" xr:uid="{1904F984-5B22-8D46-BC33-3073B390E8F9}"/>
-    <hyperlink ref="C342" r:id="rId296" xr:uid="{A8BFB3A4-426B-E646-BCF0-FE19C8CD07A9}"/>
-    <hyperlink ref="C343" r:id="rId297" xr:uid="{FBBA29BB-885B-744A-A644-58EDCA7B140A}"/>
-    <hyperlink ref="C344" r:id="rId298" xr:uid="{75411687-6884-AC42-8B4A-1348C4837365}"/>
-    <hyperlink ref="C345" r:id="rId299" xr:uid="{A89ED8DF-F678-FE43-808C-C190721379BF}"/>
-    <hyperlink ref="C346" r:id="rId300" xr:uid="{1516834D-F3B2-1743-8811-263E11BBDEF8}"/>
-    <hyperlink ref="C347" r:id="rId301" xr:uid="{1659AB91-08CA-E44D-988D-E9D9A746D406}"/>
-    <hyperlink ref="C348" r:id="rId302" xr:uid="{E844BC1D-9713-9F4D-B0A4-1124A9952D14}"/>
-    <hyperlink ref="C349" r:id="rId303" xr:uid="{DCE2AAEF-8D8E-1843-BFE9-E9B7E13854EB}"/>
-    <hyperlink ref="C350" r:id="rId304" xr:uid="{836B3BF0-7711-7D41-9E72-914C1871397F}"/>
-    <hyperlink ref="C351" r:id="rId305" xr:uid="{F450CF9B-CA59-1443-8163-13F1121DCF12}"/>
-    <hyperlink ref="C352" r:id="rId306" xr:uid="{1539C3E8-4854-3C4F-A7B3-55BF931F1E2A}"/>
-    <hyperlink ref="C353" r:id="rId307" xr:uid="{04F1FC5F-5DA1-0144-962D-B38C1C41F0F4}"/>
-    <hyperlink ref="C356" r:id="rId308" xr:uid="{B21618F4-70E2-C549-80B7-7CF915679E0A}"/>
-    <hyperlink ref="C357" r:id="rId309" xr:uid="{EEDFBF11-C1E4-0847-9D56-94A72D97AEE7}"/>
-    <hyperlink ref="C358" r:id="rId310" xr:uid="{F5C0EDF1-7EAC-8849-8D27-C3389913BFC6}"/>
-    <hyperlink ref="C359" r:id="rId311" xr:uid="{50175B29-124F-4E4E-8E98-961BD3320359}"/>
-    <hyperlink ref="C360" r:id="rId312" xr:uid="{1BE23822-8512-014F-9154-F6EDA4FC8428}"/>
-    <hyperlink ref="C361" r:id="rId313" xr:uid="{38EC228E-ABFF-3542-9CFB-3DDFC628E9D0}"/>
-    <hyperlink ref="C362" r:id="rId314" xr:uid="{73F240F8-C469-454E-BA5C-CFF2F7A7A5F6}"/>
-    <hyperlink ref="C363" r:id="rId315" xr:uid="{3BBD1BAC-68C7-A94A-9063-AF62B5C837FD}"/>
-    <hyperlink ref="C364" r:id="rId316" xr:uid="{F9751D9B-2689-E24B-9FC3-CA32FE888708}"/>
-    <hyperlink ref="C365" r:id="rId317" xr:uid="{73C61D6A-D97C-B944-8B27-BB91564AB0D7}"/>
-    <hyperlink ref="C366" r:id="rId318" xr:uid="{936E077C-C016-A04F-895A-782D6D9D9433}"/>
-    <hyperlink ref="C367" r:id="rId319" xr:uid="{5454A2A1-6607-BE48-9215-CB8965EC3568}"/>
-    <hyperlink ref="C368" r:id="rId320" xr:uid="{FC1EAA10-F7ED-6B42-A79B-3D8B44E2C8B3}"/>
-    <hyperlink ref="C369" r:id="rId321" xr:uid="{FDB7F712-4A42-1048-8929-A1E752B07C6A}"/>
-    <hyperlink ref="C370" r:id="rId322" xr:uid="{AF3ACA60-0B0E-E146-B51F-A2CD05EB6549}"/>
-    <hyperlink ref="C371" r:id="rId323" xr:uid="{BB63E040-7A1A-E046-9BDD-9CBD1DA89DE9}"/>
-    <hyperlink ref="C372" r:id="rId324" xr:uid="{9AF8FD93-CCC9-D540-AE9A-00583F309649}"/>
-    <hyperlink ref="C373" r:id="rId325" xr:uid="{66A746A0-71FE-E546-92B7-D1C3D582E067}"/>
-    <hyperlink ref="C377" r:id="rId326" xr:uid="{BD79CCE1-5315-3944-9F9B-618615EC4583}"/>
-    <hyperlink ref="C378" r:id="rId327" xr:uid="{A5068A51-C961-6847-BB27-40A850B6D393}"/>
-    <hyperlink ref="C379" r:id="rId328" xr:uid="{6B8D36F0-E796-B944-A456-E8A9E2EE0BDB}"/>
-    <hyperlink ref="C380" r:id="rId329" xr:uid="{776652B7-2C11-4641-BF6A-EABEEB9B55AB}"/>
-    <hyperlink ref="C381" r:id="rId330" xr:uid="{95C6B35D-712A-2343-B790-236B55C5EC49}"/>
-    <hyperlink ref="C382" r:id="rId331" xr:uid="{4ED53872-1FE9-F140-AA35-F228F762880B}"/>
-    <hyperlink ref="C383" r:id="rId332" xr:uid="{6D5E6A28-85AA-BF4C-B2BD-9378D6E28EC7}"/>
-    <hyperlink ref="C384" r:id="rId333" xr:uid="{BCAD1ECB-15EE-CF49-878E-AA682DE3AC22}"/>
-    <hyperlink ref="C385" r:id="rId334" xr:uid="{C85468B5-25E9-E446-808E-72CFE911F0C2}"/>
-    <hyperlink ref="C386" r:id="rId335" xr:uid="{9503AECA-1A6A-9640-A04C-4CEAA2304448}"/>
-    <hyperlink ref="C387" r:id="rId336" xr:uid="{74211516-06B0-AA45-845B-52C8202751DA}"/>
-    <hyperlink ref="C388" r:id="rId337" xr:uid="{02C696BC-4B91-9444-900F-9CD68E409ABC}"/>
-    <hyperlink ref="C389" r:id="rId338" xr:uid="{04646C45-4118-374C-839D-94D31D534FAC}"/>
-    <hyperlink ref="C390" r:id="rId339" xr:uid="{F90BCCAE-8596-FC4D-BDD7-774392C596DF}"/>
-    <hyperlink ref="C391" r:id="rId340" xr:uid="{65230925-36EC-8A4B-8E46-6350B9BC0F95}"/>
-    <hyperlink ref="C392" r:id="rId341" xr:uid="{E91B8177-0C7A-1F40-BD34-4CC60F03B84F}"/>
-    <hyperlink ref="C393" r:id="rId342" xr:uid="{E8CBFD60-7335-0B4D-9FF5-99B4A8DC551D}"/>
-    <hyperlink ref="C394" r:id="rId343" xr:uid="{A35F55D4-9B87-C745-94DB-E7D820193C30}"/>
-    <hyperlink ref="C395" r:id="rId344" xr:uid="{6461A29F-D404-334F-B13F-296B4CA5E8A4}"/>
-    <hyperlink ref="C396" r:id="rId345" xr:uid="{FA9B4BE7-85CC-B24F-9461-5E9B42DDD824}"/>
-    <hyperlink ref="C397" r:id="rId346" xr:uid="{A75ACEA2-CDF6-A147-8540-A6DF55B15F45}"/>
-    <hyperlink ref="C398" r:id="rId347" xr:uid="{62FF87E2-E658-AB4D-AC57-7BCF9D49516E}"/>
-    <hyperlink ref="C399" r:id="rId348" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." xr:uid="{269338A6-5145-6944-9F7F-BD2A86DFA308}"/>
-    <hyperlink ref="C400" r:id="rId349" xr:uid="{8F583049-CE8D-CD42-88CD-CF3857942670}"/>
-    <hyperlink ref="C401" r:id="rId350" xr:uid="{EE2348AD-E296-894A-B5AE-5884A3C5E419}"/>
-    <hyperlink ref="C402" r:id="rId351" xr:uid="{6EACB34E-B32E-8F43-8055-2406F7417A7E}"/>
-    <hyperlink ref="C403" r:id="rId352" xr:uid="{2446F10A-B762-B64C-97B2-6131A0BECC1F}"/>
-    <hyperlink ref="C404" r:id="rId353" xr:uid="{6FDFCC53-17A6-7244-88A7-49406D7C9200}"/>
-    <hyperlink ref="C405" r:id="rId354" xr:uid="{3EC43646-EAB1-E443-A2F6-8E6E5FC77083}"/>
-    <hyperlink ref="C406" r:id="rId355" xr:uid="{659D9F20-C862-C947-B422-84143CFE317F}"/>
-    <hyperlink ref="C407" r:id="rId356" xr:uid="{3F5192FE-1C50-C049-88D5-68FA0F5430A0}"/>
-    <hyperlink ref="C408" r:id="rId357" xr:uid="{5EAD7CDA-9545-454B-BE77-9AFEC6AC1083}"/>
-    <hyperlink ref="C409" r:id="rId358" xr:uid="{761E5451-736B-6745-9CF5-4C6EF5D4C099}"/>
-    <hyperlink ref="C410" r:id="rId359" xr:uid="{4C8677A9-D94C-134F-AF31-E424751BF867}"/>
-    <hyperlink ref="C411" r:id="rId360" xr:uid="{CCF7920F-D5CE-004A-86C3-D821FB230970}"/>
-    <hyperlink ref="C412" r:id="rId361" xr:uid="{B4C07A0A-1EDD-7947-9646-3FD603441AD7}"/>
-    <hyperlink ref="C413" r:id="rId362" xr:uid="{49F7BB43-6851-0641-9DC5-27DBC66706F6}"/>
-    <hyperlink ref="C414" r:id="rId363" xr:uid="{77038647-48C7-5547-8E0F-898610362465}"/>
-    <hyperlink ref="C416" r:id="rId364" xr:uid="{EEFFE19C-6571-C64F-A0E1-5A4A700D94D4}"/>
-    <hyperlink ref="C415" r:id="rId365" xr:uid="{A4A2BFC4-6B88-2E4E-B362-17D8EE041C89}"/>
-    <hyperlink ref="C417" r:id="rId366" xr:uid="{DC5B603A-8D65-3648-A08A-E5FFA0FAE879}"/>
-    <hyperlink ref="C418" r:id="rId367" xr:uid="{F8807DD9-F4F2-B147-9C31-DBC93B2E477B}"/>
-    <hyperlink ref="C419" r:id="rId368" xr:uid="{6F7B396C-D7E9-C04E-BAE2-53D2EE07172B}"/>
-    <hyperlink ref="C422" r:id="rId369" xr:uid="{0D4A5941-C669-4A49-BAE3-9B553D03BD0F}"/>
-    <hyperlink ref="C423" r:id="rId370" xr:uid="{54144336-5BCA-D749-962A-E448C2CED3D3}"/>
-    <hyperlink ref="C424" r:id="rId371" xr:uid="{3A41DD21-CACF-1F48-A7C7-F568C6F31F3E}"/>
-    <hyperlink ref="C425" r:id="rId372" xr:uid="{A36160A8-F45E-3443-9645-42C1004B8F8C}"/>
-    <hyperlink ref="C426" r:id="rId373" xr:uid="{8B0A00A3-6AC0-DF46-AD87-A4DA016A2A00}"/>
-    <hyperlink ref="C427" r:id="rId374" xr:uid="{62A81CB4-A961-C543-B31C-92059DB6C105}"/>
-    <hyperlink ref="C430" r:id="rId375" xr:uid="{08030975-009C-C34A-A875-72FE2718F44C}"/>
-    <hyperlink ref="C431" r:id="rId376" xr:uid="{A113C7A9-2359-B643-9C08-E845813439C0}"/>
-    <hyperlink ref="C432" r:id="rId377" xr:uid="{FE300343-4633-AD47-A64D-2086629EB398}"/>
-    <hyperlink ref="C433" r:id="rId378" xr:uid="{4FC9F782-D38F-C642-A863-887B17AD05CD}"/>
-    <hyperlink ref="C434" r:id="rId379" xr:uid="{830C5466-10E3-7A48-B3E7-35C15A1CA4EF}"/>
-    <hyperlink ref="C435" r:id="rId380" xr:uid="{1B987077-E9D3-6F40-89EE-0D4E7180D884}"/>
-    <hyperlink ref="C436" r:id="rId381" xr:uid="{D4843E1F-7226-864E-A4BB-264D5A487B6D}"/>
-    <hyperlink ref="C437" r:id="rId382" xr:uid="{61816592-2D19-9946-8253-47A60218F2EA}"/>
-    <hyperlink ref="C438" r:id="rId383" xr:uid="{736C840F-19A3-0A4B-8863-ECB772B46385}"/>
-    <hyperlink ref="C439" r:id="rId384" xr:uid="{05A238AD-3C5B-C546-94E9-75BBF964711A}"/>
-    <hyperlink ref="C440" r:id="rId385" xr:uid="{7029629C-3F2A-4A49-997B-CFE86EC8B3C2}"/>
-    <hyperlink ref="C441" r:id="rId386" xr:uid="{ADA66B57-2FAC-AB42-BD83-4931708F3AB5}"/>
-    <hyperlink ref="C442" r:id="rId387" xr:uid="{F16BF1F9-755B-B045-B9A8-0B97E3BAC8B0}"/>
-    <hyperlink ref="C443" r:id="rId388" xr:uid="{ECCE930A-B960-234C-81EC-4B8514282AE9}"/>
-    <hyperlink ref="C444" r:id="rId389" xr:uid="{7AA58141-7D24-7C42-A0C1-F852B21CFFD9}"/>
-    <hyperlink ref="C445" r:id="rId390" xr:uid="{B1FCB47D-7921-3446-B2C7-72CBA815D056}"/>
-    <hyperlink ref="C446" r:id="rId391" xr:uid="{8C547719-AA03-3543-B31F-7300674AF4C5}"/>
-    <hyperlink ref="C447" r:id="rId392" xr:uid="{09922668-AFC0-F242-860E-9967E0F0FEF4}"/>
-    <hyperlink ref="C448" r:id="rId393" xr:uid="{0DA963DA-238B-D44E-9E03-6E6BD933B35E}"/>
-    <hyperlink ref="C449" r:id="rId394" xr:uid="{89518AFF-2526-C845-BC9D-95FE77AF416E}"/>
-    <hyperlink ref="C450" r:id="rId395" xr:uid="{FAECBBBE-196C-7A41-A0FB-E0597CB2CF51}"/>
-    <hyperlink ref="C451" r:id="rId396" xr:uid="{8126B039-0B25-B040-A0F6-C3457341A2E9}"/>
-    <hyperlink ref="C452" r:id="rId397" xr:uid="{6CB326E6-E698-EB42-884B-C89FFA33E3BA}"/>
-    <hyperlink ref="C453" r:id="rId398" xr:uid="{8C97EFD1-933F-A44F-A1CF-6386233104A2}"/>
-    <hyperlink ref="C454" r:id="rId399" xr:uid="{8F019F07-8532-E147-8BE1-4EBE833F61CA}"/>
-    <hyperlink ref="C455" r:id="rId400" xr:uid="{00F1A08F-3767-784A-97A3-4603DE38BACC}"/>
-    <hyperlink ref="C456" r:id="rId401" xr:uid="{2A84ADCB-071F-9A48-994D-7A838307EFD8}"/>
-    <hyperlink ref="C457" r:id="rId402" xr:uid="{132F8C6D-D5E8-6440-AC4E-B81EA2100416}"/>
-    <hyperlink ref="C458" r:id="rId403" xr:uid="{2DA6EAC2-1A1D-754F-9613-226CBC7890AF}"/>
-    <hyperlink ref="C459" r:id="rId404" xr:uid="{05BED99A-4562-D14E-8627-D07CF5335A9B}"/>
-    <hyperlink ref="C460" r:id="rId405" xr:uid="{111D902A-3F60-2D4B-89D3-5BCBD8AA38DD}"/>
-    <hyperlink ref="C461" r:id="rId406" xr:uid="{F19236BE-AC32-3542-9214-DFC3BAE04ED0}"/>
-    <hyperlink ref="C462" r:id="rId407" xr:uid="{4D97CD96-EA1B-664E-9380-EFD27077D273}"/>
-    <hyperlink ref="C463" r:id="rId408" xr:uid="{49A46D91-633F-A148-ACFA-49B7D1AA4B33}"/>
-    <hyperlink ref="C464" r:id="rId409" xr:uid="{7C3B7901-67E3-EA4D-BC64-21A78BC03AC6}"/>
-    <hyperlink ref="C465" r:id="rId410" xr:uid="{B27CA8C3-D34F-5E4D-94A5-11D14AFD0F82}"/>
-    <hyperlink ref="C466" r:id="rId411" xr:uid="{8FECE038-9764-5E4A-8C6E-9B3209812651}"/>
-    <hyperlink ref="C467" r:id="rId412" xr:uid="{95696D4B-89CB-5640-BE92-53B3C043F7EB}"/>
-    <hyperlink ref="C468" r:id="rId413" xr:uid="{DA74B737-802A-4944-A93E-0B9C8417630B}"/>
-    <hyperlink ref="C469" r:id="rId414" xr:uid="{B2C4C168-50FA-AF41-8F56-9E70613CF17D}"/>
-    <hyperlink ref="C471" r:id="rId415" xr:uid="{B7090C60-AC27-3F4F-8F0D-42F0791928C6}"/>
-    <hyperlink ref="C470" r:id="rId416" xr:uid="{07400041-66C6-514B-B3E3-427F2947C2B7}"/>
-    <hyperlink ref="C472" r:id="rId417" xr:uid="{B7E78172-8FB8-4E42-87D8-6A4654D79C62}"/>
-    <hyperlink ref="C473" r:id="rId418" xr:uid="{9A5D4670-BC64-334A-88CF-6F8287692C5E}"/>
-    <hyperlink ref="C474" r:id="rId419" xr:uid="{604283B6-53BC-044F-8D9D-E6094E798317}"/>
-    <hyperlink ref="C475" r:id="rId420" xr:uid="{5EB15AC7-3E0E-E44C-A5B9-32F30F234B5A}"/>
-    <hyperlink ref="C476" r:id="rId421" xr:uid="{3076BD5F-4B23-4146-A50A-499C9FF4C3D2}"/>
-    <hyperlink ref="C477" r:id="rId422" xr:uid="{6A29D9C2-1E78-1B43-A251-0AB0A97FA70E}"/>
-    <hyperlink ref="C478" r:id="rId423" xr:uid="{00597D5E-D693-DF4E-84C0-47E58A6ACA8F}"/>
-    <hyperlink ref="C479" r:id="rId424" xr:uid="{48640988-9964-0B4C-A014-83E2CEB3D632}"/>
-    <hyperlink ref="C480" r:id="rId425" xr:uid="{617AADC9-7534-FE45-96B0-EF4C1867B793}"/>
-    <hyperlink ref="C481" r:id="rId426" xr:uid="{7F8CDAA4-5094-8E4E-961B-41CDE5ACC0C0}"/>
-    <hyperlink ref="C482" r:id="rId427" xr:uid="{63F28ABD-12CF-5947-80DA-229E3CA3133E}"/>
-    <hyperlink ref="C489" r:id="rId428" xr:uid="{0A1DB92C-3315-1942-B27D-4B90986A6D9D}"/>
-    <hyperlink ref="C488" r:id="rId429" xr:uid="{11738B67-CADD-5D45-8417-8BE7A03FC79F}"/>
-    <hyperlink ref="C487" r:id="rId430" xr:uid="{B2B23748-D9E4-BE4F-A93E-49ECB4063831}"/>
-    <hyperlink ref="C486" r:id="rId431" xr:uid="{A2FB8A72-37B9-7E4A-B050-FD6CD20BCE73}"/>
-    <hyperlink ref="C485" r:id="rId432" xr:uid="{5A93C9AF-BFEB-EB40-95AC-C309ED09A604}"/>
-    <hyperlink ref="C484" r:id="rId433" xr:uid="{CC203923-2DC2-874B-B846-A8455E3CC2F2}"/>
-    <hyperlink ref="C483" r:id="rId434" xr:uid="{FCB0246E-0179-B447-B3CE-C60CDB388472}"/>
-    <hyperlink ref="C492" r:id="rId435" xr:uid="{F06CEE72-8CA4-C547-862C-39B86CD3226A}"/>
-    <hyperlink ref="C493" r:id="rId436" xr:uid="{CB3045F2-8D63-0F4E-85BC-AF016DB4F247}"/>
-    <hyperlink ref="C494" r:id="rId437" xr:uid="{667D57F5-E5AD-674F-A2F5-AFF4A14E4026}"/>
-    <hyperlink ref="C495" r:id="rId438" xr:uid="{27A13A65-56CE-BF4D-BA0D-EB87D910272D}"/>
-    <hyperlink ref="C496" r:id="rId439" xr:uid="{2C72A52E-6F06-0246-AEB5-93CD0DEA8866}"/>
-    <hyperlink ref="C497" r:id="rId440" xr:uid="{24B29046-B4DD-674B-9EDF-6C94BEC3FDD8}"/>
-    <hyperlink ref="C498" r:id="rId441" xr:uid="{D018EBC3-3FB3-AC4D-9D64-D218345A46C8}"/>
-    <hyperlink ref="C501" r:id="rId442" xr:uid="{1E1D3964-01E0-3145-ACFE-B6A5BF0EECB0}"/>
-    <hyperlink ref="C499" r:id="rId443" xr:uid="{FA0E5061-A7E2-C045-9671-1CD9446D1932}"/>
-    <hyperlink ref="C500" r:id="rId444" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{92704F5B-7B31-2F42-80DD-764B2206D9DB}"/>
-    <hyperlink ref="C376" r:id="rId445" xr:uid="{A48B1A24-83B1-7A4C-8129-CD37804DF849}"/>
-    <hyperlink ref="C27" r:id="rId446" xr:uid="{F0DDC999-C321-4AB4-BA9D-7538150E84D3}"/>
+    <hyperlink ref="C22" r:id="rId1" xr:uid="{9492A4AD-FA44-BA4B-B154-E4DBB1951162}"/>
+    <hyperlink ref="C23" r:id="rId2" xr:uid="{2D6F1134-3C08-7445-B19A-9B94A18B55C7}"/>
+    <hyperlink ref="C26" r:id="rId3" xr:uid="{E5A98931-37E8-6B4A-90BE-8DC72405341A}"/>
+    <hyperlink ref="C27" r:id="rId4" xr:uid="{02736918-E09F-7A46-90B3-AFCC33AA559B}"/>
+    <hyperlink ref="C28" r:id="rId5" xr:uid="{6E8DD30A-A9F9-4C44-B26C-C9E236F10798}"/>
+    <hyperlink ref="C29" r:id="rId6" xr:uid="{0D55765B-95A7-154F-96F3-B7E4C581021F}"/>
+    <hyperlink ref="C30" r:id="rId7" xr:uid="{6F687ABA-C04B-AF4F-9F11-A038DCB20FB9}"/>
+    <hyperlink ref="C31" r:id="rId8" xr:uid="{11C9D8CC-9F1E-004E-8EC2-C758DC9C8CAB}"/>
+    <hyperlink ref="C32" r:id="rId9" xr:uid="{56E4962F-CB3D-9E48-A26E-19A1F5C800C9}"/>
+    <hyperlink ref="C33" r:id="rId10" xr:uid="{899DDBD9-9ED6-3A4D-8AFE-8FAA6DA88DBC}"/>
+    <hyperlink ref="C34" r:id="rId11" xr:uid="{76D41EAC-A28A-2845-8515-CA3C70D823B7}"/>
+    <hyperlink ref="C35" r:id="rId12" xr:uid="{828948BE-DD97-DE4A-BAD6-B415E29198F0}"/>
+    <hyperlink ref="C36" r:id="rId13" xr:uid="{E98C86AA-12E7-124C-B7D0-BCDFB246040B}"/>
+    <hyperlink ref="C37" r:id="rId14" xr:uid="{192741A9-FF68-DC4A-99FA-69F9968AB4F2}"/>
+    <hyperlink ref="C38" r:id="rId15" xr:uid="{DBD9BA9C-91C6-B144-A800-DCB3BED33DE7}"/>
+    <hyperlink ref="C39" r:id="rId16" xr:uid="{A285BDE8-00E7-A94C-8E43-A0C4829D42FA}"/>
+    <hyperlink ref="C40" r:id="rId17" xr:uid="{B0C21764-2962-1649-8AFA-10FB9420C5FC}"/>
+    <hyperlink ref="C41" r:id="rId18" xr:uid="{9282CC15-9B38-E54B-B64C-557745C9C00A}"/>
+    <hyperlink ref="C42" r:id="rId19" xr:uid="{3BCCEBE2-AC3B-AC4F-8BA9-439ACEA133D4}"/>
+    <hyperlink ref="C43" r:id="rId20" xr:uid="{74F8D761-6EBF-594A-A6C7-40DE4CE96958}"/>
+    <hyperlink ref="C44" r:id="rId21" xr:uid="{79947FE6-D417-D644-81D8-D058180550A0}"/>
+    <hyperlink ref="C45" r:id="rId22" xr:uid="{2BF3F606-410B-264D-BF60-191C34D616BB}"/>
+    <hyperlink ref="C46" r:id="rId23" xr:uid="{CD98DB26-0F2F-FD40-A989-53FE548D7D34}"/>
+    <hyperlink ref="C47" r:id="rId24" xr:uid="{307032A1-F8EF-1A48-BFE3-EA3283D39BE2}"/>
+    <hyperlink ref="C48" r:id="rId25" xr:uid="{AA329F36-941A-9241-9402-9D220B05E719}"/>
+    <hyperlink ref="C49" r:id="rId26" xr:uid="{9E851DAC-0E30-B340-84F9-721D70B66919}"/>
+    <hyperlink ref="C50" r:id="rId27" xr:uid="{468380BA-4978-A645-ABD0-E74FD3E6BDBB}"/>
+    <hyperlink ref="C51" r:id="rId28" xr:uid="{289E6890-8CCB-D645-9B3F-6138FFC1C249}"/>
+    <hyperlink ref="C52" r:id="rId29" xr:uid="{8EABDC68-858F-784A-A8F1-C603E3B8C1FE}"/>
+    <hyperlink ref="C53" r:id="rId30" xr:uid="{6157E427-1210-3F45-A4DC-6DFD2373B9CF}"/>
+    <hyperlink ref="C54" r:id="rId31" xr:uid="{2D7BA55E-9947-FF4D-BC09-FB4A5ADA07EC}"/>
+    <hyperlink ref="C55" r:id="rId32" xr:uid="{3337C74F-8B73-E64E-A6DA-5D9F7C7B4D32}"/>
+    <hyperlink ref="C56" r:id="rId33" xr:uid="{02370124-E58D-B540-BBCF-98266229556D}"/>
+    <hyperlink ref="C57" r:id="rId34" xr:uid="{F2DE2162-BD02-7549-AC1A-27455F78131F}"/>
+    <hyperlink ref="C58" r:id="rId35" xr:uid="{6FA286B9-3994-624D-B0B8-C01657D110AD}"/>
+    <hyperlink ref="C59" r:id="rId36" xr:uid="{6EFBEDA1-5C10-2547-8FB2-44E977513B28}"/>
+    <hyperlink ref="C62" r:id="rId37" xr:uid="{090EC515-BEBE-514E-BA59-A84E450B4211}"/>
+    <hyperlink ref="C63" r:id="rId38" xr:uid="{0A0557FD-77E5-564B-B100-147D544A38B4}"/>
+    <hyperlink ref="C64" r:id="rId39" xr:uid="{3F82F2E0-AA59-5042-B079-F3B3C6FF2FD7}"/>
+    <hyperlink ref="C65" r:id="rId40" xr:uid="{FFF7D257-1F58-5A4B-AAA2-F5480AED86C7}"/>
+    <hyperlink ref="C66" r:id="rId41" xr:uid="{353E28FA-E36D-7447-9DE8-787DF11C4669}"/>
+    <hyperlink ref="C67" r:id="rId42" xr:uid="{F9B53127-FC98-FE43-B53F-BFDBCE2A4427}"/>
+    <hyperlink ref="C68" r:id="rId43" xr:uid="{40685BBC-CE24-624E-9ABB-98490B7DE0E4}"/>
+    <hyperlink ref="C69" r:id="rId44" xr:uid="{7733D505-2EC7-E346-B3DA-C980C7CE0B27}"/>
+    <hyperlink ref="C70" r:id="rId45" xr:uid="{E8C1FE00-7B4B-5745-8E4B-CD44B6C749E3}"/>
+    <hyperlink ref="C71" r:id="rId46" xr:uid="{FDE181B1-57B0-7C4B-A189-C7C6E4EAEF99}"/>
+    <hyperlink ref="C74" r:id="rId47" xr:uid="{FE85FD72-4FC9-334E-8205-9E8B238954EB}"/>
+    <hyperlink ref="C75" r:id="rId48" xr:uid="{7630AD76-7E6B-8C4A-BA33-A62EBB042215}"/>
+    <hyperlink ref="C76" r:id="rId49" xr:uid="{2A738B70-CBF0-CC40-8B05-A271822B3F1A}"/>
+    <hyperlink ref="C78" r:id="rId50" xr:uid="{B2DE2D9E-8371-CD44-9D0D-4D6DC64AC29B}"/>
+    <hyperlink ref="C79" r:id="rId51" xr:uid="{265DCD11-17A0-654E-BEFE-FABA31210C6E}"/>
+    <hyperlink ref="C80" r:id="rId52" xr:uid="{47F1BB0C-0C5C-0845-8EEC-1560C50D7DA7}"/>
+    <hyperlink ref="C81" r:id="rId53" xr:uid="{8E0BFA2E-CCB4-514F-86CD-78176C6CC98A}"/>
+    <hyperlink ref="C82" r:id="rId54" xr:uid="{E4DEFB4B-749F-8746-97C7-F2B433664A74}"/>
+    <hyperlink ref="C83" r:id="rId55" xr:uid="{8301BDBD-EB7E-7D41-A777-ED99C3F9D67D}"/>
+    <hyperlink ref="C84" r:id="rId56" xr:uid="{927AE532-647F-AF4C-A567-40ADA6FCE534}"/>
+    <hyperlink ref="C85" r:id="rId57" xr:uid="{05489F52-CC92-EC44-9AD3-773DEC3B1D36}"/>
+    <hyperlink ref="C86" r:id="rId58" xr:uid="{13025DF6-C30E-014A-B66C-68C4AAAC1C6E}"/>
+    <hyperlink ref="C87" r:id="rId59" xr:uid="{BEE1F613-C189-B949-A225-0E0C5AFD1532}"/>
+    <hyperlink ref="C88" r:id="rId60" xr:uid="{1DFECD6C-D7CC-0340-B29B-4D56E50711E5}"/>
+    <hyperlink ref="C89" r:id="rId61" xr:uid="{70BED156-B004-E043-BF7D-59EFAA9EADAF}"/>
+    <hyperlink ref="C90" r:id="rId62" xr:uid="{FF9CBAFB-900E-E242-8B33-EDF46F0F40B5}"/>
+    <hyperlink ref="C91" r:id="rId63" xr:uid="{19461114-B3E8-9042-8029-100010946A04}"/>
+    <hyperlink ref="C92" r:id="rId64" xr:uid="{00F71118-E30B-A84E-819E-FFA902C70502}"/>
+    <hyperlink ref="C93" r:id="rId65" xr:uid="{58E70966-BBE0-7743-A250-AE4DD57807DE}"/>
+    <hyperlink ref="C94" r:id="rId66" xr:uid="{09409FE3-9D7E-4F43-BB21-14A1B8D6E480}"/>
+    <hyperlink ref="C95" r:id="rId67" xr:uid="{E199A3DC-3DA1-C648-93C0-DF9CD5331204}"/>
+    <hyperlink ref="C96" r:id="rId68" xr:uid="{85886847-1510-AA46-B10C-F3D80591DD74}"/>
+    <hyperlink ref="C97" r:id="rId69" xr:uid="{F60808FC-F09D-FC44-B2DD-752E55A1C698}"/>
+    <hyperlink ref="C98" r:id="rId70" xr:uid="{16B2725E-1AD5-0441-9B5B-B6B2F458091B}"/>
+    <hyperlink ref="C99" r:id="rId71" xr:uid="{8440D753-5DE9-3243-97C2-C09D195C325F}"/>
+    <hyperlink ref="C100" r:id="rId72" xr:uid="{AC63A963-B6CC-6E4E-B72A-7F472BC4C027}"/>
+    <hyperlink ref="C101" r:id="rId73" xr:uid="{B21B87F1-A0C0-7F4E-B36F-912B871D0EF4}"/>
+    <hyperlink ref="C102" r:id="rId74" xr:uid="{789FFFAC-8B7E-0540-98B8-856430EB56F8}"/>
+    <hyperlink ref="C103" r:id="rId75" xr:uid="{4A0E959E-22F4-6948-A819-76FE76AB9F6D}"/>
+    <hyperlink ref="C104" r:id="rId76" xr:uid="{78B76678-D8EE-9745-98B1-DF7A76EA3B10}"/>
+    <hyperlink ref="C105" r:id="rId77" xr:uid="{62982242-1D19-1544-8653-8E25E9BF4505}"/>
+    <hyperlink ref="C106" r:id="rId78" xr:uid="{8E3D4BDF-9F8F-0542-BFD8-C3CE3BF396E6}"/>
+    <hyperlink ref="C107" r:id="rId79" xr:uid="{A3D51762-65A1-9A44-B619-D1D98A7F403B}"/>
+    <hyperlink ref="C108" r:id="rId80" xr:uid="{ED0F5FC7-0066-EB44-8FCF-460600DADB02}"/>
+    <hyperlink ref="C109" r:id="rId81" xr:uid="{2D956AC4-4774-7446-8473-C4CE00E33C17}"/>
+    <hyperlink ref="C110" r:id="rId82" xr:uid="{C8C607BB-1FEE-FA47-9E3E-6C0BCE978B7F}"/>
+    <hyperlink ref="C111" r:id="rId83" xr:uid="{B9AC5194-6D36-684A-A5C4-BEE11037599F}"/>
+    <hyperlink ref="C112" r:id="rId84" xr:uid="{AB28D9E6-890C-F14A-A5FB-2303BE319968}"/>
+    <hyperlink ref="C113" r:id="rId85" xr:uid="{1F507CBC-4056-AD46-9314-95ECBB9D799D}"/>
+    <hyperlink ref="C114" r:id="rId86" xr:uid="{F152A9AF-5CBA-EC44-A9CF-07AB481435AB}"/>
+    <hyperlink ref="C115" r:id="rId87" xr:uid="{346CA74F-60B7-0A4B-A612-9184D4DCFF62}"/>
+    <hyperlink ref="C116" r:id="rId88" xr:uid="{8C653CB1-4954-754F-8D46-F09141A2FCDB}"/>
+    <hyperlink ref="C119" r:id="rId89" xr:uid="{5989F693-2A61-A346-8395-8674307A4CC2}"/>
+    <hyperlink ref="C120" r:id="rId90" xr:uid="{3AD10C9E-4F6D-DE48-92F3-531A586520C6}"/>
+    <hyperlink ref="C121" r:id="rId91" xr:uid="{4FA217C0-A1F3-904E-8FEA-EA4941273A67}"/>
+    <hyperlink ref="C122" r:id="rId92" xr:uid="{A297BBC0-FA0D-2D46-9C49-3932193EF1D3}"/>
+    <hyperlink ref="C124" r:id="rId93" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance." xr:uid="{DCD751DE-E440-F346-B6FD-CBD072217214}"/>
+    <hyperlink ref="C125" r:id="rId94" xr:uid="{B2FD38B9-1E2B-8140-8291-F45734C98145}"/>
+    <hyperlink ref="C126" r:id="rId95" xr:uid="{C76888B3-18AC-9B48-9E2A-64A7DF0902B7}"/>
+    <hyperlink ref="C127" r:id="rId96" xr:uid="{18A79860-6C9E-A941-8D6C-360B9913E941}"/>
+    <hyperlink ref="C128" r:id="rId97" xr:uid="{C0DDFD68-CBC1-0F4A-AF40-ACF36BBC8453}"/>
+    <hyperlink ref="C129" r:id="rId98" xr:uid="{3E0BF737-E42E-C946-B32C-06882E0BA6FF}"/>
+    <hyperlink ref="C131" r:id="rId99" xr:uid="{862F9782-C57B-2848-A2D9-EB7B52FB7EC7}"/>
+    <hyperlink ref="C132" r:id="rId100" xr:uid="{230D7A6A-D2C5-C140-9A65-B1F407D22062}"/>
+    <hyperlink ref="C133" r:id="rId101" xr:uid="{BDC2BA28-4562-984E-8282-1126BF952EAF}"/>
+    <hyperlink ref="C134" r:id="rId102" xr:uid="{B53A5F28-6DED-3D47-8679-F78D3DDEFF01}"/>
+    <hyperlink ref="C135" r:id="rId103" xr:uid="{C57D0CC7-DA2F-0948-9BCE-F19C20C7D981}"/>
+    <hyperlink ref="C136" r:id="rId104" xr:uid="{117878E5-B8C8-254B-8ED6-014B4B7A8126}"/>
+    <hyperlink ref="C137" r:id="rId105" xr:uid="{B7CC0756-74F2-D54D-BDEE-9DA394DD7168}"/>
+    <hyperlink ref="C138" r:id="rId106" xr:uid="{837EF472-CCC2-CF47-A8A8-238E56F722CE}"/>
+    <hyperlink ref="C139" r:id="rId107" xr:uid="{3608F267-6AA0-624B-B243-7DDD317E9F08}"/>
+    <hyperlink ref="C140" r:id="rId108" xr:uid="{0B6123E6-0472-374B-ACA7-6914CD7918E8}"/>
+    <hyperlink ref="C141" r:id="rId109" xr:uid="{D3971CEB-C53E-B04B-9C32-1803182B5DC5}"/>
+    <hyperlink ref="C142" r:id="rId110" xr:uid="{7CF5013A-643E-1643-93A1-A2F1500D2A23}"/>
+    <hyperlink ref="C143" r:id="rId111" xr:uid="{2A6BE7E5-D818-6843-8C3E-99EA2BFE0FB2}"/>
+    <hyperlink ref="C144" r:id="rId112" xr:uid="{E718F544-96DF-A04E-8DFB-7639DA3EA57C}"/>
+    <hyperlink ref="C145" r:id="rId113" xr:uid="{B0C2F065-424A-7345-A864-346ECD98D749}"/>
+    <hyperlink ref="C146" r:id="rId114" xr:uid="{B4E26955-5C3F-804E-B19A-11260310AFB3}"/>
+    <hyperlink ref="C147" r:id="rId115" xr:uid="{6F299BB5-8E82-0240-A9A3-6829CE3ABCBF}"/>
+    <hyperlink ref="C148" r:id="rId116" xr:uid="{A42CA32F-2196-1840-A53D-E5073237C68D}"/>
+    <hyperlink ref="C149" r:id="rId117" xr:uid="{7ECF6EF4-962E-4642-9B1C-C3B70674793E}"/>
+    <hyperlink ref="C150" r:id="rId118" xr:uid="{2A109178-6B60-164E-9D25-42B3282137E3}"/>
+    <hyperlink ref="C151" r:id="rId119" xr:uid="{B3D38BD0-A6A1-8D41-8405-45E1BEEEEF06}"/>
+    <hyperlink ref="C152" r:id="rId120" xr:uid="{A1C26612-D040-2A41-A6A6-A8F2490C0A43}"/>
+    <hyperlink ref="C153" r:id="rId121" xr:uid="{C476E807-64CB-F44A-A23D-D21EBF6D001D}"/>
+    <hyperlink ref="C154" r:id="rId122" xr:uid="{9A414D55-D4A1-F147-9207-61B597D57136}"/>
+    <hyperlink ref="C123" r:id="rId123" xr:uid="{18B028A7-9B6F-D841-8548-924D70530779}"/>
+    <hyperlink ref="C130" r:id="rId124" xr:uid="{6D3E75EF-733F-7A4B-81C8-AEF6CB6335F0}"/>
+    <hyperlink ref="C158" r:id="rId125" xr:uid="{C9EB2682-BE0B-934B-B0B4-1DD1A1502647}"/>
+    <hyperlink ref="C159" r:id="rId126" xr:uid="{2992FED9-2B78-A342-92AA-E7C0F882FF17}"/>
+    <hyperlink ref="C160" r:id="rId127" xr:uid="{0084DA6F-EC84-BD48-BDA8-EBACA3BB3B3E}"/>
+    <hyperlink ref="C161" r:id="rId128" xr:uid="{30F2D415-4B2C-384C-8EAE-2CC71CB518E2}"/>
+    <hyperlink ref="C162" r:id="rId129" xr:uid="{40734C88-7C5B-9747-86D1-03463D9AD41A}"/>
+    <hyperlink ref="C163" r:id="rId130" xr:uid="{1040D22F-6729-104A-A229-CBDCED93024A}"/>
+    <hyperlink ref="C164" r:id="rId131" xr:uid="{E131FE61-FABF-8E4B-8EF0-F68379D8F836}"/>
+    <hyperlink ref="C165" r:id="rId132" xr:uid="{B2129272-1351-3745-883B-E6A7115450C8}"/>
+    <hyperlink ref="C166" r:id="rId133" xr:uid="{C8B2DEF0-2B69-C84E-8013-0B6F03FFC250}"/>
+    <hyperlink ref="C167" r:id="rId134" xr:uid="{536AC5CF-712F-BF48-94A9-D0E7DC013020}"/>
+    <hyperlink ref="C168" r:id="rId135" xr:uid="{2DABC9C7-43D4-1249-AF9B-5FA4552611CB}"/>
+    <hyperlink ref="C169" r:id="rId136" xr:uid="{DA62E73A-B495-F94A-BECE-D42E4CBF074A}"/>
+    <hyperlink ref="C170" r:id="rId137" xr:uid="{7F5E6966-850D-4F49-B2A5-678365713F28}"/>
+    <hyperlink ref="C171" r:id="rId138" xr:uid="{E9C4286D-8493-9A47-8B8C-09583FA72B70}"/>
+    <hyperlink ref="C172" r:id="rId139" xr:uid="{9EB0123C-84AE-1C4D-BA1A-C28CFB8EFB89}"/>
+    <hyperlink ref="C173" r:id="rId140" xr:uid="{9D11FED4-328F-674E-889D-EC781DD1D791}"/>
+    <hyperlink ref="C174" r:id="rId141" xr:uid="{48AE72DB-397B-464D-88AD-B8058ED29CC1}"/>
+    <hyperlink ref="C175" r:id="rId142" xr:uid="{152D50E9-7448-F542-AC66-05D0AE66664C}"/>
+    <hyperlink ref="C176" r:id="rId143" xr:uid="{34E6AF1B-5FB1-3A4B-8938-1DCF80831DC2}"/>
+    <hyperlink ref="C177" r:id="rId144" xr:uid="{E7F8B7CA-49F4-1946-91EE-E7582BE4E5DA}"/>
+    <hyperlink ref="C178" r:id="rId145" xr:uid="{3590A994-B7A2-C14D-9BF8-7AC8FE9E7F0F}"/>
+    <hyperlink ref="C179" r:id="rId146" xr:uid="{0AAA4B0C-4921-C34D-B41E-D702FA860892}"/>
+    <hyperlink ref="C180" r:id="rId147" xr:uid="{5973FCA4-AE32-5248-A6ED-2694367332F1}"/>
+    <hyperlink ref="C181" r:id="rId148" xr:uid="{4C0F816E-F043-0C47-BF16-1CDAD88D2FF1}"/>
+    <hyperlink ref="C182" r:id="rId149" xr:uid="{A8E4C654-D0BD-8945-9F5C-B09F7BC114BE}"/>
+    <hyperlink ref="C185" r:id="rId150" xr:uid="{E3825C15-10BB-E24F-B229-983F651DA942}"/>
+    <hyperlink ref="C186" r:id="rId151" xr:uid="{46ECFC31-388C-6241-8FFE-DED6F2FC794A}"/>
+    <hyperlink ref="C187" r:id="rId152" xr:uid="{589E024D-3FE1-1048-890C-88289733F233}"/>
+    <hyperlink ref="C188" r:id="rId153" xr:uid="{CDA28F7A-7FC5-F74D-B27E-A6E0161D41D5}"/>
+    <hyperlink ref="C189" r:id="rId154" xr:uid="{DA6A0D92-DCEB-DA4F-8BBA-10FCD092838F}"/>
+    <hyperlink ref="C190" r:id="rId155" xr:uid="{955769DB-3256-254B-90DE-E1E01B272F8A}"/>
+    <hyperlink ref="C191" r:id="rId156" xr:uid="{DED7AC9B-40D7-0545-9D6F-6CD4F5FFE4C6}"/>
+    <hyperlink ref="C192" r:id="rId157" xr:uid="{6947A4E1-B6AA-6D4F-A6D8-8FA74FD02887}"/>
+    <hyperlink ref="C193" r:id="rId158" xr:uid="{EABF2012-5A90-0C4E-86F6-FDB5FA7770BE}"/>
+    <hyperlink ref="C196" r:id="rId159" xr:uid="{7F44CFE0-9ED1-A44D-B9EF-CF87BEB644FC}"/>
+    <hyperlink ref="C197" r:id="rId160" xr:uid="{CF6E0CF6-7A93-D84A-9CE0-5BDD51767416}"/>
+    <hyperlink ref="C198" r:id="rId161" xr:uid="{EFF8F154-60B8-B84B-84CA-32756BD6430F}"/>
+    <hyperlink ref="C199" r:id="rId162" xr:uid="{C8A3094E-E11B-2543-B05E-1D07048B2EBA}"/>
+    <hyperlink ref="C200" r:id="rId163" xr:uid="{9961E5F5-B5C6-0C4D-A1D0-D04D2A5D7DFD}"/>
+    <hyperlink ref="C201" r:id="rId164" xr:uid="{44E289EC-47DD-D94D-88C1-CB2F59C6C16A}"/>
+    <hyperlink ref="C202" r:id="rId165" xr:uid="{4161FC70-DD6D-684B-898A-A4711596B2D5}"/>
+    <hyperlink ref="C203" r:id="rId166" xr:uid="{B9CBE387-8E9A-ED48-8310-CF7D34FA690C}"/>
+    <hyperlink ref="C204" r:id="rId167" xr:uid="{5398097B-24FF-9543-8F02-33CE2860F1F7}"/>
+    <hyperlink ref="C205" r:id="rId168" xr:uid="{3B1FC30B-30C8-7B48-AF94-A81FB513F24F}"/>
+    <hyperlink ref="C206" r:id="rId169" xr:uid="{32B750D0-D7F2-694D-AB9B-25AFAFAFF17F}"/>
+    <hyperlink ref="C207" r:id="rId170" xr:uid="{400689DD-8E95-024E-976B-AACD8ED4E1A6}"/>
+    <hyperlink ref="C208" r:id="rId171" xr:uid="{28753DDE-E047-5D40-A30B-1103BE6DA08F}"/>
+    <hyperlink ref="C209" r:id="rId172" xr:uid="{6C5AA6CB-3D93-0740-AEED-9E6C218CF6CB}"/>
+    <hyperlink ref="C210" r:id="rId173" xr:uid="{03EAA2B9-D8B8-D642-BF24-380596D26B2E}"/>
+    <hyperlink ref="C211" r:id="rId174" xr:uid="{8C1719B4-37CC-484E-BDCE-A4272C07F91B}"/>
+    <hyperlink ref="C212" r:id="rId175" xr:uid="{6C198DA2-BB98-F940-8EF6-2FC8B7AE577A}"/>
+    <hyperlink ref="C213" r:id="rId176" xr:uid="{AB0EA311-A446-D046-A0EC-290B42068328}"/>
+    <hyperlink ref="C214" r:id="rId177" xr:uid="{DB913045-B9F6-6549-AA09-22B0CC5FDD21}"/>
+    <hyperlink ref="C215" r:id="rId178" xr:uid="{806469FD-617A-7445-AAB5-FB2FD2ED24EA}"/>
+    <hyperlink ref="C216" r:id="rId179" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." xr:uid="{1A10544E-58CF-D04D-9FAF-2FEC6DB2B5D4}"/>
+    <hyperlink ref="C217" r:id="rId180" xr:uid="{5A0B6645-89FD-E044-A706-9FB890274C3C}"/>
+    <hyperlink ref="C218" r:id="rId181" xr:uid="{B42A3009-E8EB-EE44-885F-6699C17A0E0B}"/>
+    <hyperlink ref="C219" r:id="rId182" xr:uid="{ED3E48AB-E25B-3744-B024-E97B2A319B46}"/>
+    <hyperlink ref="C220" r:id="rId183" xr:uid="{C75D20A3-CBAE-2649-A3EE-E49177CFA343}"/>
+    <hyperlink ref="C221" r:id="rId184" xr:uid="{3863CA1B-D43E-1144-91A9-17C2DCF52A64}"/>
+    <hyperlink ref="C222" r:id="rId185" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." xr:uid="{E9AF434E-4CAA-5D49-8AD3-889CDE2913D9}"/>
+    <hyperlink ref="C223" r:id="rId186" xr:uid="{1A0568E5-3A11-7F47-8001-82B05D7C2339}"/>
+    <hyperlink ref="C224" r:id="rId187" xr:uid="{F62B8AE4-9C4F-9544-8861-CD733C12F79E}"/>
+    <hyperlink ref="C225" r:id="rId188" xr:uid="{0F6A542C-44C9-5A4C-90BF-BC8C239877D2}"/>
+    <hyperlink ref="C226" r:id="rId189" xr:uid="{3ED28203-B1B5-4E46-AAF3-779EDD4AC03F}"/>
+    <hyperlink ref="C227" r:id="rId190" xr:uid="{4338B305-B52F-5540-9B51-B938FC6803A2}"/>
+    <hyperlink ref="C228" r:id="rId191" xr:uid="{DDEEED0F-A939-1E4F-B2FA-AD391A4A2874}"/>
+    <hyperlink ref="C229" r:id="rId192" xr:uid="{C2F20589-AD81-654C-94E5-E5B6C9FE27F6}"/>
+    <hyperlink ref="C230" r:id="rId193" xr:uid="{BBEB9DAC-E4AE-C04F-AA15-6356AFC57FDE}"/>
+    <hyperlink ref="C233" r:id="rId194" xr:uid="{6316566D-A10A-F849-9F25-B9ED4DA12BC7}"/>
+    <hyperlink ref="C234" r:id="rId195" xr:uid="{9D4DD895-FBA6-C849-A5BF-3B30755BD9C9}"/>
+    <hyperlink ref="C235" r:id="rId196" xr:uid="{475996DA-632A-BE49-AEA1-D4189FD614A1}"/>
+    <hyperlink ref="C236" r:id="rId197" xr:uid="{88E0C858-8468-884F-BB71-F6F176BD5FC2}"/>
+    <hyperlink ref="C237" r:id="rId198" xr:uid="{C1C5C8D0-7A06-3D4A-A85A-AAACC1B418C9}"/>
+    <hyperlink ref="C238" r:id="rId199" xr:uid="{D525D4B1-2857-1543-8CD9-196728321203}"/>
+    <hyperlink ref="C239" r:id="rId200" xr:uid="{51E3AB9B-04B2-C041-A2B3-37E3EB18013A}"/>
+    <hyperlink ref="C240" r:id="rId201" xr:uid="{7F7F0C9A-57B9-314F-959A-B8ACAFA5FD13}"/>
+    <hyperlink ref="C241" r:id="rId202" xr:uid="{3B029785-83B4-6140-8B70-CD892CFC87F6}"/>
+    <hyperlink ref="C242" r:id="rId203" xr:uid="{B0A390E6-D860-9F4E-B021-68949FE712F3}"/>
+    <hyperlink ref="C243" r:id="rId204" xr:uid="{49E9953D-52F6-BF47-8AAA-8E456F55576B}"/>
+    <hyperlink ref="C244" r:id="rId205" xr:uid="{9B812470-F419-A54E-8365-06A9B8864A30}"/>
+    <hyperlink ref="C245" r:id="rId206" xr:uid="{B6FB4107-1933-6D45-9EF4-4474E06CBE9D}"/>
+    <hyperlink ref="C246" r:id="rId207" xr:uid="{0F7C1D92-7BCB-D14D-A658-9599984E04E4}"/>
+    <hyperlink ref="C247" r:id="rId208" xr:uid="{6810428F-0A78-964C-A8C8-E1CD2E7C405D}"/>
+    <hyperlink ref="C248" r:id="rId209" xr:uid="{B40209F2-0D6E-364F-8AF6-F1D182509314}"/>
+    <hyperlink ref="C249" r:id="rId210" xr:uid="{96C53FA9-9FD3-2D4F-B292-3C9DEDFA806E}"/>
+    <hyperlink ref="C250" r:id="rId211" xr:uid="{918B420D-3678-FD46-9463-595E8ACC39E1}"/>
+    <hyperlink ref="C251" r:id="rId212" xr:uid="{851A7153-3B54-0E4A-A0A0-FCEB091AFE70}"/>
+    <hyperlink ref="C252" r:id="rId213" xr:uid="{C03AE9F8-09AE-C640-81A7-033BB06FB6AD}"/>
+    <hyperlink ref="C253" r:id="rId214" xr:uid="{35140DEB-52D2-4342-88D2-22BA061E5B48}"/>
+    <hyperlink ref="C254" r:id="rId215" xr:uid="{9714BC0B-3373-934C-B7A1-599F74F4FB9D}"/>
+    <hyperlink ref="C257" r:id="rId216" xr:uid="{5CB435B2-7FD2-1D44-9872-22B6A1EDC02B}"/>
+    <hyperlink ref="C258" r:id="rId217" xr:uid="{722D1D95-896B-4642-BABD-31DEDD237B49}"/>
+    <hyperlink ref="C259" r:id="rId218" xr:uid="{D686D1DC-13D6-284C-B606-E087FAF47399}"/>
+    <hyperlink ref="C260" r:id="rId219" xr:uid="{D22C2394-C3CB-8F4F-A010-2B13C8C84D1A}"/>
+    <hyperlink ref="C261" r:id="rId220" xr:uid="{3AE2F800-B66F-1A41-893B-978F6875FDC8}"/>
+    <hyperlink ref="C262" r:id="rId221" xr:uid="{2C939BDE-5298-5541-837B-8C59D53A33C1}"/>
+    <hyperlink ref="C263" r:id="rId222" xr:uid="{691C9BD8-69D3-DA4B-AEB6-AF827B4ACA9F}"/>
+    <hyperlink ref="C264" r:id="rId223" xr:uid="{B6891E82-7C4D-424D-9219-3C9FD08E0053}"/>
+    <hyperlink ref="C265" r:id="rId224" xr:uid="{67A1AE98-62D2-644D-AC13-6CD76CF53CC0}"/>
+    <hyperlink ref="C266" r:id="rId225" xr:uid="{B59D4881-2A82-8F4D-B151-1E796C4923C8}"/>
+    <hyperlink ref="C267" r:id="rId226" xr:uid="{B3CBD023-5EFD-6048-9B3F-89F0C65CBBF5}"/>
+    <hyperlink ref="C268" r:id="rId227" xr:uid="{53EC42C4-22F7-0445-A0AC-7275A59A2672}"/>
+    <hyperlink ref="C269" r:id="rId228" xr:uid="{A29575F3-CB24-5B4B-9538-D5212B2DC28B}"/>
+    <hyperlink ref="C270" r:id="rId229" xr:uid="{353A44DD-9E30-8F48-8E2B-8DAA07550470}"/>
+    <hyperlink ref="C271" r:id="rId230" xr:uid="{32AC291D-95A5-BE49-88E0-02677BF39CAC}"/>
+    <hyperlink ref="C272" r:id="rId231" xr:uid="{A84F22FF-AD10-A546-8998-B066C0EB2D5A}"/>
+    <hyperlink ref="C273" r:id="rId232" xr:uid="{4C5CAF84-9B94-FC44-8C6C-B3CC7257C1DB}"/>
+    <hyperlink ref="C274" r:id="rId233" xr:uid="{5DA775E2-C516-3B47-8C82-3CEE7CC0BDF9}"/>
+    <hyperlink ref="C275" r:id="rId234" xr:uid="{00B6AE5C-EF3F-0747-A280-3BF055362B4F}"/>
+    <hyperlink ref="C276" r:id="rId235" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." xr:uid="{BCBD0A7E-F3D0-E840-9375-AFD37C5CD41A}"/>
+    <hyperlink ref="C277" r:id="rId236" xr:uid="{47ABDDDB-F95F-8049-9FB3-1E71A7376DDE}"/>
+    <hyperlink ref="C278" r:id="rId237" xr:uid="{70BADFC9-7399-234D-99F6-4C5F02397C26}"/>
+    <hyperlink ref="C279" r:id="rId238" xr:uid="{63348580-70EF-EC47-BF49-8ECE9560D54E}"/>
+    <hyperlink ref="C280" r:id="rId239" xr:uid="{D5BD96B3-9EAB-1B47-AC87-5C47F6AD7F40}"/>
+    <hyperlink ref="C281" r:id="rId240" xr:uid="{74791141-3FB8-7540-B45B-9541AF0AE371}"/>
+    <hyperlink ref="C282" r:id="rId241" xr:uid="{88D53CD6-262A-7247-8E58-FE9FFF7ECC40}"/>
+    <hyperlink ref="C283" r:id="rId242" xr:uid="{4338A14D-4F7D-B943-A347-7F74EFCA0DB5}"/>
+    <hyperlink ref="C284" r:id="rId243" xr:uid="{6E0EF7A3-7341-284B-A0E3-4539B6EAFAF2}"/>
+    <hyperlink ref="C285" r:id="rId244" xr:uid="{D2D8D64F-E2D3-734E-AD45-3EFB9686555A}"/>
+    <hyperlink ref="C286" r:id="rId245" xr:uid="{04A2904A-73A0-7845-9868-2CCFE359AC68}"/>
+    <hyperlink ref="C287" r:id="rId246" xr:uid="{D3D35835-6BE3-4D41-AF6F-5FE442277A16}"/>
+    <hyperlink ref="C288" r:id="rId247" xr:uid="{F663D0FC-CFF0-BC4F-9D26-48C871A8E9FD}"/>
+    <hyperlink ref="C289" r:id="rId248" xr:uid="{DF544147-DA48-4041-A4E2-4A75106B771A}"/>
+    <hyperlink ref="C290" r:id="rId249" xr:uid="{50E4B716-239E-7946-843D-E8462591D128}"/>
+    <hyperlink ref="C291" r:id="rId250" xr:uid="{D368B3E5-7D12-FD48-AFF7-A4A614108940}"/>
+    <hyperlink ref="C294" r:id="rId251" xr:uid="{D5921FF1-FC1F-CA4B-A24E-AD69E1DEC14C}"/>
+    <hyperlink ref="C295" r:id="rId252" xr:uid="{C931D7E0-E032-7C4B-95F1-735D955FCB51}"/>
+    <hyperlink ref="C296" r:id="rId253" xr:uid="{5FBD4A8F-287C-2C46-9CAB-F7DBA67DEDDA}"/>
+    <hyperlink ref="C297" r:id="rId254" xr:uid="{12966DD6-41DD-A94B-8B2C-0AD7D2AD6FB0}"/>
+    <hyperlink ref="C298" r:id="rId255" xr:uid="{CF720C34-4554-2944-A818-020ABC9BF0F4}"/>
+    <hyperlink ref="C299" r:id="rId256" xr:uid="{75763F2A-16D7-DE43-8189-19623CE26370}"/>
+    <hyperlink ref="C300" r:id="rId257" xr:uid="{9263AA30-472A-0A4D-BADF-96D82BB9BFCC}"/>
+    <hyperlink ref="C301" r:id="rId258" xr:uid="{2EF025C3-75C8-564E-BA8B-708C32B0E602}"/>
+    <hyperlink ref="C302" r:id="rId259" xr:uid="{6BDFDCA9-3421-F24F-8EF2-A72742F0AC21}"/>
+    <hyperlink ref="C303" r:id="rId260" xr:uid="{D8447F99-5FF9-D544-99BB-E9969B4A38D7}"/>
+    <hyperlink ref="C304" r:id="rId261" xr:uid="{1DB7EFDA-6C7D-F546-9EE1-F61ED0F65209}"/>
+    <hyperlink ref="C305" r:id="rId262" xr:uid="{D1505609-27D1-784D-ACF6-AE9D0DA2E1B6}"/>
+    <hyperlink ref="C306" r:id="rId263" xr:uid="{6BFA7B45-17D0-4E49-85DA-23C7255A306D}"/>
+    <hyperlink ref="C307" r:id="rId264" xr:uid="{3324BA4A-30CA-5246-8C3C-6505A6987939}"/>
+    <hyperlink ref="C308" r:id="rId265" xr:uid="{894486AD-2B6D-5740-BCAF-0BA1AFF814B4}"/>
+    <hyperlink ref="C309" r:id="rId266" xr:uid="{C47B203B-8B5A-E740-8C86-0784AD28089E}"/>
+    <hyperlink ref="C310" r:id="rId267" xr:uid="{06DC2E54-7597-AE4D-ACDB-B8883A989A4F}"/>
+    <hyperlink ref="C311" r:id="rId268" xr:uid="{E3384259-7CA7-1C44-A66D-11346EE6742E}"/>
+    <hyperlink ref="C312" r:id="rId269" xr:uid="{A5B77769-38AF-3D47-A76B-311591B57D91}"/>
+    <hyperlink ref="C315" r:id="rId270" xr:uid="{9DB6976A-C646-1341-90E8-3A164521267A}"/>
+    <hyperlink ref="C316" r:id="rId271" xr:uid="{03C291F8-D19A-304B-9EF9-CF71A1F66E49}"/>
+    <hyperlink ref="C317" r:id="rId272" xr:uid="{7536415C-140B-9244-B0B2-23F3ED0B2D80}"/>
+    <hyperlink ref="C318" r:id="rId273" xr:uid="{7DBDA456-8AF6-DD43-9764-17D3959B8E8F}"/>
+    <hyperlink ref="C319" r:id="rId274" xr:uid="{BFC149AB-C15A-B648-9F6A-ECD3890B1918}"/>
+    <hyperlink ref="C320" r:id="rId275" xr:uid="{0482240B-FEE9-F746-8980-52BCB7BBB56E}"/>
+    <hyperlink ref="C321" r:id="rId276" xr:uid="{86D1231A-E7C8-4B45-99ED-2DB0EF71E190}"/>
+    <hyperlink ref="C322" r:id="rId277" xr:uid="{20B7CE89-CB37-0040-989F-C8D1BE2B8782}"/>
+    <hyperlink ref="C323" r:id="rId278" xr:uid="{4C8412C9-A47B-9244-A18B-741516BD1054}"/>
+    <hyperlink ref="C324" r:id="rId279" xr:uid="{511761D9-31CE-0B43-AFFD-C011C27ACC52}"/>
+    <hyperlink ref="C325" r:id="rId280" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." xr:uid="{6905F997-D048-1049-BA27-C48756603D1E}"/>
+    <hyperlink ref="C326" r:id="rId281" xr:uid="{E657AA82-7CFE-DB42-B20F-F63D8C25EAB6}"/>
+    <hyperlink ref="C327" r:id="rId282" xr:uid="{3E505033-58F3-8F4E-AB82-E12DBC226AEA}"/>
+    <hyperlink ref="C328" r:id="rId283" xr:uid="{749599E5-4972-7343-B13B-87E26F837470}"/>
+    <hyperlink ref="C329" r:id="rId284" xr:uid="{12AA88DC-22AB-5A49-B28C-F04C8E35A215}"/>
+    <hyperlink ref="C330" r:id="rId285" xr:uid="{5751F0A7-7D9D-4148-820B-5B9659DFE34F}"/>
+    <hyperlink ref="C331" r:id="rId286" xr:uid="{4CA2DBEE-B161-B84D-B3A9-B8BC1B598AF2}"/>
+    <hyperlink ref="C332" r:id="rId287" xr:uid="{A9C1E578-6594-954C-8785-8902E605FC7A}"/>
+    <hyperlink ref="C333" r:id="rId288" xr:uid="{3D45E9B8-6671-A747-8C18-51CF8883170A}"/>
+    <hyperlink ref="C334" r:id="rId289" xr:uid="{4F5EF748-8CD4-0F47-90CE-3C93755BF63D}"/>
+    <hyperlink ref="C335" r:id="rId290" xr:uid="{44053C08-5050-C84B-B016-069B1EF9A43D}"/>
+    <hyperlink ref="C336" r:id="rId291" xr:uid="{ABF38928-736B-1A49-8B8A-1DCA5AAECB2B}"/>
+    <hyperlink ref="C337" r:id="rId292" xr:uid="{52651FAF-F3DC-E949-8AF8-998B9724B7D1}"/>
+    <hyperlink ref="C338" r:id="rId293" xr:uid="{91C6CCEF-3FF7-2C42-B5A0-8F4A403ED198}"/>
+    <hyperlink ref="C339" r:id="rId294" xr:uid="{15C8AF08-1A79-F949-9BE7-DD240CBD9861}"/>
+    <hyperlink ref="C340" r:id="rId295" xr:uid="{1904F984-5B22-8D46-BC33-3073B390E8F9}"/>
+    <hyperlink ref="C341" r:id="rId296" xr:uid="{A8BFB3A4-426B-E646-BCF0-FE19C8CD07A9}"/>
+    <hyperlink ref="C342" r:id="rId297" xr:uid="{FBBA29BB-885B-744A-A644-58EDCA7B140A}"/>
+    <hyperlink ref="C343" r:id="rId298" xr:uid="{75411687-6884-AC42-8B4A-1348C4837365}"/>
+    <hyperlink ref="C344" r:id="rId299" xr:uid="{A89ED8DF-F678-FE43-808C-C190721379BF}"/>
+    <hyperlink ref="C345" r:id="rId300" xr:uid="{1516834D-F3B2-1743-8811-263E11BBDEF8}"/>
+    <hyperlink ref="C346" r:id="rId301" xr:uid="{1659AB91-08CA-E44D-988D-E9D9A746D406}"/>
+    <hyperlink ref="C347" r:id="rId302" xr:uid="{E844BC1D-9713-9F4D-B0A4-1124A9952D14}"/>
+    <hyperlink ref="C348" r:id="rId303" xr:uid="{DCE2AAEF-8D8E-1843-BFE9-E9B7E13854EB}"/>
+    <hyperlink ref="C349" r:id="rId304" xr:uid="{836B3BF0-7711-7D41-9E72-914C1871397F}"/>
+    <hyperlink ref="C350" r:id="rId305" xr:uid="{F450CF9B-CA59-1443-8163-13F1121DCF12}"/>
+    <hyperlink ref="C351" r:id="rId306" xr:uid="{1539C3E8-4854-3C4F-A7B3-55BF931F1E2A}"/>
+    <hyperlink ref="C352" r:id="rId307" xr:uid="{04F1FC5F-5DA1-0144-962D-B38C1C41F0F4}"/>
+    <hyperlink ref="C355" r:id="rId308" xr:uid="{B21618F4-70E2-C549-80B7-7CF915679E0A}"/>
+    <hyperlink ref="C356" r:id="rId309" xr:uid="{EEDFBF11-C1E4-0847-9D56-94A72D97AEE7}"/>
+    <hyperlink ref="C357" r:id="rId310" xr:uid="{F5C0EDF1-7EAC-8849-8D27-C3389913BFC6}"/>
+    <hyperlink ref="C358" r:id="rId311" xr:uid="{50175B29-124F-4E4E-8E98-961BD3320359}"/>
+    <hyperlink ref="C359" r:id="rId312" xr:uid="{1BE23822-8512-014F-9154-F6EDA4FC8428}"/>
+    <hyperlink ref="C360" r:id="rId313" xr:uid="{38EC228E-ABFF-3542-9CFB-3DDFC628E9D0}"/>
+    <hyperlink ref="C361" r:id="rId314" xr:uid="{73F240F8-C469-454E-BA5C-CFF2F7A7A5F6}"/>
+    <hyperlink ref="C362" r:id="rId315" xr:uid="{3BBD1BAC-68C7-A94A-9063-AF62B5C837FD}"/>
+    <hyperlink ref="C363" r:id="rId316" xr:uid="{F9751D9B-2689-E24B-9FC3-CA32FE888708}"/>
+    <hyperlink ref="C364" r:id="rId317" xr:uid="{73C61D6A-D97C-B944-8B27-BB91564AB0D7}"/>
+    <hyperlink ref="C365" r:id="rId318" xr:uid="{936E077C-C016-A04F-895A-782D6D9D9433}"/>
+    <hyperlink ref="C366" r:id="rId319" xr:uid="{5454A2A1-6607-BE48-9215-CB8965EC3568}"/>
+    <hyperlink ref="C367" r:id="rId320" xr:uid="{FC1EAA10-F7ED-6B42-A79B-3D8B44E2C8B3}"/>
+    <hyperlink ref="C368" r:id="rId321" xr:uid="{FDB7F712-4A42-1048-8929-A1E752B07C6A}"/>
+    <hyperlink ref="C369" r:id="rId322" xr:uid="{AF3ACA60-0B0E-E146-B51F-A2CD05EB6549}"/>
+    <hyperlink ref="C370" r:id="rId323" xr:uid="{BB63E040-7A1A-E046-9BDD-9CBD1DA89DE9}"/>
+    <hyperlink ref="C371" r:id="rId324" xr:uid="{9AF8FD93-CCC9-D540-AE9A-00583F309649}"/>
+    <hyperlink ref="C372" r:id="rId325" xr:uid="{66A746A0-71FE-E546-92B7-D1C3D582E067}"/>
+    <hyperlink ref="C376" r:id="rId326" xr:uid="{BD79CCE1-5315-3944-9F9B-618615EC4583}"/>
+    <hyperlink ref="C377" r:id="rId327" xr:uid="{A5068A51-C961-6847-BB27-40A850B6D393}"/>
+    <hyperlink ref="C378" r:id="rId328" xr:uid="{6B8D36F0-E796-B944-A456-E8A9E2EE0BDB}"/>
+    <hyperlink ref="C379" r:id="rId329" xr:uid="{776652B7-2C11-4641-BF6A-EABEEB9B55AB}"/>
+    <hyperlink ref="C380" r:id="rId330" xr:uid="{95C6B35D-712A-2343-B790-236B55C5EC49}"/>
+    <hyperlink ref="C381" r:id="rId331" xr:uid="{4ED53872-1FE9-F140-AA35-F228F762880B}"/>
+    <hyperlink ref="C382" r:id="rId332" xr:uid="{6D5E6A28-85AA-BF4C-B2BD-9378D6E28EC7}"/>
+    <hyperlink ref="C383" r:id="rId333" xr:uid="{BCAD1ECB-15EE-CF49-878E-AA682DE3AC22}"/>
+    <hyperlink ref="C384" r:id="rId334" xr:uid="{C85468B5-25E9-E446-808E-72CFE911F0C2}"/>
+    <hyperlink ref="C385" r:id="rId335" xr:uid="{9503AECA-1A6A-9640-A04C-4CEAA2304448}"/>
+    <hyperlink ref="C386" r:id="rId336" xr:uid="{74211516-06B0-AA45-845B-52C8202751DA}"/>
+    <hyperlink ref="C387" r:id="rId337" xr:uid="{02C696BC-4B91-9444-900F-9CD68E409ABC}"/>
+    <hyperlink ref="C388" r:id="rId338" xr:uid="{04646C45-4118-374C-839D-94D31D534FAC}"/>
+    <hyperlink ref="C389" r:id="rId339" xr:uid="{F90BCCAE-8596-FC4D-BDD7-774392C596DF}"/>
+    <hyperlink ref="C390" r:id="rId340" xr:uid="{65230925-36EC-8A4B-8E46-6350B9BC0F95}"/>
+    <hyperlink ref="C391" r:id="rId341" xr:uid="{E91B8177-0C7A-1F40-BD34-4CC60F03B84F}"/>
+    <hyperlink ref="C392" r:id="rId342" xr:uid="{E8CBFD60-7335-0B4D-9FF5-99B4A8DC551D}"/>
+    <hyperlink ref="C393" r:id="rId343" xr:uid="{A35F55D4-9B87-C745-94DB-E7D820193C30}"/>
+    <hyperlink ref="C394" r:id="rId344" xr:uid="{6461A29F-D404-334F-B13F-296B4CA5E8A4}"/>
+    <hyperlink ref="C395" r:id="rId345" xr:uid="{FA9B4BE7-85CC-B24F-9461-5E9B42DDD824}"/>
+    <hyperlink ref="C396" r:id="rId346" xr:uid="{A75ACEA2-CDF6-A147-8540-A6DF55B15F45}"/>
+    <hyperlink ref="C397" r:id="rId347" xr:uid="{62FF87E2-E658-AB4D-AC57-7BCF9D49516E}"/>
+    <hyperlink ref="C398" r:id="rId348" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." xr:uid="{269338A6-5145-6944-9F7F-BD2A86DFA308}"/>
+    <hyperlink ref="C399" r:id="rId349" xr:uid="{8F583049-CE8D-CD42-88CD-CF3857942670}"/>
+    <hyperlink ref="C400" r:id="rId350" xr:uid="{EE2348AD-E296-894A-B5AE-5884A3C5E419}"/>
+    <hyperlink ref="C401" r:id="rId351" xr:uid="{6EACB34E-B32E-8F43-8055-2406F7417A7E}"/>
+    <hyperlink ref="C402" r:id="rId352" xr:uid="{2446F10A-B762-B64C-97B2-6131A0BECC1F}"/>
+    <hyperlink ref="C403" r:id="rId353" xr:uid="{6FDFCC53-17A6-7244-88A7-49406D7C9200}"/>
+    <hyperlink ref="C404" r:id="rId354" xr:uid="{3EC43646-EAB1-E443-A2F6-8E6E5FC77083}"/>
+    <hyperlink ref="C405" r:id="rId355" xr:uid="{659D9F20-C862-C947-B422-84143CFE317F}"/>
+    <hyperlink ref="C406" r:id="rId356" xr:uid="{3F5192FE-1C50-C049-88D5-68FA0F5430A0}"/>
+    <hyperlink ref="C407" r:id="rId357" xr:uid="{5EAD7CDA-9545-454B-BE77-9AFEC6AC1083}"/>
+    <hyperlink ref="C408" r:id="rId358" xr:uid="{761E5451-736B-6745-9CF5-4C6EF5D4C099}"/>
+    <hyperlink ref="C409" r:id="rId359" xr:uid="{4C8677A9-D94C-134F-AF31-E424751BF867}"/>
+    <hyperlink ref="C410" r:id="rId360" xr:uid="{CCF7920F-D5CE-004A-86C3-D821FB230970}"/>
+    <hyperlink ref="C411" r:id="rId361" xr:uid="{B4C07A0A-1EDD-7947-9646-3FD603441AD7}"/>
+    <hyperlink ref="C412" r:id="rId362" xr:uid="{49F7BB43-6851-0641-9DC5-27DBC66706F6}"/>
+    <hyperlink ref="C413" r:id="rId363" xr:uid="{77038647-48C7-5547-8E0F-898610362465}"/>
+    <hyperlink ref="C415" r:id="rId364" xr:uid="{EEFFE19C-6571-C64F-A0E1-5A4A700D94D4}"/>
+    <hyperlink ref="C414" r:id="rId365" xr:uid="{A4A2BFC4-6B88-2E4E-B362-17D8EE041C89}"/>
+    <hyperlink ref="C416" r:id="rId366" xr:uid="{DC5B603A-8D65-3648-A08A-E5FFA0FAE879}"/>
+    <hyperlink ref="C417" r:id="rId367" xr:uid="{F8807DD9-F4F2-B147-9C31-DBC93B2E477B}"/>
+    <hyperlink ref="C418" r:id="rId368" xr:uid="{6F7B396C-D7E9-C04E-BAE2-53D2EE07172B}"/>
+    <hyperlink ref="C421" r:id="rId369" xr:uid="{0D4A5941-C669-4A49-BAE3-9B553D03BD0F}"/>
+    <hyperlink ref="C422" r:id="rId370" xr:uid="{54144336-5BCA-D749-962A-E448C2CED3D3}"/>
+    <hyperlink ref="C423" r:id="rId371" xr:uid="{3A41DD21-CACF-1F48-A7C7-F568C6F31F3E}"/>
+    <hyperlink ref="C424" r:id="rId372" xr:uid="{A36160A8-F45E-3443-9645-42C1004B8F8C}"/>
+    <hyperlink ref="C425" r:id="rId373" xr:uid="{8B0A00A3-6AC0-DF46-AD87-A4DA016A2A00}"/>
+    <hyperlink ref="C426" r:id="rId374" xr:uid="{62A81CB4-A961-C543-B31C-92059DB6C105}"/>
+    <hyperlink ref="C429" r:id="rId375" xr:uid="{08030975-009C-C34A-A875-72FE2718F44C}"/>
+    <hyperlink ref="C430" r:id="rId376" xr:uid="{A113C7A9-2359-B643-9C08-E845813439C0}"/>
+    <hyperlink ref="C431" r:id="rId377" xr:uid="{FE300343-4633-AD47-A64D-2086629EB398}"/>
+    <hyperlink ref="C432" r:id="rId378" xr:uid="{4FC9F782-D38F-C642-A863-887B17AD05CD}"/>
+    <hyperlink ref="C433" r:id="rId379" xr:uid="{830C5466-10E3-7A48-B3E7-35C15A1CA4EF}"/>
+    <hyperlink ref="C434" r:id="rId380" xr:uid="{1B987077-E9D3-6F40-89EE-0D4E7180D884}"/>
+    <hyperlink ref="C435" r:id="rId381" xr:uid="{D4843E1F-7226-864E-A4BB-264D5A487B6D}"/>
+    <hyperlink ref="C436" r:id="rId382" xr:uid="{61816592-2D19-9946-8253-47A60218F2EA}"/>
+    <hyperlink ref="C437" r:id="rId383" xr:uid="{736C840F-19A3-0A4B-8863-ECB772B46385}"/>
+    <hyperlink ref="C438" r:id="rId384" xr:uid="{05A238AD-3C5B-C546-94E9-75BBF964711A}"/>
+    <hyperlink ref="C439" r:id="rId385" xr:uid="{7029629C-3F2A-4A49-997B-CFE86EC8B3C2}"/>
+    <hyperlink ref="C440" r:id="rId386" xr:uid="{ADA66B57-2FAC-AB42-BD83-4931708F3AB5}"/>
+    <hyperlink ref="C441" r:id="rId387" xr:uid="{F16BF1F9-755B-B045-B9A8-0B97E3BAC8B0}"/>
+    <hyperlink ref="C442" r:id="rId388" xr:uid="{ECCE930A-B960-234C-81EC-4B8514282AE9}"/>
+    <hyperlink ref="C443" r:id="rId389" xr:uid="{7AA58141-7D24-7C42-A0C1-F852B21CFFD9}"/>
+    <hyperlink ref="C444" r:id="rId390" xr:uid="{B1FCB47D-7921-3446-B2C7-72CBA815D056}"/>
+    <hyperlink ref="C445" r:id="rId391" xr:uid="{8C547719-AA03-3543-B31F-7300674AF4C5}"/>
+    <hyperlink ref="C446" r:id="rId392" xr:uid="{09922668-AFC0-F242-860E-9967E0F0FEF4}"/>
+    <hyperlink ref="C447" r:id="rId393" xr:uid="{0DA963DA-238B-D44E-9E03-6E6BD933B35E}"/>
+    <hyperlink ref="C448" r:id="rId394" xr:uid="{89518AFF-2526-C845-BC9D-95FE77AF416E}"/>
+    <hyperlink ref="C449" r:id="rId395" xr:uid="{FAECBBBE-196C-7A41-A0FB-E0597CB2CF51}"/>
+    <hyperlink ref="C450" r:id="rId396" xr:uid="{8126B039-0B25-B040-A0F6-C3457341A2E9}"/>
+    <hyperlink ref="C451" r:id="rId397" xr:uid="{6CB326E6-E698-EB42-884B-C89FFA33E3BA}"/>
+    <hyperlink ref="C452" r:id="rId398" xr:uid="{8C97EFD1-933F-A44F-A1CF-6386233104A2}"/>
+    <hyperlink ref="C453" r:id="rId399" xr:uid="{8F019F07-8532-E147-8BE1-4EBE833F61CA}"/>
+    <hyperlink ref="C454" r:id="rId400" xr:uid="{00F1A08F-3767-784A-97A3-4603DE38BACC}"/>
+    <hyperlink ref="C455" r:id="rId401" xr:uid="{2A84ADCB-071F-9A48-994D-7A838307EFD8}"/>
+    <hyperlink ref="C456" r:id="rId402" xr:uid="{132F8C6D-D5E8-6440-AC4E-B81EA2100416}"/>
+    <hyperlink ref="C457" r:id="rId403" xr:uid="{2DA6EAC2-1A1D-754F-9613-226CBC7890AF}"/>
+    <hyperlink ref="C458" r:id="rId404" xr:uid="{05BED99A-4562-D14E-8627-D07CF5335A9B}"/>
+    <hyperlink ref="C459" r:id="rId405" xr:uid="{111D902A-3F60-2D4B-89D3-5BCBD8AA38DD}"/>
+    <hyperlink ref="C460" r:id="rId406" xr:uid="{F19236BE-AC32-3542-9214-DFC3BAE04ED0}"/>
+    <hyperlink ref="C461" r:id="rId407" xr:uid="{4D97CD96-EA1B-664E-9380-EFD27077D273}"/>
+    <hyperlink ref="C462" r:id="rId408" xr:uid="{49A46D91-633F-A148-ACFA-49B7D1AA4B33}"/>
+    <hyperlink ref="C463" r:id="rId409" xr:uid="{7C3B7901-67E3-EA4D-BC64-21A78BC03AC6}"/>
+    <hyperlink ref="C464" r:id="rId410" xr:uid="{B27CA8C3-D34F-5E4D-94A5-11D14AFD0F82}"/>
+    <hyperlink ref="C465" r:id="rId411" xr:uid="{8FECE038-9764-5E4A-8C6E-9B3209812651}"/>
+    <hyperlink ref="C466" r:id="rId412" xr:uid="{95696D4B-89CB-5640-BE92-53B3C043F7EB}"/>
+    <hyperlink ref="C467" r:id="rId413" xr:uid="{DA74B737-802A-4944-A93E-0B9C8417630B}"/>
+    <hyperlink ref="C468" r:id="rId414" xr:uid="{B2C4C168-50FA-AF41-8F56-9E70613CF17D}"/>
+    <hyperlink ref="C470" r:id="rId415" xr:uid="{B7090C60-AC27-3F4F-8F0D-42F0791928C6}"/>
+    <hyperlink ref="C469" r:id="rId416" xr:uid="{07400041-66C6-514B-B3E3-427F2947C2B7}"/>
+    <hyperlink ref="C471" r:id="rId417" xr:uid="{B7E78172-8FB8-4E42-87D8-6A4654D79C62}"/>
+    <hyperlink ref="C472" r:id="rId418" xr:uid="{9A5D4670-BC64-334A-88CF-6F8287692C5E}"/>
+    <hyperlink ref="C473" r:id="rId419" xr:uid="{604283B6-53BC-044F-8D9D-E6094E798317}"/>
+    <hyperlink ref="C474" r:id="rId420" xr:uid="{5EB15AC7-3E0E-E44C-A5B9-32F30F234B5A}"/>
+    <hyperlink ref="C475" r:id="rId421" xr:uid="{3076BD5F-4B23-4146-A50A-499C9FF4C3D2}"/>
+    <hyperlink ref="C476" r:id="rId422" xr:uid="{6A29D9C2-1E78-1B43-A251-0AB0A97FA70E}"/>
+    <hyperlink ref="C477" r:id="rId423" xr:uid="{00597D5E-D693-DF4E-84C0-47E58A6ACA8F}"/>
+    <hyperlink ref="C478" r:id="rId424" xr:uid="{48640988-9964-0B4C-A014-83E2CEB3D632}"/>
+    <hyperlink ref="C479" r:id="rId425" xr:uid="{617AADC9-7534-FE45-96B0-EF4C1867B793}"/>
+    <hyperlink ref="C480" r:id="rId426" xr:uid="{7F8CDAA4-5094-8E4E-961B-41CDE5ACC0C0}"/>
+    <hyperlink ref="C481" r:id="rId427" xr:uid="{63F28ABD-12CF-5947-80DA-229E3CA3133E}"/>
+    <hyperlink ref="C488" r:id="rId428" xr:uid="{0A1DB92C-3315-1942-B27D-4B90986A6D9D}"/>
+    <hyperlink ref="C487" r:id="rId429" xr:uid="{11738B67-CADD-5D45-8417-8BE7A03FC79F}"/>
+    <hyperlink ref="C486" r:id="rId430" xr:uid="{B2B23748-D9E4-BE4F-A93E-49ECB4063831}"/>
+    <hyperlink ref="C485" r:id="rId431" xr:uid="{A2FB8A72-37B9-7E4A-B050-FD6CD20BCE73}"/>
+    <hyperlink ref="C484" r:id="rId432" xr:uid="{5A93C9AF-BFEB-EB40-95AC-C309ED09A604}"/>
+    <hyperlink ref="C483" r:id="rId433" xr:uid="{CC203923-2DC2-874B-B846-A8455E3CC2F2}"/>
+    <hyperlink ref="C482" r:id="rId434" xr:uid="{FCB0246E-0179-B447-B3CE-C60CDB388472}"/>
+    <hyperlink ref="C491" r:id="rId435" xr:uid="{F06CEE72-8CA4-C547-862C-39B86CD3226A}"/>
+    <hyperlink ref="C492" r:id="rId436" xr:uid="{CB3045F2-8D63-0F4E-85BC-AF016DB4F247}"/>
+    <hyperlink ref="C493" r:id="rId437" xr:uid="{667D57F5-E5AD-674F-A2F5-AFF4A14E4026}"/>
+    <hyperlink ref="C494" r:id="rId438" xr:uid="{27A13A65-56CE-BF4D-BA0D-EB87D910272D}"/>
+    <hyperlink ref="C495" r:id="rId439" xr:uid="{2C72A52E-6F06-0246-AEB5-93CD0DEA8866}"/>
+    <hyperlink ref="C496" r:id="rId440" xr:uid="{24B29046-B4DD-674B-9EDF-6C94BEC3FDD8}"/>
+    <hyperlink ref="C497" r:id="rId441" xr:uid="{D018EBC3-3FB3-AC4D-9D64-D218345A46C8}"/>
+    <hyperlink ref="C500" r:id="rId442" xr:uid="{1E1D3964-01E0-3145-ACFE-B6A5BF0EECB0}"/>
+    <hyperlink ref="C498" r:id="rId443" xr:uid="{FA0E5061-A7E2-C045-9671-1CD9446D1932}"/>
+    <hyperlink ref="C499" r:id="rId444" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{92704F5B-7B31-2F42-80DD-764B2206D9DB}"/>
+    <hyperlink ref="C375" r:id="rId445" xr:uid="{A48B1A24-83B1-7A4C-8129-CD37804DF849}"/>
+    <hyperlink ref="C156" r:id="rId446" xr:uid="{F0DDC999-C321-4AB4-BA9D-7538150E84D3}"/>
     <hyperlink ref="C9" r:id="rId447" xr:uid="{310D755F-0FAF-4086-8950-B58917F7CAF8}"/>
     <hyperlink ref="C8" r:id="rId448" xr:uid="{6913685B-862A-49D7-AB28-593B13669931}"/>
     <hyperlink ref="C10" r:id="rId449" xr:uid="{E2555AFC-8C22-4A69-A028-B6C7E7796509}"/>
@@ -8277,13 +8296,11 @@
     <hyperlink ref="C17" r:id="rId455" xr:uid="{87943FC1-A069-4989-8B78-B463D290AF94}"/>
     <hyperlink ref="C18" r:id="rId456" xr:uid="{D825528B-18AF-463A-AA31-760F76F78A15}"/>
     <hyperlink ref="C12" r:id="rId457" xr:uid="{027E7E1D-0C53-4A77-9662-F495CEC3BAC4}"/>
-    <hyperlink ref="C21" r:id="rId458" xr:uid="{394D268B-F042-4D5E-8945-7C021567FDBC}"/>
-    <hyperlink ref="C20" r:id="rId459" xr:uid="{A00A42BF-18C8-47DB-A23E-C835CF3A1B72}"/>
-    <hyperlink ref="C19" r:id="rId460" xr:uid="{B7A6DAE3-6E86-4612-A1FF-539F5C6D3E1D}"/>
-    <hyperlink ref="C26" r:id="rId461" xr:uid="{5221452B-37E3-4315-91B2-6A38CEBB1898}"/>
-    <hyperlink ref="C22" r:id="rId462" xr:uid="{5999B149-8599-449A-921E-18EC440B534F}"/>
+    <hyperlink ref="C19" r:id="rId458" xr:uid="{B7A6DAE3-6E86-4612-A1FF-539F5C6D3E1D}"/>
+    <hyperlink ref="C155" r:id="rId459" xr:uid="{5221452B-37E3-4315-91B2-6A38CEBB1898}"/>
+    <hyperlink ref="C24" r:id="rId460" xr:uid="{7C6054B7-B807-4475-B490-126A9686EBA2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId463"/>
+  <pageSetup orientation="portrait" r:id="rId461"/>
 </worksheet>
 </file>
--- a/DSA Sheet.xlsx
+++ b/DSA Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Java\Java-DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC0FC137-768A-44EE-9E7F-03462B584564}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD2FB50-E0EB-4651-88CF-6C6E23911B21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22140" windowHeight="13176" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1434" uniqueCount="511">
   <si>
     <t>Topic:</t>
   </si>
@@ -2031,8 +2031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:F500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A138" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="A157" sqref="A157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
@@ -2345,28 +2345,30 @@
       <c r="C24" s="11" t="s">
         <v>502</v>
       </c>
-      <c r="D24" s="3"/>
+      <c r="D24" s="3" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="3"/>
+      <c r="D25" s="4" t="s">
+        <v>466</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>466</v>
+        <v>8</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.4">
@@ -2374,10 +2376,10 @@
         <v>4</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>3</v>
@@ -2388,10 +2390,10 @@
         <v>4</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>3</v>
@@ -2402,10 +2404,10 @@
         <v>4</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>3</v>
@@ -2415,11 +2417,9 @@
       <c r="A30" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B30" s="10" t="s">
-        <v>510</v>
-      </c>
+      <c r="B30" s="10"/>
       <c r="C30" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>3</v>
@@ -2431,7 +2431,7 @@
       </c>
       <c r="B31" s="10"/>
       <c r="C31" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>3</v>
@@ -2443,7 +2443,7 @@
       </c>
       <c r="B32" s="10"/>
       <c r="C32" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>3</v>
@@ -2455,7 +2455,7 @@
       </c>
       <c r="B33" s="10"/>
       <c r="C33" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>3</v>
@@ -2467,7 +2467,7 @@
       </c>
       <c r="B34" s="10"/>
       <c r="C34" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>3</v>
@@ -2479,7 +2479,7 @@
       </c>
       <c r="B35" s="10"/>
       <c r="C35" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>3</v>
@@ -2491,7 +2491,7 @@
       </c>
       <c r="B36" s="10"/>
       <c r="C36" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>3</v>
@@ -2503,7 +2503,7 @@
       </c>
       <c r="B37" s="10"/>
       <c r="C37" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>3</v>
@@ -2515,7 +2515,7 @@
       </c>
       <c r="B38" s="10"/>
       <c r="C38" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>3</v>
@@ -2527,7 +2527,7 @@
       </c>
       <c r="B39" s="10"/>
       <c r="C39" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>3</v>
@@ -2539,7 +2539,7 @@
       </c>
       <c r="B40" s="10"/>
       <c r="C40" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>3</v>
@@ -2551,7 +2551,7 @@
       </c>
       <c r="B41" s="10"/>
       <c r="C41" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>3</v>
@@ -2563,7 +2563,7 @@
       </c>
       <c r="B42" s="10"/>
       <c r="C42" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>3</v>
@@ -2575,7 +2575,7 @@
       </c>
       <c r="B43" s="10"/>
       <c r="C43" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D43" s="8" t="s">
         <v>3</v>
@@ -2587,7 +2587,7 @@
       </c>
       <c r="B44" s="10"/>
       <c r="C44" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D44" s="8" t="s">
         <v>3</v>
@@ -2599,7 +2599,7 @@
       </c>
       <c r="B45" s="10"/>
       <c r="C45" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D45" s="8" t="s">
         <v>3</v>
@@ -2611,7 +2611,7 @@
       </c>
       <c r="B46" s="10"/>
       <c r="C46" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D46" s="8" t="s">
         <v>3</v>
@@ -2623,7 +2623,7 @@
       </c>
       <c r="B47" s="10"/>
       <c r="C47" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D47" s="8" t="s">
         <v>3</v>
@@ -2635,7 +2635,7 @@
       </c>
       <c r="B48" s="10"/>
       <c r="C48" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D48" s="8" t="s">
         <v>3</v>
@@ -2647,7 +2647,7 @@
       </c>
       <c r="B49" s="10"/>
       <c r="C49" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D49" s="8" t="s">
         <v>3</v>
@@ -2659,7 +2659,7 @@
       </c>
       <c r="B50" s="10"/>
       <c r="C50" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D50" s="8" t="s">
         <v>3</v>
@@ -2671,7 +2671,7 @@
       </c>
       <c r="B51" s="10"/>
       <c r="C51" s="11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D51" s="8" t="s">
         <v>3</v>
@@ -2683,7 +2683,7 @@
       </c>
       <c r="B52" s="10"/>
       <c r="C52" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D52" s="8" t="s">
         <v>3</v>
@@ -2695,7 +2695,7 @@
       </c>
       <c r="B53" s="10"/>
       <c r="C53" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>3</v>
@@ -2707,7 +2707,7 @@
       </c>
       <c r="B54" s="10"/>
       <c r="C54" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D54" s="8" t="s">
         <v>3</v>
@@ -2719,7 +2719,7 @@
       </c>
       <c r="B55" s="10"/>
       <c r="C55" s="11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D55" s="8" t="s">
         <v>3</v>
@@ -2731,7 +2731,7 @@
       </c>
       <c r="B56" s="10"/>
       <c r="C56" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D56" s="8" t="s">
         <v>3</v>
@@ -2743,7 +2743,7 @@
       </c>
       <c r="B57" s="10"/>
       <c r="C57" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D57" s="8" t="s">
         <v>3</v>
@@ -2755,32 +2755,32 @@
       </c>
       <c r="B58" s="10"/>
       <c r="C58" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D58" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A59" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B59" s="10"/>
-      <c r="C59" s="11" t="s">
-        <v>40</v>
-      </c>
       <c r="D59" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A60" s="10"/>
+      <c r="B60" s="10"/>
       <c r="D60" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A61" s="10"/>
-      <c r="B61" s="10"/>
+      <c r="A61" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B61" s="8"/>
+      <c r="C61" s="11" t="s">
+        <v>42</v>
+      </c>
       <c r="D61" s="8" t="s">
         <v>3</v>
       </c>
@@ -2791,7 +2791,7 @@
       </c>
       <c r="B62" s="8"/>
       <c r="C62" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D62" s="8" t="s">
         <v>3</v>
@@ -2803,7 +2803,7 @@
       </c>
       <c r="B63" s="8"/>
       <c r="C63" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D63" s="8" t="s">
         <v>3</v>
@@ -2815,7 +2815,7 @@
       </c>
       <c r="B64" s="8"/>
       <c r="C64" s="11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D64" s="8" t="s">
         <v>3</v>
@@ -2827,7 +2827,7 @@
       </c>
       <c r="B65" s="8"/>
       <c r="C65" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D65" s="8" t="s">
         <v>3</v>
@@ -2839,7 +2839,7 @@
       </c>
       <c r="B66" s="8"/>
       <c r="C66" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D66" s="8" t="s">
         <v>3</v>
@@ -2851,7 +2851,7 @@
       </c>
       <c r="B67" s="8"/>
       <c r="C67" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D67" s="8" t="s">
         <v>3</v>
@@ -2863,7 +2863,7 @@
       </c>
       <c r="B68" s="8"/>
       <c r="C68" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D68" s="8" t="s">
         <v>3</v>
@@ -2875,7 +2875,7 @@
       </c>
       <c r="B69" s="8"/>
       <c r="C69" s="11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D69" s="8" t="s">
         <v>3</v>
@@ -2887,28 +2887,28 @@
       </c>
       <c r="B70" s="8"/>
       <c r="C70" s="11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D70" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A71" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B71" s="8"/>
-      <c r="C71" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D71" s="8" t="s">
-        <v>3</v>
-      </c>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A72" s="10"/>
+      <c r="B72" s="10"/>
+      <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A73" s="10"/>
+      <c r="A73" s="10" t="s">
+        <v>52</v>
+      </c>
       <c r="B73" s="10"/>
-      <c r="D73" s="8"/>
+      <c r="C73" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A74" s="10" t="s">
@@ -2916,7 +2916,7 @@
       </c>
       <c r="B74" s="10"/>
       <c r="C74" s="11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D74" s="8" t="s">
         <v>3</v>
@@ -2928,7 +2928,7 @@
       </c>
       <c r="B75" s="10"/>
       <c r="C75" s="11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D75" s="8" t="s">
         <v>3</v>
@@ -2939,8 +2939,8 @@
         <v>52</v>
       </c>
       <c r="B76" s="10"/>
-      <c r="C76" s="11" t="s">
-        <v>55</v>
+      <c r="C76" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="D76" s="8" t="s">
         <v>3</v>
@@ -2951,8 +2951,8 @@
         <v>52</v>
       </c>
       <c r="B77" s="10"/>
-      <c r="C77" s="6" t="s">
-        <v>56</v>
+      <c r="C77" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="D77" s="8" t="s">
         <v>3</v>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="B78" s="10"/>
       <c r="C78" s="11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D78" s="8" t="s">
         <v>3</v>
@@ -2976,7 +2976,7 @@
       </c>
       <c r="B79" s="10"/>
       <c r="C79" s="11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D79" s="8" t="s">
         <v>3</v>
@@ -2988,7 +2988,7 @@
       </c>
       <c r="B80" s="10"/>
       <c r="C80" s="11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D80" s="8" t="s">
         <v>3</v>
@@ -3000,7 +3000,7 @@
       </c>
       <c r="B81" s="10"/>
       <c r="C81" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D81" s="8" t="s">
         <v>3</v>
@@ -3012,7 +3012,7 @@
       </c>
       <c r="B82" s="10"/>
       <c r="C82" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D82" s="8" t="s">
         <v>3</v>
@@ -3024,7 +3024,7 @@
       </c>
       <c r="B83" s="10"/>
       <c r="C83" s="11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D83" s="8" t="s">
         <v>3</v>
@@ -3036,7 +3036,7 @@
       </c>
       <c r="B84" s="10"/>
       <c r="C84" s="11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D84" s="8" t="s">
         <v>3</v>
@@ -3048,7 +3048,7 @@
       </c>
       <c r="B85" s="10"/>
       <c r="C85" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D85" s="8" t="s">
         <v>3</v>
@@ -3060,7 +3060,7 @@
       </c>
       <c r="B86" s="10"/>
       <c r="C86" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D86" s="8" t="s">
         <v>3</v>
@@ -3072,7 +3072,7 @@
       </c>
       <c r="B87" s="10"/>
       <c r="C87" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D87" s="8" t="s">
         <v>3</v>
@@ -3084,7 +3084,7 @@
       </c>
       <c r="B88" s="10"/>
       <c r="C88" s="11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D88" s="8" t="s">
         <v>3</v>
@@ -3096,7 +3096,7 @@
       </c>
       <c r="B89" s="10"/>
       <c r="C89" s="11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D89" s="8" t="s">
         <v>3</v>
@@ -3108,7 +3108,7 @@
       </c>
       <c r="B90" s="10"/>
       <c r="C90" s="11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D90" s="8" t="s">
         <v>3</v>
@@ -3120,7 +3120,7 @@
       </c>
       <c r="B91" s="10"/>
       <c r="C91" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D91" s="8" t="s">
         <v>3</v>
@@ -3132,7 +3132,7 @@
       </c>
       <c r="B92" s="10"/>
       <c r="C92" s="11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D92" s="8" t="s">
         <v>3</v>
@@ -3144,7 +3144,7 @@
       </c>
       <c r="B93" s="10"/>
       <c r="C93" s="11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D93" s="8" t="s">
         <v>3</v>
@@ -3156,7 +3156,7 @@
       </c>
       <c r="B94" s="10"/>
       <c r="C94" s="11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D94" s="8" t="s">
         <v>3</v>
@@ -3168,7 +3168,7 @@
       </c>
       <c r="B95" s="10"/>
       <c r="C95" s="11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D95" s="8" t="s">
         <v>3</v>
@@ -3180,7 +3180,7 @@
       </c>
       <c r="B96" s="10"/>
       <c r="C96" s="11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D96" s="8" t="s">
         <v>3</v>
@@ -3192,7 +3192,7 @@
       </c>
       <c r="B97" s="10"/>
       <c r="C97" s="11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D97" s="8" t="s">
         <v>3</v>
@@ -3204,7 +3204,7 @@
       </c>
       <c r="B98" s="10"/>
       <c r="C98" s="11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D98" s="8" t="s">
         <v>3</v>
@@ -3216,7 +3216,7 @@
       </c>
       <c r="B99" s="10"/>
       <c r="C99" s="11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D99" s="8" t="s">
         <v>3</v>
@@ -3228,7 +3228,7 @@
       </c>
       <c r="B100" s="10"/>
       <c r="C100" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D100" s="8" t="s">
         <v>3</v>
@@ -3240,7 +3240,7 @@
       </c>
       <c r="B101" s="10"/>
       <c r="C101" s="11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D101" s="8" t="s">
         <v>3</v>
@@ -3252,7 +3252,7 @@
       </c>
       <c r="B102" s="10"/>
       <c r="C102" s="11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D102" s="8" t="s">
         <v>3</v>
@@ -3264,7 +3264,7 @@
       </c>
       <c r="B103" s="10"/>
       <c r="C103" s="11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D103" s="8" t="s">
         <v>3</v>
@@ -3276,7 +3276,7 @@
       </c>
       <c r="B104" s="10"/>
       <c r="C104" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D104" s="8" t="s">
         <v>3</v>
@@ -3288,7 +3288,7 @@
       </c>
       <c r="B105" s="10"/>
       <c r="C105" s="11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D105" s="8" t="s">
         <v>3</v>
@@ -3300,7 +3300,7 @@
       </c>
       <c r="B106" s="10"/>
       <c r="C106" s="11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D106" s="8" t="s">
         <v>3</v>
@@ -3312,7 +3312,7 @@
       </c>
       <c r="B107" s="10"/>
       <c r="C107" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D107" s="8" t="s">
         <v>3</v>
@@ -3324,7 +3324,7 @@
       </c>
       <c r="B108" s="10"/>
       <c r="C108" s="11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D108" s="8" t="s">
         <v>3</v>
@@ -3336,7 +3336,7 @@
       </c>
       <c r="B109" s="10"/>
       <c r="C109" s="11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D109" s="8" t="s">
         <v>3</v>
@@ -3348,7 +3348,7 @@
       </c>
       <c r="B110" s="10"/>
       <c r="C110" s="11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D110" s="8" t="s">
         <v>3</v>
@@ -3360,7 +3360,7 @@
       </c>
       <c r="B111" s="10"/>
       <c r="C111" s="11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D111" s="8" t="s">
         <v>3</v>
@@ -3372,7 +3372,7 @@
       </c>
       <c r="B112" s="10"/>
       <c r="C112" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D112" s="8" t="s">
         <v>3</v>
@@ -3384,7 +3384,7 @@
       </c>
       <c r="B113" s="10"/>
       <c r="C113" s="11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D113" s="8" t="s">
         <v>3</v>
@@ -3396,7 +3396,7 @@
       </c>
       <c r="B114" s="10"/>
       <c r="C114" s="11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D114" s="8" t="s">
         <v>3</v>
@@ -3408,28 +3408,28 @@
       </c>
       <c r="B115" s="10"/>
       <c r="C115" s="11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D115" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A116" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B116" s="10"/>
-      <c r="C116" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="D116" s="8" t="s">
-        <v>3</v>
-      </c>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A117" s="8"/>
+      <c r="B117" s="8"/>
+      <c r="D117" s="8"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A118" s="8"/>
-      <c r="B118" s="8"/>
-      <c r="D118" s="8"/>
+      <c r="A118" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B118" s="10"/>
+      <c r="C118" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D118" s="8" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A119" s="10" t="s">
@@ -3437,7 +3437,7 @@
       </c>
       <c r="B119" s="10"/>
       <c r="C119" s="11" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D119" s="8" t="s">
         <v>3</v>
@@ -3449,7 +3449,7 @@
       </c>
       <c r="B120" s="10"/>
       <c r="C120" s="11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D120" s="8" t="s">
         <v>3</v>
@@ -3461,7 +3461,7 @@
       </c>
       <c r="B121" s="10"/>
       <c r="C121" s="11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D121" s="8" t="s">
         <v>3</v>
@@ -3473,7 +3473,7 @@
       </c>
       <c r="B122" s="10"/>
       <c r="C122" s="11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D122" s="8" t="s">
         <v>3</v>
@@ -3485,7 +3485,7 @@
       </c>
       <c r="B123" s="10"/>
       <c r="C123" s="11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D123" s="8" t="s">
         <v>3</v>
@@ -3497,7 +3497,7 @@
       </c>
       <c r="B124" s="10"/>
       <c r="C124" s="11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D124" s="8" t="s">
         <v>3</v>
@@ -3509,7 +3509,7 @@
       </c>
       <c r="B125" s="10"/>
       <c r="C125" s="11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D125" s="8" t="s">
         <v>3</v>
@@ -3521,7 +3521,7 @@
       </c>
       <c r="B126" s="10"/>
       <c r="C126" s="11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D126" s="8" t="s">
         <v>3</v>
@@ -3533,7 +3533,7 @@
       </c>
       <c r="B127" s="10"/>
       <c r="C127" s="11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D127" s="8" t="s">
         <v>3</v>
@@ -3545,7 +3545,7 @@
       </c>
       <c r="B128" s="10"/>
       <c r="C128" s="11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D128" s="8" t="s">
         <v>3</v>
@@ -3557,7 +3557,7 @@
       </c>
       <c r="B129" s="10"/>
       <c r="C129" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D129" s="8" t="s">
         <v>3</v>
@@ -3569,7 +3569,7 @@
       </c>
       <c r="B130" s="10"/>
       <c r="C130" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D130" s="8" t="s">
         <v>3</v>
@@ -3581,7 +3581,7 @@
       </c>
       <c r="B131" s="10"/>
       <c r="C131" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D131" s="8" t="s">
         <v>3</v>
@@ -3593,7 +3593,7 @@
       </c>
       <c r="B132" s="10"/>
       <c r="C132" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D132" s="8" t="s">
         <v>3</v>
@@ -3605,7 +3605,7 @@
       </c>
       <c r="B133" s="10"/>
       <c r="C133" s="11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D133" s="8" t="s">
         <v>3</v>
@@ -3617,7 +3617,7 @@
       </c>
       <c r="B134" s="10"/>
       <c r="C134" s="11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D134" s="8" t="s">
         <v>3</v>
@@ -3629,7 +3629,7 @@
       </c>
       <c r="B135" s="10"/>
       <c r="C135" s="11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D135" s="8" t="s">
         <v>3</v>
@@ -3641,7 +3641,7 @@
       </c>
       <c r="B136" s="10"/>
       <c r="C136" s="11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D136" s="8" t="s">
         <v>3</v>
@@ -3653,7 +3653,7 @@
       </c>
       <c r="B137" s="10"/>
       <c r="C137" s="11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D137" s="8" t="s">
         <v>3</v>
@@ -3665,7 +3665,7 @@
       </c>
       <c r="B138" s="10"/>
       <c r="C138" s="11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D138" s="8" t="s">
         <v>3</v>
@@ -3677,7 +3677,7 @@
       </c>
       <c r="B139" s="10"/>
       <c r="C139" s="11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D139" s="8" t="s">
         <v>3</v>
@@ -3689,7 +3689,7 @@
       </c>
       <c r="B140" s="10"/>
       <c r="C140" s="11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D140" s="8" t="s">
         <v>3</v>
@@ -3701,7 +3701,7 @@
       </c>
       <c r="B141" s="10"/>
       <c r="C141" s="11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D141" s="8" t="s">
         <v>3</v>
@@ -3713,7 +3713,7 @@
       </c>
       <c r="B142" s="10"/>
       <c r="C142" s="11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D142" s="8" t="s">
         <v>3</v>
@@ -3725,7 +3725,7 @@
       </c>
       <c r="B143" s="10"/>
       <c r="C143" s="11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D143" s="8" t="s">
         <v>3</v>
@@ -3737,7 +3737,7 @@
       </c>
       <c r="B144" s="10"/>
       <c r="C144" s="11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D144" s="8" t="s">
         <v>3</v>
@@ -3749,7 +3749,7 @@
       </c>
       <c r="B145" s="10"/>
       <c r="C145" s="11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D145" s="8" t="s">
         <v>3</v>
@@ -3761,7 +3761,7 @@
       </c>
       <c r="B146" s="10"/>
       <c r="C146" s="11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D146" s="8" t="s">
         <v>3</v>
@@ -3773,7 +3773,7 @@
       </c>
       <c r="B147" s="10"/>
       <c r="C147" s="11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D147" s="8" t="s">
         <v>3</v>
@@ -3785,7 +3785,7 @@
       </c>
       <c r="B148" s="10"/>
       <c r="C148" s="11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D148" s="8" t="s">
         <v>3</v>
@@ -3797,7 +3797,7 @@
       </c>
       <c r="B149" s="10"/>
       <c r="C149" s="11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D149" s="8" t="s">
         <v>3</v>
@@ -3809,7 +3809,7 @@
       </c>
       <c r="B150" s="10"/>
       <c r="C150" s="11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D150" s="8" t="s">
         <v>3</v>
@@ -3821,7 +3821,7 @@
       </c>
       <c r="B151" s="10"/>
       <c r="C151" s="11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D151" s="8" t="s">
         <v>3</v>
@@ -3833,7 +3833,7 @@
       </c>
       <c r="B152" s="10"/>
       <c r="C152" s="11" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D152" s="8" t="s">
         <v>3</v>
@@ -3845,7 +3845,7 @@
       </c>
       <c r="B153" s="10"/>
       <c r="C153" s="11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D153" s="8" t="s">
         <v>3</v>
@@ -3855,12 +3855,14 @@
       <c r="A154" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B154" s="10"/>
+      <c r="B154" s="10" t="s">
+        <v>488</v>
+      </c>
       <c r="C154" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="D154" s="8" t="s">
-        <v>3</v>
+        <v>490</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.4">
@@ -3868,10 +3870,10 @@
         <v>96</v>
       </c>
       <c r="B155" s="10" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C155" s="11" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D155" s="3" t="s">
         <v>465</v>
@@ -3882,14 +3884,12 @@
         <v>96</v>
       </c>
       <c r="B156" s="10" t="s">
-        <v>487</v>
+        <v>506</v>
       </c>
       <c r="C156" s="11" t="s">
-        <v>489</v>
-      </c>
-      <c r="D156" s="3" t="s">
-        <v>465</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D156" s="14"/>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A157" s="10"/>
@@ -7841,128 +7841,128 @@
   <hyperlinks>
     <hyperlink ref="C22" r:id="rId1" xr:uid="{9492A4AD-FA44-BA4B-B154-E4DBB1951162}"/>
     <hyperlink ref="C23" r:id="rId2" xr:uid="{2D6F1134-3C08-7445-B19A-9B94A18B55C7}"/>
-    <hyperlink ref="C26" r:id="rId3" xr:uid="{E5A98931-37E8-6B4A-90BE-8DC72405341A}"/>
-    <hyperlink ref="C27" r:id="rId4" xr:uid="{02736918-E09F-7A46-90B3-AFCC33AA559B}"/>
-    <hyperlink ref="C28" r:id="rId5" xr:uid="{6E8DD30A-A9F9-4C44-B26C-C9E236F10798}"/>
-    <hyperlink ref="C29" r:id="rId6" xr:uid="{0D55765B-95A7-154F-96F3-B7E4C581021F}"/>
-    <hyperlink ref="C30" r:id="rId7" xr:uid="{6F687ABA-C04B-AF4F-9F11-A038DCB20FB9}"/>
-    <hyperlink ref="C31" r:id="rId8" xr:uid="{11C9D8CC-9F1E-004E-8EC2-C758DC9C8CAB}"/>
-    <hyperlink ref="C32" r:id="rId9" xr:uid="{56E4962F-CB3D-9E48-A26E-19A1F5C800C9}"/>
-    <hyperlink ref="C33" r:id="rId10" xr:uid="{899DDBD9-9ED6-3A4D-8AFE-8FAA6DA88DBC}"/>
-    <hyperlink ref="C34" r:id="rId11" xr:uid="{76D41EAC-A28A-2845-8515-CA3C70D823B7}"/>
-    <hyperlink ref="C35" r:id="rId12" xr:uid="{828948BE-DD97-DE4A-BAD6-B415E29198F0}"/>
-    <hyperlink ref="C36" r:id="rId13" xr:uid="{E98C86AA-12E7-124C-B7D0-BCDFB246040B}"/>
-    <hyperlink ref="C37" r:id="rId14" xr:uid="{192741A9-FF68-DC4A-99FA-69F9968AB4F2}"/>
-    <hyperlink ref="C38" r:id="rId15" xr:uid="{DBD9BA9C-91C6-B144-A800-DCB3BED33DE7}"/>
-    <hyperlink ref="C39" r:id="rId16" xr:uid="{A285BDE8-00E7-A94C-8E43-A0C4829D42FA}"/>
-    <hyperlink ref="C40" r:id="rId17" xr:uid="{B0C21764-2962-1649-8AFA-10FB9420C5FC}"/>
-    <hyperlink ref="C41" r:id="rId18" xr:uid="{9282CC15-9B38-E54B-B64C-557745C9C00A}"/>
-    <hyperlink ref="C42" r:id="rId19" xr:uid="{3BCCEBE2-AC3B-AC4F-8BA9-439ACEA133D4}"/>
-    <hyperlink ref="C43" r:id="rId20" xr:uid="{74F8D761-6EBF-594A-A6C7-40DE4CE96958}"/>
-    <hyperlink ref="C44" r:id="rId21" xr:uid="{79947FE6-D417-D644-81D8-D058180550A0}"/>
-    <hyperlink ref="C45" r:id="rId22" xr:uid="{2BF3F606-410B-264D-BF60-191C34D616BB}"/>
-    <hyperlink ref="C46" r:id="rId23" xr:uid="{CD98DB26-0F2F-FD40-A989-53FE548D7D34}"/>
-    <hyperlink ref="C47" r:id="rId24" xr:uid="{307032A1-F8EF-1A48-BFE3-EA3283D39BE2}"/>
-    <hyperlink ref="C48" r:id="rId25" xr:uid="{AA329F36-941A-9241-9402-9D220B05E719}"/>
-    <hyperlink ref="C49" r:id="rId26" xr:uid="{9E851DAC-0E30-B340-84F9-721D70B66919}"/>
-    <hyperlink ref="C50" r:id="rId27" xr:uid="{468380BA-4978-A645-ABD0-E74FD3E6BDBB}"/>
-    <hyperlink ref="C51" r:id="rId28" xr:uid="{289E6890-8CCB-D645-9B3F-6138FFC1C249}"/>
-    <hyperlink ref="C52" r:id="rId29" xr:uid="{8EABDC68-858F-784A-A8F1-C603E3B8C1FE}"/>
-    <hyperlink ref="C53" r:id="rId30" xr:uid="{6157E427-1210-3F45-A4DC-6DFD2373B9CF}"/>
-    <hyperlink ref="C54" r:id="rId31" xr:uid="{2D7BA55E-9947-FF4D-BC09-FB4A5ADA07EC}"/>
-    <hyperlink ref="C55" r:id="rId32" xr:uid="{3337C74F-8B73-E64E-A6DA-5D9F7C7B4D32}"/>
-    <hyperlink ref="C56" r:id="rId33" xr:uid="{02370124-E58D-B540-BBCF-98266229556D}"/>
-    <hyperlink ref="C57" r:id="rId34" xr:uid="{F2DE2162-BD02-7549-AC1A-27455F78131F}"/>
-    <hyperlink ref="C58" r:id="rId35" xr:uid="{6FA286B9-3994-624D-B0B8-C01657D110AD}"/>
-    <hyperlink ref="C59" r:id="rId36" xr:uid="{6EFBEDA1-5C10-2547-8FB2-44E977513B28}"/>
-    <hyperlink ref="C62" r:id="rId37" xr:uid="{090EC515-BEBE-514E-BA59-A84E450B4211}"/>
-    <hyperlink ref="C63" r:id="rId38" xr:uid="{0A0557FD-77E5-564B-B100-147D544A38B4}"/>
-    <hyperlink ref="C64" r:id="rId39" xr:uid="{3F82F2E0-AA59-5042-B079-F3B3C6FF2FD7}"/>
-    <hyperlink ref="C65" r:id="rId40" xr:uid="{FFF7D257-1F58-5A4B-AAA2-F5480AED86C7}"/>
-    <hyperlink ref="C66" r:id="rId41" xr:uid="{353E28FA-E36D-7447-9DE8-787DF11C4669}"/>
-    <hyperlink ref="C67" r:id="rId42" xr:uid="{F9B53127-FC98-FE43-B53F-BFDBCE2A4427}"/>
-    <hyperlink ref="C68" r:id="rId43" xr:uid="{40685BBC-CE24-624E-9ABB-98490B7DE0E4}"/>
-    <hyperlink ref="C69" r:id="rId44" xr:uid="{7733D505-2EC7-E346-B3DA-C980C7CE0B27}"/>
-    <hyperlink ref="C70" r:id="rId45" xr:uid="{E8C1FE00-7B4B-5745-8E4B-CD44B6C749E3}"/>
-    <hyperlink ref="C71" r:id="rId46" xr:uid="{FDE181B1-57B0-7C4B-A189-C7C6E4EAEF99}"/>
-    <hyperlink ref="C74" r:id="rId47" xr:uid="{FE85FD72-4FC9-334E-8205-9E8B238954EB}"/>
-    <hyperlink ref="C75" r:id="rId48" xr:uid="{7630AD76-7E6B-8C4A-BA33-A62EBB042215}"/>
-    <hyperlink ref="C76" r:id="rId49" xr:uid="{2A738B70-CBF0-CC40-8B05-A271822B3F1A}"/>
-    <hyperlink ref="C78" r:id="rId50" xr:uid="{B2DE2D9E-8371-CD44-9D0D-4D6DC64AC29B}"/>
-    <hyperlink ref="C79" r:id="rId51" xr:uid="{265DCD11-17A0-654E-BEFE-FABA31210C6E}"/>
-    <hyperlink ref="C80" r:id="rId52" xr:uid="{47F1BB0C-0C5C-0845-8EEC-1560C50D7DA7}"/>
-    <hyperlink ref="C81" r:id="rId53" xr:uid="{8E0BFA2E-CCB4-514F-86CD-78176C6CC98A}"/>
-    <hyperlink ref="C82" r:id="rId54" xr:uid="{E4DEFB4B-749F-8746-97C7-F2B433664A74}"/>
-    <hyperlink ref="C83" r:id="rId55" xr:uid="{8301BDBD-EB7E-7D41-A777-ED99C3F9D67D}"/>
-    <hyperlink ref="C84" r:id="rId56" xr:uid="{927AE532-647F-AF4C-A567-40ADA6FCE534}"/>
-    <hyperlink ref="C85" r:id="rId57" xr:uid="{05489F52-CC92-EC44-9AD3-773DEC3B1D36}"/>
-    <hyperlink ref="C86" r:id="rId58" xr:uid="{13025DF6-C30E-014A-B66C-68C4AAAC1C6E}"/>
-    <hyperlink ref="C87" r:id="rId59" xr:uid="{BEE1F613-C189-B949-A225-0E0C5AFD1532}"/>
-    <hyperlink ref="C88" r:id="rId60" xr:uid="{1DFECD6C-D7CC-0340-B29B-4D56E50711E5}"/>
-    <hyperlink ref="C89" r:id="rId61" xr:uid="{70BED156-B004-E043-BF7D-59EFAA9EADAF}"/>
-    <hyperlink ref="C90" r:id="rId62" xr:uid="{FF9CBAFB-900E-E242-8B33-EDF46F0F40B5}"/>
-    <hyperlink ref="C91" r:id="rId63" xr:uid="{19461114-B3E8-9042-8029-100010946A04}"/>
-    <hyperlink ref="C92" r:id="rId64" xr:uid="{00F71118-E30B-A84E-819E-FFA902C70502}"/>
-    <hyperlink ref="C93" r:id="rId65" xr:uid="{58E70966-BBE0-7743-A250-AE4DD57807DE}"/>
-    <hyperlink ref="C94" r:id="rId66" xr:uid="{09409FE3-9D7E-4F43-BB21-14A1B8D6E480}"/>
-    <hyperlink ref="C95" r:id="rId67" xr:uid="{E199A3DC-3DA1-C648-93C0-DF9CD5331204}"/>
-    <hyperlink ref="C96" r:id="rId68" xr:uid="{85886847-1510-AA46-B10C-F3D80591DD74}"/>
-    <hyperlink ref="C97" r:id="rId69" xr:uid="{F60808FC-F09D-FC44-B2DD-752E55A1C698}"/>
-    <hyperlink ref="C98" r:id="rId70" xr:uid="{16B2725E-1AD5-0441-9B5B-B6B2F458091B}"/>
-    <hyperlink ref="C99" r:id="rId71" xr:uid="{8440D753-5DE9-3243-97C2-C09D195C325F}"/>
-    <hyperlink ref="C100" r:id="rId72" xr:uid="{AC63A963-B6CC-6E4E-B72A-7F472BC4C027}"/>
-    <hyperlink ref="C101" r:id="rId73" xr:uid="{B21B87F1-A0C0-7F4E-B36F-912B871D0EF4}"/>
-    <hyperlink ref="C102" r:id="rId74" xr:uid="{789FFFAC-8B7E-0540-98B8-856430EB56F8}"/>
-    <hyperlink ref="C103" r:id="rId75" xr:uid="{4A0E959E-22F4-6948-A819-76FE76AB9F6D}"/>
-    <hyperlink ref="C104" r:id="rId76" xr:uid="{78B76678-D8EE-9745-98B1-DF7A76EA3B10}"/>
-    <hyperlink ref="C105" r:id="rId77" xr:uid="{62982242-1D19-1544-8653-8E25E9BF4505}"/>
-    <hyperlink ref="C106" r:id="rId78" xr:uid="{8E3D4BDF-9F8F-0542-BFD8-C3CE3BF396E6}"/>
-    <hyperlink ref="C107" r:id="rId79" xr:uid="{A3D51762-65A1-9A44-B619-D1D98A7F403B}"/>
-    <hyperlink ref="C108" r:id="rId80" xr:uid="{ED0F5FC7-0066-EB44-8FCF-460600DADB02}"/>
-    <hyperlink ref="C109" r:id="rId81" xr:uid="{2D956AC4-4774-7446-8473-C4CE00E33C17}"/>
-    <hyperlink ref="C110" r:id="rId82" xr:uid="{C8C607BB-1FEE-FA47-9E3E-6C0BCE978B7F}"/>
-    <hyperlink ref="C111" r:id="rId83" xr:uid="{B9AC5194-6D36-684A-A5C4-BEE11037599F}"/>
-    <hyperlink ref="C112" r:id="rId84" xr:uid="{AB28D9E6-890C-F14A-A5FB-2303BE319968}"/>
-    <hyperlink ref="C113" r:id="rId85" xr:uid="{1F507CBC-4056-AD46-9314-95ECBB9D799D}"/>
-    <hyperlink ref="C114" r:id="rId86" xr:uid="{F152A9AF-5CBA-EC44-A9CF-07AB481435AB}"/>
-    <hyperlink ref="C115" r:id="rId87" xr:uid="{346CA74F-60B7-0A4B-A612-9184D4DCFF62}"/>
-    <hyperlink ref="C116" r:id="rId88" xr:uid="{8C653CB1-4954-754F-8D46-F09141A2FCDB}"/>
-    <hyperlink ref="C119" r:id="rId89" xr:uid="{5989F693-2A61-A346-8395-8674307A4CC2}"/>
-    <hyperlink ref="C120" r:id="rId90" xr:uid="{3AD10C9E-4F6D-DE48-92F3-531A586520C6}"/>
-    <hyperlink ref="C121" r:id="rId91" xr:uid="{4FA217C0-A1F3-904E-8FEA-EA4941273A67}"/>
-    <hyperlink ref="C122" r:id="rId92" xr:uid="{A297BBC0-FA0D-2D46-9C49-3932193EF1D3}"/>
-    <hyperlink ref="C124" r:id="rId93" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance." xr:uid="{DCD751DE-E440-F346-B6FD-CBD072217214}"/>
-    <hyperlink ref="C125" r:id="rId94" xr:uid="{B2FD38B9-1E2B-8140-8291-F45734C98145}"/>
-    <hyperlink ref="C126" r:id="rId95" xr:uid="{C76888B3-18AC-9B48-9E2A-64A7DF0902B7}"/>
-    <hyperlink ref="C127" r:id="rId96" xr:uid="{18A79860-6C9E-A941-8D6C-360B9913E941}"/>
-    <hyperlink ref="C128" r:id="rId97" xr:uid="{C0DDFD68-CBC1-0F4A-AF40-ACF36BBC8453}"/>
-    <hyperlink ref="C129" r:id="rId98" xr:uid="{3E0BF737-E42E-C946-B32C-06882E0BA6FF}"/>
-    <hyperlink ref="C131" r:id="rId99" xr:uid="{862F9782-C57B-2848-A2D9-EB7B52FB7EC7}"/>
-    <hyperlink ref="C132" r:id="rId100" xr:uid="{230D7A6A-D2C5-C140-9A65-B1F407D22062}"/>
-    <hyperlink ref="C133" r:id="rId101" xr:uid="{BDC2BA28-4562-984E-8282-1126BF952EAF}"/>
-    <hyperlink ref="C134" r:id="rId102" xr:uid="{B53A5F28-6DED-3D47-8679-F78D3DDEFF01}"/>
-    <hyperlink ref="C135" r:id="rId103" xr:uid="{C57D0CC7-DA2F-0948-9BCE-F19C20C7D981}"/>
-    <hyperlink ref="C136" r:id="rId104" xr:uid="{117878E5-B8C8-254B-8ED6-014B4B7A8126}"/>
-    <hyperlink ref="C137" r:id="rId105" xr:uid="{B7CC0756-74F2-D54D-BDEE-9DA394DD7168}"/>
-    <hyperlink ref="C138" r:id="rId106" xr:uid="{837EF472-CCC2-CF47-A8A8-238E56F722CE}"/>
-    <hyperlink ref="C139" r:id="rId107" xr:uid="{3608F267-6AA0-624B-B243-7DDD317E9F08}"/>
-    <hyperlink ref="C140" r:id="rId108" xr:uid="{0B6123E6-0472-374B-ACA7-6914CD7918E8}"/>
-    <hyperlink ref="C141" r:id="rId109" xr:uid="{D3971CEB-C53E-B04B-9C32-1803182B5DC5}"/>
-    <hyperlink ref="C142" r:id="rId110" xr:uid="{7CF5013A-643E-1643-93A1-A2F1500D2A23}"/>
-    <hyperlink ref="C143" r:id="rId111" xr:uid="{2A6BE7E5-D818-6843-8C3E-99EA2BFE0FB2}"/>
-    <hyperlink ref="C144" r:id="rId112" xr:uid="{E718F544-96DF-A04E-8DFB-7639DA3EA57C}"/>
-    <hyperlink ref="C145" r:id="rId113" xr:uid="{B0C2F065-424A-7345-A864-346ECD98D749}"/>
-    <hyperlink ref="C146" r:id="rId114" xr:uid="{B4E26955-5C3F-804E-B19A-11260310AFB3}"/>
-    <hyperlink ref="C147" r:id="rId115" xr:uid="{6F299BB5-8E82-0240-A9A3-6829CE3ABCBF}"/>
-    <hyperlink ref="C148" r:id="rId116" xr:uid="{A42CA32F-2196-1840-A53D-E5073237C68D}"/>
-    <hyperlink ref="C149" r:id="rId117" xr:uid="{7ECF6EF4-962E-4642-9B1C-C3B70674793E}"/>
-    <hyperlink ref="C150" r:id="rId118" xr:uid="{2A109178-6B60-164E-9D25-42B3282137E3}"/>
-    <hyperlink ref="C151" r:id="rId119" xr:uid="{B3D38BD0-A6A1-8D41-8405-45E1BEEEEF06}"/>
-    <hyperlink ref="C152" r:id="rId120" xr:uid="{A1C26612-D040-2A41-A6A6-A8F2490C0A43}"/>
-    <hyperlink ref="C153" r:id="rId121" xr:uid="{C476E807-64CB-F44A-A23D-D21EBF6D001D}"/>
-    <hyperlink ref="C154" r:id="rId122" xr:uid="{9A414D55-D4A1-F147-9207-61B597D57136}"/>
-    <hyperlink ref="C123" r:id="rId123" xr:uid="{18B028A7-9B6F-D841-8548-924D70530779}"/>
-    <hyperlink ref="C130" r:id="rId124" xr:uid="{6D3E75EF-733F-7A4B-81C8-AEF6CB6335F0}"/>
+    <hyperlink ref="C156" r:id="rId3" xr:uid="{E5A98931-37E8-6B4A-90BE-8DC72405341A}"/>
+    <hyperlink ref="C26" r:id="rId4" xr:uid="{02736918-E09F-7A46-90B3-AFCC33AA559B}"/>
+    <hyperlink ref="C27" r:id="rId5" xr:uid="{6E8DD30A-A9F9-4C44-B26C-C9E236F10798}"/>
+    <hyperlink ref="C28" r:id="rId6" xr:uid="{0D55765B-95A7-154F-96F3-B7E4C581021F}"/>
+    <hyperlink ref="C29" r:id="rId7" xr:uid="{6F687ABA-C04B-AF4F-9F11-A038DCB20FB9}"/>
+    <hyperlink ref="C30" r:id="rId8" xr:uid="{11C9D8CC-9F1E-004E-8EC2-C758DC9C8CAB}"/>
+    <hyperlink ref="C31" r:id="rId9" xr:uid="{56E4962F-CB3D-9E48-A26E-19A1F5C800C9}"/>
+    <hyperlink ref="C32" r:id="rId10" xr:uid="{899DDBD9-9ED6-3A4D-8AFE-8FAA6DA88DBC}"/>
+    <hyperlink ref="C33" r:id="rId11" xr:uid="{76D41EAC-A28A-2845-8515-CA3C70D823B7}"/>
+    <hyperlink ref="C34" r:id="rId12" xr:uid="{828948BE-DD97-DE4A-BAD6-B415E29198F0}"/>
+    <hyperlink ref="C35" r:id="rId13" xr:uid="{E98C86AA-12E7-124C-B7D0-BCDFB246040B}"/>
+    <hyperlink ref="C36" r:id="rId14" xr:uid="{192741A9-FF68-DC4A-99FA-69F9968AB4F2}"/>
+    <hyperlink ref="C37" r:id="rId15" xr:uid="{DBD9BA9C-91C6-B144-A800-DCB3BED33DE7}"/>
+    <hyperlink ref="C38" r:id="rId16" xr:uid="{A285BDE8-00E7-A94C-8E43-A0C4829D42FA}"/>
+    <hyperlink ref="C39" r:id="rId17" xr:uid="{B0C21764-2962-1649-8AFA-10FB9420C5FC}"/>
+    <hyperlink ref="C40" r:id="rId18" xr:uid="{9282CC15-9B38-E54B-B64C-557745C9C00A}"/>
+    <hyperlink ref="C41" r:id="rId19" xr:uid="{3BCCEBE2-AC3B-AC4F-8BA9-439ACEA133D4}"/>
+    <hyperlink ref="C42" r:id="rId20" xr:uid="{74F8D761-6EBF-594A-A6C7-40DE4CE96958}"/>
+    <hyperlink ref="C43" r:id="rId21" xr:uid="{79947FE6-D417-D644-81D8-D058180550A0}"/>
+    <hyperlink ref="C44" r:id="rId22" xr:uid="{2BF3F606-410B-264D-BF60-191C34D616BB}"/>
+    <hyperlink ref="C45" r:id="rId23" xr:uid="{CD98DB26-0F2F-FD40-A989-53FE548D7D34}"/>
+    <hyperlink ref="C46" r:id="rId24" xr:uid="{307032A1-F8EF-1A48-BFE3-EA3283D39BE2}"/>
+    <hyperlink ref="C47" r:id="rId25" xr:uid="{AA329F36-941A-9241-9402-9D220B05E719}"/>
+    <hyperlink ref="C48" r:id="rId26" xr:uid="{9E851DAC-0E30-B340-84F9-721D70B66919}"/>
+    <hyperlink ref="C49" r:id="rId27" xr:uid="{468380BA-4978-A645-ABD0-E74FD3E6BDBB}"/>
+    <hyperlink ref="C50" r:id="rId28" xr:uid="{289E6890-8CCB-D645-9B3F-6138FFC1C249}"/>
+    <hyperlink ref="C51" r:id="rId29" xr:uid="{8EABDC68-858F-784A-A8F1-C603E3B8C1FE}"/>
+    <hyperlink ref="C52" r:id="rId30" xr:uid="{6157E427-1210-3F45-A4DC-6DFD2373B9CF}"/>
+    <hyperlink ref="C53" r:id="rId31" xr:uid="{2D7BA55E-9947-FF4D-BC09-FB4A5ADA07EC}"/>
+    <hyperlink ref="C54" r:id="rId32" xr:uid="{3337C74F-8B73-E64E-A6DA-5D9F7C7B4D32}"/>
+    <hyperlink ref="C55" r:id="rId33" xr:uid="{02370124-E58D-B540-BBCF-98266229556D}"/>
+    <hyperlink ref="C56" r:id="rId34" xr:uid="{F2DE2162-BD02-7549-AC1A-27455F78131F}"/>
+    <hyperlink ref="C57" r:id="rId35" xr:uid="{6FA286B9-3994-624D-B0B8-C01657D110AD}"/>
+    <hyperlink ref="C58" r:id="rId36" xr:uid="{6EFBEDA1-5C10-2547-8FB2-44E977513B28}"/>
+    <hyperlink ref="C61" r:id="rId37" xr:uid="{090EC515-BEBE-514E-BA59-A84E450B4211}"/>
+    <hyperlink ref="C62" r:id="rId38" xr:uid="{0A0557FD-77E5-564B-B100-147D544A38B4}"/>
+    <hyperlink ref="C63" r:id="rId39" xr:uid="{3F82F2E0-AA59-5042-B079-F3B3C6FF2FD7}"/>
+    <hyperlink ref="C64" r:id="rId40" xr:uid="{FFF7D257-1F58-5A4B-AAA2-F5480AED86C7}"/>
+    <hyperlink ref="C65" r:id="rId41" xr:uid="{353E28FA-E36D-7447-9DE8-787DF11C4669}"/>
+    <hyperlink ref="C66" r:id="rId42" xr:uid="{F9B53127-FC98-FE43-B53F-BFDBCE2A4427}"/>
+    <hyperlink ref="C67" r:id="rId43" xr:uid="{40685BBC-CE24-624E-9ABB-98490B7DE0E4}"/>
+    <hyperlink ref="C68" r:id="rId44" xr:uid="{7733D505-2EC7-E346-B3DA-C980C7CE0B27}"/>
+    <hyperlink ref="C69" r:id="rId45" xr:uid="{E8C1FE00-7B4B-5745-8E4B-CD44B6C749E3}"/>
+    <hyperlink ref="C70" r:id="rId46" xr:uid="{FDE181B1-57B0-7C4B-A189-C7C6E4EAEF99}"/>
+    <hyperlink ref="C73" r:id="rId47" xr:uid="{FE85FD72-4FC9-334E-8205-9E8B238954EB}"/>
+    <hyperlink ref="C74" r:id="rId48" xr:uid="{7630AD76-7E6B-8C4A-BA33-A62EBB042215}"/>
+    <hyperlink ref="C75" r:id="rId49" xr:uid="{2A738B70-CBF0-CC40-8B05-A271822B3F1A}"/>
+    <hyperlink ref="C77" r:id="rId50" xr:uid="{B2DE2D9E-8371-CD44-9D0D-4D6DC64AC29B}"/>
+    <hyperlink ref="C78" r:id="rId51" xr:uid="{265DCD11-17A0-654E-BEFE-FABA31210C6E}"/>
+    <hyperlink ref="C79" r:id="rId52" xr:uid="{47F1BB0C-0C5C-0845-8EEC-1560C50D7DA7}"/>
+    <hyperlink ref="C80" r:id="rId53" xr:uid="{8E0BFA2E-CCB4-514F-86CD-78176C6CC98A}"/>
+    <hyperlink ref="C81" r:id="rId54" xr:uid="{E4DEFB4B-749F-8746-97C7-F2B433664A74}"/>
+    <hyperlink ref="C82" r:id="rId55" xr:uid="{8301BDBD-EB7E-7D41-A777-ED99C3F9D67D}"/>
+    <hyperlink ref="C83" r:id="rId56" xr:uid="{927AE532-647F-AF4C-A567-40ADA6FCE534}"/>
+    <hyperlink ref="C84" r:id="rId57" xr:uid="{05489F52-CC92-EC44-9AD3-773DEC3B1D36}"/>
+    <hyperlink ref="C85" r:id="rId58" xr:uid="{13025DF6-C30E-014A-B66C-68C4AAAC1C6E}"/>
+    <hyperlink ref="C86" r:id="rId59" xr:uid="{BEE1F613-C189-B949-A225-0E0C5AFD1532}"/>
+    <hyperlink ref="C87" r:id="rId60" xr:uid="{1DFECD6C-D7CC-0340-B29B-4D56E50711E5}"/>
+    <hyperlink ref="C88" r:id="rId61" xr:uid="{70BED156-B004-E043-BF7D-59EFAA9EADAF}"/>
+    <hyperlink ref="C89" r:id="rId62" xr:uid="{FF9CBAFB-900E-E242-8B33-EDF46F0F40B5}"/>
+    <hyperlink ref="C90" r:id="rId63" xr:uid="{19461114-B3E8-9042-8029-100010946A04}"/>
+    <hyperlink ref="C91" r:id="rId64" xr:uid="{00F71118-E30B-A84E-819E-FFA902C70502}"/>
+    <hyperlink ref="C92" r:id="rId65" xr:uid="{58E70966-BBE0-7743-A250-AE4DD57807DE}"/>
+    <hyperlink ref="C93" r:id="rId66" xr:uid="{09409FE3-9D7E-4F43-BB21-14A1B8D6E480}"/>
+    <hyperlink ref="C94" r:id="rId67" xr:uid="{E199A3DC-3DA1-C648-93C0-DF9CD5331204}"/>
+    <hyperlink ref="C95" r:id="rId68" xr:uid="{85886847-1510-AA46-B10C-F3D80591DD74}"/>
+    <hyperlink ref="C96" r:id="rId69" xr:uid="{F60808FC-F09D-FC44-B2DD-752E55A1C698}"/>
+    <hyperlink ref="C97" r:id="rId70" xr:uid="{16B2725E-1AD5-0441-9B5B-B6B2F458091B}"/>
+    <hyperlink ref="C98" r:id="rId71" xr:uid="{8440D753-5DE9-3243-97C2-C09D195C325F}"/>
+    <hyperlink ref="C99" r:id="rId72" xr:uid="{AC63A963-B6CC-6E4E-B72A-7F472BC4C027}"/>
+    <hyperlink ref="C100" r:id="rId73" xr:uid="{B21B87F1-A0C0-7F4E-B36F-912B871D0EF4}"/>
+    <hyperlink ref="C101" r:id="rId74" xr:uid="{789FFFAC-8B7E-0540-98B8-856430EB56F8}"/>
+    <hyperlink ref="C102" r:id="rId75" xr:uid="{4A0E959E-22F4-6948-A819-76FE76AB9F6D}"/>
+    <hyperlink ref="C103" r:id="rId76" xr:uid="{78B76678-D8EE-9745-98B1-DF7A76EA3B10}"/>
+    <hyperlink ref="C104" r:id="rId77" xr:uid="{62982242-1D19-1544-8653-8E25E9BF4505}"/>
+    <hyperlink ref="C105" r:id="rId78" xr:uid="{8E3D4BDF-9F8F-0542-BFD8-C3CE3BF396E6}"/>
+    <hyperlink ref="C106" r:id="rId79" xr:uid="{A3D51762-65A1-9A44-B619-D1D98A7F403B}"/>
+    <hyperlink ref="C107" r:id="rId80" xr:uid="{ED0F5FC7-0066-EB44-8FCF-460600DADB02}"/>
+    <hyperlink ref="C108" r:id="rId81" xr:uid="{2D956AC4-4774-7446-8473-C4CE00E33C17}"/>
+    <hyperlink ref="C109" r:id="rId82" xr:uid="{C8C607BB-1FEE-FA47-9E3E-6C0BCE978B7F}"/>
+    <hyperlink ref="C110" r:id="rId83" xr:uid="{B9AC5194-6D36-684A-A5C4-BEE11037599F}"/>
+    <hyperlink ref="C111" r:id="rId84" xr:uid="{AB28D9E6-890C-F14A-A5FB-2303BE319968}"/>
+    <hyperlink ref="C112" r:id="rId85" xr:uid="{1F507CBC-4056-AD46-9314-95ECBB9D799D}"/>
+    <hyperlink ref="C113" r:id="rId86" xr:uid="{F152A9AF-5CBA-EC44-A9CF-07AB481435AB}"/>
+    <hyperlink ref="C114" r:id="rId87" xr:uid="{346CA74F-60B7-0A4B-A612-9184D4DCFF62}"/>
+    <hyperlink ref="C115" r:id="rId88" xr:uid="{8C653CB1-4954-754F-8D46-F09141A2FCDB}"/>
+    <hyperlink ref="C118" r:id="rId89" xr:uid="{5989F693-2A61-A346-8395-8674307A4CC2}"/>
+    <hyperlink ref="C119" r:id="rId90" xr:uid="{3AD10C9E-4F6D-DE48-92F3-531A586520C6}"/>
+    <hyperlink ref="C120" r:id="rId91" xr:uid="{4FA217C0-A1F3-904E-8FEA-EA4941273A67}"/>
+    <hyperlink ref="C121" r:id="rId92" xr:uid="{A297BBC0-FA0D-2D46-9C49-3932193EF1D3}"/>
+    <hyperlink ref="C123" r:id="rId93" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance." xr:uid="{DCD751DE-E440-F346-B6FD-CBD072217214}"/>
+    <hyperlink ref="C124" r:id="rId94" xr:uid="{B2FD38B9-1E2B-8140-8291-F45734C98145}"/>
+    <hyperlink ref="C125" r:id="rId95" xr:uid="{C76888B3-18AC-9B48-9E2A-64A7DF0902B7}"/>
+    <hyperlink ref="C126" r:id="rId96" xr:uid="{18A79860-6C9E-A941-8D6C-360B9913E941}"/>
+    <hyperlink ref="C127" r:id="rId97" xr:uid="{C0DDFD68-CBC1-0F4A-AF40-ACF36BBC8453}"/>
+    <hyperlink ref="C128" r:id="rId98" xr:uid="{3E0BF737-E42E-C946-B32C-06882E0BA6FF}"/>
+    <hyperlink ref="C130" r:id="rId99" xr:uid="{862F9782-C57B-2848-A2D9-EB7B52FB7EC7}"/>
+    <hyperlink ref="C131" r:id="rId100" xr:uid="{230D7A6A-D2C5-C140-9A65-B1F407D22062}"/>
+    <hyperlink ref="C132" r:id="rId101" xr:uid="{BDC2BA28-4562-984E-8282-1126BF952EAF}"/>
+    <hyperlink ref="C133" r:id="rId102" xr:uid="{B53A5F28-6DED-3D47-8679-F78D3DDEFF01}"/>
+    <hyperlink ref="C134" r:id="rId103" xr:uid="{C57D0CC7-DA2F-0948-9BCE-F19C20C7D981}"/>
+    <hyperlink ref="C135" r:id="rId104" xr:uid="{117878E5-B8C8-254B-8ED6-014B4B7A8126}"/>
+    <hyperlink ref="C136" r:id="rId105" xr:uid="{B7CC0756-74F2-D54D-BDEE-9DA394DD7168}"/>
+    <hyperlink ref="C137" r:id="rId106" xr:uid="{837EF472-CCC2-CF47-A8A8-238E56F722CE}"/>
+    <hyperlink ref="C138" r:id="rId107" xr:uid="{3608F267-6AA0-624B-B243-7DDD317E9F08}"/>
+    <hyperlink ref="C139" r:id="rId108" xr:uid="{0B6123E6-0472-374B-ACA7-6914CD7918E8}"/>
+    <hyperlink ref="C140" r:id="rId109" xr:uid="{D3971CEB-C53E-B04B-9C32-1803182B5DC5}"/>
+    <hyperlink ref="C141" r:id="rId110" xr:uid="{7CF5013A-643E-1643-93A1-A2F1500D2A23}"/>
+    <hyperlink ref="C142" r:id="rId111" xr:uid="{2A6BE7E5-D818-6843-8C3E-99EA2BFE0FB2}"/>
+    <hyperlink ref="C143" r:id="rId112" xr:uid="{E718F544-96DF-A04E-8DFB-7639DA3EA57C}"/>
+    <hyperlink ref="C144" r:id="rId113" xr:uid="{B0C2F065-424A-7345-A864-346ECD98D749}"/>
+    <hyperlink ref="C145" r:id="rId114" xr:uid="{B4E26955-5C3F-804E-B19A-11260310AFB3}"/>
+    <hyperlink ref="C146" r:id="rId115" xr:uid="{6F299BB5-8E82-0240-A9A3-6829CE3ABCBF}"/>
+    <hyperlink ref="C147" r:id="rId116" xr:uid="{A42CA32F-2196-1840-A53D-E5073237C68D}"/>
+    <hyperlink ref="C148" r:id="rId117" xr:uid="{7ECF6EF4-962E-4642-9B1C-C3B70674793E}"/>
+    <hyperlink ref="C149" r:id="rId118" xr:uid="{2A109178-6B60-164E-9D25-42B3282137E3}"/>
+    <hyperlink ref="C150" r:id="rId119" xr:uid="{B3D38BD0-A6A1-8D41-8405-45E1BEEEEF06}"/>
+    <hyperlink ref="C151" r:id="rId120" xr:uid="{A1C26612-D040-2A41-A6A6-A8F2490C0A43}"/>
+    <hyperlink ref="C152" r:id="rId121" xr:uid="{C476E807-64CB-F44A-A23D-D21EBF6D001D}"/>
+    <hyperlink ref="C153" r:id="rId122" xr:uid="{9A414D55-D4A1-F147-9207-61B597D57136}"/>
+    <hyperlink ref="C122" r:id="rId123" xr:uid="{18B028A7-9B6F-D841-8548-924D70530779}"/>
+    <hyperlink ref="C129" r:id="rId124" xr:uid="{6D3E75EF-733F-7A4B-81C8-AEF6CB6335F0}"/>
     <hyperlink ref="C158" r:id="rId125" xr:uid="{C9EB2682-BE0B-934B-B0B4-1DD1A1502647}"/>
     <hyperlink ref="C159" r:id="rId126" xr:uid="{2992FED9-2B78-A342-92AA-E7C0F882FF17}"/>
     <hyperlink ref="C160" r:id="rId127" xr:uid="{0084DA6F-EC84-BD48-BDA8-EBACA3BB3B3E}"/>
@@ -8284,7 +8284,7 @@
     <hyperlink ref="C498" r:id="rId443" xr:uid="{FA0E5061-A7E2-C045-9671-1CD9446D1932}"/>
     <hyperlink ref="C499" r:id="rId444" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{92704F5B-7B31-2F42-80DD-764B2206D9DB}"/>
     <hyperlink ref="C375" r:id="rId445" xr:uid="{A48B1A24-83B1-7A4C-8129-CD37804DF849}"/>
-    <hyperlink ref="C156" r:id="rId446" xr:uid="{F0DDC999-C321-4AB4-BA9D-7538150E84D3}"/>
+    <hyperlink ref="C155" r:id="rId446" xr:uid="{F0DDC999-C321-4AB4-BA9D-7538150E84D3}"/>
     <hyperlink ref="C9" r:id="rId447" xr:uid="{310D755F-0FAF-4086-8950-B58917F7CAF8}"/>
     <hyperlink ref="C8" r:id="rId448" xr:uid="{6913685B-862A-49D7-AB28-593B13669931}"/>
     <hyperlink ref="C10" r:id="rId449" xr:uid="{E2555AFC-8C22-4A69-A028-B6C7E7796509}"/>
@@ -8297,7 +8297,7 @@
     <hyperlink ref="C18" r:id="rId456" xr:uid="{D825528B-18AF-463A-AA31-760F76F78A15}"/>
     <hyperlink ref="C12" r:id="rId457" xr:uid="{027E7E1D-0C53-4A77-9662-F495CEC3BAC4}"/>
     <hyperlink ref="C19" r:id="rId458" xr:uid="{B7A6DAE3-6E86-4612-A1FF-539F5C6D3E1D}"/>
-    <hyperlink ref="C155" r:id="rId459" xr:uid="{5221452B-37E3-4315-91B2-6A38CEBB1898}"/>
+    <hyperlink ref="C154" r:id="rId459" xr:uid="{5221452B-37E3-4315-91B2-6A38CEBB1898}"/>
     <hyperlink ref="C24" r:id="rId460" xr:uid="{7C6054B7-B807-4475-B490-126A9686EBA2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DSA Sheet.xlsx
+++ b/DSA Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Java\Java-DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E7A710-9EDC-478C-B655-13AF44680E64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C442FE2-366B-4818-AA79-D75AB0EC4B4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22140" windowHeight="13176" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView xWindow="3744" yWindow="2016" windowWidth="17280" windowHeight="8964" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1439" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="515">
   <si>
     <t>Topic:</t>
   </si>
@@ -1567,6 +1567,9 @@
   </si>
   <si>
     <t>POAE1ARR</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -1646,7 +1649,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1656,6 +1659,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1673,7 +1682,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1706,6 +1715,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2032,7 +2044,7 @@
   <dimension ref="A1:F501"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A18" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
@@ -2373,7 +2385,9 @@
       <c r="C26" s="10" t="s">
         <v>512</v>
       </c>
-      <c r="D26" s="3"/>
+      <c r="D26" s="3" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27" s="9" t="s">
@@ -2385,8 +2399,8 @@
       <c r="C27" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="7" t="s">
-        <v>3</v>
+      <c r="D27" s="14" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.4">
@@ -2399,8 +2413,8 @@
       <c r="C28" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="7" t="s">
-        <v>3</v>
+      <c r="D28" s="3" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.4">

--- a/DSA Sheet.xlsx
+++ b/DSA Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Java\Java-DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C442FE2-366B-4818-AA79-D75AB0EC4B4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D2B347F-6A6D-434E-AEA4-0CD5CC5EE7B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3744" yWindow="2016" windowWidth="17280" windowHeight="8964" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22140" windowHeight="13176" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2043,8 +2043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:F501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
@@ -2427,8 +2427,8 @@
       <c r="C29" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D29" s="7" t="s">
-        <v>3</v>
+      <c r="D29" s="14" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.4">
@@ -2441,8 +2441,8 @@
       <c r="C30" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="7" t="s">
-        <v>3</v>
+      <c r="D30" s="3" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.4">
@@ -2453,8 +2453,8 @@
       <c r="C31" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D31" s="7" t="s">
-        <v>3</v>
+      <c r="D31" s="14" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.4">
@@ -2465,8 +2465,8 @@
       <c r="C32" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="7" t="s">
-        <v>3</v>
+      <c r="D32" s="14" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.4">
@@ -2477,8 +2477,8 @@
       <c r="C33" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D33" s="7" t="s">
-        <v>3</v>
+      <c r="D33" s="14" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.4">
@@ -2621,8 +2621,8 @@
       <c r="C45" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D45" s="7" t="s">
-        <v>3</v>
+      <c r="D45" s="3" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.4">

--- a/DSA Sheet.xlsx
+++ b/DSA Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Java\Java-DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D2B347F-6A6D-434E-AEA4-0CD5CC5EE7B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD52260-DD2F-42FB-91BB-D6E03E406E68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22140" windowHeight="13176" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView xWindow="3744" yWindow="2016" windowWidth="17280" windowHeight="8964" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1445" uniqueCount="518">
   <si>
     <t>Topic:</t>
   </si>
@@ -1570,6 +1570,15 @@
   </si>
   <si>
     <t>NO</t>
+  </si>
+  <si>
+    <t>FOE1ARR</t>
+  </si>
+  <si>
+    <t>Frequency of all elements in an sorted array</t>
+  </si>
+  <si>
+    <t>Important</t>
   </si>
 </sst>
 </file>
@@ -2041,10 +2050,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
-  <dimension ref="A1:F501"/>
+  <dimension ref="A1:F502"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="B39" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
@@ -2469,7 +2478,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A33" s="9" t="s">
         <v>4</v>
       </c>
@@ -2481,181 +2490,186 @@
         <v>514</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A34" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B34" s="9"/>
+      <c r="B34" s="9" t="s">
+        <v>515</v>
+      </c>
       <c r="C34" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+        <v>516</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A35" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B35" s="9"/>
       <c r="C35" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A36" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B36" s="9"/>
       <c r="C36" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A37" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B37" s="9"/>
       <c r="C37" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A38" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B38" s="9"/>
       <c r="C38" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D38" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A39" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B39" s="9"/>
       <c r="C39" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A40" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B40" s="9"/>
       <c r="C40" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D40" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A41" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B41" s="9"/>
       <c r="C41" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
+        <v>21</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A42" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B42" s="9"/>
       <c r="C42" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D42" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A43" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B43" s="9"/>
       <c r="C43" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A44" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B44" s="9"/>
       <c r="C44" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A45" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B45" s="9"/>
       <c r="C45" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
+        <v>25</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A46" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B46" s="9"/>
       <c r="C46" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
+        <v>26</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A47" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B47" s="9"/>
       <c r="C47" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A48" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B48" s="9"/>
       <c r="C48" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D48" s="7" t="s">
         <v>3</v>
@@ -2667,7 +2681,7 @@
       </c>
       <c r="B49" s="9"/>
       <c r="C49" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D49" s="7" t="s">
         <v>3</v>
@@ -2679,7 +2693,7 @@
       </c>
       <c r="B50" s="9"/>
       <c r="C50" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D50" s="7" t="s">
         <v>3</v>
@@ -2691,7 +2705,7 @@
       </c>
       <c r="B51" s="9"/>
       <c r="C51" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D51" s="7" t="s">
         <v>3</v>
@@ -2703,7 +2717,7 @@
       </c>
       <c r="B52" s="9"/>
       <c r="C52" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D52" s="7" t="s">
         <v>3</v>
@@ -2715,7 +2729,7 @@
       </c>
       <c r="B53" s="9"/>
       <c r="C53" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D53" s="7" t="s">
         <v>3</v>
@@ -2727,7 +2741,7 @@
       </c>
       <c r="B54" s="9"/>
       <c r="C54" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D54" s="7" t="s">
         <v>3</v>
@@ -2739,7 +2753,7 @@
       </c>
       <c r="B55" s="9"/>
       <c r="C55" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D55" s="7" t="s">
         <v>3</v>
@@ -2751,7 +2765,7 @@
       </c>
       <c r="B56" s="9"/>
       <c r="C56" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D56" s="7" t="s">
         <v>3</v>
@@ -2763,7 +2777,7 @@
       </c>
       <c r="B57" s="9"/>
       <c r="C57" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D57" s="7" t="s">
         <v>3</v>
@@ -2775,7 +2789,7 @@
       </c>
       <c r="B58" s="9"/>
       <c r="C58" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D58" s="7" t="s">
         <v>3</v>
@@ -2787,32 +2801,32 @@
       </c>
       <c r="B59" s="9"/>
       <c r="C59" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A60" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B60" s="9"/>
+      <c r="C60" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D59" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D60" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A61" s="9"/>
-      <c r="B61" s="9"/>
       <c r="D61" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A62" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B62" s="7"/>
-      <c r="C62" s="10" t="s">
-        <v>42</v>
-      </c>
+      <c r="A62" s="9"/>
+      <c r="B62" s="9"/>
       <c r="D62" s="7" t="s">
         <v>3</v>
       </c>
@@ -2823,7 +2837,7 @@
       </c>
       <c r="B63" s="7"/>
       <c r="C63" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D63" s="7" t="s">
         <v>3</v>
@@ -2835,7 +2849,7 @@
       </c>
       <c r="B64" s="7"/>
       <c r="C64" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D64" s="7" t="s">
         <v>3</v>
@@ -2847,7 +2861,7 @@
       </c>
       <c r="B65" s="7"/>
       <c r="C65" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D65" s="7" t="s">
         <v>3</v>
@@ -2859,7 +2873,7 @@
       </c>
       <c r="B66" s="7"/>
       <c r="C66" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D66" s="7" t="s">
         <v>3</v>
@@ -2871,7 +2885,7 @@
       </c>
       <c r="B67" s="7"/>
       <c r="C67" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D67" s="7" t="s">
         <v>3</v>
@@ -2883,7 +2897,7 @@
       </c>
       <c r="B68" s="7"/>
       <c r="C68" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D68" s="7" t="s">
         <v>3</v>
@@ -2895,7 +2909,7 @@
       </c>
       <c r="B69" s="7"/>
       <c r="C69" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D69" s="7" t="s">
         <v>3</v>
@@ -2907,7 +2921,7 @@
       </c>
       <c r="B70" s="7"/>
       <c r="C70" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D70" s="7" t="s">
         <v>3</v>
@@ -2919,28 +2933,28 @@
       </c>
       <c r="B71" s="7"/>
       <c r="C71" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A72" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c r="C72" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D71" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A73" s="9"/>
-      <c r="B73" s="9"/>
-      <c r="D73" s="7"/>
+      <c r="D72" s="7" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A74" s="9" t="s">
-        <v>52</v>
-      </c>
+      <c r="A74" s="9"/>
       <c r="B74" s="9"/>
-      <c r="C74" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D74" s="7" t="s">
-        <v>3</v>
-      </c>
+      <c r="D74" s="7"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A75" s="9" t="s">
@@ -2948,7 +2962,7 @@
       </c>
       <c r="B75" s="9"/>
       <c r="C75" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D75" s="7" t="s">
         <v>3</v>
@@ -2960,7 +2974,7 @@
       </c>
       <c r="B76" s="9"/>
       <c r="C76" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D76" s="7" t="s">
         <v>3</v>
@@ -2971,8 +2985,8 @@
         <v>52</v>
       </c>
       <c r="B77" s="9"/>
-      <c r="C77" s="5" t="s">
-        <v>56</v>
+      <c r="C77" s="10" t="s">
+        <v>55</v>
       </c>
       <c r="D77" s="7" t="s">
         <v>3</v>
@@ -2983,8 +2997,8 @@
         <v>52</v>
       </c>
       <c r="B78" s="9"/>
-      <c r="C78" s="10" t="s">
-        <v>57</v>
+      <c r="C78" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="D78" s="7" t="s">
         <v>3</v>
@@ -2996,7 +3010,7 @@
       </c>
       <c r="B79" s="9"/>
       <c r="C79" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D79" s="7" t="s">
         <v>3</v>
@@ -3008,7 +3022,7 @@
       </c>
       <c r="B80" s="9"/>
       <c r="C80" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D80" s="7" t="s">
         <v>3</v>
@@ -3020,7 +3034,7 @@
       </c>
       <c r="B81" s="9"/>
       <c r="C81" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D81" s="7" t="s">
         <v>3</v>
@@ -3032,7 +3046,7 @@
       </c>
       <c r="B82" s="9"/>
       <c r="C82" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D82" s="7" t="s">
         <v>3</v>
@@ -3044,7 +3058,7 @@
       </c>
       <c r="B83" s="9"/>
       <c r="C83" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D83" s="7" t="s">
         <v>3</v>
@@ -3056,7 +3070,7 @@
       </c>
       <c r="B84" s="9"/>
       <c r="C84" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D84" s="7" t="s">
         <v>3</v>
@@ -3068,7 +3082,7 @@
       </c>
       <c r="B85" s="9"/>
       <c r="C85" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D85" s="7" t="s">
         <v>3</v>
@@ -3080,7 +3094,7 @@
       </c>
       <c r="B86" s="9"/>
       <c r="C86" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D86" s="7" t="s">
         <v>3</v>
@@ -3092,7 +3106,7 @@
       </c>
       <c r="B87" s="9"/>
       <c r="C87" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D87" s="7" t="s">
         <v>3</v>
@@ -3104,7 +3118,7 @@
       </c>
       <c r="B88" s="9"/>
       <c r="C88" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D88" s="7" t="s">
         <v>3</v>
@@ -3116,7 +3130,7 @@
       </c>
       <c r="B89" s="9"/>
       <c r="C89" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D89" s="7" t="s">
         <v>3</v>
@@ -3128,7 +3142,7 @@
       </c>
       <c r="B90" s="9"/>
       <c r="C90" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D90" s="7" t="s">
         <v>3</v>
@@ -3140,7 +3154,7 @@
       </c>
       <c r="B91" s="9"/>
       <c r="C91" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D91" s="7" t="s">
         <v>3</v>
@@ -3152,7 +3166,7 @@
       </c>
       <c r="B92" s="9"/>
       <c r="C92" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D92" s="7" t="s">
         <v>3</v>
@@ -3164,7 +3178,7 @@
       </c>
       <c r="B93" s="9"/>
       <c r="C93" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D93" s="7" t="s">
         <v>3</v>
@@ -3176,7 +3190,7 @@
       </c>
       <c r="B94" s="9"/>
       <c r="C94" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D94" s="7" t="s">
         <v>3</v>
@@ -3188,7 +3202,7 @@
       </c>
       <c r="B95" s="9"/>
       <c r="C95" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D95" s="7" t="s">
         <v>3</v>
@@ -3200,7 +3214,7 @@
       </c>
       <c r="B96" s="9"/>
       <c r="C96" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D96" s="7" t="s">
         <v>3</v>
@@ -3212,7 +3226,7 @@
       </c>
       <c r="B97" s="9"/>
       <c r="C97" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D97" s="7" t="s">
         <v>3</v>
@@ -3224,7 +3238,7 @@
       </c>
       <c r="B98" s="9"/>
       <c r="C98" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D98" s="7" t="s">
         <v>3</v>
@@ -3236,7 +3250,7 @@
       </c>
       <c r="B99" s="9"/>
       <c r="C99" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D99" s="7" t="s">
         <v>3</v>
@@ -3248,7 +3262,7 @@
       </c>
       <c r="B100" s="9"/>
       <c r="C100" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D100" s="7" t="s">
         <v>3</v>
@@ -3260,7 +3274,7 @@
       </c>
       <c r="B101" s="9"/>
       <c r="C101" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D101" s="7" t="s">
         <v>3</v>
@@ -3272,7 +3286,7 @@
       </c>
       <c r="B102" s="9"/>
       <c r="C102" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D102" s="7" t="s">
         <v>3</v>
@@ -3284,7 +3298,7 @@
       </c>
       <c r="B103" s="9"/>
       <c r="C103" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D103" s="7" t="s">
         <v>3</v>
@@ -3296,7 +3310,7 @@
       </c>
       <c r="B104" s="9"/>
       <c r="C104" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D104" s="7" t="s">
         <v>3</v>
@@ -3308,7 +3322,7 @@
       </c>
       <c r="B105" s="9"/>
       <c r="C105" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D105" s="7" t="s">
         <v>3</v>
@@ -3320,7 +3334,7 @@
       </c>
       <c r="B106" s="9"/>
       <c r="C106" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D106" s="7" t="s">
         <v>3</v>
@@ -3332,7 +3346,7 @@
       </c>
       <c r="B107" s="9"/>
       <c r="C107" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D107" s="7" t="s">
         <v>3</v>
@@ -3344,7 +3358,7 @@
       </c>
       <c r="B108" s="9"/>
       <c r="C108" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D108" s="7" t="s">
         <v>3</v>
@@ -3356,7 +3370,7 @@
       </c>
       <c r="B109" s="9"/>
       <c r="C109" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D109" s="7" t="s">
         <v>3</v>
@@ -3368,7 +3382,7 @@
       </c>
       <c r="B110" s="9"/>
       <c r="C110" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D110" s="7" t="s">
         <v>3</v>
@@ -3380,7 +3394,7 @@
       </c>
       <c r="B111" s="9"/>
       <c r="C111" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D111" s="7" t="s">
         <v>3</v>
@@ -3392,7 +3406,7 @@
       </c>
       <c r="B112" s="9"/>
       <c r="C112" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D112" s="7" t="s">
         <v>3</v>
@@ -3404,7 +3418,7 @@
       </c>
       <c r="B113" s="9"/>
       <c r="C113" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D113" s="7" t="s">
         <v>3</v>
@@ -3416,7 +3430,7 @@
       </c>
       <c r="B114" s="9"/>
       <c r="C114" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D114" s="7" t="s">
         <v>3</v>
@@ -3428,7 +3442,7 @@
       </c>
       <c r="B115" s="9"/>
       <c r="C115" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D115" s="7" t="s">
         <v>3</v>
@@ -3440,28 +3454,28 @@
       </c>
       <c r="B116" s="9"/>
       <c r="C116" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D116" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A117" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B117" s="9"/>
+      <c r="C117" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="D116" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A118" s="7"/>
-      <c r="B118" s="7"/>
-      <c r="D118" s="7"/>
+      <c r="D117" s="7" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A119" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B119" s="9"/>
-      <c r="C119" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="D119" s="7" t="s">
-        <v>3</v>
-      </c>
+      <c r="A119" s="7"/>
+      <c r="B119" s="7"/>
+      <c r="D119" s="7"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A120" s="9" t="s">
@@ -3469,7 +3483,7 @@
       </c>
       <c r="B120" s="9"/>
       <c r="C120" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D120" s="7" t="s">
         <v>3</v>
@@ -3481,7 +3495,7 @@
       </c>
       <c r="B121" s="9"/>
       <c r="C121" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D121" s="7" t="s">
         <v>3</v>
@@ -3493,7 +3507,7 @@
       </c>
       <c r="B122" s="9"/>
       <c r="C122" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D122" s="7" t="s">
         <v>3</v>
@@ -3505,7 +3519,7 @@
       </c>
       <c r="B123" s="9"/>
       <c r="C123" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D123" s="7" t="s">
         <v>3</v>
@@ -3517,7 +3531,7 @@
       </c>
       <c r="B124" s="9"/>
       <c r="C124" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D124" s="7" t="s">
         <v>3</v>
@@ -3529,7 +3543,7 @@
       </c>
       <c r="B125" s="9"/>
       <c r="C125" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D125" s="7" t="s">
         <v>3</v>
@@ -3541,7 +3555,7 @@
       </c>
       <c r="B126" s="9"/>
       <c r="C126" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D126" s="7" t="s">
         <v>3</v>
@@ -3553,7 +3567,7 @@
       </c>
       <c r="B127" s="9"/>
       <c r="C127" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D127" s="7" t="s">
         <v>3</v>
@@ -3565,7 +3579,7 @@
       </c>
       <c r="B128" s="9"/>
       <c r="C128" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D128" s="7" t="s">
         <v>3</v>
@@ -3577,7 +3591,7 @@
       </c>
       <c r="B129" s="9"/>
       <c r="C129" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D129" s="7" t="s">
         <v>3</v>
@@ -3589,7 +3603,7 @@
       </c>
       <c r="B130" s="9"/>
       <c r="C130" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D130" s="7" t="s">
         <v>3</v>
@@ -3601,7 +3615,7 @@
       </c>
       <c r="B131" s="9"/>
       <c r="C131" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D131" s="7" t="s">
         <v>3</v>
@@ -3613,7 +3627,7 @@
       </c>
       <c r="B132" s="9"/>
       <c r="C132" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D132" s="7" t="s">
         <v>3</v>
@@ -3625,7 +3639,7 @@
       </c>
       <c r="B133" s="9"/>
       <c r="C133" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D133" s="7" t="s">
         <v>3</v>
@@ -3637,7 +3651,7 @@
       </c>
       <c r="B134" s="9"/>
       <c r="C134" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D134" s="7" t="s">
         <v>3</v>
@@ -3649,7 +3663,7 @@
       </c>
       <c r="B135" s="9"/>
       <c r="C135" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D135" s="7" t="s">
         <v>3</v>
@@ -3661,7 +3675,7 @@
       </c>
       <c r="B136" s="9"/>
       <c r="C136" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D136" s="7" t="s">
         <v>3</v>
@@ -3673,7 +3687,7 @@
       </c>
       <c r="B137" s="9"/>
       <c r="C137" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D137" s="7" t="s">
         <v>3</v>
@@ -3685,7 +3699,7 @@
       </c>
       <c r="B138" s="9"/>
       <c r="C138" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D138" s="7" t="s">
         <v>3</v>
@@ -3697,7 +3711,7 @@
       </c>
       <c r="B139" s="9"/>
       <c r="C139" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D139" s="7" t="s">
         <v>3</v>
@@ -3709,7 +3723,7 @@
       </c>
       <c r="B140" s="9"/>
       <c r="C140" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D140" s="7" t="s">
         <v>3</v>
@@ -3721,7 +3735,7 @@
       </c>
       <c r="B141" s="9"/>
       <c r="C141" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D141" s="7" t="s">
         <v>3</v>
@@ -3733,7 +3747,7 @@
       </c>
       <c r="B142" s="9"/>
       <c r="C142" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D142" s="7" t="s">
         <v>3</v>
@@ -3745,7 +3759,7 @@
       </c>
       <c r="B143" s="9"/>
       <c r="C143" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D143" s="7" t="s">
         <v>3</v>
@@ -3757,7 +3771,7 @@
       </c>
       <c r="B144" s="9"/>
       <c r="C144" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D144" s="7" t="s">
         <v>3</v>
@@ -3769,7 +3783,7 @@
       </c>
       <c r="B145" s="9"/>
       <c r="C145" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D145" s="7" t="s">
         <v>3</v>
@@ -3781,7 +3795,7 @@
       </c>
       <c r="B146" s="9"/>
       <c r="C146" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D146" s="7" t="s">
         <v>3</v>
@@ -3793,7 +3807,7 @@
       </c>
       <c r="B147" s="9"/>
       <c r="C147" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D147" s="7" t="s">
         <v>3</v>
@@ -3805,7 +3819,7 @@
       </c>
       <c r="B148" s="9"/>
       <c r="C148" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D148" s="7" t="s">
         <v>3</v>
@@ -3817,7 +3831,7 @@
       </c>
       <c r="B149" s="9"/>
       <c r="C149" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D149" s="7" t="s">
         <v>3</v>
@@ -3829,7 +3843,7 @@
       </c>
       <c r="B150" s="9"/>
       <c r="C150" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D150" s="7" t="s">
         <v>3</v>
@@ -3841,7 +3855,7 @@
       </c>
       <c r="B151" s="9"/>
       <c r="C151" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D151" s="7" t="s">
         <v>3</v>
@@ -3853,7 +3867,7 @@
       </c>
       <c r="B152" s="9"/>
       <c r="C152" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D152" s="7" t="s">
         <v>3</v>
@@ -3865,7 +3879,7 @@
       </c>
       <c r="B153" s="9"/>
       <c r="C153" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D153" s="7" t="s">
         <v>3</v>
@@ -3877,7 +3891,7 @@
       </c>
       <c r="B154" s="9"/>
       <c r="C154" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D154" s="7" t="s">
         <v>3</v>
@@ -3887,14 +3901,12 @@
       <c r="A155" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="B155" s="9" t="s">
-        <v>487</v>
-      </c>
+      <c r="B155" s="9"/>
       <c r="C155" s="10" t="s">
-        <v>489</v>
-      </c>
-      <c r="D155" s="3" t="s">
-        <v>465</v>
+        <v>132</v>
+      </c>
+      <c r="D155" s="7" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.4">
@@ -3902,10 +3914,10 @@
         <v>96</v>
       </c>
       <c r="B156" s="9" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C156" s="10" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D156" s="3" t="s">
         <v>465</v>
@@ -3916,30 +3928,32 @@
         <v>96</v>
       </c>
       <c r="B157" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="C157" s="10" t="s">
+        <v>488</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A158" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B158" s="9" t="s">
         <v>505</v>
       </c>
-      <c r="C157" s="10" t="s">
+      <c r="C158" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D157" s="13"/>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A158" s="9"/>
-      <c r="B158" s="9"/>
-      <c r="C158" s="10"/>
       <c r="D158" s="13"/>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A159" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="B159" s="7"/>
-      <c r="C159" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="D159" s="7" t="s">
-        <v>3</v>
-      </c>
+      <c r="A159" s="9"/>
+      <c r="B159" s="9"/>
+      <c r="C159" s="10"/>
+      <c r="D159" s="13"/>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A160" s="7" t="s">
@@ -3947,7 +3961,7 @@
       </c>
       <c r="B160" s="7"/>
       <c r="C160" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D160" s="7" t="s">
         <v>3</v>
@@ -3959,7 +3973,7 @@
       </c>
       <c r="B161" s="7"/>
       <c r="C161" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D161" s="7" t="s">
         <v>3</v>
@@ -3971,7 +3985,7 @@
       </c>
       <c r="B162" s="7"/>
       <c r="C162" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D162" s="7" t="s">
         <v>3</v>
@@ -3983,7 +3997,7 @@
       </c>
       <c r="B163" s="7"/>
       <c r="C163" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D163" s="7" t="s">
         <v>3</v>
@@ -3995,7 +4009,7 @@
       </c>
       <c r="B164" s="7"/>
       <c r="C164" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D164" s="7" t="s">
         <v>3</v>
@@ -4007,7 +4021,7 @@
       </c>
       <c r="B165" s="7"/>
       <c r="C165" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D165" s="7" t="s">
         <v>3</v>
@@ -4019,7 +4033,7 @@
       </c>
       <c r="B166" s="7"/>
       <c r="C166" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D166" s="7" t="s">
         <v>3</v>
@@ -4031,7 +4045,7 @@
       </c>
       <c r="B167" s="7"/>
       <c r="C167" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D167" s="7" t="s">
         <v>3</v>
@@ -4043,7 +4057,7 @@
       </c>
       <c r="B168" s="7"/>
       <c r="C168" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D168" s="7" t="s">
         <v>3</v>
@@ -4055,7 +4069,7 @@
       </c>
       <c r="B169" s="7"/>
       <c r="C169" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D169" s="7" t="s">
         <v>3</v>
@@ -4067,7 +4081,7 @@
       </c>
       <c r="B170" s="7"/>
       <c r="C170" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D170" s="7" t="s">
         <v>3</v>
@@ -4079,7 +4093,7 @@
       </c>
       <c r="B171" s="7"/>
       <c r="C171" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D171" s="7" t="s">
         <v>3</v>
@@ -4091,7 +4105,7 @@
       </c>
       <c r="B172" s="7"/>
       <c r="C172" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D172" s="7" t="s">
         <v>3</v>
@@ -4103,7 +4117,7 @@
       </c>
       <c r="B173" s="7"/>
       <c r="C173" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D173" s="7" t="s">
         <v>3</v>
@@ -4115,7 +4129,7 @@
       </c>
       <c r="B174" s="7"/>
       <c r="C174" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D174" s="7" t="s">
         <v>3</v>
@@ -4127,7 +4141,7 @@
       </c>
       <c r="B175" s="7"/>
       <c r="C175" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D175" s="7" t="s">
         <v>3</v>
@@ -4139,7 +4153,7 @@
       </c>
       <c r="B176" s="7"/>
       <c r="C176" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D176" s="7" t="s">
         <v>3</v>
@@ -4151,7 +4165,7 @@
       </c>
       <c r="B177" s="7"/>
       <c r="C177" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D177" s="7" t="s">
         <v>3</v>
@@ -4163,7 +4177,7 @@
       </c>
       <c r="B178" s="7"/>
       <c r="C178" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D178" s="7" t="s">
         <v>3</v>
@@ -4175,7 +4189,7 @@
       </c>
       <c r="B179" s="7"/>
       <c r="C179" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D179" s="7" t="s">
         <v>3</v>
@@ -4187,7 +4201,7 @@
       </c>
       <c r="B180" s="7"/>
       <c r="C180" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D180" s="7" t="s">
         <v>3</v>
@@ -4199,7 +4213,7 @@
       </c>
       <c r="B181" s="7"/>
       <c r="C181" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D181" s="7" t="s">
         <v>3</v>
@@ -4211,7 +4225,7 @@
       </c>
       <c r="B182" s="7"/>
       <c r="C182" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D182" s="7" t="s">
         <v>3</v>
@@ -4223,7 +4237,7 @@
       </c>
       <c r="B183" s="7"/>
       <c r="C183" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D183" s="7" t="s">
         <v>3</v>
@@ -4234,8 +4248,8 @@
         <v>133</v>
       </c>
       <c r="B184" s="7"/>
-      <c r="C184" s="5" t="s">
-        <v>159</v>
+      <c r="C184" s="10" t="s">
+        <v>158</v>
       </c>
       <c r="D184" s="7" t="s">
         <v>3</v>
@@ -4247,7 +4261,7 @@
       </c>
       <c r="B185" s="7"/>
       <c r="C185" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D185" s="7" t="s">
         <v>3</v>
@@ -4258,8 +4272,8 @@
         <v>133</v>
       </c>
       <c r="B186" s="7"/>
-      <c r="C186" s="10" t="s">
-        <v>161</v>
+      <c r="C186" s="5" t="s">
+        <v>160</v>
       </c>
       <c r="D186" s="7" t="s">
         <v>3</v>
@@ -4271,7 +4285,7 @@
       </c>
       <c r="B187" s="7"/>
       <c r="C187" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D187" s="7" t="s">
         <v>3</v>
@@ -4283,7 +4297,7 @@
       </c>
       <c r="B188" s="7"/>
       <c r="C188" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D188" s="7" t="s">
         <v>3</v>
@@ -4295,7 +4309,7 @@
       </c>
       <c r="B189" s="7"/>
       <c r="C189" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D189" s="7" t="s">
         <v>3</v>
@@ -4307,7 +4321,7 @@
       </c>
       <c r="B190" s="7"/>
       <c r="C190" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D190" s="7" t="s">
         <v>3</v>
@@ -4319,7 +4333,7 @@
       </c>
       <c r="B191" s="7"/>
       <c r="C191" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D191" s="7" t="s">
         <v>3</v>
@@ -4331,7 +4345,7 @@
       </c>
       <c r="B192" s="7"/>
       <c r="C192" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D192" s="7" t="s">
         <v>3</v>
@@ -4343,7 +4357,7 @@
       </c>
       <c r="B193" s="7"/>
       <c r="C193" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D193" s="7" t="s">
         <v>3</v>
@@ -4355,26 +4369,26 @@
       </c>
       <c r="B194" s="7"/>
       <c r="C194" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="D194" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A195" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B195" s="7"/>
+      <c r="C195" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D194" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="D196" s="7"/>
+      <c r="D195" s="7" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A197" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="B197" s="9"/>
-      <c r="C197" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="D197" s="7" t="s">
-        <v>3</v>
-      </c>
+      <c r="D197" s="7"/>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A198" s="9" t="s">
@@ -4382,7 +4396,7 @@
       </c>
       <c r="B198" s="9"/>
       <c r="C198" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D198" s="7" t="s">
         <v>3</v>
@@ -4394,7 +4408,7 @@
       </c>
       <c r="B199" s="9"/>
       <c r="C199" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D199" s="7" t="s">
         <v>3</v>
@@ -4406,7 +4420,7 @@
       </c>
       <c r="B200" s="9"/>
       <c r="C200" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D200" s="7" t="s">
         <v>3</v>
@@ -4418,7 +4432,7 @@
       </c>
       <c r="B201" s="9"/>
       <c r="C201" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D201" s="7" t="s">
         <v>3</v>
@@ -4430,7 +4444,7 @@
       </c>
       <c r="B202" s="9"/>
       <c r="C202" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D202" s="7" t="s">
         <v>3</v>
@@ -4442,7 +4456,7 @@
       </c>
       <c r="B203" s="9"/>
       <c r="C203" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D203" s="7" t="s">
         <v>3</v>
@@ -4454,7 +4468,7 @@
       </c>
       <c r="B204" s="9"/>
       <c r="C204" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D204" s="7" t="s">
         <v>3</v>
@@ -4466,7 +4480,7 @@
       </c>
       <c r="B205" s="9"/>
       <c r="C205" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D205" s="7" t="s">
         <v>3</v>
@@ -4478,7 +4492,7 @@
       </c>
       <c r="B206" s="9"/>
       <c r="C206" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D206" s="7" t="s">
         <v>3</v>
@@ -4490,7 +4504,7 @@
       </c>
       <c r="B207" s="9"/>
       <c r="C207" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D207" s="7" t="s">
         <v>3</v>
@@ -4502,7 +4516,7 @@
       </c>
       <c r="B208" s="9"/>
       <c r="C208" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D208" s="7" t="s">
         <v>3</v>
@@ -4514,7 +4528,7 @@
       </c>
       <c r="B209" s="9"/>
       <c r="C209" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D209" s="7" t="s">
         <v>3</v>
@@ -4526,7 +4540,7 @@
       </c>
       <c r="B210" s="9"/>
       <c r="C210" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D210" s="7" t="s">
         <v>3</v>
@@ -4538,7 +4552,7 @@
       </c>
       <c r="B211" s="9"/>
       <c r="C211" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D211" s="7" t="s">
         <v>3</v>
@@ -4550,7 +4564,7 @@
       </c>
       <c r="B212" s="9"/>
       <c r="C212" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D212" s="7" t="s">
         <v>3</v>
@@ -4562,7 +4576,7 @@
       </c>
       <c r="B213" s="9"/>
       <c r="C213" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D213" s="7" t="s">
         <v>3</v>
@@ -4574,7 +4588,7 @@
       </c>
       <c r="B214" s="9"/>
       <c r="C214" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D214" s="7" t="s">
         <v>3</v>
@@ -4586,7 +4600,7 @@
       </c>
       <c r="B215" s="9"/>
       <c r="C215" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D215" s="7" t="s">
         <v>3</v>
@@ -4598,7 +4612,7 @@
       </c>
       <c r="B216" s="9"/>
       <c r="C216" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D216" s="7" t="s">
         <v>3</v>
@@ -4610,7 +4624,7 @@
       </c>
       <c r="B217" s="9"/>
       <c r="C217" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D217" s="7" t="s">
         <v>3</v>
@@ -4622,7 +4636,7 @@
       </c>
       <c r="B218" s="9"/>
       <c r="C218" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D218" s="7" t="s">
         <v>3</v>
@@ -4634,7 +4648,7 @@
       </c>
       <c r="B219" s="9"/>
       <c r="C219" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D219" s="7" t="s">
         <v>3</v>
@@ -4646,7 +4660,7 @@
       </c>
       <c r="B220" s="9"/>
       <c r="C220" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D220" s="7" t="s">
         <v>3</v>
@@ -4658,7 +4672,7 @@
       </c>
       <c r="B221" s="9"/>
       <c r="C221" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D221" s="7" t="s">
         <v>3</v>
@@ -4670,7 +4684,7 @@
       </c>
       <c r="B222" s="9"/>
       <c r="C222" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D222" s="7" t="s">
         <v>3</v>
@@ -4682,7 +4696,7 @@
       </c>
       <c r="B223" s="9"/>
       <c r="C223" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D223" s="7" t="s">
         <v>3</v>
@@ -4694,7 +4708,7 @@
       </c>
       <c r="B224" s="9"/>
       <c r="C224" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D224" s="7" t="s">
         <v>3</v>
@@ -4706,7 +4720,7 @@
       </c>
       <c r="B225" s="9"/>
       <c r="C225" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D225" s="7" t="s">
         <v>3</v>
@@ -4718,7 +4732,7 @@
       </c>
       <c r="B226" s="9"/>
       <c r="C226" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D226" s="7" t="s">
         <v>3</v>
@@ -4730,7 +4744,7 @@
       </c>
       <c r="B227" s="9"/>
       <c r="C227" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D227" s="7" t="s">
         <v>3</v>
@@ -4742,7 +4756,7 @@
       </c>
       <c r="B228" s="9"/>
       <c r="C228" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D228" s="7" t="s">
         <v>3</v>
@@ -4754,7 +4768,7 @@
       </c>
       <c r="B229" s="9"/>
       <c r="C229" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D229" s="7" t="s">
         <v>3</v>
@@ -4766,7 +4780,7 @@
       </c>
       <c r="B230" s="9"/>
       <c r="C230" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D230" s="7" t="s">
         <v>3</v>
@@ -4778,16 +4792,23 @@
       </c>
       <c r="B231" s="9"/>
       <c r="C231" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="D231" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A232" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="B232" s="9"/>
+      <c r="C232" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="D231" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A232" s="7"/>
-      <c r="B232" s="7"/>
-      <c r="D232" s="7"/>
+      <c r="D232" s="7" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A233" s="7"/>
@@ -4795,16 +4816,9 @@
       <c r="D233" s="7"/>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A234" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="B234" s="9"/>
-      <c r="C234" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="D234" s="7" t="s">
-        <v>3</v>
-      </c>
+      <c r="A234" s="7"/>
+      <c r="B234" s="7"/>
+      <c r="D234" s="7"/>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A235" s="9" t="s">
@@ -4812,7 +4826,7 @@
       </c>
       <c r="B235" s="9"/>
       <c r="C235" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D235" s="7" t="s">
         <v>3</v>
@@ -4824,7 +4838,7 @@
       </c>
       <c r="B236" s="9"/>
       <c r="C236" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D236" s="7" t="s">
         <v>3</v>
@@ -4836,7 +4850,7 @@
       </c>
       <c r="B237" s="9"/>
       <c r="C237" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D237" s="7" t="s">
         <v>3</v>
@@ -4848,7 +4862,7 @@
       </c>
       <c r="B238" s="9"/>
       <c r="C238" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D238" s="7" t="s">
         <v>3</v>
@@ -4860,7 +4874,7 @@
       </c>
       <c r="B239" s="9"/>
       <c r="C239" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D239" s="7" t="s">
         <v>3</v>
@@ -4871,8 +4885,8 @@
         <v>206</v>
       </c>
       <c r="B240" s="9"/>
-      <c r="C240" s="4" t="s">
-        <v>213</v>
+      <c r="C240" s="10" t="s">
+        <v>212</v>
       </c>
       <c r="D240" s="7" t="s">
         <v>3</v>
@@ -4883,8 +4897,8 @@
         <v>206</v>
       </c>
       <c r="B241" s="9"/>
-      <c r="C241" s="10" t="s">
-        <v>214</v>
+      <c r="C241" s="4" t="s">
+        <v>213</v>
       </c>
       <c r="D241" s="7" t="s">
         <v>3</v>
@@ -4896,7 +4910,7 @@
       </c>
       <c r="B242" s="9"/>
       <c r="C242" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D242" s="7" t="s">
         <v>3</v>
@@ -4908,7 +4922,7 @@
       </c>
       <c r="B243" s="9"/>
       <c r="C243" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D243" s="7" t="s">
         <v>3</v>
@@ -4920,7 +4934,7 @@
       </c>
       <c r="B244" s="9"/>
       <c r="C244" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D244" s="7" t="s">
         <v>3</v>
@@ -4932,7 +4946,7 @@
       </c>
       <c r="B245" s="9"/>
       <c r="C245" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D245" s="7" t="s">
         <v>3</v>
@@ -4944,7 +4958,7 @@
       </c>
       <c r="B246" s="9"/>
       <c r="C246" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D246" s="7" t="s">
         <v>3</v>
@@ -4956,7 +4970,7 @@
       </c>
       <c r="B247" s="9"/>
       <c r="C247" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D247" s="7" t="s">
         <v>3</v>
@@ -4968,7 +4982,7 @@
       </c>
       <c r="B248" s="9"/>
       <c r="C248" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D248" s="7" t="s">
         <v>3</v>
@@ -4980,7 +4994,7 @@
       </c>
       <c r="B249" s="9"/>
       <c r="C249" s="10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D249" s="7" t="s">
         <v>3</v>
@@ -4992,7 +5006,7 @@
       </c>
       <c r="B250" s="9"/>
       <c r="C250" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D250" s="7" t="s">
         <v>3</v>
@@ -5004,7 +5018,7 @@
       </c>
       <c r="B251" s="9"/>
       <c r="C251" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D251" s="7" t="s">
         <v>3</v>
@@ -5016,7 +5030,7 @@
       </c>
       <c r="B252" s="9"/>
       <c r="C252" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D252" s="7" t="s">
         <v>3</v>
@@ -5028,7 +5042,7 @@
       </c>
       <c r="B253" s="9"/>
       <c r="C253" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D253" s="7" t="s">
         <v>3</v>
@@ -5040,7 +5054,7 @@
       </c>
       <c r="B254" s="9"/>
       <c r="C254" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D254" s="7" t="s">
         <v>3</v>
@@ -5052,29 +5066,29 @@
       </c>
       <c r="B255" s="9"/>
       <c r="C255" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="D255" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A256" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="B256" s="9"/>
+      <c r="C256" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="D255" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="D256" s="7"/>
+      <c r="D256" s="7" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D257" s="7"/>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A258" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="B258" s="9"/>
-      <c r="C258" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="D258" s="7" t="s">
-        <v>3</v>
-      </c>
+      <c r="D258" s="7"/>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A259" s="9" t="s">
@@ -5082,7 +5096,7 @@
       </c>
       <c r="B259" s="9"/>
       <c r="C259" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D259" s="7" t="s">
         <v>3</v>
@@ -5094,7 +5108,7 @@
       </c>
       <c r="B260" s="9"/>
       <c r="C260" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D260" s="7" t="s">
         <v>3</v>
@@ -5106,7 +5120,7 @@
       </c>
       <c r="B261" s="9"/>
       <c r="C261" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D261" s="7" t="s">
         <v>3</v>
@@ -5118,7 +5132,7 @@
       </c>
       <c r="B262" s="9"/>
       <c r="C262" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D262" s="7" t="s">
         <v>3</v>
@@ -5130,7 +5144,7 @@
       </c>
       <c r="B263" s="9"/>
       <c r="C263" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D263" s="7" t="s">
         <v>3</v>
@@ -5142,7 +5156,7 @@
       </c>
       <c r="B264" s="9"/>
       <c r="C264" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D264" s="7" t="s">
         <v>3</v>
@@ -5154,7 +5168,7 @@
       </c>
       <c r="B265" s="9"/>
       <c r="C265" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D265" s="7" t="s">
         <v>3</v>
@@ -5166,7 +5180,7 @@
       </c>
       <c r="B266" s="9"/>
       <c r="C266" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D266" s="7" t="s">
         <v>3</v>
@@ -5178,7 +5192,7 @@
       </c>
       <c r="B267" s="9"/>
       <c r="C267" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D267" s="7" t="s">
         <v>3</v>
@@ -5190,7 +5204,7 @@
       </c>
       <c r="B268" s="9"/>
       <c r="C268" s="10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D268" s="7" t="s">
         <v>3</v>
@@ -5202,7 +5216,7 @@
       </c>
       <c r="B269" s="9"/>
       <c r="C269" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D269" s="7" t="s">
         <v>3</v>
@@ -5214,7 +5228,7 @@
       </c>
       <c r="B270" s="9"/>
       <c r="C270" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D270" s="7" t="s">
         <v>3</v>
@@ -5226,7 +5240,7 @@
       </c>
       <c r="B271" s="9"/>
       <c r="C271" s="10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D271" s="7" t="s">
         <v>3</v>
@@ -5238,7 +5252,7 @@
       </c>
       <c r="B272" s="9"/>
       <c r="C272" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D272" s="7" t="s">
         <v>3</v>
@@ -5250,7 +5264,7 @@
       </c>
       <c r="B273" s="9"/>
       <c r="C273" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D273" s="7" t="s">
         <v>3</v>
@@ -5262,7 +5276,7 @@
       </c>
       <c r="B274" s="9"/>
       <c r="C274" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D274" s="7" t="s">
         <v>3</v>
@@ -5274,7 +5288,7 @@
       </c>
       <c r="B275" s="9"/>
       <c r="C275" s="10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D275" s="7" t="s">
         <v>3</v>
@@ -5286,7 +5300,7 @@
       </c>
       <c r="B276" s="9"/>
       <c r="C276" s="10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D276" s="7" t="s">
         <v>3</v>
@@ -5298,7 +5312,7 @@
       </c>
       <c r="B277" s="9"/>
       <c r="C277" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D277" s="7" t="s">
         <v>3</v>
@@ -5310,7 +5324,7 @@
       </c>
       <c r="B278" s="9"/>
       <c r="C278" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D278" s="7" t="s">
         <v>3</v>
@@ -5322,7 +5336,7 @@
       </c>
       <c r="B279" s="9"/>
       <c r="C279" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D279" s="7" t="s">
         <v>3</v>
@@ -5334,7 +5348,7 @@
       </c>
       <c r="B280" s="9"/>
       <c r="C280" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D280" s="7" t="s">
         <v>3</v>
@@ -5346,7 +5360,7 @@
       </c>
       <c r="B281" s="9"/>
       <c r="C281" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D281" s="7" t="s">
         <v>3</v>
@@ -5358,7 +5372,7 @@
       </c>
       <c r="B282" s="9"/>
       <c r="C282" s="10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D282" s="7" t="s">
         <v>3</v>
@@ -5370,7 +5384,7 @@
       </c>
       <c r="B283" s="9"/>
       <c r="C283" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D283" s="7" t="s">
         <v>3</v>
@@ -5382,7 +5396,7 @@
       </c>
       <c r="B284" s="9"/>
       <c r="C284" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D284" s="7" t="s">
         <v>3</v>
@@ -5394,7 +5408,7 @@
       </c>
       <c r="B285" s="9"/>
       <c r="C285" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D285" s="7" t="s">
         <v>3</v>
@@ -5406,7 +5420,7 @@
       </c>
       <c r="B286" s="9"/>
       <c r="C286" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D286" s="7" t="s">
         <v>3</v>
@@ -5418,7 +5432,7 @@
       </c>
       <c r="B287" s="9"/>
       <c r="C287" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D287" s="7" t="s">
         <v>3</v>
@@ -5430,7 +5444,7 @@
       </c>
       <c r="B288" s="9"/>
       <c r="C288" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D288" s="7" t="s">
         <v>3</v>
@@ -5442,7 +5456,7 @@
       </c>
       <c r="B289" s="9"/>
       <c r="C289" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D289" s="7" t="s">
         <v>3</v>
@@ -5454,7 +5468,7 @@
       </c>
       <c r="B290" s="9"/>
       <c r="C290" s="10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D290" s="7" t="s">
         <v>3</v>
@@ -5466,7 +5480,7 @@
       </c>
       <c r="B291" s="9"/>
       <c r="C291" s="10" t="s">
-        <v>86</v>
+        <v>262</v>
       </c>
       <c r="D291" s="7" t="s">
         <v>3</v>
@@ -5478,29 +5492,29 @@
       </c>
       <c r="B292" s="9"/>
       <c r="C292" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D292" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A293" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="B293" s="9"/>
+      <c r="C293" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="D292" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="D293" s="7"/>
+      <c r="D293" s="7" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D294" s="7"/>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A295" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="B295" s="9"/>
-      <c r="C295" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="D295" s="7" t="s">
-        <v>3</v>
-      </c>
+      <c r="D295" s="7"/>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A296" s="9" t="s">
@@ -5508,7 +5522,7 @@
       </c>
       <c r="B296" s="9"/>
       <c r="C296" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D296" s="7" t="s">
         <v>3</v>
@@ -5520,7 +5534,7 @@
       </c>
       <c r="B297" s="9"/>
       <c r="C297" s="10" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D297" s="7" t="s">
         <v>3</v>
@@ -5532,7 +5546,7 @@
       </c>
       <c r="B298" s="9"/>
       <c r="C298" s="10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D298" s="7" t="s">
         <v>3</v>
@@ -5544,7 +5558,7 @@
       </c>
       <c r="B299" s="9"/>
       <c r="C299" s="10" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D299" s="7" t="s">
         <v>3</v>
@@ -5556,7 +5570,7 @@
       </c>
       <c r="B300" s="9"/>
       <c r="C300" s="10" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D300" s="7" t="s">
         <v>3</v>
@@ -5568,7 +5582,7 @@
       </c>
       <c r="B301" s="9"/>
       <c r="C301" s="10" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D301" s="7" t="s">
         <v>3</v>
@@ -5580,7 +5594,7 @@
       </c>
       <c r="B302" s="9"/>
       <c r="C302" s="10" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D302" s="7" t="s">
         <v>3</v>
@@ -5592,7 +5606,7 @@
       </c>
       <c r="B303" s="9"/>
       <c r="C303" s="10" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D303" s="7" t="s">
         <v>3</v>
@@ -5604,7 +5618,7 @@
       </c>
       <c r="B304" s="9"/>
       <c r="C304" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D304" s="7" t="s">
         <v>3</v>
@@ -5616,7 +5630,7 @@
       </c>
       <c r="B305" s="9"/>
       <c r="C305" s="10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D305" s="7" t="s">
         <v>3</v>
@@ -5628,7 +5642,7 @@
       </c>
       <c r="B306" s="9"/>
       <c r="C306" s="10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D306" s="7" t="s">
         <v>3</v>
@@ -5640,7 +5654,7 @@
       </c>
       <c r="B307" s="9"/>
       <c r="C307" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D307" s="7" t="s">
         <v>3</v>
@@ -5652,7 +5666,7 @@
       </c>
       <c r="B308" s="9"/>
       <c r="C308" s="10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D308" s="7" t="s">
         <v>3</v>
@@ -5664,7 +5678,7 @@
       </c>
       <c r="B309" s="9"/>
       <c r="C309" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D309" s="7" t="s">
         <v>3</v>
@@ -5676,7 +5690,7 @@
       </c>
       <c r="B310" s="9"/>
       <c r="C310" s="10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D310" s="7" t="s">
         <v>3</v>
@@ -5688,7 +5702,7 @@
       </c>
       <c r="B311" s="9"/>
       <c r="C311" s="10" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D311" s="7" t="s">
         <v>3</v>
@@ -5700,7 +5714,7 @@
       </c>
       <c r="B312" s="9"/>
       <c r="C312" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D312" s="7" t="s">
         <v>3</v>
@@ -5712,29 +5726,29 @@
       </c>
       <c r="B313" s="9"/>
       <c r="C313" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="D313" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A314" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="B314" s="9"/>
+      <c r="C314" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="D313" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="D314" s="7"/>
+      <c r="D314" s="7" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D315" s="7"/>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A316" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="B316" s="9"/>
-      <c r="C316" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="D316" s="7" t="s">
-        <v>3</v>
-      </c>
+      <c r="D316" s="7"/>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A317" s="9" t="s">
@@ -5742,7 +5756,7 @@
       </c>
       <c r="B317" s="9"/>
       <c r="C317" s="10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D317" s="7" t="s">
         <v>3</v>
@@ -5754,7 +5768,7 @@
       </c>
       <c r="B318" s="9"/>
       <c r="C318" s="10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D318" s="7" t="s">
         <v>3</v>
@@ -5766,7 +5780,7 @@
       </c>
       <c r="B319" s="9"/>
       <c r="C319" s="10" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D319" s="7" t="s">
         <v>3</v>
@@ -5778,7 +5792,7 @@
       </c>
       <c r="B320" s="9"/>
       <c r="C320" s="10" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D320" s="7" t="s">
         <v>3</v>
@@ -5790,7 +5804,7 @@
       </c>
       <c r="B321" s="9"/>
       <c r="C321" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D321" s="7" t="s">
         <v>3</v>
@@ -5802,7 +5816,7 @@
       </c>
       <c r="B322" s="9"/>
       <c r="C322" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D322" s="7" t="s">
         <v>3</v>
@@ -5814,7 +5828,7 @@
       </c>
       <c r="B323" s="9"/>
       <c r="C323" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D323" s="7" t="s">
         <v>3</v>
@@ -5826,7 +5840,7 @@
       </c>
       <c r="B324" s="9"/>
       <c r="C324" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D324" s="7" t="s">
         <v>3</v>
@@ -5838,7 +5852,7 @@
       </c>
       <c r="B325" s="9"/>
       <c r="C325" s="10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D325" s="7" t="s">
         <v>3</v>
@@ -5850,7 +5864,7 @@
       </c>
       <c r="B326" s="9"/>
       <c r="C326" s="10" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D326" s="7" t="s">
         <v>3</v>
@@ -5862,7 +5876,7 @@
       </c>
       <c r="B327" s="9"/>
       <c r="C327" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D327" s="7" t="s">
         <v>3</v>
@@ -5874,7 +5888,7 @@
       </c>
       <c r="B328" s="9"/>
       <c r="C328" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D328" s="7" t="s">
         <v>3</v>
@@ -5885,8 +5899,8 @@
         <v>284</v>
       </c>
       <c r="B329" s="9"/>
-      <c r="C329" s="4" t="s">
-        <v>298</v>
+      <c r="C329" s="10" t="s">
+        <v>297</v>
       </c>
       <c r="D329" s="7" t="s">
         <v>3</v>
@@ -5897,8 +5911,8 @@
         <v>284</v>
       </c>
       <c r="B330" s="9"/>
-      <c r="C330" s="10" t="s">
-        <v>299</v>
+      <c r="C330" s="4" t="s">
+        <v>298</v>
       </c>
       <c r="D330" s="7" t="s">
         <v>3</v>
@@ -5910,7 +5924,7 @@
       </c>
       <c r="B331" s="9"/>
       <c r="C331" s="10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D331" s="7" t="s">
         <v>3</v>
@@ -5922,7 +5936,7 @@
       </c>
       <c r="B332" s="9"/>
       <c r="C332" s="10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D332" s="7" t="s">
         <v>3</v>
@@ -5934,7 +5948,7 @@
       </c>
       <c r="B333" s="9"/>
       <c r="C333" s="10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D333" s="7" t="s">
         <v>3</v>
@@ -5946,7 +5960,7 @@
       </c>
       <c r="B334" s="9"/>
       <c r="C334" s="10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D334" s="7" t="s">
         <v>3</v>
@@ -5958,7 +5972,7 @@
       </c>
       <c r="B335" s="9"/>
       <c r="C335" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D335" s="7" t="s">
         <v>3</v>
@@ -5970,7 +5984,7 @@
       </c>
       <c r="B336" s="9"/>
       <c r="C336" s="10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D336" s="7" t="s">
         <v>3</v>
@@ -5982,7 +5996,7 @@
       </c>
       <c r="B337" s="9"/>
       <c r="C337" s="10" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D337" s="7" t="s">
         <v>3</v>
@@ -5994,7 +6008,7 @@
       </c>
       <c r="B338" s="9"/>
       <c r="C338" s="10" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D338" s="7" t="s">
         <v>3</v>
@@ -6006,7 +6020,7 @@
       </c>
       <c r="B339" s="9"/>
       <c r="C339" s="10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D339" s="7" t="s">
         <v>3</v>
@@ -6018,7 +6032,7 @@
       </c>
       <c r="B340" s="9"/>
       <c r="C340" s="10" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D340" s="7" t="s">
         <v>3</v>
@@ -6030,7 +6044,7 @@
       </c>
       <c r="B341" s="9"/>
       <c r="C341" s="10" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D341" s="7" t="s">
         <v>3</v>
@@ -6042,7 +6056,7 @@
       </c>
       <c r="B342" s="9"/>
       <c r="C342" s="10" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D342" s="7" t="s">
         <v>3</v>
@@ -6054,7 +6068,7 @@
       </c>
       <c r="B343" s="9"/>
       <c r="C343" s="10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D343" s="7" t="s">
         <v>3</v>
@@ -6066,7 +6080,7 @@
       </c>
       <c r="B344" s="9"/>
       <c r="C344" s="10" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D344" s="7" t="s">
         <v>3</v>
@@ -6078,7 +6092,7 @@
       </c>
       <c r="B345" s="9"/>
       <c r="C345" s="10" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D345" s="7" t="s">
         <v>3</v>
@@ -6090,7 +6104,7 @@
       </c>
       <c r="B346" s="9"/>
       <c r="C346" s="10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D346" s="7" t="s">
         <v>3</v>
@@ -6102,7 +6116,7 @@
       </c>
       <c r="B347" s="9"/>
       <c r="C347" s="10" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D347" s="7" t="s">
         <v>3</v>
@@ -6114,7 +6128,7 @@
       </c>
       <c r="B348" s="9"/>
       <c r="C348" s="10" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D348" s="7" t="s">
         <v>3</v>
@@ -6126,7 +6140,7 @@
       </c>
       <c r="B349" s="9"/>
       <c r="C349" s="10" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D349" s="7" t="s">
         <v>3</v>
@@ -6138,7 +6152,7 @@
       </c>
       <c r="B350" s="9"/>
       <c r="C350" s="10" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D350" s="7" t="s">
         <v>3</v>
@@ -6150,7 +6164,7 @@
       </c>
       <c r="B351" s="9"/>
       <c r="C351" s="10" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D351" s="7" t="s">
         <v>3</v>
@@ -6162,7 +6176,7 @@
       </c>
       <c r="B352" s="9"/>
       <c r="C352" s="10" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D352" s="7" t="s">
         <v>3</v>
@@ -6174,29 +6188,29 @@
       </c>
       <c r="B353" s="9"/>
       <c r="C353" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="D353" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A354" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="B354" s="9"/>
+      <c r="C354" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="D353" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="D354" s="7"/>
+      <c r="D354" s="7" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D355" s="7"/>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A356" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="B356" s="7"/>
-      <c r="C356" s="10" t="s">
-        <v>324</v>
-      </c>
-      <c r="D356" s="7" t="s">
-        <v>3</v>
-      </c>
+      <c r="D356" s="7"/>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A357" s="7" t="s">
@@ -6204,7 +6218,7 @@
       </c>
       <c r="B357" s="7"/>
       <c r="C357" s="10" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D357" s="7" t="s">
         <v>3</v>
@@ -6216,7 +6230,7 @@
       </c>
       <c r="B358" s="7"/>
       <c r="C358" s="10" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D358" s="7" t="s">
         <v>3</v>
@@ -6228,7 +6242,7 @@
       </c>
       <c r="B359" s="7"/>
       <c r="C359" s="10" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D359" s="7" t="s">
         <v>3</v>
@@ -6240,7 +6254,7 @@
       </c>
       <c r="B360" s="7"/>
       <c r="C360" s="10" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D360" s="7" t="s">
         <v>3</v>
@@ -6252,7 +6266,7 @@
       </c>
       <c r="B361" s="7"/>
       <c r="C361" s="10" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D361" s="7" t="s">
         <v>3</v>
@@ -6264,7 +6278,7 @@
       </c>
       <c r="B362" s="7"/>
       <c r="C362" s="10" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D362" s="7" t="s">
         <v>3</v>
@@ -6276,7 +6290,7 @@
       </c>
       <c r="B363" s="7"/>
       <c r="C363" s="10" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D363" s="7" t="s">
         <v>3</v>
@@ -6287,8 +6301,8 @@
         <v>323</v>
       </c>
       <c r="B364" s="7"/>
-      <c r="C364" s="4" t="s">
-        <v>332</v>
+      <c r="C364" s="10" t="s">
+        <v>331</v>
       </c>
       <c r="D364" s="7" t="s">
         <v>3</v>
@@ -6299,8 +6313,8 @@
         <v>323</v>
       </c>
       <c r="B365" s="7"/>
-      <c r="C365" s="10" t="s">
-        <v>333</v>
+      <c r="C365" s="4" t="s">
+        <v>332</v>
       </c>
       <c r="D365" s="7" t="s">
         <v>3</v>
@@ -6312,7 +6326,7 @@
       </c>
       <c r="B366" s="7"/>
       <c r="C366" s="10" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D366" s="7" t="s">
         <v>3</v>
@@ -6324,7 +6338,7 @@
       </c>
       <c r="B367" s="7"/>
       <c r="C367" s="10" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D367" s="7" t="s">
         <v>3</v>
@@ -6336,7 +6350,7 @@
       </c>
       <c r="B368" s="7"/>
       <c r="C368" s="10" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D368" s="7" t="s">
         <v>3</v>
@@ -6348,7 +6362,7 @@
       </c>
       <c r="B369" s="7"/>
       <c r="C369" s="10" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D369" s="7" t="s">
         <v>3</v>
@@ -6360,7 +6374,7 @@
       </c>
       <c r="B370" s="7"/>
       <c r="C370" s="10" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D370" s="7" t="s">
         <v>3</v>
@@ -6372,7 +6386,7 @@
       </c>
       <c r="B371" s="7"/>
       <c r="C371" s="10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D371" s="7" t="s">
         <v>3</v>
@@ -6384,7 +6398,7 @@
       </c>
       <c r="B372" s="7"/>
       <c r="C372" s="10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D372" s="7" t="s">
         <v>3</v>
@@ -6396,29 +6410,29 @@
       </c>
       <c r="B373" s="7"/>
       <c r="C373" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="D373" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A374" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="B374" s="7"/>
+      <c r="C374" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="D373" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="D374" s="7"/>
+      <c r="D374" s="7" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D375" s="7"/>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A376" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="B376" s="7"/>
-      <c r="C376" s="10" t="s">
-        <v>343</v>
-      </c>
-      <c r="D376" s="7" t="s">
-        <v>3</v>
-      </c>
+      <c r="D376" s="7"/>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A377" s="7" t="s">
@@ -6426,7 +6440,7 @@
       </c>
       <c r="B377" s="7"/>
       <c r="C377" s="10" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D377" s="7" t="s">
         <v>3</v>
@@ -6438,7 +6452,7 @@
       </c>
       <c r="B378" s="7"/>
       <c r="C378" s="10" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D378" s="7" t="s">
         <v>3</v>
@@ -6450,7 +6464,7 @@
       </c>
       <c r="B379" s="7"/>
       <c r="C379" s="10" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D379" s="7" t="s">
         <v>3</v>
@@ -6462,7 +6476,7 @@
       </c>
       <c r="B380" s="7"/>
       <c r="C380" s="10" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D380" s="7" t="s">
         <v>3</v>
@@ -6474,7 +6488,7 @@
       </c>
       <c r="B381" s="7"/>
       <c r="C381" s="10" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D381" s="7" t="s">
         <v>3</v>
@@ -6486,7 +6500,7 @@
       </c>
       <c r="B382" s="7"/>
       <c r="C382" s="10" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D382" s="7" t="s">
         <v>3</v>
@@ -6498,7 +6512,7 @@
       </c>
       <c r="B383" s="7"/>
       <c r="C383" s="10" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D383" s="7" t="s">
         <v>3</v>
@@ -6510,7 +6524,7 @@
       </c>
       <c r="B384" s="7"/>
       <c r="C384" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D384" s="7" t="s">
         <v>3</v>
@@ -6522,7 +6536,7 @@
       </c>
       <c r="B385" s="7"/>
       <c r="C385" s="10" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D385" s="7" t="s">
         <v>3</v>
@@ -6534,7 +6548,7 @@
       </c>
       <c r="B386" s="7"/>
       <c r="C386" s="10" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D386" s="7" t="s">
         <v>3</v>
@@ -6546,7 +6560,7 @@
       </c>
       <c r="B387" s="7"/>
       <c r="C387" s="10" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D387" s="7" t="s">
         <v>3</v>
@@ -6558,7 +6572,7 @@
       </c>
       <c r="B388" s="7"/>
       <c r="C388" s="10" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D388" s="7" t="s">
         <v>3</v>
@@ -6570,7 +6584,7 @@
       </c>
       <c r="B389" s="7"/>
       <c r="C389" s="10" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D389" s="7" t="s">
         <v>3</v>
@@ -6582,7 +6596,7 @@
       </c>
       <c r="B390" s="7"/>
       <c r="C390" s="10" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D390" s="7" t="s">
         <v>3</v>
@@ -6594,7 +6608,7 @@
       </c>
       <c r="B391" s="7"/>
       <c r="C391" s="10" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D391" s="7" t="s">
         <v>3</v>
@@ -6606,7 +6620,7 @@
       </c>
       <c r="B392" s="7"/>
       <c r="C392" s="10" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D392" s="7" t="s">
         <v>3</v>
@@ -6618,7 +6632,7 @@
       </c>
       <c r="B393" s="7"/>
       <c r="C393" s="10" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D393" s="7" t="s">
         <v>3</v>
@@ -6630,7 +6644,7 @@
       </c>
       <c r="B394" s="7"/>
       <c r="C394" s="10" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D394" s="7" t="s">
         <v>3</v>
@@ -6642,7 +6656,7 @@
       </c>
       <c r="B395" s="7"/>
       <c r="C395" s="10" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D395" s="7" t="s">
         <v>3</v>
@@ -6654,7 +6668,7 @@
       </c>
       <c r="B396" s="7"/>
       <c r="C396" s="10" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D396" s="7" t="s">
         <v>3</v>
@@ -6666,7 +6680,7 @@
       </c>
       <c r="B397" s="7"/>
       <c r="C397" s="10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D397" s="7" t="s">
         <v>3</v>
@@ -6678,7 +6692,7 @@
       </c>
       <c r="B398" s="7"/>
       <c r="C398" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D398" s="7" t="s">
         <v>3</v>
@@ -6690,7 +6704,7 @@
       </c>
       <c r="B399" s="7"/>
       <c r="C399" s="10" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D399" s="7" t="s">
         <v>3</v>
@@ -6702,7 +6716,7 @@
       </c>
       <c r="B400" s="7"/>
       <c r="C400" s="10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D400" s="7" t="s">
         <v>3</v>
@@ -6714,7 +6728,7 @@
       </c>
       <c r="B401" s="7"/>
       <c r="C401" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D401" s="7" t="s">
         <v>3</v>
@@ -6726,7 +6740,7 @@
       </c>
       <c r="B402" s="7"/>
       <c r="C402" s="10" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D402" s="7" t="s">
         <v>3</v>
@@ -6738,7 +6752,7 @@
       </c>
       <c r="B403" s="7"/>
       <c r="C403" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D403" s="7" t="s">
         <v>3</v>
@@ -6750,7 +6764,7 @@
       </c>
       <c r="B404" s="7"/>
       <c r="C404" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D404" s="7" t="s">
         <v>3</v>
@@ -6762,7 +6776,7 @@
       </c>
       <c r="B405" s="7"/>
       <c r="C405" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D405" s="7" t="s">
         <v>3</v>
@@ -6774,7 +6788,7 @@
       </c>
       <c r="B406" s="7"/>
       <c r="C406" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D406" s="7" t="s">
         <v>3</v>
@@ -6786,7 +6800,7 @@
       </c>
       <c r="B407" s="7"/>
       <c r="C407" s="10" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D407" s="7" t="s">
         <v>3</v>
@@ -6798,7 +6812,7 @@
       </c>
       <c r="B408" s="7"/>
       <c r="C408" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D408" s="7" t="s">
         <v>3</v>
@@ -6810,7 +6824,7 @@
       </c>
       <c r="B409" s="7"/>
       <c r="C409" s="10" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D409" s="7" t="s">
         <v>3</v>
@@ -6834,7 +6848,7 @@
       </c>
       <c r="B411" s="7"/>
       <c r="C411" s="10" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D411" s="7" t="s">
         <v>3</v>
@@ -6846,7 +6860,7 @@
       </c>
       <c r="B412" s="7"/>
       <c r="C412" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D412" s="7" t="s">
         <v>3</v>
@@ -6858,7 +6872,7 @@
       </c>
       <c r="B413" s="7"/>
       <c r="C413" s="10" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D413" s="7" t="s">
         <v>3</v>
@@ -6870,7 +6884,7 @@
       </c>
       <c r="B414" s="7"/>
       <c r="C414" s="10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D414" s="7" t="s">
         <v>3</v>
@@ -6882,7 +6896,7 @@
       </c>
       <c r="B415" s="7"/>
       <c r="C415" s="10" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D415" s="7" t="s">
         <v>3</v>
@@ -6894,7 +6908,7 @@
       </c>
       <c r="B416" s="7"/>
       <c r="C416" s="10" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D416" s="7" t="s">
         <v>3</v>
@@ -6906,7 +6920,7 @@
       </c>
       <c r="B417" s="7"/>
       <c r="C417" s="10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D417" s="7" t="s">
         <v>3</v>
@@ -6918,7 +6932,7 @@
       </c>
       <c r="B418" s="7"/>
       <c r="C418" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D418" s="7" t="s">
         <v>3</v>
@@ -6930,29 +6944,29 @@
       </c>
       <c r="B419" s="7"/>
       <c r="C419" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="D419" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A420" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="B420" s="7"/>
+      <c r="C420" s="10" t="s">
         <v>385</v>
       </c>
-      <c r="D419" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="D420" s="7"/>
+      <c r="D420" s="7" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D421" s="7"/>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A422" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="B422" s="7"/>
-      <c r="C422" s="10" t="s">
-        <v>387</v>
-      </c>
-      <c r="D422" s="7" t="s">
-        <v>3</v>
-      </c>
+      <c r="D422" s="7"/>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A423" s="7" t="s">
@@ -6960,7 +6974,7 @@
       </c>
       <c r="B423" s="7"/>
       <c r="C423" s="10" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D423" s="7" t="s">
         <v>3</v>
@@ -6972,7 +6986,7 @@
       </c>
       <c r="B424" s="7"/>
       <c r="C424" s="10" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D424" s="7" t="s">
         <v>3</v>
@@ -6984,7 +6998,7 @@
       </c>
       <c r="B425" s="7"/>
       <c r="C425" s="10" t="s">
-        <v>88</v>
+        <v>389</v>
       </c>
       <c r="D425" s="7" t="s">
         <v>3</v>
@@ -6996,7 +7010,7 @@
       </c>
       <c r="B426" s="7"/>
       <c r="C426" s="10" t="s">
-        <v>390</v>
+        <v>88</v>
       </c>
       <c r="D426" s="7" t="s">
         <v>3</v>
@@ -7008,29 +7022,29 @@
       </c>
       <c r="B427" s="7"/>
       <c r="C427" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="D427" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A428" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="B428" s="7"/>
+      <c r="C428" s="10" t="s">
         <v>391</v>
       </c>
-      <c r="D427" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="D428" s="7"/>
+      <c r="D428" s="7" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D429" s="7"/>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A430" s="9" t="s">
-        <v>392</v>
-      </c>
-      <c r="B430" s="9"/>
-      <c r="C430" s="10" t="s">
-        <v>393</v>
-      </c>
-      <c r="D430" s="7" t="s">
-        <v>3</v>
-      </c>
+      <c r="D430" s="7"/>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A431" s="9" t="s">
@@ -7038,7 +7052,7 @@
       </c>
       <c r="B431" s="9"/>
       <c r="C431" s="10" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D431" s="7" t="s">
         <v>3</v>
@@ -7050,7 +7064,7 @@
       </c>
       <c r="B432" s="9"/>
       <c r="C432" s="10" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D432" s="7" t="s">
         <v>3</v>
@@ -7062,7 +7076,7 @@
       </c>
       <c r="B433" s="9"/>
       <c r="C433" s="10" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D433" s="7" t="s">
         <v>3</v>
@@ -7074,7 +7088,7 @@
       </c>
       <c r="B434" s="9"/>
       <c r="C434" s="10" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D434" s="7" t="s">
         <v>3</v>
@@ -7086,7 +7100,7 @@
       </c>
       <c r="B435" s="9"/>
       <c r="C435" s="10" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D435" s="7" t="s">
         <v>3</v>
@@ -7098,7 +7112,7 @@
       </c>
       <c r="B436" s="9"/>
       <c r="C436" s="10" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D436" s="7" t="s">
         <v>3</v>
@@ -7110,7 +7124,7 @@
       </c>
       <c r="B437" s="9"/>
       <c r="C437" s="10" t="s">
-        <v>272</v>
+        <v>399</v>
       </c>
       <c r="D437" s="7" t="s">
         <v>3</v>
@@ -7122,7 +7136,7 @@
       </c>
       <c r="B438" s="9"/>
       <c r="C438" s="10" t="s">
-        <v>400</v>
+        <v>272</v>
       </c>
       <c r="D438" s="7" t="s">
         <v>3</v>
@@ -7134,7 +7148,7 @@
       </c>
       <c r="B439" s="9"/>
       <c r="C439" s="10" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D439" s="7" t="s">
         <v>3</v>
@@ -7146,7 +7160,7 @@
       </c>
       <c r="B440" s="9"/>
       <c r="C440" s="10" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D440" s="7" t="s">
         <v>3</v>
@@ -7158,7 +7172,7 @@
       </c>
       <c r="B441" s="9"/>
       <c r="C441" s="10" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D441" s="7" t="s">
         <v>3</v>
@@ -7170,7 +7184,7 @@
       </c>
       <c r="B442" s="9"/>
       <c r="C442" s="10" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D442" s="7" t="s">
         <v>3</v>
@@ -7182,7 +7196,7 @@
       </c>
       <c r="B443" s="9"/>
       <c r="C443" s="10" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D443" s="7" t="s">
         <v>3</v>
@@ -7194,7 +7208,7 @@
       </c>
       <c r="B444" s="9"/>
       <c r="C444" s="10" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D444" s="7" t="s">
         <v>3</v>
@@ -7206,7 +7220,7 @@
       </c>
       <c r="B445" s="9"/>
       <c r="C445" s="10" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D445" s="7" t="s">
         <v>3</v>
@@ -7218,7 +7232,7 @@
       </c>
       <c r="B446" s="9"/>
       <c r="C446" s="10" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D446" s="7" t="s">
         <v>3</v>
@@ -7230,7 +7244,7 @@
       </c>
       <c r="B447" s="9"/>
       <c r="C447" s="10" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D447" s="7" t="s">
         <v>3</v>
@@ -7242,7 +7256,7 @@
       </c>
       <c r="B448" s="9"/>
       <c r="C448" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D448" s="7" t="s">
         <v>3</v>
@@ -7254,7 +7268,7 @@
       </c>
       <c r="B449" s="9"/>
       <c r="C449" s="10" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D449" s="7" t="s">
         <v>3</v>
@@ -7266,7 +7280,7 @@
       </c>
       <c r="B450" s="9"/>
       <c r="C450" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D450" s="7" t="s">
         <v>3</v>
@@ -7278,7 +7292,7 @@
       </c>
       <c r="B451" s="9"/>
       <c r="C451" s="10" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D451" s="7" t="s">
         <v>3</v>
@@ -7290,7 +7304,7 @@
       </c>
       <c r="B452" s="9"/>
       <c r="C452" s="10" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D452" s="7" t="s">
         <v>3</v>
@@ -7302,7 +7316,7 @@
       </c>
       <c r="B453" s="9"/>
       <c r="C453" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D453" s="7" t="s">
         <v>3</v>
@@ -7314,7 +7328,7 @@
       </c>
       <c r="B454" s="9"/>
       <c r="C454" s="10" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D454" s="7" t="s">
         <v>3</v>
@@ -7326,7 +7340,7 @@
       </c>
       <c r="B455" s="9"/>
       <c r="C455" s="10" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D455" s="7" t="s">
         <v>3</v>
@@ -7338,7 +7352,7 @@
       </c>
       <c r="B456" s="9"/>
       <c r="C456" s="10" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D456" s="7" t="s">
         <v>3</v>
@@ -7350,7 +7364,7 @@
       </c>
       <c r="B457" s="9"/>
       <c r="C457" s="10" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D457" s="7" t="s">
         <v>3</v>
@@ -7362,7 +7376,7 @@
       </c>
       <c r="B458" s="9"/>
       <c r="C458" s="10" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D458" s="7" t="s">
         <v>3</v>
@@ -7374,7 +7388,7 @@
       </c>
       <c r="B459" s="9"/>
       <c r="C459" s="10" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D459" s="7" t="s">
         <v>3</v>
@@ -7386,7 +7400,7 @@
       </c>
       <c r="B460" s="9"/>
       <c r="C460" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D460" s="7" t="s">
         <v>3</v>
@@ -7398,7 +7412,7 @@
       </c>
       <c r="B461" s="9"/>
       <c r="C461" s="10" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D461" s="7" t="s">
         <v>3</v>
@@ -7410,7 +7424,7 @@
       </c>
       <c r="B462" s="9"/>
       <c r="C462" s="10" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D462" s="7" t="s">
         <v>3</v>
@@ -7422,7 +7436,7 @@
       </c>
       <c r="B463" s="9"/>
       <c r="C463" s="10" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D463" s="7" t="s">
         <v>3</v>
@@ -7434,7 +7448,7 @@
       </c>
       <c r="B464" s="9"/>
       <c r="C464" s="10" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D464" s="7" t="s">
         <v>3</v>
@@ -7446,7 +7460,7 @@
       </c>
       <c r="B465" s="9"/>
       <c r="C465" s="10" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D465" s="7" t="s">
         <v>3</v>
@@ -7458,7 +7472,7 @@
       </c>
       <c r="B466" s="9"/>
       <c r="C466" s="10" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D466" s="7" t="s">
         <v>3</v>
@@ -7470,7 +7484,7 @@
       </c>
       <c r="B467" s="9"/>
       <c r="C467" s="10" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D467" s="7" t="s">
         <v>3</v>
@@ -7482,7 +7496,7 @@
       </c>
       <c r="B468" s="9"/>
       <c r="C468" s="10" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D468" s="7" t="s">
         <v>3</v>
@@ -7494,7 +7508,7 @@
       </c>
       <c r="B469" s="9"/>
       <c r="C469" s="10" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D469" s="7" t="s">
         <v>3</v>
@@ -7506,7 +7520,7 @@
       </c>
       <c r="B470" s="9"/>
       <c r="C470" s="10" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D470" s="7" t="s">
         <v>3</v>
@@ -7518,7 +7532,7 @@
       </c>
       <c r="B471" s="9"/>
       <c r="C471" s="10" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D471" s="7" t="s">
         <v>3</v>
@@ -7530,7 +7544,7 @@
       </c>
       <c r="B472" s="9"/>
       <c r="C472" s="10" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D472" s="7" t="s">
         <v>3</v>
@@ -7542,7 +7556,7 @@
       </c>
       <c r="B473" s="9"/>
       <c r="C473" s="10" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D473" s="7" t="s">
         <v>3</v>
@@ -7554,7 +7568,7 @@
       </c>
       <c r="B474" s="9"/>
       <c r="C474" s="10" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D474" s="7" t="s">
         <v>3</v>
@@ -7566,7 +7580,7 @@
       </c>
       <c r="B475" s="9"/>
       <c r="C475" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D475" s="7" t="s">
         <v>3</v>
@@ -7578,7 +7592,7 @@
       </c>
       <c r="B476" s="9"/>
       <c r="C476" s="10" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D476" s="7" t="s">
         <v>3</v>
@@ -7590,7 +7604,7 @@
       </c>
       <c r="B477" s="9"/>
       <c r="C477" s="10" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D477" s="7" t="s">
         <v>3</v>
@@ -7602,7 +7616,7 @@
       </c>
       <c r="B478" s="9"/>
       <c r="C478" s="10" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D478" s="7" t="s">
         <v>3</v>
@@ -7614,7 +7628,7 @@
       </c>
       <c r="B479" s="9"/>
       <c r="C479" s="10" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D479" s="7" t="s">
         <v>3</v>
@@ -7626,7 +7640,7 @@
       </c>
       <c r="B480" s="9"/>
       <c r="C480" s="10" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D480" s="7" t="s">
         <v>3</v>
@@ -7638,7 +7652,7 @@
       </c>
       <c r="B481" s="9"/>
       <c r="C481" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D481" s="7" t="s">
         <v>3</v>
@@ -7650,7 +7664,7 @@
       </c>
       <c r="B482" s="9"/>
       <c r="C482" s="10" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D482" s="7" t="s">
         <v>3</v>
@@ -7662,7 +7676,7 @@
       </c>
       <c r="B483" s="9"/>
       <c r="C483" s="10" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D483" s="7" t="s">
         <v>3</v>
@@ -7674,7 +7688,7 @@
       </c>
       <c r="B484" s="9"/>
       <c r="C484" s="10" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D484" s="7" t="s">
         <v>3</v>
@@ -7686,7 +7700,7 @@
       </c>
       <c r="B485" s="9"/>
       <c r="C485" s="10" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D485" s="7" t="s">
         <v>3</v>
@@ -7698,7 +7712,7 @@
       </c>
       <c r="B486" s="9"/>
       <c r="C486" s="10" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D486" s="7" t="s">
         <v>3</v>
@@ -7710,7 +7724,7 @@
       </c>
       <c r="B487" s="9"/>
       <c r="C487" s="10" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D487" s="7" t="s">
         <v>3</v>
@@ -7722,7 +7736,7 @@
       </c>
       <c r="B488" s="9"/>
       <c r="C488" s="10" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D488" s="7" t="s">
         <v>3</v>
@@ -7734,31 +7748,31 @@
       </c>
       <c r="B489" s="9"/>
       <c r="C489" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="D489" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A490" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="B490" s="9"/>
+      <c r="C490" s="10" t="s">
         <v>451</v>
       </c>
-      <c r="D489" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="D490" s="7"/>
+      <c r="D490" s="7" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A491" s="7"/>
-      <c r="B491" s="7"/>
       <c r="D491" s="7"/>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A492" s="9" t="s">
-        <v>452</v>
-      </c>
-      <c r="B492" s="9"/>
-      <c r="C492" s="10" t="s">
-        <v>453</v>
-      </c>
-      <c r="D492" s="7" t="s">
-        <v>3</v>
-      </c>
+      <c r="A492" s="7"/>
+      <c r="B492" s="7"/>
+      <c r="D492" s="7"/>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A493" s="9" t="s">
@@ -7766,7 +7780,7 @@
       </c>
       <c r="B493" s="9"/>
       <c r="C493" s="10" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D493" s="7" t="s">
         <v>3</v>
@@ -7778,7 +7792,7 @@
       </c>
       <c r="B494" s="9"/>
       <c r="C494" s="10" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D494" s="7" t="s">
         <v>3</v>
@@ -7790,7 +7804,7 @@
       </c>
       <c r="B495" s="9"/>
       <c r="C495" s="10" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D495" s="7" t="s">
         <v>3</v>
@@ -7802,7 +7816,7 @@
       </c>
       <c r="B496" s="9"/>
       <c r="C496" s="10" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D496" s="7" t="s">
         <v>3</v>
@@ -7814,7 +7828,7 @@
       </c>
       <c r="B497" s="9"/>
       <c r="C497" s="10" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D497" s="7" t="s">
         <v>3</v>
@@ -7826,7 +7840,7 @@
       </c>
       <c r="B498" s="9"/>
       <c r="C498" s="10" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D498" s="7" t="s">
         <v>3</v>
@@ -7838,7 +7852,7 @@
       </c>
       <c r="B499" s="9"/>
       <c r="C499" s="10" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D499" s="7" t="s">
         <v>3</v>
@@ -7850,7 +7864,7 @@
       </c>
       <c r="B500" s="9"/>
       <c r="C500" s="10" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D500" s="7" t="s">
         <v>3</v>
@@ -7862,9 +7876,21 @@
       </c>
       <c r="B501" s="9"/>
       <c r="C501" s="10" t="s">
+        <v>461</v>
+      </c>
+      <c r="D501" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A502" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="B502" s="9"/>
+      <c r="C502" s="10" t="s">
         <v>462</v>
       </c>
-      <c r="D501" s="7" t="s">
+      <c r="D502" s="7" t="s">
         <v>3</v>
       </c>
     </row>
@@ -7873,7 +7899,7 @@
   <hyperlinks>
     <hyperlink ref="C22" r:id="rId1" xr:uid="{9492A4AD-FA44-BA4B-B154-E4DBB1951162}"/>
     <hyperlink ref="C23" r:id="rId2" xr:uid="{2D6F1134-3C08-7445-B19A-9B94A18B55C7}"/>
-    <hyperlink ref="C157" r:id="rId3" xr:uid="{E5A98931-37E8-6B4A-90BE-8DC72405341A}"/>
+    <hyperlink ref="C158" r:id="rId3" xr:uid="{E5A98931-37E8-6B4A-90BE-8DC72405341A}"/>
     <hyperlink ref="C27" r:id="rId4" xr:uid="{02736918-E09F-7A46-90B3-AFCC33AA559B}"/>
     <hyperlink ref="C28" r:id="rId5" xr:uid="{6E8DD30A-A9F9-4C44-B26C-C9E236F10798}"/>
     <hyperlink ref="C29" r:id="rId6" xr:uid="{0D55765B-95A7-154F-96F3-B7E4C581021F}"/>
@@ -7881,442 +7907,442 @@
     <hyperlink ref="C31" r:id="rId8" xr:uid="{11C9D8CC-9F1E-004E-8EC2-C758DC9C8CAB}"/>
     <hyperlink ref="C32" r:id="rId9" xr:uid="{56E4962F-CB3D-9E48-A26E-19A1F5C800C9}"/>
     <hyperlink ref="C33" r:id="rId10" xr:uid="{899DDBD9-9ED6-3A4D-8AFE-8FAA6DA88DBC}"/>
-    <hyperlink ref="C34" r:id="rId11" xr:uid="{76D41EAC-A28A-2845-8515-CA3C70D823B7}"/>
-    <hyperlink ref="C35" r:id="rId12" xr:uid="{828948BE-DD97-DE4A-BAD6-B415E29198F0}"/>
-    <hyperlink ref="C36" r:id="rId13" xr:uid="{E98C86AA-12E7-124C-B7D0-BCDFB246040B}"/>
-    <hyperlink ref="C37" r:id="rId14" xr:uid="{192741A9-FF68-DC4A-99FA-69F9968AB4F2}"/>
-    <hyperlink ref="C38" r:id="rId15" xr:uid="{DBD9BA9C-91C6-B144-A800-DCB3BED33DE7}"/>
-    <hyperlink ref="C39" r:id="rId16" xr:uid="{A285BDE8-00E7-A94C-8E43-A0C4829D42FA}"/>
-    <hyperlink ref="C40" r:id="rId17" xr:uid="{B0C21764-2962-1649-8AFA-10FB9420C5FC}"/>
-    <hyperlink ref="C41" r:id="rId18" xr:uid="{9282CC15-9B38-E54B-B64C-557745C9C00A}"/>
-    <hyperlink ref="C42" r:id="rId19" xr:uid="{3BCCEBE2-AC3B-AC4F-8BA9-439ACEA133D4}"/>
-    <hyperlink ref="C43" r:id="rId20" xr:uid="{74F8D761-6EBF-594A-A6C7-40DE4CE96958}"/>
-    <hyperlink ref="C44" r:id="rId21" xr:uid="{79947FE6-D417-D644-81D8-D058180550A0}"/>
-    <hyperlink ref="C45" r:id="rId22" xr:uid="{2BF3F606-410B-264D-BF60-191C34D616BB}"/>
-    <hyperlink ref="C46" r:id="rId23" xr:uid="{CD98DB26-0F2F-FD40-A989-53FE548D7D34}"/>
-    <hyperlink ref="C47" r:id="rId24" xr:uid="{307032A1-F8EF-1A48-BFE3-EA3283D39BE2}"/>
-    <hyperlink ref="C48" r:id="rId25" xr:uid="{AA329F36-941A-9241-9402-9D220B05E719}"/>
-    <hyperlink ref="C49" r:id="rId26" xr:uid="{9E851DAC-0E30-B340-84F9-721D70B66919}"/>
-    <hyperlink ref="C50" r:id="rId27" xr:uid="{468380BA-4978-A645-ABD0-E74FD3E6BDBB}"/>
-    <hyperlink ref="C51" r:id="rId28" xr:uid="{289E6890-8CCB-D645-9B3F-6138FFC1C249}"/>
-    <hyperlink ref="C52" r:id="rId29" xr:uid="{8EABDC68-858F-784A-A8F1-C603E3B8C1FE}"/>
-    <hyperlink ref="C53" r:id="rId30" xr:uid="{6157E427-1210-3F45-A4DC-6DFD2373B9CF}"/>
-    <hyperlink ref="C54" r:id="rId31" xr:uid="{2D7BA55E-9947-FF4D-BC09-FB4A5ADA07EC}"/>
-    <hyperlink ref="C55" r:id="rId32" xr:uid="{3337C74F-8B73-E64E-A6DA-5D9F7C7B4D32}"/>
-    <hyperlink ref="C56" r:id="rId33" xr:uid="{02370124-E58D-B540-BBCF-98266229556D}"/>
-    <hyperlink ref="C57" r:id="rId34" xr:uid="{F2DE2162-BD02-7549-AC1A-27455F78131F}"/>
-    <hyperlink ref="C58" r:id="rId35" xr:uid="{6FA286B9-3994-624D-B0B8-C01657D110AD}"/>
-    <hyperlink ref="C59" r:id="rId36" xr:uid="{6EFBEDA1-5C10-2547-8FB2-44E977513B28}"/>
-    <hyperlink ref="C62" r:id="rId37" xr:uid="{090EC515-BEBE-514E-BA59-A84E450B4211}"/>
-    <hyperlink ref="C63" r:id="rId38" xr:uid="{0A0557FD-77E5-564B-B100-147D544A38B4}"/>
-    <hyperlink ref="C64" r:id="rId39" xr:uid="{3F82F2E0-AA59-5042-B079-F3B3C6FF2FD7}"/>
-    <hyperlink ref="C65" r:id="rId40" xr:uid="{FFF7D257-1F58-5A4B-AAA2-F5480AED86C7}"/>
-    <hyperlink ref="C66" r:id="rId41" xr:uid="{353E28FA-E36D-7447-9DE8-787DF11C4669}"/>
-    <hyperlink ref="C67" r:id="rId42" xr:uid="{F9B53127-FC98-FE43-B53F-BFDBCE2A4427}"/>
-    <hyperlink ref="C68" r:id="rId43" xr:uid="{40685BBC-CE24-624E-9ABB-98490B7DE0E4}"/>
-    <hyperlink ref="C69" r:id="rId44" xr:uid="{7733D505-2EC7-E346-B3DA-C980C7CE0B27}"/>
-    <hyperlink ref="C70" r:id="rId45" xr:uid="{E8C1FE00-7B4B-5745-8E4B-CD44B6C749E3}"/>
-    <hyperlink ref="C71" r:id="rId46" xr:uid="{FDE181B1-57B0-7C4B-A189-C7C6E4EAEF99}"/>
-    <hyperlink ref="C74" r:id="rId47" xr:uid="{FE85FD72-4FC9-334E-8205-9E8B238954EB}"/>
-    <hyperlink ref="C75" r:id="rId48" xr:uid="{7630AD76-7E6B-8C4A-BA33-A62EBB042215}"/>
-    <hyperlink ref="C76" r:id="rId49" xr:uid="{2A738B70-CBF0-CC40-8B05-A271822B3F1A}"/>
-    <hyperlink ref="C78" r:id="rId50" xr:uid="{B2DE2D9E-8371-CD44-9D0D-4D6DC64AC29B}"/>
-    <hyperlink ref="C79" r:id="rId51" xr:uid="{265DCD11-17A0-654E-BEFE-FABA31210C6E}"/>
-    <hyperlink ref="C80" r:id="rId52" xr:uid="{47F1BB0C-0C5C-0845-8EEC-1560C50D7DA7}"/>
-    <hyperlink ref="C81" r:id="rId53" xr:uid="{8E0BFA2E-CCB4-514F-86CD-78176C6CC98A}"/>
-    <hyperlink ref="C82" r:id="rId54" xr:uid="{E4DEFB4B-749F-8746-97C7-F2B433664A74}"/>
-    <hyperlink ref="C83" r:id="rId55" xr:uid="{8301BDBD-EB7E-7D41-A777-ED99C3F9D67D}"/>
-    <hyperlink ref="C84" r:id="rId56" xr:uid="{927AE532-647F-AF4C-A567-40ADA6FCE534}"/>
-    <hyperlink ref="C85" r:id="rId57" xr:uid="{05489F52-CC92-EC44-9AD3-773DEC3B1D36}"/>
-    <hyperlink ref="C86" r:id="rId58" xr:uid="{13025DF6-C30E-014A-B66C-68C4AAAC1C6E}"/>
-    <hyperlink ref="C87" r:id="rId59" xr:uid="{BEE1F613-C189-B949-A225-0E0C5AFD1532}"/>
-    <hyperlink ref="C88" r:id="rId60" xr:uid="{1DFECD6C-D7CC-0340-B29B-4D56E50711E5}"/>
-    <hyperlink ref="C89" r:id="rId61" xr:uid="{70BED156-B004-E043-BF7D-59EFAA9EADAF}"/>
-    <hyperlink ref="C90" r:id="rId62" xr:uid="{FF9CBAFB-900E-E242-8B33-EDF46F0F40B5}"/>
-    <hyperlink ref="C91" r:id="rId63" xr:uid="{19461114-B3E8-9042-8029-100010946A04}"/>
-    <hyperlink ref="C92" r:id="rId64" xr:uid="{00F71118-E30B-A84E-819E-FFA902C70502}"/>
-    <hyperlink ref="C93" r:id="rId65" xr:uid="{58E70966-BBE0-7743-A250-AE4DD57807DE}"/>
-    <hyperlink ref="C94" r:id="rId66" xr:uid="{09409FE3-9D7E-4F43-BB21-14A1B8D6E480}"/>
-    <hyperlink ref="C95" r:id="rId67" xr:uid="{E199A3DC-3DA1-C648-93C0-DF9CD5331204}"/>
-    <hyperlink ref="C96" r:id="rId68" xr:uid="{85886847-1510-AA46-B10C-F3D80591DD74}"/>
-    <hyperlink ref="C97" r:id="rId69" xr:uid="{F60808FC-F09D-FC44-B2DD-752E55A1C698}"/>
-    <hyperlink ref="C98" r:id="rId70" xr:uid="{16B2725E-1AD5-0441-9B5B-B6B2F458091B}"/>
-    <hyperlink ref="C99" r:id="rId71" xr:uid="{8440D753-5DE9-3243-97C2-C09D195C325F}"/>
-    <hyperlink ref="C100" r:id="rId72" xr:uid="{AC63A963-B6CC-6E4E-B72A-7F472BC4C027}"/>
-    <hyperlink ref="C101" r:id="rId73" xr:uid="{B21B87F1-A0C0-7F4E-B36F-912B871D0EF4}"/>
-    <hyperlink ref="C102" r:id="rId74" xr:uid="{789FFFAC-8B7E-0540-98B8-856430EB56F8}"/>
-    <hyperlink ref="C103" r:id="rId75" xr:uid="{4A0E959E-22F4-6948-A819-76FE76AB9F6D}"/>
-    <hyperlink ref="C104" r:id="rId76" xr:uid="{78B76678-D8EE-9745-98B1-DF7A76EA3B10}"/>
-    <hyperlink ref="C105" r:id="rId77" xr:uid="{62982242-1D19-1544-8653-8E25E9BF4505}"/>
-    <hyperlink ref="C106" r:id="rId78" xr:uid="{8E3D4BDF-9F8F-0542-BFD8-C3CE3BF396E6}"/>
-    <hyperlink ref="C107" r:id="rId79" xr:uid="{A3D51762-65A1-9A44-B619-D1D98A7F403B}"/>
-    <hyperlink ref="C108" r:id="rId80" xr:uid="{ED0F5FC7-0066-EB44-8FCF-460600DADB02}"/>
-    <hyperlink ref="C109" r:id="rId81" xr:uid="{2D956AC4-4774-7446-8473-C4CE00E33C17}"/>
-    <hyperlink ref="C110" r:id="rId82" xr:uid="{C8C607BB-1FEE-FA47-9E3E-6C0BCE978B7F}"/>
-    <hyperlink ref="C111" r:id="rId83" xr:uid="{B9AC5194-6D36-684A-A5C4-BEE11037599F}"/>
-    <hyperlink ref="C112" r:id="rId84" xr:uid="{AB28D9E6-890C-F14A-A5FB-2303BE319968}"/>
-    <hyperlink ref="C113" r:id="rId85" xr:uid="{1F507CBC-4056-AD46-9314-95ECBB9D799D}"/>
-    <hyperlink ref="C114" r:id="rId86" xr:uid="{F152A9AF-5CBA-EC44-A9CF-07AB481435AB}"/>
-    <hyperlink ref="C115" r:id="rId87" xr:uid="{346CA74F-60B7-0A4B-A612-9184D4DCFF62}"/>
-    <hyperlink ref="C116" r:id="rId88" xr:uid="{8C653CB1-4954-754F-8D46-F09141A2FCDB}"/>
-    <hyperlink ref="C119" r:id="rId89" xr:uid="{5989F693-2A61-A346-8395-8674307A4CC2}"/>
-    <hyperlink ref="C120" r:id="rId90" xr:uid="{3AD10C9E-4F6D-DE48-92F3-531A586520C6}"/>
-    <hyperlink ref="C121" r:id="rId91" xr:uid="{4FA217C0-A1F3-904E-8FEA-EA4941273A67}"/>
-    <hyperlink ref="C122" r:id="rId92" xr:uid="{A297BBC0-FA0D-2D46-9C49-3932193EF1D3}"/>
-    <hyperlink ref="C124" r:id="rId93" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance." xr:uid="{DCD751DE-E440-F346-B6FD-CBD072217214}"/>
-    <hyperlink ref="C125" r:id="rId94" xr:uid="{B2FD38B9-1E2B-8140-8291-F45734C98145}"/>
-    <hyperlink ref="C126" r:id="rId95" xr:uid="{C76888B3-18AC-9B48-9E2A-64A7DF0902B7}"/>
-    <hyperlink ref="C127" r:id="rId96" xr:uid="{18A79860-6C9E-A941-8D6C-360B9913E941}"/>
-    <hyperlink ref="C128" r:id="rId97" xr:uid="{C0DDFD68-CBC1-0F4A-AF40-ACF36BBC8453}"/>
-    <hyperlink ref="C129" r:id="rId98" xr:uid="{3E0BF737-E42E-C946-B32C-06882E0BA6FF}"/>
-    <hyperlink ref="C131" r:id="rId99" xr:uid="{862F9782-C57B-2848-A2D9-EB7B52FB7EC7}"/>
-    <hyperlink ref="C132" r:id="rId100" xr:uid="{230D7A6A-D2C5-C140-9A65-B1F407D22062}"/>
-    <hyperlink ref="C133" r:id="rId101" xr:uid="{BDC2BA28-4562-984E-8282-1126BF952EAF}"/>
-    <hyperlink ref="C134" r:id="rId102" xr:uid="{B53A5F28-6DED-3D47-8679-F78D3DDEFF01}"/>
-    <hyperlink ref="C135" r:id="rId103" xr:uid="{C57D0CC7-DA2F-0948-9BCE-F19C20C7D981}"/>
-    <hyperlink ref="C136" r:id="rId104" xr:uid="{117878E5-B8C8-254B-8ED6-014B4B7A8126}"/>
-    <hyperlink ref="C137" r:id="rId105" xr:uid="{B7CC0756-74F2-D54D-BDEE-9DA394DD7168}"/>
-    <hyperlink ref="C138" r:id="rId106" xr:uid="{837EF472-CCC2-CF47-A8A8-238E56F722CE}"/>
-    <hyperlink ref="C139" r:id="rId107" xr:uid="{3608F267-6AA0-624B-B243-7DDD317E9F08}"/>
-    <hyperlink ref="C140" r:id="rId108" xr:uid="{0B6123E6-0472-374B-ACA7-6914CD7918E8}"/>
-    <hyperlink ref="C141" r:id="rId109" xr:uid="{D3971CEB-C53E-B04B-9C32-1803182B5DC5}"/>
-    <hyperlink ref="C142" r:id="rId110" xr:uid="{7CF5013A-643E-1643-93A1-A2F1500D2A23}"/>
-    <hyperlink ref="C143" r:id="rId111" xr:uid="{2A6BE7E5-D818-6843-8C3E-99EA2BFE0FB2}"/>
-    <hyperlink ref="C144" r:id="rId112" xr:uid="{E718F544-96DF-A04E-8DFB-7639DA3EA57C}"/>
-    <hyperlink ref="C145" r:id="rId113" xr:uid="{B0C2F065-424A-7345-A864-346ECD98D749}"/>
-    <hyperlink ref="C146" r:id="rId114" xr:uid="{B4E26955-5C3F-804E-B19A-11260310AFB3}"/>
-    <hyperlink ref="C147" r:id="rId115" xr:uid="{6F299BB5-8E82-0240-A9A3-6829CE3ABCBF}"/>
-    <hyperlink ref="C148" r:id="rId116" xr:uid="{A42CA32F-2196-1840-A53D-E5073237C68D}"/>
-    <hyperlink ref="C149" r:id="rId117" xr:uid="{7ECF6EF4-962E-4642-9B1C-C3B70674793E}"/>
-    <hyperlink ref="C150" r:id="rId118" xr:uid="{2A109178-6B60-164E-9D25-42B3282137E3}"/>
-    <hyperlink ref="C151" r:id="rId119" xr:uid="{B3D38BD0-A6A1-8D41-8405-45E1BEEEEF06}"/>
-    <hyperlink ref="C152" r:id="rId120" xr:uid="{A1C26612-D040-2A41-A6A6-A8F2490C0A43}"/>
-    <hyperlink ref="C153" r:id="rId121" xr:uid="{C476E807-64CB-F44A-A23D-D21EBF6D001D}"/>
-    <hyperlink ref="C154" r:id="rId122" xr:uid="{9A414D55-D4A1-F147-9207-61B597D57136}"/>
-    <hyperlink ref="C123" r:id="rId123" xr:uid="{18B028A7-9B6F-D841-8548-924D70530779}"/>
-    <hyperlink ref="C130" r:id="rId124" xr:uid="{6D3E75EF-733F-7A4B-81C8-AEF6CB6335F0}"/>
-    <hyperlink ref="C159" r:id="rId125" xr:uid="{C9EB2682-BE0B-934B-B0B4-1DD1A1502647}"/>
-    <hyperlink ref="C160" r:id="rId126" xr:uid="{2992FED9-2B78-A342-92AA-E7C0F882FF17}"/>
-    <hyperlink ref="C161" r:id="rId127" xr:uid="{0084DA6F-EC84-BD48-BDA8-EBACA3BB3B3E}"/>
-    <hyperlink ref="C162" r:id="rId128" xr:uid="{30F2D415-4B2C-384C-8EAE-2CC71CB518E2}"/>
-    <hyperlink ref="C163" r:id="rId129" xr:uid="{40734C88-7C5B-9747-86D1-03463D9AD41A}"/>
-    <hyperlink ref="C164" r:id="rId130" xr:uid="{1040D22F-6729-104A-A229-CBDCED93024A}"/>
-    <hyperlink ref="C165" r:id="rId131" xr:uid="{E131FE61-FABF-8E4B-8EF0-F68379D8F836}"/>
-    <hyperlink ref="C166" r:id="rId132" xr:uid="{B2129272-1351-3745-883B-E6A7115450C8}"/>
-    <hyperlink ref="C167" r:id="rId133" xr:uid="{C8B2DEF0-2B69-C84E-8013-0B6F03FFC250}"/>
-    <hyperlink ref="C168" r:id="rId134" xr:uid="{536AC5CF-712F-BF48-94A9-D0E7DC013020}"/>
-    <hyperlink ref="C169" r:id="rId135" xr:uid="{2DABC9C7-43D4-1249-AF9B-5FA4552611CB}"/>
-    <hyperlink ref="C170" r:id="rId136" xr:uid="{DA62E73A-B495-F94A-BECE-D42E4CBF074A}"/>
-    <hyperlink ref="C171" r:id="rId137" xr:uid="{7F5E6966-850D-4F49-B2A5-678365713F28}"/>
-    <hyperlink ref="C172" r:id="rId138" xr:uid="{E9C4286D-8493-9A47-8B8C-09583FA72B70}"/>
-    <hyperlink ref="C173" r:id="rId139" xr:uid="{9EB0123C-84AE-1C4D-BA1A-C28CFB8EFB89}"/>
-    <hyperlink ref="C174" r:id="rId140" xr:uid="{9D11FED4-328F-674E-889D-EC781DD1D791}"/>
-    <hyperlink ref="C175" r:id="rId141" xr:uid="{48AE72DB-397B-464D-88AD-B8058ED29CC1}"/>
-    <hyperlink ref="C176" r:id="rId142" xr:uid="{152D50E9-7448-F542-AC66-05D0AE66664C}"/>
-    <hyperlink ref="C177" r:id="rId143" xr:uid="{34E6AF1B-5FB1-3A4B-8938-1DCF80831DC2}"/>
-    <hyperlink ref="C178" r:id="rId144" xr:uid="{E7F8B7CA-49F4-1946-91EE-E7582BE4E5DA}"/>
-    <hyperlink ref="C179" r:id="rId145" xr:uid="{3590A994-B7A2-C14D-9BF8-7AC8FE9E7F0F}"/>
-    <hyperlink ref="C180" r:id="rId146" xr:uid="{0AAA4B0C-4921-C34D-B41E-D702FA860892}"/>
-    <hyperlink ref="C181" r:id="rId147" xr:uid="{5973FCA4-AE32-5248-A6ED-2694367332F1}"/>
-    <hyperlink ref="C182" r:id="rId148" xr:uid="{4C0F816E-F043-0C47-BF16-1CDAD88D2FF1}"/>
-    <hyperlink ref="C183" r:id="rId149" xr:uid="{A8E4C654-D0BD-8945-9F5C-B09F7BC114BE}"/>
-    <hyperlink ref="C186" r:id="rId150" xr:uid="{E3825C15-10BB-E24F-B229-983F651DA942}"/>
-    <hyperlink ref="C187" r:id="rId151" xr:uid="{46ECFC31-388C-6241-8FFE-DED6F2FC794A}"/>
-    <hyperlink ref="C188" r:id="rId152" xr:uid="{589E024D-3FE1-1048-890C-88289733F233}"/>
-    <hyperlink ref="C189" r:id="rId153" xr:uid="{CDA28F7A-7FC5-F74D-B27E-A6E0161D41D5}"/>
-    <hyperlink ref="C190" r:id="rId154" xr:uid="{DA6A0D92-DCEB-DA4F-8BBA-10FCD092838F}"/>
-    <hyperlink ref="C191" r:id="rId155" xr:uid="{955769DB-3256-254B-90DE-E1E01B272F8A}"/>
-    <hyperlink ref="C192" r:id="rId156" xr:uid="{DED7AC9B-40D7-0545-9D6F-6CD4F5FFE4C6}"/>
-    <hyperlink ref="C193" r:id="rId157" xr:uid="{6947A4E1-B6AA-6D4F-A6D8-8FA74FD02887}"/>
-    <hyperlink ref="C194" r:id="rId158" xr:uid="{EABF2012-5A90-0C4E-86F6-FDB5FA7770BE}"/>
-    <hyperlink ref="C197" r:id="rId159" xr:uid="{7F44CFE0-9ED1-A44D-B9EF-CF87BEB644FC}"/>
-    <hyperlink ref="C198" r:id="rId160" xr:uid="{CF6E0CF6-7A93-D84A-9CE0-5BDD51767416}"/>
-    <hyperlink ref="C199" r:id="rId161" xr:uid="{EFF8F154-60B8-B84B-84CA-32756BD6430F}"/>
-    <hyperlink ref="C200" r:id="rId162" xr:uid="{C8A3094E-E11B-2543-B05E-1D07048B2EBA}"/>
-    <hyperlink ref="C201" r:id="rId163" xr:uid="{9961E5F5-B5C6-0C4D-A1D0-D04D2A5D7DFD}"/>
-    <hyperlink ref="C202" r:id="rId164" xr:uid="{44E289EC-47DD-D94D-88C1-CB2F59C6C16A}"/>
-    <hyperlink ref="C203" r:id="rId165" xr:uid="{4161FC70-DD6D-684B-898A-A4711596B2D5}"/>
-    <hyperlink ref="C204" r:id="rId166" xr:uid="{B9CBE387-8E9A-ED48-8310-CF7D34FA690C}"/>
-    <hyperlink ref="C205" r:id="rId167" xr:uid="{5398097B-24FF-9543-8F02-33CE2860F1F7}"/>
-    <hyperlink ref="C206" r:id="rId168" xr:uid="{3B1FC30B-30C8-7B48-AF94-A81FB513F24F}"/>
-    <hyperlink ref="C207" r:id="rId169" xr:uid="{32B750D0-D7F2-694D-AB9B-25AFAFAFF17F}"/>
-    <hyperlink ref="C208" r:id="rId170" xr:uid="{400689DD-8E95-024E-976B-AACD8ED4E1A6}"/>
-    <hyperlink ref="C209" r:id="rId171" xr:uid="{28753DDE-E047-5D40-A30B-1103BE6DA08F}"/>
-    <hyperlink ref="C210" r:id="rId172" xr:uid="{6C5AA6CB-3D93-0740-AEED-9E6C218CF6CB}"/>
-    <hyperlink ref="C211" r:id="rId173" xr:uid="{03EAA2B9-D8B8-D642-BF24-380596D26B2E}"/>
-    <hyperlink ref="C212" r:id="rId174" xr:uid="{8C1719B4-37CC-484E-BDCE-A4272C07F91B}"/>
-    <hyperlink ref="C213" r:id="rId175" xr:uid="{6C198DA2-BB98-F940-8EF6-2FC8B7AE577A}"/>
-    <hyperlink ref="C214" r:id="rId176" xr:uid="{AB0EA311-A446-D046-A0EC-290B42068328}"/>
-    <hyperlink ref="C215" r:id="rId177" xr:uid="{DB913045-B9F6-6549-AA09-22B0CC5FDD21}"/>
-    <hyperlink ref="C216" r:id="rId178" xr:uid="{806469FD-617A-7445-AAB5-FB2FD2ED24EA}"/>
-    <hyperlink ref="C217" r:id="rId179" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." xr:uid="{1A10544E-58CF-D04D-9FAF-2FEC6DB2B5D4}"/>
-    <hyperlink ref="C218" r:id="rId180" xr:uid="{5A0B6645-89FD-E044-A706-9FB890274C3C}"/>
-    <hyperlink ref="C219" r:id="rId181" xr:uid="{B42A3009-E8EB-EE44-885F-6699C17A0E0B}"/>
-    <hyperlink ref="C220" r:id="rId182" xr:uid="{ED3E48AB-E25B-3744-B024-E97B2A319B46}"/>
-    <hyperlink ref="C221" r:id="rId183" xr:uid="{C75D20A3-CBAE-2649-A3EE-E49177CFA343}"/>
-    <hyperlink ref="C222" r:id="rId184" xr:uid="{3863CA1B-D43E-1144-91A9-17C2DCF52A64}"/>
-    <hyperlink ref="C223" r:id="rId185" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." xr:uid="{E9AF434E-4CAA-5D49-8AD3-889CDE2913D9}"/>
-    <hyperlink ref="C224" r:id="rId186" xr:uid="{1A0568E5-3A11-7F47-8001-82B05D7C2339}"/>
-    <hyperlink ref="C225" r:id="rId187" xr:uid="{F62B8AE4-9C4F-9544-8861-CD733C12F79E}"/>
-    <hyperlink ref="C226" r:id="rId188" xr:uid="{0F6A542C-44C9-5A4C-90BF-BC8C239877D2}"/>
-    <hyperlink ref="C227" r:id="rId189" xr:uid="{3ED28203-B1B5-4E46-AAF3-779EDD4AC03F}"/>
-    <hyperlink ref="C228" r:id="rId190" xr:uid="{4338B305-B52F-5540-9B51-B938FC6803A2}"/>
-    <hyperlink ref="C229" r:id="rId191" xr:uid="{DDEEED0F-A939-1E4F-B2FA-AD391A4A2874}"/>
-    <hyperlink ref="C230" r:id="rId192" xr:uid="{C2F20589-AD81-654C-94E5-E5B6C9FE27F6}"/>
-    <hyperlink ref="C231" r:id="rId193" xr:uid="{BBEB9DAC-E4AE-C04F-AA15-6356AFC57FDE}"/>
-    <hyperlink ref="C234" r:id="rId194" xr:uid="{6316566D-A10A-F849-9F25-B9ED4DA12BC7}"/>
-    <hyperlink ref="C235" r:id="rId195" xr:uid="{9D4DD895-FBA6-C849-A5BF-3B30755BD9C9}"/>
-    <hyperlink ref="C236" r:id="rId196" xr:uid="{475996DA-632A-BE49-AEA1-D4189FD614A1}"/>
-    <hyperlink ref="C237" r:id="rId197" xr:uid="{88E0C858-8468-884F-BB71-F6F176BD5FC2}"/>
-    <hyperlink ref="C238" r:id="rId198" xr:uid="{C1C5C8D0-7A06-3D4A-A85A-AAACC1B418C9}"/>
-    <hyperlink ref="C239" r:id="rId199" xr:uid="{D525D4B1-2857-1543-8CD9-196728321203}"/>
-    <hyperlink ref="C240" r:id="rId200" xr:uid="{51E3AB9B-04B2-C041-A2B3-37E3EB18013A}"/>
-    <hyperlink ref="C241" r:id="rId201" xr:uid="{7F7F0C9A-57B9-314F-959A-B8ACAFA5FD13}"/>
-    <hyperlink ref="C242" r:id="rId202" xr:uid="{3B029785-83B4-6140-8B70-CD892CFC87F6}"/>
-    <hyperlink ref="C243" r:id="rId203" xr:uid="{B0A390E6-D860-9F4E-B021-68949FE712F3}"/>
-    <hyperlink ref="C244" r:id="rId204" xr:uid="{49E9953D-52F6-BF47-8AAA-8E456F55576B}"/>
-    <hyperlink ref="C245" r:id="rId205" xr:uid="{9B812470-F419-A54E-8365-06A9B8864A30}"/>
-    <hyperlink ref="C246" r:id="rId206" xr:uid="{B6FB4107-1933-6D45-9EF4-4474E06CBE9D}"/>
-    <hyperlink ref="C247" r:id="rId207" xr:uid="{0F7C1D92-7BCB-D14D-A658-9599984E04E4}"/>
-    <hyperlink ref="C248" r:id="rId208" xr:uid="{6810428F-0A78-964C-A8C8-E1CD2E7C405D}"/>
-    <hyperlink ref="C249" r:id="rId209" xr:uid="{B40209F2-0D6E-364F-8AF6-F1D182509314}"/>
-    <hyperlink ref="C250" r:id="rId210" xr:uid="{96C53FA9-9FD3-2D4F-B292-3C9DEDFA806E}"/>
-    <hyperlink ref="C251" r:id="rId211" xr:uid="{918B420D-3678-FD46-9463-595E8ACC39E1}"/>
-    <hyperlink ref="C252" r:id="rId212" xr:uid="{851A7153-3B54-0E4A-A0A0-FCEB091AFE70}"/>
-    <hyperlink ref="C253" r:id="rId213" xr:uid="{C03AE9F8-09AE-C640-81A7-033BB06FB6AD}"/>
-    <hyperlink ref="C254" r:id="rId214" xr:uid="{35140DEB-52D2-4342-88D2-22BA061E5B48}"/>
-    <hyperlink ref="C255" r:id="rId215" xr:uid="{9714BC0B-3373-934C-B7A1-599F74F4FB9D}"/>
-    <hyperlink ref="C258" r:id="rId216" xr:uid="{5CB435B2-7FD2-1D44-9872-22B6A1EDC02B}"/>
-    <hyperlink ref="C259" r:id="rId217" xr:uid="{722D1D95-896B-4642-BABD-31DEDD237B49}"/>
-    <hyperlink ref="C260" r:id="rId218" xr:uid="{D686D1DC-13D6-284C-B606-E087FAF47399}"/>
-    <hyperlink ref="C261" r:id="rId219" xr:uid="{D22C2394-C3CB-8F4F-A010-2B13C8C84D1A}"/>
-    <hyperlink ref="C262" r:id="rId220" xr:uid="{3AE2F800-B66F-1A41-893B-978F6875FDC8}"/>
-    <hyperlink ref="C263" r:id="rId221" xr:uid="{2C939BDE-5298-5541-837B-8C59D53A33C1}"/>
-    <hyperlink ref="C264" r:id="rId222" xr:uid="{691C9BD8-69D3-DA4B-AEB6-AF827B4ACA9F}"/>
-    <hyperlink ref="C265" r:id="rId223" xr:uid="{B6891E82-7C4D-424D-9219-3C9FD08E0053}"/>
-    <hyperlink ref="C266" r:id="rId224" xr:uid="{67A1AE98-62D2-644D-AC13-6CD76CF53CC0}"/>
-    <hyperlink ref="C267" r:id="rId225" xr:uid="{B59D4881-2A82-8F4D-B151-1E796C4923C8}"/>
-    <hyperlink ref="C268" r:id="rId226" xr:uid="{B3CBD023-5EFD-6048-9B3F-89F0C65CBBF5}"/>
-    <hyperlink ref="C269" r:id="rId227" xr:uid="{53EC42C4-22F7-0445-A0AC-7275A59A2672}"/>
-    <hyperlink ref="C270" r:id="rId228" xr:uid="{A29575F3-CB24-5B4B-9538-D5212B2DC28B}"/>
-    <hyperlink ref="C271" r:id="rId229" xr:uid="{353A44DD-9E30-8F48-8E2B-8DAA07550470}"/>
-    <hyperlink ref="C272" r:id="rId230" xr:uid="{32AC291D-95A5-BE49-88E0-02677BF39CAC}"/>
-    <hyperlink ref="C273" r:id="rId231" xr:uid="{A84F22FF-AD10-A546-8998-B066C0EB2D5A}"/>
-    <hyperlink ref="C274" r:id="rId232" xr:uid="{4C5CAF84-9B94-FC44-8C6C-B3CC7257C1DB}"/>
-    <hyperlink ref="C275" r:id="rId233" xr:uid="{5DA775E2-C516-3B47-8C82-3CEE7CC0BDF9}"/>
-    <hyperlink ref="C276" r:id="rId234" xr:uid="{00B6AE5C-EF3F-0747-A280-3BF055362B4F}"/>
-    <hyperlink ref="C277" r:id="rId235" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." xr:uid="{BCBD0A7E-F3D0-E840-9375-AFD37C5CD41A}"/>
-    <hyperlink ref="C278" r:id="rId236" xr:uid="{47ABDDDB-F95F-8049-9FB3-1E71A7376DDE}"/>
-    <hyperlink ref="C279" r:id="rId237" xr:uid="{70BADFC9-7399-234D-99F6-4C5F02397C26}"/>
-    <hyperlink ref="C280" r:id="rId238" xr:uid="{63348580-70EF-EC47-BF49-8ECE9560D54E}"/>
-    <hyperlink ref="C281" r:id="rId239" xr:uid="{D5BD96B3-9EAB-1B47-AC87-5C47F6AD7F40}"/>
-    <hyperlink ref="C282" r:id="rId240" xr:uid="{74791141-3FB8-7540-B45B-9541AF0AE371}"/>
-    <hyperlink ref="C283" r:id="rId241" xr:uid="{88D53CD6-262A-7247-8E58-FE9FFF7ECC40}"/>
-    <hyperlink ref="C284" r:id="rId242" xr:uid="{4338A14D-4F7D-B943-A347-7F74EFCA0DB5}"/>
-    <hyperlink ref="C285" r:id="rId243" xr:uid="{6E0EF7A3-7341-284B-A0E3-4539B6EAFAF2}"/>
-    <hyperlink ref="C286" r:id="rId244" xr:uid="{D2D8D64F-E2D3-734E-AD45-3EFB9686555A}"/>
-    <hyperlink ref="C287" r:id="rId245" xr:uid="{04A2904A-73A0-7845-9868-2CCFE359AC68}"/>
-    <hyperlink ref="C288" r:id="rId246" xr:uid="{D3D35835-6BE3-4D41-AF6F-5FE442277A16}"/>
-    <hyperlink ref="C289" r:id="rId247" xr:uid="{F663D0FC-CFF0-BC4F-9D26-48C871A8E9FD}"/>
-    <hyperlink ref="C290" r:id="rId248" xr:uid="{DF544147-DA48-4041-A4E2-4A75106B771A}"/>
-    <hyperlink ref="C291" r:id="rId249" xr:uid="{50E4B716-239E-7946-843D-E8462591D128}"/>
-    <hyperlink ref="C292" r:id="rId250" xr:uid="{D368B3E5-7D12-FD48-AFF7-A4A614108940}"/>
-    <hyperlink ref="C295" r:id="rId251" xr:uid="{D5921FF1-FC1F-CA4B-A24E-AD69E1DEC14C}"/>
-    <hyperlink ref="C296" r:id="rId252" xr:uid="{C931D7E0-E032-7C4B-95F1-735D955FCB51}"/>
-    <hyperlink ref="C297" r:id="rId253" xr:uid="{5FBD4A8F-287C-2C46-9CAB-F7DBA67DEDDA}"/>
-    <hyperlink ref="C298" r:id="rId254" xr:uid="{12966DD6-41DD-A94B-8B2C-0AD7D2AD6FB0}"/>
-    <hyperlink ref="C299" r:id="rId255" xr:uid="{CF720C34-4554-2944-A818-020ABC9BF0F4}"/>
-    <hyperlink ref="C300" r:id="rId256" xr:uid="{75763F2A-16D7-DE43-8189-19623CE26370}"/>
-    <hyperlink ref="C301" r:id="rId257" xr:uid="{9263AA30-472A-0A4D-BADF-96D82BB9BFCC}"/>
-    <hyperlink ref="C302" r:id="rId258" xr:uid="{2EF025C3-75C8-564E-BA8B-708C32B0E602}"/>
-    <hyperlink ref="C303" r:id="rId259" xr:uid="{6BDFDCA9-3421-F24F-8EF2-A72742F0AC21}"/>
-    <hyperlink ref="C304" r:id="rId260" xr:uid="{D8447F99-5FF9-D544-99BB-E9969B4A38D7}"/>
-    <hyperlink ref="C305" r:id="rId261" xr:uid="{1DB7EFDA-6C7D-F546-9EE1-F61ED0F65209}"/>
-    <hyperlink ref="C306" r:id="rId262" xr:uid="{D1505609-27D1-784D-ACF6-AE9D0DA2E1B6}"/>
-    <hyperlink ref="C307" r:id="rId263" xr:uid="{6BFA7B45-17D0-4E49-85DA-23C7255A306D}"/>
-    <hyperlink ref="C308" r:id="rId264" xr:uid="{3324BA4A-30CA-5246-8C3C-6505A6987939}"/>
-    <hyperlink ref="C309" r:id="rId265" xr:uid="{894486AD-2B6D-5740-BCAF-0BA1AFF814B4}"/>
-    <hyperlink ref="C310" r:id="rId266" xr:uid="{C47B203B-8B5A-E740-8C86-0784AD28089E}"/>
-    <hyperlink ref="C311" r:id="rId267" xr:uid="{06DC2E54-7597-AE4D-ACDB-B8883A989A4F}"/>
-    <hyperlink ref="C312" r:id="rId268" xr:uid="{E3384259-7CA7-1C44-A66D-11346EE6742E}"/>
-    <hyperlink ref="C313" r:id="rId269" xr:uid="{A5B77769-38AF-3D47-A76B-311591B57D91}"/>
-    <hyperlink ref="C316" r:id="rId270" xr:uid="{9DB6976A-C646-1341-90E8-3A164521267A}"/>
-    <hyperlink ref="C317" r:id="rId271" xr:uid="{03C291F8-D19A-304B-9EF9-CF71A1F66E49}"/>
-    <hyperlink ref="C318" r:id="rId272" xr:uid="{7536415C-140B-9244-B0B2-23F3ED0B2D80}"/>
-    <hyperlink ref="C319" r:id="rId273" xr:uid="{7DBDA456-8AF6-DD43-9764-17D3959B8E8F}"/>
-    <hyperlink ref="C320" r:id="rId274" xr:uid="{BFC149AB-C15A-B648-9F6A-ECD3890B1918}"/>
-    <hyperlink ref="C321" r:id="rId275" xr:uid="{0482240B-FEE9-F746-8980-52BCB7BBB56E}"/>
-    <hyperlink ref="C322" r:id="rId276" xr:uid="{86D1231A-E7C8-4B45-99ED-2DB0EF71E190}"/>
-    <hyperlink ref="C323" r:id="rId277" xr:uid="{20B7CE89-CB37-0040-989F-C8D1BE2B8782}"/>
-    <hyperlink ref="C324" r:id="rId278" xr:uid="{4C8412C9-A47B-9244-A18B-741516BD1054}"/>
-    <hyperlink ref="C325" r:id="rId279" xr:uid="{511761D9-31CE-0B43-AFFD-C011C27ACC52}"/>
-    <hyperlink ref="C326" r:id="rId280" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." xr:uid="{6905F997-D048-1049-BA27-C48756603D1E}"/>
-    <hyperlink ref="C327" r:id="rId281" xr:uid="{E657AA82-7CFE-DB42-B20F-F63D8C25EAB6}"/>
-    <hyperlink ref="C328" r:id="rId282" xr:uid="{3E505033-58F3-8F4E-AB82-E12DBC226AEA}"/>
-    <hyperlink ref="C329" r:id="rId283" xr:uid="{749599E5-4972-7343-B13B-87E26F837470}"/>
-    <hyperlink ref="C330" r:id="rId284" xr:uid="{12AA88DC-22AB-5A49-B28C-F04C8E35A215}"/>
-    <hyperlink ref="C331" r:id="rId285" xr:uid="{5751F0A7-7D9D-4148-820B-5B9659DFE34F}"/>
-    <hyperlink ref="C332" r:id="rId286" xr:uid="{4CA2DBEE-B161-B84D-B3A9-B8BC1B598AF2}"/>
-    <hyperlink ref="C333" r:id="rId287" xr:uid="{A9C1E578-6594-954C-8785-8902E605FC7A}"/>
-    <hyperlink ref="C334" r:id="rId288" xr:uid="{3D45E9B8-6671-A747-8C18-51CF8883170A}"/>
-    <hyperlink ref="C335" r:id="rId289" xr:uid="{4F5EF748-8CD4-0F47-90CE-3C93755BF63D}"/>
-    <hyperlink ref="C336" r:id="rId290" xr:uid="{44053C08-5050-C84B-B016-069B1EF9A43D}"/>
-    <hyperlink ref="C337" r:id="rId291" xr:uid="{ABF38928-736B-1A49-8B8A-1DCA5AAECB2B}"/>
-    <hyperlink ref="C338" r:id="rId292" xr:uid="{52651FAF-F3DC-E949-8AF8-998B9724B7D1}"/>
-    <hyperlink ref="C339" r:id="rId293" xr:uid="{91C6CCEF-3FF7-2C42-B5A0-8F4A403ED198}"/>
-    <hyperlink ref="C340" r:id="rId294" xr:uid="{15C8AF08-1A79-F949-9BE7-DD240CBD9861}"/>
-    <hyperlink ref="C341" r:id="rId295" xr:uid="{1904F984-5B22-8D46-BC33-3073B390E8F9}"/>
-    <hyperlink ref="C342" r:id="rId296" xr:uid="{A8BFB3A4-426B-E646-BCF0-FE19C8CD07A9}"/>
-    <hyperlink ref="C343" r:id="rId297" xr:uid="{FBBA29BB-885B-744A-A644-58EDCA7B140A}"/>
-    <hyperlink ref="C344" r:id="rId298" xr:uid="{75411687-6884-AC42-8B4A-1348C4837365}"/>
-    <hyperlink ref="C345" r:id="rId299" xr:uid="{A89ED8DF-F678-FE43-808C-C190721379BF}"/>
-    <hyperlink ref="C346" r:id="rId300" xr:uid="{1516834D-F3B2-1743-8811-263E11BBDEF8}"/>
-    <hyperlink ref="C347" r:id="rId301" xr:uid="{1659AB91-08CA-E44D-988D-E9D9A746D406}"/>
-    <hyperlink ref="C348" r:id="rId302" xr:uid="{E844BC1D-9713-9F4D-B0A4-1124A9952D14}"/>
-    <hyperlink ref="C349" r:id="rId303" xr:uid="{DCE2AAEF-8D8E-1843-BFE9-E9B7E13854EB}"/>
-    <hyperlink ref="C350" r:id="rId304" xr:uid="{836B3BF0-7711-7D41-9E72-914C1871397F}"/>
-    <hyperlink ref="C351" r:id="rId305" xr:uid="{F450CF9B-CA59-1443-8163-13F1121DCF12}"/>
-    <hyperlink ref="C352" r:id="rId306" xr:uid="{1539C3E8-4854-3C4F-A7B3-55BF931F1E2A}"/>
-    <hyperlink ref="C353" r:id="rId307" xr:uid="{04F1FC5F-5DA1-0144-962D-B38C1C41F0F4}"/>
-    <hyperlink ref="C356" r:id="rId308" xr:uid="{B21618F4-70E2-C549-80B7-7CF915679E0A}"/>
-    <hyperlink ref="C357" r:id="rId309" xr:uid="{EEDFBF11-C1E4-0847-9D56-94A72D97AEE7}"/>
-    <hyperlink ref="C358" r:id="rId310" xr:uid="{F5C0EDF1-7EAC-8849-8D27-C3389913BFC6}"/>
-    <hyperlink ref="C359" r:id="rId311" xr:uid="{50175B29-124F-4E4E-8E98-961BD3320359}"/>
-    <hyperlink ref="C360" r:id="rId312" xr:uid="{1BE23822-8512-014F-9154-F6EDA4FC8428}"/>
-    <hyperlink ref="C361" r:id="rId313" xr:uid="{38EC228E-ABFF-3542-9CFB-3DDFC628E9D0}"/>
-    <hyperlink ref="C362" r:id="rId314" xr:uid="{73F240F8-C469-454E-BA5C-CFF2F7A7A5F6}"/>
-    <hyperlink ref="C363" r:id="rId315" xr:uid="{3BBD1BAC-68C7-A94A-9063-AF62B5C837FD}"/>
-    <hyperlink ref="C364" r:id="rId316" xr:uid="{F9751D9B-2689-E24B-9FC3-CA32FE888708}"/>
-    <hyperlink ref="C365" r:id="rId317" xr:uid="{73C61D6A-D97C-B944-8B27-BB91564AB0D7}"/>
-    <hyperlink ref="C366" r:id="rId318" xr:uid="{936E077C-C016-A04F-895A-782D6D9D9433}"/>
-    <hyperlink ref="C367" r:id="rId319" xr:uid="{5454A2A1-6607-BE48-9215-CB8965EC3568}"/>
-    <hyperlink ref="C368" r:id="rId320" xr:uid="{FC1EAA10-F7ED-6B42-A79B-3D8B44E2C8B3}"/>
-    <hyperlink ref="C369" r:id="rId321" xr:uid="{FDB7F712-4A42-1048-8929-A1E752B07C6A}"/>
-    <hyperlink ref="C370" r:id="rId322" xr:uid="{AF3ACA60-0B0E-E146-B51F-A2CD05EB6549}"/>
-    <hyperlink ref="C371" r:id="rId323" xr:uid="{BB63E040-7A1A-E046-9BDD-9CBD1DA89DE9}"/>
-    <hyperlink ref="C372" r:id="rId324" xr:uid="{9AF8FD93-CCC9-D540-AE9A-00583F309649}"/>
-    <hyperlink ref="C373" r:id="rId325" xr:uid="{66A746A0-71FE-E546-92B7-D1C3D582E067}"/>
-    <hyperlink ref="C377" r:id="rId326" xr:uid="{BD79CCE1-5315-3944-9F9B-618615EC4583}"/>
-    <hyperlink ref="C378" r:id="rId327" xr:uid="{A5068A51-C961-6847-BB27-40A850B6D393}"/>
-    <hyperlink ref="C379" r:id="rId328" xr:uid="{6B8D36F0-E796-B944-A456-E8A9E2EE0BDB}"/>
-    <hyperlink ref="C380" r:id="rId329" xr:uid="{776652B7-2C11-4641-BF6A-EABEEB9B55AB}"/>
-    <hyperlink ref="C381" r:id="rId330" xr:uid="{95C6B35D-712A-2343-B790-236B55C5EC49}"/>
-    <hyperlink ref="C382" r:id="rId331" xr:uid="{4ED53872-1FE9-F140-AA35-F228F762880B}"/>
-    <hyperlink ref="C383" r:id="rId332" xr:uid="{6D5E6A28-85AA-BF4C-B2BD-9378D6E28EC7}"/>
-    <hyperlink ref="C384" r:id="rId333" xr:uid="{BCAD1ECB-15EE-CF49-878E-AA682DE3AC22}"/>
-    <hyperlink ref="C385" r:id="rId334" xr:uid="{C85468B5-25E9-E446-808E-72CFE911F0C2}"/>
-    <hyperlink ref="C386" r:id="rId335" xr:uid="{9503AECA-1A6A-9640-A04C-4CEAA2304448}"/>
-    <hyperlink ref="C387" r:id="rId336" xr:uid="{74211516-06B0-AA45-845B-52C8202751DA}"/>
-    <hyperlink ref="C388" r:id="rId337" xr:uid="{02C696BC-4B91-9444-900F-9CD68E409ABC}"/>
-    <hyperlink ref="C389" r:id="rId338" xr:uid="{04646C45-4118-374C-839D-94D31D534FAC}"/>
-    <hyperlink ref="C390" r:id="rId339" xr:uid="{F90BCCAE-8596-FC4D-BDD7-774392C596DF}"/>
-    <hyperlink ref="C391" r:id="rId340" xr:uid="{65230925-36EC-8A4B-8E46-6350B9BC0F95}"/>
-    <hyperlink ref="C392" r:id="rId341" xr:uid="{E91B8177-0C7A-1F40-BD34-4CC60F03B84F}"/>
-    <hyperlink ref="C393" r:id="rId342" xr:uid="{E8CBFD60-7335-0B4D-9FF5-99B4A8DC551D}"/>
-    <hyperlink ref="C394" r:id="rId343" xr:uid="{A35F55D4-9B87-C745-94DB-E7D820193C30}"/>
-    <hyperlink ref="C395" r:id="rId344" xr:uid="{6461A29F-D404-334F-B13F-296B4CA5E8A4}"/>
-    <hyperlink ref="C396" r:id="rId345" xr:uid="{FA9B4BE7-85CC-B24F-9461-5E9B42DDD824}"/>
-    <hyperlink ref="C397" r:id="rId346" xr:uid="{A75ACEA2-CDF6-A147-8540-A6DF55B15F45}"/>
-    <hyperlink ref="C398" r:id="rId347" xr:uid="{62FF87E2-E658-AB4D-AC57-7BCF9D49516E}"/>
-    <hyperlink ref="C399" r:id="rId348" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." xr:uid="{269338A6-5145-6944-9F7F-BD2A86DFA308}"/>
-    <hyperlink ref="C400" r:id="rId349" xr:uid="{8F583049-CE8D-CD42-88CD-CF3857942670}"/>
-    <hyperlink ref="C401" r:id="rId350" xr:uid="{EE2348AD-E296-894A-B5AE-5884A3C5E419}"/>
-    <hyperlink ref="C402" r:id="rId351" xr:uid="{6EACB34E-B32E-8F43-8055-2406F7417A7E}"/>
-    <hyperlink ref="C403" r:id="rId352" xr:uid="{2446F10A-B762-B64C-97B2-6131A0BECC1F}"/>
-    <hyperlink ref="C404" r:id="rId353" xr:uid="{6FDFCC53-17A6-7244-88A7-49406D7C9200}"/>
-    <hyperlink ref="C405" r:id="rId354" xr:uid="{3EC43646-EAB1-E443-A2F6-8E6E5FC77083}"/>
-    <hyperlink ref="C406" r:id="rId355" xr:uid="{659D9F20-C862-C947-B422-84143CFE317F}"/>
-    <hyperlink ref="C407" r:id="rId356" xr:uid="{3F5192FE-1C50-C049-88D5-68FA0F5430A0}"/>
-    <hyperlink ref="C408" r:id="rId357" xr:uid="{5EAD7CDA-9545-454B-BE77-9AFEC6AC1083}"/>
-    <hyperlink ref="C409" r:id="rId358" xr:uid="{761E5451-736B-6745-9CF5-4C6EF5D4C099}"/>
-    <hyperlink ref="C410" r:id="rId359" xr:uid="{4C8677A9-D94C-134F-AF31-E424751BF867}"/>
-    <hyperlink ref="C411" r:id="rId360" xr:uid="{CCF7920F-D5CE-004A-86C3-D821FB230970}"/>
-    <hyperlink ref="C412" r:id="rId361" xr:uid="{B4C07A0A-1EDD-7947-9646-3FD603441AD7}"/>
-    <hyperlink ref="C413" r:id="rId362" xr:uid="{49F7BB43-6851-0641-9DC5-27DBC66706F6}"/>
-    <hyperlink ref="C414" r:id="rId363" xr:uid="{77038647-48C7-5547-8E0F-898610362465}"/>
-    <hyperlink ref="C416" r:id="rId364" xr:uid="{EEFFE19C-6571-C64F-A0E1-5A4A700D94D4}"/>
-    <hyperlink ref="C415" r:id="rId365" xr:uid="{A4A2BFC4-6B88-2E4E-B362-17D8EE041C89}"/>
-    <hyperlink ref="C417" r:id="rId366" xr:uid="{DC5B603A-8D65-3648-A08A-E5FFA0FAE879}"/>
-    <hyperlink ref="C418" r:id="rId367" xr:uid="{F8807DD9-F4F2-B147-9C31-DBC93B2E477B}"/>
-    <hyperlink ref="C419" r:id="rId368" xr:uid="{6F7B396C-D7E9-C04E-BAE2-53D2EE07172B}"/>
-    <hyperlink ref="C422" r:id="rId369" xr:uid="{0D4A5941-C669-4A49-BAE3-9B553D03BD0F}"/>
-    <hyperlink ref="C423" r:id="rId370" xr:uid="{54144336-5BCA-D749-962A-E448C2CED3D3}"/>
-    <hyperlink ref="C424" r:id="rId371" xr:uid="{3A41DD21-CACF-1F48-A7C7-F568C6F31F3E}"/>
-    <hyperlink ref="C425" r:id="rId372" xr:uid="{A36160A8-F45E-3443-9645-42C1004B8F8C}"/>
-    <hyperlink ref="C426" r:id="rId373" xr:uid="{8B0A00A3-6AC0-DF46-AD87-A4DA016A2A00}"/>
-    <hyperlink ref="C427" r:id="rId374" xr:uid="{62A81CB4-A961-C543-B31C-92059DB6C105}"/>
-    <hyperlink ref="C430" r:id="rId375" xr:uid="{08030975-009C-C34A-A875-72FE2718F44C}"/>
-    <hyperlink ref="C431" r:id="rId376" xr:uid="{A113C7A9-2359-B643-9C08-E845813439C0}"/>
-    <hyperlink ref="C432" r:id="rId377" xr:uid="{FE300343-4633-AD47-A64D-2086629EB398}"/>
-    <hyperlink ref="C433" r:id="rId378" xr:uid="{4FC9F782-D38F-C642-A863-887B17AD05CD}"/>
-    <hyperlink ref="C434" r:id="rId379" xr:uid="{830C5466-10E3-7A48-B3E7-35C15A1CA4EF}"/>
-    <hyperlink ref="C435" r:id="rId380" xr:uid="{1B987077-E9D3-6F40-89EE-0D4E7180D884}"/>
-    <hyperlink ref="C436" r:id="rId381" xr:uid="{D4843E1F-7226-864E-A4BB-264D5A487B6D}"/>
-    <hyperlink ref="C437" r:id="rId382" xr:uid="{61816592-2D19-9946-8253-47A60218F2EA}"/>
-    <hyperlink ref="C438" r:id="rId383" xr:uid="{736C840F-19A3-0A4B-8863-ECB772B46385}"/>
-    <hyperlink ref="C439" r:id="rId384" xr:uid="{05A238AD-3C5B-C546-94E9-75BBF964711A}"/>
-    <hyperlink ref="C440" r:id="rId385" xr:uid="{7029629C-3F2A-4A49-997B-CFE86EC8B3C2}"/>
-    <hyperlink ref="C441" r:id="rId386" xr:uid="{ADA66B57-2FAC-AB42-BD83-4931708F3AB5}"/>
-    <hyperlink ref="C442" r:id="rId387" xr:uid="{F16BF1F9-755B-B045-B9A8-0B97E3BAC8B0}"/>
-    <hyperlink ref="C443" r:id="rId388" xr:uid="{ECCE930A-B960-234C-81EC-4B8514282AE9}"/>
-    <hyperlink ref="C444" r:id="rId389" xr:uid="{7AA58141-7D24-7C42-A0C1-F852B21CFFD9}"/>
-    <hyperlink ref="C445" r:id="rId390" xr:uid="{B1FCB47D-7921-3446-B2C7-72CBA815D056}"/>
-    <hyperlink ref="C446" r:id="rId391" xr:uid="{8C547719-AA03-3543-B31F-7300674AF4C5}"/>
-    <hyperlink ref="C447" r:id="rId392" xr:uid="{09922668-AFC0-F242-860E-9967E0F0FEF4}"/>
-    <hyperlink ref="C448" r:id="rId393" xr:uid="{0DA963DA-238B-D44E-9E03-6E6BD933B35E}"/>
-    <hyperlink ref="C449" r:id="rId394" xr:uid="{89518AFF-2526-C845-BC9D-95FE77AF416E}"/>
-    <hyperlink ref="C450" r:id="rId395" xr:uid="{FAECBBBE-196C-7A41-A0FB-E0597CB2CF51}"/>
-    <hyperlink ref="C451" r:id="rId396" xr:uid="{8126B039-0B25-B040-A0F6-C3457341A2E9}"/>
-    <hyperlink ref="C452" r:id="rId397" xr:uid="{6CB326E6-E698-EB42-884B-C89FFA33E3BA}"/>
-    <hyperlink ref="C453" r:id="rId398" xr:uid="{8C97EFD1-933F-A44F-A1CF-6386233104A2}"/>
-    <hyperlink ref="C454" r:id="rId399" xr:uid="{8F019F07-8532-E147-8BE1-4EBE833F61CA}"/>
-    <hyperlink ref="C455" r:id="rId400" xr:uid="{00F1A08F-3767-784A-97A3-4603DE38BACC}"/>
-    <hyperlink ref="C456" r:id="rId401" xr:uid="{2A84ADCB-071F-9A48-994D-7A838307EFD8}"/>
-    <hyperlink ref="C457" r:id="rId402" xr:uid="{132F8C6D-D5E8-6440-AC4E-B81EA2100416}"/>
-    <hyperlink ref="C458" r:id="rId403" xr:uid="{2DA6EAC2-1A1D-754F-9613-226CBC7890AF}"/>
-    <hyperlink ref="C459" r:id="rId404" xr:uid="{05BED99A-4562-D14E-8627-D07CF5335A9B}"/>
-    <hyperlink ref="C460" r:id="rId405" xr:uid="{111D902A-3F60-2D4B-89D3-5BCBD8AA38DD}"/>
-    <hyperlink ref="C461" r:id="rId406" xr:uid="{F19236BE-AC32-3542-9214-DFC3BAE04ED0}"/>
-    <hyperlink ref="C462" r:id="rId407" xr:uid="{4D97CD96-EA1B-664E-9380-EFD27077D273}"/>
-    <hyperlink ref="C463" r:id="rId408" xr:uid="{49A46D91-633F-A148-ACFA-49B7D1AA4B33}"/>
-    <hyperlink ref="C464" r:id="rId409" xr:uid="{7C3B7901-67E3-EA4D-BC64-21A78BC03AC6}"/>
-    <hyperlink ref="C465" r:id="rId410" xr:uid="{B27CA8C3-D34F-5E4D-94A5-11D14AFD0F82}"/>
-    <hyperlink ref="C466" r:id="rId411" xr:uid="{8FECE038-9764-5E4A-8C6E-9B3209812651}"/>
-    <hyperlink ref="C467" r:id="rId412" xr:uid="{95696D4B-89CB-5640-BE92-53B3C043F7EB}"/>
-    <hyperlink ref="C468" r:id="rId413" xr:uid="{DA74B737-802A-4944-A93E-0B9C8417630B}"/>
-    <hyperlink ref="C469" r:id="rId414" xr:uid="{B2C4C168-50FA-AF41-8F56-9E70613CF17D}"/>
-    <hyperlink ref="C471" r:id="rId415" xr:uid="{B7090C60-AC27-3F4F-8F0D-42F0791928C6}"/>
-    <hyperlink ref="C470" r:id="rId416" xr:uid="{07400041-66C6-514B-B3E3-427F2947C2B7}"/>
-    <hyperlink ref="C472" r:id="rId417" xr:uid="{B7E78172-8FB8-4E42-87D8-6A4654D79C62}"/>
-    <hyperlink ref="C473" r:id="rId418" xr:uid="{9A5D4670-BC64-334A-88CF-6F8287692C5E}"/>
-    <hyperlink ref="C474" r:id="rId419" xr:uid="{604283B6-53BC-044F-8D9D-E6094E798317}"/>
-    <hyperlink ref="C475" r:id="rId420" xr:uid="{5EB15AC7-3E0E-E44C-A5B9-32F30F234B5A}"/>
-    <hyperlink ref="C476" r:id="rId421" xr:uid="{3076BD5F-4B23-4146-A50A-499C9FF4C3D2}"/>
-    <hyperlink ref="C477" r:id="rId422" xr:uid="{6A29D9C2-1E78-1B43-A251-0AB0A97FA70E}"/>
-    <hyperlink ref="C478" r:id="rId423" xr:uid="{00597D5E-D693-DF4E-84C0-47E58A6ACA8F}"/>
-    <hyperlink ref="C479" r:id="rId424" xr:uid="{48640988-9964-0B4C-A014-83E2CEB3D632}"/>
-    <hyperlink ref="C480" r:id="rId425" xr:uid="{617AADC9-7534-FE45-96B0-EF4C1867B793}"/>
-    <hyperlink ref="C481" r:id="rId426" xr:uid="{7F8CDAA4-5094-8E4E-961B-41CDE5ACC0C0}"/>
-    <hyperlink ref="C482" r:id="rId427" xr:uid="{63F28ABD-12CF-5947-80DA-229E3CA3133E}"/>
-    <hyperlink ref="C489" r:id="rId428" xr:uid="{0A1DB92C-3315-1942-B27D-4B90986A6D9D}"/>
-    <hyperlink ref="C488" r:id="rId429" xr:uid="{11738B67-CADD-5D45-8417-8BE7A03FC79F}"/>
-    <hyperlink ref="C487" r:id="rId430" xr:uid="{B2B23748-D9E4-BE4F-A93E-49ECB4063831}"/>
-    <hyperlink ref="C486" r:id="rId431" xr:uid="{A2FB8A72-37B9-7E4A-B050-FD6CD20BCE73}"/>
-    <hyperlink ref="C485" r:id="rId432" xr:uid="{5A93C9AF-BFEB-EB40-95AC-C309ED09A604}"/>
-    <hyperlink ref="C484" r:id="rId433" xr:uid="{CC203923-2DC2-874B-B846-A8455E3CC2F2}"/>
-    <hyperlink ref="C483" r:id="rId434" xr:uid="{FCB0246E-0179-B447-B3CE-C60CDB388472}"/>
-    <hyperlink ref="C492" r:id="rId435" xr:uid="{F06CEE72-8CA4-C547-862C-39B86CD3226A}"/>
-    <hyperlink ref="C493" r:id="rId436" xr:uid="{CB3045F2-8D63-0F4E-85BC-AF016DB4F247}"/>
-    <hyperlink ref="C494" r:id="rId437" xr:uid="{667D57F5-E5AD-674F-A2F5-AFF4A14E4026}"/>
-    <hyperlink ref="C495" r:id="rId438" xr:uid="{27A13A65-56CE-BF4D-BA0D-EB87D910272D}"/>
-    <hyperlink ref="C496" r:id="rId439" xr:uid="{2C72A52E-6F06-0246-AEB5-93CD0DEA8866}"/>
-    <hyperlink ref="C497" r:id="rId440" xr:uid="{24B29046-B4DD-674B-9EDF-6C94BEC3FDD8}"/>
-    <hyperlink ref="C498" r:id="rId441" xr:uid="{D018EBC3-3FB3-AC4D-9D64-D218345A46C8}"/>
-    <hyperlink ref="C501" r:id="rId442" xr:uid="{1E1D3964-01E0-3145-ACFE-B6A5BF0EECB0}"/>
-    <hyperlink ref="C499" r:id="rId443" xr:uid="{FA0E5061-A7E2-C045-9671-1CD9446D1932}"/>
-    <hyperlink ref="C500" r:id="rId444" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{92704F5B-7B31-2F42-80DD-764B2206D9DB}"/>
-    <hyperlink ref="C376" r:id="rId445" xr:uid="{A48B1A24-83B1-7A4C-8129-CD37804DF849}"/>
-    <hyperlink ref="C156" r:id="rId446" xr:uid="{F0DDC999-C321-4AB4-BA9D-7538150E84D3}"/>
+    <hyperlink ref="C35" r:id="rId11" xr:uid="{76D41EAC-A28A-2845-8515-CA3C70D823B7}"/>
+    <hyperlink ref="C36" r:id="rId12" xr:uid="{828948BE-DD97-DE4A-BAD6-B415E29198F0}"/>
+    <hyperlink ref="C37" r:id="rId13" xr:uid="{E98C86AA-12E7-124C-B7D0-BCDFB246040B}"/>
+    <hyperlink ref="C38" r:id="rId14" xr:uid="{192741A9-FF68-DC4A-99FA-69F9968AB4F2}"/>
+    <hyperlink ref="C39" r:id="rId15" xr:uid="{DBD9BA9C-91C6-B144-A800-DCB3BED33DE7}"/>
+    <hyperlink ref="C40" r:id="rId16" xr:uid="{A285BDE8-00E7-A94C-8E43-A0C4829D42FA}"/>
+    <hyperlink ref="C41" r:id="rId17" xr:uid="{B0C21764-2962-1649-8AFA-10FB9420C5FC}"/>
+    <hyperlink ref="C42" r:id="rId18" xr:uid="{9282CC15-9B38-E54B-B64C-557745C9C00A}"/>
+    <hyperlink ref="C43" r:id="rId19" xr:uid="{3BCCEBE2-AC3B-AC4F-8BA9-439ACEA133D4}"/>
+    <hyperlink ref="C44" r:id="rId20" xr:uid="{74F8D761-6EBF-594A-A6C7-40DE4CE96958}"/>
+    <hyperlink ref="C45" r:id="rId21" xr:uid="{79947FE6-D417-D644-81D8-D058180550A0}"/>
+    <hyperlink ref="C46" r:id="rId22" xr:uid="{2BF3F606-410B-264D-BF60-191C34D616BB}"/>
+    <hyperlink ref="C47" r:id="rId23" xr:uid="{CD98DB26-0F2F-FD40-A989-53FE548D7D34}"/>
+    <hyperlink ref="C48" r:id="rId24" xr:uid="{307032A1-F8EF-1A48-BFE3-EA3283D39BE2}"/>
+    <hyperlink ref="C49" r:id="rId25" xr:uid="{AA329F36-941A-9241-9402-9D220B05E719}"/>
+    <hyperlink ref="C50" r:id="rId26" xr:uid="{9E851DAC-0E30-B340-84F9-721D70B66919}"/>
+    <hyperlink ref="C51" r:id="rId27" xr:uid="{468380BA-4978-A645-ABD0-E74FD3E6BDBB}"/>
+    <hyperlink ref="C52" r:id="rId28" xr:uid="{289E6890-8CCB-D645-9B3F-6138FFC1C249}"/>
+    <hyperlink ref="C53" r:id="rId29" xr:uid="{8EABDC68-858F-784A-A8F1-C603E3B8C1FE}"/>
+    <hyperlink ref="C54" r:id="rId30" xr:uid="{6157E427-1210-3F45-A4DC-6DFD2373B9CF}"/>
+    <hyperlink ref="C55" r:id="rId31" xr:uid="{2D7BA55E-9947-FF4D-BC09-FB4A5ADA07EC}"/>
+    <hyperlink ref="C56" r:id="rId32" xr:uid="{3337C74F-8B73-E64E-A6DA-5D9F7C7B4D32}"/>
+    <hyperlink ref="C57" r:id="rId33" xr:uid="{02370124-E58D-B540-BBCF-98266229556D}"/>
+    <hyperlink ref="C58" r:id="rId34" xr:uid="{F2DE2162-BD02-7549-AC1A-27455F78131F}"/>
+    <hyperlink ref="C59" r:id="rId35" xr:uid="{6FA286B9-3994-624D-B0B8-C01657D110AD}"/>
+    <hyperlink ref="C60" r:id="rId36" xr:uid="{6EFBEDA1-5C10-2547-8FB2-44E977513B28}"/>
+    <hyperlink ref="C63" r:id="rId37" xr:uid="{090EC515-BEBE-514E-BA59-A84E450B4211}"/>
+    <hyperlink ref="C64" r:id="rId38" xr:uid="{0A0557FD-77E5-564B-B100-147D544A38B4}"/>
+    <hyperlink ref="C65" r:id="rId39" xr:uid="{3F82F2E0-AA59-5042-B079-F3B3C6FF2FD7}"/>
+    <hyperlink ref="C66" r:id="rId40" xr:uid="{FFF7D257-1F58-5A4B-AAA2-F5480AED86C7}"/>
+    <hyperlink ref="C67" r:id="rId41" xr:uid="{353E28FA-E36D-7447-9DE8-787DF11C4669}"/>
+    <hyperlink ref="C68" r:id="rId42" xr:uid="{F9B53127-FC98-FE43-B53F-BFDBCE2A4427}"/>
+    <hyperlink ref="C69" r:id="rId43" xr:uid="{40685BBC-CE24-624E-9ABB-98490B7DE0E4}"/>
+    <hyperlink ref="C70" r:id="rId44" xr:uid="{7733D505-2EC7-E346-B3DA-C980C7CE0B27}"/>
+    <hyperlink ref="C71" r:id="rId45" xr:uid="{E8C1FE00-7B4B-5745-8E4B-CD44B6C749E3}"/>
+    <hyperlink ref="C72" r:id="rId46" xr:uid="{FDE181B1-57B0-7C4B-A189-C7C6E4EAEF99}"/>
+    <hyperlink ref="C75" r:id="rId47" xr:uid="{FE85FD72-4FC9-334E-8205-9E8B238954EB}"/>
+    <hyperlink ref="C76" r:id="rId48" xr:uid="{7630AD76-7E6B-8C4A-BA33-A62EBB042215}"/>
+    <hyperlink ref="C77" r:id="rId49" xr:uid="{2A738B70-CBF0-CC40-8B05-A271822B3F1A}"/>
+    <hyperlink ref="C79" r:id="rId50" xr:uid="{B2DE2D9E-8371-CD44-9D0D-4D6DC64AC29B}"/>
+    <hyperlink ref="C80" r:id="rId51" xr:uid="{265DCD11-17A0-654E-BEFE-FABA31210C6E}"/>
+    <hyperlink ref="C81" r:id="rId52" xr:uid="{47F1BB0C-0C5C-0845-8EEC-1560C50D7DA7}"/>
+    <hyperlink ref="C82" r:id="rId53" xr:uid="{8E0BFA2E-CCB4-514F-86CD-78176C6CC98A}"/>
+    <hyperlink ref="C83" r:id="rId54" xr:uid="{E4DEFB4B-749F-8746-97C7-F2B433664A74}"/>
+    <hyperlink ref="C84" r:id="rId55" xr:uid="{8301BDBD-EB7E-7D41-A777-ED99C3F9D67D}"/>
+    <hyperlink ref="C85" r:id="rId56" xr:uid="{927AE532-647F-AF4C-A567-40ADA6FCE534}"/>
+    <hyperlink ref="C86" r:id="rId57" xr:uid="{05489F52-CC92-EC44-9AD3-773DEC3B1D36}"/>
+    <hyperlink ref="C87" r:id="rId58" xr:uid="{13025DF6-C30E-014A-B66C-68C4AAAC1C6E}"/>
+    <hyperlink ref="C88" r:id="rId59" xr:uid="{BEE1F613-C189-B949-A225-0E0C5AFD1532}"/>
+    <hyperlink ref="C89" r:id="rId60" xr:uid="{1DFECD6C-D7CC-0340-B29B-4D56E50711E5}"/>
+    <hyperlink ref="C90" r:id="rId61" xr:uid="{70BED156-B004-E043-BF7D-59EFAA9EADAF}"/>
+    <hyperlink ref="C91" r:id="rId62" xr:uid="{FF9CBAFB-900E-E242-8B33-EDF46F0F40B5}"/>
+    <hyperlink ref="C92" r:id="rId63" xr:uid="{19461114-B3E8-9042-8029-100010946A04}"/>
+    <hyperlink ref="C93" r:id="rId64" xr:uid="{00F71118-E30B-A84E-819E-FFA902C70502}"/>
+    <hyperlink ref="C94" r:id="rId65" xr:uid="{58E70966-BBE0-7743-A250-AE4DD57807DE}"/>
+    <hyperlink ref="C95" r:id="rId66" xr:uid="{09409FE3-9D7E-4F43-BB21-14A1B8D6E480}"/>
+    <hyperlink ref="C96" r:id="rId67" xr:uid="{E199A3DC-3DA1-C648-93C0-DF9CD5331204}"/>
+    <hyperlink ref="C97" r:id="rId68" xr:uid="{85886847-1510-AA46-B10C-F3D80591DD74}"/>
+    <hyperlink ref="C98" r:id="rId69" xr:uid="{F60808FC-F09D-FC44-B2DD-752E55A1C698}"/>
+    <hyperlink ref="C99" r:id="rId70" xr:uid="{16B2725E-1AD5-0441-9B5B-B6B2F458091B}"/>
+    <hyperlink ref="C100" r:id="rId71" xr:uid="{8440D753-5DE9-3243-97C2-C09D195C325F}"/>
+    <hyperlink ref="C101" r:id="rId72" xr:uid="{AC63A963-B6CC-6E4E-B72A-7F472BC4C027}"/>
+    <hyperlink ref="C102" r:id="rId73" xr:uid="{B21B87F1-A0C0-7F4E-B36F-912B871D0EF4}"/>
+    <hyperlink ref="C103" r:id="rId74" xr:uid="{789FFFAC-8B7E-0540-98B8-856430EB56F8}"/>
+    <hyperlink ref="C104" r:id="rId75" xr:uid="{4A0E959E-22F4-6948-A819-76FE76AB9F6D}"/>
+    <hyperlink ref="C105" r:id="rId76" xr:uid="{78B76678-D8EE-9745-98B1-DF7A76EA3B10}"/>
+    <hyperlink ref="C106" r:id="rId77" xr:uid="{62982242-1D19-1544-8653-8E25E9BF4505}"/>
+    <hyperlink ref="C107" r:id="rId78" xr:uid="{8E3D4BDF-9F8F-0542-BFD8-C3CE3BF396E6}"/>
+    <hyperlink ref="C108" r:id="rId79" xr:uid="{A3D51762-65A1-9A44-B619-D1D98A7F403B}"/>
+    <hyperlink ref="C109" r:id="rId80" xr:uid="{ED0F5FC7-0066-EB44-8FCF-460600DADB02}"/>
+    <hyperlink ref="C110" r:id="rId81" xr:uid="{2D956AC4-4774-7446-8473-C4CE00E33C17}"/>
+    <hyperlink ref="C111" r:id="rId82" xr:uid="{C8C607BB-1FEE-FA47-9E3E-6C0BCE978B7F}"/>
+    <hyperlink ref="C112" r:id="rId83" xr:uid="{B9AC5194-6D36-684A-A5C4-BEE11037599F}"/>
+    <hyperlink ref="C113" r:id="rId84" xr:uid="{AB28D9E6-890C-F14A-A5FB-2303BE319968}"/>
+    <hyperlink ref="C114" r:id="rId85" xr:uid="{1F507CBC-4056-AD46-9314-95ECBB9D799D}"/>
+    <hyperlink ref="C115" r:id="rId86" xr:uid="{F152A9AF-5CBA-EC44-A9CF-07AB481435AB}"/>
+    <hyperlink ref="C116" r:id="rId87" xr:uid="{346CA74F-60B7-0A4B-A612-9184D4DCFF62}"/>
+    <hyperlink ref="C117" r:id="rId88" xr:uid="{8C653CB1-4954-754F-8D46-F09141A2FCDB}"/>
+    <hyperlink ref="C120" r:id="rId89" xr:uid="{5989F693-2A61-A346-8395-8674307A4CC2}"/>
+    <hyperlink ref="C121" r:id="rId90" xr:uid="{3AD10C9E-4F6D-DE48-92F3-531A586520C6}"/>
+    <hyperlink ref="C122" r:id="rId91" xr:uid="{4FA217C0-A1F3-904E-8FEA-EA4941273A67}"/>
+    <hyperlink ref="C123" r:id="rId92" xr:uid="{A297BBC0-FA0D-2D46-9C49-3932193EF1D3}"/>
+    <hyperlink ref="C125" r:id="rId93" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance." xr:uid="{DCD751DE-E440-F346-B6FD-CBD072217214}"/>
+    <hyperlink ref="C126" r:id="rId94" xr:uid="{B2FD38B9-1E2B-8140-8291-F45734C98145}"/>
+    <hyperlink ref="C127" r:id="rId95" xr:uid="{C76888B3-18AC-9B48-9E2A-64A7DF0902B7}"/>
+    <hyperlink ref="C128" r:id="rId96" xr:uid="{18A79860-6C9E-A941-8D6C-360B9913E941}"/>
+    <hyperlink ref="C129" r:id="rId97" xr:uid="{C0DDFD68-CBC1-0F4A-AF40-ACF36BBC8453}"/>
+    <hyperlink ref="C130" r:id="rId98" xr:uid="{3E0BF737-E42E-C946-B32C-06882E0BA6FF}"/>
+    <hyperlink ref="C132" r:id="rId99" xr:uid="{862F9782-C57B-2848-A2D9-EB7B52FB7EC7}"/>
+    <hyperlink ref="C133" r:id="rId100" xr:uid="{230D7A6A-D2C5-C140-9A65-B1F407D22062}"/>
+    <hyperlink ref="C134" r:id="rId101" xr:uid="{BDC2BA28-4562-984E-8282-1126BF952EAF}"/>
+    <hyperlink ref="C135" r:id="rId102" xr:uid="{B53A5F28-6DED-3D47-8679-F78D3DDEFF01}"/>
+    <hyperlink ref="C136" r:id="rId103" xr:uid="{C57D0CC7-DA2F-0948-9BCE-F19C20C7D981}"/>
+    <hyperlink ref="C137" r:id="rId104" xr:uid="{117878E5-B8C8-254B-8ED6-014B4B7A8126}"/>
+    <hyperlink ref="C138" r:id="rId105" xr:uid="{B7CC0756-74F2-D54D-BDEE-9DA394DD7168}"/>
+    <hyperlink ref="C139" r:id="rId106" xr:uid="{837EF472-CCC2-CF47-A8A8-238E56F722CE}"/>
+    <hyperlink ref="C140" r:id="rId107" xr:uid="{3608F267-6AA0-624B-B243-7DDD317E9F08}"/>
+    <hyperlink ref="C141" r:id="rId108" xr:uid="{0B6123E6-0472-374B-ACA7-6914CD7918E8}"/>
+    <hyperlink ref="C142" r:id="rId109" xr:uid="{D3971CEB-C53E-B04B-9C32-1803182B5DC5}"/>
+    <hyperlink ref="C143" r:id="rId110" xr:uid="{7CF5013A-643E-1643-93A1-A2F1500D2A23}"/>
+    <hyperlink ref="C144" r:id="rId111" xr:uid="{2A6BE7E5-D818-6843-8C3E-99EA2BFE0FB2}"/>
+    <hyperlink ref="C145" r:id="rId112" xr:uid="{E718F544-96DF-A04E-8DFB-7639DA3EA57C}"/>
+    <hyperlink ref="C146" r:id="rId113" xr:uid="{B0C2F065-424A-7345-A864-346ECD98D749}"/>
+    <hyperlink ref="C147" r:id="rId114" xr:uid="{B4E26955-5C3F-804E-B19A-11260310AFB3}"/>
+    <hyperlink ref="C148" r:id="rId115" xr:uid="{6F299BB5-8E82-0240-A9A3-6829CE3ABCBF}"/>
+    <hyperlink ref="C149" r:id="rId116" xr:uid="{A42CA32F-2196-1840-A53D-E5073237C68D}"/>
+    <hyperlink ref="C150" r:id="rId117" xr:uid="{7ECF6EF4-962E-4642-9B1C-C3B70674793E}"/>
+    <hyperlink ref="C151" r:id="rId118" xr:uid="{2A109178-6B60-164E-9D25-42B3282137E3}"/>
+    <hyperlink ref="C152" r:id="rId119" xr:uid="{B3D38BD0-A6A1-8D41-8405-45E1BEEEEF06}"/>
+    <hyperlink ref="C153" r:id="rId120" xr:uid="{A1C26612-D040-2A41-A6A6-A8F2490C0A43}"/>
+    <hyperlink ref="C154" r:id="rId121" xr:uid="{C476E807-64CB-F44A-A23D-D21EBF6D001D}"/>
+    <hyperlink ref="C155" r:id="rId122" xr:uid="{9A414D55-D4A1-F147-9207-61B597D57136}"/>
+    <hyperlink ref="C124" r:id="rId123" xr:uid="{18B028A7-9B6F-D841-8548-924D70530779}"/>
+    <hyperlink ref="C131" r:id="rId124" xr:uid="{6D3E75EF-733F-7A4B-81C8-AEF6CB6335F0}"/>
+    <hyperlink ref="C160" r:id="rId125" xr:uid="{C9EB2682-BE0B-934B-B0B4-1DD1A1502647}"/>
+    <hyperlink ref="C161" r:id="rId126" xr:uid="{2992FED9-2B78-A342-92AA-E7C0F882FF17}"/>
+    <hyperlink ref="C162" r:id="rId127" xr:uid="{0084DA6F-EC84-BD48-BDA8-EBACA3BB3B3E}"/>
+    <hyperlink ref="C163" r:id="rId128" xr:uid="{30F2D415-4B2C-384C-8EAE-2CC71CB518E2}"/>
+    <hyperlink ref="C164" r:id="rId129" xr:uid="{40734C88-7C5B-9747-86D1-03463D9AD41A}"/>
+    <hyperlink ref="C165" r:id="rId130" xr:uid="{1040D22F-6729-104A-A229-CBDCED93024A}"/>
+    <hyperlink ref="C166" r:id="rId131" xr:uid="{E131FE61-FABF-8E4B-8EF0-F68379D8F836}"/>
+    <hyperlink ref="C167" r:id="rId132" xr:uid="{B2129272-1351-3745-883B-E6A7115450C8}"/>
+    <hyperlink ref="C168" r:id="rId133" xr:uid="{C8B2DEF0-2B69-C84E-8013-0B6F03FFC250}"/>
+    <hyperlink ref="C169" r:id="rId134" xr:uid="{536AC5CF-712F-BF48-94A9-D0E7DC013020}"/>
+    <hyperlink ref="C170" r:id="rId135" xr:uid="{2DABC9C7-43D4-1249-AF9B-5FA4552611CB}"/>
+    <hyperlink ref="C171" r:id="rId136" xr:uid="{DA62E73A-B495-F94A-BECE-D42E4CBF074A}"/>
+    <hyperlink ref="C172" r:id="rId137" xr:uid="{7F5E6966-850D-4F49-B2A5-678365713F28}"/>
+    <hyperlink ref="C173" r:id="rId138" xr:uid="{E9C4286D-8493-9A47-8B8C-09583FA72B70}"/>
+    <hyperlink ref="C174" r:id="rId139" xr:uid="{9EB0123C-84AE-1C4D-BA1A-C28CFB8EFB89}"/>
+    <hyperlink ref="C175" r:id="rId140" xr:uid="{9D11FED4-328F-674E-889D-EC781DD1D791}"/>
+    <hyperlink ref="C176" r:id="rId141" xr:uid="{48AE72DB-397B-464D-88AD-B8058ED29CC1}"/>
+    <hyperlink ref="C177" r:id="rId142" xr:uid="{152D50E9-7448-F542-AC66-05D0AE66664C}"/>
+    <hyperlink ref="C178" r:id="rId143" xr:uid="{34E6AF1B-5FB1-3A4B-8938-1DCF80831DC2}"/>
+    <hyperlink ref="C179" r:id="rId144" xr:uid="{E7F8B7CA-49F4-1946-91EE-E7582BE4E5DA}"/>
+    <hyperlink ref="C180" r:id="rId145" xr:uid="{3590A994-B7A2-C14D-9BF8-7AC8FE9E7F0F}"/>
+    <hyperlink ref="C181" r:id="rId146" xr:uid="{0AAA4B0C-4921-C34D-B41E-D702FA860892}"/>
+    <hyperlink ref="C182" r:id="rId147" xr:uid="{5973FCA4-AE32-5248-A6ED-2694367332F1}"/>
+    <hyperlink ref="C183" r:id="rId148" xr:uid="{4C0F816E-F043-0C47-BF16-1CDAD88D2FF1}"/>
+    <hyperlink ref="C184" r:id="rId149" xr:uid="{A8E4C654-D0BD-8945-9F5C-B09F7BC114BE}"/>
+    <hyperlink ref="C187" r:id="rId150" xr:uid="{E3825C15-10BB-E24F-B229-983F651DA942}"/>
+    <hyperlink ref="C188" r:id="rId151" xr:uid="{46ECFC31-388C-6241-8FFE-DED6F2FC794A}"/>
+    <hyperlink ref="C189" r:id="rId152" xr:uid="{589E024D-3FE1-1048-890C-88289733F233}"/>
+    <hyperlink ref="C190" r:id="rId153" xr:uid="{CDA28F7A-7FC5-F74D-B27E-A6E0161D41D5}"/>
+    <hyperlink ref="C191" r:id="rId154" xr:uid="{DA6A0D92-DCEB-DA4F-8BBA-10FCD092838F}"/>
+    <hyperlink ref="C192" r:id="rId155" xr:uid="{955769DB-3256-254B-90DE-E1E01B272F8A}"/>
+    <hyperlink ref="C193" r:id="rId156" xr:uid="{DED7AC9B-40D7-0545-9D6F-6CD4F5FFE4C6}"/>
+    <hyperlink ref="C194" r:id="rId157" xr:uid="{6947A4E1-B6AA-6D4F-A6D8-8FA74FD02887}"/>
+    <hyperlink ref="C195" r:id="rId158" xr:uid="{EABF2012-5A90-0C4E-86F6-FDB5FA7770BE}"/>
+    <hyperlink ref="C198" r:id="rId159" xr:uid="{7F44CFE0-9ED1-A44D-B9EF-CF87BEB644FC}"/>
+    <hyperlink ref="C199" r:id="rId160" xr:uid="{CF6E0CF6-7A93-D84A-9CE0-5BDD51767416}"/>
+    <hyperlink ref="C200" r:id="rId161" xr:uid="{EFF8F154-60B8-B84B-84CA-32756BD6430F}"/>
+    <hyperlink ref="C201" r:id="rId162" xr:uid="{C8A3094E-E11B-2543-B05E-1D07048B2EBA}"/>
+    <hyperlink ref="C202" r:id="rId163" xr:uid="{9961E5F5-B5C6-0C4D-A1D0-D04D2A5D7DFD}"/>
+    <hyperlink ref="C203" r:id="rId164" xr:uid="{44E289EC-47DD-D94D-88C1-CB2F59C6C16A}"/>
+    <hyperlink ref="C204" r:id="rId165" xr:uid="{4161FC70-DD6D-684B-898A-A4711596B2D5}"/>
+    <hyperlink ref="C205" r:id="rId166" xr:uid="{B9CBE387-8E9A-ED48-8310-CF7D34FA690C}"/>
+    <hyperlink ref="C206" r:id="rId167" xr:uid="{5398097B-24FF-9543-8F02-33CE2860F1F7}"/>
+    <hyperlink ref="C207" r:id="rId168" xr:uid="{3B1FC30B-30C8-7B48-AF94-A81FB513F24F}"/>
+    <hyperlink ref="C208" r:id="rId169" xr:uid="{32B750D0-D7F2-694D-AB9B-25AFAFAFF17F}"/>
+    <hyperlink ref="C209" r:id="rId170" xr:uid="{400689DD-8E95-024E-976B-AACD8ED4E1A6}"/>
+    <hyperlink ref="C210" r:id="rId171" xr:uid="{28753DDE-E047-5D40-A30B-1103BE6DA08F}"/>
+    <hyperlink ref="C211" r:id="rId172" xr:uid="{6C5AA6CB-3D93-0740-AEED-9E6C218CF6CB}"/>
+    <hyperlink ref="C212" r:id="rId173" xr:uid="{03EAA2B9-D8B8-D642-BF24-380596D26B2E}"/>
+    <hyperlink ref="C213" r:id="rId174" xr:uid="{8C1719B4-37CC-484E-BDCE-A4272C07F91B}"/>
+    <hyperlink ref="C214" r:id="rId175" xr:uid="{6C198DA2-BB98-F940-8EF6-2FC8B7AE577A}"/>
+    <hyperlink ref="C215" r:id="rId176" xr:uid="{AB0EA311-A446-D046-A0EC-290B42068328}"/>
+    <hyperlink ref="C216" r:id="rId177" xr:uid="{DB913045-B9F6-6549-AA09-22B0CC5FDD21}"/>
+    <hyperlink ref="C217" r:id="rId178" xr:uid="{806469FD-617A-7445-AAB5-FB2FD2ED24EA}"/>
+    <hyperlink ref="C218" r:id="rId179" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." xr:uid="{1A10544E-58CF-D04D-9FAF-2FEC6DB2B5D4}"/>
+    <hyperlink ref="C219" r:id="rId180" xr:uid="{5A0B6645-89FD-E044-A706-9FB890274C3C}"/>
+    <hyperlink ref="C220" r:id="rId181" xr:uid="{B42A3009-E8EB-EE44-885F-6699C17A0E0B}"/>
+    <hyperlink ref="C221" r:id="rId182" xr:uid="{ED3E48AB-E25B-3744-B024-E97B2A319B46}"/>
+    <hyperlink ref="C222" r:id="rId183" xr:uid="{C75D20A3-CBAE-2649-A3EE-E49177CFA343}"/>
+    <hyperlink ref="C223" r:id="rId184" xr:uid="{3863CA1B-D43E-1144-91A9-17C2DCF52A64}"/>
+    <hyperlink ref="C224" r:id="rId185" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." xr:uid="{E9AF434E-4CAA-5D49-8AD3-889CDE2913D9}"/>
+    <hyperlink ref="C225" r:id="rId186" xr:uid="{1A0568E5-3A11-7F47-8001-82B05D7C2339}"/>
+    <hyperlink ref="C226" r:id="rId187" xr:uid="{F62B8AE4-9C4F-9544-8861-CD733C12F79E}"/>
+    <hyperlink ref="C227" r:id="rId188" xr:uid="{0F6A542C-44C9-5A4C-90BF-BC8C239877D2}"/>
+    <hyperlink ref="C228" r:id="rId189" xr:uid="{3ED28203-B1B5-4E46-AAF3-779EDD4AC03F}"/>
+    <hyperlink ref="C229" r:id="rId190" xr:uid="{4338B305-B52F-5540-9B51-B938FC6803A2}"/>
+    <hyperlink ref="C230" r:id="rId191" xr:uid="{DDEEED0F-A939-1E4F-B2FA-AD391A4A2874}"/>
+    <hyperlink ref="C231" r:id="rId192" xr:uid="{C2F20589-AD81-654C-94E5-E5B6C9FE27F6}"/>
+    <hyperlink ref="C232" r:id="rId193" xr:uid="{BBEB9DAC-E4AE-C04F-AA15-6356AFC57FDE}"/>
+    <hyperlink ref="C235" r:id="rId194" xr:uid="{6316566D-A10A-F849-9F25-B9ED4DA12BC7}"/>
+    <hyperlink ref="C236" r:id="rId195" xr:uid="{9D4DD895-FBA6-C849-A5BF-3B30755BD9C9}"/>
+    <hyperlink ref="C237" r:id="rId196" xr:uid="{475996DA-632A-BE49-AEA1-D4189FD614A1}"/>
+    <hyperlink ref="C238" r:id="rId197" xr:uid="{88E0C858-8468-884F-BB71-F6F176BD5FC2}"/>
+    <hyperlink ref="C239" r:id="rId198" xr:uid="{C1C5C8D0-7A06-3D4A-A85A-AAACC1B418C9}"/>
+    <hyperlink ref="C240" r:id="rId199" xr:uid="{D525D4B1-2857-1543-8CD9-196728321203}"/>
+    <hyperlink ref="C241" r:id="rId200" xr:uid="{51E3AB9B-04B2-C041-A2B3-37E3EB18013A}"/>
+    <hyperlink ref="C242" r:id="rId201" xr:uid="{7F7F0C9A-57B9-314F-959A-B8ACAFA5FD13}"/>
+    <hyperlink ref="C243" r:id="rId202" xr:uid="{3B029785-83B4-6140-8B70-CD892CFC87F6}"/>
+    <hyperlink ref="C244" r:id="rId203" xr:uid="{B0A390E6-D860-9F4E-B021-68949FE712F3}"/>
+    <hyperlink ref="C245" r:id="rId204" xr:uid="{49E9953D-52F6-BF47-8AAA-8E456F55576B}"/>
+    <hyperlink ref="C246" r:id="rId205" xr:uid="{9B812470-F419-A54E-8365-06A9B8864A30}"/>
+    <hyperlink ref="C247" r:id="rId206" xr:uid="{B6FB4107-1933-6D45-9EF4-4474E06CBE9D}"/>
+    <hyperlink ref="C248" r:id="rId207" xr:uid="{0F7C1D92-7BCB-D14D-A658-9599984E04E4}"/>
+    <hyperlink ref="C249" r:id="rId208" xr:uid="{6810428F-0A78-964C-A8C8-E1CD2E7C405D}"/>
+    <hyperlink ref="C250" r:id="rId209" xr:uid="{B40209F2-0D6E-364F-8AF6-F1D182509314}"/>
+    <hyperlink ref="C251" r:id="rId210" xr:uid="{96C53FA9-9FD3-2D4F-B292-3C9DEDFA806E}"/>
+    <hyperlink ref="C252" r:id="rId211" xr:uid="{918B420D-3678-FD46-9463-595E8ACC39E1}"/>
+    <hyperlink ref="C253" r:id="rId212" xr:uid="{851A7153-3B54-0E4A-A0A0-FCEB091AFE70}"/>
+    <hyperlink ref="C254" r:id="rId213" xr:uid="{C03AE9F8-09AE-C640-81A7-033BB06FB6AD}"/>
+    <hyperlink ref="C255" r:id="rId214" xr:uid="{35140DEB-52D2-4342-88D2-22BA061E5B48}"/>
+    <hyperlink ref="C256" r:id="rId215" xr:uid="{9714BC0B-3373-934C-B7A1-599F74F4FB9D}"/>
+    <hyperlink ref="C259" r:id="rId216" xr:uid="{5CB435B2-7FD2-1D44-9872-22B6A1EDC02B}"/>
+    <hyperlink ref="C260" r:id="rId217" xr:uid="{722D1D95-896B-4642-BABD-31DEDD237B49}"/>
+    <hyperlink ref="C261" r:id="rId218" xr:uid="{D686D1DC-13D6-284C-B606-E087FAF47399}"/>
+    <hyperlink ref="C262" r:id="rId219" xr:uid="{D22C2394-C3CB-8F4F-A010-2B13C8C84D1A}"/>
+    <hyperlink ref="C263" r:id="rId220" xr:uid="{3AE2F800-B66F-1A41-893B-978F6875FDC8}"/>
+    <hyperlink ref="C264" r:id="rId221" xr:uid="{2C939BDE-5298-5541-837B-8C59D53A33C1}"/>
+    <hyperlink ref="C265" r:id="rId222" xr:uid="{691C9BD8-69D3-DA4B-AEB6-AF827B4ACA9F}"/>
+    <hyperlink ref="C266" r:id="rId223" xr:uid="{B6891E82-7C4D-424D-9219-3C9FD08E0053}"/>
+    <hyperlink ref="C267" r:id="rId224" xr:uid="{67A1AE98-62D2-644D-AC13-6CD76CF53CC0}"/>
+    <hyperlink ref="C268" r:id="rId225" xr:uid="{B59D4881-2A82-8F4D-B151-1E796C4923C8}"/>
+    <hyperlink ref="C269" r:id="rId226" xr:uid="{B3CBD023-5EFD-6048-9B3F-89F0C65CBBF5}"/>
+    <hyperlink ref="C270" r:id="rId227" xr:uid="{53EC42C4-22F7-0445-A0AC-7275A59A2672}"/>
+    <hyperlink ref="C271" r:id="rId228" xr:uid="{A29575F3-CB24-5B4B-9538-D5212B2DC28B}"/>
+    <hyperlink ref="C272" r:id="rId229" xr:uid="{353A44DD-9E30-8F48-8E2B-8DAA07550470}"/>
+    <hyperlink ref="C273" r:id="rId230" xr:uid="{32AC291D-95A5-BE49-88E0-02677BF39CAC}"/>
+    <hyperlink ref="C274" r:id="rId231" xr:uid="{A84F22FF-AD10-A546-8998-B066C0EB2D5A}"/>
+    <hyperlink ref="C275" r:id="rId232" xr:uid="{4C5CAF84-9B94-FC44-8C6C-B3CC7257C1DB}"/>
+    <hyperlink ref="C276" r:id="rId233" xr:uid="{5DA775E2-C516-3B47-8C82-3CEE7CC0BDF9}"/>
+    <hyperlink ref="C277" r:id="rId234" xr:uid="{00B6AE5C-EF3F-0747-A280-3BF055362B4F}"/>
+    <hyperlink ref="C278" r:id="rId235" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." xr:uid="{BCBD0A7E-F3D0-E840-9375-AFD37C5CD41A}"/>
+    <hyperlink ref="C279" r:id="rId236" xr:uid="{47ABDDDB-F95F-8049-9FB3-1E71A7376DDE}"/>
+    <hyperlink ref="C280" r:id="rId237" xr:uid="{70BADFC9-7399-234D-99F6-4C5F02397C26}"/>
+    <hyperlink ref="C281" r:id="rId238" xr:uid="{63348580-70EF-EC47-BF49-8ECE9560D54E}"/>
+    <hyperlink ref="C282" r:id="rId239" xr:uid="{D5BD96B3-9EAB-1B47-AC87-5C47F6AD7F40}"/>
+    <hyperlink ref="C283" r:id="rId240" xr:uid="{74791141-3FB8-7540-B45B-9541AF0AE371}"/>
+    <hyperlink ref="C284" r:id="rId241" xr:uid="{88D53CD6-262A-7247-8E58-FE9FFF7ECC40}"/>
+    <hyperlink ref="C285" r:id="rId242" xr:uid="{4338A14D-4F7D-B943-A347-7F74EFCA0DB5}"/>
+    <hyperlink ref="C286" r:id="rId243" xr:uid="{6E0EF7A3-7341-284B-A0E3-4539B6EAFAF2}"/>
+    <hyperlink ref="C287" r:id="rId244" xr:uid="{D2D8D64F-E2D3-734E-AD45-3EFB9686555A}"/>
+    <hyperlink ref="C288" r:id="rId245" xr:uid="{04A2904A-73A0-7845-9868-2CCFE359AC68}"/>
+    <hyperlink ref="C289" r:id="rId246" xr:uid="{D3D35835-6BE3-4D41-AF6F-5FE442277A16}"/>
+    <hyperlink ref="C290" r:id="rId247" xr:uid="{F663D0FC-CFF0-BC4F-9D26-48C871A8E9FD}"/>
+    <hyperlink ref="C291" r:id="rId248" xr:uid="{DF544147-DA48-4041-A4E2-4A75106B771A}"/>
+    <hyperlink ref="C292" r:id="rId249" xr:uid="{50E4B716-239E-7946-843D-E8462591D128}"/>
+    <hyperlink ref="C293" r:id="rId250" xr:uid="{D368B3E5-7D12-FD48-AFF7-A4A614108940}"/>
+    <hyperlink ref="C296" r:id="rId251" xr:uid="{D5921FF1-FC1F-CA4B-A24E-AD69E1DEC14C}"/>
+    <hyperlink ref="C297" r:id="rId252" xr:uid="{C931D7E0-E032-7C4B-95F1-735D955FCB51}"/>
+    <hyperlink ref="C298" r:id="rId253" xr:uid="{5FBD4A8F-287C-2C46-9CAB-F7DBA67DEDDA}"/>
+    <hyperlink ref="C299" r:id="rId254" xr:uid="{12966DD6-41DD-A94B-8B2C-0AD7D2AD6FB0}"/>
+    <hyperlink ref="C300" r:id="rId255" xr:uid="{CF720C34-4554-2944-A818-020ABC9BF0F4}"/>
+    <hyperlink ref="C301" r:id="rId256" xr:uid="{75763F2A-16D7-DE43-8189-19623CE26370}"/>
+    <hyperlink ref="C302" r:id="rId257" xr:uid="{9263AA30-472A-0A4D-BADF-96D82BB9BFCC}"/>
+    <hyperlink ref="C303" r:id="rId258" xr:uid="{2EF025C3-75C8-564E-BA8B-708C32B0E602}"/>
+    <hyperlink ref="C304" r:id="rId259" xr:uid="{6BDFDCA9-3421-F24F-8EF2-A72742F0AC21}"/>
+    <hyperlink ref="C305" r:id="rId260" xr:uid="{D8447F99-5FF9-D544-99BB-E9969B4A38D7}"/>
+    <hyperlink ref="C306" r:id="rId261" xr:uid="{1DB7EFDA-6C7D-F546-9EE1-F61ED0F65209}"/>
+    <hyperlink ref="C307" r:id="rId262" xr:uid="{D1505609-27D1-784D-ACF6-AE9D0DA2E1B6}"/>
+    <hyperlink ref="C308" r:id="rId263" xr:uid="{6BFA7B45-17D0-4E49-85DA-23C7255A306D}"/>
+    <hyperlink ref="C309" r:id="rId264" xr:uid="{3324BA4A-30CA-5246-8C3C-6505A6987939}"/>
+    <hyperlink ref="C310" r:id="rId265" xr:uid="{894486AD-2B6D-5740-BCAF-0BA1AFF814B4}"/>
+    <hyperlink ref="C311" r:id="rId266" xr:uid="{C47B203B-8B5A-E740-8C86-0784AD28089E}"/>
+    <hyperlink ref="C312" r:id="rId267" xr:uid="{06DC2E54-7597-AE4D-ACDB-B8883A989A4F}"/>
+    <hyperlink ref="C313" r:id="rId268" xr:uid="{E3384259-7CA7-1C44-A66D-11346EE6742E}"/>
+    <hyperlink ref="C314" r:id="rId269" xr:uid="{A5B77769-38AF-3D47-A76B-311591B57D91}"/>
+    <hyperlink ref="C317" r:id="rId270" xr:uid="{9DB6976A-C646-1341-90E8-3A164521267A}"/>
+    <hyperlink ref="C318" r:id="rId271" xr:uid="{03C291F8-D19A-304B-9EF9-CF71A1F66E49}"/>
+    <hyperlink ref="C319" r:id="rId272" xr:uid="{7536415C-140B-9244-B0B2-23F3ED0B2D80}"/>
+    <hyperlink ref="C320" r:id="rId273" xr:uid="{7DBDA456-8AF6-DD43-9764-17D3959B8E8F}"/>
+    <hyperlink ref="C321" r:id="rId274" xr:uid="{BFC149AB-C15A-B648-9F6A-ECD3890B1918}"/>
+    <hyperlink ref="C322" r:id="rId275" xr:uid="{0482240B-FEE9-F746-8980-52BCB7BBB56E}"/>
+    <hyperlink ref="C323" r:id="rId276" xr:uid="{86D1231A-E7C8-4B45-99ED-2DB0EF71E190}"/>
+    <hyperlink ref="C324" r:id="rId277" xr:uid="{20B7CE89-CB37-0040-989F-C8D1BE2B8782}"/>
+    <hyperlink ref="C325" r:id="rId278" xr:uid="{4C8412C9-A47B-9244-A18B-741516BD1054}"/>
+    <hyperlink ref="C326" r:id="rId279" xr:uid="{511761D9-31CE-0B43-AFFD-C011C27ACC52}"/>
+    <hyperlink ref="C327" r:id="rId280" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." xr:uid="{6905F997-D048-1049-BA27-C48756603D1E}"/>
+    <hyperlink ref="C328" r:id="rId281" xr:uid="{E657AA82-7CFE-DB42-B20F-F63D8C25EAB6}"/>
+    <hyperlink ref="C329" r:id="rId282" xr:uid="{3E505033-58F3-8F4E-AB82-E12DBC226AEA}"/>
+    <hyperlink ref="C330" r:id="rId283" xr:uid="{749599E5-4972-7343-B13B-87E26F837470}"/>
+    <hyperlink ref="C331" r:id="rId284" xr:uid="{12AA88DC-22AB-5A49-B28C-F04C8E35A215}"/>
+    <hyperlink ref="C332" r:id="rId285" xr:uid="{5751F0A7-7D9D-4148-820B-5B9659DFE34F}"/>
+    <hyperlink ref="C333" r:id="rId286" xr:uid="{4CA2DBEE-B161-B84D-B3A9-B8BC1B598AF2}"/>
+    <hyperlink ref="C334" r:id="rId287" xr:uid="{A9C1E578-6594-954C-8785-8902E605FC7A}"/>
+    <hyperlink ref="C335" r:id="rId288" xr:uid="{3D45E9B8-6671-A747-8C18-51CF8883170A}"/>
+    <hyperlink ref="C336" r:id="rId289" xr:uid="{4F5EF748-8CD4-0F47-90CE-3C93755BF63D}"/>
+    <hyperlink ref="C337" r:id="rId290" xr:uid="{44053C08-5050-C84B-B016-069B1EF9A43D}"/>
+    <hyperlink ref="C338" r:id="rId291" xr:uid="{ABF38928-736B-1A49-8B8A-1DCA5AAECB2B}"/>
+    <hyperlink ref="C339" r:id="rId292" xr:uid="{52651FAF-F3DC-E949-8AF8-998B9724B7D1}"/>
+    <hyperlink ref="C340" r:id="rId293" xr:uid="{91C6CCEF-3FF7-2C42-B5A0-8F4A403ED198}"/>
+    <hyperlink ref="C341" r:id="rId294" xr:uid="{15C8AF08-1A79-F949-9BE7-DD240CBD9861}"/>
+    <hyperlink ref="C342" r:id="rId295" xr:uid="{1904F984-5B22-8D46-BC33-3073B390E8F9}"/>
+    <hyperlink ref="C343" r:id="rId296" xr:uid="{A8BFB3A4-426B-E646-BCF0-FE19C8CD07A9}"/>
+    <hyperlink ref="C344" r:id="rId297" xr:uid="{FBBA29BB-885B-744A-A644-58EDCA7B140A}"/>
+    <hyperlink ref="C345" r:id="rId298" xr:uid="{75411687-6884-AC42-8B4A-1348C4837365}"/>
+    <hyperlink ref="C346" r:id="rId299" xr:uid="{A89ED8DF-F678-FE43-808C-C190721379BF}"/>
+    <hyperlink ref="C347" r:id="rId300" xr:uid="{1516834D-F3B2-1743-8811-263E11BBDEF8}"/>
+    <hyperlink ref="C348" r:id="rId301" xr:uid="{1659AB91-08CA-E44D-988D-E9D9A746D406}"/>
+    <hyperlink ref="C349" r:id="rId302" xr:uid="{E844BC1D-9713-9F4D-B0A4-1124A9952D14}"/>
+    <hyperlink ref="C350" r:id="rId303" xr:uid="{DCE2AAEF-8D8E-1843-BFE9-E9B7E13854EB}"/>
+    <hyperlink ref="C351" r:id="rId304" xr:uid="{836B3BF0-7711-7D41-9E72-914C1871397F}"/>
+    <hyperlink ref="C352" r:id="rId305" xr:uid="{F450CF9B-CA59-1443-8163-13F1121DCF12}"/>
+    <hyperlink ref="C353" r:id="rId306" xr:uid="{1539C3E8-4854-3C4F-A7B3-55BF931F1E2A}"/>
+    <hyperlink ref="C354" r:id="rId307" xr:uid="{04F1FC5F-5DA1-0144-962D-B38C1C41F0F4}"/>
+    <hyperlink ref="C357" r:id="rId308" xr:uid="{B21618F4-70E2-C549-80B7-7CF915679E0A}"/>
+    <hyperlink ref="C358" r:id="rId309" xr:uid="{EEDFBF11-C1E4-0847-9D56-94A72D97AEE7}"/>
+    <hyperlink ref="C359" r:id="rId310" xr:uid="{F5C0EDF1-7EAC-8849-8D27-C3389913BFC6}"/>
+    <hyperlink ref="C360" r:id="rId311" xr:uid="{50175B29-124F-4E4E-8E98-961BD3320359}"/>
+    <hyperlink ref="C361" r:id="rId312" xr:uid="{1BE23822-8512-014F-9154-F6EDA4FC8428}"/>
+    <hyperlink ref="C362" r:id="rId313" xr:uid="{38EC228E-ABFF-3542-9CFB-3DDFC628E9D0}"/>
+    <hyperlink ref="C363" r:id="rId314" xr:uid="{73F240F8-C469-454E-BA5C-CFF2F7A7A5F6}"/>
+    <hyperlink ref="C364" r:id="rId315" xr:uid="{3BBD1BAC-68C7-A94A-9063-AF62B5C837FD}"/>
+    <hyperlink ref="C365" r:id="rId316" xr:uid="{F9751D9B-2689-E24B-9FC3-CA32FE888708}"/>
+    <hyperlink ref="C366" r:id="rId317" xr:uid="{73C61D6A-D97C-B944-8B27-BB91564AB0D7}"/>
+    <hyperlink ref="C367" r:id="rId318" xr:uid="{936E077C-C016-A04F-895A-782D6D9D9433}"/>
+    <hyperlink ref="C368" r:id="rId319" xr:uid="{5454A2A1-6607-BE48-9215-CB8965EC3568}"/>
+    <hyperlink ref="C369" r:id="rId320" xr:uid="{FC1EAA10-F7ED-6B42-A79B-3D8B44E2C8B3}"/>
+    <hyperlink ref="C370" r:id="rId321" xr:uid="{FDB7F712-4A42-1048-8929-A1E752B07C6A}"/>
+    <hyperlink ref="C371" r:id="rId322" xr:uid="{AF3ACA60-0B0E-E146-B51F-A2CD05EB6549}"/>
+    <hyperlink ref="C372" r:id="rId323" xr:uid="{BB63E040-7A1A-E046-9BDD-9CBD1DA89DE9}"/>
+    <hyperlink ref="C373" r:id="rId324" xr:uid="{9AF8FD93-CCC9-D540-AE9A-00583F309649}"/>
+    <hyperlink ref="C374" r:id="rId325" xr:uid="{66A746A0-71FE-E546-92B7-D1C3D582E067}"/>
+    <hyperlink ref="C378" r:id="rId326" xr:uid="{BD79CCE1-5315-3944-9F9B-618615EC4583}"/>
+    <hyperlink ref="C379" r:id="rId327" xr:uid="{A5068A51-C961-6847-BB27-40A850B6D393}"/>
+    <hyperlink ref="C380" r:id="rId328" xr:uid="{6B8D36F0-E796-B944-A456-E8A9E2EE0BDB}"/>
+    <hyperlink ref="C381" r:id="rId329" xr:uid="{776652B7-2C11-4641-BF6A-EABEEB9B55AB}"/>
+    <hyperlink ref="C382" r:id="rId330" xr:uid="{95C6B35D-712A-2343-B790-236B55C5EC49}"/>
+    <hyperlink ref="C383" r:id="rId331" xr:uid="{4ED53872-1FE9-F140-AA35-F228F762880B}"/>
+    <hyperlink ref="C384" r:id="rId332" xr:uid="{6D5E6A28-85AA-BF4C-B2BD-9378D6E28EC7}"/>
+    <hyperlink ref="C385" r:id="rId333" xr:uid="{BCAD1ECB-15EE-CF49-878E-AA682DE3AC22}"/>
+    <hyperlink ref="C386" r:id="rId334" xr:uid="{C85468B5-25E9-E446-808E-72CFE911F0C2}"/>
+    <hyperlink ref="C387" r:id="rId335" xr:uid="{9503AECA-1A6A-9640-A04C-4CEAA2304448}"/>
+    <hyperlink ref="C388" r:id="rId336" xr:uid="{74211516-06B0-AA45-845B-52C8202751DA}"/>
+    <hyperlink ref="C389" r:id="rId337" xr:uid="{02C696BC-4B91-9444-900F-9CD68E409ABC}"/>
+    <hyperlink ref="C390" r:id="rId338" xr:uid="{04646C45-4118-374C-839D-94D31D534FAC}"/>
+    <hyperlink ref="C391" r:id="rId339" xr:uid="{F90BCCAE-8596-FC4D-BDD7-774392C596DF}"/>
+    <hyperlink ref="C392" r:id="rId340" xr:uid="{65230925-36EC-8A4B-8E46-6350B9BC0F95}"/>
+    <hyperlink ref="C393" r:id="rId341" xr:uid="{E91B8177-0C7A-1F40-BD34-4CC60F03B84F}"/>
+    <hyperlink ref="C394" r:id="rId342" xr:uid="{E8CBFD60-7335-0B4D-9FF5-99B4A8DC551D}"/>
+    <hyperlink ref="C395" r:id="rId343" xr:uid="{A35F55D4-9B87-C745-94DB-E7D820193C30}"/>
+    <hyperlink ref="C396" r:id="rId344" xr:uid="{6461A29F-D404-334F-B13F-296B4CA5E8A4}"/>
+    <hyperlink ref="C397" r:id="rId345" xr:uid="{FA9B4BE7-85CC-B24F-9461-5E9B42DDD824}"/>
+    <hyperlink ref="C398" r:id="rId346" xr:uid="{A75ACEA2-CDF6-A147-8540-A6DF55B15F45}"/>
+    <hyperlink ref="C399" r:id="rId347" xr:uid="{62FF87E2-E658-AB4D-AC57-7BCF9D49516E}"/>
+    <hyperlink ref="C400" r:id="rId348" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." xr:uid="{269338A6-5145-6944-9F7F-BD2A86DFA308}"/>
+    <hyperlink ref="C401" r:id="rId349" xr:uid="{8F583049-CE8D-CD42-88CD-CF3857942670}"/>
+    <hyperlink ref="C402" r:id="rId350" xr:uid="{EE2348AD-E296-894A-B5AE-5884A3C5E419}"/>
+    <hyperlink ref="C403" r:id="rId351" xr:uid="{6EACB34E-B32E-8F43-8055-2406F7417A7E}"/>
+    <hyperlink ref="C404" r:id="rId352" xr:uid="{2446F10A-B762-B64C-97B2-6131A0BECC1F}"/>
+    <hyperlink ref="C405" r:id="rId353" xr:uid="{6FDFCC53-17A6-7244-88A7-49406D7C9200}"/>
+    <hyperlink ref="C406" r:id="rId354" xr:uid="{3EC43646-EAB1-E443-A2F6-8E6E5FC77083}"/>
+    <hyperlink ref="C407" r:id="rId355" xr:uid="{659D9F20-C862-C947-B422-84143CFE317F}"/>
+    <hyperlink ref="C408" r:id="rId356" xr:uid="{3F5192FE-1C50-C049-88D5-68FA0F5430A0}"/>
+    <hyperlink ref="C409" r:id="rId357" xr:uid="{5EAD7CDA-9545-454B-BE77-9AFEC6AC1083}"/>
+    <hyperlink ref="C410" r:id="rId358" xr:uid="{761E5451-736B-6745-9CF5-4C6EF5D4C099}"/>
+    <hyperlink ref="C411" r:id="rId359" xr:uid="{4C8677A9-D94C-134F-AF31-E424751BF867}"/>
+    <hyperlink ref="C412" r:id="rId360" xr:uid="{CCF7920F-D5CE-004A-86C3-D821FB230970}"/>
+    <hyperlink ref="C413" r:id="rId361" xr:uid="{B4C07A0A-1EDD-7947-9646-3FD603441AD7}"/>
+    <hyperlink ref="C414" r:id="rId362" xr:uid="{49F7BB43-6851-0641-9DC5-27DBC66706F6}"/>
+    <hyperlink ref="C415" r:id="rId363" xr:uid="{77038647-48C7-5547-8E0F-898610362465}"/>
+    <hyperlink ref="C417" r:id="rId364" xr:uid="{EEFFE19C-6571-C64F-A0E1-5A4A700D94D4}"/>
+    <hyperlink ref="C416" r:id="rId365" xr:uid="{A4A2BFC4-6B88-2E4E-B362-17D8EE041C89}"/>
+    <hyperlink ref="C418" r:id="rId366" xr:uid="{DC5B603A-8D65-3648-A08A-E5FFA0FAE879}"/>
+    <hyperlink ref="C419" r:id="rId367" xr:uid="{F8807DD9-F4F2-B147-9C31-DBC93B2E477B}"/>
+    <hyperlink ref="C420" r:id="rId368" xr:uid="{6F7B396C-D7E9-C04E-BAE2-53D2EE07172B}"/>
+    <hyperlink ref="C423" r:id="rId369" xr:uid="{0D4A5941-C669-4A49-BAE3-9B553D03BD0F}"/>
+    <hyperlink ref="C424" r:id="rId370" xr:uid="{54144336-5BCA-D749-962A-E448C2CED3D3}"/>
+    <hyperlink ref="C425" r:id="rId371" xr:uid="{3A41DD21-CACF-1F48-A7C7-F568C6F31F3E}"/>
+    <hyperlink ref="C426" r:id="rId372" xr:uid="{A36160A8-F45E-3443-9645-42C1004B8F8C}"/>
+    <hyperlink ref="C427" r:id="rId373" xr:uid="{8B0A00A3-6AC0-DF46-AD87-A4DA016A2A00}"/>
+    <hyperlink ref="C428" r:id="rId374" xr:uid="{62A81CB4-A961-C543-B31C-92059DB6C105}"/>
+    <hyperlink ref="C431" r:id="rId375" xr:uid="{08030975-009C-C34A-A875-72FE2718F44C}"/>
+    <hyperlink ref="C432" r:id="rId376" xr:uid="{A113C7A9-2359-B643-9C08-E845813439C0}"/>
+    <hyperlink ref="C433" r:id="rId377" xr:uid="{FE300343-4633-AD47-A64D-2086629EB398}"/>
+    <hyperlink ref="C434" r:id="rId378" xr:uid="{4FC9F782-D38F-C642-A863-887B17AD05CD}"/>
+    <hyperlink ref="C435" r:id="rId379" xr:uid="{830C5466-10E3-7A48-B3E7-35C15A1CA4EF}"/>
+    <hyperlink ref="C436" r:id="rId380" xr:uid="{1B987077-E9D3-6F40-89EE-0D4E7180D884}"/>
+    <hyperlink ref="C437" r:id="rId381" xr:uid="{D4843E1F-7226-864E-A4BB-264D5A487B6D}"/>
+    <hyperlink ref="C438" r:id="rId382" xr:uid="{61816592-2D19-9946-8253-47A60218F2EA}"/>
+    <hyperlink ref="C439" r:id="rId383" xr:uid="{736C840F-19A3-0A4B-8863-ECB772B46385}"/>
+    <hyperlink ref="C440" r:id="rId384" xr:uid="{05A238AD-3C5B-C546-94E9-75BBF964711A}"/>
+    <hyperlink ref="C441" r:id="rId385" xr:uid="{7029629C-3F2A-4A49-997B-CFE86EC8B3C2}"/>
+    <hyperlink ref="C442" r:id="rId386" xr:uid="{ADA66B57-2FAC-AB42-BD83-4931708F3AB5}"/>
+    <hyperlink ref="C443" r:id="rId387" xr:uid="{F16BF1F9-755B-B045-B9A8-0B97E3BAC8B0}"/>
+    <hyperlink ref="C444" r:id="rId388" xr:uid="{ECCE930A-B960-234C-81EC-4B8514282AE9}"/>
+    <hyperlink ref="C445" r:id="rId389" xr:uid="{7AA58141-7D24-7C42-A0C1-F852B21CFFD9}"/>
+    <hyperlink ref="C446" r:id="rId390" xr:uid="{B1FCB47D-7921-3446-B2C7-72CBA815D056}"/>
+    <hyperlink ref="C447" r:id="rId391" xr:uid="{8C547719-AA03-3543-B31F-7300674AF4C5}"/>
+    <hyperlink ref="C448" r:id="rId392" xr:uid="{09922668-AFC0-F242-860E-9967E0F0FEF4}"/>
+    <hyperlink ref="C449" r:id="rId393" xr:uid="{0DA963DA-238B-D44E-9E03-6E6BD933B35E}"/>
+    <hyperlink ref="C450" r:id="rId394" xr:uid="{89518AFF-2526-C845-BC9D-95FE77AF416E}"/>
+    <hyperlink ref="C451" r:id="rId395" xr:uid="{FAECBBBE-196C-7A41-A0FB-E0597CB2CF51}"/>
+    <hyperlink ref="C452" r:id="rId396" xr:uid="{8126B039-0B25-B040-A0F6-C3457341A2E9}"/>
+    <hyperlink ref="C453" r:id="rId397" xr:uid="{6CB326E6-E698-EB42-884B-C89FFA33E3BA}"/>
+    <hyperlink ref="C454" r:id="rId398" xr:uid="{8C97EFD1-933F-A44F-A1CF-6386233104A2}"/>
+    <hyperlink ref="C455" r:id="rId399" xr:uid="{8F019F07-8532-E147-8BE1-4EBE833F61CA}"/>
+    <hyperlink ref="C456" r:id="rId400" xr:uid="{00F1A08F-3767-784A-97A3-4603DE38BACC}"/>
+    <hyperlink ref="C457" r:id="rId401" xr:uid="{2A84ADCB-071F-9A48-994D-7A838307EFD8}"/>
+    <hyperlink ref="C458" r:id="rId402" xr:uid="{132F8C6D-D5E8-6440-AC4E-B81EA2100416}"/>
+    <hyperlink ref="C459" r:id="rId403" xr:uid="{2DA6EAC2-1A1D-754F-9613-226CBC7890AF}"/>
+    <hyperlink ref="C460" r:id="rId404" xr:uid="{05BED99A-4562-D14E-8627-D07CF5335A9B}"/>
+    <hyperlink ref="C461" r:id="rId405" xr:uid="{111D902A-3F60-2D4B-89D3-5BCBD8AA38DD}"/>
+    <hyperlink ref="C462" r:id="rId406" xr:uid="{F19236BE-AC32-3542-9214-DFC3BAE04ED0}"/>
+    <hyperlink ref="C463" r:id="rId407" xr:uid="{4D97CD96-EA1B-664E-9380-EFD27077D273}"/>
+    <hyperlink ref="C464" r:id="rId408" xr:uid="{49A46D91-633F-A148-ACFA-49B7D1AA4B33}"/>
+    <hyperlink ref="C465" r:id="rId409" xr:uid="{7C3B7901-67E3-EA4D-BC64-21A78BC03AC6}"/>
+    <hyperlink ref="C466" r:id="rId410" xr:uid="{B27CA8C3-D34F-5E4D-94A5-11D14AFD0F82}"/>
+    <hyperlink ref="C467" r:id="rId411" xr:uid="{8FECE038-9764-5E4A-8C6E-9B3209812651}"/>
+    <hyperlink ref="C468" r:id="rId412" xr:uid="{95696D4B-89CB-5640-BE92-53B3C043F7EB}"/>
+    <hyperlink ref="C469" r:id="rId413" xr:uid="{DA74B737-802A-4944-A93E-0B9C8417630B}"/>
+    <hyperlink ref="C470" r:id="rId414" xr:uid="{B2C4C168-50FA-AF41-8F56-9E70613CF17D}"/>
+    <hyperlink ref="C472" r:id="rId415" xr:uid="{B7090C60-AC27-3F4F-8F0D-42F0791928C6}"/>
+    <hyperlink ref="C471" r:id="rId416" xr:uid="{07400041-66C6-514B-B3E3-427F2947C2B7}"/>
+    <hyperlink ref="C473" r:id="rId417" xr:uid="{B7E78172-8FB8-4E42-87D8-6A4654D79C62}"/>
+    <hyperlink ref="C474" r:id="rId418" xr:uid="{9A5D4670-BC64-334A-88CF-6F8287692C5E}"/>
+    <hyperlink ref="C475" r:id="rId419" xr:uid="{604283B6-53BC-044F-8D9D-E6094E798317}"/>
+    <hyperlink ref="C476" r:id="rId420" xr:uid="{5EB15AC7-3E0E-E44C-A5B9-32F30F234B5A}"/>
+    <hyperlink ref="C477" r:id="rId421" xr:uid="{3076BD5F-4B23-4146-A50A-499C9FF4C3D2}"/>
+    <hyperlink ref="C478" r:id="rId422" xr:uid="{6A29D9C2-1E78-1B43-A251-0AB0A97FA70E}"/>
+    <hyperlink ref="C479" r:id="rId423" xr:uid="{00597D5E-D693-DF4E-84C0-47E58A6ACA8F}"/>
+    <hyperlink ref="C480" r:id="rId424" xr:uid="{48640988-9964-0B4C-A014-83E2CEB3D632}"/>
+    <hyperlink ref="C481" r:id="rId425" xr:uid="{617AADC9-7534-FE45-96B0-EF4C1867B793}"/>
+    <hyperlink ref="C482" r:id="rId426" xr:uid="{7F8CDAA4-5094-8E4E-961B-41CDE5ACC0C0}"/>
+    <hyperlink ref="C483" r:id="rId427" xr:uid="{63F28ABD-12CF-5947-80DA-229E3CA3133E}"/>
+    <hyperlink ref="C490" r:id="rId428" xr:uid="{0A1DB92C-3315-1942-B27D-4B90986A6D9D}"/>
+    <hyperlink ref="C489" r:id="rId429" xr:uid="{11738B67-CADD-5D45-8417-8BE7A03FC79F}"/>
+    <hyperlink ref="C488" r:id="rId430" xr:uid="{B2B23748-D9E4-BE4F-A93E-49ECB4063831}"/>
+    <hyperlink ref="C487" r:id="rId431" xr:uid="{A2FB8A72-37B9-7E4A-B050-FD6CD20BCE73}"/>
+    <hyperlink ref="C486" r:id="rId432" xr:uid="{5A93C9AF-BFEB-EB40-95AC-C309ED09A604}"/>
+    <hyperlink ref="C485" r:id="rId433" xr:uid="{CC203923-2DC2-874B-B846-A8455E3CC2F2}"/>
+    <hyperlink ref="C484" r:id="rId434" xr:uid="{FCB0246E-0179-B447-B3CE-C60CDB388472}"/>
+    <hyperlink ref="C493" r:id="rId435" xr:uid="{F06CEE72-8CA4-C547-862C-39B86CD3226A}"/>
+    <hyperlink ref="C494" r:id="rId436" xr:uid="{CB3045F2-8D63-0F4E-85BC-AF016DB4F247}"/>
+    <hyperlink ref="C495" r:id="rId437" xr:uid="{667D57F5-E5AD-674F-A2F5-AFF4A14E4026}"/>
+    <hyperlink ref="C496" r:id="rId438" xr:uid="{27A13A65-56CE-BF4D-BA0D-EB87D910272D}"/>
+    <hyperlink ref="C497" r:id="rId439" xr:uid="{2C72A52E-6F06-0246-AEB5-93CD0DEA8866}"/>
+    <hyperlink ref="C498" r:id="rId440" xr:uid="{24B29046-B4DD-674B-9EDF-6C94BEC3FDD8}"/>
+    <hyperlink ref="C499" r:id="rId441" xr:uid="{D018EBC3-3FB3-AC4D-9D64-D218345A46C8}"/>
+    <hyperlink ref="C502" r:id="rId442" xr:uid="{1E1D3964-01E0-3145-ACFE-B6A5BF0EECB0}"/>
+    <hyperlink ref="C500" r:id="rId443" xr:uid="{FA0E5061-A7E2-C045-9671-1CD9446D1932}"/>
+    <hyperlink ref="C501" r:id="rId444" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{92704F5B-7B31-2F42-80DD-764B2206D9DB}"/>
+    <hyperlink ref="C377" r:id="rId445" xr:uid="{A48B1A24-83B1-7A4C-8129-CD37804DF849}"/>
+    <hyperlink ref="C157" r:id="rId446" xr:uid="{F0DDC999-C321-4AB4-BA9D-7538150E84D3}"/>
     <hyperlink ref="C9" r:id="rId447" xr:uid="{310D755F-0FAF-4086-8950-B58917F7CAF8}"/>
     <hyperlink ref="C8" r:id="rId448" xr:uid="{6913685B-862A-49D7-AB28-593B13669931}"/>
     <hyperlink ref="C10" r:id="rId449" xr:uid="{E2555AFC-8C22-4A69-A028-B6C7E7796509}"/>
@@ -8329,12 +8355,13 @@
     <hyperlink ref="C18" r:id="rId456" xr:uid="{D825528B-18AF-463A-AA31-760F76F78A15}"/>
     <hyperlink ref="C12" r:id="rId457" xr:uid="{027E7E1D-0C53-4A77-9662-F495CEC3BAC4}"/>
     <hyperlink ref="C19" r:id="rId458" xr:uid="{B7A6DAE3-6E86-4612-A1FF-539F5C6D3E1D}"/>
-    <hyperlink ref="C155" r:id="rId459" xr:uid="{5221452B-37E3-4315-91B2-6A38CEBB1898}"/>
+    <hyperlink ref="C156" r:id="rId459" xr:uid="{5221452B-37E3-4315-91B2-6A38CEBB1898}"/>
     <hyperlink ref="C24" r:id="rId460" xr:uid="{7C6054B7-B807-4475-B490-126A9686EBA2}"/>
     <hyperlink ref="C25" r:id="rId461" xr:uid="{93FD35D8-7CCD-456F-8688-AE16CCDD3523}"/>
     <hyperlink ref="C26" r:id="rId462" xr:uid="{F4AF07B8-F8B8-4F27-8CE4-D2E7B73B36A2}"/>
+    <hyperlink ref="C34" r:id="rId463" xr:uid="{1895A946-81DF-437C-A537-65287B4088B6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId463"/>
+  <pageSetup orientation="portrait" r:id="rId464"/>
 </worksheet>
 </file>
--- a/DSA Sheet.xlsx
+++ b/DSA Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Java\Java-DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD52260-DD2F-42FB-91BB-D6E03E406E68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96779F25-FD56-4608-87CD-BC89FDE63DCF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3744" yWindow="2016" windowWidth="17280" windowHeight="8964" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22140" windowHeight="13176" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2052,8 +2052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:F502"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B39" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
@@ -2512,8 +2512,8 @@
       <c r="C35" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D35" s="7" t="s">
-        <v>3</v>
+      <c r="D35" s="14" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.4">
@@ -2524,8 +2524,8 @@
       <c r="C36" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D36" s="7" t="s">
-        <v>3</v>
+      <c r="D36" s="14" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.4">
@@ -2536,8 +2536,8 @@
       <c r="C37" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D37" s="7" t="s">
-        <v>3</v>
+      <c r="D37" s="14" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.4">
@@ -2548,8 +2548,8 @@
       <c r="C38" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D38" s="7" t="s">
-        <v>3</v>
+      <c r="D38" s="14" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.4">
@@ -2560,8 +2560,8 @@
       <c r="C39" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D39" s="7" t="s">
-        <v>3</v>
+      <c r="D39" s="14" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.4">
@@ -2572,8 +2572,8 @@
       <c r="C40" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D40" s="7" t="s">
-        <v>3</v>
+      <c r="D40" s="14" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.4">
@@ -2599,8 +2599,8 @@
       <c r="C42" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D42" s="7" t="s">
-        <v>3</v>
+      <c r="D42" s="14" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.4">
@@ -2611,8 +2611,8 @@
       <c r="C43" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D43" s="7" t="s">
-        <v>3</v>
+      <c r="D43" s="14" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.4">
@@ -2623,8 +2623,8 @@
       <c r="C44" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D44" s="7" t="s">
-        <v>3</v>
+      <c r="D44" s="14" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.4">
@@ -2635,8 +2635,8 @@
       <c r="C45" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D45" s="7" t="s">
-        <v>3</v>
+      <c r="D45" s="14" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.4">
@@ -2659,8 +2659,8 @@
       <c r="C47" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D47" s="7" t="s">
-        <v>3</v>
+      <c r="D47" s="14" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.4">
@@ -2671,8 +2671,8 @@
       <c r="C48" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D48" s="7" t="s">
-        <v>3</v>
+      <c r="D48" s="14" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.4">
@@ -2683,8 +2683,8 @@
       <c r="C49" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D49" s="7" t="s">
-        <v>3</v>
+      <c r="D49" s="14" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.4">
@@ -2695,8 +2695,8 @@
       <c r="C50" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D50" s="7" t="s">
-        <v>3</v>
+      <c r="D50" s="14" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.4">
@@ -2707,8 +2707,8 @@
       <c r="C51" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D51" s="7" t="s">
-        <v>3</v>
+      <c r="D51" s="14" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.4">
@@ -2719,8 +2719,8 @@
       <c r="C52" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D52" s="7" t="s">
-        <v>3</v>
+      <c r="D52" s="14" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.4">
@@ -2731,8 +2731,8 @@
       <c r="C53" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D53" s="7" t="s">
-        <v>3</v>
+      <c r="D53" s="3" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.4">
@@ -2743,8 +2743,8 @@
       <c r="C54" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D54" s="7" t="s">
-        <v>3</v>
+      <c r="D54" s="14" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.4">
@@ -2755,8 +2755,8 @@
       <c r="C55" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D55" s="7" t="s">
-        <v>3</v>
+      <c r="D55" s="14" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.4">
@@ -2767,8 +2767,8 @@
       <c r="C56" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D56" s="7" t="s">
-        <v>3</v>
+      <c r="D56" s="14" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.4">
@@ -2779,8 +2779,8 @@
       <c r="C57" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D57" s="7" t="s">
-        <v>3</v>
+      <c r="D57" s="14" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.4">
@@ -2791,8 +2791,8 @@
       <c r="C58" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D58" s="7" t="s">
-        <v>3</v>
+      <c r="D58" s="14" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.4">
@@ -2803,8 +2803,8 @@
       <c r="C59" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D59" s="7" t="s">
-        <v>3</v>
+      <c r="D59" s="14" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.4">
@@ -2815,13 +2815,13 @@
       <c r="C60" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D60" s="7" t="s">
-        <v>3</v>
+      <c r="D60" s="14" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="D61" s="7" t="s">
-        <v>3</v>
+      <c r="D61" s="14" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.4">

--- a/DSA Sheet.xlsx
+++ b/DSA Sheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Java\Java-DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96779F25-FD56-4608-87CD-BC89FDE63DCF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B735BA9A-2AAD-4054-AEFB-6F24F5D51C16}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22140" windowHeight="13176" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1445" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="518">
   <si>
     <t>Topic:</t>
   </si>
@@ -2050,10 +2050,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
-  <dimension ref="A1:F502"/>
+  <dimension ref="A1:F503"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A385" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="E427" sqref="E427"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
@@ -2820,257 +2820,260 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="D61" s="14" t="s">
-        <v>514</v>
-      </c>
+      <c r="D61" s="13"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A62" s="9"/>
+      <c r="A62" s="9" t="s">
+        <v>452</v>
+      </c>
       <c r="B62" s="9"/>
+      <c r="C62" s="10" t="s">
+        <v>453</v>
+      </c>
       <c r="D62" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A63" s="7" t="s">
+      <c r="A63" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="B63" s="9"/>
+      <c r="C63" s="10" t="s">
+        <v>454</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A64" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="B64" s="9"/>
+      <c r="C64" s="10" t="s">
+        <v>455</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A65" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="B65" s="9"/>
+      <c r="C65" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A66" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="B66" s="9"/>
+      <c r="C66" s="10" t="s">
+        <v>457</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A67" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="B67" s="9"/>
+      <c r="C67" s="10" t="s">
+        <v>458</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A68" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="B68" s="9"/>
+      <c r="C68" s="10" t="s">
+        <v>459</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A69" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="B69" s="9"/>
+      <c r="C69" s="10" t="s">
+        <v>460</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A70" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="B70" s="9"/>
+      <c r="C70" s="10" t="s">
+        <v>461</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A71" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="B71" s="9"/>
+      <c r="C71" s="10" t="s">
+        <v>462</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A72" s="9"/>
+      <c r="B72" s="9"/>
+      <c r="D72" s="7"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A73" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B63" s="7"/>
-      <c r="C63" s="10" t="s">
+      <c r="B73" s="7"/>
+      <c r="C73" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D63" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A64" s="7" t="s">
+      <c r="D73" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A74" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B64" s="7"/>
-      <c r="C64" s="10" t="s">
+      <c r="B74" s="7"/>
+      <c r="C74" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D64" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A65" s="7" t="s">
+      <c r="D74" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A75" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B65" s="7"/>
-      <c r="C65" s="10" t="s">
+      <c r="B75" s="7"/>
+      <c r="C75" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D65" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A66" s="7" t="s">
+      <c r="D75" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A76" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B66" s="7"/>
-      <c r="C66" s="10" t="s">
+      <c r="B76" s="7"/>
+      <c r="C76" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D66" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A67" s="7" t="s">
+      <c r="D76" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A77" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B67" s="7"/>
-      <c r="C67" s="10" t="s">
+      <c r="B77" s="7"/>
+      <c r="C77" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D67" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A68" s="7" t="s">
+      <c r="D77" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A78" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B68" s="7"/>
-      <c r="C68" s="10" t="s">
+      <c r="B78" s="7"/>
+      <c r="C78" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D68" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A69" s="7" t="s">
+      <c r="D78" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A79" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B69" s="7"/>
-      <c r="C69" s="10" t="s">
+      <c r="B79" s="7"/>
+      <c r="C79" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D69" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A70" s="7" t="s">
+      <c r="D79" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A80" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B70" s="7"/>
-      <c r="C70" s="10" t="s">
+      <c r="B80" s="7"/>
+      <c r="C80" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D70" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A71" s="7" t="s">
+      <c r="D80" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A81" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B71" s="7"/>
-      <c r="C71" s="10" t="s">
+      <c r="B81" s="7"/>
+      <c r="C81" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D71" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A72" s="7" t="s">
+      <c r="D81" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A82" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B72" s="7"/>
-      <c r="C72" s="10" t="s">
+      <c r="B82" s="7"/>
+      <c r="C82" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D72" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A74" s="9"/>
-      <c r="B74" s="9"/>
-      <c r="D74" s="7"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A75" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B75" s="9"/>
-      <c r="C75" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D75" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A76" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B76" s="9"/>
-      <c r="C76" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D76" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A77" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B77" s="9"/>
-      <c r="C77" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D77" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A78" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B78" s="9"/>
-      <c r="C78" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D78" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A79" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B79" s="9"/>
-      <c r="C79" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D79" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A80" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B80" s="9"/>
-      <c r="C80" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D80" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A81" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B81" s="9"/>
-      <c r="C81" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="D81" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A82" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B82" s="9"/>
-      <c r="C82" s="10" t="s">
-        <v>60</v>
-      </c>
       <c r="D82" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A83" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B83" s="9"/>
-      <c r="C83" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D83" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A84" s="9" t="s">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="B84" s="9"/>
       <c r="C84" s="10" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="D84" s="7" t="s">
         <v>3</v>
@@ -3078,11 +3081,11 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A85" s="9" t="s">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="B85" s="9"/>
       <c r="C85" s="10" t="s">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="D85" s="7" t="s">
         <v>3</v>
@@ -3090,11 +3093,11 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A86" s="9" t="s">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="B86" s="9"/>
       <c r="C86" s="10" t="s">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="D86" s="7" t="s">
         <v>3</v>
@@ -3102,11 +3105,11 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A87" s="9" t="s">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="B87" s="9"/>
       <c r="C87" s="10" t="s">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="D87" s="7" t="s">
         <v>3</v>
@@ -3114,11 +3117,11 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A88" s="9" t="s">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="B88" s="9"/>
       <c r="C88" s="10" t="s">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="D88" s="7" t="s">
         <v>3</v>
@@ -3126,11 +3129,11 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A89" s="9" t="s">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="B89" s="9"/>
       <c r="C89" s="10" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="D89" s="7" t="s">
         <v>3</v>
@@ -3138,11 +3141,11 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A90" s="9" t="s">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="B90" s="9"/>
       <c r="C90" s="10" t="s">
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="D90" s="7" t="s">
         <v>3</v>
@@ -3150,11 +3153,11 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A91" s="9" t="s">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="B91" s="9"/>
       <c r="C91" s="10" t="s">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="D91" s="7" t="s">
         <v>3</v>
@@ -3162,11 +3165,11 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A92" s="9" t="s">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="B92" s="9"/>
       <c r="C92" s="10" t="s">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="D92" s="7" t="s">
         <v>3</v>
@@ -3174,11 +3177,11 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A93" s="9" t="s">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="B93" s="9"/>
       <c r="C93" s="10" t="s">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="D93" s="7" t="s">
         <v>3</v>
@@ -3186,11 +3189,11 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A94" s="9" t="s">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="B94" s="9"/>
       <c r="C94" s="10" t="s">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="D94" s="7" t="s">
         <v>3</v>
@@ -3198,11 +3201,11 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A95" s="9" t="s">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="B95" s="9"/>
       <c r="C95" s="10" t="s">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="D95" s="7" t="s">
         <v>3</v>
@@ -3210,11 +3213,11 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A96" s="9" t="s">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="B96" s="9"/>
       <c r="C96" s="10" t="s">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c r="D96" s="7" t="s">
         <v>3</v>
@@ -3222,11 +3225,11 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A97" s="9" t="s">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="B97" s="9"/>
       <c r="C97" s="10" t="s">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="D97" s="7" t="s">
         <v>3</v>
@@ -3234,11 +3237,11 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A98" s="9" t="s">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="B98" s="9"/>
       <c r="C98" s="10" t="s">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="D98" s="7" t="s">
         <v>3</v>
@@ -3246,11 +3249,11 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A99" s="9" t="s">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="B99" s="9"/>
       <c r="C99" s="10" t="s">
-        <v>77</v>
+        <v>112</v>
       </c>
       <c r="D99" s="7" t="s">
         <v>3</v>
@@ -3258,11 +3261,11 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A100" s="9" t="s">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="B100" s="9"/>
       <c r="C100" s="10" t="s">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="D100" s="7" t="s">
         <v>3</v>
@@ -3270,11 +3273,11 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A101" s="9" t="s">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="B101" s="9"/>
       <c r="C101" s="10" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="D101" s="7" t="s">
         <v>3</v>
@@ -3282,11 +3285,11 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A102" s="9" t="s">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="B102" s="9"/>
       <c r="C102" s="10" t="s">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="D102" s="7" t="s">
         <v>3</v>
@@ -3294,11 +3297,11 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A103" s="9" t="s">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="B103" s="9"/>
       <c r="C103" s="10" t="s">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="D103" s="7" t="s">
         <v>3</v>
@@ -3306,11 +3309,11 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A104" s="9" t="s">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="B104" s="9"/>
       <c r="C104" s="10" t="s">
-        <v>82</v>
+        <v>117</v>
       </c>
       <c r="D104" s="7" t="s">
         <v>3</v>
@@ -3318,11 +3321,11 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A105" s="9" t="s">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="B105" s="9"/>
       <c r="C105" s="10" t="s">
-        <v>83</v>
+        <v>118</v>
       </c>
       <c r="D105" s="7" t="s">
         <v>3</v>
@@ -3330,11 +3333,11 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A106" s="9" t="s">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="B106" s="9"/>
       <c r="C106" s="10" t="s">
-        <v>84</v>
+        <v>119</v>
       </c>
       <c r="D106" s="7" t="s">
         <v>3</v>
@@ -3342,11 +3345,11 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A107" s="9" t="s">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="B107" s="9"/>
       <c r="C107" s="10" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="D107" s="7" t="s">
         <v>3</v>
@@ -3354,11 +3357,11 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A108" s="9" t="s">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="B108" s="9"/>
       <c r="C108" s="10" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="D108" s="7" t="s">
         <v>3</v>
@@ -3366,11 +3369,11 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A109" s="9" t="s">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="B109" s="9"/>
       <c r="C109" s="10" t="s">
-        <v>87</v>
+        <v>122</v>
       </c>
       <c r="D109" s="7" t="s">
         <v>3</v>
@@ -3378,11 +3381,11 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A110" s="9" t="s">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="B110" s="9"/>
       <c r="C110" s="10" t="s">
-        <v>88</v>
+        <v>123</v>
       </c>
       <c r="D110" s="7" t="s">
         <v>3</v>
@@ -3390,11 +3393,11 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A111" s="9" t="s">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="B111" s="9"/>
       <c r="C111" s="10" t="s">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="D111" s="7" t="s">
         <v>3</v>
@@ -3402,11 +3405,11 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A112" s="9" t="s">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="B112" s="9"/>
       <c r="C112" s="10" t="s">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="D112" s="7" t="s">
         <v>3</v>
@@ -3414,11 +3417,11 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A113" s="9" t="s">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="B113" s="9"/>
       <c r="C113" s="10" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
       <c r="D113" s="7" t="s">
         <v>3</v>
@@ -3426,11 +3429,11 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A114" s="9" t="s">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="B114" s="9"/>
       <c r="C114" s="10" t="s">
-        <v>92</v>
+        <v>127</v>
       </c>
       <c r="D114" s="7" t="s">
         <v>3</v>
@@ -3438,11 +3441,11 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A115" s="9" t="s">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="B115" s="9"/>
       <c r="C115" s="10" t="s">
-        <v>93</v>
+        <v>128</v>
       </c>
       <c r="D115" s="7" t="s">
         <v>3</v>
@@ -3450,11 +3453,11 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A116" s="9" t="s">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="B116" s="9"/>
       <c r="C116" s="10" t="s">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="D116" s="7" t="s">
         <v>3</v>
@@ -3462,76 +3465,92 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A117" s="9" t="s">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="B117" s="9"/>
       <c r="C117" s="10" t="s">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="D117" s="7" t="s">
         <v>3</v>
       </c>
     </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A118" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B118" s="9"/>
+      <c r="C118" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="D118" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A119" s="7"/>
-      <c r="B119" s="7"/>
-      <c r="D119" s="7"/>
+      <c r="A119" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B119" s="9"/>
+      <c r="C119" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="D119" s="7" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A120" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="B120" s="9"/>
+      <c r="B120" s="9" t="s">
+        <v>487</v>
+      </c>
       <c r="C120" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="D120" s="7" t="s">
-        <v>3</v>
+        <v>489</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A121" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="B121" s="9"/>
+      <c r="B121" s="9" t="s">
+        <v>486</v>
+      </c>
       <c r="C121" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="D121" s="7" t="s">
-        <v>3</v>
+        <v>488</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A122" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="B122" s="9"/>
+      <c r="B122" s="9" t="s">
+        <v>505</v>
+      </c>
       <c r="C122" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="D122" s="7" t="s">
-        <v>3</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D122" s="13"/>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A123" s="9" t="s">
-        <v>96</v>
-      </c>
+      <c r="A123" s="9"/>
       <c r="B123" s="9"/>
-      <c r="C123" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="D123" s="7" t="s">
-        <v>3</v>
-      </c>
+      <c r="D123" s="7"/>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A124" s="9" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="B124" s="9"/>
       <c r="C124" s="10" t="s">
-        <v>101</v>
+        <v>53</v>
       </c>
       <c r="D124" s="7" t="s">
         <v>3</v>
@@ -3539,11 +3558,11 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A125" s="9" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="B125" s="9"/>
       <c r="C125" s="10" t="s">
-        <v>102</v>
+        <v>54</v>
       </c>
       <c r="D125" s="7" t="s">
         <v>3</v>
@@ -3551,11 +3570,11 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A126" s="9" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="B126" s="9"/>
       <c r="C126" s="10" t="s">
-        <v>103</v>
+        <v>55</v>
       </c>
       <c r="D126" s="7" t="s">
         <v>3</v>
@@ -3563,11 +3582,11 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A127" s="9" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="B127" s="9"/>
-      <c r="C127" s="10" t="s">
-        <v>104</v>
+      <c r="C127" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="D127" s="7" t="s">
         <v>3</v>
@@ -3575,11 +3594,11 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A128" s="9" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="B128" s="9"/>
       <c r="C128" s="10" t="s">
-        <v>105</v>
+        <v>57</v>
       </c>
       <c r="D128" s="7" t="s">
         <v>3</v>
@@ -3587,11 +3606,11 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A129" s="9" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="B129" s="9"/>
       <c r="C129" s="10" t="s">
-        <v>106</v>
+        <v>58</v>
       </c>
       <c r="D129" s="7" t="s">
         <v>3</v>
@@ -3599,11 +3618,11 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A130" s="9" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="B130" s="9"/>
       <c r="C130" s="10" t="s">
-        <v>107</v>
+        <v>59</v>
       </c>
       <c r="D130" s="7" t="s">
         <v>3</v>
@@ -3611,11 +3630,11 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A131" s="9" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="B131" s="9"/>
       <c r="C131" s="10" t="s">
-        <v>108</v>
+        <v>60</v>
       </c>
       <c r="D131" s="7" t="s">
         <v>3</v>
@@ -3623,11 +3642,11 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A132" s="9" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="B132" s="9"/>
       <c r="C132" s="10" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="D132" s="7" t="s">
         <v>3</v>
@@ -3635,11 +3654,11 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A133" s="9" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="B133" s="9"/>
       <c r="C133" s="10" t="s">
-        <v>110</v>
+        <v>62</v>
       </c>
       <c r="D133" s="7" t="s">
         <v>3</v>
@@ -3647,11 +3666,11 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A134" s="9" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="B134" s="9"/>
       <c r="C134" s="10" t="s">
-        <v>111</v>
+        <v>63</v>
       </c>
       <c r="D134" s="7" t="s">
         <v>3</v>
@@ -3659,11 +3678,11 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A135" s="9" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="B135" s="9"/>
       <c r="C135" s="10" t="s">
-        <v>112</v>
+        <v>64</v>
       </c>
       <c r="D135" s="7" t="s">
         <v>3</v>
@@ -3671,11 +3690,11 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A136" s="9" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="B136" s="9"/>
       <c r="C136" s="10" t="s">
-        <v>113</v>
+        <v>65</v>
       </c>
       <c r="D136" s="7" t="s">
         <v>3</v>
@@ -3683,11 +3702,11 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A137" s="9" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="B137" s="9"/>
       <c r="C137" s="10" t="s">
-        <v>114</v>
+        <v>66</v>
       </c>
       <c r="D137" s="7" t="s">
         <v>3</v>
@@ -3695,11 +3714,11 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A138" s="9" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="B138" s="9"/>
       <c r="C138" s="10" t="s">
-        <v>115</v>
+        <v>67</v>
       </c>
       <c r="D138" s="7" t="s">
         <v>3</v>
@@ -3707,11 +3726,11 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A139" s="9" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="B139" s="9"/>
       <c r="C139" s="10" t="s">
-        <v>116</v>
+        <v>68</v>
       </c>
       <c r="D139" s="7" t="s">
         <v>3</v>
@@ -3719,11 +3738,11 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A140" s="9" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="B140" s="9"/>
       <c r="C140" s="10" t="s">
-        <v>117</v>
+        <v>69</v>
       </c>
       <c r="D140" s="7" t="s">
         <v>3</v>
@@ -3731,11 +3750,11 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A141" s="9" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="B141" s="9"/>
       <c r="C141" s="10" t="s">
-        <v>118</v>
+        <v>70</v>
       </c>
       <c r="D141" s="7" t="s">
         <v>3</v>
@@ -3743,11 +3762,11 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A142" s="9" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="B142" s="9"/>
       <c r="C142" s="10" t="s">
-        <v>119</v>
+        <v>71</v>
       </c>
       <c r="D142" s="7" t="s">
         <v>3</v>
@@ -3755,11 +3774,11 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A143" s="9" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="B143" s="9"/>
       <c r="C143" s="10" t="s">
-        <v>120</v>
+        <v>72</v>
       </c>
       <c r="D143" s="7" t="s">
         <v>3</v>
@@ -3767,11 +3786,11 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A144" s="9" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="B144" s="9"/>
       <c r="C144" s="10" t="s">
-        <v>121</v>
+        <v>73</v>
       </c>
       <c r="D144" s="7" t="s">
         <v>3</v>
@@ -3779,11 +3798,11 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A145" s="9" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="B145" s="9"/>
       <c r="C145" s="10" t="s">
-        <v>122</v>
+        <v>74</v>
       </c>
       <c r="D145" s="7" t="s">
         <v>3</v>
@@ -3791,11 +3810,11 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A146" s="9" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="B146" s="9"/>
       <c r="C146" s="10" t="s">
-        <v>123</v>
+        <v>75</v>
       </c>
       <c r="D146" s="7" t="s">
         <v>3</v>
@@ -3803,11 +3822,11 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A147" s="9" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="B147" s="9"/>
       <c r="C147" s="10" t="s">
-        <v>124</v>
+        <v>76</v>
       </c>
       <c r="D147" s="7" t="s">
         <v>3</v>
@@ -3815,11 +3834,11 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A148" s="9" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="B148" s="9"/>
       <c r="C148" s="10" t="s">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="D148" s="7" t="s">
         <v>3</v>
@@ -3827,11 +3846,11 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A149" s="9" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="B149" s="9"/>
       <c r="C149" s="10" t="s">
-        <v>126</v>
+        <v>78</v>
       </c>
       <c r="D149" s="7" t="s">
         <v>3</v>
@@ -3839,11 +3858,11 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A150" s="9" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="B150" s="9"/>
       <c r="C150" s="10" t="s">
-        <v>127</v>
+        <v>79</v>
       </c>
       <c r="D150" s="7" t="s">
         <v>3</v>
@@ -3851,11 +3870,11 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A151" s="9" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="B151" s="9"/>
       <c r="C151" s="10" t="s">
-        <v>128</v>
+        <v>80</v>
       </c>
       <c r="D151" s="7" t="s">
         <v>3</v>
@@ -3863,11 +3882,11 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A152" s="9" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="B152" s="9"/>
       <c r="C152" s="10" t="s">
-        <v>129</v>
+        <v>81</v>
       </c>
       <c r="D152" s="7" t="s">
         <v>3</v>
@@ -3875,11 +3894,11 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A153" s="9" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="B153" s="9"/>
       <c r="C153" s="10" t="s">
-        <v>130</v>
+        <v>82</v>
       </c>
       <c r="D153" s="7" t="s">
         <v>3</v>
@@ -3887,11 +3906,11 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A154" s="9" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="B154" s="9"/>
       <c r="C154" s="10" t="s">
-        <v>131</v>
+        <v>83</v>
       </c>
       <c r="D154" s="7" t="s">
         <v>3</v>
@@ -3899,11 +3918,11 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A155" s="9" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="B155" s="9"/>
       <c r="C155" s="10" t="s">
-        <v>132</v>
+        <v>84</v>
       </c>
       <c r="D155" s="7" t="s">
         <v>3</v>
@@ -3911,169 +3930,146 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A156" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B156" s="9" t="s">
-        <v>487</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="B156" s="9"/>
       <c r="C156" s="10" t="s">
-        <v>489</v>
-      </c>
-      <c r="D156" s="3" t="s">
-        <v>465</v>
+        <v>85</v>
+      </c>
+      <c r="D156" s="7" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A157" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B157" s="9" t="s">
-        <v>486</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="B157" s="9"/>
       <c r="C157" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="D157" s="3" t="s">
-        <v>465</v>
+        <v>86</v>
+      </c>
+      <c r="D157" s="7" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A158" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B158" s="9" t="s">
-        <v>505</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="B158" s="9"/>
       <c r="C158" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D158" s="13"/>
+        <v>87</v>
+      </c>
+      <c r="D158" s="7" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A159" s="9"/>
+      <c r="A159" s="9" t="s">
+        <v>52</v>
+      </c>
       <c r="B159" s="9"/>
-      <c r="C159" s="10"/>
-      <c r="D159" s="13"/>
+      <c r="C159" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D159" s="7" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A160" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="B160" s="7"/>
+      <c r="A160" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B160" s="9"/>
       <c r="C160" s="10" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
       <c r="D160" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A161" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="B161" s="7"/>
+      <c r="A161" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B161" s="9"/>
       <c r="C161" s="10" t="s">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="D161" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A162" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="B162" s="7"/>
+      <c r="A162" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B162" s="9"/>
       <c r="C162" s="10" t="s">
-        <v>136</v>
+        <v>91</v>
       </c>
       <c r="D162" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A163" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="B163" s="7"/>
+      <c r="A163" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B163" s="9"/>
       <c r="C163" s="10" t="s">
-        <v>137</v>
+        <v>92</v>
       </c>
       <c r="D163" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A164" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="B164" s="7"/>
+      <c r="A164" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B164" s="9"/>
       <c r="C164" s="10" t="s">
-        <v>138</v>
+        <v>93</v>
       </c>
       <c r="D164" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A165" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="B165" s="7"/>
+      <c r="A165" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B165" s="9"/>
       <c r="C165" s="10" t="s">
-        <v>139</v>
+        <v>94</v>
       </c>
       <c r="D165" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A166" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="B166" s="7"/>
+      <c r="A166" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B166" s="9"/>
       <c r="C166" s="10" t="s">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="D166" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A167" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="B167" s="7"/>
-      <c r="C167" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="D167" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A168" s="7" t="s">
-        <v>133</v>
-      </c>
+      <c r="A168" s="7"/>
       <c r="B168" s="7"/>
-      <c r="C168" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="D168" s="7" t="s">
-        <v>3</v>
-      </c>
+      <c r="D168" s="7"/>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A169" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="B169" s="7"/>
-      <c r="C169" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="D169" s="7" t="s">
-        <v>3</v>
-      </c>
+      <c r="A169" s="9"/>
+      <c r="B169" s="9"/>
+      <c r="C169" s="10"/>
+      <c r="D169" s="13"/>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A170" s="7" t="s">
@@ -4081,7 +4077,7 @@
       </c>
       <c r="B170" s="7"/>
       <c r="C170" s="10" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="D170" s="7" t="s">
         <v>3</v>
@@ -4093,7 +4089,7 @@
       </c>
       <c r="B171" s="7"/>
       <c r="C171" s="10" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="D171" s="7" t="s">
         <v>3</v>
@@ -4105,7 +4101,7 @@
       </c>
       <c r="B172" s="7"/>
       <c r="C172" s="10" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="D172" s="7" t="s">
         <v>3</v>
@@ -4117,7 +4113,7 @@
       </c>
       <c r="B173" s="7"/>
       <c r="C173" s="10" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="D173" s="7" t="s">
         <v>3</v>
@@ -4129,7 +4125,7 @@
       </c>
       <c r="B174" s="7"/>
       <c r="C174" s="10" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="D174" s="7" t="s">
         <v>3</v>
@@ -4141,7 +4137,7 @@
       </c>
       <c r="B175" s="7"/>
       <c r="C175" s="10" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="D175" s="7" t="s">
         <v>3</v>
@@ -4153,7 +4149,7 @@
       </c>
       <c r="B176" s="7"/>
       <c r="C176" s="10" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D176" s="7" t="s">
         <v>3</v>
@@ -4165,7 +4161,7 @@
       </c>
       <c r="B177" s="7"/>
       <c r="C177" s="10" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="D177" s="7" t="s">
         <v>3</v>
@@ -4177,7 +4173,7 @@
       </c>
       <c r="B178" s="7"/>
       <c r="C178" s="10" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="D178" s="7" t="s">
         <v>3</v>
@@ -4189,7 +4185,7 @@
       </c>
       <c r="B179" s="7"/>
       <c r="C179" s="10" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="D179" s="7" t="s">
         <v>3</v>
@@ -4201,7 +4197,7 @@
       </c>
       <c r="B180" s="7"/>
       <c r="C180" s="10" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="D180" s="7" t="s">
         <v>3</v>
@@ -4213,7 +4209,7 @@
       </c>
       <c r="B181" s="7"/>
       <c r="C181" s="10" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="D181" s="7" t="s">
         <v>3</v>
@@ -4225,7 +4221,7 @@
       </c>
       <c r="B182" s="7"/>
       <c r="C182" s="10" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="D182" s="7" t="s">
         <v>3</v>
@@ -4237,7 +4233,7 @@
       </c>
       <c r="B183" s="7"/>
       <c r="C183" s="10" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="D183" s="7" t="s">
         <v>3</v>
@@ -4249,7 +4245,7 @@
       </c>
       <c r="B184" s="7"/>
       <c r="C184" s="10" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="D184" s="7" t="s">
         <v>3</v>
@@ -4260,8 +4256,8 @@
         <v>133</v>
       </c>
       <c r="B185" s="7"/>
-      <c r="C185" s="5" t="s">
-        <v>159</v>
+      <c r="C185" s="10" t="s">
+        <v>149</v>
       </c>
       <c r="D185" s="7" t="s">
         <v>3</v>
@@ -4272,8 +4268,8 @@
         <v>133</v>
       </c>
       <c r="B186" s="7"/>
-      <c r="C186" s="5" t="s">
-        <v>160</v>
+      <c r="C186" s="10" t="s">
+        <v>150</v>
       </c>
       <c r="D186" s="7" t="s">
         <v>3</v>
@@ -4285,7 +4281,7 @@
       </c>
       <c r="B187" s="7"/>
       <c r="C187" s="10" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="D187" s="7" t="s">
         <v>3</v>
@@ -4297,7 +4293,7 @@
       </c>
       <c r="B188" s="7"/>
       <c r="C188" s="10" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="D188" s="7" t="s">
         <v>3</v>
@@ -4309,7 +4305,7 @@
       </c>
       <c r="B189" s="7"/>
       <c r="C189" s="10" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="D189" s="7" t="s">
         <v>3</v>
@@ -4321,7 +4317,7 @@
       </c>
       <c r="B190" s="7"/>
       <c r="C190" s="10" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="D190" s="7" t="s">
         <v>3</v>
@@ -4333,7 +4329,7 @@
       </c>
       <c r="B191" s="7"/>
       <c r="C191" s="10" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="D191" s="7" t="s">
         <v>3</v>
@@ -4345,7 +4341,7 @@
       </c>
       <c r="B192" s="7"/>
       <c r="C192" s="10" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="D192" s="7" t="s">
         <v>3</v>
@@ -4357,7 +4353,7 @@
       </c>
       <c r="B193" s="7"/>
       <c r="C193" s="10" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="D193" s="7" t="s">
         <v>3</v>
@@ -4369,7 +4365,7 @@
       </c>
       <c r="B194" s="7"/>
       <c r="C194" s="10" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="D194" s="7" t="s">
         <v>3</v>
@@ -4380,131 +4376,140 @@
         <v>133</v>
       </c>
       <c r="B195" s="7"/>
-      <c r="C195" s="10" t="s">
+      <c r="C195" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D195" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A196" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B196" s="7"/>
+      <c r="C196" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D196" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A197" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B197" s="7"/>
+      <c r="C197" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="D197" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A198" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B198" s="7"/>
+      <c r="C198" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="D198" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A199" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B199" s="7"/>
+      <c r="C199" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="D199" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A200" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B200" s="7"/>
+      <c r="C200" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="D200" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A201" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B201" s="7"/>
+      <c r="C201" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="D201" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A202" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B202" s="7"/>
+      <c r="C202" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="D202" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A203" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B203" s="7"/>
+      <c r="C203" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="D203" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A204" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B204" s="7"/>
+      <c r="C204" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="D204" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A205" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B205" s="7"/>
+      <c r="C205" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D195" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="D197" s="7"/>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A198" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="B198" s="9"/>
-      <c r="C198" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="D198" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A199" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="B199" s="9"/>
-      <c r="C199" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="D199" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A200" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="B200" s="9"/>
-      <c r="C200" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="D200" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A201" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="B201" s="9"/>
-      <c r="C201" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="D201" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A202" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="B202" s="9"/>
-      <c r="C202" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="D202" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A203" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="B203" s="9"/>
-      <c r="C203" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="D203" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A204" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="B204" s="9"/>
-      <c r="C204" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="D204" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A205" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="B205" s="9"/>
-      <c r="C205" s="10" t="s">
-        <v>178</v>
-      </c>
       <c r="D205" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A206" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="B206" s="9"/>
-      <c r="C206" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="D206" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A207" s="9" t="s">
-        <v>170</v>
+        <v>284</v>
       </c>
       <c r="B207" s="9"/>
       <c r="C207" s="10" t="s">
-        <v>180</v>
+        <v>285</v>
       </c>
       <c r="D207" s="7" t="s">
         <v>3</v>
@@ -4512,11 +4517,11 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A208" s="9" t="s">
-        <v>170</v>
+        <v>284</v>
       </c>
       <c r="B208" s="9"/>
       <c r="C208" s="10" t="s">
-        <v>181</v>
+        <v>286</v>
       </c>
       <c r="D208" s="7" t="s">
         <v>3</v>
@@ -4524,11 +4529,11 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A209" s="9" t="s">
-        <v>170</v>
+        <v>284</v>
       </c>
       <c r="B209" s="9"/>
       <c r="C209" s="10" t="s">
-        <v>182</v>
+        <v>287</v>
       </c>
       <c r="D209" s="7" t="s">
         <v>3</v>
@@ -4536,11 +4541,11 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A210" s="9" t="s">
-        <v>170</v>
+        <v>284</v>
       </c>
       <c r="B210" s="9"/>
       <c r="C210" s="10" t="s">
-        <v>183</v>
+        <v>288</v>
       </c>
       <c r="D210" s="7" t="s">
         <v>3</v>
@@ -4548,11 +4553,11 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A211" s="9" t="s">
-        <v>170</v>
+        <v>284</v>
       </c>
       <c r="B211" s="9"/>
       <c r="C211" s="10" t="s">
-        <v>184</v>
+        <v>289</v>
       </c>
       <c r="D211" s="7" t="s">
         <v>3</v>
@@ -4560,11 +4565,11 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A212" s="9" t="s">
-        <v>170</v>
+        <v>284</v>
       </c>
       <c r="B212" s="9"/>
       <c r="C212" s="10" t="s">
-        <v>185</v>
+        <v>290</v>
       </c>
       <c r="D212" s="7" t="s">
         <v>3</v>
@@ -4572,11 +4577,11 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A213" s="9" t="s">
-        <v>170</v>
+        <v>284</v>
       </c>
       <c r="B213" s="9"/>
       <c r="C213" s="10" t="s">
-        <v>186</v>
+        <v>291</v>
       </c>
       <c r="D213" s="7" t="s">
         <v>3</v>
@@ -4584,11 +4589,11 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A214" s="9" t="s">
-        <v>170</v>
+        <v>284</v>
       </c>
       <c r="B214" s="9"/>
       <c r="C214" s="10" t="s">
-        <v>187</v>
+        <v>292</v>
       </c>
       <c r="D214" s="7" t="s">
         <v>3</v>
@@ -4596,11 +4601,11 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A215" s="9" t="s">
-        <v>170</v>
+        <v>284</v>
       </c>
       <c r="B215" s="9"/>
       <c r="C215" s="10" t="s">
-        <v>188</v>
+        <v>293</v>
       </c>
       <c r="D215" s="7" t="s">
         <v>3</v>
@@ -4608,11 +4613,11 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A216" s="9" t="s">
-        <v>170</v>
+        <v>284</v>
       </c>
       <c r="B216" s="9"/>
       <c r="C216" s="10" t="s">
-        <v>189</v>
+        <v>294</v>
       </c>
       <c r="D216" s="7" t="s">
         <v>3</v>
@@ -4620,11 +4625,11 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A217" s="9" t="s">
-        <v>170</v>
+        <v>284</v>
       </c>
       <c r="B217" s="9"/>
       <c r="C217" s="10" t="s">
-        <v>190</v>
+        <v>295</v>
       </c>
       <c r="D217" s="7" t="s">
         <v>3</v>
@@ -4632,11 +4637,11 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A218" s="9" t="s">
-        <v>170</v>
+        <v>284</v>
       </c>
       <c r="B218" s="9"/>
       <c r="C218" s="10" t="s">
-        <v>191</v>
+        <v>296</v>
       </c>
       <c r="D218" s="7" t="s">
         <v>3</v>
@@ -4644,11 +4649,11 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A219" s="9" t="s">
-        <v>170</v>
+        <v>284</v>
       </c>
       <c r="B219" s="9"/>
       <c r="C219" s="10" t="s">
-        <v>192</v>
+        <v>297</v>
       </c>
       <c r="D219" s="7" t="s">
         <v>3</v>
@@ -4656,11 +4661,11 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A220" s="9" t="s">
-        <v>170</v>
+        <v>284</v>
       </c>
       <c r="B220" s="9"/>
-      <c r="C220" s="10" t="s">
-        <v>193</v>
+      <c r="C220" s="4" t="s">
+        <v>298</v>
       </c>
       <c r="D220" s="7" t="s">
         <v>3</v>
@@ -4668,11 +4673,11 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A221" s="9" t="s">
-        <v>170</v>
+        <v>284</v>
       </c>
       <c r="B221" s="9"/>
       <c r="C221" s="10" t="s">
-        <v>194</v>
+        <v>299</v>
       </c>
       <c r="D221" s="7" t="s">
         <v>3</v>
@@ -4680,11 +4685,11 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A222" s="9" t="s">
-        <v>170</v>
+        <v>284</v>
       </c>
       <c r="B222" s="9"/>
       <c r="C222" s="10" t="s">
-        <v>195</v>
+        <v>300</v>
       </c>
       <c r="D222" s="7" t="s">
         <v>3</v>
@@ -4692,11 +4697,11 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A223" s="9" t="s">
-        <v>170</v>
+        <v>284</v>
       </c>
       <c r="B223" s="9"/>
       <c r="C223" s="10" t="s">
-        <v>196</v>
+        <v>301</v>
       </c>
       <c r="D223" s="7" t="s">
         <v>3</v>
@@ -4704,11 +4709,11 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A224" s="9" t="s">
-        <v>170</v>
+        <v>284</v>
       </c>
       <c r="B224" s="9"/>
       <c r="C224" s="10" t="s">
-        <v>197</v>
+        <v>302</v>
       </c>
       <c r="D224" s="7" t="s">
         <v>3</v>
@@ -4716,11 +4721,11 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A225" s="9" t="s">
-        <v>170</v>
+        <v>284</v>
       </c>
       <c r="B225" s="9"/>
       <c r="C225" s="10" t="s">
-        <v>198</v>
+        <v>303</v>
       </c>
       <c r="D225" s="7" t="s">
         <v>3</v>
@@ -4728,11 +4733,11 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A226" s="9" t="s">
-        <v>170</v>
+        <v>284</v>
       </c>
       <c r="B226" s="9"/>
       <c r="C226" s="10" t="s">
-        <v>199</v>
+        <v>304</v>
       </c>
       <c r="D226" s="7" t="s">
         <v>3</v>
@@ -4740,11 +4745,11 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A227" s="9" t="s">
-        <v>170</v>
+        <v>284</v>
       </c>
       <c r="B227" s="9"/>
       <c r="C227" s="10" t="s">
-        <v>200</v>
+        <v>305</v>
       </c>
       <c r="D227" s="7" t="s">
         <v>3</v>
@@ -4752,11 +4757,11 @@
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A228" s="9" t="s">
-        <v>170</v>
+        <v>284</v>
       </c>
       <c r="B228" s="9"/>
       <c r="C228" s="10" t="s">
-        <v>201</v>
+        <v>306</v>
       </c>
       <c r="D228" s="7" t="s">
         <v>3</v>
@@ -4764,11 +4769,11 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A229" s="9" t="s">
-        <v>170</v>
+        <v>284</v>
       </c>
       <c r="B229" s="9"/>
       <c r="C229" s="10" t="s">
-        <v>202</v>
+        <v>307</v>
       </c>
       <c r="D229" s="7" t="s">
         <v>3</v>
@@ -4776,11 +4781,11 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A230" s="9" t="s">
-        <v>170</v>
+        <v>284</v>
       </c>
       <c r="B230" s="9"/>
       <c r="C230" s="10" t="s">
-        <v>203</v>
+        <v>308</v>
       </c>
       <c r="D230" s="7" t="s">
         <v>3</v>
@@ -4788,11 +4793,11 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A231" s="9" t="s">
-        <v>170</v>
+        <v>284</v>
       </c>
       <c r="B231" s="9"/>
       <c r="C231" s="10" t="s">
-        <v>204</v>
+        <v>309</v>
       </c>
       <c r="D231" s="7" t="s">
         <v>3</v>
@@ -4800,33 +4805,47 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A232" s="9" t="s">
-        <v>170</v>
+        <v>284</v>
       </c>
       <c r="B232" s="9"/>
       <c r="C232" s="10" t="s">
-        <v>205</v>
+        <v>310</v>
       </c>
       <c r="D232" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A233" s="7"/>
-      <c r="B233" s="7"/>
-      <c r="D233" s="7"/>
+      <c r="A233" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="B233" s="9"/>
+      <c r="C233" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="D233" s="7" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A234" s="7"/>
-      <c r="B234" s="7"/>
-      <c r="D234" s="7"/>
+      <c r="A234" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="B234" s="9"/>
+      <c r="C234" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="D234" s="7" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A235" s="9" t="s">
-        <v>206</v>
+        <v>284</v>
       </c>
       <c r="B235" s="9"/>
       <c r="C235" s="10" t="s">
-        <v>207</v>
+        <v>313</v>
       </c>
       <c r="D235" s="7" t="s">
         <v>3</v>
@@ -4834,11 +4853,11 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A236" s="9" t="s">
-        <v>206</v>
+        <v>284</v>
       </c>
       <c r="B236" s="9"/>
       <c r="C236" s="10" t="s">
-        <v>208</v>
+        <v>314</v>
       </c>
       <c r="D236" s="7" t="s">
         <v>3</v>
@@ -4846,11 +4865,11 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A237" s="9" t="s">
-        <v>206</v>
+        <v>284</v>
       </c>
       <c r="B237" s="9"/>
       <c r="C237" s="10" t="s">
-        <v>209</v>
+        <v>315</v>
       </c>
       <c r="D237" s="7" t="s">
         <v>3</v>
@@ -4858,11 +4877,11 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A238" s="9" t="s">
-        <v>206</v>
+        <v>284</v>
       </c>
       <c r="B238" s="9"/>
       <c r="C238" s="10" t="s">
-        <v>210</v>
+        <v>316</v>
       </c>
       <c r="D238" s="7" t="s">
         <v>3</v>
@@ -4870,11 +4889,11 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A239" s="9" t="s">
-        <v>206</v>
+        <v>284</v>
       </c>
       <c r="B239" s="9"/>
       <c r="C239" s="10" t="s">
-        <v>211</v>
+        <v>317</v>
       </c>
       <c r="D239" s="7" t="s">
         <v>3</v>
@@ -4882,11 +4901,11 @@
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A240" s="9" t="s">
-        <v>206</v>
+        <v>284</v>
       </c>
       <c r="B240" s="9"/>
       <c r="C240" s="10" t="s">
-        <v>212</v>
+        <v>318</v>
       </c>
       <c r="D240" s="7" t="s">
         <v>3</v>
@@ -4894,11 +4913,11 @@
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A241" s="9" t="s">
-        <v>206</v>
+        <v>284</v>
       </c>
       <c r="B241" s="9"/>
-      <c r="C241" s="4" t="s">
-        <v>213</v>
+      <c r="C241" s="10" t="s">
+        <v>319</v>
       </c>
       <c r="D241" s="7" t="s">
         <v>3</v>
@@ -4906,11 +4925,11 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A242" s="9" t="s">
-        <v>206</v>
+        <v>284</v>
       </c>
       <c r="B242" s="9"/>
       <c r="C242" s="10" t="s">
-        <v>214</v>
+        <v>320</v>
       </c>
       <c r="D242" s="7" t="s">
         <v>3</v>
@@ -4918,11 +4937,11 @@
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A243" s="9" t="s">
-        <v>206</v>
+        <v>284</v>
       </c>
       <c r="B243" s="9"/>
       <c r="C243" s="10" t="s">
-        <v>215</v>
+        <v>321</v>
       </c>
       <c r="D243" s="7" t="s">
         <v>3</v>
@@ -4930,35 +4949,26 @@
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A244" s="9" t="s">
-        <v>206</v>
+        <v>284</v>
       </c>
       <c r="B244" s="9"/>
       <c r="C244" s="10" t="s">
-        <v>216</v>
+        <v>322</v>
       </c>
       <c r="D244" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A245" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="B245" s="9"/>
-      <c r="C245" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="D245" s="7" t="s">
-        <v>3</v>
-      </c>
+      <c r="D245" s="7"/>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A246" s="9" t="s">
-        <v>206</v>
+        <v>170</v>
       </c>
       <c r="B246" s="9"/>
       <c r="C246" s="10" t="s">
-        <v>218</v>
+        <v>171</v>
       </c>
       <c r="D246" s="7" t="s">
         <v>3</v>
@@ -4966,11 +4976,11 @@
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A247" s="9" t="s">
-        <v>206</v>
+        <v>170</v>
       </c>
       <c r="B247" s="9"/>
       <c r="C247" s="10" t="s">
-        <v>219</v>
+        <v>172</v>
       </c>
       <c r="D247" s="7" t="s">
         <v>3</v>
@@ -4978,11 +4988,11 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A248" s="9" t="s">
-        <v>206</v>
+        <v>170</v>
       </c>
       <c r="B248" s="9"/>
       <c r="C248" s="10" t="s">
-        <v>220</v>
+        <v>173</v>
       </c>
       <c r="D248" s="7" t="s">
         <v>3</v>
@@ -4990,11 +5000,11 @@
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A249" s="9" t="s">
-        <v>206</v>
+        <v>170</v>
       </c>
       <c r="B249" s="9"/>
       <c r="C249" s="10" t="s">
-        <v>221</v>
+        <v>174</v>
       </c>
       <c r="D249" s="7" t="s">
         <v>3</v>
@@ -5002,11 +5012,11 @@
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A250" s="9" t="s">
-        <v>206</v>
+        <v>170</v>
       </c>
       <c r="B250" s="9"/>
       <c r="C250" s="10" t="s">
-        <v>222</v>
+        <v>175</v>
       </c>
       <c r="D250" s="7" t="s">
         <v>3</v>
@@ -5014,11 +5024,11 @@
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A251" s="9" t="s">
-        <v>206</v>
+        <v>170</v>
       </c>
       <c r="B251" s="9"/>
       <c r="C251" s="10" t="s">
-        <v>223</v>
+        <v>176</v>
       </c>
       <c r="D251" s="7" t="s">
         <v>3</v>
@@ -5026,11 +5036,11 @@
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A252" s="9" t="s">
-        <v>206</v>
+        <v>170</v>
       </c>
       <c r="B252" s="9"/>
       <c r="C252" s="10" t="s">
-        <v>224</v>
+        <v>177</v>
       </c>
       <c r="D252" s="7" t="s">
         <v>3</v>
@@ -5038,11 +5048,11 @@
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A253" s="9" t="s">
-        <v>206</v>
+        <v>170</v>
       </c>
       <c r="B253" s="9"/>
       <c r="C253" s="10" t="s">
-        <v>225</v>
+        <v>178</v>
       </c>
       <c r="D253" s="7" t="s">
         <v>3</v>
@@ -5050,11 +5060,11 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A254" s="9" t="s">
-        <v>206</v>
+        <v>170</v>
       </c>
       <c r="B254" s="9"/>
       <c r="C254" s="10" t="s">
-        <v>226</v>
+        <v>179</v>
       </c>
       <c r="D254" s="7" t="s">
         <v>3</v>
@@ -5062,11 +5072,11 @@
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A255" s="9" t="s">
-        <v>206</v>
+        <v>170</v>
       </c>
       <c r="B255" s="9"/>
       <c r="C255" s="10" t="s">
-        <v>227</v>
+        <v>180</v>
       </c>
       <c r="D255" s="7" t="s">
         <v>3</v>
@@ -5074,29 +5084,47 @@
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A256" s="9" t="s">
-        <v>206</v>
+        <v>170</v>
       </c>
       <c r="B256" s="9"/>
       <c r="C256" s="10" t="s">
-        <v>228</v>
+        <v>181</v>
       </c>
       <c r="D256" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="D257" s="7"/>
+      <c r="A257" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="B257" s="9"/>
+      <c r="C257" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="D257" s="7" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="D258" s="7"/>
+      <c r="A258" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="B258" s="9"/>
+      <c r="C258" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="D258" s="7" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A259" s="9" t="s">
-        <v>229</v>
+        <v>170</v>
       </c>
       <c r="B259" s="9"/>
       <c r="C259" s="10" t="s">
-        <v>230</v>
+        <v>184</v>
       </c>
       <c r="D259" s="7" t="s">
         <v>3</v>
@@ -5104,11 +5132,11 @@
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A260" s="9" t="s">
-        <v>229</v>
+        <v>170</v>
       </c>
       <c r="B260" s="9"/>
       <c r="C260" s="10" t="s">
-        <v>231</v>
+        <v>185</v>
       </c>
       <c r="D260" s="7" t="s">
         <v>3</v>
@@ -5116,11 +5144,11 @@
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A261" s="9" t="s">
-        <v>229</v>
+        <v>170</v>
       </c>
       <c r="B261" s="9"/>
       <c r="C261" s="10" t="s">
-        <v>232</v>
+        <v>186</v>
       </c>
       <c r="D261" s="7" t="s">
         <v>3</v>
@@ -5128,11 +5156,11 @@
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A262" s="9" t="s">
-        <v>229</v>
+        <v>170</v>
       </c>
       <c r="B262" s="9"/>
       <c r="C262" s="10" t="s">
-        <v>233</v>
+        <v>187</v>
       </c>
       <c r="D262" s="7" t="s">
         <v>3</v>
@@ -5140,11 +5168,11 @@
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A263" s="9" t="s">
-        <v>229</v>
+        <v>170</v>
       </c>
       <c r="B263" s="9"/>
       <c r="C263" s="10" t="s">
-        <v>234</v>
+        <v>188</v>
       </c>
       <c r="D263" s="7" t="s">
         <v>3</v>
@@ -5152,11 +5180,11 @@
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A264" s="9" t="s">
-        <v>229</v>
+        <v>170</v>
       </c>
       <c r="B264" s="9"/>
       <c r="C264" s="10" t="s">
-        <v>235</v>
+        <v>189</v>
       </c>
       <c r="D264" s="7" t="s">
         <v>3</v>
@@ -5164,11 +5192,11 @@
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A265" s="9" t="s">
-        <v>229</v>
+        <v>170</v>
       </c>
       <c r="B265" s="9"/>
       <c r="C265" s="10" t="s">
-        <v>236</v>
+        <v>190</v>
       </c>
       <c r="D265" s="7" t="s">
         <v>3</v>
@@ -5176,11 +5204,11 @@
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A266" s="9" t="s">
-        <v>229</v>
+        <v>170</v>
       </c>
       <c r="B266" s="9"/>
       <c r="C266" s="10" t="s">
-        <v>237</v>
+        <v>191</v>
       </c>
       <c r="D266" s="7" t="s">
         <v>3</v>
@@ -5188,11 +5216,11 @@
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A267" s="9" t="s">
-        <v>229</v>
+        <v>170</v>
       </c>
       <c r="B267" s="9"/>
       <c r="C267" s="10" t="s">
-        <v>238</v>
+        <v>192</v>
       </c>
       <c r="D267" s="7" t="s">
         <v>3</v>
@@ -5200,11 +5228,11 @@
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A268" s="9" t="s">
-        <v>229</v>
+        <v>170</v>
       </c>
       <c r="B268" s="9"/>
       <c r="C268" s="10" t="s">
-        <v>239</v>
+        <v>193</v>
       </c>
       <c r="D268" s="7" t="s">
         <v>3</v>
@@ -5212,11 +5240,11 @@
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A269" s="9" t="s">
-        <v>229</v>
+        <v>170</v>
       </c>
       <c r="B269" s="9"/>
       <c r="C269" s="10" t="s">
-        <v>240</v>
+        <v>194</v>
       </c>
       <c r="D269" s="7" t="s">
         <v>3</v>
@@ -5224,11 +5252,11 @@
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A270" s="9" t="s">
-        <v>229</v>
+        <v>170</v>
       </c>
       <c r="B270" s="9"/>
       <c r="C270" s="10" t="s">
-        <v>241</v>
+        <v>195</v>
       </c>
       <c r="D270" s="7" t="s">
         <v>3</v>
@@ -5236,11 +5264,11 @@
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A271" s="9" t="s">
-        <v>229</v>
+        <v>170</v>
       </c>
       <c r="B271" s="9"/>
       <c r="C271" s="10" t="s">
-        <v>242</v>
+        <v>196</v>
       </c>
       <c r="D271" s="7" t="s">
         <v>3</v>
@@ -5248,11 +5276,11 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A272" s="9" t="s">
-        <v>229</v>
+        <v>170</v>
       </c>
       <c r="B272" s="9"/>
       <c r="C272" s="10" t="s">
-        <v>243</v>
+        <v>197</v>
       </c>
       <c r="D272" s="7" t="s">
         <v>3</v>
@@ -5260,11 +5288,11 @@
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A273" s="9" t="s">
-        <v>229</v>
+        <v>170</v>
       </c>
       <c r="B273" s="9"/>
       <c r="C273" s="10" t="s">
-        <v>244</v>
+        <v>198</v>
       </c>
       <c r="D273" s="7" t="s">
         <v>3</v>
@@ -5272,11 +5300,11 @@
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A274" s="9" t="s">
-        <v>229</v>
+        <v>170</v>
       </c>
       <c r="B274" s="9"/>
       <c r="C274" s="10" t="s">
-        <v>245</v>
+        <v>199</v>
       </c>
       <c r="D274" s="7" t="s">
         <v>3</v>
@@ -5284,11 +5312,11 @@
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A275" s="9" t="s">
-        <v>229</v>
+        <v>170</v>
       </c>
       <c r="B275" s="9"/>
       <c r="C275" s="10" t="s">
-        <v>246</v>
+        <v>200</v>
       </c>
       <c r="D275" s="7" t="s">
         <v>3</v>
@@ -5296,11 +5324,11 @@
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A276" s="9" t="s">
-        <v>229</v>
+        <v>170</v>
       </c>
       <c r="B276" s="9"/>
       <c r="C276" s="10" t="s">
-        <v>247</v>
+        <v>201</v>
       </c>
       <c r="D276" s="7" t="s">
         <v>3</v>
@@ -5308,11 +5336,11 @@
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A277" s="9" t="s">
-        <v>229</v>
+        <v>170</v>
       </c>
       <c r="B277" s="9"/>
       <c r="C277" s="10" t="s">
-        <v>248</v>
+        <v>202</v>
       </c>
       <c r="D277" s="7" t="s">
         <v>3</v>
@@ -5320,11 +5348,11 @@
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A278" s="9" t="s">
-        <v>229</v>
+        <v>170</v>
       </c>
       <c r="B278" s="9"/>
       <c r="C278" s="10" t="s">
-        <v>249</v>
+        <v>203</v>
       </c>
       <c r="D278" s="7" t="s">
         <v>3</v>
@@ -5332,11 +5360,11 @@
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A279" s="9" t="s">
-        <v>229</v>
+        <v>170</v>
       </c>
       <c r="B279" s="9"/>
       <c r="C279" s="10" t="s">
-        <v>250</v>
+        <v>204</v>
       </c>
       <c r="D279" s="7" t="s">
         <v>3</v>
@@ -5344,47 +5372,33 @@
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A280" s="9" t="s">
-        <v>229</v>
+        <v>170</v>
       </c>
       <c r="B280" s="9"/>
       <c r="C280" s="10" t="s">
-        <v>251</v>
+        <v>205</v>
       </c>
       <c r="D280" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A281" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="B281" s="9"/>
-      <c r="C281" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="D281" s="7" t="s">
-        <v>3</v>
-      </c>
+      <c r="A281" s="7"/>
+      <c r="B281" s="7"/>
+      <c r="D281" s="7"/>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A282" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="B282" s="9"/>
-      <c r="C282" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="D282" s="7" t="s">
-        <v>3</v>
-      </c>
+      <c r="A282" s="7"/>
+      <c r="B282" s="7"/>
+      <c r="D282" s="7"/>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A283" s="9" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
       <c r="B283" s="9"/>
       <c r="C283" s="10" t="s">
-        <v>254</v>
+        <v>207</v>
       </c>
       <c r="D283" s="7" t="s">
         <v>3</v>
@@ -5392,11 +5406,11 @@
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A284" s="9" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
       <c r="B284" s="9"/>
       <c r="C284" s="10" t="s">
-        <v>255</v>
+        <v>208</v>
       </c>
       <c r="D284" s="7" t="s">
         <v>3</v>
@@ -5404,11 +5418,11 @@
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A285" s="9" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
       <c r="B285" s="9"/>
       <c r="C285" s="10" t="s">
-        <v>256</v>
+        <v>209</v>
       </c>
       <c r="D285" s="7" t="s">
         <v>3</v>
@@ -5416,11 +5430,11 @@
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A286" s="9" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
       <c r="B286" s="9"/>
       <c r="C286" s="10" t="s">
-        <v>257</v>
+        <v>210</v>
       </c>
       <c r="D286" s="7" t="s">
         <v>3</v>
@@ -5428,11 +5442,11 @@
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A287" s="9" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
       <c r="B287" s="9"/>
       <c r="C287" s="10" t="s">
-        <v>258</v>
+        <v>211</v>
       </c>
       <c r="D287" s="7" t="s">
         <v>3</v>
@@ -5440,11 +5454,11 @@
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A288" s="9" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
       <c r="B288" s="9"/>
       <c r="C288" s="10" t="s">
-        <v>259</v>
+        <v>212</v>
       </c>
       <c r="D288" s="7" t="s">
         <v>3</v>
@@ -5452,11 +5466,11 @@
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A289" s="9" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
       <c r="B289" s="9"/>
-      <c r="C289" s="10" t="s">
-        <v>260</v>
+      <c r="C289" s="4" t="s">
+        <v>213</v>
       </c>
       <c r="D289" s="7" t="s">
         <v>3</v>
@@ -5464,11 +5478,11 @@
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A290" s="9" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
       <c r="B290" s="9"/>
       <c r="C290" s="10" t="s">
-        <v>261</v>
+        <v>214</v>
       </c>
       <c r="D290" s="7" t="s">
         <v>3</v>
@@ -5476,11 +5490,11 @@
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A291" s="9" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
       <c r="B291" s="9"/>
       <c r="C291" s="10" t="s">
-        <v>262</v>
+        <v>215</v>
       </c>
       <c r="D291" s="7" t="s">
         <v>3</v>
@@ -5488,11 +5502,11 @@
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A292" s="9" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
       <c r="B292" s="9"/>
       <c r="C292" s="10" t="s">
-        <v>86</v>
+        <v>216</v>
       </c>
       <c r="D292" s="7" t="s">
         <v>3</v>
@@ -5500,29 +5514,47 @@
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A293" s="9" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
       <c r="B293" s="9"/>
       <c r="C293" s="10" t="s">
-        <v>263</v>
+        <v>217</v>
       </c>
       <c r="D293" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="D294" s="7"/>
+      <c r="A294" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="B294" s="9"/>
+      <c r="C294" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="D294" s="7" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="D295" s="7"/>
+      <c r="A295" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="B295" s="9"/>
+      <c r="C295" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="D295" s="7" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A296" s="9" t="s">
-        <v>264</v>
+        <v>206</v>
       </c>
       <c r="B296" s="9"/>
       <c r="C296" s="10" t="s">
-        <v>265</v>
+        <v>220</v>
       </c>
       <c r="D296" s="7" t="s">
         <v>3</v>
@@ -5530,11 +5562,11 @@
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A297" s="9" t="s">
-        <v>264</v>
+        <v>206</v>
       </c>
       <c r="B297" s="9"/>
       <c r="C297" s="10" t="s">
-        <v>266</v>
+        <v>221</v>
       </c>
       <c r="D297" s="7" t="s">
         <v>3</v>
@@ -5542,11 +5574,11 @@
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A298" s="9" t="s">
-        <v>264</v>
+        <v>206</v>
       </c>
       <c r="B298" s="9"/>
       <c r="C298" s="10" t="s">
-        <v>267</v>
+        <v>222</v>
       </c>
       <c r="D298" s="7" t="s">
         <v>3</v>
@@ -5554,11 +5586,11 @@
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A299" s="9" t="s">
-        <v>264</v>
+        <v>206</v>
       </c>
       <c r="B299" s="9"/>
       <c r="C299" s="10" t="s">
-        <v>268</v>
+        <v>223</v>
       </c>
       <c r="D299" s="7" t="s">
         <v>3</v>
@@ -5566,11 +5598,11 @@
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A300" s="9" t="s">
-        <v>264</v>
+        <v>206</v>
       </c>
       <c r="B300" s="9"/>
       <c r="C300" s="10" t="s">
-        <v>269</v>
+        <v>224</v>
       </c>
       <c r="D300" s="7" t="s">
         <v>3</v>
@@ -5578,11 +5610,11 @@
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A301" s="9" t="s">
-        <v>264</v>
+        <v>206</v>
       </c>
       <c r="B301" s="9"/>
       <c r="C301" s="10" t="s">
-        <v>270</v>
+        <v>225</v>
       </c>
       <c r="D301" s="7" t="s">
         <v>3</v>
@@ -5590,11 +5622,11 @@
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A302" s="9" t="s">
-        <v>264</v>
+        <v>206</v>
       </c>
       <c r="B302" s="9"/>
       <c r="C302" s="10" t="s">
-        <v>271</v>
+        <v>226</v>
       </c>
       <c r="D302" s="7" t="s">
         <v>3</v>
@@ -5602,11 +5634,11 @@
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A303" s="9" t="s">
-        <v>264</v>
+        <v>206</v>
       </c>
       <c r="B303" s="9"/>
       <c r="C303" s="10" t="s">
-        <v>272</v>
+        <v>227</v>
       </c>
       <c r="D303" s="7" t="s">
         <v>3</v>
@@ -5614,611 +5646,632 @@
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A304" s="9" t="s">
-        <v>264</v>
+        <v>206</v>
       </c>
       <c r="B304" s="9"/>
       <c r="C304" s="10" t="s">
-        <v>273</v>
+        <v>228</v>
       </c>
       <c r="D304" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A305" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="B305" s="9"/>
-      <c r="C305" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="D305" s="7" t="s">
-        <v>3</v>
-      </c>
+      <c r="D305" s="7"/>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A306" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="B306" s="9"/>
+      <c r="A306" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="B306" s="7"/>
       <c r="C306" s="10" t="s">
-        <v>275</v>
+        <v>324</v>
       </c>
       <c r="D306" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A307" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="B307" s="9"/>
+      <c r="A307" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="B307" s="7"/>
       <c r="C307" s="10" t="s">
-        <v>276</v>
+        <v>325</v>
       </c>
       <c r="D307" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A308" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="B308" s="9"/>
+      <c r="A308" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="B308" s="7"/>
       <c r="C308" s="10" t="s">
-        <v>277</v>
+        <v>326</v>
       </c>
       <c r="D308" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A309" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="B309" s="9"/>
+      <c r="A309" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="B309" s="7"/>
       <c r="C309" s="10" t="s">
-        <v>278</v>
+        <v>327</v>
       </c>
       <c r="D309" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A310" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="B310" s="9"/>
+      <c r="A310" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="B310" s="7"/>
       <c r="C310" s="10" t="s">
-        <v>279</v>
+        <v>328</v>
       </c>
       <c r="D310" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A311" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="B311" s="9"/>
+      <c r="A311" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="B311" s="7"/>
       <c r="C311" s="10" t="s">
-        <v>280</v>
+        <v>329</v>
       </c>
       <c r="D311" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A312" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="B312" s="9"/>
+      <c r="A312" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="B312" s="7"/>
       <c r="C312" s="10" t="s">
-        <v>281</v>
+        <v>330</v>
       </c>
       <c r="D312" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A313" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="B313" s="9"/>
+      <c r="A313" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="B313" s="7"/>
       <c r="C313" s="10" t="s">
-        <v>282</v>
+        <v>331</v>
       </c>
       <c r="D313" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A314" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="B314" s="9"/>
-      <c r="C314" s="10" t="s">
-        <v>283</v>
+      <c r="A314" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="B314" s="7"/>
+      <c r="C314" s="4" t="s">
+        <v>332</v>
       </c>
       <c r="D314" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="D315" s="7"/>
+      <c r="A315" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="B315" s="7"/>
+      <c r="C315" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="D315" s="7" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="D316" s="7"/>
+      <c r="A316" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="B316" s="7"/>
+      <c r="C316" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="D316" s="7" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A317" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="B317" s="9"/>
+      <c r="A317" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="B317" s="7"/>
       <c r="C317" s="10" t="s">
-        <v>285</v>
+        <v>335</v>
       </c>
       <c r="D317" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A318" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="B318" s="9"/>
+      <c r="A318" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="B318" s="7"/>
       <c r="C318" s="10" t="s">
-        <v>286</v>
+        <v>336</v>
       </c>
       <c r="D318" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A319" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="B319" s="9"/>
+      <c r="A319" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="B319" s="7"/>
       <c r="C319" s="10" t="s">
-        <v>287</v>
+        <v>337</v>
       </c>
       <c r="D319" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A320" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="B320" s="9"/>
+      <c r="A320" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="B320" s="7"/>
       <c r="C320" s="10" t="s">
-        <v>288</v>
+        <v>338</v>
       </c>
       <c r="D320" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A321" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="B321" s="9"/>
+      <c r="A321" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="B321" s="7"/>
       <c r="C321" s="10" t="s">
-        <v>289</v>
+        <v>339</v>
       </c>
       <c r="D321" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A322" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="B322" s="9"/>
+      <c r="A322" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="B322" s="7"/>
       <c r="C322" s="10" t="s">
-        <v>290</v>
+        <v>340</v>
       </c>
       <c r="D322" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A323" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="B323" s="9"/>
+      <c r="A323" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="B323" s="7"/>
       <c r="C323" s="10" t="s">
-        <v>291</v>
+        <v>341</v>
       </c>
       <c r="D323" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A324" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="B324" s="9"/>
-      <c r="C324" s="10" t="s">
-        <v>292</v>
-      </c>
-      <c r="D324" s="7" t="s">
-        <v>3</v>
-      </c>
+      <c r="A324" s="12"/>
+      <c r="B324" s="12"/>
+      <c r="C324" s="10"/>
+      <c r="D324" s="12"/>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A325" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="B325" s="9"/>
+      <c r="A325" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="B325" s="7"/>
       <c r="C325" s="10" t="s">
-        <v>293</v>
+        <v>343</v>
       </c>
       <c r="D325" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A326" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="B326" s="9"/>
+      <c r="A326" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="B326" s="7"/>
       <c r="C326" s="10" t="s">
-        <v>294</v>
+        <v>344</v>
       </c>
       <c r="D326" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A327" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="B327" s="9"/>
+      <c r="A327" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="B327" s="7"/>
       <c r="C327" s="10" t="s">
-        <v>295</v>
+        <v>345</v>
       </c>
       <c r="D327" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A328" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="B328" s="9"/>
+      <c r="A328" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="B328" s="7"/>
       <c r="C328" s="10" t="s">
-        <v>296</v>
+        <v>346</v>
       </c>
       <c r="D328" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A329" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="B329" s="9"/>
+      <c r="A329" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="B329" s="7"/>
       <c r="C329" s="10" t="s">
-        <v>297</v>
+        <v>347</v>
       </c>
       <c r="D329" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A330" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="B330" s="9"/>
-      <c r="C330" s="4" t="s">
-        <v>298</v>
+      <c r="A330" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="B330" s="7"/>
+      <c r="C330" s="10" t="s">
+        <v>348</v>
       </c>
       <c r="D330" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A331" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="B331" s="9"/>
+      <c r="A331" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="B331" s="7"/>
       <c r="C331" s="10" t="s">
-        <v>299</v>
+        <v>349</v>
       </c>
       <c r="D331" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A332" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="B332" s="9"/>
+      <c r="A332" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="B332" s="7"/>
       <c r="C332" s="10" t="s">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="D332" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A333" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="B333" s="9"/>
+      <c r="A333" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="B333" s="7"/>
       <c r="C333" s="10" t="s">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="D333" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A334" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="B334" s="9"/>
+      <c r="A334" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="B334" s="7"/>
       <c r="C334" s="10" t="s">
-        <v>302</v>
+        <v>352</v>
       </c>
       <c r="D334" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A335" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="B335" s="9"/>
+      <c r="A335" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="B335" s="7"/>
       <c r="C335" s="10" t="s">
-        <v>303</v>
+        <v>353</v>
       </c>
       <c r="D335" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A336" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="B336" s="9"/>
+      <c r="A336" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="B336" s="7"/>
       <c r="C336" s="10" t="s">
-        <v>304</v>
+        <v>354</v>
       </c>
       <c r="D336" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A337" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="B337" s="9"/>
+      <c r="A337" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="B337" s="7"/>
       <c r="C337" s="10" t="s">
-        <v>305</v>
+        <v>355</v>
       </c>
       <c r="D337" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A338" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="B338" s="9"/>
+      <c r="A338" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="B338" s="7"/>
       <c r="C338" s="10" t="s">
-        <v>306</v>
+        <v>356</v>
       </c>
       <c r="D338" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A339" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="B339" s="9"/>
+      <c r="A339" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="B339" s="7"/>
       <c r="C339" s="10" t="s">
-        <v>307</v>
+        <v>357</v>
       </c>
       <c r="D339" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A340" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="B340" s="9"/>
+      <c r="A340" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="B340" s="7"/>
       <c r="C340" s="10" t="s">
-        <v>308</v>
+        <v>358</v>
       </c>
       <c r="D340" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A341" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="B341" s="9"/>
+      <c r="A341" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="B341" s="7"/>
       <c r="C341" s="10" t="s">
-        <v>309</v>
+        <v>359</v>
       </c>
       <c r="D341" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A342" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="B342" s="9"/>
+      <c r="A342" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="B342" s="7"/>
       <c r="C342" s="10" t="s">
-        <v>310</v>
+        <v>360</v>
       </c>
       <c r="D342" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A343" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="B343" s="9"/>
+      <c r="A343" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="B343" s="7"/>
       <c r="C343" s="10" t="s">
-        <v>311</v>
+        <v>361</v>
       </c>
       <c r="D343" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A344" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="B344" s="9"/>
+      <c r="A344" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="B344" s="7"/>
       <c r="C344" s="10" t="s">
-        <v>312</v>
+        <v>362</v>
       </c>
       <c r="D344" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A345" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="B345" s="9"/>
+      <c r="A345" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="B345" s="7"/>
       <c r="C345" s="10" t="s">
-        <v>313</v>
+        <v>363</v>
       </c>
       <c r="D345" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A346" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="B346" s="9"/>
+      <c r="A346" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="B346" s="7"/>
       <c r="C346" s="10" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D346" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A347" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="B347" s="9"/>
+      <c r="A347" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="B347" s="7"/>
       <c r="C347" s="10" t="s">
-        <v>315</v>
+        <v>365</v>
       </c>
       <c r="D347" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A348" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="B348" s="9"/>
+      <c r="A348" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="B348" s="7"/>
       <c r="C348" s="10" t="s">
-        <v>316</v>
+        <v>366</v>
       </c>
       <c r="D348" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A349" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="B349" s="9"/>
+      <c r="A349" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="B349" s="7"/>
       <c r="C349" s="10" t="s">
-        <v>317</v>
+        <v>367</v>
       </c>
       <c r="D349" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A350" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="B350" s="9"/>
+      <c r="A350" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="B350" s="7"/>
       <c r="C350" s="10" t="s">
-        <v>318</v>
+        <v>368</v>
       </c>
       <c r="D350" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A351" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="B351" s="9"/>
+      <c r="A351" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="B351" s="7"/>
       <c r="C351" s="10" t="s">
-        <v>319</v>
+        <v>369</v>
       </c>
       <c r="D351" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A352" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="B352" s="9"/>
+      <c r="A352" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="B352" s="7"/>
       <c r="C352" s="10" t="s">
-        <v>320</v>
+        <v>370</v>
       </c>
       <c r="D352" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A353" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="B353" s="9"/>
+      <c r="A353" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="B353" s="7"/>
       <c r="C353" s="10" t="s">
-        <v>321</v>
+        <v>371</v>
       </c>
       <c r="D353" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A354" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="B354" s="9"/>
+      <c r="A354" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="B354" s="7"/>
       <c r="C354" s="10" t="s">
-        <v>322</v>
+        <v>372</v>
       </c>
       <c r="D354" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="D355" s="7"/>
+      <c r="A355" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="B355" s="7"/>
+      <c r="C355" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="D355" s="7" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="D356" s="7"/>
+      <c r="A356" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="B356" s="7"/>
+      <c r="C356" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="D356" s="7" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A357" s="7" t="s">
-        <v>323</v>
+        <v>342</v>
       </c>
       <c r="B357" s="7"/>
       <c r="C357" s="10" t="s">
-        <v>324</v>
+        <v>375</v>
       </c>
       <c r="D357" s="7" t="s">
         <v>3</v>
@@ -6226,11 +6279,11 @@
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A358" s="7" t="s">
-        <v>323</v>
+        <v>342</v>
       </c>
       <c r="B358" s="7"/>
       <c r="C358" s="10" t="s">
-        <v>325</v>
+        <v>376</v>
       </c>
       <c r="D358" s="7" t="s">
         <v>3</v>
@@ -6238,11 +6291,11 @@
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A359" s="7" t="s">
-        <v>323</v>
+        <v>342</v>
       </c>
       <c r="B359" s="7"/>
       <c r="C359" s="10" t="s">
-        <v>326</v>
+        <v>376</v>
       </c>
       <c r="D359" s="7" t="s">
         <v>3</v>
@@ -6250,11 +6303,11 @@
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A360" s="7" t="s">
-        <v>323</v>
+        <v>342</v>
       </c>
       <c r="B360" s="7"/>
       <c r="C360" s="10" t="s">
-        <v>327</v>
+        <v>377</v>
       </c>
       <c r="D360" s="7" t="s">
         <v>3</v>
@@ -6262,11 +6315,11 @@
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A361" s="7" t="s">
-        <v>323</v>
+        <v>342</v>
       </c>
       <c r="B361" s="7"/>
       <c r="C361" s="10" t="s">
-        <v>328</v>
+        <v>378</v>
       </c>
       <c r="D361" s="7" t="s">
         <v>3</v>
@@ -6274,11 +6327,11 @@
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A362" s="7" t="s">
-        <v>323</v>
+        <v>342</v>
       </c>
       <c r="B362" s="7"/>
       <c r="C362" s="10" t="s">
-        <v>329</v>
+        <v>379</v>
       </c>
       <c r="D362" s="7" t="s">
         <v>3</v>
@@ -6286,11 +6339,11 @@
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A363" s="7" t="s">
-        <v>323</v>
+        <v>342</v>
       </c>
       <c r="B363" s="7"/>
       <c r="C363" s="10" t="s">
-        <v>330</v>
+        <v>380</v>
       </c>
       <c r="D363" s="7" t="s">
         <v>3</v>
@@ -6298,11 +6351,11 @@
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A364" s="7" t="s">
-        <v>323</v>
+        <v>342</v>
       </c>
       <c r="B364" s="7"/>
       <c r="C364" s="10" t="s">
-        <v>331</v>
+        <v>381</v>
       </c>
       <c r="D364" s="7" t="s">
         <v>3</v>
@@ -6310,11 +6363,11 @@
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A365" s="7" t="s">
-        <v>323</v>
+        <v>342</v>
       </c>
       <c r="B365" s="7"/>
-      <c r="C365" s="4" t="s">
-        <v>332</v>
+      <c r="C365" s="10" t="s">
+        <v>382</v>
       </c>
       <c r="D365" s="7" t="s">
         <v>3</v>
@@ -6322,11 +6375,11 @@
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A366" s="7" t="s">
-        <v>323</v>
+        <v>342</v>
       </c>
       <c r="B366" s="7"/>
       <c r="C366" s="10" t="s">
-        <v>333</v>
+        <v>383</v>
       </c>
       <c r="D366" s="7" t="s">
         <v>3</v>
@@ -6334,11 +6387,11 @@
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A367" s="7" t="s">
-        <v>323</v>
+        <v>342</v>
       </c>
       <c r="B367" s="7"/>
       <c r="C367" s="10" t="s">
-        <v>334</v>
+        <v>384</v>
       </c>
       <c r="D367" s="7" t="s">
         <v>3</v>
@@ -6346,705 +6399,723 @@
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A368" s="7" t="s">
-        <v>323</v>
+        <v>342</v>
       </c>
       <c r="B368" s="7"/>
       <c r="C368" s="10" t="s">
-        <v>335</v>
+        <v>385</v>
       </c>
       <c r="D368" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A369" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="B369" s="7"/>
-      <c r="C369" s="10" t="s">
-        <v>336</v>
-      </c>
-      <c r="D369" s="7" t="s">
-        <v>3</v>
-      </c>
+      <c r="D369" s="7"/>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A370" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="B370" s="7"/>
+      <c r="A370" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="B370" s="9"/>
       <c r="C370" s="10" t="s">
-        <v>337</v>
+        <v>230</v>
       </c>
       <c r="D370" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A371" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="B371" s="7"/>
+      <c r="A371" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="B371" s="9"/>
       <c r="C371" s="10" t="s">
-        <v>338</v>
+        <v>231</v>
       </c>
       <c r="D371" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A372" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="B372" s="7"/>
+      <c r="A372" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="B372" s="9"/>
       <c r="C372" s="10" t="s">
-        <v>339</v>
+        <v>232</v>
       </c>
       <c r="D372" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A373" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="B373" s="7"/>
+      <c r="A373" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="B373" s="9"/>
       <c r="C373" s="10" t="s">
-        <v>340</v>
+        <v>233</v>
       </c>
       <c r="D373" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A374" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="B374" s="7"/>
+      <c r="A374" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="B374" s="9"/>
       <c r="C374" s="10" t="s">
-        <v>341</v>
+        <v>234</v>
       </c>
       <c r="D374" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="D375" s="7"/>
+      <c r="A375" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="B375" s="9"/>
+      <c r="C375" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="D375" s="7" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="D376" s="7"/>
+      <c r="A376" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="B376" s="9"/>
+      <c r="C376" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="D376" s="7" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A377" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="B377" s="7"/>
+      <c r="A377" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="B377" s="9"/>
       <c r="C377" s="10" t="s">
-        <v>343</v>
+        <v>237</v>
       </c>
       <c r="D377" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A378" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="B378" s="7"/>
+      <c r="A378" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="B378" s="9"/>
       <c r="C378" s="10" t="s">
-        <v>344</v>
+        <v>238</v>
       </c>
       <c r="D378" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A379" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="B379" s="7"/>
+      <c r="A379" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="B379" s="9"/>
       <c r="C379" s="10" t="s">
-        <v>345</v>
+        <v>239</v>
       </c>
       <c r="D379" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A380" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="B380" s="7"/>
+      <c r="A380" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="B380" s="9"/>
       <c r="C380" s="10" t="s">
-        <v>346</v>
+        <v>240</v>
       </c>
       <c r="D380" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A381" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="B381" s="7"/>
+      <c r="A381" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="B381" s="9"/>
       <c r="C381" s="10" t="s">
-        <v>347</v>
+        <v>241</v>
       </c>
       <c r="D381" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A382" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="B382" s="7"/>
+      <c r="A382" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="B382" s="9"/>
       <c r="C382" s="10" t="s">
-        <v>348</v>
+        <v>242</v>
       </c>
       <c r="D382" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A383" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="B383" s="7"/>
+      <c r="A383" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="B383" s="9"/>
       <c r="C383" s="10" t="s">
-        <v>349</v>
+        <v>243</v>
       </c>
       <c r="D383" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A384" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="B384" s="7"/>
+      <c r="A384" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="B384" s="9"/>
       <c r="C384" s="10" t="s">
-        <v>350</v>
+        <v>244</v>
       </c>
       <c r="D384" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A385" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="B385" s="7"/>
+      <c r="A385" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="B385" s="9"/>
       <c r="C385" s="10" t="s">
-        <v>351</v>
+        <v>245</v>
       </c>
       <c r="D385" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A386" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="B386" s="7"/>
+      <c r="A386" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="B386" s="9"/>
       <c r="C386" s="10" t="s">
-        <v>352</v>
+        <v>246</v>
       </c>
       <c r="D386" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A387" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="B387" s="7"/>
+      <c r="A387" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="B387" s="9"/>
       <c r="C387" s="10" t="s">
-        <v>353</v>
+        <v>247</v>
       </c>
       <c r="D387" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A388" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="B388" s="7"/>
+      <c r="A388" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="B388" s="9"/>
       <c r="C388" s="10" t="s">
-        <v>354</v>
+        <v>248</v>
       </c>
       <c r="D388" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A389" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="B389" s="7"/>
+      <c r="A389" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="B389" s="9"/>
       <c r="C389" s="10" t="s">
-        <v>355</v>
+        <v>249</v>
       </c>
       <c r="D389" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A390" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="B390" s="7"/>
+      <c r="A390" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="B390" s="9"/>
       <c r="C390" s="10" t="s">
-        <v>356</v>
+        <v>250</v>
       </c>
       <c r="D390" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A391" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="B391" s="7"/>
+      <c r="A391" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="B391" s="9"/>
       <c r="C391" s="10" t="s">
-        <v>357</v>
+        <v>251</v>
       </c>
       <c r="D391" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A392" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="B392" s="7"/>
+      <c r="A392" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="B392" s="9"/>
       <c r="C392" s="10" t="s">
-        <v>358</v>
+        <v>252</v>
       </c>
       <c r="D392" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A393" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="B393" s="7"/>
+      <c r="A393" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="B393" s="9"/>
       <c r="C393" s="10" t="s">
-        <v>359</v>
+        <v>253</v>
       </c>
       <c r="D393" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A394" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="B394" s="7"/>
+      <c r="A394" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="B394" s="9"/>
       <c r="C394" s="10" t="s">
-        <v>360</v>
+        <v>254</v>
       </c>
       <c r="D394" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A395" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="B395" s="7"/>
+      <c r="A395" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="B395" s="9"/>
       <c r="C395" s="10" t="s">
-        <v>361</v>
+        <v>255</v>
       </c>
       <c r="D395" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A396" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="B396" s="7"/>
+      <c r="A396" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="B396" s="9"/>
       <c r="C396" s="10" t="s">
-        <v>362</v>
+        <v>256</v>
       </c>
       <c r="D396" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A397" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="B397" s="7"/>
+      <c r="A397" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="B397" s="9"/>
       <c r="C397" s="10" t="s">
-        <v>363</v>
+        <v>257</v>
       </c>
       <c r="D397" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A398" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="B398" s="7"/>
+      <c r="A398" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="B398" s="9"/>
       <c r="C398" s="10" t="s">
-        <v>364</v>
+        <v>258</v>
       </c>
       <c r="D398" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A399" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="B399" s="7"/>
+      <c r="A399" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="B399" s="9"/>
       <c r="C399" s="10" t="s">
-        <v>365</v>
+        <v>259</v>
       </c>
       <c r="D399" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A400" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="B400" s="7"/>
+      <c r="A400" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="B400" s="9"/>
       <c r="C400" s="10" t="s">
-        <v>366</v>
+        <v>260</v>
       </c>
       <c r="D400" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A401" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="B401" s="7"/>
+      <c r="A401" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="B401" s="9"/>
       <c r="C401" s="10" t="s">
-        <v>367</v>
+        <v>261</v>
       </c>
       <c r="D401" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A402" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="B402" s="7"/>
+      <c r="A402" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="B402" s="9"/>
       <c r="C402" s="10" t="s">
-        <v>368</v>
+        <v>262</v>
       </c>
       <c r="D402" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A403" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="B403" s="7"/>
+      <c r="A403" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="B403" s="9"/>
       <c r="C403" s="10" t="s">
-        <v>369</v>
+        <v>86</v>
       </c>
       <c r="D403" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A404" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="B404" s="7"/>
+      <c r="A404" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="B404" s="9"/>
       <c r="C404" s="10" t="s">
-        <v>370</v>
+        <v>263</v>
       </c>
       <c r="D404" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A405" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="B405" s="7"/>
-      <c r="C405" s="10" t="s">
-        <v>371</v>
-      </c>
-      <c r="D405" s="7" t="s">
-        <v>3</v>
-      </c>
+      <c r="D405" s="7"/>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A406" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="B406" s="7"/>
-      <c r="C406" s="10" t="s">
-        <v>372</v>
-      </c>
-      <c r="D406" s="7" t="s">
-        <v>3</v>
-      </c>
+      <c r="D406" s="7"/>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A407" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="B407" s="7"/>
+      <c r="A407" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="B407" s="9"/>
       <c r="C407" s="10" t="s">
-        <v>373</v>
+        <v>265</v>
       </c>
       <c r="D407" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A408" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="B408" s="7"/>
+      <c r="A408" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="B408" s="9"/>
       <c r="C408" s="10" t="s">
-        <v>374</v>
+        <v>266</v>
       </c>
       <c r="D408" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A409" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="B409" s="7"/>
+      <c r="A409" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="B409" s="9"/>
       <c r="C409" s="10" t="s">
-        <v>375</v>
+        <v>267</v>
       </c>
       <c r="D409" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A410" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="B410" s="7"/>
+      <c r="A410" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="B410" s="9"/>
       <c r="C410" s="10" t="s">
-        <v>376</v>
+        <v>268</v>
       </c>
       <c r="D410" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A411" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="B411" s="7"/>
+      <c r="A411" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="B411" s="9"/>
       <c r="C411" s="10" t="s">
-        <v>376</v>
+        <v>269</v>
       </c>
       <c r="D411" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A412" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="B412" s="7"/>
+      <c r="A412" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="B412" s="9"/>
       <c r="C412" s="10" t="s">
-        <v>377</v>
+        <v>270</v>
       </c>
       <c r="D412" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A413" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="B413" s="7"/>
+      <c r="A413" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="B413" s="9"/>
       <c r="C413" s="10" t="s">
-        <v>378</v>
+        <v>271</v>
       </c>
       <c r="D413" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A414" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="B414" s="7"/>
+      <c r="A414" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="B414" s="9"/>
       <c r="C414" s="10" t="s">
-        <v>379</v>
+        <v>272</v>
       </c>
       <c r="D414" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A415" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="B415" s="7"/>
+      <c r="A415" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="B415" s="9"/>
       <c r="C415" s="10" t="s">
-        <v>380</v>
+        <v>273</v>
       </c>
       <c r="D415" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A416" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="B416" s="7"/>
+      <c r="A416" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="B416" s="9"/>
       <c r="C416" s="10" t="s">
-        <v>381</v>
+        <v>274</v>
       </c>
       <c r="D416" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A417" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="B417" s="7"/>
+      <c r="A417" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="B417" s="9"/>
       <c r="C417" s="10" t="s">
-        <v>382</v>
+        <v>275</v>
       </c>
       <c r="D417" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A418" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="B418" s="7"/>
+      <c r="A418" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="B418" s="9"/>
       <c r="C418" s="10" t="s">
-        <v>383</v>
+        <v>276</v>
       </c>
       <c r="D418" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A419" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="B419" s="7"/>
+      <c r="A419" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="B419" s="9"/>
       <c r="C419" s="10" t="s">
-        <v>384</v>
+        <v>277</v>
       </c>
       <c r="D419" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A420" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="B420" s="7"/>
+      <c r="A420" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="B420" s="9"/>
       <c r="C420" s="10" t="s">
-        <v>385</v>
+        <v>278</v>
       </c>
       <c r="D420" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="D421" s="7"/>
+      <c r="A421" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="B421" s="9"/>
+      <c r="C421" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="D421" s="7" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="D422" s="7"/>
+      <c r="A422" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="B422" s="9"/>
+      <c r="C422" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="D422" s="7" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A423" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="B423" s="7"/>
+      <c r="A423" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="B423" s="9"/>
       <c r="C423" s="10" t="s">
-        <v>387</v>
+        <v>281</v>
       </c>
       <c r="D423" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A424" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="B424" s="7"/>
+      <c r="A424" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="B424" s="9"/>
       <c r="C424" s="10" t="s">
-        <v>388</v>
+        <v>282</v>
       </c>
       <c r="D424" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A425" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="B425" s="7"/>
+      <c r="A425" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="B425" s="9"/>
       <c r="C425" s="10" t="s">
-        <v>389</v>
+        <v>283</v>
       </c>
       <c r="D425" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A426" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="B426" s="7"/>
-      <c r="C426" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="D426" s="7" t="s">
-        <v>3</v>
-      </c>
+      <c r="D426" s="7"/>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A427" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="B427" s="7"/>
+      <c r="A427" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="B427" s="9"/>
       <c r="C427" s="10" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="D427" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A428" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="B428" s="7"/>
+      <c r="A428" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="B428" s="9"/>
       <c r="C428" s="10" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="D428" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="D429" s="7"/>
+      <c r="A429" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="B429" s="9"/>
+      <c r="C429" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="D429" s="7" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="D430" s="7"/>
+      <c r="A430" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="B430" s="9"/>
+      <c r="C430" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="D430" s="7" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A431" s="9" t="s">
@@ -7052,7 +7123,7 @@
       </c>
       <c r="B431" s="9"/>
       <c r="C431" s="10" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="D431" s="7" t="s">
         <v>3</v>
@@ -7064,7 +7135,7 @@
       </c>
       <c r="B432" s="9"/>
       <c r="C432" s="10" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="D432" s="7" t="s">
         <v>3</v>
@@ -7076,7 +7147,7 @@
       </c>
       <c r="B433" s="9"/>
       <c r="C433" s="10" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="D433" s="7" t="s">
         <v>3</v>
@@ -7088,7 +7159,7 @@
       </c>
       <c r="B434" s="9"/>
       <c r="C434" s="10" t="s">
-        <v>396</v>
+        <v>272</v>
       </c>
       <c r="D434" s="7" t="s">
         <v>3</v>
@@ -7100,7 +7171,7 @@
       </c>
       <c r="B435" s="9"/>
       <c r="C435" s="10" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="D435" s="7" t="s">
         <v>3</v>
@@ -7112,7 +7183,7 @@
       </c>
       <c r="B436" s="9"/>
       <c r="C436" s="10" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="D436" s="7" t="s">
         <v>3</v>
@@ -7124,7 +7195,7 @@
       </c>
       <c r="B437" s="9"/>
       <c r="C437" s="10" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="D437" s="7" t="s">
         <v>3</v>
@@ -7136,7 +7207,7 @@
       </c>
       <c r="B438" s="9"/>
       <c r="C438" s="10" t="s">
-        <v>272</v>
+        <v>403</v>
       </c>
       <c r="D438" s="7" t="s">
         <v>3</v>
@@ -7148,7 +7219,7 @@
       </c>
       <c r="B439" s="9"/>
       <c r="C439" s="10" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="D439" s="7" t="s">
         <v>3</v>
@@ -7160,7 +7231,7 @@
       </c>
       <c r="B440" s="9"/>
       <c r="C440" s="10" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="D440" s="7" t="s">
         <v>3</v>
@@ -7172,7 +7243,7 @@
       </c>
       <c r="B441" s="9"/>
       <c r="C441" s="10" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="D441" s="7" t="s">
         <v>3</v>
@@ -7184,7 +7255,7 @@
       </c>
       <c r="B442" s="9"/>
       <c r="C442" s="10" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="D442" s="7" t="s">
         <v>3</v>
@@ -7196,7 +7267,7 @@
       </c>
       <c r="B443" s="9"/>
       <c r="C443" s="10" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="D443" s="7" t="s">
         <v>3</v>
@@ -7208,7 +7279,7 @@
       </c>
       <c r="B444" s="9"/>
       <c r="C444" s="10" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="D444" s="7" t="s">
         <v>3</v>
@@ -7220,7 +7291,7 @@
       </c>
       <c r="B445" s="9"/>
       <c r="C445" s="10" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="D445" s="7" t="s">
         <v>3</v>
@@ -7232,7 +7303,7 @@
       </c>
       <c r="B446" s="9"/>
       <c r="C446" s="10" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="D446" s="7" t="s">
         <v>3</v>
@@ -7244,7 +7315,7 @@
       </c>
       <c r="B447" s="9"/>
       <c r="C447" s="10" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="D447" s="7" t="s">
         <v>3</v>
@@ -7256,7 +7327,7 @@
       </c>
       <c r="B448" s="9"/>
       <c r="C448" s="10" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="D448" s="7" t="s">
         <v>3</v>
@@ -7268,7 +7339,7 @@
       </c>
       <c r="B449" s="9"/>
       <c r="C449" s="10" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="D449" s="7" t="s">
         <v>3</v>
@@ -7280,7 +7351,7 @@
       </c>
       <c r="B450" s="9"/>
       <c r="C450" s="10" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="D450" s="7" t="s">
         <v>3</v>
@@ -7292,7 +7363,7 @@
       </c>
       <c r="B451" s="9"/>
       <c r="C451" s="10" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="D451" s="7" t="s">
         <v>3</v>
@@ -7304,7 +7375,7 @@
       </c>
       <c r="B452" s="9"/>
       <c r="C452" s="10" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="D452" s="7" t="s">
         <v>3</v>
@@ -7316,7 +7387,7 @@
       </c>
       <c r="B453" s="9"/>
       <c r="C453" s="10" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="D453" s="7" t="s">
         <v>3</v>
@@ -7328,7 +7399,7 @@
       </c>
       <c r="B454" s="9"/>
       <c r="C454" s="10" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="D454" s="7" t="s">
         <v>3</v>
@@ -7340,7 +7411,7 @@
       </c>
       <c r="B455" s="9"/>
       <c r="C455" s="10" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="D455" s="7" t="s">
         <v>3</v>
@@ -7352,7 +7423,7 @@
       </c>
       <c r="B456" s="9"/>
       <c r="C456" s="10" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="D456" s="7" t="s">
         <v>3</v>
@@ -7364,7 +7435,7 @@
       </c>
       <c r="B457" s="9"/>
       <c r="C457" s="10" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="D457" s="7" t="s">
         <v>3</v>
@@ -7376,7 +7447,7 @@
       </c>
       <c r="B458" s="9"/>
       <c r="C458" s="10" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="D458" s="7" t="s">
         <v>3</v>
@@ -7388,7 +7459,7 @@
       </c>
       <c r="B459" s="9"/>
       <c r="C459" s="10" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="D459" s="7" t="s">
         <v>3</v>
@@ -7400,7 +7471,7 @@
       </c>
       <c r="B460" s="9"/>
       <c r="C460" s="10" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="D460" s="7" t="s">
         <v>3</v>
@@ -7412,7 +7483,7 @@
       </c>
       <c r="B461" s="9"/>
       <c r="C461" s="10" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="D461" s="7" t="s">
         <v>3</v>
@@ -7424,7 +7495,7 @@
       </c>
       <c r="B462" s="9"/>
       <c r="C462" s="10" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="D462" s="7" t="s">
         <v>3</v>
@@ -7436,7 +7507,7 @@
       </c>
       <c r="B463" s="9"/>
       <c r="C463" s="10" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="D463" s="7" t="s">
         <v>3</v>
@@ -7448,7 +7519,7 @@
       </c>
       <c r="B464" s="9"/>
       <c r="C464" s="10" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="D464" s="7" t="s">
         <v>3</v>
@@ -7460,7 +7531,7 @@
       </c>
       <c r="B465" s="9"/>
       <c r="C465" s="10" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="D465" s="7" t="s">
         <v>3</v>
@@ -7472,7 +7543,7 @@
       </c>
       <c r="B466" s="9"/>
       <c r="C466" s="10" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="D466" s="7" t="s">
         <v>3</v>
@@ -7484,7 +7555,7 @@
       </c>
       <c r="B467" s="9"/>
       <c r="C467" s="10" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="D467" s="7" t="s">
         <v>3</v>
@@ -7496,7 +7567,7 @@
       </c>
       <c r="B468" s="9"/>
       <c r="C468" s="10" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="D468" s="7" t="s">
         <v>3</v>
@@ -7508,7 +7579,7 @@
       </c>
       <c r="B469" s="9"/>
       <c r="C469" s="10" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="D469" s="7" t="s">
         <v>3</v>
@@ -7520,7 +7591,7 @@
       </c>
       <c r="B470" s="9"/>
       <c r="C470" s="10" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="D470" s="7" t="s">
         <v>3</v>
@@ -7532,7 +7603,7 @@
       </c>
       <c r="B471" s="9"/>
       <c r="C471" s="10" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="D471" s="7" t="s">
         <v>3</v>
@@ -7544,7 +7615,7 @@
       </c>
       <c r="B472" s="9"/>
       <c r="C472" s="10" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="D472" s="7" t="s">
         <v>3</v>
@@ -7556,7 +7627,7 @@
       </c>
       <c r="B473" s="9"/>
       <c r="C473" s="10" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="D473" s="7" t="s">
         <v>3</v>
@@ -7568,7 +7639,7 @@
       </c>
       <c r="B474" s="9"/>
       <c r="C474" s="10" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="D474" s="7" t="s">
         <v>3</v>
@@ -7580,7 +7651,7 @@
       </c>
       <c r="B475" s="9"/>
       <c r="C475" s="10" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="D475" s="7" t="s">
         <v>3</v>
@@ -7592,7 +7663,7 @@
       </c>
       <c r="B476" s="9"/>
       <c r="C476" s="10" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="D476" s="7" t="s">
         <v>3</v>
@@ -7604,7 +7675,7 @@
       </c>
       <c r="B477" s="9"/>
       <c r="C477" s="10" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="D477" s="7" t="s">
         <v>3</v>
@@ -7616,7 +7687,7 @@
       </c>
       <c r="B478" s="9"/>
       <c r="C478" s="10" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="D478" s="7" t="s">
         <v>3</v>
@@ -7628,7 +7699,7 @@
       </c>
       <c r="B479" s="9"/>
       <c r="C479" s="10" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="D479" s="7" t="s">
         <v>3</v>
@@ -7640,7 +7711,7 @@
       </c>
       <c r="B480" s="9"/>
       <c r="C480" s="10" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="D480" s="7" t="s">
         <v>3</v>
@@ -7652,7 +7723,7 @@
       </c>
       <c r="B481" s="9"/>
       <c r="C481" s="10" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="D481" s="7" t="s">
         <v>3</v>
@@ -7664,7 +7735,7 @@
       </c>
       <c r="B482" s="9"/>
       <c r="C482" s="10" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="D482" s="7" t="s">
         <v>3</v>
@@ -7676,7 +7747,7 @@
       </c>
       <c r="B483" s="9"/>
       <c r="C483" s="10" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="D483" s="7" t="s">
         <v>3</v>
@@ -7688,7 +7759,7 @@
       </c>
       <c r="B484" s="9"/>
       <c r="C484" s="10" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="D484" s="7" t="s">
         <v>3</v>
@@ -7700,7 +7771,7 @@
       </c>
       <c r="B485" s="9"/>
       <c r="C485" s="10" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="D485" s="7" t="s">
         <v>3</v>
@@ -7712,194 +7783,125 @@
       </c>
       <c r="B486" s="9"/>
       <c r="C486" s="10" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="D486" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A487" s="9" t="s">
-        <v>392</v>
-      </c>
-      <c r="B487" s="9"/>
-      <c r="C487" s="10" t="s">
-        <v>448</v>
-      </c>
-      <c r="D487" s="7" t="s">
-        <v>3</v>
-      </c>
+      <c r="D487" s="7"/>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A488" s="9" t="s">
-        <v>392</v>
-      </c>
-      <c r="B488" s="9"/>
+      <c r="A488" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="B488" s="7"/>
       <c r="C488" s="10" t="s">
-        <v>449</v>
+        <v>387</v>
       </c>
       <c r="D488" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A489" s="9" t="s">
-        <v>392</v>
-      </c>
-      <c r="B489" s="9"/>
+      <c r="A489" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="B489" s="7"/>
       <c r="C489" s="10" t="s">
-        <v>450</v>
+        <v>388</v>
       </c>
       <c r="D489" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A490" s="9" t="s">
-        <v>392</v>
-      </c>
-      <c r="B490" s="9"/>
+      <c r="A490" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="B490" s="7"/>
       <c r="C490" s="10" t="s">
-        <v>451</v>
+        <v>389</v>
       </c>
       <c r="D490" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="D491" s="7"/>
+      <c r="A491" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="B491" s="7"/>
+      <c r="C491" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D491" s="7" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A492" s="7"/>
+      <c r="A492" s="7" t="s">
+        <v>386</v>
+      </c>
       <c r="B492" s="7"/>
-      <c r="D492" s="7"/>
+      <c r="C492" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="D492" s="7" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A493" s="9" t="s">
-        <v>452</v>
-      </c>
-      <c r="B493" s="9"/>
+      <c r="A493" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="B493" s="7"/>
       <c r="C493" s="10" t="s">
-        <v>453</v>
+        <v>391</v>
       </c>
       <c r="D493" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A494" s="9" t="s">
-        <v>452</v>
-      </c>
-      <c r="B494" s="9"/>
-      <c r="C494" s="10" t="s">
-        <v>454</v>
-      </c>
-      <c r="D494" s="7" t="s">
-        <v>3</v>
-      </c>
+      <c r="D494" s="7"/>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A495" s="9" t="s">
-        <v>452</v>
-      </c>
-      <c r="B495" s="9"/>
-      <c r="C495" s="10" t="s">
-        <v>455</v>
-      </c>
-      <c r="D495" s="7" t="s">
-        <v>3</v>
-      </c>
+      <c r="D495" s="7"/>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A496" s="9" t="s">
-        <v>452</v>
-      </c>
-      <c r="B496" s="9"/>
-      <c r="C496" s="10" t="s">
-        <v>456</v>
-      </c>
-      <c r="D496" s="7" t="s">
-        <v>3</v>
-      </c>
+      <c r="D496" s="7"/>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A497" s="9" t="s">
-        <v>452</v>
-      </c>
-      <c r="B497" s="9"/>
-      <c r="C497" s="10" t="s">
-        <v>457</v>
-      </c>
-      <c r="D497" s="7" t="s">
-        <v>3</v>
-      </c>
+      <c r="D497" s="7"/>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A498" s="9" t="s">
-        <v>452</v>
-      </c>
-      <c r="B498" s="9"/>
-      <c r="C498" s="10" t="s">
-        <v>458</v>
-      </c>
-      <c r="D498" s="7" t="s">
-        <v>3</v>
-      </c>
+      <c r="D498" s="7"/>
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A499" s="9" t="s">
-        <v>452</v>
-      </c>
-      <c r="B499" s="9"/>
-      <c r="C499" s="10" t="s">
-        <v>459</v>
-      </c>
-      <c r="D499" s="7" t="s">
-        <v>3</v>
-      </c>
+      <c r="D499" s="7"/>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A500" s="9" t="s">
-        <v>452</v>
-      </c>
-      <c r="B500" s="9"/>
-      <c r="C500" s="10" t="s">
-        <v>460</v>
-      </c>
-      <c r="D500" s="7" t="s">
-        <v>3</v>
-      </c>
+      <c r="D500" s="7"/>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A501" s="9" t="s">
-        <v>452</v>
-      </c>
-      <c r="B501" s="9"/>
-      <c r="C501" s="10" t="s">
-        <v>461</v>
-      </c>
-      <c r="D501" s="7" t="s">
-        <v>3</v>
-      </c>
+      <c r="D501" s="7"/>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A502" s="9" t="s">
-        <v>452</v>
-      </c>
-      <c r="B502" s="9"/>
-      <c r="C502" s="10" t="s">
-        <v>462</v>
-      </c>
-      <c r="D502" s="7" t="s">
-        <v>3</v>
-      </c>
+      <c r="D502" s="7"/>
+    </row>
+    <row r="503" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A503" s="7"/>
+      <c r="B503" s="7"/>
+      <c r="D503" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C22" r:id="rId1" xr:uid="{9492A4AD-FA44-BA4B-B154-E4DBB1951162}"/>
     <hyperlink ref="C23" r:id="rId2" xr:uid="{2D6F1134-3C08-7445-B19A-9B94A18B55C7}"/>
-    <hyperlink ref="C158" r:id="rId3" xr:uid="{E5A98931-37E8-6B4A-90BE-8DC72405341A}"/>
+    <hyperlink ref="C122" r:id="rId3" xr:uid="{E5A98931-37E8-6B4A-90BE-8DC72405341A}"/>
     <hyperlink ref="C27" r:id="rId4" xr:uid="{02736918-E09F-7A46-90B3-AFCC33AA559B}"/>
     <hyperlink ref="C28" r:id="rId5" xr:uid="{6E8DD30A-A9F9-4C44-B26C-C9E236F10798}"/>
     <hyperlink ref="C29" r:id="rId6" xr:uid="{0D55765B-95A7-154F-96F3-B7E4C581021F}"/>
@@ -7933,433 +7935,433 @@
     <hyperlink ref="C58" r:id="rId34" xr:uid="{F2DE2162-BD02-7549-AC1A-27455F78131F}"/>
     <hyperlink ref="C59" r:id="rId35" xr:uid="{6FA286B9-3994-624D-B0B8-C01657D110AD}"/>
     <hyperlink ref="C60" r:id="rId36" xr:uid="{6EFBEDA1-5C10-2547-8FB2-44E977513B28}"/>
-    <hyperlink ref="C63" r:id="rId37" xr:uid="{090EC515-BEBE-514E-BA59-A84E450B4211}"/>
-    <hyperlink ref="C64" r:id="rId38" xr:uid="{0A0557FD-77E5-564B-B100-147D544A38B4}"/>
-    <hyperlink ref="C65" r:id="rId39" xr:uid="{3F82F2E0-AA59-5042-B079-F3B3C6FF2FD7}"/>
-    <hyperlink ref="C66" r:id="rId40" xr:uid="{FFF7D257-1F58-5A4B-AAA2-F5480AED86C7}"/>
-    <hyperlink ref="C67" r:id="rId41" xr:uid="{353E28FA-E36D-7447-9DE8-787DF11C4669}"/>
-    <hyperlink ref="C68" r:id="rId42" xr:uid="{F9B53127-FC98-FE43-B53F-BFDBCE2A4427}"/>
-    <hyperlink ref="C69" r:id="rId43" xr:uid="{40685BBC-CE24-624E-9ABB-98490B7DE0E4}"/>
-    <hyperlink ref="C70" r:id="rId44" xr:uid="{7733D505-2EC7-E346-B3DA-C980C7CE0B27}"/>
-    <hyperlink ref="C71" r:id="rId45" xr:uid="{E8C1FE00-7B4B-5745-8E4B-CD44B6C749E3}"/>
-    <hyperlink ref="C72" r:id="rId46" xr:uid="{FDE181B1-57B0-7C4B-A189-C7C6E4EAEF99}"/>
-    <hyperlink ref="C75" r:id="rId47" xr:uid="{FE85FD72-4FC9-334E-8205-9E8B238954EB}"/>
-    <hyperlink ref="C76" r:id="rId48" xr:uid="{7630AD76-7E6B-8C4A-BA33-A62EBB042215}"/>
-    <hyperlink ref="C77" r:id="rId49" xr:uid="{2A738B70-CBF0-CC40-8B05-A271822B3F1A}"/>
-    <hyperlink ref="C79" r:id="rId50" xr:uid="{B2DE2D9E-8371-CD44-9D0D-4D6DC64AC29B}"/>
-    <hyperlink ref="C80" r:id="rId51" xr:uid="{265DCD11-17A0-654E-BEFE-FABA31210C6E}"/>
-    <hyperlink ref="C81" r:id="rId52" xr:uid="{47F1BB0C-0C5C-0845-8EEC-1560C50D7DA7}"/>
-    <hyperlink ref="C82" r:id="rId53" xr:uid="{8E0BFA2E-CCB4-514F-86CD-78176C6CC98A}"/>
-    <hyperlink ref="C83" r:id="rId54" xr:uid="{E4DEFB4B-749F-8746-97C7-F2B433664A74}"/>
-    <hyperlink ref="C84" r:id="rId55" xr:uid="{8301BDBD-EB7E-7D41-A777-ED99C3F9D67D}"/>
-    <hyperlink ref="C85" r:id="rId56" xr:uid="{927AE532-647F-AF4C-A567-40ADA6FCE534}"/>
-    <hyperlink ref="C86" r:id="rId57" xr:uid="{05489F52-CC92-EC44-9AD3-773DEC3B1D36}"/>
-    <hyperlink ref="C87" r:id="rId58" xr:uid="{13025DF6-C30E-014A-B66C-68C4AAAC1C6E}"/>
-    <hyperlink ref="C88" r:id="rId59" xr:uid="{BEE1F613-C189-B949-A225-0E0C5AFD1532}"/>
-    <hyperlink ref="C89" r:id="rId60" xr:uid="{1DFECD6C-D7CC-0340-B29B-4D56E50711E5}"/>
-    <hyperlink ref="C90" r:id="rId61" xr:uid="{70BED156-B004-E043-BF7D-59EFAA9EADAF}"/>
-    <hyperlink ref="C91" r:id="rId62" xr:uid="{FF9CBAFB-900E-E242-8B33-EDF46F0F40B5}"/>
-    <hyperlink ref="C92" r:id="rId63" xr:uid="{19461114-B3E8-9042-8029-100010946A04}"/>
-    <hyperlink ref="C93" r:id="rId64" xr:uid="{00F71118-E30B-A84E-819E-FFA902C70502}"/>
-    <hyperlink ref="C94" r:id="rId65" xr:uid="{58E70966-BBE0-7743-A250-AE4DD57807DE}"/>
-    <hyperlink ref="C95" r:id="rId66" xr:uid="{09409FE3-9D7E-4F43-BB21-14A1B8D6E480}"/>
-    <hyperlink ref="C96" r:id="rId67" xr:uid="{E199A3DC-3DA1-C648-93C0-DF9CD5331204}"/>
-    <hyperlink ref="C97" r:id="rId68" xr:uid="{85886847-1510-AA46-B10C-F3D80591DD74}"/>
-    <hyperlink ref="C98" r:id="rId69" xr:uid="{F60808FC-F09D-FC44-B2DD-752E55A1C698}"/>
-    <hyperlink ref="C99" r:id="rId70" xr:uid="{16B2725E-1AD5-0441-9B5B-B6B2F458091B}"/>
-    <hyperlink ref="C100" r:id="rId71" xr:uid="{8440D753-5DE9-3243-97C2-C09D195C325F}"/>
-    <hyperlink ref="C101" r:id="rId72" xr:uid="{AC63A963-B6CC-6E4E-B72A-7F472BC4C027}"/>
-    <hyperlink ref="C102" r:id="rId73" xr:uid="{B21B87F1-A0C0-7F4E-B36F-912B871D0EF4}"/>
-    <hyperlink ref="C103" r:id="rId74" xr:uid="{789FFFAC-8B7E-0540-98B8-856430EB56F8}"/>
-    <hyperlink ref="C104" r:id="rId75" xr:uid="{4A0E959E-22F4-6948-A819-76FE76AB9F6D}"/>
-    <hyperlink ref="C105" r:id="rId76" xr:uid="{78B76678-D8EE-9745-98B1-DF7A76EA3B10}"/>
-    <hyperlink ref="C106" r:id="rId77" xr:uid="{62982242-1D19-1544-8653-8E25E9BF4505}"/>
-    <hyperlink ref="C107" r:id="rId78" xr:uid="{8E3D4BDF-9F8F-0542-BFD8-C3CE3BF396E6}"/>
-    <hyperlink ref="C108" r:id="rId79" xr:uid="{A3D51762-65A1-9A44-B619-D1D98A7F403B}"/>
-    <hyperlink ref="C109" r:id="rId80" xr:uid="{ED0F5FC7-0066-EB44-8FCF-460600DADB02}"/>
-    <hyperlink ref="C110" r:id="rId81" xr:uid="{2D956AC4-4774-7446-8473-C4CE00E33C17}"/>
-    <hyperlink ref="C111" r:id="rId82" xr:uid="{C8C607BB-1FEE-FA47-9E3E-6C0BCE978B7F}"/>
-    <hyperlink ref="C112" r:id="rId83" xr:uid="{B9AC5194-6D36-684A-A5C4-BEE11037599F}"/>
-    <hyperlink ref="C113" r:id="rId84" xr:uid="{AB28D9E6-890C-F14A-A5FB-2303BE319968}"/>
-    <hyperlink ref="C114" r:id="rId85" xr:uid="{1F507CBC-4056-AD46-9314-95ECBB9D799D}"/>
-    <hyperlink ref="C115" r:id="rId86" xr:uid="{F152A9AF-5CBA-EC44-A9CF-07AB481435AB}"/>
-    <hyperlink ref="C116" r:id="rId87" xr:uid="{346CA74F-60B7-0A4B-A612-9184D4DCFF62}"/>
-    <hyperlink ref="C117" r:id="rId88" xr:uid="{8C653CB1-4954-754F-8D46-F09141A2FCDB}"/>
-    <hyperlink ref="C120" r:id="rId89" xr:uid="{5989F693-2A61-A346-8395-8674307A4CC2}"/>
-    <hyperlink ref="C121" r:id="rId90" xr:uid="{3AD10C9E-4F6D-DE48-92F3-531A586520C6}"/>
-    <hyperlink ref="C122" r:id="rId91" xr:uid="{4FA217C0-A1F3-904E-8FEA-EA4941273A67}"/>
-    <hyperlink ref="C123" r:id="rId92" xr:uid="{A297BBC0-FA0D-2D46-9C49-3932193EF1D3}"/>
-    <hyperlink ref="C125" r:id="rId93" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance." xr:uid="{DCD751DE-E440-F346-B6FD-CBD072217214}"/>
-    <hyperlink ref="C126" r:id="rId94" xr:uid="{B2FD38B9-1E2B-8140-8291-F45734C98145}"/>
-    <hyperlink ref="C127" r:id="rId95" xr:uid="{C76888B3-18AC-9B48-9E2A-64A7DF0902B7}"/>
-    <hyperlink ref="C128" r:id="rId96" xr:uid="{18A79860-6C9E-A941-8D6C-360B9913E941}"/>
-    <hyperlink ref="C129" r:id="rId97" xr:uid="{C0DDFD68-CBC1-0F4A-AF40-ACF36BBC8453}"/>
-    <hyperlink ref="C130" r:id="rId98" xr:uid="{3E0BF737-E42E-C946-B32C-06882E0BA6FF}"/>
-    <hyperlink ref="C132" r:id="rId99" xr:uid="{862F9782-C57B-2848-A2D9-EB7B52FB7EC7}"/>
-    <hyperlink ref="C133" r:id="rId100" xr:uid="{230D7A6A-D2C5-C140-9A65-B1F407D22062}"/>
-    <hyperlink ref="C134" r:id="rId101" xr:uid="{BDC2BA28-4562-984E-8282-1126BF952EAF}"/>
-    <hyperlink ref="C135" r:id="rId102" xr:uid="{B53A5F28-6DED-3D47-8679-F78D3DDEFF01}"/>
-    <hyperlink ref="C136" r:id="rId103" xr:uid="{C57D0CC7-DA2F-0948-9BCE-F19C20C7D981}"/>
-    <hyperlink ref="C137" r:id="rId104" xr:uid="{117878E5-B8C8-254B-8ED6-014B4B7A8126}"/>
-    <hyperlink ref="C138" r:id="rId105" xr:uid="{B7CC0756-74F2-D54D-BDEE-9DA394DD7168}"/>
-    <hyperlink ref="C139" r:id="rId106" xr:uid="{837EF472-CCC2-CF47-A8A8-238E56F722CE}"/>
-    <hyperlink ref="C140" r:id="rId107" xr:uid="{3608F267-6AA0-624B-B243-7DDD317E9F08}"/>
-    <hyperlink ref="C141" r:id="rId108" xr:uid="{0B6123E6-0472-374B-ACA7-6914CD7918E8}"/>
-    <hyperlink ref="C142" r:id="rId109" xr:uid="{D3971CEB-C53E-B04B-9C32-1803182B5DC5}"/>
-    <hyperlink ref="C143" r:id="rId110" xr:uid="{7CF5013A-643E-1643-93A1-A2F1500D2A23}"/>
-    <hyperlink ref="C144" r:id="rId111" xr:uid="{2A6BE7E5-D818-6843-8C3E-99EA2BFE0FB2}"/>
-    <hyperlink ref="C145" r:id="rId112" xr:uid="{E718F544-96DF-A04E-8DFB-7639DA3EA57C}"/>
-    <hyperlink ref="C146" r:id="rId113" xr:uid="{B0C2F065-424A-7345-A864-346ECD98D749}"/>
-    <hyperlink ref="C147" r:id="rId114" xr:uid="{B4E26955-5C3F-804E-B19A-11260310AFB3}"/>
-    <hyperlink ref="C148" r:id="rId115" xr:uid="{6F299BB5-8E82-0240-A9A3-6829CE3ABCBF}"/>
-    <hyperlink ref="C149" r:id="rId116" xr:uid="{A42CA32F-2196-1840-A53D-E5073237C68D}"/>
-    <hyperlink ref="C150" r:id="rId117" xr:uid="{7ECF6EF4-962E-4642-9B1C-C3B70674793E}"/>
-    <hyperlink ref="C151" r:id="rId118" xr:uid="{2A109178-6B60-164E-9D25-42B3282137E3}"/>
-    <hyperlink ref="C152" r:id="rId119" xr:uid="{B3D38BD0-A6A1-8D41-8405-45E1BEEEEF06}"/>
-    <hyperlink ref="C153" r:id="rId120" xr:uid="{A1C26612-D040-2A41-A6A6-A8F2490C0A43}"/>
-    <hyperlink ref="C154" r:id="rId121" xr:uid="{C476E807-64CB-F44A-A23D-D21EBF6D001D}"/>
-    <hyperlink ref="C155" r:id="rId122" xr:uid="{9A414D55-D4A1-F147-9207-61B597D57136}"/>
-    <hyperlink ref="C124" r:id="rId123" xr:uid="{18B028A7-9B6F-D841-8548-924D70530779}"/>
-    <hyperlink ref="C131" r:id="rId124" xr:uid="{6D3E75EF-733F-7A4B-81C8-AEF6CB6335F0}"/>
-    <hyperlink ref="C160" r:id="rId125" xr:uid="{C9EB2682-BE0B-934B-B0B4-1DD1A1502647}"/>
-    <hyperlink ref="C161" r:id="rId126" xr:uid="{2992FED9-2B78-A342-92AA-E7C0F882FF17}"/>
-    <hyperlink ref="C162" r:id="rId127" xr:uid="{0084DA6F-EC84-BD48-BDA8-EBACA3BB3B3E}"/>
-    <hyperlink ref="C163" r:id="rId128" xr:uid="{30F2D415-4B2C-384C-8EAE-2CC71CB518E2}"/>
-    <hyperlink ref="C164" r:id="rId129" xr:uid="{40734C88-7C5B-9747-86D1-03463D9AD41A}"/>
-    <hyperlink ref="C165" r:id="rId130" xr:uid="{1040D22F-6729-104A-A229-CBDCED93024A}"/>
-    <hyperlink ref="C166" r:id="rId131" xr:uid="{E131FE61-FABF-8E4B-8EF0-F68379D8F836}"/>
-    <hyperlink ref="C167" r:id="rId132" xr:uid="{B2129272-1351-3745-883B-E6A7115450C8}"/>
-    <hyperlink ref="C168" r:id="rId133" xr:uid="{C8B2DEF0-2B69-C84E-8013-0B6F03FFC250}"/>
-    <hyperlink ref="C169" r:id="rId134" xr:uid="{536AC5CF-712F-BF48-94A9-D0E7DC013020}"/>
-    <hyperlink ref="C170" r:id="rId135" xr:uid="{2DABC9C7-43D4-1249-AF9B-5FA4552611CB}"/>
-    <hyperlink ref="C171" r:id="rId136" xr:uid="{DA62E73A-B495-F94A-BECE-D42E4CBF074A}"/>
-    <hyperlink ref="C172" r:id="rId137" xr:uid="{7F5E6966-850D-4F49-B2A5-678365713F28}"/>
-    <hyperlink ref="C173" r:id="rId138" xr:uid="{E9C4286D-8493-9A47-8B8C-09583FA72B70}"/>
-    <hyperlink ref="C174" r:id="rId139" xr:uid="{9EB0123C-84AE-1C4D-BA1A-C28CFB8EFB89}"/>
-    <hyperlink ref="C175" r:id="rId140" xr:uid="{9D11FED4-328F-674E-889D-EC781DD1D791}"/>
-    <hyperlink ref="C176" r:id="rId141" xr:uid="{48AE72DB-397B-464D-88AD-B8058ED29CC1}"/>
-    <hyperlink ref="C177" r:id="rId142" xr:uid="{152D50E9-7448-F542-AC66-05D0AE66664C}"/>
-    <hyperlink ref="C178" r:id="rId143" xr:uid="{34E6AF1B-5FB1-3A4B-8938-1DCF80831DC2}"/>
-    <hyperlink ref="C179" r:id="rId144" xr:uid="{E7F8B7CA-49F4-1946-91EE-E7582BE4E5DA}"/>
-    <hyperlink ref="C180" r:id="rId145" xr:uid="{3590A994-B7A2-C14D-9BF8-7AC8FE9E7F0F}"/>
-    <hyperlink ref="C181" r:id="rId146" xr:uid="{0AAA4B0C-4921-C34D-B41E-D702FA860892}"/>
-    <hyperlink ref="C182" r:id="rId147" xr:uid="{5973FCA4-AE32-5248-A6ED-2694367332F1}"/>
-    <hyperlink ref="C183" r:id="rId148" xr:uid="{4C0F816E-F043-0C47-BF16-1CDAD88D2FF1}"/>
-    <hyperlink ref="C184" r:id="rId149" xr:uid="{A8E4C654-D0BD-8945-9F5C-B09F7BC114BE}"/>
-    <hyperlink ref="C187" r:id="rId150" xr:uid="{E3825C15-10BB-E24F-B229-983F651DA942}"/>
-    <hyperlink ref="C188" r:id="rId151" xr:uid="{46ECFC31-388C-6241-8FFE-DED6F2FC794A}"/>
-    <hyperlink ref="C189" r:id="rId152" xr:uid="{589E024D-3FE1-1048-890C-88289733F233}"/>
-    <hyperlink ref="C190" r:id="rId153" xr:uid="{CDA28F7A-7FC5-F74D-B27E-A6E0161D41D5}"/>
-    <hyperlink ref="C191" r:id="rId154" xr:uid="{DA6A0D92-DCEB-DA4F-8BBA-10FCD092838F}"/>
-    <hyperlink ref="C192" r:id="rId155" xr:uid="{955769DB-3256-254B-90DE-E1E01B272F8A}"/>
-    <hyperlink ref="C193" r:id="rId156" xr:uid="{DED7AC9B-40D7-0545-9D6F-6CD4F5FFE4C6}"/>
-    <hyperlink ref="C194" r:id="rId157" xr:uid="{6947A4E1-B6AA-6D4F-A6D8-8FA74FD02887}"/>
-    <hyperlink ref="C195" r:id="rId158" xr:uid="{EABF2012-5A90-0C4E-86F6-FDB5FA7770BE}"/>
-    <hyperlink ref="C198" r:id="rId159" xr:uid="{7F44CFE0-9ED1-A44D-B9EF-CF87BEB644FC}"/>
-    <hyperlink ref="C199" r:id="rId160" xr:uid="{CF6E0CF6-7A93-D84A-9CE0-5BDD51767416}"/>
-    <hyperlink ref="C200" r:id="rId161" xr:uid="{EFF8F154-60B8-B84B-84CA-32756BD6430F}"/>
-    <hyperlink ref="C201" r:id="rId162" xr:uid="{C8A3094E-E11B-2543-B05E-1D07048B2EBA}"/>
-    <hyperlink ref="C202" r:id="rId163" xr:uid="{9961E5F5-B5C6-0C4D-A1D0-D04D2A5D7DFD}"/>
-    <hyperlink ref="C203" r:id="rId164" xr:uid="{44E289EC-47DD-D94D-88C1-CB2F59C6C16A}"/>
-    <hyperlink ref="C204" r:id="rId165" xr:uid="{4161FC70-DD6D-684B-898A-A4711596B2D5}"/>
-    <hyperlink ref="C205" r:id="rId166" xr:uid="{B9CBE387-8E9A-ED48-8310-CF7D34FA690C}"/>
-    <hyperlink ref="C206" r:id="rId167" xr:uid="{5398097B-24FF-9543-8F02-33CE2860F1F7}"/>
-    <hyperlink ref="C207" r:id="rId168" xr:uid="{3B1FC30B-30C8-7B48-AF94-A81FB513F24F}"/>
-    <hyperlink ref="C208" r:id="rId169" xr:uid="{32B750D0-D7F2-694D-AB9B-25AFAFAFF17F}"/>
-    <hyperlink ref="C209" r:id="rId170" xr:uid="{400689DD-8E95-024E-976B-AACD8ED4E1A6}"/>
-    <hyperlink ref="C210" r:id="rId171" xr:uid="{28753DDE-E047-5D40-A30B-1103BE6DA08F}"/>
-    <hyperlink ref="C211" r:id="rId172" xr:uid="{6C5AA6CB-3D93-0740-AEED-9E6C218CF6CB}"/>
-    <hyperlink ref="C212" r:id="rId173" xr:uid="{03EAA2B9-D8B8-D642-BF24-380596D26B2E}"/>
-    <hyperlink ref="C213" r:id="rId174" xr:uid="{8C1719B4-37CC-484E-BDCE-A4272C07F91B}"/>
-    <hyperlink ref="C214" r:id="rId175" xr:uid="{6C198DA2-BB98-F940-8EF6-2FC8B7AE577A}"/>
-    <hyperlink ref="C215" r:id="rId176" xr:uid="{AB0EA311-A446-D046-A0EC-290B42068328}"/>
-    <hyperlink ref="C216" r:id="rId177" xr:uid="{DB913045-B9F6-6549-AA09-22B0CC5FDD21}"/>
-    <hyperlink ref="C217" r:id="rId178" xr:uid="{806469FD-617A-7445-AAB5-FB2FD2ED24EA}"/>
-    <hyperlink ref="C218" r:id="rId179" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." xr:uid="{1A10544E-58CF-D04D-9FAF-2FEC6DB2B5D4}"/>
-    <hyperlink ref="C219" r:id="rId180" xr:uid="{5A0B6645-89FD-E044-A706-9FB890274C3C}"/>
-    <hyperlink ref="C220" r:id="rId181" xr:uid="{B42A3009-E8EB-EE44-885F-6699C17A0E0B}"/>
-    <hyperlink ref="C221" r:id="rId182" xr:uid="{ED3E48AB-E25B-3744-B024-E97B2A319B46}"/>
-    <hyperlink ref="C222" r:id="rId183" xr:uid="{C75D20A3-CBAE-2649-A3EE-E49177CFA343}"/>
-    <hyperlink ref="C223" r:id="rId184" xr:uid="{3863CA1B-D43E-1144-91A9-17C2DCF52A64}"/>
-    <hyperlink ref="C224" r:id="rId185" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." xr:uid="{E9AF434E-4CAA-5D49-8AD3-889CDE2913D9}"/>
-    <hyperlink ref="C225" r:id="rId186" xr:uid="{1A0568E5-3A11-7F47-8001-82B05D7C2339}"/>
-    <hyperlink ref="C226" r:id="rId187" xr:uid="{F62B8AE4-9C4F-9544-8861-CD733C12F79E}"/>
-    <hyperlink ref="C227" r:id="rId188" xr:uid="{0F6A542C-44C9-5A4C-90BF-BC8C239877D2}"/>
-    <hyperlink ref="C228" r:id="rId189" xr:uid="{3ED28203-B1B5-4E46-AAF3-779EDD4AC03F}"/>
-    <hyperlink ref="C229" r:id="rId190" xr:uid="{4338B305-B52F-5540-9B51-B938FC6803A2}"/>
-    <hyperlink ref="C230" r:id="rId191" xr:uid="{DDEEED0F-A939-1E4F-B2FA-AD391A4A2874}"/>
-    <hyperlink ref="C231" r:id="rId192" xr:uid="{C2F20589-AD81-654C-94E5-E5B6C9FE27F6}"/>
-    <hyperlink ref="C232" r:id="rId193" xr:uid="{BBEB9DAC-E4AE-C04F-AA15-6356AFC57FDE}"/>
-    <hyperlink ref="C235" r:id="rId194" xr:uid="{6316566D-A10A-F849-9F25-B9ED4DA12BC7}"/>
-    <hyperlink ref="C236" r:id="rId195" xr:uid="{9D4DD895-FBA6-C849-A5BF-3B30755BD9C9}"/>
-    <hyperlink ref="C237" r:id="rId196" xr:uid="{475996DA-632A-BE49-AEA1-D4189FD614A1}"/>
-    <hyperlink ref="C238" r:id="rId197" xr:uid="{88E0C858-8468-884F-BB71-F6F176BD5FC2}"/>
-    <hyperlink ref="C239" r:id="rId198" xr:uid="{C1C5C8D0-7A06-3D4A-A85A-AAACC1B418C9}"/>
-    <hyperlink ref="C240" r:id="rId199" xr:uid="{D525D4B1-2857-1543-8CD9-196728321203}"/>
-    <hyperlink ref="C241" r:id="rId200" xr:uid="{51E3AB9B-04B2-C041-A2B3-37E3EB18013A}"/>
-    <hyperlink ref="C242" r:id="rId201" xr:uid="{7F7F0C9A-57B9-314F-959A-B8ACAFA5FD13}"/>
-    <hyperlink ref="C243" r:id="rId202" xr:uid="{3B029785-83B4-6140-8B70-CD892CFC87F6}"/>
-    <hyperlink ref="C244" r:id="rId203" xr:uid="{B0A390E6-D860-9F4E-B021-68949FE712F3}"/>
-    <hyperlink ref="C245" r:id="rId204" xr:uid="{49E9953D-52F6-BF47-8AAA-8E456F55576B}"/>
-    <hyperlink ref="C246" r:id="rId205" xr:uid="{9B812470-F419-A54E-8365-06A9B8864A30}"/>
-    <hyperlink ref="C247" r:id="rId206" xr:uid="{B6FB4107-1933-6D45-9EF4-4474E06CBE9D}"/>
-    <hyperlink ref="C248" r:id="rId207" xr:uid="{0F7C1D92-7BCB-D14D-A658-9599984E04E4}"/>
-    <hyperlink ref="C249" r:id="rId208" xr:uid="{6810428F-0A78-964C-A8C8-E1CD2E7C405D}"/>
-    <hyperlink ref="C250" r:id="rId209" xr:uid="{B40209F2-0D6E-364F-8AF6-F1D182509314}"/>
-    <hyperlink ref="C251" r:id="rId210" xr:uid="{96C53FA9-9FD3-2D4F-B292-3C9DEDFA806E}"/>
-    <hyperlink ref="C252" r:id="rId211" xr:uid="{918B420D-3678-FD46-9463-595E8ACC39E1}"/>
-    <hyperlink ref="C253" r:id="rId212" xr:uid="{851A7153-3B54-0E4A-A0A0-FCEB091AFE70}"/>
-    <hyperlink ref="C254" r:id="rId213" xr:uid="{C03AE9F8-09AE-C640-81A7-033BB06FB6AD}"/>
-    <hyperlink ref="C255" r:id="rId214" xr:uid="{35140DEB-52D2-4342-88D2-22BA061E5B48}"/>
-    <hyperlink ref="C256" r:id="rId215" xr:uid="{9714BC0B-3373-934C-B7A1-599F74F4FB9D}"/>
-    <hyperlink ref="C259" r:id="rId216" xr:uid="{5CB435B2-7FD2-1D44-9872-22B6A1EDC02B}"/>
-    <hyperlink ref="C260" r:id="rId217" xr:uid="{722D1D95-896B-4642-BABD-31DEDD237B49}"/>
-    <hyperlink ref="C261" r:id="rId218" xr:uid="{D686D1DC-13D6-284C-B606-E087FAF47399}"/>
-    <hyperlink ref="C262" r:id="rId219" xr:uid="{D22C2394-C3CB-8F4F-A010-2B13C8C84D1A}"/>
-    <hyperlink ref="C263" r:id="rId220" xr:uid="{3AE2F800-B66F-1A41-893B-978F6875FDC8}"/>
-    <hyperlink ref="C264" r:id="rId221" xr:uid="{2C939BDE-5298-5541-837B-8C59D53A33C1}"/>
-    <hyperlink ref="C265" r:id="rId222" xr:uid="{691C9BD8-69D3-DA4B-AEB6-AF827B4ACA9F}"/>
-    <hyperlink ref="C266" r:id="rId223" xr:uid="{B6891E82-7C4D-424D-9219-3C9FD08E0053}"/>
-    <hyperlink ref="C267" r:id="rId224" xr:uid="{67A1AE98-62D2-644D-AC13-6CD76CF53CC0}"/>
-    <hyperlink ref="C268" r:id="rId225" xr:uid="{B59D4881-2A82-8F4D-B151-1E796C4923C8}"/>
-    <hyperlink ref="C269" r:id="rId226" xr:uid="{B3CBD023-5EFD-6048-9B3F-89F0C65CBBF5}"/>
-    <hyperlink ref="C270" r:id="rId227" xr:uid="{53EC42C4-22F7-0445-A0AC-7275A59A2672}"/>
-    <hyperlink ref="C271" r:id="rId228" xr:uid="{A29575F3-CB24-5B4B-9538-D5212B2DC28B}"/>
-    <hyperlink ref="C272" r:id="rId229" xr:uid="{353A44DD-9E30-8F48-8E2B-8DAA07550470}"/>
-    <hyperlink ref="C273" r:id="rId230" xr:uid="{32AC291D-95A5-BE49-88E0-02677BF39CAC}"/>
-    <hyperlink ref="C274" r:id="rId231" xr:uid="{A84F22FF-AD10-A546-8998-B066C0EB2D5A}"/>
-    <hyperlink ref="C275" r:id="rId232" xr:uid="{4C5CAF84-9B94-FC44-8C6C-B3CC7257C1DB}"/>
-    <hyperlink ref="C276" r:id="rId233" xr:uid="{5DA775E2-C516-3B47-8C82-3CEE7CC0BDF9}"/>
-    <hyperlink ref="C277" r:id="rId234" xr:uid="{00B6AE5C-EF3F-0747-A280-3BF055362B4F}"/>
-    <hyperlink ref="C278" r:id="rId235" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." xr:uid="{BCBD0A7E-F3D0-E840-9375-AFD37C5CD41A}"/>
-    <hyperlink ref="C279" r:id="rId236" xr:uid="{47ABDDDB-F95F-8049-9FB3-1E71A7376DDE}"/>
-    <hyperlink ref="C280" r:id="rId237" xr:uid="{70BADFC9-7399-234D-99F6-4C5F02397C26}"/>
-    <hyperlink ref="C281" r:id="rId238" xr:uid="{63348580-70EF-EC47-BF49-8ECE9560D54E}"/>
-    <hyperlink ref="C282" r:id="rId239" xr:uid="{D5BD96B3-9EAB-1B47-AC87-5C47F6AD7F40}"/>
-    <hyperlink ref="C283" r:id="rId240" xr:uid="{74791141-3FB8-7540-B45B-9541AF0AE371}"/>
-    <hyperlink ref="C284" r:id="rId241" xr:uid="{88D53CD6-262A-7247-8E58-FE9FFF7ECC40}"/>
-    <hyperlink ref="C285" r:id="rId242" xr:uid="{4338A14D-4F7D-B943-A347-7F74EFCA0DB5}"/>
-    <hyperlink ref="C286" r:id="rId243" xr:uid="{6E0EF7A3-7341-284B-A0E3-4539B6EAFAF2}"/>
-    <hyperlink ref="C287" r:id="rId244" xr:uid="{D2D8D64F-E2D3-734E-AD45-3EFB9686555A}"/>
-    <hyperlink ref="C288" r:id="rId245" xr:uid="{04A2904A-73A0-7845-9868-2CCFE359AC68}"/>
-    <hyperlink ref="C289" r:id="rId246" xr:uid="{D3D35835-6BE3-4D41-AF6F-5FE442277A16}"/>
-    <hyperlink ref="C290" r:id="rId247" xr:uid="{F663D0FC-CFF0-BC4F-9D26-48C871A8E9FD}"/>
-    <hyperlink ref="C291" r:id="rId248" xr:uid="{DF544147-DA48-4041-A4E2-4A75106B771A}"/>
-    <hyperlink ref="C292" r:id="rId249" xr:uid="{50E4B716-239E-7946-843D-E8462591D128}"/>
-    <hyperlink ref="C293" r:id="rId250" xr:uid="{D368B3E5-7D12-FD48-AFF7-A4A614108940}"/>
-    <hyperlink ref="C296" r:id="rId251" xr:uid="{D5921FF1-FC1F-CA4B-A24E-AD69E1DEC14C}"/>
-    <hyperlink ref="C297" r:id="rId252" xr:uid="{C931D7E0-E032-7C4B-95F1-735D955FCB51}"/>
-    <hyperlink ref="C298" r:id="rId253" xr:uid="{5FBD4A8F-287C-2C46-9CAB-F7DBA67DEDDA}"/>
-    <hyperlink ref="C299" r:id="rId254" xr:uid="{12966DD6-41DD-A94B-8B2C-0AD7D2AD6FB0}"/>
-    <hyperlink ref="C300" r:id="rId255" xr:uid="{CF720C34-4554-2944-A818-020ABC9BF0F4}"/>
-    <hyperlink ref="C301" r:id="rId256" xr:uid="{75763F2A-16D7-DE43-8189-19623CE26370}"/>
-    <hyperlink ref="C302" r:id="rId257" xr:uid="{9263AA30-472A-0A4D-BADF-96D82BB9BFCC}"/>
-    <hyperlink ref="C303" r:id="rId258" xr:uid="{2EF025C3-75C8-564E-BA8B-708C32B0E602}"/>
-    <hyperlink ref="C304" r:id="rId259" xr:uid="{6BDFDCA9-3421-F24F-8EF2-A72742F0AC21}"/>
-    <hyperlink ref="C305" r:id="rId260" xr:uid="{D8447F99-5FF9-D544-99BB-E9969B4A38D7}"/>
-    <hyperlink ref="C306" r:id="rId261" xr:uid="{1DB7EFDA-6C7D-F546-9EE1-F61ED0F65209}"/>
-    <hyperlink ref="C307" r:id="rId262" xr:uid="{D1505609-27D1-784D-ACF6-AE9D0DA2E1B6}"/>
-    <hyperlink ref="C308" r:id="rId263" xr:uid="{6BFA7B45-17D0-4E49-85DA-23C7255A306D}"/>
-    <hyperlink ref="C309" r:id="rId264" xr:uid="{3324BA4A-30CA-5246-8C3C-6505A6987939}"/>
-    <hyperlink ref="C310" r:id="rId265" xr:uid="{894486AD-2B6D-5740-BCAF-0BA1AFF814B4}"/>
-    <hyperlink ref="C311" r:id="rId266" xr:uid="{C47B203B-8B5A-E740-8C86-0784AD28089E}"/>
-    <hyperlink ref="C312" r:id="rId267" xr:uid="{06DC2E54-7597-AE4D-ACDB-B8883A989A4F}"/>
-    <hyperlink ref="C313" r:id="rId268" xr:uid="{E3384259-7CA7-1C44-A66D-11346EE6742E}"/>
-    <hyperlink ref="C314" r:id="rId269" xr:uid="{A5B77769-38AF-3D47-A76B-311591B57D91}"/>
-    <hyperlink ref="C317" r:id="rId270" xr:uid="{9DB6976A-C646-1341-90E8-3A164521267A}"/>
-    <hyperlink ref="C318" r:id="rId271" xr:uid="{03C291F8-D19A-304B-9EF9-CF71A1F66E49}"/>
-    <hyperlink ref="C319" r:id="rId272" xr:uid="{7536415C-140B-9244-B0B2-23F3ED0B2D80}"/>
-    <hyperlink ref="C320" r:id="rId273" xr:uid="{7DBDA456-8AF6-DD43-9764-17D3959B8E8F}"/>
-    <hyperlink ref="C321" r:id="rId274" xr:uid="{BFC149AB-C15A-B648-9F6A-ECD3890B1918}"/>
-    <hyperlink ref="C322" r:id="rId275" xr:uid="{0482240B-FEE9-F746-8980-52BCB7BBB56E}"/>
-    <hyperlink ref="C323" r:id="rId276" xr:uid="{86D1231A-E7C8-4B45-99ED-2DB0EF71E190}"/>
-    <hyperlink ref="C324" r:id="rId277" xr:uid="{20B7CE89-CB37-0040-989F-C8D1BE2B8782}"/>
-    <hyperlink ref="C325" r:id="rId278" xr:uid="{4C8412C9-A47B-9244-A18B-741516BD1054}"/>
-    <hyperlink ref="C326" r:id="rId279" xr:uid="{511761D9-31CE-0B43-AFFD-C011C27ACC52}"/>
-    <hyperlink ref="C327" r:id="rId280" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." xr:uid="{6905F997-D048-1049-BA27-C48756603D1E}"/>
-    <hyperlink ref="C328" r:id="rId281" xr:uid="{E657AA82-7CFE-DB42-B20F-F63D8C25EAB6}"/>
-    <hyperlink ref="C329" r:id="rId282" xr:uid="{3E505033-58F3-8F4E-AB82-E12DBC226AEA}"/>
-    <hyperlink ref="C330" r:id="rId283" xr:uid="{749599E5-4972-7343-B13B-87E26F837470}"/>
-    <hyperlink ref="C331" r:id="rId284" xr:uid="{12AA88DC-22AB-5A49-B28C-F04C8E35A215}"/>
-    <hyperlink ref="C332" r:id="rId285" xr:uid="{5751F0A7-7D9D-4148-820B-5B9659DFE34F}"/>
-    <hyperlink ref="C333" r:id="rId286" xr:uid="{4CA2DBEE-B161-B84D-B3A9-B8BC1B598AF2}"/>
-    <hyperlink ref="C334" r:id="rId287" xr:uid="{A9C1E578-6594-954C-8785-8902E605FC7A}"/>
-    <hyperlink ref="C335" r:id="rId288" xr:uid="{3D45E9B8-6671-A747-8C18-51CF8883170A}"/>
-    <hyperlink ref="C336" r:id="rId289" xr:uid="{4F5EF748-8CD4-0F47-90CE-3C93755BF63D}"/>
-    <hyperlink ref="C337" r:id="rId290" xr:uid="{44053C08-5050-C84B-B016-069B1EF9A43D}"/>
-    <hyperlink ref="C338" r:id="rId291" xr:uid="{ABF38928-736B-1A49-8B8A-1DCA5AAECB2B}"/>
-    <hyperlink ref="C339" r:id="rId292" xr:uid="{52651FAF-F3DC-E949-8AF8-998B9724B7D1}"/>
-    <hyperlink ref="C340" r:id="rId293" xr:uid="{91C6CCEF-3FF7-2C42-B5A0-8F4A403ED198}"/>
-    <hyperlink ref="C341" r:id="rId294" xr:uid="{15C8AF08-1A79-F949-9BE7-DD240CBD9861}"/>
-    <hyperlink ref="C342" r:id="rId295" xr:uid="{1904F984-5B22-8D46-BC33-3073B390E8F9}"/>
-    <hyperlink ref="C343" r:id="rId296" xr:uid="{A8BFB3A4-426B-E646-BCF0-FE19C8CD07A9}"/>
-    <hyperlink ref="C344" r:id="rId297" xr:uid="{FBBA29BB-885B-744A-A644-58EDCA7B140A}"/>
-    <hyperlink ref="C345" r:id="rId298" xr:uid="{75411687-6884-AC42-8B4A-1348C4837365}"/>
-    <hyperlink ref="C346" r:id="rId299" xr:uid="{A89ED8DF-F678-FE43-808C-C190721379BF}"/>
-    <hyperlink ref="C347" r:id="rId300" xr:uid="{1516834D-F3B2-1743-8811-263E11BBDEF8}"/>
-    <hyperlink ref="C348" r:id="rId301" xr:uid="{1659AB91-08CA-E44D-988D-E9D9A746D406}"/>
-    <hyperlink ref="C349" r:id="rId302" xr:uid="{E844BC1D-9713-9F4D-B0A4-1124A9952D14}"/>
-    <hyperlink ref="C350" r:id="rId303" xr:uid="{DCE2AAEF-8D8E-1843-BFE9-E9B7E13854EB}"/>
-    <hyperlink ref="C351" r:id="rId304" xr:uid="{836B3BF0-7711-7D41-9E72-914C1871397F}"/>
-    <hyperlink ref="C352" r:id="rId305" xr:uid="{F450CF9B-CA59-1443-8163-13F1121DCF12}"/>
-    <hyperlink ref="C353" r:id="rId306" xr:uid="{1539C3E8-4854-3C4F-A7B3-55BF931F1E2A}"/>
-    <hyperlink ref="C354" r:id="rId307" xr:uid="{04F1FC5F-5DA1-0144-962D-B38C1C41F0F4}"/>
-    <hyperlink ref="C357" r:id="rId308" xr:uid="{B21618F4-70E2-C549-80B7-7CF915679E0A}"/>
-    <hyperlink ref="C358" r:id="rId309" xr:uid="{EEDFBF11-C1E4-0847-9D56-94A72D97AEE7}"/>
-    <hyperlink ref="C359" r:id="rId310" xr:uid="{F5C0EDF1-7EAC-8849-8D27-C3389913BFC6}"/>
-    <hyperlink ref="C360" r:id="rId311" xr:uid="{50175B29-124F-4E4E-8E98-961BD3320359}"/>
-    <hyperlink ref="C361" r:id="rId312" xr:uid="{1BE23822-8512-014F-9154-F6EDA4FC8428}"/>
-    <hyperlink ref="C362" r:id="rId313" xr:uid="{38EC228E-ABFF-3542-9CFB-3DDFC628E9D0}"/>
-    <hyperlink ref="C363" r:id="rId314" xr:uid="{73F240F8-C469-454E-BA5C-CFF2F7A7A5F6}"/>
-    <hyperlink ref="C364" r:id="rId315" xr:uid="{3BBD1BAC-68C7-A94A-9063-AF62B5C837FD}"/>
-    <hyperlink ref="C365" r:id="rId316" xr:uid="{F9751D9B-2689-E24B-9FC3-CA32FE888708}"/>
-    <hyperlink ref="C366" r:id="rId317" xr:uid="{73C61D6A-D97C-B944-8B27-BB91564AB0D7}"/>
-    <hyperlink ref="C367" r:id="rId318" xr:uid="{936E077C-C016-A04F-895A-782D6D9D9433}"/>
-    <hyperlink ref="C368" r:id="rId319" xr:uid="{5454A2A1-6607-BE48-9215-CB8965EC3568}"/>
-    <hyperlink ref="C369" r:id="rId320" xr:uid="{FC1EAA10-F7ED-6B42-A79B-3D8B44E2C8B3}"/>
-    <hyperlink ref="C370" r:id="rId321" xr:uid="{FDB7F712-4A42-1048-8929-A1E752B07C6A}"/>
-    <hyperlink ref="C371" r:id="rId322" xr:uid="{AF3ACA60-0B0E-E146-B51F-A2CD05EB6549}"/>
-    <hyperlink ref="C372" r:id="rId323" xr:uid="{BB63E040-7A1A-E046-9BDD-9CBD1DA89DE9}"/>
-    <hyperlink ref="C373" r:id="rId324" xr:uid="{9AF8FD93-CCC9-D540-AE9A-00583F309649}"/>
-    <hyperlink ref="C374" r:id="rId325" xr:uid="{66A746A0-71FE-E546-92B7-D1C3D582E067}"/>
-    <hyperlink ref="C378" r:id="rId326" xr:uid="{BD79CCE1-5315-3944-9F9B-618615EC4583}"/>
-    <hyperlink ref="C379" r:id="rId327" xr:uid="{A5068A51-C961-6847-BB27-40A850B6D393}"/>
-    <hyperlink ref="C380" r:id="rId328" xr:uid="{6B8D36F0-E796-B944-A456-E8A9E2EE0BDB}"/>
-    <hyperlink ref="C381" r:id="rId329" xr:uid="{776652B7-2C11-4641-BF6A-EABEEB9B55AB}"/>
-    <hyperlink ref="C382" r:id="rId330" xr:uid="{95C6B35D-712A-2343-B790-236B55C5EC49}"/>
-    <hyperlink ref="C383" r:id="rId331" xr:uid="{4ED53872-1FE9-F140-AA35-F228F762880B}"/>
-    <hyperlink ref="C384" r:id="rId332" xr:uid="{6D5E6A28-85AA-BF4C-B2BD-9378D6E28EC7}"/>
-    <hyperlink ref="C385" r:id="rId333" xr:uid="{BCAD1ECB-15EE-CF49-878E-AA682DE3AC22}"/>
-    <hyperlink ref="C386" r:id="rId334" xr:uid="{C85468B5-25E9-E446-808E-72CFE911F0C2}"/>
-    <hyperlink ref="C387" r:id="rId335" xr:uid="{9503AECA-1A6A-9640-A04C-4CEAA2304448}"/>
-    <hyperlink ref="C388" r:id="rId336" xr:uid="{74211516-06B0-AA45-845B-52C8202751DA}"/>
-    <hyperlink ref="C389" r:id="rId337" xr:uid="{02C696BC-4B91-9444-900F-9CD68E409ABC}"/>
-    <hyperlink ref="C390" r:id="rId338" xr:uid="{04646C45-4118-374C-839D-94D31D534FAC}"/>
-    <hyperlink ref="C391" r:id="rId339" xr:uid="{F90BCCAE-8596-FC4D-BDD7-774392C596DF}"/>
-    <hyperlink ref="C392" r:id="rId340" xr:uid="{65230925-36EC-8A4B-8E46-6350B9BC0F95}"/>
-    <hyperlink ref="C393" r:id="rId341" xr:uid="{E91B8177-0C7A-1F40-BD34-4CC60F03B84F}"/>
-    <hyperlink ref="C394" r:id="rId342" xr:uid="{E8CBFD60-7335-0B4D-9FF5-99B4A8DC551D}"/>
-    <hyperlink ref="C395" r:id="rId343" xr:uid="{A35F55D4-9B87-C745-94DB-E7D820193C30}"/>
-    <hyperlink ref="C396" r:id="rId344" xr:uid="{6461A29F-D404-334F-B13F-296B4CA5E8A4}"/>
-    <hyperlink ref="C397" r:id="rId345" xr:uid="{FA9B4BE7-85CC-B24F-9461-5E9B42DDD824}"/>
-    <hyperlink ref="C398" r:id="rId346" xr:uid="{A75ACEA2-CDF6-A147-8540-A6DF55B15F45}"/>
-    <hyperlink ref="C399" r:id="rId347" xr:uid="{62FF87E2-E658-AB4D-AC57-7BCF9D49516E}"/>
-    <hyperlink ref="C400" r:id="rId348" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." xr:uid="{269338A6-5145-6944-9F7F-BD2A86DFA308}"/>
-    <hyperlink ref="C401" r:id="rId349" xr:uid="{8F583049-CE8D-CD42-88CD-CF3857942670}"/>
-    <hyperlink ref="C402" r:id="rId350" xr:uid="{EE2348AD-E296-894A-B5AE-5884A3C5E419}"/>
-    <hyperlink ref="C403" r:id="rId351" xr:uid="{6EACB34E-B32E-8F43-8055-2406F7417A7E}"/>
-    <hyperlink ref="C404" r:id="rId352" xr:uid="{2446F10A-B762-B64C-97B2-6131A0BECC1F}"/>
-    <hyperlink ref="C405" r:id="rId353" xr:uid="{6FDFCC53-17A6-7244-88A7-49406D7C9200}"/>
-    <hyperlink ref="C406" r:id="rId354" xr:uid="{3EC43646-EAB1-E443-A2F6-8E6E5FC77083}"/>
-    <hyperlink ref="C407" r:id="rId355" xr:uid="{659D9F20-C862-C947-B422-84143CFE317F}"/>
-    <hyperlink ref="C408" r:id="rId356" xr:uid="{3F5192FE-1C50-C049-88D5-68FA0F5430A0}"/>
-    <hyperlink ref="C409" r:id="rId357" xr:uid="{5EAD7CDA-9545-454B-BE77-9AFEC6AC1083}"/>
-    <hyperlink ref="C410" r:id="rId358" xr:uid="{761E5451-736B-6745-9CF5-4C6EF5D4C099}"/>
-    <hyperlink ref="C411" r:id="rId359" xr:uid="{4C8677A9-D94C-134F-AF31-E424751BF867}"/>
-    <hyperlink ref="C412" r:id="rId360" xr:uid="{CCF7920F-D5CE-004A-86C3-D821FB230970}"/>
-    <hyperlink ref="C413" r:id="rId361" xr:uid="{B4C07A0A-1EDD-7947-9646-3FD603441AD7}"/>
-    <hyperlink ref="C414" r:id="rId362" xr:uid="{49F7BB43-6851-0641-9DC5-27DBC66706F6}"/>
-    <hyperlink ref="C415" r:id="rId363" xr:uid="{77038647-48C7-5547-8E0F-898610362465}"/>
-    <hyperlink ref="C417" r:id="rId364" xr:uid="{EEFFE19C-6571-C64F-A0E1-5A4A700D94D4}"/>
-    <hyperlink ref="C416" r:id="rId365" xr:uid="{A4A2BFC4-6B88-2E4E-B362-17D8EE041C89}"/>
-    <hyperlink ref="C418" r:id="rId366" xr:uid="{DC5B603A-8D65-3648-A08A-E5FFA0FAE879}"/>
-    <hyperlink ref="C419" r:id="rId367" xr:uid="{F8807DD9-F4F2-B147-9C31-DBC93B2E477B}"/>
-    <hyperlink ref="C420" r:id="rId368" xr:uid="{6F7B396C-D7E9-C04E-BAE2-53D2EE07172B}"/>
-    <hyperlink ref="C423" r:id="rId369" xr:uid="{0D4A5941-C669-4A49-BAE3-9B553D03BD0F}"/>
-    <hyperlink ref="C424" r:id="rId370" xr:uid="{54144336-5BCA-D749-962A-E448C2CED3D3}"/>
-    <hyperlink ref="C425" r:id="rId371" xr:uid="{3A41DD21-CACF-1F48-A7C7-F568C6F31F3E}"/>
-    <hyperlink ref="C426" r:id="rId372" xr:uid="{A36160A8-F45E-3443-9645-42C1004B8F8C}"/>
-    <hyperlink ref="C427" r:id="rId373" xr:uid="{8B0A00A3-6AC0-DF46-AD87-A4DA016A2A00}"/>
-    <hyperlink ref="C428" r:id="rId374" xr:uid="{62A81CB4-A961-C543-B31C-92059DB6C105}"/>
-    <hyperlink ref="C431" r:id="rId375" xr:uid="{08030975-009C-C34A-A875-72FE2718F44C}"/>
-    <hyperlink ref="C432" r:id="rId376" xr:uid="{A113C7A9-2359-B643-9C08-E845813439C0}"/>
-    <hyperlink ref="C433" r:id="rId377" xr:uid="{FE300343-4633-AD47-A64D-2086629EB398}"/>
-    <hyperlink ref="C434" r:id="rId378" xr:uid="{4FC9F782-D38F-C642-A863-887B17AD05CD}"/>
-    <hyperlink ref="C435" r:id="rId379" xr:uid="{830C5466-10E3-7A48-B3E7-35C15A1CA4EF}"/>
-    <hyperlink ref="C436" r:id="rId380" xr:uid="{1B987077-E9D3-6F40-89EE-0D4E7180D884}"/>
-    <hyperlink ref="C437" r:id="rId381" xr:uid="{D4843E1F-7226-864E-A4BB-264D5A487B6D}"/>
-    <hyperlink ref="C438" r:id="rId382" xr:uid="{61816592-2D19-9946-8253-47A60218F2EA}"/>
-    <hyperlink ref="C439" r:id="rId383" xr:uid="{736C840F-19A3-0A4B-8863-ECB772B46385}"/>
-    <hyperlink ref="C440" r:id="rId384" xr:uid="{05A238AD-3C5B-C546-94E9-75BBF964711A}"/>
-    <hyperlink ref="C441" r:id="rId385" xr:uid="{7029629C-3F2A-4A49-997B-CFE86EC8B3C2}"/>
-    <hyperlink ref="C442" r:id="rId386" xr:uid="{ADA66B57-2FAC-AB42-BD83-4931708F3AB5}"/>
-    <hyperlink ref="C443" r:id="rId387" xr:uid="{F16BF1F9-755B-B045-B9A8-0B97E3BAC8B0}"/>
-    <hyperlink ref="C444" r:id="rId388" xr:uid="{ECCE930A-B960-234C-81EC-4B8514282AE9}"/>
-    <hyperlink ref="C445" r:id="rId389" xr:uid="{7AA58141-7D24-7C42-A0C1-F852B21CFFD9}"/>
-    <hyperlink ref="C446" r:id="rId390" xr:uid="{B1FCB47D-7921-3446-B2C7-72CBA815D056}"/>
-    <hyperlink ref="C447" r:id="rId391" xr:uid="{8C547719-AA03-3543-B31F-7300674AF4C5}"/>
-    <hyperlink ref="C448" r:id="rId392" xr:uid="{09922668-AFC0-F242-860E-9967E0F0FEF4}"/>
-    <hyperlink ref="C449" r:id="rId393" xr:uid="{0DA963DA-238B-D44E-9E03-6E6BD933B35E}"/>
-    <hyperlink ref="C450" r:id="rId394" xr:uid="{89518AFF-2526-C845-BC9D-95FE77AF416E}"/>
-    <hyperlink ref="C451" r:id="rId395" xr:uid="{FAECBBBE-196C-7A41-A0FB-E0597CB2CF51}"/>
-    <hyperlink ref="C452" r:id="rId396" xr:uid="{8126B039-0B25-B040-A0F6-C3457341A2E9}"/>
-    <hyperlink ref="C453" r:id="rId397" xr:uid="{6CB326E6-E698-EB42-884B-C89FFA33E3BA}"/>
-    <hyperlink ref="C454" r:id="rId398" xr:uid="{8C97EFD1-933F-A44F-A1CF-6386233104A2}"/>
-    <hyperlink ref="C455" r:id="rId399" xr:uid="{8F019F07-8532-E147-8BE1-4EBE833F61CA}"/>
-    <hyperlink ref="C456" r:id="rId400" xr:uid="{00F1A08F-3767-784A-97A3-4603DE38BACC}"/>
-    <hyperlink ref="C457" r:id="rId401" xr:uid="{2A84ADCB-071F-9A48-994D-7A838307EFD8}"/>
-    <hyperlink ref="C458" r:id="rId402" xr:uid="{132F8C6D-D5E8-6440-AC4E-B81EA2100416}"/>
-    <hyperlink ref="C459" r:id="rId403" xr:uid="{2DA6EAC2-1A1D-754F-9613-226CBC7890AF}"/>
-    <hyperlink ref="C460" r:id="rId404" xr:uid="{05BED99A-4562-D14E-8627-D07CF5335A9B}"/>
-    <hyperlink ref="C461" r:id="rId405" xr:uid="{111D902A-3F60-2D4B-89D3-5BCBD8AA38DD}"/>
-    <hyperlink ref="C462" r:id="rId406" xr:uid="{F19236BE-AC32-3542-9214-DFC3BAE04ED0}"/>
-    <hyperlink ref="C463" r:id="rId407" xr:uid="{4D97CD96-EA1B-664E-9380-EFD27077D273}"/>
-    <hyperlink ref="C464" r:id="rId408" xr:uid="{49A46D91-633F-A148-ACFA-49B7D1AA4B33}"/>
-    <hyperlink ref="C465" r:id="rId409" xr:uid="{7C3B7901-67E3-EA4D-BC64-21A78BC03AC6}"/>
-    <hyperlink ref="C466" r:id="rId410" xr:uid="{B27CA8C3-D34F-5E4D-94A5-11D14AFD0F82}"/>
-    <hyperlink ref="C467" r:id="rId411" xr:uid="{8FECE038-9764-5E4A-8C6E-9B3209812651}"/>
-    <hyperlink ref="C468" r:id="rId412" xr:uid="{95696D4B-89CB-5640-BE92-53B3C043F7EB}"/>
-    <hyperlink ref="C469" r:id="rId413" xr:uid="{DA74B737-802A-4944-A93E-0B9C8417630B}"/>
-    <hyperlink ref="C470" r:id="rId414" xr:uid="{B2C4C168-50FA-AF41-8F56-9E70613CF17D}"/>
-    <hyperlink ref="C472" r:id="rId415" xr:uid="{B7090C60-AC27-3F4F-8F0D-42F0791928C6}"/>
-    <hyperlink ref="C471" r:id="rId416" xr:uid="{07400041-66C6-514B-B3E3-427F2947C2B7}"/>
-    <hyperlink ref="C473" r:id="rId417" xr:uid="{B7E78172-8FB8-4E42-87D8-6A4654D79C62}"/>
-    <hyperlink ref="C474" r:id="rId418" xr:uid="{9A5D4670-BC64-334A-88CF-6F8287692C5E}"/>
-    <hyperlink ref="C475" r:id="rId419" xr:uid="{604283B6-53BC-044F-8D9D-E6094E798317}"/>
-    <hyperlink ref="C476" r:id="rId420" xr:uid="{5EB15AC7-3E0E-E44C-A5B9-32F30F234B5A}"/>
-    <hyperlink ref="C477" r:id="rId421" xr:uid="{3076BD5F-4B23-4146-A50A-499C9FF4C3D2}"/>
-    <hyperlink ref="C478" r:id="rId422" xr:uid="{6A29D9C2-1E78-1B43-A251-0AB0A97FA70E}"/>
-    <hyperlink ref="C479" r:id="rId423" xr:uid="{00597D5E-D693-DF4E-84C0-47E58A6ACA8F}"/>
-    <hyperlink ref="C480" r:id="rId424" xr:uid="{48640988-9964-0B4C-A014-83E2CEB3D632}"/>
-    <hyperlink ref="C481" r:id="rId425" xr:uid="{617AADC9-7534-FE45-96B0-EF4C1867B793}"/>
-    <hyperlink ref="C482" r:id="rId426" xr:uid="{7F8CDAA4-5094-8E4E-961B-41CDE5ACC0C0}"/>
-    <hyperlink ref="C483" r:id="rId427" xr:uid="{63F28ABD-12CF-5947-80DA-229E3CA3133E}"/>
-    <hyperlink ref="C490" r:id="rId428" xr:uid="{0A1DB92C-3315-1942-B27D-4B90986A6D9D}"/>
-    <hyperlink ref="C489" r:id="rId429" xr:uid="{11738B67-CADD-5D45-8417-8BE7A03FC79F}"/>
-    <hyperlink ref="C488" r:id="rId430" xr:uid="{B2B23748-D9E4-BE4F-A93E-49ECB4063831}"/>
-    <hyperlink ref="C487" r:id="rId431" xr:uid="{A2FB8A72-37B9-7E4A-B050-FD6CD20BCE73}"/>
-    <hyperlink ref="C486" r:id="rId432" xr:uid="{5A93C9AF-BFEB-EB40-95AC-C309ED09A604}"/>
-    <hyperlink ref="C485" r:id="rId433" xr:uid="{CC203923-2DC2-874B-B846-A8455E3CC2F2}"/>
-    <hyperlink ref="C484" r:id="rId434" xr:uid="{FCB0246E-0179-B447-B3CE-C60CDB388472}"/>
-    <hyperlink ref="C493" r:id="rId435" xr:uid="{F06CEE72-8CA4-C547-862C-39B86CD3226A}"/>
-    <hyperlink ref="C494" r:id="rId436" xr:uid="{CB3045F2-8D63-0F4E-85BC-AF016DB4F247}"/>
-    <hyperlink ref="C495" r:id="rId437" xr:uid="{667D57F5-E5AD-674F-A2F5-AFF4A14E4026}"/>
-    <hyperlink ref="C496" r:id="rId438" xr:uid="{27A13A65-56CE-BF4D-BA0D-EB87D910272D}"/>
-    <hyperlink ref="C497" r:id="rId439" xr:uid="{2C72A52E-6F06-0246-AEB5-93CD0DEA8866}"/>
-    <hyperlink ref="C498" r:id="rId440" xr:uid="{24B29046-B4DD-674B-9EDF-6C94BEC3FDD8}"/>
-    <hyperlink ref="C499" r:id="rId441" xr:uid="{D018EBC3-3FB3-AC4D-9D64-D218345A46C8}"/>
-    <hyperlink ref="C502" r:id="rId442" xr:uid="{1E1D3964-01E0-3145-ACFE-B6A5BF0EECB0}"/>
-    <hyperlink ref="C500" r:id="rId443" xr:uid="{FA0E5061-A7E2-C045-9671-1CD9446D1932}"/>
-    <hyperlink ref="C501" r:id="rId444" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{92704F5B-7B31-2F42-80DD-764B2206D9DB}"/>
-    <hyperlink ref="C377" r:id="rId445" xr:uid="{A48B1A24-83B1-7A4C-8129-CD37804DF849}"/>
-    <hyperlink ref="C157" r:id="rId446" xr:uid="{F0DDC999-C321-4AB4-BA9D-7538150E84D3}"/>
-    <hyperlink ref="C9" r:id="rId447" xr:uid="{310D755F-0FAF-4086-8950-B58917F7CAF8}"/>
-    <hyperlink ref="C8" r:id="rId448" xr:uid="{6913685B-862A-49D7-AB28-593B13669931}"/>
-    <hyperlink ref="C10" r:id="rId449" xr:uid="{E2555AFC-8C22-4A69-A028-B6C7E7796509}"/>
-    <hyperlink ref="C11" r:id="rId450" display="Wrute a Program to Find trailing Number of Zeros in Factorial of a Number" xr:uid="{4399CE2A-7FD8-4B12-B4C8-C7E9B23BBC9F}"/>
-    <hyperlink ref="C13" r:id="rId451" xr:uid="{6EFA894A-D33E-4C0B-BE93-0E75656CC712}"/>
-    <hyperlink ref="C14" r:id="rId452" xr:uid="{10515421-DC78-49D9-8A73-CC3D6D10A7C9}"/>
-    <hyperlink ref="C15" r:id="rId453" xr:uid="{C5C55CCE-6CD7-4A50-85E4-47BB53BE165C}"/>
-    <hyperlink ref="C16" r:id="rId454" xr:uid="{14814E78-7861-4C6A-81CF-8953C1484276}"/>
-    <hyperlink ref="C17" r:id="rId455" xr:uid="{87943FC1-A069-4989-8B78-B463D290AF94}"/>
-    <hyperlink ref="C18" r:id="rId456" xr:uid="{D825528B-18AF-463A-AA31-760F76F78A15}"/>
-    <hyperlink ref="C12" r:id="rId457" xr:uid="{027E7E1D-0C53-4A77-9662-F495CEC3BAC4}"/>
-    <hyperlink ref="C19" r:id="rId458" xr:uid="{B7A6DAE3-6E86-4612-A1FF-539F5C6D3E1D}"/>
-    <hyperlink ref="C156" r:id="rId459" xr:uid="{5221452B-37E3-4315-91B2-6A38CEBB1898}"/>
-    <hyperlink ref="C24" r:id="rId460" xr:uid="{7C6054B7-B807-4475-B490-126A9686EBA2}"/>
-    <hyperlink ref="C25" r:id="rId461" xr:uid="{93FD35D8-7CCD-456F-8688-AE16CCDD3523}"/>
-    <hyperlink ref="C26" r:id="rId462" xr:uid="{F4AF07B8-F8B8-4F27-8CE4-D2E7B73B36A2}"/>
-    <hyperlink ref="C34" r:id="rId463" xr:uid="{1895A946-81DF-437C-A537-65287B4088B6}"/>
+    <hyperlink ref="C161" r:id="rId37" xr:uid="{B9AC5194-6D36-684A-A5C4-BEE11037599F}"/>
+    <hyperlink ref="C162" r:id="rId38" xr:uid="{AB28D9E6-890C-F14A-A5FB-2303BE319968}"/>
+    <hyperlink ref="C163" r:id="rId39" xr:uid="{1F507CBC-4056-AD46-9314-95ECBB9D799D}"/>
+    <hyperlink ref="C164" r:id="rId40" xr:uid="{F152A9AF-5CBA-EC44-A9CF-07AB481435AB}"/>
+    <hyperlink ref="C165" r:id="rId41" xr:uid="{346CA74F-60B7-0A4B-A612-9184D4DCFF62}"/>
+    <hyperlink ref="C166" r:id="rId42" xr:uid="{8C653CB1-4954-754F-8D46-F09141A2FCDB}"/>
+    <hyperlink ref="C84" r:id="rId43" xr:uid="{5989F693-2A61-A346-8395-8674307A4CC2}"/>
+    <hyperlink ref="C85" r:id="rId44" xr:uid="{3AD10C9E-4F6D-DE48-92F3-531A586520C6}"/>
+    <hyperlink ref="C86" r:id="rId45" xr:uid="{4FA217C0-A1F3-904E-8FEA-EA4941273A67}"/>
+    <hyperlink ref="C87" r:id="rId46" xr:uid="{A297BBC0-FA0D-2D46-9C49-3932193EF1D3}"/>
+    <hyperlink ref="C89" r:id="rId47" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance." xr:uid="{DCD751DE-E440-F346-B6FD-CBD072217214}"/>
+    <hyperlink ref="C90" r:id="rId48" xr:uid="{B2FD38B9-1E2B-8140-8291-F45734C98145}"/>
+    <hyperlink ref="C91" r:id="rId49" xr:uid="{C76888B3-18AC-9B48-9E2A-64A7DF0902B7}"/>
+    <hyperlink ref="C92" r:id="rId50" xr:uid="{18A79860-6C9E-A941-8D6C-360B9913E941}"/>
+    <hyperlink ref="C93" r:id="rId51" xr:uid="{C0DDFD68-CBC1-0F4A-AF40-ACF36BBC8453}"/>
+    <hyperlink ref="C94" r:id="rId52" xr:uid="{3E0BF737-E42E-C946-B32C-06882E0BA6FF}"/>
+    <hyperlink ref="C96" r:id="rId53" xr:uid="{862F9782-C57B-2848-A2D9-EB7B52FB7EC7}"/>
+    <hyperlink ref="C97" r:id="rId54" xr:uid="{230D7A6A-D2C5-C140-9A65-B1F407D22062}"/>
+    <hyperlink ref="C98" r:id="rId55" xr:uid="{BDC2BA28-4562-984E-8282-1126BF952EAF}"/>
+    <hyperlink ref="C99" r:id="rId56" xr:uid="{B53A5F28-6DED-3D47-8679-F78D3DDEFF01}"/>
+    <hyperlink ref="C100" r:id="rId57" xr:uid="{C57D0CC7-DA2F-0948-9BCE-F19C20C7D981}"/>
+    <hyperlink ref="C101" r:id="rId58" xr:uid="{117878E5-B8C8-254B-8ED6-014B4B7A8126}"/>
+    <hyperlink ref="C102" r:id="rId59" xr:uid="{B7CC0756-74F2-D54D-BDEE-9DA394DD7168}"/>
+    <hyperlink ref="C103" r:id="rId60" xr:uid="{837EF472-CCC2-CF47-A8A8-238E56F722CE}"/>
+    <hyperlink ref="C104" r:id="rId61" xr:uid="{3608F267-6AA0-624B-B243-7DDD317E9F08}"/>
+    <hyperlink ref="C105" r:id="rId62" xr:uid="{0B6123E6-0472-374B-ACA7-6914CD7918E8}"/>
+    <hyperlink ref="C106" r:id="rId63" xr:uid="{D3971CEB-C53E-B04B-9C32-1803182B5DC5}"/>
+    <hyperlink ref="C107" r:id="rId64" xr:uid="{7CF5013A-643E-1643-93A1-A2F1500D2A23}"/>
+    <hyperlink ref="C108" r:id="rId65" xr:uid="{2A6BE7E5-D818-6843-8C3E-99EA2BFE0FB2}"/>
+    <hyperlink ref="C109" r:id="rId66" xr:uid="{E718F544-96DF-A04E-8DFB-7639DA3EA57C}"/>
+    <hyperlink ref="C110" r:id="rId67" xr:uid="{B0C2F065-424A-7345-A864-346ECD98D749}"/>
+    <hyperlink ref="C111" r:id="rId68" xr:uid="{B4E26955-5C3F-804E-B19A-11260310AFB3}"/>
+    <hyperlink ref="C112" r:id="rId69" xr:uid="{6F299BB5-8E82-0240-A9A3-6829CE3ABCBF}"/>
+    <hyperlink ref="C113" r:id="rId70" xr:uid="{A42CA32F-2196-1840-A53D-E5073237C68D}"/>
+    <hyperlink ref="C114" r:id="rId71" xr:uid="{7ECF6EF4-962E-4642-9B1C-C3B70674793E}"/>
+    <hyperlink ref="C115" r:id="rId72" xr:uid="{2A109178-6B60-164E-9D25-42B3282137E3}"/>
+    <hyperlink ref="C116" r:id="rId73" xr:uid="{B3D38BD0-A6A1-8D41-8405-45E1BEEEEF06}"/>
+    <hyperlink ref="C117" r:id="rId74" xr:uid="{A1C26612-D040-2A41-A6A6-A8F2490C0A43}"/>
+    <hyperlink ref="C118" r:id="rId75" xr:uid="{C476E807-64CB-F44A-A23D-D21EBF6D001D}"/>
+    <hyperlink ref="C119" r:id="rId76" xr:uid="{9A414D55-D4A1-F147-9207-61B597D57136}"/>
+    <hyperlink ref="C88" r:id="rId77" xr:uid="{18B028A7-9B6F-D841-8548-924D70530779}"/>
+    <hyperlink ref="C95" r:id="rId78" xr:uid="{6D3E75EF-733F-7A4B-81C8-AEF6CB6335F0}"/>
+    <hyperlink ref="C170" r:id="rId79" xr:uid="{C9EB2682-BE0B-934B-B0B4-1DD1A1502647}"/>
+    <hyperlink ref="C171" r:id="rId80" xr:uid="{2992FED9-2B78-A342-92AA-E7C0F882FF17}"/>
+    <hyperlink ref="C172" r:id="rId81" xr:uid="{0084DA6F-EC84-BD48-BDA8-EBACA3BB3B3E}"/>
+    <hyperlink ref="C173" r:id="rId82" xr:uid="{30F2D415-4B2C-384C-8EAE-2CC71CB518E2}"/>
+    <hyperlink ref="C174" r:id="rId83" xr:uid="{40734C88-7C5B-9747-86D1-03463D9AD41A}"/>
+    <hyperlink ref="C175" r:id="rId84" xr:uid="{1040D22F-6729-104A-A229-CBDCED93024A}"/>
+    <hyperlink ref="C176" r:id="rId85" xr:uid="{E131FE61-FABF-8E4B-8EF0-F68379D8F836}"/>
+    <hyperlink ref="C177" r:id="rId86" xr:uid="{B2129272-1351-3745-883B-E6A7115450C8}"/>
+    <hyperlink ref="C178" r:id="rId87" xr:uid="{C8B2DEF0-2B69-C84E-8013-0B6F03FFC250}"/>
+    <hyperlink ref="C179" r:id="rId88" xr:uid="{536AC5CF-712F-BF48-94A9-D0E7DC013020}"/>
+    <hyperlink ref="C180" r:id="rId89" xr:uid="{2DABC9C7-43D4-1249-AF9B-5FA4552611CB}"/>
+    <hyperlink ref="C181" r:id="rId90" xr:uid="{DA62E73A-B495-F94A-BECE-D42E4CBF074A}"/>
+    <hyperlink ref="C182" r:id="rId91" xr:uid="{7F5E6966-850D-4F49-B2A5-678365713F28}"/>
+    <hyperlink ref="C183" r:id="rId92" xr:uid="{E9C4286D-8493-9A47-8B8C-09583FA72B70}"/>
+    <hyperlink ref="C184" r:id="rId93" xr:uid="{9EB0123C-84AE-1C4D-BA1A-C28CFB8EFB89}"/>
+    <hyperlink ref="C185" r:id="rId94" xr:uid="{9D11FED4-328F-674E-889D-EC781DD1D791}"/>
+    <hyperlink ref="C186" r:id="rId95" xr:uid="{48AE72DB-397B-464D-88AD-B8058ED29CC1}"/>
+    <hyperlink ref="C187" r:id="rId96" xr:uid="{152D50E9-7448-F542-AC66-05D0AE66664C}"/>
+    <hyperlink ref="C188" r:id="rId97" xr:uid="{34E6AF1B-5FB1-3A4B-8938-1DCF80831DC2}"/>
+    <hyperlink ref="C189" r:id="rId98" xr:uid="{E7F8B7CA-49F4-1946-91EE-E7582BE4E5DA}"/>
+    <hyperlink ref="C190" r:id="rId99" xr:uid="{3590A994-B7A2-C14D-9BF8-7AC8FE9E7F0F}"/>
+    <hyperlink ref="C191" r:id="rId100" xr:uid="{0AAA4B0C-4921-C34D-B41E-D702FA860892}"/>
+    <hyperlink ref="C192" r:id="rId101" xr:uid="{5973FCA4-AE32-5248-A6ED-2694367332F1}"/>
+    <hyperlink ref="C193" r:id="rId102" xr:uid="{4C0F816E-F043-0C47-BF16-1CDAD88D2FF1}"/>
+    <hyperlink ref="C194" r:id="rId103" xr:uid="{A8E4C654-D0BD-8945-9F5C-B09F7BC114BE}"/>
+    <hyperlink ref="C197" r:id="rId104" xr:uid="{E3825C15-10BB-E24F-B229-983F651DA942}"/>
+    <hyperlink ref="C198" r:id="rId105" xr:uid="{46ECFC31-388C-6241-8FFE-DED6F2FC794A}"/>
+    <hyperlink ref="C199" r:id="rId106" xr:uid="{589E024D-3FE1-1048-890C-88289733F233}"/>
+    <hyperlink ref="C200" r:id="rId107" xr:uid="{CDA28F7A-7FC5-F74D-B27E-A6E0161D41D5}"/>
+    <hyperlink ref="C201" r:id="rId108" xr:uid="{DA6A0D92-DCEB-DA4F-8BBA-10FCD092838F}"/>
+    <hyperlink ref="C202" r:id="rId109" xr:uid="{955769DB-3256-254B-90DE-E1E01B272F8A}"/>
+    <hyperlink ref="C203" r:id="rId110" xr:uid="{DED7AC9B-40D7-0545-9D6F-6CD4F5FFE4C6}"/>
+    <hyperlink ref="C204" r:id="rId111" xr:uid="{6947A4E1-B6AA-6D4F-A6D8-8FA74FD02887}"/>
+    <hyperlink ref="C205" r:id="rId112" xr:uid="{EABF2012-5A90-0C4E-86F6-FDB5FA7770BE}"/>
+    <hyperlink ref="C246" r:id="rId113" xr:uid="{7F44CFE0-9ED1-A44D-B9EF-CF87BEB644FC}"/>
+    <hyperlink ref="C247" r:id="rId114" xr:uid="{CF6E0CF6-7A93-D84A-9CE0-5BDD51767416}"/>
+    <hyperlink ref="C248" r:id="rId115" xr:uid="{EFF8F154-60B8-B84B-84CA-32756BD6430F}"/>
+    <hyperlink ref="C249" r:id="rId116" xr:uid="{C8A3094E-E11B-2543-B05E-1D07048B2EBA}"/>
+    <hyperlink ref="C250" r:id="rId117" xr:uid="{9961E5F5-B5C6-0C4D-A1D0-D04D2A5D7DFD}"/>
+    <hyperlink ref="C251" r:id="rId118" xr:uid="{44E289EC-47DD-D94D-88C1-CB2F59C6C16A}"/>
+    <hyperlink ref="C252" r:id="rId119" xr:uid="{4161FC70-DD6D-684B-898A-A4711596B2D5}"/>
+    <hyperlink ref="C253" r:id="rId120" xr:uid="{B9CBE387-8E9A-ED48-8310-CF7D34FA690C}"/>
+    <hyperlink ref="C254" r:id="rId121" xr:uid="{5398097B-24FF-9543-8F02-33CE2860F1F7}"/>
+    <hyperlink ref="C255" r:id="rId122" xr:uid="{3B1FC30B-30C8-7B48-AF94-A81FB513F24F}"/>
+    <hyperlink ref="C256" r:id="rId123" xr:uid="{32B750D0-D7F2-694D-AB9B-25AFAFAFF17F}"/>
+    <hyperlink ref="C257" r:id="rId124" xr:uid="{400689DD-8E95-024E-976B-AACD8ED4E1A6}"/>
+    <hyperlink ref="C258" r:id="rId125" xr:uid="{28753DDE-E047-5D40-A30B-1103BE6DA08F}"/>
+    <hyperlink ref="C259" r:id="rId126" xr:uid="{6C5AA6CB-3D93-0740-AEED-9E6C218CF6CB}"/>
+    <hyperlink ref="C260" r:id="rId127" xr:uid="{03EAA2B9-D8B8-D642-BF24-380596D26B2E}"/>
+    <hyperlink ref="C261" r:id="rId128" xr:uid="{8C1719B4-37CC-484E-BDCE-A4272C07F91B}"/>
+    <hyperlink ref="C262" r:id="rId129" xr:uid="{6C198DA2-BB98-F940-8EF6-2FC8B7AE577A}"/>
+    <hyperlink ref="C263" r:id="rId130" xr:uid="{AB0EA311-A446-D046-A0EC-290B42068328}"/>
+    <hyperlink ref="C264" r:id="rId131" xr:uid="{DB913045-B9F6-6549-AA09-22B0CC5FDD21}"/>
+    <hyperlink ref="C265" r:id="rId132" xr:uid="{806469FD-617A-7445-AAB5-FB2FD2ED24EA}"/>
+    <hyperlink ref="C266" r:id="rId133" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." xr:uid="{1A10544E-58CF-D04D-9FAF-2FEC6DB2B5D4}"/>
+    <hyperlink ref="C267" r:id="rId134" xr:uid="{5A0B6645-89FD-E044-A706-9FB890274C3C}"/>
+    <hyperlink ref="C268" r:id="rId135" xr:uid="{B42A3009-E8EB-EE44-885F-6699C17A0E0B}"/>
+    <hyperlink ref="C269" r:id="rId136" xr:uid="{ED3E48AB-E25B-3744-B024-E97B2A319B46}"/>
+    <hyperlink ref="C270" r:id="rId137" xr:uid="{C75D20A3-CBAE-2649-A3EE-E49177CFA343}"/>
+    <hyperlink ref="C271" r:id="rId138" xr:uid="{3863CA1B-D43E-1144-91A9-17C2DCF52A64}"/>
+    <hyperlink ref="C272" r:id="rId139" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." xr:uid="{E9AF434E-4CAA-5D49-8AD3-889CDE2913D9}"/>
+    <hyperlink ref="C273" r:id="rId140" xr:uid="{1A0568E5-3A11-7F47-8001-82B05D7C2339}"/>
+    <hyperlink ref="C274" r:id="rId141" xr:uid="{F62B8AE4-9C4F-9544-8861-CD733C12F79E}"/>
+    <hyperlink ref="C275" r:id="rId142" xr:uid="{0F6A542C-44C9-5A4C-90BF-BC8C239877D2}"/>
+    <hyperlink ref="C276" r:id="rId143" xr:uid="{3ED28203-B1B5-4E46-AAF3-779EDD4AC03F}"/>
+    <hyperlink ref="C277" r:id="rId144" xr:uid="{4338B305-B52F-5540-9B51-B938FC6803A2}"/>
+    <hyperlink ref="C278" r:id="rId145" xr:uid="{DDEEED0F-A939-1E4F-B2FA-AD391A4A2874}"/>
+    <hyperlink ref="C279" r:id="rId146" xr:uid="{C2F20589-AD81-654C-94E5-E5B6C9FE27F6}"/>
+    <hyperlink ref="C280" r:id="rId147" xr:uid="{BBEB9DAC-E4AE-C04F-AA15-6356AFC57FDE}"/>
+    <hyperlink ref="C283" r:id="rId148" xr:uid="{6316566D-A10A-F849-9F25-B9ED4DA12BC7}"/>
+    <hyperlink ref="C284" r:id="rId149" xr:uid="{9D4DD895-FBA6-C849-A5BF-3B30755BD9C9}"/>
+    <hyperlink ref="C285" r:id="rId150" xr:uid="{475996DA-632A-BE49-AEA1-D4189FD614A1}"/>
+    <hyperlink ref="C286" r:id="rId151" xr:uid="{88E0C858-8468-884F-BB71-F6F176BD5FC2}"/>
+    <hyperlink ref="C287" r:id="rId152" xr:uid="{C1C5C8D0-7A06-3D4A-A85A-AAACC1B418C9}"/>
+    <hyperlink ref="C288" r:id="rId153" xr:uid="{D525D4B1-2857-1543-8CD9-196728321203}"/>
+    <hyperlink ref="C289" r:id="rId154" xr:uid="{51E3AB9B-04B2-C041-A2B3-37E3EB18013A}"/>
+    <hyperlink ref="C290" r:id="rId155" xr:uid="{7F7F0C9A-57B9-314F-959A-B8ACAFA5FD13}"/>
+    <hyperlink ref="C291" r:id="rId156" xr:uid="{3B029785-83B4-6140-8B70-CD892CFC87F6}"/>
+    <hyperlink ref="C292" r:id="rId157" xr:uid="{B0A390E6-D860-9F4E-B021-68949FE712F3}"/>
+    <hyperlink ref="C293" r:id="rId158" xr:uid="{49E9953D-52F6-BF47-8AAA-8E456F55576B}"/>
+    <hyperlink ref="C294" r:id="rId159" xr:uid="{9B812470-F419-A54E-8365-06A9B8864A30}"/>
+    <hyperlink ref="C295" r:id="rId160" xr:uid="{B6FB4107-1933-6D45-9EF4-4474E06CBE9D}"/>
+    <hyperlink ref="C296" r:id="rId161" xr:uid="{0F7C1D92-7BCB-D14D-A658-9599984E04E4}"/>
+    <hyperlink ref="C297" r:id="rId162" xr:uid="{6810428F-0A78-964C-A8C8-E1CD2E7C405D}"/>
+    <hyperlink ref="C298" r:id="rId163" xr:uid="{B40209F2-0D6E-364F-8AF6-F1D182509314}"/>
+    <hyperlink ref="C299" r:id="rId164" xr:uid="{96C53FA9-9FD3-2D4F-B292-3C9DEDFA806E}"/>
+    <hyperlink ref="C300" r:id="rId165" xr:uid="{918B420D-3678-FD46-9463-595E8ACC39E1}"/>
+    <hyperlink ref="C301" r:id="rId166" xr:uid="{851A7153-3B54-0E4A-A0A0-FCEB091AFE70}"/>
+    <hyperlink ref="C302" r:id="rId167" xr:uid="{C03AE9F8-09AE-C640-81A7-033BB06FB6AD}"/>
+    <hyperlink ref="C303" r:id="rId168" xr:uid="{35140DEB-52D2-4342-88D2-22BA061E5B48}"/>
+    <hyperlink ref="C304" r:id="rId169" xr:uid="{9714BC0B-3373-934C-B7A1-599F74F4FB9D}"/>
+    <hyperlink ref="C370" r:id="rId170" xr:uid="{5CB435B2-7FD2-1D44-9872-22B6A1EDC02B}"/>
+    <hyperlink ref="C371" r:id="rId171" xr:uid="{722D1D95-896B-4642-BABD-31DEDD237B49}"/>
+    <hyperlink ref="C372" r:id="rId172" xr:uid="{D686D1DC-13D6-284C-B606-E087FAF47399}"/>
+    <hyperlink ref="C373" r:id="rId173" xr:uid="{D22C2394-C3CB-8F4F-A010-2B13C8C84D1A}"/>
+    <hyperlink ref="C374" r:id="rId174" xr:uid="{3AE2F800-B66F-1A41-893B-978F6875FDC8}"/>
+    <hyperlink ref="C375" r:id="rId175" xr:uid="{2C939BDE-5298-5541-837B-8C59D53A33C1}"/>
+    <hyperlink ref="C376" r:id="rId176" xr:uid="{691C9BD8-69D3-DA4B-AEB6-AF827B4ACA9F}"/>
+    <hyperlink ref="C377" r:id="rId177" xr:uid="{B6891E82-7C4D-424D-9219-3C9FD08E0053}"/>
+    <hyperlink ref="C378" r:id="rId178" xr:uid="{67A1AE98-62D2-644D-AC13-6CD76CF53CC0}"/>
+    <hyperlink ref="C379" r:id="rId179" xr:uid="{B59D4881-2A82-8F4D-B151-1E796C4923C8}"/>
+    <hyperlink ref="C380" r:id="rId180" xr:uid="{B3CBD023-5EFD-6048-9B3F-89F0C65CBBF5}"/>
+    <hyperlink ref="C381" r:id="rId181" xr:uid="{53EC42C4-22F7-0445-A0AC-7275A59A2672}"/>
+    <hyperlink ref="C382" r:id="rId182" xr:uid="{A29575F3-CB24-5B4B-9538-D5212B2DC28B}"/>
+    <hyperlink ref="C383" r:id="rId183" xr:uid="{353A44DD-9E30-8F48-8E2B-8DAA07550470}"/>
+    <hyperlink ref="C384" r:id="rId184" xr:uid="{32AC291D-95A5-BE49-88E0-02677BF39CAC}"/>
+    <hyperlink ref="C385" r:id="rId185" xr:uid="{A84F22FF-AD10-A546-8998-B066C0EB2D5A}"/>
+    <hyperlink ref="C386" r:id="rId186" xr:uid="{4C5CAF84-9B94-FC44-8C6C-B3CC7257C1DB}"/>
+    <hyperlink ref="C387" r:id="rId187" xr:uid="{5DA775E2-C516-3B47-8C82-3CEE7CC0BDF9}"/>
+    <hyperlink ref="C388" r:id="rId188" xr:uid="{00B6AE5C-EF3F-0747-A280-3BF055362B4F}"/>
+    <hyperlink ref="C389" r:id="rId189" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." xr:uid="{BCBD0A7E-F3D0-E840-9375-AFD37C5CD41A}"/>
+    <hyperlink ref="C390" r:id="rId190" xr:uid="{47ABDDDB-F95F-8049-9FB3-1E71A7376DDE}"/>
+    <hyperlink ref="C391" r:id="rId191" xr:uid="{70BADFC9-7399-234D-99F6-4C5F02397C26}"/>
+    <hyperlink ref="C392" r:id="rId192" xr:uid="{63348580-70EF-EC47-BF49-8ECE9560D54E}"/>
+    <hyperlink ref="C393" r:id="rId193" xr:uid="{D5BD96B3-9EAB-1B47-AC87-5C47F6AD7F40}"/>
+    <hyperlink ref="C394" r:id="rId194" xr:uid="{74791141-3FB8-7540-B45B-9541AF0AE371}"/>
+    <hyperlink ref="C395" r:id="rId195" xr:uid="{88D53CD6-262A-7247-8E58-FE9FFF7ECC40}"/>
+    <hyperlink ref="C396" r:id="rId196" xr:uid="{4338A14D-4F7D-B943-A347-7F74EFCA0DB5}"/>
+    <hyperlink ref="C397" r:id="rId197" xr:uid="{6E0EF7A3-7341-284B-A0E3-4539B6EAFAF2}"/>
+    <hyperlink ref="C398" r:id="rId198" xr:uid="{D2D8D64F-E2D3-734E-AD45-3EFB9686555A}"/>
+    <hyperlink ref="C399" r:id="rId199" xr:uid="{04A2904A-73A0-7845-9868-2CCFE359AC68}"/>
+    <hyperlink ref="C400" r:id="rId200" xr:uid="{D3D35835-6BE3-4D41-AF6F-5FE442277A16}"/>
+    <hyperlink ref="C401" r:id="rId201" xr:uid="{F663D0FC-CFF0-BC4F-9D26-48C871A8E9FD}"/>
+    <hyperlink ref="C402" r:id="rId202" xr:uid="{DF544147-DA48-4041-A4E2-4A75106B771A}"/>
+    <hyperlink ref="C403" r:id="rId203" xr:uid="{50E4B716-239E-7946-843D-E8462591D128}"/>
+    <hyperlink ref="C404" r:id="rId204" xr:uid="{D368B3E5-7D12-FD48-AFF7-A4A614108940}"/>
+    <hyperlink ref="C407" r:id="rId205" xr:uid="{D5921FF1-FC1F-CA4B-A24E-AD69E1DEC14C}"/>
+    <hyperlink ref="C408" r:id="rId206" xr:uid="{C931D7E0-E032-7C4B-95F1-735D955FCB51}"/>
+    <hyperlink ref="C409" r:id="rId207" xr:uid="{5FBD4A8F-287C-2C46-9CAB-F7DBA67DEDDA}"/>
+    <hyperlink ref="C410" r:id="rId208" xr:uid="{12966DD6-41DD-A94B-8B2C-0AD7D2AD6FB0}"/>
+    <hyperlink ref="C411" r:id="rId209" xr:uid="{CF720C34-4554-2944-A818-020ABC9BF0F4}"/>
+    <hyperlink ref="C412" r:id="rId210" xr:uid="{75763F2A-16D7-DE43-8189-19623CE26370}"/>
+    <hyperlink ref="C413" r:id="rId211" xr:uid="{9263AA30-472A-0A4D-BADF-96D82BB9BFCC}"/>
+    <hyperlink ref="C414" r:id="rId212" xr:uid="{2EF025C3-75C8-564E-BA8B-708C32B0E602}"/>
+    <hyperlink ref="C415" r:id="rId213" xr:uid="{6BDFDCA9-3421-F24F-8EF2-A72742F0AC21}"/>
+    <hyperlink ref="C416" r:id="rId214" xr:uid="{D8447F99-5FF9-D544-99BB-E9969B4A38D7}"/>
+    <hyperlink ref="C417" r:id="rId215" xr:uid="{1DB7EFDA-6C7D-F546-9EE1-F61ED0F65209}"/>
+    <hyperlink ref="C418" r:id="rId216" xr:uid="{D1505609-27D1-784D-ACF6-AE9D0DA2E1B6}"/>
+    <hyperlink ref="C419" r:id="rId217" xr:uid="{6BFA7B45-17D0-4E49-85DA-23C7255A306D}"/>
+    <hyperlink ref="C420" r:id="rId218" xr:uid="{3324BA4A-30CA-5246-8C3C-6505A6987939}"/>
+    <hyperlink ref="C421" r:id="rId219" xr:uid="{894486AD-2B6D-5740-BCAF-0BA1AFF814B4}"/>
+    <hyperlink ref="C422" r:id="rId220" xr:uid="{C47B203B-8B5A-E740-8C86-0784AD28089E}"/>
+    <hyperlink ref="C423" r:id="rId221" xr:uid="{06DC2E54-7597-AE4D-ACDB-B8883A989A4F}"/>
+    <hyperlink ref="C424" r:id="rId222" xr:uid="{E3384259-7CA7-1C44-A66D-11346EE6742E}"/>
+    <hyperlink ref="C425" r:id="rId223" xr:uid="{A5B77769-38AF-3D47-A76B-311591B57D91}"/>
+    <hyperlink ref="C207" r:id="rId224" xr:uid="{9DB6976A-C646-1341-90E8-3A164521267A}"/>
+    <hyperlink ref="C208" r:id="rId225" xr:uid="{03C291F8-D19A-304B-9EF9-CF71A1F66E49}"/>
+    <hyperlink ref="C209" r:id="rId226" xr:uid="{7536415C-140B-9244-B0B2-23F3ED0B2D80}"/>
+    <hyperlink ref="C210" r:id="rId227" xr:uid="{7DBDA456-8AF6-DD43-9764-17D3959B8E8F}"/>
+    <hyperlink ref="C211" r:id="rId228" xr:uid="{BFC149AB-C15A-B648-9F6A-ECD3890B1918}"/>
+    <hyperlink ref="C212" r:id="rId229" xr:uid="{0482240B-FEE9-F746-8980-52BCB7BBB56E}"/>
+    <hyperlink ref="C213" r:id="rId230" xr:uid="{86D1231A-E7C8-4B45-99ED-2DB0EF71E190}"/>
+    <hyperlink ref="C214" r:id="rId231" xr:uid="{20B7CE89-CB37-0040-989F-C8D1BE2B8782}"/>
+    <hyperlink ref="C215" r:id="rId232" xr:uid="{4C8412C9-A47B-9244-A18B-741516BD1054}"/>
+    <hyperlink ref="C216" r:id="rId233" xr:uid="{511761D9-31CE-0B43-AFFD-C011C27ACC52}"/>
+    <hyperlink ref="C217" r:id="rId234" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." xr:uid="{6905F997-D048-1049-BA27-C48756603D1E}"/>
+    <hyperlink ref="C218" r:id="rId235" xr:uid="{E657AA82-7CFE-DB42-B20F-F63D8C25EAB6}"/>
+    <hyperlink ref="C219" r:id="rId236" xr:uid="{3E505033-58F3-8F4E-AB82-E12DBC226AEA}"/>
+    <hyperlink ref="C220" r:id="rId237" xr:uid="{749599E5-4972-7343-B13B-87E26F837470}"/>
+    <hyperlink ref="C221" r:id="rId238" xr:uid="{12AA88DC-22AB-5A49-B28C-F04C8E35A215}"/>
+    <hyperlink ref="C222" r:id="rId239" xr:uid="{5751F0A7-7D9D-4148-820B-5B9659DFE34F}"/>
+    <hyperlink ref="C223" r:id="rId240" xr:uid="{4CA2DBEE-B161-B84D-B3A9-B8BC1B598AF2}"/>
+    <hyperlink ref="C224" r:id="rId241" xr:uid="{A9C1E578-6594-954C-8785-8902E605FC7A}"/>
+    <hyperlink ref="C225" r:id="rId242" xr:uid="{3D45E9B8-6671-A747-8C18-51CF8883170A}"/>
+    <hyperlink ref="C226" r:id="rId243" xr:uid="{4F5EF748-8CD4-0F47-90CE-3C93755BF63D}"/>
+    <hyperlink ref="C227" r:id="rId244" xr:uid="{44053C08-5050-C84B-B016-069B1EF9A43D}"/>
+    <hyperlink ref="C228" r:id="rId245" xr:uid="{ABF38928-736B-1A49-8B8A-1DCA5AAECB2B}"/>
+    <hyperlink ref="C229" r:id="rId246" xr:uid="{52651FAF-F3DC-E949-8AF8-998B9724B7D1}"/>
+    <hyperlink ref="C230" r:id="rId247" xr:uid="{91C6CCEF-3FF7-2C42-B5A0-8F4A403ED198}"/>
+    <hyperlink ref="C231" r:id="rId248" xr:uid="{15C8AF08-1A79-F949-9BE7-DD240CBD9861}"/>
+    <hyperlink ref="C232" r:id="rId249" xr:uid="{1904F984-5B22-8D46-BC33-3073B390E8F9}"/>
+    <hyperlink ref="C233" r:id="rId250" xr:uid="{A8BFB3A4-426B-E646-BCF0-FE19C8CD07A9}"/>
+    <hyperlink ref="C234" r:id="rId251" xr:uid="{FBBA29BB-885B-744A-A644-58EDCA7B140A}"/>
+    <hyperlink ref="C235" r:id="rId252" xr:uid="{75411687-6884-AC42-8B4A-1348C4837365}"/>
+    <hyperlink ref="C236" r:id="rId253" xr:uid="{A89ED8DF-F678-FE43-808C-C190721379BF}"/>
+    <hyperlink ref="C237" r:id="rId254" xr:uid="{1516834D-F3B2-1743-8811-263E11BBDEF8}"/>
+    <hyperlink ref="C238" r:id="rId255" xr:uid="{1659AB91-08CA-E44D-988D-E9D9A746D406}"/>
+    <hyperlink ref="C239" r:id="rId256" xr:uid="{E844BC1D-9713-9F4D-B0A4-1124A9952D14}"/>
+    <hyperlink ref="C240" r:id="rId257" xr:uid="{DCE2AAEF-8D8E-1843-BFE9-E9B7E13854EB}"/>
+    <hyperlink ref="C241" r:id="rId258" xr:uid="{836B3BF0-7711-7D41-9E72-914C1871397F}"/>
+    <hyperlink ref="C242" r:id="rId259" xr:uid="{F450CF9B-CA59-1443-8163-13F1121DCF12}"/>
+    <hyperlink ref="C243" r:id="rId260" xr:uid="{1539C3E8-4854-3C4F-A7B3-55BF931F1E2A}"/>
+    <hyperlink ref="C244" r:id="rId261" xr:uid="{04F1FC5F-5DA1-0144-962D-B38C1C41F0F4}"/>
+    <hyperlink ref="C306" r:id="rId262" xr:uid="{B21618F4-70E2-C549-80B7-7CF915679E0A}"/>
+    <hyperlink ref="C307" r:id="rId263" xr:uid="{EEDFBF11-C1E4-0847-9D56-94A72D97AEE7}"/>
+    <hyperlink ref="C308" r:id="rId264" xr:uid="{F5C0EDF1-7EAC-8849-8D27-C3389913BFC6}"/>
+    <hyperlink ref="C309" r:id="rId265" xr:uid="{50175B29-124F-4E4E-8E98-961BD3320359}"/>
+    <hyperlink ref="C310" r:id="rId266" xr:uid="{1BE23822-8512-014F-9154-F6EDA4FC8428}"/>
+    <hyperlink ref="C311" r:id="rId267" xr:uid="{38EC228E-ABFF-3542-9CFB-3DDFC628E9D0}"/>
+    <hyperlink ref="C312" r:id="rId268" xr:uid="{73F240F8-C469-454E-BA5C-CFF2F7A7A5F6}"/>
+    <hyperlink ref="C313" r:id="rId269" xr:uid="{3BBD1BAC-68C7-A94A-9063-AF62B5C837FD}"/>
+    <hyperlink ref="C314" r:id="rId270" xr:uid="{F9751D9B-2689-E24B-9FC3-CA32FE888708}"/>
+    <hyperlink ref="C315" r:id="rId271" xr:uid="{73C61D6A-D97C-B944-8B27-BB91564AB0D7}"/>
+    <hyperlink ref="C316" r:id="rId272" xr:uid="{936E077C-C016-A04F-895A-782D6D9D9433}"/>
+    <hyperlink ref="C317" r:id="rId273" xr:uid="{5454A2A1-6607-BE48-9215-CB8965EC3568}"/>
+    <hyperlink ref="C318" r:id="rId274" xr:uid="{FC1EAA10-F7ED-6B42-A79B-3D8B44E2C8B3}"/>
+    <hyperlink ref="C319" r:id="rId275" xr:uid="{FDB7F712-4A42-1048-8929-A1E752B07C6A}"/>
+    <hyperlink ref="C320" r:id="rId276" xr:uid="{AF3ACA60-0B0E-E146-B51F-A2CD05EB6549}"/>
+    <hyperlink ref="C321" r:id="rId277" xr:uid="{BB63E040-7A1A-E046-9BDD-9CBD1DA89DE9}"/>
+    <hyperlink ref="C322" r:id="rId278" xr:uid="{9AF8FD93-CCC9-D540-AE9A-00583F309649}"/>
+    <hyperlink ref="C323" r:id="rId279" xr:uid="{66A746A0-71FE-E546-92B7-D1C3D582E067}"/>
+    <hyperlink ref="C326" r:id="rId280" xr:uid="{BD79CCE1-5315-3944-9F9B-618615EC4583}"/>
+    <hyperlink ref="C327" r:id="rId281" xr:uid="{A5068A51-C961-6847-BB27-40A850B6D393}"/>
+    <hyperlink ref="C328" r:id="rId282" xr:uid="{6B8D36F0-E796-B944-A456-E8A9E2EE0BDB}"/>
+    <hyperlink ref="C329" r:id="rId283" xr:uid="{776652B7-2C11-4641-BF6A-EABEEB9B55AB}"/>
+    <hyperlink ref="C330" r:id="rId284" xr:uid="{95C6B35D-712A-2343-B790-236B55C5EC49}"/>
+    <hyperlink ref="C331" r:id="rId285" xr:uid="{4ED53872-1FE9-F140-AA35-F228F762880B}"/>
+    <hyperlink ref="C332" r:id="rId286" xr:uid="{6D5E6A28-85AA-BF4C-B2BD-9378D6E28EC7}"/>
+    <hyperlink ref="C333" r:id="rId287" xr:uid="{BCAD1ECB-15EE-CF49-878E-AA682DE3AC22}"/>
+    <hyperlink ref="C334" r:id="rId288" xr:uid="{C85468B5-25E9-E446-808E-72CFE911F0C2}"/>
+    <hyperlink ref="C335" r:id="rId289" xr:uid="{9503AECA-1A6A-9640-A04C-4CEAA2304448}"/>
+    <hyperlink ref="C336" r:id="rId290" xr:uid="{74211516-06B0-AA45-845B-52C8202751DA}"/>
+    <hyperlink ref="C337" r:id="rId291" xr:uid="{02C696BC-4B91-9444-900F-9CD68E409ABC}"/>
+    <hyperlink ref="C338" r:id="rId292" xr:uid="{04646C45-4118-374C-839D-94D31D534FAC}"/>
+    <hyperlink ref="C339" r:id="rId293" xr:uid="{F90BCCAE-8596-FC4D-BDD7-774392C596DF}"/>
+    <hyperlink ref="C340" r:id="rId294" xr:uid="{65230925-36EC-8A4B-8E46-6350B9BC0F95}"/>
+    <hyperlink ref="C341" r:id="rId295" xr:uid="{E91B8177-0C7A-1F40-BD34-4CC60F03B84F}"/>
+    <hyperlink ref="C342" r:id="rId296" xr:uid="{E8CBFD60-7335-0B4D-9FF5-99B4A8DC551D}"/>
+    <hyperlink ref="C343" r:id="rId297" xr:uid="{A35F55D4-9B87-C745-94DB-E7D820193C30}"/>
+    <hyperlink ref="C344" r:id="rId298" xr:uid="{6461A29F-D404-334F-B13F-296B4CA5E8A4}"/>
+    <hyperlink ref="C345" r:id="rId299" xr:uid="{FA9B4BE7-85CC-B24F-9461-5E9B42DDD824}"/>
+    <hyperlink ref="C346" r:id="rId300" xr:uid="{A75ACEA2-CDF6-A147-8540-A6DF55B15F45}"/>
+    <hyperlink ref="C347" r:id="rId301" xr:uid="{62FF87E2-E658-AB4D-AC57-7BCF9D49516E}"/>
+    <hyperlink ref="C348" r:id="rId302" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." xr:uid="{269338A6-5145-6944-9F7F-BD2A86DFA308}"/>
+    <hyperlink ref="C349" r:id="rId303" xr:uid="{8F583049-CE8D-CD42-88CD-CF3857942670}"/>
+    <hyperlink ref="C350" r:id="rId304" xr:uid="{EE2348AD-E296-894A-B5AE-5884A3C5E419}"/>
+    <hyperlink ref="C351" r:id="rId305" xr:uid="{6EACB34E-B32E-8F43-8055-2406F7417A7E}"/>
+    <hyperlink ref="C352" r:id="rId306" xr:uid="{2446F10A-B762-B64C-97B2-6131A0BECC1F}"/>
+    <hyperlink ref="C353" r:id="rId307" xr:uid="{6FDFCC53-17A6-7244-88A7-49406D7C9200}"/>
+    <hyperlink ref="C354" r:id="rId308" xr:uid="{3EC43646-EAB1-E443-A2F6-8E6E5FC77083}"/>
+    <hyperlink ref="C355" r:id="rId309" xr:uid="{659D9F20-C862-C947-B422-84143CFE317F}"/>
+    <hyperlink ref="C356" r:id="rId310" xr:uid="{3F5192FE-1C50-C049-88D5-68FA0F5430A0}"/>
+    <hyperlink ref="C357" r:id="rId311" xr:uid="{5EAD7CDA-9545-454B-BE77-9AFEC6AC1083}"/>
+    <hyperlink ref="C358" r:id="rId312" xr:uid="{761E5451-736B-6745-9CF5-4C6EF5D4C099}"/>
+    <hyperlink ref="C359" r:id="rId313" xr:uid="{4C8677A9-D94C-134F-AF31-E424751BF867}"/>
+    <hyperlink ref="C360" r:id="rId314" xr:uid="{CCF7920F-D5CE-004A-86C3-D821FB230970}"/>
+    <hyperlink ref="C361" r:id="rId315" xr:uid="{B4C07A0A-1EDD-7947-9646-3FD603441AD7}"/>
+    <hyperlink ref="C362" r:id="rId316" xr:uid="{49F7BB43-6851-0641-9DC5-27DBC66706F6}"/>
+    <hyperlink ref="C363" r:id="rId317" xr:uid="{77038647-48C7-5547-8E0F-898610362465}"/>
+    <hyperlink ref="C365" r:id="rId318" xr:uid="{EEFFE19C-6571-C64F-A0E1-5A4A700D94D4}"/>
+    <hyperlink ref="C364" r:id="rId319" xr:uid="{A4A2BFC4-6B88-2E4E-B362-17D8EE041C89}"/>
+    <hyperlink ref="C366" r:id="rId320" xr:uid="{DC5B603A-8D65-3648-A08A-E5FFA0FAE879}"/>
+    <hyperlink ref="C367" r:id="rId321" xr:uid="{F8807DD9-F4F2-B147-9C31-DBC93B2E477B}"/>
+    <hyperlink ref="C368" r:id="rId322" xr:uid="{6F7B396C-D7E9-C04E-BAE2-53D2EE07172B}"/>
+    <hyperlink ref="C488" r:id="rId323" xr:uid="{0D4A5941-C669-4A49-BAE3-9B553D03BD0F}"/>
+    <hyperlink ref="C489" r:id="rId324" xr:uid="{54144336-5BCA-D749-962A-E448C2CED3D3}"/>
+    <hyperlink ref="C490" r:id="rId325" xr:uid="{3A41DD21-CACF-1F48-A7C7-F568C6F31F3E}"/>
+    <hyperlink ref="C491" r:id="rId326" xr:uid="{A36160A8-F45E-3443-9645-42C1004B8F8C}"/>
+    <hyperlink ref="C492" r:id="rId327" xr:uid="{8B0A00A3-6AC0-DF46-AD87-A4DA016A2A00}"/>
+    <hyperlink ref="C493" r:id="rId328" xr:uid="{62A81CB4-A961-C543-B31C-92059DB6C105}"/>
+    <hyperlink ref="C427" r:id="rId329" xr:uid="{08030975-009C-C34A-A875-72FE2718F44C}"/>
+    <hyperlink ref="C428" r:id="rId330" xr:uid="{A113C7A9-2359-B643-9C08-E845813439C0}"/>
+    <hyperlink ref="C429" r:id="rId331" xr:uid="{FE300343-4633-AD47-A64D-2086629EB398}"/>
+    <hyperlink ref="C430" r:id="rId332" xr:uid="{4FC9F782-D38F-C642-A863-887B17AD05CD}"/>
+    <hyperlink ref="C431" r:id="rId333" xr:uid="{830C5466-10E3-7A48-B3E7-35C15A1CA4EF}"/>
+    <hyperlink ref="C432" r:id="rId334" xr:uid="{1B987077-E9D3-6F40-89EE-0D4E7180D884}"/>
+    <hyperlink ref="C433" r:id="rId335" xr:uid="{D4843E1F-7226-864E-A4BB-264D5A487B6D}"/>
+    <hyperlink ref="C434" r:id="rId336" xr:uid="{61816592-2D19-9946-8253-47A60218F2EA}"/>
+    <hyperlink ref="C435" r:id="rId337" xr:uid="{736C840F-19A3-0A4B-8863-ECB772B46385}"/>
+    <hyperlink ref="C436" r:id="rId338" xr:uid="{05A238AD-3C5B-C546-94E9-75BBF964711A}"/>
+    <hyperlink ref="C437" r:id="rId339" xr:uid="{7029629C-3F2A-4A49-997B-CFE86EC8B3C2}"/>
+    <hyperlink ref="C438" r:id="rId340" xr:uid="{ADA66B57-2FAC-AB42-BD83-4931708F3AB5}"/>
+    <hyperlink ref="C439" r:id="rId341" xr:uid="{F16BF1F9-755B-B045-B9A8-0B97E3BAC8B0}"/>
+    <hyperlink ref="C440" r:id="rId342" xr:uid="{ECCE930A-B960-234C-81EC-4B8514282AE9}"/>
+    <hyperlink ref="C441" r:id="rId343" xr:uid="{7AA58141-7D24-7C42-A0C1-F852B21CFFD9}"/>
+    <hyperlink ref="C442" r:id="rId344" xr:uid="{B1FCB47D-7921-3446-B2C7-72CBA815D056}"/>
+    <hyperlink ref="C443" r:id="rId345" xr:uid="{8C547719-AA03-3543-B31F-7300674AF4C5}"/>
+    <hyperlink ref="C444" r:id="rId346" xr:uid="{09922668-AFC0-F242-860E-9967E0F0FEF4}"/>
+    <hyperlink ref="C445" r:id="rId347" xr:uid="{0DA963DA-238B-D44E-9E03-6E6BD933B35E}"/>
+    <hyperlink ref="C446" r:id="rId348" xr:uid="{89518AFF-2526-C845-BC9D-95FE77AF416E}"/>
+    <hyperlink ref="C447" r:id="rId349" xr:uid="{FAECBBBE-196C-7A41-A0FB-E0597CB2CF51}"/>
+    <hyperlink ref="C448" r:id="rId350" xr:uid="{8126B039-0B25-B040-A0F6-C3457341A2E9}"/>
+    <hyperlink ref="C449" r:id="rId351" xr:uid="{6CB326E6-E698-EB42-884B-C89FFA33E3BA}"/>
+    <hyperlink ref="C450" r:id="rId352" xr:uid="{8C97EFD1-933F-A44F-A1CF-6386233104A2}"/>
+    <hyperlink ref="C451" r:id="rId353" xr:uid="{8F019F07-8532-E147-8BE1-4EBE833F61CA}"/>
+    <hyperlink ref="C452" r:id="rId354" xr:uid="{00F1A08F-3767-784A-97A3-4603DE38BACC}"/>
+    <hyperlink ref="C453" r:id="rId355" xr:uid="{2A84ADCB-071F-9A48-994D-7A838307EFD8}"/>
+    <hyperlink ref="C454" r:id="rId356" xr:uid="{132F8C6D-D5E8-6440-AC4E-B81EA2100416}"/>
+    <hyperlink ref="C455" r:id="rId357" xr:uid="{2DA6EAC2-1A1D-754F-9613-226CBC7890AF}"/>
+    <hyperlink ref="C456" r:id="rId358" xr:uid="{05BED99A-4562-D14E-8627-D07CF5335A9B}"/>
+    <hyperlink ref="C457" r:id="rId359" xr:uid="{111D902A-3F60-2D4B-89D3-5BCBD8AA38DD}"/>
+    <hyperlink ref="C458" r:id="rId360" xr:uid="{F19236BE-AC32-3542-9214-DFC3BAE04ED0}"/>
+    <hyperlink ref="C459" r:id="rId361" xr:uid="{4D97CD96-EA1B-664E-9380-EFD27077D273}"/>
+    <hyperlink ref="C460" r:id="rId362" xr:uid="{49A46D91-633F-A148-ACFA-49B7D1AA4B33}"/>
+    <hyperlink ref="C461" r:id="rId363" xr:uid="{7C3B7901-67E3-EA4D-BC64-21A78BC03AC6}"/>
+    <hyperlink ref="C462" r:id="rId364" xr:uid="{B27CA8C3-D34F-5E4D-94A5-11D14AFD0F82}"/>
+    <hyperlink ref="C463" r:id="rId365" xr:uid="{8FECE038-9764-5E4A-8C6E-9B3209812651}"/>
+    <hyperlink ref="C464" r:id="rId366" xr:uid="{95696D4B-89CB-5640-BE92-53B3C043F7EB}"/>
+    <hyperlink ref="C465" r:id="rId367" xr:uid="{DA74B737-802A-4944-A93E-0B9C8417630B}"/>
+    <hyperlink ref="C466" r:id="rId368" xr:uid="{B2C4C168-50FA-AF41-8F56-9E70613CF17D}"/>
+    <hyperlink ref="C468" r:id="rId369" xr:uid="{B7090C60-AC27-3F4F-8F0D-42F0791928C6}"/>
+    <hyperlink ref="C467" r:id="rId370" xr:uid="{07400041-66C6-514B-B3E3-427F2947C2B7}"/>
+    <hyperlink ref="C469" r:id="rId371" xr:uid="{B7E78172-8FB8-4E42-87D8-6A4654D79C62}"/>
+    <hyperlink ref="C470" r:id="rId372" xr:uid="{9A5D4670-BC64-334A-88CF-6F8287692C5E}"/>
+    <hyperlink ref="C471" r:id="rId373" xr:uid="{604283B6-53BC-044F-8D9D-E6094E798317}"/>
+    <hyperlink ref="C472" r:id="rId374" xr:uid="{5EB15AC7-3E0E-E44C-A5B9-32F30F234B5A}"/>
+    <hyperlink ref="C473" r:id="rId375" xr:uid="{3076BD5F-4B23-4146-A50A-499C9FF4C3D2}"/>
+    <hyperlink ref="C474" r:id="rId376" xr:uid="{6A29D9C2-1E78-1B43-A251-0AB0A97FA70E}"/>
+    <hyperlink ref="C475" r:id="rId377" xr:uid="{00597D5E-D693-DF4E-84C0-47E58A6ACA8F}"/>
+    <hyperlink ref="C476" r:id="rId378" xr:uid="{48640988-9964-0B4C-A014-83E2CEB3D632}"/>
+    <hyperlink ref="C477" r:id="rId379" xr:uid="{617AADC9-7534-FE45-96B0-EF4C1867B793}"/>
+    <hyperlink ref="C478" r:id="rId380" xr:uid="{7F8CDAA4-5094-8E4E-961B-41CDE5ACC0C0}"/>
+    <hyperlink ref="C479" r:id="rId381" xr:uid="{63F28ABD-12CF-5947-80DA-229E3CA3133E}"/>
+    <hyperlink ref="C486" r:id="rId382" xr:uid="{0A1DB92C-3315-1942-B27D-4B90986A6D9D}"/>
+    <hyperlink ref="C485" r:id="rId383" xr:uid="{11738B67-CADD-5D45-8417-8BE7A03FC79F}"/>
+    <hyperlink ref="C484" r:id="rId384" xr:uid="{B2B23748-D9E4-BE4F-A93E-49ECB4063831}"/>
+    <hyperlink ref="C483" r:id="rId385" xr:uid="{A2FB8A72-37B9-7E4A-B050-FD6CD20BCE73}"/>
+    <hyperlink ref="C482" r:id="rId386" xr:uid="{5A93C9AF-BFEB-EB40-95AC-C309ED09A604}"/>
+    <hyperlink ref="C481" r:id="rId387" xr:uid="{CC203923-2DC2-874B-B846-A8455E3CC2F2}"/>
+    <hyperlink ref="C480" r:id="rId388" xr:uid="{FCB0246E-0179-B447-B3CE-C60CDB388472}"/>
+    <hyperlink ref="C62" r:id="rId389" xr:uid="{F06CEE72-8CA4-C547-862C-39B86CD3226A}"/>
+    <hyperlink ref="C63" r:id="rId390" xr:uid="{CB3045F2-8D63-0F4E-85BC-AF016DB4F247}"/>
+    <hyperlink ref="C64" r:id="rId391" xr:uid="{667D57F5-E5AD-674F-A2F5-AFF4A14E4026}"/>
+    <hyperlink ref="C65" r:id="rId392" xr:uid="{27A13A65-56CE-BF4D-BA0D-EB87D910272D}"/>
+    <hyperlink ref="C66" r:id="rId393" xr:uid="{2C72A52E-6F06-0246-AEB5-93CD0DEA8866}"/>
+    <hyperlink ref="C67" r:id="rId394" xr:uid="{24B29046-B4DD-674B-9EDF-6C94BEC3FDD8}"/>
+    <hyperlink ref="C68" r:id="rId395" xr:uid="{D018EBC3-3FB3-AC4D-9D64-D218345A46C8}"/>
+    <hyperlink ref="C71" r:id="rId396" xr:uid="{1E1D3964-01E0-3145-ACFE-B6A5BF0EECB0}"/>
+    <hyperlink ref="C69" r:id="rId397" xr:uid="{FA0E5061-A7E2-C045-9671-1CD9446D1932}"/>
+    <hyperlink ref="C70" r:id="rId398" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{92704F5B-7B31-2F42-80DD-764B2206D9DB}"/>
+    <hyperlink ref="C325" r:id="rId399" xr:uid="{A48B1A24-83B1-7A4C-8129-CD37804DF849}"/>
+    <hyperlink ref="C121" r:id="rId400" xr:uid="{F0DDC999-C321-4AB4-BA9D-7538150E84D3}"/>
+    <hyperlink ref="C9" r:id="rId401" xr:uid="{310D755F-0FAF-4086-8950-B58917F7CAF8}"/>
+    <hyperlink ref="C8" r:id="rId402" xr:uid="{6913685B-862A-49D7-AB28-593B13669931}"/>
+    <hyperlink ref="C10" r:id="rId403" xr:uid="{E2555AFC-8C22-4A69-A028-B6C7E7796509}"/>
+    <hyperlink ref="C11" r:id="rId404" display="Wrute a Program to Find trailing Number of Zeros in Factorial of a Number" xr:uid="{4399CE2A-7FD8-4B12-B4C8-C7E9B23BBC9F}"/>
+    <hyperlink ref="C13" r:id="rId405" xr:uid="{6EFA894A-D33E-4C0B-BE93-0E75656CC712}"/>
+    <hyperlink ref="C14" r:id="rId406" xr:uid="{10515421-DC78-49D9-8A73-CC3D6D10A7C9}"/>
+    <hyperlink ref="C15" r:id="rId407" xr:uid="{C5C55CCE-6CD7-4A50-85E4-47BB53BE165C}"/>
+    <hyperlink ref="C16" r:id="rId408" xr:uid="{14814E78-7861-4C6A-81CF-8953C1484276}"/>
+    <hyperlink ref="C17" r:id="rId409" xr:uid="{87943FC1-A069-4989-8B78-B463D290AF94}"/>
+    <hyperlink ref="C18" r:id="rId410" xr:uid="{D825528B-18AF-463A-AA31-760F76F78A15}"/>
+    <hyperlink ref="C12" r:id="rId411" xr:uid="{027E7E1D-0C53-4A77-9662-F495CEC3BAC4}"/>
+    <hyperlink ref="C19" r:id="rId412" xr:uid="{B7A6DAE3-6E86-4612-A1FF-539F5C6D3E1D}"/>
+    <hyperlink ref="C120" r:id="rId413" xr:uid="{5221452B-37E3-4315-91B2-6A38CEBB1898}"/>
+    <hyperlink ref="C24" r:id="rId414" xr:uid="{7C6054B7-B807-4475-B490-126A9686EBA2}"/>
+    <hyperlink ref="C25" r:id="rId415" xr:uid="{93FD35D8-7CCD-456F-8688-AE16CCDD3523}"/>
+    <hyperlink ref="C26" r:id="rId416" xr:uid="{F4AF07B8-F8B8-4F27-8CE4-D2E7B73B36A2}"/>
+    <hyperlink ref="C34" r:id="rId417" xr:uid="{1895A946-81DF-437C-A537-65287B4088B6}"/>
+    <hyperlink ref="C160" r:id="rId418" xr:uid="{C8C607BB-1FEE-FA47-9E3E-6C0BCE978B7F}"/>
+    <hyperlink ref="C159" r:id="rId419" xr:uid="{2D956AC4-4774-7446-8473-C4CE00E33C17}"/>
+    <hyperlink ref="C158" r:id="rId420" xr:uid="{ED0F5FC7-0066-EB44-8FCF-460600DADB02}"/>
+    <hyperlink ref="C157" r:id="rId421" xr:uid="{A3D51762-65A1-9A44-B619-D1D98A7F403B}"/>
+    <hyperlink ref="C156" r:id="rId422" xr:uid="{8E3D4BDF-9F8F-0542-BFD8-C3CE3BF396E6}"/>
+    <hyperlink ref="C155" r:id="rId423" xr:uid="{62982242-1D19-1544-8653-8E25E9BF4505}"/>
+    <hyperlink ref="C154" r:id="rId424" xr:uid="{78B76678-D8EE-9745-98B1-DF7A76EA3B10}"/>
+    <hyperlink ref="C153" r:id="rId425" xr:uid="{4A0E959E-22F4-6948-A819-76FE76AB9F6D}"/>
+    <hyperlink ref="C152" r:id="rId426" xr:uid="{789FFFAC-8B7E-0540-98B8-856430EB56F8}"/>
+    <hyperlink ref="C151" r:id="rId427" xr:uid="{B21B87F1-A0C0-7F4E-B36F-912B871D0EF4}"/>
+    <hyperlink ref="C150" r:id="rId428" xr:uid="{AC63A963-B6CC-6E4E-B72A-7F472BC4C027}"/>
+    <hyperlink ref="C149" r:id="rId429" xr:uid="{8440D753-5DE9-3243-97C2-C09D195C325F}"/>
+    <hyperlink ref="C148" r:id="rId430" xr:uid="{16B2725E-1AD5-0441-9B5B-B6B2F458091B}"/>
+    <hyperlink ref="C147" r:id="rId431" xr:uid="{F60808FC-F09D-FC44-B2DD-752E55A1C698}"/>
+    <hyperlink ref="C146" r:id="rId432" xr:uid="{85886847-1510-AA46-B10C-F3D80591DD74}"/>
+    <hyperlink ref="C145" r:id="rId433" xr:uid="{E199A3DC-3DA1-C648-93C0-DF9CD5331204}"/>
+    <hyperlink ref="C144" r:id="rId434" xr:uid="{09409FE3-9D7E-4F43-BB21-14A1B8D6E480}"/>
+    <hyperlink ref="C143" r:id="rId435" xr:uid="{58E70966-BBE0-7743-A250-AE4DD57807DE}"/>
+    <hyperlink ref="C142" r:id="rId436" xr:uid="{00F71118-E30B-A84E-819E-FFA902C70502}"/>
+    <hyperlink ref="C141" r:id="rId437" xr:uid="{19461114-B3E8-9042-8029-100010946A04}"/>
+    <hyperlink ref="C140" r:id="rId438" xr:uid="{FF9CBAFB-900E-E242-8B33-EDF46F0F40B5}"/>
+    <hyperlink ref="C139" r:id="rId439" xr:uid="{70BED156-B004-E043-BF7D-59EFAA9EADAF}"/>
+    <hyperlink ref="C138" r:id="rId440" xr:uid="{1DFECD6C-D7CC-0340-B29B-4D56E50711E5}"/>
+    <hyperlink ref="C137" r:id="rId441" xr:uid="{BEE1F613-C189-B949-A225-0E0C5AFD1532}"/>
+    <hyperlink ref="C136" r:id="rId442" xr:uid="{13025DF6-C30E-014A-B66C-68C4AAAC1C6E}"/>
+    <hyperlink ref="C135" r:id="rId443" xr:uid="{05489F52-CC92-EC44-9AD3-773DEC3B1D36}"/>
+    <hyperlink ref="C134" r:id="rId444" xr:uid="{927AE532-647F-AF4C-A567-40ADA6FCE534}"/>
+    <hyperlink ref="C133" r:id="rId445" xr:uid="{8301BDBD-EB7E-7D41-A777-ED99C3F9D67D}"/>
+    <hyperlink ref="C132" r:id="rId446" xr:uid="{E4DEFB4B-749F-8746-97C7-F2B433664A74}"/>
+    <hyperlink ref="C131" r:id="rId447" xr:uid="{8E0BFA2E-CCB4-514F-86CD-78176C6CC98A}"/>
+    <hyperlink ref="C130" r:id="rId448" xr:uid="{47F1BB0C-0C5C-0845-8EEC-1560C50D7DA7}"/>
+    <hyperlink ref="C129" r:id="rId449" xr:uid="{265DCD11-17A0-654E-BEFE-FABA31210C6E}"/>
+    <hyperlink ref="C128" r:id="rId450" xr:uid="{B2DE2D9E-8371-CD44-9D0D-4D6DC64AC29B}"/>
+    <hyperlink ref="C126" r:id="rId451" xr:uid="{2A738B70-CBF0-CC40-8B05-A271822B3F1A}"/>
+    <hyperlink ref="C125" r:id="rId452" xr:uid="{7630AD76-7E6B-8C4A-BA33-A62EBB042215}"/>
+    <hyperlink ref="C124" r:id="rId453" xr:uid="{FE85FD72-4FC9-334E-8205-9E8B238954EB}"/>
+    <hyperlink ref="C82" r:id="rId454" xr:uid="{FDE181B1-57B0-7C4B-A189-C7C6E4EAEF99}"/>
+    <hyperlink ref="C81" r:id="rId455" xr:uid="{E8C1FE00-7B4B-5745-8E4B-CD44B6C749E3}"/>
+    <hyperlink ref="C80" r:id="rId456" xr:uid="{7733D505-2EC7-E346-B3DA-C980C7CE0B27}"/>
+    <hyperlink ref="C79" r:id="rId457" xr:uid="{40685BBC-CE24-624E-9ABB-98490B7DE0E4}"/>
+    <hyperlink ref="C78" r:id="rId458" xr:uid="{F9B53127-FC98-FE43-B53F-BFDBCE2A4427}"/>
+    <hyperlink ref="C77" r:id="rId459" xr:uid="{353E28FA-E36D-7447-9DE8-787DF11C4669}"/>
+    <hyperlink ref="C76" r:id="rId460" xr:uid="{FFF7D257-1F58-5A4B-AAA2-F5480AED86C7}"/>
+    <hyperlink ref="C75" r:id="rId461" xr:uid="{3F82F2E0-AA59-5042-B079-F3B3C6FF2FD7}"/>
+    <hyperlink ref="C74" r:id="rId462" xr:uid="{0A0557FD-77E5-564B-B100-147D544A38B4}"/>
+    <hyperlink ref="C73" r:id="rId463" xr:uid="{090EC515-BEBE-514E-BA59-A84E450B4211}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId464"/>

--- a/DSA Sheet.xlsx
+++ b/DSA Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Java\Java-DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B735BA9A-2AAD-4054-AEFB-6F24F5D51C16}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EADEF08-641B-4FCA-8645-D9DDF40692E1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22140" windowHeight="13176" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1456" uniqueCount="523">
   <si>
     <t>Topic:</t>
   </si>
@@ -1579,6 +1579,21 @@
   </si>
   <si>
     <t>Important</t>
+  </si>
+  <si>
+    <t>Good Question</t>
+  </si>
+  <si>
+    <t>PARTIALLY YES</t>
+  </si>
+  <si>
+    <t>I leave out the portion where we need to preserve the original order</t>
+  </si>
+  <si>
+    <t>Link To Answer</t>
+  </si>
+  <si>
+    <t>Simple Question</t>
   </si>
 </sst>
 </file>
@@ -1658,7 +1673,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1677,6 +1692,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1691,7 +1712,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1727,6 +1748,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2052,8 +2076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:F503"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A385" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="E427" sqref="E427"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
@@ -2341,6 +2365,9 @@
       <c r="D22" s="3" t="s">
         <v>465</v>
       </c>
+      <c r="E22" s="3" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23" s="9" t="s">
@@ -2355,6 +2382,9 @@
       <c r="D23" s="3" t="s">
         <v>465</v>
       </c>
+      <c r="E23" s="3" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24" s="9" t="s">
@@ -2369,6 +2399,9 @@
       <c r="D24" s="3" t="s">
         <v>465</v>
       </c>
+      <c r="E24" s="3" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25" s="9" t="s">
@@ -2383,6 +2416,12 @@
       <c r="D25" s="3" t="s">
         <v>465</v>
       </c>
+      <c r="E25" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>518</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26" s="9" t="s">
@@ -2397,6 +2436,12 @@
       <c r="D26" s="3" t="s">
         <v>465</v>
       </c>
+      <c r="E26" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>518</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27" s="9" t="s">
@@ -2408,8 +2453,14 @@
       <c r="C27" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="14" t="s">
-        <v>514</v>
+      <c r="D27" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.4">
@@ -2422,8 +2473,11 @@
       <c r="C28" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="3" t="s">
-        <v>465</v>
+      <c r="D28" s="15" t="s">
+        <v>519</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.4">
@@ -2436,8 +2490,11 @@
       <c r="C29" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D29" s="14" t="s">
-        <v>514</v>
+      <c r="D29" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.4">
@@ -2452,6 +2509,12 @@
       </c>
       <c r="D30" s="3" t="s">
         <v>465</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.4">
@@ -8362,8 +8425,9 @@
     <hyperlink ref="C75" r:id="rId461" xr:uid="{3F82F2E0-AA59-5042-B079-F3B3C6FF2FD7}"/>
     <hyperlink ref="C74" r:id="rId462" xr:uid="{0A0557FD-77E5-564B-B100-147D544A38B4}"/>
     <hyperlink ref="C73" r:id="rId463" xr:uid="{090EC515-BEBE-514E-BA59-A84E450B4211}"/>
+    <hyperlink ref="F29" r:id="rId464" xr:uid="{03443138-A680-4B72-A76F-ED2F3C418FFF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId464"/>
+  <pageSetup orientation="portrait" r:id="rId465"/>
 </worksheet>
 </file>
--- a/DSA Sheet.xlsx
+++ b/DSA Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Java\Java-DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EADEF08-641B-4FCA-8645-D9DDF40692E1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC949CD-96A5-445B-8260-F4D56A4DB1E5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22140" windowHeight="13176" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1456" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1468" uniqueCount="527">
   <si>
     <t>Topic:</t>
   </si>
@@ -1572,9 +1572,6 @@
     <t>NO</t>
   </si>
   <si>
-    <t>FOE1ARR</t>
-  </si>
-  <si>
     <t>Frequency of all elements in an sorted array</t>
   </si>
   <si>
@@ -1587,13 +1584,28 @@
     <t>PARTIALLY YES</t>
   </si>
   <si>
-    <t>I leave out the portion where we need to preserve the original order</t>
-  </si>
-  <si>
     <t>Link To Answer</t>
   </si>
   <si>
     <t>Simple Question</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It's usage is Kadan's Algorithm </t>
+  </si>
+  <si>
+    <t>Vey Important</t>
+  </si>
+  <si>
+    <t>Answer Link</t>
+  </si>
+  <si>
+    <t>Very Important</t>
+  </si>
+  <si>
+    <t>I left out that portion where we need to preserve the original order</t>
+  </si>
+  <si>
+    <t>KD1ARR</t>
   </si>
 </sst>
 </file>
@@ -2074,10 +2086,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
-  <dimension ref="A1:F503"/>
+  <dimension ref="A1:H503"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
@@ -2298,7 +2310,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" s="8" t="s">
         <v>466</v>
       </c>
@@ -2312,7 +2324,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" s="8" t="s">
         <v>466</v>
       </c>
@@ -2326,7 +2338,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" s="8" t="s">
         <v>466</v>
       </c>
@@ -2343,16 +2355,16 @@
         <v>499</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" s="12"/>
       <c r="B20" s="1"/>
       <c r="C20" s="4"/>
       <c r="D20" s="13"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="D21" s="7"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22" s="9" t="s">
         <v>4</v>
       </c>
@@ -2369,7 +2381,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23" s="9" t="s">
         <v>4</v>
       </c>
@@ -2386,7 +2398,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24" s="9" t="s">
         <v>4</v>
       </c>
@@ -2403,7 +2415,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25" s="9" t="s">
         <v>4</v>
       </c>
@@ -2420,10 +2432,10 @@
         <v>465</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26" s="9" t="s">
         <v>4</v>
       </c>
@@ -2440,10 +2452,10 @@
         <v>465</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A27" s="9" t="s">
         <v>4</v>
       </c>
@@ -2460,10 +2472,10 @@
         <v>465</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A28" s="9" t="s">
         <v>4</v>
       </c>
@@ -2474,13 +2486,16 @@
         <v>9</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>519</v>
+        <v>518</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>514</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A29" s="9" t="s">
         <v>4</v>
       </c>
@@ -2493,11 +2508,17 @@
       <c r="D29" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="F29" s="10" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E29" s="14" t="s">
+        <v>514</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A30" s="9" t="s">
         <v>4</v>
       </c>
@@ -2514,10 +2535,10 @@
         <v>465</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A31" s="9" t="s">
         <v>4</v>
       </c>
@@ -2528,8 +2549,11 @@
       <c r="D31" s="14" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F31" s="5" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A32" s="9" t="s">
         <v>4</v>
       </c>
@@ -2540,8 +2564,14 @@
       <c r="D32" s="14" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F32" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A33" s="9" t="s">
         <v>4</v>
       </c>
@@ -2552,22 +2582,26 @@
       <c r="D33" s="14" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F33" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A34" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="9"/>
+      <c r="C34" s="10" t="s">
         <v>515</v>
       </c>
-      <c r="C34" s="10" t="s">
-        <v>516</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D34" s="14" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A35" s="9" t="s">
         <v>4</v>
       </c>
@@ -2578,8 +2612,11 @@
       <c r="D35" s="14" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="H35" s="10" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A36" s="9" t="s">
         <v>4</v>
       </c>
@@ -2590,20 +2627,28 @@
       <c r="D36" s="14" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="H36" s="10" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A37" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B37" s="9"/>
+      <c r="B37" s="9" t="s">
+        <v>526</v>
+      </c>
       <c r="C37" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D37" s="14" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D37" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A38" s="9" t="s">
         <v>4</v>
       </c>
@@ -2615,7 +2660,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A39" s="9" t="s">
         <v>4</v>
       </c>
@@ -2627,7 +2672,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A40" s="9" t="s">
         <v>4</v>
       </c>
@@ -2639,7 +2684,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A41" s="9" t="s">
         <v>4</v>
       </c>
@@ -2651,10 +2696,10 @@
         <v>465</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A42" s="9" t="s">
         <v>4</v>
       </c>
@@ -2666,7 +2711,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A43" s="9" t="s">
         <v>4</v>
       </c>
@@ -2678,7 +2723,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A44" s="9" t="s">
         <v>4</v>
       </c>
@@ -2690,7 +2735,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A45" s="9" t="s">
         <v>4</v>
       </c>
@@ -2702,7 +2747,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A46" s="9" t="s">
         <v>4</v>
       </c>
@@ -2714,7 +2759,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A47" s="9" t="s">
         <v>4</v>
       </c>
@@ -2726,7 +2771,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A48" s="9" t="s">
         <v>4</v>
       </c>
@@ -3600,7 +3645,9 @@
       <c r="C122" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D122" s="13"/>
+      <c r="D122" s="12" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A123" s="9"/>
@@ -8425,9 +8472,13 @@
     <hyperlink ref="C75" r:id="rId461" xr:uid="{3F82F2E0-AA59-5042-B079-F3B3C6FF2FD7}"/>
     <hyperlink ref="C74" r:id="rId462" xr:uid="{0A0557FD-77E5-564B-B100-147D544A38B4}"/>
     <hyperlink ref="C73" r:id="rId463" xr:uid="{090EC515-BEBE-514E-BA59-A84E450B4211}"/>
-    <hyperlink ref="F29" r:id="rId464" xr:uid="{03443138-A680-4B72-A76F-ED2F3C418FFF}"/>
+    <hyperlink ref="H29" r:id="rId464" xr:uid="{03443138-A680-4B72-A76F-ED2F3C418FFF}"/>
+    <hyperlink ref="H32" r:id="rId465" xr:uid="{E2846214-1318-4E7F-B406-DB8B8C109F51}"/>
+    <hyperlink ref="H33" r:id="rId466" xr:uid="{654A45B7-1C43-48E0-B7BB-03647CB459F1}"/>
+    <hyperlink ref="H35" r:id="rId467" xr:uid="{BDF59F61-A334-4583-8D5C-080958A57655}"/>
+    <hyperlink ref="H36" r:id="rId468" xr:uid="{69563388-281D-4E78-9CB7-84F164525B40}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId465"/>
+  <pageSetup orientation="portrait" r:id="rId469"/>
 </worksheet>
 </file>
--- a/DSA Sheet.xlsx
+++ b/DSA Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Java\Java-DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC949CD-96A5-445B-8260-F4D56A4DB1E5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17EFC990-29DE-4B30-98C4-8C524FC47FD0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22140" windowHeight="13176" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1468" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1469" uniqueCount="528">
   <si>
     <t>Topic:</t>
   </si>
@@ -1606,6 +1606,9 @@
   </si>
   <si>
     <t>KD1ARR</t>
+  </si>
+  <si>
+    <t>M2SA1ARR</t>
   </si>
 </sst>
 </file>
@@ -2089,7 +2092,7 @@
   <dimension ref="A1:H503"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
@@ -2620,7 +2623,9 @@
       <c r="A36" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B36" s="9"/>
+      <c r="B36" s="9" t="s">
+        <v>527</v>
+      </c>
       <c r="C36" s="10" t="s">
         <v>16</v>
       </c>

--- a/DSA Sheet.xlsx
+++ b/DSA Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Java\Java-DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17EFC990-29DE-4B30-98C4-8C524FC47FD0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{216AA6A2-5BB1-40B7-BA2F-F816E0CA9D1F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22140" windowHeight="13176" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1469" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1489" uniqueCount="534">
   <si>
     <t>Topic:</t>
   </si>
@@ -1609,13 +1609,31 @@
   </si>
   <si>
     <t>M2SA1ARR</t>
+  </si>
+  <si>
+    <t>Most Important</t>
+  </si>
+  <si>
+    <t>DIA1ARR</t>
+  </si>
+  <si>
+    <t>EASY</t>
+  </si>
+  <si>
+    <t>MEDUIM</t>
+  </si>
+  <si>
+    <t>HARD</t>
+  </si>
+  <si>
+    <t>🗸</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1687,8 +1705,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF002060"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1703,13 +1729,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor rgb="FF33CC33"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF003300"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD60093"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB16BB5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF990099"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF33CCFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1727,7 +1783,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1762,10 +1818,37 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1777,8 +1860,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FFBE5D42"/>
-      <color rgb="FF3F6940"/>
+      <color rgb="FF3366CC"/>
+      <color rgb="FF33CCFF"/>
+      <color rgb="FFFF99FF"/>
+      <color rgb="FF990099"/>
+      <color rgb="FFB16BB5"/>
+      <color rgb="FFCCFF33"/>
+      <color rgb="FFFFFF00"/>
+      <color rgb="FFCC3300"/>
+      <color rgb="FFD60093"/>
+      <color rgb="FFFF6600"/>
     </mruColors>
   </colors>
   <extLst>
@@ -2089,10 +2180,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
-  <dimension ref="A1:H503"/>
+  <dimension ref="A1:K503"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
@@ -2101,36 +2192,36 @@
     <col min="2" max="2" width="20.69921875" style="5" customWidth="1"/>
     <col min="3" max="3" width="109.8984375" style="5" customWidth="1"/>
     <col min="4" max="4" width="19.8984375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="16.59765625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="16.5" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="11.19921875" style="5"/>
+    <col min="5" max="8" width="16.59765625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="16.5" style="5" customWidth="1"/>
+    <col min="10" max="16384" width="11.19921875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C1" s="12" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C2" s="12" t="s">
         <v>494</v>
       </c>
       <c r="D2" s="7"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C3" s="12" t="s">
         <v>495</v>
       </c>
       <c r="D3" s="7"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="1"/>
       <c r="D4" s="7"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -2146,18 +2237,27 @@
       <c r="E6" s="12" t="s">
         <v>492</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="12" t="s">
+        <v>530</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>531</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>532</v>
+      </c>
+      <c r="I6" s="5" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="2"/>
-      <c r="F7" s="11"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="I7" s="11"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" s="7" t="s">
         <v>466</v>
       </c>
@@ -2167,14 +2267,19 @@
       <c r="C8" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="16" t="s">
         <v>465</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="17" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F8" s="14" t="s">
+        <v>533</v>
+      </c>
+      <c r="G8" s="20"/>
+      <c r="H8" s="21"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" s="7" t="s">
         <v>466</v>
       </c>
@@ -2184,14 +2289,17 @@
       <c r="C9" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="16" t="s">
         <v>465</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="17" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F9" s="22"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="21"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" s="7" t="s">
         <v>466</v>
       </c>
@@ -2201,14 +2309,17 @@
       <c r="C10" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="16" t="s">
         <v>465</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="17" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F10" s="22"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="21"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="7" t="s">
         <v>466</v>
       </c>
@@ -2218,14 +2329,17 @@
       <c r="C11" s="4" t="s">
         <v>474</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="16" t="s">
         <v>465</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="17" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F11" s="22"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="21"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="8" t="s">
         <v>466</v>
       </c>
@@ -2235,14 +2349,17 @@
       <c r="C12" s="4" t="s">
         <v>483</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="16" t="s">
         <v>465</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="17" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F12" s="22"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="21"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="7" t="s">
         <v>466</v>
       </c>
@@ -2252,14 +2369,17 @@
       <c r="C13" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="16" t="s">
         <v>465</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="17" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F13" s="22"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="21"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="7" t="s">
         <v>466</v>
       </c>
@@ -2269,17 +2389,20 @@
       <c r="C14" s="4" t="s">
         <v>477</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="16" t="s">
         <v>465</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="17" t="s">
         <v>465</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="22"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="5" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" s="7" t="s">
         <v>466</v>
       </c>
@@ -2289,14 +2412,17 @@
       <c r="C15" s="4" t="s">
         <v>479</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="16" t="s">
         <v>465</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="17" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F15" s="22"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="21"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="8" t="s">
         <v>466</v>
       </c>
@@ -2306,14 +2432,17 @@
       <c r="C16" s="4" t="s">
         <v>480</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="16" t="s">
         <v>465</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="17" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="F16" s="22"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="21"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A17" s="8" t="s">
         <v>466</v>
       </c>
@@ -2323,11 +2452,17 @@
       <c r="C17" s="4" t="s">
         <v>481</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="16" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="E17" s="17" t="s">
+        <v>465</v>
+      </c>
+      <c r="F17" s="22"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="21"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A18" s="8" t="s">
         <v>466</v>
       </c>
@@ -2337,11 +2472,17 @@
       <c r="C18" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="16" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="E18" s="17" t="s">
+        <v>465</v>
+      </c>
+      <c r="F18" s="22"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="21"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A19" s="8" t="s">
         <v>466</v>
       </c>
@@ -2351,23 +2492,35 @@
       <c r="C19" s="4" t="s">
         <v>485</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="16" t="s">
         <v>465</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="E19" s="17" t="s">
+        <v>465</v>
+      </c>
+      <c r="F19" s="22"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="5" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A20" s="12"/>
       <c r="B20" s="1"/>
       <c r="C20" s="4"/>
       <c r="D20" s="13"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="F20" s="22"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="21"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
       <c r="D21" s="7"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="F21" s="22"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="21"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A22" s="9" t="s">
         <v>4</v>
       </c>
@@ -2377,14 +2530,17 @@
       <c r="C22" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="16" t="s">
         <v>465</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="15" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="F22" s="22"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="21"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A23" s="9" t="s">
         <v>4</v>
       </c>
@@ -2394,14 +2550,17 @@
       <c r="C23" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="16" t="s">
         <v>465</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="15" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="F23" s="22"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="21"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A24" s="9" t="s">
         <v>4</v>
       </c>
@@ -2411,14 +2570,17 @@
       <c r="C24" s="10" t="s">
         <v>501</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="16" t="s">
         <v>465</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="15" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="F24" s="22"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="21"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A25" s="9" t="s">
         <v>4</v>
       </c>
@@ -2428,17 +2590,20 @@
       <c r="C25" s="10" t="s">
         <v>510</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="16" t="s">
         <v>465</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="15" t="s">
         <v>465</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="22"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="5" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A26" s="9" t="s">
         <v>4</v>
       </c>
@@ -2448,17 +2613,20 @@
       <c r="C26" s="10" t="s">
         <v>512</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="16" t="s">
         <v>465</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="15" t="s">
         <v>465</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F26" s="22"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="5" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A27" s="9" t="s">
         <v>4</v>
       </c>
@@ -2468,17 +2636,20 @@
       <c r="C27" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="16" t="s">
         <v>465</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="15" t="s">
         <v>465</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="22"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="5" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A28" s="9" t="s">
         <v>4</v>
       </c>
@@ -2488,17 +2659,20 @@
       <c r="C28" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="15" t="s">
+      <c r="D28" s="16" t="s">
         <v>518</v>
       </c>
-      <c r="E28" s="14" t="s">
+      <c r="E28" s="18" t="s">
         <v>514</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="F28" s="22"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="5" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A29" s="9" t="s">
         <v>4</v>
       </c>
@@ -2508,20 +2682,23 @@
       <c r="C29" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="16" t="s">
         <v>465</v>
       </c>
-      <c r="E29" s="14" t="s">
+      <c r="E29" s="18" t="s">
         <v>514</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="F29" s="22"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="5" t="s">
         <v>524</v>
       </c>
-      <c r="H29" s="10" t="s">
+      <c r="K29" s="10" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A30" s="9" t="s">
         <v>4</v>
       </c>
@@ -2531,17 +2708,20 @@
       <c r="C30" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="16" t="s">
         <v>465</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="15" t="s">
         <v>465</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="F30" s="22"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="5" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A31" s="9" t="s">
         <v>4</v>
       </c>
@@ -2549,14 +2729,20 @@
       <c r="C31" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D31" s="14" t="s">
+      <c r="D31" s="18" t="s">
         <v>514</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="E31" s="18" t="s">
+        <v>514</v>
+      </c>
+      <c r="F31" s="22"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="5" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A32" s="9" t="s">
         <v>4</v>
       </c>
@@ -2564,17 +2750,23 @@
       <c r="C32" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="14" t="s">
+      <c r="D32" s="18" t="s">
         <v>514</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="E32" s="18" t="s">
+        <v>514</v>
+      </c>
+      <c r="F32" s="22"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="H32" s="10" t="s">
+      <c r="K32" s="10" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A33" s="9" t="s">
         <v>4</v>
       </c>
@@ -2582,44 +2774,70 @@
       <c r="C33" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D33" s="14" t="s">
+      <c r="D33" s="18" t="s">
         <v>514</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="E33" s="18" t="s">
+        <v>514</v>
+      </c>
+      <c r="F33" s="22"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="H33" s="10" t="s">
+      <c r="K33" s="10" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A34" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B34" s="9"/>
+      <c r="B34" s="9" t="s">
+        <v>490</v>
+      </c>
       <c r="C34" s="10" t="s">
         <v>515</v>
       </c>
-      <c r="D34" s="14" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="D34" s="16" t="s">
+        <v>465</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>465</v>
+      </c>
+      <c r="F34" s="19" t="s">
+        <v>533</v>
+      </c>
+      <c r="G34" s="20"/>
+      <c r="H34" s="21"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A35" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B35" s="9"/>
+      <c r="B35" s="9" t="s">
+        <v>529</v>
+      </c>
       <c r="C35" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D35" s="14" t="s">
-        <v>514</v>
-      </c>
-      <c r="H35" s="10" t="s">
+      <c r="D35" s="16" t="s">
+        <v>465</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>465</v>
+      </c>
+      <c r="F35" s="22"/>
+      <c r="G35" s="23" t="s">
+        <v>533</v>
+      </c>
+      <c r="H35" s="21"/>
+      <c r="K35" s="10" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A36" s="9" t="s">
         <v>4</v>
       </c>
@@ -2629,14 +2847,25 @@
       <c r="C36" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D36" s="14" t="s">
-        <v>514</v>
-      </c>
-      <c r="H36" s="10" t="s">
+      <c r="D36" s="16" t="s">
+        <v>465</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>465</v>
+      </c>
+      <c r="F36" s="22"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="24" t="s">
+        <v>533</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="K36" s="10" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A37" s="9" t="s">
         <v>4</v>
       </c>
@@ -2646,14 +2875,19 @@
       <c r="C37" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" s="16" t="s">
         <v>465</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="E37" s="15" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="F37" s="22"/>
+      <c r="G37" s="23" t="s">
+        <v>533</v>
+      </c>
+      <c r="H37" s="21"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A38" s="9" t="s">
         <v>4</v>
       </c>
@@ -2661,11 +2895,14 @@
       <c r="C38" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D38" s="14" t="s">
+      <c r="D38" s="18" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="F38" s="22"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="21"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A39" s="9" t="s">
         <v>4</v>
       </c>
@@ -2673,11 +2910,14 @@
       <c r="C39" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D39" s="14" t="s">
+      <c r="D39" s="18" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="F39" s="22"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="21"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A40" s="9" t="s">
         <v>4</v>
       </c>
@@ -2685,11 +2925,14 @@
       <c r="C40" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D40" s="14" t="s">
+      <c r="D40" s="18" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="F40" s="22"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="21"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A41" s="9" t="s">
         <v>4</v>
       </c>
@@ -2697,14 +2940,17 @@
       <c r="C41" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" s="16" t="s">
         <v>465</v>
       </c>
-      <c r="F41" s="5" t="s">
+      <c r="F41" s="22"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="5" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A42" s="9" t="s">
         <v>4</v>
       </c>
@@ -2712,11 +2958,14 @@
       <c r="C42" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D42" s="14" t="s">
+      <c r="D42" s="18" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="F42" s="22"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="21"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A43" s="9" t="s">
         <v>4</v>
       </c>
@@ -2724,11 +2973,14 @@
       <c r="C43" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D43" s="14" t="s">
+      <c r="D43" s="18" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="F43" s="22"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="21"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A44" s="9" t="s">
         <v>4</v>
       </c>
@@ -2736,11 +2988,14 @@
       <c r="C44" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D44" s="14" t="s">
+      <c r="D44" s="18" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="F44" s="22"/>
+      <c r="G44" s="20"/>
+      <c r="H44" s="21"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A45" s="9" t="s">
         <v>4</v>
       </c>
@@ -2748,11 +3003,14 @@
       <c r="C45" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D45" s="14" t="s">
+      <c r="D45" s="18" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="F45" s="22"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="21"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A46" s="9" t="s">
         <v>4</v>
       </c>
@@ -2760,11 +3018,14 @@
       <c r="C46" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D46" s="16" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="F46" s="22"/>
+      <c r="G46" s="20"/>
+      <c r="H46" s="21"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A47" s="9" t="s">
         <v>4</v>
       </c>
@@ -2772,11 +3033,14 @@
       <c r="C47" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D47" s="14" t="s">
+      <c r="D47" s="18" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="F47" s="22"/>
+      <c r="G47" s="20"/>
+      <c r="H47" s="21"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A48" s="9" t="s">
         <v>4</v>
       </c>
@@ -2784,11 +3048,14 @@
       <c r="C48" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D48" s="14" t="s">
+      <c r="D48" s="18" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F48" s="22"/>
+      <c r="G48" s="20"/>
+      <c r="H48" s="21"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A49" s="9" t="s">
         <v>4</v>
       </c>
@@ -2796,11 +3063,14 @@
       <c r="C49" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D49" s="14" t="s">
+      <c r="D49" s="18" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F49" s="22"/>
+      <c r="G49" s="20"/>
+      <c r="H49" s="21"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A50" s="9" t="s">
         <v>4</v>
       </c>
@@ -2808,11 +3078,14 @@
       <c r="C50" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D50" s="14" t="s">
+      <c r="D50" s="18" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F50" s="22"/>
+      <c r="G50" s="20"/>
+      <c r="H50" s="21"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A51" s="9" t="s">
         <v>4</v>
       </c>
@@ -2820,11 +3093,14 @@
       <c r="C51" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D51" s="14" t="s">
+      <c r="D51" s="18" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F51" s="22"/>
+      <c r="G51" s="20"/>
+      <c r="H51" s="21"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A52" s="9" t="s">
         <v>4</v>
       </c>
@@ -2832,11 +3108,14 @@
       <c r="C52" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D52" s="14" t="s">
+      <c r="D52" s="18" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F52" s="22"/>
+      <c r="G52" s="20"/>
+      <c r="H52" s="21"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A53" s="9" t="s">
         <v>4</v>
       </c>
@@ -2847,8 +3126,11 @@
       <c r="D53" s="3" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F53" s="22"/>
+      <c r="G53" s="20"/>
+      <c r="H53" s="21"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A54" s="9" t="s">
         <v>4</v>
       </c>
@@ -2856,11 +3138,14 @@
       <c r="C54" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D54" s="14" t="s">
+      <c r="D54" s="18" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F54" s="22"/>
+      <c r="G54" s="20"/>
+      <c r="H54" s="21"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A55" s="9" t="s">
         <v>4</v>
       </c>
@@ -2868,11 +3153,14 @@
       <c r="C55" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D55" s="14" t="s">
+      <c r="D55" s="18" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F55" s="22"/>
+      <c r="G55" s="20"/>
+      <c r="H55" s="21"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A56" s="9" t="s">
         <v>4</v>
       </c>
@@ -2880,11 +3168,14 @@
       <c r="C56" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D56" s="14" t="s">
+      <c r="D56" s="18" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F56" s="22"/>
+      <c r="G56" s="20"/>
+      <c r="H56" s="21"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A57" s="9" t="s">
         <v>4</v>
       </c>
@@ -2892,11 +3183,14 @@
       <c r="C57" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D57" s="14" t="s">
+      <c r="D57" s="18" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F57" s="22"/>
+      <c r="G57" s="20"/>
+      <c r="H57" s="21"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A58" s="9" t="s">
         <v>4</v>
       </c>
@@ -2904,11 +3198,14 @@
       <c r="C58" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D58" s="14" t="s">
+      <c r="D58" s="18" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F58" s="22"/>
+      <c r="G58" s="20"/>
+      <c r="H58" s="21"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A59" s="9" t="s">
         <v>4</v>
       </c>
@@ -2916,11 +3213,14 @@
       <c r="C59" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D59" s="14" t="s">
+      <c r="D59" s="18" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F59" s="22"/>
+      <c r="G59" s="20"/>
+      <c r="H59" s="21"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A60" s="9" t="s">
         <v>4</v>
       </c>
@@ -2928,14 +3228,20 @@
       <c r="C60" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D60" s="14" t="s">
+      <c r="D60" s="18" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F60" s="22"/>
+      <c r="G60" s="20"/>
+      <c r="H60" s="21"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
       <c r="D61" s="13"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F61" s="12"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="12"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A62" s="9" t="s">
         <v>452</v>
       </c>
@@ -2946,8 +3252,11 @@
       <c r="D62" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F62" s="12"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="12"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A63" s="9" t="s">
         <v>452</v>
       </c>
@@ -2958,8 +3267,11 @@
       <c r="D63" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F63" s="12"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="12"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A64" s="9" t="s">
         <v>452</v>
       </c>
@@ -2970,8 +3282,11 @@
       <c r="D64" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F64" s="12"/>
+      <c r="G64" s="12"/>
+      <c r="H64" s="12"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A65" s="9" t="s">
         <v>452</v>
       </c>
@@ -2982,8 +3297,11 @@
       <c r="D65" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F65" s="12"/>
+      <c r="G65" s="12"/>
+      <c r="H65" s="12"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A66" s="9" t="s">
         <v>452</v>
       </c>
@@ -2994,8 +3312,11 @@
       <c r="D66" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F66" s="12"/>
+      <c r="G66" s="12"/>
+      <c r="H66" s="12"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A67" s="9" t="s">
         <v>452</v>
       </c>
@@ -3006,8 +3327,11 @@
       <c r="D67" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F67" s="12"/>
+      <c r="G67" s="12"/>
+      <c r="H67" s="12"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A68" s="9" t="s">
         <v>452</v>
       </c>
@@ -3018,8 +3342,11 @@
       <c r="D68" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F68" s="12"/>
+      <c r="G68" s="12"/>
+      <c r="H68" s="12"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A69" s="9" t="s">
         <v>452</v>
       </c>
@@ -3030,8 +3357,11 @@
       <c r="D69" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F69" s="12"/>
+      <c r="G69" s="12"/>
+      <c r="H69" s="12"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A70" s="9" t="s">
         <v>452</v>
       </c>
@@ -3042,8 +3372,11 @@
       <c r="D70" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F70" s="12"/>
+      <c r="G70" s="12"/>
+      <c r="H70" s="12"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A71" s="9" t="s">
         <v>452</v>
       </c>
@@ -3054,13 +3387,19 @@
       <c r="D71" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F71" s="12"/>
+      <c r="G71" s="12"/>
+      <c r="H71" s="12"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A72" s="9"/>
       <c r="B72" s="9"/>
       <c r="D72" s="7"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F72" s="12"/>
+      <c r="G72" s="12"/>
+      <c r="H72" s="12"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A73" s="7" t="s">
         <v>41</v>
       </c>
@@ -3071,8 +3410,11 @@
       <c r="D73" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F73" s="12"/>
+      <c r="G73" s="12"/>
+      <c r="H73" s="12"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A74" s="7" t="s">
         <v>41</v>
       </c>
@@ -3083,8 +3425,11 @@
       <c r="D74" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F74" s="12"/>
+      <c r="G74" s="12"/>
+      <c r="H74" s="12"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A75" s="7" t="s">
         <v>41</v>
       </c>
@@ -3095,8 +3440,11 @@
       <c r="D75" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F75" s="12"/>
+      <c r="G75" s="12"/>
+      <c r="H75" s="12"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A76" s="7" t="s">
         <v>41</v>
       </c>
@@ -3107,8 +3455,11 @@
       <c r="D76" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F76" s="12"/>
+      <c r="G76" s="12"/>
+      <c r="H76" s="12"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A77" s="7" t="s">
         <v>41</v>
       </c>
@@ -3119,8 +3470,11 @@
       <c r="D77" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F77" s="12"/>
+      <c r="G77" s="12"/>
+      <c r="H77" s="12"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A78" s="7" t="s">
         <v>41</v>
       </c>
@@ -3131,8 +3485,11 @@
       <c r="D78" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F78" s="12"/>
+      <c r="G78" s="12"/>
+      <c r="H78" s="12"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A79" s="7" t="s">
         <v>41</v>
       </c>
@@ -3143,8 +3500,11 @@
       <c r="D79" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F79" s="12"/>
+      <c r="G79" s="12"/>
+      <c r="H79" s="12"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A80" s="7" t="s">
         <v>41</v>
       </c>
@@ -3155,8 +3515,11 @@
       <c r="D80" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F80" s="12"/>
+      <c r="G80" s="12"/>
+      <c r="H80" s="12"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A81" s="7" t="s">
         <v>41</v>
       </c>
@@ -3167,8 +3530,11 @@
       <c r="D81" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F81" s="12"/>
+      <c r="G81" s="12"/>
+      <c r="H81" s="12"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A82" s="7" t="s">
         <v>41</v>
       </c>
@@ -3179,8 +3545,16 @@
       <c r="D82" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F82" s="12"/>
+      <c r="G82" s="12"/>
+      <c r="H82" s="12"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="F83" s="12"/>
+      <c r="G83" s="12"/>
+      <c r="H83" s="12"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A84" s="9" t="s">
         <v>96</v>
       </c>
@@ -3191,8 +3565,11 @@
       <c r="D84" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F84" s="12"/>
+      <c r="G84" s="12"/>
+      <c r="H84" s="12"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A85" s="9" t="s">
         <v>96</v>
       </c>
@@ -3203,8 +3580,11 @@
       <c r="D85" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F85" s="12"/>
+      <c r="G85" s="12"/>
+      <c r="H85" s="12"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A86" s="9" t="s">
         <v>96</v>
       </c>
@@ -3215,8 +3595,11 @@
       <c r="D86" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F86" s="12"/>
+      <c r="G86" s="12"/>
+      <c r="H86" s="12"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A87" s="9" t="s">
         <v>96</v>
       </c>
@@ -3227,8 +3610,11 @@
       <c r="D87" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F87" s="12"/>
+      <c r="G87" s="12"/>
+      <c r="H87" s="12"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A88" s="9" t="s">
         <v>96</v>
       </c>
@@ -3239,8 +3625,11 @@
       <c r="D88" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F88" s="12"/>
+      <c r="G88" s="12"/>
+      <c r="H88" s="12"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A89" s="9" t="s">
         <v>96</v>
       </c>
@@ -3251,8 +3640,11 @@
       <c r="D89" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F89" s="12"/>
+      <c r="G89" s="12"/>
+      <c r="H89" s="12"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A90" s="9" t="s">
         <v>96</v>
       </c>
@@ -3263,8 +3655,11 @@
       <c r="D90" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F90" s="12"/>
+      <c r="G90" s="12"/>
+      <c r="H90" s="12"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A91" s="9" t="s">
         <v>96</v>
       </c>
@@ -3275,8 +3670,11 @@
       <c r="D91" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F91" s="12"/>
+      <c r="G91" s="12"/>
+      <c r="H91" s="12"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A92" s="9" t="s">
         <v>96</v>
       </c>
@@ -3287,8 +3685,11 @@
       <c r="D92" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F92" s="12"/>
+      <c r="G92" s="12"/>
+      <c r="H92" s="12"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A93" s="9" t="s">
         <v>96</v>
       </c>
@@ -3299,8 +3700,11 @@
       <c r="D93" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F93" s="12"/>
+      <c r="G93" s="12"/>
+      <c r="H93" s="12"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A94" s="9" t="s">
         <v>96</v>
       </c>
@@ -3311,8 +3715,11 @@
       <c r="D94" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F94" s="12"/>
+      <c r="G94" s="12"/>
+      <c r="H94" s="12"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A95" s="9" t="s">
         <v>96</v>
       </c>
@@ -3323,8 +3730,11 @@
       <c r="D95" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F95" s="12"/>
+      <c r="G95" s="12"/>
+      <c r="H95" s="12"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A96" s="9" t="s">
         <v>96</v>
       </c>
@@ -3335,8 +3745,11 @@
       <c r="D96" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F96" s="12"/>
+      <c r="G96" s="12"/>
+      <c r="H96" s="12"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A97" s="9" t="s">
         <v>96</v>
       </c>
@@ -3347,8 +3760,11 @@
       <c r="D97" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F97" s="12"/>
+      <c r="G97" s="12"/>
+      <c r="H97" s="12"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A98" s="9" t="s">
         <v>96</v>
       </c>
@@ -3359,8 +3775,11 @@
       <c r="D98" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F98" s="12"/>
+      <c r="G98" s="12"/>
+      <c r="H98" s="12"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A99" s="9" t="s">
         <v>96</v>
       </c>
@@ -3371,8 +3790,11 @@
       <c r="D99" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F99" s="12"/>
+      <c r="G99" s="12"/>
+      <c r="H99" s="12"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A100" s="9" t="s">
         <v>96</v>
       </c>
@@ -3383,8 +3805,11 @@
       <c r="D100" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F100" s="12"/>
+      <c r="G100" s="12"/>
+      <c r="H100" s="12"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A101" s="9" t="s">
         <v>96</v>
       </c>
@@ -3395,8 +3820,11 @@
       <c r="D101" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F101" s="12"/>
+      <c r="G101" s="12"/>
+      <c r="H101" s="12"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A102" s="9" t="s">
         <v>96</v>
       </c>
@@ -3407,8 +3835,11 @@
       <c r="D102" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F102" s="12"/>
+      <c r="G102" s="12"/>
+      <c r="H102" s="12"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A103" s="9" t="s">
         <v>96</v>
       </c>
@@ -3419,8 +3850,11 @@
       <c r="D103" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F103" s="12"/>
+      <c r="G103" s="12"/>
+      <c r="H103" s="12"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A104" s="9" t="s">
         <v>96</v>
       </c>
@@ -3431,8 +3865,11 @@
       <c r="D104" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F104" s="12"/>
+      <c r="G104" s="12"/>
+      <c r="H104" s="12"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A105" s="9" t="s">
         <v>96</v>
       </c>
@@ -3443,8 +3880,11 @@
       <c r="D105" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F105" s="12"/>
+      <c r="G105" s="12"/>
+      <c r="H105" s="12"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A106" s="9" t="s">
         <v>96</v>
       </c>
@@ -3455,8 +3895,11 @@
       <c r="D106" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F106" s="12"/>
+      <c r="G106" s="12"/>
+      <c r="H106" s="12"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A107" s="9" t="s">
         <v>96</v>
       </c>
@@ -3467,8 +3910,11 @@
       <c r="D107" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F107" s="12"/>
+      <c r="G107" s="12"/>
+      <c r="H107" s="12"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A108" s="9" t="s">
         <v>96</v>
       </c>
@@ -3479,8 +3925,11 @@
       <c r="D108" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F108" s="12"/>
+      <c r="G108" s="12"/>
+      <c r="H108" s="12"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A109" s="9" t="s">
         <v>96</v>
       </c>
@@ -3491,8 +3940,11 @@
       <c r="D109" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F109" s="12"/>
+      <c r="G109" s="12"/>
+      <c r="H109" s="12"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A110" s="9" t="s">
         <v>96</v>
       </c>
@@ -3503,8 +3955,11 @@
       <c r="D110" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F110" s="12"/>
+      <c r="G110" s="12"/>
+      <c r="H110" s="12"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A111" s="9" t="s">
         <v>96</v>
       </c>
@@ -3515,8 +3970,11 @@
       <c r="D111" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F111" s="12"/>
+      <c r="G111" s="12"/>
+      <c r="H111" s="12"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A112" s="9" t="s">
         <v>96</v>
       </c>
@@ -3527,8 +3985,11 @@
       <c r="D112" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F112" s="12"/>
+      <c r="G112" s="12"/>
+      <c r="H112" s="12"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A113" s="9" t="s">
         <v>96</v>
       </c>
@@ -3539,8 +4000,11 @@
       <c r="D113" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F113" s="12"/>
+      <c r="G113" s="12"/>
+      <c r="H113" s="12"/>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A114" s="9" t="s">
         <v>96</v>
       </c>
@@ -3551,8 +4015,11 @@
       <c r="D114" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F114" s="12"/>
+      <c r="G114" s="12"/>
+      <c r="H114" s="12"/>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A115" s="9" t="s">
         <v>96</v>
       </c>
@@ -3563,8 +4030,11 @@
       <c r="D115" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F115" s="12"/>
+      <c r="G115" s="12"/>
+      <c r="H115" s="12"/>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A116" s="9" t="s">
         <v>96</v>
       </c>
@@ -3575,8 +4045,11 @@
       <c r="D116" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F116" s="12"/>
+      <c r="G116" s="12"/>
+      <c r="H116" s="12"/>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A117" s="9" t="s">
         <v>96</v>
       </c>
@@ -3587,8 +4060,11 @@
       <c r="D117" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F117" s="12"/>
+      <c r="G117" s="12"/>
+      <c r="H117" s="12"/>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A118" s="9" t="s">
         <v>96</v>
       </c>
@@ -3599,8 +4075,11 @@
       <c r="D118" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F118" s="12"/>
+      <c r="G118" s="12"/>
+      <c r="H118" s="12"/>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A119" s="9" t="s">
         <v>96</v>
       </c>
@@ -3611,8 +4090,11 @@
       <c r="D119" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F119" s="12"/>
+      <c r="G119" s="12"/>
+      <c r="H119" s="12"/>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A120" s="9" t="s">
         <v>96</v>
       </c>
@@ -3625,8 +4107,11 @@
       <c r="D120" s="3" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F120" s="12"/>
+      <c r="G120" s="12"/>
+      <c r="H120" s="12"/>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A121" s="9" t="s">
         <v>96</v>
       </c>
@@ -3639,8 +4124,11 @@
       <c r="D121" s="3" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F121" s="12"/>
+      <c r="G121" s="12"/>
+      <c r="H121" s="12"/>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A122" s="9" t="s">
         <v>96</v>
       </c>
@@ -3653,13 +4141,19 @@
       <c r="D122" s="12" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F122" s="12"/>
+      <c r="G122" s="12"/>
+      <c r="H122" s="12"/>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A123" s="9"/>
       <c r="B123" s="9"/>
       <c r="D123" s="7"/>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F123" s="12"/>
+      <c r="G123" s="12"/>
+      <c r="H123" s="12"/>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A124" s="9" t="s">
         <v>52</v>
       </c>
@@ -3670,8 +4164,11 @@
       <c r="D124" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F124" s="12"/>
+      <c r="G124" s="12"/>
+      <c r="H124" s="12"/>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A125" s="9" t="s">
         <v>52</v>
       </c>
@@ -3682,8 +4179,11 @@
       <c r="D125" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F125" s="12"/>
+      <c r="G125" s="12"/>
+      <c r="H125" s="12"/>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A126" s="9" t="s">
         <v>52</v>
       </c>
@@ -3694,8 +4194,11 @@
       <c r="D126" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F126" s="12"/>
+      <c r="G126" s="12"/>
+      <c r="H126" s="12"/>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A127" s="9" t="s">
         <v>52</v>
       </c>
@@ -3706,8 +4209,11 @@
       <c r="D127" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F127" s="12"/>
+      <c r="G127" s="12"/>
+      <c r="H127" s="12"/>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A128" s="9" t="s">
         <v>52</v>
       </c>
@@ -3718,8 +4224,11 @@
       <c r="D128" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F128" s="12"/>
+      <c r="G128" s="12"/>
+      <c r="H128" s="12"/>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A129" s="9" t="s">
         <v>52</v>
       </c>
@@ -3730,8 +4239,11 @@
       <c r="D129" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F129" s="12"/>
+      <c r="G129" s="12"/>
+      <c r="H129" s="12"/>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A130" s="9" t="s">
         <v>52</v>
       </c>
@@ -3742,8 +4254,11 @@
       <c r="D130" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F130" s="12"/>
+      <c r="G130" s="12"/>
+      <c r="H130" s="12"/>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A131" s="9" t="s">
         <v>52</v>
       </c>
@@ -3754,8 +4269,11 @@
       <c r="D131" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F131" s="12"/>
+      <c r="G131" s="12"/>
+      <c r="H131" s="12"/>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A132" s="9" t="s">
         <v>52</v>
       </c>
@@ -3766,8 +4284,11 @@
       <c r="D132" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F132" s="12"/>
+      <c r="G132" s="12"/>
+      <c r="H132" s="12"/>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A133" s="9" t="s">
         <v>52</v>
       </c>
@@ -3778,8 +4299,11 @@
       <c r="D133" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F133" s="12"/>
+      <c r="G133" s="12"/>
+      <c r="H133" s="12"/>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A134" s="9" t="s">
         <v>52</v>
       </c>
@@ -3790,8 +4314,11 @@
       <c r="D134" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F134" s="12"/>
+      <c r="G134" s="12"/>
+      <c r="H134" s="12"/>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A135" s="9" t="s">
         <v>52</v>
       </c>
@@ -3802,8 +4329,11 @@
       <c r="D135" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F135" s="12"/>
+      <c r="G135" s="12"/>
+      <c r="H135" s="12"/>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A136" s="9" t="s">
         <v>52</v>
       </c>
@@ -3814,8 +4344,11 @@
       <c r="D136" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F136" s="12"/>
+      <c r="G136" s="12"/>
+      <c r="H136" s="12"/>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A137" s="9" t="s">
         <v>52</v>
       </c>
@@ -3826,8 +4359,11 @@
       <c r="D137" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F137" s="12"/>
+      <c r="G137" s="12"/>
+      <c r="H137" s="12"/>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A138" s="9" t="s">
         <v>52</v>
       </c>
@@ -3838,8 +4374,11 @@
       <c r="D138" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F138" s="12"/>
+      <c r="G138" s="12"/>
+      <c r="H138" s="12"/>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A139" s="9" t="s">
         <v>52</v>
       </c>
@@ -3850,8 +4389,11 @@
       <c r="D139" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F139" s="12"/>
+      <c r="G139" s="12"/>
+      <c r="H139" s="12"/>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A140" s="9" t="s">
         <v>52</v>
       </c>
@@ -3862,8 +4404,11 @@
       <c r="D140" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F140" s="12"/>
+      <c r="G140" s="12"/>
+      <c r="H140" s="12"/>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A141" s="9" t="s">
         <v>52</v>
       </c>
@@ -3874,8 +4419,11 @@
       <c r="D141" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F141" s="12"/>
+      <c r="G141" s="12"/>
+      <c r="H141" s="12"/>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A142" s="9" t="s">
         <v>52</v>
       </c>
@@ -3886,8 +4434,11 @@
       <c r="D142" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F142" s="12"/>
+      <c r="G142" s="12"/>
+      <c r="H142" s="12"/>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A143" s="9" t="s">
         <v>52</v>
       </c>
@@ -3898,8 +4449,11 @@
       <c r="D143" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F143" s="12"/>
+      <c r="G143" s="12"/>
+      <c r="H143" s="12"/>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A144" s="9" t="s">
         <v>52</v>
       </c>
@@ -3910,8 +4464,11 @@
       <c r="D144" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F144" s="12"/>
+      <c r="G144" s="12"/>
+      <c r="H144" s="12"/>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A145" s="9" t="s">
         <v>52</v>
       </c>
@@ -3922,8 +4479,11 @@
       <c r="D145" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F145" s="12"/>
+      <c r="G145" s="12"/>
+      <c r="H145" s="12"/>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A146" s="9" t="s">
         <v>52</v>
       </c>
@@ -3934,8 +4494,11 @@
       <c r="D146" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F146" s="12"/>
+      <c r="G146" s="12"/>
+      <c r="H146" s="12"/>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A147" s="9" t="s">
         <v>52</v>
       </c>
@@ -3946,8 +4509,11 @@
       <c r="D147" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F147" s="12"/>
+      <c r="G147" s="12"/>
+      <c r="H147" s="12"/>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A148" s="9" t="s">
         <v>52</v>
       </c>
@@ -3958,8 +4524,11 @@
       <c r="D148" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F148" s="12"/>
+      <c r="G148" s="12"/>
+      <c r="H148" s="12"/>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A149" s="9" t="s">
         <v>52</v>
       </c>
@@ -3970,8 +4539,11 @@
       <c r="D149" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F149" s="12"/>
+      <c r="G149" s="12"/>
+      <c r="H149" s="12"/>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A150" s="9" t="s">
         <v>52</v>
       </c>
@@ -3982,8 +4554,11 @@
       <c r="D150" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F150" s="12"/>
+      <c r="G150" s="12"/>
+      <c r="H150" s="12"/>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A151" s="9" t="s">
         <v>52</v>
       </c>
@@ -3994,8 +4569,11 @@
       <c r="D151" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F151" s="12"/>
+      <c r="G151" s="12"/>
+      <c r="H151" s="12"/>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A152" s="9" t="s">
         <v>52</v>
       </c>
@@ -4006,8 +4584,11 @@
       <c r="D152" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F152" s="12"/>
+      <c r="G152" s="12"/>
+      <c r="H152" s="12"/>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A153" s="9" t="s">
         <v>52</v>
       </c>
@@ -4018,8 +4599,11 @@
       <c r="D153" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F153" s="12"/>
+      <c r="G153" s="12"/>
+      <c r="H153" s="12"/>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A154" s="9" t="s">
         <v>52</v>
       </c>
@@ -4030,8 +4614,11 @@
       <c r="D154" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F154" s="12"/>
+      <c r="G154" s="12"/>
+      <c r="H154" s="12"/>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A155" s="9" t="s">
         <v>52</v>
       </c>
@@ -4042,8 +4629,11 @@
       <c r="D155" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F155" s="12"/>
+      <c r="G155" s="12"/>
+      <c r="H155" s="12"/>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A156" s="9" t="s">
         <v>52</v>
       </c>
@@ -4054,8 +4644,11 @@
       <c r="D156" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F156" s="12"/>
+      <c r="G156" s="12"/>
+      <c r="H156" s="12"/>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A157" s="9" t="s">
         <v>52</v>
       </c>
@@ -4066,8 +4659,11 @@
       <c r="D157" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F157" s="12"/>
+      <c r="G157" s="12"/>
+      <c r="H157" s="12"/>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A158" s="9" t="s">
         <v>52</v>
       </c>
@@ -4078,8 +4674,11 @@
       <c r="D158" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F158" s="12"/>
+      <c r="G158" s="12"/>
+      <c r="H158" s="12"/>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A159" s="9" t="s">
         <v>52</v>
       </c>
@@ -4090,8 +4689,11 @@
       <c r="D159" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F159" s="12"/>
+      <c r="G159" s="12"/>
+      <c r="H159" s="12"/>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A160" s="9" t="s">
         <v>52</v>
       </c>
@@ -4102,8 +4704,11 @@
       <c r="D160" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F160" s="12"/>
+      <c r="G160" s="12"/>
+      <c r="H160" s="12"/>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A161" s="9" t="s">
         <v>52</v>
       </c>
@@ -4114,8 +4719,11 @@
       <c r="D161" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F161" s="12"/>
+      <c r="G161" s="12"/>
+      <c r="H161" s="12"/>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A162" s="9" t="s">
         <v>52</v>
       </c>
@@ -4126,8 +4734,11 @@
       <c r="D162" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F162" s="12"/>
+      <c r="G162" s="12"/>
+      <c r="H162" s="12"/>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A163" s="9" t="s">
         <v>52</v>
       </c>
@@ -4138,8 +4749,11 @@
       <c r="D163" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F163" s="12"/>
+      <c r="G163" s="12"/>
+      <c r="H163" s="12"/>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A164" s="9" t="s">
         <v>52</v>
       </c>
@@ -4150,8 +4764,11 @@
       <c r="D164" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F164" s="12"/>
+      <c r="G164" s="12"/>
+      <c r="H164" s="12"/>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A165" s="9" t="s">
         <v>52</v>
       </c>
@@ -4162,8 +4779,11 @@
       <c r="D165" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F165" s="12"/>
+      <c r="G165" s="12"/>
+      <c r="H165" s="12"/>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A166" s="9" t="s">
         <v>52</v>
       </c>
@@ -4174,19 +4794,33 @@
       <c r="D166" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F166" s="12"/>
+      <c r="G166" s="12"/>
+      <c r="H166" s="12"/>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="F167" s="12"/>
+      <c r="G167" s="12"/>
+      <c r="H167" s="12"/>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A168" s="7"/>
       <c r="B168" s="7"/>
       <c r="D168" s="7"/>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F168" s="12"/>
+      <c r="G168" s="12"/>
+      <c r="H168" s="12"/>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A169" s="9"/>
       <c r="B169" s="9"/>
       <c r="C169" s="10"/>
       <c r="D169" s="13"/>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F169" s="12"/>
+      <c r="G169" s="12"/>
+      <c r="H169" s="12"/>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A170" s="7" t="s">
         <v>133</v>
       </c>
@@ -4197,8 +4831,11 @@
       <c r="D170" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F170" s="12"/>
+      <c r="G170" s="12"/>
+      <c r="H170" s="12"/>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A171" s="7" t="s">
         <v>133</v>
       </c>
@@ -4209,8 +4846,11 @@
       <c r="D171" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F171" s="12"/>
+      <c r="G171" s="12"/>
+      <c r="H171" s="12"/>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A172" s="7" t="s">
         <v>133</v>
       </c>
@@ -4221,8 +4861,11 @@
       <c r="D172" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F172" s="12"/>
+      <c r="G172" s="12"/>
+      <c r="H172" s="12"/>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A173" s="7" t="s">
         <v>133</v>
       </c>
@@ -4233,8 +4876,11 @@
       <c r="D173" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F173" s="12"/>
+      <c r="G173" s="12"/>
+      <c r="H173" s="12"/>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A174" s="7" t="s">
         <v>133</v>
       </c>
@@ -4245,8 +4891,11 @@
       <c r="D174" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F174" s="12"/>
+      <c r="G174" s="12"/>
+      <c r="H174" s="12"/>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A175" s="7" t="s">
         <v>133</v>
       </c>
@@ -4257,8 +4906,11 @@
       <c r="D175" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F175" s="12"/>
+      <c r="G175" s="12"/>
+      <c r="H175" s="12"/>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A176" s="7" t="s">
         <v>133</v>
       </c>
@@ -4269,8 +4921,11 @@
       <c r="D176" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F176" s="12"/>
+      <c r="G176" s="12"/>
+      <c r="H176" s="12"/>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A177" s="7" t="s">
         <v>133</v>
       </c>
@@ -4281,8 +4936,11 @@
       <c r="D177" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F177" s="12"/>
+      <c r="G177" s="12"/>
+      <c r="H177" s="12"/>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A178" s="7" t="s">
         <v>133</v>
       </c>
@@ -4293,8 +4951,11 @@
       <c r="D178" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F178" s="12"/>
+      <c r="G178" s="12"/>
+      <c r="H178" s="12"/>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A179" s="7" t="s">
         <v>133</v>
       </c>
@@ -4305,8 +4966,11 @@
       <c r="D179" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F179" s="12"/>
+      <c r="G179" s="12"/>
+      <c r="H179" s="12"/>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A180" s="7" t="s">
         <v>133</v>
       </c>
@@ -4317,8 +4981,11 @@
       <c r="D180" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F180" s="12"/>
+      <c r="G180" s="12"/>
+      <c r="H180" s="12"/>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A181" s="7" t="s">
         <v>133</v>
       </c>
@@ -4329,8 +4996,11 @@
       <c r="D181" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F181" s="12"/>
+      <c r="G181" s="12"/>
+      <c r="H181" s="12"/>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A182" s="7" t="s">
         <v>133</v>
       </c>
@@ -4341,8 +5011,11 @@
       <c r="D182" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F182" s="12"/>
+      <c r="G182" s="12"/>
+      <c r="H182" s="12"/>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A183" s="7" t="s">
         <v>133</v>
       </c>
@@ -4353,8 +5026,11 @@
       <c r="D183" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F183" s="12"/>
+      <c r="G183" s="12"/>
+      <c r="H183" s="12"/>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A184" s="7" t="s">
         <v>133</v>
       </c>
@@ -4365,8 +5041,11 @@
       <c r="D184" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F184" s="12"/>
+      <c r="G184" s="12"/>
+      <c r="H184" s="12"/>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A185" s="7" t="s">
         <v>133</v>
       </c>
@@ -4377,8 +5056,11 @@
       <c r="D185" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F185" s="12"/>
+      <c r="G185" s="12"/>
+      <c r="H185" s="12"/>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A186" s="7" t="s">
         <v>133</v>
       </c>
@@ -4389,8 +5071,11 @@
       <c r="D186" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F186" s="12"/>
+      <c r="G186" s="12"/>
+      <c r="H186" s="12"/>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A187" s="7" t="s">
         <v>133</v>
       </c>
@@ -4401,8 +5086,11 @@
       <c r="D187" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F187" s="12"/>
+      <c r="G187" s="12"/>
+      <c r="H187" s="12"/>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A188" s="7" t="s">
         <v>133</v>
       </c>
@@ -4413,8 +5101,11 @@
       <c r="D188" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F188" s="12"/>
+      <c r="G188" s="12"/>
+      <c r="H188" s="12"/>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A189" s="7" t="s">
         <v>133</v>
       </c>
@@ -4425,8 +5116,11 @@
       <c r="D189" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F189" s="12"/>
+      <c r="G189" s="12"/>
+      <c r="H189" s="12"/>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A190" s="7" t="s">
         <v>133</v>
       </c>
@@ -4437,8 +5131,11 @@
       <c r="D190" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F190" s="12"/>
+      <c r="G190" s="12"/>
+      <c r="H190" s="12"/>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A191" s="7" t="s">
         <v>133</v>
       </c>
@@ -4449,8 +5146,11 @@
       <c r="D191" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F191" s="12"/>
+      <c r="G191" s="12"/>
+      <c r="H191" s="12"/>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A192" s="7" t="s">
         <v>133</v>
       </c>
@@ -4461,8 +5161,11 @@
       <c r="D192" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F192" s="12"/>
+      <c r="G192" s="12"/>
+      <c r="H192" s="12"/>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A193" s="7" t="s">
         <v>133</v>
       </c>
@@ -4473,8 +5176,11 @@
       <c r="D193" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F193" s="12"/>
+      <c r="G193" s="12"/>
+      <c r="H193" s="12"/>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A194" s="7" t="s">
         <v>133</v>
       </c>
@@ -4485,8 +5191,11 @@
       <c r="D194" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F194" s="12"/>
+      <c r="G194" s="12"/>
+      <c r="H194" s="12"/>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A195" s="7" t="s">
         <v>133</v>
       </c>
@@ -4497,8 +5206,11 @@
       <c r="D195" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F195" s="12"/>
+      <c r="G195" s="12"/>
+      <c r="H195" s="12"/>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A196" s="7" t="s">
         <v>133</v>
       </c>
@@ -4509,8 +5221,11 @@
       <c r="D196" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F196" s="12"/>
+      <c r="G196" s="12"/>
+      <c r="H196" s="12"/>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A197" s="7" t="s">
         <v>133</v>
       </c>
@@ -4521,8 +5236,11 @@
       <c r="D197" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F197" s="12"/>
+      <c r="G197" s="12"/>
+      <c r="H197" s="12"/>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A198" s="7" t="s">
         <v>133</v>
       </c>
@@ -4533,8 +5251,11 @@
       <c r="D198" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F198" s="12"/>
+      <c r="G198" s="12"/>
+      <c r="H198" s="12"/>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A199" s="7" t="s">
         <v>133</v>
       </c>
@@ -4545,8 +5266,11 @@
       <c r="D199" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F199" s="12"/>
+      <c r="G199" s="12"/>
+      <c r="H199" s="12"/>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A200" s="7" t="s">
         <v>133</v>
       </c>
@@ -4557,8 +5281,11 @@
       <c r="D200" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F200" s="12"/>
+      <c r="G200" s="12"/>
+      <c r="H200" s="12"/>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A201" s="7" t="s">
         <v>133</v>
       </c>
@@ -4569,8 +5296,11 @@
       <c r="D201" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F201" s="12"/>
+      <c r="G201" s="12"/>
+      <c r="H201" s="12"/>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A202" s="7" t="s">
         <v>133</v>
       </c>
@@ -4581,8 +5311,11 @@
       <c r="D202" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F202" s="12"/>
+      <c r="G202" s="12"/>
+      <c r="H202" s="12"/>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A203" s="7" t="s">
         <v>133</v>
       </c>
@@ -4593,8 +5326,11 @@
       <c r="D203" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F203" s="12"/>
+      <c r="G203" s="12"/>
+      <c r="H203" s="12"/>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A204" s="7" t="s">
         <v>133</v>
       </c>
@@ -4605,8 +5341,11 @@
       <c r="D204" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F204" s="12"/>
+      <c r="G204" s="12"/>
+      <c r="H204" s="12"/>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A205" s="7" t="s">
         <v>133</v>
       </c>
@@ -4617,8 +5356,16 @@
       <c r="D205" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F205" s="12"/>
+      <c r="G205" s="12"/>
+      <c r="H205" s="12"/>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="F206" s="12"/>
+      <c r="G206" s="12"/>
+      <c r="H206" s="12"/>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A207" s="9" t="s">
         <v>284</v>
       </c>
@@ -4629,8 +5376,11 @@
       <c r="D207" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F207" s="12"/>
+      <c r="G207" s="12"/>
+      <c r="H207" s="12"/>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A208" s="9" t="s">
         <v>284</v>
       </c>
@@ -4641,8 +5391,11 @@
       <c r="D208" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F208" s="12"/>
+      <c r="G208" s="12"/>
+      <c r="H208" s="12"/>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A209" s="9" t="s">
         <v>284</v>
       </c>
@@ -4653,8 +5406,11 @@
       <c r="D209" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F209" s="12"/>
+      <c r="G209" s="12"/>
+      <c r="H209" s="12"/>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A210" s="9" t="s">
         <v>284</v>
       </c>
@@ -4665,8 +5421,11 @@
       <c r="D210" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F210" s="12"/>
+      <c r="G210" s="12"/>
+      <c r="H210" s="12"/>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A211" s="9" t="s">
         <v>284</v>
       </c>
@@ -4677,8 +5436,11 @@
       <c r="D211" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F211" s="12"/>
+      <c r="G211" s="12"/>
+      <c r="H211" s="12"/>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A212" s="9" t="s">
         <v>284</v>
       </c>
@@ -4689,8 +5451,11 @@
       <c r="D212" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F212" s="12"/>
+      <c r="G212" s="12"/>
+      <c r="H212" s="12"/>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A213" s="9" t="s">
         <v>284</v>
       </c>
@@ -4701,8 +5466,11 @@
       <c r="D213" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F213" s="12"/>
+      <c r="G213" s="12"/>
+      <c r="H213" s="12"/>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A214" s="9" t="s">
         <v>284</v>
       </c>
@@ -4713,8 +5481,11 @@
       <c r="D214" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F214" s="12"/>
+      <c r="G214" s="12"/>
+      <c r="H214" s="12"/>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A215" s="9" t="s">
         <v>284</v>
       </c>
@@ -4725,8 +5496,11 @@
       <c r="D215" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F215" s="12"/>
+      <c r="G215" s="12"/>
+      <c r="H215" s="12"/>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A216" s="9" t="s">
         <v>284</v>
       </c>
@@ -4737,8 +5511,11 @@
       <c r="D216" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F216" s="12"/>
+      <c r="G216" s="12"/>
+      <c r="H216" s="12"/>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A217" s="9" t="s">
         <v>284</v>
       </c>
@@ -4749,8 +5526,11 @@
       <c r="D217" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F217" s="12"/>
+      <c r="G217" s="12"/>
+      <c r="H217" s="12"/>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A218" s="9" t="s">
         <v>284</v>
       </c>
@@ -4761,8 +5541,11 @@
       <c r="D218" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F218" s="12"/>
+      <c r="G218" s="12"/>
+      <c r="H218" s="12"/>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A219" s="9" t="s">
         <v>284</v>
       </c>
@@ -4773,8 +5556,11 @@
       <c r="D219" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F219" s="12"/>
+      <c r="G219" s="12"/>
+      <c r="H219" s="12"/>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A220" s="9" t="s">
         <v>284</v>
       </c>
@@ -4785,8 +5571,11 @@
       <c r="D220" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F220" s="12"/>
+      <c r="G220" s="12"/>
+      <c r="H220" s="12"/>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A221" s="9" t="s">
         <v>284</v>
       </c>
@@ -4797,8 +5586,11 @@
       <c r="D221" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F221" s="12"/>
+      <c r="G221" s="12"/>
+      <c r="H221" s="12"/>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A222" s="9" t="s">
         <v>284</v>
       </c>
@@ -4809,8 +5601,11 @@
       <c r="D222" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F222" s="12"/>
+      <c r="G222" s="12"/>
+      <c r="H222" s="12"/>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A223" s="9" t="s">
         <v>284</v>
       </c>
@@ -4821,8 +5616,11 @@
       <c r="D223" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F223" s="12"/>
+      <c r="G223" s="12"/>
+      <c r="H223" s="12"/>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A224" s="9" t="s">
         <v>284</v>
       </c>
@@ -4833,8 +5631,11 @@
       <c r="D224" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F224" s="12"/>
+      <c r="G224" s="12"/>
+      <c r="H224" s="12"/>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A225" s="9" t="s">
         <v>284</v>
       </c>
@@ -4845,8 +5646,11 @@
       <c r="D225" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F225" s="12"/>
+      <c r="G225" s="12"/>
+      <c r="H225" s="12"/>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A226" s="9" t="s">
         <v>284</v>
       </c>
@@ -4857,8 +5661,11 @@
       <c r="D226" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F226" s="12"/>
+      <c r="G226" s="12"/>
+      <c r="H226" s="12"/>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A227" s="9" t="s">
         <v>284</v>
       </c>
@@ -4869,8 +5676,11 @@
       <c r="D227" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F227" s="12"/>
+      <c r="G227" s="12"/>
+      <c r="H227" s="12"/>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A228" s="9" t="s">
         <v>284</v>
       </c>
@@ -4881,8 +5691,11 @@
       <c r="D228" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F228" s="12"/>
+      <c r="G228" s="12"/>
+      <c r="H228" s="12"/>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A229" s="9" t="s">
         <v>284</v>
       </c>
@@ -4893,8 +5706,11 @@
       <c r="D229" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F229" s="12"/>
+      <c r="G229" s="12"/>
+      <c r="H229" s="12"/>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A230" s="9" t="s">
         <v>284</v>
       </c>
@@ -4905,8 +5721,11 @@
       <c r="D230" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F230" s="12"/>
+      <c r="G230" s="12"/>
+      <c r="H230" s="12"/>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A231" s="9" t="s">
         <v>284</v>
       </c>
@@ -4917,8 +5736,11 @@
       <c r="D231" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F231" s="12"/>
+      <c r="G231" s="12"/>
+      <c r="H231" s="12"/>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A232" s="9" t="s">
         <v>284</v>
       </c>
@@ -4929,8 +5751,11 @@
       <c r="D232" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F232" s="12"/>
+      <c r="G232" s="12"/>
+      <c r="H232" s="12"/>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A233" s="9" t="s">
         <v>284</v>
       </c>
@@ -4941,8 +5766,11 @@
       <c r="D233" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F233" s="12"/>
+      <c r="G233" s="12"/>
+      <c r="H233" s="12"/>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A234" s="9" t="s">
         <v>284</v>
       </c>
@@ -4953,8 +5781,11 @@
       <c r="D234" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F234" s="12"/>
+      <c r="G234" s="12"/>
+      <c r="H234" s="12"/>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A235" s="9" t="s">
         <v>284</v>
       </c>
@@ -4965,8 +5796,11 @@
       <c r="D235" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F235" s="12"/>
+      <c r="G235" s="12"/>
+      <c r="H235" s="12"/>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A236" s="9" t="s">
         <v>284</v>
       </c>
@@ -4977,8 +5811,11 @@
       <c r="D236" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F236" s="12"/>
+      <c r="G236" s="12"/>
+      <c r="H236" s="12"/>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A237" s="9" t="s">
         <v>284</v>
       </c>
@@ -4989,8 +5826,11 @@
       <c r="D237" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F237" s="12"/>
+      <c r="G237" s="12"/>
+      <c r="H237" s="12"/>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A238" s="9" t="s">
         <v>284</v>
       </c>
@@ -5001,8 +5841,11 @@
       <c r="D238" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F238" s="12"/>
+      <c r="G238" s="12"/>
+      <c r="H238" s="12"/>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A239" s="9" t="s">
         <v>284</v>
       </c>
@@ -5013,8 +5856,11 @@
       <c r="D239" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F239" s="12"/>
+      <c r="G239" s="12"/>
+      <c r="H239" s="12"/>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A240" s="9" t="s">
         <v>284</v>
       </c>
@@ -5025,8 +5871,11 @@
       <c r="D240" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F240" s="12"/>
+      <c r="G240" s="12"/>
+      <c r="H240" s="12"/>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A241" s="9" t="s">
         <v>284</v>
       </c>
@@ -5037,8 +5886,11 @@
       <c r="D241" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F241" s="12"/>
+      <c r="G241" s="12"/>
+      <c r="H241" s="12"/>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A242" s="9" t="s">
         <v>284</v>
       </c>
@@ -5049,8 +5901,11 @@
       <c r="D242" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F242" s="12"/>
+      <c r="G242" s="12"/>
+      <c r="H242" s="12"/>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A243" s="9" t="s">
         <v>284</v>
       </c>
@@ -5061,8 +5916,11 @@
       <c r="D243" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F243" s="12"/>
+      <c r="G243" s="12"/>
+      <c r="H243" s="12"/>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A244" s="9" t="s">
         <v>284</v>
       </c>
@@ -5073,11 +5931,17 @@
       <c r="D244" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F244" s="12"/>
+      <c r="G244" s="12"/>
+      <c r="H244" s="12"/>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.4">
       <c r="D245" s="7"/>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F245" s="12"/>
+      <c r="G245" s="12"/>
+      <c r="H245" s="12"/>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A246" s="9" t="s">
         <v>170</v>
       </c>
@@ -5088,8 +5952,11 @@
       <c r="D246" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F246" s="12"/>
+      <c r="G246" s="12"/>
+      <c r="H246" s="12"/>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A247" s="9" t="s">
         <v>170</v>
       </c>
@@ -5100,8 +5967,11 @@
       <c r="D247" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F247" s="12"/>
+      <c r="G247" s="12"/>
+      <c r="H247" s="12"/>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A248" s="9" t="s">
         <v>170</v>
       </c>
@@ -5112,8 +5982,11 @@
       <c r="D248" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F248" s="12"/>
+      <c r="G248" s="12"/>
+      <c r="H248" s="12"/>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A249" s="9" t="s">
         <v>170</v>
       </c>
@@ -5124,8 +5997,11 @@
       <c r="D249" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F249" s="12"/>
+      <c r="G249" s="12"/>
+      <c r="H249" s="12"/>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A250" s="9" t="s">
         <v>170</v>
       </c>
@@ -5136,8 +6012,11 @@
       <c r="D250" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F250" s="12"/>
+      <c r="G250" s="12"/>
+      <c r="H250" s="12"/>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A251" s="9" t="s">
         <v>170</v>
       </c>
@@ -5148,8 +6027,11 @@
       <c r="D251" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F251" s="12"/>
+      <c r="G251" s="12"/>
+      <c r="H251" s="12"/>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A252" s="9" t="s">
         <v>170</v>
       </c>
@@ -5160,8 +6042,11 @@
       <c r="D252" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F252" s="12"/>
+      <c r="G252" s="12"/>
+      <c r="H252" s="12"/>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A253" s="9" t="s">
         <v>170</v>
       </c>
@@ -5172,8 +6057,11 @@
       <c r="D253" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F253" s="12"/>
+      <c r="G253" s="12"/>
+      <c r="H253" s="12"/>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A254" s="9" t="s">
         <v>170</v>
       </c>
@@ -5184,8 +6072,11 @@
       <c r="D254" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F254" s="12"/>
+      <c r="G254" s="12"/>
+      <c r="H254" s="12"/>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A255" s="9" t="s">
         <v>170</v>
       </c>
@@ -5196,8 +6087,11 @@
       <c r="D255" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F255" s="12"/>
+      <c r="G255" s="12"/>
+      <c r="H255" s="12"/>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A256" s="9" t="s">
         <v>170</v>
       </c>
@@ -5208,8 +6102,11 @@
       <c r="D256" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F256" s="12"/>
+      <c r="G256" s="12"/>
+      <c r="H256" s="12"/>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A257" s="9" t="s">
         <v>170</v>
       </c>
@@ -5220,8 +6117,11 @@
       <c r="D257" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F257" s="12"/>
+      <c r="G257" s="12"/>
+      <c r="H257" s="12"/>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A258" s="9" t="s">
         <v>170</v>
       </c>
@@ -5232,8 +6132,11 @@
       <c r="D258" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F258" s="12"/>
+      <c r="G258" s="12"/>
+      <c r="H258" s="12"/>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A259" s="9" t="s">
         <v>170</v>
       </c>
@@ -5244,8 +6147,11 @@
       <c r="D259" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F259" s="12"/>
+      <c r="G259" s="12"/>
+      <c r="H259" s="12"/>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A260" s="9" t="s">
         <v>170</v>
       </c>
@@ -5256,8 +6162,11 @@
       <c r="D260" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F260" s="12"/>
+      <c r="G260" s="12"/>
+      <c r="H260" s="12"/>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A261" s="9" t="s">
         <v>170</v>
       </c>
@@ -5268,8 +6177,11 @@
       <c r="D261" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F261" s="12"/>
+      <c r="G261" s="12"/>
+      <c r="H261" s="12"/>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A262" s="9" t="s">
         <v>170</v>
       </c>
@@ -5280,8 +6192,11 @@
       <c r="D262" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F262" s="12"/>
+      <c r="G262" s="12"/>
+      <c r="H262" s="12"/>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A263" s="9" t="s">
         <v>170</v>
       </c>
@@ -5292,8 +6207,11 @@
       <c r="D263" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F263" s="12"/>
+      <c r="G263" s="12"/>
+      <c r="H263" s="12"/>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A264" s="9" t="s">
         <v>170</v>
       </c>
@@ -5304,8 +6222,11 @@
       <c r="D264" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F264" s="12"/>
+      <c r="G264" s="12"/>
+      <c r="H264" s="12"/>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A265" s="9" t="s">
         <v>170</v>
       </c>
@@ -5316,8 +6237,11 @@
       <c r="D265" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F265" s="12"/>
+      <c r="G265" s="12"/>
+      <c r="H265" s="12"/>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A266" s="9" t="s">
         <v>170</v>
       </c>
@@ -5328,8 +6252,11 @@
       <c r="D266" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F266" s="12"/>
+      <c r="G266" s="12"/>
+      <c r="H266" s="12"/>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A267" s="9" t="s">
         <v>170</v>
       </c>
@@ -5340,8 +6267,11 @@
       <c r="D267" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F267" s="12"/>
+      <c r="G267" s="12"/>
+      <c r="H267" s="12"/>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A268" s="9" t="s">
         <v>170</v>
       </c>
@@ -5352,8 +6282,11 @@
       <c r="D268" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F268" s="12"/>
+      <c r="G268" s="12"/>
+      <c r="H268" s="12"/>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A269" s="9" t="s">
         <v>170</v>
       </c>
@@ -5364,8 +6297,11 @@
       <c r="D269" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F269" s="12"/>
+      <c r="G269" s="12"/>
+      <c r="H269" s="12"/>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A270" s="9" t="s">
         <v>170</v>
       </c>
@@ -5376,8 +6312,11 @@
       <c r="D270" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F270" s="12"/>
+      <c r="G270" s="12"/>
+      <c r="H270" s="12"/>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A271" s="9" t="s">
         <v>170</v>
       </c>
@@ -5388,8 +6327,11 @@
       <c r="D271" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F271" s="12"/>
+      <c r="G271" s="12"/>
+      <c r="H271" s="12"/>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A272" s="9" t="s">
         <v>170</v>
       </c>
@@ -5400,8 +6342,11 @@
       <c r="D272" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F272" s="12"/>
+      <c r="G272" s="12"/>
+      <c r="H272" s="12"/>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A273" s="9" t="s">
         <v>170</v>
       </c>
@@ -5412,8 +6357,11 @@
       <c r="D273" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F273" s="12"/>
+      <c r="G273" s="12"/>
+      <c r="H273" s="12"/>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A274" s="9" t="s">
         <v>170</v>
       </c>
@@ -5424,8 +6372,11 @@
       <c r="D274" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F274" s="12"/>
+      <c r="G274" s="12"/>
+      <c r="H274" s="12"/>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A275" s="9" t="s">
         <v>170</v>
       </c>
@@ -5436,8 +6387,11 @@
       <c r="D275" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F275" s="12"/>
+      <c r="G275" s="12"/>
+      <c r="H275" s="12"/>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A276" s="9" t="s">
         <v>170</v>
       </c>
@@ -5448,8 +6402,11 @@
       <c r="D276" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F276" s="12"/>
+      <c r="G276" s="12"/>
+      <c r="H276" s="12"/>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A277" s="9" t="s">
         <v>170</v>
       </c>
@@ -5460,8 +6417,11 @@
       <c r="D277" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F277" s="12"/>
+      <c r="G277" s="12"/>
+      <c r="H277" s="12"/>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A278" s="9" t="s">
         <v>170</v>
       </c>
@@ -5472,8 +6432,11 @@
       <c r="D278" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F278" s="12"/>
+      <c r="G278" s="12"/>
+      <c r="H278" s="12"/>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A279" s="9" t="s">
         <v>170</v>
       </c>
@@ -5484,8 +6447,11 @@
       <c r="D279" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F279" s="12"/>
+      <c r="G279" s="12"/>
+      <c r="H279" s="12"/>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A280" s="9" t="s">
         <v>170</v>
       </c>
@@ -5496,18 +6462,27 @@
       <c r="D280" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F280" s="12"/>
+      <c r="G280" s="12"/>
+      <c r="H280" s="12"/>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A281" s="7"/>
       <c r="B281" s="7"/>
       <c r="D281" s="7"/>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F281" s="12"/>
+      <c r="G281" s="12"/>
+      <c r="H281" s="12"/>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A282" s="7"/>
       <c r="B282" s="7"/>
       <c r="D282" s="7"/>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F282" s="12"/>
+      <c r="G282" s="12"/>
+      <c r="H282" s="12"/>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A283" s="9" t="s">
         <v>206</v>
       </c>
@@ -5518,8 +6493,11 @@
       <c r="D283" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F283" s="12"/>
+      <c r="G283" s="12"/>
+      <c r="H283" s="12"/>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A284" s="9" t="s">
         <v>206</v>
       </c>
@@ -5530,8 +6508,11 @@
       <c r="D284" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F284" s="12"/>
+      <c r="G284" s="12"/>
+      <c r="H284" s="12"/>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A285" s="9" t="s">
         <v>206</v>
       </c>
@@ -5542,8 +6523,11 @@
       <c r="D285" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F285" s="12"/>
+      <c r="G285" s="12"/>
+      <c r="H285" s="12"/>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A286" s="9" t="s">
         <v>206</v>
       </c>
@@ -5554,8 +6538,11 @@
       <c r="D286" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F286" s="12"/>
+      <c r="G286" s="12"/>
+      <c r="H286" s="12"/>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A287" s="9" t="s">
         <v>206</v>
       </c>
@@ -5566,8 +6553,11 @@
       <c r="D287" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F287" s="12"/>
+      <c r="G287" s="12"/>
+      <c r="H287" s="12"/>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A288" s="9" t="s">
         <v>206</v>
       </c>
@@ -5578,8 +6568,11 @@
       <c r="D288" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F288" s="12"/>
+      <c r="G288" s="12"/>
+      <c r="H288" s="12"/>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A289" s="9" t="s">
         <v>206</v>
       </c>
@@ -5590,8 +6583,11 @@
       <c r="D289" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F289" s="12"/>
+      <c r="G289" s="12"/>
+      <c r="H289" s="12"/>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A290" s="9" t="s">
         <v>206</v>
       </c>
@@ -5602,8 +6598,11 @@
       <c r="D290" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F290" s="12"/>
+      <c r="G290" s="12"/>
+      <c r="H290" s="12"/>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A291" s="9" t="s">
         <v>206</v>
       </c>
@@ -5614,8 +6613,11 @@
       <c r="D291" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F291" s="12"/>
+      <c r="G291" s="12"/>
+      <c r="H291" s="12"/>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A292" s="9" t="s">
         <v>206</v>
       </c>
@@ -5626,8 +6628,11 @@
       <c r="D292" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F292" s="12"/>
+      <c r="G292" s="12"/>
+      <c r="H292" s="12"/>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A293" s="9" t="s">
         <v>206</v>
       </c>
@@ -5638,8 +6643,11 @@
       <c r="D293" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F293" s="12"/>
+      <c r="G293" s="12"/>
+      <c r="H293" s="12"/>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A294" s="9" t="s">
         <v>206</v>
       </c>
@@ -5650,8 +6658,11 @@
       <c r="D294" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F294" s="12"/>
+      <c r="G294" s="12"/>
+      <c r="H294" s="12"/>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A295" s="9" t="s">
         <v>206</v>
       </c>
@@ -5662,8 +6673,11 @@
       <c r="D295" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F295" s="12"/>
+      <c r="G295" s="12"/>
+      <c r="H295" s="12"/>
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A296" s="9" t="s">
         <v>206</v>
       </c>
@@ -5674,8 +6688,11 @@
       <c r="D296" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F296" s="12"/>
+      <c r="G296" s="12"/>
+      <c r="H296" s="12"/>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A297" s="9" t="s">
         <v>206</v>
       </c>
@@ -5686,8 +6703,11 @@
       <c r="D297" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F297" s="12"/>
+      <c r="G297" s="12"/>
+      <c r="H297" s="12"/>
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A298" s="9" t="s">
         <v>206</v>
       </c>
@@ -5698,8 +6718,11 @@
       <c r="D298" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F298" s="12"/>
+      <c r="G298" s="12"/>
+      <c r="H298" s="12"/>
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A299" s="9" t="s">
         <v>206</v>
       </c>
@@ -5710,8 +6733,11 @@
       <c r="D299" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F299" s="12"/>
+      <c r="G299" s="12"/>
+      <c r="H299" s="12"/>
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A300" s="9" t="s">
         <v>206</v>
       </c>
@@ -5722,8 +6748,11 @@
       <c r="D300" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F300" s="12"/>
+      <c r="G300" s="12"/>
+      <c r="H300" s="12"/>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A301" s="9" t="s">
         <v>206</v>
       </c>
@@ -5734,8 +6763,11 @@
       <c r="D301" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F301" s="12"/>
+      <c r="G301" s="12"/>
+      <c r="H301" s="12"/>
+    </row>
+    <row r="302" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A302" s="9" t="s">
         <v>206</v>
       </c>
@@ -5746,8 +6778,11 @@
       <c r="D302" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F302" s="12"/>
+      <c r="G302" s="12"/>
+      <c r="H302" s="12"/>
+    </row>
+    <row r="303" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A303" s="9" t="s">
         <v>206</v>
       </c>
@@ -5758,8 +6793,11 @@
       <c r="D303" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F303" s="12"/>
+      <c r="G303" s="12"/>
+      <c r="H303" s="12"/>
+    </row>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A304" s="9" t="s">
         <v>206</v>
       </c>
@@ -5770,11 +6808,17 @@
       <c r="D304" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F304" s="12"/>
+      <c r="G304" s="12"/>
+      <c r="H304" s="12"/>
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.4">
       <c r="D305" s="7"/>
-    </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F305" s="12"/>
+      <c r="G305" s="12"/>
+      <c r="H305" s="12"/>
+    </row>
+    <row r="306" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A306" s="7" t="s">
         <v>323</v>
       </c>
@@ -5785,8 +6829,11 @@
       <c r="D306" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F306" s="12"/>
+      <c r="G306" s="12"/>
+      <c r="H306" s="12"/>
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A307" s="7" t="s">
         <v>323</v>
       </c>
@@ -5797,8 +6844,11 @@
       <c r="D307" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F307" s="12"/>
+      <c r="G307" s="12"/>
+      <c r="H307" s="12"/>
+    </row>
+    <row r="308" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A308" s="7" t="s">
         <v>323</v>
       </c>
@@ -5809,8 +6859,11 @@
       <c r="D308" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F308" s="12"/>
+      <c r="G308" s="12"/>
+      <c r="H308" s="12"/>
+    </row>
+    <row r="309" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A309" s="7" t="s">
         <v>323</v>
       </c>
@@ -5821,8 +6874,11 @@
       <c r="D309" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F309" s="12"/>
+      <c r="G309" s="12"/>
+      <c r="H309" s="12"/>
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A310" s="7" t="s">
         <v>323</v>
       </c>
@@ -5833,8 +6889,11 @@
       <c r="D310" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F310" s="12"/>
+      <c r="G310" s="12"/>
+      <c r="H310" s="12"/>
+    </row>
+    <row r="311" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A311" s="7" t="s">
         <v>323</v>
       </c>
@@ -5845,8 +6904,11 @@
       <c r="D311" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F311" s="12"/>
+      <c r="G311" s="12"/>
+      <c r="H311" s="12"/>
+    </row>
+    <row r="312" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A312" s="7" t="s">
         <v>323</v>
       </c>
@@ -5857,8 +6919,11 @@
       <c r="D312" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F312" s="12"/>
+      <c r="G312" s="12"/>
+      <c r="H312" s="12"/>
+    </row>
+    <row r="313" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A313" s="7" t="s">
         <v>323</v>
       </c>
@@ -5869,8 +6934,11 @@
       <c r="D313" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F313" s="12"/>
+      <c r="G313" s="12"/>
+      <c r="H313" s="12"/>
+    </row>
+    <row r="314" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A314" s="7" t="s">
         <v>323</v>
       </c>
@@ -5881,8 +6949,11 @@
       <c r="D314" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F314" s="12"/>
+      <c r="G314" s="12"/>
+      <c r="H314" s="12"/>
+    </row>
+    <row r="315" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A315" s="7" t="s">
         <v>323</v>
       </c>
@@ -5893,8 +6964,11 @@
       <c r="D315" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F315" s="12"/>
+      <c r="G315" s="12"/>
+      <c r="H315" s="12"/>
+    </row>
+    <row r="316" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A316" s="7" t="s">
         <v>323</v>
       </c>
@@ -5905,8 +6979,11 @@
       <c r="D316" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F316" s="12"/>
+      <c r="G316" s="12"/>
+      <c r="H316" s="12"/>
+    </row>
+    <row r="317" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A317" s="7" t="s">
         <v>323</v>
       </c>
@@ -5917,8 +6994,11 @@
       <c r="D317" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F317" s="12"/>
+      <c r="G317" s="12"/>
+      <c r="H317" s="12"/>
+    </row>
+    <row r="318" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A318" s="7" t="s">
         <v>323</v>
       </c>
@@ -5929,8 +7009,11 @@
       <c r="D318" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F318" s="12"/>
+      <c r="G318" s="12"/>
+      <c r="H318" s="12"/>
+    </row>
+    <row r="319" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A319" s="7" t="s">
         <v>323</v>
       </c>
@@ -5941,8 +7024,11 @@
       <c r="D319" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F319" s="12"/>
+      <c r="G319" s="12"/>
+      <c r="H319" s="12"/>
+    </row>
+    <row r="320" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A320" s="7" t="s">
         <v>323</v>
       </c>
@@ -5953,8 +7039,11 @@
       <c r="D320" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F320" s="12"/>
+      <c r="G320" s="12"/>
+      <c r="H320" s="12"/>
+    </row>
+    <row r="321" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A321" s="7" t="s">
         <v>323</v>
       </c>
@@ -5965,8 +7054,11 @@
       <c r="D321" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F321" s="12"/>
+      <c r="G321" s="12"/>
+      <c r="H321" s="12"/>
+    </row>
+    <row r="322" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A322" s="7" t="s">
         <v>323</v>
       </c>
@@ -5977,8 +7069,11 @@
       <c r="D322" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F322" s="12"/>
+      <c r="G322" s="12"/>
+      <c r="H322" s="12"/>
+    </row>
+    <row r="323" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A323" s="7" t="s">
         <v>323</v>
       </c>
@@ -5989,14 +7084,20 @@
       <c r="D323" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F323" s="12"/>
+      <c r="G323" s="12"/>
+      <c r="H323" s="12"/>
+    </row>
+    <row r="324" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A324" s="12"/>
       <c r="B324" s="12"/>
       <c r="C324" s="10"/>
       <c r="D324" s="12"/>
-    </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F324" s="12"/>
+      <c r="G324" s="12"/>
+      <c r="H324" s="12"/>
+    </row>
+    <row r="325" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A325" s="7" t="s">
         <v>342</v>
       </c>
@@ -6007,8 +7108,11 @@
       <c r="D325" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F325" s="12"/>
+      <c r="G325" s="12"/>
+      <c r="H325" s="12"/>
+    </row>
+    <row r="326" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A326" s="7" t="s">
         <v>342</v>
       </c>
@@ -6019,8 +7123,11 @@
       <c r="D326" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F326" s="12"/>
+      <c r="G326" s="12"/>
+      <c r="H326" s="12"/>
+    </row>
+    <row r="327" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A327" s="7" t="s">
         <v>342</v>
       </c>
@@ -6031,8 +7138,11 @@
       <c r="D327" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F327" s="12"/>
+      <c r="G327" s="12"/>
+      <c r="H327" s="12"/>
+    </row>
+    <row r="328" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A328" s="7" t="s">
         <v>342</v>
       </c>
@@ -6043,8 +7153,11 @@
       <c r="D328" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F328" s="12"/>
+      <c r="G328" s="12"/>
+      <c r="H328" s="12"/>
+    </row>
+    <row r="329" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A329" s="7" t="s">
         <v>342</v>
       </c>
@@ -6055,8 +7168,11 @@
       <c r="D329" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F329" s="12"/>
+      <c r="G329" s="12"/>
+      <c r="H329" s="12"/>
+    </row>
+    <row r="330" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A330" s="7" t="s">
         <v>342</v>
       </c>
@@ -6067,8 +7183,11 @@
       <c r="D330" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F330" s="12"/>
+      <c r="G330" s="12"/>
+      <c r="H330" s="12"/>
+    </row>
+    <row r="331" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A331" s="7" t="s">
         <v>342</v>
       </c>
@@ -6079,8 +7198,11 @@
       <c r="D331" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F331" s="12"/>
+      <c r="G331" s="12"/>
+      <c r="H331" s="12"/>
+    </row>
+    <row r="332" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A332" s="7" t="s">
         <v>342</v>
       </c>
@@ -6091,8 +7213,11 @@
       <c r="D332" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F332" s="12"/>
+      <c r="G332" s="12"/>
+      <c r="H332" s="12"/>
+    </row>
+    <row r="333" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A333" s="7" t="s">
         <v>342</v>
       </c>
@@ -6103,8 +7228,11 @@
       <c r="D333" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F333" s="12"/>
+      <c r="G333" s="12"/>
+      <c r="H333" s="12"/>
+    </row>
+    <row r="334" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A334" s="7" t="s">
         <v>342</v>
       </c>
@@ -6115,8 +7243,11 @@
       <c r="D334" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F334" s="12"/>
+      <c r="G334" s="12"/>
+      <c r="H334" s="12"/>
+    </row>
+    <row r="335" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A335" s="7" t="s">
         <v>342</v>
       </c>
@@ -6127,8 +7258,11 @@
       <c r="D335" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F335" s="12"/>
+      <c r="G335" s="12"/>
+      <c r="H335" s="12"/>
+    </row>
+    <row r="336" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A336" s="7" t="s">
         <v>342</v>
       </c>
@@ -6139,8 +7273,11 @@
       <c r="D336" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F336" s="12"/>
+      <c r="G336" s="12"/>
+      <c r="H336" s="12"/>
+    </row>
+    <row r="337" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A337" s="7" t="s">
         <v>342</v>
       </c>
@@ -6151,8 +7288,11 @@
       <c r="D337" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F337" s="12"/>
+      <c r="G337" s="12"/>
+      <c r="H337" s="12"/>
+    </row>
+    <row r="338" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A338" s="7" t="s">
         <v>342</v>
       </c>
@@ -6163,8 +7303,11 @@
       <c r="D338" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F338" s="12"/>
+      <c r="G338" s="12"/>
+      <c r="H338" s="12"/>
+    </row>
+    <row r="339" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A339" s="7" t="s">
         <v>342</v>
       </c>
@@ -6175,8 +7318,11 @@
       <c r="D339" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F339" s="12"/>
+      <c r="G339" s="12"/>
+      <c r="H339" s="12"/>
+    </row>
+    <row r="340" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A340" s="7" t="s">
         <v>342</v>
       </c>
@@ -6187,8 +7333,11 @@
       <c r="D340" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F340" s="12"/>
+      <c r="G340" s="12"/>
+      <c r="H340" s="12"/>
+    </row>
+    <row r="341" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A341" s="7" t="s">
         <v>342</v>
       </c>
@@ -6199,8 +7348,11 @@
       <c r="D341" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F341" s="12"/>
+      <c r="G341" s="12"/>
+      <c r="H341" s="12"/>
+    </row>
+    <row r="342" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A342" s="7" t="s">
         <v>342</v>
       </c>
@@ -6211,8 +7363,11 @@
       <c r="D342" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F342" s="12"/>
+      <c r="G342" s="12"/>
+      <c r="H342" s="12"/>
+    </row>
+    <row r="343" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A343" s="7" t="s">
         <v>342</v>
       </c>
@@ -6223,8 +7378,11 @@
       <c r="D343" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F343" s="12"/>
+      <c r="G343" s="12"/>
+      <c r="H343" s="12"/>
+    </row>
+    <row r="344" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A344" s="7" t="s">
         <v>342</v>
       </c>
@@ -6235,8 +7393,11 @@
       <c r="D344" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F344" s="12"/>
+      <c r="G344" s="12"/>
+      <c r="H344" s="12"/>
+    </row>
+    <row r="345" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A345" s="7" t="s">
         <v>342</v>
       </c>
@@ -6247,8 +7408,11 @@
       <c r="D345" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F345" s="12"/>
+      <c r="G345" s="12"/>
+      <c r="H345" s="12"/>
+    </row>
+    <row r="346" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A346" s="7" t="s">
         <v>342</v>
       </c>
@@ -6259,8 +7423,11 @@
       <c r="D346" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F346" s="12"/>
+      <c r="G346" s="12"/>
+      <c r="H346" s="12"/>
+    </row>
+    <row r="347" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A347" s="7" t="s">
         <v>342</v>
       </c>
@@ -6271,8 +7438,11 @@
       <c r="D347" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F347" s="12"/>
+      <c r="G347" s="12"/>
+      <c r="H347" s="12"/>
+    </row>
+    <row r="348" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A348" s="7" t="s">
         <v>342</v>
       </c>
@@ -6283,8 +7453,11 @@
       <c r="D348" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F348" s="12"/>
+      <c r="G348" s="12"/>
+      <c r="H348" s="12"/>
+    </row>
+    <row r="349" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A349" s="7" t="s">
         <v>342</v>
       </c>
@@ -6295,8 +7468,11 @@
       <c r="D349" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F349" s="12"/>
+      <c r="G349" s="12"/>
+      <c r="H349" s="12"/>
+    </row>
+    <row r="350" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A350" s="7" t="s">
         <v>342</v>
       </c>
@@ -6307,8 +7483,11 @@
       <c r="D350" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F350" s="12"/>
+      <c r="G350" s="12"/>
+      <c r="H350" s="12"/>
+    </row>
+    <row r="351" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A351" s="7" t="s">
         <v>342</v>
       </c>
@@ -6319,8 +7498,11 @@
       <c r="D351" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F351" s="12"/>
+      <c r="G351" s="12"/>
+      <c r="H351" s="12"/>
+    </row>
+    <row r="352" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A352" s="7" t="s">
         <v>342</v>
       </c>
@@ -6331,8 +7513,11 @@
       <c r="D352" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F352" s="12"/>
+      <c r="G352" s="12"/>
+      <c r="H352" s="12"/>
+    </row>
+    <row r="353" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A353" s="7" t="s">
         <v>342</v>
       </c>
@@ -6343,8 +7528,11 @@
       <c r="D353" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F353" s="12"/>
+      <c r="G353" s="12"/>
+      <c r="H353" s="12"/>
+    </row>
+    <row r="354" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A354" s="7" t="s">
         <v>342</v>
       </c>
@@ -6355,8 +7543,11 @@
       <c r="D354" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F354" s="12"/>
+      <c r="G354" s="12"/>
+      <c r="H354" s="12"/>
+    </row>
+    <row r="355" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A355" s="7" t="s">
         <v>342</v>
       </c>
@@ -6367,8 +7558,11 @@
       <c r="D355" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F355" s="12"/>
+      <c r="G355" s="12"/>
+      <c r="H355" s="12"/>
+    </row>
+    <row r="356" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A356" s="7" t="s">
         <v>342</v>
       </c>
@@ -6379,8 +7573,11 @@
       <c r="D356" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F356" s="12"/>
+      <c r="G356" s="12"/>
+      <c r="H356" s="12"/>
+    </row>
+    <row r="357" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A357" s="7" t="s">
         <v>342</v>
       </c>
@@ -6391,8 +7588,11 @@
       <c r="D357" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F357" s="12"/>
+      <c r="G357" s="12"/>
+      <c r="H357" s="12"/>
+    </row>
+    <row r="358" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A358" s="7" t="s">
         <v>342</v>
       </c>
@@ -6403,8 +7603,11 @@
       <c r="D358" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F358" s="12"/>
+      <c r="G358" s="12"/>
+      <c r="H358" s="12"/>
+    </row>
+    <row r="359" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A359" s="7" t="s">
         <v>342</v>
       </c>
@@ -6415,8 +7618,11 @@
       <c r="D359" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F359" s="12"/>
+      <c r="G359" s="12"/>
+      <c r="H359" s="12"/>
+    </row>
+    <row r="360" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A360" s="7" t="s">
         <v>342</v>
       </c>
@@ -6427,8 +7633,11 @@
       <c r="D360" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F360" s="12"/>
+      <c r="G360" s="12"/>
+      <c r="H360" s="12"/>
+    </row>
+    <row r="361" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A361" s="7" t="s">
         <v>342</v>
       </c>
@@ -6439,8 +7648,11 @@
       <c r="D361" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F361" s="12"/>
+      <c r="G361" s="12"/>
+      <c r="H361" s="12"/>
+    </row>
+    <row r="362" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A362" s="7" t="s">
         <v>342</v>
       </c>
@@ -6451,8 +7663,11 @@
       <c r="D362" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F362" s="12"/>
+      <c r="G362" s="12"/>
+      <c r="H362" s="12"/>
+    </row>
+    <row r="363" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A363" s="7" t="s">
         <v>342</v>
       </c>
@@ -6463,8 +7678,11 @@
       <c r="D363" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F363" s="12"/>
+      <c r="G363" s="12"/>
+      <c r="H363" s="12"/>
+    </row>
+    <row r="364" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A364" s="7" t="s">
         <v>342</v>
       </c>
@@ -6476,7 +7694,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A365" s="7" t="s">
         <v>342</v>
       </c>
@@ -6488,7 +7706,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A366" s="7" t="s">
         <v>342</v>
       </c>
@@ -6500,7 +7718,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A367" s="7" t="s">
         <v>342</v>
       </c>
@@ -6512,7 +7730,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A368" s="7" t="s">
         <v>342</v>
       </c>
@@ -8477,11 +9695,11 @@
     <hyperlink ref="C75" r:id="rId461" xr:uid="{3F82F2E0-AA59-5042-B079-F3B3C6FF2FD7}"/>
     <hyperlink ref="C74" r:id="rId462" xr:uid="{0A0557FD-77E5-564B-B100-147D544A38B4}"/>
     <hyperlink ref="C73" r:id="rId463" xr:uid="{090EC515-BEBE-514E-BA59-A84E450B4211}"/>
-    <hyperlink ref="H29" r:id="rId464" xr:uid="{03443138-A680-4B72-A76F-ED2F3C418FFF}"/>
-    <hyperlink ref="H32" r:id="rId465" xr:uid="{E2846214-1318-4E7F-B406-DB8B8C109F51}"/>
-    <hyperlink ref="H33" r:id="rId466" xr:uid="{654A45B7-1C43-48E0-B7BB-03647CB459F1}"/>
-    <hyperlink ref="H35" r:id="rId467" xr:uid="{BDF59F61-A334-4583-8D5C-080958A57655}"/>
-    <hyperlink ref="H36" r:id="rId468" xr:uid="{69563388-281D-4E78-9CB7-84F164525B40}"/>
+    <hyperlink ref="K29" r:id="rId464" xr:uid="{03443138-A680-4B72-A76F-ED2F3C418FFF}"/>
+    <hyperlink ref="K32" r:id="rId465" xr:uid="{E2846214-1318-4E7F-B406-DB8B8C109F51}"/>
+    <hyperlink ref="K33" r:id="rId466" xr:uid="{654A45B7-1C43-48E0-B7BB-03647CB459F1}"/>
+    <hyperlink ref="K35" r:id="rId467" xr:uid="{BDF59F61-A334-4583-8D5C-080958A57655}"/>
+    <hyperlink ref="K36" r:id="rId468" xr:uid="{69563388-281D-4E78-9CB7-84F164525B40}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId469"/>

--- a/DSA Sheet.xlsx
+++ b/DSA Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Java\Java-DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{216AA6A2-5BB1-40B7-BA2F-F816E0CA9D1F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E32FA80-56C8-4356-B219-F6DCE00FF184}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22140" windowHeight="13176" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1489" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1491" uniqueCount="536">
   <si>
     <t>Topic:</t>
   </si>
@@ -1627,6 +1627,12 @@
   </si>
   <si>
     <t>🗸</t>
+  </si>
+  <si>
+    <t>MNJ1ARR</t>
+  </si>
+  <si>
+    <t>VERY HARD</t>
   </si>
 </sst>
 </file>
@@ -2182,8 +2188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:K503"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="B22" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
@@ -2770,7 +2776,9 @@
       <c r="A33" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="9"/>
+      <c r="B33" s="9" t="s">
+        <v>534</v>
+      </c>
       <c r="C33" s="10" t="s">
         <v>14</v>
       </c>
@@ -2782,7 +2790,9 @@
       </c>
       <c r="F33" s="22"/>
       <c r="G33" s="20"/>
-      <c r="H33" s="21"/>
+      <c r="H33" s="24" t="s">
+        <v>535</v>
+      </c>
       <c r="I33" s="5" t="s">
         <v>522</v>
       </c>
@@ -2807,7 +2817,7 @@
         <v>465</v>
       </c>
       <c r="F34" s="19" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="G34" s="20"/>
       <c r="H34" s="21"/>
@@ -2830,7 +2840,7 @@
       </c>
       <c r="F35" s="22"/>
       <c r="G35" s="23" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="H35" s="21"/>
       <c r="K35" s="10" t="s">
@@ -2856,7 +2866,7 @@
       <c r="F36" s="22"/>
       <c r="G36" s="20"/>
       <c r="H36" s="24" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I36" s="5" t="s">
         <v>528</v>
@@ -2883,7 +2893,7 @@
       </c>
       <c r="F37" s="22"/>
       <c r="G37" s="23" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="H37" s="21"/>
     </row>

--- a/DSA Sheet.xlsx
+++ b/DSA Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Java\Java-DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E32FA80-56C8-4356-B219-F6DCE00FF184}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD91467-27D4-4CB9-BC0A-2E86495F1432}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22140" windowHeight="13176" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1491" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1499" uniqueCount="527">
   <si>
     <t>Topic:</t>
   </si>
@@ -1521,15 +1521,6 @@
     <t>PAPN0MATH</t>
   </si>
   <si>
-    <t>Remarks</t>
-  </si>
-  <si>
-    <t>Sieve Of Erasthothenus</t>
-  </si>
-  <si>
-    <t>Eucledian Algorithm</t>
-  </si>
-  <si>
     <t>Find second largest element in array</t>
   </si>
   <si>
@@ -1575,45 +1566,21 @@
     <t>Frequency of all elements in an sorted array</t>
   </si>
   <si>
-    <t>Important</t>
-  </si>
-  <si>
-    <t>Good Question</t>
-  </si>
-  <si>
     <t>PARTIALLY YES</t>
   </si>
   <si>
     <t>Link To Answer</t>
   </si>
   <si>
-    <t>Simple Question</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It's usage is Kadan's Algorithm </t>
-  </si>
-  <si>
-    <t>Vey Important</t>
-  </si>
-  <si>
     <t>Answer Link</t>
   </si>
   <si>
-    <t>Very Important</t>
-  </si>
-  <si>
-    <t>I left out that portion where we need to preserve t